--- a/chronogram.xlsx
+++ b/chronogram.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -26,18 +26,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFA500"/>
-        <bgColor rgb="00FFA500"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -52,9 +46,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -420,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,36 +422,156 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n"/>
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="B2" s="1" t="n"/>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="C3" s="1" t="n"/>
-      <c r="D3" s="1" t="n"/>
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="D4" s="1" t="n"/>
-      <c r="E4" s="1" t="n"/>
-    </row>
-    <row r="5">
-      <c r="E5" s="1" t="n"/>
-    </row>
-    <row r="6">
-      <c r="E6" s="1" t="n"/>
-      <c r="F6" s="1" t="n"/>
-    </row>
-    <row r="7">
-      <c r="F7" s="1" t="n"/>
-      <c r="G7" s="1" t="n"/>
-    </row>
-    <row r="8">
-      <c r="G8" s="1" t="n"/>
-      <c r="H8" s="1" t="n"/>
-      <c r="I8" s="1" t="n"/>
-      <c r="J8" s="1" t="n"/>
-      <c r="K8" s="1" t="n"/>
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/chronogram.xlsx
+++ b/chronogram.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,13 +25,34 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color rgb="00FFFFFF"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000070c0"/>
+        <bgColor rgb="000070c0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000070C0"/>
+        <bgColor rgb="000070C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFA500"/>
+        <bgColor rgb="00FFA500"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,8 +67,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,167 +441,103 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="B1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr"/>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>_</t>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>2023</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>_</t>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Week 1</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Week 2</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Week 3</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Week 4</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Week 5</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Week 6</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Week 7</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>Week 8</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>Week 9</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
+      <c r="B3" s="3" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="C4" s="3" t="n"/>
+    </row>
+    <row r="5">
+      <c r="D5" s="3" t="n"/>
+    </row>
+    <row r="6">
+      <c r="E6" s="3" t="n"/>
+    </row>
+    <row r="7">
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
+      <c r="H7" s="3" t="n"/>
+    </row>
+    <row r="8">
+      <c r="I8" s="3" t="n"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:J1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/chronogram.xlsx
+++ b/chronogram.xlsx
@@ -17,13 +17,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
     </font>
     <font>
       <color rgb="00FFFFFF"/>
@@ -38,14 +42,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="000070c0"/>
-        <bgColor rgb="000070c0"/>
+        <fgColor rgb="000070C0"/>
+        <bgColor rgb="000070C0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="000070C0"/>
-        <bgColor rgb="000070C0"/>
+        <fgColor rgb="000070c0"/>
+        <bgColor rgb="000070c0"/>
       </patternFill>
     </fill>
     <fill>
@@ -67,12 +71,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -441,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:J8"/>
+  <dimension ref="B1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,94 +459,118 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
     <col width="15" customWidth="1" min="8" max="8"/>
     <col width="15" customWidth="1" min="9" max="9"/>
     <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>Tasks</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>2024</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="B2" s="2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Month 1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Month 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>Week 1</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t>Week 2</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="H3" s="4" t="inlineStr">
         <is>
           <t>Week 3</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="I3" s="4" t="inlineStr">
         <is>
           <t>Week 4</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="J3" s="4" t="inlineStr">
         <is>
           <t>Week 5</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="K3" s="4" t="inlineStr">
         <is>
           <t>Week 6</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="L3" s="4" t="inlineStr">
         <is>
           <t>Week 7</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>Week 8</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>Week 9</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="3" t="n"/>
     </row>
     <row r="4">
-      <c r="C4" s="3" t="n"/>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5" t="n"/>
     </row>
     <row r="5">
-      <c r="D5" s="3" t="n"/>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5" t="n"/>
     </row>
     <row r="6">
-      <c r="E6" s="3" t="n"/>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" s="5" t="n"/>
     </row>
     <row r="7">
-      <c r="F7" s="3" t="n"/>
-      <c r="G7" s="3" t="n"/>
-      <c r="H7" s="3" t="n"/>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" s="5" t="n"/>
     </row>
     <row r="8">
-      <c r="I8" s="3" t="n"/>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" s="5" t="n"/>
+    </row>
+    <row r="9">
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="K9" s="5" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:J1"/>
+  <mergeCells count="4">
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="B1:B3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/chronogram.xlsx
+++ b/chronogram.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:L9"/>
+  <dimension ref="B1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,9 @@
     <col width="15" customWidth="1" min="10" max="10"/>
     <col width="15" customWidth="1" min="11" max="11"/>
     <col width="15" customWidth="1" min="12" max="12"/>
+    <col width="15" customWidth="1" min="13" max="13"/>
+    <col width="15" customWidth="1" min="14" max="14"/>
+    <col width="15" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -474,9 +477,19 @@
           <t>Tasks</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Start Date</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>End Date</t>
+        </is>
+      </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2022</t>
         </is>
       </c>
     </row>
@@ -491,6 +504,11 @@
           <t>Month 2</t>
         </is>
       </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Month 3</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="F3" s="4" t="inlineStr">
@@ -526,6 +544,21 @@
       <c r="L3" s="4" t="inlineStr">
         <is>
           <t>Week 7</t>
+        </is>
+      </c>
+      <c r="M3" s="4" t="inlineStr">
+        <is>
+          <t>Week 8</t>
+        </is>
+      </c>
+      <c r="N3" s="4" t="inlineStr">
+        <is>
+          <t>Week 9</t>
+        </is>
+      </c>
+      <c r="O3" s="4" t="inlineStr">
+        <is>
+          <t>Week 10</t>
         </is>
       </c>
     </row>
@@ -563,14 +596,37 @@
       <c r="B9" t="n">
         <v>6</v>
       </c>
+      <c r="J9" s="5" t="n"/>
       <c r="K9" s="5" t="n"/>
     </row>
+    <row r="10">
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="L10" s="5" t="n"/>
+      <c r="M10" s="5" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="M11" s="5" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" t="n">
+        <v>9</v>
+      </c>
+      <c r="N12" s="5" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="F1:O1"/>
     <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/chronogram.xlsx
+++ b/chronogram.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:O12"/>
+  <dimension ref="B1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,11 +464,6 @@
     <col width="15" customWidth="1" min="8" max="8"/>
     <col width="15" customWidth="1" min="9" max="9"/>
     <col width="15" customWidth="1" min="10" max="10"/>
-    <col width="15" customWidth="1" min="11" max="11"/>
-    <col width="15" customWidth="1" min="12" max="12"/>
-    <col width="15" customWidth="1" min="13" max="13"/>
-    <col width="15" customWidth="1" min="14" max="14"/>
-    <col width="15" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -477,6 +472,11 @@
           <t>Tasks</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Start Date</t>
@@ -489,82 +489,67 @@
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2024</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Month 1</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Month 2</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Month 3</t>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>January</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>Week 1</t>
+          <t>26/Dec - 01/Jan</t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t>Week 2</t>
+          <t>02/Jan - 08/Jan</t>
         </is>
       </c>
       <c r="H3" s="4" t="inlineStr">
         <is>
-          <t>Week 3</t>
+          <t>09/Jan - 15/Jan</t>
         </is>
       </c>
       <c r="I3" s="4" t="inlineStr">
         <is>
-          <t>Week 4</t>
+          <t>16/Jan - 22/Jan</t>
         </is>
       </c>
       <c r="J3" s="4" t="inlineStr">
         <is>
-          <t>Week 5</t>
-        </is>
-      </c>
-      <c r="K3" s="4" t="inlineStr">
-        <is>
-          <t>Week 6</t>
-        </is>
-      </c>
-      <c r="L3" s="4" t="inlineStr">
-        <is>
-          <t>Week 7</t>
-        </is>
-      </c>
-      <c r="M3" s="4" t="inlineStr">
-        <is>
-          <t>Week 8</t>
-        </is>
-      </c>
-      <c r="N3" s="4" t="inlineStr">
-        <is>
-          <t>Week 9</t>
-        </is>
-      </c>
-      <c r="O3" s="4" t="inlineStr">
-        <is>
-          <t>Week 10</t>
+          <t>23/Jan - 29/Jan</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="n">
         <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>demo</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12/26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>01/01</t>
+        </is>
       </c>
       <c r="F4" s="5" t="n"/>
     </row>
@@ -572,60 +557,63 @@
       <c r="B5" t="n">
         <v>2</v>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>init</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>01/02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>01/08</t>
+        </is>
+      </c>
       <c r="G5" s="5" t="n"/>
     </row>
     <row r="6">
       <c r="B6" t="n">
         <v>3</v>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>01/09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>01/15</t>
+        </is>
+      </c>
       <c r="H6" s="5" t="n"/>
     </row>
     <row r="7">
       <c r="B7" t="n">
         <v>4</v>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>01/16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>01/22</t>
+        </is>
+      </c>
       <c r="I7" s="5" t="n"/>
-    </row>
-    <row r="8">
-      <c r="B8" t="n">
-        <v>5</v>
-      </c>
-      <c r="J8" s="5" t="n"/>
-    </row>
-    <row r="9">
-      <c r="B9" t="n">
-        <v>6</v>
-      </c>
-      <c r="J9" s="5" t="n"/>
-      <c r="K9" s="5" t="n"/>
-    </row>
-    <row r="10">
-      <c r="B10" t="n">
-        <v>7</v>
-      </c>
-      <c r="L10" s="5" t="n"/>
-      <c r="M10" s="5" t="n"/>
-    </row>
-    <row r="11">
-      <c r="B11" t="n">
-        <v>8</v>
-      </c>
-      <c r="M11" s="5" t="n"/>
-    </row>
-    <row r="12">
-      <c r="B12" t="n">
-        <v>9</v>
-      </c>
-      <c r="N12" s="5" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="F1:O1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="F1:J1"/>
     <mergeCell ref="E1:E3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/chronogram.xlsx
+++ b/chronogram.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:J7"/>
+  <dimension ref="B1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,8 +462,6 @@
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
     <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="15" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -496,39 +494,24 @@
     <row r="2">
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>December</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>January</t>
+          <t>Month 1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>26/Dec - 01/Jan</t>
+          <t>Week 1</t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t>02/Jan - 08/Jan</t>
+          <t>Week 2</t>
         </is>
       </c>
       <c r="H3" s="4" t="inlineStr">
         <is>
-          <t>09/Jan - 15/Jan</t>
-        </is>
-      </c>
-      <c r="I3" s="4" t="inlineStr">
-        <is>
-          <t>16/Jan - 22/Jan</t>
-        </is>
-      </c>
-      <c r="J3" s="4" t="inlineStr">
-        <is>
-          <t>23/Jan - 29/Jan</t>
+          <t>Week 3</t>
         </is>
       </c>
     </row>
@@ -539,16 +522,6 @@
       <c r="C4" t="inlineStr">
         <is>
           <t>demo</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12/26</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>01/01</t>
         </is>
       </c>
       <c r="F4" s="5" t="n"/>
@@ -562,58 +535,15 @@
           <t>init</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>01/02</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>01/08</t>
-        </is>
-      </c>
       <c r="G5" s="5" t="n"/>
     </row>
-    <row r="6">
-      <c r="B6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>01/09</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>01/15</t>
-        </is>
-      </c>
-      <c r="H6" s="5" t="n"/>
-    </row>
-    <row r="7">
-      <c r="B7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>01/16</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>01/22</t>
-        </is>
-      </c>
-      <c r="I7" s="5" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
-    <mergeCell ref="F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F2:H2"/>
     <mergeCell ref="E1:E3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/chronogram.xlsx
+++ b/chronogram.xlsx
@@ -71,7 +71,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
@@ -80,10 +80,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -451,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:H5"/>
+  <dimension ref="B1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,9 +462,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
+    <col width="18" customWidth="1" min="9" max="9"/>
+    <col width="18" customWidth="1" min="10" max="10"/>
+    <col width="18" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -494,57 +504,161 @@
     <row r="2">
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Month 1</t>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>June</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>Week 1</t>
+          <t>01/May - 07/May</t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t>Week 2</t>
+          <t>08/May - 14/May</t>
         </is>
       </c>
       <c r="H3" s="4" t="inlineStr">
         <is>
-          <t>Week 3</t>
+          <t>15/May - 21/May</t>
+        </is>
+      </c>
+      <c r="I3" s="4" t="inlineStr">
+        <is>
+          <t>22/May - 28/May</t>
+        </is>
+      </c>
+      <c r="J3" s="4" t="inlineStr">
+        <is>
+          <t>29/May - 04/Jun</t>
+        </is>
+      </c>
+      <c r="K3" s="4" t="inlineStr">
+        <is>
+          <t>05/Jun - 11/Jun</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="n">
+      <c r="B4" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>demo</t>
-        </is>
-      </c>
-      <c r="F4" s="5" t="n"/>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>Demo</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>05/01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>05/07</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="n"/>
     </row>
     <row r="5">
-      <c r="B5" t="n">
+      <c r="B5" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>init</t>
-        </is>
-      </c>
-      <c r="G5" s="5" t="n"/>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Meeting</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>05/08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>05/14</t>
+        </is>
+      </c>
+      <c r="G5" s="6" t="n"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>KickOff</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>05/15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>05/21</t>
+        </is>
+      </c>
+      <c r="H6" s="6" t="n"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Implement</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>05/22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>05/28</t>
+        </is>
+      </c>
+      <c r="I7" s="6" t="n"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>05/29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>06/04</t>
+        </is>
+      </c>
+      <c r="J8" s="6" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F1:K1"/>
     <mergeCell ref="E1:E3"/>
+    <mergeCell ref="K2"/>
+    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/chronogram.xlsx
+++ b/chronogram.xlsx
@@ -33,7 +33,7 @@
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -44,12 +44,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="000070C0"/>
         <bgColor rgb="000070C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000070c0"/>
-        <bgColor rgb="000070c0"/>
       </patternFill>
     </fill>
     <fill>
@@ -71,7 +65,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
@@ -79,16 +73,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -454,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:K8"/>
+  <dimension ref="B1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,6 +463,11 @@
     <col width="18" customWidth="1" min="9" max="9"/>
     <col width="18" customWidth="1" min="10" max="10"/>
     <col width="18" customWidth="1" min="11" max="11"/>
+    <col width="18" customWidth="1" min="12" max="12"/>
+    <col width="18" customWidth="1" min="13" max="13"/>
+    <col width="18" customWidth="1" min="14" max="14"/>
+    <col width="18" customWidth="1" min="15" max="15"/>
+    <col width="18" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -504,160 +500,256 @@
     <row r="2">
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>February</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>June</t>
+          <t>March</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>April</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>01/May - 07/May</t>
-        </is>
-      </c>
-      <c r="G3" s="4" t="inlineStr">
-        <is>
-          <t>08/May - 14/May</t>
-        </is>
-      </c>
-      <c r="H3" s="4" t="inlineStr">
-        <is>
-          <t>15/May - 21/May</t>
-        </is>
-      </c>
-      <c r="I3" s="4" t="inlineStr">
-        <is>
-          <t>22/May - 28/May</t>
-        </is>
-      </c>
-      <c r="J3" s="4" t="inlineStr">
-        <is>
-          <t>29/May - 04/Jun</t>
-        </is>
-      </c>
-      <c r="K3" s="4" t="inlineStr">
-        <is>
-          <t>05/Jun - 11/Jun</t>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>01/Feb - 07/Feb</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>08/Feb - 14/Feb</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>15/Feb - 21/Feb</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>22/Feb - 28/Feb</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>29/Feb - 06/Mar</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>07/Mar - 13/Mar</t>
+        </is>
+      </c>
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>14/Mar - 20/Mar</t>
+        </is>
+      </c>
+      <c r="M3" s="3" t="inlineStr">
+        <is>
+          <t>21/Mar - 27/Mar</t>
+        </is>
+      </c>
+      <c r="N3" s="3" t="inlineStr">
+        <is>
+          <t>28/Mar - 03/Apr</t>
+        </is>
+      </c>
+      <c r="O3" s="3" t="inlineStr">
+        <is>
+          <t>04/Apr - 10/Apr</t>
+        </is>
+      </c>
+      <c r="P3" s="3" t="inlineStr">
+        <is>
+          <t>11/Apr - 17/Apr</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>Demo</t>
-        </is>
-      </c>
+      <c r="C4" s="4" t="n"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>05/01</t>
+          <t>02/01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>05/07</t>
-        </is>
-      </c>
-      <c r="F4" s="6" t="n"/>
+          <t>02/07</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="n"/>
     </row>
     <row r="5">
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>Meeting</t>
-        </is>
-      </c>
+      <c r="C5" s="4" t="n"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>05/08</t>
+          <t>02/08</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>05/14</t>
-        </is>
-      </c>
-      <c r="G5" s="6" t="n"/>
+          <t>02/14</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="n"/>
     </row>
     <row r="6">
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>KickOff</t>
-        </is>
-      </c>
+      <c r="C6" s="4" t="n"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>05/15</t>
+          <t>02/15</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>05/21</t>
-        </is>
-      </c>
-      <c r="H6" s="6" t="n"/>
+          <t>02/21</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="n"/>
     </row>
     <row r="7">
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>Implement</t>
-        </is>
-      </c>
+      <c r="C7" s="4" t="n"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>05/22</t>
+          <t>02/22</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>05/28</t>
-        </is>
-      </c>
-      <c r="I7" s="6" t="n"/>
+          <t>02/28</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="n"/>
     </row>
     <row r="8">
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
+      <c r="C8" s="4" t="n"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>05/29</t>
+          <t>02/29</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>06/04</t>
-        </is>
-      </c>
-      <c r="J8" s="6" t="n"/>
+          <t>03/06</t>
+        </is>
+      </c>
+      <c r="J8" s="5" t="n"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="n"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>03/07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>03/13</t>
+        </is>
+      </c>
+      <c r="K9" s="5" t="n"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="n"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>03/14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>03/20</t>
+        </is>
+      </c>
+      <c r="L10" s="5" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="n"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>03/21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>03/27</t>
+        </is>
+      </c>
+      <c r="M11" s="5" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="n"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>03/28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>04/03</t>
+        </is>
+      </c>
+      <c r="N12" s="5" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="n"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>04/04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>04/10</t>
+        </is>
+      </c>
+      <c r="O13" s="5" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="F1:P1"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
-    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="K2:N2"/>
     <mergeCell ref="E1:E3"/>
-    <mergeCell ref="K2"/>
     <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/chronogram.xlsx
+++ b/chronogram.xlsx
@@ -493,81 +493,86 @@
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2023-2024</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>January</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
           <t>February</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>March</t>
-        </is>
-      </c>
-      <c r="O2" s="3" t="inlineStr">
-        <is>
-          <t>April</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>01/Feb - 07/Feb</t>
+          <t>25/Dec - 31/Dec</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>08/Feb - 14/Feb</t>
+          <t>01/Jan - 07/Jan</t>
         </is>
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>15/Feb - 21/Feb</t>
+          <t>08/Jan - 14/Jan</t>
         </is>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>22/Feb - 28/Feb</t>
+          <t>15/Jan - 21/Jan</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
-          <t>29/Feb - 06/Mar</t>
+          <t>22/Jan - 28/Jan</t>
         </is>
       </c>
       <c r="K3" s="3" t="inlineStr">
         <is>
-          <t>07/Mar - 13/Mar</t>
+          <t>29/Jan - 04/Feb</t>
         </is>
       </c>
       <c r="L3" s="3" t="inlineStr">
         <is>
-          <t>14/Mar - 20/Mar</t>
+          <t>05/Feb - 11/Feb</t>
         </is>
       </c>
       <c r="M3" s="3" t="inlineStr">
         <is>
-          <t>21/Mar - 27/Mar</t>
+          <t>12/Feb - 18/Feb</t>
         </is>
       </c>
       <c r="N3" s="3" t="inlineStr">
         <is>
-          <t>28/Mar - 03/Apr</t>
+          <t>19/Feb - 25/Feb</t>
         </is>
       </c>
       <c r="O3" s="3" t="inlineStr">
         <is>
-          <t>04/Apr - 10/Apr</t>
+          <t>26/Feb - 03/Mar</t>
         </is>
       </c>
       <c r="P3" s="3" t="inlineStr">
         <is>
-          <t>11/Apr - 17/Apr</t>
+          <t>04/Mar - 10/Mar</t>
         </is>
       </c>
     </row>
@@ -578,12 +583,12 @@
       <c r="C4" s="4" t="n"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>02/01</t>
+          <t>12/25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>02/07</t>
+          <t>12/31</t>
         </is>
       </c>
       <c r="F4" s="5" t="n"/>
@@ -595,12 +600,12 @@
       <c r="C5" s="4" t="n"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>02/08</t>
+          <t>01/01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>02/14</t>
+          <t>01/07</t>
         </is>
       </c>
       <c r="G5" s="5" t="n"/>
@@ -612,12 +617,12 @@
       <c r="C6" s="4" t="n"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>02/15</t>
+          <t>01/08</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>02/21</t>
+          <t>01/14</t>
         </is>
       </c>
       <c r="H6" s="5" t="n"/>
@@ -629,12 +634,12 @@
       <c r="C7" s="4" t="n"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>02/22</t>
+          <t>01/15</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>02/28</t>
+          <t>01/21</t>
         </is>
       </c>
       <c r="I7" s="5" t="n"/>
@@ -646,12 +651,12 @@
       <c r="C8" s="4" t="n"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>02/29</t>
+          <t>01/22</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>03/06</t>
+          <t>01/28</t>
         </is>
       </c>
       <c r="J8" s="5" t="n"/>
@@ -663,12 +668,12 @@
       <c r="C9" s="4" t="n"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>03/07</t>
+          <t>01/29</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>03/13</t>
+          <t>02/04</t>
         </is>
       </c>
       <c r="K9" s="5" t="n"/>
@@ -680,12 +685,12 @@
       <c r="C10" s="4" t="n"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>03/14</t>
+          <t>02/05</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>03/20</t>
+          <t>02/11</t>
         </is>
       </c>
       <c r="L10" s="5" t="n"/>
@@ -697,12 +702,12 @@
       <c r="C11" s="4" t="n"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>03/21</t>
+          <t>02/12</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>03/27</t>
+          <t>02/18</t>
         </is>
       </c>
       <c r="M11" s="5" t="n"/>
@@ -714,12 +719,12 @@
       <c r="C12" s="4" t="n"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>03/28</t>
+          <t>02/19</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>04/03</t>
+          <t>02/25</t>
         </is>
       </c>
       <c r="N12" s="5" t="n"/>
@@ -731,26 +736,27 @@
       <c r="C13" s="4" t="n"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>04/04</t>
+          <t>02/26</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>04/10</t>
+          <t>03/04</t>
         </is>
       </c>
       <c r="O13" s="5" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="F1:P1"/>
-    <mergeCell ref="O2:P2"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
-    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2"/>
     <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/chronogram.xlsx
+++ b/chronogram.xlsx
@@ -71,7 +71,7 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:P13"/>
+  <dimension ref="B1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,17 +457,18 @@
     <col width="30" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
-    <col width="18" customWidth="1" min="8" max="8"/>
-    <col width="18" customWidth="1" min="9" max="9"/>
-    <col width="18" customWidth="1" min="10" max="10"/>
-    <col width="18" customWidth="1" min="11" max="11"/>
-    <col width="18" customWidth="1" min="12" max="12"/>
-    <col width="18" customWidth="1" min="13" max="13"/>
-    <col width="18" customWidth="1" min="14" max="14"/>
-    <col width="18" customWidth="1" min="15" max="15"/>
-    <col width="18" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="13" max="13"/>
+    <col width="20" customWidth="1" min="14" max="14"/>
+    <col width="20" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -493,7 +494,12 @@
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>2023-2024</t>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
     </row>
@@ -567,12 +573,17 @@
       </c>
       <c r="O3" s="3" t="inlineStr">
         <is>
-          <t>26/Feb - 03/Mar</t>
+          <t>26/Feb - 04/Mar</t>
         </is>
       </c>
       <c r="P3" s="3" t="inlineStr">
         <is>
-          <t>04/Mar - 10/Mar</t>
+          <t>05/Mar - 11/Mar</t>
+        </is>
+      </c>
+      <c r="Q3" s="3" t="inlineStr">
+        <is>
+          <t>12/Mar - 18/Mar</t>
         </is>
       </c>
     </row>
@@ -747,15 +758,16 @@
       <c r="O13" s="5" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="F1:P1"/>
+  <mergeCells count="10">
+    <mergeCell ref="F1"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="F2"/>
     <mergeCell ref="G2:K2"/>
+    <mergeCell ref="G1:Q1"/>
+    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2"/>
     <mergeCell ref="E1:E3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/chronogram.xlsx
+++ b/chronogram.xlsx
@@ -65,7 +65,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
@@ -76,6 +76,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -445,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:Q13"/>
+  <dimension ref="B1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +469,6 @@
     <col width="20" customWidth="1" min="14" max="14"/>
     <col width="20" customWidth="1" min="15" max="15"/>
     <col width="20" customWidth="1" min="16" max="16"/>
-    <col width="20" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -497,277 +497,161 @@
           <t>2024</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>December</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
-      </c>
-      <c r="P2" s="3" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
+          <t>Month 1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Month 2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Month 3</t>
+        </is>
+      </c>
+      <c r="P2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>25/Dec - 31/Dec</t>
+          <t>Week 1</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>01/Jan - 07/Jan</t>
+          <t>Week 2</t>
         </is>
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>08/Jan - 14/Jan</t>
+          <t>Week 3</t>
         </is>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>15/Jan - 21/Jan</t>
+          <t>Week 4</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
-          <t>22/Jan - 28/Jan</t>
+          <t>Week 5</t>
         </is>
       </c>
       <c r="K3" s="3" t="inlineStr">
         <is>
-          <t>29/Jan - 04/Feb</t>
+          <t>Week 6</t>
         </is>
       </c>
       <c r="L3" s="3" t="inlineStr">
         <is>
-          <t>05/Feb - 11/Feb</t>
+          <t>Week 7</t>
         </is>
       </c>
       <c r="M3" s="3" t="inlineStr">
         <is>
-          <t>12/Feb - 18/Feb</t>
+          <t>Week 8</t>
         </is>
       </c>
       <c r="N3" s="3" t="inlineStr">
         <is>
-          <t>19/Feb - 25/Feb</t>
+          <t>Week 9</t>
         </is>
       </c>
       <c r="O3" s="3" t="inlineStr">
         <is>
-          <t>26/Feb - 04/Mar</t>
+          <t>Week 10</t>
         </is>
       </c>
       <c r="P3" s="3" t="inlineStr">
         <is>
-          <t>05/Mar - 11/Mar</t>
-        </is>
-      </c>
-      <c r="Q3" s="3" t="inlineStr">
-        <is>
-          <t>12/Mar - 18/Mar</t>
+          <t>Week 11</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="n"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12/25</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>12/31</t>
-        </is>
-      </c>
-      <c r="F4" s="5" t="n"/>
+      <c r="C4" s="5" t="n"/>
+      <c r="F4" s="6" t="n"/>
     </row>
     <row r="5">
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="n"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>01/01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>01/07</t>
-        </is>
-      </c>
-      <c r="G5" s="5" t="n"/>
+      <c r="C5" s="5" t="n"/>
+      <c r="G5" s="6" t="n"/>
     </row>
     <row r="6">
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="n"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>01/08</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>01/14</t>
-        </is>
-      </c>
-      <c r="H6" s="5" t="n"/>
+      <c r="C6" s="5" t="n"/>
+      <c r="H6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="C7" s="4" t="n"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>01/15</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>01/21</t>
-        </is>
-      </c>
-      <c r="I7" s="5" t="n"/>
+      <c r="C7" s="5" t="n"/>
+      <c r="I7" s="6" t="n"/>
     </row>
     <row r="8">
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="C8" s="4" t="n"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>01/22</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>01/28</t>
-        </is>
-      </c>
-      <c r="J8" s="5" t="n"/>
+      <c r="C8" s="5" t="n"/>
+      <c r="J8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="C9" s="4" t="n"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>01/29</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>02/04</t>
-        </is>
-      </c>
-      <c r="K9" s="5" t="n"/>
+      <c r="C9" s="5" t="n"/>
+      <c r="K9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="C10" s="4" t="n"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>02/05</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>02/11</t>
-        </is>
-      </c>
-      <c r="L10" s="5" t="n"/>
+      <c r="C10" s="5" t="n"/>
+      <c r="L10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="C11" s="4" t="n"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>02/12</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>02/18</t>
-        </is>
-      </c>
-      <c r="M11" s="5" t="n"/>
+      <c r="C11" s="5" t="n"/>
+      <c r="M11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="C12" s="4" t="n"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>02/19</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>02/25</t>
-        </is>
-      </c>
-      <c r="N12" s="5" t="n"/>
+      <c r="C12" s="5" t="n"/>
+      <c r="N12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="C13" s="4" t="n"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>02/26</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>03/04</t>
-        </is>
-      </c>
-      <c r="O13" s="5" t="n"/>
+      <c r="C13" s="5" t="n"/>
+      <c r="O13" s="6" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="F1"/>
+  <mergeCells count="8">
+    <mergeCell ref="F1:P1"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
-    <mergeCell ref="F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="G1:Q1"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="J2:M2"/>
     <mergeCell ref="E1:E3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/chronogram.xlsx
+++ b/chronogram.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:P13"/>
+  <dimension ref="B1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,15 +460,6 @@
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
     <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="20" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
-    <col width="20" customWidth="1" min="12" max="12"/>
-    <col width="20" customWidth="1" min="13" max="13"/>
-    <col width="20" customWidth="1" min="14" max="14"/>
-    <col width="20" customWidth="1" min="15" max="15"/>
-    <col width="20" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -504,17 +495,7 @@
           <t>Month 1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Month 2</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Month 3</t>
-        </is>
-      </c>
-      <c r="P2" s="4" t="n"/>
+      <c r="G2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="F3" s="3" t="inlineStr">
@@ -525,51 +506,6 @@
       <c r="G3" s="3" t="inlineStr">
         <is>
           <t>Week 2</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>Week 3</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="inlineStr">
-        <is>
-          <t>Week 4</t>
-        </is>
-      </c>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>Week 5</t>
-        </is>
-      </c>
-      <c r="K3" s="3" t="inlineStr">
-        <is>
-          <t>Week 6</t>
-        </is>
-      </c>
-      <c r="L3" s="3" t="inlineStr">
-        <is>
-          <t>Week 7</t>
-        </is>
-      </c>
-      <c r="M3" s="3" t="inlineStr">
-        <is>
-          <t>Week 8</t>
-        </is>
-      </c>
-      <c r="N3" s="3" t="inlineStr">
-        <is>
-          <t>Week 9</t>
-        </is>
-      </c>
-      <c r="O3" s="3" t="inlineStr">
-        <is>
-          <t>Week 10</t>
-        </is>
-      </c>
-      <c r="P3" s="3" t="inlineStr">
-        <is>
-          <t>Week 11</t>
         </is>
       </c>
     </row>
@@ -580,79 +516,14 @@
       <c r="C4" s="5" t="n"/>
       <c r="F4" s="6" t="n"/>
     </row>
-    <row r="5">
-      <c r="B5" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" s="5" t="n"/>
-      <c r="G5" s="6" t="n"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5" t="n"/>
-      <c r="H6" s="6" t="n"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5" t="n"/>
-      <c r="I7" s="6" t="n"/>
-    </row>
-    <row r="8">
-      <c r="B8" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5" t="n"/>
-      <c r="J8" s="6" t="n"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C9" s="5" t="n"/>
-      <c r="K9" s="6" t="n"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C10" s="5" t="n"/>
-      <c r="L10" s="6" t="n"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="C11" s="5" t="n"/>
-      <c r="M11" s="6" t="n"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="C12" s="5" t="n"/>
-      <c r="N12" s="6" t="n"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="C13" s="5" t="n"/>
-      <c r="O13" s="6" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="F1:P1"/>
+  <mergeCells count="6">
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="F2"/>
     <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/chronogram.xlsx
+++ b/chronogram.xlsx
@@ -65,7 +65,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
@@ -76,7 +76,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -446,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:G4"/>
+  <dimension ref="B1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,10 +455,21 @@
   <cols>
     <col width="5" customWidth="1" min="2" max="2"/>
     <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
     <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="13" max="13"/>
+    <col width="20" customWidth="1" min="14" max="14"/>
+    <col width="20" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+    <col width="20" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -488,42 +498,358 @@
           <t>2024</t>
         </is>
       </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Month 1</t>
-        </is>
-      </c>
-      <c r="G2" s="4" t="n"/>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>January</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>February</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>March</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>Week 1</t>
+          <t>25/Dec - 31/Dec</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>Week 2</t>
+          <t>01/Jan - 07/Jan</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>08/Jan - 14/Jan</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>15/Jan - 21/Jan</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>22/Jan - 28/Jan</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>29/Jan - 04/Feb</t>
+        </is>
+      </c>
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>05/Feb - 11/Feb</t>
+        </is>
+      </c>
+      <c r="M3" s="3" t="inlineStr">
+        <is>
+          <t>12/Feb - 18/Feb</t>
+        </is>
+      </c>
+      <c r="N3" s="3" t="inlineStr">
+        <is>
+          <t>19/Feb - 25/Feb</t>
+        </is>
+      </c>
+      <c r="O3" s="3" t="inlineStr">
+        <is>
+          <t>26/Feb - 04/Mar</t>
+        </is>
+      </c>
+      <c r="P3" s="3" t="inlineStr">
+        <is>
+          <t>05/Mar - 11/Mar</t>
+        </is>
+      </c>
+      <c r="Q3" s="3" t="inlineStr">
+        <is>
+          <t>12/Mar - 18/Mar</t>
+        </is>
+      </c>
+      <c r="R3" s="3" t="inlineStr">
+        <is>
+          <t>19/Mar - 25/Mar</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="n"/>
-      <c r="F4" s="6" t="n"/>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Kick Off</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12/25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>12/31</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="n"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>01/01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>01/07</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="n"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>01/08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>01/14</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="n"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>01/15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>02/04</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="n"/>
+      <c r="J7" s="5" t="n"/>
+      <c r="K7" s="5" t="n"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>02/05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>03/04</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="n"/>
+      <c r="M8" s="5" t="n"/>
+      <c r="N8" s="5" t="n"/>
+      <c r="O8" s="5" t="n"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>03/05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>03/11</t>
+        </is>
+      </c>
+      <c r="P9" s="5" t="n"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>Demo</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>03/05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>03/11</t>
+        </is>
+      </c>
+      <c r="P10" s="5" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>03/12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>03/18</t>
+        </is>
+      </c>
+      <c r="Q11" s="5" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>Prod</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>03/12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>03/18</t>
+        </is>
+      </c>
+      <c r="Q12" s="5" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="n"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>03/12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>03/18</t>
+        </is>
+      </c>
+      <c r="Q13" s="5" t="n"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4" t="n"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>03/12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>03/18</t>
+        </is>
+      </c>
+      <c r="Q14" s="5" t="n"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="n"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>03/12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>03/18</t>
+        </is>
+      </c>
+      <c r="Q15" s="5" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
+    <mergeCell ref="F1"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
+    <mergeCell ref="G1:R1"/>
     <mergeCell ref="F2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="L2:O2"/>
     <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/chronogram.xlsx
+++ b/chronogram.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:R15"/>
+  <dimension ref="B1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,12 +464,6 @@
     <col width="20" customWidth="1" min="10" max="10"/>
     <col width="20" customWidth="1" min="11" max="11"/>
     <col width="20" customWidth="1" min="12" max="12"/>
-    <col width="20" customWidth="1" min="13" max="13"/>
-    <col width="20" customWidth="1" min="14" max="14"/>
-    <col width="20" customWidth="1" min="15" max="15"/>
-    <col width="20" customWidth="1" min="16" max="16"/>
-    <col width="20" customWidth="1" min="17" max="17"/>
-    <col width="20" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -520,16 +514,11 @@
           <t>February</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>25/Dec - 31/Dec</t>
+          <t>26/Dec - 31/Dec</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
@@ -560,36 +549,6 @@
       <c r="L3" s="3" t="inlineStr">
         <is>
           <t>05/Feb - 11/Feb</t>
-        </is>
-      </c>
-      <c r="M3" s="3" t="inlineStr">
-        <is>
-          <t>12/Feb - 18/Feb</t>
-        </is>
-      </c>
-      <c r="N3" s="3" t="inlineStr">
-        <is>
-          <t>19/Feb - 25/Feb</t>
-        </is>
-      </c>
-      <c r="O3" s="3" t="inlineStr">
-        <is>
-          <t>26/Feb - 04/Mar</t>
-        </is>
-      </c>
-      <c r="P3" s="3" t="inlineStr">
-        <is>
-          <t>05/Mar - 11/Mar</t>
-        </is>
-      </c>
-      <c r="Q3" s="3" t="inlineStr">
-        <is>
-          <t>12/Mar - 18/Mar</t>
-        </is>
-      </c>
-      <c r="R3" s="3" t="inlineStr">
-        <is>
-          <t>19/Mar - 25/Mar</t>
         </is>
       </c>
     </row>
@@ -597,14 +556,10 @@
       <c r="B4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>Kick Off</t>
-        </is>
-      </c>
+      <c r="C4" s="4" t="n"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12/25</t>
+          <t>12/26</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -618,11 +573,7 @@
       <c r="B5" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="C5" s="4" t="n"/>
       <c r="D5" t="inlineStr">
         <is>
           <t>01/01</t>
@@ -639,11 +590,7 @@
       <c r="B6" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="C6" s="4" t="n"/>
       <c r="D6" t="inlineStr">
         <is>
           <t>01/08</t>
@@ -660,11 +607,7 @@
       <c r="B7" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
+      <c r="C7" s="4" t="n"/>
       <c r="D7" t="inlineStr">
         <is>
           <t>01/15</t>
@@ -672,183 +615,38 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>02/04</t>
+          <t>01/21</t>
         </is>
       </c>
       <c r="I7" s="5" t="n"/>
-      <c r="J7" s="5" t="n"/>
-      <c r="K7" s="5" t="n"/>
     </row>
     <row r="8">
       <c r="B8" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
+      <c r="C8" s="4" t="n"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>02/05</t>
+          <t>01/22</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>03/04</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="n"/>
-      <c r="M8" s="5" t="n"/>
-      <c r="N8" s="5" t="n"/>
-      <c r="O8" s="5" t="n"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>03/05</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>03/11</t>
-        </is>
-      </c>
-      <c r="P9" s="5" t="n"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>Demo</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>03/05</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>03/11</t>
-        </is>
-      </c>
-      <c r="P10" s="5" t="n"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t>Testing</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>03/12</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>03/18</t>
-        </is>
-      </c>
-      <c r="Q11" s="5" t="n"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4" t="inlineStr">
-        <is>
-          <t>Prod</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>03/12</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>03/18</t>
-        </is>
-      </c>
-      <c r="Q12" s="5" t="n"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C13" s="4" t="n"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>03/12</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>03/18</t>
-        </is>
-      </c>
-      <c r="Q13" s="5" t="n"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="C14" s="4" t="n"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>03/12</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>03/18</t>
-        </is>
-      </c>
-      <c r="Q14" s="5" t="n"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="C15" s="4" t="n"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>03/12</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>03/18</t>
-        </is>
-      </c>
-      <c r="Q15" s="5" t="n"/>
+          <t>01/28</t>
+        </is>
+      </c>
+      <c r="J8" s="5" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
+    <mergeCell ref="G1:L1"/>
     <mergeCell ref="F1"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
-    <mergeCell ref="G1:R1"/>
     <mergeCell ref="F2"/>
-    <mergeCell ref="P2:R2"/>
     <mergeCell ref="G2:K2"/>
-    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="L2"/>
     <mergeCell ref="E1:E3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/chronogram.xlsx
+++ b/chronogram.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:L8"/>
+  <dimension ref="B1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,9 +461,6 @@
     <col width="20" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
     <col width="20" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
-    <col width="20" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -492,162 +489,90 @@
           <t>2024</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>December</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>February</t>
+          <t>Month 1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>26/Dec - 31/Dec</t>
+          <t>Week 1</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>01/Jan - 07/Jan</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>08/Jan - 14/Jan</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="inlineStr">
-        <is>
-          <t>15/Jan - 21/Jan</t>
-        </is>
-      </c>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>22/Jan - 28/Jan</t>
-        </is>
-      </c>
-      <c r="K3" s="3" t="inlineStr">
-        <is>
-          <t>29/Jan - 04/Feb</t>
-        </is>
-      </c>
-      <c r="L3" s="3" t="inlineStr">
-        <is>
-          <t>05/Feb - 11/Feb</t>
+          <t>Week 2</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="n"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12/26</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>12/31</t>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Task 1</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>ML1 - T1</t>
         </is>
       </c>
       <c r="F4" s="5" t="n"/>
     </row>
     <row r="5">
-      <c r="B5" s="4" t="n">
-        <v>2</v>
-      </c>
+      <c r="B5" s="4" t="n"/>
       <c r="C5" s="4" t="n"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>01/01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>01/07</t>
-        </is>
-      </c>
-      <c r="G5" s="5" t="n"/>
     </row>
     <row r="6">
-      <c r="B6" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4" t="n"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>01/08</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>01/14</t>
-        </is>
-      </c>
-      <c r="H6" s="5" t="n"/>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Task 2</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>ML2 - X1</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="n"/>
     </row>
     <row r="7">
-      <c r="B7" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="n"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>01/15</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>01/21</t>
-        </is>
-      </c>
-      <c r="I7" s="5" t="n"/>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Task 3</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>ML2 - X2</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="n"/>
     </row>
     <row r="8">
-      <c r="B8" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4" t="n"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>01/22</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>01/28</t>
-        </is>
-      </c>
-      <c r="J8" s="5" t="n"/>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>Task 4</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>ML2 - X3</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="F1"/>
+  <mergeCells count="6">
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
-    <mergeCell ref="F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="L2"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/chronogram.xlsx
+++ b/chronogram.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:I8"/>
+  <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,8 +459,6 @@
     <col width="12" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
     <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="20" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -493,84 +491,128 @@
     <row r="2">
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Month 1</t>
+          <t>January</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>Week 1</t>
+          <t>01/Jan - 07/Jan</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
         <is>
-          <t>Week 2</t>
+          <t>08/Jan - 14/Jan</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>Task 1</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>ML1 - T1</t>
-        </is>
-      </c>
-      <c r="F4" s="5" t="n"/>
+      <c r="B4" s="4" t="n"/>
+      <c r="C4" s="4" t="n"/>
     </row>
     <row r="5">
-      <c r="B5" s="4" t="n"/>
-      <c r="C5" s="4" t="n"/>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>Task 1.1</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>M1 - T1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>01/01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>01/07</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="n"/>
     </row>
     <row r="6">
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>Task 2</t>
+          <t>Task 1.2</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>ML2 - X1</t>
-        </is>
-      </c>
-      <c r="F6" s="5" t="n"/>
+          <t>M1 - T2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>01/08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>01/14</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="n"/>
     </row>
     <row r="7">
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Task 3</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>ML2 - X2</t>
-        </is>
-      </c>
-      <c r="G7" s="5" t="n"/>
+      <c r="B7" s="4" t="n"/>
+      <c r="C7" s="4" t="n"/>
     </row>
     <row r="8">
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>Task 4</t>
+          <t>Task 2.1</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>ML2 - X3</t>
-        </is>
-      </c>
-      <c r="H8" s="5" t="n"/>
+          <t>M2 - X1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>01/15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>01/21</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="n"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>Task 2.2</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>M2 - X2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>01/22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>01/28</t>
+        </is>
+      </c>
+      <c r="G9" s="5" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
-    <mergeCell ref="F2:I2"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:G1"/>
   </mergeCells>

--- a/chronogram.xlsx
+++ b/chronogram.xlsx
@@ -42,14 +42,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="000070C0"/>
-        <bgColor rgb="000070C0"/>
+        <fgColor rgb="00FFA500"/>
+        <bgColor rgb="00FFA500"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFA500"/>
-        <bgColor rgb="00FFA500"/>
+        <fgColor rgb="000070C0"/>
+        <bgColor rgb="000070C0"/>
       </patternFill>
     </fill>
   </fills>
@@ -67,19 +67,19 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:G9"/>
+  <dimension ref="B1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,8 +457,8 @@
     <col width="30" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="16" customWidth="1" min="6" max="6"/>
+    <col width="16" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -506,6 +506,16 @@
           <t>08/Jan - 14/Jan</t>
         </is>
       </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>15/Jan - 21/Jan</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t>22/Jan - 28/Jan</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="B4" s="4" t="n"/>
@@ -592,7 +602,7 @@
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>M2 - X2</t>
+          <t>M2 - X@</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -609,12 +619,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="F2:G2"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="B1:B3"/>
+    <mergeCell ref="F1:I1"/>
     <mergeCell ref="C1:C3"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/chronogram.xlsx
+++ b/chronogram.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:I9"/>
+  <dimension ref="B1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,8 @@
     <col width="12" customWidth="1" min="5" max="5"/>
     <col width="16" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
+    <col width="16" customWidth="1" min="8" max="8"/>
+    <col width="16" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -494,6 +496,11 @@
           <t>January</t>
         </is>
       </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>February</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="F3" s="3" t="inlineStr">
@@ -514,6 +521,26 @@
       <c r="I3" s="3" t="inlineStr">
         <is>
           <t>22/Jan - 28/Jan</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>29/Jan - 04/Feb</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>05/Feb - 11/Feb</t>
+        </is>
+      </c>
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>12/Feb - 18/Feb</t>
+        </is>
+      </c>
+      <c r="M3" s="3" t="inlineStr">
+        <is>
+          <t>19/Feb - 25/Feb</t>
         </is>
       </c>
     </row>
@@ -529,7 +556,7 @@
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>M1 - T1</t>
+          <t>M - A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -552,7 +579,7 @@
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>M1 - T2</t>
+          <t>M - B</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -579,20 +606,20 @@
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>M2 - X1</t>
+          <t>N - C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>01/15</t>
+          <t>02/12</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>01/21</t>
-        </is>
-      </c>
-      <c r="F8" s="5" t="n"/>
+          <t>02/18</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="n"/>
     </row>
     <row r="9">
       <c r="B9" s="4" t="inlineStr">
@@ -602,29 +629,30 @@
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>M2 - X@</t>
+          <t>N - D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>01/22</t>
+          <t>02/19</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>01/28</t>
-        </is>
-      </c>
-      <c r="G9" s="5" t="n"/>
+          <t>02/25</t>
+        </is>
+      </c>
+      <c r="I9" s="5" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B1:B3"/>
     <mergeCell ref="D1:D3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="F1:I1"/>
     <mergeCell ref="C1:C3"/>
-    <mergeCell ref="F2:I2"/>
     <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/chronogram.xlsx
+++ b/chronogram.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:M9"/>
+  <dimension ref="B1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,11 +496,6 @@
           <t>January</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="F3" s="3" t="inlineStr">
@@ -521,26 +516,6 @@
       <c r="I3" s="3" t="inlineStr">
         <is>
           <t>22/Jan - 28/Jan</t>
-        </is>
-      </c>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>29/Jan - 04/Feb</t>
-        </is>
-      </c>
-      <c r="K3" s="3" t="inlineStr">
-        <is>
-          <t>05/Feb - 11/Feb</t>
-        </is>
-      </c>
-      <c r="L3" s="3" t="inlineStr">
-        <is>
-          <t>12/Feb - 18/Feb</t>
-        </is>
-      </c>
-      <c r="M3" s="3" t="inlineStr">
-        <is>
-          <t>19/Feb - 25/Feb</t>
         </is>
       </c>
     </row>
@@ -611,12 +586,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>02/12</t>
+          <t>01/15</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>02/18</t>
+          <t>01/21</t>
         </is>
       </c>
       <c r="H8" s="5" t="n"/>
@@ -634,25 +609,24 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>02/19</t>
+          <t>01/22</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>02/25</t>
+          <t>01/28</t>
         </is>
       </c>
       <c r="I9" s="5" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="K2:M2"/>
+  <mergeCells count="6">
+    <mergeCell ref="D1:D3"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="F1:I1"/>
     <mergeCell ref="C1:C3"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/chronogram.xlsx
+++ b/chronogram.xlsx
@@ -42,14 +42,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFA500"/>
-        <bgColor rgb="00FFA500"/>
+        <fgColor rgb="000070C0"/>
+        <bgColor rgb="000070C0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="000070C0"/>
-        <bgColor rgb="000070C0"/>
+        <fgColor rgb="00FFA500"/>
+        <bgColor rgb="00FFA500"/>
       </patternFill>
     </fill>
   </fills>
@@ -65,21 +65,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -445,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:I9"/>
+  <dimension ref="B1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,27 +527,16 @@
       <c r="C4" s="4" t="n"/>
     </row>
     <row r="5">
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>Task 1.1</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>M - A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>01/01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>01/07</t>
-        </is>
-      </c>
-      <c r="F5" s="5" t="n"/>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Task 1</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="B6" s="4" t="inlineStr">
@@ -554,79 +546,114 @@
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>M - B</t>
+          <t>M1 - A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>01/01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>01/07</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="n"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Task 1.1</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>M1 - B</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>01/08</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>01/14</t>
         </is>
       </c>
-      <c r="G6" s="5" t="n"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="4" t="n"/>
-      <c r="C7" s="4" t="n"/>
+      <c r="G7" s="6" t="n"/>
     </row>
     <row r="8">
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>Task 2.1</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>N - C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>01/15</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>01/21</t>
-        </is>
-      </c>
-      <c r="H8" s="5" t="n"/>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>Task 2</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="B9" s="4" t="inlineStr">
         <is>
+          <t>Task 2.1</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>M2 - C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>01/15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>01/21</t>
+        </is>
+      </c>
+      <c r="H9" s="6" t="n"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="4" t="inlineStr">
+        <is>
           <t>Task 2.2</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>N - D</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>M2 - D</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>01/22</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>01/28</t>
         </is>
       </c>
-      <c r="I9" s="5" t="n"/>
+      <c r="I10" s="6" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D1:D3"/>
+  <mergeCells count="10">
+    <mergeCell ref="B8"/>
+    <mergeCell ref="C8"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="E1:E3"/>
+    <mergeCell ref="B5"/>
+    <mergeCell ref="C5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/chronogram.xlsx
+++ b/chronogram.xlsx
@@ -534,7 +534,17 @@
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>01/01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>01/14</t>
         </is>
       </c>
     </row>
@@ -546,7 +556,7 @@
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>M1 - A</t>
+          <t>M - A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -569,7 +579,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>M1 - B</t>
+          <t>M - B</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -592,7 +602,17 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>01/15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>01/28</t>
         </is>
       </c>
     </row>
@@ -604,7 +624,7 @@
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>M2 - C</t>
+          <t>N - C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -627,7 +647,7 @@
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>M2 - D</t>
+          <t>N - D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">

--- a/chronogram.xlsx
+++ b/chronogram.xlsx
@@ -534,7 +534,7 @@
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -547,6 +547,8 @@
           <t>01/14</t>
         </is>
       </c>
+      <c r="F5" s="6" t="n"/>
+      <c r="G5" s="6" t="n"/>
     </row>
     <row r="6">
       <c r="B6" s="4" t="inlineStr">
@@ -556,7 +558,7 @@
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>M - A</t>
+          <t>M1 - A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -579,7 +581,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>M - B</t>
+          <t>M1 - B</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -602,7 +604,7 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -615,6 +617,8 @@
           <t>01/28</t>
         </is>
       </c>
+      <c r="H8" s="6" t="n"/>
+      <c r="I8" s="6" t="n"/>
     </row>
     <row r="9">
       <c r="B9" s="4" t="inlineStr">
@@ -624,7 +628,7 @@
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>N - C</t>
+          <t>M2 - C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -647,7 +651,7 @@
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>N - D</t>
+          <t>M2 - D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">

--- a/chronogram.xlsx
+++ b/chronogram.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:I10"/>
+  <dimension ref="B1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,8 @@
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="16" customWidth="1" min="8" max="8"/>
     <col width="16" customWidth="1" min="9" max="9"/>
+    <col width="16" customWidth="1" min="10" max="10"/>
+    <col width="16" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -499,6 +501,11 @@
           <t>January</t>
         </is>
       </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>February</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="F3" s="3" t="inlineStr">
@@ -519,6 +526,16 @@
       <c r="I3" s="3" t="inlineStr">
         <is>
           <t>22/Jan - 28/Jan</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>29/Jan - 04/Feb</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>05/Feb - 11/Feb</t>
         </is>
       </c>
     </row>
@@ -544,16 +561,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>01/14</t>
+          <t>01/21</t>
         </is>
       </c>
       <c r="F5" s="6" t="n"/>
       <c r="G5" s="6" t="n"/>
+      <c r="H5" s="6" t="n"/>
     </row>
     <row r="6">
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>Task 1.2</t>
+          <t>Task 1.4</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -576,7 +594,7 @@
     <row r="7">
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>Task 1.1</t>
+          <t>Task 1.4</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -597,56 +615,57 @@
       <c r="G7" s="6" t="n"/>
     </row>
     <row r="8">
-      <c r="B8" s="5" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>Task 1.4</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>M1 - C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>01/15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>01/21</t>
+        </is>
+      </c>
+      <c r="H8" s="6" t="n"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>Task 2</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>01/15</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>01/28</t>
-        </is>
-      </c>
-      <c r="H8" s="6" t="n"/>
-      <c r="I8" s="6" t="n"/>
-    </row>
-    <row r="9">
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>Task 2.1</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>M2 - C</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>01/15</t>
+          <t>01/22</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>01/21</t>
-        </is>
-      </c>
-      <c r="H9" s="6" t="n"/>
+          <t>02/11</t>
+        </is>
+      </c>
+      <c r="I9" s="6" t="n"/>
+      <c r="J9" s="6" t="n"/>
+      <c r="K9" s="6" t="n"/>
     </row>
     <row r="10">
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>Task 2.2</t>
+          <t>Task 2.4</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
@@ -666,18 +685,65 @@
       </c>
       <c r="I10" s="6" t="n"/>
     </row>
+    <row r="11">
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>Task 2.4</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>M2 - E</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>01/29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>02/04</t>
+        </is>
+      </c>
+      <c r="J11" s="6" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>Task 2.4</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>M2 - F</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>02/05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>02/11</t>
+        </is>
+      </c>
+      <c r="K12" s="6" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B8"/>
-    <mergeCell ref="C8"/>
+  <mergeCells count="11">
+    <mergeCell ref="D1:D3"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="B9"/>
     <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="K2"/>
+    <mergeCell ref="F1:K1"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="B5"/>
     <mergeCell ref="C5"/>
+    <mergeCell ref="C9"/>
+    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/chronogram.xlsx
+++ b/chronogram.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:K12"/>
+  <dimension ref="B1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,9 @@
     <col width="16" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
+    <col width="16" customWidth="1" min="12" max="12"/>
+    <col width="16" customWidth="1" min="13" max="13"/>
+    <col width="16" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -538,6 +541,21 @@
           <t>05/Feb - 11/Feb</t>
         </is>
       </c>
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>12/Feb - 18/Feb</t>
+        </is>
+      </c>
+      <c r="M3" s="3" t="inlineStr">
+        <is>
+          <t>19/Feb - 25/Feb</t>
+        </is>
+      </c>
+      <c r="N3" s="3" t="inlineStr">
+        <is>
+          <t>26/Feb - 03/Mar</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="B4" s="4" t="n"/>
@@ -731,14 +749,110 @@
       </c>
       <c r="K12" s="6" t="n"/>
     </row>
+    <row r="13">
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>Task 3</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>02/12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>03/03</t>
+        </is>
+      </c>
+      <c r="L13" s="6" t="n"/>
+      <c r="M13" s="6" t="n"/>
+      <c r="N13" s="6" t="n"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>Task 3.4</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>M3 - G</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>02/12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>02/18</t>
+        </is>
+      </c>
+      <c r="L14" s="6" t="n"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>Task 3.4</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>M3 - H</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>02/19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>02/25</t>
+        </is>
+      </c>
+      <c r="M15" s="6" t="n"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>Task 3.4</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>M3 - I</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>02/26</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>03/03</t>
+        </is>
+      </c>
+      <c r="N16" s="6" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="B9"/>
+    <mergeCell ref="B13"/>
     <mergeCell ref="C1:C3"/>
-    <mergeCell ref="K2"/>
-    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="C13"/>
+    <mergeCell ref="F1:N1"/>
+    <mergeCell ref="K2:N2"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="B5"/>
     <mergeCell ref="C5"/>

--- a/chronogram.xlsx
+++ b/chronogram.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:N16"/>
+  <dimension ref="B1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,11 +464,6 @@
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="16" customWidth="1" min="8" max="8"/>
     <col width="16" customWidth="1" min="9" max="9"/>
-    <col width="16" customWidth="1" min="10" max="10"/>
-    <col width="16" customWidth="1" min="11" max="11"/>
-    <col width="16" customWidth="1" min="12" max="12"/>
-    <col width="16" customWidth="1" min="13" max="13"/>
-    <col width="16" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -504,11 +499,6 @@
           <t>January</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="F3" s="3" t="inlineStr">
@@ -529,31 +519,6 @@
       <c r="I3" s="3" t="inlineStr">
         <is>
           <t>22/Jan - 28/Jan</t>
-        </is>
-      </c>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>29/Jan - 04/Feb</t>
-        </is>
-      </c>
-      <c r="K3" s="3" t="inlineStr">
-        <is>
-          <t>05/Feb - 11/Feb</t>
-        </is>
-      </c>
-      <c r="L3" s="3" t="inlineStr">
-        <is>
-          <t>12/Feb - 18/Feb</t>
-        </is>
-      </c>
-      <c r="M3" s="3" t="inlineStr">
-        <is>
-          <t>19/Feb - 25/Feb</t>
-        </is>
-      </c>
-      <c r="N3" s="3" t="inlineStr">
-        <is>
-          <t>26/Feb - 03/Mar</t>
         </is>
       </c>
     </row>
@@ -572,39 +537,16 @@
           <t>M1</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>01/01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>01/21</t>
-        </is>
-      </c>
-      <c r="F5" s="6" t="n"/>
-      <c r="G5" s="6" t="n"/>
-      <c r="H5" s="6" t="n"/>
     </row>
     <row r="6">
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>Task 1.4</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
           <t>M1 - A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>01/01</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>01/07</t>
         </is>
       </c>
       <c r="F6" s="6" t="n"/>
@@ -612,7 +554,7 @@
     <row r="7">
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>Task 1.4</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -620,70 +562,37 @@
           <t>M1 - B</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>01/08</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>01/14</t>
-        </is>
-      </c>
       <c r="G7" s="6" t="n"/>
     </row>
     <row r="8">
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>Task 1.4</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>M1 - C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>01/15</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>01/21</t>
-        </is>
-      </c>
-      <c r="H8" s="6" t="n"/>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>Task 2</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>Task 2</t>
-        </is>
-      </c>
-      <c r="C9" s="5" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>01/22</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>02/11</t>
-        </is>
-      </c>
-      <c r="I9" s="6" t="n"/>
-      <c r="J9" s="6" t="n"/>
-      <c r="K9" s="6" t="n"/>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>M2 - C</t>
+        </is>
+      </c>
+      <c r="H9" s="6" t="n"/>
     </row>
     <row r="10">
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>Task 2.4</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
@@ -691,173 +600,20 @@
           <t>M2 - D</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>01/22</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>01/28</t>
-        </is>
-      </c>
       <c r="I10" s="6" t="n"/>
     </row>
-    <row r="11">
-      <c r="B11" s="4" t="inlineStr">
-        <is>
-          <t>Task 2.4</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t>M2 - E</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>01/29</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>02/04</t>
-        </is>
-      </c>
-      <c r="J11" s="6" t="n"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="4" t="inlineStr">
-        <is>
-          <t>Task 2.4</t>
-        </is>
-      </c>
-      <c r="C12" s="4" t="inlineStr">
-        <is>
-          <t>M2 - F</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>02/05</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>02/11</t>
-        </is>
-      </c>
-      <c r="K12" s="6" t="n"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="5" t="inlineStr">
-        <is>
-          <t>Task 3</t>
-        </is>
-      </c>
-      <c r="C13" s="5" t="inlineStr">
-        <is>
-          <t>M3</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>02/12</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>03/03</t>
-        </is>
-      </c>
-      <c r="L13" s="6" t="n"/>
-      <c r="M13" s="6" t="n"/>
-      <c r="N13" s="6" t="n"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="4" t="inlineStr">
-        <is>
-          <t>Task 3.4</t>
-        </is>
-      </c>
-      <c r="C14" s="4" t="inlineStr">
-        <is>
-          <t>M3 - G</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>02/12</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>02/18</t>
-        </is>
-      </c>
-      <c r="L14" s="6" t="n"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="4" t="inlineStr">
-        <is>
-          <t>Task 3.4</t>
-        </is>
-      </c>
-      <c r="C15" s="4" t="inlineStr">
-        <is>
-          <t>M3 - H</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>02/19</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>02/25</t>
-        </is>
-      </c>
-      <c r="M15" s="6" t="n"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="4" t="inlineStr">
-        <is>
-          <t>Task 3.4</t>
-        </is>
-      </c>
-      <c r="C16" s="4" t="inlineStr">
-        <is>
-          <t>M3 - I</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>02/26</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>03/03</t>
-        </is>
-      </c>
-      <c r="N16" s="6" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="10">
+    <mergeCell ref="B8"/>
+    <mergeCell ref="C8"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:D3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="B9"/>
-    <mergeCell ref="B13"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="C13"/>
-    <mergeCell ref="F1:N1"/>
-    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="B5"/>
     <mergeCell ref="C5"/>
-    <mergeCell ref="C9"/>
-    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/chronogram.xlsx
+++ b/chronogram.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:I10"/>
+  <dimension ref="B1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,10 @@
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="16" customWidth="1" min="8" max="8"/>
     <col width="16" customWidth="1" min="9" max="9"/>
+    <col width="16" customWidth="1" min="10" max="10"/>
+    <col width="16" customWidth="1" min="11" max="11"/>
+    <col width="16" customWidth="1" min="12" max="12"/>
+    <col width="16" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -499,6 +503,11 @@
           <t>January</t>
         </is>
       </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>February</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="F3" s="3" t="inlineStr">
@@ -519,6 +528,26 @@
       <c r="I3" s="3" t="inlineStr">
         <is>
           <t>22/Jan - 28/Jan</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>29/Jan - 04/Feb</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>05/Feb - 11/Feb</t>
+        </is>
+      </c>
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t>12/Feb - 18/Feb</t>
+        </is>
+      </c>
+      <c r="M3" s="3" t="inlineStr">
+        <is>
+          <t>19/Feb - 25/Feb</t>
         </is>
       </c>
     </row>
@@ -537,6 +566,19 @@
           <t>M1</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>01/01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>01/21</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="n"/>
+      <c r="G5" s="6" t="n"/>
+      <c r="H5" s="6" t="n"/>
     </row>
     <row r="6">
       <c r="B6" s="4" t="inlineStr">
@@ -549,6 +591,16 @@
           <t>M1 - A</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>01/01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>01/07</t>
+        </is>
+      </c>
       <c r="F6" s="6" t="n"/>
     </row>
     <row r="7">
@@ -562,58 +614,220 @@
           <t>M1 - B</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>01/08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>01/14</t>
+        </is>
+      </c>
       <c r="G7" s="6" t="n"/>
     </row>
     <row r="8">
-      <c r="B8" s="5" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>M1 - C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>01/15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>01/21</t>
+        </is>
+      </c>
+      <c r="H8" s="6" t="n"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>Task 2</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>2.1</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>M2 - C</t>
-        </is>
-      </c>
-      <c r="H9" s="6" t="n"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>01/22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>02/11</t>
+        </is>
+      </c>
+      <c r="I9" s="6" t="n"/>
+      <c r="J9" s="6" t="n"/>
+      <c r="K9" s="6" t="n"/>
     </row>
     <row r="10">
       <c r="B10" s="4" t="inlineStr">
         <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>M2 - D</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>01/22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>01/28</t>
+        </is>
+      </c>
+      <c r="I10" s="6" t="n"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="4" t="inlineStr">
+        <is>
           <t>2.2</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>M2 - D</t>
-        </is>
-      </c>
-      <c r="I10" s="6" t="n"/>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>M2 - E</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>01/29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>02/04</t>
+        </is>
+      </c>
+      <c r="J11" s="6" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>2.3</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>M2 - F</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>02/05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>02/11</t>
+        </is>
+      </c>
+      <c r="K12" s="6" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>Task 3</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>02/12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>02/25</t>
+        </is>
+      </c>
+      <c r="L13" s="6" t="n"/>
+      <c r="M13" s="6" t="n"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>M3 - G</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>02/12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>02/18</t>
+        </is>
+      </c>
+      <c r="L14" s="6" t="n"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>3.2</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>M3 - H</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>02/19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>02/25</t>
+        </is>
+      </c>
+      <c r="M15" s="6" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B8"/>
-    <mergeCell ref="C8"/>
+  <mergeCells count="13">
+    <mergeCell ref="K2:M2"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="B9"/>
+    <mergeCell ref="B13"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:D3"/>
-    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C13"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="B5"/>
     <mergeCell ref="C5"/>
+    <mergeCell ref="C9"/>
+    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/chronogram.xlsx
+++ b/chronogram.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:M15"/>
+  <dimension ref="B1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,6 +468,8 @@
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="16" customWidth="1" min="12" max="12"/>
     <col width="16" customWidth="1" min="13" max="13"/>
+    <col width="16" customWidth="1" min="14" max="14"/>
+    <col width="16" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -508,6 +510,11 @@
           <t>February</t>
         </is>
       </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>March</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="F3" s="3" t="inlineStr">
@@ -548,6 +555,16 @@
       <c r="M3" s="3" t="inlineStr">
         <is>
           <t>19/Feb - 25/Feb</t>
+        </is>
+      </c>
+      <c r="N3" s="3" t="inlineStr">
+        <is>
+          <t>26/Feb - 03/Mar</t>
+        </is>
+      </c>
+      <c r="O3" s="3" t="inlineStr">
+        <is>
+          <t>04/Mar - 10/Mar</t>
         </is>
       </c>
     </row>
@@ -573,12 +590,13 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>01/21</t>
+          <t>01/28</t>
         </is>
       </c>
       <c r="F5" s="6" t="n"/>
       <c r="G5" s="6" t="n"/>
       <c r="H5" s="6" t="n"/>
+      <c r="I5" s="6" t="n"/>
     </row>
     <row r="6">
       <c r="B6" s="4" t="inlineStr">
@@ -650,57 +668,57 @@
       <c r="H8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="B9" s="5" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>M1 - D</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>01/22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>01/28</t>
+        </is>
+      </c>
+      <c r="I9" s="6" t="n"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>Task 2</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>01/22</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>02/11</t>
-        </is>
-      </c>
-      <c r="I9" s="6" t="n"/>
-      <c r="J9" s="6" t="n"/>
-      <c r="K9" s="6" t="n"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>2.1</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>M2 - D</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>01/22</t>
+          <t>01/29</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>01/28</t>
-        </is>
-      </c>
-      <c r="I10" s="6" t="n"/>
+          <t>02/18</t>
+        </is>
+      </c>
+      <c r="J10" s="6" t="n"/>
+      <c r="K10" s="6" t="n"/>
+      <c r="L10" s="6" t="n"/>
     </row>
     <row r="11">
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
@@ -723,110 +741,182 @@
     <row r="12">
       <c r="B12" s="4" t="inlineStr">
         <is>
+          <t>2.2</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>M2 - F</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>02/05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>02/11</t>
+        </is>
+      </c>
+      <c r="K12" s="6" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="4" t="inlineStr">
+        <is>
           <t>2.3</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
-        <is>
-          <t>M2 - F</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>02/05</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>02/11</t>
-        </is>
-      </c>
-      <c r="K12" s="6" t="n"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="5" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>M2 - G</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>02/12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>02/18</t>
+        </is>
+      </c>
+      <c r="L13" s="6" t="n"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>Task 3</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>02/12</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>02/25</t>
-        </is>
-      </c>
-      <c r="L13" s="6" t="n"/>
-      <c r="M13" s="6" t="n"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="4" t="inlineStr">
-        <is>
-          <t>3.1</t>
-        </is>
-      </c>
-      <c r="C14" s="4" t="inlineStr">
-        <is>
-          <t>M3 - G</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>02/12</t>
+          <t>02/19</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>02/18</t>
-        </is>
-      </c>
-      <c r="L14" s="6" t="n"/>
+          <t>03/03</t>
+        </is>
+      </c>
+      <c r="M14" s="6" t="n"/>
+      <c r="N14" s="6" t="n"/>
     </row>
     <row r="15">
       <c r="B15" s="4" t="inlineStr">
         <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>M3 - H</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>02/19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>02/25</t>
+        </is>
+      </c>
+      <c r="M15" s="6" t="n"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="4" t="inlineStr">
+        <is>
           <t>3.2</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
-        <is>
-          <t>M3 - H</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>02/19</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>02/25</t>
-        </is>
-      </c>
-      <c r="M15" s="6" t="n"/>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>M3 - I</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>02/26</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>03/03</t>
+        </is>
+      </c>
+      <c r="N16" s="6" t="n"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>Task 4</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>03/04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>03/10</t>
+        </is>
+      </c>
+      <c r="O17" s="6" t="n"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>M4 - J</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>03/04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>03/10</t>
+        </is>
+      </c>
+      <c r="O18" s="6" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="K2:M2"/>
+  <mergeCells count="16">
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="B17"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="B9"/>
-    <mergeCell ref="B13"/>
+    <mergeCell ref="C14"/>
+    <mergeCell ref="C17"/>
+    <mergeCell ref="F1:O1"/>
     <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C13"/>
+    <mergeCell ref="O2"/>
+    <mergeCell ref="C10"/>
+    <mergeCell ref="B10"/>
+    <mergeCell ref="K2:N2"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="B5"/>
+    <mergeCell ref="B14"/>
     <mergeCell ref="C5"/>
-    <mergeCell ref="C9"/>
     <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/chronogram.xlsx
+++ b/chronogram.xlsx
@@ -17,13 +17,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00000000"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
     <font>
       <b val="1"/>
@@ -42,14 +49,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="000070C0"/>
-        <bgColor rgb="000070C0"/>
+        <fgColor rgb="00FFA500"/>
+        <bgColor rgb="00FFA500"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFA500"/>
-        <bgColor rgb="00FFA500"/>
+        <fgColor rgb="000070C0"/>
+        <bgColor rgb="000070C0"/>
       </patternFill>
     </fill>
   </fills>
@@ -65,24 +72,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -448,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:O18"/>
+  <dimension ref="B1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +464,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="30" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
@@ -464,12 +472,6 @@
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="16" customWidth="1" min="8" max="8"/>
     <col width="16" customWidth="1" min="9" max="9"/>
-    <col width="16" customWidth="1" min="10" max="10"/>
-    <col width="16" customWidth="1" min="11" max="11"/>
-    <col width="16" customWidth="1" min="12" max="12"/>
-    <col width="16" customWidth="1" min="13" max="13"/>
-    <col width="16" customWidth="1" min="14" max="14"/>
-    <col width="16" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -505,16 +507,6 @@
           <t>January</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
-      </c>
-      <c r="O2" s="3" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="F3" s="3" t="inlineStr">
@@ -535,36 +527,6 @@
       <c r="I3" s="3" t="inlineStr">
         <is>
           <t>22/Jan - 28/Jan</t>
-        </is>
-      </c>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>29/Jan - 04/Feb</t>
-        </is>
-      </c>
-      <c r="K3" s="3" t="inlineStr">
-        <is>
-          <t>05/Feb - 11/Feb</t>
-        </is>
-      </c>
-      <c r="L3" s="3" t="inlineStr">
-        <is>
-          <t>12/Feb - 18/Feb</t>
-        </is>
-      </c>
-      <c r="M3" s="3" t="inlineStr">
-        <is>
-          <t>19/Feb - 25/Feb</t>
-        </is>
-      </c>
-      <c r="N3" s="3" t="inlineStr">
-        <is>
-          <t>26/Feb - 03/Mar</t>
-        </is>
-      </c>
-      <c r="O3" s="3" t="inlineStr">
-        <is>
-          <t>04/Mar - 10/Mar</t>
         </is>
       </c>
     </row>
@@ -580,23 +542,21 @@
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+          <t>M</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
         <is>
           <t>01/01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>01/28</t>
-        </is>
-      </c>
-      <c r="F5" s="6" t="n"/>
-      <c r="G5" s="6" t="n"/>
-      <c r="H5" s="6" t="n"/>
-      <c r="I5" s="6" t="n"/>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>01/14</t>
+        </is>
+      </c>
+      <c r="F5" s="7" t="n"/>
+      <c r="G5" s="7" t="n"/>
     </row>
     <row r="6">
       <c r="B6" s="4" t="inlineStr">
@@ -606,7 +566,7 @@
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>M1 - A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -619,7 +579,7 @@
           <t>01/07</t>
         </is>
       </c>
-      <c r="F6" s="6" t="n"/>
+      <c r="F6" s="7" t="n"/>
     </row>
     <row r="7">
       <c r="B7" s="4" t="inlineStr">
@@ -629,7 +589,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>M1 - B</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -642,282 +602,90 @@
           <t>01/14</t>
         </is>
       </c>
-      <c r="G7" s="6" t="n"/>
+      <c r="G7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>1.3</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>M1 - C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>Task 2</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="inlineStr">
         <is>
           <t>01/15</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>01/21</t>
-        </is>
-      </c>
-      <c r="H8" s="6" t="n"/>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>01/28</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="n"/>
+      <c r="I8" s="7" t="n"/>
     </row>
     <row r="9">
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>M1 - D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>01/15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>01/21</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="n"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>2.2</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>01/22</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>01/28</t>
         </is>
       </c>
-      <c r="I9" s="6" t="n"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="5" t="inlineStr">
-        <is>
-          <t>Task 2</t>
-        </is>
-      </c>
-      <c r="C10" s="5" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>01/29</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>02/18</t>
-        </is>
-      </c>
-      <c r="J10" s="6" t="n"/>
-      <c r="K10" s="6" t="n"/>
-      <c r="L10" s="6" t="n"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="4" t="inlineStr">
-        <is>
-          <t>2.1</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t>M2 - E</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>01/29</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>02/04</t>
-        </is>
-      </c>
-      <c r="J11" s="6" t="n"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="4" t="inlineStr">
-        <is>
-          <t>2.2</t>
-        </is>
-      </c>
-      <c r="C12" s="4" t="inlineStr">
-        <is>
-          <t>M2 - F</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>02/05</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>02/11</t>
-        </is>
-      </c>
-      <c r="K12" s="6" t="n"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="4" t="inlineStr">
-        <is>
-          <t>2.3</t>
-        </is>
-      </c>
-      <c r="C13" s="4" t="inlineStr">
-        <is>
-          <t>M2 - G</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>02/12</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>02/18</t>
-        </is>
-      </c>
-      <c r="L13" s="6" t="n"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="5" t="inlineStr">
-        <is>
-          <t>Task 3</t>
-        </is>
-      </c>
-      <c r="C14" s="5" t="inlineStr">
-        <is>
-          <t>M3</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>02/19</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>03/03</t>
-        </is>
-      </c>
-      <c r="M14" s="6" t="n"/>
-      <c r="N14" s="6" t="n"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="4" t="inlineStr">
-        <is>
-          <t>3.1</t>
-        </is>
-      </c>
-      <c r="C15" s="4" t="inlineStr">
-        <is>
-          <t>M3 - H</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>02/19</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>02/25</t>
-        </is>
-      </c>
-      <c r="M15" s="6" t="n"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="4" t="inlineStr">
-        <is>
-          <t>3.2</t>
-        </is>
-      </c>
-      <c r="C16" s="4" t="inlineStr">
-        <is>
-          <t>M3 - I</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>02/26</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>03/03</t>
-        </is>
-      </c>
-      <c r="N16" s="6" t="n"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="5" t="inlineStr">
-        <is>
-          <t>Task 4</t>
-        </is>
-      </c>
-      <c r="C17" s="5" t="inlineStr">
-        <is>
-          <t>M4</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>03/04</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>03/10</t>
-        </is>
-      </c>
-      <c r="O17" s="6" t="n"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="4" t="inlineStr">
-        <is>
-          <t>4.1</t>
-        </is>
-      </c>
-      <c r="C18" s="4" t="inlineStr">
-        <is>
-          <t>M4 - J</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>03/04</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>03/10</t>
-        </is>
-      </c>
-      <c r="O18" s="6" t="n"/>
+      <c r="I10" s="7" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="10">
+    <mergeCell ref="B8"/>
+    <mergeCell ref="C8"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:D3"/>
-    <mergeCell ref="B17"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C14"/>
-    <mergeCell ref="C17"/>
-    <mergeCell ref="F1:O1"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="O2"/>
-    <mergeCell ref="C10"/>
-    <mergeCell ref="B10"/>
-    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="B5"/>
-    <mergeCell ref="B14"/>
     <mergeCell ref="C5"/>
-    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/chronogram.xlsx
+++ b/chronogram.xlsx
@@ -40,7 +40,7 @@
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -55,12 +55,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="0032a852"/>
+        <bgColor rgb="0032a852"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="000070C0"/>
         <bgColor rgb="000070C0"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -68,28 +74,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -542,7 +555,7 @@
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="D5" s="6" t="inlineStr">
@@ -579,7 +592,7 @@
           <t>01/07</t>
         </is>
       </c>
-      <c r="F6" s="7" t="n"/>
+      <c r="F6" s="8" t="n"/>
     </row>
     <row r="7">
       <c r="B7" s="4" t="inlineStr">
@@ -602,7 +615,7 @@
           <t>01/14</t>
         </is>
       </c>
-      <c r="G7" s="7" t="n"/>
+      <c r="G7" s="8" t="n"/>
     </row>
     <row r="8">
       <c r="B8" s="5" t="inlineStr">
@@ -612,7 +625,7 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="D8" s="6" t="inlineStr">
@@ -649,7 +662,7 @@
           <t>01/21</t>
         </is>
       </c>
-      <c r="H9" s="7" t="n"/>
+      <c r="H9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="B10" s="4" t="inlineStr">
@@ -672,7 +685,7 @@
           <t>01/28</t>
         </is>
       </c>
-      <c r="I10" s="7" t="n"/>
+      <c r="I10" s="8" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/chronogram.xlsx
+++ b/chronogram.xlsx
@@ -40,12 +40,18 @@
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -66,13 +72,19 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
     </border>
     <border>
       <left style="thin"/>
@@ -84,26 +96,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -469,7 +482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:I10"/>
+  <dimension ref="A1:AX100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,207 +498,5370 @@
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="16" customWidth="1" min="8" max="8"/>
     <col width="16" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="13" max="13"/>
+    <col width="20" customWidth="1" min="14" max="14"/>
+    <col width="20" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+    <col width="20" customWidth="1" min="18" max="18"/>
+    <col width="20" customWidth="1" min="19" max="19"/>
+    <col width="20" customWidth="1" min="20" max="20"/>
+    <col width="20" customWidth="1" min="21" max="21"/>
+    <col width="20" customWidth="1" min="22" max="22"/>
+    <col width="20" customWidth="1" min="23" max="23"/>
+    <col width="20" customWidth="1" min="24" max="24"/>
+    <col width="20" customWidth="1" min="25" max="25"/>
+    <col width="20" customWidth="1" min="26" max="26"/>
+    <col width="20" customWidth="1" min="27" max="27"/>
+    <col width="20" customWidth="1" min="28" max="28"/>
+    <col width="20" customWidth="1" min="29" max="29"/>
+    <col width="20" customWidth="1" min="30" max="30"/>
+    <col width="20" customWidth="1" min="31" max="31"/>
+    <col width="20" customWidth="1" min="32" max="32"/>
+    <col width="20" customWidth="1" min="33" max="33"/>
+    <col width="20" customWidth="1" min="34" max="34"/>
+    <col width="20" customWidth="1" min="35" max="35"/>
+    <col width="20" customWidth="1" min="36" max="36"/>
+    <col width="20" customWidth="1" min="37" max="37"/>
+    <col width="20" customWidth="1" min="38" max="38"/>
+    <col width="20" customWidth="1" min="39" max="39"/>
+    <col width="20" customWidth="1" min="40" max="40"/>
+    <col width="20" customWidth="1" min="41" max="41"/>
+    <col width="20" customWidth="1" min="42" max="42"/>
+    <col width="20" customWidth="1" min="43" max="43"/>
+    <col width="20" customWidth="1" min="44" max="44"/>
+    <col width="20" customWidth="1" min="45" max="45"/>
+    <col width="20" customWidth="1" min="46" max="46"/>
+    <col width="20" customWidth="1" min="47" max="47"/>
+    <col width="20" customWidth="1" min="48" max="48"/>
+    <col width="20" customWidth="1" min="49" max="49"/>
+    <col width="20" customWidth="1" min="50" max="50"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" s="1" t="n"/>
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Tasks</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Activity</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Start Date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>End Date</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
+      <c r="J1" s="1" t="n"/>
+      <c r="K1" s="1" t="n"/>
+      <c r="L1" s="1" t="n"/>
+      <c r="M1" s="1" t="n"/>
+      <c r="N1" s="1" t="n"/>
+      <c r="O1" s="1" t="n"/>
+      <c r="P1" s="1" t="n"/>
+      <c r="Q1" s="1" t="n"/>
+      <c r="R1" s="1" t="n"/>
+      <c r="S1" s="1" t="n"/>
+      <c r="T1" s="1" t="n"/>
+      <c r="U1" s="1" t="n"/>
+      <c r="V1" s="1" t="n"/>
+      <c r="W1" s="1" t="n"/>
+      <c r="X1" s="1" t="n"/>
+      <c r="Y1" s="1" t="n"/>
+      <c r="Z1" s="1" t="n"/>
+      <c r="AA1" s="1" t="n"/>
+      <c r="AB1" s="1" t="n"/>
+      <c r="AC1" s="1" t="n"/>
+      <c r="AD1" s="1" t="n"/>
+      <c r="AE1" s="1" t="n"/>
+      <c r="AF1" s="1" t="n"/>
+      <c r="AG1" s="1" t="n"/>
+      <c r="AH1" s="1" t="n"/>
+      <c r="AI1" s="1" t="n"/>
+      <c r="AJ1" s="1" t="n"/>
+      <c r="AK1" s="1" t="n"/>
+      <c r="AL1" s="1" t="n"/>
+      <c r="AM1" s="1" t="n"/>
+      <c r="AN1" s="1" t="n"/>
+      <c r="AO1" s="1" t="n"/>
+      <c r="AP1" s="1" t="n"/>
+      <c r="AQ1" s="1" t="n"/>
+      <c r="AR1" s="1" t="n"/>
+      <c r="AS1" s="1" t="n"/>
+      <c r="AT1" s="1" t="n"/>
+      <c r="AU1" s="1" t="n"/>
+      <c r="AV1" s="1" t="n"/>
+      <c r="AW1" s="1" t="n"/>
+      <c r="AX1" s="1" t="n"/>
     </row>
     <row r="2">
-      <c r="F2" s="3" t="inlineStr">
+      <c r="A2" s="1" t="n"/>
+      <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>April</t>
         </is>
       </c>
+      <c r="J2" s="1" t="n"/>
+      <c r="K2" s="1" t="n"/>
+      <c r="L2" s="1" t="n"/>
+      <c r="M2" s="1" t="n"/>
+      <c r="N2" s="1" t="n"/>
+      <c r="O2" s="1" t="n"/>
+      <c r="P2" s="1" t="n"/>
+      <c r="Q2" s="1" t="n"/>
+      <c r="R2" s="1" t="n"/>
+      <c r="S2" s="1" t="n"/>
+      <c r="T2" s="1" t="n"/>
+      <c r="U2" s="1" t="n"/>
+      <c r="V2" s="1" t="n"/>
+      <c r="W2" s="1" t="n"/>
+      <c r="X2" s="1" t="n"/>
+      <c r="Y2" s="1" t="n"/>
+      <c r="Z2" s="1" t="n"/>
+      <c r="AA2" s="1" t="n"/>
+      <c r="AB2" s="1" t="n"/>
+      <c r="AC2" s="1" t="n"/>
+      <c r="AD2" s="1" t="n"/>
+      <c r="AE2" s="1" t="n"/>
+      <c r="AF2" s="1" t="n"/>
+      <c r="AG2" s="1" t="n"/>
+      <c r="AH2" s="1" t="n"/>
+      <c r="AI2" s="1" t="n"/>
+      <c r="AJ2" s="1" t="n"/>
+      <c r="AK2" s="1" t="n"/>
+      <c r="AL2" s="1" t="n"/>
+      <c r="AM2" s="1" t="n"/>
+      <c r="AN2" s="1" t="n"/>
+      <c r="AO2" s="1" t="n"/>
+      <c r="AP2" s="1" t="n"/>
+      <c r="AQ2" s="1" t="n"/>
+      <c r="AR2" s="1" t="n"/>
+      <c r="AS2" s="1" t="n"/>
+      <c r="AT2" s="1" t="n"/>
+      <c r="AU2" s="1" t="n"/>
+      <c r="AV2" s="1" t="n"/>
+      <c r="AW2" s="1" t="n"/>
+      <c r="AX2" s="1" t="n"/>
     </row>
     <row r="3">
-      <c r="F3" s="3" t="inlineStr">
+      <c r="A3" s="1" t="n"/>
+      <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>01/Jan - 07/Jan</t>
+          <t>05/Apr - 11/Apr</t>
         </is>
       </c>
-      <c r="G3" s="3" t="inlineStr">
+      <c r="G3" s="4" t="inlineStr">
         <is>
-          <t>08/Jan - 14/Jan</t>
+          <t>12/Apr - 18/Apr</t>
         </is>
       </c>
-      <c r="H3" s="3" t="inlineStr">
+      <c r="H3" s="4" t="inlineStr">
         <is>
-          <t>15/Jan - 21/Jan</t>
+          <t>19/Apr - 25/Apr</t>
         </is>
       </c>
-      <c r="I3" s="3" t="inlineStr">
+      <c r="I3" s="4" t="inlineStr">
         <is>
-          <t>22/Jan - 28/Jan</t>
+          <t>26/Apr - 02/May</t>
         </is>
       </c>
+      <c r="J3" s="1" t="n"/>
+      <c r="K3" s="1" t="n"/>
+      <c r="L3" s="1" t="n"/>
+      <c r="M3" s="1" t="n"/>
+      <c r="N3" s="1" t="n"/>
+      <c r="O3" s="1" t="n"/>
+      <c r="P3" s="1" t="n"/>
+      <c r="Q3" s="1" t="n"/>
+      <c r="R3" s="1" t="n"/>
+      <c r="S3" s="1" t="n"/>
+      <c r="T3" s="1" t="n"/>
+      <c r="U3" s="1" t="n"/>
+      <c r="V3" s="1" t="n"/>
+      <c r="W3" s="1" t="n"/>
+      <c r="X3" s="1" t="n"/>
+      <c r="Y3" s="1" t="n"/>
+      <c r="Z3" s="1" t="n"/>
+      <c r="AA3" s="1" t="n"/>
+      <c r="AB3" s="1" t="n"/>
+      <c r="AC3" s="1" t="n"/>
+      <c r="AD3" s="1" t="n"/>
+      <c r="AE3" s="1" t="n"/>
+      <c r="AF3" s="1" t="n"/>
+      <c r="AG3" s="1" t="n"/>
+      <c r="AH3" s="1" t="n"/>
+      <c r="AI3" s="1" t="n"/>
+      <c r="AJ3" s="1" t="n"/>
+      <c r="AK3" s="1" t="n"/>
+      <c r="AL3" s="1" t="n"/>
+      <c r="AM3" s="1" t="n"/>
+      <c r="AN3" s="1" t="n"/>
+      <c r="AO3" s="1" t="n"/>
+      <c r="AP3" s="1" t="n"/>
+      <c r="AQ3" s="1" t="n"/>
+      <c r="AR3" s="1" t="n"/>
+      <c r="AS3" s="1" t="n"/>
+      <c r="AT3" s="1" t="n"/>
+      <c r="AU3" s="1" t="n"/>
+      <c r="AV3" s="1" t="n"/>
+      <c r="AW3" s="1" t="n"/>
+      <c r="AX3" s="1" t="n"/>
     </row>
     <row r="4">
-      <c r="B4" s="4" t="n"/>
-      <c r="C4" s="4" t="n"/>
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="5" t="n"/>
+      <c r="C4" s="5" t="n"/>
+      <c r="D4" s="1" t="n"/>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="1" t="n"/>
+      <c r="G4" s="1" t="n"/>
+      <c r="H4" s="1" t="n"/>
+      <c r="I4" s="1" t="n"/>
+      <c r="J4" s="1" t="n"/>
+      <c r="K4" s="1" t="n"/>
+      <c r="L4" s="1" t="n"/>
+      <c r="M4" s="1" t="n"/>
+      <c r="N4" s="1" t="n"/>
+      <c r="O4" s="1" t="n"/>
+      <c r="P4" s="1" t="n"/>
+      <c r="Q4" s="1" t="n"/>
+      <c r="R4" s="1" t="n"/>
+      <c r="S4" s="1" t="n"/>
+      <c r="T4" s="1" t="n"/>
+      <c r="U4" s="1" t="n"/>
+      <c r="V4" s="1" t="n"/>
+      <c r="W4" s="1" t="n"/>
+      <c r="X4" s="1" t="n"/>
+      <c r="Y4" s="1" t="n"/>
+      <c r="Z4" s="1" t="n"/>
+      <c r="AA4" s="1" t="n"/>
+      <c r="AB4" s="1" t="n"/>
+      <c r="AC4" s="1" t="n"/>
+      <c r="AD4" s="1" t="n"/>
+      <c r="AE4" s="1" t="n"/>
+      <c r="AF4" s="1" t="n"/>
+      <c r="AG4" s="1" t="n"/>
+      <c r="AH4" s="1" t="n"/>
+      <c r="AI4" s="1" t="n"/>
+      <c r="AJ4" s="1" t="n"/>
+      <c r="AK4" s="1" t="n"/>
+      <c r="AL4" s="1" t="n"/>
+      <c r="AM4" s="1" t="n"/>
+      <c r="AN4" s="1" t="n"/>
+      <c r="AO4" s="1" t="n"/>
+      <c r="AP4" s="1" t="n"/>
+      <c r="AQ4" s="1" t="n"/>
+      <c r="AR4" s="1" t="n"/>
+      <c r="AS4" s="1" t="n"/>
+      <c r="AT4" s="1" t="n"/>
+      <c r="AU4" s="1" t="n"/>
+      <c r="AV4" s="1" t="n"/>
+      <c r="AW4" s="1" t="n"/>
+      <c r="AX4" s="1" t="n"/>
     </row>
     <row r="5">
-      <c r="B5" s="5" t="inlineStr">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>Task 1</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="D5" s="6" t="inlineStr">
+      <c r="D5" s="7" t="inlineStr">
         <is>
-          <t>01/01</t>
+          <t>04/05</t>
         </is>
       </c>
-      <c r="E5" s="6" t="inlineStr">
+      <c r="E5" s="7" t="inlineStr">
         <is>
-          <t>01/14</t>
+          <t>04/18</t>
         </is>
       </c>
-      <c r="F5" s="7" t="n"/>
-      <c r="G5" s="7" t="n"/>
+      <c r="F5" s="8" t="n"/>
+      <c r="G5" s="8" t="n"/>
+      <c r="H5" s="1" t="n"/>
+      <c r="I5" s="1" t="n"/>
+      <c r="J5" s="1" t="n"/>
+      <c r="K5" s="1" t="n"/>
+      <c r="L5" s="1" t="n"/>
+      <c r="M5" s="1" t="n"/>
+      <c r="N5" s="1" t="n"/>
+      <c r="O5" s="1" t="n"/>
+      <c r="P5" s="1" t="n"/>
+      <c r="Q5" s="1" t="n"/>
+      <c r="R5" s="1" t="n"/>
+      <c r="S5" s="1" t="n"/>
+      <c r="T5" s="1" t="n"/>
+      <c r="U5" s="1" t="n"/>
+      <c r="V5" s="1" t="n"/>
+      <c r="W5" s="1" t="n"/>
+      <c r="X5" s="1" t="n"/>
+      <c r="Y5" s="1" t="n"/>
+      <c r="Z5" s="1" t="n"/>
+      <c r="AA5" s="1" t="n"/>
+      <c r="AB5" s="1" t="n"/>
+      <c r="AC5" s="1" t="n"/>
+      <c r="AD5" s="1" t="n"/>
+      <c r="AE5" s="1" t="n"/>
+      <c r="AF5" s="1" t="n"/>
+      <c r="AG5" s="1" t="n"/>
+      <c r="AH5" s="1" t="n"/>
+      <c r="AI5" s="1" t="n"/>
+      <c r="AJ5" s="1" t="n"/>
+      <c r="AK5" s="1" t="n"/>
+      <c r="AL5" s="1" t="n"/>
+      <c r="AM5" s="1" t="n"/>
+      <c r="AN5" s="1" t="n"/>
+      <c r="AO5" s="1" t="n"/>
+      <c r="AP5" s="1" t="n"/>
+      <c r="AQ5" s="1" t="n"/>
+      <c r="AR5" s="1" t="n"/>
+      <c r="AS5" s="1" t="n"/>
+      <c r="AT5" s="1" t="n"/>
+      <c r="AU5" s="1" t="n"/>
+      <c r="AV5" s="1" t="n"/>
+      <c r="AW5" s="1" t="n"/>
+      <c r="AX5" s="1" t="n"/>
     </row>
     <row r="6">
-      <c r="B6" s="4" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>1.1</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>01/01</t>
+          <t>04/05</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>01/07</t>
+          <t>04/11</t>
         </is>
       </c>
-      <c r="F6" s="8" t="n"/>
+      <c r="F6" s="9" t="n"/>
+      <c r="G6" s="1" t="n"/>
+      <c r="H6" s="1" t="n"/>
+      <c r="I6" s="1" t="n"/>
+      <c r="J6" s="1" t="n"/>
+      <c r="K6" s="1" t="n"/>
+      <c r="L6" s="1" t="n"/>
+      <c r="M6" s="1" t="n"/>
+      <c r="N6" s="1" t="n"/>
+      <c r="O6" s="1" t="n"/>
+      <c r="P6" s="1" t="n"/>
+      <c r="Q6" s="1" t="n"/>
+      <c r="R6" s="1" t="n"/>
+      <c r="S6" s="1" t="n"/>
+      <c r="T6" s="1" t="n"/>
+      <c r="U6" s="1" t="n"/>
+      <c r="V6" s="1" t="n"/>
+      <c r="W6" s="1" t="n"/>
+      <c r="X6" s="1" t="n"/>
+      <c r="Y6" s="1" t="n"/>
+      <c r="Z6" s="1" t="n"/>
+      <c r="AA6" s="1" t="n"/>
+      <c r="AB6" s="1" t="n"/>
+      <c r="AC6" s="1" t="n"/>
+      <c r="AD6" s="1" t="n"/>
+      <c r="AE6" s="1" t="n"/>
+      <c r="AF6" s="1" t="n"/>
+      <c r="AG6" s="1" t="n"/>
+      <c r="AH6" s="1" t="n"/>
+      <c r="AI6" s="1" t="n"/>
+      <c r="AJ6" s="1" t="n"/>
+      <c r="AK6" s="1" t="n"/>
+      <c r="AL6" s="1" t="n"/>
+      <c r="AM6" s="1" t="n"/>
+      <c r="AN6" s="1" t="n"/>
+      <c r="AO6" s="1" t="n"/>
+      <c r="AP6" s="1" t="n"/>
+      <c r="AQ6" s="1" t="n"/>
+      <c r="AR6" s="1" t="n"/>
+      <c r="AS6" s="1" t="n"/>
+      <c r="AT6" s="1" t="n"/>
+      <c r="AU6" s="1" t="n"/>
+      <c r="AV6" s="1" t="n"/>
+      <c r="AW6" s="1" t="n"/>
+      <c r="AX6" s="1" t="n"/>
     </row>
     <row r="7">
-      <c r="B7" s="4" t="inlineStr">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>1.2</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>01/08</t>
+          <t>04/12</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>01/14</t>
+          <t>04/18</t>
         </is>
       </c>
-      <c r="G7" s="8" t="n"/>
+      <c r="F7" s="1" t="n"/>
+      <c r="G7" s="9" t="n"/>
+      <c r="H7" s="1" t="n"/>
+      <c r="I7" s="1" t="n"/>
+      <c r="J7" s="1" t="n"/>
+      <c r="K7" s="1" t="n"/>
+      <c r="L7" s="1" t="n"/>
+      <c r="M7" s="1" t="n"/>
+      <c r="N7" s="1" t="n"/>
+      <c r="O7" s="1" t="n"/>
+      <c r="P7" s="1" t="n"/>
+      <c r="Q7" s="1" t="n"/>
+      <c r="R7" s="1" t="n"/>
+      <c r="S7" s="1" t="n"/>
+      <c r="T7" s="1" t="n"/>
+      <c r="U7" s="1" t="n"/>
+      <c r="V7" s="1" t="n"/>
+      <c r="W7" s="1" t="n"/>
+      <c r="X7" s="1" t="n"/>
+      <c r="Y7" s="1" t="n"/>
+      <c r="Z7" s="1" t="n"/>
+      <c r="AA7" s="1" t="n"/>
+      <c r="AB7" s="1" t="n"/>
+      <c r="AC7" s="1" t="n"/>
+      <c r="AD7" s="1" t="n"/>
+      <c r="AE7" s="1" t="n"/>
+      <c r="AF7" s="1" t="n"/>
+      <c r="AG7" s="1" t="n"/>
+      <c r="AH7" s="1" t="n"/>
+      <c r="AI7" s="1" t="n"/>
+      <c r="AJ7" s="1" t="n"/>
+      <c r="AK7" s="1" t="n"/>
+      <c r="AL7" s="1" t="n"/>
+      <c r="AM7" s="1" t="n"/>
+      <c r="AN7" s="1" t="n"/>
+      <c r="AO7" s="1" t="n"/>
+      <c r="AP7" s="1" t="n"/>
+      <c r="AQ7" s="1" t="n"/>
+      <c r="AR7" s="1" t="n"/>
+      <c r="AS7" s="1" t="n"/>
+      <c r="AT7" s="1" t="n"/>
+      <c r="AU7" s="1" t="n"/>
+      <c r="AV7" s="1" t="n"/>
+      <c r="AW7" s="1" t="n"/>
+      <c r="AX7" s="1" t="n"/>
     </row>
     <row r="8">
-      <c r="B8" s="5" t="inlineStr">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>Task 2</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="D8" s="6" t="inlineStr">
+      <c r="D8" s="7" t="inlineStr">
         <is>
-          <t>01/15</t>
+          <t>04/19</t>
         </is>
       </c>
-      <c r="E8" s="6" t="inlineStr">
+      <c r="E8" s="7" t="inlineStr">
         <is>
-          <t>01/28</t>
+          <t>05/02</t>
         </is>
       </c>
-      <c r="H8" s="7" t="n"/>
-      <c r="I8" s="7" t="n"/>
+      <c r="F8" s="1" t="n"/>
+      <c r="G8" s="1" t="n"/>
+      <c r="H8" s="8" t="n"/>
+      <c r="I8" s="8" t="n"/>
+      <c r="J8" s="1" t="n"/>
+      <c r="K8" s="1" t="n"/>
+      <c r="L8" s="1" t="n"/>
+      <c r="M8" s="1" t="n"/>
+      <c r="N8" s="1" t="n"/>
+      <c r="O8" s="1" t="n"/>
+      <c r="P8" s="1" t="n"/>
+      <c r="Q8" s="1" t="n"/>
+      <c r="R8" s="1" t="n"/>
+      <c r="S8" s="1" t="n"/>
+      <c r="T8" s="1" t="n"/>
+      <c r="U8" s="1" t="n"/>
+      <c r="V8" s="1" t="n"/>
+      <c r="W8" s="1" t="n"/>
+      <c r="X8" s="1" t="n"/>
+      <c r="Y8" s="1" t="n"/>
+      <c r="Z8" s="1" t="n"/>
+      <c r="AA8" s="1" t="n"/>
+      <c r="AB8" s="1" t="n"/>
+      <c r="AC8" s="1" t="n"/>
+      <c r="AD8" s="1" t="n"/>
+      <c r="AE8" s="1" t="n"/>
+      <c r="AF8" s="1" t="n"/>
+      <c r="AG8" s="1" t="n"/>
+      <c r="AH8" s="1" t="n"/>
+      <c r="AI8" s="1" t="n"/>
+      <c r="AJ8" s="1" t="n"/>
+      <c r="AK8" s="1" t="n"/>
+      <c r="AL8" s="1" t="n"/>
+      <c r="AM8" s="1" t="n"/>
+      <c r="AN8" s="1" t="n"/>
+      <c r="AO8" s="1" t="n"/>
+      <c r="AP8" s="1" t="n"/>
+      <c r="AQ8" s="1" t="n"/>
+      <c r="AR8" s="1" t="n"/>
+      <c r="AS8" s="1" t="n"/>
+      <c r="AT8" s="1" t="n"/>
+      <c r="AU8" s="1" t="n"/>
+      <c r="AV8" s="1" t="n"/>
+      <c r="AW8" s="1" t="n"/>
+      <c r="AX8" s="1" t="n"/>
     </row>
     <row r="9">
-      <c r="B9" s="4" t="inlineStr">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>2.1</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>01/15</t>
+          <t>04/19</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>01/21</t>
+          <t>04/25</t>
         </is>
       </c>
-      <c r="H9" s="8" t="n"/>
+      <c r="F9" s="1" t="n"/>
+      <c r="G9" s="1" t="n"/>
+      <c r="H9" s="9" t="n"/>
+      <c r="I9" s="1" t="n"/>
+      <c r="J9" s="1" t="n"/>
+      <c r="K9" s="1" t="n"/>
+      <c r="L9" s="1" t="n"/>
+      <c r="M9" s="1" t="n"/>
+      <c r="N9" s="1" t="n"/>
+      <c r="O9" s="1" t="n"/>
+      <c r="P9" s="1" t="n"/>
+      <c r="Q9" s="1" t="n"/>
+      <c r="R9" s="1" t="n"/>
+      <c r="S9" s="1" t="n"/>
+      <c r="T9" s="1" t="n"/>
+      <c r="U9" s="1" t="n"/>
+      <c r="V9" s="1" t="n"/>
+      <c r="W9" s="1" t="n"/>
+      <c r="X9" s="1" t="n"/>
+      <c r="Y9" s="1" t="n"/>
+      <c r="Z9" s="1" t="n"/>
+      <c r="AA9" s="1" t="n"/>
+      <c r="AB9" s="1" t="n"/>
+      <c r="AC9" s="1" t="n"/>
+      <c r="AD9" s="1" t="n"/>
+      <c r="AE9" s="1" t="n"/>
+      <c r="AF9" s="1" t="n"/>
+      <c r="AG9" s="1" t="n"/>
+      <c r="AH9" s="1" t="n"/>
+      <c r="AI9" s="1" t="n"/>
+      <c r="AJ9" s="1" t="n"/>
+      <c r="AK9" s="1" t="n"/>
+      <c r="AL9" s="1" t="n"/>
+      <c r="AM9" s="1" t="n"/>
+      <c r="AN9" s="1" t="n"/>
+      <c r="AO9" s="1" t="n"/>
+      <c r="AP9" s="1" t="n"/>
+      <c r="AQ9" s="1" t="n"/>
+      <c r="AR9" s="1" t="n"/>
+      <c r="AS9" s="1" t="n"/>
+      <c r="AT9" s="1" t="n"/>
+      <c r="AU9" s="1" t="n"/>
+      <c r="AV9" s="1" t="n"/>
+      <c r="AW9" s="1" t="n"/>
+      <c r="AX9" s="1" t="n"/>
     </row>
     <row r="10">
-      <c r="B10" s="4" t="inlineStr">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>2.2</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>01/22</t>
+          <t>04/26</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>01/28</t>
+          <t>05/02</t>
         </is>
       </c>
-      <c r="I10" s="8" t="n"/>
+      <c r="F10" s="1" t="n"/>
+      <c r="G10" s="1" t="n"/>
+      <c r="H10" s="1" t="n"/>
+      <c r="I10" s="9" t="n"/>
+      <c r="J10" s="1" t="n"/>
+      <c r="K10" s="1" t="n"/>
+      <c r="L10" s="1" t="n"/>
+      <c r="M10" s="1" t="n"/>
+      <c r="N10" s="1" t="n"/>
+      <c r="O10" s="1" t="n"/>
+      <c r="P10" s="1" t="n"/>
+      <c r="Q10" s="1" t="n"/>
+      <c r="R10" s="1" t="n"/>
+      <c r="S10" s="1" t="n"/>
+      <c r="T10" s="1" t="n"/>
+      <c r="U10" s="1" t="n"/>
+      <c r="V10" s="1" t="n"/>
+      <c r="W10" s="1" t="n"/>
+      <c r="X10" s="1" t="n"/>
+      <c r="Y10" s="1" t="n"/>
+      <c r="Z10" s="1" t="n"/>
+      <c r="AA10" s="1" t="n"/>
+      <c r="AB10" s="1" t="n"/>
+      <c r="AC10" s="1" t="n"/>
+      <c r="AD10" s="1" t="n"/>
+      <c r="AE10" s="1" t="n"/>
+      <c r="AF10" s="1" t="n"/>
+      <c r="AG10" s="1" t="n"/>
+      <c r="AH10" s="1" t="n"/>
+      <c r="AI10" s="1" t="n"/>
+      <c r="AJ10" s="1" t="n"/>
+      <c r="AK10" s="1" t="n"/>
+      <c r="AL10" s="1" t="n"/>
+      <c r="AM10" s="1" t="n"/>
+      <c r="AN10" s="1" t="n"/>
+      <c r="AO10" s="1" t="n"/>
+      <c r="AP10" s="1" t="n"/>
+      <c r="AQ10" s="1" t="n"/>
+      <c r="AR10" s="1" t="n"/>
+      <c r="AS10" s="1" t="n"/>
+      <c r="AT10" s="1" t="n"/>
+      <c r="AU10" s="1" t="n"/>
+      <c r="AV10" s="1" t="n"/>
+      <c r="AW10" s="1" t="n"/>
+      <c r="AX10" s="1" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="5" t="n"/>
+      <c r="C11" s="5" t="n"/>
+      <c r="D11" s="1" t="n"/>
+      <c r="E11" s="1" t="n"/>
+      <c r="F11" s="1" t="n"/>
+      <c r="G11" s="1" t="n"/>
+      <c r="H11" s="1" t="n"/>
+      <c r="I11" s="1" t="n"/>
+      <c r="J11" s="1" t="n"/>
+      <c r="K11" s="1" t="n"/>
+      <c r="L11" s="1" t="n"/>
+      <c r="M11" s="1" t="n"/>
+      <c r="N11" s="1" t="n"/>
+      <c r="O11" s="1" t="n"/>
+      <c r="P11" s="1" t="n"/>
+      <c r="Q11" s="1" t="n"/>
+      <c r="R11" s="1" t="n"/>
+      <c r="S11" s="1" t="n"/>
+      <c r="T11" s="1" t="n"/>
+      <c r="U11" s="1" t="n"/>
+      <c r="V11" s="1" t="n"/>
+      <c r="W11" s="1" t="n"/>
+      <c r="X11" s="1" t="n"/>
+      <c r="Y11" s="1" t="n"/>
+      <c r="Z11" s="1" t="n"/>
+      <c r="AA11" s="1" t="n"/>
+      <c r="AB11" s="1" t="n"/>
+      <c r="AC11" s="1" t="n"/>
+      <c r="AD11" s="1" t="n"/>
+      <c r="AE11" s="1" t="n"/>
+      <c r="AF11" s="1" t="n"/>
+      <c r="AG11" s="1" t="n"/>
+      <c r="AH11" s="1" t="n"/>
+      <c r="AI11" s="1" t="n"/>
+      <c r="AJ11" s="1" t="n"/>
+      <c r="AK11" s="1" t="n"/>
+      <c r="AL11" s="1" t="n"/>
+      <c r="AM11" s="1" t="n"/>
+      <c r="AN11" s="1" t="n"/>
+      <c r="AO11" s="1" t="n"/>
+      <c r="AP11" s="1" t="n"/>
+      <c r="AQ11" s="1" t="n"/>
+      <c r="AR11" s="1" t="n"/>
+      <c r="AS11" s="1" t="n"/>
+      <c r="AT11" s="1" t="n"/>
+      <c r="AU11" s="1" t="n"/>
+      <c r="AV11" s="1" t="n"/>
+      <c r="AW11" s="1" t="n"/>
+      <c r="AX11" s="1" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="5" t="n"/>
+      <c r="C12" s="5" t="n"/>
+      <c r="D12" s="1" t="n"/>
+      <c r="E12" s="1" t="n"/>
+      <c r="F12" s="1" t="n"/>
+      <c r="G12" s="1" t="n"/>
+      <c r="H12" s="1" t="n"/>
+      <c r="I12" s="1" t="n"/>
+      <c r="J12" s="1" t="n"/>
+      <c r="K12" s="1" t="n"/>
+      <c r="L12" s="1" t="n"/>
+      <c r="M12" s="1" t="n"/>
+      <c r="N12" s="1" t="n"/>
+      <c r="O12" s="1" t="n"/>
+      <c r="P12" s="1" t="n"/>
+      <c r="Q12" s="1" t="n"/>
+      <c r="R12" s="1" t="n"/>
+      <c r="S12" s="1" t="n"/>
+      <c r="T12" s="1" t="n"/>
+      <c r="U12" s="1" t="n"/>
+      <c r="V12" s="1" t="n"/>
+      <c r="W12" s="1" t="n"/>
+      <c r="X12" s="1" t="n"/>
+      <c r="Y12" s="1" t="n"/>
+      <c r="Z12" s="1" t="n"/>
+      <c r="AA12" s="1" t="n"/>
+      <c r="AB12" s="1" t="n"/>
+      <c r="AC12" s="1" t="n"/>
+      <c r="AD12" s="1" t="n"/>
+      <c r="AE12" s="1" t="n"/>
+      <c r="AF12" s="1" t="n"/>
+      <c r="AG12" s="1" t="n"/>
+      <c r="AH12" s="1" t="n"/>
+      <c r="AI12" s="1" t="n"/>
+      <c r="AJ12" s="1" t="n"/>
+      <c r="AK12" s="1" t="n"/>
+      <c r="AL12" s="1" t="n"/>
+      <c r="AM12" s="1" t="n"/>
+      <c r="AN12" s="1" t="n"/>
+      <c r="AO12" s="1" t="n"/>
+      <c r="AP12" s="1" t="n"/>
+      <c r="AQ12" s="1" t="n"/>
+      <c r="AR12" s="1" t="n"/>
+      <c r="AS12" s="1" t="n"/>
+      <c r="AT12" s="1" t="n"/>
+      <c r="AU12" s="1" t="n"/>
+      <c r="AV12" s="1" t="n"/>
+      <c r="AW12" s="1" t="n"/>
+      <c r="AX12" s="1" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="5" t="n"/>
+      <c r="C13" s="5" t="n"/>
+      <c r="D13" s="1" t="n"/>
+      <c r="E13" s="1" t="n"/>
+      <c r="F13" s="1" t="n"/>
+      <c r="G13" s="1" t="n"/>
+      <c r="H13" s="1" t="n"/>
+      <c r="I13" s="1" t="n"/>
+      <c r="J13" s="1" t="n"/>
+      <c r="K13" s="1" t="n"/>
+      <c r="L13" s="1" t="n"/>
+      <c r="M13" s="1" t="n"/>
+      <c r="N13" s="1" t="n"/>
+      <c r="O13" s="1" t="n"/>
+      <c r="P13" s="1" t="n"/>
+      <c r="Q13" s="1" t="n"/>
+      <c r="R13" s="1" t="n"/>
+      <c r="S13" s="1" t="n"/>
+      <c r="T13" s="1" t="n"/>
+      <c r="U13" s="1" t="n"/>
+      <c r="V13" s="1" t="n"/>
+      <c r="W13" s="1" t="n"/>
+      <c r="X13" s="1" t="n"/>
+      <c r="Y13" s="1" t="n"/>
+      <c r="Z13" s="1" t="n"/>
+      <c r="AA13" s="1" t="n"/>
+      <c r="AB13" s="1" t="n"/>
+      <c r="AC13" s="1" t="n"/>
+      <c r="AD13" s="1" t="n"/>
+      <c r="AE13" s="1" t="n"/>
+      <c r="AF13" s="1" t="n"/>
+      <c r="AG13" s="1" t="n"/>
+      <c r="AH13" s="1" t="n"/>
+      <c r="AI13" s="1" t="n"/>
+      <c r="AJ13" s="1" t="n"/>
+      <c r="AK13" s="1" t="n"/>
+      <c r="AL13" s="1" t="n"/>
+      <c r="AM13" s="1" t="n"/>
+      <c r="AN13" s="1" t="n"/>
+      <c r="AO13" s="1" t="n"/>
+      <c r="AP13" s="1" t="n"/>
+      <c r="AQ13" s="1" t="n"/>
+      <c r="AR13" s="1" t="n"/>
+      <c r="AS13" s="1" t="n"/>
+      <c r="AT13" s="1" t="n"/>
+      <c r="AU13" s="1" t="n"/>
+      <c r="AV13" s="1" t="n"/>
+      <c r="AW13" s="1" t="n"/>
+      <c r="AX13" s="1" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="5" t="n"/>
+      <c r="C14" s="5" t="n"/>
+      <c r="D14" s="1" t="n"/>
+      <c r="E14" s="1" t="n"/>
+      <c r="F14" s="1" t="n"/>
+      <c r="G14" s="1" t="n"/>
+      <c r="H14" s="1" t="n"/>
+      <c r="I14" s="1" t="n"/>
+      <c r="J14" s="1" t="n"/>
+      <c r="K14" s="1" t="n"/>
+      <c r="L14" s="1" t="n"/>
+      <c r="M14" s="1" t="n"/>
+      <c r="N14" s="1" t="n"/>
+      <c r="O14" s="1" t="n"/>
+      <c r="P14" s="1" t="n"/>
+      <c r="Q14" s="1" t="n"/>
+      <c r="R14" s="1" t="n"/>
+      <c r="S14" s="1" t="n"/>
+      <c r="T14" s="1" t="n"/>
+      <c r="U14" s="1" t="n"/>
+      <c r="V14" s="1" t="n"/>
+      <c r="W14" s="1" t="n"/>
+      <c r="X14" s="1" t="n"/>
+      <c r="Y14" s="1" t="n"/>
+      <c r="Z14" s="1" t="n"/>
+      <c r="AA14" s="1" t="n"/>
+      <c r="AB14" s="1" t="n"/>
+      <c r="AC14" s="1" t="n"/>
+      <c r="AD14" s="1" t="n"/>
+      <c r="AE14" s="1" t="n"/>
+      <c r="AF14" s="1" t="n"/>
+      <c r="AG14" s="1" t="n"/>
+      <c r="AH14" s="1" t="n"/>
+      <c r="AI14" s="1" t="n"/>
+      <c r="AJ14" s="1" t="n"/>
+      <c r="AK14" s="1" t="n"/>
+      <c r="AL14" s="1" t="n"/>
+      <c r="AM14" s="1" t="n"/>
+      <c r="AN14" s="1" t="n"/>
+      <c r="AO14" s="1" t="n"/>
+      <c r="AP14" s="1" t="n"/>
+      <c r="AQ14" s="1" t="n"/>
+      <c r="AR14" s="1" t="n"/>
+      <c r="AS14" s="1" t="n"/>
+      <c r="AT14" s="1" t="n"/>
+      <c r="AU14" s="1" t="n"/>
+      <c r="AV14" s="1" t="n"/>
+      <c r="AW14" s="1" t="n"/>
+      <c r="AX14" s="1" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="5" t="n"/>
+      <c r="C15" s="5" t="n"/>
+      <c r="D15" s="1" t="n"/>
+      <c r="E15" s="1" t="n"/>
+      <c r="F15" s="1" t="n"/>
+      <c r="G15" s="1" t="n"/>
+      <c r="H15" s="1" t="n"/>
+      <c r="I15" s="1" t="n"/>
+      <c r="J15" s="1" t="n"/>
+      <c r="K15" s="1" t="n"/>
+      <c r="L15" s="1" t="n"/>
+      <c r="M15" s="1" t="n"/>
+      <c r="N15" s="1" t="n"/>
+      <c r="O15" s="1" t="n"/>
+      <c r="P15" s="1" t="n"/>
+      <c r="Q15" s="1" t="n"/>
+      <c r="R15" s="1" t="n"/>
+      <c r="S15" s="1" t="n"/>
+      <c r="T15" s="1" t="n"/>
+      <c r="U15" s="1" t="n"/>
+      <c r="V15" s="1" t="n"/>
+      <c r="W15" s="1" t="n"/>
+      <c r="X15" s="1" t="n"/>
+      <c r="Y15" s="1" t="n"/>
+      <c r="Z15" s="1" t="n"/>
+      <c r="AA15" s="1" t="n"/>
+      <c r="AB15" s="1" t="n"/>
+      <c r="AC15" s="1" t="n"/>
+      <c r="AD15" s="1" t="n"/>
+      <c r="AE15" s="1" t="n"/>
+      <c r="AF15" s="1" t="n"/>
+      <c r="AG15" s="1" t="n"/>
+      <c r="AH15" s="1" t="n"/>
+      <c r="AI15" s="1" t="n"/>
+      <c r="AJ15" s="1" t="n"/>
+      <c r="AK15" s="1" t="n"/>
+      <c r="AL15" s="1" t="n"/>
+      <c r="AM15" s="1" t="n"/>
+      <c r="AN15" s="1" t="n"/>
+      <c r="AO15" s="1" t="n"/>
+      <c r="AP15" s="1" t="n"/>
+      <c r="AQ15" s="1" t="n"/>
+      <c r="AR15" s="1" t="n"/>
+      <c r="AS15" s="1" t="n"/>
+      <c r="AT15" s="1" t="n"/>
+      <c r="AU15" s="1" t="n"/>
+      <c r="AV15" s="1" t="n"/>
+      <c r="AW15" s="1" t="n"/>
+      <c r="AX15" s="1" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="5" t="n"/>
+      <c r="C16" s="5" t="n"/>
+      <c r="D16" s="1" t="n"/>
+      <c r="E16" s="1" t="n"/>
+      <c r="F16" s="1" t="n"/>
+      <c r="G16" s="1" t="n"/>
+      <c r="H16" s="1" t="n"/>
+      <c r="I16" s="1" t="n"/>
+      <c r="J16" s="1" t="n"/>
+      <c r="K16" s="1" t="n"/>
+      <c r="L16" s="1" t="n"/>
+      <c r="M16" s="1" t="n"/>
+      <c r="N16" s="1" t="n"/>
+      <c r="O16" s="1" t="n"/>
+      <c r="P16" s="1" t="n"/>
+      <c r="Q16" s="1" t="n"/>
+      <c r="R16" s="1" t="n"/>
+      <c r="S16" s="1" t="n"/>
+      <c r="T16" s="1" t="n"/>
+      <c r="U16" s="1" t="n"/>
+      <c r="V16" s="1" t="n"/>
+      <c r="W16" s="1" t="n"/>
+      <c r="X16" s="1" t="n"/>
+      <c r="Y16" s="1" t="n"/>
+      <c r="Z16" s="1" t="n"/>
+      <c r="AA16" s="1" t="n"/>
+      <c r="AB16" s="1" t="n"/>
+      <c r="AC16" s="1" t="n"/>
+      <c r="AD16" s="1" t="n"/>
+      <c r="AE16" s="1" t="n"/>
+      <c r="AF16" s="1" t="n"/>
+      <c r="AG16" s="1" t="n"/>
+      <c r="AH16" s="1" t="n"/>
+      <c r="AI16" s="1" t="n"/>
+      <c r="AJ16" s="1" t="n"/>
+      <c r="AK16" s="1" t="n"/>
+      <c r="AL16" s="1" t="n"/>
+      <c r="AM16" s="1" t="n"/>
+      <c r="AN16" s="1" t="n"/>
+      <c r="AO16" s="1" t="n"/>
+      <c r="AP16" s="1" t="n"/>
+      <c r="AQ16" s="1" t="n"/>
+      <c r="AR16" s="1" t="n"/>
+      <c r="AS16" s="1" t="n"/>
+      <c r="AT16" s="1" t="n"/>
+      <c r="AU16" s="1" t="n"/>
+      <c r="AV16" s="1" t="n"/>
+      <c r="AW16" s="1" t="n"/>
+      <c r="AX16" s="1" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="5" t="n"/>
+      <c r="C17" s="5" t="n"/>
+      <c r="D17" s="1" t="n"/>
+      <c r="E17" s="1" t="n"/>
+      <c r="F17" s="1" t="n"/>
+      <c r="G17" s="1" t="n"/>
+      <c r="H17" s="1" t="n"/>
+      <c r="I17" s="1" t="n"/>
+      <c r="J17" s="1" t="n"/>
+      <c r="K17" s="1" t="n"/>
+      <c r="L17" s="1" t="n"/>
+      <c r="M17" s="1" t="n"/>
+      <c r="N17" s="1" t="n"/>
+      <c r="O17" s="1" t="n"/>
+      <c r="P17" s="1" t="n"/>
+      <c r="Q17" s="1" t="n"/>
+      <c r="R17" s="1" t="n"/>
+      <c r="S17" s="1" t="n"/>
+      <c r="T17" s="1" t="n"/>
+      <c r="U17" s="1" t="n"/>
+      <c r="V17" s="1" t="n"/>
+      <c r="W17" s="1" t="n"/>
+      <c r="X17" s="1" t="n"/>
+      <c r="Y17" s="1" t="n"/>
+      <c r="Z17" s="1" t="n"/>
+      <c r="AA17" s="1" t="n"/>
+      <c r="AB17" s="1" t="n"/>
+      <c r="AC17" s="1" t="n"/>
+      <c r="AD17" s="1" t="n"/>
+      <c r="AE17" s="1" t="n"/>
+      <c r="AF17" s="1" t="n"/>
+      <c r="AG17" s="1" t="n"/>
+      <c r="AH17" s="1" t="n"/>
+      <c r="AI17" s="1" t="n"/>
+      <c r="AJ17" s="1" t="n"/>
+      <c r="AK17" s="1" t="n"/>
+      <c r="AL17" s="1" t="n"/>
+      <c r="AM17" s="1" t="n"/>
+      <c r="AN17" s="1" t="n"/>
+      <c r="AO17" s="1" t="n"/>
+      <c r="AP17" s="1" t="n"/>
+      <c r="AQ17" s="1" t="n"/>
+      <c r="AR17" s="1" t="n"/>
+      <c r="AS17" s="1" t="n"/>
+      <c r="AT17" s="1" t="n"/>
+      <c r="AU17" s="1" t="n"/>
+      <c r="AV17" s="1" t="n"/>
+      <c r="AW17" s="1" t="n"/>
+      <c r="AX17" s="1" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="5" t="n"/>
+      <c r="C18" s="5" t="n"/>
+      <c r="D18" s="1" t="n"/>
+      <c r="E18" s="1" t="n"/>
+      <c r="F18" s="1" t="n"/>
+      <c r="G18" s="1" t="n"/>
+      <c r="H18" s="1" t="n"/>
+      <c r="I18" s="1" t="n"/>
+      <c r="J18" s="1" t="n"/>
+      <c r="K18" s="1" t="n"/>
+      <c r="L18" s="1" t="n"/>
+      <c r="M18" s="1" t="n"/>
+      <c r="N18" s="1" t="n"/>
+      <c r="O18" s="1" t="n"/>
+      <c r="P18" s="1" t="n"/>
+      <c r="Q18" s="1" t="n"/>
+      <c r="R18" s="1" t="n"/>
+      <c r="S18" s="1" t="n"/>
+      <c r="T18" s="1" t="n"/>
+      <c r="U18" s="1" t="n"/>
+      <c r="V18" s="1" t="n"/>
+      <c r="W18" s="1" t="n"/>
+      <c r="X18" s="1" t="n"/>
+      <c r="Y18" s="1" t="n"/>
+      <c r="Z18" s="1" t="n"/>
+      <c r="AA18" s="1" t="n"/>
+      <c r="AB18" s="1" t="n"/>
+      <c r="AC18" s="1" t="n"/>
+      <c r="AD18" s="1" t="n"/>
+      <c r="AE18" s="1" t="n"/>
+      <c r="AF18" s="1" t="n"/>
+      <c r="AG18" s="1" t="n"/>
+      <c r="AH18" s="1" t="n"/>
+      <c r="AI18" s="1" t="n"/>
+      <c r="AJ18" s="1" t="n"/>
+      <c r="AK18" s="1" t="n"/>
+      <c r="AL18" s="1" t="n"/>
+      <c r="AM18" s="1" t="n"/>
+      <c r="AN18" s="1" t="n"/>
+      <c r="AO18" s="1" t="n"/>
+      <c r="AP18" s="1" t="n"/>
+      <c r="AQ18" s="1" t="n"/>
+      <c r="AR18" s="1" t="n"/>
+      <c r="AS18" s="1" t="n"/>
+      <c r="AT18" s="1" t="n"/>
+      <c r="AU18" s="1" t="n"/>
+      <c r="AV18" s="1" t="n"/>
+      <c r="AW18" s="1" t="n"/>
+      <c r="AX18" s="1" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="5" t="n"/>
+      <c r="C19" s="5" t="n"/>
+      <c r="D19" s="1" t="n"/>
+      <c r="E19" s="1" t="n"/>
+      <c r="F19" s="1" t="n"/>
+      <c r="G19" s="1" t="n"/>
+      <c r="H19" s="1" t="n"/>
+      <c r="I19" s="1" t="n"/>
+      <c r="J19" s="1" t="n"/>
+      <c r="K19" s="1" t="n"/>
+      <c r="L19" s="1" t="n"/>
+      <c r="M19" s="1" t="n"/>
+      <c r="N19" s="1" t="n"/>
+      <c r="O19" s="1" t="n"/>
+      <c r="P19" s="1" t="n"/>
+      <c r="Q19" s="1" t="n"/>
+      <c r="R19" s="1" t="n"/>
+      <c r="S19" s="1" t="n"/>
+      <c r="T19" s="1" t="n"/>
+      <c r="U19" s="1" t="n"/>
+      <c r="V19" s="1" t="n"/>
+      <c r="W19" s="1" t="n"/>
+      <c r="X19" s="1" t="n"/>
+      <c r="Y19" s="1" t="n"/>
+      <c r="Z19" s="1" t="n"/>
+      <c r="AA19" s="1" t="n"/>
+      <c r="AB19" s="1" t="n"/>
+      <c r="AC19" s="1" t="n"/>
+      <c r="AD19" s="1" t="n"/>
+      <c r="AE19" s="1" t="n"/>
+      <c r="AF19" s="1" t="n"/>
+      <c r="AG19" s="1" t="n"/>
+      <c r="AH19" s="1" t="n"/>
+      <c r="AI19" s="1" t="n"/>
+      <c r="AJ19" s="1" t="n"/>
+      <c r="AK19" s="1" t="n"/>
+      <c r="AL19" s="1" t="n"/>
+      <c r="AM19" s="1" t="n"/>
+      <c r="AN19" s="1" t="n"/>
+      <c r="AO19" s="1" t="n"/>
+      <c r="AP19" s="1" t="n"/>
+      <c r="AQ19" s="1" t="n"/>
+      <c r="AR19" s="1" t="n"/>
+      <c r="AS19" s="1" t="n"/>
+      <c r="AT19" s="1" t="n"/>
+      <c r="AU19" s="1" t="n"/>
+      <c r="AV19" s="1" t="n"/>
+      <c r="AW19" s="1" t="n"/>
+      <c r="AX19" s="1" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="5" t="n"/>
+      <c r="C20" s="5" t="n"/>
+      <c r="D20" s="1" t="n"/>
+      <c r="E20" s="1" t="n"/>
+      <c r="F20" s="1" t="n"/>
+      <c r="G20" s="1" t="n"/>
+      <c r="H20" s="1" t="n"/>
+      <c r="I20" s="1" t="n"/>
+      <c r="J20" s="1" t="n"/>
+      <c r="K20" s="1" t="n"/>
+      <c r="L20" s="1" t="n"/>
+      <c r="M20" s="1" t="n"/>
+      <c r="N20" s="1" t="n"/>
+      <c r="O20" s="1" t="n"/>
+      <c r="P20" s="1" t="n"/>
+      <c r="Q20" s="1" t="n"/>
+      <c r="R20" s="1" t="n"/>
+      <c r="S20" s="1" t="n"/>
+      <c r="T20" s="1" t="n"/>
+      <c r="U20" s="1" t="n"/>
+      <c r="V20" s="1" t="n"/>
+      <c r="W20" s="1" t="n"/>
+      <c r="X20" s="1" t="n"/>
+      <c r="Y20" s="1" t="n"/>
+      <c r="Z20" s="1" t="n"/>
+      <c r="AA20" s="1" t="n"/>
+      <c r="AB20" s="1" t="n"/>
+      <c r="AC20" s="1" t="n"/>
+      <c r="AD20" s="1" t="n"/>
+      <c r="AE20" s="1" t="n"/>
+      <c r="AF20" s="1" t="n"/>
+      <c r="AG20" s="1" t="n"/>
+      <c r="AH20" s="1" t="n"/>
+      <c r="AI20" s="1" t="n"/>
+      <c r="AJ20" s="1" t="n"/>
+      <c r="AK20" s="1" t="n"/>
+      <c r="AL20" s="1" t="n"/>
+      <c r="AM20" s="1" t="n"/>
+      <c r="AN20" s="1" t="n"/>
+      <c r="AO20" s="1" t="n"/>
+      <c r="AP20" s="1" t="n"/>
+      <c r="AQ20" s="1" t="n"/>
+      <c r="AR20" s="1" t="n"/>
+      <c r="AS20" s="1" t="n"/>
+      <c r="AT20" s="1" t="n"/>
+      <c r="AU20" s="1" t="n"/>
+      <c r="AV20" s="1" t="n"/>
+      <c r="AW20" s="1" t="n"/>
+      <c r="AX20" s="1" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="5" t="n"/>
+      <c r="C21" s="5" t="n"/>
+      <c r="D21" s="1" t="n"/>
+      <c r="E21" s="1" t="n"/>
+      <c r="F21" s="1" t="n"/>
+      <c r="G21" s="1" t="n"/>
+      <c r="H21" s="1" t="n"/>
+      <c r="I21" s="1" t="n"/>
+      <c r="J21" s="1" t="n"/>
+      <c r="K21" s="1" t="n"/>
+      <c r="L21" s="1" t="n"/>
+      <c r="M21" s="1" t="n"/>
+      <c r="N21" s="1" t="n"/>
+      <c r="O21" s="1" t="n"/>
+      <c r="P21" s="1" t="n"/>
+      <c r="Q21" s="1" t="n"/>
+      <c r="R21" s="1" t="n"/>
+      <c r="S21" s="1" t="n"/>
+      <c r="T21" s="1" t="n"/>
+      <c r="U21" s="1" t="n"/>
+      <c r="V21" s="1" t="n"/>
+      <c r="W21" s="1" t="n"/>
+      <c r="X21" s="1" t="n"/>
+      <c r="Y21" s="1" t="n"/>
+      <c r="Z21" s="1" t="n"/>
+      <c r="AA21" s="1" t="n"/>
+      <c r="AB21" s="1" t="n"/>
+      <c r="AC21" s="1" t="n"/>
+      <c r="AD21" s="1" t="n"/>
+      <c r="AE21" s="1" t="n"/>
+      <c r="AF21" s="1" t="n"/>
+      <c r="AG21" s="1" t="n"/>
+      <c r="AH21" s="1" t="n"/>
+      <c r="AI21" s="1" t="n"/>
+      <c r="AJ21" s="1" t="n"/>
+      <c r="AK21" s="1" t="n"/>
+      <c r="AL21" s="1" t="n"/>
+      <c r="AM21" s="1" t="n"/>
+      <c r="AN21" s="1" t="n"/>
+      <c r="AO21" s="1" t="n"/>
+      <c r="AP21" s="1" t="n"/>
+      <c r="AQ21" s="1" t="n"/>
+      <c r="AR21" s="1" t="n"/>
+      <c r="AS21" s="1" t="n"/>
+      <c r="AT21" s="1" t="n"/>
+      <c r="AU21" s="1" t="n"/>
+      <c r="AV21" s="1" t="n"/>
+      <c r="AW21" s="1" t="n"/>
+      <c r="AX21" s="1" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="5" t="n"/>
+      <c r="C22" s="5" t="n"/>
+      <c r="D22" s="1" t="n"/>
+      <c r="E22" s="1" t="n"/>
+      <c r="F22" s="1" t="n"/>
+      <c r="G22" s="1" t="n"/>
+      <c r="H22" s="1" t="n"/>
+      <c r="I22" s="1" t="n"/>
+      <c r="J22" s="1" t="n"/>
+      <c r="K22" s="1" t="n"/>
+      <c r="L22" s="1" t="n"/>
+      <c r="M22" s="1" t="n"/>
+      <c r="N22" s="1" t="n"/>
+      <c r="O22" s="1" t="n"/>
+      <c r="P22" s="1" t="n"/>
+      <c r="Q22" s="1" t="n"/>
+      <c r="R22" s="1" t="n"/>
+      <c r="S22" s="1" t="n"/>
+      <c r="T22" s="1" t="n"/>
+      <c r="U22" s="1" t="n"/>
+      <c r="V22" s="1" t="n"/>
+      <c r="W22" s="1" t="n"/>
+      <c r="X22" s="1" t="n"/>
+      <c r="Y22" s="1" t="n"/>
+      <c r="Z22" s="1" t="n"/>
+      <c r="AA22" s="1" t="n"/>
+      <c r="AB22" s="1" t="n"/>
+      <c r="AC22" s="1" t="n"/>
+      <c r="AD22" s="1" t="n"/>
+      <c r="AE22" s="1" t="n"/>
+      <c r="AF22" s="1" t="n"/>
+      <c r="AG22" s="1" t="n"/>
+      <c r="AH22" s="1" t="n"/>
+      <c r="AI22" s="1" t="n"/>
+      <c r="AJ22" s="1" t="n"/>
+      <c r="AK22" s="1" t="n"/>
+      <c r="AL22" s="1" t="n"/>
+      <c r="AM22" s="1" t="n"/>
+      <c r="AN22" s="1" t="n"/>
+      <c r="AO22" s="1" t="n"/>
+      <c r="AP22" s="1" t="n"/>
+      <c r="AQ22" s="1" t="n"/>
+      <c r="AR22" s="1" t="n"/>
+      <c r="AS22" s="1" t="n"/>
+      <c r="AT22" s="1" t="n"/>
+      <c r="AU22" s="1" t="n"/>
+      <c r="AV22" s="1" t="n"/>
+      <c r="AW22" s="1" t="n"/>
+      <c r="AX22" s="1" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="5" t="n"/>
+      <c r="C23" s="5" t="n"/>
+      <c r="D23" s="1" t="n"/>
+      <c r="E23" s="1" t="n"/>
+      <c r="F23" s="1" t="n"/>
+      <c r="G23" s="1" t="n"/>
+      <c r="H23" s="1" t="n"/>
+      <c r="I23" s="1" t="n"/>
+      <c r="J23" s="1" t="n"/>
+      <c r="K23" s="1" t="n"/>
+      <c r="L23" s="1" t="n"/>
+      <c r="M23" s="1" t="n"/>
+      <c r="N23" s="1" t="n"/>
+      <c r="O23" s="1" t="n"/>
+      <c r="P23" s="1" t="n"/>
+      <c r="Q23" s="1" t="n"/>
+      <c r="R23" s="1" t="n"/>
+      <c r="S23" s="1" t="n"/>
+      <c r="T23" s="1" t="n"/>
+      <c r="U23" s="1" t="n"/>
+      <c r="V23" s="1" t="n"/>
+      <c r="W23" s="1" t="n"/>
+      <c r="X23" s="1" t="n"/>
+      <c r="Y23" s="1" t="n"/>
+      <c r="Z23" s="1" t="n"/>
+      <c r="AA23" s="1" t="n"/>
+      <c r="AB23" s="1" t="n"/>
+      <c r="AC23" s="1" t="n"/>
+      <c r="AD23" s="1" t="n"/>
+      <c r="AE23" s="1" t="n"/>
+      <c r="AF23" s="1" t="n"/>
+      <c r="AG23" s="1" t="n"/>
+      <c r="AH23" s="1" t="n"/>
+      <c r="AI23" s="1" t="n"/>
+      <c r="AJ23" s="1" t="n"/>
+      <c r="AK23" s="1" t="n"/>
+      <c r="AL23" s="1" t="n"/>
+      <c r="AM23" s="1" t="n"/>
+      <c r="AN23" s="1" t="n"/>
+      <c r="AO23" s="1" t="n"/>
+      <c r="AP23" s="1" t="n"/>
+      <c r="AQ23" s="1" t="n"/>
+      <c r="AR23" s="1" t="n"/>
+      <c r="AS23" s="1" t="n"/>
+      <c r="AT23" s="1" t="n"/>
+      <c r="AU23" s="1" t="n"/>
+      <c r="AV23" s="1" t="n"/>
+      <c r="AW23" s="1" t="n"/>
+      <c r="AX23" s="1" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="5" t="n"/>
+      <c r="C24" s="5" t="n"/>
+      <c r="D24" s="1" t="n"/>
+      <c r="E24" s="1" t="n"/>
+      <c r="F24" s="1" t="n"/>
+      <c r="G24" s="1" t="n"/>
+      <c r="H24" s="1" t="n"/>
+      <c r="I24" s="1" t="n"/>
+      <c r="J24" s="1" t="n"/>
+      <c r="K24" s="1" t="n"/>
+      <c r="L24" s="1" t="n"/>
+      <c r="M24" s="1" t="n"/>
+      <c r="N24" s="1" t="n"/>
+      <c r="O24" s="1" t="n"/>
+      <c r="P24" s="1" t="n"/>
+      <c r="Q24" s="1" t="n"/>
+      <c r="R24" s="1" t="n"/>
+      <c r="S24" s="1" t="n"/>
+      <c r="T24" s="1" t="n"/>
+      <c r="U24" s="1" t="n"/>
+      <c r="V24" s="1" t="n"/>
+      <c r="W24" s="1" t="n"/>
+      <c r="X24" s="1" t="n"/>
+      <c r="Y24" s="1" t="n"/>
+      <c r="Z24" s="1" t="n"/>
+      <c r="AA24" s="1" t="n"/>
+      <c r="AB24" s="1" t="n"/>
+      <c r="AC24" s="1" t="n"/>
+      <c r="AD24" s="1" t="n"/>
+      <c r="AE24" s="1" t="n"/>
+      <c r="AF24" s="1" t="n"/>
+      <c r="AG24" s="1" t="n"/>
+      <c r="AH24" s="1" t="n"/>
+      <c r="AI24" s="1" t="n"/>
+      <c r="AJ24" s="1" t="n"/>
+      <c r="AK24" s="1" t="n"/>
+      <c r="AL24" s="1" t="n"/>
+      <c r="AM24" s="1" t="n"/>
+      <c r="AN24" s="1" t="n"/>
+      <c r="AO24" s="1" t="n"/>
+      <c r="AP24" s="1" t="n"/>
+      <c r="AQ24" s="1" t="n"/>
+      <c r="AR24" s="1" t="n"/>
+      <c r="AS24" s="1" t="n"/>
+      <c r="AT24" s="1" t="n"/>
+      <c r="AU24" s="1" t="n"/>
+      <c r="AV24" s="1" t="n"/>
+      <c r="AW24" s="1" t="n"/>
+      <c r="AX24" s="1" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="5" t="n"/>
+      <c r="C25" s="5" t="n"/>
+      <c r="D25" s="1" t="n"/>
+      <c r="E25" s="1" t="n"/>
+      <c r="F25" s="1" t="n"/>
+      <c r="G25" s="1" t="n"/>
+      <c r="H25" s="1" t="n"/>
+      <c r="I25" s="1" t="n"/>
+      <c r="J25" s="1" t="n"/>
+      <c r="K25" s="1" t="n"/>
+      <c r="L25" s="1" t="n"/>
+      <c r="M25" s="1" t="n"/>
+      <c r="N25" s="1" t="n"/>
+      <c r="O25" s="1" t="n"/>
+      <c r="P25" s="1" t="n"/>
+      <c r="Q25" s="1" t="n"/>
+      <c r="R25" s="1" t="n"/>
+      <c r="S25" s="1" t="n"/>
+      <c r="T25" s="1" t="n"/>
+      <c r="U25" s="1" t="n"/>
+      <c r="V25" s="1" t="n"/>
+      <c r="W25" s="1" t="n"/>
+      <c r="X25" s="1" t="n"/>
+      <c r="Y25" s="1" t="n"/>
+      <c r="Z25" s="1" t="n"/>
+      <c r="AA25" s="1" t="n"/>
+      <c r="AB25" s="1" t="n"/>
+      <c r="AC25" s="1" t="n"/>
+      <c r="AD25" s="1" t="n"/>
+      <c r="AE25" s="1" t="n"/>
+      <c r="AF25" s="1" t="n"/>
+      <c r="AG25" s="1" t="n"/>
+      <c r="AH25" s="1" t="n"/>
+      <c r="AI25" s="1" t="n"/>
+      <c r="AJ25" s="1" t="n"/>
+      <c r="AK25" s="1" t="n"/>
+      <c r="AL25" s="1" t="n"/>
+      <c r="AM25" s="1" t="n"/>
+      <c r="AN25" s="1" t="n"/>
+      <c r="AO25" s="1" t="n"/>
+      <c r="AP25" s="1" t="n"/>
+      <c r="AQ25" s="1" t="n"/>
+      <c r="AR25" s="1" t="n"/>
+      <c r="AS25" s="1" t="n"/>
+      <c r="AT25" s="1" t="n"/>
+      <c r="AU25" s="1" t="n"/>
+      <c r="AV25" s="1" t="n"/>
+      <c r="AW25" s="1" t="n"/>
+      <c r="AX25" s="1" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="5" t="n"/>
+      <c r="C26" s="5" t="n"/>
+      <c r="D26" s="1" t="n"/>
+      <c r="E26" s="1" t="n"/>
+      <c r="F26" s="1" t="n"/>
+      <c r="G26" s="1" t="n"/>
+      <c r="H26" s="1" t="n"/>
+      <c r="I26" s="1" t="n"/>
+      <c r="J26" s="1" t="n"/>
+      <c r="K26" s="1" t="n"/>
+      <c r="L26" s="1" t="n"/>
+      <c r="M26" s="1" t="n"/>
+      <c r="N26" s="1" t="n"/>
+      <c r="O26" s="1" t="n"/>
+      <c r="P26" s="1" t="n"/>
+      <c r="Q26" s="1" t="n"/>
+      <c r="R26" s="1" t="n"/>
+      <c r="S26" s="1" t="n"/>
+      <c r="T26" s="1" t="n"/>
+      <c r="U26" s="1" t="n"/>
+      <c r="V26" s="1" t="n"/>
+      <c r="W26" s="1" t="n"/>
+      <c r="X26" s="1" t="n"/>
+      <c r="Y26" s="1" t="n"/>
+      <c r="Z26" s="1" t="n"/>
+      <c r="AA26" s="1" t="n"/>
+      <c r="AB26" s="1" t="n"/>
+      <c r="AC26" s="1" t="n"/>
+      <c r="AD26" s="1" t="n"/>
+      <c r="AE26" s="1" t="n"/>
+      <c r="AF26" s="1" t="n"/>
+      <c r="AG26" s="1" t="n"/>
+      <c r="AH26" s="1" t="n"/>
+      <c r="AI26" s="1" t="n"/>
+      <c r="AJ26" s="1" t="n"/>
+      <c r="AK26" s="1" t="n"/>
+      <c r="AL26" s="1" t="n"/>
+      <c r="AM26" s="1" t="n"/>
+      <c r="AN26" s="1" t="n"/>
+      <c r="AO26" s="1" t="n"/>
+      <c r="AP26" s="1" t="n"/>
+      <c r="AQ26" s="1" t="n"/>
+      <c r="AR26" s="1" t="n"/>
+      <c r="AS26" s="1" t="n"/>
+      <c r="AT26" s="1" t="n"/>
+      <c r="AU26" s="1" t="n"/>
+      <c r="AV26" s="1" t="n"/>
+      <c r="AW26" s="1" t="n"/>
+      <c r="AX26" s="1" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="5" t="n"/>
+      <c r="C27" s="5" t="n"/>
+      <c r="D27" s="1" t="n"/>
+      <c r="E27" s="1" t="n"/>
+      <c r="F27" s="1" t="n"/>
+      <c r="G27" s="1" t="n"/>
+      <c r="H27" s="1" t="n"/>
+      <c r="I27" s="1" t="n"/>
+      <c r="J27" s="1" t="n"/>
+      <c r="K27" s="1" t="n"/>
+      <c r="L27" s="1" t="n"/>
+      <c r="M27" s="1" t="n"/>
+      <c r="N27" s="1" t="n"/>
+      <c r="O27" s="1" t="n"/>
+      <c r="P27" s="1" t="n"/>
+      <c r="Q27" s="1" t="n"/>
+      <c r="R27" s="1" t="n"/>
+      <c r="S27" s="1" t="n"/>
+      <c r="T27" s="1" t="n"/>
+      <c r="U27" s="1" t="n"/>
+      <c r="V27" s="1" t="n"/>
+      <c r="W27" s="1" t="n"/>
+      <c r="X27" s="1" t="n"/>
+      <c r="Y27" s="1" t="n"/>
+      <c r="Z27" s="1" t="n"/>
+      <c r="AA27" s="1" t="n"/>
+      <c r="AB27" s="1" t="n"/>
+      <c r="AC27" s="1" t="n"/>
+      <c r="AD27" s="1" t="n"/>
+      <c r="AE27" s="1" t="n"/>
+      <c r="AF27" s="1" t="n"/>
+      <c r="AG27" s="1" t="n"/>
+      <c r="AH27" s="1" t="n"/>
+      <c r="AI27" s="1" t="n"/>
+      <c r="AJ27" s="1" t="n"/>
+      <c r="AK27" s="1" t="n"/>
+      <c r="AL27" s="1" t="n"/>
+      <c r="AM27" s="1" t="n"/>
+      <c r="AN27" s="1" t="n"/>
+      <c r="AO27" s="1" t="n"/>
+      <c r="AP27" s="1" t="n"/>
+      <c r="AQ27" s="1" t="n"/>
+      <c r="AR27" s="1" t="n"/>
+      <c r="AS27" s="1" t="n"/>
+      <c r="AT27" s="1" t="n"/>
+      <c r="AU27" s="1" t="n"/>
+      <c r="AV27" s="1" t="n"/>
+      <c r="AW27" s="1" t="n"/>
+      <c r="AX27" s="1" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="5" t="n"/>
+      <c r="C28" s="5" t="n"/>
+      <c r="D28" s="1" t="n"/>
+      <c r="E28" s="1" t="n"/>
+      <c r="F28" s="1" t="n"/>
+      <c r="G28" s="1" t="n"/>
+      <c r="H28" s="1" t="n"/>
+      <c r="I28" s="1" t="n"/>
+      <c r="J28" s="1" t="n"/>
+      <c r="K28" s="1" t="n"/>
+      <c r="L28" s="1" t="n"/>
+      <c r="M28" s="1" t="n"/>
+      <c r="N28" s="1" t="n"/>
+      <c r="O28" s="1" t="n"/>
+      <c r="P28" s="1" t="n"/>
+      <c r="Q28" s="1" t="n"/>
+      <c r="R28" s="1" t="n"/>
+      <c r="S28" s="1" t="n"/>
+      <c r="T28" s="1" t="n"/>
+      <c r="U28" s="1" t="n"/>
+      <c r="V28" s="1" t="n"/>
+      <c r="W28" s="1" t="n"/>
+      <c r="X28" s="1" t="n"/>
+      <c r="Y28" s="1" t="n"/>
+      <c r="Z28" s="1" t="n"/>
+      <c r="AA28" s="1" t="n"/>
+      <c r="AB28" s="1" t="n"/>
+      <c r="AC28" s="1" t="n"/>
+      <c r="AD28" s="1" t="n"/>
+      <c r="AE28" s="1" t="n"/>
+      <c r="AF28" s="1" t="n"/>
+      <c r="AG28" s="1" t="n"/>
+      <c r="AH28" s="1" t="n"/>
+      <c r="AI28" s="1" t="n"/>
+      <c r="AJ28" s="1" t="n"/>
+      <c r="AK28" s="1" t="n"/>
+      <c r="AL28" s="1" t="n"/>
+      <c r="AM28" s="1" t="n"/>
+      <c r="AN28" s="1" t="n"/>
+      <c r="AO28" s="1" t="n"/>
+      <c r="AP28" s="1" t="n"/>
+      <c r="AQ28" s="1" t="n"/>
+      <c r="AR28" s="1" t="n"/>
+      <c r="AS28" s="1" t="n"/>
+      <c r="AT28" s="1" t="n"/>
+      <c r="AU28" s="1" t="n"/>
+      <c r="AV28" s="1" t="n"/>
+      <c r="AW28" s="1" t="n"/>
+      <c r="AX28" s="1" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="5" t="n"/>
+      <c r="C29" s="5" t="n"/>
+      <c r="D29" s="1" t="n"/>
+      <c r="E29" s="1" t="n"/>
+      <c r="F29" s="1" t="n"/>
+      <c r="G29" s="1" t="n"/>
+      <c r="H29" s="1" t="n"/>
+      <c r="I29" s="1" t="n"/>
+      <c r="J29" s="1" t="n"/>
+      <c r="K29" s="1" t="n"/>
+      <c r="L29" s="1" t="n"/>
+      <c r="M29" s="1" t="n"/>
+      <c r="N29" s="1" t="n"/>
+      <c r="O29" s="1" t="n"/>
+      <c r="P29" s="1" t="n"/>
+      <c r="Q29" s="1" t="n"/>
+      <c r="R29" s="1" t="n"/>
+      <c r="S29" s="1" t="n"/>
+      <c r="T29" s="1" t="n"/>
+      <c r="U29" s="1" t="n"/>
+      <c r="V29" s="1" t="n"/>
+      <c r="W29" s="1" t="n"/>
+      <c r="X29" s="1" t="n"/>
+      <c r="Y29" s="1" t="n"/>
+      <c r="Z29" s="1" t="n"/>
+      <c r="AA29" s="1" t="n"/>
+      <c r="AB29" s="1" t="n"/>
+      <c r="AC29" s="1" t="n"/>
+      <c r="AD29" s="1" t="n"/>
+      <c r="AE29" s="1" t="n"/>
+      <c r="AF29" s="1" t="n"/>
+      <c r="AG29" s="1" t="n"/>
+      <c r="AH29" s="1" t="n"/>
+      <c r="AI29" s="1" t="n"/>
+      <c r="AJ29" s="1" t="n"/>
+      <c r="AK29" s="1" t="n"/>
+      <c r="AL29" s="1" t="n"/>
+      <c r="AM29" s="1" t="n"/>
+      <c r="AN29" s="1" t="n"/>
+      <c r="AO29" s="1" t="n"/>
+      <c r="AP29" s="1" t="n"/>
+      <c r="AQ29" s="1" t="n"/>
+      <c r="AR29" s="1" t="n"/>
+      <c r="AS29" s="1" t="n"/>
+      <c r="AT29" s="1" t="n"/>
+      <c r="AU29" s="1" t="n"/>
+      <c r="AV29" s="1" t="n"/>
+      <c r="AW29" s="1" t="n"/>
+      <c r="AX29" s="1" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="5" t="n"/>
+      <c r="C30" s="5" t="n"/>
+      <c r="D30" s="1" t="n"/>
+      <c r="E30" s="1" t="n"/>
+      <c r="F30" s="1" t="n"/>
+      <c r="G30" s="1" t="n"/>
+      <c r="H30" s="1" t="n"/>
+      <c r="I30" s="1" t="n"/>
+      <c r="J30" s="1" t="n"/>
+      <c r="K30" s="1" t="n"/>
+      <c r="L30" s="1" t="n"/>
+      <c r="M30" s="1" t="n"/>
+      <c r="N30" s="1" t="n"/>
+      <c r="O30" s="1" t="n"/>
+      <c r="P30" s="1" t="n"/>
+      <c r="Q30" s="1" t="n"/>
+      <c r="R30" s="1" t="n"/>
+      <c r="S30" s="1" t="n"/>
+      <c r="T30" s="1" t="n"/>
+      <c r="U30" s="1" t="n"/>
+      <c r="V30" s="1" t="n"/>
+      <c r="W30" s="1" t="n"/>
+      <c r="X30" s="1" t="n"/>
+      <c r="Y30" s="1" t="n"/>
+      <c r="Z30" s="1" t="n"/>
+      <c r="AA30" s="1" t="n"/>
+      <c r="AB30" s="1" t="n"/>
+      <c r="AC30" s="1" t="n"/>
+      <c r="AD30" s="1" t="n"/>
+      <c r="AE30" s="1" t="n"/>
+      <c r="AF30" s="1" t="n"/>
+      <c r="AG30" s="1" t="n"/>
+      <c r="AH30" s="1" t="n"/>
+      <c r="AI30" s="1" t="n"/>
+      <c r="AJ30" s="1" t="n"/>
+      <c r="AK30" s="1" t="n"/>
+      <c r="AL30" s="1" t="n"/>
+      <c r="AM30" s="1" t="n"/>
+      <c r="AN30" s="1" t="n"/>
+      <c r="AO30" s="1" t="n"/>
+      <c r="AP30" s="1" t="n"/>
+      <c r="AQ30" s="1" t="n"/>
+      <c r="AR30" s="1" t="n"/>
+      <c r="AS30" s="1" t="n"/>
+      <c r="AT30" s="1" t="n"/>
+      <c r="AU30" s="1" t="n"/>
+      <c r="AV30" s="1" t="n"/>
+      <c r="AW30" s="1" t="n"/>
+      <c r="AX30" s="1" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="5" t="n"/>
+      <c r="C31" s="5" t="n"/>
+      <c r="D31" s="1" t="n"/>
+      <c r="E31" s="1" t="n"/>
+      <c r="F31" s="1" t="n"/>
+      <c r="G31" s="1" t="n"/>
+      <c r="H31" s="1" t="n"/>
+      <c r="I31" s="1" t="n"/>
+      <c r="J31" s="1" t="n"/>
+      <c r="K31" s="1" t="n"/>
+      <c r="L31" s="1" t="n"/>
+      <c r="M31" s="1" t="n"/>
+      <c r="N31" s="1" t="n"/>
+      <c r="O31" s="1" t="n"/>
+      <c r="P31" s="1" t="n"/>
+      <c r="Q31" s="1" t="n"/>
+      <c r="R31" s="1" t="n"/>
+      <c r="S31" s="1" t="n"/>
+      <c r="T31" s="1" t="n"/>
+      <c r="U31" s="1" t="n"/>
+      <c r="V31" s="1" t="n"/>
+      <c r="W31" s="1" t="n"/>
+      <c r="X31" s="1" t="n"/>
+      <c r="Y31" s="1" t="n"/>
+      <c r="Z31" s="1" t="n"/>
+      <c r="AA31" s="1" t="n"/>
+      <c r="AB31" s="1" t="n"/>
+      <c r="AC31" s="1" t="n"/>
+      <c r="AD31" s="1" t="n"/>
+      <c r="AE31" s="1" t="n"/>
+      <c r="AF31" s="1" t="n"/>
+      <c r="AG31" s="1" t="n"/>
+      <c r="AH31" s="1" t="n"/>
+      <c r="AI31" s="1" t="n"/>
+      <c r="AJ31" s="1" t="n"/>
+      <c r="AK31" s="1" t="n"/>
+      <c r="AL31" s="1" t="n"/>
+      <c r="AM31" s="1" t="n"/>
+      <c r="AN31" s="1" t="n"/>
+      <c r="AO31" s="1" t="n"/>
+      <c r="AP31" s="1" t="n"/>
+      <c r="AQ31" s="1" t="n"/>
+      <c r="AR31" s="1" t="n"/>
+      <c r="AS31" s="1" t="n"/>
+      <c r="AT31" s="1" t="n"/>
+      <c r="AU31" s="1" t="n"/>
+      <c r="AV31" s="1" t="n"/>
+      <c r="AW31" s="1" t="n"/>
+      <c r="AX31" s="1" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="5" t="n"/>
+      <c r="C32" s="5" t="n"/>
+      <c r="D32" s="1" t="n"/>
+      <c r="E32" s="1" t="n"/>
+      <c r="F32" s="1" t="n"/>
+      <c r="G32" s="1" t="n"/>
+      <c r="H32" s="1" t="n"/>
+      <c r="I32" s="1" t="n"/>
+      <c r="J32" s="1" t="n"/>
+      <c r="K32" s="1" t="n"/>
+      <c r="L32" s="1" t="n"/>
+      <c r="M32" s="1" t="n"/>
+      <c r="N32" s="1" t="n"/>
+      <c r="O32" s="1" t="n"/>
+      <c r="P32" s="1" t="n"/>
+      <c r="Q32" s="1" t="n"/>
+      <c r="R32" s="1" t="n"/>
+      <c r="S32" s="1" t="n"/>
+      <c r="T32" s="1" t="n"/>
+      <c r="U32" s="1" t="n"/>
+      <c r="V32" s="1" t="n"/>
+      <c r="W32" s="1" t="n"/>
+      <c r="X32" s="1" t="n"/>
+      <c r="Y32" s="1" t="n"/>
+      <c r="Z32" s="1" t="n"/>
+      <c r="AA32" s="1" t="n"/>
+      <c r="AB32" s="1" t="n"/>
+      <c r="AC32" s="1" t="n"/>
+      <c r="AD32" s="1" t="n"/>
+      <c r="AE32" s="1" t="n"/>
+      <c r="AF32" s="1" t="n"/>
+      <c r="AG32" s="1" t="n"/>
+      <c r="AH32" s="1" t="n"/>
+      <c r="AI32" s="1" t="n"/>
+      <c r="AJ32" s="1" t="n"/>
+      <c r="AK32" s="1" t="n"/>
+      <c r="AL32" s="1" t="n"/>
+      <c r="AM32" s="1" t="n"/>
+      <c r="AN32" s="1" t="n"/>
+      <c r="AO32" s="1" t="n"/>
+      <c r="AP32" s="1" t="n"/>
+      <c r="AQ32" s="1" t="n"/>
+      <c r="AR32" s="1" t="n"/>
+      <c r="AS32" s="1" t="n"/>
+      <c r="AT32" s="1" t="n"/>
+      <c r="AU32" s="1" t="n"/>
+      <c r="AV32" s="1" t="n"/>
+      <c r="AW32" s="1" t="n"/>
+      <c r="AX32" s="1" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="5" t="n"/>
+      <c r="C33" s="5" t="n"/>
+      <c r="D33" s="1" t="n"/>
+      <c r="E33" s="1" t="n"/>
+      <c r="F33" s="1" t="n"/>
+      <c r="G33" s="1" t="n"/>
+      <c r="H33" s="1" t="n"/>
+      <c r="I33" s="1" t="n"/>
+      <c r="J33" s="1" t="n"/>
+      <c r="K33" s="1" t="n"/>
+      <c r="L33" s="1" t="n"/>
+      <c r="M33" s="1" t="n"/>
+      <c r="N33" s="1" t="n"/>
+      <c r="O33" s="1" t="n"/>
+      <c r="P33" s="1" t="n"/>
+      <c r="Q33" s="1" t="n"/>
+      <c r="R33" s="1" t="n"/>
+      <c r="S33" s="1" t="n"/>
+      <c r="T33" s="1" t="n"/>
+      <c r="U33" s="1" t="n"/>
+      <c r="V33" s="1" t="n"/>
+      <c r="W33" s="1" t="n"/>
+      <c r="X33" s="1" t="n"/>
+      <c r="Y33" s="1" t="n"/>
+      <c r="Z33" s="1" t="n"/>
+      <c r="AA33" s="1" t="n"/>
+      <c r="AB33" s="1" t="n"/>
+      <c r="AC33" s="1" t="n"/>
+      <c r="AD33" s="1" t="n"/>
+      <c r="AE33" s="1" t="n"/>
+      <c r="AF33" s="1" t="n"/>
+      <c r="AG33" s="1" t="n"/>
+      <c r="AH33" s="1" t="n"/>
+      <c r="AI33" s="1" t="n"/>
+      <c r="AJ33" s="1" t="n"/>
+      <c r="AK33" s="1" t="n"/>
+      <c r="AL33" s="1" t="n"/>
+      <c r="AM33" s="1" t="n"/>
+      <c r="AN33" s="1" t="n"/>
+      <c r="AO33" s="1" t="n"/>
+      <c r="AP33" s="1" t="n"/>
+      <c r="AQ33" s="1" t="n"/>
+      <c r="AR33" s="1" t="n"/>
+      <c r="AS33" s="1" t="n"/>
+      <c r="AT33" s="1" t="n"/>
+      <c r="AU33" s="1" t="n"/>
+      <c r="AV33" s="1" t="n"/>
+      <c r="AW33" s="1" t="n"/>
+      <c r="AX33" s="1" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="5" t="n"/>
+      <c r="C34" s="5" t="n"/>
+      <c r="D34" s="1" t="n"/>
+      <c r="E34" s="1" t="n"/>
+      <c r="F34" s="1" t="n"/>
+      <c r="G34" s="1" t="n"/>
+      <c r="H34" s="1" t="n"/>
+      <c r="I34" s="1" t="n"/>
+      <c r="J34" s="1" t="n"/>
+      <c r="K34" s="1" t="n"/>
+      <c r="L34" s="1" t="n"/>
+      <c r="M34" s="1" t="n"/>
+      <c r="N34" s="1" t="n"/>
+      <c r="O34" s="1" t="n"/>
+      <c r="P34" s="1" t="n"/>
+      <c r="Q34" s="1" t="n"/>
+      <c r="R34" s="1" t="n"/>
+      <c r="S34" s="1" t="n"/>
+      <c r="T34" s="1" t="n"/>
+      <c r="U34" s="1" t="n"/>
+      <c r="V34" s="1" t="n"/>
+      <c r="W34" s="1" t="n"/>
+      <c r="X34" s="1" t="n"/>
+      <c r="Y34" s="1" t="n"/>
+      <c r="Z34" s="1" t="n"/>
+      <c r="AA34" s="1" t="n"/>
+      <c r="AB34" s="1" t="n"/>
+      <c r="AC34" s="1" t="n"/>
+      <c r="AD34" s="1" t="n"/>
+      <c r="AE34" s="1" t="n"/>
+      <c r="AF34" s="1" t="n"/>
+      <c r="AG34" s="1" t="n"/>
+      <c r="AH34" s="1" t="n"/>
+      <c r="AI34" s="1" t="n"/>
+      <c r="AJ34" s="1" t="n"/>
+      <c r="AK34" s="1" t="n"/>
+      <c r="AL34" s="1" t="n"/>
+      <c r="AM34" s="1" t="n"/>
+      <c r="AN34" s="1" t="n"/>
+      <c r="AO34" s="1" t="n"/>
+      <c r="AP34" s="1" t="n"/>
+      <c r="AQ34" s="1" t="n"/>
+      <c r="AR34" s="1" t="n"/>
+      <c r="AS34" s="1" t="n"/>
+      <c r="AT34" s="1" t="n"/>
+      <c r="AU34" s="1" t="n"/>
+      <c r="AV34" s="1" t="n"/>
+      <c r="AW34" s="1" t="n"/>
+      <c r="AX34" s="1" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="5" t="n"/>
+      <c r="C35" s="5" t="n"/>
+      <c r="D35" s="1" t="n"/>
+      <c r="E35" s="1" t="n"/>
+      <c r="F35" s="1" t="n"/>
+      <c r="G35" s="1" t="n"/>
+      <c r="H35" s="1" t="n"/>
+      <c r="I35" s="1" t="n"/>
+      <c r="J35" s="1" t="n"/>
+      <c r="K35" s="1" t="n"/>
+      <c r="L35" s="1" t="n"/>
+      <c r="M35" s="1" t="n"/>
+      <c r="N35" s="1" t="n"/>
+      <c r="O35" s="1" t="n"/>
+      <c r="P35" s="1" t="n"/>
+      <c r="Q35" s="1" t="n"/>
+      <c r="R35" s="1" t="n"/>
+      <c r="S35" s="1" t="n"/>
+      <c r="T35" s="1" t="n"/>
+      <c r="U35" s="1" t="n"/>
+      <c r="V35" s="1" t="n"/>
+      <c r="W35" s="1" t="n"/>
+      <c r="X35" s="1" t="n"/>
+      <c r="Y35" s="1" t="n"/>
+      <c r="Z35" s="1" t="n"/>
+      <c r="AA35" s="1" t="n"/>
+      <c r="AB35" s="1" t="n"/>
+      <c r="AC35" s="1" t="n"/>
+      <c r="AD35" s="1" t="n"/>
+      <c r="AE35" s="1" t="n"/>
+      <c r="AF35" s="1" t="n"/>
+      <c r="AG35" s="1" t="n"/>
+      <c r="AH35" s="1" t="n"/>
+      <c r="AI35" s="1" t="n"/>
+      <c r="AJ35" s="1" t="n"/>
+      <c r="AK35" s="1" t="n"/>
+      <c r="AL35" s="1" t="n"/>
+      <c r="AM35" s="1" t="n"/>
+      <c r="AN35" s="1" t="n"/>
+      <c r="AO35" s="1" t="n"/>
+      <c r="AP35" s="1" t="n"/>
+      <c r="AQ35" s="1" t="n"/>
+      <c r="AR35" s="1" t="n"/>
+      <c r="AS35" s="1" t="n"/>
+      <c r="AT35" s="1" t="n"/>
+      <c r="AU35" s="1" t="n"/>
+      <c r="AV35" s="1" t="n"/>
+      <c r="AW35" s="1" t="n"/>
+      <c r="AX35" s="1" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="5" t="n"/>
+      <c r="C36" s="5" t="n"/>
+      <c r="D36" s="1" t="n"/>
+      <c r="E36" s="1" t="n"/>
+      <c r="F36" s="1" t="n"/>
+      <c r="G36" s="1" t="n"/>
+      <c r="H36" s="1" t="n"/>
+      <c r="I36" s="1" t="n"/>
+      <c r="J36" s="1" t="n"/>
+      <c r="K36" s="1" t="n"/>
+      <c r="L36" s="1" t="n"/>
+      <c r="M36" s="1" t="n"/>
+      <c r="N36" s="1" t="n"/>
+      <c r="O36" s="1" t="n"/>
+      <c r="P36" s="1" t="n"/>
+      <c r="Q36" s="1" t="n"/>
+      <c r="R36" s="1" t="n"/>
+      <c r="S36" s="1" t="n"/>
+      <c r="T36" s="1" t="n"/>
+      <c r="U36" s="1" t="n"/>
+      <c r="V36" s="1" t="n"/>
+      <c r="W36" s="1" t="n"/>
+      <c r="X36" s="1" t="n"/>
+      <c r="Y36" s="1" t="n"/>
+      <c r="Z36" s="1" t="n"/>
+      <c r="AA36" s="1" t="n"/>
+      <c r="AB36" s="1" t="n"/>
+      <c r="AC36" s="1" t="n"/>
+      <c r="AD36" s="1" t="n"/>
+      <c r="AE36" s="1" t="n"/>
+      <c r="AF36" s="1" t="n"/>
+      <c r="AG36" s="1" t="n"/>
+      <c r="AH36" s="1" t="n"/>
+      <c r="AI36" s="1" t="n"/>
+      <c r="AJ36" s="1" t="n"/>
+      <c r="AK36" s="1" t="n"/>
+      <c r="AL36" s="1" t="n"/>
+      <c r="AM36" s="1" t="n"/>
+      <c r="AN36" s="1" t="n"/>
+      <c r="AO36" s="1" t="n"/>
+      <c r="AP36" s="1" t="n"/>
+      <c r="AQ36" s="1" t="n"/>
+      <c r="AR36" s="1" t="n"/>
+      <c r="AS36" s="1" t="n"/>
+      <c r="AT36" s="1" t="n"/>
+      <c r="AU36" s="1" t="n"/>
+      <c r="AV36" s="1" t="n"/>
+      <c r="AW36" s="1" t="n"/>
+      <c r="AX36" s="1" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="5" t="n"/>
+      <c r="C37" s="5" t="n"/>
+      <c r="D37" s="1" t="n"/>
+      <c r="E37" s="1" t="n"/>
+      <c r="F37" s="1" t="n"/>
+      <c r="G37" s="1" t="n"/>
+      <c r="H37" s="1" t="n"/>
+      <c r="I37" s="1" t="n"/>
+      <c r="J37" s="1" t="n"/>
+      <c r="K37" s="1" t="n"/>
+      <c r="L37" s="1" t="n"/>
+      <c r="M37" s="1" t="n"/>
+      <c r="N37" s="1" t="n"/>
+      <c r="O37" s="1" t="n"/>
+      <c r="P37" s="1" t="n"/>
+      <c r="Q37" s="1" t="n"/>
+      <c r="R37" s="1" t="n"/>
+      <c r="S37" s="1" t="n"/>
+      <c r="T37" s="1" t="n"/>
+      <c r="U37" s="1" t="n"/>
+      <c r="V37" s="1" t="n"/>
+      <c r="W37" s="1" t="n"/>
+      <c r="X37" s="1" t="n"/>
+      <c r="Y37" s="1" t="n"/>
+      <c r="Z37" s="1" t="n"/>
+      <c r="AA37" s="1" t="n"/>
+      <c r="AB37" s="1" t="n"/>
+      <c r="AC37" s="1" t="n"/>
+      <c r="AD37" s="1" t="n"/>
+      <c r="AE37" s="1" t="n"/>
+      <c r="AF37" s="1" t="n"/>
+      <c r="AG37" s="1" t="n"/>
+      <c r="AH37" s="1" t="n"/>
+      <c r="AI37" s="1" t="n"/>
+      <c r="AJ37" s="1" t="n"/>
+      <c r="AK37" s="1" t="n"/>
+      <c r="AL37" s="1" t="n"/>
+      <c r="AM37" s="1" t="n"/>
+      <c r="AN37" s="1" t="n"/>
+      <c r="AO37" s="1" t="n"/>
+      <c r="AP37" s="1" t="n"/>
+      <c r="AQ37" s="1" t="n"/>
+      <c r="AR37" s="1" t="n"/>
+      <c r="AS37" s="1" t="n"/>
+      <c r="AT37" s="1" t="n"/>
+      <c r="AU37" s="1" t="n"/>
+      <c r="AV37" s="1" t="n"/>
+      <c r="AW37" s="1" t="n"/>
+      <c r="AX37" s="1" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="5" t="n"/>
+      <c r="C38" s="5" t="n"/>
+      <c r="D38" s="1" t="n"/>
+      <c r="E38" s="1" t="n"/>
+      <c r="F38" s="1" t="n"/>
+      <c r="G38" s="1" t="n"/>
+      <c r="H38" s="1" t="n"/>
+      <c r="I38" s="1" t="n"/>
+      <c r="J38" s="1" t="n"/>
+      <c r="K38" s="1" t="n"/>
+      <c r="L38" s="1" t="n"/>
+      <c r="M38" s="1" t="n"/>
+      <c r="N38" s="1" t="n"/>
+      <c r="O38" s="1" t="n"/>
+      <c r="P38" s="1" t="n"/>
+      <c r="Q38" s="1" t="n"/>
+      <c r="R38" s="1" t="n"/>
+      <c r="S38" s="1" t="n"/>
+      <c r="T38" s="1" t="n"/>
+      <c r="U38" s="1" t="n"/>
+      <c r="V38" s="1" t="n"/>
+      <c r="W38" s="1" t="n"/>
+      <c r="X38" s="1" t="n"/>
+      <c r="Y38" s="1" t="n"/>
+      <c r="Z38" s="1" t="n"/>
+      <c r="AA38" s="1" t="n"/>
+      <c r="AB38" s="1" t="n"/>
+      <c r="AC38" s="1" t="n"/>
+      <c r="AD38" s="1" t="n"/>
+      <c r="AE38" s="1" t="n"/>
+      <c r="AF38" s="1" t="n"/>
+      <c r="AG38" s="1" t="n"/>
+      <c r="AH38" s="1" t="n"/>
+      <c r="AI38" s="1" t="n"/>
+      <c r="AJ38" s="1" t="n"/>
+      <c r="AK38" s="1" t="n"/>
+      <c r="AL38" s="1" t="n"/>
+      <c r="AM38" s="1" t="n"/>
+      <c r="AN38" s="1" t="n"/>
+      <c r="AO38" s="1" t="n"/>
+      <c r="AP38" s="1" t="n"/>
+      <c r="AQ38" s="1" t="n"/>
+      <c r="AR38" s="1" t="n"/>
+      <c r="AS38" s="1" t="n"/>
+      <c r="AT38" s="1" t="n"/>
+      <c r="AU38" s="1" t="n"/>
+      <c r="AV38" s="1" t="n"/>
+      <c r="AW38" s="1" t="n"/>
+      <c r="AX38" s="1" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="5" t="n"/>
+      <c r="C39" s="5" t="n"/>
+      <c r="D39" s="1" t="n"/>
+      <c r="E39" s="1" t="n"/>
+      <c r="F39" s="1" t="n"/>
+      <c r="G39" s="1" t="n"/>
+      <c r="H39" s="1" t="n"/>
+      <c r="I39" s="1" t="n"/>
+      <c r="J39" s="1" t="n"/>
+      <c r="K39" s="1" t="n"/>
+      <c r="L39" s="1" t="n"/>
+      <c r="M39" s="1" t="n"/>
+      <c r="N39" s="1" t="n"/>
+      <c r="O39" s="1" t="n"/>
+      <c r="P39" s="1" t="n"/>
+      <c r="Q39" s="1" t="n"/>
+      <c r="R39" s="1" t="n"/>
+      <c r="S39" s="1" t="n"/>
+      <c r="T39" s="1" t="n"/>
+      <c r="U39" s="1" t="n"/>
+      <c r="V39" s="1" t="n"/>
+      <c r="W39" s="1" t="n"/>
+      <c r="X39" s="1" t="n"/>
+      <c r="Y39" s="1" t="n"/>
+      <c r="Z39" s="1" t="n"/>
+      <c r="AA39" s="1" t="n"/>
+      <c r="AB39" s="1" t="n"/>
+      <c r="AC39" s="1" t="n"/>
+      <c r="AD39" s="1" t="n"/>
+      <c r="AE39" s="1" t="n"/>
+      <c r="AF39" s="1" t="n"/>
+      <c r="AG39" s="1" t="n"/>
+      <c r="AH39" s="1" t="n"/>
+      <c r="AI39" s="1" t="n"/>
+      <c r="AJ39" s="1" t="n"/>
+      <c r="AK39" s="1" t="n"/>
+      <c r="AL39" s="1" t="n"/>
+      <c r="AM39" s="1" t="n"/>
+      <c r="AN39" s="1" t="n"/>
+      <c r="AO39" s="1" t="n"/>
+      <c r="AP39" s="1" t="n"/>
+      <c r="AQ39" s="1" t="n"/>
+      <c r="AR39" s="1" t="n"/>
+      <c r="AS39" s="1" t="n"/>
+      <c r="AT39" s="1" t="n"/>
+      <c r="AU39" s="1" t="n"/>
+      <c r="AV39" s="1" t="n"/>
+      <c r="AW39" s="1" t="n"/>
+      <c r="AX39" s="1" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="5" t="n"/>
+      <c r="C40" s="5" t="n"/>
+      <c r="D40" s="1" t="n"/>
+      <c r="E40" s="1" t="n"/>
+      <c r="F40" s="1" t="n"/>
+      <c r="G40" s="1" t="n"/>
+      <c r="H40" s="1" t="n"/>
+      <c r="I40" s="1" t="n"/>
+      <c r="J40" s="1" t="n"/>
+      <c r="K40" s="1" t="n"/>
+      <c r="L40" s="1" t="n"/>
+      <c r="M40" s="1" t="n"/>
+      <c r="N40" s="1" t="n"/>
+      <c r="O40" s="1" t="n"/>
+      <c r="P40" s="1" t="n"/>
+      <c r="Q40" s="1" t="n"/>
+      <c r="R40" s="1" t="n"/>
+      <c r="S40" s="1" t="n"/>
+      <c r="T40" s="1" t="n"/>
+      <c r="U40" s="1" t="n"/>
+      <c r="V40" s="1" t="n"/>
+      <c r="W40" s="1" t="n"/>
+      <c r="X40" s="1" t="n"/>
+      <c r="Y40" s="1" t="n"/>
+      <c r="Z40" s="1" t="n"/>
+      <c r="AA40" s="1" t="n"/>
+      <c r="AB40" s="1" t="n"/>
+      <c r="AC40" s="1" t="n"/>
+      <c r="AD40" s="1" t="n"/>
+      <c r="AE40" s="1" t="n"/>
+      <c r="AF40" s="1" t="n"/>
+      <c r="AG40" s="1" t="n"/>
+      <c r="AH40" s="1" t="n"/>
+      <c r="AI40" s="1" t="n"/>
+      <c r="AJ40" s="1" t="n"/>
+      <c r="AK40" s="1" t="n"/>
+      <c r="AL40" s="1" t="n"/>
+      <c r="AM40" s="1" t="n"/>
+      <c r="AN40" s="1" t="n"/>
+      <c r="AO40" s="1" t="n"/>
+      <c r="AP40" s="1" t="n"/>
+      <c r="AQ40" s="1" t="n"/>
+      <c r="AR40" s="1" t="n"/>
+      <c r="AS40" s="1" t="n"/>
+      <c r="AT40" s="1" t="n"/>
+      <c r="AU40" s="1" t="n"/>
+      <c r="AV40" s="1" t="n"/>
+      <c r="AW40" s="1" t="n"/>
+      <c r="AX40" s="1" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="5" t="n"/>
+      <c r="C41" s="5" t="n"/>
+      <c r="D41" s="1" t="n"/>
+      <c r="E41" s="1" t="n"/>
+      <c r="F41" s="1" t="n"/>
+      <c r="G41" s="1" t="n"/>
+      <c r="H41" s="1" t="n"/>
+      <c r="I41" s="1" t="n"/>
+      <c r="J41" s="1" t="n"/>
+      <c r="K41" s="1" t="n"/>
+      <c r="L41" s="1" t="n"/>
+      <c r="M41" s="1" t="n"/>
+      <c r="N41" s="1" t="n"/>
+      <c r="O41" s="1" t="n"/>
+      <c r="P41" s="1" t="n"/>
+      <c r="Q41" s="1" t="n"/>
+      <c r="R41" s="1" t="n"/>
+      <c r="S41" s="1" t="n"/>
+      <c r="T41" s="1" t="n"/>
+      <c r="U41" s="1" t="n"/>
+      <c r="V41" s="1" t="n"/>
+      <c r="W41" s="1" t="n"/>
+      <c r="X41" s="1" t="n"/>
+      <c r="Y41" s="1" t="n"/>
+      <c r="Z41" s="1" t="n"/>
+      <c r="AA41" s="1" t="n"/>
+      <c r="AB41" s="1" t="n"/>
+      <c r="AC41" s="1" t="n"/>
+      <c r="AD41" s="1" t="n"/>
+      <c r="AE41" s="1" t="n"/>
+      <c r="AF41" s="1" t="n"/>
+      <c r="AG41" s="1" t="n"/>
+      <c r="AH41" s="1" t="n"/>
+      <c r="AI41" s="1" t="n"/>
+      <c r="AJ41" s="1" t="n"/>
+      <c r="AK41" s="1" t="n"/>
+      <c r="AL41" s="1" t="n"/>
+      <c r="AM41" s="1" t="n"/>
+      <c r="AN41" s="1" t="n"/>
+      <c r="AO41" s="1" t="n"/>
+      <c r="AP41" s="1" t="n"/>
+      <c r="AQ41" s="1" t="n"/>
+      <c r="AR41" s="1" t="n"/>
+      <c r="AS41" s="1" t="n"/>
+      <c r="AT41" s="1" t="n"/>
+      <c r="AU41" s="1" t="n"/>
+      <c r="AV41" s="1" t="n"/>
+      <c r="AW41" s="1" t="n"/>
+      <c r="AX41" s="1" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="5" t="n"/>
+      <c r="C42" s="5" t="n"/>
+      <c r="D42" s="1" t="n"/>
+      <c r="E42" s="1" t="n"/>
+      <c r="F42" s="1" t="n"/>
+      <c r="G42" s="1" t="n"/>
+      <c r="H42" s="1" t="n"/>
+      <c r="I42" s="1" t="n"/>
+      <c r="J42" s="1" t="n"/>
+      <c r="K42" s="1" t="n"/>
+      <c r="L42" s="1" t="n"/>
+      <c r="M42" s="1" t="n"/>
+      <c r="N42" s="1" t="n"/>
+      <c r="O42" s="1" t="n"/>
+      <c r="P42" s="1" t="n"/>
+      <c r="Q42" s="1" t="n"/>
+      <c r="R42" s="1" t="n"/>
+      <c r="S42" s="1" t="n"/>
+      <c r="T42" s="1" t="n"/>
+      <c r="U42" s="1" t="n"/>
+      <c r="V42" s="1" t="n"/>
+      <c r="W42" s="1" t="n"/>
+      <c r="X42" s="1" t="n"/>
+      <c r="Y42" s="1" t="n"/>
+      <c r="Z42" s="1" t="n"/>
+      <c r="AA42" s="1" t="n"/>
+      <c r="AB42" s="1" t="n"/>
+      <c r="AC42" s="1" t="n"/>
+      <c r="AD42" s="1" t="n"/>
+      <c r="AE42" s="1" t="n"/>
+      <c r="AF42" s="1" t="n"/>
+      <c r="AG42" s="1" t="n"/>
+      <c r="AH42" s="1" t="n"/>
+      <c r="AI42" s="1" t="n"/>
+      <c r="AJ42" s="1" t="n"/>
+      <c r="AK42" s="1" t="n"/>
+      <c r="AL42" s="1" t="n"/>
+      <c r="AM42" s="1" t="n"/>
+      <c r="AN42" s="1" t="n"/>
+      <c r="AO42" s="1" t="n"/>
+      <c r="AP42" s="1" t="n"/>
+      <c r="AQ42" s="1" t="n"/>
+      <c r="AR42" s="1" t="n"/>
+      <c r="AS42" s="1" t="n"/>
+      <c r="AT42" s="1" t="n"/>
+      <c r="AU42" s="1" t="n"/>
+      <c r="AV42" s="1" t="n"/>
+      <c r="AW42" s="1" t="n"/>
+      <c r="AX42" s="1" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="5" t="n"/>
+      <c r="C43" s="5" t="n"/>
+      <c r="D43" s="1" t="n"/>
+      <c r="E43" s="1" t="n"/>
+      <c r="F43" s="1" t="n"/>
+      <c r="G43" s="1" t="n"/>
+      <c r="H43" s="1" t="n"/>
+      <c r="I43" s="1" t="n"/>
+      <c r="J43" s="1" t="n"/>
+      <c r="K43" s="1" t="n"/>
+      <c r="L43" s="1" t="n"/>
+      <c r="M43" s="1" t="n"/>
+      <c r="N43" s="1" t="n"/>
+      <c r="O43" s="1" t="n"/>
+      <c r="P43" s="1" t="n"/>
+      <c r="Q43" s="1" t="n"/>
+      <c r="R43" s="1" t="n"/>
+      <c r="S43" s="1" t="n"/>
+      <c r="T43" s="1" t="n"/>
+      <c r="U43" s="1" t="n"/>
+      <c r="V43" s="1" t="n"/>
+      <c r="W43" s="1" t="n"/>
+      <c r="X43" s="1" t="n"/>
+      <c r="Y43" s="1" t="n"/>
+      <c r="Z43" s="1" t="n"/>
+      <c r="AA43" s="1" t="n"/>
+      <c r="AB43" s="1" t="n"/>
+      <c r="AC43" s="1" t="n"/>
+      <c r="AD43" s="1" t="n"/>
+      <c r="AE43" s="1" t="n"/>
+      <c r="AF43" s="1" t="n"/>
+      <c r="AG43" s="1" t="n"/>
+      <c r="AH43" s="1" t="n"/>
+      <c r="AI43" s="1" t="n"/>
+      <c r="AJ43" s="1" t="n"/>
+      <c r="AK43" s="1" t="n"/>
+      <c r="AL43" s="1" t="n"/>
+      <c r="AM43" s="1" t="n"/>
+      <c r="AN43" s="1" t="n"/>
+      <c r="AO43" s="1" t="n"/>
+      <c r="AP43" s="1" t="n"/>
+      <c r="AQ43" s="1" t="n"/>
+      <c r="AR43" s="1" t="n"/>
+      <c r="AS43" s="1" t="n"/>
+      <c r="AT43" s="1" t="n"/>
+      <c r="AU43" s="1" t="n"/>
+      <c r="AV43" s="1" t="n"/>
+      <c r="AW43" s="1" t="n"/>
+      <c r="AX43" s="1" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="5" t="n"/>
+      <c r="C44" s="5" t="n"/>
+      <c r="D44" s="1" t="n"/>
+      <c r="E44" s="1" t="n"/>
+      <c r="F44" s="1" t="n"/>
+      <c r="G44" s="1" t="n"/>
+      <c r="H44" s="1" t="n"/>
+      <c r="I44" s="1" t="n"/>
+      <c r="J44" s="1" t="n"/>
+      <c r="K44" s="1" t="n"/>
+      <c r="L44" s="1" t="n"/>
+      <c r="M44" s="1" t="n"/>
+      <c r="N44" s="1" t="n"/>
+      <c r="O44" s="1" t="n"/>
+      <c r="P44" s="1" t="n"/>
+      <c r="Q44" s="1" t="n"/>
+      <c r="R44" s="1" t="n"/>
+      <c r="S44" s="1" t="n"/>
+      <c r="T44" s="1" t="n"/>
+      <c r="U44" s="1" t="n"/>
+      <c r="V44" s="1" t="n"/>
+      <c r="W44" s="1" t="n"/>
+      <c r="X44" s="1" t="n"/>
+      <c r="Y44" s="1" t="n"/>
+      <c r="Z44" s="1" t="n"/>
+      <c r="AA44" s="1" t="n"/>
+      <c r="AB44" s="1" t="n"/>
+      <c r="AC44" s="1" t="n"/>
+      <c r="AD44" s="1" t="n"/>
+      <c r="AE44" s="1" t="n"/>
+      <c r="AF44" s="1" t="n"/>
+      <c r="AG44" s="1" t="n"/>
+      <c r="AH44" s="1" t="n"/>
+      <c r="AI44" s="1" t="n"/>
+      <c r="AJ44" s="1" t="n"/>
+      <c r="AK44" s="1" t="n"/>
+      <c r="AL44" s="1" t="n"/>
+      <c r="AM44" s="1" t="n"/>
+      <c r="AN44" s="1" t="n"/>
+      <c r="AO44" s="1" t="n"/>
+      <c r="AP44" s="1" t="n"/>
+      <c r="AQ44" s="1" t="n"/>
+      <c r="AR44" s="1" t="n"/>
+      <c r="AS44" s="1" t="n"/>
+      <c r="AT44" s="1" t="n"/>
+      <c r="AU44" s="1" t="n"/>
+      <c r="AV44" s="1" t="n"/>
+      <c r="AW44" s="1" t="n"/>
+      <c r="AX44" s="1" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="5" t="n"/>
+      <c r="C45" s="5" t="n"/>
+      <c r="D45" s="1" t="n"/>
+      <c r="E45" s="1" t="n"/>
+      <c r="F45" s="1" t="n"/>
+      <c r="G45" s="1" t="n"/>
+      <c r="H45" s="1" t="n"/>
+      <c r="I45" s="1" t="n"/>
+      <c r="J45" s="1" t="n"/>
+      <c r="K45" s="1" t="n"/>
+      <c r="L45" s="1" t="n"/>
+      <c r="M45" s="1" t="n"/>
+      <c r="N45" s="1" t="n"/>
+      <c r="O45" s="1" t="n"/>
+      <c r="P45" s="1" t="n"/>
+      <c r="Q45" s="1" t="n"/>
+      <c r="R45" s="1" t="n"/>
+      <c r="S45" s="1" t="n"/>
+      <c r="T45" s="1" t="n"/>
+      <c r="U45" s="1" t="n"/>
+      <c r="V45" s="1" t="n"/>
+      <c r="W45" s="1" t="n"/>
+      <c r="X45" s="1" t="n"/>
+      <c r="Y45" s="1" t="n"/>
+      <c r="Z45" s="1" t="n"/>
+      <c r="AA45" s="1" t="n"/>
+      <c r="AB45" s="1" t="n"/>
+      <c r="AC45" s="1" t="n"/>
+      <c r="AD45" s="1" t="n"/>
+      <c r="AE45" s="1" t="n"/>
+      <c r="AF45" s="1" t="n"/>
+      <c r="AG45" s="1" t="n"/>
+      <c r="AH45" s="1" t="n"/>
+      <c r="AI45" s="1" t="n"/>
+      <c r="AJ45" s="1" t="n"/>
+      <c r="AK45" s="1" t="n"/>
+      <c r="AL45" s="1" t="n"/>
+      <c r="AM45" s="1" t="n"/>
+      <c r="AN45" s="1" t="n"/>
+      <c r="AO45" s="1" t="n"/>
+      <c r="AP45" s="1" t="n"/>
+      <c r="AQ45" s="1" t="n"/>
+      <c r="AR45" s="1" t="n"/>
+      <c r="AS45" s="1" t="n"/>
+      <c r="AT45" s="1" t="n"/>
+      <c r="AU45" s="1" t="n"/>
+      <c r="AV45" s="1" t="n"/>
+      <c r="AW45" s="1" t="n"/>
+      <c r="AX45" s="1" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="5" t="n"/>
+      <c r="C46" s="5" t="n"/>
+      <c r="D46" s="1" t="n"/>
+      <c r="E46" s="1" t="n"/>
+      <c r="F46" s="1" t="n"/>
+      <c r="G46" s="1" t="n"/>
+      <c r="H46" s="1" t="n"/>
+      <c r="I46" s="1" t="n"/>
+      <c r="J46" s="1" t="n"/>
+      <c r="K46" s="1" t="n"/>
+      <c r="L46" s="1" t="n"/>
+      <c r="M46" s="1" t="n"/>
+      <c r="N46" s="1" t="n"/>
+      <c r="O46" s="1" t="n"/>
+      <c r="P46" s="1" t="n"/>
+      <c r="Q46" s="1" t="n"/>
+      <c r="R46" s="1" t="n"/>
+      <c r="S46" s="1" t="n"/>
+      <c r="T46" s="1" t="n"/>
+      <c r="U46" s="1" t="n"/>
+      <c r="V46" s="1" t="n"/>
+      <c r="W46" s="1" t="n"/>
+      <c r="X46" s="1" t="n"/>
+      <c r="Y46" s="1" t="n"/>
+      <c r="Z46" s="1" t="n"/>
+      <c r="AA46" s="1" t="n"/>
+      <c r="AB46" s="1" t="n"/>
+      <c r="AC46" s="1" t="n"/>
+      <c r="AD46" s="1" t="n"/>
+      <c r="AE46" s="1" t="n"/>
+      <c r="AF46" s="1" t="n"/>
+      <c r="AG46" s="1" t="n"/>
+      <c r="AH46" s="1" t="n"/>
+      <c r="AI46" s="1" t="n"/>
+      <c r="AJ46" s="1" t="n"/>
+      <c r="AK46" s="1" t="n"/>
+      <c r="AL46" s="1" t="n"/>
+      <c r="AM46" s="1" t="n"/>
+      <c r="AN46" s="1" t="n"/>
+      <c r="AO46" s="1" t="n"/>
+      <c r="AP46" s="1" t="n"/>
+      <c r="AQ46" s="1" t="n"/>
+      <c r="AR46" s="1" t="n"/>
+      <c r="AS46" s="1" t="n"/>
+      <c r="AT46" s="1" t="n"/>
+      <c r="AU46" s="1" t="n"/>
+      <c r="AV46" s="1" t="n"/>
+      <c r="AW46" s="1" t="n"/>
+      <c r="AX46" s="1" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="5" t="n"/>
+      <c r="C47" s="5" t="n"/>
+      <c r="D47" s="1" t="n"/>
+      <c r="E47" s="1" t="n"/>
+      <c r="F47" s="1" t="n"/>
+      <c r="G47" s="1" t="n"/>
+      <c r="H47" s="1" t="n"/>
+      <c r="I47" s="1" t="n"/>
+      <c r="J47" s="1" t="n"/>
+      <c r="K47" s="1" t="n"/>
+      <c r="L47" s="1" t="n"/>
+      <c r="M47" s="1" t="n"/>
+      <c r="N47" s="1" t="n"/>
+      <c r="O47" s="1" t="n"/>
+      <c r="P47" s="1" t="n"/>
+      <c r="Q47" s="1" t="n"/>
+      <c r="R47" s="1" t="n"/>
+      <c r="S47" s="1" t="n"/>
+      <c r="T47" s="1" t="n"/>
+      <c r="U47" s="1" t="n"/>
+      <c r="V47" s="1" t="n"/>
+      <c r="W47" s="1" t="n"/>
+      <c r="X47" s="1" t="n"/>
+      <c r="Y47" s="1" t="n"/>
+      <c r="Z47" s="1" t="n"/>
+      <c r="AA47" s="1" t="n"/>
+      <c r="AB47" s="1" t="n"/>
+      <c r="AC47" s="1" t="n"/>
+      <c r="AD47" s="1" t="n"/>
+      <c r="AE47" s="1" t="n"/>
+      <c r="AF47" s="1" t="n"/>
+      <c r="AG47" s="1" t="n"/>
+      <c r="AH47" s="1" t="n"/>
+      <c r="AI47" s="1" t="n"/>
+      <c r="AJ47" s="1" t="n"/>
+      <c r="AK47" s="1" t="n"/>
+      <c r="AL47" s="1" t="n"/>
+      <c r="AM47" s="1" t="n"/>
+      <c r="AN47" s="1" t="n"/>
+      <c r="AO47" s="1" t="n"/>
+      <c r="AP47" s="1" t="n"/>
+      <c r="AQ47" s="1" t="n"/>
+      <c r="AR47" s="1" t="n"/>
+      <c r="AS47" s="1" t="n"/>
+      <c r="AT47" s="1" t="n"/>
+      <c r="AU47" s="1" t="n"/>
+      <c r="AV47" s="1" t="n"/>
+      <c r="AW47" s="1" t="n"/>
+      <c r="AX47" s="1" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="5" t="n"/>
+      <c r="C48" s="5" t="n"/>
+      <c r="D48" s="1" t="n"/>
+      <c r="E48" s="1" t="n"/>
+      <c r="F48" s="1" t="n"/>
+      <c r="G48" s="1" t="n"/>
+      <c r="H48" s="1" t="n"/>
+      <c r="I48" s="1" t="n"/>
+      <c r="J48" s="1" t="n"/>
+      <c r="K48" s="1" t="n"/>
+      <c r="L48" s="1" t="n"/>
+      <c r="M48" s="1" t="n"/>
+      <c r="N48" s="1" t="n"/>
+      <c r="O48" s="1" t="n"/>
+      <c r="P48" s="1" t="n"/>
+      <c r="Q48" s="1" t="n"/>
+      <c r="R48" s="1" t="n"/>
+      <c r="S48" s="1" t="n"/>
+      <c r="T48" s="1" t="n"/>
+      <c r="U48" s="1" t="n"/>
+      <c r="V48" s="1" t="n"/>
+      <c r="W48" s="1" t="n"/>
+      <c r="X48" s="1" t="n"/>
+      <c r="Y48" s="1" t="n"/>
+      <c r="Z48" s="1" t="n"/>
+      <c r="AA48" s="1" t="n"/>
+      <c r="AB48" s="1" t="n"/>
+      <c r="AC48" s="1" t="n"/>
+      <c r="AD48" s="1" t="n"/>
+      <c r="AE48" s="1" t="n"/>
+      <c r="AF48" s="1" t="n"/>
+      <c r="AG48" s="1" t="n"/>
+      <c r="AH48" s="1" t="n"/>
+      <c r="AI48" s="1" t="n"/>
+      <c r="AJ48" s="1" t="n"/>
+      <c r="AK48" s="1" t="n"/>
+      <c r="AL48" s="1" t="n"/>
+      <c r="AM48" s="1" t="n"/>
+      <c r="AN48" s="1" t="n"/>
+      <c r="AO48" s="1" t="n"/>
+      <c r="AP48" s="1" t="n"/>
+      <c r="AQ48" s="1" t="n"/>
+      <c r="AR48" s="1" t="n"/>
+      <c r="AS48" s="1" t="n"/>
+      <c r="AT48" s="1" t="n"/>
+      <c r="AU48" s="1" t="n"/>
+      <c r="AV48" s="1" t="n"/>
+      <c r="AW48" s="1" t="n"/>
+      <c r="AX48" s="1" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="5" t="n"/>
+      <c r="C49" s="5" t="n"/>
+      <c r="D49" s="1" t="n"/>
+      <c r="E49" s="1" t="n"/>
+      <c r="F49" s="1" t="n"/>
+      <c r="G49" s="1" t="n"/>
+      <c r="H49" s="1" t="n"/>
+      <c r="I49" s="1" t="n"/>
+      <c r="J49" s="1" t="n"/>
+      <c r="K49" s="1" t="n"/>
+      <c r="L49" s="1" t="n"/>
+      <c r="M49" s="1" t="n"/>
+      <c r="N49" s="1" t="n"/>
+      <c r="O49" s="1" t="n"/>
+      <c r="P49" s="1" t="n"/>
+      <c r="Q49" s="1" t="n"/>
+      <c r="R49" s="1" t="n"/>
+      <c r="S49" s="1" t="n"/>
+      <c r="T49" s="1" t="n"/>
+      <c r="U49" s="1" t="n"/>
+      <c r="V49" s="1" t="n"/>
+      <c r="W49" s="1" t="n"/>
+      <c r="X49" s="1" t="n"/>
+      <c r="Y49" s="1" t="n"/>
+      <c r="Z49" s="1" t="n"/>
+      <c r="AA49" s="1" t="n"/>
+      <c r="AB49" s="1" t="n"/>
+      <c r="AC49" s="1" t="n"/>
+      <c r="AD49" s="1" t="n"/>
+      <c r="AE49" s="1" t="n"/>
+      <c r="AF49" s="1" t="n"/>
+      <c r="AG49" s="1" t="n"/>
+      <c r="AH49" s="1" t="n"/>
+      <c r="AI49" s="1" t="n"/>
+      <c r="AJ49" s="1" t="n"/>
+      <c r="AK49" s="1" t="n"/>
+      <c r="AL49" s="1" t="n"/>
+      <c r="AM49" s="1" t="n"/>
+      <c r="AN49" s="1" t="n"/>
+      <c r="AO49" s="1" t="n"/>
+      <c r="AP49" s="1" t="n"/>
+      <c r="AQ49" s="1" t="n"/>
+      <c r="AR49" s="1" t="n"/>
+      <c r="AS49" s="1" t="n"/>
+      <c r="AT49" s="1" t="n"/>
+      <c r="AU49" s="1" t="n"/>
+      <c r="AV49" s="1" t="n"/>
+      <c r="AW49" s="1" t="n"/>
+      <c r="AX49" s="1" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="5" t="n"/>
+      <c r="C50" s="5" t="n"/>
+      <c r="D50" s="1" t="n"/>
+      <c r="E50" s="1" t="n"/>
+      <c r="F50" s="1" t="n"/>
+      <c r="G50" s="1" t="n"/>
+      <c r="H50" s="1" t="n"/>
+      <c r="I50" s="1" t="n"/>
+      <c r="J50" s="1" t="n"/>
+      <c r="K50" s="1" t="n"/>
+      <c r="L50" s="1" t="n"/>
+      <c r="M50" s="1" t="n"/>
+      <c r="N50" s="1" t="n"/>
+      <c r="O50" s="1" t="n"/>
+      <c r="P50" s="1" t="n"/>
+      <c r="Q50" s="1" t="n"/>
+      <c r="R50" s="1" t="n"/>
+      <c r="S50" s="1" t="n"/>
+      <c r="T50" s="1" t="n"/>
+      <c r="U50" s="1" t="n"/>
+      <c r="V50" s="1" t="n"/>
+      <c r="W50" s="1" t="n"/>
+      <c r="X50" s="1" t="n"/>
+      <c r="Y50" s="1" t="n"/>
+      <c r="Z50" s="1" t="n"/>
+      <c r="AA50" s="1" t="n"/>
+      <c r="AB50" s="1" t="n"/>
+      <c r="AC50" s="1" t="n"/>
+      <c r="AD50" s="1" t="n"/>
+      <c r="AE50" s="1" t="n"/>
+      <c r="AF50" s="1" t="n"/>
+      <c r="AG50" s="1" t="n"/>
+      <c r="AH50" s="1" t="n"/>
+      <c r="AI50" s="1" t="n"/>
+      <c r="AJ50" s="1" t="n"/>
+      <c r="AK50" s="1" t="n"/>
+      <c r="AL50" s="1" t="n"/>
+      <c r="AM50" s="1" t="n"/>
+      <c r="AN50" s="1" t="n"/>
+      <c r="AO50" s="1" t="n"/>
+      <c r="AP50" s="1" t="n"/>
+      <c r="AQ50" s="1" t="n"/>
+      <c r="AR50" s="1" t="n"/>
+      <c r="AS50" s="1" t="n"/>
+      <c r="AT50" s="1" t="n"/>
+      <c r="AU50" s="1" t="n"/>
+      <c r="AV50" s="1" t="n"/>
+      <c r="AW50" s="1" t="n"/>
+      <c r="AX50" s="1" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="5" t="n"/>
+      <c r="C51" s="5" t="n"/>
+      <c r="D51" s="1" t="n"/>
+      <c r="E51" s="1" t="n"/>
+      <c r="F51" s="1" t="n"/>
+      <c r="G51" s="1" t="n"/>
+      <c r="H51" s="1" t="n"/>
+      <c r="I51" s="1" t="n"/>
+      <c r="J51" s="1" t="n"/>
+      <c r="K51" s="1" t="n"/>
+      <c r="L51" s="1" t="n"/>
+      <c r="M51" s="1" t="n"/>
+      <c r="N51" s="1" t="n"/>
+      <c r="O51" s="1" t="n"/>
+      <c r="P51" s="1" t="n"/>
+      <c r="Q51" s="1" t="n"/>
+      <c r="R51" s="1" t="n"/>
+      <c r="S51" s="1" t="n"/>
+      <c r="T51" s="1" t="n"/>
+      <c r="U51" s="1" t="n"/>
+      <c r="V51" s="1" t="n"/>
+      <c r="W51" s="1" t="n"/>
+      <c r="X51" s="1" t="n"/>
+      <c r="Y51" s="1" t="n"/>
+      <c r="Z51" s="1" t="n"/>
+      <c r="AA51" s="1" t="n"/>
+      <c r="AB51" s="1" t="n"/>
+      <c r="AC51" s="1" t="n"/>
+      <c r="AD51" s="1" t="n"/>
+      <c r="AE51" s="1" t="n"/>
+      <c r="AF51" s="1" t="n"/>
+      <c r="AG51" s="1" t="n"/>
+      <c r="AH51" s="1" t="n"/>
+      <c r="AI51" s="1" t="n"/>
+      <c r="AJ51" s="1" t="n"/>
+      <c r="AK51" s="1" t="n"/>
+      <c r="AL51" s="1" t="n"/>
+      <c r="AM51" s="1" t="n"/>
+      <c r="AN51" s="1" t="n"/>
+      <c r="AO51" s="1" t="n"/>
+      <c r="AP51" s="1" t="n"/>
+      <c r="AQ51" s="1" t="n"/>
+      <c r="AR51" s="1" t="n"/>
+      <c r="AS51" s="1" t="n"/>
+      <c r="AT51" s="1" t="n"/>
+      <c r="AU51" s="1" t="n"/>
+      <c r="AV51" s="1" t="n"/>
+      <c r="AW51" s="1" t="n"/>
+      <c r="AX51" s="1" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n"/>
+      <c r="B52" s="5" t="n"/>
+      <c r="C52" s="5" t="n"/>
+      <c r="D52" s="1" t="n"/>
+      <c r="E52" s="1" t="n"/>
+      <c r="F52" s="1" t="n"/>
+      <c r="G52" s="1" t="n"/>
+      <c r="H52" s="1" t="n"/>
+      <c r="I52" s="1" t="n"/>
+      <c r="J52" s="1" t="n"/>
+      <c r="K52" s="1" t="n"/>
+      <c r="L52" s="1" t="n"/>
+      <c r="M52" s="1" t="n"/>
+      <c r="N52" s="1" t="n"/>
+      <c r="O52" s="1" t="n"/>
+      <c r="P52" s="1" t="n"/>
+      <c r="Q52" s="1" t="n"/>
+      <c r="R52" s="1" t="n"/>
+      <c r="S52" s="1" t="n"/>
+      <c r="T52" s="1" t="n"/>
+      <c r="U52" s="1" t="n"/>
+      <c r="V52" s="1" t="n"/>
+      <c r="W52" s="1" t="n"/>
+      <c r="X52" s="1" t="n"/>
+      <c r="Y52" s="1" t="n"/>
+      <c r="Z52" s="1" t="n"/>
+      <c r="AA52" s="1" t="n"/>
+      <c r="AB52" s="1" t="n"/>
+      <c r="AC52" s="1" t="n"/>
+      <c r="AD52" s="1" t="n"/>
+      <c r="AE52" s="1" t="n"/>
+      <c r="AF52" s="1" t="n"/>
+      <c r="AG52" s="1" t="n"/>
+      <c r="AH52" s="1" t="n"/>
+      <c r="AI52" s="1" t="n"/>
+      <c r="AJ52" s="1" t="n"/>
+      <c r="AK52" s="1" t="n"/>
+      <c r="AL52" s="1" t="n"/>
+      <c r="AM52" s="1" t="n"/>
+      <c r="AN52" s="1" t="n"/>
+      <c r="AO52" s="1" t="n"/>
+      <c r="AP52" s="1" t="n"/>
+      <c r="AQ52" s="1" t="n"/>
+      <c r="AR52" s="1" t="n"/>
+      <c r="AS52" s="1" t="n"/>
+      <c r="AT52" s="1" t="n"/>
+      <c r="AU52" s="1" t="n"/>
+      <c r="AV52" s="1" t="n"/>
+      <c r="AW52" s="1" t="n"/>
+      <c r="AX52" s="1" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="5" t="n"/>
+      <c r="C53" s="5" t="n"/>
+      <c r="D53" s="1" t="n"/>
+      <c r="E53" s="1" t="n"/>
+      <c r="F53" s="1" t="n"/>
+      <c r="G53" s="1" t="n"/>
+      <c r="H53" s="1" t="n"/>
+      <c r="I53" s="1" t="n"/>
+      <c r="J53" s="1" t="n"/>
+      <c r="K53" s="1" t="n"/>
+      <c r="L53" s="1" t="n"/>
+      <c r="M53" s="1" t="n"/>
+      <c r="N53" s="1" t="n"/>
+      <c r="O53" s="1" t="n"/>
+      <c r="P53" s="1" t="n"/>
+      <c r="Q53" s="1" t="n"/>
+      <c r="R53" s="1" t="n"/>
+      <c r="S53" s="1" t="n"/>
+      <c r="T53" s="1" t="n"/>
+      <c r="U53" s="1" t="n"/>
+      <c r="V53" s="1" t="n"/>
+      <c r="W53" s="1" t="n"/>
+      <c r="X53" s="1" t="n"/>
+      <c r="Y53" s="1" t="n"/>
+      <c r="Z53" s="1" t="n"/>
+      <c r="AA53" s="1" t="n"/>
+      <c r="AB53" s="1" t="n"/>
+      <c r="AC53" s="1" t="n"/>
+      <c r="AD53" s="1" t="n"/>
+      <c r="AE53" s="1" t="n"/>
+      <c r="AF53" s="1" t="n"/>
+      <c r="AG53" s="1" t="n"/>
+      <c r="AH53" s="1" t="n"/>
+      <c r="AI53" s="1" t="n"/>
+      <c r="AJ53" s="1" t="n"/>
+      <c r="AK53" s="1" t="n"/>
+      <c r="AL53" s="1" t="n"/>
+      <c r="AM53" s="1" t="n"/>
+      <c r="AN53" s="1" t="n"/>
+      <c r="AO53" s="1" t="n"/>
+      <c r="AP53" s="1" t="n"/>
+      <c r="AQ53" s="1" t="n"/>
+      <c r="AR53" s="1" t="n"/>
+      <c r="AS53" s="1" t="n"/>
+      <c r="AT53" s="1" t="n"/>
+      <c r="AU53" s="1" t="n"/>
+      <c r="AV53" s="1" t="n"/>
+      <c r="AW53" s="1" t="n"/>
+      <c r="AX53" s="1" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="5" t="n"/>
+      <c r="C54" s="5" t="n"/>
+      <c r="D54" s="1" t="n"/>
+      <c r="E54" s="1" t="n"/>
+      <c r="F54" s="1" t="n"/>
+      <c r="G54" s="1" t="n"/>
+      <c r="H54" s="1" t="n"/>
+      <c r="I54" s="1" t="n"/>
+      <c r="J54" s="1" t="n"/>
+      <c r="K54" s="1" t="n"/>
+      <c r="L54" s="1" t="n"/>
+      <c r="M54" s="1" t="n"/>
+      <c r="N54" s="1" t="n"/>
+      <c r="O54" s="1" t="n"/>
+      <c r="P54" s="1" t="n"/>
+      <c r="Q54" s="1" t="n"/>
+      <c r="R54" s="1" t="n"/>
+      <c r="S54" s="1" t="n"/>
+      <c r="T54" s="1" t="n"/>
+      <c r="U54" s="1" t="n"/>
+      <c r="V54" s="1" t="n"/>
+      <c r="W54" s="1" t="n"/>
+      <c r="X54" s="1" t="n"/>
+      <c r="Y54" s="1" t="n"/>
+      <c r="Z54" s="1" t="n"/>
+      <c r="AA54" s="1" t="n"/>
+      <c r="AB54" s="1" t="n"/>
+      <c r="AC54" s="1" t="n"/>
+      <c r="AD54" s="1" t="n"/>
+      <c r="AE54" s="1" t="n"/>
+      <c r="AF54" s="1" t="n"/>
+      <c r="AG54" s="1" t="n"/>
+      <c r="AH54" s="1" t="n"/>
+      <c r="AI54" s="1" t="n"/>
+      <c r="AJ54" s="1" t="n"/>
+      <c r="AK54" s="1" t="n"/>
+      <c r="AL54" s="1" t="n"/>
+      <c r="AM54" s="1" t="n"/>
+      <c r="AN54" s="1" t="n"/>
+      <c r="AO54" s="1" t="n"/>
+      <c r="AP54" s="1" t="n"/>
+      <c r="AQ54" s="1" t="n"/>
+      <c r="AR54" s="1" t="n"/>
+      <c r="AS54" s="1" t="n"/>
+      <c r="AT54" s="1" t="n"/>
+      <c r="AU54" s="1" t="n"/>
+      <c r="AV54" s="1" t="n"/>
+      <c r="AW54" s="1" t="n"/>
+      <c r="AX54" s="1" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="5" t="n"/>
+      <c r="C55" s="5" t="n"/>
+      <c r="D55" s="1" t="n"/>
+      <c r="E55" s="1" t="n"/>
+      <c r="F55" s="1" t="n"/>
+      <c r="G55" s="1" t="n"/>
+      <c r="H55" s="1" t="n"/>
+      <c r="I55" s="1" t="n"/>
+      <c r="J55" s="1" t="n"/>
+      <c r="K55" s="1" t="n"/>
+      <c r="L55" s="1" t="n"/>
+      <c r="M55" s="1" t="n"/>
+      <c r="N55" s="1" t="n"/>
+      <c r="O55" s="1" t="n"/>
+      <c r="P55" s="1" t="n"/>
+      <c r="Q55" s="1" t="n"/>
+      <c r="R55" s="1" t="n"/>
+      <c r="S55" s="1" t="n"/>
+      <c r="T55" s="1" t="n"/>
+      <c r="U55" s="1" t="n"/>
+      <c r="V55" s="1" t="n"/>
+      <c r="W55" s="1" t="n"/>
+      <c r="X55" s="1" t="n"/>
+      <c r="Y55" s="1" t="n"/>
+      <c r="Z55" s="1" t="n"/>
+      <c r="AA55" s="1" t="n"/>
+      <c r="AB55" s="1" t="n"/>
+      <c r="AC55" s="1" t="n"/>
+      <c r="AD55" s="1" t="n"/>
+      <c r="AE55" s="1" t="n"/>
+      <c r="AF55" s="1" t="n"/>
+      <c r="AG55" s="1" t="n"/>
+      <c r="AH55" s="1" t="n"/>
+      <c r="AI55" s="1" t="n"/>
+      <c r="AJ55" s="1" t="n"/>
+      <c r="AK55" s="1" t="n"/>
+      <c r="AL55" s="1" t="n"/>
+      <c r="AM55" s="1" t="n"/>
+      <c r="AN55" s="1" t="n"/>
+      <c r="AO55" s="1" t="n"/>
+      <c r="AP55" s="1" t="n"/>
+      <c r="AQ55" s="1" t="n"/>
+      <c r="AR55" s="1" t="n"/>
+      <c r="AS55" s="1" t="n"/>
+      <c r="AT55" s="1" t="n"/>
+      <c r="AU55" s="1" t="n"/>
+      <c r="AV55" s="1" t="n"/>
+      <c r="AW55" s="1" t="n"/>
+      <c r="AX55" s="1" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="5" t="n"/>
+      <c r="C56" s="5" t="n"/>
+      <c r="D56" s="1" t="n"/>
+      <c r="E56" s="1" t="n"/>
+      <c r="F56" s="1" t="n"/>
+      <c r="G56" s="1" t="n"/>
+      <c r="H56" s="1" t="n"/>
+      <c r="I56" s="1" t="n"/>
+      <c r="J56" s="1" t="n"/>
+      <c r="K56" s="1" t="n"/>
+      <c r="L56" s="1" t="n"/>
+      <c r="M56" s="1" t="n"/>
+      <c r="N56" s="1" t="n"/>
+      <c r="O56" s="1" t="n"/>
+      <c r="P56" s="1" t="n"/>
+      <c r="Q56" s="1" t="n"/>
+      <c r="R56" s="1" t="n"/>
+      <c r="S56" s="1" t="n"/>
+      <c r="T56" s="1" t="n"/>
+      <c r="U56" s="1" t="n"/>
+      <c r="V56" s="1" t="n"/>
+      <c r="W56" s="1" t="n"/>
+      <c r="X56" s="1" t="n"/>
+      <c r="Y56" s="1" t="n"/>
+      <c r="Z56" s="1" t="n"/>
+      <c r="AA56" s="1" t="n"/>
+      <c r="AB56" s="1" t="n"/>
+      <c r="AC56" s="1" t="n"/>
+      <c r="AD56" s="1" t="n"/>
+      <c r="AE56" s="1" t="n"/>
+      <c r="AF56" s="1" t="n"/>
+      <c r="AG56" s="1" t="n"/>
+      <c r="AH56" s="1" t="n"/>
+      <c r="AI56" s="1" t="n"/>
+      <c r="AJ56" s="1" t="n"/>
+      <c r="AK56" s="1" t="n"/>
+      <c r="AL56" s="1" t="n"/>
+      <c r="AM56" s="1" t="n"/>
+      <c r="AN56" s="1" t="n"/>
+      <c r="AO56" s="1" t="n"/>
+      <c r="AP56" s="1" t="n"/>
+      <c r="AQ56" s="1" t="n"/>
+      <c r="AR56" s="1" t="n"/>
+      <c r="AS56" s="1" t="n"/>
+      <c r="AT56" s="1" t="n"/>
+      <c r="AU56" s="1" t="n"/>
+      <c r="AV56" s="1" t="n"/>
+      <c r="AW56" s="1" t="n"/>
+      <c r="AX56" s="1" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="5" t="n"/>
+      <c r="C57" s="5" t="n"/>
+      <c r="D57" s="1" t="n"/>
+      <c r="E57" s="1" t="n"/>
+      <c r="F57" s="1" t="n"/>
+      <c r="G57" s="1" t="n"/>
+      <c r="H57" s="1" t="n"/>
+      <c r="I57" s="1" t="n"/>
+      <c r="J57" s="1" t="n"/>
+      <c r="K57" s="1" t="n"/>
+      <c r="L57" s="1" t="n"/>
+      <c r="M57" s="1" t="n"/>
+      <c r="N57" s="1" t="n"/>
+      <c r="O57" s="1" t="n"/>
+      <c r="P57" s="1" t="n"/>
+      <c r="Q57" s="1" t="n"/>
+      <c r="R57" s="1" t="n"/>
+      <c r="S57" s="1" t="n"/>
+      <c r="T57" s="1" t="n"/>
+      <c r="U57" s="1" t="n"/>
+      <c r="V57" s="1" t="n"/>
+      <c r="W57" s="1" t="n"/>
+      <c r="X57" s="1" t="n"/>
+      <c r="Y57" s="1" t="n"/>
+      <c r="Z57" s="1" t="n"/>
+      <c r="AA57" s="1" t="n"/>
+      <c r="AB57" s="1" t="n"/>
+      <c r="AC57" s="1" t="n"/>
+      <c r="AD57" s="1" t="n"/>
+      <c r="AE57" s="1" t="n"/>
+      <c r="AF57" s="1" t="n"/>
+      <c r="AG57" s="1" t="n"/>
+      <c r="AH57" s="1" t="n"/>
+      <c r="AI57" s="1" t="n"/>
+      <c r="AJ57" s="1" t="n"/>
+      <c r="AK57" s="1" t="n"/>
+      <c r="AL57" s="1" t="n"/>
+      <c r="AM57" s="1" t="n"/>
+      <c r="AN57" s="1" t="n"/>
+      <c r="AO57" s="1" t="n"/>
+      <c r="AP57" s="1" t="n"/>
+      <c r="AQ57" s="1" t="n"/>
+      <c r="AR57" s="1" t="n"/>
+      <c r="AS57" s="1" t="n"/>
+      <c r="AT57" s="1" t="n"/>
+      <c r="AU57" s="1" t="n"/>
+      <c r="AV57" s="1" t="n"/>
+      <c r="AW57" s="1" t="n"/>
+      <c r="AX57" s="1" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="5" t="n"/>
+      <c r="C58" s="5" t="n"/>
+      <c r="D58" s="1" t="n"/>
+      <c r="E58" s="1" t="n"/>
+      <c r="F58" s="1" t="n"/>
+      <c r="G58" s="1" t="n"/>
+      <c r="H58" s="1" t="n"/>
+      <c r="I58" s="1" t="n"/>
+      <c r="J58" s="1" t="n"/>
+      <c r="K58" s="1" t="n"/>
+      <c r="L58" s="1" t="n"/>
+      <c r="M58" s="1" t="n"/>
+      <c r="N58" s="1" t="n"/>
+      <c r="O58" s="1" t="n"/>
+      <c r="P58" s="1" t="n"/>
+      <c r="Q58" s="1" t="n"/>
+      <c r="R58" s="1" t="n"/>
+      <c r="S58" s="1" t="n"/>
+      <c r="T58" s="1" t="n"/>
+      <c r="U58" s="1" t="n"/>
+      <c r="V58" s="1" t="n"/>
+      <c r="W58" s="1" t="n"/>
+      <c r="X58" s="1" t="n"/>
+      <c r="Y58" s="1" t="n"/>
+      <c r="Z58" s="1" t="n"/>
+      <c r="AA58" s="1" t="n"/>
+      <c r="AB58" s="1" t="n"/>
+      <c r="AC58" s="1" t="n"/>
+      <c r="AD58" s="1" t="n"/>
+      <c r="AE58" s="1" t="n"/>
+      <c r="AF58" s="1" t="n"/>
+      <c r="AG58" s="1" t="n"/>
+      <c r="AH58" s="1" t="n"/>
+      <c r="AI58" s="1" t="n"/>
+      <c r="AJ58" s="1" t="n"/>
+      <c r="AK58" s="1" t="n"/>
+      <c r="AL58" s="1" t="n"/>
+      <c r="AM58" s="1" t="n"/>
+      <c r="AN58" s="1" t="n"/>
+      <c r="AO58" s="1" t="n"/>
+      <c r="AP58" s="1" t="n"/>
+      <c r="AQ58" s="1" t="n"/>
+      <c r="AR58" s="1" t="n"/>
+      <c r="AS58" s="1" t="n"/>
+      <c r="AT58" s="1" t="n"/>
+      <c r="AU58" s="1" t="n"/>
+      <c r="AV58" s="1" t="n"/>
+      <c r="AW58" s="1" t="n"/>
+      <c r="AX58" s="1" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="5" t="n"/>
+      <c r="C59" s="5" t="n"/>
+      <c r="D59" s="1" t="n"/>
+      <c r="E59" s="1" t="n"/>
+      <c r="F59" s="1" t="n"/>
+      <c r="G59" s="1" t="n"/>
+      <c r="H59" s="1" t="n"/>
+      <c r="I59" s="1" t="n"/>
+      <c r="J59" s="1" t="n"/>
+      <c r="K59" s="1" t="n"/>
+      <c r="L59" s="1" t="n"/>
+      <c r="M59" s="1" t="n"/>
+      <c r="N59" s="1" t="n"/>
+      <c r="O59" s="1" t="n"/>
+      <c r="P59" s="1" t="n"/>
+      <c r="Q59" s="1" t="n"/>
+      <c r="R59" s="1" t="n"/>
+      <c r="S59" s="1" t="n"/>
+      <c r="T59" s="1" t="n"/>
+      <c r="U59" s="1" t="n"/>
+      <c r="V59" s="1" t="n"/>
+      <c r="W59" s="1" t="n"/>
+      <c r="X59" s="1" t="n"/>
+      <c r="Y59" s="1" t="n"/>
+      <c r="Z59" s="1" t="n"/>
+      <c r="AA59" s="1" t="n"/>
+      <c r="AB59" s="1" t="n"/>
+      <c r="AC59" s="1" t="n"/>
+      <c r="AD59" s="1" t="n"/>
+      <c r="AE59" s="1" t="n"/>
+      <c r="AF59" s="1" t="n"/>
+      <c r="AG59" s="1" t="n"/>
+      <c r="AH59" s="1" t="n"/>
+      <c r="AI59" s="1" t="n"/>
+      <c r="AJ59" s="1" t="n"/>
+      <c r="AK59" s="1" t="n"/>
+      <c r="AL59" s="1" t="n"/>
+      <c r="AM59" s="1" t="n"/>
+      <c r="AN59" s="1" t="n"/>
+      <c r="AO59" s="1" t="n"/>
+      <c r="AP59" s="1" t="n"/>
+      <c r="AQ59" s="1" t="n"/>
+      <c r="AR59" s="1" t="n"/>
+      <c r="AS59" s="1" t="n"/>
+      <c r="AT59" s="1" t="n"/>
+      <c r="AU59" s="1" t="n"/>
+      <c r="AV59" s="1" t="n"/>
+      <c r="AW59" s="1" t="n"/>
+      <c r="AX59" s="1" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n"/>
+      <c r="B60" s="5" t="n"/>
+      <c r="C60" s="5" t="n"/>
+      <c r="D60" s="1" t="n"/>
+      <c r="E60" s="1" t="n"/>
+      <c r="F60" s="1" t="n"/>
+      <c r="G60" s="1" t="n"/>
+      <c r="H60" s="1" t="n"/>
+      <c r="I60" s="1" t="n"/>
+      <c r="J60" s="1" t="n"/>
+      <c r="K60" s="1" t="n"/>
+      <c r="L60" s="1" t="n"/>
+      <c r="M60" s="1" t="n"/>
+      <c r="N60" s="1" t="n"/>
+      <c r="O60" s="1" t="n"/>
+      <c r="P60" s="1" t="n"/>
+      <c r="Q60" s="1" t="n"/>
+      <c r="R60" s="1" t="n"/>
+      <c r="S60" s="1" t="n"/>
+      <c r="T60" s="1" t="n"/>
+      <c r="U60" s="1" t="n"/>
+      <c r="V60" s="1" t="n"/>
+      <c r="W60" s="1" t="n"/>
+      <c r="X60" s="1" t="n"/>
+      <c r="Y60" s="1" t="n"/>
+      <c r="Z60" s="1" t="n"/>
+      <c r="AA60" s="1" t="n"/>
+      <c r="AB60" s="1" t="n"/>
+      <c r="AC60" s="1" t="n"/>
+      <c r="AD60" s="1" t="n"/>
+      <c r="AE60" s="1" t="n"/>
+      <c r="AF60" s="1" t="n"/>
+      <c r="AG60" s="1" t="n"/>
+      <c r="AH60" s="1" t="n"/>
+      <c r="AI60" s="1" t="n"/>
+      <c r="AJ60" s="1" t="n"/>
+      <c r="AK60" s="1" t="n"/>
+      <c r="AL60" s="1" t="n"/>
+      <c r="AM60" s="1" t="n"/>
+      <c r="AN60" s="1" t="n"/>
+      <c r="AO60" s="1" t="n"/>
+      <c r="AP60" s="1" t="n"/>
+      <c r="AQ60" s="1" t="n"/>
+      <c r="AR60" s="1" t="n"/>
+      <c r="AS60" s="1" t="n"/>
+      <c r="AT60" s="1" t="n"/>
+      <c r="AU60" s="1" t="n"/>
+      <c r="AV60" s="1" t="n"/>
+      <c r="AW60" s="1" t="n"/>
+      <c r="AX60" s="1" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n"/>
+      <c r="B61" s="5" t="n"/>
+      <c r="C61" s="5" t="n"/>
+      <c r="D61" s="1" t="n"/>
+      <c r="E61" s="1" t="n"/>
+      <c r="F61" s="1" t="n"/>
+      <c r="G61" s="1" t="n"/>
+      <c r="H61" s="1" t="n"/>
+      <c r="I61" s="1" t="n"/>
+      <c r="J61" s="1" t="n"/>
+      <c r="K61" s="1" t="n"/>
+      <c r="L61" s="1" t="n"/>
+      <c r="M61" s="1" t="n"/>
+      <c r="N61" s="1" t="n"/>
+      <c r="O61" s="1" t="n"/>
+      <c r="P61" s="1" t="n"/>
+      <c r="Q61" s="1" t="n"/>
+      <c r="R61" s="1" t="n"/>
+      <c r="S61" s="1" t="n"/>
+      <c r="T61" s="1" t="n"/>
+      <c r="U61" s="1" t="n"/>
+      <c r="V61" s="1" t="n"/>
+      <c r="W61" s="1" t="n"/>
+      <c r="X61" s="1" t="n"/>
+      <c r="Y61" s="1" t="n"/>
+      <c r="Z61" s="1" t="n"/>
+      <c r="AA61" s="1" t="n"/>
+      <c r="AB61" s="1" t="n"/>
+      <c r="AC61" s="1" t="n"/>
+      <c r="AD61" s="1" t="n"/>
+      <c r="AE61" s="1" t="n"/>
+      <c r="AF61" s="1" t="n"/>
+      <c r="AG61" s="1" t="n"/>
+      <c r="AH61" s="1" t="n"/>
+      <c r="AI61" s="1" t="n"/>
+      <c r="AJ61" s="1" t="n"/>
+      <c r="AK61" s="1" t="n"/>
+      <c r="AL61" s="1" t="n"/>
+      <c r="AM61" s="1" t="n"/>
+      <c r="AN61" s="1" t="n"/>
+      <c r="AO61" s="1" t="n"/>
+      <c r="AP61" s="1" t="n"/>
+      <c r="AQ61" s="1" t="n"/>
+      <c r="AR61" s="1" t="n"/>
+      <c r="AS61" s="1" t="n"/>
+      <c r="AT61" s="1" t="n"/>
+      <c r="AU61" s="1" t="n"/>
+      <c r="AV61" s="1" t="n"/>
+      <c r="AW61" s="1" t="n"/>
+      <c r="AX61" s="1" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n"/>
+      <c r="B62" s="5" t="n"/>
+      <c r="C62" s="5" t="n"/>
+      <c r="D62" s="1" t="n"/>
+      <c r="E62" s="1" t="n"/>
+      <c r="F62" s="1" t="n"/>
+      <c r="G62" s="1" t="n"/>
+      <c r="H62" s="1" t="n"/>
+      <c r="I62" s="1" t="n"/>
+      <c r="J62" s="1" t="n"/>
+      <c r="K62" s="1" t="n"/>
+      <c r="L62" s="1" t="n"/>
+      <c r="M62" s="1" t="n"/>
+      <c r="N62" s="1" t="n"/>
+      <c r="O62" s="1" t="n"/>
+      <c r="P62" s="1" t="n"/>
+      <c r="Q62" s="1" t="n"/>
+      <c r="R62" s="1" t="n"/>
+      <c r="S62" s="1" t="n"/>
+      <c r="T62" s="1" t="n"/>
+      <c r="U62" s="1" t="n"/>
+      <c r="V62" s="1" t="n"/>
+      <c r="W62" s="1" t="n"/>
+      <c r="X62" s="1" t="n"/>
+      <c r="Y62" s="1" t="n"/>
+      <c r="Z62" s="1" t="n"/>
+      <c r="AA62" s="1" t="n"/>
+      <c r="AB62" s="1" t="n"/>
+      <c r="AC62" s="1" t="n"/>
+      <c r="AD62" s="1" t="n"/>
+      <c r="AE62" s="1" t="n"/>
+      <c r="AF62" s="1" t="n"/>
+      <c r="AG62" s="1" t="n"/>
+      <c r="AH62" s="1" t="n"/>
+      <c r="AI62" s="1" t="n"/>
+      <c r="AJ62" s="1" t="n"/>
+      <c r="AK62" s="1" t="n"/>
+      <c r="AL62" s="1" t="n"/>
+      <c r="AM62" s="1" t="n"/>
+      <c r="AN62" s="1" t="n"/>
+      <c r="AO62" s="1" t="n"/>
+      <c r="AP62" s="1" t="n"/>
+      <c r="AQ62" s="1" t="n"/>
+      <c r="AR62" s="1" t="n"/>
+      <c r="AS62" s="1" t="n"/>
+      <c r="AT62" s="1" t="n"/>
+      <c r="AU62" s="1" t="n"/>
+      <c r="AV62" s="1" t="n"/>
+      <c r="AW62" s="1" t="n"/>
+      <c r="AX62" s="1" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n"/>
+      <c r="B63" s="5" t="n"/>
+      <c r="C63" s="5" t="n"/>
+      <c r="D63" s="1" t="n"/>
+      <c r="E63" s="1" t="n"/>
+      <c r="F63" s="1" t="n"/>
+      <c r="G63" s="1" t="n"/>
+      <c r="H63" s="1" t="n"/>
+      <c r="I63" s="1" t="n"/>
+      <c r="J63" s="1" t="n"/>
+      <c r="K63" s="1" t="n"/>
+      <c r="L63" s="1" t="n"/>
+      <c r="M63" s="1" t="n"/>
+      <c r="N63" s="1" t="n"/>
+      <c r="O63" s="1" t="n"/>
+      <c r="P63" s="1" t="n"/>
+      <c r="Q63" s="1" t="n"/>
+      <c r="R63" s="1" t="n"/>
+      <c r="S63" s="1" t="n"/>
+      <c r="T63" s="1" t="n"/>
+      <c r="U63" s="1" t="n"/>
+      <c r="V63" s="1" t="n"/>
+      <c r="W63" s="1" t="n"/>
+      <c r="X63" s="1" t="n"/>
+      <c r="Y63" s="1" t="n"/>
+      <c r="Z63" s="1" t="n"/>
+      <c r="AA63" s="1" t="n"/>
+      <c r="AB63" s="1" t="n"/>
+      <c r="AC63" s="1" t="n"/>
+      <c r="AD63" s="1" t="n"/>
+      <c r="AE63" s="1" t="n"/>
+      <c r="AF63" s="1" t="n"/>
+      <c r="AG63" s="1" t="n"/>
+      <c r="AH63" s="1" t="n"/>
+      <c r="AI63" s="1" t="n"/>
+      <c r="AJ63" s="1" t="n"/>
+      <c r="AK63" s="1" t="n"/>
+      <c r="AL63" s="1" t="n"/>
+      <c r="AM63" s="1" t="n"/>
+      <c r="AN63" s="1" t="n"/>
+      <c r="AO63" s="1" t="n"/>
+      <c r="AP63" s="1" t="n"/>
+      <c r="AQ63" s="1" t="n"/>
+      <c r="AR63" s="1" t="n"/>
+      <c r="AS63" s="1" t="n"/>
+      <c r="AT63" s="1" t="n"/>
+      <c r="AU63" s="1" t="n"/>
+      <c r="AV63" s="1" t="n"/>
+      <c r="AW63" s="1" t="n"/>
+      <c r="AX63" s="1" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n"/>
+      <c r="B64" s="5" t="n"/>
+      <c r="C64" s="5" t="n"/>
+      <c r="D64" s="1" t="n"/>
+      <c r="E64" s="1" t="n"/>
+      <c r="F64" s="1" t="n"/>
+      <c r="G64" s="1" t="n"/>
+      <c r="H64" s="1" t="n"/>
+      <c r="I64" s="1" t="n"/>
+      <c r="J64" s="1" t="n"/>
+      <c r="K64" s="1" t="n"/>
+      <c r="L64" s="1" t="n"/>
+      <c r="M64" s="1" t="n"/>
+      <c r="N64" s="1" t="n"/>
+      <c r="O64" s="1" t="n"/>
+      <c r="P64" s="1" t="n"/>
+      <c r="Q64" s="1" t="n"/>
+      <c r="R64" s="1" t="n"/>
+      <c r="S64" s="1" t="n"/>
+      <c r="T64" s="1" t="n"/>
+      <c r="U64" s="1" t="n"/>
+      <c r="V64" s="1" t="n"/>
+      <c r="W64" s="1" t="n"/>
+      <c r="X64" s="1" t="n"/>
+      <c r="Y64" s="1" t="n"/>
+      <c r="Z64" s="1" t="n"/>
+      <c r="AA64" s="1" t="n"/>
+      <c r="AB64" s="1" t="n"/>
+      <c r="AC64" s="1" t="n"/>
+      <c r="AD64" s="1" t="n"/>
+      <c r="AE64" s="1" t="n"/>
+      <c r="AF64" s="1" t="n"/>
+      <c r="AG64" s="1" t="n"/>
+      <c r="AH64" s="1" t="n"/>
+      <c r="AI64" s="1" t="n"/>
+      <c r="AJ64" s="1" t="n"/>
+      <c r="AK64" s="1" t="n"/>
+      <c r="AL64" s="1" t="n"/>
+      <c r="AM64" s="1" t="n"/>
+      <c r="AN64" s="1" t="n"/>
+      <c r="AO64" s="1" t="n"/>
+      <c r="AP64" s="1" t="n"/>
+      <c r="AQ64" s="1" t="n"/>
+      <c r="AR64" s="1" t="n"/>
+      <c r="AS64" s="1" t="n"/>
+      <c r="AT64" s="1" t="n"/>
+      <c r="AU64" s="1" t="n"/>
+      <c r="AV64" s="1" t="n"/>
+      <c r="AW64" s="1" t="n"/>
+      <c r="AX64" s="1" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n"/>
+      <c r="B65" s="5" t="n"/>
+      <c r="C65" s="5" t="n"/>
+      <c r="D65" s="1" t="n"/>
+      <c r="E65" s="1" t="n"/>
+      <c r="F65" s="1" t="n"/>
+      <c r="G65" s="1" t="n"/>
+      <c r="H65" s="1" t="n"/>
+      <c r="I65" s="1" t="n"/>
+      <c r="J65" s="1" t="n"/>
+      <c r="K65" s="1" t="n"/>
+      <c r="L65" s="1" t="n"/>
+      <c r="M65" s="1" t="n"/>
+      <c r="N65" s="1" t="n"/>
+      <c r="O65" s="1" t="n"/>
+      <c r="P65" s="1" t="n"/>
+      <c r="Q65" s="1" t="n"/>
+      <c r="R65" s="1" t="n"/>
+      <c r="S65" s="1" t="n"/>
+      <c r="T65" s="1" t="n"/>
+      <c r="U65" s="1" t="n"/>
+      <c r="V65" s="1" t="n"/>
+      <c r="W65" s="1" t="n"/>
+      <c r="X65" s="1" t="n"/>
+      <c r="Y65" s="1" t="n"/>
+      <c r="Z65" s="1" t="n"/>
+      <c r="AA65" s="1" t="n"/>
+      <c r="AB65" s="1" t="n"/>
+      <c r="AC65" s="1" t="n"/>
+      <c r="AD65" s="1" t="n"/>
+      <c r="AE65" s="1" t="n"/>
+      <c r="AF65" s="1" t="n"/>
+      <c r="AG65" s="1" t="n"/>
+      <c r="AH65" s="1" t="n"/>
+      <c r="AI65" s="1" t="n"/>
+      <c r="AJ65" s="1" t="n"/>
+      <c r="AK65" s="1" t="n"/>
+      <c r="AL65" s="1" t="n"/>
+      <c r="AM65" s="1" t="n"/>
+      <c r="AN65" s="1" t="n"/>
+      <c r="AO65" s="1" t="n"/>
+      <c r="AP65" s="1" t="n"/>
+      <c r="AQ65" s="1" t="n"/>
+      <c r="AR65" s="1" t="n"/>
+      <c r="AS65" s="1" t="n"/>
+      <c r="AT65" s="1" t="n"/>
+      <c r="AU65" s="1" t="n"/>
+      <c r="AV65" s="1" t="n"/>
+      <c r="AW65" s="1" t="n"/>
+      <c r="AX65" s="1" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n"/>
+      <c r="B66" s="5" t="n"/>
+      <c r="C66" s="5" t="n"/>
+      <c r="D66" s="1" t="n"/>
+      <c r="E66" s="1" t="n"/>
+      <c r="F66" s="1" t="n"/>
+      <c r="G66" s="1" t="n"/>
+      <c r="H66" s="1" t="n"/>
+      <c r="I66" s="1" t="n"/>
+      <c r="J66" s="1" t="n"/>
+      <c r="K66" s="1" t="n"/>
+      <c r="L66" s="1" t="n"/>
+      <c r="M66" s="1" t="n"/>
+      <c r="N66" s="1" t="n"/>
+      <c r="O66" s="1" t="n"/>
+      <c r="P66" s="1" t="n"/>
+      <c r="Q66" s="1" t="n"/>
+      <c r="R66" s="1" t="n"/>
+      <c r="S66" s="1" t="n"/>
+      <c r="T66" s="1" t="n"/>
+      <c r="U66" s="1" t="n"/>
+      <c r="V66" s="1" t="n"/>
+      <c r="W66" s="1" t="n"/>
+      <c r="X66" s="1" t="n"/>
+      <c r="Y66" s="1" t="n"/>
+      <c r="Z66" s="1" t="n"/>
+      <c r="AA66" s="1" t="n"/>
+      <c r="AB66" s="1" t="n"/>
+      <c r="AC66" s="1" t="n"/>
+      <c r="AD66" s="1" t="n"/>
+      <c r="AE66" s="1" t="n"/>
+      <c r="AF66" s="1" t="n"/>
+      <c r="AG66" s="1" t="n"/>
+      <c r="AH66" s="1" t="n"/>
+      <c r="AI66" s="1" t="n"/>
+      <c r="AJ66" s="1" t="n"/>
+      <c r="AK66" s="1" t="n"/>
+      <c r="AL66" s="1" t="n"/>
+      <c r="AM66" s="1" t="n"/>
+      <c r="AN66" s="1" t="n"/>
+      <c r="AO66" s="1" t="n"/>
+      <c r="AP66" s="1" t="n"/>
+      <c r="AQ66" s="1" t="n"/>
+      <c r="AR66" s="1" t="n"/>
+      <c r="AS66" s="1" t="n"/>
+      <c r="AT66" s="1" t="n"/>
+      <c r="AU66" s="1" t="n"/>
+      <c r="AV66" s="1" t="n"/>
+      <c r="AW66" s="1" t="n"/>
+      <c r="AX66" s="1" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n"/>
+      <c r="B67" s="5" t="n"/>
+      <c r="C67" s="5" t="n"/>
+      <c r="D67" s="1" t="n"/>
+      <c r="E67" s="1" t="n"/>
+      <c r="F67" s="1" t="n"/>
+      <c r="G67" s="1" t="n"/>
+      <c r="H67" s="1" t="n"/>
+      <c r="I67" s="1" t="n"/>
+      <c r="J67" s="1" t="n"/>
+      <c r="K67" s="1" t="n"/>
+      <c r="L67" s="1" t="n"/>
+      <c r="M67" s="1" t="n"/>
+      <c r="N67" s="1" t="n"/>
+      <c r="O67" s="1" t="n"/>
+      <c r="P67" s="1" t="n"/>
+      <c r="Q67" s="1" t="n"/>
+      <c r="R67" s="1" t="n"/>
+      <c r="S67" s="1" t="n"/>
+      <c r="T67" s="1" t="n"/>
+      <c r="U67" s="1" t="n"/>
+      <c r="V67" s="1" t="n"/>
+      <c r="W67" s="1" t="n"/>
+      <c r="X67" s="1" t="n"/>
+      <c r="Y67" s="1" t="n"/>
+      <c r="Z67" s="1" t="n"/>
+      <c r="AA67" s="1" t="n"/>
+      <c r="AB67" s="1" t="n"/>
+      <c r="AC67" s="1" t="n"/>
+      <c r="AD67" s="1" t="n"/>
+      <c r="AE67" s="1" t="n"/>
+      <c r="AF67" s="1" t="n"/>
+      <c r="AG67" s="1" t="n"/>
+      <c r="AH67" s="1" t="n"/>
+      <c r="AI67" s="1" t="n"/>
+      <c r="AJ67" s="1" t="n"/>
+      <c r="AK67" s="1" t="n"/>
+      <c r="AL67" s="1" t="n"/>
+      <c r="AM67" s="1" t="n"/>
+      <c r="AN67" s="1" t="n"/>
+      <c r="AO67" s="1" t="n"/>
+      <c r="AP67" s="1" t="n"/>
+      <c r="AQ67" s="1" t="n"/>
+      <c r="AR67" s="1" t="n"/>
+      <c r="AS67" s="1" t="n"/>
+      <c r="AT67" s="1" t="n"/>
+      <c r="AU67" s="1" t="n"/>
+      <c r="AV67" s="1" t="n"/>
+      <c r="AW67" s="1" t="n"/>
+      <c r="AX67" s="1" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n"/>
+      <c r="B68" s="5" t="n"/>
+      <c r="C68" s="5" t="n"/>
+      <c r="D68" s="1" t="n"/>
+      <c r="E68" s="1" t="n"/>
+      <c r="F68" s="1" t="n"/>
+      <c r="G68" s="1" t="n"/>
+      <c r="H68" s="1" t="n"/>
+      <c r="I68" s="1" t="n"/>
+      <c r="J68" s="1" t="n"/>
+      <c r="K68" s="1" t="n"/>
+      <c r="L68" s="1" t="n"/>
+      <c r="M68" s="1" t="n"/>
+      <c r="N68" s="1" t="n"/>
+      <c r="O68" s="1" t="n"/>
+      <c r="P68" s="1" t="n"/>
+      <c r="Q68" s="1" t="n"/>
+      <c r="R68" s="1" t="n"/>
+      <c r="S68" s="1" t="n"/>
+      <c r="T68" s="1" t="n"/>
+      <c r="U68" s="1" t="n"/>
+      <c r="V68" s="1" t="n"/>
+      <c r="W68" s="1" t="n"/>
+      <c r="X68" s="1" t="n"/>
+      <c r="Y68" s="1" t="n"/>
+      <c r="Z68" s="1" t="n"/>
+      <c r="AA68" s="1" t="n"/>
+      <c r="AB68" s="1" t="n"/>
+      <c r="AC68" s="1" t="n"/>
+      <c r="AD68" s="1" t="n"/>
+      <c r="AE68" s="1" t="n"/>
+      <c r="AF68" s="1" t="n"/>
+      <c r="AG68" s="1" t="n"/>
+      <c r="AH68" s="1" t="n"/>
+      <c r="AI68" s="1" t="n"/>
+      <c r="AJ68" s="1" t="n"/>
+      <c r="AK68" s="1" t="n"/>
+      <c r="AL68" s="1" t="n"/>
+      <c r="AM68" s="1" t="n"/>
+      <c r="AN68" s="1" t="n"/>
+      <c r="AO68" s="1" t="n"/>
+      <c r="AP68" s="1" t="n"/>
+      <c r="AQ68" s="1" t="n"/>
+      <c r="AR68" s="1" t="n"/>
+      <c r="AS68" s="1" t="n"/>
+      <c r="AT68" s="1" t="n"/>
+      <c r="AU68" s="1" t="n"/>
+      <c r="AV68" s="1" t="n"/>
+      <c r="AW68" s="1" t="n"/>
+      <c r="AX68" s="1" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n"/>
+      <c r="B69" s="5" t="n"/>
+      <c r="C69" s="5" t="n"/>
+      <c r="D69" s="1" t="n"/>
+      <c r="E69" s="1" t="n"/>
+      <c r="F69" s="1" t="n"/>
+      <c r="G69" s="1" t="n"/>
+      <c r="H69" s="1" t="n"/>
+      <c r="I69" s="1" t="n"/>
+      <c r="J69" s="1" t="n"/>
+      <c r="K69" s="1" t="n"/>
+      <c r="L69" s="1" t="n"/>
+      <c r="M69" s="1" t="n"/>
+      <c r="N69" s="1" t="n"/>
+      <c r="O69" s="1" t="n"/>
+      <c r="P69" s="1" t="n"/>
+      <c r="Q69" s="1" t="n"/>
+      <c r="R69" s="1" t="n"/>
+      <c r="S69" s="1" t="n"/>
+      <c r="T69" s="1" t="n"/>
+      <c r="U69" s="1" t="n"/>
+      <c r="V69" s="1" t="n"/>
+      <c r="W69" s="1" t="n"/>
+      <c r="X69" s="1" t="n"/>
+      <c r="Y69" s="1" t="n"/>
+      <c r="Z69" s="1" t="n"/>
+      <c r="AA69" s="1" t="n"/>
+      <c r="AB69" s="1" t="n"/>
+      <c r="AC69" s="1" t="n"/>
+      <c r="AD69" s="1" t="n"/>
+      <c r="AE69" s="1" t="n"/>
+      <c r="AF69" s="1" t="n"/>
+      <c r="AG69" s="1" t="n"/>
+      <c r="AH69" s="1" t="n"/>
+      <c r="AI69" s="1" t="n"/>
+      <c r="AJ69" s="1" t="n"/>
+      <c r="AK69" s="1" t="n"/>
+      <c r="AL69" s="1" t="n"/>
+      <c r="AM69" s="1" t="n"/>
+      <c r="AN69" s="1" t="n"/>
+      <c r="AO69" s="1" t="n"/>
+      <c r="AP69" s="1" t="n"/>
+      <c r="AQ69" s="1" t="n"/>
+      <c r="AR69" s="1" t="n"/>
+      <c r="AS69" s="1" t="n"/>
+      <c r="AT69" s="1" t="n"/>
+      <c r="AU69" s="1" t="n"/>
+      <c r="AV69" s="1" t="n"/>
+      <c r="AW69" s="1" t="n"/>
+      <c r="AX69" s="1" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n"/>
+      <c r="B70" s="5" t="n"/>
+      <c r="C70" s="5" t="n"/>
+      <c r="D70" s="1" t="n"/>
+      <c r="E70" s="1" t="n"/>
+      <c r="F70" s="1" t="n"/>
+      <c r="G70" s="1" t="n"/>
+      <c r="H70" s="1" t="n"/>
+      <c r="I70" s="1" t="n"/>
+      <c r="J70" s="1" t="n"/>
+      <c r="K70" s="1" t="n"/>
+      <c r="L70" s="1" t="n"/>
+      <c r="M70" s="1" t="n"/>
+      <c r="N70" s="1" t="n"/>
+      <c r="O70" s="1" t="n"/>
+      <c r="P70" s="1" t="n"/>
+      <c r="Q70" s="1" t="n"/>
+      <c r="R70" s="1" t="n"/>
+      <c r="S70" s="1" t="n"/>
+      <c r="T70" s="1" t="n"/>
+      <c r="U70" s="1" t="n"/>
+      <c r="V70" s="1" t="n"/>
+      <c r="W70" s="1" t="n"/>
+      <c r="X70" s="1" t="n"/>
+      <c r="Y70" s="1" t="n"/>
+      <c r="Z70" s="1" t="n"/>
+      <c r="AA70" s="1" t="n"/>
+      <c r="AB70" s="1" t="n"/>
+      <c r="AC70" s="1" t="n"/>
+      <c r="AD70" s="1" t="n"/>
+      <c r="AE70" s="1" t="n"/>
+      <c r="AF70" s="1" t="n"/>
+      <c r="AG70" s="1" t="n"/>
+      <c r="AH70" s="1" t="n"/>
+      <c r="AI70" s="1" t="n"/>
+      <c r="AJ70" s="1" t="n"/>
+      <c r="AK70" s="1" t="n"/>
+      <c r="AL70" s="1" t="n"/>
+      <c r="AM70" s="1" t="n"/>
+      <c r="AN70" s="1" t="n"/>
+      <c r="AO70" s="1" t="n"/>
+      <c r="AP70" s="1" t="n"/>
+      <c r="AQ70" s="1" t="n"/>
+      <c r="AR70" s="1" t="n"/>
+      <c r="AS70" s="1" t="n"/>
+      <c r="AT70" s="1" t="n"/>
+      <c r="AU70" s="1" t="n"/>
+      <c r="AV70" s="1" t="n"/>
+      <c r="AW70" s="1" t="n"/>
+      <c r="AX70" s="1" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n"/>
+      <c r="B71" s="5" t="n"/>
+      <c r="C71" s="5" t="n"/>
+      <c r="D71" s="1" t="n"/>
+      <c r="E71" s="1" t="n"/>
+      <c r="F71" s="1" t="n"/>
+      <c r="G71" s="1" t="n"/>
+      <c r="H71" s="1" t="n"/>
+      <c r="I71" s="1" t="n"/>
+      <c r="J71" s="1" t="n"/>
+      <c r="K71" s="1" t="n"/>
+      <c r="L71" s="1" t="n"/>
+      <c r="M71" s="1" t="n"/>
+      <c r="N71" s="1" t="n"/>
+      <c r="O71" s="1" t="n"/>
+      <c r="P71" s="1" t="n"/>
+      <c r="Q71" s="1" t="n"/>
+      <c r="R71" s="1" t="n"/>
+      <c r="S71" s="1" t="n"/>
+      <c r="T71" s="1" t="n"/>
+      <c r="U71" s="1" t="n"/>
+      <c r="V71" s="1" t="n"/>
+      <c r="W71" s="1" t="n"/>
+      <c r="X71" s="1" t="n"/>
+      <c r="Y71" s="1" t="n"/>
+      <c r="Z71" s="1" t="n"/>
+      <c r="AA71" s="1" t="n"/>
+      <c r="AB71" s="1" t="n"/>
+      <c r="AC71" s="1" t="n"/>
+      <c r="AD71" s="1" t="n"/>
+      <c r="AE71" s="1" t="n"/>
+      <c r="AF71" s="1" t="n"/>
+      <c r="AG71" s="1" t="n"/>
+      <c r="AH71" s="1" t="n"/>
+      <c r="AI71" s="1" t="n"/>
+      <c r="AJ71" s="1" t="n"/>
+      <c r="AK71" s="1" t="n"/>
+      <c r="AL71" s="1" t="n"/>
+      <c r="AM71" s="1" t="n"/>
+      <c r="AN71" s="1" t="n"/>
+      <c r="AO71" s="1" t="n"/>
+      <c r="AP71" s="1" t="n"/>
+      <c r="AQ71" s="1" t="n"/>
+      <c r="AR71" s="1" t="n"/>
+      <c r="AS71" s="1" t="n"/>
+      <c r="AT71" s="1" t="n"/>
+      <c r="AU71" s="1" t="n"/>
+      <c r="AV71" s="1" t="n"/>
+      <c r="AW71" s="1" t="n"/>
+      <c r="AX71" s="1" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n"/>
+      <c r="B72" s="5" t="n"/>
+      <c r="C72" s="5" t="n"/>
+      <c r="D72" s="1" t="n"/>
+      <c r="E72" s="1" t="n"/>
+      <c r="F72" s="1" t="n"/>
+      <c r="G72" s="1" t="n"/>
+      <c r="H72" s="1" t="n"/>
+      <c r="I72" s="1" t="n"/>
+      <c r="J72" s="1" t="n"/>
+      <c r="K72" s="1" t="n"/>
+      <c r="L72" s="1" t="n"/>
+      <c r="M72" s="1" t="n"/>
+      <c r="N72" s="1" t="n"/>
+      <c r="O72" s="1" t="n"/>
+      <c r="P72" s="1" t="n"/>
+      <c r="Q72" s="1" t="n"/>
+      <c r="R72" s="1" t="n"/>
+      <c r="S72" s="1" t="n"/>
+      <c r="T72" s="1" t="n"/>
+      <c r="U72" s="1" t="n"/>
+      <c r="V72" s="1" t="n"/>
+      <c r="W72" s="1" t="n"/>
+      <c r="X72" s="1" t="n"/>
+      <c r="Y72" s="1" t="n"/>
+      <c r="Z72" s="1" t="n"/>
+      <c r="AA72" s="1" t="n"/>
+      <c r="AB72" s="1" t="n"/>
+      <c r="AC72" s="1" t="n"/>
+      <c r="AD72" s="1" t="n"/>
+      <c r="AE72" s="1" t="n"/>
+      <c r="AF72" s="1" t="n"/>
+      <c r="AG72" s="1" t="n"/>
+      <c r="AH72" s="1" t="n"/>
+      <c r="AI72" s="1" t="n"/>
+      <c r="AJ72" s="1" t="n"/>
+      <c r="AK72" s="1" t="n"/>
+      <c r="AL72" s="1" t="n"/>
+      <c r="AM72" s="1" t="n"/>
+      <c r="AN72" s="1" t="n"/>
+      <c r="AO72" s="1" t="n"/>
+      <c r="AP72" s="1" t="n"/>
+      <c r="AQ72" s="1" t="n"/>
+      <c r="AR72" s="1" t="n"/>
+      <c r="AS72" s="1" t="n"/>
+      <c r="AT72" s="1" t="n"/>
+      <c r="AU72" s="1" t="n"/>
+      <c r="AV72" s="1" t="n"/>
+      <c r="AW72" s="1" t="n"/>
+      <c r="AX72" s="1" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n"/>
+      <c r="B73" s="5" t="n"/>
+      <c r="C73" s="5" t="n"/>
+      <c r="D73" s="1" t="n"/>
+      <c r="E73" s="1" t="n"/>
+      <c r="F73" s="1" t="n"/>
+      <c r="G73" s="1" t="n"/>
+      <c r="H73" s="1" t="n"/>
+      <c r="I73" s="1" t="n"/>
+      <c r="J73" s="1" t="n"/>
+      <c r="K73" s="1" t="n"/>
+      <c r="L73" s="1" t="n"/>
+      <c r="M73" s="1" t="n"/>
+      <c r="N73" s="1" t="n"/>
+      <c r="O73" s="1" t="n"/>
+      <c r="P73" s="1" t="n"/>
+      <c r="Q73" s="1" t="n"/>
+      <c r="R73" s="1" t="n"/>
+      <c r="S73" s="1" t="n"/>
+      <c r="T73" s="1" t="n"/>
+      <c r="U73" s="1" t="n"/>
+      <c r="V73" s="1" t="n"/>
+      <c r="W73" s="1" t="n"/>
+      <c r="X73" s="1" t="n"/>
+      <c r="Y73" s="1" t="n"/>
+      <c r="Z73" s="1" t="n"/>
+      <c r="AA73" s="1" t="n"/>
+      <c r="AB73" s="1" t="n"/>
+      <c r="AC73" s="1" t="n"/>
+      <c r="AD73" s="1" t="n"/>
+      <c r="AE73" s="1" t="n"/>
+      <c r="AF73" s="1" t="n"/>
+      <c r="AG73" s="1" t="n"/>
+      <c r="AH73" s="1" t="n"/>
+      <c r="AI73" s="1" t="n"/>
+      <c r="AJ73" s="1" t="n"/>
+      <c r="AK73" s="1" t="n"/>
+      <c r="AL73" s="1" t="n"/>
+      <c r="AM73" s="1" t="n"/>
+      <c r="AN73" s="1" t="n"/>
+      <c r="AO73" s="1" t="n"/>
+      <c r="AP73" s="1" t="n"/>
+      <c r="AQ73" s="1" t="n"/>
+      <c r="AR73" s="1" t="n"/>
+      <c r="AS73" s="1" t="n"/>
+      <c r="AT73" s="1" t="n"/>
+      <c r="AU73" s="1" t="n"/>
+      <c r="AV73" s="1" t="n"/>
+      <c r="AW73" s="1" t="n"/>
+      <c r="AX73" s="1" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n"/>
+      <c r="B74" s="5" t="n"/>
+      <c r="C74" s="5" t="n"/>
+      <c r="D74" s="1" t="n"/>
+      <c r="E74" s="1" t="n"/>
+      <c r="F74" s="1" t="n"/>
+      <c r="G74" s="1" t="n"/>
+      <c r="H74" s="1" t="n"/>
+      <c r="I74" s="1" t="n"/>
+      <c r="J74" s="1" t="n"/>
+      <c r="K74" s="1" t="n"/>
+      <c r="L74" s="1" t="n"/>
+      <c r="M74" s="1" t="n"/>
+      <c r="N74" s="1" t="n"/>
+      <c r="O74" s="1" t="n"/>
+      <c r="P74" s="1" t="n"/>
+      <c r="Q74" s="1" t="n"/>
+      <c r="R74" s="1" t="n"/>
+      <c r="S74" s="1" t="n"/>
+      <c r="T74" s="1" t="n"/>
+      <c r="U74" s="1" t="n"/>
+      <c r="V74" s="1" t="n"/>
+      <c r="W74" s="1" t="n"/>
+      <c r="X74" s="1" t="n"/>
+      <c r="Y74" s="1" t="n"/>
+      <c r="Z74" s="1" t="n"/>
+      <c r="AA74" s="1" t="n"/>
+      <c r="AB74" s="1" t="n"/>
+      <c r="AC74" s="1" t="n"/>
+      <c r="AD74" s="1" t="n"/>
+      <c r="AE74" s="1" t="n"/>
+      <c r="AF74" s="1" t="n"/>
+      <c r="AG74" s="1" t="n"/>
+      <c r="AH74" s="1" t="n"/>
+      <c r="AI74" s="1" t="n"/>
+      <c r="AJ74" s="1" t="n"/>
+      <c r="AK74" s="1" t="n"/>
+      <c r="AL74" s="1" t="n"/>
+      <c r="AM74" s="1" t="n"/>
+      <c r="AN74" s="1" t="n"/>
+      <c r="AO74" s="1" t="n"/>
+      <c r="AP74" s="1" t="n"/>
+      <c r="AQ74" s="1" t="n"/>
+      <c r="AR74" s="1" t="n"/>
+      <c r="AS74" s="1" t="n"/>
+      <c r="AT74" s="1" t="n"/>
+      <c r="AU74" s="1" t="n"/>
+      <c r="AV74" s="1" t="n"/>
+      <c r="AW74" s="1" t="n"/>
+      <c r="AX74" s="1" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n"/>
+      <c r="B75" s="5" t="n"/>
+      <c r="C75" s="5" t="n"/>
+      <c r="D75" s="1" t="n"/>
+      <c r="E75" s="1" t="n"/>
+      <c r="F75" s="1" t="n"/>
+      <c r="G75" s="1" t="n"/>
+      <c r="H75" s="1" t="n"/>
+      <c r="I75" s="1" t="n"/>
+      <c r="J75" s="1" t="n"/>
+      <c r="K75" s="1" t="n"/>
+      <c r="L75" s="1" t="n"/>
+      <c r="M75" s="1" t="n"/>
+      <c r="N75" s="1" t="n"/>
+      <c r="O75" s="1" t="n"/>
+      <c r="P75" s="1" t="n"/>
+      <c r="Q75" s="1" t="n"/>
+      <c r="R75" s="1" t="n"/>
+      <c r="S75" s="1" t="n"/>
+      <c r="T75" s="1" t="n"/>
+      <c r="U75" s="1" t="n"/>
+      <c r="V75" s="1" t="n"/>
+      <c r="W75" s="1" t="n"/>
+      <c r="X75" s="1" t="n"/>
+      <c r="Y75" s="1" t="n"/>
+      <c r="Z75" s="1" t="n"/>
+      <c r="AA75" s="1" t="n"/>
+      <c r="AB75" s="1" t="n"/>
+      <c r="AC75" s="1" t="n"/>
+      <c r="AD75" s="1" t="n"/>
+      <c r="AE75" s="1" t="n"/>
+      <c r="AF75" s="1" t="n"/>
+      <c r="AG75" s="1" t="n"/>
+      <c r="AH75" s="1" t="n"/>
+      <c r="AI75" s="1" t="n"/>
+      <c r="AJ75" s="1" t="n"/>
+      <c r="AK75" s="1" t="n"/>
+      <c r="AL75" s="1" t="n"/>
+      <c r="AM75" s="1" t="n"/>
+      <c r="AN75" s="1" t="n"/>
+      <c r="AO75" s="1" t="n"/>
+      <c r="AP75" s="1" t="n"/>
+      <c r="AQ75" s="1" t="n"/>
+      <c r="AR75" s="1" t="n"/>
+      <c r="AS75" s="1" t="n"/>
+      <c r="AT75" s="1" t="n"/>
+      <c r="AU75" s="1" t="n"/>
+      <c r="AV75" s="1" t="n"/>
+      <c r="AW75" s="1" t="n"/>
+      <c r="AX75" s="1" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n"/>
+      <c r="B76" s="5" t="n"/>
+      <c r="C76" s="5" t="n"/>
+      <c r="D76" s="1" t="n"/>
+      <c r="E76" s="1" t="n"/>
+      <c r="F76" s="1" t="n"/>
+      <c r="G76" s="1" t="n"/>
+      <c r="H76" s="1" t="n"/>
+      <c r="I76" s="1" t="n"/>
+      <c r="J76" s="1" t="n"/>
+      <c r="K76" s="1" t="n"/>
+      <c r="L76" s="1" t="n"/>
+      <c r="M76" s="1" t="n"/>
+      <c r="N76" s="1" t="n"/>
+      <c r="O76" s="1" t="n"/>
+      <c r="P76" s="1" t="n"/>
+      <c r="Q76" s="1" t="n"/>
+      <c r="R76" s="1" t="n"/>
+      <c r="S76" s="1" t="n"/>
+      <c r="T76" s="1" t="n"/>
+      <c r="U76" s="1" t="n"/>
+      <c r="V76" s="1" t="n"/>
+      <c r="W76" s="1" t="n"/>
+      <c r="X76" s="1" t="n"/>
+      <c r="Y76" s="1" t="n"/>
+      <c r="Z76" s="1" t="n"/>
+      <c r="AA76" s="1" t="n"/>
+      <c r="AB76" s="1" t="n"/>
+      <c r="AC76" s="1" t="n"/>
+      <c r="AD76" s="1" t="n"/>
+      <c r="AE76" s="1" t="n"/>
+      <c r="AF76" s="1" t="n"/>
+      <c r="AG76" s="1" t="n"/>
+      <c r="AH76" s="1" t="n"/>
+      <c r="AI76" s="1" t="n"/>
+      <c r="AJ76" s="1" t="n"/>
+      <c r="AK76" s="1" t="n"/>
+      <c r="AL76" s="1" t="n"/>
+      <c r="AM76" s="1" t="n"/>
+      <c r="AN76" s="1" t="n"/>
+      <c r="AO76" s="1" t="n"/>
+      <c r="AP76" s="1" t="n"/>
+      <c r="AQ76" s="1" t="n"/>
+      <c r="AR76" s="1" t="n"/>
+      <c r="AS76" s="1" t="n"/>
+      <c r="AT76" s="1" t="n"/>
+      <c r="AU76" s="1" t="n"/>
+      <c r="AV76" s="1" t="n"/>
+      <c r="AW76" s="1" t="n"/>
+      <c r="AX76" s="1" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n"/>
+      <c r="B77" s="5" t="n"/>
+      <c r="C77" s="5" t="n"/>
+      <c r="D77" s="1" t="n"/>
+      <c r="E77" s="1" t="n"/>
+      <c r="F77" s="1" t="n"/>
+      <c r="G77" s="1" t="n"/>
+      <c r="H77" s="1" t="n"/>
+      <c r="I77" s="1" t="n"/>
+      <c r="J77" s="1" t="n"/>
+      <c r="K77" s="1" t="n"/>
+      <c r="L77" s="1" t="n"/>
+      <c r="M77" s="1" t="n"/>
+      <c r="N77" s="1" t="n"/>
+      <c r="O77" s="1" t="n"/>
+      <c r="P77" s="1" t="n"/>
+      <c r="Q77" s="1" t="n"/>
+      <c r="R77" s="1" t="n"/>
+      <c r="S77" s="1" t="n"/>
+      <c r="T77" s="1" t="n"/>
+      <c r="U77" s="1" t="n"/>
+      <c r="V77" s="1" t="n"/>
+      <c r="W77" s="1" t="n"/>
+      <c r="X77" s="1" t="n"/>
+      <c r="Y77" s="1" t="n"/>
+      <c r="Z77" s="1" t="n"/>
+      <c r="AA77" s="1" t="n"/>
+      <c r="AB77" s="1" t="n"/>
+      <c r="AC77" s="1" t="n"/>
+      <c r="AD77" s="1" t="n"/>
+      <c r="AE77" s="1" t="n"/>
+      <c r="AF77" s="1" t="n"/>
+      <c r="AG77" s="1" t="n"/>
+      <c r="AH77" s="1" t="n"/>
+      <c r="AI77" s="1" t="n"/>
+      <c r="AJ77" s="1" t="n"/>
+      <c r="AK77" s="1" t="n"/>
+      <c r="AL77" s="1" t="n"/>
+      <c r="AM77" s="1" t="n"/>
+      <c r="AN77" s="1" t="n"/>
+      <c r="AO77" s="1" t="n"/>
+      <c r="AP77" s="1" t="n"/>
+      <c r="AQ77" s="1" t="n"/>
+      <c r="AR77" s="1" t="n"/>
+      <c r="AS77" s="1" t="n"/>
+      <c r="AT77" s="1" t="n"/>
+      <c r="AU77" s="1" t="n"/>
+      <c r="AV77" s="1" t="n"/>
+      <c r="AW77" s="1" t="n"/>
+      <c r="AX77" s="1" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n"/>
+      <c r="B78" s="5" t="n"/>
+      <c r="C78" s="5" t="n"/>
+      <c r="D78" s="1" t="n"/>
+      <c r="E78" s="1" t="n"/>
+      <c r="F78" s="1" t="n"/>
+      <c r="G78" s="1" t="n"/>
+      <c r="H78" s="1" t="n"/>
+      <c r="I78" s="1" t="n"/>
+      <c r="J78" s="1" t="n"/>
+      <c r="K78" s="1" t="n"/>
+      <c r="L78" s="1" t="n"/>
+      <c r="M78" s="1" t="n"/>
+      <c r="N78" s="1" t="n"/>
+      <c r="O78" s="1" t="n"/>
+      <c r="P78" s="1" t="n"/>
+      <c r="Q78" s="1" t="n"/>
+      <c r="R78" s="1" t="n"/>
+      <c r="S78" s="1" t="n"/>
+      <c r="T78" s="1" t="n"/>
+      <c r="U78" s="1" t="n"/>
+      <c r="V78" s="1" t="n"/>
+      <c r="W78" s="1" t="n"/>
+      <c r="X78" s="1" t="n"/>
+      <c r="Y78" s="1" t="n"/>
+      <c r="Z78" s="1" t="n"/>
+      <c r="AA78" s="1" t="n"/>
+      <c r="AB78" s="1" t="n"/>
+      <c r="AC78" s="1" t="n"/>
+      <c r="AD78" s="1" t="n"/>
+      <c r="AE78" s="1" t="n"/>
+      <c r="AF78" s="1" t="n"/>
+      <c r="AG78" s="1" t="n"/>
+      <c r="AH78" s="1" t="n"/>
+      <c r="AI78" s="1" t="n"/>
+      <c r="AJ78" s="1" t="n"/>
+      <c r="AK78" s="1" t="n"/>
+      <c r="AL78" s="1" t="n"/>
+      <c r="AM78" s="1" t="n"/>
+      <c r="AN78" s="1" t="n"/>
+      <c r="AO78" s="1" t="n"/>
+      <c r="AP78" s="1" t="n"/>
+      <c r="AQ78" s="1" t="n"/>
+      <c r="AR78" s="1" t="n"/>
+      <c r="AS78" s="1" t="n"/>
+      <c r="AT78" s="1" t="n"/>
+      <c r="AU78" s="1" t="n"/>
+      <c r="AV78" s="1" t="n"/>
+      <c r="AW78" s="1" t="n"/>
+      <c r="AX78" s="1" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n"/>
+      <c r="B79" s="5" t="n"/>
+      <c r="C79" s="5" t="n"/>
+      <c r="D79" s="1" t="n"/>
+      <c r="E79" s="1" t="n"/>
+      <c r="F79" s="1" t="n"/>
+      <c r="G79" s="1" t="n"/>
+      <c r="H79" s="1" t="n"/>
+      <c r="I79" s="1" t="n"/>
+      <c r="J79" s="1" t="n"/>
+      <c r="K79" s="1" t="n"/>
+      <c r="L79" s="1" t="n"/>
+      <c r="M79" s="1" t="n"/>
+      <c r="N79" s="1" t="n"/>
+      <c r="O79" s="1" t="n"/>
+      <c r="P79" s="1" t="n"/>
+      <c r="Q79" s="1" t="n"/>
+      <c r="R79" s="1" t="n"/>
+      <c r="S79" s="1" t="n"/>
+      <c r="T79" s="1" t="n"/>
+      <c r="U79" s="1" t="n"/>
+      <c r="V79" s="1" t="n"/>
+      <c r="W79" s="1" t="n"/>
+      <c r="X79" s="1" t="n"/>
+      <c r="Y79" s="1" t="n"/>
+      <c r="Z79" s="1" t="n"/>
+      <c r="AA79" s="1" t="n"/>
+      <c r="AB79" s="1" t="n"/>
+      <c r="AC79" s="1" t="n"/>
+      <c r="AD79" s="1" t="n"/>
+      <c r="AE79" s="1" t="n"/>
+      <c r="AF79" s="1" t="n"/>
+      <c r="AG79" s="1" t="n"/>
+      <c r="AH79" s="1" t="n"/>
+      <c r="AI79" s="1" t="n"/>
+      <c r="AJ79" s="1" t="n"/>
+      <c r="AK79" s="1" t="n"/>
+      <c r="AL79" s="1" t="n"/>
+      <c r="AM79" s="1" t="n"/>
+      <c r="AN79" s="1" t="n"/>
+      <c r="AO79" s="1" t="n"/>
+      <c r="AP79" s="1" t="n"/>
+      <c r="AQ79" s="1" t="n"/>
+      <c r="AR79" s="1" t="n"/>
+      <c r="AS79" s="1" t="n"/>
+      <c r="AT79" s="1" t="n"/>
+      <c r="AU79" s="1" t="n"/>
+      <c r="AV79" s="1" t="n"/>
+      <c r="AW79" s="1" t="n"/>
+      <c r="AX79" s="1" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n"/>
+      <c r="B80" s="5" t="n"/>
+      <c r="C80" s="5" t="n"/>
+      <c r="D80" s="1" t="n"/>
+      <c r="E80" s="1" t="n"/>
+      <c r="F80" s="1" t="n"/>
+      <c r="G80" s="1" t="n"/>
+      <c r="H80" s="1" t="n"/>
+      <c r="I80" s="1" t="n"/>
+      <c r="J80" s="1" t="n"/>
+      <c r="K80" s="1" t="n"/>
+      <c r="L80" s="1" t="n"/>
+      <c r="M80" s="1" t="n"/>
+      <c r="N80" s="1" t="n"/>
+      <c r="O80" s="1" t="n"/>
+      <c r="P80" s="1" t="n"/>
+      <c r="Q80" s="1" t="n"/>
+      <c r="R80" s="1" t="n"/>
+      <c r="S80" s="1" t="n"/>
+      <c r="T80" s="1" t="n"/>
+      <c r="U80" s="1" t="n"/>
+      <c r="V80" s="1" t="n"/>
+      <c r="W80" s="1" t="n"/>
+      <c r="X80" s="1" t="n"/>
+      <c r="Y80" s="1" t="n"/>
+      <c r="Z80" s="1" t="n"/>
+      <c r="AA80" s="1" t="n"/>
+      <c r="AB80" s="1" t="n"/>
+      <c r="AC80" s="1" t="n"/>
+      <c r="AD80" s="1" t="n"/>
+      <c r="AE80" s="1" t="n"/>
+      <c r="AF80" s="1" t="n"/>
+      <c r="AG80" s="1" t="n"/>
+      <c r="AH80" s="1" t="n"/>
+      <c r="AI80" s="1" t="n"/>
+      <c r="AJ80" s="1" t="n"/>
+      <c r="AK80" s="1" t="n"/>
+      <c r="AL80" s="1" t="n"/>
+      <c r="AM80" s="1" t="n"/>
+      <c r="AN80" s="1" t="n"/>
+      <c r="AO80" s="1" t="n"/>
+      <c r="AP80" s="1" t="n"/>
+      <c r="AQ80" s="1" t="n"/>
+      <c r="AR80" s="1" t="n"/>
+      <c r="AS80" s="1" t="n"/>
+      <c r="AT80" s="1" t="n"/>
+      <c r="AU80" s="1" t="n"/>
+      <c r="AV80" s="1" t="n"/>
+      <c r="AW80" s="1" t="n"/>
+      <c r="AX80" s="1" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n"/>
+      <c r="B81" s="5" t="n"/>
+      <c r="C81" s="5" t="n"/>
+      <c r="D81" s="1" t="n"/>
+      <c r="E81" s="1" t="n"/>
+      <c r="F81" s="1" t="n"/>
+      <c r="G81" s="1" t="n"/>
+      <c r="H81" s="1" t="n"/>
+      <c r="I81" s="1" t="n"/>
+      <c r="J81" s="1" t="n"/>
+      <c r="K81" s="1" t="n"/>
+      <c r="L81" s="1" t="n"/>
+      <c r="M81" s="1" t="n"/>
+      <c r="N81" s="1" t="n"/>
+      <c r="O81" s="1" t="n"/>
+      <c r="P81" s="1" t="n"/>
+      <c r="Q81" s="1" t="n"/>
+      <c r="R81" s="1" t="n"/>
+      <c r="S81" s="1" t="n"/>
+      <c r="T81" s="1" t="n"/>
+      <c r="U81" s="1" t="n"/>
+      <c r="V81" s="1" t="n"/>
+      <c r="W81" s="1" t="n"/>
+      <c r="X81" s="1" t="n"/>
+      <c r="Y81" s="1" t="n"/>
+      <c r="Z81" s="1" t="n"/>
+      <c r="AA81" s="1" t="n"/>
+      <c r="AB81" s="1" t="n"/>
+      <c r="AC81" s="1" t="n"/>
+      <c r="AD81" s="1" t="n"/>
+      <c r="AE81" s="1" t="n"/>
+      <c r="AF81" s="1" t="n"/>
+      <c r="AG81" s="1" t="n"/>
+      <c r="AH81" s="1" t="n"/>
+      <c r="AI81" s="1" t="n"/>
+      <c r="AJ81" s="1" t="n"/>
+      <c r="AK81" s="1" t="n"/>
+      <c r="AL81" s="1" t="n"/>
+      <c r="AM81" s="1" t="n"/>
+      <c r="AN81" s="1" t="n"/>
+      <c r="AO81" s="1" t="n"/>
+      <c r="AP81" s="1" t="n"/>
+      <c r="AQ81" s="1" t="n"/>
+      <c r="AR81" s="1" t="n"/>
+      <c r="AS81" s="1" t="n"/>
+      <c r="AT81" s="1" t="n"/>
+      <c r="AU81" s="1" t="n"/>
+      <c r="AV81" s="1" t="n"/>
+      <c r="AW81" s="1" t="n"/>
+      <c r="AX81" s="1" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n"/>
+      <c r="B82" s="5" t="n"/>
+      <c r="C82" s="5" t="n"/>
+      <c r="D82" s="1" t="n"/>
+      <c r="E82" s="1" t="n"/>
+      <c r="F82" s="1" t="n"/>
+      <c r="G82" s="1" t="n"/>
+      <c r="H82" s="1" t="n"/>
+      <c r="I82" s="1" t="n"/>
+      <c r="J82" s="1" t="n"/>
+      <c r="K82" s="1" t="n"/>
+      <c r="L82" s="1" t="n"/>
+      <c r="M82" s="1" t="n"/>
+      <c r="N82" s="1" t="n"/>
+      <c r="O82" s="1" t="n"/>
+      <c r="P82" s="1" t="n"/>
+      <c r="Q82" s="1" t="n"/>
+      <c r="R82" s="1" t="n"/>
+      <c r="S82" s="1" t="n"/>
+      <c r="T82" s="1" t="n"/>
+      <c r="U82" s="1" t="n"/>
+      <c r="V82" s="1" t="n"/>
+      <c r="W82" s="1" t="n"/>
+      <c r="X82" s="1" t="n"/>
+      <c r="Y82" s="1" t="n"/>
+      <c r="Z82" s="1" t="n"/>
+      <c r="AA82" s="1" t="n"/>
+      <c r="AB82" s="1" t="n"/>
+      <c r="AC82" s="1" t="n"/>
+      <c r="AD82" s="1" t="n"/>
+      <c r="AE82" s="1" t="n"/>
+      <c r="AF82" s="1" t="n"/>
+      <c r="AG82" s="1" t="n"/>
+      <c r="AH82" s="1" t="n"/>
+      <c r="AI82" s="1" t="n"/>
+      <c r="AJ82" s="1" t="n"/>
+      <c r="AK82" s="1" t="n"/>
+      <c r="AL82" s="1" t="n"/>
+      <c r="AM82" s="1" t="n"/>
+      <c r="AN82" s="1" t="n"/>
+      <c r="AO82" s="1" t="n"/>
+      <c r="AP82" s="1" t="n"/>
+      <c r="AQ82" s="1" t="n"/>
+      <c r="AR82" s="1" t="n"/>
+      <c r="AS82" s="1" t="n"/>
+      <c r="AT82" s="1" t="n"/>
+      <c r="AU82" s="1" t="n"/>
+      <c r="AV82" s="1" t="n"/>
+      <c r="AW82" s="1" t="n"/>
+      <c r="AX82" s="1" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n"/>
+      <c r="B83" s="5" t="n"/>
+      <c r="C83" s="5" t="n"/>
+      <c r="D83" s="1" t="n"/>
+      <c r="E83" s="1" t="n"/>
+      <c r="F83" s="1" t="n"/>
+      <c r="G83" s="1" t="n"/>
+      <c r="H83" s="1" t="n"/>
+      <c r="I83" s="1" t="n"/>
+      <c r="J83" s="1" t="n"/>
+      <c r="K83" s="1" t="n"/>
+      <c r="L83" s="1" t="n"/>
+      <c r="M83" s="1" t="n"/>
+      <c r="N83" s="1" t="n"/>
+      <c r="O83" s="1" t="n"/>
+      <c r="P83" s="1" t="n"/>
+      <c r="Q83" s="1" t="n"/>
+      <c r="R83" s="1" t="n"/>
+      <c r="S83" s="1" t="n"/>
+      <c r="T83" s="1" t="n"/>
+      <c r="U83" s="1" t="n"/>
+      <c r="V83" s="1" t="n"/>
+      <c r="W83" s="1" t="n"/>
+      <c r="X83" s="1" t="n"/>
+      <c r="Y83" s="1" t="n"/>
+      <c r="Z83" s="1" t="n"/>
+      <c r="AA83" s="1" t="n"/>
+      <c r="AB83" s="1" t="n"/>
+      <c r="AC83" s="1" t="n"/>
+      <c r="AD83" s="1" t="n"/>
+      <c r="AE83" s="1" t="n"/>
+      <c r="AF83" s="1" t="n"/>
+      <c r="AG83" s="1" t="n"/>
+      <c r="AH83" s="1" t="n"/>
+      <c r="AI83" s="1" t="n"/>
+      <c r="AJ83" s="1" t="n"/>
+      <c r="AK83" s="1" t="n"/>
+      <c r="AL83" s="1" t="n"/>
+      <c r="AM83" s="1" t="n"/>
+      <c r="AN83" s="1" t="n"/>
+      <c r="AO83" s="1" t="n"/>
+      <c r="AP83" s="1" t="n"/>
+      <c r="AQ83" s="1" t="n"/>
+      <c r="AR83" s="1" t="n"/>
+      <c r="AS83" s="1" t="n"/>
+      <c r="AT83" s="1" t="n"/>
+      <c r="AU83" s="1" t="n"/>
+      <c r="AV83" s="1" t="n"/>
+      <c r="AW83" s="1" t="n"/>
+      <c r="AX83" s="1" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n"/>
+      <c r="B84" s="5" t="n"/>
+      <c r="C84" s="5" t="n"/>
+      <c r="D84" s="1" t="n"/>
+      <c r="E84" s="1" t="n"/>
+      <c r="F84" s="1" t="n"/>
+      <c r="G84" s="1" t="n"/>
+      <c r="H84" s="1" t="n"/>
+      <c r="I84" s="1" t="n"/>
+      <c r="J84" s="1" t="n"/>
+      <c r="K84" s="1" t="n"/>
+      <c r="L84" s="1" t="n"/>
+      <c r="M84" s="1" t="n"/>
+      <c r="N84" s="1" t="n"/>
+      <c r="O84" s="1" t="n"/>
+      <c r="P84" s="1" t="n"/>
+      <c r="Q84" s="1" t="n"/>
+      <c r="R84" s="1" t="n"/>
+      <c r="S84" s="1" t="n"/>
+      <c r="T84" s="1" t="n"/>
+      <c r="U84" s="1" t="n"/>
+      <c r="V84" s="1" t="n"/>
+      <c r="W84" s="1" t="n"/>
+      <c r="X84" s="1" t="n"/>
+      <c r="Y84" s="1" t="n"/>
+      <c r="Z84" s="1" t="n"/>
+      <c r="AA84" s="1" t="n"/>
+      <c r="AB84" s="1" t="n"/>
+      <c r="AC84" s="1" t="n"/>
+      <c r="AD84" s="1" t="n"/>
+      <c r="AE84" s="1" t="n"/>
+      <c r="AF84" s="1" t="n"/>
+      <c r="AG84" s="1" t="n"/>
+      <c r="AH84" s="1" t="n"/>
+      <c r="AI84" s="1" t="n"/>
+      <c r="AJ84" s="1" t="n"/>
+      <c r="AK84" s="1" t="n"/>
+      <c r="AL84" s="1" t="n"/>
+      <c r="AM84" s="1" t="n"/>
+      <c r="AN84" s="1" t="n"/>
+      <c r="AO84" s="1" t="n"/>
+      <c r="AP84" s="1" t="n"/>
+      <c r="AQ84" s="1" t="n"/>
+      <c r="AR84" s="1" t="n"/>
+      <c r="AS84" s="1" t="n"/>
+      <c r="AT84" s="1" t="n"/>
+      <c r="AU84" s="1" t="n"/>
+      <c r="AV84" s="1" t="n"/>
+      <c r="AW84" s="1" t="n"/>
+      <c r="AX84" s="1" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n"/>
+      <c r="B85" s="5" t="n"/>
+      <c r="C85" s="5" t="n"/>
+      <c r="D85" s="1" t="n"/>
+      <c r="E85" s="1" t="n"/>
+      <c r="F85" s="1" t="n"/>
+      <c r="G85" s="1" t="n"/>
+      <c r="H85" s="1" t="n"/>
+      <c r="I85" s="1" t="n"/>
+      <c r="J85" s="1" t="n"/>
+      <c r="K85" s="1" t="n"/>
+      <c r="L85" s="1" t="n"/>
+      <c r="M85" s="1" t="n"/>
+      <c r="N85" s="1" t="n"/>
+      <c r="O85" s="1" t="n"/>
+      <c r="P85" s="1" t="n"/>
+      <c r="Q85" s="1" t="n"/>
+      <c r="R85" s="1" t="n"/>
+      <c r="S85" s="1" t="n"/>
+      <c r="T85" s="1" t="n"/>
+      <c r="U85" s="1" t="n"/>
+      <c r="V85" s="1" t="n"/>
+      <c r="W85" s="1" t="n"/>
+      <c r="X85" s="1" t="n"/>
+      <c r="Y85" s="1" t="n"/>
+      <c r="Z85" s="1" t="n"/>
+      <c r="AA85" s="1" t="n"/>
+      <c r="AB85" s="1" t="n"/>
+      <c r="AC85" s="1" t="n"/>
+      <c r="AD85" s="1" t="n"/>
+      <c r="AE85" s="1" t="n"/>
+      <c r="AF85" s="1" t="n"/>
+      <c r="AG85" s="1" t="n"/>
+      <c r="AH85" s="1" t="n"/>
+      <c r="AI85" s="1" t="n"/>
+      <c r="AJ85" s="1" t="n"/>
+      <c r="AK85" s="1" t="n"/>
+      <c r="AL85" s="1" t="n"/>
+      <c r="AM85" s="1" t="n"/>
+      <c r="AN85" s="1" t="n"/>
+      <c r="AO85" s="1" t="n"/>
+      <c r="AP85" s="1" t="n"/>
+      <c r="AQ85" s="1" t="n"/>
+      <c r="AR85" s="1" t="n"/>
+      <c r="AS85" s="1" t="n"/>
+      <c r="AT85" s="1" t="n"/>
+      <c r="AU85" s="1" t="n"/>
+      <c r="AV85" s="1" t="n"/>
+      <c r="AW85" s="1" t="n"/>
+      <c r="AX85" s="1" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n"/>
+      <c r="B86" s="5" t="n"/>
+      <c r="C86" s="5" t="n"/>
+      <c r="D86" s="1" t="n"/>
+      <c r="E86" s="1" t="n"/>
+      <c r="F86" s="1" t="n"/>
+      <c r="G86" s="1" t="n"/>
+      <c r="H86" s="1" t="n"/>
+      <c r="I86" s="1" t="n"/>
+      <c r="J86" s="1" t="n"/>
+      <c r="K86" s="1" t="n"/>
+      <c r="L86" s="1" t="n"/>
+      <c r="M86" s="1" t="n"/>
+      <c r="N86" s="1" t="n"/>
+      <c r="O86" s="1" t="n"/>
+      <c r="P86" s="1" t="n"/>
+      <c r="Q86" s="1" t="n"/>
+      <c r="R86" s="1" t="n"/>
+      <c r="S86" s="1" t="n"/>
+      <c r="T86" s="1" t="n"/>
+      <c r="U86" s="1" t="n"/>
+      <c r="V86" s="1" t="n"/>
+      <c r="W86" s="1" t="n"/>
+      <c r="X86" s="1" t="n"/>
+      <c r="Y86" s="1" t="n"/>
+      <c r="Z86" s="1" t="n"/>
+      <c r="AA86" s="1" t="n"/>
+      <c r="AB86" s="1" t="n"/>
+      <c r="AC86" s="1" t="n"/>
+      <c r="AD86" s="1" t="n"/>
+      <c r="AE86" s="1" t="n"/>
+      <c r="AF86" s="1" t="n"/>
+      <c r="AG86" s="1" t="n"/>
+      <c r="AH86" s="1" t="n"/>
+      <c r="AI86" s="1" t="n"/>
+      <c r="AJ86" s="1" t="n"/>
+      <c r="AK86" s="1" t="n"/>
+      <c r="AL86" s="1" t="n"/>
+      <c r="AM86" s="1" t="n"/>
+      <c r="AN86" s="1" t="n"/>
+      <c r="AO86" s="1" t="n"/>
+      <c r="AP86" s="1" t="n"/>
+      <c r="AQ86" s="1" t="n"/>
+      <c r="AR86" s="1" t="n"/>
+      <c r="AS86" s="1" t="n"/>
+      <c r="AT86" s="1" t="n"/>
+      <c r="AU86" s="1" t="n"/>
+      <c r="AV86" s="1" t="n"/>
+      <c r="AW86" s="1" t="n"/>
+      <c r="AX86" s="1" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n"/>
+      <c r="B87" s="5" t="n"/>
+      <c r="C87" s="5" t="n"/>
+      <c r="D87" s="1" t="n"/>
+      <c r="E87" s="1" t="n"/>
+      <c r="F87" s="1" t="n"/>
+      <c r="G87" s="1" t="n"/>
+      <c r="H87" s="1" t="n"/>
+      <c r="I87" s="1" t="n"/>
+      <c r="J87" s="1" t="n"/>
+      <c r="K87" s="1" t="n"/>
+      <c r="L87" s="1" t="n"/>
+      <c r="M87" s="1" t="n"/>
+      <c r="N87" s="1" t="n"/>
+      <c r="O87" s="1" t="n"/>
+      <c r="P87" s="1" t="n"/>
+      <c r="Q87" s="1" t="n"/>
+      <c r="R87" s="1" t="n"/>
+      <c r="S87" s="1" t="n"/>
+      <c r="T87" s="1" t="n"/>
+      <c r="U87" s="1" t="n"/>
+      <c r="V87" s="1" t="n"/>
+      <c r="W87" s="1" t="n"/>
+      <c r="X87" s="1" t="n"/>
+      <c r="Y87" s="1" t="n"/>
+      <c r="Z87" s="1" t="n"/>
+      <c r="AA87" s="1" t="n"/>
+      <c r="AB87" s="1" t="n"/>
+      <c r="AC87" s="1" t="n"/>
+      <c r="AD87" s="1" t="n"/>
+      <c r="AE87" s="1" t="n"/>
+      <c r="AF87" s="1" t="n"/>
+      <c r="AG87" s="1" t="n"/>
+      <c r="AH87" s="1" t="n"/>
+      <c r="AI87" s="1" t="n"/>
+      <c r="AJ87" s="1" t="n"/>
+      <c r="AK87" s="1" t="n"/>
+      <c r="AL87" s="1" t="n"/>
+      <c r="AM87" s="1" t="n"/>
+      <c r="AN87" s="1" t="n"/>
+      <c r="AO87" s="1" t="n"/>
+      <c r="AP87" s="1" t="n"/>
+      <c r="AQ87" s="1" t="n"/>
+      <c r="AR87" s="1" t="n"/>
+      <c r="AS87" s="1" t="n"/>
+      <c r="AT87" s="1" t="n"/>
+      <c r="AU87" s="1" t="n"/>
+      <c r="AV87" s="1" t="n"/>
+      <c r="AW87" s="1" t="n"/>
+      <c r="AX87" s="1" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n"/>
+      <c r="B88" s="5" t="n"/>
+      <c r="C88" s="5" t="n"/>
+      <c r="D88" s="1" t="n"/>
+      <c r="E88" s="1" t="n"/>
+      <c r="F88" s="1" t="n"/>
+      <c r="G88" s="1" t="n"/>
+      <c r="H88" s="1" t="n"/>
+      <c r="I88" s="1" t="n"/>
+      <c r="J88" s="1" t="n"/>
+      <c r="K88" s="1" t="n"/>
+      <c r="L88" s="1" t="n"/>
+      <c r="M88" s="1" t="n"/>
+      <c r="N88" s="1" t="n"/>
+      <c r="O88" s="1" t="n"/>
+      <c r="P88" s="1" t="n"/>
+      <c r="Q88" s="1" t="n"/>
+      <c r="R88" s="1" t="n"/>
+      <c r="S88" s="1" t="n"/>
+      <c r="T88" s="1" t="n"/>
+      <c r="U88" s="1" t="n"/>
+      <c r="V88" s="1" t="n"/>
+      <c r="W88" s="1" t="n"/>
+      <c r="X88" s="1" t="n"/>
+      <c r="Y88" s="1" t="n"/>
+      <c r="Z88" s="1" t="n"/>
+      <c r="AA88" s="1" t="n"/>
+      <c r="AB88" s="1" t="n"/>
+      <c r="AC88" s="1" t="n"/>
+      <c r="AD88" s="1" t="n"/>
+      <c r="AE88" s="1" t="n"/>
+      <c r="AF88" s="1" t="n"/>
+      <c r="AG88" s="1" t="n"/>
+      <c r="AH88" s="1" t="n"/>
+      <c r="AI88" s="1" t="n"/>
+      <c r="AJ88" s="1" t="n"/>
+      <c r="AK88" s="1" t="n"/>
+      <c r="AL88" s="1" t="n"/>
+      <c r="AM88" s="1" t="n"/>
+      <c r="AN88" s="1" t="n"/>
+      <c r="AO88" s="1" t="n"/>
+      <c r="AP88" s="1" t="n"/>
+      <c r="AQ88" s="1" t="n"/>
+      <c r="AR88" s="1" t="n"/>
+      <c r="AS88" s="1" t="n"/>
+      <c r="AT88" s="1" t="n"/>
+      <c r="AU88" s="1" t="n"/>
+      <c r="AV88" s="1" t="n"/>
+      <c r="AW88" s="1" t="n"/>
+      <c r="AX88" s="1" t="n"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n"/>
+      <c r="B89" s="5" t="n"/>
+      <c r="C89" s="5" t="n"/>
+      <c r="D89" s="1" t="n"/>
+      <c r="E89" s="1" t="n"/>
+      <c r="F89" s="1" t="n"/>
+      <c r="G89" s="1" t="n"/>
+      <c r="H89" s="1" t="n"/>
+      <c r="I89" s="1" t="n"/>
+      <c r="J89" s="1" t="n"/>
+      <c r="K89" s="1" t="n"/>
+      <c r="L89" s="1" t="n"/>
+      <c r="M89" s="1" t="n"/>
+      <c r="N89" s="1" t="n"/>
+      <c r="O89" s="1" t="n"/>
+      <c r="P89" s="1" t="n"/>
+      <c r="Q89" s="1" t="n"/>
+      <c r="R89" s="1" t="n"/>
+      <c r="S89" s="1" t="n"/>
+      <c r="T89" s="1" t="n"/>
+      <c r="U89" s="1" t="n"/>
+      <c r="V89" s="1" t="n"/>
+      <c r="W89" s="1" t="n"/>
+      <c r="X89" s="1" t="n"/>
+      <c r="Y89" s="1" t="n"/>
+      <c r="Z89" s="1" t="n"/>
+      <c r="AA89" s="1" t="n"/>
+      <c r="AB89" s="1" t="n"/>
+      <c r="AC89" s="1" t="n"/>
+      <c r="AD89" s="1" t="n"/>
+      <c r="AE89" s="1" t="n"/>
+      <c r="AF89" s="1" t="n"/>
+      <c r="AG89" s="1" t="n"/>
+      <c r="AH89" s="1" t="n"/>
+      <c r="AI89" s="1" t="n"/>
+      <c r="AJ89" s="1" t="n"/>
+      <c r="AK89" s="1" t="n"/>
+      <c r="AL89" s="1" t="n"/>
+      <c r="AM89" s="1" t="n"/>
+      <c r="AN89" s="1" t="n"/>
+      <c r="AO89" s="1" t="n"/>
+      <c r="AP89" s="1" t="n"/>
+      <c r="AQ89" s="1" t="n"/>
+      <c r="AR89" s="1" t="n"/>
+      <c r="AS89" s="1" t="n"/>
+      <c r="AT89" s="1" t="n"/>
+      <c r="AU89" s="1" t="n"/>
+      <c r="AV89" s="1" t="n"/>
+      <c r="AW89" s="1" t="n"/>
+      <c r="AX89" s="1" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n"/>
+      <c r="B90" s="5" t="n"/>
+      <c r="C90" s="5" t="n"/>
+      <c r="D90" s="1" t="n"/>
+      <c r="E90" s="1" t="n"/>
+      <c r="F90" s="1" t="n"/>
+      <c r="G90" s="1" t="n"/>
+      <c r="H90" s="1" t="n"/>
+      <c r="I90" s="1" t="n"/>
+      <c r="J90" s="1" t="n"/>
+      <c r="K90" s="1" t="n"/>
+      <c r="L90" s="1" t="n"/>
+      <c r="M90" s="1" t="n"/>
+      <c r="N90" s="1" t="n"/>
+      <c r="O90" s="1" t="n"/>
+      <c r="P90" s="1" t="n"/>
+      <c r="Q90" s="1" t="n"/>
+      <c r="R90" s="1" t="n"/>
+      <c r="S90" s="1" t="n"/>
+      <c r="T90" s="1" t="n"/>
+      <c r="U90" s="1" t="n"/>
+      <c r="V90" s="1" t="n"/>
+      <c r="W90" s="1" t="n"/>
+      <c r="X90" s="1" t="n"/>
+      <c r="Y90" s="1" t="n"/>
+      <c r="Z90" s="1" t="n"/>
+      <c r="AA90" s="1" t="n"/>
+      <c r="AB90" s="1" t="n"/>
+      <c r="AC90" s="1" t="n"/>
+      <c r="AD90" s="1" t="n"/>
+      <c r="AE90" s="1" t="n"/>
+      <c r="AF90" s="1" t="n"/>
+      <c r="AG90" s="1" t="n"/>
+      <c r="AH90" s="1" t="n"/>
+      <c r="AI90" s="1" t="n"/>
+      <c r="AJ90" s="1" t="n"/>
+      <c r="AK90" s="1" t="n"/>
+      <c r="AL90" s="1" t="n"/>
+      <c r="AM90" s="1" t="n"/>
+      <c r="AN90" s="1" t="n"/>
+      <c r="AO90" s="1" t="n"/>
+      <c r="AP90" s="1" t="n"/>
+      <c r="AQ90" s="1" t="n"/>
+      <c r="AR90" s="1" t="n"/>
+      <c r="AS90" s="1" t="n"/>
+      <c r="AT90" s="1" t="n"/>
+      <c r="AU90" s="1" t="n"/>
+      <c r="AV90" s="1" t="n"/>
+      <c r="AW90" s="1" t="n"/>
+      <c r="AX90" s="1" t="n"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n"/>
+      <c r="B91" s="5" t="n"/>
+      <c r="C91" s="5" t="n"/>
+      <c r="D91" s="1" t="n"/>
+      <c r="E91" s="1" t="n"/>
+      <c r="F91" s="1" t="n"/>
+      <c r="G91" s="1" t="n"/>
+      <c r="H91" s="1" t="n"/>
+      <c r="I91" s="1" t="n"/>
+      <c r="J91" s="1" t="n"/>
+      <c r="K91" s="1" t="n"/>
+      <c r="L91" s="1" t="n"/>
+      <c r="M91" s="1" t="n"/>
+      <c r="N91" s="1" t="n"/>
+      <c r="O91" s="1" t="n"/>
+      <c r="P91" s="1" t="n"/>
+      <c r="Q91" s="1" t="n"/>
+      <c r="R91" s="1" t="n"/>
+      <c r="S91" s="1" t="n"/>
+      <c r="T91" s="1" t="n"/>
+      <c r="U91" s="1" t="n"/>
+      <c r="V91" s="1" t="n"/>
+      <c r="W91" s="1" t="n"/>
+      <c r="X91" s="1" t="n"/>
+      <c r="Y91" s="1" t="n"/>
+      <c r="Z91" s="1" t="n"/>
+      <c r="AA91" s="1" t="n"/>
+      <c r="AB91" s="1" t="n"/>
+      <c r="AC91" s="1" t="n"/>
+      <c r="AD91" s="1" t="n"/>
+      <c r="AE91" s="1" t="n"/>
+      <c r="AF91" s="1" t="n"/>
+      <c r="AG91" s="1" t="n"/>
+      <c r="AH91" s="1" t="n"/>
+      <c r="AI91" s="1" t="n"/>
+      <c r="AJ91" s="1" t="n"/>
+      <c r="AK91" s="1" t="n"/>
+      <c r="AL91" s="1" t="n"/>
+      <c r="AM91" s="1" t="n"/>
+      <c r="AN91" s="1" t="n"/>
+      <c r="AO91" s="1" t="n"/>
+      <c r="AP91" s="1" t="n"/>
+      <c r="AQ91" s="1" t="n"/>
+      <c r="AR91" s="1" t="n"/>
+      <c r="AS91" s="1" t="n"/>
+      <c r="AT91" s="1" t="n"/>
+      <c r="AU91" s="1" t="n"/>
+      <c r="AV91" s="1" t="n"/>
+      <c r="AW91" s="1" t="n"/>
+      <c r="AX91" s="1" t="n"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n"/>
+      <c r="B92" s="5" t="n"/>
+      <c r="C92" s="5" t="n"/>
+      <c r="D92" s="1" t="n"/>
+      <c r="E92" s="1" t="n"/>
+      <c r="F92" s="1" t="n"/>
+      <c r="G92" s="1" t="n"/>
+      <c r="H92" s="1" t="n"/>
+      <c r="I92" s="1" t="n"/>
+      <c r="J92" s="1" t="n"/>
+      <c r="K92" s="1" t="n"/>
+      <c r="L92" s="1" t="n"/>
+      <c r="M92" s="1" t="n"/>
+      <c r="N92" s="1" t="n"/>
+      <c r="O92" s="1" t="n"/>
+      <c r="P92" s="1" t="n"/>
+      <c r="Q92" s="1" t="n"/>
+      <c r="R92" s="1" t="n"/>
+      <c r="S92" s="1" t="n"/>
+      <c r="T92" s="1" t="n"/>
+      <c r="U92" s="1" t="n"/>
+      <c r="V92" s="1" t="n"/>
+      <c r="W92" s="1" t="n"/>
+      <c r="X92" s="1" t="n"/>
+      <c r="Y92" s="1" t="n"/>
+      <c r="Z92" s="1" t="n"/>
+      <c r="AA92" s="1" t="n"/>
+      <c r="AB92" s="1" t="n"/>
+      <c r="AC92" s="1" t="n"/>
+      <c r="AD92" s="1" t="n"/>
+      <c r="AE92" s="1" t="n"/>
+      <c r="AF92" s="1" t="n"/>
+      <c r="AG92" s="1" t="n"/>
+      <c r="AH92" s="1" t="n"/>
+      <c r="AI92" s="1" t="n"/>
+      <c r="AJ92" s="1" t="n"/>
+      <c r="AK92" s="1" t="n"/>
+      <c r="AL92" s="1" t="n"/>
+      <c r="AM92" s="1" t="n"/>
+      <c r="AN92" s="1" t="n"/>
+      <c r="AO92" s="1" t="n"/>
+      <c r="AP92" s="1" t="n"/>
+      <c r="AQ92" s="1" t="n"/>
+      <c r="AR92" s="1" t="n"/>
+      <c r="AS92" s="1" t="n"/>
+      <c r="AT92" s="1" t="n"/>
+      <c r="AU92" s="1" t="n"/>
+      <c r="AV92" s="1" t="n"/>
+      <c r="AW92" s="1" t="n"/>
+      <c r="AX92" s="1" t="n"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n"/>
+      <c r="B93" s="5" t="n"/>
+      <c r="C93" s="5" t="n"/>
+      <c r="D93" s="1" t="n"/>
+      <c r="E93" s="1" t="n"/>
+      <c r="F93" s="1" t="n"/>
+      <c r="G93" s="1" t="n"/>
+      <c r="H93" s="1" t="n"/>
+      <c r="I93" s="1" t="n"/>
+      <c r="J93" s="1" t="n"/>
+      <c r="K93" s="1" t="n"/>
+      <c r="L93" s="1" t="n"/>
+      <c r="M93" s="1" t="n"/>
+      <c r="N93" s="1" t="n"/>
+      <c r="O93" s="1" t="n"/>
+      <c r="P93" s="1" t="n"/>
+      <c r="Q93" s="1" t="n"/>
+      <c r="R93" s="1" t="n"/>
+      <c r="S93" s="1" t="n"/>
+      <c r="T93" s="1" t="n"/>
+      <c r="U93" s="1" t="n"/>
+      <c r="V93" s="1" t="n"/>
+      <c r="W93" s="1" t="n"/>
+      <c r="X93" s="1" t="n"/>
+      <c r="Y93" s="1" t="n"/>
+      <c r="Z93" s="1" t="n"/>
+      <c r="AA93" s="1" t="n"/>
+      <c r="AB93" s="1" t="n"/>
+      <c r="AC93" s="1" t="n"/>
+      <c r="AD93" s="1" t="n"/>
+      <c r="AE93" s="1" t="n"/>
+      <c r="AF93" s="1" t="n"/>
+      <c r="AG93" s="1" t="n"/>
+      <c r="AH93" s="1" t="n"/>
+      <c r="AI93" s="1" t="n"/>
+      <c r="AJ93" s="1" t="n"/>
+      <c r="AK93" s="1" t="n"/>
+      <c r="AL93" s="1" t="n"/>
+      <c r="AM93" s="1" t="n"/>
+      <c r="AN93" s="1" t="n"/>
+      <c r="AO93" s="1" t="n"/>
+      <c r="AP93" s="1" t="n"/>
+      <c r="AQ93" s="1" t="n"/>
+      <c r="AR93" s="1" t="n"/>
+      <c r="AS93" s="1" t="n"/>
+      <c r="AT93" s="1" t="n"/>
+      <c r="AU93" s="1" t="n"/>
+      <c r="AV93" s="1" t="n"/>
+      <c r="AW93" s="1" t="n"/>
+      <c r="AX93" s="1" t="n"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n"/>
+      <c r="B94" s="5" t="n"/>
+      <c r="C94" s="5" t="n"/>
+      <c r="D94" s="1" t="n"/>
+      <c r="E94" s="1" t="n"/>
+      <c r="F94" s="1" t="n"/>
+      <c r="G94" s="1" t="n"/>
+      <c r="H94" s="1" t="n"/>
+      <c r="I94" s="1" t="n"/>
+      <c r="J94" s="1" t="n"/>
+      <c r="K94" s="1" t="n"/>
+      <c r="L94" s="1" t="n"/>
+      <c r="M94" s="1" t="n"/>
+      <c r="N94" s="1" t="n"/>
+      <c r="O94" s="1" t="n"/>
+      <c r="P94" s="1" t="n"/>
+      <c r="Q94" s="1" t="n"/>
+      <c r="R94" s="1" t="n"/>
+      <c r="S94" s="1" t="n"/>
+      <c r="T94" s="1" t="n"/>
+      <c r="U94" s="1" t="n"/>
+      <c r="V94" s="1" t="n"/>
+      <c r="W94" s="1" t="n"/>
+      <c r="X94" s="1" t="n"/>
+      <c r="Y94" s="1" t="n"/>
+      <c r="Z94" s="1" t="n"/>
+      <c r="AA94" s="1" t="n"/>
+      <c r="AB94" s="1" t="n"/>
+      <c r="AC94" s="1" t="n"/>
+      <c r="AD94" s="1" t="n"/>
+      <c r="AE94" s="1" t="n"/>
+      <c r="AF94" s="1" t="n"/>
+      <c r="AG94" s="1" t="n"/>
+      <c r="AH94" s="1" t="n"/>
+      <c r="AI94" s="1" t="n"/>
+      <c r="AJ94" s="1" t="n"/>
+      <c r="AK94" s="1" t="n"/>
+      <c r="AL94" s="1" t="n"/>
+      <c r="AM94" s="1" t="n"/>
+      <c r="AN94" s="1" t="n"/>
+      <c r="AO94" s="1" t="n"/>
+      <c r="AP94" s="1" t="n"/>
+      <c r="AQ94" s="1" t="n"/>
+      <c r="AR94" s="1" t="n"/>
+      <c r="AS94" s="1" t="n"/>
+      <c r="AT94" s="1" t="n"/>
+      <c r="AU94" s="1" t="n"/>
+      <c r="AV94" s="1" t="n"/>
+      <c r="AW94" s="1" t="n"/>
+      <c r="AX94" s="1" t="n"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n"/>
+      <c r="B95" s="5" t="n"/>
+      <c r="C95" s="5" t="n"/>
+      <c r="D95" s="1" t="n"/>
+      <c r="E95" s="1" t="n"/>
+      <c r="F95" s="1" t="n"/>
+      <c r="G95" s="1" t="n"/>
+      <c r="H95" s="1" t="n"/>
+      <c r="I95" s="1" t="n"/>
+      <c r="J95" s="1" t="n"/>
+      <c r="K95" s="1" t="n"/>
+      <c r="L95" s="1" t="n"/>
+      <c r="M95" s="1" t="n"/>
+      <c r="N95" s="1" t="n"/>
+      <c r="O95" s="1" t="n"/>
+      <c r="P95" s="1" t="n"/>
+      <c r="Q95" s="1" t="n"/>
+      <c r="R95" s="1" t="n"/>
+      <c r="S95" s="1" t="n"/>
+      <c r="T95" s="1" t="n"/>
+      <c r="U95" s="1" t="n"/>
+      <c r="V95" s="1" t="n"/>
+      <c r="W95" s="1" t="n"/>
+      <c r="X95" s="1" t="n"/>
+      <c r="Y95" s="1" t="n"/>
+      <c r="Z95" s="1" t="n"/>
+      <c r="AA95" s="1" t="n"/>
+      <c r="AB95" s="1" t="n"/>
+      <c r="AC95" s="1" t="n"/>
+      <c r="AD95" s="1" t="n"/>
+      <c r="AE95" s="1" t="n"/>
+      <c r="AF95" s="1" t="n"/>
+      <c r="AG95" s="1" t="n"/>
+      <c r="AH95" s="1" t="n"/>
+      <c r="AI95" s="1" t="n"/>
+      <c r="AJ95" s="1" t="n"/>
+      <c r="AK95" s="1" t="n"/>
+      <c r="AL95" s="1" t="n"/>
+      <c r="AM95" s="1" t="n"/>
+      <c r="AN95" s="1" t="n"/>
+      <c r="AO95" s="1" t="n"/>
+      <c r="AP95" s="1" t="n"/>
+      <c r="AQ95" s="1" t="n"/>
+      <c r="AR95" s="1" t="n"/>
+      <c r="AS95" s="1" t="n"/>
+      <c r="AT95" s="1" t="n"/>
+      <c r="AU95" s="1" t="n"/>
+      <c r="AV95" s="1" t="n"/>
+      <c r="AW95" s="1" t="n"/>
+      <c r="AX95" s="1" t="n"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n"/>
+      <c r="B96" s="5" t="n"/>
+      <c r="C96" s="5" t="n"/>
+      <c r="D96" s="1" t="n"/>
+      <c r="E96" s="1" t="n"/>
+      <c r="F96" s="1" t="n"/>
+      <c r="G96" s="1" t="n"/>
+      <c r="H96" s="1" t="n"/>
+      <c r="I96" s="1" t="n"/>
+      <c r="J96" s="1" t="n"/>
+      <c r="K96" s="1" t="n"/>
+      <c r="L96" s="1" t="n"/>
+      <c r="M96" s="1" t="n"/>
+      <c r="N96" s="1" t="n"/>
+      <c r="O96" s="1" t="n"/>
+      <c r="P96" s="1" t="n"/>
+      <c r="Q96" s="1" t="n"/>
+      <c r="R96" s="1" t="n"/>
+      <c r="S96" s="1" t="n"/>
+      <c r="T96" s="1" t="n"/>
+      <c r="U96" s="1" t="n"/>
+      <c r="V96" s="1" t="n"/>
+      <c r="W96" s="1" t="n"/>
+      <c r="X96" s="1" t="n"/>
+      <c r="Y96" s="1" t="n"/>
+      <c r="Z96" s="1" t="n"/>
+      <c r="AA96" s="1" t="n"/>
+      <c r="AB96" s="1" t="n"/>
+      <c r="AC96" s="1" t="n"/>
+      <c r="AD96" s="1" t="n"/>
+      <c r="AE96" s="1" t="n"/>
+      <c r="AF96" s="1" t="n"/>
+      <c r="AG96" s="1" t="n"/>
+      <c r="AH96" s="1" t="n"/>
+      <c r="AI96" s="1" t="n"/>
+      <c r="AJ96" s="1" t="n"/>
+      <c r="AK96" s="1" t="n"/>
+      <c r="AL96" s="1" t="n"/>
+      <c r="AM96" s="1" t="n"/>
+      <c r="AN96" s="1" t="n"/>
+      <c r="AO96" s="1" t="n"/>
+      <c r="AP96" s="1" t="n"/>
+      <c r="AQ96" s="1" t="n"/>
+      <c r="AR96" s="1" t="n"/>
+      <c r="AS96" s="1" t="n"/>
+      <c r="AT96" s="1" t="n"/>
+      <c r="AU96" s="1" t="n"/>
+      <c r="AV96" s="1" t="n"/>
+      <c r="AW96" s="1" t="n"/>
+      <c r="AX96" s="1" t="n"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n"/>
+      <c r="B97" s="5" t="n"/>
+      <c r="C97" s="5" t="n"/>
+      <c r="D97" s="1" t="n"/>
+      <c r="E97" s="1" t="n"/>
+      <c r="F97" s="1" t="n"/>
+      <c r="G97" s="1" t="n"/>
+      <c r="H97" s="1" t="n"/>
+      <c r="I97" s="1" t="n"/>
+      <c r="J97" s="1" t="n"/>
+      <c r="K97" s="1" t="n"/>
+      <c r="L97" s="1" t="n"/>
+      <c r="M97" s="1" t="n"/>
+      <c r="N97" s="1" t="n"/>
+      <c r="O97" s="1" t="n"/>
+      <c r="P97" s="1" t="n"/>
+      <c r="Q97" s="1" t="n"/>
+      <c r="R97" s="1" t="n"/>
+      <c r="S97" s="1" t="n"/>
+      <c r="T97" s="1" t="n"/>
+      <c r="U97" s="1" t="n"/>
+      <c r="V97" s="1" t="n"/>
+      <c r="W97" s="1" t="n"/>
+      <c r="X97" s="1" t="n"/>
+      <c r="Y97" s="1" t="n"/>
+      <c r="Z97" s="1" t="n"/>
+      <c r="AA97" s="1" t="n"/>
+      <c r="AB97" s="1" t="n"/>
+      <c r="AC97" s="1" t="n"/>
+      <c r="AD97" s="1" t="n"/>
+      <c r="AE97" s="1" t="n"/>
+      <c r="AF97" s="1" t="n"/>
+      <c r="AG97" s="1" t="n"/>
+      <c r="AH97" s="1" t="n"/>
+      <c r="AI97" s="1" t="n"/>
+      <c r="AJ97" s="1" t="n"/>
+      <c r="AK97" s="1" t="n"/>
+      <c r="AL97" s="1" t="n"/>
+      <c r="AM97" s="1" t="n"/>
+      <c r="AN97" s="1" t="n"/>
+      <c r="AO97" s="1" t="n"/>
+      <c r="AP97" s="1" t="n"/>
+      <c r="AQ97" s="1" t="n"/>
+      <c r="AR97" s="1" t="n"/>
+      <c r="AS97" s="1" t="n"/>
+      <c r="AT97" s="1" t="n"/>
+      <c r="AU97" s="1" t="n"/>
+      <c r="AV97" s="1" t="n"/>
+      <c r="AW97" s="1" t="n"/>
+      <c r="AX97" s="1" t="n"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n"/>
+      <c r="B98" s="5" t="n"/>
+      <c r="C98" s="5" t="n"/>
+      <c r="D98" s="1" t="n"/>
+      <c r="E98" s="1" t="n"/>
+      <c r="F98" s="1" t="n"/>
+      <c r="G98" s="1" t="n"/>
+      <c r="H98" s="1" t="n"/>
+      <c r="I98" s="1" t="n"/>
+      <c r="J98" s="1" t="n"/>
+      <c r="K98" s="1" t="n"/>
+      <c r="L98" s="1" t="n"/>
+      <c r="M98" s="1" t="n"/>
+      <c r="N98" s="1" t="n"/>
+      <c r="O98" s="1" t="n"/>
+      <c r="P98" s="1" t="n"/>
+      <c r="Q98" s="1" t="n"/>
+      <c r="R98" s="1" t="n"/>
+      <c r="S98" s="1" t="n"/>
+      <c r="T98" s="1" t="n"/>
+      <c r="U98" s="1" t="n"/>
+      <c r="V98" s="1" t="n"/>
+      <c r="W98" s="1" t="n"/>
+      <c r="X98" s="1" t="n"/>
+      <c r="Y98" s="1" t="n"/>
+      <c r="Z98" s="1" t="n"/>
+      <c r="AA98" s="1" t="n"/>
+      <c r="AB98" s="1" t="n"/>
+      <c r="AC98" s="1" t="n"/>
+      <c r="AD98" s="1" t="n"/>
+      <c r="AE98" s="1" t="n"/>
+      <c r="AF98" s="1" t="n"/>
+      <c r="AG98" s="1" t="n"/>
+      <c r="AH98" s="1" t="n"/>
+      <c r="AI98" s="1" t="n"/>
+      <c r="AJ98" s="1" t="n"/>
+      <c r="AK98" s="1" t="n"/>
+      <c r="AL98" s="1" t="n"/>
+      <c r="AM98" s="1" t="n"/>
+      <c r="AN98" s="1" t="n"/>
+      <c r="AO98" s="1" t="n"/>
+      <c r="AP98" s="1" t="n"/>
+      <c r="AQ98" s="1" t="n"/>
+      <c r="AR98" s="1" t="n"/>
+      <c r="AS98" s="1" t="n"/>
+      <c r="AT98" s="1" t="n"/>
+      <c r="AU98" s="1" t="n"/>
+      <c r="AV98" s="1" t="n"/>
+      <c r="AW98" s="1" t="n"/>
+      <c r="AX98" s="1" t="n"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n"/>
+      <c r="B99" s="5" t="n"/>
+      <c r="C99" s="5" t="n"/>
+      <c r="D99" s="1" t="n"/>
+      <c r="E99" s="1" t="n"/>
+      <c r="F99" s="1" t="n"/>
+      <c r="G99" s="1" t="n"/>
+      <c r="H99" s="1" t="n"/>
+      <c r="I99" s="1" t="n"/>
+      <c r="J99" s="1" t="n"/>
+      <c r="K99" s="1" t="n"/>
+      <c r="L99" s="1" t="n"/>
+      <c r="M99" s="1" t="n"/>
+      <c r="N99" s="1" t="n"/>
+      <c r="O99" s="1" t="n"/>
+      <c r="P99" s="1" t="n"/>
+      <c r="Q99" s="1" t="n"/>
+      <c r="R99" s="1" t="n"/>
+      <c r="S99" s="1" t="n"/>
+      <c r="T99" s="1" t="n"/>
+      <c r="U99" s="1" t="n"/>
+      <c r="V99" s="1" t="n"/>
+      <c r="W99" s="1" t="n"/>
+      <c r="X99" s="1" t="n"/>
+      <c r="Y99" s="1" t="n"/>
+      <c r="Z99" s="1" t="n"/>
+      <c r="AA99" s="1" t="n"/>
+      <c r="AB99" s="1" t="n"/>
+      <c r="AC99" s="1" t="n"/>
+      <c r="AD99" s="1" t="n"/>
+      <c r="AE99" s="1" t="n"/>
+      <c r="AF99" s="1" t="n"/>
+      <c r="AG99" s="1" t="n"/>
+      <c r="AH99" s="1" t="n"/>
+      <c r="AI99" s="1" t="n"/>
+      <c r="AJ99" s="1" t="n"/>
+      <c r="AK99" s="1" t="n"/>
+      <c r="AL99" s="1" t="n"/>
+      <c r="AM99" s="1" t="n"/>
+      <c r="AN99" s="1" t="n"/>
+      <c r="AO99" s="1" t="n"/>
+      <c r="AP99" s="1" t="n"/>
+      <c r="AQ99" s="1" t="n"/>
+      <c r="AR99" s="1" t="n"/>
+      <c r="AS99" s="1" t="n"/>
+      <c r="AT99" s="1" t="n"/>
+      <c r="AU99" s="1" t="n"/>
+      <c r="AV99" s="1" t="n"/>
+      <c r="AW99" s="1" t="n"/>
+      <c r="AX99" s="1" t="n"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n"/>
+      <c r="B100" s="5" t="n"/>
+      <c r="C100" s="5" t="n"/>
+      <c r="D100" s="1" t="n"/>
+      <c r="E100" s="1" t="n"/>
+      <c r="F100" s="1" t="n"/>
+      <c r="G100" s="1" t="n"/>
+      <c r="H100" s="1" t="n"/>
+      <c r="I100" s="1" t="n"/>
+      <c r="J100" s="1" t="n"/>
+      <c r="K100" s="1" t="n"/>
+      <c r="L100" s="1" t="n"/>
+      <c r="M100" s="1" t="n"/>
+      <c r="N100" s="1" t="n"/>
+      <c r="O100" s="1" t="n"/>
+      <c r="P100" s="1" t="n"/>
+      <c r="Q100" s="1" t="n"/>
+      <c r="R100" s="1" t="n"/>
+      <c r="S100" s="1" t="n"/>
+      <c r="T100" s="1" t="n"/>
+      <c r="U100" s="1" t="n"/>
+      <c r="V100" s="1" t="n"/>
+      <c r="W100" s="1" t="n"/>
+      <c r="X100" s="1" t="n"/>
+      <c r="Y100" s="1" t="n"/>
+      <c r="Z100" s="1" t="n"/>
+      <c r="AA100" s="1" t="n"/>
+      <c r="AB100" s="1" t="n"/>
+      <c r="AC100" s="1" t="n"/>
+      <c r="AD100" s="1" t="n"/>
+      <c r="AE100" s="1" t="n"/>
+      <c r="AF100" s="1" t="n"/>
+      <c r="AG100" s="1" t="n"/>
+      <c r="AH100" s="1" t="n"/>
+      <c r="AI100" s="1" t="n"/>
+      <c r="AJ100" s="1" t="n"/>
+      <c r="AK100" s="1" t="n"/>
+      <c r="AL100" s="1" t="n"/>
+      <c r="AM100" s="1" t="n"/>
+      <c r="AN100" s="1" t="n"/>
+      <c r="AO100" s="1" t="n"/>
+      <c r="AP100" s="1" t="n"/>
+      <c r="AQ100" s="1" t="n"/>
+      <c r="AR100" s="1" t="n"/>
+      <c r="AS100" s="1" t="n"/>
+      <c r="AT100" s="1" t="n"/>
+      <c r="AU100" s="1" t="n"/>
+      <c r="AV100" s="1" t="n"/>
+      <c r="AW100" s="1" t="n"/>
+      <c r="AX100" s="1" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/chronogram.xlsx
+++ b/chronogram.xlsx
@@ -614,7 +614,12 @@
       <c r="A2" s="1" t="n"/>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>April</t>
+          <t>February</t>
+        </is>
+      </c>
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t>March</t>
         </is>
       </c>
       <c r="J2" s="1" t="n"/>
@@ -663,22 +668,22 @@
       <c r="A3" s="1" t="n"/>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>05/Apr - 11/Apr</t>
+          <t>25/Feb - 02/Mar</t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t>12/Apr - 18/Apr</t>
+          <t>03/Mar - 09/Mar</t>
         </is>
       </c>
       <c r="H3" s="4" t="inlineStr">
         <is>
-          <t>19/Apr - 25/Apr</t>
+          <t>10/Mar - 16/Mar</t>
         </is>
       </c>
       <c r="I3" s="4" t="inlineStr">
         <is>
-          <t>26/Apr - 02/May</t>
+          <t>17/Mar - 23/Mar</t>
         </is>
       </c>
       <c r="J3" s="1" t="n"/>
@@ -789,12 +794,12 @@
       </c>
       <c r="D5" s="7" t="inlineStr">
         <is>
-          <t>04/05</t>
+          <t>02/25</t>
         </is>
       </c>
       <c r="E5" s="7" t="inlineStr">
         <is>
-          <t>04/18</t>
+          <t>03/09</t>
         </is>
       </c>
       <c r="F5" s="8" t="n"/>
@@ -857,12 +862,12 @@
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>04/05</t>
+          <t>02/25</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>04/11</t>
+          <t>03/02</t>
         </is>
       </c>
       <c r="F6" s="9" t="n"/>
@@ -925,12 +930,12 @@
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>04/12</t>
+          <t>03/03</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>04/18</t>
+          <t>03/09</t>
         </is>
       </c>
       <c r="F7" s="1" t="n"/>
@@ -993,12 +998,12 @@
       </c>
       <c r="D8" s="7" t="inlineStr">
         <is>
-          <t>04/19</t>
+          <t>03/10</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr">
         <is>
-          <t>05/02</t>
+          <t>03/23</t>
         </is>
       </c>
       <c r="F8" s="1" t="n"/>
@@ -1061,12 +1066,12 @@
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>04/19</t>
+          <t>03/10</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>04/25</t>
+          <t>03/16</t>
         </is>
       </c>
       <c r="F9" s="1" t="n"/>
@@ -1129,12 +1134,12 @@
       </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>04/26</t>
+          <t>03/17</t>
         </is>
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>05/02</t>
+          <t>03/23</t>
         </is>
       </c>
       <c r="F10" s="1" t="n"/>
@@ -5864,14 +5869,15 @@
       <c r="AX100" s="1" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="B8"/>
+    <mergeCell ref="G2:I2"/>
     <mergeCell ref="C8"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:D3"/>
-    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F2"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="B5"/>
     <mergeCell ref="C5"/>

--- a/chronogram.xlsx
+++ b/chronogram.xlsx
@@ -614,11 +614,6 @@
       <c r="A2" s="1" t="n"/>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>February</t>
-        </is>
-      </c>
-      <c r="G2" s="4" t="inlineStr">
-        <is>
           <t>March</t>
         </is>
       </c>
@@ -668,22 +663,22 @@
       <c r="A3" s="1" t="n"/>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>25/Feb - 02/Mar</t>
+          <t>10/Mar - 16/Mar</t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t>03/Mar - 09/Mar</t>
+          <t>17/Mar - 23/Mar</t>
         </is>
       </c>
       <c r="H3" s="4" t="inlineStr">
         <is>
-          <t>10/Mar - 16/Mar</t>
+          <t>24/Mar - 30/Mar</t>
         </is>
       </c>
       <c r="I3" s="4" t="inlineStr">
         <is>
-          <t>17/Mar - 23/Mar</t>
+          <t>31/Mar - 06/Apr</t>
         </is>
       </c>
       <c r="J3" s="1" t="n"/>
@@ -794,12 +789,12 @@
       </c>
       <c r="D5" s="7" t="inlineStr">
         <is>
-          <t>02/25</t>
+          <t>03/10</t>
         </is>
       </c>
       <c r="E5" s="7" t="inlineStr">
         <is>
-          <t>03/09</t>
+          <t>03/23</t>
         </is>
       </c>
       <c r="F5" s="8" t="n"/>
@@ -862,12 +857,12 @@
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>02/25</t>
+          <t>03/10</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>03/02</t>
+          <t>03/16</t>
         </is>
       </c>
       <c r="F6" s="9" t="n"/>
@@ -930,12 +925,12 @@
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>03/03</t>
+          <t>03/17</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>03/09</t>
+          <t>03/23</t>
         </is>
       </c>
       <c r="F7" s="1" t="n"/>
@@ -998,18 +993,18 @@
       </c>
       <c r="D8" s="7" t="inlineStr">
         <is>
-          <t>03/10</t>
+          <t>03/24</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr">
         <is>
-          <t>03/23</t>
+          <t>03/30</t>
         </is>
       </c>
       <c r="F8" s="1" t="n"/>
       <c r="G8" s="1" t="n"/>
       <c r="H8" s="8" t="n"/>
-      <c r="I8" s="8" t="n"/>
+      <c r="I8" s="1" t="n"/>
       <c r="J8" s="1" t="n"/>
       <c r="K8" s="1" t="n"/>
       <c r="L8" s="1" t="n"/>
@@ -1066,12 +1061,12 @@
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>03/10</t>
+          <t>03/24</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>03/16</t>
+          <t>03/30</t>
         </is>
       </c>
       <c r="F9" s="1" t="n"/>
@@ -1134,18 +1129,18 @@
       </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>03/17</t>
+          <t>03/24</t>
         </is>
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>03/23</t>
+          <t>03/30</t>
         </is>
       </c>
       <c r="F10" s="1" t="n"/>
       <c r="G10" s="1" t="n"/>
-      <c r="H10" s="1" t="n"/>
-      <c r="I10" s="9" t="n"/>
+      <c r="H10" s="9" t="n"/>
+      <c r="I10" s="1" t="n"/>
       <c r="J10" s="1" t="n"/>
       <c r="K10" s="1" t="n"/>
       <c r="L10" s="1" t="n"/>
@@ -1190,14 +1185,30 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="1" t="n"/>
-      <c r="E11" s="1" t="n"/>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>Task 3</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="D11" s="7" t="inlineStr">
+        <is>
+          <t>03/31</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr">
+        <is>
+          <t>04/06</t>
+        </is>
+      </c>
       <c r="F11" s="1" t="n"/>
       <c r="G11" s="1" t="n"/>
       <c r="H11" s="1" t="n"/>
-      <c r="I11" s="1" t="n"/>
+      <c r="I11" s="8" t="n"/>
       <c r="J11" s="1" t="n"/>
       <c r="K11" s="1" t="n"/>
       <c r="L11" s="1" t="n"/>
@@ -1242,14 +1253,30 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
-      <c r="B12" s="5" t="n"/>
-      <c r="C12" s="5" t="n"/>
-      <c r="D12" s="1" t="n"/>
-      <c r="E12" s="1" t="n"/>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>03/31</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>04/06</t>
+        </is>
+      </c>
       <c r="F12" s="1" t="n"/>
       <c r="G12" s="1" t="n"/>
       <c r="H12" s="1" t="n"/>
-      <c r="I12" s="1" t="n"/>
+      <c r="I12" s="9" t="n"/>
       <c r="J12" s="1" t="n"/>
       <c r="K12" s="1" t="n"/>
       <c r="L12" s="1" t="n"/>
@@ -1294,14 +1321,30 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
-      <c r="B13" s="5" t="n"/>
-      <c r="C13" s="5" t="n"/>
-      <c r="D13" s="1" t="n"/>
-      <c r="E13" s="1" t="n"/>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>3.2</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>03/31</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="inlineStr">
+        <is>
+          <t>04/06</t>
+        </is>
+      </c>
       <c r="F13" s="1" t="n"/>
       <c r="G13" s="1" t="n"/>
       <c r="H13" s="1" t="n"/>
-      <c r="I13" s="1" t="n"/>
+      <c r="I13" s="9" t="n"/>
       <c r="J13" s="1" t="n"/>
       <c r="K13" s="1" t="n"/>
       <c r="L13" s="1" t="n"/>
@@ -5869,15 +5912,16 @@
       <c r="AX100" s="1" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="B8"/>
-    <mergeCell ref="G2:I2"/>
     <mergeCell ref="C8"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:D3"/>
-    <mergeCell ref="F2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="B11"/>
+    <mergeCell ref="C11"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="B5"/>
     <mergeCell ref="C5"/>

--- a/chronogram.xlsx
+++ b/chronogram.xlsx
@@ -614,7 +614,7 @@
       <c r="A2" s="1" t="n"/>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>March</t>
+          <t>October</t>
         </is>
       </c>
       <c r="J2" s="1" t="n"/>
@@ -663,22 +663,22 @@
       <c r="A3" s="1" t="n"/>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>10/Mar - 16/Mar</t>
+          <t>03/Oct - 09/Oct</t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t>17/Mar - 23/Mar</t>
+          <t>10/Oct - 16/Oct</t>
         </is>
       </c>
       <c r="H3" s="4" t="inlineStr">
         <is>
-          <t>24/Mar - 30/Mar</t>
+          <t>17/Oct - 23/Oct</t>
         </is>
       </c>
       <c r="I3" s="4" t="inlineStr">
         <is>
-          <t>31/Mar - 06/Apr</t>
+          <t>24/Oct - 30/Oct</t>
         </is>
       </c>
       <c r="J3" s="1" t="n"/>
@@ -789,12 +789,12 @@
       </c>
       <c r="D5" s="7" t="inlineStr">
         <is>
-          <t>03/10</t>
+          <t>10/03</t>
         </is>
       </c>
       <c r="E5" s="7" t="inlineStr">
         <is>
-          <t>03/23</t>
+          <t>10/16</t>
         </is>
       </c>
       <c r="F5" s="8" t="n"/>
@@ -857,16 +857,16 @@
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>03/10</t>
+          <t>10/03</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>03/16</t>
+          <t>10/16</t>
         </is>
       </c>
       <c r="F6" s="9" t="n"/>
-      <c r="G6" s="1" t="n"/>
+      <c r="G6" s="9" t="n"/>
       <c r="H6" s="1" t="n"/>
       <c r="I6" s="1" t="n"/>
       <c r="J6" s="1" t="n"/>
@@ -925,12 +925,12 @@
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>03/17</t>
+          <t>10/10</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>03/23</t>
+          <t>10/16</t>
         </is>
       </c>
       <c r="F7" s="1" t="n"/>
@@ -993,18 +993,18 @@
       </c>
       <c r="D8" s="7" t="inlineStr">
         <is>
-          <t>03/24</t>
+          <t>10/17</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr">
         <is>
-          <t>03/30</t>
+          <t>10/30</t>
         </is>
       </c>
       <c r="F8" s="1" t="n"/>
       <c r="G8" s="1" t="n"/>
       <c r="H8" s="8" t="n"/>
-      <c r="I8" s="1" t="n"/>
+      <c r="I8" s="8" t="n"/>
       <c r="J8" s="1" t="n"/>
       <c r="K8" s="1" t="n"/>
       <c r="L8" s="1" t="n"/>
@@ -1061,12 +1061,12 @@
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>03/24</t>
+          <t>10/17</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>03/30</t>
+          <t>10/23</t>
         </is>
       </c>
       <c r="F9" s="1" t="n"/>
@@ -1129,18 +1129,18 @@
       </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>03/24</t>
+          <t>10/24</t>
         </is>
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>03/30</t>
+          <t>10/30</t>
         </is>
       </c>
       <c r="F10" s="1" t="n"/>
       <c r="G10" s="1" t="n"/>
-      <c r="H10" s="9" t="n"/>
-      <c r="I10" s="1" t="n"/>
+      <c r="H10" s="1" t="n"/>
+      <c r="I10" s="9" t="n"/>
       <c r="J10" s="1" t="n"/>
       <c r="K10" s="1" t="n"/>
       <c r="L10" s="1" t="n"/>
@@ -1185,30 +1185,14 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
-      <c r="B11" s="6" t="inlineStr">
-        <is>
-          <t>Task 3</t>
-        </is>
-      </c>
-      <c r="C11" s="6" t="inlineStr">
-        <is>
-          <t>M3</t>
-        </is>
-      </c>
-      <c r="D11" s="7" t="inlineStr">
-        <is>
-          <t>03/31</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="inlineStr">
-        <is>
-          <t>04/06</t>
-        </is>
-      </c>
+      <c r="B11" s="5" t="n"/>
+      <c r="C11" s="5" t="n"/>
+      <c r="D11" s="1" t="n"/>
+      <c r="E11" s="1" t="n"/>
       <c r="F11" s="1" t="n"/>
       <c r="G11" s="1" t="n"/>
       <c r="H11" s="1" t="n"/>
-      <c r="I11" s="8" t="n"/>
+      <c r="I11" s="1" t="n"/>
       <c r="J11" s="1" t="n"/>
       <c r="K11" s="1" t="n"/>
       <c r="L11" s="1" t="n"/>
@@ -1253,30 +1237,14 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
-      <c r="B12" s="5" t="inlineStr">
-        <is>
-          <t>3.1</t>
-        </is>
-      </c>
-      <c r="C12" s="5" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
-        <is>
-          <t>03/31</t>
-        </is>
-      </c>
-      <c r="E12" s="1" t="inlineStr">
-        <is>
-          <t>04/06</t>
-        </is>
-      </c>
+      <c r="B12" s="5" t="n"/>
+      <c r="C12" s="5" t="n"/>
+      <c r="D12" s="1" t="n"/>
+      <c r="E12" s="1" t="n"/>
       <c r="F12" s="1" t="n"/>
       <c r="G12" s="1" t="n"/>
       <c r="H12" s="1" t="n"/>
-      <c r="I12" s="9" t="n"/>
+      <c r="I12" s="1" t="n"/>
       <c r="J12" s="1" t="n"/>
       <c r="K12" s="1" t="n"/>
       <c r="L12" s="1" t="n"/>
@@ -1321,30 +1289,14 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
-      <c r="B13" s="5" t="inlineStr">
-        <is>
-          <t>3.2</t>
-        </is>
-      </c>
-      <c r="C13" s="5" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
-        <is>
-          <t>03/31</t>
-        </is>
-      </c>
-      <c r="E13" s="1" t="inlineStr">
-        <is>
-          <t>04/06</t>
-        </is>
-      </c>
+      <c r="B13" s="5" t="n"/>
+      <c r="C13" s="5" t="n"/>
+      <c r="D13" s="1" t="n"/>
+      <c r="E13" s="1" t="n"/>
       <c r="F13" s="1" t="n"/>
       <c r="G13" s="1" t="n"/>
       <c r="H13" s="1" t="n"/>
-      <c r="I13" s="9" t="n"/>
+      <c r="I13" s="1" t="n"/>
       <c r="J13" s="1" t="n"/>
       <c r="K13" s="1" t="n"/>
       <c r="L13" s="1" t="n"/>
@@ -5912,7 +5864,7 @@
       <c r="AX100" s="1" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="10">
     <mergeCell ref="B8"/>
     <mergeCell ref="C8"/>
     <mergeCell ref="B1:B3"/>
@@ -5920,8 +5872,6 @@
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="F2:I2"/>
-    <mergeCell ref="B11"/>
-    <mergeCell ref="C11"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="B5"/>
     <mergeCell ref="C5"/>

--- a/chronogram.xlsx
+++ b/chronogram.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Gantt Chart (weeks)" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,16 +25,54 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00000000"/>
+    </font>
+    <font>
+      <b val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
+    <font>
+      <color rgb="00FFFFFF"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFA500"/>
+        <bgColor rgb="00FFA500"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0032a852"/>
+        <bgColor rgb="0032a852"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000070C0"/>
+        <bgColor rgb="000070C0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -42,12 +80,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,110 +487,5510 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:AX100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="16" customWidth="1" min="6" max="6"/>
+    <col width="16" customWidth="1" min="7" max="7"/>
+    <col width="16" customWidth="1" min="8" max="8"/>
+    <col width="16" customWidth="1" min="9" max="9"/>
+    <col width="16" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="13" max="13"/>
+    <col width="20" customWidth="1" min="14" max="14"/>
+    <col width="20" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+    <col width="20" customWidth="1" min="18" max="18"/>
+    <col width="20" customWidth="1" min="19" max="19"/>
+    <col width="20" customWidth="1" min="20" max="20"/>
+    <col width="20" customWidth="1" min="21" max="21"/>
+    <col width="20" customWidth="1" min="22" max="22"/>
+    <col width="20" customWidth="1" min="23" max="23"/>
+    <col width="20" customWidth="1" min="24" max="24"/>
+    <col width="20" customWidth="1" min="25" max="25"/>
+    <col width="20" customWidth="1" min="26" max="26"/>
+    <col width="20" customWidth="1" min="27" max="27"/>
+    <col width="20" customWidth="1" min="28" max="28"/>
+    <col width="20" customWidth="1" min="29" max="29"/>
+    <col width="20" customWidth="1" min="30" max="30"/>
+    <col width="20" customWidth="1" min="31" max="31"/>
+    <col width="20" customWidth="1" min="32" max="32"/>
+    <col width="20" customWidth="1" min="33" max="33"/>
+    <col width="20" customWidth="1" min="34" max="34"/>
+    <col width="20" customWidth="1" min="35" max="35"/>
+    <col width="20" customWidth="1" min="36" max="36"/>
+    <col width="20" customWidth="1" min="37" max="37"/>
+    <col width="20" customWidth="1" min="38" max="38"/>
+    <col width="20" customWidth="1" min="39" max="39"/>
+    <col width="20" customWidth="1" min="40" max="40"/>
+    <col width="20" customWidth="1" min="41" max="41"/>
+    <col width="20" customWidth="1" min="42" max="42"/>
+    <col width="20" customWidth="1" min="43" max="43"/>
+    <col width="20" customWidth="1" min="44" max="44"/>
+    <col width="20" customWidth="1" min="45" max="45"/>
+    <col width="20" customWidth="1" min="46" max="46"/>
+    <col width="20" customWidth="1" min="47" max="47"/>
+    <col width="20" customWidth="1" min="48" max="48"/>
+    <col width="20" customWidth="1" min="49" max="49"/>
+    <col width="20" customWidth="1" min="50" max="50"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr"/>
-      <c r="B1" t="inlineStr"/>
-      <c r="C1" t="inlineStr"/>
-      <c r="D1" t="inlineStr"/>
-      <c r="E1" t="inlineStr"/>
-      <c r="F1" t="inlineStr">
+      <c r="A1" s="1" t="n"/>
+      <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Tasks</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr"/>
-      <c r="H1" t="inlineStr"/>
-      <c r="I1" t="inlineStr"/>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>_</t>
+          <t>Activity</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Start Date</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>_</t>
+          <t>End Date</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>_</t>
+          <t>2024</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="G1" s="4" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>2025</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="I1" s="4" t="n"/>
+      <c r="J1" s="4" t="n"/>
+      <c r="K1" s="1" t="n"/>
+      <c r="L1" s="1" t="n"/>
+      <c r="M1" s="1" t="n"/>
+      <c r="N1" s="1" t="n"/>
+      <c r="O1" s="1" t="n"/>
+      <c r="P1" s="1" t="n"/>
+      <c r="Q1" s="1" t="n"/>
+      <c r="R1" s="1" t="n"/>
+      <c r="S1" s="1" t="n"/>
+      <c r="T1" s="1" t="n"/>
+      <c r="U1" s="1" t="n"/>
+      <c r="V1" s="1" t="n"/>
+      <c r="W1" s="1" t="n"/>
+      <c r="X1" s="1" t="n"/>
+      <c r="Y1" s="1" t="n"/>
+      <c r="Z1" s="1" t="n"/>
+      <c r="AA1" s="1" t="n"/>
+      <c r="AB1" s="1" t="n"/>
+      <c r="AC1" s="1" t="n"/>
+      <c r="AD1" s="1" t="n"/>
+      <c r="AE1" s="1" t="n"/>
+      <c r="AF1" s="1" t="n"/>
+      <c r="AG1" s="1" t="n"/>
+      <c r="AH1" s="1" t="n"/>
+      <c r="AI1" s="1" t="n"/>
+      <c r="AJ1" s="1" t="n"/>
+      <c r="AK1" s="1" t="n"/>
+      <c r="AL1" s="1" t="n"/>
+      <c r="AM1" s="1" t="n"/>
+      <c r="AN1" s="1" t="n"/>
+      <c r="AO1" s="1" t="n"/>
+      <c r="AP1" s="1" t="n"/>
+      <c r="AQ1" s="1" t="n"/>
+      <c r="AR1" s="1" t="n"/>
+      <c r="AS1" s="1" t="n"/>
+      <c r="AT1" s="1" t="n"/>
+      <c r="AU1" s="1" t="n"/>
+      <c r="AV1" s="1" t="n"/>
+      <c r="AW1" s="1" t="n"/>
+      <c r="AX1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="4" t="n"/>
+      <c r="C2" s="4" t="n"/>
+      <c r="D2" s="4" t="n"/>
+      <c r="E2" s="4" t="n"/>
+      <c r="F2" s="5" t="inlineStr">
         <is>
-          <t>_</t>
+          <t>December</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G2" s="4" t="n"/>
+      <c r="H2" s="5" t="inlineStr">
         <is>
-          <t>_</t>
+          <t>January</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I2" s="4" t="n"/>
+      <c r="J2" s="4" t="n"/>
+      <c r="K2" s="1" t="n"/>
+      <c r="L2" s="1" t="n"/>
+      <c r="M2" s="1" t="n"/>
+      <c r="N2" s="1" t="n"/>
+      <c r="O2" s="1" t="n"/>
+      <c r="P2" s="1" t="n"/>
+      <c r="Q2" s="1" t="n"/>
+      <c r="R2" s="1" t="n"/>
+      <c r="S2" s="1" t="n"/>
+      <c r="T2" s="1" t="n"/>
+      <c r="U2" s="1" t="n"/>
+      <c r="V2" s="1" t="n"/>
+      <c r="W2" s="1" t="n"/>
+      <c r="X2" s="1" t="n"/>
+      <c r="Y2" s="1" t="n"/>
+      <c r="Z2" s="1" t="n"/>
+      <c r="AA2" s="1" t="n"/>
+      <c r="AB2" s="1" t="n"/>
+      <c r="AC2" s="1" t="n"/>
+      <c r="AD2" s="1" t="n"/>
+      <c r="AE2" s="1" t="n"/>
+      <c r="AF2" s="1" t="n"/>
+      <c r="AG2" s="1" t="n"/>
+      <c r="AH2" s="1" t="n"/>
+      <c r="AI2" s="1" t="n"/>
+      <c r="AJ2" s="1" t="n"/>
+      <c r="AK2" s="1" t="n"/>
+      <c r="AL2" s="1" t="n"/>
+      <c r="AM2" s="1" t="n"/>
+      <c r="AN2" s="1" t="n"/>
+      <c r="AO2" s="1" t="n"/>
+      <c r="AP2" s="1" t="n"/>
+      <c r="AQ2" s="1" t="n"/>
+      <c r="AR2" s="1" t="n"/>
+      <c r="AS2" s="1" t="n"/>
+      <c r="AT2" s="1" t="n"/>
+      <c r="AU2" s="1" t="n"/>
+      <c r="AV2" s="1" t="n"/>
+      <c r="AW2" s="1" t="n"/>
+      <c r="AX2" s="1" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="4" t="n"/>
+      <c r="F3" s="5" t="inlineStr">
         <is>
-          <t>_</t>
+          <t>20/Dec - 26/Dec</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>27/Dec - 02/Jan</t>
         </is>
       </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>03/Jan - 09/Jan</t>
+        </is>
+      </c>
+      <c r="I3" s="5" t="inlineStr">
+        <is>
+          <t>10/Jan - 16/Jan</t>
+        </is>
+      </c>
+      <c r="J3" s="5" t="inlineStr">
+        <is>
+          <t>17/Jan - 23/Jan</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="n"/>
+      <c r="L3" s="1" t="n"/>
+      <c r="M3" s="1" t="n"/>
+      <c r="N3" s="1" t="n"/>
+      <c r="O3" s="1" t="n"/>
+      <c r="P3" s="1" t="n"/>
+      <c r="Q3" s="1" t="n"/>
+      <c r="R3" s="1" t="n"/>
+      <c r="S3" s="1" t="n"/>
+      <c r="T3" s="1" t="n"/>
+      <c r="U3" s="1" t="n"/>
+      <c r="V3" s="1" t="n"/>
+      <c r="W3" s="1" t="n"/>
+      <c r="X3" s="1" t="n"/>
+      <c r="Y3" s="1" t="n"/>
+      <c r="Z3" s="1" t="n"/>
+      <c r="AA3" s="1" t="n"/>
+      <c r="AB3" s="1" t="n"/>
+      <c r="AC3" s="1" t="n"/>
+      <c r="AD3" s="1" t="n"/>
+      <c r="AE3" s="1" t="n"/>
+      <c r="AF3" s="1" t="n"/>
+      <c r="AG3" s="1" t="n"/>
+      <c r="AH3" s="1" t="n"/>
+      <c r="AI3" s="1" t="n"/>
+      <c r="AJ3" s="1" t="n"/>
+      <c r="AK3" s="1" t="n"/>
+      <c r="AL3" s="1" t="n"/>
+      <c r="AM3" s="1" t="n"/>
+      <c r="AN3" s="1" t="n"/>
+      <c r="AO3" s="1" t="n"/>
+      <c r="AP3" s="1" t="n"/>
+      <c r="AQ3" s="1" t="n"/>
+      <c r="AR3" s="1" t="n"/>
+      <c r="AS3" s="1" t="n"/>
+      <c r="AT3" s="1" t="n"/>
+      <c r="AU3" s="1" t="n"/>
+      <c r="AV3" s="1" t="n"/>
+      <c r="AW3" s="1" t="n"/>
+      <c r="AX3" s="1" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="6" t="n"/>
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="1" t="n"/>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="1" t="n"/>
+      <c r="G4" s="1" t="n"/>
+      <c r="H4" s="1" t="n"/>
+      <c r="I4" s="1" t="n"/>
+      <c r="J4" s="1" t="n"/>
+      <c r="K4" s="1" t="n"/>
+      <c r="L4" s="1" t="n"/>
+      <c r="M4" s="1" t="n"/>
+      <c r="N4" s="1" t="n"/>
+      <c r="O4" s="1" t="n"/>
+      <c r="P4" s="1" t="n"/>
+      <c r="Q4" s="1" t="n"/>
+      <c r="R4" s="1" t="n"/>
+      <c r="S4" s="1" t="n"/>
+      <c r="T4" s="1" t="n"/>
+      <c r="U4" s="1" t="n"/>
+      <c r="V4" s="1" t="n"/>
+      <c r="W4" s="1" t="n"/>
+      <c r="X4" s="1" t="n"/>
+      <c r="Y4" s="1" t="n"/>
+      <c r="Z4" s="1" t="n"/>
+      <c r="AA4" s="1" t="n"/>
+      <c r="AB4" s="1" t="n"/>
+      <c r="AC4" s="1" t="n"/>
+      <c r="AD4" s="1" t="n"/>
+      <c r="AE4" s="1" t="n"/>
+      <c r="AF4" s="1" t="n"/>
+      <c r="AG4" s="1" t="n"/>
+      <c r="AH4" s="1" t="n"/>
+      <c r="AI4" s="1" t="n"/>
+      <c r="AJ4" s="1" t="n"/>
+      <c r="AK4" s="1" t="n"/>
+      <c r="AL4" s="1" t="n"/>
+      <c r="AM4" s="1" t="n"/>
+      <c r="AN4" s="1" t="n"/>
+      <c r="AO4" s="1" t="n"/>
+      <c r="AP4" s="1" t="n"/>
+      <c r="AQ4" s="1" t="n"/>
+      <c r="AR4" s="1" t="n"/>
+      <c r="AS4" s="1" t="n"/>
+      <c r="AT4" s="1" t="n"/>
+      <c r="AU4" s="1" t="n"/>
+      <c r="AV4" s="1" t="n"/>
+      <c r="AW4" s="1" t="n"/>
+      <c r="AX4" s="1" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="7" t="inlineStr">
+        <is>
+          <t>Task 1</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D5" s="8" t="inlineStr">
+        <is>
+          <t>20-Dec</t>
+        </is>
+      </c>
+      <c r="E5" s="8" t="inlineStr">
+        <is>
+          <t>02-Jan</t>
+        </is>
+      </c>
+      <c r="F5" s="9" t="n"/>
+      <c r="G5" s="9" t="n"/>
+      <c r="H5" s="1" t="n"/>
+      <c r="I5" s="1" t="n"/>
+      <c r="J5" s="1" t="n"/>
+      <c r="K5" s="1" t="n"/>
+      <c r="L5" s="1" t="n"/>
+      <c r="M5" s="1" t="n"/>
+      <c r="N5" s="1" t="n"/>
+      <c r="O5" s="1" t="n"/>
+      <c r="P5" s="1" t="n"/>
+      <c r="Q5" s="1" t="n"/>
+      <c r="R5" s="1" t="n"/>
+      <c r="S5" s="1" t="n"/>
+      <c r="T5" s="1" t="n"/>
+      <c r="U5" s="1" t="n"/>
+      <c r="V5" s="1" t="n"/>
+      <c r="W5" s="1" t="n"/>
+      <c r="X5" s="1" t="n"/>
+      <c r="Y5" s="1" t="n"/>
+      <c r="Z5" s="1" t="n"/>
+      <c r="AA5" s="1" t="n"/>
+      <c r="AB5" s="1" t="n"/>
+      <c r="AC5" s="1" t="n"/>
+      <c r="AD5" s="1" t="n"/>
+      <c r="AE5" s="1" t="n"/>
+      <c r="AF5" s="1" t="n"/>
+      <c r="AG5" s="1" t="n"/>
+      <c r="AH5" s="1" t="n"/>
+      <c r="AI5" s="1" t="n"/>
+      <c r="AJ5" s="1" t="n"/>
+      <c r="AK5" s="1" t="n"/>
+      <c r="AL5" s="1" t="n"/>
+      <c r="AM5" s="1" t="n"/>
+      <c r="AN5" s="1" t="n"/>
+      <c r="AO5" s="1" t="n"/>
+      <c r="AP5" s="1" t="n"/>
+      <c r="AQ5" s="1" t="n"/>
+      <c r="AR5" s="1" t="n"/>
+      <c r="AS5" s="1" t="n"/>
+      <c r="AT5" s="1" t="n"/>
+      <c r="AU5" s="1" t="n"/>
+      <c r="AV5" s="1" t="n"/>
+      <c r="AW5" s="1" t="n"/>
+      <c r="AX5" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="10" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="C6" s="10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" s="11" t="inlineStr">
+        <is>
+          <t>20-Dec</t>
+        </is>
+      </c>
+      <c r="E6" s="11" t="inlineStr">
+        <is>
+          <t>26-Dec</t>
+        </is>
+      </c>
+      <c r="F6" s="12" t="n"/>
+      <c r="G6" s="1" t="n"/>
+      <c r="H6" s="1" t="n"/>
+      <c r="I6" s="1" t="n"/>
+      <c r="J6" s="1" t="n"/>
+      <c r="K6" s="1" t="n"/>
+      <c r="L6" s="1" t="n"/>
+      <c r="M6" s="1" t="n"/>
+      <c r="N6" s="1" t="n"/>
+      <c r="O6" s="1" t="n"/>
+      <c r="P6" s="1" t="n"/>
+      <c r="Q6" s="1" t="n"/>
+      <c r="R6" s="1" t="n"/>
+      <c r="S6" s="1" t="n"/>
+      <c r="T6" s="1" t="n"/>
+      <c r="U6" s="1" t="n"/>
+      <c r="V6" s="1" t="n"/>
+      <c r="W6" s="1" t="n"/>
+      <c r="X6" s="1" t="n"/>
+      <c r="Y6" s="1" t="n"/>
+      <c r="Z6" s="1" t="n"/>
+      <c r="AA6" s="1" t="n"/>
+      <c r="AB6" s="1" t="n"/>
+      <c r="AC6" s="1" t="n"/>
+      <c r="AD6" s="1" t="n"/>
+      <c r="AE6" s="1" t="n"/>
+      <c r="AF6" s="1" t="n"/>
+      <c r="AG6" s="1" t="n"/>
+      <c r="AH6" s="1" t="n"/>
+      <c r="AI6" s="1" t="n"/>
+      <c r="AJ6" s="1" t="n"/>
+      <c r="AK6" s="1" t="n"/>
+      <c r="AL6" s="1" t="n"/>
+      <c r="AM6" s="1" t="n"/>
+      <c r="AN6" s="1" t="n"/>
+      <c r="AO6" s="1" t="n"/>
+      <c r="AP6" s="1" t="n"/>
+      <c r="AQ6" s="1" t="n"/>
+      <c r="AR6" s="1" t="n"/>
+      <c r="AS6" s="1" t="n"/>
+      <c r="AT6" s="1" t="n"/>
+      <c r="AU6" s="1" t="n"/>
+      <c r="AV6" s="1" t="n"/>
+      <c r="AW6" s="1" t="n"/>
+      <c r="AX6" s="1" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="10" t="inlineStr">
+        <is>
+          <t>1.2</t>
+        </is>
+      </c>
+      <c r="C7" s="10" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D7" s="11" t="inlineStr">
+        <is>
+          <t>27-Dec</t>
+        </is>
+      </c>
+      <c r="E7" s="11" t="inlineStr">
+        <is>
+          <t>02-Jan</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="n"/>
+      <c r="G7" s="12" t="n"/>
+      <c r="H7" s="1" t="n"/>
+      <c r="I7" s="1" t="n"/>
+      <c r="J7" s="1" t="n"/>
+      <c r="K7" s="1" t="n"/>
+      <c r="L7" s="1" t="n"/>
+      <c r="M7" s="1" t="n"/>
+      <c r="N7" s="1" t="n"/>
+      <c r="O7" s="1" t="n"/>
+      <c r="P7" s="1" t="n"/>
+      <c r="Q7" s="1" t="n"/>
+      <c r="R7" s="1" t="n"/>
+      <c r="S7" s="1" t="n"/>
+      <c r="T7" s="1" t="n"/>
+      <c r="U7" s="1" t="n"/>
+      <c r="V7" s="1" t="n"/>
+      <c r="W7" s="1" t="n"/>
+      <c r="X7" s="1" t="n"/>
+      <c r="Y7" s="1" t="n"/>
+      <c r="Z7" s="1" t="n"/>
+      <c r="AA7" s="1" t="n"/>
+      <c r="AB7" s="1" t="n"/>
+      <c r="AC7" s="1" t="n"/>
+      <c r="AD7" s="1" t="n"/>
+      <c r="AE7" s="1" t="n"/>
+      <c r="AF7" s="1" t="n"/>
+      <c r="AG7" s="1" t="n"/>
+      <c r="AH7" s="1" t="n"/>
+      <c r="AI7" s="1" t="n"/>
+      <c r="AJ7" s="1" t="n"/>
+      <c r="AK7" s="1" t="n"/>
+      <c r="AL7" s="1" t="n"/>
+      <c r="AM7" s="1" t="n"/>
+      <c r="AN7" s="1" t="n"/>
+      <c r="AO7" s="1" t="n"/>
+      <c r="AP7" s="1" t="n"/>
+      <c r="AQ7" s="1" t="n"/>
+      <c r="AR7" s="1" t="n"/>
+      <c r="AS7" s="1" t="n"/>
+      <c r="AT7" s="1" t="n"/>
+      <c r="AU7" s="1" t="n"/>
+      <c r="AV7" s="1" t="n"/>
+      <c r="AW7" s="1" t="n"/>
+      <c r="AX7" s="1" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="10" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="C8" s="10" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D8" s="11" t="inlineStr">
+        <is>
+          <t>27-Dec</t>
+        </is>
+      </c>
+      <c r="E8" s="11" t="inlineStr">
+        <is>
+          <t>02-Jan</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n"/>
+      <c r="G8" s="12" t="n"/>
+      <c r="H8" s="1" t="n"/>
+      <c r="I8" s="1" t="n"/>
+      <c r="J8" s="1" t="n"/>
+      <c r="K8" s="1" t="n"/>
+      <c r="L8" s="1" t="n"/>
+      <c r="M8" s="1" t="n"/>
+      <c r="N8" s="1" t="n"/>
+      <c r="O8" s="1" t="n"/>
+      <c r="P8" s="1" t="n"/>
+      <c r="Q8" s="1" t="n"/>
+      <c r="R8" s="1" t="n"/>
+      <c r="S8" s="1" t="n"/>
+      <c r="T8" s="1" t="n"/>
+      <c r="U8" s="1" t="n"/>
+      <c r="V8" s="1" t="n"/>
+      <c r="W8" s="1" t="n"/>
+      <c r="X8" s="1" t="n"/>
+      <c r="Y8" s="1" t="n"/>
+      <c r="Z8" s="1" t="n"/>
+      <c r="AA8" s="1" t="n"/>
+      <c r="AB8" s="1" t="n"/>
+      <c r="AC8" s="1" t="n"/>
+      <c r="AD8" s="1" t="n"/>
+      <c r="AE8" s="1" t="n"/>
+      <c r="AF8" s="1" t="n"/>
+      <c r="AG8" s="1" t="n"/>
+      <c r="AH8" s="1" t="n"/>
+      <c r="AI8" s="1" t="n"/>
+      <c r="AJ8" s="1" t="n"/>
+      <c r="AK8" s="1" t="n"/>
+      <c r="AL8" s="1" t="n"/>
+      <c r="AM8" s="1" t="n"/>
+      <c r="AN8" s="1" t="n"/>
+      <c r="AO8" s="1" t="n"/>
+      <c r="AP8" s="1" t="n"/>
+      <c r="AQ8" s="1" t="n"/>
+      <c r="AR8" s="1" t="n"/>
+      <c r="AS8" s="1" t="n"/>
+      <c r="AT8" s="1" t="n"/>
+      <c r="AU8" s="1" t="n"/>
+      <c r="AV8" s="1" t="n"/>
+      <c r="AW8" s="1" t="n"/>
+      <c r="AX8" s="1" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>Task 2</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>03-Jan</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>09-Jan</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="n"/>
+      <c r="G9" s="1" t="n"/>
+      <c r="H9" s="9" t="n"/>
+      <c r="I9" s="1" t="n"/>
+      <c r="J9" s="1" t="n"/>
+      <c r="K9" s="1" t="n"/>
+      <c r="L9" s="1" t="n"/>
+      <c r="M9" s="1" t="n"/>
+      <c r="N9" s="1" t="n"/>
+      <c r="O9" s="1" t="n"/>
+      <c r="P9" s="1" t="n"/>
+      <c r="Q9" s="1" t="n"/>
+      <c r="R9" s="1" t="n"/>
+      <c r="S9" s="1" t="n"/>
+      <c r="T9" s="1" t="n"/>
+      <c r="U9" s="1" t="n"/>
+      <c r="V9" s="1" t="n"/>
+      <c r="W9" s="1" t="n"/>
+      <c r="X9" s="1" t="n"/>
+      <c r="Y9" s="1" t="n"/>
+      <c r="Z9" s="1" t="n"/>
+      <c r="AA9" s="1" t="n"/>
+      <c r="AB9" s="1" t="n"/>
+      <c r="AC9" s="1" t="n"/>
+      <c r="AD9" s="1" t="n"/>
+      <c r="AE9" s="1" t="n"/>
+      <c r="AF9" s="1" t="n"/>
+      <c r="AG9" s="1" t="n"/>
+      <c r="AH9" s="1" t="n"/>
+      <c r="AI9" s="1" t="n"/>
+      <c r="AJ9" s="1" t="n"/>
+      <c r="AK9" s="1" t="n"/>
+      <c r="AL9" s="1" t="n"/>
+      <c r="AM9" s="1" t="n"/>
+      <c r="AN9" s="1" t="n"/>
+      <c r="AO9" s="1" t="n"/>
+      <c r="AP9" s="1" t="n"/>
+      <c r="AQ9" s="1" t="n"/>
+      <c r="AR9" s="1" t="n"/>
+      <c r="AS9" s="1" t="n"/>
+      <c r="AT9" s="1" t="n"/>
+      <c r="AU9" s="1" t="n"/>
+      <c r="AV9" s="1" t="n"/>
+      <c r="AW9" s="1" t="n"/>
+      <c r="AX9" s="1" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="10" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="C10" s="10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D10" s="11" t="inlineStr">
+        <is>
+          <t>03-Jan</t>
+        </is>
+      </c>
+      <c r="E10" s="11" t="inlineStr">
+        <is>
+          <t>09-Jan</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="n"/>
+      <c r="G10" s="1" t="n"/>
+      <c r="H10" s="12" t="n"/>
+      <c r="I10" s="1" t="n"/>
+      <c r="J10" s="1" t="n"/>
+      <c r="K10" s="1" t="n"/>
+      <c r="L10" s="1" t="n"/>
+      <c r="M10" s="1" t="n"/>
+      <c r="N10" s="1" t="n"/>
+      <c r="O10" s="1" t="n"/>
+      <c r="P10" s="1" t="n"/>
+      <c r="Q10" s="1" t="n"/>
+      <c r="R10" s="1" t="n"/>
+      <c r="S10" s="1" t="n"/>
+      <c r="T10" s="1" t="n"/>
+      <c r="U10" s="1" t="n"/>
+      <c r="V10" s="1" t="n"/>
+      <c r="W10" s="1" t="n"/>
+      <c r="X10" s="1" t="n"/>
+      <c r="Y10" s="1" t="n"/>
+      <c r="Z10" s="1" t="n"/>
+      <c r="AA10" s="1" t="n"/>
+      <c r="AB10" s="1" t="n"/>
+      <c r="AC10" s="1" t="n"/>
+      <c r="AD10" s="1" t="n"/>
+      <c r="AE10" s="1" t="n"/>
+      <c r="AF10" s="1" t="n"/>
+      <c r="AG10" s="1" t="n"/>
+      <c r="AH10" s="1" t="n"/>
+      <c r="AI10" s="1" t="n"/>
+      <c r="AJ10" s="1" t="n"/>
+      <c r="AK10" s="1" t="n"/>
+      <c r="AL10" s="1" t="n"/>
+      <c r="AM10" s="1" t="n"/>
+      <c r="AN10" s="1" t="n"/>
+      <c r="AO10" s="1" t="n"/>
+      <c r="AP10" s="1" t="n"/>
+      <c r="AQ10" s="1" t="n"/>
+      <c r="AR10" s="1" t="n"/>
+      <c r="AS10" s="1" t="n"/>
+      <c r="AT10" s="1" t="n"/>
+      <c r="AU10" s="1" t="n"/>
+      <c r="AV10" s="1" t="n"/>
+      <c r="AW10" s="1" t="n"/>
+      <c r="AX10" s="1" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="10" t="inlineStr">
+        <is>
+          <t>2.2</t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D11" s="11" t="inlineStr">
+        <is>
+          <t>03-Jan</t>
+        </is>
+      </c>
+      <c r="E11" s="11" t="inlineStr">
+        <is>
+          <t>09-Jan</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="n"/>
+      <c r="G11" s="1" t="n"/>
+      <c r="H11" s="12" t="n"/>
+      <c r="I11" s="1" t="n"/>
+      <c r="J11" s="1" t="n"/>
+      <c r="K11" s="1" t="n"/>
+      <c r="L11" s="1" t="n"/>
+      <c r="M11" s="1" t="n"/>
+      <c r="N11" s="1" t="n"/>
+      <c r="O11" s="1" t="n"/>
+      <c r="P11" s="1" t="n"/>
+      <c r="Q11" s="1" t="n"/>
+      <c r="R11" s="1" t="n"/>
+      <c r="S11" s="1" t="n"/>
+      <c r="T11" s="1" t="n"/>
+      <c r="U11" s="1" t="n"/>
+      <c r="V11" s="1" t="n"/>
+      <c r="W11" s="1" t="n"/>
+      <c r="X11" s="1" t="n"/>
+      <c r="Y11" s="1" t="n"/>
+      <c r="Z11" s="1" t="n"/>
+      <c r="AA11" s="1" t="n"/>
+      <c r="AB11" s="1" t="n"/>
+      <c r="AC11" s="1" t="n"/>
+      <c r="AD11" s="1" t="n"/>
+      <c r="AE11" s="1" t="n"/>
+      <c r="AF11" s="1" t="n"/>
+      <c r="AG11" s="1" t="n"/>
+      <c r="AH11" s="1" t="n"/>
+      <c r="AI11" s="1" t="n"/>
+      <c r="AJ11" s="1" t="n"/>
+      <c r="AK11" s="1" t="n"/>
+      <c r="AL11" s="1" t="n"/>
+      <c r="AM11" s="1" t="n"/>
+      <c r="AN11" s="1" t="n"/>
+      <c r="AO11" s="1" t="n"/>
+      <c r="AP11" s="1" t="n"/>
+      <c r="AQ11" s="1" t="n"/>
+      <c r="AR11" s="1" t="n"/>
+      <c r="AS11" s="1" t="n"/>
+      <c r="AT11" s="1" t="n"/>
+      <c r="AU11" s="1" t="n"/>
+      <c r="AV11" s="1" t="n"/>
+      <c r="AW11" s="1" t="n"/>
+      <c r="AX11" s="1" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="10" t="inlineStr">
+        <is>
+          <t>2.3</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D12" s="11" t="inlineStr">
+        <is>
+          <t>03-Jan</t>
+        </is>
+      </c>
+      <c r="E12" s="11" t="inlineStr">
+        <is>
+          <t>09-Jan</t>
+        </is>
+      </c>
+      <c r="F12" s="1" t="n"/>
+      <c r="G12" s="1" t="n"/>
+      <c r="H12" s="12" t="n"/>
+      <c r="I12" s="1" t="n"/>
+      <c r="J12" s="1" t="n"/>
+      <c r="K12" s="1" t="n"/>
+      <c r="L12" s="1" t="n"/>
+      <c r="M12" s="1" t="n"/>
+      <c r="N12" s="1" t="n"/>
+      <c r="O12" s="1" t="n"/>
+      <c r="P12" s="1" t="n"/>
+      <c r="Q12" s="1" t="n"/>
+      <c r="R12" s="1" t="n"/>
+      <c r="S12" s="1" t="n"/>
+      <c r="T12" s="1" t="n"/>
+      <c r="U12" s="1" t="n"/>
+      <c r="V12" s="1" t="n"/>
+      <c r="W12" s="1" t="n"/>
+      <c r="X12" s="1" t="n"/>
+      <c r="Y12" s="1" t="n"/>
+      <c r="Z12" s="1" t="n"/>
+      <c r="AA12" s="1" t="n"/>
+      <c r="AB12" s="1" t="n"/>
+      <c r="AC12" s="1" t="n"/>
+      <c r="AD12" s="1" t="n"/>
+      <c r="AE12" s="1" t="n"/>
+      <c r="AF12" s="1" t="n"/>
+      <c r="AG12" s="1" t="n"/>
+      <c r="AH12" s="1" t="n"/>
+      <c r="AI12" s="1" t="n"/>
+      <c r="AJ12" s="1" t="n"/>
+      <c r="AK12" s="1" t="n"/>
+      <c r="AL12" s="1" t="n"/>
+      <c r="AM12" s="1" t="n"/>
+      <c r="AN12" s="1" t="n"/>
+      <c r="AO12" s="1" t="n"/>
+      <c r="AP12" s="1" t="n"/>
+      <c r="AQ12" s="1" t="n"/>
+      <c r="AR12" s="1" t="n"/>
+      <c r="AS12" s="1" t="n"/>
+      <c r="AT12" s="1" t="n"/>
+      <c r="AU12" s="1" t="n"/>
+      <c r="AV12" s="1" t="n"/>
+      <c r="AW12" s="1" t="n"/>
+      <c r="AX12" s="1" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>Task 3</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>10-Jan</t>
+        </is>
+      </c>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>23-Jan</t>
+        </is>
+      </c>
+      <c r="F13" s="1" t="n"/>
+      <c r="G13" s="1" t="n"/>
+      <c r="H13" s="1" t="n"/>
+      <c r="I13" s="9" t="n"/>
+      <c r="J13" s="9" t="n"/>
+      <c r="K13" s="1" t="n"/>
+      <c r="L13" s="1" t="n"/>
+      <c r="M13" s="1" t="n"/>
+      <c r="N13" s="1" t="n"/>
+      <c r="O13" s="1" t="n"/>
+      <c r="P13" s="1" t="n"/>
+      <c r="Q13" s="1" t="n"/>
+      <c r="R13" s="1" t="n"/>
+      <c r="S13" s="1" t="n"/>
+      <c r="T13" s="1" t="n"/>
+      <c r="U13" s="1" t="n"/>
+      <c r="V13" s="1" t="n"/>
+      <c r="W13" s="1" t="n"/>
+      <c r="X13" s="1" t="n"/>
+      <c r="Y13" s="1" t="n"/>
+      <c r="Z13" s="1" t="n"/>
+      <c r="AA13" s="1" t="n"/>
+      <c r="AB13" s="1" t="n"/>
+      <c r="AC13" s="1" t="n"/>
+      <c r="AD13" s="1" t="n"/>
+      <c r="AE13" s="1" t="n"/>
+      <c r="AF13" s="1" t="n"/>
+      <c r="AG13" s="1" t="n"/>
+      <c r="AH13" s="1" t="n"/>
+      <c r="AI13" s="1" t="n"/>
+      <c r="AJ13" s="1" t="n"/>
+      <c r="AK13" s="1" t="n"/>
+      <c r="AL13" s="1" t="n"/>
+      <c r="AM13" s="1" t="n"/>
+      <c r="AN13" s="1" t="n"/>
+      <c r="AO13" s="1" t="n"/>
+      <c r="AP13" s="1" t="n"/>
+      <c r="AQ13" s="1" t="n"/>
+      <c r="AR13" s="1" t="n"/>
+      <c r="AS13" s="1" t="n"/>
+      <c r="AT13" s="1" t="n"/>
+      <c r="AU13" s="1" t="n"/>
+      <c r="AV13" s="1" t="n"/>
+      <c r="AW13" s="1" t="n"/>
+      <c r="AX13" s="1" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="10" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D14" s="11" t="inlineStr">
+        <is>
+          <t>10-Jan</t>
+        </is>
+      </c>
+      <c r="E14" s="11" t="inlineStr">
+        <is>
+          <t>16-Jan</t>
+        </is>
+      </c>
+      <c r="F14" s="1" t="n"/>
+      <c r="G14" s="1" t="n"/>
+      <c r="H14" s="1" t="n"/>
+      <c r="I14" s="12" t="n"/>
+      <c r="J14" s="1" t="n"/>
+      <c r="K14" s="1" t="n"/>
+      <c r="L14" s="1" t="n"/>
+      <c r="M14" s="1" t="n"/>
+      <c r="N14" s="1" t="n"/>
+      <c r="O14" s="1" t="n"/>
+      <c r="P14" s="1" t="n"/>
+      <c r="Q14" s="1" t="n"/>
+      <c r="R14" s="1" t="n"/>
+      <c r="S14" s="1" t="n"/>
+      <c r="T14" s="1" t="n"/>
+      <c r="U14" s="1" t="n"/>
+      <c r="V14" s="1" t="n"/>
+      <c r="W14" s="1" t="n"/>
+      <c r="X14" s="1" t="n"/>
+      <c r="Y14" s="1" t="n"/>
+      <c r="Z14" s="1" t="n"/>
+      <c r="AA14" s="1" t="n"/>
+      <c r="AB14" s="1" t="n"/>
+      <c r="AC14" s="1" t="n"/>
+      <c r="AD14" s="1" t="n"/>
+      <c r="AE14" s="1" t="n"/>
+      <c r="AF14" s="1" t="n"/>
+      <c r="AG14" s="1" t="n"/>
+      <c r="AH14" s="1" t="n"/>
+      <c r="AI14" s="1" t="n"/>
+      <c r="AJ14" s="1" t="n"/>
+      <c r="AK14" s="1" t="n"/>
+      <c r="AL14" s="1" t="n"/>
+      <c r="AM14" s="1" t="n"/>
+      <c r="AN14" s="1" t="n"/>
+      <c r="AO14" s="1" t="n"/>
+      <c r="AP14" s="1" t="n"/>
+      <c r="AQ14" s="1" t="n"/>
+      <c r="AR14" s="1" t="n"/>
+      <c r="AS14" s="1" t="n"/>
+      <c r="AT14" s="1" t="n"/>
+      <c r="AU14" s="1" t="n"/>
+      <c r="AV14" s="1" t="n"/>
+      <c r="AW14" s="1" t="n"/>
+      <c r="AX14" s="1" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="10" t="inlineStr">
+        <is>
+          <t>3.2</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D15" s="11" t="inlineStr">
+        <is>
+          <t>17-Jan</t>
+        </is>
+      </c>
+      <c r="E15" s="11" t="inlineStr">
+        <is>
+          <t>23-Jan</t>
+        </is>
+      </c>
+      <c r="F15" s="1" t="n"/>
+      <c r="G15" s="1" t="n"/>
+      <c r="H15" s="1" t="n"/>
+      <c r="I15" s="1" t="n"/>
+      <c r="J15" s="12" t="n"/>
+      <c r="K15" s="1" t="n"/>
+      <c r="L15" s="1" t="n"/>
+      <c r="M15" s="1" t="n"/>
+      <c r="N15" s="1" t="n"/>
+      <c r="O15" s="1" t="n"/>
+      <c r="P15" s="1" t="n"/>
+      <c r="Q15" s="1" t="n"/>
+      <c r="R15" s="1" t="n"/>
+      <c r="S15" s="1" t="n"/>
+      <c r="T15" s="1" t="n"/>
+      <c r="U15" s="1" t="n"/>
+      <c r="V15" s="1" t="n"/>
+      <c r="W15" s="1" t="n"/>
+      <c r="X15" s="1" t="n"/>
+      <c r="Y15" s="1" t="n"/>
+      <c r="Z15" s="1" t="n"/>
+      <c r="AA15" s="1" t="n"/>
+      <c r="AB15" s="1" t="n"/>
+      <c r="AC15" s="1" t="n"/>
+      <c r="AD15" s="1" t="n"/>
+      <c r="AE15" s="1" t="n"/>
+      <c r="AF15" s="1" t="n"/>
+      <c r="AG15" s="1" t="n"/>
+      <c r="AH15" s="1" t="n"/>
+      <c r="AI15" s="1" t="n"/>
+      <c r="AJ15" s="1" t="n"/>
+      <c r="AK15" s="1" t="n"/>
+      <c r="AL15" s="1" t="n"/>
+      <c r="AM15" s="1" t="n"/>
+      <c r="AN15" s="1" t="n"/>
+      <c r="AO15" s="1" t="n"/>
+      <c r="AP15" s="1" t="n"/>
+      <c r="AQ15" s="1" t="n"/>
+      <c r="AR15" s="1" t="n"/>
+      <c r="AS15" s="1" t="n"/>
+      <c r="AT15" s="1" t="n"/>
+      <c r="AU15" s="1" t="n"/>
+      <c r="AV15" s="1" t="n"/>
+      <c r="AW15" s="1" t="n"/>
+      <c r="AX15" s="1" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="6" t="n"/>
+      <c r="D16" s="1" t="n"/>
+      <c r="E16" s="1" t="n"/>
+      <c r="F16" s="1" t="n"/>
+      <c r="G16" s="1" t="n"/>
+      <c r="H16" s="1" t="n"/>
+      <c r="I16" s="1" t="n"/>
+      <c r="J16" s="1" t="n"/>
+      <c r="K16" s="1" t="n"/>
+      <c r="L16" s="1" t="n"/>
+      <c r="M16" s="1" t="n"/>
+      <c r="N16" s="1" t="n"/>
+      <c r="O16" s="1" t="n"/>
+      <c r="P16" s="1" t="n"/>
+      <c r="Q16" s="1" t="n"/>
+      <c r="R16" s="1" t="n"/>
+      <c r="S16" s="1" t="n"/>
+      <c r="T16" s="1" t="n"/>
+      <c r="U16" s="1" t="n"/>
+      <c r="V16" s="1" t="n"/>
+      <c r="W16" s="1" t="n"/>
+      <c r="X16" s="1" t="n"/>
+      <c r="Y16" s="1" t="n"/>
+      <c r="Z16" s="1" t="n"/>
+      <c r="AA16" s="1" t="n"/>
+      <c r="AB16" s="1" t="n"/>
+      <c r="AC16" s="1" t="n"/>
+      <c r="AD16" s="1" t="n"/>
+      <c r="AE16" s="1" t="n"/>
+      <c r="AF16" s="1" t="n"/>
+      <c r="AG16" s="1" t="n"/>
+      <c r="AH16" s="1" t="n"/>
+      <c r="AI16" s="1" t="n"/>
+      <c r="AJ16" s="1" t="n"/>
+      <c r="AK16" s="1" t="n"/>
+      <c r="AL16" s="1" t="n"/>
+      <c r="AM16" s="1" t="n"/>
+      <c r="AN16" s="1" t="n"/>
+      <c r="AO16" s="1" t="n"/>
+      <c r="AP16" s="1" t="n"/>
+      <c r="AQ16" s="1" t="n"/>
+      <c r="AR16" s="1" t="n"/>
+      <c r="AS16" s="1" t="n"/>
+      <c r="AT16" s="1" t="n"/>
+      <c r="AU16" s="1" t="n"/>
+      <c r="AV16" s="1" t="n"/>
+      <c r="AW16" s="1" t="n"/>
+      <c r="AX16" s="1" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="6" t="n"/>
+      <c r="C17" s="6" t="n"/>
+      <c r="D17" s="1" t="n"/>
+      <c r="E17" s="1" t="n"/>
+      <c r="F17" s="1" t="n"/>
+      <c r="G17" s="1" t="n"/>
+      <c r="H17" s="1" t="n"/>
+      <c r="I17" s="1" t="n"/>
+      <c r="J17" s="1" t="n"/>
+      <c r="K17" s="1" t="n"/>
+      <c r="L17" s="1" t="n"/>
+      <c r="M17" s="1" t="n"/>
+      <c r="N17" s="1" t="n"/>
+      <c r="O17" s="1" t="n"/>
+      <c r="P17" s="1" t="n"/>
+      <c r="Q17" s="1" t="n"/>
+      <c r="R17" s="1" t="n"/>
+      <c r="S17" s="1" t="n"/>
+      <c r="T17" s="1" t="n"/>
+      <c r="U17" s="1" t="n"/>
+      <c r="V17" s="1" t="n"/>
+      <c r="W17" s="1" t="n"/>
+      <c r="X17" s="1" t="n"/>
+      <c r="Y17" s="1" t="n"/>
+      <c r="Z17" s="1" t="n"/>
+      <c r="AA17" s="1" t="n"/>
+      <c r="AB17" s="1" t="n"/>
+      <c r="AC17" s="1" t="n"/>
+      <c r="AD17" s="1" t="n"/>
+      <c r="AE17" s="1" t="n"/>
+      <c r="AF17" s="1" t="n"/>
+      <c r="AG17" s="1" t="n"/>
+      <c r="AH17" s="1" t="n"/>
+      <c r="AI17" s="1" t="n"/>
+      <c r="AJ17" s="1" t="n"/>
+      <c r="AK17" s="1" t="n"/>
+      <c r="AL17" s="1" t="n"/>
+      <c r="AM17" s="1" t="n"/>
+      <c r="AN17" s="1" t="n"/>
+      <c r="AO17" s="1" t="n"/>
+      <c r="AP17" s="1" t="n"/>
+      <c r="AQ17" s="1" t="n"/>
+      <c r="AR17" s="1" t="n"/>
+      <c r="AS17" s="1" t="n"/>
+      <c r="AT17" s="1" t="n"/>
+      <c r="AU17" s="1" t="n"/>
+      <c r="AV17" s="1" t="n"/>
+      <c r="AW17" s="1" t="n"/>
+      <c r="AX17" s="1" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="6" t="n"/>
+      <c r="C18" s="6" t="n"/>
+      <c r="D18" s="1" t="n"/>
+      <c r="E18" s="1" t="n"/>
+      <c r="F18" s="1" t="n"/>
+      <c r="G18" s="1" t="n"/>
+      <c r="H18" s="1" t="n"/>
+      <c r="I18" s="1" t="n"/>
+      <c r="J18" s="1" t="n"/>
+      <c r="K18" s="1" t="n"/>
+      <c r="L18" s="1" t="n"/>
+      <c r="M18" s="1" t="n"/>
+      <c r="N18" s="1" t="n"/>
+      <c r="O18" s="1" t="n"/>
+      <c r="P18" s="1" t="n"/>
+      <c r="Q18" s="1" t="n"/>
+      <c r="R18" s="1" t="n"/>
+      <c r="S18" s="1" t="n"/>
+      <c r="T18" s="1" t="n"/>
+      <c r="U18" s="1" t="n"/>
+      <c r="V18" s="1" t="n"/>
+      <c r="W18" s="1" t="n"/>
+      <c r="X18" s="1" t="n"/>
+      <c r="Y18" s="1" t="n"/>
+      <c r="Z18" s="1" t="n"/>
+      <c r="AA18" s="1" t="n"/>
+      <c r="AB18" s="1" t="n"/>
+      <c r="AC18" s="1" t="n"/>
+      <c r="AD18" s="1" t="n"/>
+      <c r="AE18" s="1" t="n"/>
+      <c r="AF18" s="1" t="n"/>
+      <c r="AG18" s="1" t="n"/>
+      <c r="AH18" s="1" t="n"/>
+      <c r="AI18" s="1" t="n"/>
+      <c r="AJ18" s="1" t="n"/>
+      <c r="AK18" s="1" t="n"/>
+      <c r="AL18" s="1" t="n"/>
+      <c r="AM18" s="1" t="n"/>
+      <c r="AN18" s="1" t="n"/>
+      <c r="AO18" s="1" t="n"/>
+      <c r="AP18" s="1" t="n"/>
+      <c r="AQ18" s="1" t="n"/>
+      <c r="AR18" s="1" t="n"/>
+      <c r="AS18" s="1" t="n"/>
+      <c r="AT18" s="1" t="n"/>
+      <c r="AU18" s="1" t="n"/>
+      <c r="AV18" s="1" t="n"/>
+      <c r="AW18" s="1" t="n"/>
+      <c r="AX18" s="1" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="6" t="n"/>
+      <c r="C19" s="6" t="n"/>
+      <c r="D19" s="1" t="n"/>
+      <c r="E19" s="1" t="n"/>
+      <c r="F19" s="1" t="n"/>
+      <c r="G19" s="1" t="n"/>
+      <c r="H19" s="1" t="n"/>
+      <c r="I19" s="1" t="n"/>
+      <c r="J19" s="1" t="n"/>
+      <c r="K19" s="1" t="n"/>
+      <c r="L19" s="1" t="n"/>
+      <c r="M19" s="1" t="n"/>
+      <c r="N19" s="1" t="n"/>
+      <c r="O19" s="1" t="n"/>
+      <c r="P19" s="1" t="n"/>
+      <c r="Q19" s="1" t="n"/>
+      <c r="R19" s="1" t="n"/>
+      <c r="S19" s="1" t="n"/>
+      <c r="T19" s="1" t="n"/>
+      <c r="U19" s="1" t="n"/>
+      <c r="V19" s="1" t="n"/>
+      <c r="W19" s="1" t="n"/>
+      <c r="X19" s="1" t="n"/>
+      <c r="Y19" s="1" t="n"/>
+      <c r="Z19" s="1" t="n"/>
+      <c r="AA19" s="1" t="n"/>
+      <c r="AB19" s="1" t="n"/>
+      <c r="AC19" s="1" t="n"/>
+      <c r="AD19" s="1" t="n"/>
+      <c r="AE19" s="1" t="n"/>
+      <c r="AF19" s="1" t="n"/>
+      <c r="AG19" s="1" t="n"/>
+      <c r="AH19" s="1" t="n"/>
+      <c r="AI19" s="1" t="n"/>
+      <c r="AJ19" s="1" t="n"/>
+      <c r="AK19" s="1" t="n"/>
+      <c r="AL19" s="1" t="n"/>
+      <c r="AM19" s="1" t="n"/>
+      <c r="AN19" s="1" t="n"/>
+      <c r="AO19" s="1" t="n"/>
+      <c r="AP19" s="1" t="n"/>
+      <c r="AQ19" s="1" t="n"/>
+      <c r="AR19" s="1" t="n"/>
+      <c r="AS19" s="1" t="n"/>
+      <c r="AT19" s="1" t="n"/>
+      <c r="AU19" s="1" t="n"/>
+      <c r="AV19" s="1" t="n"/>
+      <c r="AW19" s="1" t="n"/>
+      <c r="AX19" s="1" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="6" t="n"/>
+      <c r="C20" s="6" t="n"/>
+      <c r="D20" s="1" t="n"/>
+      <c r="E20" s="1" t="n"/>
+      <c r="F20" s="1" t="n"/>
+      <c r="G20" s="1" t="n"/>
+      <c r="H20" s="1" t="n"/>
+      <c r="I20" s="1" t="n"/>
+      <c r="J20" s="1" t="n"/>
+      <c r="K20" s="1" t="n"/>
+      <c r="L20" s="1" t="n"/>
+      <c r="M20" s="1" t="n"/>
+      <c r="N20" s="1" t="n"/>
+      <c r="O20" s="1" t="n"/>
+      <c r="P20" s="1" t="n"/>
+      <c r="Q20" s="1" t="n"/>
+      <c r="R20" s="1" t="n"/>
+      <c r="S20" s="1" t="n"/>
+      <c r="T20" s="1" t="n"/>
+      <c r="U20" s="1" t="n"/>
+      <c r="V20" s="1" t="n"/>
+      <c r="W20" s="1" t="n"/>
+      <c r="X20" s="1" t="n"/>
+      <c r="Y20" s="1" t="n"/>
+      <c r="Z20" s="1" t="n"/>
+      <c r="AA20" s="1" t="n"/>
+      <c r="AB20" s="1" t="n"/>
+      <c r="AC20" s="1" t="n"/>
+      <c r="AD20" s="1" t="n"/>
+      <c r="AE20" s="1" t="n"/>
+      <c r="AF20" s="1" t="n"/>
+      <c r="AG20" s="1" t="n"/>
+      <c r="AH20" s="1" t="n"/>
+      <c r="AI20" s="1" t="n"/>
+      <c r="AJ20" s="1" t="n"/>
+      <c r="AK20" s="1" t="n"/>
+      <c r="AL20" s="1" t="n"/>
+      <c r="AM20" s="1" t="n"/>
+      <c r="AN20" s="1" t="n"/>
+      <c r="AO20" s="1" t="n"/>
+      <c r="AP20" s="1" t="n"/>
+      <c r="AQ20" s="1" t="n"/>
+      <c r="AR20" s="1" t="n"/>
+      <c r="AS20" s="1" t="n"/>
+      <c r="AT20" s="1" t="n"/>
+      <c r="AU20" s="1" t="n"/>
+      <c r="AV20" s="1" t="n"/>
+      <c r="AW20" s="1" t="n"/>
+      <c r="AX20" s="1" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="6" t="n"/>
+      <c r="C21" s="6" t="n"/>
+      <c r="D21" s="1" t="n"/>
+      <c r="E21" s="1" t="n"/>
+      <c r="F21" s="1" t="n"/>
+      <c r="G21" s="1" t="n"/>
+      <c r="H21" s="1" t="n"/>
+      <c r="I21" s="1" t="n"/>
+      <c r="J21" s="1" t="n"/>
+      <c r="K21" s="1" t="n"/>
+      <c r="L21" s="1" t="n"/>
+      <c r="M21" s="1" t="n"/>
+      <c r="N21" s="1" t="n"/>
+      <c r="O21" s="1" t="n"/>
+      <c r="P21" s="1" t="n"/>
+      <c r="Q21" s="1" t="n"/>
+      <c r="R21" s="1" t="n"/>
+      <c r="S21" s="1" t="n"/>
+      <c r="T21" s="1" t="n"/>
+      <c r="U21" s="1" t="n"/>
+      <c r="V21" s="1" t="n"/>
+      <c r="W21" s="1" t="n"/>
+      <c r="X21" s="1" t="n"/>
+      <c r="Y21" s="1" t="n"/>
+      <c r="Z21" s="1" t="n"/>
+      <c r="AA21" s="1" t="n"/>
+      <c r="AB21" s="1" t="n"/>
+      <c r="AC21" s="1" t="n"/>
+      <c r="AD21" s="1" t="n"/>
+      <c r="AE21" s="1" t="n"/>
+      <c r="AF21" s="1" t="n"/>
+      <c r="AG21" s="1" t="n"/>
+      <c r="AH21" s="1" t="n"/>
+      <c r="AI21" s="1" t="n"/>
+      <c r="AJ21" s="1" t="n"/>
+      <c r="AK21" s="1" t="n"/>
+      <c r="AL21" s="1" t="n"/>
+      <c r="AM21" s="1" t="n"/>
+      <c r="AN21" s="1" t="n"/>
+      <c r="AO21" s="1" t="n"/>
+      <c r="AP21" s="1" t="n"/>
+      <c r="AQ21" s="1" t="n"/>
+      <c r="AR21" s="1" t="n"/>
+      <c r="AS21" s="1" t="n"/>
+      <c r="AT21" s="1" t="n"/>
+      <c r="AU21" s="1" t="n"/>
+      <c r="AV21" s="1" t="n"/>
+      <c r="AW21" s="1" t="n"/>
+      <c r="AX21" s="1" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="6" t="n"/>
+      <c r="C22" s="6" t="n"/>
+      <c r="D22" s="1" t="n"/>
+      <c r="E22" s="1" t="n"/>
+      <c r="F22" s="1" t="n"/>
+      <c r="G22" s="1" t="n"/>
+      <c r="H22" s="1" t="n"/>
+      <c r="I22" s="1" t="n"/>
+      <c r="J22" s="1" t="n"/>
+      <c r="K22" s="1" t="n"/>
+      <c r="L22" s="1" t="n"/>
+      <c r="M22" s="1" t="n"/>
+      <c r="N22" s="1" t="n"/>
+      <c r="O22" s="1" t="n"/>
+      <c r="P22" s="1" t="n"/>
+      <c r="Q22" s="1" t="n"/>
+      <c r="R22" s="1" t="n"/>
+      <c r="S22" s="1" t="n"/>
+      <c r="T22" s="1" t="n"/>
+      <c r="U22" s="1" t="n"/>
+      <c r="V22" s="1" t="n"/>
+      <c r="W22" s="1" t="n"/>
+      <c r="X22" s="1" t="n"/>
+      <c r="Y22" s="1" t="n"/>
+      <c r="Z22" s="1" t="n"/>
+      <c r="AA22" s="1" t="n"/>
+      <c r="AB22" s="1" t="n"/>
+      <c r="AC22" s="1" t="n"/>
+      <c r="AD22" s="1" t="n"/>
+      <c r="AE22" s="1" t="n"/>
+      <c r="AF22" s="1" t="n"/>
+      <c r="AG22" s="1" t="n"/>
+      <c r="AH22" s="1" t="n"/>
+      <c r="AI22" s="1" t="n"/>
+      <c r="AJ22" s="1" t="n"/>
+      <c r="AK22" s="1" t="n"/>
+      <c r="AL22" s="1" t="n"/>
+      <c r="AM22" s="1" t="n"/>
+      <c r="AN22" s="1" t="n"/>
+      <c r="AO22" s="1" t="n"/>
+      <c r="AP22" s="1" t="n"/>
+      <c r="AQ22" s="1" t="n"/>
+      <c r="AR22" s="1" t="n"/>
+      <c r="AS22" s="1" t="n"/>
+      <c r="AT22" s="1" t="n"/>
+      <c r="AU22" s="1" t="n"/>
+      <c r="AV22" s="1" t="n"/>
+      <c r="AW22" s="1" t="n"/>
+      <c r="AX22" s="1" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="6" t="n"/>
+      <c r="C23" s="6" t="n"/>
+      <c r="D23" s="1" t="n"/>
+      <c r="E23" s="1" t="n"/>
+      <c r="F23" s="1" t="n"/>
+      <c r="G23" s="1" t="n"/>
+      <c r="H23" s="1" t="n"/>
+      <c r="I23" s="1" t="n"/>
+      <c r="J23" s="1" t="n"/>
+      <c r="K23" s="1" t="n"/>
+      <c r="L23" s="1" t="n"/>
+      <c r="M23" s="1" t="n"/>
+      <c r="N23" s="1" t="n"/>
+      <c r="O23" s="1" t="n"/>
+      <c r="P23" s="1" t="n"/>
+      <c r="Q23" s="1" t="n"/>
+      <c r="R23" s="1" t="n"/>
+      <c r="S23" s="1" t="n"/>
+      <c r="T23" s="1" t="n"/>
+      <c r="U23" s="1" t="n"/>
+      <c r="V23" s="1" t="n"/>
+      <c r="W23" s="1" t="n"/>
+      <c r="X23" s="1" t="n"/>
+      <c r="Y23" s="1" t="n"/>
+      <c r="Z23" s="1" t="n"/>
+      <c r="AA23" s="1" t="n"/>
+      <c r="AB23" s="1" t="n"/>
+      <c r="AC23" s="1" t="n"/>
+      <c r="AD23" s="1" t="n"/>
+      <c r="AE23" s="1" t="n"/>
+      <c r="AF23" s="1" t="n"/>
+      <c r="AG23" s="1" t="n"/>
+      <c r="AH23" s="1" t="n"/>
+      <c r="AI23" s="1" t="n"/>
+      <c r="AJ23" s="1" t="n"/>
+      <c r="AK23" s="1" t="n"/>
+      <c r="AL23" s="1" t="n"/>
+      <c r="AM23" s="1" t="n"/>
+      <c r="AN23" s="1" t="n"/>
+      <c r="AO23" s="1" t="n"/>
+      <c r="AP23" s="1" t="n"/>
+      <c r="AQ23" s="1" t="n"/>
+      <c r="AR23" s="1" t="n"/>
+      <c r="AS23" s="1" t="n"/>
+      <c r="AT23" s="1" t="n"/>
+      <c r="AU23" s="1" t="n"/>
+      <c r="AV23" s="1" t="n"/>
+      <c r="AW23" s="1" t="n"/>
+      <c r="AX23" s="1" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="6" t="n"/>
+      <c r="C24" s="6" t="n"/>
+      <c r="D24" s="1" t="n"/>
+      <c r="E24" s="1" t="n"/>
+      <c r="F24" s="1" t="n"/>
+      <c r="G24" s="1" t="n"/>
+      <c r="H24" s="1" t="n"/>
+      <c r="I24" s="1" t="n"/>
+      <c r="J24" s="1" t="n"/>
+      <c r="K24" s="1" t="n"/>
+      <c r="L24" s="1" t="n"/>
+      <c r="M24" s="1" t="n"/>
+      <c r="N24" s="1" t="n"/>
+      <c r="O24" s="1" t="n"/>
+      <c r="P24" s="1" t="n"/>
+      <c r="Q24" s="1" t="n"/>
+      <c r="R24" s="1" t="n"/>
+      <c r="S24" s="1" t="n"/>
+      <c r="T24" s="1" t="n"/>
+      <c r="U24" s="1" t="n"/>
+      <c r="V24" s="1" t="n"/>
+      <c r="W24" s="1" t="n"/>
+      <c r="X24" s="1" t="n"/>
+      <c r="Y24" s="1" t="n"/>
+      <c r="Z24" s="1" t="n"/>
+      <c r="AA24" s="1" t="n"/>
+      <c r="AB24" s="1" t="n"/>
+      <c r="AC24" s="1" t="n"/>
+      <c r="AD24" s="1" t="n"/>
+      <c r="AE24" s="1" t="n"/>
+      <c r="AF24" s="1" t="n"/>
+      <c r="AG24" s="1" t="n"/>
+      <c r="AH24" s="1" t="n"/>
+      <c r="AI24" s="1" t="n"/>
+      <c r="AJ24" s="1" t="n"/>
+      <c r="AK24" s="1" t="n"/>
+      <c r="AL24" s="1" t="n"/>
+      <c r="AM24" s="1" t="n"/>
+      <c r="AN24" s="1" t="n"/>
+      <c r="AO24" s="1" t="n"/>
+      <c r="AP24" s="1" t="n"/>
+      <c r="AQ24" s="1" t="n"/>
+      <c r="AR24" s="1" t="n"/>
+      <c r="AS24" s="1" t="n"/>
+      <c r="AT24" s="1" t="n"/>
+      <c r="AU24" s="1" t="n"/>
+      <c r="AV24" s="1" t="n"/>
+      <c r="AW24" s="1" t="n"/>
+      <c r="AX24" s="1" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="6" t="n"/>
+      <c r="C25" s="6" t="n"/>
+      <c r="D25" s="1" t="n"/>
+      <c r="E25" s="1" t="n"/>
+      <c r="F25" s="1" t="n"/>
+      <c r="G25" s="1" t="n"/>
+      <c r="H25" s="1" t="n"/>
+      <c r="I25" s="1" t="n"/>
+      <c r="J25" s="1" t="n"/>
+      <c r="K25" s="1" t="n"/>
+      <c r="L25" s="1" t="n"/>
+      <c r="M25" s="1" t="n"/>
+      <c r="N25" s="1" t="n"/>
+      <c r="O25" s="1" t="n"/>
+      <c r="P25" s="1" t="n"/>
+      <c r="Q25" s="1" t="n"/>
+      <c r="R25" s="1" t="n"/>
+      <c r="S25" s="1" t="n"/>
+      <c r="T25" s="1" t="n"/>
+      <c r="U25" s="1" t="n"/>
+      <c r="V25" s="1" t="n"/>
+      <c r="W25" s="1" t="n"/>
+      <c r="X25" s="1" t="n"/>
+      <c r="Y25" s="1" t="n"/>
+      <c r="Z25" s="1" t="n"/>
+      <c r="AA25" s="1" t="n"/>
+      <c r="AB25" s="1" t="n"/>
+      <c r="AC25" s="1" t="n"/>
+      <c r="AD25" s="1" t="n"/>
+      <c r="AE25" s="1" t="n"/>
+      <c r="AF25" s="1" t="n"/>
+      <c r="AG25" s="1" t="n"/>
+      <c r="AH25" s="1" t="n"/>
+      <c r="AI25" s="1" t="n"/>
+      <c r="AJ25" s="1" t="n"/>
+      <c r="AK25" s="1" t="n"/>
+      <c r="AL25" s="1" t="n"/>
+      <c r="AM25" s="1" t="n"/>
+      <c r="AN25" s="1" t="n"/>
+      <c r="AO25" s="1" t="n"/>
+      <c r="AP25" s="1" t="n"/>
+      <c r="AQ25" s="1" t="n"/>
+      <c r="AR25" s="1" t="n"/>
+      <c r="AS25" s="1" t="n"/>
+      <c r="AT25" s="1" t="n"/>
+      <c r="AU25" s="1" t="n"/>
+      <c r="AV25" s="1" t="n"/>
+      <c r="AW25" s="1" t="n"/>
+      <c r="AX25" s="1" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="6" t="n"/>
+      <c r="C26" s="6" t="n"/>
+      <c r="D26" s="1" t="n"/>
+      <c r="E26" s="1" t="n"/>
+      <c r="F26" s="1" t="n"/>
+      <c r="G26" s="1" t="n"/>
+      <c r="H26" s="1" t="n"/>
+      <c r="I26" s="1" t="n"/>
+      <c r="J26" s="1" t="n"/>
+      <c r="K26" s="1" t="n"/>
+      <c r="L26" s="1" t="n"/>
+      <c r="M26" s="1" t="n"/>
+      <c r="N26" s="1" t="n"/>
+      <c r="O26" s="1" t="n"/>
+      <c r="P26" s="1" t="n"/>
+      <c r="Q26" s="1" t="n"/>
+      <c r="R26" s="1" t="n"/>
+      <c r="S26" s="1" t="n"/>
+      <c r="T26" s="1" t="n"/>
+      <c r="U26" s="1" t="n"/>
+      <c r="V26" s="1" t="n"/>
+      <c r="W26" s="1" t="n"/>
+      <c r="X26" s="1" t="n"/>
+      <c r="Y26" s="1" t="n"/>
+      <c r="Z26" s="1" t="n"/>
+      <c r="AA26" s="1" t="n"/>
+      <c r="AB26" s="1" t="n"/>
+      <c r="AC26" s="1" t="n"/>
+      <c r="AD26" s="1" t="n"/>
+      <c r="AE26" s="1" t="n"/>
+      <c r="AF26" s="1" t="n"/>
+      <c r="AG26" s="1" t="n"/>
+      <c r="AH26" s="1" t="n"/>
+      <c r="AI26" s="1" t="n"/>
+      <c r="AJ26" s="1" t="n"/>
+      <c r="AK26" s="1" t="n"/>
+      <c r="AL26" s="1" t="n"/>
+      <c r="AM26" s="1" t="n"/>
+      <c r="AN26" s="1" t="n"/>
+      <c r="AO26" s="1" t="n"/>
+      <c r="AP26" s="1" t="n"/>
+      <c r="AQ26" s="1" t="n"/>
+      <c r="AR26" s="1" t="n"/>
+      <c r="AS26" s="1" t="n"/>
+      <c r="AT26" s="1" t="n"/>
+      <c r="AU26" s="1" t="n"/>
+      <c r="AV26" s="1" t="n"/>
+      <c r="AW26" s="1" t="n"/>
+      <c r="AX26" s="1" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="6" t="n"/>
+      <c r="C27" s="6" t="n"/>
+      <c r="D27" s="1" t="n"/>
+      <c r="E27" s="1" t="n"/>
+      <c r="F27" s="1" t="n"/>
+      <c r="G27" s="1" t="n"/>
+      <c r="H27" s="1" t="n"/>
+      <c r="I27" s="1" t="n"/>
+      <c r="J27" s="1" t="n"/>
+      <c r="K27" s="1" t="n"/>
+      <c r="L27" s="1" t="n"/>
+      <c r="M27" s="1" t="n"/>
+      <c r="N27" s="1" t="n"/>
+      <c r="O27" s="1" t="n"/>
+      <c r="P27" s="1" t="n"/>
+      <c r="Q27" s="1" t="n"/>
+      <c r="R27" s="1" t="n"/>
+      <c r="S27" s="1" t="n"/>
+      <c r="T27" s="1" t="n"/>
+      <c r="U27" s="1" t="n"/>
+      <c r="V27" s="1" t="n"/>
+      <c r="W27" s="1" t="n"/>
+      <c r="X27" s="1" t="n"/>
+      <c r="Y27" s="1" t="n"/>
+      <c r="Z27" s="1" t="n"/>
+      <c r="AA27" s="1" t="n"/>
+      <c r="AB27" s="1" t="n"/>
+      <c r="AC27" s="1" t="n"/>
+      <c r="AD27" s="1" t="n"/>
+      <c r="AE27" s="1" t="n"/>
+      <c r="AF27" s="1" t="n"/>
+      <c r="AG27" s="1" t="n"/>
+      <c r="AH27" s="1" t="n"/>
+      <c r="AI27" s="1" t="n"/>
+      <c r="AJ27" s="1" t="n"/>
+      <c r="AK27" s="1" t="n"/>
+      <c r="AL27" s="1" t="n"/>
+      <c r="AM27" s="1" t="n"/>
+      <c r="AN27" s="1" t="n"/>
+      <c r="AO27" s="1" t="n"/>
+      <c r="AP27" s="1" t="n"/>
+      <c r="AQ27" s="1" t="n"/>
+      <c r="AR27" s="1" t="n"/>
+      <c r="AS27" s="1" t="n"/>
+      <c r="AT27" s="1" t="n"/>
+      <c r="AU27" s="1" t="n"/>
+      <c r="AV27" s="1" t="n"/>
+      <c r="AW27" s="1" t="n"/>
+      <c r="AX27" s="1" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="6" t="n"/>
+      <c r="C28" s="6" t="n"/>
+      <c r="D28" s="1" t="n"/>
+      <c r="E28" s="1" t="n"/>
+      <c r="F28" s="1" t="n"/>
+      <c r="G28" s="1" t="n"/>
+      <c r="H28" s="1" t="n"/>
+      <c r="I28" s="1" t="n"/>
+      <c r="J28" s="1" t="n"/>
+      <c r="K28" s="1" t="n"/>
+      <c r="L28" s="1" t="n"/>
+      <c r="M28" s="1" t="n"/>
+      <c r="N28" s="1" t="n"/>
+      <c r="O28" s="1" t="n"/>
+      <c r="P28" s="1" t="n"/>
+      <c r="Q28" s="1" t="n"/>
+      <c r="R28" s="1" t="n"/>
+      <c r="S28" s="1" t="n"/>
+      <c r="T28" s="1" t="n"/>
+      <c r="U28" s="1" t="n"/>
+      <c r="V28" s="1" t="n"/>
+      <c r="W28" s="1" t="n"/>
+      <c r="X28" s="1" t="n"/>
+      <c r="Y28" s="1" t="n"/>
+      <c r="Z28" s="1" t="n"/>
+      <c r="AA28" s="1" t="n"/>
+      <c r="AB28" s="1" t="n"/>
+      <c r="AC28" s="1" t="n"/>
+      <c r="AD28" s="1" t="n"/>
+      <c r="AE28" s="1" t="n"/>
+      <c r="AF28" s="1" t="n"/>
+      <c r="AG28" s="1" t="n"/>
+      <c r="AH28" s="1" t="n"/>
+      <c r="AI28" s="1" t="n"/>
+      <c r="AJ28" s="1" t="n"/>
+      <c r="AK28" s="1" t="n"/>
+      <c r="AL28" s="1" t="n"/>
+      <c r="AM28" s="1" t="n"/>
+      <c r="AN28" s="1" t="n"/>
+      <c r="AO28" s="1" t="n"/>
+      <c r="AP28" s="1" t="n"/>
+      <c r="AQ28" s="1" t="n"/>
+      <c r="AR28" s="1" t="n"/>
+      <c r="AS28" s="1" t="n"/>
+      <c r="AT28" s="1" t="n"/>
+      <c r="AU28" s="1" t="n"/>
+      <c r="AV28" s="1" t="n"/>
+      <c r="AW28" s="1" t="n"/>
+      <c r="AX28" s="1" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="6" t="n"/>
+      <c r="C29" s="6" t="n"/>
+      <c r="D29" s="1" t="n"/>
+      <c r="E29" s="1" t="n"/>
+      <c r="F29" s="1" t="n"/>
+      <c r="G29" s="1" t="n"/>
+      <c r="H29" s="1" t="n"/>
+      <c r="I29" s="1" t="n"/>
+      <c r="J29" s="1" t="n"/>
+      <c r="K29" s="1" t="n"/>
+      <c r="L29" s="1" t="n"/>
+      <c r="M29" s="1" t="n"/>
+      <c r="N29" s="1" t="n"/>
+      <c r="O29" s="1" t="n"/>
+      <c r="P29" s="1" t="n"/>
+      <c r="Q29" s="1" t="n"/>
+      <c r="R29" s="1" t="n"/>
+      <c r="S29" s="1" t="n"/>
+      <c r="T29" s="1" t="n"/>
+      <c r="U29" s="1" t="n"/>
+      <c r="V29" s="1" t="n"/>
+      <c r="W29" s="1" t="n"/>
+      <c r="X29" s="1" t="n"/>
+      <c r="Y29" s="1" t="n"/>
+      <c r="Z29" s="1" t="n"/>
+      <c r="AA29" s="1" t="n"/>
+      <c r="AB29" s="1" t="n"/>
+      <c r="AC29" s="1" t="n"/>
+      <c r="AD29" s="1" t="n"/>
+      <c r="AE29" s="1" t="n"/>
+      <c r="AF29" s="1" t="n"/>
+      <c r="AG29" s="1" t="n"/>
+      <c r="AH29" s="1" t="n"/>
+      <c r="AI29" s="1" t="n"/>
+      <c r="AJ29" s="1" t="n"/>
+      <c r="AK29" s="1" t="n"/>
+      <c r="AL29" s="1" t="n"/>
+      <c r="AM29" s="1" t="n"/>
+      <c r="AN29" s="1" t="n"/>
+      <c r="AO29" s="1" t="n"/>
+      <c r="AP29" s="1" t="n"/>
+      <c r="AQ29" s="1" t="n"/>
+      <c r="AR29" s="1" t="n"/>
+      <c r="AS29" s="1" t="n"/>
+      <c r="AT29" s="1" t="n"/>
+      <c r="AU29" s="1" t="n"/>
+      <c r="AV29" s="1" t="n"/>
+      <c r="AW29" s="1" t="n"/>
+      <c r="AX29" s="1" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="6" t="n"/>
+      <c r="C30" s="6" t="n"/>
+      <c r="D30" s="1" t="n"/>
+      <c r="E30" s="1" t="n"/>
+      <c r="F30" s="1" t="n"/>
+      <c r="G30" s="1" t="n"/>
+      <c r="H30" s="1" t="n"/>
+      <c r="I30" s="1" t="n"/>
+      <c r="J30" s="1" t="n"/>
+      <c r="K30" s="1" t="n"/>
+      <c r="L30" s="1" t="n"/>
+      <c r="M30" s="1" t="n"/>
+      <c r="N30" s="1" t="n"/>
+      <c r="O30" s="1" t="n"/>
+      <c r="P30" s="1" t="n"/>
+      <c r="Q30" s="1" t="n"/>
+      <c r="R30" s="1" t="n"/>
+      <c r="S30" s="1" t="n"/>
+      <c r="T30" s="1" t="n"/>
+      <c r="U30" s="1" t="n"/>
+      <c r="V30" s="1" t="n"/>
+      <c r="W30" s="1" t="n"/>
+      <c r="X30" s="1" t="n"/>
+      <c r="Y30" s="1" t="n"/>
+      <c r="Z30" s="1" t="n"/>
+      <c r="AA30" s="1" t="n"/>
+      <c r="AB30" s="1" t="n"/>
+      <c r="AC30" s="1" t="n"/>
+      <c r="AD30" s="1" t="n"/>
+      <c r="AE30" s="1" t="n"/>
+      <c r="AF30" s="1" t="n"/>
+      <c r="AG30" s="1" t="n"/>
+      <c r="AH30" s="1" t="n"/>
+      <c r="AI30" s="1" t="n"/>
+      <c r="AJ30" s="1" t="n"/>
+      <c r="AK30" s="1" t="n"/>
+      <c r="AL30" s="1" t="n"/>
+      <c r="AM30" s="1" t="n"/>
+      <c r="AN30" s="1" t="n"/>
+      <c r="AO30" s="1" t="n"/>
+      <c r="AP30" s="1" t="n"/>
+      <c r="AQ30" s="1" t="n"/>
+      <c r="AR30" s="1" t="n"/>
+      <c r="AS30" s="1" t="n"/>
+      <c r="AT30" s="1" t="n"/>
+      <c r="AU30" s="1" t="n"/>
+      <c r="AV30" s="1" t="n"/>
+      <c r="AW30" s="1" t="n"/>
+      <c r="AX30" s="1" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="6" t="n"/>
+      <c r="C31" s="6" t="n"/>
+      <c r="D31" s="1" t="n"/>
+      <c r="E31" s="1" t="n"/>
+      <c r="F31" s="1" t="n"/>
+      <c r="G31" s="1" t="n"/>
+      <c r="H31" s="1" t="n"/>
+      <c r="I31" s="1" t="n"/>
+      <c r="J31" s="1" t="n"/>
+      <c r="K31" s="1" t="n"/>
+      <c r="L31" s="1" t="n"/>
+      <c r="M31" s="1" t="n"/>
+      <c r="N31" s="1" t="n"/>
+      <c r="O31" s="1" t="n"/>
+      <c r="P31" s="1" t="n"/>
+      <c r="Q31" s="1" t="n"/>
+      <c r="R31" s="1" t="n"/>
+      <c r="S31" s="1" t="n"/>
+      <c r="T31" s="1" t="n"/>
+      <c r="U31" s="1" t="n"/>
+      <c r="V31" s="1" t="n"/>
+      <c r="W31" s="1" t="n"/>
+      <c r="X31" s="1" t="n"/>
+      <c r="Y31" s="1" t="n"/>
+      <c r="Z31" s="1" t="n"/>
+      <c r="AA31" s="1" t="n"/>
+      <c r="AB31" s="1" t="n"/>
+      <c r="AC31" s="1" t="n"/>
+      <c r="AD31" s="1" t="n"/>
+      <c r="AE31" s="1" t="n"/>
+      <c r="AF31" s="1" t="n"/>
+      <c r="AG31" s="1" t="n"/>
+      <c r="AH31" s="1" t="n"/>
+      <c r="AI31" s="1" t="n"/>
+      <c r="AJ31" s="1" t="n"/>
+      <c r="AK31" s="1" t="n"/>
+      <c r="AL31" s="1" t="n"/>
+      <c r="AM31" s="1" t="n"/>
+      <c r="AN31" s="1" t="n"/>
+      <c r="AO31" s="1" t="n"/>
+      <c r="AP31" s="1" t="n"/>
+      <c r="AQ31" s="1" t="n"/>
+      <c r="AR31" s="1" t="n"/>
+      <c r="AS31" s="1" t="n"/>
+      <c r="AT31" s="1" t="n"/>
+      <c r="AU31" s="1" t="n"/>
+      <c r="AV31" s="1" t="n"/>
+      <c r="AW31" s="1" t="n"/>
+      <c r="AX31" s="1" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="6" t="n"/>
+      <c r="C32" s="6" t="n"/>
+      <c r="D32" s="1" t="n"/>
+      <c r="E32" s="1" t="n"/>
+      <c r="F32" s="1" t="n"/>
+      <c r="G32" s="1" t="n"/>
+      <c r="H32" s="1" t="n"/>
+      <c r="I32" s="1" t="n"/>
+      <c r="J32" s="1" t="n"/>
+      <c r="K32" s="1" t="n"/>
+      <c r="L32" s="1" t="n"/>
+      <c r="M32" s="1" t="n"/>
+      <c r="N32" s="1" t="n"/>
+      <c r="O32" s="1" t="n"/>
+      <c r="P32" s="1" t="n"/>
+      <c r="Q32" s="1" t="n"/>
+      <c r="R32" s="1" t="n"/>
+      <c r="S32" s="1" t="n"/>
+      <c r="T32" s="1" t="n"/>
+      <c r="U32" s="1" t="n"/>
+      <c r="V32" s="1" t="n"/>
+      <c r="W32" s="1" t="n"/>
+      <c r="X32" s="1" t="n"/>
+      <c r="Y32" s="1" t="n"/>
+      <c r="Z32" s="1" t="n"/>
+      <c r="AA32" s="1" t="n"/>
+      <c r="AB32" s="1" t="n"/>
+      <c r="AC32" s="1" t="n"/>
+      <c r="AD32" s="1" t="n"/>
+      <c r="AE32" s="1" t="n"/>
+      <c r="AF32" s="1" t="n"/>
+      <c r="AG32" s="1" t="n"/>
+      <c r="AH32" s="1" t="n"/>
+      <c r="AI32" s="1" t="n"/>
+      <c r="AJ32" s="1" t="n"/>
+      <c r="AK32" s="1" t="n"/>
+      <c r="AL32" s="1" t="n"/>
+      <c r="AM32" s="1" t="n"/>
+      <c r="AN32" s="1" t="n"/>
+      <c r="AO32" s="1" t="n"/>
+      <c r="AP32" s="1" t="n"/>
+      <c r="AQ32" s="1" t="n"/>
+      <c r="AR32" s="1" t="n"/>
+      <c r="AS32" s="1" t="n"/>
+      <c r="AT32" s="1" t="n"/>
+      <c r="AU32" s="1" t="n"/>
+      <c r="AV32" s="1" t="n"/>
+      <c r="AW32" s="1" t="n"/>
+      <c r="AX32" s="1" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="6" t="n"/>
+      <c r="C33" s="6" t="n"/>
+      <c r="D33" s="1" t="n"/>
+      <c r="E33" s="1" t="n"/>
+      <c r="F33" s="1" t="n"/>
+      <c r="G33" s="1" t="n"/>
+      <c r="H33" s="1" t="n"/>
+      <c r="I33" s="1" t="n"/>
+      <c r="J33" s="1" t="n"/>
+      <c r="K33" s="1" t="n"/>
+      <c r="L33" s="1" t="n"/>
+      <c r="M33" s="1" t="n"/>
+      <c r="N33" s="1" t="n"/>
+      <c r="O33" s="1" t="n"/>
+      <c r="P33" s="1" t="n"/>
+      <c r="Q33" s="1" t="n"/>
+      <c r="R33" s="1" t="n"/>
+      <c r="S33" s="1" t="n"/>
+      <c r="T33" s="1" t="n"/>
+      <c r="U33" s="1" t="n"/>
+      <c r="V33" s="1" t="n"/>
+      <c r="W33" s="1" t="n"/>
+      <c r="X33" s="1" t="n"/>
+      <c r="Y33" s="1" t="n"/>
+      <c r="Z33" s="1" t="n"/>
+      <c r="AA33" s="1" t="n"/>
+      <c r="AB33" s="1" t="n"/>
+      <c r="AC33" s="1" t="n"/>
+      <c r="AD33" s="1" t="n"/>
+      <c r="AE33" s="1" t="n"/>
+      <c r="AF33" s="1" t="n"/>
+      <c r="AG33" s="1" t="n"/>
+      <c r="AH33" s="1" t="n"/>
+      <c r="AI33" s="1" t="n"/>
+      <c r="AJ33" s="1" t="n"/>
+      <c r="AK33" s="1" t="n"/>
+      <c r="AL33" s="1" t="n"/>
+      <c r="AM33" s="1" t="n"/>
+      <c r="AN33" s="1" t="n"/>
+      <c r="AO33" s="1" t="n"/>
+      <c r="AP33" s="1" t="n"/>
+      <c r="AQ33" s="1" t="n"/>
+      <c r="AR33" s="1" t="n"/>
+      <c r="AS33" s="1" t="n"/>
+      <c r="AT33" s="1" t="n"/>
+      <c r="AU33" s="1" t="n"/>
+      <c r="AV33" s="1" t="n"/>
+      <c r="AW33" s="1" t="n"/>
+      <c r="AX33" s="1" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="6" t="n"/>
+      <c r="C34" s="6" t="n"/>
+      <c r="D34" s="1" t="n"/>
+      <c r="E34" s="1" t="n"/>
+      <c r="F34" s="1" t="n"/>
+      <c r="G34" s="1" t="n"/>
+      <c r="H34" s="1" t="n"/>
+      <c r="I34" s="1" t="n"/>
+      <c r="J34" s="1" t="n"/>
+      <c r="K34" s="1" t="n"/>
+      <c r="L34" s="1" t="n"/>
+      <c r="M34" s="1" t="n"/>
+      <c r="N34" s="1" t="n"/>
+      <c r="O34" s="1" t="n"/>
+      <c r="P34" s="1" t="n"/>
+      <c r="Q34" s="1" t="n"/>
+      <c r="R34" s="1" t="n"/>
+      <c r="S34" s="1" t="n"/>
+      <c r="T34" s="1" t="n"/>
+      <c r="U34" s="1" t="n"/>
+      <c r="V34" s="1" t="n"/>
+      <c r="W34" s="1" t="n"/>
+      <c r="X34" s="1" t="n"/>
+      <c r="Y34" s="1" t="n"/>
+      <c r="Z34" s="1" t="n"/>
+      <c r="AA34" s="1" t="n"/>
+      <c r="AB34" s="1" t="n"/>
+      <c r="AC34" s="1" t="n"/>
+      <c r="AD34" s="1" t="n"/>
+      <c r="AE34" s="1" t="n"/>
+      <c r="AF34" s="1" t="n"/>
+      <c r="AG34" s="1" t="n"/>
+      <c r="AH34" s="1" t="n"/>
+      <c r="AI34" s="1" t="n"/>
+      <c r="AJ34" s="1" t="n"/>
+      <c r="AK34" s="1" t="n"/>
+      <c r="AL34" s="1" t="n"/>
+      <c r="AM34" s="1" t="n"/>
+      <c r="AN34" s="1" t="n"/>
+      <c r="AO34" s="1" t="n"/>
+      <c r="AP34" s="1" t="n"/>
+      <c r="AQ34" s="1" t="n"/>
+      <c r="AR34" s="1" t="n"/>
+      <c r="AS34" s="1" t="n"/>
+      <c r="AT34" s="1" t="n"/>
+      <c r="AU34" s="1" t="n"/>
+      <c r="AV34" s="1" t="n"/>
+      <c r="AW34" s="1" t="n"/>
+      <c r="AX34" s="1" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="6" t="n"/>
+      <c r="C35" s="6" t="n"/>
+      <c r="D35" s="1" t="n"/>
+      <c r="E35" s="1" t="n"/>
+      <c r="F35" s="1" t="n"/>
+      <c r="G35" s="1" t="n"/>
+      <c r="H35" s="1" t="n"/>
+      <c r="I35" s="1" t="n"/>
+      <c r="J35" s="1" t="n"/>
+      <c r="K35" s="1" t="n"/>
+      <c r="L35" s="1" t="n"/>
+      <c r="M35" s="1" t="n"/>
+      <c r="N35" s="1" t="n"/>
+      <c r="O35" s="1" t="n"/>
+      <c r="P35" s="1" t="n"/>
+      <c r="Q35" s="1" t="n"/>
+      <c r="R35" s="1" t="n"/>
+      <c r="S35" s="1" t="n"/>
+      <c r="T35" s="1" t="n"/>
+      <c r="U35" s="1" t="n"/>
+      <c r="V35" s="1" t="n"/>
+      <c r="W35" s="1" t="n"/>
+      <c r="X35" s="1" t="n"/>
+      <c r="Y35" s="1" t="n"/>
+      <c r="Z35" s="1" t="n"/>
+      <c r="AA35" s="1" t="n"/>
+      <c r="AB35" s="1" t="n"/>
+      <c r="AC35" s="1" t="n"/>
+      <c r="AD35" s="1" t="n"/>
+      <c r="AE35" s="1" t="n"/>
+      <c r="AF35" s="1" t="n"/>
+      <c r="AG35" s="1" t="n"/>
+      <c r="AH35" s="1" t="n"/>
+      <c r="AI35" s="1" t="n"/>
+      <c r="AJ35" s="1" t="n"/>
+      <c r="AK35" s="1" t="n"/>
+      <c r="AL35" s="1" t="n"/>
+      <c r="AM35" s="1" t="n"/>
+      <c r="AN35" s="1" t="n"/>
+      <c r="AO35" s="1" t="n"/>
+      <c r="AP35" s="1" t="n"/>
+      <c r="AQ35" s="1" t="n"/>
+      <c r="AR35" s="1" t="n"/>
+      <c r="AS35" s="1" t="n"/>
+      <c r="AT35" s="1" t="n"/>
+      <c r="AU35" s="1" t="n"/>
+      <c r="AV35" s="1" t="n"/>
+      <c r="AW35" s="1" t="n"/>
+      <c r="AX35" s="1" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="6" t="n"/>
+      <c r="C36" s="6" t="n"/>
+      <c r="D36" s="1" t="n"/>
+      <c r="E36" s="1" t="n"/>
+      <c r="F36" s="1" t="n"/>
+      <c r="G36" s="1" t="n"/>
+      <c r="H36" s="1" t="n"/>
+      <c r="I36" s="1" t="n"/>
+      <c r="J36" s="1" t="n"/>
+      <c r="K36" s="1" t="n"/>
+      <c r="L36" s="1" t="n"/>
+      <c r="M36" s="1" t="n"/>
+      <c r="N36" s="1" t="n"/>
+      <c r="O36" s="1" t="n"/>
+      <c r="P36" s="1" t="n"/>
+      <c r="Q36" s="1" t="n"/>
+      <c r="R36" s="1" t="n"/>
+      <c r="S36" s="1" t="n"/>
+      <c r="T36" s="1" t="n"/>
+      <c r="U36" s="1" t="n"/>
+      <c r="V36" s="1" t="n"/>
+      <c r="W36" s="1" t="n"/>
+      <c r="X36" s="1" t="n"/>
+      <c r="Y36" s="1" t="n"/>
+      <c r="Z36" s="1" t="n"/>
+      <c r="AA36" s="1" t="n"/>
+      <c r="AB36" s="1" t="n"/>
+      <c r="AC36" s="1" t="n"/>
+      <c r="AD36" s="1" t="n"/>
+      <c r="AE36" s="1" t="n"/>
+      <c r="AF36" s="1" t="n"/>
+      <c r="AG36" s="1" t="n"/>
+      <c r="AH36" s="1" t="n"/>
+      <c r="AI36" s="1" t="n"/>
+      <c r="AJ36" s="1" t="n"/>
+      <c r="AK36" s="1" t="n"/>
+      <c r="AL36" s="1" t="n"/>
+      <c r="AM36" s="1" t="n"/>
+      <c r="AN36" s="1" t="n"/>
+      <c r="AO36" s="1" t="n"/>
+      <c r="AP36" s="1" t="n"/>
+      <c r="AQ36" s="1" t="n"/>
+      <c r="AR36" s="1" t="n"/>
+      <c r="AS36" s="1" t="n"/>
+      <c r="AT36" s="1" t="n"/>
+      <c r="AU36" s="1" t="n"/>
+      <c r="AV36" s="1" t="n"/>
+      <c r="AW36" s="1" t="n"/>
+      <c r="AX36" s="1" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="6" t="n"/>
+      <c r="C37" s="6" t="n"/>
+      <c r="D37" s="1" t="n"/>
+      <c r="E37" s="1" t="n"/>
+      <c r="F37" s="1" t="n"/>
+      <c r="G37" s="1" t="n"/>
+      <c r="H37" s="1" t="n"/>
+      <c r="I37" s="1" t="n"/>
+      <c r="J37" s="1" t="n"/>
+      <c r="K37" s="1" t="n"/>
+      <c r="L37" s="1" t="n"/>
+      <c r="M37" s="1" t="n"/>
+      <c r="N37" s="1" t="n"/>
+      <c r="O37" s="1" t="n"/>
+      <c r="P37" s="1" t="n"/>
+      <c r="Q37" s="1" t="n"/>
+      <c r="R37" s="1" t="n"/>
+      <c r="S37" s="1" t="n"/>
+      <c r="T37" s="1" t="n"/>
+      <c r="U37" s="1" t="n"/>
+      <c r="V37" s="1" t="n"/>
+      <c r="W37" s="1" t="n"/>
+      <c r="X37" s="1" t="n"/>
+      <c r="Y37" s="1" t="n"/>
+      <c r="Z37" s="1" t="n"/>
+      <c r="AA37" s="1" t="n"/>
+      <c r="AB37" s="1" t="n"/>
+      <c r="AC37" s="1" t="n"/>
+      <c r="AD37" s="1" t="n"/>
+      <c r="AE37" s="1" t="n"/>
+      <c r="AF37" s="1" t="n"/>
+      <c r="AG37" s="1" t="n"/>
+      <c r="AH37" s="1" t="n"/>
+      <c r="AI37" s="1" t="n"/>
+      <c r="AJ37" s="1" t="n"/>
+      <c r="AK37" s="1" t="n"/>
+      <c r="AL37" s="1" t="n"/>
+      <c r="AM37" s="1" t="n"/>
+      <c r="AN37" s="1" t="n"/>
+      <c r="AO37" s="1" t="n"/>
+      <c r="AP37" s="1" t="n"/>
+      <c r="AQ37" s="1" t="n"/>
+      <c r="AR37" s="1" t="n"/>
+      <c r="AS37" s="1" t="n"/>
+      <c r="AT37" s="1" t="n"/>
+      <c r="AU37" s="1" t="n"/>
+      <c r="AV37" s="1" t="n"/>
+      <c r="AW37" s="1" t="n"/>
+      <c r="AX37" s="1" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="6" t="n"/>
+      <c r="C38" s="6" t="n"/>
+      <c r="D38" s="1" t="n"/>
+      <c r="E38" s="1" t="n"/>
+      <c r="F38" s="1" t="n"/>
+      <c r="G38" s="1" t="n"/>
+      <c r="H38" s="1" t="n"/>
+      <c r="I38" s="1" t="n"/>
+      <c r="J38" s="1" t="n"/>
+      <c r="K38" s="1" t="n"/>
+      <c r="L38" s="1" t="n"/>
+      <c r="M38" s="1" t="n"/>
+      <c r="N38" s="1" t="n"/>
+      <c r="O38" s="1" t="n"/>
+      <c r="P38" s="1" t="n"/>
+      <c r="Q38" s="1" t="n"/>
+      <c r="R38" s="1" t="n"/>
+      <c r="S38" s="1" t="n"/>
+      <c r="T38" s="1" t="n"/>
+      <c r="U38" s="1" t="n"/>
+      <c r="V38" s="1" t="n"/>
+      <c r="W38" s="1" t="n"/>
+      <c r="X38" s="1" t="n"/>
+      <c r="Y38" s="1" t="n"/>
+      <c r="Z38" s="1" t="n"/>
+      <c r="AA38" s="1" t="n"/>
+      <c r="AB38" s="1" t="n"/>
+      <c r="AC38" s="1" t="n"/>
+      <c r="AD38" s="1" t="n"/>
+      <c r="AE38" s="1" t="n"/>
+      <c r="AF38" s="1" t="n"/>
+      <c r="AG38" s="1" t="n"/>
+      <c r="AH38" s="1" t="n"/>
+      <c r="AI38" s="1" t="n"/>
+      <c r="AJ38" s="1" t="n"/>
+      <c r="AK38" s="1" t="n"/>
+      <c r="AL38" s="1" t="n"/>
+      <c r="AM38" s="1" t="n"/>
+      <c r="AN38" s="1" t="n"/>
+      <c r="AO38" s="1" t="n"/>
+      <c r="AP38" s="1" t="n"/>
+      <c r="AQ38" s="1" t="n"/>
+      <c r="AR38" s="1" t="n"/>
+      <c r="AS38" s="1" t="n"/>
+      <c r="AT38" s="1" t="n"/>
+      <c r="AU38" s="1" t="n"/>
+      <c r="AV38" s="1" t="n"/>
+      <c r="AW38" s="1" t="n"/>
+      <c r="AX38" s="1" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="6" t="n"/>
+      <c r="C39" s="6" t="n"/>
+      <c r="D39" s="1" t="n"/>
+      <c r="E39" s="1" t="n"/>
+      <c r="F39" s="1" t="n"/>
+      <c r="G39" s="1" t="n"/>
+      <c r="H39" s="1" t="n"/>
+      <c r="I39" s="1" t="n"/>
+      <c r="J39" s="1" t="n"/>
+      <c r="K39" s="1" t="n"/>
+      <c r="L39" s="1" t="n"/>
+      <c r="M39" s="1" t="n"/>
+      <c r="N39" s="1" t="n"/>
+      <c r="O39" s="1" t="n"/>
+      <c r="P39" s="1" t="n"/>
+      <c r="Q39" s="1" t="n"/>
+      <c r="R39" s="1" t="n"/>
+      <c r="S39" s="1" t="n"/>
+      <c r="T39" s="1" t="n"/>
+      <c r="U39" s="1" t="n"/>
+      <c r="V39" s="1" t="n"/>
+      <c r="W39" s="1" t="n"/>
+      <c r="X39" s="1" t="n"/>
+      <c r="Y39" s="1" t="n"/>
+      <c r="Z39" s="1" t="n"/>
+      <c r="AA39" s="1" t="n"/>
+      <c r="AB39" s="1" t="n"/>
+      <c r="AC39" s="1" t="n"/>
+      <c r="AD39" s="1" t="n"/>
+      <c r="AE39" s="1" t="n"/>
+      <c r="AF39" s="1" t="n"/>
+      <c r="AG39" s="1" t="n"/>
+      <c r="AH39" s="1" t="n"/>
+      <c r="AI39" s="1" t="n"/>
+      <c r="AJ39" s="1" t="n"/>
+      <c r="AK39" s="1" t="n"/>
+      <c r="AL39" s="1" t="n"/>
+      <c r="AM39" s="1" t="n"/>
+      <c r="AN39" s="1" t="n"/>
+      <c r="AO39" s="1" t="n"/>
+      <c r="AP39" s="1" t="n"/>
+      <c r="AQ39" s="1" t="n"/>
+      <c r="AR39" s="1" t="n"/>
+      <c r="AS39" s="1" t="n"/>
+      <c r="AT39" s="1" t="n"/>
+      <c r="AU39" s="1" t="n"/>
+      <c r="AV39" s="1" t="n"/>
+      <c r="AW39" s="1" t="n"/>
+      <c r="AX39" s="1" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="6" t="n"/>
+      <c r="C40" s="6" t="n"/>
+      <c r="D40" s="1" t="n"/>
+      <c r="E40" s="1" t="n"/>
+      <c r="F40" s="1" t="n"/>
+      <c r="G40" s="1" t="n"/>
+      <c r="H40" s="1" t="n"/>
+      <c r="I40" s="1" t="n"/>
+      <c r="J40" s="1" t="n"/>
+      <c r="K40" s="1" t="n"/>
+      <c r="L40" s="1" t="n"/>
+      <c r="M40" s="1" t="n"/>
+      <c r="N40" s="1" t="n"/>
+      <c r="O40" s="1" t="n"/>
+      <c r="P40" s="1" t="n"/>
+      <c r="Q40" s="1" t="n"/>
+      <c r="R40" s="1" t="n"/>
+      <c r="S40" s="1" t="n"/>
+      <c r="T40" s="1" t="n"/>
+      <c r="U40" s="1" t="n"/>
+      <c r="V40" s="1" t="n"/>
+      <c r="W40" s="1" t="n"/>
+      <c r="X40" s="1" t="n"/>
+      <c r="Y40" s="1" t="n"/>
+      <c r="Z40" s="1" t="n"/>
+      <c r="AA40" s="1" t="n"/>
+      <c r="AB40" s="1" t="n"/>
+      <c r="AC40" s="1" t="n"/>
+      <c r="AD40" s="1" t="n"/>
+      <c r="AE40" s="1" t="n"/>
+      <c r="AF40" s="1" t="n"/>
+      <c r="AG40" s="1" t="n"/>
+      <c r="AH40" s="1" t="n"/>
+      <c r="AI40" s="1" t="n"/>
+      <c r="AJ40" s="1" t="n"/>
+      <c r="AK40" s="1" t="n"/>
+      <c r="AL40" s="1" t="n"/>
+      <c r="AM40" s="1" t="n"/>
+      <c r="AN40" s="1" t="n"/>
+      <c r="AO40" s="1" t="n"/>
+      <c r="AP40" s="1" t="n"/>
+      <c r="AQ40" s="1" t="n"/>
+      <c r="AR40" s="1" t="n"/>
+      <c r="AS40" s="1" t="n"/>
+      <c r="AT40" s="1" t="n"/>
+      <c r="AU40" s="1" t="n"/>
+      <c r="AV40" s="1" t="n"/>
+      <c r="AW40" s="1" t="n"/>
+      <c r="AX40" s="1" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="6" t="n"/>
+      <c r="C41" s="6" t="n"/>
+      <c r="D41" s="1" t="n"/>
+      <c r="E41" s="1" t="n"/>
+      <c r="F41" s="1" t="n"/>
+      <c r="G41" s="1" t="n"/>
+      <c r="H41" s="1" t="n"/>
+      <c r="I41" s="1" t="n"/>
+      <c r="J41" s="1" t="n"/>
+      <c r="K41" s="1" t="n"/>
+      <c r="L41" s="1" t="n"/>
+      <c r="M41" s="1" t="n"/>
+      <c r="N41" s="1" t="n"/>
+      <c r="O41" s="1" t="n"/>
+      <c r="P41" s="1" t="n"/>
+      <c r="Q41" s="1" t="n"/>
+      <c r="R41" s="1" t="n"/>
+      <c r="S41" s="1" t="n"/>
+      <c r="T41" s="1" t="n"/>
+      <c r="U41" s="1" t="n"/>
+      <c r="V41" s="1" t="n"/>
+      <c r="W41" s="1" t="n"/>
+      <c r="X41" s="1" t="n"/>
+      <c r="Y41" s="1" t="n"/>
+      <c r="Z41" s="1" t="n"/>
+      <c r="AA41" s="1" t="n"/>
+      <c r="AB41" s="1" t="n"/>
+      <c r="AC41" s="1" t="n"/>
+      <c r="AD41" s="1" t="n"/>
+      <c r="AE41" s="1" t="n"/>
+      <c r="AF41" s="1" t="n"/>
+      <c r="AG41" s="1" t="n"/>
+      <c r="AH41" s="1" t="n"/>
+      <c r="AI41" s="1" t="n"/>
+      <c r="AJ41" s="1" t="n"/>
+      <c r="AK41" s="1" t="n"/>
+      <c r="AL41" s="1" t="n"/>
+      <c r="AM41" s="1" t="n"/>
+      <c r="AN41" s="1" t="n"/>
+      <c r="AO41" s="1" t="n"/>
+      <c r="AP41" s="1" t="n"/>
+      <c r="AQ41" s="1" t="n"/>
+      <c r="AR41" s="1" t="n"/>
+      <c r="AS41" s="1" t="n"/>
+      <c r="AT41" s="1" t="n"/>
+      <c r="AU41" s="1" t="n"/>
+      <c r="AV41" s="1" t="n"/>
+      <c r="AW41" s="1" t="n"/>
+      <c r="AX41" s="1" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="6" t="n"/>
+      <c r="C42" s="6" t="n"/>
+      <c r="D42" s="1" t="n"/>
+      <c r="E42" s="1" t="n"/>
+      <c r="F42" s="1" t="n"/>
+      <c r="G42" s="1" t="n"/>
+      <c r="H42" s="1" t="n"/>
+      <c r="I42" s="1" t="n"/>
+      <c r="J42" s="1" t="n"/>
+      <c r="K42" s="1" t="n"/>
+      <c r="L42" s="1" t="n"/>
+      <c r="M42" s="1" t="n"/>
+      <c r="N42" s="1" t="n"/>
+      <c r="O42" s="1" t="n"/>
+      <c r="P42" s="1" t="n"/>
+      <c r="Q42" s="1" t="n"/>
+      <c r="R42" s="1" t="n"/>
+      <c r="S42" s="1" t="n"/>
+      <c r="T42" s="1" t="n"/>
+      <c r="U42" s="1" t="n"/>
+      <c r="V42" s="1" t="n"/>
+      <c r="W42" s="1" t="n"/>
+      <c r="X42" s="1" t="n"/>
+      <c r="Y42" s="1" t="n"/>
+      <c r="Z42" s="1" t="n"/>
+      <c r="AA42" s="1" t="n"/>
+      <c r="AB42" s="1" t="n"/>
+      <c r="AC42" s="1" t="n"/>
+      <c r="AD42" s="1" t="n"/>
+      <c r="AE42" s="1" t="n"/>
+      <c r="AF42" s="1" t="n"/>
+      <c r="AG42" s="1" t="n"/>
+      <c r="AH42" s="1" t="n"/>
+      <c r="AI42" s="1" t="n"/>
+      <c r="AJ42" s="1" t="n"/>
+      <c r="AK42" s="1" t="n"/>
+      <c r="AL42" s="1" t="n"/>
+      <c r="AM42" s="1" t="n"/>
+      <c r="AN42" s="1" t="n"/>
+      <c r="AO42" s="1" t="n"/>
+      <c r="AP42" s="1" t="n"/>
+      <c r="AQ42" s="1" t="n"/>
+      <c r="AR42" s="1" t="n"/>
+      <c r="AS42" s="1" t="n"/>
+      <c r="AT42" s="1" t="n"/>
+      <c r="AU42" s="1" t="n"/>
+      <c r="AV42" s="1" t="n"/>
+      <c r="AW42" s="1" t="n"/>
+      <c r="AX42" s="1" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="6" t="n"/>
+      <c r="C43" s="6" t="n"/>
+      <c r="D43" s="1" t="n"/>
+      <c r="E43" s="1" t="n"/>
+      <c r="F43" s="1" t="n"/>
+      <c r="G43" s="1" t="n"/>
+      <c r="H43" s="1" t="n"/>
+      <c r="I43" s="1" t="n"/>
+      <c r="J43" s="1" t="n"/>
+      <c r="K43" s="1" t="n"/>
+      <c r="L43" s="1" t="n"/>
+      <c r="M43" s="1" t="n"/>
+      <c r="N43" s="1" t="n"/>
+      <c r="O43" s="1" t="n"/>
+      <c r="P43" s="1" t="n"/>
+      <c r="Q43" s="1" t="n"/>
+      <c r="R43" s="1" t="n"/>
+      <c r="S43" s="1" t="n"/>
+      <c r="T43" s="1" t="n"/>
+      <c r="U43" s="1" t="n"/>
+      <c r="V43" s="1" t="n"/>
+      <c r="W43" s="1" t="n"/>
+      <c r="X43" s="1" t="n"/>
+      <c r="Y43" s="1" t="n"/>
+      <c r="Z43" s="1" t="n"/>
+      <c r="AA43" s="1" t="n"/>
+      <c r="AB43" s="1" t="n"/>
+      <c r="AC43" s="1" t="n"/>
+      <c r="AD43" s="1" t="n"/>
+      <c r="AE43" s="1" t="n"/>
+      <c r="AF43" s="1" t="n"/>
+      <c r="AG43" s="1" t="n"/>
+      <c r="AH43" s="1" t="n"/>
+      <c r="AI43" s="1" t="n"/>
+      <c r="AJ43" s="1" t="n"/>
+      <c r="AK43" s="1" t="n"/>
+      <c r="AL43" s="1" t="n"/>
+      <c r="AM43" s="1" t="n"/>
+      <c r="AN43" s="1" t="n"/>
+      <c r="AO43" s="1" t="n"/>
+      <c r="AP43" s="1" t="n"/>
+      <c r="AQ43" s="1" t="n"/>
+      <c r="AR43" s="1" t="n"/>
+      <c r="AS43" s="1" t="n"/>
+      <c r="AT43" s="1" t="n"/>
+      <c r="AU43" s="1" t="n"/>
+      <c r="AV43" s="1" t="n"/>
+      <c r="AW43" s="1" t="n"/>
+      <c r="AX43" s="1" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="6" t="n"/>
+      <c r="C44" s="6" t="n"/>
+      <c r="D44" s="1" t="n"/>
+      <c r="E44" s="1" t="n"/>
+      <c r="F44" s="1" t="n"/>
+      <c r="G44" s="1" t="n"/>
+      <c r="H44" s="1" t="n"/>
+      <c r="I44" s="1" t="n"/>
+      <c r="J44" s="1" t="n"/>
+      <c r="K44" s="1" t="n"/>
+      <c r="L44" s="1" t="n"/>
+      <c r="M44" s="1" t="n"/>
+      <c r="N44" s="1" t="n"/>
+      <c r="O44" s="1" t="n"/>
+      <c r="P44" s="1" t="n"/>
+      <c r="Q44" s="1" t="n"/>
+      <c r="R44" s="1" t="n"/>
+      <c r="S44" s="1" t="n"/>
+      <c r="T44" s="1" t="n"/>
+      <c r="U44" s="1" t="n"/>
+      <c r="V44" s="1" t="n"/>
+      <c r="W44" s="1" t="n"/>
+      <c r="X44" s="1" t="n"/>
+      <c r="Y44" s="1" t="n"/>
+      <c r="Z44" s="1" t="n"/>
+      <c r="AA44" s="1" t="n"/>
+      <c r="AB44" s="1" t="n"/>
+      <c r="AC44" s="1" t="n"/>
+      <c r="AD44" s="1" t="n"/>
+      <c r="AE44" s="1" t="n"/>
+      <c r="AF44" s="1" t="n"/>
+      <c r="AG44" s="1" t="n"/>
+      <c r="AH44" s="1" t="n"/>
+      <c r="AI44" s="1" t="n"/>
+      <c r="AJ44" s="1" t="n"/>
+      <c r="AK44" s="1" t="n"/>
+      <c r="AL44" s="1" t="n"/>
+      <c r="AM44" s="1" t="n"/>
+      <c r="AN44" s="1" t="n"/>
+      <c r="AO44" s="1" t="n"/>
+      <c r="AP44" s="1" t="n"/>
+      <c r="AQ44" s="1" t="n"/>
+      <c r="AR44" s="1" t="n"/>
+      <c r="AS44" s="1" t="n"/>
+      <c r="AT44" s="1" t="n"/>
+      <c r="AU44" s="1" t="n"/>
+      <c r="AV44" s="1" t="n"/>
+      <c r="AW44" s="1" t="n"/>
+      <c r="AX44" s="1" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="6" t="n"/>
+      <c r="C45" s="6" t="n"/>
+      <c r="D45" s="1" t="n"/>
+      <c r="E45" s="1" t="n"/>
+      <c r="F45" s="1" t="n"/>
+      <c r="G45" s="1" t="n"/>
+      <c r="H45" s="1" t="n"/>
+      <c r="I45" s="1" t="n"/>
+      <c r="J45" s="1" t="n"/>
+      <c r="K45" s="1" t="n"/>
+      <c r="L45" s="1" t="n"/>
+      <c r="M45" s="1" t="n"/>
+      <c r="N45" s="1" t="n"/>
+      <c r="O45" s="1" t="n"/>
+      <c r="P45" s="1" t="n"/>
+      <c r="Q45" s="1" t="n"/>
+      <c r="R45" s="1" t="n"/>
+      <c r="S45" s="1" t="n"/>
+      <c r="T45" s="1" t="n"/>
+      <c r="U45" s="1" t="n"/>
+      <c r="V45" s="1" t="n"/>
+      <c r="W45" s="1" t="n"/>
+      <c r="X45" s="1" t="n"/>
+      <c r="Y45" s="1" t="n"/>
+      <c r="Z45" s="1" t="n"/>
+      <c r="AA45" s="1" t="n"/>
+      <c r="AB45" s="1" t="n"/>
+      <c r="AC45" s="1" t="n"/>
+      <c r="AD45" s="1" t="n"/>
+      <c r="AE45" s="1" t="n"/>
+      <c r="AF45" s="1" t="n"/>
+      <c r="AG45" s="1" t="n"/>
+      <c r="AH45" s="1" t="n"/>
+      <c r="AI45" s="1" t="n"/>
+      <c r="AJ45" s="1" t="n"/>
+      <c r="AK45" s="1" t="n"/>
+      <c r="AL45" s="1" t="n"/>
+      <c r="AM45" s="1" t="n"/>
+      <c r="AN45" s="1" t="n"/>
+      <c r="AO45" s="1" t="n"/>
+      <c r="AP45" s="1" t="n"/>
+      <c r="AQ45" s="1" t="n"/>
+      <c r="AR45" s="1" t="n"/>
+      <c r="AS45" s="1" t="n"/>
+      <c r="AT45" s="1" t="n"/>
+      <c r="AU45" s="1" t="n"/>
+      <c r="AV45" s="1" t="n"/>
+      <c r="AW45" s="1" t="n"/>
+      <c r="AX45" s="1" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="6" t="n"/>
+      <c r="C46" s="6" t="n"/>
+      <c r="D46" s="1" t="n"/>
+      <c r="E46" s="1" t="n"/>
+      <c r="F46" s="1" t="n"/>
+      <c r="G46" s="1" t="n"/>
+      <c r="H46" s="1" t="n"/>
+      <c r="I46" s="1" t="n"/>
+      <c r="J46" s="1" t="n"/>
+      <c r="K46" s="1" t="n"/>
+      <c r="L46" s="1" t="n"/>
+      <c r="M46" s="1" t="n"/>
+      <c r="N46" s="1" t="n"/>
+      <c r="O46" s="1" t="n"/>
+      <c r="P46" s="1" t="n"/>
+      <c r="Q46" s="1" t="n"/>
+      <c r="R46" s="1" t="n"/>
+      <c r="S46" s="1" t="n"/>
+      <c r="T46" s="1" t="n"/>
+      <c r="U46" s="1" t="n"/>
+      <c r="V46" s="1" t="n"/>
+      <c r="W46" s="1" t="n"/>
+      <c r="X46" s="1" t="n"/>
+      <c r="Y46" s="1" t="n"/>
+      <c r="Z46" s="1" t="n"/>
+      <c r="AA46" s="1" t="n"/>
+      <c r="AB46" s="1" t="n"/>
+      <c r="AC46" s="1" t="n"/>
+      <c r="AD46" s="1" t="n"/>
+      <c r="AE46" s="1" t="n"/>
+      <c r="AF46" s="1" t="n"/>
+      <c r="AG46" s="1" t="n"/>
+      <c r="AH46" s="1" t="n"/>
+      <c r="AI46" s="1" t="n"/>
+      <c r="AJ46" s="1" t="n"/>
+      <c r="AK46" s="1" t="n"/>
+      <c r="AL46" s="1" t="n"/>
+      <c r="AM46" s="1" t="n"/>
+      <c r="AN46" s="1" t="n"/>
+      <c r="AO46" s="1" t="n"/>
+      <c r="AP46" s="1" t="n"/>
+      <c r="AQ46" s="1" t="n"/>
+      <c r="AR46" s="1" t="n"/>
+      <c r="AS46" s="1" t="n"/>
+      <c r="AT46" s="1" t="n"/>
+      <c r="AU46" s="1" t="n"/>
+      <c r="AV46" s="1" t="n"/>
+      <c r="AW46" s="1" t="n"/>
+      <c r="AX46" s="1" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="6" t="n"/>
+      <c r="C47" s="6" t="n"/>
+      <c r="D47" s="1" t="n"/>
+      <c r="E47" s="1" t="n"/>
+      <c r="F47" s="1" t="n"/>
+      <c r="G47" s="1" t="n"/>
+      <c r="H47" s="1" t="n"/>
+      <c r="I47" s="1" t="n"/>
+      <c r="J47" s="1" t="n"/>
+      <c r="K47" s="1" t="n"/>
+      <c r="L47" s="1" t="n"/>
+      <c r="M47" s="1" t="n"/>
+      <c r="N47" s="1" t="n"/>
+      <c r="O47" s="1" t="n"/>
+      <c r="P47" s="1" t="n"/>
+      <c r="Q47" s="1" t="n"/>
+      <c r="R47" s="1" t="n"/>
+      <c r="S47" s="1" t="n"/>
+      <c r="T47" s="1" t="n"/>
+      <c r="U47" s="1" t="n"/>
+      <c r="V47" s="1" t="n"/>
+      <c r="W47" s="1" t="n"/>
+      <c r="X47" s="1" t="n"/>
+      <c r="Y47" s="1" t="n"/>
+      <c r="Z47" s="1" t="n"/>
+      <c r="AA47" s="1" t="n"/>
+      <c r="AB47" s="1" t="n"/>
+      <c r="AC47" s="1" t="n"/>
+      <c r="AD47" s="1" t="n"/>
+      <c r="AE47" s="1" t="n"/>
+      <c r="AF47" s="1" t="n"/>
+      <c r="AG47" s="1" t="n"/>
+      <c r="AH47" s="1" t="n"/>
+      <c r="AI47" s="1" t="n"/>
+      <c r="AJ47" s="1" t="n"/>
+      <c r="AK47" s="1" t="n"/>
+      <c r="AL47" s="1" t="n"/>
+      <c r="AM47" s="1" t="n"/>
+      <c r="AN47" s="1" t="n"/>
+      <c r="AO47" s="1" t="n"/>
+      <c r="AP47" s="1" t="n"/>
+      <c r="AQ47" s="1" t="n"/>
+      <c r="AR47" s="1" t="n"/>
+      <c r="AS47" s="1" t="n"/>
+      <c r="AT47" s="1" t="n"/>
+      <c r="AU47" s="1" t="n"/>
+      <c r="AV47" s="1" t="n"/>
+      <c r="AW47" s="1" t="n"/>
+      <c r="AX47" s="1" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="6" t="n"/>
+      <c r="C48" s="6" t="n"/>
+      <c r="D48" s="1" t="n"/>
+      <c r="E48" s="1" t="n"/>
+      <c r="F48" s="1" t="n"/>
+      <c r="G48" s="1" t="n"/>
+      <c r="H48" s="1" t="n"/>
+      <c r="I48" s="1" t="n"/>
+      <c r="J48" s="1" t="n"/>
+      <c r="K48" s="1" t="n"/>
+      <c r="L48" s="1" t="n"/>
+      <c r="M48" s="1" t="n"/>
+      <c r="N48" s="1" t="n"/>
+      <c r="O48" s="1" t="n"/>
+      <c r="P48" s="1" t="n"/>
+      <c r="Q48" s="1" t="n"/>
+      <c r="R48" s="1" t="n"/>
+      <c r="S48" s="1" t="n"/>
+      <c r="T48" s="1" t="n"/>
+      <c r="U48" s="1" t="n"/>
+      <c r="V48" s="1" t="n"/>
+      <c r="W48" s="1" t="n"/>
+      <c r="X48" s="1" t="n"/>
+      <c r="Y48" s="1" t="n"/>
+      <c r="Z48" s="1" t="n"/>
+      <c r="AA48" s="1" t="n"/>
+      <c r="AB48" s="1" t="n"/>
+      <c r="AC48" s="1" t="n"/>
+      <c r="AD48" s="1" t="n"/>
+      <c r="AE48" s="1" t="n"/>
+      <c r="AF48" s="1" t="n"/>
+      <c r="AG48" s="1" t="n"/>
+      <c r="AH48" s="1" t="n"/>
+      <c r="AI48" s="1" t="n"/>
+      <c r="AJ48" s="1" t="n"/>
+      <c r="AK48" s="1" t="n"/>
+      <c r="AL48" s="1" t="n"/>
+      <c r="AM48" s="1" t="n"/>
+      <c r="AN48" s="1" t="n"/>
+      <c r="AO48" s="1" t="n"/>
+      <c r="AP48" s="1" t="n"/>
+      <c r="AQ48" s="1" t="n"/>
+      <c r="AR48" s="1" t="n"/>
+      <c r="AS48" s="1" t="n"/>
+      <c r="AT48" s="1" t="n"/>
+      <c r="AU48" s="1" t="n"/>
+      <c r="AV48" s="1" t="n"/>
+      <c r="AW48" s="1" t="n"/>
+      <c r="AX48" s="1" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="6" t="n"/>
+      <c r="C49" s="6" t="n"/>
+      <c r="D49" s="1" t="n"/>
+      <c r="E49" s="1" t="n"/>
+      <c r="F49" s="1" t="n"/>
+      <c r="G49" s="1" t="n"/>
+      <c r="H49" s="1" t="n"/>
+      <c r="I49" s="1" t="n"/>
+      <c r="J49" s="1" t="n"/>
+      <c r="K49" s="1" t="n"/>
+      <c r="L49" s="1" t="n"/>
+      <c r="M49" s="1" t="n"/>
+      <c r="N49" s="1" t="n"/>
+      <c r="O49" s="1" t="n"/>
+      <c r="P49" s="1" t="n"/>
+      <c r="Q49" s="1" t="n"/>
+      <c r="R49" s="1" t="n"/>
+      <c r="S49" s="1" t="n"/>
+      <c r="T49" s="1" t="n"/>
+      <c r="U49" s="1" t="n"/>
+      <c r="V49" s="1" t="n"/>
+      <c r="W49" s="1" t="n"/>
+      <c r="X49" s="1" t="n"/>
+      <c r="Y49" s="1" t="n"/>
+      <c r="Z49" s="1" t="n"/>
+      <c r="AA49" s="1" t="n"/>
+      <c r="AB49" s="1" t="n"/>
+      <c r="AC49" s="1" t="n"/>
+      <c r="AD49" s="1" t="n"/>
+      <c r="AE49" s="1" t="n"/>
+      <c r="AF49" s="1" t="n"/>
+      <c r="AG49" s="1" t="n"/>
+      <c r="AH49" s="1" t="n"/>
+      <c r="AI49" s="1" t="n"/>
+      <c r="AJ49" s="1" t="n"/>
+      <c r="AK49" s="1" t="n"/>
+      <c r="AL49" s="1" t="n"/>
+      <c r="AM49" s="1" t="n"/>
+      <c r="AN49" s="1" t="n"/>
+      <c r="AO49" s="1" t="n"/>
+      <c r="AP49" s="1" t="n"/>
+      <c r="AQ49" s="1" t="n"/>
+      <c r="AR49" s="1" t="n"/>
+      <c r="AS49" s="1" t="n"/>
+      <c r="AT49" s="1" t="n"/>
+      <c r="AU49" s="1" t="n"/>
+      <c r="AV49" s="1" t="n"/>
+      <c r="AW49" s="1" t="n"/>
+      <c r="AX49" s="1" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="6" t="n"/>
+      <c r="C50" s="6" t="n"/>
+      <c r="D50" s="1" t="n"/>
+      <c r="E50" s="1" t="n"/>
+      <c r="F50" s="1" t="n"/>
+      <c r="G50" s="1" t="n"/>
+      <c r="H50" s="1" t="n"/>
+      <c r="I50" s="1" t="n"/>
+      <c r="J50" s="1" t="n"/>
+      <c r="K50" s="1" t="n"/>
+      <c r="L50" s="1" t="n"/>
+      <c r="M50" s="1" t="n"/>
+      <c r="N50" s="1" t="n"/>
+      <c r="O50" s="1" t="n"/>
+      <c r="P50" s="1" t="n"/>
+      <c r="Q50" s="1" t="n"/>
+      <c r="R50" s="1" t="n"/>
+      <c r="S50" s="1" t="n"/>
+      <c r="T50" s="1" t="n"/>
+      <c r="U50" s="1" t="n"/>
+      <c r="V50" s="1" t="n"/>
+      <c r="W50" s="1" t="n"/>
+      <c r="X50" s="1" t="n"/>
+      <c r="Y50" s="1" t="n"/>
+      <c r="Z50" s="1" t="n"/>
+      <c r="AA50" s="1" t="n"/>
+      <c r="AB50" s="1" t="n"/>
+      <c r="AC50" s="1" t="n"/>
+      <c r="AD50" s="1" t="n"/>
+      <c r="AE50" s="1" t="n"/>
+      <c r="AF50" s="1" t="n"/>
+      <c r="AG50" s="1" t="n"/>
+      <c r="AH50" s="1" t="n"/>
+      <c r="AI50" s="1" t="n"/>
+      <c r="AJ50" s="1" t="n"/>
+      <c r="AK50" s="1" t="n"/>
+      <c r="AL50" s="1" t="n"/>
+      <c r="AM50" s="1" t="n"/>
+      <c r="AN50" s="1" t="n"/>
+      <c r="AO50" s="1" t="n"/>
+      <c r="AP50" s="1" t="n"/>
+      <c r="AQ50" s="1" t="n"/>
+      <c r="AR50" s="1" t="n"/>
+      <c r="AS50" s="1" t="n"/>
+      <c r="AT50" s="1" t="n"/>
+      <c r="AU50" s="1" t="n"/>
+      <c r="AV50" s="1" t="n"/>
+      <c r="AW50" s="1" t="n"/>
+      <c r="AX50" s="1" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="6" t="n"/>
+      <c r="C51" s="6" t="n"/>
+      <c r="D51" s="1" t="n"/>
+      <c r="E51" s="1" t="n"/>
+      <c r="F51" s="1" t="n"/>
+      <c r="G51" s="1" t="n"/>
+      <c r="H51" s="1" t="n"/>
+      <c r="I51" s="1" t="n"/>
+      <c r="J51" s="1" t="n"/>
+      <c r="K51" s="1" t="n"/>
+      <c r="L51" s="1" t="n"/>
+      <c r="M51" s="1" t="n"/>
+      <c r="N51" s="1" t="n"/>
+      <c r="O51" s="1" t="n"/>
+      <c r="P51" s="1" t="n"/>
+      <c r="Q51" s="1" t="n"/>
+      <c r="R51" s="1" t="n"/>
+      <c r="S51" s="1" t="n"/>
+      <c r="T51" s="1" t="n"/>
+      <c r="U51" s="1" t="n"/>
+      <c r="V51" s="1" t="n"/>
+      <c r="W51" s="1" t="n"/>
+      <c r="X51" s="1" t="n"/>
+      <c r="Y51" s="1" t="n"/>
+      <c r="Z51" s="1" t="n"/>
+      <c r="AA51" s="1" t="n"/>
+      <c r="AB51" s="1" t="n"/>
+      <c r="AC51" s="1" t="n"/>
+      <c r="AD51" s="1" t="n"/>
+      <c r="AE51" s="1" t="n"/>
+      <c r="AF51" s="1" t="n"/>
+      <c r="AG51" s="1" t="n"/>
+      <c r="AH51" s="1" t="n"/>
+      <c r="AI51" s="1" t="n"/>
+      <c r="AJ51" s="1" t="n"/>
+      <c r="AK51" s="1" t="n"/>
+      <c r="AL51" s="1" t="n"/>
+      <c r="AM51" s="1" t="n"/>
+      <c r="AN51" s="1" t="n"/>
+      <c r="AO51" s="1" t="n"/>
+      <c r="AP51" s="1" t="n"/>
+      <c r="AQ51" s="1" t="n"/>
+      <c r="AR51" s="1" t="n"/>
+      <c r="AS51" s="1" t="n"/>
+      <c r="AT51" s="1" t="n"/>
+      <c r="AU51" s="1" t="n"/>
+      <c r="AV51" s="1" t="n"/>
+      <c r="AW51" s="1" t="n"/>
+      <c r="AX51" s="1" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n"/>
+      <c r="B52" s="6" t="n"/>
+      <c r="C52" s="6" t="n"/>
+      <c r="D52" s="1" t="n"/>
+      <c r="E52" s="1" t="n"/>
+      <c r="F52" s="1" t="n"/>
+      <c r="G52" s="1" t="n"/>
+      <c r="H52" s="1" t="n"/>
+      <c r="I52" s="1" t="n"/>
+      <c r="J52" s="1" t="n"/>
+      <c r="K52" s="1" t="n"/>
+      <c r="L52" s="1" t="n"/>
+      <c r="M52" s="1" t="n"/>
+      <c r="N52" s="1" t="n"/>
+      <c r="O52" s="1" t="n"/>
+      <c r="P52" s="1" t="n"/>
+      <c r="Q52" s="1" t="n"/>
+      <c r="R52" s="1" t="n"/>
+      <c r="S52" s="1" t="n"/>
+      <c r="T52" s="1" t="n"/>
+      <c r="U52" s="1" t="n"/>
+      <c r="V52" s="1" t="n"/>
+      <c r="W52" s="1" t="n"/>
+      <c r="X52" s="1" t="n"/>
+      <c r="Y52" s="1" t="n"/>
+      <c r="Z52" s="1" t="n"/>
+      <c r="AA52" s="1" t="n"/>
+      <c r="AB52" s="1" t="n"/>
+      <c r="AC52" s="1" t="n"/>
+      <c r="AD52" s="1" t="n"/>
+      <c r="AE52" s="1" t="n"/>
+      <c r="AF52" s="1" t="n"/>
+      <c r="AG52" s="1" t="n"/>
+      <c r="AH52" s="1" t="n"/>
+      <c r="AI52" s="1" t="n"/>
+      <c r="AJ52" s="1" t="n"/>
+      <c r="AK52" s="1" t="n"/>
+      <c r="AL52" s="1" t="n"/>
+      <c r="AM52" s="1" t="n"/>
+      <c r="AN52" s="1" t="n"/>
+      <c r="AO52" s="1" t="n"/>
+      <c r="AP52" s="1" t="n"/>
+      <c r="AQ52" s="1" t="n"/>
+      <c r="AR52" s="1" t="n"/>
+      <c r="AS52" s="1" t="n"/>
+      <c r="AT52" s="1" t="n"/>
+      <c r="AU52" s="1" t="n"/>
+      <c r="AV52" s="1" t="n"/>
+      <c r="AW52" s="1" t="n"/>
+      <c r="AX52" s="1" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="6" t="n"/>
+      <c r="C53" s="6" t="n"/>
+      <c r="D53" s="1" t="n"/>
+      <c r="E53" s="1" t="n"/>
+      <c r="F53" s="1" t="n"/>
+      <c r="G53" s="1" t="n"/>
+      <c r="H53" s="1" t="n"/>
+      <c r="I53" s="1" t="n"/>
+      <c r="J53" s="1" t="n"/>
+      <c r="K53" s="1" t="n"/>
+      <c r="L53" s="1" t="n"/>
+      <c r="M53" s="1" t="n"/>
+      <c r="N53" s="1" t="n"/>
+      <c r="O53" s="1" t="n"/>
+      <c r="P53" s="1" t="n"/>
+      <c r="Q53" s="1" t="n"/>
+      <c r="R53" s="1" t="n"/>
+      <c r="S53" s="1" t="n"/>
+      <c r="T53" s="1" t="n"/>
+      <c r="U53" s="1" t="n"/>
+      <c r="V53" s="1" t="n"/>
+      <c r="W53" s="1" t="n"/>
+      <c r="X53" s="1" t="n"/>
+      <c r="Y53" s="1" t="n"/>
+      <c r="Z53" s="1" t="n"/>
+      <c r="AA53" s="1" t="n"/>
+      <c r="AB53" s="1" t="n"/>
+      <c r="AC53" s="1" t="n"/>
+      <c r="AD53" s="1" t="n"/>
+      <c r="AE53" s="1" t="n"/>
+      <c r="AF53" s="1" t="n"/>
+      <c r="AG53" s="1" t="n"/>
+      <c r="AH53" s="1" t="n"/>
+      <c r="AI53" s="1" t="n"/>
+      <c r="AJ53" s="1" t="n"/>
+      <c r="AK53" s="1" t="n"/>
+      <c r="AL53" s="1" t="n"/>
+      <c r="AM53" s="1" t="n"/>
+      <c r="AN53" s="1" t="n"/>
+      <c r="AO53" s="1" t="n"/>
+      <c r="AP53" s="1" t="n"/>
+      <c r="AQ53" s="1" t="n"/>
+      <c r="AR53" s="1" t="n"/>
+      <c r="AS53" s="1" t="n"/>
+      <c r="AT53" s="1" t="n"/>
+      <c r="AU53" s="1" t="n"/>
+      <c r="AV53" s="1" t="n"/>
+      <c r="AW53" s="1" t="n"/>
+      <c r="AX53" s="1" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="6" t="n"/>
+      <c r="C54" s="6" t="n"/>
+      <c r="D54" s="1" t="n"/>
+      <c r="E54" s="1" t="n"/>
+      <c r="F54" s="1" t="n"/>
+      <c r="G54" s="1" t="n"/>
+      <c r="H54" s="1" t="n"/>
+      <c r="I54" s="1" t="n"/>
+      <c r="J54" s="1" t="n"/>
+      <c r="K54" s="1" t="n"/>
+      <c r="L54" s="1" t="n"/>
+      <c r="M54" s="1" t="n"/>
+      <c r="N54" s="1" t="n"/>
+      <c r="O54" s="1" t="n"/>
+      <c r="P54" s="1" t="n"/>
+      <c r="Q54" s="1" t="n"/>
+      <c r="R54" s="1" t="n"/>
+      <c r="S54" s="1" t="n"/>
+      <c r="T54" s="1" t="n"/>
+      <c r="U54" s="1" t="n"/>
+      <c r="V54" s="1" t="n"/>
+      <c r="W54" s="1" t="n"/>
+      <c r="X54" s="1" t="n"/>
+      <c r="Y54" s="1" t="n"/>
+      <c r="Z54" s="1" t="n"/>
+      <c r="AA54" s="1" t="n"/>
+      <c r="AB54" s="1" t="n"/>
+      <c r="AC54" s="1" t="n"/>
+      <c r="AD54" s="1" t="n"/>
+      <c r="AE54" s="1" t="n"/>
+      <c r="AF54" s="1" t="n"/>
+      <c r="AG54" s="1" t="n"/>
+      <c r="AH54" s="1" t="n"/>
+      <c r="AI54" s="1" t="n"/>
+      <c r="AJ54" s="1" t="n"/>
+      <c r="AK54" s="1" t="n"/>
+      <c r="AL54" s="1" t="n"/>
+      <c r="AM54" s="1" t="n"/>
+      <c r="AN54" s="1" t="n"/>
+      <c r="AO54" s="1" t="n"/>
+      <c r="AP54" s="1" t="n"/>
+      <c r="AQ54" s="1" t="n"/>
+      <c r="AR54" s="1" t="n"/>
+      <c r="AS54" s="1" t="n"/>
+      <c r="AT54" s="1" t="n"/>
+      <c r="AU54" s="1" t="n"/>
+      <c r="AV54" s="1" t="n"/>
+      <c r="AW54" s="1" t="n"/>
+      <c r="AX54" s="1" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="6" t="n"/>
+      <c r="C55" s="6" t="n"/>
+      <c r="D55" s="1" t="n"/>
+      <c r="E55" s="1" t="n"/>
+      <c r="F55" s="1" t="n"/>
+      <c r="G55" s="1" t="n"/>
+      <c r="H55" s="1" t="n"/>
+      <c r="I55" s="1" t="n"/>
+      <c r="J55" s="1" t="n"/>
+      <c r="K55" s="1" t="n"/>
+      <c r="L55" s="1" t="n"/>
+      <c r="M55" s="1" t="n"/>
+      <c r="N55" s="1" t="n"/>
+      <c r="O55" s="1" t="n"/>
+      <c r="P55" s="1" t="n"/>
+      <c r="Q55" s="1" t="n"/>
+      <c r="R55" s="1" t="n"/>
+      <c r="S55" s="1" t="n"/>
+      <c r="T55" s="1" t="n"/>
+      <c r="U55" s="1" t="n"/>
+      <c r="V55" s="1" t="n"/>
+      <c r="W55" s="1" t="n"/>
+      <c r="X55" s="1" t="n"/>
+      <c r="Y55" s="1" t="n"/>
+      <c r="Z55" s="1" t="n"/>
+      <c r="AA55" s="1" t="n"/>
+      <c r="AB55" s="1" t="n"/>
+      <c r="AC55" s="1" t="n"/>
+      <c r="AD55" s="1" t="n"/>
+      <c r="AE55" s="1" t="n"/>
+      <c r="AF55" s="1" t="n"/>
+      <c r="AG55" s="1" t="n"/>
+      <c r="AH55" s="1" t="n"/>
+      <c r="AI55" s="1" t="n"/>
+      <c r="AJ55" s="1" t="n"/>
+      <c r="AK55" s="1" t="n"/>
+      <c r="AL55" s="1" t="n"/>
+      <c r="AM55" s="1" t="n"/>
+      <c r="AN55" s="1" t="n"/>
+      <c r="AO55" s="1" t="n"/>
+      <c r="AP55" s="1" t="n"/>
+      <c r="AQ55" s="1" t="n"/>
+      <c r="AR55" s="1" t="n"/>
+      <c r="AS55" s="1" t="n"/>
+      <c r="AT55" s="1" t="n"/>
+      <c r="AU55" s="1" t="n"/>
+      <c r="AV55" s="1" t="n"/>
+      <c r="AW55" s="1" t="n"/>
+      <c r="AX55" s="1" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="6" t="n"/>
+      <c r="C56" s="6" t="n"/>
+      <c r="D56" s="1" t="n"/>
+      <c r="E56" s="1" t="n"/>
+      <c r="F56" s="1" t="n"/>
+      <c r="G56" s="1" t="n"/>
+      <c r="H56" s="1" t="n"/>
+      <c r="I56" s="1" t="n"/>
+      <c r="J56" s="1" t="n"/>
+      <c r="K56" s="1" t="n"/>
+      <c r="L56" s="1" t="n"/>
+      <c r="M56" s="1" t="n"/>
+      <c r="N56" s="1" t="n"/>
+      <c r="O56" s="1" t="n"/>
+      <c r="P56" s="1" t="n"/>
+      <c r="Q56" s="1" t="n"/>
+      <c r="R56" s="1" t="n"/>
+      <c r="S56" s="1" t="n"/>
+      <c r="T56" s="1" t="n"/>
+      <c r="U56" s="1" t="n"/>
+      <c r="V56" s="1" t="n"/>
+      <c r="W56" s="1" t="n"/>
+      <c r="X56" s="1" t="n"/>
+      <c r="Y56" s="1" t="n"/>
+      <c r="Z56" s="1" t="n"/>
+      <c r="AA56" s="1" t="n"/>
+      <c r="AB56" s="1" t="n"/>
+      <c r="AC56" s="1" t="n"/>
+      <c r="AD56" s="1" t="n"/>
+      <c r="AE56" s="1" t="n"/>
+      <c r="AF56" s="1" t="n"/>
+      <c r="AG56" s="1" t="n"/>
+      <c r="AH56" s="1" t="n"/>
+      <c r="AI56" s="1" t="n"/>
+      <c r="AJ56" s="1" t="n"/>
+      <c r="AK56" s="1" t="n"/>
+      <c r="AL56" s="1" t="n"/>
+      <c r="AM56" s="1" t="n"/>
+      <c r="AN56" s="1" t="n"/>
+      <c r="AO56" s="1" t="n"/>
+      <c r="AP56" s="1" t="n"/>
+      <c r="AQ56" s="1" t="n"/>
+      <c r="AR56" s="1" t="n"/>
+      <c r="AS56" s="1" t="n"/>
+      <c r="AT56" s="1" t="n"/>
+      <c r="AU56" s="1" t="n"/>
+      <c r="AV56" s="1" t="n"/>
+      <c r="AW56" s="1" t="n"/>
+      <c r="AX56" s="1" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="6" t="n"/>
+      <c r="C57" s="6" t="n"/>
+      <c r="D57" s="1" t="n"/>
+      <c r="E57" s="1" t="n"/>
+      <c r="F57" s="1" t="n"/>
+      <c r="G57" s="1" t="n"/>
+      <c r="H57" s="1" t="n"/>
+      <c r="I57" s="1" t="n"/>
+      <c r="J57" s="1" t="n"/>
+      <c r="K57" s="1" t="n"/>
+      <c r="L57" s="1" t="n"/>
+      <c r="M57" s="1" t="n"/>
+      <c r="N57" s="1" t="n"/>
+      <c r="O57" s="1" t="n"/>
+      <c r="P57" s="1" t="n"/>
+      <c r="Q57" s="1" t="n"/>
+      <c r="R57" s="1" t="n"/>
+      <c r="S57" s="1" t="n"/>
+      <c r="T57" s="1" t="n"/>
+      <c r="U57" s="1" t="n"/>
+      <c r="V57" s="1" t="n"/>
+      <c r="W57" s="1" t="n"/>
+      <c r="X57" s="1" t="n"/>
+      <c r="Y57" s="1" t="n"/>
+      <c r="Z57" s="1" t="n"/>
+      <c r="AA57" s="1" t="n"/>
+      <c r="AB57" s="1" t="n"/>
+      <c r="AC57" s="1" t="n"/>
+      <c r="AD57" s="1" t="n"/>
+      <c r="AE57" s="1" t="n"/>
+      <c r="AF57" s="1" t="n"/>
+      <c r="AG57" s="1" t="n"/>
+      <c r="AH57" s="1" t="n"/>
+      <c r="AI57" s="1" t="n"/>
+      <c r="AJ57" s="1" t="n"/>
+      <c r="AK57" s="1" t="n"/>
+      <c r="AL57" s="1" t="n"/>
+      <c r="AM57" s="1" t="n"/>
+      <c r="AN57" s="1" t="n"/>
+      <c r="AO57" s="1" t="n"/>
+      <c r="AP57" s="1" t="n"/>
+      <c r="AQ57" s="1" t="n"/>
+      <c r="AR57" s="1" t="n"/>
+      <c r="AS57" s="1" t="n"/>
+      <c r="AT57" s="1" t="n"/>
+      <c r="AU57" s="1" t="n"/>
+      <c r="AV57" s="1" t="n"/>
+      <c r="AW57" s="1" t="n"/>
+      <c r="AX57" s="1" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="6" t="n"/>
+      <c r="C58" s="6" t="n"/>
+      <c r="D58" s="1" t="n"/>
+      <c r="E58" s="1" t="n"/>
+      <c r="F58" s="1" t="n"/>
+      <c r="G58" s="1" t="n"/>
+      <c r="H58" s="1" t="n"/>
+      <c r="I58" s="1" t="n"/>
+      <c r="J58" s="1" t="n"/>
+      <c r="K58" s="1" t="n"/>
+      <c r="L58" s="1" t="n"/>
+      <c r="M58" s="1" t="n"/>
+      <c r="N58" s="1" t="n"/>
+      <c r="O58" s="1" t="n"/>
+      <c r="P58" s="1" t="n"/>
+      <c r="Q58" s="1" t="n"/>
+      <c r="R58" s="1" t="n"/>
+      <c r="S58" s="1" t="n"/>
+      <c r="T58" s="1" t="n"/>
+      <c r="U58" s="1" t="n"/>
+      <c r="V58" s="1" t="n"/>
+      <c r="W58" s="1" t="n"/>
+      <c r="X58" s="1" t="n"/>
+      <c r="Y58" s="1" t="n"/>
+      <c r="Z58" s="1" t="n"/>
+      <c r="AA58" s="1" t="n"/>
+      <c r="AB58" s="1" t="n"/>
+      <c r="AC58" s="1" t="n"/>
+      <c r="AD58" s="1" t="n"/>
+      <c r="AE58" s="1" t="n"/>
+      <c r="AF58" s="1" t="n"/>
+      <c r="AG58" s="1" t="n"/>
+      <c r="AH58" s="1" t="n"/>
+      <c r="AI58" s="1" t="n"/>
+      <c r="AJ58" s="1" t="n"/>
+      <c r="AK58" s="1" t="n"/>
+      <c r="AL58" s="1" t="n"/>
+      <c r="AM58" s="1" t="n"/>
+      <c r="AN58" s="1" t="n"/>
+      <c r="AO58" s="1" t="n"/>
+      <c r="AP58" s="1" t="n"/>
+      <c r="AQ58" s="1" t="n"/>
+      <c r="AR58" s="1" t="n"/>
+      <c r="AS58" s="1" t="n"/>
+      <c r="AT58" s="1" t="n"/>
+      <c r="AU58" s="1" t="n"/>
+      <c r="AV58" s="1" t="n"/>
+      <c r="AW58" s="1" t="n"/>
+      <c r="AX58" s="1" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="6" t="n"/>
+      <c r="C59" s="6" t="n"/>
+      <c r="D59" s="1" t="n"/>
+      <c r="E59" s="1" t="n"/>
+      <c r="F59" s="1" t="n"/>
+      <c r="G59" s="1" t="n"/>
+      <c r="H59" s="1" t="n"/>
+      <c r="I59" s="1" t="n"/>
+      <c r="J59" s="1" t="n"/>
+      <c r="K59" s="1" t="n"/>
+      <c r="L59" s="1" t="n"/>
+      <c r="M59" s="1" t="n"/>
+      <c r="N59" s="1" t="n"/>
+      <c r="O59" s="1" t="n"/>
+      <c r="P59" s="1" t="n"/>
+      <c r="Q59" s="1" t="n"/>
+      <c r="R59" s="1" t="n"/>
+      <c r="S59" s="1" t="n"/>
+      <c r="T59" s="1" t="n"/>
+      <c r="U59" s="1" t="n"/>
+      <c r="V59" s="1" t="n"/>
+      <c r="W59" s="1" t="n"/>
+      <c r="X59" s="1" t="n"/>
+      <c r="Y59" s="1" t="n"/>
+      <c r="Z59" s="1" t="n"/>
+      <c r="AA59" s="1" t="n"/>
+      <c r="AB59" s="1" t="n"/>
+      <c r="AC59" s="1" t="n"/>
+      <c r="AD59" s="1" t="n"/>
+      <c r="AE59" s="1" t="n"/>
+      <c r="AF59" s="1" t="n"/>
+      <c r="AG59" s="1" t="n"/>
+      <c r="AH59" s="1" t="n"/>
+      <c r="AI59" s="1" t="n"/>
+      <c r="AJ59" s="1" t="n"/>
+      <c r="AK59" s="1" t="n"/>
+      <c r="AL59" s="1" t="n"/>
+      <c r="AM59" s="1" t="n"/>
+      <c r="AN59" s="1" t="n"/>
+      <c r="AO59" s="1" t="n"/>
+      <c r="AP59" s="1" t="n"/>
+      <c r="AQ59" s="1" t="n"/>
+      <c r="AR59" s="1" t="n"/>
+      <c r="AS59" s="1" t="n"/>
+      <c r="AT59" s="1" t="n"/>
+      <c r="AU59" s="1" t="n"/>
+      <c r="AV59" s="1" t="n"/>
+      <c r="AW59" s="1" t="n"/>
+      <c r="AX59" s="1" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n"/>
+      <c r="B60" s="6" t="n"/>
+      <c r="C60" s="6" t="n"/>
+      <c r="D60" s="1" t="n"/>
+      <c r="E60" s="1" t="n"/>
+      <c r="F60" s="1" t="n"/>
+      <c r="G60" s="1" t="n"/>
+      <c r="H60" s="1" t="n"/>
+      <c r="I60" s="1" t="n"/>
+      <c r="J60" s="1" t="n"/>
+      <c r="K60" s="1" t="n"/>
+      <c r="L60" s="1" t="n"/>
+      <c r="M60" s="1" t="n"/>
+      <c r="N60" s="1" t="n"/>
+      <c r="O60" s="1" t="n"/>
+      <c r="P60" s="1" t="n"/>
+      <c r="Q60" s="1" t="n"/>
+      <c r="R60" s="1" t="n"/>
+      <c r="S60" s="1" t="n"/>
+      <c r="T60" s="1" t="n"/>
+      <c r="U60" s="1" t="n"/>
+      <c r="V60" s="1" t="n"/>
+      <c r="W60" s="1" t="n"/>
+      <c r="X60" s="1" t="n"/>
+      <c r="Y60" s="1" t="n"/>
+      <c r="Z60" s="1" t="n"/>
+      <c r="AA60" s="1" t="n"/>
+      <c r="AB60" s="1" t="n"/>
+      <c r="AC60" s="1" t="n"/>
+      <c r="AD60" s="1" t="n"/>
+      <c r="AE60" s="1" t="n"/>
+      <c r="AF60" s="1" t="n"/>
+      <c r="AG60" s="1" t="n"/>
+      <c r="AH60" s="1" t="n"/>
+      <c r="AI60" s="1" t="n"/>
+      <c r="AJ60" s="1" t="n"/>
+      <c r="AK60" s="1" t="n"/>
+      <c r="AL60" s="1" t="n"/>
+      <c r="AM60" s="1" t="n"/>
+      <c r="AN60" s="1" t="n"/>
+      <c r="AO60" s="1" t="n"/>
+      <c r="AP60" s="1" t="n"/>
+      <c r="AQ60" s="1" t="n"/>
+      <c r="AR60" s="1" t="n"/>
+      <c r="AS60" s="1" t="n"/>
+      <c r="AT60" s="1" t="n"/>
+      <c r="AU60" s="1" t="n"/>
+      <c r="AV60" s="1" t="n"/>
+      <c r="AW60" s="1" t="n"/>
+      <c r="AX60" s="1" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n"/>
+      <c r="B61" s="6" t="n"/>
+      <c r="C61" s="6" t="n"/>
+      <c r="D61" s="1" t="n"/>
+      <c r="E61" s="1" t="n"/>
+      <c r="F61" s="1" t="n"/>
+      <c r="G61" s="1" t="n"/>
+      <c r="H61" s="1" t="n"/>
+      <c r="I61" s="1" t="n"/>
+      <c r="J61" s="1" t="n"/>
+      <c r="K61" s="1" t="n"/>
+      <c r="L61" s="1" t="n"/>
+      <c r="M61" s="1" t="n"/>
+      <c r="N61" s="1" t="n"/>
+      <c r="O61" s="1" t="n"/>
+      <c r="P61" s="1" t="n"/>
+      <c r="Q61" s="1" t="n"/>
+      <c r="R61" s="1" t="n"/>
+      <c r="S61" s="1" t="n"/>
+      <c r="T61" s="1" t="n"/>
+      <c r="U61" s="1" t="n"/>
+      <c r="V61" s="1" t="n"/>
+      <c r="W61" s="1" t="n"/>
+      <c r="X61" s="1" t="n"/>
+      <c r="Y61" s="1" t="n"/>
+      <c r="Z61" s="1" t="n"/>
+      <c r="AA61" s="1" t="n"/>
+      <c r="AB61" s="1" t="n"/>
+      <c r="AC61" s="1" t="n"/>
+      <c r="AD61" s="1" t="n"/>
+      <c r="AE61" s="1" t="n"/>
+      <c r="AF61" s="1" t="n"/>
+      <c r="AG61" s="1" t="n"/>
+      <c r="AH61" s="1" t="n"/>
+      <c r="AI61" s="1" t="n"/>
+      <c r="AJ61" s="1" t="n"/>
+      <c r="AK61" s="1" t="n"/>
+      <c r="AL61" s="1" t="n"/>
+      <c r="AM61" s="1" t="n"/>
+      <c r="AN61" s="1" t="n"/>
+      <c r="AO61" s="1" t="n"/>
+      <c r="AP61" s="1" t="n"/>
+      <c r="AQ61" s="1" t="n"/>
+      <c r="AR61" s="1" t="n"/>
+      <c r="AS61" s="1" t="n"/>
+      <c r="AT61" s="1" t="n"/>
+      <c r="AU61" s="1" t="n"/>
+      <c r="AV61" s="1" t="n"/>
+      <c r="AW61" s="1" t="n"/>
+      <c r="AX61" s="1" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n"/>
+      <c r="B62" s="6" t="n"/>
+      <c r="C62" s="6" t="n"/>
+      <c r="D62" s="1" t="n"/>
+      <c r="E62" s="1" t="n"/>
+      <c r="F62" s="1" t="n"/>
+      <c r="G62" s="1" t="n"/>
+      <c r="H62" s="1" t="n"/>
+      <c r="I62" s="1" t="n"/>
+      <c r="J62" s="1" t="n"/>
+      <c r="K62" s="1" t="n"/>
+      <c r="L62" s="1" t="n"/>
+      <c r="M62" s="1" t="n"/>
+      <c r="N62" s="1" t="n"/>
+      <c r="O62" s="1" t="n"/>
+      <c r="P62" s="1" t="n"/>
+      <c r="Q62" s="1" t="n"/>
+      <c r="R62" s="1" t="n"/>
+      <c r="S62" s="1" t="n"/>
+      <c r="T62" s="1" t="n"/>
+      <c r="U62" s="1" t="n"/>
+      <c r="V62" s="1" t="n"/>
+      <c r="W62" s="1" t="n"/>
+      <c r="X62" s="1" t="n"/>
+      <c r="Y62" s="1" t="n"/>
+      <c r="Z62" s="1" t="n"/>
+      <c r="AA62" s="1" t="n"/>
+      <c r="AB62" s="1" t="n"/>
+      <c r="AC62" s="1" t="n"/>
+      <c r="AD62" s="1" t="n"/>
+      <c r="AE62" s="1" t="n"/>
+      <c r="AF62" s="1" t="n"/>
+      <c r="AG62" s="1" t="n"/>
+      <c r="AH62" s="1" t="n"/>
+      <c r="AI62" s="1" t="n"/>
+      <c r="AJ62" s="1" t="n"/>
+      <c r="AK62" s="1" t="n"/>
+      <c r="AL62" s="1" t="n"/>
+      <c r="AM62" s="1" t="n"/>
+      <c r="AN62" s="1" t="n"/>
+      <c r="AO62" s="1" t="n"/>
+      <c r="AP62" s="1" t="n"/>
+      <c r="AQ62" s="1" t="n"/>
+      <c r="AR62" s="1" t="n"/>
+      <c r="AS62" s="1" t="n"/>
+      <c r="AT62" s="1" t="n"/>
+      <c r="AU62" s="1" t="n"/>
+      <c r="AV62" s="1" t="n"/>
+      <c r="AW62" s="1" t="n"/>
+      <c r="AX62" s="1" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n"/>
+      <c r="B63" s="6" t="n"/>
+      <c r="C63" s="6" t="n"/>
+      <c r="D63" s="1" t="n"/>
+      <c r="E63" s="1" t="n"/>
+      <c r="F63" s="1" t="n"/>
+      <c r="G63" s="1" t="n"/>
+      <c r="H63" s="1" t="n"/>
+      <c r="I63" s="1" t="n"/>
+      <c r="J63" s="1" t="n"/>
+      <c r="K63" s="1" t="n"/>
+      <c r="L63" s="1" t="n"/>
+      <c r="M63" s="1" t="n"/>
+      <c r="N63" s="1" t="n"/>
+      <c r="O63" s="1" t="n"/>
+      <c r="P63" s="1" t="n"/>
+      <c r="Q63" s="1" t="n"/>
+      <c r="R63" s="1" t="n"/>
+      <c r="S63" s="1" t="n"/>
+      <c r="T63" s="1" t="n"/>
+      <c r="U63" s="1" t="n"/>
+      <c r="V63" s="1" t="n"/>
+      <c r="W63" s="1" t="n"/>
+      <c r="X63" s="1" t="n"/>
+      <c r="Y63" s="1" t="n"/>
+      <c r="Z63" s="1" t="n"/>
+      <c r="AA63" s="1" t="n"/>
+      <c r="AB63" s="1" t="n"/>
+      <c r="AC63" s="1" t="n"/>
+      <c r="AD63" s="1" t="n"/>
+      <c r="AE63" s="1" t="n"/>
+      <c r="AF63" s="1" t="n"/>
+      <c r="AG63" s="1" t="n"/>
+      <c r="AH63" s="1" t="n"/>
+      <c r="AI63" s="1" t="n"/>
+      <c r="AJ63" s="1" t="n"/>
+      <c r="AK63" s="1" t="n"/>
+      <c r="AL63" s="1" t="n"/>
+      <c r="AM63" s="1" t="n"/>
+      <c r="AN63" s="1" t="n"/>
+      <c r="AO63" s="1" t="n"/>
+      <c r="AP63" s="1" t="n"/>
+      <c r="AQ63" s="1" t="n"/>
+      <c r="AR63" s="1" t="n"/>
+      <c r="AS63" s="1" t="n"/>
+      <c r="AT63" s="1" t="n"/>
+      <c r="AU63" s="1" t="n"/>
+      <c r="AV63" s="1" t="n"/>
+      <c r="AW63" s="1" t="n"/>
+      <c r="AX63" s="1" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n"/>
+      <c r="B64" s="6" t="n"/>
+      <c r="C64" s="6" t="n"/>
+      <c r="D64" s="1" t="n"/>
+      <c r="E64" s="1" t="n"/>
+      <c r="F64" s="1" t="n"/>
+      <c r="G64" s="1" t="n"/>
+      <c r="H64" s="1" t="n"/>
+      <c r="I64" s="1" t="n"/>
+      <c r="J64" s="1" t="n"/>
+      <c r="K64" s="1" t="n"/>
+      <c r="L64" s="1" t="n"/>
+      <c r="M64" s="1" t="n"/>
+      <c r="N64" s="1" t="n"/>
+      <c r="O64" s="1" t="n"/>
+      <c r="P64" s="1" t="n"/>
+      <c r="Q64" s="1" t="n"/>
+      <c r="R64" s="1" t="n"/>
+      <c r="S64" s="1" t="n"/>
+      <c r="T64" s="1" t="n"/>
+      <c r="U64" s="1" t="n"/>
+      <c r="V64" s="1" t="n"/>
+      <c r="W64" s="1" t="n"/>
+      <c r="X64" s="1" t="n"/>
+      <c r="Y64" s="1" t="n"/>
+      <c r="Z64" s="1" t="n"/>
+      <c r="AA64" s="1" t="n"/>
+      <c r="AB64" s="1" t="n"/>
+      <c r="AC64" s="1" t="n"/>
+      <c r="AD64" s="1" t="n"/>
+      <c r="AE64" s="1" t="n"/>
+      <c r="AF64" s="1" t="n"/>
+      <c r="AG64" s="1" t="n"/>
+      <c r="AH64" s="1" t="n"/>
+      <c r="AI64" s="1" t="n"/>
+      <c r="AJ64" s="1" t="n"/>
+      <c r="AK64" s="1" t="n"/>
+      <c r="AL64" s="1" t="n"/>
+      <c r="AM64" s="1" t="n"/>
+      <c r="AN64" s="1" t="n"/>
+      <c r="AO64" s="1" t="n"/>
+      <c r="AP64" s="1" t="n"/>
+      <c r="AQ64" s="1" t="n"/>
+      <c r="AR64" s="1" t="n"/>
+      <c r="AS64" s="1" t="n"/>
+      <c r="AT64" s="1" t="n"/>
+      <c r="AU64" s="1" t="n"/>
+      <c r="AV64" s="1" t="n"/>
+      <c r="AW64" s="1" t="n"/>
+      <c r="AX64" s="1" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n"/>
+      <c r="B65" s="6" t="n"/>
+      <c r="C65" s="6" t="n"/>
+      <c r="D65" s="1" t="n"/>
+      <c r="E65" s="1" t="n"/>
+      <c r="F65" s="1" t="n"/>
+      <c r="G65" s="1" t="n"/>
+      <c r="H65" s="1" t="n"/>
+      <c r="I65" s="1" t="n"/>
+      <c r="J65" s="1" t="n"/>
+      <c r="K65" s="1" t="n"/>
+      <c r="L65" s="1" t="n"/>
+      <c r="M65" s="1" t="n"/>
+      <c r="N65" s="1" t="n"/>
+      <c r="O65" s="1" t="n"/>
+      <c r="P65" s="1" t="n"/>
+      <c r="Q65" s="1" t="n"/>
+      <c r="R65" s="1" t="n"/>
+      <c r="S65" s="1" t="n"/>
+      <c r="T65" s="1" t="n"/>
+      <c r="U65" s="1" t="n"/>
+      <c r="V65" s="1" t="n"/>
+      <c r="W65" s="1" t="n"/>
+      <c r="X65" s="1" t="n"/>
+      <c r="Y65" s="1" t="n"/>
+      <c r="Z65" s="1" t="n"/>
+      <c r="AA65" s="1" t="n"/>
+      <c r="AB65" s="1" t="n"/>
+      <c r="AC65" s="1" t="n"/>
+      <c r="AD65" s="1" t="n"/>
+      <c r="AE65" s="1" t="n"/>
+      <c r="AF65" s="1" t="n"/>
+      <c r="AG65" s="1" t="n"/>
+      <c r="AH65" s="1" t="n"/>
+      <c r="AI65" s="1" t="n"/>
+      <c r="AJ65" s="1" t="n"/>
+      <c r="AK65" s="1" t="n"/>
+      <c r="AL65" s="1" t="n"/>
+      <c r="AM65" s="1" t="n"/>
+      <c r="AN65" s="1" t="n"/>
+      <c r="AO65" s="1" t="n"/>
+      <c r="AP65" s="1" t="n"/>
+      <c r="AQ65" s="1" t="n"/>
+      <c r="AR65" s="1" t="n"/>
+      <c r="AS65" s="1" t="n"/>
+      <c r="AT65" s="1" t="n"/>
+      <c r="AU65" s="1" t="n"/>
+      <c r="AV65" s="1" t="n"/>
+      <c r="AW65" s="1" t="n"/>
+      <c r="AX65" s="1" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n"/>
+      <c r="B66" s="6" t="n"/>
+      <c r="C66" s="6" t="n"/>
+      <c r="D66" s="1" t="n"/>
+      <c r="E66" s="1" t="n"/>
+      <c r="F66" s="1" t="n"/>
+      <c r="G66" s="1" t="n"/>
+      <c r="H66" s="1" t="n"/>
+      <c r="I66" s="1" t="n"/>
+      <c r="J66" s="1" t="n"/>
+      <c r="K66" s="1" t="n"/>
+      <c r="L66" s="1" t="n"/>
+      <c r="M66" s="1" t="n"/>
+      <c r="N66" s="1" t="n"/>
+      <c r="O66" s="1" t="n"/>
+      <c r="P66" s="1" t="n"/>
+      <c r="Q66" s="1" t="n"/>
+      <c r="R66" s="1" t="n"/>
+      <c r="S66" s="1" t="n"/>
+      <c r="T66" s="1" t="n"/>
+      <c r="U66" s="1" t="n"/>
+      <c r="V66" s="1" t="n"/>
+      <c r="W66" s="1" t="n"/>
+      <c r="X66" s="1" t="n"/>
+      <c r="Y66" s="1" t="n"/>
+      <c r="Z66" s="1" t="n"/>
+      <c r="AA66" s="1" t="n"/>
+      <c r="AB66" s="1" t="n"/>
+      <c r="AC66" s="1" t="n"/>
+      <c r="AD66" s="1" t="n"/>
+      <c r="AE66" s="1" t="n"/>
+      <c r="AF66" s="1" t="n"/>
+      <c r="AG66" s="1" t="n"/>
+      <c r="AH66" s="1" t="n"/>
+      <c r="AI66" s="1" t="n"/>
+      <c r="AJ66" s="1" t="n"/>
+      <c r="AK66" s="1" t="n"/>
+      <c r="AL66" s="1" t="n"/>
+      <c r="AM66" s="1" t="n"/>
+      <c r="AN66" s="1" t="n"/>
+      <c r="AO66" s="1" t="n"/>
+      <c r="AP66" s="1" t="n"/>
+      <c r="AQ66" s="1" t="n"/>
+      <c r="AR66" s="1" t="n"/>
+      <c r="AS66" s="1" t="n"/>
+      <c r="AT66" s="1" t="n"/>
+      <c r="AU66" s="1" t="n"/>
+      <c r="AV66" s="1" t="n"/>
+      <c r="AW66" s="1" t="n"/>
+      <c r="AX66" s="1" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n"/>
+      <c r="B67" s="6" t="n"/>
+      <c r="C67" s="6" t="n"/>
+      <c r="D67" s="1" t="n"/>
+      <c r="E67" s="1" t="n"/>
+      <c r="F67" s="1" t="n"/>
+      <c r="G67" s="1" t="n"/>
+      <c r="H67" s="1" t="n"/>
+      <c r="I67" s="1" t="n"/>
+      <c r="J67" s="1" t="n"/>
+      <c r="K67" s="1" t="n"/>
+      <c r="L67" s="1" t="n"/>
+      <c r="M67" s="1" t="n"/>
+      <c r="N67" s="1" t="n"/>
+      <c r="O67" s="1" t="n"/>
+      <c r="P67" s="1" t="n"/>
+      <c r="Q67" s="1" t="n"/>
+      <c r="R67" s="1" t="n"/>
+      <c r="S67" s="1" t="n"/>
+      <c r="T67" s="1" t="n"/>
+      <c r="U67" s="1" t="n"/>
+      <c r="V67" s="1" t="n"/>
+      <c r="W67" s="1" t="n"/>
+      <c r="X67" s="1" t="n"/>
+      <c r="Y67" s="1" t="n"/>
+      <c r="Z67" s="1" t="n"/>
+      <c r="AA67" s="1" t="n"/>
+      <c r="AB67" s="1" t="n"/>
+      <c r="AC67" s="1" t="n"/>
+      <c r="AD67" s="1" t="n"/>
+      <c r="AE67" s="1" t="n"/>
+      <c r="AF67" s="1" t="n"/>
+      <c r="AG67" s="1" t="n"/>
+      <c r="AH67" s="1" t="n"/>
+      <c r="AI67" s="1" t="n"/>
+      <c r="AJ67" s="1" t="n"/>
+      <c r="AK67" s="1" t="n"/>
+      <c r="AL67" s="1" t="n"/>
+      <c r="AM67" s="1" t="n"/>
+      <c r="AN67" s="1" t="n"/>
+      <c r="AO67" s="1" t="n"/>
+      <c r="AP67" s="1" t="n"/>
+      <c r="AQ67" s="1" t="n"/>
+      <c r="AR67" s="1" t="n"/>
+      <c r="AS67" s="1" t="n"/>
+      <c r="AT67" s="1" t="n"/>
+      <c r="AU67" s="1" t="n"/>
+      <c r="AV67" s="1" t="n"/>
+      <c r="AW67" s="1" t="n"/>
+      <c r="AX67" s="1" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n"/>
+      <c r="B68" s="6" t="n"/>
+      <c r="C68" s="6" t="n"/>
+      <c r="D68" s="1" t="n"/>
+      <c r="E68" s="1" t="n"/>
+      <c r="F68" s="1" t="n"/>
+      <c r="G68" s="1" t="n"/>
+      <c r="H68" s="1" t="n"/>
+      <c r="I68" s="1" t="n"/>
+      <c r="J68" s="1" t="n"/>
+      <c r="K68" s="1" t="n"/>
+      <c r="L68" s="1" t="n"/>
+      <c r="M68" s="1" t="n"/>
+      <c r="N68" s="1" t="n"/>
+      <c r="O68" s="1" t="n"/>
+      <c r="P68" s="1" t="n"/>
+      <c r="Q68" s="1" t="n"/>
+      <c r="R68" s="1" t="n"/>
+      <c r="S68" s="1" t="n"/>
+      <c r="T68" s="1" t="n"/>
+      <c r="U68" s="1" t="n"/>
+      <c r="V68" s="1" t="n"/>
+      <c r="W68" s="1" t="n"/>
+      <c r="X68" s="1" t="n"/>
+      <c r="Y68" s="1" t="n"/>
+      <c r="Z68" s="1" t="n"/>
+      <c r="AA68" s="1" t="n"/>
+      <c r="AB68" s="1" t="n"/>
+      <c r="AC68" s="1" t="n"/>
+      <c r="AD68" s="1" t="n"/>
+      <c r="AE68" s="1" t="n"/>
+      <c r="AF68" s="1" t="n"/>
+      <c r="AG68" s="1" t="n"/>
+      <c r="AH68" s="1" t="n"/>
+      <c r="AI68" s="1" t="n"/>
+      <c r="AJ68" s="1" t="n"/>
+      <c r="AK68" s="1" t="n"/>
+      <c r="AL68" s="1" t="n"/>
+      <c r="AM68" s="1" t="n"/>
+      <c r="AN68" s="1" t="n"/>
+      <c r="AO68" s="1" t="n"/>
+      <c r="AP68" s="1" t="n"/>
+      <c r="AQ68" s="1" t="n"/>
+      <c r="AR68" s="1" t="n"/>
+      <c r="AS68" s="1" t="n"/>
+      <c r="AT68" s="1" t="n"/>
+      <c r="AU68" s="1" t="n"/>
+      <c r="AV68" s="1" t="n"/>
+      <c r="AW68" s="1" t="n"/>
+      <c r="AX68" s="1" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n"/>
+      <c r="B69" s="6" t="n"/>
+      <c r="C69" s="6" t="n"/>
+      <c r="D69" s="1" t="n"/>
+      <c r="E69" s="1" t="n"/>
+      <c r="F69" s="1" t="n"/>
+      <c r="G69" s="1" t="n"/>
+      <c r="H69" s="1" t="n"/>
+      <c r="I69" s="1" t="n"/>
+      <c r="J69" s="1" t="n"/>
+      <c r="K69" s="1" t="n"/>
+      <c r="L69" s="1" t="n"/>
+      <c r="M69" s="1" t="n"/>
+      <c r="N69" s="1" t="n"/>
+      <c r="O69" s="1" t="n"/>
+      <c r="P69" s="1" t="n"/>
+      <c r="Q69" s="1" t="n"/>
+      <c r="R69" s="1" t="n"/>
+      <c r="S69" s="1" t="n"/>
+      <c r="T69" s="1" t="n"/>
+      <c r="U69" s="1" t="n"/>
+      <c r="V69" s="1" t="n"/>
+      <c r="W69" s="1" t="n"/>
+      <c r="X69" s="1" t="n"/>
+      <c r="Y69" s="1" t="n"/>
+      <c r="Z69" s="1" t="n"/>
+      <c r="AA69" s="1" t="n"/>
+      <c r="AB69" s="1" t="n"/>
+      <c r="AC69" s="1" t="n"/>
+      <c r="AD69" s="1" t="n"/>
+      <c r="AE69" s="1" t="n"/>
+      <c r="AF69" s="1" t="n"/>
+      <c r="AG69" s="1" t="n"/>
+      <c r="AH69" s="1" t="n"/>
+      <c r="AI69" s="1" t="n"/>
+      <c r="AJ69" s="1" t="n"/>
+      <c r="AK69" s="1" t="n"/>
+      <c r="AL69" s="1" t="n"/>
+      <c r="AM69" s="1" t="n"/>
+      <c r="AN69" s="1" t="n"/>
+      <c r="AO69" s="1" t="n"/>
+      <c r="AP69" s="1" t="n"/>
+      <c r="AQ69" s="1" t="n"/>
+      <c r="AR69" s="1" t="n"/>
+      <c r="AS69" s="1" t="n"/>
+      <c r="AT69" s="1" t="n"/>
+      <c r="AU69" s="1" t="n"/>
+      <c r="AV69" s="1" t="n"/>
+      <c r="AW69" s="1" t="n"/>
+      <c r="AX69" s="1" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n"/>
+      <c r="B70" s="6" t="n"/>
+      <c r="C70" s="6" t="n"/>
+      <c r="D70" s="1" t="n"/>
+      <c r="E70" s="1" t="n"/>
+      <c r="F70" s="1" t="n"/>
+      <c r="G70" s="1" t="n"/>
+      <c r="H70" s="1" t="n"/>
+      <c r="I70" s="1" t="n"/>
+      <c r="J70" s="1" t="n"/>
+      <c r="K70" s="1" t="n"/>
+      <c r="L70" s="1" t="n"/>
+      <c r="M70" s="1" t="n"/>
+      <c r="N70" s="1" t="n"/>
+      <c r="O70" s="1" t="n"/>
+      <c r="P70" s="1" t="n"/>
+      <c r="Q70" s="1" t="n"/>
+      <c r="R70" s="1" t="n"/>
+      <c r="S70" s="1" t="n"/>
+      <c r="T70" s="1" t="n"/>
+      <c r="U70" s="1" t="n"/>
+      <c r="V70" s="1" t="n"/>
+      <c r="W70" s="1" t="n"/>
+      <c r="X70" s="1" t="n"/>
+      <c r="Y70" s="1" t="n"/>
+      <c r="Z70" s="1" t="n"/>
+      <c r="AA70" s="1" t="n"/>
+      <c r="AB70" s="1" t="n"/>
+      <c r="AC70" s="1" t="n"/>
+      <c r="AD70" s="1" t="n"/>
+      <c r="AE70" s="1" t="n"/>
+      <c r="AF70" s="1" t="n"/>
+      <c r="AG70" s="1" t="n"/>
+      <c r="AH70" s="1" t="n"/>
+      <c r="AI70" s="1" t="n"/>
+      <c r="AJ70" s="1" t="n"/>
+      <c r="AK70" s="1" t="n"/>
+      <c r="AL70" s="1" t="n"/>
+      <c r="AM70" s="1" t="n"/>
+      <c r="AN70" s="1" t="n"/>
+      <c r="AO70" s="1" t="n"/>
+      <c r="AP70" s="1" t="n"/>
+      <c r="AQ70" s="1" t="n"/>
+      <c r="AR70" s="1" t="n"/>
+      <c r="AS70" s="1" t="n"/>
+      <c r="AT70" s="1" t="n"/>
+      <c r="AU70" s="1" t="n"/>
+      <c r="AV70" s="1" t="n"/>
+      <c r="AW70" s="1" t="n"/>
+      <c r="AX70" s="1" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n"/>
+      <c r="B71" s="6" t="n"/>
+      <c r="C71" s="6" t="n"/>
+      <c r="D71" s="1" t="n"/>
+      <c r="E71" s="1" t="n"/>
+      <c r="F71" s="1" t="n"/>
+      <c r="G71" s="1" t="n"/>
+      <c r="H71" s="1" t="n"/>
+      <c r="I71" s="1" t="n"/>
+      <c r="J71" s="1" t="n"/>
+      <c r="K71" s="1" t="n"/>
+      <c r="L71" s="1" t="n"/>
+      <c r="M71" s="1" t="n"/>
+      <c r="N71" s="1" t="n"/>
+      <c r="O71" s="1" t="n"/>
+      <c r="P71" s="1" t="n"/>
+      <c r="Q71" s="1" t="n"/>
+      <c r="R71" s="1" t="n"/>
+      <c r="S71" s="1" t="n"/>
+      <c r="T71" s="1" t="n"/>
+      <c r="U71" s="1" t="n"/>
+      <c r="V71" s="1" t="n"/>
+      <c r="W71" s="1" t="n"/>
+      <c r="X71" s="1" t="n"/>
+      <c r="Y71" s="1" t="n"/>
+      <c r="Z71" s="1" t="n"/>
+      <c r="AA71" s="1" t="n"/>
+      <c r="AB71" s="1" t="n"/>
+      <c r="AC71" s="1" t="n"/>
+      <c r="AD71" s="1" t="n"/>
+      <c r="AE71" s="1" t="n"/>
+      <c r="AF71" s="1" t="n"/>
+      <c r="AG71" s="1" t="n"/>
+      <c r="AH71" s="1" t="n"/>
+      <c r="AI71" s="1" t="n"/>
+      <c r="AJ71" s="1" t="n"/>
+      <c r="AK71" s="1" t="n"/>
+      <c r="AL71" s="1" t="n"/>
+      <c r="AM71" s="1" t="n"/>
+      <c r="AN71" s="1" t="n"/>
+      <c r="AO71" s="1" t="n"/>
+      <c r="AP71" s="1" t="n"/>
+      <c r="AQ71" s="1" t="n"/>
+      <c r="AR71" s="1" t="n"/>
+      <c r="AS71" s="1" t="n"/>
+      <c r="AT71" s="1" t="n"/>
+      <c r="AU71" s="1" t="n"/>
+      <c r="AV71" s="1" t="n"/>
+      <c r="AW71" s="1" t="n"/>
+      <c r="AX71" s="1" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n"/>
+      <c r="B72" s="6" t="n"/>
+      <c r="C72" s="6" t="n"/>
+      <c r="D72" s="1" t="n"/>
+      <c r="E72" s="1" t="n"/>
+      <c r="F72" s="1" t="n"/>
+      <c r="G72" s="1" t="n"/>
+      <c r="H72" s="1" t="n"/>
+      <c r="I72" s="1" t="n"/>
+      <c r="J72" s="1" t="n"/>
+      <c r="K72" s="1" t="n"/>
+      <c r="L72" s="1" t="n"/>
+      <c r="M72" s="1" t="n"/>
+      <c r="N72" s="1" t="n"/>
+      <c r="O72" s="1" t="n"/>
+      <c r="P72" s="1" t="n"/>
+      <c r="Q72" s="1" t="n"/>
+      <c r="R72" s="1" t="n"/>
+      <c r="S72" s="1" t="n"/>
+      <c r="T72" s="1" t="n"/>
+      <c r="U72" s="1" t="n"/>
+      <c r="V72" s="1" t="n"/>
+      <c r="W72" s="1" t="n"/>
+      <c r="X72" s="1" t="n"/>
+      <c r="Y72" s="1" t="n"/>
+      <c r="Z72" s="1" t="n"/>
+      <c r="AA72" s="1" t="n"/>
+      <c r="AB72" s="1" t="n"/>
+      <c r="AC72" s="1" t="n"/>
+      <c r="AD72" s="1" t="n"/>
+      <c r="AE72" s="1" t="n"/>
+      <c r="AF72" s="1" t="n"/>
+      <c r="AG72" s="1" t="n"/>
+      <c r="AH72" s="1" t="n"/>
+      <c r="AI72" s="1" t="n"/>
+      <c r="AJ72" s="1" t="n"/>
+      <c r="AK72" s="1" t="n"/>
+      <c r="AL72" s="1" t="n"/>
+      <c r="AM72" s="1" t="n"/>
+      <c r="AN72" s="1" t="n"/>
+      <c r="AO72" s="1" t="n"/>
+      <c r="AP72" s="1" t="n"/>
+      <c r="AQ72" s="1" t="n"/>
+      <c r="AR72" s="1" t="n"/>
+      <c r="AS72" s="1" t="n"/>
+      <c r="AT72" s="1" t="n"/>
+      <c r="AU72" s="1" t="n"/>
+      <c r="AV72" s="1" t="n"/>
+      <c r="AW72" s="1" t="n"/>
+      <c r="AX72" s="1" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n"/>
+      <c r="B73" s="6" t="n"/>
+      <c r="C73" s="6" t="n"/>
+      <c r="D73" s="1" t="n"/>
+      <c r="E73" s="1" t="n"/>
+      <c r="F73" s="1" t="n"/>
+      <c r="G73" s="1" t="n"/>
+      <c r="H73" s="1" t="n"/>
+      <c r="I73" s="1" t="n"/>
+      <c r="J73" s="1" t="n"/>
+      <c r="K73" s="1" t="n"/>
+      <c r="L73" s="1" t="n"/>
+      <c r="M73" s="1" t="n"/>
+      <c r="N73" s="1" t="n"/>
+      <c r="O73" s="1" t="n"/>
+      <c r="P73" s="1" t="n"/>
+      <c r="Q73" s="1" t="n"/>
+      <c r="R73" s="1" t="n"/>
+      <c r="S73" s="1" t="n"/>
+      <c r="T73" s="1" t="n"/>
+      <c r="U73" s="1" t="n"/>
+      <c r="V73" s="1" t="n"/>
+      <c r="W73" s="1" t="n"/>
+      <c r="X73" s="1" t="n"/>
+      <c r="Y73" s="1" t="n"/>
+      <c r="Z73" s="1" t="n"/>
+      <c r="AA73" s="1" t="n"/>
+      <c r="AB73" s="1" t="n"/>
+      <c r="AC73" s="1" t="n"/>
+      <c r="AD73" s="1" t="n"/>
+      <c r="AE73" s="1" t="n"/>
+      <c r="AF73" s="1" t="n"/>
+      <c r="AG73" s="1" t="n"/>
+      <c r="AH73" s="1" t="n"/>
+      <c r="AI73" s="1" t="n"/>
+      <c r="AJ73" s="1" t="n"/>
+      <c r="AK73" s="1" t="n"/>
+      <c r="AL73" s="1" t="n"/>
+      <c r="AM73" s="1" t="n"/>
+      <c r="AN73" s="1" t="n"/>
+      <c r="AO73" s="1" t="n"/>
+      <c r="AP73" s="1" t="n"/>
+      <c r="AQ73" s="1" t="n"/>
+      <c r="AR73" s="1" t="n"/>
+      <c r="AS73" s="1" t="n"/>
+      <c r="AT73" s="1" t="n"/>
+      <c r="AU73" s="1" t="n"/>
+      <c r="AV73" s="1" t="n"/>
+      <c r="AW73" s="1" t="n"/>
+      <c r="AX73" s="1" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n"/>
+      <c r="B74" s="6" t="n"/>
+      <c r="C74" s="6" t="n"/>
+      <c r="D74" s="1" t="n"/>
+      <c r="E74" s="1" t="n"/>
+      <c r="F74" s="1" t="n"/>
+      <c r="G74" s="1" t="n"/>
+      <c r="H74" s="1" t="n"/>
+      <c r="I74" s="1" t="n"/>
+      <c r="J74" s="1" t="n"/>
+      <c r="K74" s="1" t="n"/>
+      <c r="L74" s="1" t="n"/>
+      <c r="M74" s="1" t="n"/>
+      <c r="N74" s="1" t="n"/>
+      <c r="O74" s="1" t="n"/>
+      <c r="P74" s="1" t="n"/>
+      <c r="Q74" s="1" t="n"/>
+      <c r="R74" s="1" t="n"/>
+      <c r="S74" s="1" t="n"/>
+      <c r="T74" s="1" t="n"/>
+      <c r="U74" s="1" t="n"/>
+      <c r="V74" s="1" t="n"/>
+      <c r="W74" s="1" t="n"/>
+      <c r="X74" s="1" t="n"/>
+      <c r="Y74" s="1" t="n"/>
+      <c r="Z74" s="1" t="n"/>
+      <c r="AA74" s="1" t="n"/>
+      <c r="AB74" s="1" t="n"/>
+      <c r="AC74" s="1" t="n"/>
+      <c r="AD74" s="1" t="n"/>
+      <c r="AE74" s="1" t="n"/>
+      <c r="AF74" s="1" t="n"/>
+      <c r="AG74" s="1" t="n"/>
+      <c r="AH74" s="1" t="n"/>
+      <c r="AI74" s="1" t="n"/>
+      <c r="AJ74" s="1" t="n"/>
+      <c r="AK74" s="1" t="n"/>
+      <c r="AL74" s="1" t="n"/>
+      <c r="AM74" s="1" t="n"/>
+      <c r="AN74" s="1" t="n"/>
+      <c r="AO74" s="1" t="n"/>
+      <c r="AP74" s="1" t="n"/>
+      <c r="AQ74" s="1" t="n"/>
+      <c r="AR74" s="1" t="n"/>
+      <c r="AS74" s="1" t="n"/>
+      <c r="AT74" s="1" t="n"/>
+      <c r="AU74" s="1" t="n"/>
+      <c r="AV74" s="1" t="n"/>
+      <c r="AW74" s="1" t="n"/>
+      <c r="AX74" s="1" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n"/>
+      <c r="B75" s="6" t="n"/>
+      <c r="C75" s="6" t="n"/>
+      <c r="D75" s="1" t="n"/>
+      <c r="E75" s="1" t="n"/>
+      <c r="F75" s="1" t="n"/>
+      <c r="G75" s="1" t="n"/>
+      <c r="H75" s="1" t="n"/>
+      <c r="I75" s="1" t="n"/>
+      <c r="J75" s="1" t="n"/>
+      <c r="K75" s="1" t="n"/>
+      <c r="L75" s="1" t="n"/>
+      <c r="M75" s="1" t="n"/>
+      <c r="N75" s="1" t="n"/>
+      <c r="O75" s="1" t="n"/>
+      <c r="P75" s="1" t="n"/>
+      <c r="Q75" s="1" t="n"/>
+      <c r="R75" s="1" t="n"/>
+      <c r="S75" s="1" t="n"/>
+      <c r="T75" s="1" t="n"/>
+      <c r="U75" s="1" t="n"/>
+      <c r="V75" s="1" t="n"/>
+      <c r="W75" s="1" t="n"/>
+      <c r="X75" s="1" t="n"/>
+      <c r="Y75" s="1" t="n"/>
+      <c r="Z75" s="1" t="n"/>
+      <c r="AA75" s="1" t="n"/>
+      <c r="AB75" s="1" t="n"/>
+      <c r="AC75" s="1" t="n"/>
+      <c r="AD75" s="1" t="n"/>
+      <c r="AE75" s="1" t="n"/>
+      <c r="AF75" s="1" t="n"/>
+      <c r="AG75" s="1" t="n"/>
+      <c r="AH75" s="1" t="n"/>
+      <c r="AI75" s="1" t="n"/>
+      <c r="AJ75" s="1" t="n"/>
+      <c r="AK75" s="1" t="n"/>
+      <c r="AL75" s="1" t="n"/>
+      <c r="AM75" s="1" t="n"/>
+      <c r="AN75" s="1" t="n"/>
+      <c r="AO75" s="1" t="n"/>
+      <c r="AP75" s="1" t="n"/>
+      <c r="AQ75" s="1" t="n"/>
+      <c r="AR75" s="1" t="n"/>
+      <c r="AS75" s="1" t="n"/>
+      <c r="AT75" s="1" t="n"/>
+      <c r="AU75" s="1" t="n"/>
+      <c r="AV75" s="1" t="n"/>
+      <c r="AW75" s="1" t="n"/>
+      <c r="AX75" s="1" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n"/>
+      <c r="B76" s="6" t="n"/>
+      <c r="C76" s="6" t="n"/>
+      <c r="D76" s="1" t="n"/>
+      <c r="E76" s="1" t="n"/>
+      <c r="F76" s="1" t="n"/>
+      <c r="G76" s="1" t="n"/>
+      <c r="H76" s="1" t="n"/>
+      <c r="I76" s="1" t="n"/>
+      <c r="J76" s="1" t="n"/>
+      <c r="K76" s="1" t="n"/>
+      <c r="L76" s="1" t="n"/>
+      <c r="M76" s="1" t="n"/>
+      <c r="N76" s="1" t="n"/>
+      <c r="O76" s="1" t="n"/>
+      <c r="P76" s="1" t="n"/>
+      <c r="Q76" s="1" t="n"/>
+      <c r="R76" s="1" t="n"/>
+      <c r="S76" s="1" t="n"/>
+      <c r="T76" s="1" t="n"/>
+      <c r="U76" s="1" t="n"/>
+      <c r="V76" s="1" t="n"/>
+      <c r="W76" s="1" t="n"/>
+      <c r="X76" s="1" t="n"/>
+      <c r="Y76" s="1" t="n"/>
+      <c r="Z76" s="1" t="n"/>
+      <c r="AA76" s="1" t="n"/>
+      <c r="AB76" s="1" t="n"/>
+      <c r="AC76" s="1" t="n"/>
+      <c r="AD76" s="1" t="n"/>
+      <c r="AE76" s="1" t="n"/>
+      <c r="AF76" s="1" t="n"/>
+      <c r="AG76" s="1" t="n"/>
+      <c r="AH76" s="1" t="n"/>
+      <c r="AI76" s="1" t="n"/>
+      <c r="AJ76" s="1" t="n"/>
+      <c r="AK76" s="1" t="n"/>
+      <c r="AL76" s="1" t="n"/>
+      <c r="AM76" s="1" t="n"/>
+      <c r="AN76" s="1" t="n"/>
+      <c r="AO76" s="1" t="n"/>
+      <c r="AP76" s="1" t="n"/>
+      <c r="AQ76" s="1" t="n"/>
+      <c r="AR76" s="1" t="n"/>
+      <c r="AS76" s="1" t="n"/>
+      <c r="AT76" s="1" t="n"/>
+      <c r="AU76" s="1" t="n"/>
+      <c r="AV76" s="1" t="n"/>
+      <c r="AW76" s="1" t="n"/>
+      <c r="AX76" s="1" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n"/>
+      <c r="B77" s="6" t="n"/>
+      <c r="C77" s="6" t="n"/>
+      <c r="D77" s="1" t="n"/>
+      <c r="E77" s="1" t="n"/>
+      <c r="F77" s="1" t="n"/>
+      <c r="G77" s="1" t="n"/>
+      <c r="H77" s="1" t="n"/>
+      <c r="I77" s="1" t="n"/>
+      <c r="J77" s="1" t="n"/>
+      <c r="K77" s="1" t="n"/>
+      <c r="L77" s="1" t="n"/>
+      <c r="M77" s="1" t="n"/>
+      <c r="N77" s="1" t="n"/>
+      <c r="O77" s="1" t="n"/>
+      <c r="P77" s="1" t="n"/>
+      <c r="Q77" s="1" t="n"/>
+      <c r="R77" s="1" t="n"/>
+      <c r="S77" s="1" t="n"/>
+      <c r="T77" s="1" t="n"/>
+      <c r="U77" s="1" t="n"/>
+      <c r="V77" s="1" t="n"/>
+      <c r="W77" s="1" t="n"/>
+      <c r="X77" s="1" t="n"/>
+      <c r="Y77" s="1" t="n"/>
+      <c r="Z77" s="1" t="n"/>
+      <c r="AA77" s="1" t="n"/>
+      <c r="AB77" s="1" t="n"/>
+      <c r="AC77" s="1" t="n"/>
+      <c r="AD77" s="1" t="n"/>
+      <c r="AE77" s="1" t="n"/>
+      <c r="AF77" s="1" t="n"/>
+      <c r="AG77" s="1" t="n"/>
+      <c r="AH77" s="1" t="n"/>
+      <c r="AI77" s="1" t="n"/>
+      <c r="AJ77" s="1" t="n"/>
+      <c r="AK77" s="1" t="n"/>
+      <c r="AL77" s="1" t="n"/>
+      <c r="AM77" s="1" t="n"/>
+      <c r="AN77" s="1" t="n"/>
+      <c r="AO77" s="1" t="n"/>
+      <c r="AP77" s="1" t="n"/>
+      <c r="AQ77" s="1" t="n"/>
+      <c r="AR77" s="1" t="n"/>
+      <c r="AS77" s="1" t="n"/>
+      <c r="AT77" s="1" t="n"/>
+      <c r="AU77" s="1" t="n"/>
+      <c r="AV77" s="1" t="n"/>
+      <c r="AW77" s="1" t="n"/>
+      <c r="AX77" s="1" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n"/>
+      <c r="B78" s="6" t="n"/>
+      <c r="C78" s="6" t="n"/>
+      <c r="D78" s="1" t="n"/>
+      <c r="E78" s="1" t="n"/>
+      <c r="F78" s="1" t="n"/>
+      <c r="G78" s="1" t="n"/>
+      <c r="H78" s="1" t="n"/>
+      <c r="I78" s="1" t="n"/>
+      <c r="J78" s="1" t="n"/>
+      <c r="K78" s="1" t="n"/>
+      <c r="L78" s="1" t="n"/>
+      <c r="M78" s="1" t="n"/>
+      <c r="N78" s="1" t="n"/>
+      <c r="O78" s="1" t="n"/>
+      <c r="P78" s="1" t="n"/>
+      <c r="Q78" s="1" t="n"/>
+      <c r="R78" s="1" t="n"/>
+      <c r="S78" s="1" t="n"/>
+      <c r="T78" s="1" t="n"/>
+      <c r="U78" s="1" t="n"/>
+      <c r="V78" s="1" t="n"/>
+      <c r="W78" s="1" t="n"/>
+      <c r="X78" s="1" t="n"/>
+      <c r="Y78" s="1" t="n"/>
+      <c r="Z78" s="1" t="n"/>
+      <c r="AA78" s="1" t="n"/>
+      <c r="AB78" s="1" t="n"/>
+      <c r="AC78" s="1" t="n"/>
+      <c r="AD78" s="1" t="n"/>
+      <c r="AE78" s="1" t="n"/>
+      <c r="AF78" s="1" t="n"/>
+      <c r="AG78" s="1" t="n"/>
+      <c r="AH78" s="1" t="n"/>
+      <c r="AI78" s="1" t="n"/>
+      <c r="AJ78" s="1" t="n"/>
+      <c r="AK78" s="1" t="n"/>
+      <c r="AL78" s="1" t="n"/>
+      <c r="AM78" s="1" t="n"/>
+      <c r="AN78" s="1" t="n"/>
+      <c r="AO78" s="1" t="n"/>
+      <c r="AP78" s="1" t="n"/>
+      <c r="AQ78" s="1" t="n"/>
+      <c r="AR78" s="1" t="n"/>
+      <c r="AS78" s="1" t="n"/>
+      <c r="AT78" s="1" t="n"/>
+      <c r="AU78" s="1" t="n"/>
+      <c r="AV78" s="1" t="n"/>
+      <c r="AW78" s="1" t="n"/>
+      <c r="AX78" s="1" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n"/>
+      <c r="B79" s="6" t="n"/>
+      <c r="C79" s="6" t="n"/>
+      <c r="D79" s="1" t="n"/>
+      <c r="E79" s="1" t="n"/>
+      <c r="F79" s="1" t="n"/>
+      <c r="G79" s="1" t="n"/>
+      <c r="H79" s="1" t="n"/>
+      <c r="I79" s="1" t="n"/>
+      <c r="J79" s="1" t="n"/>
+      <c r="K79" s="1" t="n"/>
+      <c r="L79" s="1" t="n"/>
+      <c r="M79" s="1" t="n"/>
+      <c r="N79" s="1" t="n"/>
+      <c r="O79" s="1" t="n"/>
+      <c r="P79" s="1" t="n"/>
+      <c r="Q79" s="1" t="n"/>
+      <c r="R79" s="1" t="n"/>
+      <c r="S79" s="1" t="n"/>
+      <c r="T79" s="1" t="n"/>
+      <c r="U79" s="1" t="n"/>
+      <c r="V79" s="1" t="n"/>
+      <c r="W79" s="1" t="n"/>
+      <c r="X79" s="1" t="n"/>
+      <c r="Y79" s="1" t="n"/>
+      <c r="Z79" s="1" t="n"/>
+      <c r="AA79" s="1" t="n"/>
+      <c r="AB79" s="1" t="n"/>
+      <c r="AC79" s="1" t="n"/>
+      <c r="AD79" s="1" t="n"/>
+      <c r="AE79" s="1" t="n"/>
+      <c r="AF79" s="1" t="n"/>
+      <c r="AG79" s="1" t="n"/>
+      <c r="AH79" s="1" t="n"/>
+      <c r="AI79" s="1" t="n"/>
+      <c r="AJ79" s="1" t="n"/>
+      <c r="AK79" s="1" t="n"/>
+      <c r="AL79" s="1" t="n"/>
+      <c r="AM79" s="1" t="n"/>
+      <c r="AN79" s="1" t="n"/>
+      <c r="AO79" s="1" t="n"/>
+      <c r="AP79" s="1" t="n"/>
+      <c r="AQ79" s="1" t="n"/>
+      <c r="AR79" s="1" t="n"/>
+      <c r="AS79" s="1" t="n"/>
+      <c r="AT79" s="1" t="n"/>
+      <c r="AU79" s="1" t="n"/>
+      <c r="AV79" s="1" t="n"/>
+      <c r="AW79" s="1" t="n"/>
+      <c r="AX79" s="1" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n"/>
+      <c r="B80" s="6" t="n"/>
+      <c r="C80" s="6" t="n"/>
+      <c r="D80" s="1" t="n"/>
+      <c r="E80" s="1" t="n"/>
+      <c r="F80" s="1" t="n"/>
+      <c r="G80" s="1" t="n"/>
+      <c r="H80" s="1" t="n"/>
+      <c r="I80" s="1" t="n"/>
+      <c r="J80" s="1" t="n"/>
+      <c r="K80" s="1" t="n"/>
+      <c r="L80" s="1" t="n"/>
+      <c r="M80" s="1" t="n"/>
+      <c r="N80" s="1" t="n"/>
+      <c r="O80" s="1" t="n"/>
+      <c r="P80" s="1" t="n"/>
+      <c r="Q80" s="1" t="n"/>
+      <c r="R80" s="1" t="n"/>
+      <c r="S80" s="1" t="n"/>
+      <c r="T80" s="1" t="n"/>
+      <c r="U80" s="1" t="n"/>
+      <c r="V80" s="1" t="n"/>
+      <c r="W80" s="1" t="n"/>
+      <c r="X80" s="1" t="n"/>
+      <c r="Y80" s="1" t="n"/>
+      <c r="Z80" s="1" t="n"/>
+      <c r="AA80" s="1" t="n"/>
+      <c r="AB80" s="1" t="n"/>
+      <c r="AC80" s="1" t="n"/>
+      <c r="AD80" s="1" t="n"/>
+      <c r="AE80" s="1" t="n"/>
+      <c r="AF80" s="1" t="n"/>
+      <c r="AG80" s="1" t="n"/>
+      <c r="AH80" s="1" t="n"/>
+      <c r="AI80" s="1" t="n"/>
+      <c r="AJ80" s="1" t="n"/>
+      <c r="AK80" s="1" t="n"/>
+      <c r="AL80" s="1" t="n"/>
+      <c r="AM80" s="1" t="n"/>
+      <c r="AN80" s="1" t="n"/>
+      <c r="AO80" s="1" t="n"/>
+      <c r="AP80" s="1" t="n"/>
+      <c r="AQ80" s="1" t="n"/>
+      <c r="AR80" s="1" t="n"/>
+      <c r="AS80" s="1" t="n"/>
+      <c r="AT80" s="1" t="n"/>
+      <c r="AU80" s="1" t="n"/>
+      <c r="AV80" s="1" t="n"/>
+      <c r="AW80" s="1" t="n"/>
+      <c r="AX80" s="1" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n"/>
+      <c r="B81" s="6" t="n"/>
+      <c r="C81" s="6" t="n"/>
+      <c r="D81" s="1" t="n"/>
+      <c r="E81" s="1" t="n"/>
+      <c r="F81" s="1" t="n"/>
+      <c r="G81" s="1" t="n"/>
+      <c r="H81" s="1" t="n"/>
+      <c r="I81" s="1" t="n"/>
+      <c r="J81" s="1" t="n"/>
+      <c r="K81" s="1" t="n"/>
+      <c r="L81" s="1" t="n"/>
+      <c r="M81" s="1" t="n"/>
+      <c r="N81" s="1" t="n"/>
+      <c r="O81" s="1" t="n"/>
+      <c r="P81" s="1" t="n"/>
+      <c r="Q81" s="1" t="n"/>
+      <c r="R81" s="1" t="n"/>
+      <c r="S81" s="1" t="n"/>
+      <c r="T81" s="1" t="n"/>
+      <c r="U81" s="1" t="n"/>
+      <c r="V81" s="1" t="n"/>
+      <c r="W81" s="1" t="n"/>
+      <c r="X81" s="1" t="n"/>
+      <c r="Y81" s="1" t="n"/>
+      <c r="Z81" s="1" t="n"/>
+      <c r="AA81" s="1" t="n"/>
+      <c r="AB81" s="1" t="n"/>
+      <c r="AC81" s="1" t="n"/>
+      <c r="AD81" s="1" t="n"/>
+      <c r="AE81" s="1" t="n"/>
+      <c r="AF81" s="1" t="n"/>
+      <c r="AG81" s="1" t="n"/>
+      <c r="AH81" s="1" t="n"/>
+      <c r="AI81" s="1" t="n"/>
+      <c r="AJ81" s="1" t="n"/>
+      <c r="AK81" s="1" t="n"/>
+      <c r="AL81" s="1" t="n"/>
+      <c r="AM81" s="1" t="n"/>
+      <c r="AN81" s="1" t="n"/>
+      <c r="AO81" s="1" t="n"/>
+      <c r="AP81" s="1" t="n"/>
+      <c r="AQ81" s="1" t="n"/>
+      <c r="AR81" s="1" t="n"/>
+      <c r="AS81" s="1" t="n"/>
+      <c r="AT81" s="1" t="n"/>
+      <c r="AU81" s="1" t="n"/>
+      <c r="AV81" s="1" t="n"/>
+      <c r="AW81" s="1" t="n"/>
+      <c r="AX81" s="1" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n"/>
+      <c r="B82" s="6" t="n"/>
+      <c r="C82" s="6" t="n"/>
+      <c r="D82" s="1" t="n"/>
+      <c r="E82" s="1" t="n"/>
+      <c r="F82" s="1" t="n"/>
+      <c r="G82" s="1" t="n"/>
+      <c r="H82" s="1" t="n"/>
+      <c r="I82" s="1" t="n"/>
+      <c r="J82" s="1" t="n"/>
+      <c r="K82" s="1" t="n"/>
+      <c r="L82" s="1" t="n"/>
+      <c r="M82" s="1" t="n"/>
+      <c r="N82" s="1" t="n"/>
+      <c r="O82" s="1" t="n"/>
+      <c r="P82" s="1" t="n"/>
+      <c r="Q82" s="1" t="n"/>
+      <c r="R82" s="1" t="n"/>
+      <c r="S82" s="1" t="n"/>
+      <c r="T82" s="1" t="n"/>
+      <c r="U82" s="1" t="n"/>
+      <c r="V82" s="1" t="n"/>
+      <c r="W82" s="1" t="n"/>
+      <c r="X82" s="1" t="n"/>
+      <c r="Y82" s="1" t="n"/>
+      <c r="Z82" s="1" t="n"/>
+      <c r="AA82" s="1" t="n"/>
+      <c r="AB82" s="1" t="n"/>
+      <c r="AC82" s="1" t="n"/>
+      <c r="AD82" s="1" t="n"/>
+      <c r="AE82" s="1" t="n"/>
+      <c r="AF82" s="1" t="n"/>
+      <c r="AG82" s="1" t="n"/>
+      <c r="AH82" s="1" t="n"/>
+      <c r="AI82" s="1" t="n"/>
+      <c r="AJ82" s="1" t="n"/>
+      <c r="AK82" s="1" t="n"/>
+      <c r="AL82" s="1" t="n"/>
+      <c r="AM82" s="1" t="n"/>
+      <c r="AN82" s="1" t="n"/>
+      <c r="AO82" s="1" t="n"/>
+      <c r="AP82" s="1" t="n"/>
+      <c r="AQ82" s="1" t="n"/>
+      <c r="AR82" s="1" t="n"/>
+      <c r="AS82" s="1" t="n"/>
+      <c r="AT82" s="1" t="n"/>
+      <c r="AU82" s="1" t="n"/>
+      <c r="AV82" s="1" t="n"/>
+      <c r="AW82" s="1" t="n"/>
+      <c r="AX82" s="1" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n"/>
+      <c r="B83" s="6" t="n"/>
+      <c r="C83" s="6" t="n"/>
+      <c r="D83" s="1" t="n"/>
+      <c r="E83" s="1" t="n"/>
+      <c r="F83" s="1" t="n"/>
+      <c r="G83" s="1" t="n"/>
+      <c r="H83" s="1" t="n"/>
+      <c r="I83" s="1" t="n"/>
+      <c r="J83" s="1" t="n"/>
+      <c r="K83" s="1" t="n"/>
+      <c r="L83" s="1" t="n"/>
+      <c r="M83" s="1" t="n"/>
+      <c r="N83" s="1" t="n"/>
+      <c r="O83" s="1" t="n"/>
+      <c r="P83" s="1" t="n"/>
+      <c r="Q83" s="1" t="n"/>
+      <c r="R83" s="1" t="n"/>
+      <c r="S83" s="1" t="n"/>
+      <c r="T83" s="1" t="n"/>
+      <c r="U83" s="1" t="n"/>
+      <c r="V83" s="1" t="n"/>
+      <c r="W83" s="1" t="n"/>
+      <c r="X83" s="1" t="n"/>
+      <c r="Y83" s="1" t="n"/>
+      <c r="Z83" s="1" t="n"/>
+      <c r="AA83" s="1" t="n"/>
+      <c r="AB83" s="1" t="n"/>
+      <c r="AC83" s="1" t="n"/>
+      <c r="AD83" s="1" t="n"/>
+      <c r="AE83" s="1" t="n"/>
+      <c r="AF83" s="1" t="n"/>
+      <c r="AG83" s="1" t="n"/>
+      <c r="AH83" s="1" t="n"/>
+      <c r="AI83" s="1" t="n"/>
+      <c r="AJ83" s="1" t="n"/>
+      <c r="AK83" s="1" t="n"/>
+      <c r="AL83" s="1" t="n"/>
+      <c r="AM83" s="1" t="n"/>
+      <c r="AN83" s="1" t="n"/>
+      <c r="AO83" s="1" t="n"/>
+      <c r="AP83" s="1" t="n"/>
+      <c r="AQ83" s="1" t="n"/>
+      <c r="AR83" s="1" t="n"/>
+      <c r="AS83" s="1" t="n"/>
+      <c r="AT83" s="1" t="n"/>
+      <c r="AU83" s="1" t="n"/>
+      <c r="AV83" s="1" t="n"/>
+      <c r="AW83" s="1" t="n"/>
+      <c r="AX83" s="1" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n"/>
+      <c r="B84" s="6" t="n"/>
+      <c r="C84" s="6" t="n"/>
+      <c r="D84" s="1" t="n"/>
+      <c r="E84" s="1" t="n"/>
+      <c r="F84" s="1" t="n"/>
+      <c r="G84" s="1" t="n"/>
+      <c r="H84" s="1" t="n"/>
+      <c r="I84" s="1" t="n"/>
+      <c r="J84" s="1" t="n"/>
+      <c r="K84" s="1" t="n"/>
+      <c r="L84" s="1" t="n"/>
+      <c r="M84" s="1" t="n"/>
+      <c r="N84" s="1" t="n"/>
+      <c r="O84" s="1" t="n"/>
+      <c r="P84" s="1" t="n"/>
+      <c r="Q84" s="1" t="n"/>
+      <c r="R84" s="1" t="n"/>
+      <c r="S84" s="1" t="n"/>
+      <c r="T84" s="1" t="n"/>
+      <c r="U84" s="1" t="n"/>
+      <c r="V84" s="1" t="n"/>
+      <c r="W84" s="1" t="n"/>
+      <c r="X84" s="1" t="n"/>
+      <c r="Y84" s="1" t="n"/>
+      <c r="Z84" s="1" t="n"/>
+      <c r="AA84" s="1" t="n"/>
+      <c r="AB84" s="1" t="n"/>
+      <c r="AC84" s="1" t="n"/>
+      <c r="AD84" s="1" t="n"/>
+      <c r="AE84" s="1" t="n"/>
+      <c r="AF84" s="1" t="n"/>
+      <c r="AG84" s="1" t="n"/>
+      <c r="AH84" s="1" t="n"/>
+      <c r="AI84" s="1" t="n"/>
+      <c r="AJ84" s="1" t="n"/>
+      <c r="AK84" s="1" t="n"/>
+      <c r="AL84" s="1" t="n"/>
+      <c r="AM84" s="1" t="n"/>
+      <c r="AN84" s="1" t="n"/>
+      <c r="AO84" s="1" t="n"/>
+      <c r="AP84" s="1" t="n"/>
+      <c r="AQ84" s="1" t="n"/>
+      <c r="AR84" s="1" t="n"/>
+      <c r="AS84" s="1" t="n"/>
+      <c r="AT84" s="1" t="n"/>
+      <c r="AU84" s="1" t="n"/>
+      <c r="AV84" s="1" t="n"/>
+      <c r="AW84" s="1" t="n"/>
+      <c r="AX84" s="1" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n"/>
+      <c r="B85" s="6" t="n"/>
+      <c r="C85" s="6" t="n"/>
+      <c r="D85" s="1" t="n"/>
+      <c r="E85" s="1" t="n"/>
+      <c r="F85" s="1" t="n"/>
+      <c r="G85" s="1" t="n"/>
+      <c r="H85" s="1" t="n"/>
+      <c r="I85" s="1" t="n"/>
+      <c r="J85" s="1" t="n"/>
+      <c r="K85" s="1" t="n"/>
+      <c r="L85" s="1" t="n"/>
+      <c r="M85" s="1" t="n"/>
+      <c r="N85" s="1" t="n"/>
+      <c r="O85" s="1" t="n"/>
+      <c r="P85" s="1" t="n"/>
+      <c r="Q85" s="1" t="n"/>
+      <c r="R85" s="1" t="n"/>
+      <c r="S85" s="1" t="n"/>
+      <c r="T85" s="1" t="n"/>
+      <c r="U85" s="1" t="n"/>
+      <c r="V85" s="1" t="n"/>
+      <c r="W85" s="1" t="n"/>
+      <c r="X85" s="1" t="n"/>
+      <c r="Y85" s="1" t="n"/>
+      <c r="Z85" s="1" t="n"/>
+      <c r="AA85" s="1" t="n"/>
+      <c r="AB85" s="1" t="n"/>
+      <c r="AC85" s="1" t="n"/>
+      <c r="AD85" s="1" t="n"/>
+      <c r="AE85" s="1" t="n"/>
+      <c r="AF85" s="1" t="n"/>
+      <c r="AG85" s="1" t="n"/>
+      <c r="AH85" s="1" t="n"/>
+      <c r="AI85" s="1" t="n"/>
+      <c r="AJ85" s="1" t="n"/>
+      <c r="AK85" s="1" t="n"/>
+      <c r="AL85" s="1" t="n"/>
+      <c r="AM85" s="1" t="n"/>
+      <c r="AN85" s="1" t="n"/>
+      <c r="AO85" s="1" t="n"/>
+      <c r="AP85" s="1" t="n"/>
+      <c r="AQ85" s="1" t="n"/>
+      <c r="AR85" s="1" t="n"/>
+      <c r="AS85" s="1" t="n"/>
+      <c r="AT85" s="1" t="n"/>
+      <c r="AU85" s="1" t="n"/>
+      <c r="AV85" s="1" t="n"/>
+      <c r="AW85" s="1" t="n"/>
+      <c r="AX85" s="1" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n"/>
+      <c r="B86" s="6" t="n"/>
+      <c r="C86" s="6" t="n"/>
+      <c r="D86" s="1" t="n"/>
+      <c r="E86" s="1" t="n"/>
+      <c r="F86" s="1" t="n"/>
+      <c r="G86" s="1" t="n"/>
+      <c r="H86" s="1" t="n"/>
+      <c r="I86" s="1" t="n"/>
+      <c r="J86" s="1" t="n"/>
+      <c r="K86" s="1" t="n"/>
+      <c r="L86" s="1" t="n"/>
+      <c r="M86" s="1" t="n"/>
+      <c r="N86" s="1" t="n"/>
+      <c r="O86" s="1" t="n"/>
+      <c r="P86" s="1" t="n"/>
+      <c r="Q86" s="1" t="n"/>
+      <c r="R86" s="1" t="n"/>
+      <c r="S86" s="1" t="n"/>
+      <c r="T86" s="1" t="n"/>
+      <c r="U86" s="1" t="n"/>
+      <c r="V86" s="1" t="n"/>
+      <c r="W86" s="1" t="n"/>
+      <c r="X86" s="1" t="n"/>
+      <c r="Y86" s="1" t="n"/>
+      <c r="Z86" s="1" t="n"/>
+      <c r="AA86" s="1" t="n"/>
+      <c r="AB86" s="1" t="n"/>
+      <c r="AC86" s="1" t="n"/>
+      <c r="AD86" s="1" t="n"/>
+      <c r="AE86" s="1" t="n"/>
+      <c r="AF86" s="1" t="n"/>
+      <c r="AG86" s="1" t="n"/>
+      <c r="AH86" s="1" t="n"/>
+      <c r="AI86" s="1" t="n"/>
+      <c r="AJ86" s="1" t="n"/>
+      <c r="AK86" s="1" t="n"/>
+      <c r="AL86" s="1" t="n"/>
+      <c r="AM86" s="1" t="n"/>
+      <c r="AN86" s="1" t="n"/>
+      <c r="AO86" s="1" t="n"/>
+      <c r="AP86" s="1" t="n"/>
+      <c r="AQ86" s="1" t="n"/>
+      <c r="AR86" s="1" t="n"/>
+      <c r="AS86" s="1" t="n"/>
+      <c r="AT86" s="1" t="n"/>
+      <c r="AU86" s="1" t="n"/>
+      <c r="AV86" s="1" t="n"/>
+      <c r="AW86" s="1" t="n"/>
+      <c r="AX86" s="1" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n"/>
+      <c r="B87" s="6" t="n"/>
+      <c r="C87" s="6" t="n"/>
+      <c r="D87" s="1" t="n"/>
+      <c r="E87" s="1" t="n"/>
+      <c r="F87" s="1" t="n"/>
+      <c r="G87" s="1" t="n"/>
+      <c r="H87" s="1" t="n"/>
+      <c r="I87" s="1" t="n"/>
+      <c r="J87" s="1" t="n"/>
+      <c r="K87" s="1" t="n"/>
+      <c r="L87" s="1" t="n"/>
+      <c r="M87" s="1" t="n"/>
+      <c r="N87" s="1" t="n"/>
+      <c r="O87" s="1" t="n"/>
+      <c r="P87" s="1" t="n"/>
+      <c r="Q87" s="1" t="n"/>
+      <c r="R87" s="1" t="n"/>
+      <c r="S87" s="1" t="n"/>
+      <c r="T87" s="1" t="n"/>
+      <c r="U87" s="1" t="n"/>
+      <c r="V87" s="1" t="n"/>
+      <c r="W87" s="1" t="n"/>
+      <c r="X87" s="1" t="n"/>
+      <c r="Y87" s="1" t="n"/>
+      <c r="Z87" s="1" t="n"/>
+      <c r="AA87" s="1" t="n"/>
+      <c r="AB87" s="1" t="n"/>
+      <c r="AC87" s="1" t="n"/>
+      <c r="AD87" s="1" t="n"/>
+      <c r="AE87" s="1" t="n"/>
+      <c r="AF87" s="1" t="n"/>
+      <c r="AG87" s="1" t="n"/>
+      <c r="AH87" s="1" t="n"/>
+      <c r="AI87" s="1" t="n"/>
+      <c r="AJ87" s="1" t="n"/>
+      <c r="AK87" s="1" t="n"/>
+      <c r="AL87" s="1" t="n"/>
+      <c r="AM87" s="1" t="n"/>
+      <c r="AN87" s="1" t="n"/>
+      <c r="AO87" s="1" t="n"/>
+      <c r="AP87" s="1" t="n"/>
+      <c r="AQ87" s="1" t="n"/>
+      <c r="AR87" s="1" t="n"/>
+      <c r="AS87" s="1" t="n"/>
+      <c r="AT87" s="1" t="n"/>
+      <c r="AU87" s="1" t="n"/>
+      <c r="AV87" s="1" t="n"/>
+      <c r="AW87" s="1" t="n"/>
+      <c r="AX87" s="1" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n"/>
+      <c r="B88" s="6" t="n"/>
+      <c r="C88" s="6" t="n"/>
+      <c r="D88" s="1" t="n"/>
+      <c r="E88" s="1" t="n"/>
+      <c r="F88" s="1" t="n"/>
+      <c r="G88" s="1" t="n"/>
+      <c r="H88" s="1" t="n"/>
+      <c r="I88" s="1" t="n"/>
+      <c r="J88" s="1" t="n"/>
+      <c r="K88" s="1" t="n"/>
+      <c r="L88" s="1" t="n"/>
+      <c r="M88" s="1" t="n"/>
+      <c r="N88" s="1" t="n"/>
+      <c r="O88" s="1" t="n"/>
+      <c r="P88" s="1" t="n"/>
+      <c r="Q88" s="1" t="n"/>
+      <c r="R88" s="1" t="n"/>
+      <c r="S88" s="1" t="n"/>
+      <c r="T88" s="1" t="n"/>
+      <c r="U88" s="1" t="n"/>
+      <c r="V88" s="1" t="n"/>
+      <c r="W88" s="1" t="n"/>
+      <c r="X88" s="1" t="n"/>
+      <c r="Y88" s="1" t="n"/>
+      <c r="Z88" s="1" t="n"/>
+      <c r="AA88" s="1" t="n"/>
+      <c r="AB88" s="1" t="n"/>
+      <c r="AC88" s="1" t="n"/>
+      <c r="AD88" s="1" t="n"/>
+      <c r="AE88" s="1" t="n"/>
+      <c r="AF88" s="1" t="n"/>
+      <c r="AG88" s="1" t="n"/>
+      <c r="AH88" s="1" t="n"/>
+      <c r="AI88" s="1" t="n"/>
+      <c r="AJ88" s="1" t="n"/>
+      <c r="AK88" s="1" t="n"/>
+      <c r="AL88" s="1" t="n"/>
+      <c r="AM88" s="1" t="n"/>
+      <c r="AN88" s="1" t="n"/>
+      <c r="AO88" s="1" t="n"/>
+      <c r="AP88" s="1" t="n"/>
+      <c r="AQ88" s="1" t="n"/>
+      <c r="AR88" s="1" t="n"/>
+      <c r="AS88" s="1" t="n"/>
+      <c r="AT88" s="1" t="n"/>
+      <c r="AU88" s="1" t="n"/>
+      <c r="AV88" s="1" t="n"/>
+      <c r="AW88" s="1" t="n"/>
+      <c r="AX88" s="1" t="n"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n"/>
+      <c r="B89" s="6" t="n"/>
+      <c r="C89" s="6" t="n"/>
+      <c r="D89" s="1" t="n"/>
+      <c r="E89" s="1" t="n"/>
+      <c r="F89" s="1" t="n"/>
+      <c r="G89" s="1" t="n"/>
+      <c r="H89" s="1" t="n"/>
+      <c r="I89" s="1" t="n"/>
+      <c r="J89" s="1" t="n"/>
+      <c r="K89" s="1" t="n"/>
+      <c r="L89" s="1" t="n"/>
+      <c r="M89" s="1" t="n"/>
+      <c r="N89" s="1" t="n"/>
+      <c r="O89" s="1" t="n"/>
+      <c r="P89" s="1" t="n"/>
+      <c r="Q89" s="1" t="n"/>
+      <c r="R89" s="1" t="n"/>
+      <c r="S89" s="1" t="n"/>
+      <c r="T89" s="1" t="n"/>
+      <c r="U89" s="1" t="n"/>
+      <c r="V89" s="1" t="n"/>
+      <c r="W89" s="1" t="n"/>
+      <c r="X89" s="1" t="n"/>
+      <c r="Y89" s="1" t="n"/>
+      <c r="Z89" s="1" t="n"/>
+      <c r="AA89" s="1" t="n"/>
+      <c r="AB89" s="1" t="n"/>
+      <c r="AC89" s="1" t="n"/>
+      <c r="AD89" s="1" t="n"/>
+      <c r="AE89" s="1" t="n"/>
+      <c r="AF89" s="1" t="n"/>
+      <c r="AG89" s="1" t="n"/>
+      <c r="AH89" s="1" t="n"/>
+      <c r="AI89" s="1" t="n"/>
+      <c r="AJ89" s="1" t="n"/>
+      <c r="AK89" s="1" t="n"/>
+      <c r="AL89" s="1" t="n"/>
+      <c r="AM89" s="1" t="n"/>
+      <c r="AN89" s="1" t="n"/>
+      <c r="AO89" s="1" t="n"/>
+      <c r="AP89" s="1" t="n"/>
+      <c r="AQ89" s="1" t="n"/>
+      <c r="AR89" s="1" t="n"/>
+      <c r="AS89" s="1" t="n"/>
+      <c r="AT89" s="1" t="n"/>
+      <c r="AU89" s="1" t="n"/>
+      <c r="AV89" s="1" t="n"/>
+      <c r="AW89" s="1" t="n"/>
+      <c r="AX89" s="1" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n"/>
+      <c r="B90" s="6" t="n"/>
+      <c r="C90" s="6" t="n"/>
+      <c r="D90" s="1" t="n"/>
+      <c r="E90" s="1" t="n"/>
+      <c r="F90" s="1" t="n"/>
+      <c r="G90" s="1" t="n"/>
+      <c r="H90" s="1" t="n"/>
+      <c r="I90" s="1" t="n"/>
+      <c r="J90" s="1" t="n"/>
+      <c r="K90" s="1" t="n"/>
+      <c r="L90" s="1" t="n"/>
+      <c r="M90" s="1" t="n"/>
+      <c r="N90" s="1" t="n"/>
+      <c r="O90" s="1" t="n"/>
+      <c r="P90" s="1" t="n"/>
+      <c r="Q90" s="1" t="n"/>
+      <c r="R90" s="1" t="n"/>
+      <c r="S90" s="1" t="n"/>
+      <c r="T90" s="1" t="n"/>
+      <c r="U90" s="1" t="n"/>
+      <c r="V90" s="1" t="n"/>
+      <c r="W90" s="1" t="n"/>
+      <c r="X90" s="1" t="n"/>
+      <c r="Y90" s="1" t="n"/>
+      <c r="Z90" s="1" t="n"/>
+      <c r="AA90" s="1" t="n"/>
+      <c r="AB90" s="1" t="n"/>
+      <c r="AC90" s="1" t="n"/>
+      <c r="AD90" s="1" t="n"/>
+      <c r="AE90" s="1" t="n"/>
+      <c r="AF90" s="1" t="n"/>
+      <c r="AG90" s="1" t="n"/>
+      <c r="AH90" s="1" t="n"/>
+      <c r="AI90" s="1" t="n"/>
+      <c r="AJ90" s="1" t="n"/>
+      <c r="AK90" s="1" t="n"/>
+      <c r="AL90" s="1" t="n"/>
+      <c r="AM90" s="1" t="n"/>
+      <c r="AN90" s="1" t="n"/>
+      <c r="AO90" s="1" t="n"/>
+      <c r="AP90" s="1" t="n"/>
+      <c r="AQ90" s="1" t="n"/>
+      <c r="AR90" s="1" t="n"/>
+      <c r="AS90" s="1" t="n"/>
+      <c r="AT90" s="1" t="n"/>
+      <c r="AU90" s="1" t="n"/>
+      <c r="AV90" s="1" t="n"/>
+      <c r="AW90" s="1" t="n"/>
+      <c r="AX90" s="1" t="n"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n"/>
+      <c r="B91" s="6" t="n"/>
+      <c r="C91" s="6" t="n"/>
+      <c r="D91" s="1" t="n"/>
+      <c r="E91" s="1" t="n"/>
+      <c r="F91" s="1" t="n"/>
+      <c r="G91" s="1" t="n"/>
+      <c r="H91" s="1" t="n"/>
+      <c r="I91" s="1" t="n"/>
+      <c r="J91" s="1" t="n"/>
+      <c r="K91" s="1" t="n"/>
+      <c r="L91" s="1" t="n"/>
+      <c r="M91" s="1" t="n"/>
+      <c r="N91" s="1" t="n"/>
+      <c r="O91" s="1" t="n"/>
+      <c r="P91" s="1" t="n"/>
+      <c r="Q91" s="1" t="n"/>
+      <c r="R91" s="1" t="n"/>
+      <c r="S91" s="1" t="n"/>
+      <c r="T91" s="1" t="n"/>
+      <c r="U91" s="1" t="n"/>
+      <c r="V91" s="1" t="n"/>
+      <c r="W91" s="1" t="n"/>
+      <c r="X91" s="1" t="n"/>
+      <c r="Y91" s="1" t="n"/>
+      <c r="Z91" s="1" t="n"/>
+      <c r="AA91" s="1" t="n"/>
+      <c r="AB91" s="1" t="n"/>
+      <c r="AC91" s="1" t="n"/>
+      <c r="AD91" s="1" t="n"/>
+      <c r="AE91" s="1" t="n"/>
+      <c r="AF91" s="1" t="n"/>
+      <c r="AG91" s="1" t="n"/>
+      <c r="AH91" s="1" t="n"/>
+      <c r="AI91" s="1" t="n"/>
+      <c r="AJ91" s="1" t="n"/>
+      <c r="AK91" s="1" t="n"/>
+      <c r="AL91" s="1" t="n"/>
+      <c r="AM91" s="1" t="n"/>
+      <c r="AN91" s="1" t="n"/>
+      <c r="AO91" s="1" t="n"/>
+      <c r="AP91" s="1" t="n"/>
+      <c r="AQ91" s="1" t="n"/>
+      <c r="AR91" s="1" t="n"/>
+      <c r="AS91" s="1" t="n"/>
+      <c r="AT91" s="1" t="n"/>
+      <c r="AU91" s="1" t="n"/>
+      <c r="AV91" s="1" t="n"/>
+      <c r="AW91" s="1" t="n"/>
+      <c r="AX91" s="1" t="n"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n"/>
+      <c r="B92" s="6" t="n"/>
+      <c r="C92" s="6" t="n"/>
+      <c r="D92" s="1" t="n"/>
+      <c r="E92" s="1" t="n"/>
+      <c r="F92" s="1" t="n"/>
+      <c r="G92" s="1" t="n"/>
+      <c r="H92" s="1" t="n"/>
+      <c r="I92" s="1" t="n"/>
+      <c r="J92" s="1" t="n"/>
+      <c r="K92" s="1" t="n"/>
+      <c r="L92" s="1" t="n"/>
+      <c r="M92" s="1" t="n"/>
+      <c r="N92" s="1" t="n"/>
+      <c r="O92" s="1" t="n"/>
+      <c r="P92" s="1" t="n"/>
+      <c r="Q92" s="1" t="n"/>
+      <c r="R92" s="1" t="n"/>
+      <c r="S92" s="1" t="n"/>
+      <c r="T92" s="1" t="n"/>
+      <c r="U92" s="1" t="n"/>
+      <c r="V92" s="1" t="n"/>
+      <c r="W92" s="1" t="n"/>
+      <c r="X92" s="1" t="n"/>
+      <c r="Y92" s="1" t="n"/>
+      <c r="Z92" s="1" t="n"/>
+      <c r="AA92" s="1" t="n"/>
+      <c r="AB92" s="1" t="n"/>
+      <c r="AC92" s="1" t="n"/>
+      <c r="AD92" s="1" t="n"/>
+      <c r="AE92" s="1" t="n"/>
+      <c r="AF92" s="1" t="n"/>
+      <c r="AG92" s="1" t="n"/>
+      <c r="AH92" s="1" t="n"/>
+      <c r="AI92" s="1" t="n"/>
+      <c r="AJ92" s="1" t="n"/>
+      <c r="AK92" s="1" t="n"/>
+      <c r="AL92" s="1" t="n"/>
+      <c r="AM92" s="1" t="n"/>
+      <c r="AN92" s="1" t="n"/>
+      <c r="AO92" s="1" t="n"/>
+      <c r="AP92" s="1" t="n"/>
+      <c r="AQ92" s="1" t="n"/>
+      <c r="AR92" s="1" t="n"/>
+      <c r="AS92" s="1" t="n"/>
+      <c r="AT92" s="1" t="n"/>
+      <c r="AU92" s="1" t="n"/>
+      <c r="AV92" s="1" t="n"/>
+      <c r="AW92" s="1" t="n"/>
+      <c r="AX92" s="1" t="n"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n"/>
+      <c r="B93" s="6" t="n"/>
+      <c r="C93" s="6" t="n"/>
+      <c r="D93" s="1" t="n"/>
+      <c r="E93" s="1" t="n"/>
+      <c r="F93" s="1" t="n"/>
+      <c r="G93" s="1" t="n"/>
+      <c r="H93" s="1" t="n"/>
+      <c r="I93" s="1" t="n"/>
+      <c r="J93" s="1" t="n"/>
+      <c r="K93" s="1" t="n"/>
+      <c r="L93" s="1" t="n"/>
+      <c r="M93" s="1" t="n"/>
+      <c r="N93" s="1" t="n"/>
+      <c r="O93" s="1" t="n"/>
+      <c r="P93" s="1" t="n"/>
+      <c r="Q93" s="1" t="n"/>
+      <c r="R93" s="1" t="n"/>
+      <c r="S93" s="1" t="n"/>
+      <c r="T93" s="1" t="n"/>
+      <c r="U93" s="1" t="n"/>
+      <c r="V93" s="1" t="n"/>
+      <c r="W93" s="1" t="n"/>
+      <c r="X93" s="1" t="n"/>
+      <c r="Y93" s="1" t="n"/>
+      <c r="Z93" s="1" t="n"/>
+      <c r="AA93" s="1" t="n"/>
+      <c r="AB93" s="1" t="n"/>
+      <c r="AC93" s="1" t="n"/>
+      <c r="AD93" s="1" t="n"/>
+      <c r="AE93" s="1" t="n"/>
+      <c r="AF93" s="1" t="n"/>
+      <c r="AG93" s="1" t="n"/>
+      <c r="AH93" s="1" t="n"/>
+      <c r="AI93" s="1" t="n"/>
+      <c r="AJ93" s="1" t="n"/>
+      <c r="AK93" s="1" t="n"/>
+      <c r="AL93" s="1" t="n"/>
+      <c r="AM93" s="1" t="n"/>
+      <c r="AN93" s="1" t="n"/>
+      <c r="AO93" s="1" t="n"/>
+      <c r="AP93" s="1" t="n"/>
+      <c r="AQ93" s="1" t="n"/>
+      <c r="AR93" s="1" t="n"/>
+      <c r="AS93" s="1" t="n"/>
+      <c r="AT93" s="1" t="n"/>
+      <c r="AU93" s="1" t="n"/>
+      <c r="AV93" s="1" t="n"/>
+      <c r="AW93" s="1" t="n"/>
+      <c r="AX93" s="1" t="n"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n"/>
+      <c r="B94" s="6" t="n"/>
+      <c r="C94" s="6" t="n"/>
+      <c r="D94" s="1" t="n"/>
+      <c r="E94" s="1" t="n"/>
+      <c r="F94" s="1" t="n"/>
+      <c r="G94" s="1" t="n"/>
+      <c r="H94" s="1" t="n"/>
+      <c r="I94" s="1" t="n"/>
+      <c r="J94" s="1" t="n"/>
+      <c r="K94" s="1" t="n"/>
+      <c r="L94" s="1" t="n"/>
+      <c r="M94" s="1" t="n"/>
+      <c r="N94" s="1" t="n"/>
+      <c r="O94" s="1" t="n"/>
+      <c r="P94" s="1" t="n"/>
+      <c r="Q94" s="1" t="n"/>
+      <c r="R94" s="1" t="n"/>
+      <c r="S94" s="1" t="n"/>
+      <c r="T94" s="1" t="n"/>
+      <c r="U94" s="1" t="n"/>
+      <c r="V94" s="1" t="n"/>
+      <c r="W94" s="1" t="n"/>
+      <c r="X94" s="1" t="n"/>
+      <c r="Y94" s="1" t="n"/>
+      <c r="Z94" s="1" t="n"/>
+      <c r="AA94" s="1" t="n"/>
+      <c r="AB94" s="1" t="n"/>
+      <c r="AC94" s="1" t="n"/>
+      <c r="AD94" s="1" t="n"/>
+      <c r="AE94" s="1" t="n"/>
+      <c r="AF94" s="1" t="n"/>
+      <c r="AG94" s="1" t="n"/>
+      <c r="AH94" s="1" t="n"/>
+      <c r="AI94" s="1" t="n"/>
+      <c r="AJ94" s="1" t="n"/>
+      <c r="AK94" s="1" t="n"/>
+      <c r="AL94" s="1" t="n"/>
+      <c r="AM94" s="1" t="n"/>
+      <c r="AN94" s="1" t="n"/>
+      <c r="AO94" s="1" t="n"/>
+      <c r="AP94" s="1" t="n"/>
+      <c r="AQ94" s="1" t="n"/>
+      <c r="AR94" s="1" t="n"/>
+      <c r="AS94" s="1" t="n"/>
+      <c r="AT94" s="1" t="n"/>
+      <c r="AU94" s="1" t="n"/>
+      <c r="AV94" s="1" t="n"/>
+      <c r="AW94" s="1" t="n"/>
+      <c r="AX94" s="1" t="n"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n"/>
+      <c r="B95" s="6" t="n"/>
+      <c r="C95" s="6" t="n"/>
+      <c r="D95" s="1" t="n"/>
+      <c r="E95" s="1" t="n"/>
+      <c r="F95" s="1" t="n"/>
+      <c r="G95" s="1" t="n"/>
+      <c r="H95" s="1" t="n"/>
+      <c r="I95" s="1" t="n"/>
+      <c r="J95" s="1" t="n"/>
+      <c r="K95" s="1" t="n"/>
+      <c r="L95" s="1" t="n"/>
+      <c r="M95" s="1" t="n"/>
+      <c r="N95" s="1" t="n"/>
+      <c r="O95" s="1" t="n"/>
+      <c r="P95" s="1" t="n"/>
+      <c r="Q95" s="1" t="n"/>
+      <c r="R95" s="1" t="n"/>
+      <c r="S95" s="1" t="n"/>
+      <c r="T95" s="1" t="n"/>
+      <c r="U95" s="1" t="n"/>
+      <c r="V95" s="1" t="n"/>
+      <c r="W95" s="1" t="n"/>
+      <c r="X95" s="1" t="n"/>
+      <c r="Y95" s="1" t="n"/>
+      <c r="Z95" s="1" t="n"/>
+      <c r="AA95" s="1" t="n"/>
+      <c r="AB95" s="1" t="n"/>
+      <c r="AC95" s="1" t="n"/>
+      <c r="AD95" s="1" t="n"/>
+      <c r="AE95" s="1" t="n"/>
+      <c r="AF95" s="1" t="n"/>
+      <c r="AG95" s="1" t="n"/>
+      <c r="AH95" s="1" t="n"/>
+      <c r="AI95" s="1" t="n"/>
+      <c r="AJ95" s="1" t="n"/>
+      <c r="AK95" s="1" t="n"/>
+      <c r="AL95" s="1" t="n"/>
+      <c r="AM95" s="1" t="n"/>
+      <c r="AN95" s="1" t="n"/>
+      <c r="AO95" s="1" t="n"/>
+      <c r="AP95" s="1" t="n"/>
+      <c r="AQ95" s="1" t="n"/>
+      <c r="AR95" s="1" t="n"/>
+      <c r="AS95" s="1" t="n"/>
+      <c r="AT95" s="1" t="n"/>
+      <c r="AU95" s="1" t="n"/>
+      <c r="AV95" s="1" t="n"/>
+      <c r="AW95" s="1" t="n"/>
+      <c r="AX95" s="1" t="n"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n"/>
+      <c r="B96" s="6" t="n"/>
+      <c r="C96" s="6" t="n"/>
+      <c r="D96" s="1" t="n"/>
+      <c r="E96" s="1" t="n"/>
+      <c r="F96" s="1" t="n"/>
+      <c r="G96" s="1" t="n"/>
+      <c r="H96" s="1" t="n"/>
+      <c r="I96" s="1" t="n"/>
+      <c r="J96" s="1" t="n"/>
+      <c r="K96" s="1" t="n"/>
+      <c r="L96" s="1" t="n"/>
+      <c r="M96" s="1" t="n"/>
+      <c r="N96" s="1" t="n"/>
+      <c r="O96" s="1" t="n"/>
+      <c r="P96" s="1" t="n"/>
+      <c r="Q96" s="1" t="n"/>
+      <c r="R96" s="1" t="n"/>
+      <c r="S96" s="1" t="n"/>
+      <c r="T96" s="1" t="n"/>
+      <c r="U96" s="1" t="n"/>
+      <c r="V96" s="1" t="n"/>
+      <c r="W96" s="1" t="n"/>
+      <c r="X96" s="1" t="n"/>
+      <c r="Y96" s="1" t="n"/>
+      <c r="Z96" s="1" t="n"/>
+      <c r="AA96" s="1" t="n"/>
+      <c r="AB96" s="1" t="n"/>
+      <c r="AC96" s="1" t="n"/>
+      <c r="AD96" s="1" t="n"/>
+      <c r="AE96" s="1" t="n"/>
+      <c r="AF96" s="1" t="n"/>
+      <c r="AG96" s="1" t="n"/>
+      <c r="AH96" s="1" t="n"/>
+      <c r="AI96" s="1" t="n"/>
+      <c r="AJ96" s="1" t="n"/>
+      <c r="AK96" s="1" t="n"/>
+      <c r="AL96" s="1" t="n"/>
+      <c r="AM96" s="1" t="n"/>
+      <c r="AN96" s="1" t="n"/>
+      <c r="AO96" s="1" t="n"/>
+      <c r="AP96" s="1" t="n"/>
+      <c r="AQ96" s="1" t="n"/>
+      <c r="AR96" s="1" t="n"/>
+      <c r="AS96" s="1" t="n"/>
+      <c r="AT96" s="1" t="n"/>
+      <c r="AU96" s="1" t="n"/>
+      <c r="AV96" s="1" t="n"/>
+      <c r="AW96" s="1" t="n"/>
+      <c r="AX96" s="1" t="n"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n"/>
+      <c r="B97" s="6" t="n"/>
+      <c r="C97" s="6" t="n"/>
+      <c r="D97" s="1" t="n"/>
+      <c r="E97" s="1" t="n"/>
+      <c r="F97" s="1" t="n"/>
+      <c r="G97" s="1" t="n"/>
+      <c r="H97" s="1" t="n"/>
+      <c r="I97" s="1" t="n"/>
+      <c r="J97" s="1" t="n"/>
+      <c r="K97" s="1" t="n"/>
+      <c r="L97" s="1" t="n"/>
+      <c r="M97" s="1" t="n"/>
+      <c r="N97" s="1" t="n"/>
+      <c r="O97" s="1" t="n"/>
+      <c r="P97" s="1" t="n"/>
+      <c r="Q97" s="1" t="n"/>
+      <c r="R97" s="1" t="n"/>
+      <c r="S97" s="1" t="n"/>
+      <c r="T97" s="1" t="n"/>
+      <c r="U97" s="1" t="n"/>
+      <c r="V97" s="1" t="n"/>
+      <c r="W97" s="1" t="n"/>
+      <c r="X97" s="1" t="n"/>
+      <c r="Y97" s="1" t="n"/>
+      <c r="Z97" s="1" t="n"/>
+      <c r="AA97" s="1" t="n"/>
+      <c r="AB97" s="1" t="n"/>
+      <c r="AC97" s="1" t="n"/>
+      <c r="AD97" s="1" t="n"/>
+      <c r="AE97" s="1" t="n"/>
+      <c r="AF97" s="1" t="n"/>
+      <c r="AG97" s="1" t="n"/>
+      <c r="AH97" s="1" t="n"/>
+      <c r="AI97" s="1" t="n"/>
+      <c r="AJ97" s="1" t="n"/>
+      <c r="AK97" s="1" t="n"/>
+      <c r="AL97" s="1" t="n"/>
+      <c r="AM97" s="1" t="n"/>
+      <c r="AN97" s="1" t="n"/>
+      <c r="AO97" s="1" t="n"/>
+      <c r="AP97" s="1" t="n"/>
+      <c r="AQ97" s="1" t="n"/>
+      <c r="AR97" s="1" t="n"/>
+      <c r="AS97" s="1" t="n"/>
+      <c r="AT97" s="1" t="n"/>
+      <c r="AU97" s="1" t="n"/>
+      <c r="AV97" s="1" t="n"/>
+      <c r="AW97" s="1" t="n"/>
+      <c r="AX97" s="1" t="n"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n"/>
+      <c r="B98" s="6" t="n"/>
+      <c r="C98" s="6" t="n"/>
+      <c r="D98" s="1" t="n"/>
+      <c r="E98" s="1" t="n"/>
+      <c r="F98" s="1" t="n"/>
+      <c r="G98" s="1" t="n"/>
+      <c r="H98" s="1" t="n"/>
+      <c r="I98" s="1" t="n"/>
+      <c r="J98" s="1" t="n"/>
+      <c r="K98" s="1" t="n"/>
+      <c r="L98" s="1" t="n"/>
+      <c r="M98" s="1" t="n"/>
+      <c r="N98" s="1" t="n"/>
+      <c r="O98" s="1" t="n"/>
+      <c r="P98" s="1" t="n"/>
+      <c r="Q98" s="1" t="n"/>
+      <c r="R98" s="1" t="n"/>
+      <c r="S98" s="1" t="n"/>
+      <c r="T98" s="1" t="n"/>
+      <c r="U98" s="1" t="n"/>
+      <c r="V98" s="1" t="n"/>
+      <c r="W98" s="1" t="n"/>
+      <c r="X98" s="1" t="n"/>
+      <c r="Y98" s="1" t="n"/>
+      <c r="Z98" s="1" t="n"/>
+      <c r="AA98" s="1" t="n"/>
+      <c r="AB98" s="1" t="n"/>
+      <c r="AC98" s="1" t="n"/>
+      <c r="AD98" s="1" t="n"/>
+      <c r="AE98" s="1" t="n"/>
+      <c r="AF98" s="1" t="n"/>
+      <c r="AG98" s="1" t="n"/>
+      <c r="AH98" s="1" t="n"/>
+      <c r="AI98" s="1" t="n"/>
+      <c r="AJ98" s="1" t="n"/>
+      <c r="AK98" s="1" t="n"/>
+      <c r="AL98" s="1" t="n"/>
+      <c r="AM98" s="1" t="n"/>
+      <c r="AN98" s="1" t="n"/>
+      <c r="AO98" s="1" t="n"/>
+      <c r="AP98" s="1" t="n"/>
+      <c r="AQ98" s="1" t="n"/>
+      <c r="AR98" s="1" t="n"/>
+      <c r="AS98" s="1" t="n"/>
+      <c r="AT98" s="1" t="n"/>
+      <c r="AU98" s="1" t="n"/>
+      <c r="AV98" s="1" t="n"/>
+      <c r="AW98" s="1" t="n"/>
+      <c r="AX98" s="1" t="n"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n"/>
+      <c r="B99" s="6" t="n"/>
+      <c r="C99" s="6" t="n"/>
+      <c r="D99" s="1" t="n"/>
+      <c r="E99" s="1" t="n"/>
+      <c r="F99" s="1" t="n"/>
+      <c r="G99" s="1" t="n"/>
+      <c r="H99" s="1" t="n"/>
+      <c r="I99" s="1" t="n"/>
+      <c r="J99" s="1" t="n"/>
+      <c r="K99" s="1" t="n"/>
+      <c r="L99" s="1" t="n"/>
+      <c r="M99" s="1" t="n"/>
+      <c r="N99" s="1" t="n"/>
+      <c r="O99" s="1" t="n"/>
+      <c r="P99" s="1" t="n"/>
+      <c r="Q99" s="1" t="n"/>
+      <c r="R99" s="1" t="n"/>
+      <c r="S99" s="1" t="n"/>
+      <c r="T99" s="1" t="n"/>
+      <c r="U99" s="1" t="n"/>
+      <c r="V99" s="1" t="n"/>
+      <c r="W99" s="1" t="n"/>
+      <c r="X99" s="1" t="n"/>
+      <c r="Y99" s="1" t="n"/>
+      <c r="Z99" s="1" t="n"/>
+      <c r="AA99" s="1" t="n"/>
+      <c r="AB99" s="1" t="n"/>
+      <c r="AC99" s="1" t="n"/>
+      <c r="AD99" s="1" t="n"/>
+      <c r="AE99" s="1" t="n"/>
+      <c r="AF99" s="1" t="n"/>
+      <c r="AG99" s="1" t="n"/>
+      <c r="AH99" s="1" t="n"/>
+      <c r="AI99" s="1" t="n"/>
+      <c r="AJ99" s="1" t="n"/>
+      <c r="AK99" s="1" t="n"/>
+      <c r="AL99" s="1" t="n"/>
+      <c r="AM99" s="1" t="n"/>
+      <c r="AN99" s="1" t="n"/>
+      <c r="AO99" s="1" t="n"/>
+      <c r="AP99" s="1" t="n"/>
+      <c r="AQ99" s="1" t="n"/>
+      <c r="AR99" s="1" t="n"/>
+      <c r="AS99" s="1" t="n"/>
+      <c r="AT99" s="1" t="n"/>
+      <c r="AU99" s="1" t="n"/>
+      <c r="AV99" s="1" t="n"/>
+      <c r="AW99" s="1" t="n"/>
+      <c r="AX99" s="1" t="n"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n"/>
+      <c r="B100" s="6" t="n"/>
+      <c r="C100" s="6" t="n"/>
+      <c r="D100" s="1" t="n"/>
+      <c r="E100" s="1" t="n"/>
+      <c r="F100" s="1" t="n"/>
+      <c r="G100" s="1" t="n"/>
+      <c r="H100" s="1" t="n"/>
+      <c r="I100" s="1" t="n"/>
+      <c r="J100" s="1" t="n"/>
+      <c r="K100" s="1" t="n"/>
+      <c r="L100" s="1" t="n"/>
+      <c r="M100" s="1" t="n"/>
+      <c r="N100" s="1" t="n"/>
+      <c r="O100" s="1" t="n"/>
+      <c r="P100" s="1" t="n"/>
+      <c r="Q100" s="1" t="n"/>
+      <c r="R100" s="1" t="n"/>
+      <c r="S100" s="1" t="n"/>
+      <c r="T100" s="1" t="n"/>
+      <c r="U100" s="1" t="n"/>
+      <c r="V100" s="1" t="n"/>
+      <c r="W100" s="1" t="n"/>
+      <c r="X100" s="1" t="n"/>
+      <c r="Y100" s="1" t="n"/>
+      <c r="Z100" s="1" t="n"/>
+      <c r="AA100" s="1" t="n"/>
+      <c r="AB100" s="1" t="n"/>
+      <c r="AC100" s="1" t="n"/>
+      <c r="AD100" s="1" t="n"/>
+      <c r="AE100" s="1" t="n"/>
+      <c r="AF100" s="1" t="n"/>
+      <c r="AG100" s="1" t="n"/>
+      <c r="AH100" s="1" t="n"/>
+      <c r="AI100" s="1" t="n"/>
+      <c r="AJ100" s="1" t="n"/>
+      <c r="AK100" s="1" t="n"/>
+      <c r="AL100" s="1" t="n"/>
+      <c r="AM100" s="1" t="n"/>
+      <c r="AN100" s="1" t="n"/>
+      <c r="AO100" s="1" t="n"/>
+      <c r="AP100" s="1" t="n"/>
+      <c r="AQ100" s="1" t="n"/>
+      <c r="AR100" s="1" t="n"/>
+      <c r="AS100" s="1" t="n"/>
+      <c r="AT100" s="1" t="n"/>
+      <c r="AU100" s="1" t="n"/>
+      <c r="AV100" s="1" t="n"/>
+      <c r="AW100" s="1" t="n"/>
+      <c r="AX100" s="1" t="n"/>
     </row>
   </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="B9"/>
+    <mergeCell ref="B13"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="C13"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="B5"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="C5"/>
+    <mergeCell ref="C9"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/chronogram.xlsx
+++ b/chronogram.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart (weeks)" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Gantt Chart (months)" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -27,14 +28,14 @@
     </font>
     <font>
       <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
+    <font>
+      <b val="1"/>
       <color rgb="00000000"/>
     </font>
     <font>
       <b val="1"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <color rgb="00FFFFFF"/>
     </font>
     <font>
       <color rgb="00FFFFFF"/>
@@ -55,6 +56,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="000070C0"/>
+        <bgColor rgb="000070C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FFA500"/>
         <bgColor rgb="00FFA500"/>
       </patternFill>
@@ -63,12 +70,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="0032a852"/>
         <bgColor rgb="0032a852"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="000070C0"/>
-        <bgColor rgb="000070C0"/>
       </patternFill>
     </fill>
   </fills>
@@ -96,32 +97,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -495,15 +490,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="16" customWidth="1" min="6" max="6"/>
-    <col width="16" customWidth="1" min="7" max="7"/>
-    <col width="16" customWidth="1" min="8" max="8"/>
-    <col width="16" customWidth="1" min="9" max="9"/>
-    <col width="16" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
     <col width="20" customWidth="1" min="11" max="11"/>
     <col width="20" customWidth="1" min="12" max="12"/>
     <col width="20" customWidth="1" min="13" max="13"/>
@@ -580,7 +571,7 @@
         </is>
       </c>
       <c r="I1" s="4" t="n"/>
-      <c r="J1" s="4" t="n"/>
+      <c r="J1" s="1" t="n"/>
       <c r="K1" s="1" t="n"/>
       <c r="L1" s="1" t="n"/>
       <c r="M1" s="1" t="n"/>
@@ -624,10 +615,6 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n"/>
-      <c r="B2" s="4" t="n"/>
-      <c r="C2" s="4" t="n"/>
-      <c r="D2" s="4" t="n"/>
-      <c r="E2" s="4" t="n"/>
       <c r="F2" s="5" t="inlineStr">
         <is>
           <t>December</t>
@@ -640,7 +627,7 @@
         </is>
       </c>
       <c r="I2" s="4" t="n"/>
-      <c r="J2" s="4" t="n"/>
+      <c r="J2" s="1" t="n"/>
       <c r="K2" s="1" t="n"/>
       <c r="L2" s="1" t="n"/>
       <c r="M2" s="1" t="n"/>
@@ -684,10 +671,6 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
-      <c r="B3" s="4" t="n"/>
-      <c r="C3" s="4" t="n"/>
-      <c r="D3" s="4" t="n"/>
-      <c r="E3" s="4" t="n"/>
       <c r="F3" s="5" t="inlineStr">
         <is>
           <t>20/Dec - 26/Dec</t>
@@ -708,11 +691,7 @@
           <t>10/Jan - 16/Jan</t>
         </is>
       </c>
-      <c r="J3" s="5" t="inlineStr">
-        <is>
-          <t>17/Jan - 23/Jan</t>
-        </is>
-      </c>
+      <c r="J3" s="1" t="n"/>
       <c r="K3" s="1" t="n"/>
       <c r="L3" s="1" t="n"/>
       <c r="M3" s="1" t="n"/>
@@ -756,8 +735,8 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
-      <c r="B4" s="6" t="n"/>
-      <c r="C4" s="6" t="n"/>
+      <c r="B4" s="1" t="n"/>
+      <c r="C4" s="1" t="n"/>
       <c r="D4" s="1" t="n"/>
       <c r="E4" s="1" t="n"/>
       <c r="F4" s="1" t="n"/>
@@ -808,28 +787,28 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
-      <c r="B5" s="7" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>Task 1</t>
         </is>
       </c>
-      <c r="C5" s="7" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="D5" s="8" t="inlineStr">
+      <c r="D5" s="7" t="inlineStr">
         <is>
           <t>20-Dec</t>
         </is>
       </c>
-      <c r="E5" s="8" t="inlineStr">
+      <c r="E5" s="7" t="inlineStr">
         <is>
           <t>02-Jan</t>
         </is>
       </c>
-      <c r="F5" s="9" t="n"/>
-      <c r="G5" s="9" t="n"/>
+      <c r="F5" s="8" t="n"/>
+      <c r="G5" s="8" t="n"/>
       <c r="H5" s="1" t="n"/>
       <c r="I5" s="1" t="n"/>
       <c r="J5" s="1" t="n"/>
@@ -876,27 +855,27 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
-      <c r="B6" s="10" t="inlineStr">
+      <c r="B6" s="9" t="inlineStr">
         <is>
           <t>1.1</t>
         </is>
       </c>
-      <c r="C6" s="10" t="inlineStr">
+      <c r="C6" s="9" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="D6" s="11" t="inlineStr">
+      <c r="D6" s="9" t="inlineStr">
         <is>
           <t>20-Dec</t>
         </is>
       </c>
-      <c r="E6" s="11" t="inlineStr">
+      <c r="E6" s="9" t="inlineStr">
         <is>
           <t>26-Dec</t>
         </is>
       </c>
-      <c r="F6" s="12" t="n"/>
+      <c r="F6" s="10" t="n"/>
       <c r="G6" s="1" t="n"/>
       <c r="H6" s="1" t="n"/>
       <c r="I6" s="1" t="n"/>
@@ -944,28 +923,28 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
-      <c r="B7" s="10" t="inlineStr">
+      <c r="B7" s="9" t="inlineStr">
         <is>
           <t>1.2</t>
         </is>
       </c>
-      <c r="C7" s="10" t="inlineStr">
+      <c r="C7" s="9" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="D7" s="11" t="inlineStr">
+      <c r="D7" s="9" t="inlineStr">
         <is>
           <t>27-Dec</t>
         </is>
       </c>
-      <c r="E7" s="11" t="inlineStr">
+      <c r="E7" s="9" t="inlineStr">
         <is>
           <t>02-Jan</t>
         </is>
       </c>
       <c r="F7" s="1" t="n"/>
-      <c r="G7" s="12" t="n"/>
+      <c r="G7" s="10" t="n"/>
       <c r="H7" s="1" t="n"/>
       <c r="I7" s="1" t="n"/>
       <c r="J7" s="1" t="n"/>
@@ -1012,30 +991,30 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
-      <c r="B8" s="10" t="inlineStr">
+      <c r="B8" s="6" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>Task 2</t>
         </is>
       </c>
-      <c r="C8" s="10" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>M2</t>
         </is>
       </c>
-      <c r="D8" s="11" t="inlineStr">
+      <c r="D8" s="7" t="inlineStr">
         <is>
-          <t>27-Dec</t>
+          <t>03-Jan</t>
         </is>
       </c>
-      <c r="E8" s="11" t="inlineStr">
+      <c r="E8" s="7" t="inlineStr">
         <is>
-          <t>02-Jan</t>
+          <t>16-Jan</t>
         </is>
       </c>
       <c r="F8" s="1" t="n"/>
-      <c r="G8" s="12" t="n"/>
-      <c r="H8" s="1" t="n"/>
-      <c r="I8" s="1" t="n"/>
+      <c r="G8" s="1" t="n"/>
+      <c r="H8" s="8" t="n"/>
+      <c r="I8" s="8" t="n"/>
       <c r="J8" s="1" t="n"/>
       <c r="K8" s="1" t="n"/>
       <c r="L8" s="1" t="n"/>
@@ -1080,29 +1059,29 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B9" s="9" t="inlineStr">
         <is>
-          <t>Task 2</t>
+          <t>2.1</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr">
+      <c r="C9" s="9" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>C</t>
         </is>
       </c>
-      <c r="D9" s="8" t="inlineStr">
+      <c r="D9" s="9" t="inlineStr">
         <is>
           <t>03-Jan</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr">
+      <c r="E9" s="9" t="inlineStr">
         <is>
           <t>09-Jan</t>
         </is>
       </c>
       <c r="F9" s="1" t="n"/>
       <c r="G9" s="1" t="n"/>
-      <c r="H9" s="9" t="n"/>
+      <c r="H9" s="10" t="n"/>
       <c r="I9" s="1" t="n"/>
       <c r="J9" s="1" t="n"/>
       <c r="K9" s="1" t="n"/>
@@ -1148,30 +1127,30 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
-      <c r="B10" s="10" t="inlineStr">
+      <c r="B10" s="9" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.2</t>
         </is>
       </c>
-      <c r="C10" s="10" t="inlineStr">
+      <c r="C10" s="9" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="D10" s="11" t="inlineStr">
+      <c r="D10" s="9" t="inlineStr">
         <is>
-          <t>03-Jan</t>
+          <t>10-Jan</t>
         </is>
       </c>
-      <c r="E10" s="11" t="inlineStr">
+      <c r="E10" s="9" t="inlineStr">
         <is>
-          <t>09-Jan</t>
+          <t>16-Jan</t>
         </is>
       </c>
       <c r="F10" s="1" t="n"/>
       <c r="G10" s="1" t="n"/>
-      <c r="H10" s="12" t="n"/>
-      <c r="I10" s="1" t="n"/>
+      <c r="H10" s="1" t="n"/>
+      <c r="I10" s="10" t="n"/>
       <c r="J10" s="1" t="n"/>
       <c r="K10" s="1" t="n"/>
       <c r="L10" s="1" t="n"/>
@@ -1216,29 +1195,13 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
-      <c r="B11" s="10" t="inlineStr">
-        <is>
-          <t>2.2</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D11" s="11" t="inlineStr">
-        <is>
-          <t>03-Jan</t>
-        </is>
-      </c>
-      <c r="E11" s="11" t="inlineStr">
-        <is>
-          <t>09-Jan</t>
-        </is>
-      </c>
+      <c r="B11" s="1" t="n"/>
+      <c r="C11" s="1" t="n"/>
+      <c r="D11" s="1" t="n"/>
+      <c r="E11" s="1" t="n"/>
       <c r="F11" s="1" t="n"/>
       <c r="G11" s="1" t="n"/>
-      <c r="H11" s="12" t="n"/>
+      <c r="H11" s="1" t="n"/>
       <c r="I11" s="1" t="n"/>
       <c r="J11" s="1" t="n"/>
       <c r="K11" s="1" t="n"/>
@@ -1284,29 +1247,13 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
-      <c r="B12" s="10" t="inlineStr">
-        <is>
-          <t>2.3</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="D12" s="11" t="inlineStr">
-        <is>
-          <t>03-Jan</t>
-        </is>
-      </c>
-      <c r="E12" s="11" t="inlineStr">
-        <is>
-          <t>09-Jan</t>
-        </is>
-      </c>
+      <c r="B12" s="1" t="n"/>
+      <c r="C12" s="1" t="n"/>
+      <c r="D12" s="1" t="n"/>
+      <c r="E12" s="1" t="n"/>
       <c r="F12" s="1" t="n"/>
       <c r="G12" s="1" t="n"/>
-      <c r="H12" s="12" t="n"/>
+      <c r="H12" s="1" t="n"/>
       <c r="I12" s="1" t="n"/>
       <c r="J12" s="1" t="n"/>
       <c r="K12" s="1" t="n"/>
@@ -1352,31 +1299,15 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>Task 3</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="inlineStr">
-        <is>
-          <t>M3</t>
-        </is>
-      </c>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>10-Jan</t>
-        </is>
-      </c>
-      <c r="E13" s="8" t="inlineStr">
-        <is>
-          <t>23-Jan</t>
-        </is>
-      </c>
+      <c r="B13" s="1" t="n"/>
+      <c r="C13" s="1" t="n"/>
+      <c r="D13" s="1" t="n"/>
+      <c r="E13" s="1" t="n"/>
       <c r="F13" s="1" t="n"/>
       <c r="G13" s="1" t="n"/>
       <c r="H13" s="1" t="n"/>
-      <c r="I13" s="9" t="n"/>
-      <c r="J13" s="9" t="n"/>
+      <c r="I13" s="1" t="n"/>
+      <c r="J13" s="1" t="n"/>
       <c r="K13" s="1" t="n"/>
       <c r="L13" s="1" t="n"/>
       <c r="M13" s="1" t="n"/>
@@ -1420,30 +1351,14 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
-      <c r="B14" s="10" t="inlineStr">
-        <is>
-          <t>3.1</t>
-        </is>
-      </c>
-      <c r="C14" s="10" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="D14" s="11" t="inlineStr">
-        <is>
-          <t>10-Jan</t>
-        </is>
-      </c>
-      <c r="E14" s="11" t="inlineStr">
-        <is>
-          <t>16-Jan</t>
-        </is>
-      </c>
+      <c r="B14" s="1" t="n"/>
+      <c r="C14" s="1" t="n"/>
+      <c r="D14" s="1" t="n"/>
+      <c r="E14" s="1" t="n"/>
       <c r="F14" s="1" t="n"/>
       <c r="G14" s="1" t="n"/>
       <c r="H14" s="1" t="n"/>
-      <c r="I14" s="12" t="n"/>
+      <c r="I14" s="1" t="n"/>
       <c r="J14" s="1" t="n"/>
       <c r="K14" s="1" t="n"/>
       <c r="L14" s="1" t="n"/>
@@ -1488,31 +1403,15 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
-      <c r="B15" s="10" t="inlineStr">
-        <is>
-          <t>3.2</t>
-        </is>
-      </c>
-      <c r="C15" s="10" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="D15" s="11" t="inlineStr">
-        <is>
-          <t>17-Jan</t>
-        </is>
-      </c>
-      <c r="E15" s="11" t="inlineStr">
-        <is>
-          <t>23-Jan</t>
-        </is>
-      </c>
+      <c r="B15" s="1" t="n"/>
+      <c r="C15" s="1" t="n"/>
+      <c r="D15" s="1" t="n"/>
+      <c r="E15" s="1" t="n"/>
       <c r="F15" s="1" t="n"/>
       <c r="G15" s="1" t="n"/>
       <c r="H15" s="1" t="n"/>
       <c r="I15" s="1" t="n"/>
-      <c r="J15" s="12" t="n"/>
+      <c r="J15" s="1" t="n"/>
       <c r="K15" s="1" t="n"/>
       <c r="L15" s="1" t="n"/>
       <c r="M15" s="1" t="n"/>
@@ -1556,8 +1455,8 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
-      <c r="B16" s="6" t="n"/>
-      <c r="C16" s="6" t="n"/>
+      <c r="B16" s="1" t="n"/>
+      <c r="C16" s="1" t="n"/>
       <c r="D16" s="1" t="n"/>
       <c r="E16" s="1" t="n"/>
       <c r="F16" s="1" t="n"/>
@@ -1608,8 +1507,8 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
-      <c r="B17" s="6" t="n"/>
-      <c r="C17" s="6" t="n"/>
+      <c r="B17" s="1" t="n"/>
+      <c r="C17" s="1" t="n"/>
       <c r="D17" s="1" t="n"/>
       <c r="E17" s="1" t="n"/>
       <c r="F17" s="1" t="n"/>
@@ -1660,8 +1559,8 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
-      <c r="B18" s="6" t="n"/>
-      <c r="C18" s="6" t="n"/>
+      <c r="B18" s="1" t="n"/>
+      <c r="C18" s="1" t="n"/>
       <c r="D18" s="1" t="n"/>
       <c r="E18" s="1" t="n"/>
       <c r="F18" s="1" t="n"/>
@@ -1712,8 +1611,8 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
-      <c r="B19" s="6" t="n"/>
-      <c r="C19" s="6" t="n"/>
+      <c r="B19" s="1" t="n"/>
+      <c r="C19" s="1" t="n"/>
       <c r="D19" s="1" t="n"/>
       <c r="E19" s="1" t="n"/>
       <c r="F19" s="1" t="n"/>
@@ -1764,8 +1663,8 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
-      <c r="B20" s="6" t="n"/>
-      <c r="C20" s="6" t="n"/>
+      <c r="B20" s="1" t="n"/>
+      <c r="C20" s="1" t="n"/>
       <c r="D20" s="1" t="n"/>
       <c r="E20" s="1" t="n"/>
       <c r="F20" s="1" t="n"/>
@@ -1816,8 +1715,8 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
-      <c r="B21" s="6" t="n"/>
-      <c r="C21" s="6" t="n"/>
+      <c r="B21" s="1" t="n"/>
+      <c r="C21" s="1" t="n"/>
       <c r="D21" s="1" t="n"/>
       <c r="E21" s="1" t="n"/>
       <c r="F21" s="1" t="n"/>
@@ -1868,8 +1767,8 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
-      <c r="B22" s="6" t="n"/>
-      <c r="C22" s="6" t="n"/>
+      <c r="B22" s="1" t="n"/>
+      <c r="C22" s="1" t="n"/>
       <c r="D22" s="1" t="n"/>
       <c r="E22" s="1" t="n"/>
       <c r="F22" s="1" t="n"/>
@@ -1920,8 +1819,8 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
-      <c r="B23" s="6" t="n"/>
-      <c r="C23" s="6" t="n"/>
+      <c r="B23" s="1" t="n"/>
+      <c r="C23" s="1" t="n"/>
       <c r="D23" s="1" t="n"/>
       <c r="E23" s="1" t="n"/>
       <c r="F23" s="1" t="n"/>
@@ -1972,8 +1871,8 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
-      <c r="B24" s="6" t="n"/>
-      <c r="C24" s="6" t="n"/>
+      <c r="B24" s="1" t="n"/>
+      <c r="C24" s="1" t="n"/>
       <c r="D24" s="1" t="n"/>
       <c r="E24" s="1" t="n"/>
       <c r="F24" s="1" t="n"/>
@@ -2024,8 +1923,8 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
-      <c r="B25" s="6" t="n"/>
-      <c r="C25" s="6" t="n"/>
+      <c r="B25" s="1" t="n"/>
+      <c r="C25" s="1" t="n"/>
       <c r="D25" s="1" t="n"/>
       <c r="E25" s="1" t="n"/>
       <c r="F25" s="1" t="n"/>
@@ -2076,8 +1975,8 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
-      <c r="B26" s="6" t="n"/>
-      <c r="C26" s="6" t="n"/>
+      <c r="B26" s="1" t="n"/>
+      <c r="C26" s="1" t="n"/>
       <c r="D26" s="1" t="n"/>
       <c r="E26" s="1" t="n"/>
       <c r="F26" s="1" t="n"/>
@@ -2128,8 +2027,8 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
-      <c r="B27" s="6" t="n"/>
-      <c r="C27" s="6" t="n"/>
+      <c r="B27" s="1" t="n"/>
+      <c r="C27" s="1" t="n"/>
       <c r="D27" s="1" t="n"/>
       <c r="E27" s="1" t="n"/>
       <c r="F27" s="1" t="n"/>
@@ -2180,8 +2079,8 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n"/>
-      <c r="B28" s="6" t="n"/>
-      <c r="C28" s="6" t="n"/>
+      <c r="B28" s="1" t="n"/>
+      <c r="C28" s="1" t="n"/>
       <c r="D28" s="1" t="n"/>
       <c r="E28" s="1" t="n"/>
       <c r="F28" s="1" t="n"/>
@@ -2232,8 +2131,8 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
-      <c r="B29" s="6" t="n"/>
-      <c r="C29" s="6" t="n"/>
+      <c r="B29" s="1" t="n"/>
+      <c r="C29" s="1" t="n"/>
       <c r="D29" s="1" t="n"/>
       <c r="E29" s="1" t="n"/>
       <c r="F29" s="1" t="n"/>
@@ -2284,8 +2183,8 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
-      <c r="B30" s="6" t="n"/>
-      <c r="C30" s="6" t="n"/>
+      <c r="B30" s="1" t="n"/>
+      <c r="C30" s="1" t="n"/>
       <c r="D30" s="1" t="n"/>
       <c r="E30" s="1" t="n"/>
       <c r="F30" s="1" t="n"/>
@@ -2336,8 +2235,8 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
-      <c r="B31" s="6" t="n"/>
-      <c r="C31" s="6" t="n"/>
+      <c r="B31" s="1" t="n"/>
+      <c r="C31" s="1" t="n"/>
       <c r="D31" s="1" t="n"/>
       <c r="E31" s="1" t="n"/>
       <c r="F31" s="1" t="n"/>
@@ -2388,8 +2287,8 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n"/>
-      <c r="B32" s="6" t="n"/>
-      <c r="C32" s="6" t="n"/>
+      <c r="B32" s="1" t="n"/>
+      <c r="C32" s="1" t="n"/>
       <c r="D32" s="1" t="n"/>
       <c r="E32" s="1" t="n"/>
       <c r="F32" s="1" t="n"/>
@@ -2440,8 +2339,8 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n"/>
-      <c r="B33" s="6" t="n"/>
-      <c r="C33" s="6" t="n"/>
+      <c r="B33" s="1" t="n"/>
+      <c r="C33" s="1" t="n"/>
       <c r="D33" s="1" t="n"/>
       <c r="E33" s="1" t="n"/>
       <c r="F33" s="1" t="n"/>
@@ -2492,8 +2391,8 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n"/>
-      <c r="B34" s="6" t="n"/>
-      <c r="C34" s="6" t="n"/>
+      <c r="B34" s="1" t="n"/>
+      <c r="C34" s="1" t="n"/>
       <c r="D34" s="1" t="n"/>
       <c r="E34" s="1" t="n"/>
       <c r="F34" s="1" t="n"/>
@@ -2544,8 +2443,8 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n"/>
-      <c r="B35" s="6" t="n"/>
-      <c r="C35" s="6" t="n"/>
+      <c r="B35" s="1" t="n"/>
+      <c r="C35" s="1" t="n"/>
       <c r="D35" s="1" t="n"/>
       <c r="E35" s="1" t="n"/>
       <c r="F35" s="1" t="n"/>
@@ -2596,8 +2495,8 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n"/>
-      <c r="B36" s="6" t="n"/>
-      <c r="C36" s="6" t="n"/>
+      <c r="B36" s="1" t="n"/>
+      <c r="C36" s="1" t="n"/>
       <c r="D36" s="1" t="n"/>
       <c r="E36" s="1" t="n"/>
       <c r="F36" s="1" t="n"/>
@@ -2648,8 +2547,8 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n"/>
-      <c r="B37" s="6" t="n"/>
-      <c r="C37" s="6" t="n"/>
+      <c r="B37" s="1" t="n"/>
+      <c r="C37" s="1" t="n"/>
       <c r="D37" s="1" t="n"/>
       <c r="E37" s="1" t="n"/>
       <c r="F37" s="1" t="n"/>
@@ -2700,8 +2599,8 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n"/>
-      <c r="B38" s="6" t="n"/>
-      <c r="C38" s="6" t="n"/>
+      <c r="B38" s="1" t="n"/>
+      <c r="C38" s="1" t="n"/>
       <c r="D38" s="1" t="n"/>
       <c r="E38" s="1" t="n"/>
       <c r="F38" s="1" t="n"/>
@@ -2752,8 +2651,8 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n"/>
-      <c r="B39" s="6" t="n"/>
-      <c r="C39" s="6" t="n"/>
+      <c r="B39" s="1" t="n"/>
+      <c r="C39" s="1" t="n"/>
       <c r="D39" s="1" t="n"/>
       <c r="E39" s="1" t="n"/>
       <c r="F39" s="1" t="n"/>
@@ -2804,8 +2703,8 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n"/>
-      <c r="B40" s="6" t="n"/>
-      <c r="C40" s="6" t="n"/>
+      <c r="B40" s="1" t="n"/>
+      <c r="C40" s="1" t="n"/>
       <c r="D40" s="1" t="n"/>
       <c r="E40" s="1" t="n"/>
       <c r="F40" s="1" t="n"/>
@@ -2856,8 +2755,8 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n"/>
-      <c r="B41" s="6" t="n"/>
-      <c r="C41" s="6" t="n"/>
+      <c r="B41" s="1" t="n"/>
+      <c r="C41" s="1" t="n"/>
       <c r="D41" s="1" t="n"/>
       <c r="E41" s="1" t="n"/>
       <c r="F41" s="1" t="n"/>
@@ -2908,8 +2807,8 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n"/>
-      <c r="B42" s="6" t="n"/>
-      <c r="C42" s="6" t="n"/>
+      <c r="B42" s="1" t="n"/>
+      <c r="C42" s="1" t="n"/>
       <c r="D42" s="1" t="n"/>
       <c r="E42" s="1" t="n"/>
       <c r="F42" s="1" t="n"/>
@@ -2960,8 +2859,8 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n"/>
-      <c r="B43" s="6" t="n"/>
-      <c r="C43" s="6" t="n"/>
+      <c r="B43" s="1" t="n"/>
+      <c r="C43" s="1" t="n"/>
       <c r="D43" s="1" t="n"/>
       <c r="E43" s="1" t="n"/>
       <c r="F43" s="1" t="n"/>
@@ -3012,8 +2911,8 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n"/>
-      <c r="B44" s="6" t="n"/>
-      <c r="C44" s="6" t="n"/>
+      <c r="B44" s="1" t="n"/>
+      <c r="C44" s="1" t="n"/>
       <c r="D44" s="1" t="n"/>
       <c r="E44" s="1" t="n"/>
       <c r="F44" s="1" t="n"/>
@@ -3064,8 +2963,8 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n"/>
-      <c r="B45" s="6" t="n"/>
-      <c r="C45" s="6" t="n"/>
+      <c r="B45" s="1" t="n"/>
+      <c r="C45" s="1" t="n"/>
       <c r="D45" s="1" t="n"/>
       <c r="E45" s="1" t="n"/>
       <c r="F45" s="1" t="n"/>
@@ -3116,8 +3015,8 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n"/>
-      <c r="B46" s="6" t="n"/>
-      <c r="C46" s="6" t="n"/>
+      <c r="B46" s="1" t="n"/>
+      <c r="C46" s="1" t="n"/>
       <c r="D46" s="1" t="n"/>
       <c r="E46" s="1" t="n"/>
       <c r="F46" s="1" t="n"/>
@@ -3168,8 +3067,8 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n"/>
-      <c r="B47" s="6" t="n"/>
-      <c r="C47" s="6" t="n"/>
+      <c r="B47" s="1" t="n"/>
+      <c r="C47" s="1" t="n"/>
       <c r="D47" s="1" t="n"/>
       <c r="E47" s="1" t="n"/>
       <c r="F47" s="1" t="n"/>
@@ -3220,8 +3119,8 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n"/>
-      <c r="B48" s="6" t="n"/>
-      <c r="C48" s="6" t="n"/>
+      <c r="B48" s="1" t="n"/>
+      <c r="C48" s="1" t="n"/>
       <c r="D48" s="1" t="n"/>
       <c r="E48" s="1" t="n"/>
       <c r="F48" s="1" t="n"/>
@@ -3272,8 +3171,8 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n"/>
-      <c r="B49" s="6" t="n"/>
-      <c r="C49" s="6" t="n"/>
+      <c r="B49" s="1" t="n"/>
+      <c r="C49" s="1" t="n"/>
       <c r="D49" s="1" t="n"/>
       <c r="E49" s="1" t="n"/>
       <c r="F49" s="1" t="n"/>
@@ -3324,8 +3223,8 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n"/>
-      <c r="B50" s="6" t="n"/>
-      <c r="C50" s="6" t="n"/>
+      <c r="B50" s="1" t="n"/>
+      <c r="C50" s="1" t="n"/>
       <c r="D50" s="1" t="n"/>
       <c r="E50" s="1" t="n"/>
       <c r="F50" s="1" t="n"/>
@@ -3376,8 +3275,8 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n"/>
-      <c r="B51" s="6" t="n"/>
-      <c r="C51" s="6" t="n"/>
+      <c r="B51" s="1" t="n"/>
+      <c r="C51" s="1" t="n"/>
       <c r="D51" s="1" t="n"/>
       <c r="E51" s="1" t="n"/>
       <c r="F51" s="1" t="n"/>
@@ -3428,8 +3327,8 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n"/>
-      <c r="B52" s="6" t="n"/>
-      <c r="C52" s="6" t="n"/>
+      <c r="B52" s="1" t="n"/>
+      <c r="C52" s="1" t="n"/>
       <c r="D52" s="1" t="n"/>
       <c r="E52" s="1" t="n"/>
       <c r="F52" s="1" t="n"/>
@@ -3480,8 +3379,8 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n"/>
-      <c r="B53" s="6" t="n"/>
-      <c r="C53" s="6" t="n"/>
+      <c r="B53" s="1" t="n"/>
+      <c r="C53" s="1" t="n"/>
       <c r="D53" s="1" t="n"/>
       <c r="E53" s="1" t="n"/>
       <c r="F53" s="1" t="n"/>
@@ -3532,8 +3431,8 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n"/>
-      <c r="B54" s="6" t="n"/>
-      <c r="C54" s="6" t="n"/>
+      <c r="B54" s="1" t="n"/>
+      <c r="C54" s="1" t="n"/>
       <c r="D54" s="1" t="n"/>
       <c r="E54" s="1" t="n"/>
       <c r="F54" s="1" t="n"/>
@@ -3584,8 +3483,8 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n"/>
-      <c r="B55" s="6" t="n"/>
-      <c r="C55" s="6" t="n"/>
+      <c r="B55" s="1" t="n"/>
+      <c r="C55" s="1" t="n"/>
       <c r="D55" s="1" t="n"/>
       <c r="E55" s="1" t="n"/>
       <c r="F55" s="1" t="n"/>
@@ -3636,8 +3535,8 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n"/>
-      <c r="B56" s="6" t="n"/>
-      <c r="C56" s="6" t="n"/>
+      <c r="B56" s="1" t="n"/>
+      <c r="C56" s="1" t="n"/>
       <c r="D56" s="1" t="n"/>
       <c r="E56" s="1" t="n"/>
       <c r="F56" s="1" t="n"/>
@@ -3688,8 +3587,8 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n"/>
-      <c r="B57" s="6" t="n"/>
-      <c r="C57" s="6" t="n"/>
+      <c r="B57" s="1" t="n"/>
+      <c r="C57" s="1" t="n"/>
       <c r="D57" s="1" t="n"/>
       <c r="E57" s="1" t="n"/>
       <c r="F57" s="1" t="n"/>
@@ -3740,8 +3639,8 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n"/>
-      <c r="B58" s="6" t="n"/>
-      <c r="C58" s="6" t="n"/>
+      <c r="B58" s="1" t="n"/>
+      <c r="C58" s="1" t="n"/>
       <c r="D58" s="1" t="n"/>
       <c r="E58" s="1" t="n"/>
       <c r="F58" s="1" t="n"/>
@@ -3792,8 +3691,8 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n"/>
-      <c r="B59" s="6" t="n"/>
-      <c r="C59" s="6" t="n"/>
+      <c r="B59" s="1" t="n"/>
+      <c r="C59" s="1" t="n"/>
       <c r="D59" s="1" t="n"/>
       <c r="E59" s="1" t="n"/>
       <c r="F59" s="1" t="n"/>
@@ -3844,8 +3743,8 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n"/>
-      <c r="B60" s="6" t="n"/>
-      <c r="C60" s="6" t="n"/>
+      <c r="B60" s="1" t="n"/>
+      <c r="C60" s="1" t="n"/>
       <c r="D60" s="1" t="n"/>
       <c r="E60" s="1" t="n"/>
       <c r="F60" s="1" t="n"/>
@@ -3896,8 +3795,8 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n"/>
-      <c r="B61" s="6" t="n"/>
-      <c r="C61" s="6" t="n"/>
+      <c r="B61" s="1" t="n"/>
+      <c r="C61" s="1" t="n"/>
       <c r="D61" s="1" t="n"/>
       <c r="E61" s="1" t="n"/>
       <c r="F61" s="1" t="n"/>
@@ -3948,8 +3847,8 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n"/>
-      <c r="B62" s="6" t="n"/>
-      <c r="C62" s="6" t="n"/>
+      <c r="B62" s="1" t="n"/>
+      <c r="C62" s="1" t="n"/>
       <c r="D62" s="1" t="n"/>
       <c r="E62" s="1" t="n"/>
       <c r="F62" s="1" t="n"/>
@@ -4000,8 +3899,8 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n"/>
-      <c r="B63" s="6" t="n"/>
-      <c r="C63" s="6" t="n"/>
+      <c r="B63" s="1" t="n"/>
+      <c r="C63" s="1" t="n"/>
       <c r="D63" s="1" t="n"/>
       <c r="E63" s="1" t="n"/>
       <c r="F63" s="1" t="n"/>
@@ -4052,8 +3951,8 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n"/>
-      <c r="B64" s="6" t="n"/>
-      <c r="C64" s="6" t="n"/>
+      <c r="B64" s="1" t="n"/>
+      <c r="C64" s="1" t="n"/>
       <c r="D64" s="1" t="n"/>
       <c r="E64" s="1" t="n"/>
       <c r="F64" s="1" t="n"/>
@@ -4104,8 +4003,8 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n"/>
-      <c r="B65" s="6" t="n"/>
-      <c r="C65" s="6" t="n"/>
+      <c r="B65" s="1" t="n"/>
+      <c r="C65" s="1" t="n"/>
       <c r="D65" s="1" t="n"/>
       <c r="E65" s="1" t="n"/>
       <c r="F65" s="1" t="n"/>
@@ -4156,8 +4055,8 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n"/>
-      <c r="B66" s="6" t="n"/>
-      <c r="C66" s="6" t="n"/>
+      <c r="B66" s="1" t="n"/>
+      <c r="C66" s="1" t="n"/>
       <c r="D66" s="1" t="n"/>
       <c r="E66" s="1" t="n"/>
       <c r="F66" s="1" t="n"/>
@@ -4208,8 +4107,8 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n"/>
-      <c r="B67" s="6" t="n"/>
-      <c r="C67" s="6" t="n"/>
+      <c r="B67" s="1" t="n"/>
+      <c r="C67" s="1" t="n"/>
       <c r="D67" s="1" t="n"/>
       <c r="E67" s="1" t="n"/>
       <c r="F67" s="1" t="n"/>
@@ -4260,8 +4159,8 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n"/>
-      <c r="B68" s="6" t="n"/>
-      <c r="C68" s="6" t="n"/>
+      <c r="B68" s="1" t="n"/>
+      <c r="C68" s="1" t="n"/>
       <c r="D68" s="1" t="n"/>
       <c r="E68" s="1" t="n"/>
       <c r="F68" s="1" t="n"/>
@@ -4312,8 +4211,8 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n"/>
-      <c r="B69" s="6" t="n"/>
-      <c r="C69" s="6" t="n"/>
+      <c r="B69" s="1" t="n"/>
+      <c r="C69" s="1" t="n"/>
       <c r="D69" s="1" t="n"/>
       <c r="E69" s="1" t="n"/>
       <c r="F69" s="1" t="n"/>
@@ -4364,8 +4263,8 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n"/>
-      <c r="B70" s="6" t="n"/>
-      <c r="C70" s="6" t="n"/>
+      <c r="B70" s="1" t="n"/>
+      <c r="C70" s="1" t="n"/>
       <c r="D70" s="1" t="n"/>
       <c r="E70" s="1" t="n"/>
       <c r="F70" s="1" t="n"/>
@@ -4416,8 +4315,8 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n"/>
-      <c r="B71" s="6" t="n"/>
-      <c r="C71" s="6" t="n"/>
+      <c r="B71" s="1" t="n"/>
+      <c r="C71" s="1" t="n"/>
       <c r="D71" s="1" t="n"/>
       <c r="E71" s="1" t="n"/>
       <c r="F71" s="1" t="n"/>
@@ -4468,8 +4367,8 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n"/>
-      <c r="B72" s="6" t="n"/>
-      <c r="C72" s="6" t="n"/>
+      <c r="B72" s="1" t="n"/>
+      <c r="C72" s="1" t="n"/>
       <c r="D72" s="1" t="n"/>
       <c r="E72" s="1" t="n"/>
       <c r="F72" s="1" t="n"/>
@@ -4520,8 +4419,8 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n"/>
-      <c r="B73" s="6" t="n"/>
-      <c r="C73" s="6" t="n"/>
+      <c r="B73" s="1" t="n"/>
+      <c r="C73" s="1" t="n"/>
       <c r="D73" s="1" t="n"/>
       <c r="E73" s="1" t="n"/>
       <c r="F73" s="1" t="n"/>
@@ -4572,8 +4471,8 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n"/>
-      <c r="B74" s="6" t="n"/>
-      <c r="C74" s="6" t="n"/>
+      <c r="B74" s="1" t="n"/>
+      <c r="C74" s="1" t="n"/>
       <c r="D74" s="1" t="n"/>
       <c r="E74" s="1" t="n"/>
       <c r="F74" s="1" t="n"/>
@@ -4624,8 +4523,8 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n"/>
-      <c r="B75" s="6" t="n"/>
-      <c r="C75" s="6" t="n"/>
+      <c r="B75" s="1" t="n"/>
+      <c r="C75" s="1" t="n"/>
       <c r="D75" s="1" t="n"/>
       <c r="E75" s="1" t="n"/>
       <c r="F75" s="1" t="n"/>
@@ -4676,8 +4575,8 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n"/>
-      <c r="B76" s="6" t="n"/>
-      <c r="C76" s="6" t="n"/>
+      <c r="B76" s="1" t="n"/>
+      <c r="C76" s="1" t="n"/>
       <c r="D76" s="1" t="n"/>
       <c r="E76" s="1" t="n"/>
       <c r="F76" s="1" t="n"/>
@@ -4728,8 +4627,8 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n"/>
-      <c r="B77" s="6" t="n"/>
-      <c r="C77" s="6" t="n"/>
+      <c r="B77" s="1" t="n"/>
+      <c r="C77" s="1" t="n"/>
       <c r="D77" s="1" t="n"/>
       <c r="E77" s="1" t="n"/>
       <c r="F77" s="1" t="n"/>
@@ -4780,8 +4679,8 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n"/>
-      <c r="B78" s="6" t="n"/>
-      <c r="C78" s="6" t="n"/>
+      <c r="B78" s="1" t="n"/>
+      <c r="C78" s="1" t="n"/>
       <c r="D78" s="1" t="n"/>
       <c r="E78" s="1" t="n"/>
       <c r="F78" s="1" t="n"/>
@@ -4832,8 +4731,8 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n"/>
-      <c r="B79" s="6" t="n"/>
-      <c r="C79" s="6" t="n"/>
+      <c r="B79" s="1" t="n"/>
+      <c r="C79" s="1" t="n"/>
       <c r="D79" s="1" t="n"/>
       <c r="E79" s="1" t="n"/>
       <c r="F79" s="1" t="n"/>
@@ -4884,8 +4783,8 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n"/>
-      <c r="B80" s="6" t="n"/>
-      <c r="C80" s="6" t="n"/>
+      <c r="B80" s="1" t="n"/>
+      <c r="C80" s="1" t="n"/>
       <c r="D80" s="1" t="n"/>
       <c r="E80" s="1" t="n"/>
       <c r="F80" s="1" t="n"/>
@@ -4936,8 +4835,8 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n"/>
-      <c r="B81" s="6" t="n"/>
-      <c r="C81" s="6" t="n"/>
+      <c r="B81" s="1" t="n"/>
+      <c r="C81" s="1" t="n"/>
       <c r="D81" s="1" t="n"/>
       <c r="E81" s="1" t="n"/>
       <c r="F81" s="1" t="n"/>
@@ -4988,8 +4887,8 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n"/>
-      <c r="B82" s="6" t="n"/>
-      <c r="C82" s="6" t="n"/>
+      <c r="B82" s="1" t="n"/>
+      <c r="C82" s="1" t="n"/>
       <c r="D82" s="1" t="n"/>
       <c r="E82" s="1" t="n"/>
       <c r="F82" s="1" t="n"/>
@@ -5040,8 +4939,8 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n"/>
-      <c r="B83" s="6" t="n"/>
-      <c r="C83" s="6" t="n"/>
+      <c r="B83" s="1" t="n"/>
+      <c r="C83" s="1" t="n"/>
       <c r="D83" s="1" t="n"/>
       <c r="E83" s="1" t="n"/>
       <c r="F83" s="1" t="n"/>
@@ -5092,8 +4991,8 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n"/>
-      <c r="B84" s="6" t="n"/>
-      <c r="C84" s="6" t="n"/>
+      <c r="B84" s="1" t="n"/>
+      <c r="C84" s="1" t="n"/>
       <c r="D84" s="1" t="n"/>
       <c r="E84" s="1" t="n"/>
       <c r="F84" s="1" t="n"/>
@@ -5144,8 +5043,8 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n"/>
-      <c r="B85" s="6" t="n"/>
-      <c r="C85" s="6" t="n"/>
+      <c r="B85" s="1" t="n"/>
+      <c r="C85" s="1" t="n"/>
       <c r="D85" s="1" t="n"/>
       <c r="E85" s="1" t="n"/>
       <c r="F85" s="1" t="n"/>
@@ -5196,8 +5095,8 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n"/>
-      <c r="B86" s="6" t="n"/>
-      <c r="C86" s="6" t="n"/>
+      <c r="B86" s="1" t="n"/>
+      <c r="C86" s="1" t="n"/>
       <c r="D86" s="1" t="n"/>
       <c r="E86" s="1" t="n"/>
       <c r="F86" s="1" t="n"/>
@@ -5248,8 +5147,8 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n"/>
-      <c r="B87" s="6" t="n"/>
-      <c r="C87" s="6" t="n"/>
+      <c r="B87" s="1" t="n"/>
+      <c r="C87" s="1" t="n"/>
       <c r="D87" s="1" t="n"/>
       <c r="E87" s="1" t="n"/>
       <c r="F87" s="1" t="n"/>
@@ -5300,8 +5199,8 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n"/>
-      <c r="B88" s="6" t="n"/>
-      <c r="C88" s="6" t="n"/>
+      <c r="B88" s="1" t="n"/>
+      <c r="C88" s="1" t="n"/>
       <c r="D88" s="1" t="n"/>
       <c r="E88" s="1" t="n"/>
       <c r="F88" s="1" t="n"/>
@@ -5352,8 +5251,8 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n"/>
-      <c r="B89" s="6" t="n"/>
-      <c r="C89" s="6" t="n"/>
+      <c r="B89" s="1" t="n"/>
+      <c r="C89" s="1" t="n"/>
       <c r="D89" s="1" t="n"/>
       <c r="E89" s="1" t="n"/>
       <c r="F89" s="1" t="n"/>
@@ -5404,8 +5303,8 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n"/>
-      <c r="B90" s="6" t="n"/>
-      <c r="C90" s="6" t="n"/>
+      <c r="B90" s="1" t="n"/>
+      <c r="C90" s="1" t="n"/>
       <c r="D90" s="1" t="n"/>
       <c r="E90" s="1" t="n"/>
       <c r="F90" s="1" t="n"/>
@@ -5456,8 +5355,8 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n"/>
-      <c r="B91" s="6" t="n"/>
-      <c r="C91" s="6" t="n"/>
+      <c r="B91" s="1" t="n"/>
+      <c r="C91" s="1" t="n"/>
       <c r="D91" s="1" t="n"/>
       <c r="E91" s="1" t="n"/>
       <c r="F91" s="1" t="n"/>
@@ -5508,8 +5407,8 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n"/>
-      <c r="B92" s="6" t="n"/>
-      <c r="C92" s="6" t="n"/>
+      <c r="B92" s="1" t="n"/>
+      <c r="C92" s="1" t="n"/>
       <c r="D92" s="1" t="n"/>
       <c r="E92" s="1" t="n"/>
       <c r="F92" s="1" t="n"/>
@@ -5560,8 +5459,8 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n"/>
-      <c r="B93" s="6" t="n"/>
-      <c r="C93" s="6" t="n"/>
+      <c r="B93" s="1" t="n"/>
+      <c r="C93" s="1" t="n"/>
       <c r="D93" s="1" t="n"/>
       <c r="E93" s="1" t="n"/>
       <c r="F93" s="1" t="n"/>
@@ -5612,8 +5511,8 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n"/>
-      <c r="B94" s="6" t="n"/>
-      <c r="C94" s="6" t="n"/>
+      <c r="B94" s="1" t="n"/>
+      <c r="C94" s="1" t="n"/>
       <c r="D94" s="1" t="n"/>
       <c r="E94" s="1" t="n"/>
       <c r="F94" s="1" t="n"/>
@@ -5664,8 +5563,8 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n"/>
-      <c r="B95" s="6" t="n"/>
-      <c r="C95" s="6" t="n"/>
+      <c r="B95" s="1" t="n"/>
+      <c r="C95" s="1" t="n"/>
       <c r="D95" s="1" t="n"/>
       <c r="E95" s="1" t="n"/>
       <c r="F95" s="1" t="n"/>
@@ -5716,8 +5615,8 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n"/>
-      <c r="B96" s="6" t="n"/>
-      <c r="C96" s="6" t="n"/>
+      <c r="B96" s="1" t="n"/>
+      <c r="C96" s="1" t="n"/>
       <c r="D96" s="1" t="n"/>
       <c r="E96" s="1" t="n"/>
       <c r="F96" s="1" t="n"/>
@@ -5768,8 +5667,8 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n"/>
-      <c r="B97" s="6" t="n"/>
-      <c r="C97" s="6" t="n"/>
+      <c r="B97" s="1" t="n"/>
+      <c r="C97" s="1" t="n"/>
       <c r="D97" s="1" t="n"/>
       <c r="E97" s="1" t="n"/>
       <c r="F97" s="1" t="n"/>
@@ -5820,8 +5719,8 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n"/>
-      <c r="B98" s="6" t="n"/>
-      <c r="C98" s="6" t="n"/>
+      <c r="B98" s="1" t="n"/>
+      <c r="C98" s="1" t="n"/>
       <c r="D98" s="1" t="n"/>
       <c r="E98" s="1" t="n"/>
       <c r="F98" s="1" t="n"/>
@@ -5872,8 +5771,8 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n"/>
-      <c r="B99" s="6" t="n"/>
-      <c r="C99" s="6" t="n"/>
+      <c r="B99" s="1" t="n"/>
+      <c r="C99" s="1" t="n"/>
       <c r="D99" s="1" t="n"/>
       <c r="E99" s="1" t="n"/>
       <c r="F99" s="1" t="n"/>
@@ -5924,8 +5823,8 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n"/>
-      <c r="B100" s="6" t="n"/>
-      <c r="C100" s="6" t="n"/>
+      <c r="B100" s="1" t="n"/>
+      <c r="C100" s="1" t="n"/>
       <c r="D100" s="1" t="n"/>
       <c r="E100" s="1" t="n"/>
       <c r="F100" s="1" t="n"/>
@@ -5975,21 +5874,5320 @@
       <c r="AX100" s="1" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="H1:J1"/>
+  <mergeCells count="12">
+    <mergeCell ref="B8"/>
+    <mergeCell ref="B5"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="B9"/>
-    <mergeCell ref="B13"/>
+    <mergeCell ref="C8"/>
     <mergeCell ref="C1:C3"/>
-    <mergeCell ref="C13"/>
-    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H1:I1"/>
     <mergeCell ref="E1:E3"/>
-    <mergeCell ref="B5"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="C5"/>
-    <mergeCell ref="C9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AX100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="n"/>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Tasks</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Start Date</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>End Date</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G1" s="4" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="I1" s="4" t="n"/>
+      <c r="J1" s="1" t="n"/>
+      <c r="K1" s="1" t="n"/>
+      <c r="L1" s="1" t="n"/>
+      <c r="M1" s="1" t="n"/>
+      <c r="N1" s="1" t="n"/>
+      <c r="O1" s="1" t="n"/>
+      <c r="P1" s="1" t="n"/>
+      <c r="Q1" s="1" t="n"/>
+      <c r="R1" s="1" t="n"/>
+      <c r="S1" s="1" t="n"/>
+      <c r="T1" s="1" t="n"/>
+      <c r="U1" s="1" t="n"/>
+      <c r="V1" s="1" t="n"/>
+      <c r="W1" s="1" t="n"/>
+      <c r="X1" s="1" t="n"/>
+      <c r="Y1" s="1" t="n"/>
+      <c r="Z1" s="1" t="n"/>
+      <c r="AA1" s="1" t="n"/>
+      <c r="AB1" s="1" t="n"/>
+      <c r="AC1" s="1" t="n"/>
+      <c r="AD1" s="1" t="n"/>
+      <c r="AE1" s="1" t="n"/>
+      <c r="AF1" s="1" t="n"/>
+      <c r="AG1" s="1" t="n"/>
+      <c r="AH1" s="1" t="n"/>
+      <c r="AI1" s="1" t="n"/>
+      <c r="AJ1" s="1" t="n"/>
+      <c r="AK1" s="1" t="n"/>
+      <c r="AL1" s="1" t="n"/>
+      <c r="AM1" s="1" t="n"/>
+      <c r="AN1" s="1" t="n"/>
+      <c r="AO1" s="1" t="n"/>
+      <c r="AP1" s="1" t="n"/>
+      <c r="AQ1" s="1" t="n"/>
+      <c r="AR1" s="1" t="n"/>
+      <c r="AS1" s="1" t="n"/>
+      <c r="AT1" s="1" t="n"/>
+      <c r="AU1" s="1" t="n"/>
+      <c r="AV1" s="1" t="n"/>
+      <c r="AW1" s="1" t="n"/>
+      <c r="AX1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n"/>
+      <c r="F2" s="5" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="G2" s="4" t="n"/>
+      <c r="H2" s="5" t="inlineStr">
+        <is>
+          <t>January</t>
+        </is>
+      </c>
+      <c r="I2" s="4" t="n"/>
+      <c r="J2" s="1" t="n"/>
+      <c r="K2" s="1" t="n"/>
+      <c r="L2" s="1" t="n"/>
+      <c r="M2" s="1" t="n"/>
+      <c r="N2" s="1" t="n"/>
+      <c r="O2" s="1" t="n"/>
+      <c r="P2" s="1" t="n"/>
+      <c r="Q2" s="1" t="n"/>
+      <c r="R2" s="1" t="n"/>
+      <c r="S2" s="1" t="n"/>
+      <c r="T2" s="1" t="n"/>
+      <c r="U2" s="1" t="n"/>
+      <c r="V2" s="1" t="n"/>
+      <c r="W2" s="1" t="n"/>
+      <c r="X2" s="1" t="n"/>
+      <c r="Y2" s="1" t="n"/>
+      <c r="Z2" s="1" t="n"/>
+      <c r="AA2" s="1" t="n"/>
+      <c r="AB2" s="1" t="n"/>
+      <c r="AC2" s="1" t="n"/>
+      <c r="AD2" s="1" t="n"/>
+      <c r="AE2" s="1" t="n"/>
+      <c r="AF2" s="1" t="n"/>
+      <c r="AG2" s="1" t="n"/>
+      <c r="AH2" s="1" t="n"/>
+      <c r="AI2" s="1" t="n"/>
+      <c r="AJ2" s="1" t="n"/>
+      <c r="AK2" s="1" t="n"/>
+      <c r="AL2" s="1" t="n"/>
+      <c r="AM2" s="1" t="n"/>
+      <c r="AN2" s="1" t="n"/>
+      <c r="AO2" s="1" t="n"/>
+      <c r="AP2" s="1" t="n"/>
+      <c r="AQ2" s="1" t="n"/>
+      <c r="AR2" s="1" t="n"/>
+      <c r="AS2" s="1" t="n"/>
+      <c r="AT2" s="1" t="n"/>
+      <c r="AU2" s="1" t="n"/>
+      <c r="AV2" s="1" t="n"/>
+      <c r="AW2" s="1" t="n"/>
+      <c r="AX2" s="1" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n"/>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>20/Dec - 26/Dec</t>
+        </is>
+      </c>
+      <c r="G3" s="5" t="inlineStr">
+        <is>
+          <t>27/Dec - 02/Jan</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>03/Jan - 09/Jan</t>
+        </is>
+      </c>
+      <c r="I3" s="5" t="inlineStr">
+        <is>
+          <t>10/Jan - 16/Jan</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="n"/>
+      <c r="K3" s="1" t="n"/>
+      <c r="L3" s="1" t="n"/>
+      <c r="M3" s="1" t="n"/>
+      <c r="N3" s="1" t="n"/>
+      <c r="O3" s="1" t="n"/>
+      <c r="P3" s="1" t="n"/>
+      <c r="Q3" s="1" t="n"/>
+      <c r="R3" s="1" t="n"/>
+      <c r="S3" s="1" t="n"/>
+      <c r="T3" s="1" t="n"/>
+      <c r="U3" s="1" t="n"/>
+      <c r="V3" s="1" t="n"/>
+      <c r="W3" s="1" t="n"/>
+      <c r="X3" s="1" t="n"/>
+      <c r="Y3" s="1" t="n"/>
+      <c r="Z3" s="1" t="n"/>
+      <c r="AA3" s="1" t="n"/>
+      <c r="AB3" s="1" t="n"/>
+      <c r="AC3" s="1" t="n"/>
+      <c r="AD3" s="1" t="n"/>
+      <c r="AE3" s="1" t="n"/>
+      <c r="AF3" s="1" t="n"/>
+      <c r="AG3" s="1" t="n"/>
+      <c r="AH3" s="1" t="n"/>
+      <c r="AI3" s="1" t="n"/>
+      <c r="AJ3" s="1" t="n"/>
+      <c r="AK3" s="1" t="n"/>
+      <c r="AL3" s="1" t="n"/>
+      <c r="AM3" s="1" t="n"/>
+      <c r="AN3" s="1" t="n"/>
+      <c r="AO3" s="1" t="n"/>
+      <c r="AP3" s="1" t="n"/>
+      <c r="AQ3" s="1" t="n"/>
+      <c r="AR3" s="1" t="n"/>
+      <c r="AS3" s="1" t="n"/>
+      <c r="AT3" s="1" t="n"/>
+      <c r="AU3" s="1" t="n"/>
+      <c r="AV3" s="1" t="n"/>
+      <c r="AW3" s="1" t="n"/>
+      <c r="AX3" s="1" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="n"/>
+      <c r="C4" s="1" t="n"/>
+      <c r="D4" s="1" t="n"/>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="1" t="n"/>
+      <c r="G4" s="1" t="n"/>
+      <c r="H4" s="1" t="n"/>
+      <c r="I4" s="1" t="n"/>
+      <c r="J4" s="1" t="n"/>
+      <c r="K4" s="1" t="n"/>
+      <c r="L4" s="1" t="n"/>
+      <c r="M4" s="1" t="n"/>
+      <c r="N4" s="1" t="n"/>
+      <c r="O4" s="1" t="n"/>
+      <c r="P4" s="1" t="n"/>
+      <c r="Q4" s="1" t="n"/>
+      <c r="R4" s="1" t="n"/>
+      <c r="S4" s="1" t="n"/>
+      <c r="T4" s="1" t="n"/>
+      <c r="U4" s="1" t="n"/>
+      <c r="V4" s="1" t="n"/>
+      <c r="W4" s="1" t="n"/>
+      <c r="X4" s="1" t="n"/>
+      <c r="Y4" s="1" t="n"/>
+      <c r="Z4" s="1" t="n"/>
+      <c r="AA4" s="1" t="n"/>
+      <c r="AB4" s="1" t="n"/>
+      <c r="AC4" s="1" t="n"/>
+      <c r="AD4" s="1" t="n"/>
+      <c r="AE4" s="1" t="n"/>
+      <c r="AF4" s="1" t="n"/>
+      <c r="AG4" s="1" t="n"/>
+      <c r="AH4" s="1" t="n"/>
+      <c r="AI4" s="1" t="n"/>
+      <c r="AJ4" s="1" t="n"/>
+      <c r="AK4" s="1" t="n"/>
+      <c r="AL4" s="1" t="n"/>
+      <c r="AM4" s="1" t="n"/>
+      <c r="AN4" s="1" t="n"/>
+      <c r="AO4" s="1" t="n"/>
+      <c r="AP4" s="1" t="n"/>
+      <c r="AQ4" s="1" t="n"/>
+      <c r="AR4" s="1" t="n"/>
+      <c r="AS4" s="1" t="n"/>
+      <c r="AT4" s="1" t="n"/>
+      <c r="AU4" s="1" t="n"/>
+      <c r="AV4" s="1" t="n"/>
+      <c r="AW4" s="1" t="n"/>
+      <c r="AX4" s="1" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="9" t="inlineStr">
+        <is>
+          <t>Task 1</t>
+        </is>
+      </c>
+      <c r="C5" s="9" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D5" s="9" t="inlineStr">
+        <is>
+          <t>20-Dec</t>
+        </is>
+      </c>
+      <c r="E5" s="9" t="inlineStr">
+        <is>
+          <t>02-Jan</t>
+        </is>
+      </c>
+      <c r="F5" s="8" t="n"/>
+      <c r="G5" s="8" t="n"/>
+      <c r="H5" s="1" t="n"/>
+      <c r="I5" s="1" t="n"/>
+      <c r="J5" s="1" t="n"/>
+      <c r="K5" s="1" t="n"/>
+      <c r="L5" s="1" t="n"/>
+      <c r="M5" s="1" t="n"/>
+      <c r="N5" s="1" t="n"/>
+      <c r="O5" s="1" t="n"/>
+      <c r="P5" s="1" t="n"/>
+      <c r="Q5" s="1" t="n"/>
+      <c r="R5" s="1" t="n"/>
+      <c r="S5" s="1" t="n"/>
+      <c r="T5" s="1" t="n"/>
+      <c r="U5" s="1" t="n"/>
+      <c r="V5" s="1" t="n"/>
+      <c r="W5" s="1" t="n"/>
+      <c r="X5" s="1" t="n"/>
+      <c r="Y5" s="1" t="n"/>
+      <c r="Z5" s="1" t="n"/>
+      <c r="AA5" s="1" t="n"/>
+      <c r="AB5" s="1" t="n"/>
+      <c r="AC5" s="1" t="n"/>
+      <c r="AD5" s="1" t="n"/>
+      <c r="AE5" s="1" t="n"/>
+      <c r="AF5" s="1" t="n"/>
+      <c r="AG5" s="1" t="n"/>
+      <c r="AH5" s="1" t="n"/>
+      <c r="AI5" s="1" t="n"/>
+      <c r="AJ5" s="1" t="n"/>
+      <c r="AK5" s="1" t="n"/>
+      <c r="AL5" s="1" t="n"/>
+      <c r="AM5" s="1" t="n"/>
+      <c r="AN5" s="1" t="n"/>
+      <c r="AO5" s="1" t="n"/>
+      <c r="AP5" s="1" t="n"/>
+      <c r="AQ5" s="1" t="n"/>
+      <c r="AR5" s="1" t="n"/>
+      <c r="AS5" s="1" t="n"/>
+      <c r="AT5" s="1" t="n"/>
+      <c r="AU5" s="1" t="n"/>
+      <c r="AV5" s="1" t="n"/>
+      <c r="AW5" s="1" t="n"/>
+      <c r="AX5" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="1" t="n"/>
+      <c r="D6" s="1" t="n"/>
+      <c r="E6" s="1" t="n"/>
+      <c r="F6" s="1" t="n"/>
+      <c r="G6" s="1" t="n"/>
+      <c r="H6" s="1" t="n"/>
+      <c r="I6" s="1" t="n"/>
+      <c r="J6" s="1" t="n"/>
+      <c r="K6" s="1" t="n"/>
+      <c r="L6" s="1" t="n"/>
+      <c r="M6" s="1" t="n"/>
+      <c r="N6" s="1" t="n"/>
+      <c r="O6" s="1" t="n"/>
+      <c r="P6" s="1" t="n"/>
+      <c r="Q6" s="1" t="n"/>
+      <c r="R6" s="1" t="n"/>
+      <c r="S6" s="1" t="n"/>
+      <c r="T6" s="1" t="n"/>
+      <c r="U6" s="1" t="n"/>
+      <c r="V6" s="1" t="n"/>
+      <c r="W6" s="1" t="n"/>
+      <c r="X6" s="1" t="n"/>
+      <c r="Y6" s="1" t="n"/>
+      <c r="Z6" s="1" t="n"/>
+      <c r="AA6" s="1" t="n"/>
+      <c r="AB6" s="1" t="n"/>
+      <c r="AC6" s="1" t="n"/>
+      <c r="AD6" s="1" t="n"/>
+      <c r="AE6" s="1" t="n"/>
+      <c r="AF6" s="1" t="n"/>
+      <c r="AG6" s="1" t="n"/>
+      <c r="AH6" s="1" t="n"/>
+      <c r="AI6" s="1" t="n"/>
+      <c r="AJ6" s="1" t="n"/>
+      <c r="AK6" s="1" t="n"/>
+      <c r="AL6" s="1" t="n"/>
+      <c r="AM6" s="1" t="n"/>
+      <c r="AN6" s="1" t="n"/>
+      <c r="AO6" s="1" t="n"/>
+      <c r="AP6" s="1" t="n"/>
+      <c r="AQ6" s="1" t="n"/>
+      <c r="AR6" s="1" t="n"/>
+      <c r="AS6" s="1" t="n"/>
+      <c r="AT6" s="1" t="n"/>
+      <c r="AU6" s="1" t="n"/>
+      <c r="AV6" s="1" t="n"/>
+      <c r="AW6" s="1" t="n"/>
+      <c r="AX6" s="1" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="1" t="n"/>
+      <c r="D7" s="1" t="n"/>
+      <c r="E7" s="1" t="n"/>
+      <c r="F7" s="1" t="n"/>
+      <c r="G7" s="1" t="n"/>
+      <c r="H7" s="1" t="n"/>
+      <c r="I7" s="1" t="n"/>
+      <c r="J7" s="1" t="n"/>
+      <c r="K7" s="1" t="n"/>
+      <c r="L7" s="1" t="n"/>
+      <c r="M7" s="1" t="n"/>
+      <c r="N7" s="1" t="n"/>
+      <c r="O7" s="1" t="n"/>
+      <c r="P7" s="1" t="n"/>
+      <c r="Q7" s="1" t="n"/>
+      <c r="R7" s="1" t="n"/>
+      <c r="S7" s="1" t="n"/>
+      <c r="T7" s="1" t="n"/>
+      <c r="U7" s="1" t="n"/>
+      <c r="V7" s="1" t="n"/>
+      <c r="W7" s="1" t="n"/>
+      <c r="X7" s="1" t="n"/>
+      <c r="Y7" s="1" t="n"/>
+      <c r="Z7" s="1" t="n"/>
+      <c r="AA7" s="1" t="n"/>
+      <c r="AB7" s="1" t="n"/>
+      <c r="AC7" s="1" t="n"/>
+      <c r="AD7" s="1" t="n"/>
+      <c r="AE7" s="1" t="n"/>
+      <c r="AF7" s="1" t="n"/>
+      <c r="AG7" s="1" t="n"/>
+      <c r="AH7" s="1" t="n"/>
+      <c r="AI7" s="1" t="n"/>
+      <c r="AJ7" s="1" t="n"/>
+      <c r="AK7" s="1" t="n"/>
+      <c r="AL7" s="1" t="n"/>
+      <c r="AM7" s="1" t="n"/>
+      <c r="AN7" s="1" t="n"/>
+      <c r="AO7" s="1" t="n"/>
+      <c r="AP7" s="1" t="n"/>
+      <c r="AQ7" s="1" t="n"/>
+      <c r="AR7" s="1" t="n"/>
+      <c r="AS7" s="1" t="n"/>
+      <c r="AT7" s="1" t="n"/>
+      <c r="AU7" s="1" t="n"/>
+      <c r="AV7" s="1" t="n"/>
+      <c r="AW7" s="1" t="n"/>
+      <c r="AX7" s="1" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="9" t="inlineStr">
+        <is>
+          <t>Task 2</t>
+        </is>
+      </c>
+      <c r="C8" s="9" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D8" s="9" t="inlineStr">
+        <is>
+          <t>03-Jan</t>
+        </is>
+      </c>
+      <c r="E8" s="9" t="inlineStr">
+        <is>
+          <t>16-Jan</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n"/>
+      <c r="G8" s="1" t="n"/>
+      <c r="H8" s="8" t="n"/>
+      <c r="I8" s="8" t="n"/>
+      <c r="J8" s="1" t="n"/>
+      <c r="K8" s="1" t="n"/>
+      <c r="L8" s="1" t="n"/>
+      <c r="M8" s="1" t="n"/>
+      <c r="N8" s="1" t="n"/>
+      <c r="O8" s="1" t="n"/>
+      <c r="P8" s="1" t="n"/>
+      <c r="Q8" s="1" t="n"/>
+      <c r="R8" s="1" t="n"/>
+      <c r="S8" s="1" t="n"/>
+      <c r="T8" s="1" t="n"/>
+      <c r="U8" s="1" t="n"/>
+      <c r="V8" s="1" t="n"/>
+      <c r="W8" s="1" t="n"/>
+      <c r="X8" s="1" t="n"/>
+      <c r="Y8" s="1" t="n"/>
+      <c r="Z8" s="1" t="n"/>
+      <c r="AA8" s="1" t="n"/>
+      <c r="AB8" s="1" t="n"/>
+      <c r="AC8" s="1" t="n"/>
+      <c r="AD8" s="1" t="n"/>
+      <c r="AE8" s="1" t="n"/>
+      <c r="AF8" s="1" t="n"/>
+      <c r="AG8" s="1" t="n"/>
+      <c r="AH8" s="1" t="n"/>
+      <c r="AI8" s="1" t="n"/>
+      <c r="AJ8" s="1" t="n"/>
+      <c r="AK8" s="1" t="n"/>
+      <c r="AL8" s="1" t="n"/>
+      <c r="AM8" s="1" t="n"/>
+      <c r="AN8" s="1" t="n"/>
+      <c r="AO8" s="1" t="n"/>
+      <c r="AP8" s="1" t="n"/>
+      <c r="AQ8" s="1" t="n"/>
+      <c r="AR8" s="1" t="n"/>
+      <c r="AS8" s="1" t="n"/>
+      <c r="AT8" s="1" t="n"/>
+      <c r="AU8" s="1" t="n"/>
+      <c r="AV8" s="1" t="n"/>
+      <c r="AW8" s="1" t="n"/>
+      <c r="AX8" s="1" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="1" t="n"/>
+      <c r="D9" s="1" t="n"/>
+      <c r="E9" s="1" t="n"/>
+      <c r="F9" s="1" t="n"/>
+      <c r="G9" s="1" t="n"/>
+      <c r="H9" s="1" t="n"/>
+      <c r="I9" s="1" t="n"/>
+      <c r="J9" s="1" t="n"/>
+      <c r="K9" s="1" t="n"/>
+      <c r="L9" s="1" t="n"/>
+      <c r="M9" s="1" t="n"/>
+      <c r="N9" s="1" t="n"/>
+      <c r="O9" s="1" t="n"/>
+      <c r="P9" s="1" t="n"/>
+      <c r="Q9" s="1" t="n"/>
+      <c r="R9" s="1" t="n"/>
+      <c r="S9" s="1" t="n"/>
+      <c r="T9" s="1" t="n"/>
+      <c r="U9" s="1" t="n"/>
+      <c r="V9" s="1" t="n"/>
+      <c r="W9" s="1" t="n"/>
+      <c r="X9" s="1" t="n"/>
+      <c r="Y9" s="1" t="n"/>
+      <c r="Z9" s="1" t="n"/>
+      <c r="AA9" s="1" t="n"/>
+      <c r="AB9" s="1" t="n"/>
+      <c r="AC9" s="1" t="n"/>
+      <c r="AD9" s="1" t="n"/>
+      <c r="AE9" s="1" t="n"/>
+      <c r="AF9" s="1" t="n"/>
+      <c r="AG9" s="1" t="n"/>
+      <c r="AH9" s="1" t="n"/>
+      <c r="AI9" s="1" t="n"/>
+      <c r="AJ9" s="1" t="n"/>
+      <c r="AK9" s="1" t="n"/>
+      <c r="AL9" s="1" t="n"/>
+      <c r="AM9" s="1" t="n"/>
+      <c r="AN9" s="1" t="n"/>
+      <c r="AO9" s="1" t="n"/>
+      <c r="AP9" s="1" t="n"/>
+      <c r="AQ9" s="1" t="n"/>
+      <c r="AR9" s="1" t="n"/>
+      <c r="AS9" s="1" t="n"/>
+      <c r="AT9" s="1" t="n"/>
+      <c r="AU9" s="1" t="n"/>
+      <c r="AV9" s="1" t="n"/>
+      <c r="AW9" s="1" t="n"/>
+      <c r="AX9" s="1" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="n"/>
+      <c r="C10" s="1" t="n"/>
+      <c r="D10" s="1" t="n"/>
+      <c r="E10" s="1" t="n"/>
+      <c r="F10" s="1" t="n"/>
+      <c r="G10" s="1" t="n"/>
+      <c r="H10" s="1" t="n"/>
+      <c r="I10" s="1" t="n"/>
+      <c r="J10" s="1" t="n"/>
+      <c r="K10" s="1" t="n"/>
+      <c r="L10" s="1" t="n"/>
+      <c r="M10" s="1" t="n"/>
+      <c r="N10" s="1" t="n"/>
+      <c r="O10" s="1" t="n"/>
+      <c r="P10" s="1" t="n"/>
+      <c r="Q10" s="1" t="n"/>
+      <c r="R10" s="1" t="n"/>
+      <c r="S10" s="1" t="n"/>
+      <c r="T10" s="1" t="n"/>
+      <c r="U10" s="1" t="n"/>
+      <c r="V10" s="1" t="n"/>
+      <c r="W10" s="1" t="n"/>
+      <c r="X10" s="1" t="n"/>
+      <c r="Y10" s="1" t="n"/>
+      <c r="Z10" s="1" t="n"/>
+      <c r="AA10" s="1" t="n"/>
+      <c r="AB10" s="1" t="n"/>
+      <c r="AC10" s="1" t="n"/>
+      <c r="AD10" s="1" t="n"/>
+      <c r="AE10" s="1" t="n"/>
+      <c r="AF10" s="1" t="n"/>
+      <c r="AG10" s="1" t="n"/>
+      <c r="AH10" s="1" t="n"/>
+      <c r="AI10" s="1" t="n"/>
+      <c r="AJ10" s="1" t="n"/>
+      <c r="AK10" s="1" t="n"/>
+      <c r="AL10" s="1" t="n"/>
+      <c r="AM10" s="1" t="n"/>
+      <c r="AN10" s="1" t="n"/>
+      <c r="AO10" s="1" t="n"/>
+      <c r="AP10" s="1" t="n"/>
+      <c r="AQ10" s="1" t="n"/>
+      <c r="AR10" s="1" t="n"/>
+      <c r="AS10" s="1" t="n"/>
+      <c r="AT10" s="1" t="n"/>
+      <c r="AU10" s="1" t="n"/>
+      <c r="AV10" s="1" t="n"/>
+      <c r="AW10" s="1" t="n"/>
+      <c r="AX10" s="1" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="n"/>
+      <c r="C11" s="1" t="n"/>
+      <c r="D11" s="1" t="n"/>
+      <c r="E11" s="1" t="n"/>
+      <c r="F11" s="1" t="n"/>
+      <c r="G11" s="1" t="n"/>
+      <c r="H11" s="1" t="n"/>
+      <c r="I11" s="1" t="n"/>
+      <c r="J11" s="1" t="n"/>
+      <c r="K11" s="1" t="n"/>
+      <c r="L11" s="1" t="n"/>
+      <c r="M11" s="1" t="n"/>
+      <c r="N11" s="1" t="n"/>
+      <c r="O11" s="1" t="n"/>
+      <c r="P11" s="1" t="n"/>
+      <c r="Q11" s="1" t="n"/>
+      <c r="R11" s="1" t="n"/>
+      <c r="S11" s="1" t="n"/>
+      <c r="T11" s="1" t="n"/>
+      <c r="U11" s="1" t="n"/>
+      <c r="V11" s="1" t="n"/>
+      <c r="W11" s="1" t="n"/>
+      <c r="X11" s="1" t="n"/>
+      <c r="Y11" s="1" t="n"/>
+      <c r="Z11" s="1" t="n"/>
+      <c r="AA11" s="1" t="n"/>
+      <c r="AB11" s="1" t="n"/>
+      <c r="AC11" s="1" t="n"/>
+      <c r="AD11" s="1" t="n"/>
+      <c r="AE11" s="1" t="n"/>
+      <c r="AF11" s="1" t="n"/>
+      <c r="AG11" s="1" t="n"/>
+      <c r="AH11" s="1" t="n"/>
+      <c r="AI11" s="1" t="n"/>
+      <c r="AJ11" s="1" t="n"/>
+      <c r="AK11" s="1" t="n"/>
+      <c r="AL11" s="1" t="n"/>
+      <c r="AM11" s="1" t="n"/>
+      <c r="AN11" s="1" t="n"/>
+      <c r="AO11" s="1" t="n"/>
+      <c r="AP11" s="1" t="n"/>
+      <c r="AQ11" s="1" t="n"/>
+      <c r="AR11" s="1" t="n"/>
+      <c r="AS11" s="1" t="n"/>
+      <c r="AT11" s="1" t="n"/>
+      <c r="AU11" s="1" t="n"/>
+      <c r="AV11" s="1" t="n"/>
+      <c r="AW11" s="1" t="n"/>
+      <c r="AX11" s="1" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="n"/>
+      <c r="C12" s="1" t="n"/>
+      <c r="D12" s="1" t="n"/>
+      <c r="E12" s="1" t="n"/>
+      <c r="F12" s="1" t="n"/>
+      <c r="G12" s="1" t="n"/>
+      <c r="H12" s="1" t="n"/>
+      <c r="I12" s="1" t="n"/>
+      <c r="J12" s="1" t="n"/>
+      <c r="K12" s="1" t="n"/>
+      <c r="L12" s="1" t="n"/>
+      <c r="M12" s="1" t="n"/>
+      <c r="N12" s="1" t="n"/>
+      <c r="O12" s="1" t="n"/>
+      <c r="P12" s="1" t="n"/>
+      <c r="Q12" s="1" t="n"/>
+      <c r="R12" s="1" t="n"/>
+      <c r="S12" s="1" t="n"/>
+      <c r="T12" s="1" t="n"/>
+      <c r="U12" s="1" t="n"/>
+      <c r="V12" s="1" t="n"/>
+      <c r="W12" s="1" t="n"/>
+      <c r="X12" s="1" t="n"/>
+      <c r="Y12" s="1" t="n"/>
+      <c r="Z12" s="1" t="n"/>
+      <c r="AA12" s="1" t="n"/>
+      <c r="AB12" s="1" t="n"/>
+      <c r="AC12" s="1" t="n"/>
+      <c r="AD12" s="1" t="n"/>
+      <c r="AE12" s="1" t="n"/>
+      <c r="AF12" s="1" t="n"/>
+      <c r="AG12" s="1" t="n"/>
+      <c r="AH12" s="1" t="n"/>
+      <c r="AI12" s="1" t="n"/>
+      <c r="AJ12" s="1" t="n"/>
+      <c r="AK12" s="1" t="n"/>
+      <c r="AL12" s="1" t="n"/>
+      <c r="AM12" s="1" t="n"/>
+      <c r="AN12" s="1" t="n"/>
+      <c r="AO12" s="1" t="n"/>
+      <c r="AP12" s="1" t="n"/>
+      <c r="AQ12" s="1" t="n"/>
+      <c r="AR12" s="1" t="n"/>
+      <c r="AS12" s="1" t="n"/>
+      <c r="AT12" s="1" t="n"/>
+      <c r="AU12" s="1" t="n"/>
+      <c r="AV12" s="1" t="n"/>
+      <c r="AW12" s="1" t="n"/>
+      <c r="AX12" s="1" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="n"/>
+      <c r="C13" s="1" t="n"/>
+      <c r="D13" s="1" t="n"/>
+      <c r="E13" s="1" t="n"/>
+      <c r="F13" s="1" t="n"/>
+      <c r="G13" s="1" t="n"/>
+      <c r="H13" s="1" t="n"/>
+      <c r="I13" s="1" t="n"/>
+      <c r="J13" s="1" t="n"/>
+      <c r="K13" s="1" t="n"/>
+      <c r="L13" s="1" t="n"/>
+      <c r="M13" s="1" t="n"/>
+      <c r="N13" s="1" t="n"/>
+      <c r="O13" s="1" t="n"/>
+      <c r="P13" s="1" t="n"/>
+      <c r="Q13" s="1" t="n"/>
+      <c r="R13" s="1" t="n"/>
+      <c r="S13" s="1" t="n"/>
+      <c r="T13" s="1" t="n"/>
+      <c r="U13" s="1" t="n"/>
+      <c r="V13" s="1" t="n"/>
+      <c r="W13" s="1" t="n"/>
+      <c r="X13" s="1" t="n"/>
+      <c r="Y13" s="1" t="n"/>
+      <c r="Z13" s="1" t="n"/>
+      <c r="AA13" s="1" t="n"/>
+      <c r="AB13" s="1" t="n"/>
+      <c r="AC13" s="1" t="n"/>
+      <c r="AD13" s="1" t="n"/>
+      <c r="AE13" s="1" t="n"/>
+      <c r="AF13" s="1" t="n"/>
+      <c r="AG13" s="1" t="n"/>
+      <c r="AH13" s="1" t="n"/>
+      <c r="AI13" s="1" t="n"/>
+      <c r="AJ13" s="1" t="n"/>
+      <c r="AK13" s="1" t="n"/>
+      <c r="AL13" s="1" t="n"/>
+      <c r="AM13" s="1" t="n"/>
+      <c r="AN13" s="1" t="n"/>
+      <c r="AO13" s="1" t="n"/>
+      <c r="AP13" s="1" t="n"/>
+      <c r="AQ13" s="1" t="n"/>
+      <c r="AR13" s="1" t="n"/>
+      <c r="AS13" s="1" t="n"/>
+      <c r="AT13" s="1" t="n"/>
+      <c r="AU13" s="1" t="n"/>
+      <c r="AV13" s="1" t="n"/>
+      <c r="AW13" s="1" t="n"/>
+      <c r="AX13" s="1" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="n"/>
+      <c r="C14" s="1" t="n"/>
+      <c r="D14" s="1" t="n"/>
+      <c r="E14" s="1" t="n"/>
+      <c r="F14" s="1" t="n"/>
+      <c r="G14" s="1" t="n"/>
+      <c r="H14" s="1" t="n"/>
+      <c r="I14" s="1" t="n"/>
+      <c r="J14" s="1" t="n"/>
+      <c r="K14" s="1" t="n"/>
+      <c r="L14" s="1" t="n"/>
+      <c r="M14" s="1" t="n"/>
+      <c r="N14" s="1" t="n"/>
+      <c r="O14" s="1" t="n"/>
+      <c r="P14" s="1" t="n"/>
+      <c r="Q14" s="1" t="n"/>
+      <c r="R14" s="1" t="n"/>
+      <c r="S14" s="1" t="n"/>
+      <c r="T14" s="1" t="n"/>
+      <c r="U14" s="1" t="n"/>
+      <c r="V14" s="1" t="n"/>
+      <c r="W14" s="1" t="n"/>
+      <c r="X14" s="1" t="n"/>
+      <c r="Y14" s="1" t="n"/>
+      <c r="Z14" s="1" t="n"/>
+      <c r="AA14" s="1" t="n"/>
+      <c r="AB14" s="1" t="n"/>
+      <c r="AC14" s="1" t="n"/>
+      <c r="AD14" s="1" t="n"/>
+      <c r="AE14" s="1" t="n"/>
+      <c r="AF14" s="1" t="n"/>
+      <c r="AG14" s="1" t="n"/>
+      <c r="AH14" s="1" t="n"/>
+      <c r="AI14" s="1" t="n"/>
+      <c r="AJ14" s="1" t="n"/>
+      <c r="AK14" s="1" t="n"/>
+      <c r="AL14" s="1" t="n"/>
+      <c r="AM14" s="1" t="n"/>
+      <c r="AN14" s="1" t="n"/>
+      <c r="AO14" s="1" t="n"/>
+      <c r="AP14" s="1" t="n"/>
+      <c r="AQ14" s="1" t="n"/>
+      <c r="AR14" s="1" t="n"/>
+      <c r="AS14" s="1" t="n"/>
+      <c r="AT14" s="1" t="n"/>
+      <c r="AU14" s="1" t="n"/>
+      <c r="AV14" s="1" t="n"/>
+      <c r="AW14" s="1" t="n"/>
+      <c r="AX14" s="1" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="n"/>
+      <c r="C15" s="1" t="n"/>
+      <c r="D15" s="1" t="n"/>
+      <c r="E15" s="1" t="n"/>
+      <c r="F15" s="1" t="n"/>
+      <c r="G15" s="1" t="n"/>
+      <c r="H15" s="1" t="n"/>
+      <c r="I15" s="1" t="n"/>
+      <c r="J15" s="1" t="n"/>
+      <c r="K15" s="1" t="n"/>
+      <c r="L15" s="1" t="n"/>
+      <c r="M15" s="1" t="n"/>
+      <c r="N15" s="1" t="n"/>
+      <c r="O15" s="1" t="n"/>
+      <c r="P15" s="1" t="n"/>
+      <c r="Q15" s="1" t="n"/>
+      <c r="R15" s="1" t="n"/>
+      <c r="S15" s="1" t="n"/>
+      <c r="T15" s="1" t="n"/>
+      <c r="U15" s="1" t="n"/>
+      <c r="V15" s="1" t="n"/>
+      <c r="W15" s="1" t="n"/>
+      <c r="X15" s="1" t="n"/>
+      <c r="Y15" s="1" t="n"/>
+      <c r="Z15" s="1" t="n"/>
+      <c r="AA15" s="1" t="n"/>
+      <c r="AB15" s="1" t="n"/>
+      <c r="AC15" s="1" t="n"/>
+      <c r="AD15" s="1" t="n"/>
+      <c r="AE15" s="1" t="n"/>
+      <c r="AF15" s="1" t="n"/>
+      <c r="AG15" s="1" t="n"/>
+      <c r="AH15" s="1" t="n"/>
+      <c r="AI15" s="1" t="n"/>
+      <c r="AJ15" s="1" t="n"/>
+      <c r="AK15" s="1" t="n"/>
+      <c r="AL15" s="1" t="n"/>
+      <c r="AM15" s="1" t="n"/>
+      <c r="AN15" s="1" t="n"/>
+      <c r="AO15" s="1" t="n"/>
+      <c r="AP15" s="1" t="n"/>
+      <c r="AQ15" s="1" t="n"/>
+      <c r="AR15" s="1" t="n"/>
+      <c r="AS15" s="1" t="n"/>
+      <c r="AT15" s="1" t="n"/>
+      <c r="AU15" s="1" t="n"/>
+      <c r="AV15" s="1" t="n"/>
+      <c r="AW15" s="1" t="n"/>
+      <c r="AX15" s="1" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="n"/>
+      <c r="C16" s="1" t="n"/>
+      <c r="D16" s="1" t="n"/>
+      <c r="E16" s="1" t="n"/>
+      <c r="F16" s="1" t="n"/>
+      <c r="G16" s="1" t="n"/>
+      <c r="H16" s="1" t="n"/>
+      <c r="I16" s="1" t="n"/>
+      <c r="J16" s="1" t="n"/>
+      <c r="K16" s="1" t="n"/>
+      <c r="L16" s="1" t="n"/>
+      <c r="M16" s="1" t="n"/>
+      <c r="N16" s="1" t="n"/>
+      <c r="O16" s="1" t="n"/>
+      <c r="P16" s="1" t="n"/>
+      <c r="Q16" s="1" t="n"/>
+      <c r="R16" s="1" t="n"/>
+      <c r="S16" s="1" t="n"/>
+      <c r="T16" s="1" t="n"/>
+      <c r="U16" s="1" t="n"/>
+      <c r="V16" s="1" t="n"/>
+      <c r="W16" s="1" t="n"/>
+      <c r="X16" s="1" t="n"/>
+      <c r="Y16" s="1" t="n"/>
+      <c r="Z16" s="1" t="n"/>
+      <c r="AA16" s="1" t="n"/>
+      <c r="AB16" s="1" t="n"/>
+      <c r="AC16" s="1" t="n"/>
+      <c r="AD16" s="1" t="n"/>
+      <c r="AE16" s="1" t="n"/>
+      <c r="AF16" s="1" t="n"/>
+      <c r="AG16" s="1" t="n"/>
+      <c r="AH16" s="1" t="n"/>
+      <c r="AI16" s="1" t="n"/>
+      <c r="AJ16" s="1" t="n"/>
+      <c r="AK16" s="1" t="n"/>
+      <c r="AL16" s="1" t="n"/>
+      <c r="AM16" s="1" t="n"/>
+      <c r="AN16" s="1" t="n"/>
+      <c r="AO16" s="1" t="n"/>
+      <c r="AP16" s="1" t="n"/>
+      <c r="AQ16" s="1" t="n"/>
+      <c r="AR16" s="1" t="n"/>
+      <c r="AS16" s="1" t="n"/>
+      <c r="AT16" s="1" t="n"/>
+      <c r="AU16" s="1" t="n"/>
+      <c r="AV16" s="1" t="n"/>
+      <c r="AW16" s="1" t="n"/>
+      <c r="AX16" s="1" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="n"/>
+      <c r="C17" s="1" t="n"/>
+      <c r="D17" s="1" t="n"/>
+      <c r="E17" s="1" t="n"/>
+      <c r="F17" s="1" t="n"/>
+      <c r="G17" s="1" t="n"/>
+      <c r="H17" s="1" t="n"/>
+      <c r="I17" s="1" t="n"/>
+      <c r="J17" s="1" t="n"/>
+      <c r="K17" s="1" t="n"/>
+      <c r="L17" s="1" t="n"/>
+      <c r="M17" s="1" t="n"/>
+      <c r="N17" s="1" t="n"/>
+      <c r="O17" s="1" t="n"/>
+      <c r="P17" s="1" t="n"/>
+      <c r="Q17" s="1" t="n"/>
+      <c r="R17" s="1" t="n"/>
+      <c r="S17" s="1" t="n"/>
+      <c r="T17" s="1" t="n"/>
+      <c r="U17" s="1" t="n"/>
+      <c r="V17" s="1" t="n"/>
+      <c r="W17" s="1" t="n"/>
+      <c r="X17" s="1" t="n"/>
+      <c r="Y17" s="1" t="n"/>
+      <c r="Z17" s="1" t="n"/>
+      <c r="AA17" s="1" t="n"/>
+      <c r="AB17" s="1" t="n"/>
+      <c r="AC17" s="1" t="n"/>
+      <c r="AD17" s="1" t="n"/>
+      <c r="AE17" s="1" t="n"/>
+      <c r="AF17" s="1" t="n"/>
+      <c r="AG17" s="1" t="n"/>
+      <c r="AH17" s="1" t="n"/>
+      <c r="AI17" s="1" t="n"/>
+      <c r="AJ17" s="1" t="n"/>
+      <c r="AK17" s="1" t="n"/>
+      <c r="AL17" s="1" t="n"/>
+      <c r="AM17" s="1" t="n"/>
+      <c r="AN17" s="1" t="n"/>
+      <c r="AO17" s="1" t="n"/>
+      <c r="AP17" s="1" t="n"/>
+      <c r="AQ17" s="1" t="n"/>
+      <c r="AR17" s="1" t="n"/>
+      <c r="AS17" s="1" t="n"/>
+      <c r="AT17" s="1" t="n"/>
+      <c r="AU17" s="1" t="n"/>
+      <c r="AV17" s="1" t="n"/>
+      <c r="AW17" s="1" t="n"/>
+      <c r="AX17" s="1" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="1" t="n"/>
+      <c r="C18" s="1" t="n"/>
+      <c r="D18" s="1" t="n"/>
+      <c r="E18" s="1" t="n"/>
+      <c r="F18" s="1" t="n"/>
+      <c r="G18" s="1" t="n"/>
+      <c r="H18" s="1" t="n"/>
+      <c r="I18" s="1" t="n"/>
+      <c r="J18" s="1" t="n"/>
+      <c r="K18" s="1" t="n"/>
+      <c r="L18" s="1" t="n"/>
+      <c r="M18" s="1" t="n"/>
+      <c r="N18" s="1" t="n"/>
+      <c r="O18" s="1" t="n"/>
+      <c r="P18" s="1" t="n"/>
+      <c r="Q18" s="1" t="n"/>
+      <c r="R18" s="1" t="n"/>
+      <c r="S18" s="1" t="n"/>
+      <c r="T18" s="1" t="n"/>
+      <c r="U18" s="1" t="n"/>
+      <c r="V18" s="1" t="n"/>
+      <c r="W18" s="1" t="n"/>
+      <c r="X18" s="1" t="n"/>
+      <c r="Y18" s="1" t="n"/>
+      <c r="Z18" s="1" t="n"/>
+      <c r="AA18" s="1" t="n"/>
+      <c r="AB18" s="1" t="n"/>
+      <c r="AC18" s="1" t="n"/>
+      <c r="AD18" s="1" t="n"/>
+      <c r="AE18" s="1" t="n"/>
+      <c r="AF18" s="1" t="n"/>
+      <c r="AG18" s="1" t="n"/>
+      <c r="AH18" s="1" t="n"/>
+      <c r="AI18" s="1" t="n"/>
+      <c r="AJ18" s="1" t="n"/>
+      <c r="AK18" s="1" t="n"/>
+      <c r="AL18" s="1" t="n"/>
+      <c r="AM18" s="1" t="n"/>
+      <c r="AN18" s="1" t="n"/>
+      <c r="AO18" s="1" t="n"/>
+      <c r="AP18" s="1" t="n"/>
+      <c r="AQ18" s="1" t="n"/>
+      <c r="AR18" s="1" t="n"/>
+      <c r="AS18" s="1" t="n"/>
+      <c r="AT18" s="1" t="n"/>
+      <c r="AU18" s="1" t="n"/>
+      <c r="AV18" s="1" t="n"/>
+      <c r="AW18" s="1" t="n"/>
+      <c r="AX18" s="1" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="n"/>
+      <c r="C19" s="1" t="n"/>
+      <c r="D19" s="1" t="n"/>
+      <c r="E19" s="1" t="n"/>
+      <c r="F19" s="1" t="n"/>
+      <c r="G19" s="1" t="n"/>
+      <c r="H19" s="1" t="n"/>
+      <c r="I19" s="1" t="n"/>
+      <c r="J19" s="1" t="n"/>
+      <c r="K19" s="1" t="n"/>
+      <c r="L19" s="1" t="n"/>
+      <c r="M19" s="1" t="n"/>
+      <c r="N19" s="1" t="n"/>
+      <c r="O19" s="1" t="n"/>
+      <c r="P19" s="1" t="n"/>
+      <c r="Q19" s="1" t="n"/>
+      <c r="R19" s="1" t="n"/>
+      <c r="S19" s="1" t="n"/>
+      <c r="T19" s="1" t="n"/>
+      <c r="U19" s="1" t="n"/>
+      <c r="V19" s="1" t="n"/>
+      <c r="W19" s="1" t="n"/>
+      <c r="X19" s="1" t="n"/>
+      <c r="Y19" s="1" t="n"/>
+      <c r="Z19" s="1" t="n"/>
+      <c r="AA19" s="1" t="n"/>
+      <c r="AB19" s="1" t="n"/>
+      <c r="AC19" s="1" t="n"/>
+      <c r="AD19" s="1" t="n"/>
+      <c r="AE19" s="1" t="n"/>
+      <c r="AF19" s="1" t="n"/>
+      <c r="AG19" s="1" t="n"/>
+      <c r="AH19" s="1" t="n"/>
+      <c r="AI19" s="1" t="n"/>
+      <c r="AJ19" s="1" t="n"/>
+      <c r="AK19" s="1" t="n"/>
+      <c r="AL19" s="1" t="n"/>
+      <c r="AM19" s="1" t="n"/>
+      <c r="AN19" s="1" t="n"/>
+      <c r="AO19" s="1" t="n"/>
+      <c r="AP19" s="1" t="n"/>
+      <c r="AQ19" s="1" t="n"/>
+      <c r="AR19" s="1" t="n"/>
+      <c r="AS19" s="1" t="n"/>
+      <c r="AT19" s="1" t="n"/>
+      <c r="AU19" s="1" t="n"/>
+      <c r="AV19" s="1" t="n"/>
+      <c r="AW19" s="1" t="n"/>
+      <c r="AX19" s="1" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="n"/>
+      <c r="C20" s="1" t="n"/>
+      <c r="D20" s="1" t="n"/>
+      <c r="E20" s="1" t="n"/>
+      <c r="F20" s="1" t="n"/>
+      <c r="G20" s="1" t="n"/>
+      <c r="H20" s="1" t="n"/>
+      <c r="I20" s="1" t="n"/>
+      <c r="J20" s="1" t="n"/>
+      <c r="K20" s="1" t="n"/>
+      <c r="L20" s="1" t="n"/>
+      <c r="M20" s="1" t="n"/>
+      <c r="N20" s="1" t="n"/>
+      <c r="O20" s="1" t="n"/>
+      <c r="P20" s="1" t="n"/>
+      <c r="Q20" s="1" t="n"/>
+      <c r="R20" s="1" t="n"/>
+      <c r="S20" s="1" t="n"/>
+      <c r="T20" s="1" t="n"/>
+      <c r="U20" s="1" t="n"/>
+      <c r="V20" s="1" t="n"/>
+      <c r="W20" s="1" t="n"/>
+      <c r="X20" s="1" t="n"/>
+      <c r="Y20" s="1" t="n"/>
+      <c r="Z20" s="1" t="n"/>
+      <c r="AA20" s="1" t="n"/>
+      <c r="AB20" s="1" t="n"/>
+      <c r="AC20" s="1" t="n"/>
+      <c r="AD20" s="1" t="n"/>
+      <c r="AE20" s="1" t="n"/>
+      <c r="AF20" s="1" t="n"/>
+      <c r="AG20" s="1" t="n"/>
+      <c r="AH20" s="1" t="n"/>
+      <c r="AI20" s="1" t="n"/>
+      <c r="AJ20" s="1" t="n"/>
+      <c r="AK20" s="1" t="n"/>
+      <c r="AL20" s="1" t="n"/>
+      <c r="AM20" s="1" t="n"/>
+      <c r="AN20" s="1" t="n"/>
+      <c r="AO20" s="1" t="n"/>
+      <c r="AP20" s="1" t="n"/>
+      <c r="AQ20" s="1" t="n"/>
+      <c r="AR20" s="1" t="n"/>
+      <c r="AS20" s="1" t="n"/>
+      <c r="AT20" s="1" t="n"/>
+      <c r="AU20" s="1" t="n"/>
+      <c r="AV20" s="1" t="n"/>
+      <c r="AW20" s="1" t="n"/>
+      <c r="AX20" s="1" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="n"/>
+      <c r="C21" s="1" t="n"/>
+      <c r="D21" s="1" t="n"/>
+      <c r="E21" s="1" t="n"/>
+      <c r="F21" s="1" t="n"/>
+      <c r="G21" s="1" t="n"/>
+      <c r="H21" s="1" t="n"/>
+      <c r="I21" s="1" t="n"/>
+      <c r="J21" s="1" t="n"/>
+      <c r="K21" s="1" t="n"/>
+      <c r="L21" s="1" t="n"/>
+      <c r="M21" s="1" t="n"/>
+      <c r="N21" s="1" t="n"/>
+      <c r="O21" s="1" t="n"/>
+      <c r="P21" s="1" t="n"/>
+      <c r="Q21" s="1" t="n"/>
+      <c r="R21" s="1" t="n"/>
+      <c r="S21" s="1" t="n"/>
+      <c r="T21" s="1" t="n"/>
+      <c r="U21" s="1" t="n"/>
+      <c r="V21" s="1" t="n"/>
+      <c r="W21" s="1" t="n"/>
+      <c r="X21" s="1" t="n"/>
+      <c r="Y21" s="1" t="n"/>
+      <c r="Z21" s="1" t="n"/>
+      <c r="AA21" s="1" t="n"/>
+      <c r="AB21" s="1" t="n"/>
+      <c r="AC21" s="1" t="n"/>
+      <c r="AD21" s="1" t="n"/>
+      <c r="AE21" s="1" t="n"/>
+      <c r="AF21" s="1" t="n"/>
+      <c r="AG21" s="1" t="n"/>
+      <c r="AH21" s="1" t="n"/>
+      <c r="AI21" s="1" t="n"/>
+      <c r="AJ21" s="1" t="n"/>
+      <c r="AK21" s="1" t="n"/>
+      <c r="AL21" s="1" t="n"/>
+      <c r="AM21" s="1" t="n"/>
+      <c r="AN21" s="1" t="n"/>
+      <c r="AO21" s="1" t="n"/>
+      <c r="AP21" s="1" t="n"/>
+      <c r="AQ21" s="1" t="n"/>
+      <c r="AR21" s="1" t="n"/>
+      <c r="AS21" s="1" t="n"/>
+      <c r="AT21" s="1" t="n"/>
+      <c r="AU21" s="1" t="n"/>
+      <c r="AV21" s="1" t="n"/>
+      <c r="AW21" s="1" t="n"/>
+      <c r="AX21" s="1" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="1" t="n"/>
+      <c r="C22" s="1" t="n"/>
+      <c r="D22" s="1" t="n"/>
+      <c r="E22" s="1" t="n"/>
+      <c r="F22" s="1" t="n"/>
+      <c r="G22" s="1" t="n"/>
+      <c r="H22" s="1" t="n"/>
+      <c r="I22" s="1" t="n"/>
+      <c r="J22" s="1" t="n"/>
+      <c r="K22" s="1" t="n"/>
+      <c r="L22" s="1" t="n"/>
+      <c r="M22" s="1" t="n"/>
+      <c r="N22" s="1" t="n"/>
+      <c r="O22" s="1" t="n"/>
+      <c r="P22" s="1" t="n"/>
+      <c r="Q22" s="1" t="n"/>
+      <c r="R22" s="1" t="n"/>
+      <c r="S22" s="1" t="n"/>
+      <c r="T22" s="1" t="n"/>
+      <c r="U22" s="1" t="n"/>
+      <c r="V22" s="1" t="n"/>
+      <c r="W22" s="1" t="n"/>
+      <c r="X22" s="1" t="n"/>
+      <c r="Y22" s="1" t="n"/>
+      <c r="Z22" s="1" t="n"/>
+      <c r="AA22" s="1" t="n"/>
+      <c r="AB22" s="1" t="n"/>
+      <c r="AC22" s="1" t="n"/>
+      <c r="AD22" s="1" t="n"/>
+      <c r="AE22" s="1" t="n"/>
+      <c r="AF22" s="1" t="n"/>
+      <c r="AG22" s="1" t="n"/>
+      <c r="AH22" s="1" t="n"/>
+      <c r="AI22" s="1" t="n"/>
+      <c r="AJ22" s="1" t="n"/>
+      <c r="AK22" s="1" t="n"/>
+      <c r="AL22" s="1" t="n"/>
+      <c r="AM22" s="1" t="n"/>
+      <c r="AN22" s="1" t="n"/>
+      <c r="AO22" s="1" t="n"/>
+      <c r="AP22" s="1" t="n"/>
+      <c r="AQ22" s="1" t="n"/>
+      <c r="AR22" s="1" t="n"/>
+      <c r="AS22" s="1" t="n"/>
+      <c r="AT22" s="1" t="n"/>
+      <c r="AU22" s="1" t="n"/>
+      <c r="AV22" s="1" t="n"/>
+      <c r="AW22" s="1" t="n"/>
+      <c r="AX22" s="1" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="1" t="n"/>
+      <c r="C23" s="1" t="n"/>
+      <c r="D23" s="1" t="n"/>
+      <c r="E23" s="1" t="n"/>
+      <c r="F23" s="1" t="n"/>
+      <c r="G23" s="1" t="n"/>
+      <c r="H23" s="1" t="n"/>
+      <c r="I23" s="1" t="n"/>
+      <c r="J23" s="1" t="n"/>
+      <c r="K23" s="1" t="n"/>
+      <c r="L23" s="1" t="n"/>
+      <c r="M23" s="1" t="n"/>
+      <c r="N23" s="1" t="n"/>
+      <c r="O23" s="1" t="n"/>
+      <c r="P23" s="1" t="n"/>
+      <c r="Q23" s="1" t="n"/>
+      <c r="R23" s="1" t="n"/>
+      <c r="S23" s="1" t="n"/>
+      <c r="T23" s="1" t="n"/>
+      <c r="U23" s="1" t="n"/>
+      <c r="V23" s="1" t="n"/>
+      <c r="W23" s="1" t="n"/>
+      <c r="X23" s="1" t="n"/>
+      <c r="Y23" s="1" t="n"/>
+      <c r="Z23" s="1" t="n"/>
+      <c r="AA23" s="1" t="n"/>
+      <c r="AB23" s="1" t="n"/>
+      <c r="AC23" s="1" t="n"/>
+      <c r="AD23" s="1" t="n"/>
+      <c r="AE23" s="1" t="n"/>
+      <c r="AF23" s="1" t="n"/>
+      <c r="AG23" s="1" t="n"/>
+      <c r="AH23" s="1" t="n"/>
+      <c r="AI23" s="1" t="n"/>
+      <c r="AJ23" s="1" t="n"/>
+      <c r="AK23" s="1" t="n"/>
+      <c r="AL23" s="1" t="n"/>
+      <c r="AM23" s="1" t="n"/>
+      <c r="AN23" s="1" t="n"/>
+      <c r="AO23" s="1" t="n"/>
+      <c r="AP23" s="1" t="n"/>
+      <c r="AQ23" s="1" t="n"/>
+      <c r="AR23" s="1" t="n"/>
+      <c r="AS23" s="1" t="n"/>
+      <c r="AT23" s="1" t="n"/>
+      <c r="AU23" s="1" t="n"/>
+      <c r="AV23" s="1" t="n"/>
+      <c r="AW23" s="1" t="n"/>
+      <c r="AX23" s="1" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="1" t="n"/>
+      <c r="C24" s="1" t="n"/>
+      <c r="D24" s="1" t="n"/>
+      <c r="E24" s="1" t="n"/>
+      <c r="F24" s="1" t="n"/>
+      <c r="G24" s="1" t="n"/>
+      <c r="H24" s="1" t="n"/>
+      <c r="I24" s="1" t="n"/>
+      <c r="J24" s="1" t="n"/>
+      <c r="K24" s="1" t="n"/>
+      <c r="L24" s="1" t="n"/>
+      <c r="M24" s="1" t="n"/>
+      <c r="N24" s="1" t="n"/>
+      <c r="O24" s="1" t="n"/>
+      <c r="P24" s="1" t="n"/>
+      <c r="Q24" s="1" t="n"/>
+      <c r="R24" s="1" t="n"/>
+      <c r="S24" s="1" t="n"/>
+      <c r="T24" s="1" t="n"/>
+      <c r="U24" s="1" t="n"/>
+      <c r="V24" s="1" t="n"/>
+      <c r="W24" s="1" t="n"/>
+      <c r="X24" s="1" t="n"/>
+      <c r="Y24" s="1" t="n"/>
+      <c r="Z24" s="1" t="n"/>
+      <c r="AA24" s="1" t="n"/>
+      <c r="AB24" s="1" t="n"/>
+      <c r="AC24" s="1" t="n"/>
+      <c r="AD24" s="1" t="n"/>
+      <c r="AE24" s="1" t="n"/>
+      <c r="AF24" s="1" t="n"/>
+      <c r="AG24" s="1" t="n"/>
+      <c r="AH24" s="1" t="n"/>
+      <c r="AI24" s="1" t="n"/>
+      <c r="AJ24" s="1" t="n"/>
+      <c r="AK24" s="1" t="n"/>
+      <c r="AL24" s="1" t="n"/>
+      <c r="AM24" s="1" t="n"/>
+      <c r="AN24" s="1" t="n"/>
+      <c r="AO24" s="1" t="n"/>
+      <c r="AP24" s="1" t="n"/>
+      <c r="AQ24" s="1" t="n"/>
+      <c r="AR24" s="1" t="n"/>
+      <c r="AS24" s="1" t="n"/>
+      <c r="AT24" s="1" t="n"/>
+      <c r="AU24" s="1" t="n"/>
+      <c r="AV24" s="1" t="n"/>
+      <c r="AW24" s="1" t="n"/>
+      <c r="AX24" s="1" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="1" t="n"/>
+      <c r="C25" s="1" t="n"/>
+      <c r="D25" s="1" t="n"/>
+      <c r="E25" s="1" t="n"/>
+      <c r="F25" s="1" t="n"/>
+      <c r="G25" s="1" t="n"/>
+      <c r="H25" s="1" t="n"/>
+      <c r="I25" s="1" t="n"/>
+      <c r="J25" s="1" t="n"/>
+      <c r="K25" s="1" t="n"/>
+      <c r="L25" s="1" t="n"/>
+      <c r="M25" s="1" t="n"/>
+      <c r="N25" s="1" t="n"/>
+      <c r="O25" s="1" t="n"/>
+      <c r="P25" s="1" t="n"/>
+      <c r="Q25" s="1" t="n"/>
+      <c r="R25" s="1" t="n"/>
+      <c r="S25" s="1" t="n"/>
+      <c r="T25" s="1" t="n"/>
+      <c r="U25" s="1" t="n"/>
+      <c r="V25" s="1" t="n"/>
+      <c r="W25" s="1" t="n"/>
+      <c r="X25" s="1" t="n"/>
+      <c r="Y25" s="1" t="n"/>
+      <c r="Z25" s="1" t="n"/>
+      <c r="AA25" s="1" t="n"/>
+      <c r="AB25" s="1" t="n"/>
+      <c r="AC25" s="1" t="n"/>
+      <c r="AD25" s="1" t="n"/>
+      <c r="AE25" s="1" t="n"/>
+      <c r="AF25" s="1" t="n"/>
+      <c r="AG25" s="1" t="n"/>
+      <c r="AH25" s="1" t="n"/>
+      <c r="AI25" s="1" t="n"/>
+      <c r="AJ25" s="1" t="n"/>
+      <c r="AK25" s="1" t="n"/>
+      <c r="AL25" s="1" t="n"/>
+      <c r="AM25" s="1" t="n"/>
+      <c r="AN25" s="1" t="n"/>
+      <c r="AO25" s="1" t="n"/>
+      <c r="AP25" s="1" t="n"/>
+      <c r="AQ25" s="1" t="n"/>
+      <c r="AR25" s="1" t="n"/>
+      <c r="AS25" s="1" t="n"/>
+      <c r="AT25" s="1" t="n"/>
+      <c r="AU25" s="1" t="n"/>
+      <c r="AV25" s="1" t="n"/>
+      <c r="AW25" s="1" t="n"/>
+      <c r="AX25" s="1" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="1" t="n"/>
+      <c r="C26" s="1" t="n"/>
+      <c r="D26" s="1" t="n"/>
+      <c r="E26" s="1" t="n"/>
+      <c r="F26" s="1" t="n"/>
+      <c r="G26" s="1" t="n"/>
+      <c r="H26" s="1" t="n"/>
+      <c r="I26" s="1" t="n"/>
+      <c r="J26" s="1" t="n"/>
+      <c r="K26" s="1" t="n"/>
+      <c r="L26" s="1" t="n"/>
+      <c r="M26" s="1" t="n"/>
+      <c r="N26" s="1" t="n"/>
+      <c r="O26" s="1" t="n"/>
+      <c r="P26" s="1" t="n"/>
+      <c r="Q26" s="1" t="n"/>
+      <c r="R26" s="1" t="n"/>
+      <c r="S26" s="1" t="n"/>
+      <c r="T26" s="1" t="n"/>
+      <c r="U26" s="1" t="n"/>
+      <c r="V26" s="1" t="n"/>
+      <c r="W26" s="1" t="n"/>
+      <c r="X26" s="1" t="n"/>
+      <c r="Y26" s="1" t="n"/>
+      <c r="Z26" s="1" t="n"/>
+      <c r="AA26" s="1" t="n"/>
+      <c r="AB26" s="1" t="n"/>
+      <c r="AC26" s="1" t="n"/>
+      <c r="AD26" s="1" t="n"/>
+      <c r="AE26" s="1" t="n"/>
+      <c r="AF26" s="1" t="n"/>
+      <c r="AG26" s="1" t="n"/>
+      <c r="AH26" s="1" t="n"/>
+      <c r="AI26" s="1" t="n"/>
+      <c r="AJ26" s="1" t="n"/>
+      <c r="AK26" s="1" t="n"/>
+      <c r="AL26" s="1" t="n"/>
+      <c r="AM26" s="1" t="n"/>
+      <c r="AN26" s="1" t="n"/>
+      <c r="AO26" s="1" t="n"/>
+      <c r="AP26" s="1" t="n"/>
+      <c r="AQ26" s="1" t="n"/>
+      <c r="AR26" s="1" t="n"/>
+      <c r="AS26" s="1" t="n"/>
+      <c r="AT26" s="1" t="n"/>
+      <c r="AU26" s="1" t="n"/>
+      <c r="AV26" s="1" t="n"/>
+      <c r="AW26" s="1" t="n"/>
+      <c r="AX26" s="1" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="1" t="n"/>
+      <c r="C27" s="1" t="n"/>
+      <c r="D27" s="1" t="n"/>
+      <c r="E27" s="1" t="n"/>
+      <c r="F27" s="1" t="n"/>
+      <c r="G27" s="1" t="n"/>
+      <c r="H27" s="1" t="n"/>
+      <c r="I27" s="1" t="n"/>
+      <c r="J27" s="1" t="n"/>
+      <c r="K27" s="1" t="n"/>
+      <c r="L27" s="1" t="n"/>
+      <c r="M27" s="1" t="n"/>
+      <c r="N27" s="1" t="n"/>
+      <c r="O27" s="1" t="n"/>
+      <c r="P27" s="1" t="n"/>
+      <c r="Q27" s="1" t="n"/>
+      <c r="R27" s="1" t="n"/>
+      <c r="S27" s="1" t="n"/>
+      <c r="T27" s="1" t="n"/>
+      <c r="U27" s="1" t="n"/>
+      <c r="V27" s="1" t="n"/>
+      <c r="W27" s="1" t="n"/>
+      <c r="X27" s="1" t="n"/>
+      <c r="Y27" s="1" t="n"/>
+      <c r="Z27" s="1" t="n"/>
+      <c r="AA27" s="1" t="n"/>
+      <c r="AB27" s="1" t="n"/>
+      <c r="AC27" s="1" t="n"/>
+      <c r="AD27" s="1" t="n"/>
+      <c r="AE27" s="1" t="n"/>
+      <c r="AF27" s="1" t="n"/>
+      <c r="AG27" s="1" t="n"/>
+      <c r="AH27" s="1" t="n"/>
+      <c r="AI27" s="1" t="n"/>
+      <c r="AJ27" s="1" t="n"/>
+      <c r="AK27" s="1" t="n"/>
+      <c r="AL27" s="1" t="n"/>
+      <c r="AM27" s="1" t="n"/>
+      <c r="AN27" s="1" t="n"/>
+      <c r="AO27" s="1" t="n"/>
+      <c r="AP27" s="1" t="n"/>
+      <c r="AQ27" s="1" t="n"/>
+      <c r="AR27" s="1" t="n"/>
+      <c r="AS27" s="1" t="n"/>
+      <c r="AT27" s="1" t="n"/>
+      <c r="AU27" s="1" t="n"/>
+      <c r="AV27" s="1" t="n"/>
+      <c r="AW27" s="1" t="n"/>
+      <c r="AX27" s="1" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="1" t="n"/>
+      <c r="C28" s="1" t="n"/>
+      <c r="D28" s="1" t="n"/>
+      <c r="E28" s="1" t="n"/>
+      <c r="F28" s="1" t="n"/>
+      <c r="G28" s="1" t="n"/>
+      <c r="H28" s="1" t="n"/>
+      <c r="I28" s="1" t="n"/>
+      <c r="J28" s="1" t="n"/>
+      <c r="K28" s="1" t="n"/>
+      <c r="L28" s="1" t="n"/>
+      <c r="M28" s="1" t="n"/>
+      <c r="N28" s="1" t="n"/>
+      <c r="O28" s="1" t="n"/>
+      <c r="P28" s="1" t="n"/>
+      <c r="Q28" s="1" t="n"/>
+      <c r="R28" s="1" t="n"/>
+      <c r="S28" s="1" t="n"/>
+      <c r="T28" s="1" t="n"/>
+      <c r="U28" s="1" t="n"/>
+      <c r="V28" s="1" t="n"/>
+      <c r="W28" s="1" t="n"/>
+      <c r="X28" s="1" t="n"/>
+      <c r="Y28" s="1" t="n"/>
+      <c r="Z28" s="1" t="n"/>
+      <c r="AA28" s="1" t="n"/>
+      <c r="AB28" s="1" t="n"/>
+      <c r="AC28" s="1" t="n"/>
+      <c r="AD28" s="1" t="n"/>
+      <c r="AE28" s="1" t="n"/>
+      <c r="AF28" s="1" t="n"/>
+      <c r="AG28" s="1" t="n"/>
+      <c r="AH28" s="1" t="n"/>
+      <c r="AI28" s="1" t="n"/>
+      <c r="AJ28" s="1" t="n"/>
+      <c r="AK28" s="1" t="n"/>
+      <c r="AL28" s="1" t="n"/>
+      <c r="AM28" s="1" t="n"/>
+      <c r="AN28" s="1" t="n"/>
+      <c r="AO28" s="1" t="n"/>
+      <c r="AP28" s="1" t="n"/>
+      <c r="AQ28" s="1" t="n"/>
+      <c r="AR28" s="1" t="n"/>
+      <c r="AS28" s="1" t="n"/>
+      <c r="AT28" s="1" t="n"/>
+      <c r="AU28" s="1" t="n"/>
+      <c r="AV28" s="1" t="n"/>
+      <c r="AW28" s="1" t="n"/>
+      <c r="AX28" s="1" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="1" t="n"/>
+      <c r="C29" s="1" t="n"/>
+      <c r="D29" s="1" t="n"/>
+      <c r="E29" s="1" t="n"/>
+      <c r="F29" s="1" t="n"/>
+      <c r="G29" s="1" t="n"/>
+      <c r="H29" s="1" t="n"/>
+      <c r="I29" s="1" t="n"/>
+      <c r="J29" s="1" t="n"/>
+      <c r="K29" s="1" t="n"/>
+      <c r="L29" s="1" t="n"/>
+      <c r="M29" s="1" t="n"/>
+      <c r="N29" s="1" t="n"/>
+      <c r="O29" s="1" t="n"/>
+      <c r="P29" s="1" t="n"/>
+      <c r="Q29" s="1" t="n"/>
+      <c r="R29" s="1" t="n"/>
+      <c r="S29" s="1" t="n"/>
+      <c r="T29" s="1" t="n"/>
+      <c r="U29" s="1" t="n"/>
+      <c r="V29" s="1" t="n"/>
+      <c r="W29" s="1" t="n"/>
+      <c r="X29" s="1" t="n"/>
+      <c r="Y29" s="1" t="n"/>
+      <c r="Z29" s="1" t="n"/>
+      <c r="AA29" s="1" t="n"/>
+      <c r="AB29" s="1" t="n"/>
+      <c r="AC29" s="1" t="n"/>
+      <c r="AD29" s="1" t="n"/>
+      <c r="AE29" s="1" t="n"/>
+      <c r="AF29" s="1" t="n"/>
+      <c r="AG29" s="1" t="n"/>
+      <c r="AH29" s="1" t="n"/>
+      <c r="AI29" s="1" t="n"/>
+      <c r="AJ29" s="1" t="n"/>
+      <c r="AK29" s="1" t="n"/>
+      <c r="AL29" s="1" t="n"/>
+      <c r="AM29" s="1" t="n"/>
+      <c r="AN29" s="1" t="n"/>
+      <c r="AO29" s="1" t="n"/>
+      <c r="AP29" s="1" t="n"/>
+      <c r="AQ29" s="1" t="n"/>
+      <c r="AR29" s="1" t="n"/>
+      <c r="AS29" s="1" t="n"/>
+      <c r="AT29" s="1" t="n"/>
+      <c r="AU29" s="1" t="n"/>
+      <c r="AV29" s="1" t="n"/>
+      <c r="AW29" s="1" t="n"/>
+      <c r="AX29" s="1" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="1" t="n"/>
+      <c r="C30" s="1" t="n"/>
+      <c r="D30" s="1" t="n"/>
+      <c r="E30" s="1" t="n"/>
+      <c r="F30" s="1" t="n"/>
+      <c r="G30" s="1" t="n"/>
+      <c r="H30" s="1" t="n"/>
+      <c r="I30" s="1" t="n"/>
+      <c r="J30" s="1" t="n"/>
+      <c r="K30" s="1" t="n"/>
+      <c r="L30" s="1" t="n"/>
+      <c r="M30" s="1" t="n"/>
+      <c r="N30" s="1" t="n"/>
+      <c r="O30" s="1" t="n"/>
+      <c r="P30" s="1" t="n"/>
+      <c r="Q30" s="1" t="n"/>
+      <c r="R30" s="1" t="n"/>
+      <c r="S30" s="1" t="n"/>
+      <c r="T30" s="1" t="n"/>
+      <c r="U30" s="1" t="n"/>
+      <c r="V30" s="1" t="n"/>
+      <c r="W30" s="1" t="n"/>
+      <c r="X30" s="1" t="n"/>
+      <c r="Y30" s="1" t="n"/>
+      <c r="Z30" s="1" t="n"/>
+      <c r="AA30" s="1" t="n"/>
+      <c r="AB30" s="1" t="n"/>
+      <c r="AC30" s="1" t="n"/>
+      <c r="AD30" s="1" t="n"/>
+      <c r="AE30" s="1" t="n"/>
+      <c r="AF30" s="1" t="n"/>
+      <c r="AG30" s="1" t="n"/>
+      <c r="AH30" s="1" t="n"/>
+      <c r="AI30" s="1" t="n"/>
+      <c r="AJ30" s="1" t="n"/>
+      <c r="AK30" s="1" t="n"/>
+      <c r="AL30" s="1" t="n"/>
+      <c r="AM30" s="1" t="n"/>
+      <c r="AN30" s="1" t="n"/>
+      <c r="AO30" s="1" t="n"/>
+      <c r="AP30" s="1" t="n"/>
+      <c r="AQ30" s="1" t="n"/>
+      <c r="AR30" s="1" t="n"/>
+      <c r="AS30" s="1" t="n"/>
+      <c r="AT30" s="1" t="n"/>
+      <c r="AU30" s="1" t="n"/>
+      <c r="AV30" s="1" t="n"/>
+      <c r="AW30" s="1" t="n"/>
+      <c r="AX30" s="1" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="1" t="n"/>
+      <c r="C31" s="1" t="n"/>
+      <c r="D31" s="1" t="n"/>
+      <c r="E31" s="1" t="n"/>
+      <c r="F31" s="1" t="n"/>
+      <c r="G31" s="1" t="n"/>
+      <c r="H31" s="1" t="n"/>
+      <c r="I31" s="1" t="n"/>
+      <c r="J31" s="1" t="n"/>
+      <c r="K31" s="1" t="n"/>
+      <c r="L31" s="1" t="n"/>
+      <c r="M31" s="1" t="n"/>
+      <c r="N31" s="1" t="n"/>
+      <c r="O31" s="1" t="n"/>
+      <c r="P31" s="1" t="n"/>
+      <c r="Q31" s="1" t="n"/>
+      <c r="R31" s="1" t="n"/>
+      <c r="S31" s="1" t="n"/>
+      <c r="T31" s="1" t="n"/>
+      <c r="U31" s="1" t="n"/>
+      <c r="V31" s="1" t="n"/>
+      <c r="W31" s="1" t="n"/>
+      <c r="X31" s="1" t="n"/>
+      <c r="Y31" s="1" t="n"/>
+      <c r="Z31" s="1" t="n"/>
+      <c r="AA31" s="1" t="n"/>
+      <c r="AB31" s="1" t="n"/>
+      <c r="AC31" s="1" t="n"/>
+      <c r="AD31" s="1" t="n"/>
+      <c r="AE31" s="1" t="n"/>
+      <c r="AF31" s="1" t="n"/>
+      <c r="AG31" s="1" t="n"/>
+      <c r="AH31" s="1" t="n"/>
+      <c r="AI31" s="1" t="n"/>
+      <c r="AJ31" s="1" t="n"/>
+      <c r="AK31" s="1" t="n"/>
+      <c r="AL31" s="1" t="n"/>
+      <c r="AM31" s="1" t="n"/>
+      <c r="AN31" s="1" t="n"/>
+      <c r="AO31" s="1" t="n"/>
+      <c r="AP31" s="1" t="n"/>
+      <c r="AQ31" s="1" t="n"/>
+      <c r="AR31" s="1" t="n"/>
+      <c r="AS31" s="1" t="n"/>
+      <c r="AT31" s="1" t="n"/>
+      <c r="AU31" s="1" t="n"/>
+      <c r="AV31" s="1" t="n"/>
+      <c r="AW31" s="1" t="n"/>
+      <c r="AX31" s="1" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="1" t="n"/>
+      <c r="C32" s="1" t="n"/>
+      <c r="D32" s="1" t="n"/>
+      <c r="E32" s="1" t="n"/>
+      <c r="F32" s="1" t="n"/>
+      <c r="G32" s="1" t="n"/>
+      <c r="H32" s="1" t="n"/>
+      <c r="I32" s="1" t="n"/>
+      <c r="J32" s="1" t="n"/>
+      <c r="K32" s="1" t="n"/>
+      <c r="L32" s="1" t="n"/>
+      <c r="M32" s="1" t="n"/>
+      <c r="N32" s="1" t="n"/>
+      <c r="O32" s="1" t="n"/>
+      <c r="P32" s="1" t="n"/>
+      <c r="Q32" s="1" t="n"/>
+      <c r="R32" s="1" t="n"/>
+      <c r="S32" s="1" t="n"/>
+      <c r="T32" s="1" t="n"/>
+      <c r="U32" s="1" t="n"/>
+      <c r="V32" s="1" t="n"/>
+      <c r="W32" s="1" t="n"/>
+      <c r="X32" s="1" t="n"/>
+      <c r="Y32" s="1" t="n"/>
+      <c r="Z32" s="1" t="n"/>
+      <c r="AA32" s="1" t="n"/>
+      <c r="AB32" s="1" t="n"/>
+      <c r="AC32" s="1" t="n"/>
+      <c r="AD32" s="1" t="n"/>
+      <c r="AE32" s="1" t="n"/>
+      <c r="AF32" s="1" t="n"/>
+      <c r="AG32" s="1" t="n"/>
+      <c r="AH32" s="1" t="n"/>
+      <c r="AI32" s="1" t="n"/>
+      <c r="AJ32" s="1" t="n"/>
+      <c r="AK32" s="1" t="n"/>
+      <c r="AL32" s="1" t="n"/>
+      <c r="AM32" s="1" t="n"/>
+      <c r="AN32" s="1" t="n"/>
+      <c r="AO32" s="1" t="n"/>
+      <c r="AP32" s="1" t="n"/>
+      <c r="AQ32" s="1" t="n"/>
+      <c r="AR32" s="1" t="n"/>
+      <c r="AS32" s="1" t="n"/>
+      <c r="AT32" s="1" t="n"/>
+      <c r="AU32" s="1" t="n"/>
+      <c r="AV32" s="1" t="n"/>
+      <c r="AW32" s="1" t="n"/>
+      <c r="AX32" s="1" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="1" t="n"/>
+      <c r="C33" s="1" t="n"/>
+      <c r="D33" s="1" t="n"/>
+      <c r="E33" s="1" t="n"/>
+      <c r="F33" s="1" t="n"/>
+      <c r="G33" s="1" t="n"/>
+      <c r="H33" s="1" t="n"/>
+      <c r="I33" s="1" t="n"/>
+      <c r="J33" s="1" t="n"/>
+      <c r="K33" s="1" t="n"/>
+      <c r="L33" s="1" t="n"/>
+      <c r="M33" s="1" t="n"/>
+      <c r="N33" s="1" t="n"/>
+      <c r="O33" s="1" t="n"/>
+      <c r="P33" s="1" t="n"/>
+      <c r="Q33" s="1" t="n"/>
+      <c r="R33" s="1" t="n"/>
+      <c r="S33" s="1" t="n"/>
+      <c r="T33" s="1" t="n"/>
+      <c r="U33" s="1" t="n"/>
+      <c r="V33" s="1" t="n"/>
+      <c r="W33" s="1" t="n"/>
+      <c r="X33" s="1" t="n"/>
+      <c r="Y33" s="1" t="n"/>
+      <c r="Z33" s="1" t="n"/>
+      <c r="AA33" s="1" t="n"/>
+      <c r="AB33" s="1" t="n"/>
+      <c r="AC33" s="1" t="n"/>
+      <c r="AD33" s="1" t="n"/>
+      <c r="AE33" s="1" t="n"/>
+      <c r="AF33" s="1" t="n"/>
+      <c r="AG33" s="1" t="n"/>
+      <c r="AH33" s="1" t="n"/>
+      <c r="AI33" s="1" t="n"/>
+      <c r="AJ33" s="1" t="n"/>
+      <c r="AK33" s="1" t="n"/>
+      <c r="AL33" s="1" t="n"/>
+      <c r="AM33" s="1" t="n"/>
+      <c r="AN33" s="1" t="n"/>
+      <c r="AO33" s="1" t="n"/>
+      <c r="AP33" s="1" t="n"/>
+      <c r="AQ33" s="1" t="n"/>
+      <c r="AR33" s="1" t="n"/>
+      <c r="AS33" s="1" t="n"/>
+      <c r="AT33" s="1" t="n"/>
+      <c r="AU33" s="1" t="n"/>
+      <c r="AV33" s="1" t="n"/>
+      <c r="AW33" s="1" t="n"/>
+      <c r="AX33" s="1" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="1" t="n"/>
+      <c r="C34" s="1" t="n"/>
+      <c r="D34" s="1" t="n"/>
+      <c r="E34" s="1" t="n"/>
+      <c r="F34" s="1" t="n"/>
+      <c r="G34" s="1" t="n"/>
+      <c r="H34" s="1" t="n"/>
+      <c r="I34" s="1" t="n"/>
+      <c r="J34" s="1" t="n"/>
+      <c r="K34" s="1" t="n"/>
+      <c r="L34" s="1" t="n"/>
+      <c r="M34" s="1" t="n"/>
+      <c r="N34" s="1" t="n"/>
+      <c r="O34" s="1" t="n"/>
+      <c r="P34" s="1" t="n"/>
+      <c r="Q34" s="1" t="n"/>
+      <c r="R34" s="1" t="n"/>
+      <c r="S34" s="1" t="n"/>
+      <c r="T34" s="1" t="n"/>
+      <c r="U34" s="1" t="n"/>
+      <c r="V34" s="1" t="n"/>
+      <c r="W34" s="1" t="n"/>
+      <c r="X34" s="1" t="n"/>
+      <c r="Y34" s="1" t="n"/>
+      <c r="Z34" s="1" t="n"/>
+      <c r="AA34" s="1" t="n"/>
+      <c r="AB34" s="1" t="n"/>
+      <c r="AC34" s="1" t="n"/>
+      <c r="AD34" s="1" t="n"/>
+      <c r="AE34" s="1" t="n"/>
+      <c r="AF34" s="1" t="n"/>
+      <c r="AG34" s="1" t="n"/>
+      <c r="AH34" s="1" t="n"/>
+      <c r="AI34" s="1" t="n"/>
+      <c r="AJ34" s="1" t="n"/>
+      <c r="AK34" s="1" t="n"/>
+      <c r="AL34" s="1" t="n"/>
+      <c r="AM34" s="1" t="n"/>
+      <c r="AN34" s="1" t="n"/>
+      <c r="AO34" s="1" t="n"/>
+      <c r="AP34" s="1" t="n"/>
+      <c r="AQ34" s="1" t="n"/>
+      <c r="AR34" s="1" t="n"/>
+      <c r="AS34" s="1" t="n"/>
+      <c r="AT34" s="1" t="n"/>
+      <c r="AU34" s="1" t="n"/>
+      <c r="AV34" s="1" t="n"/>
+      <c r="AW34" s="1" t="n"/>
+      <c r="AX34" s="1" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="1" t="n"/>
+      <c r="C35" s="1" t="n"/>
+      <c r="D35" s="1" t="n"/>
+      <c r="E35" s="1" t="n"/>
+      <c r="F35" s="1" t="n"/>
+      <c r="G35" s="1" t="n"/>
+      <c r="H35" s="1" t="n"/>
+      <c r="I35" s="1" t="n"/>
+      <c r="J35" s="1" t="n"/>
+      <c r="K35" s="1" t="n"/>
+      <c r="L35" s="1" t="n"/>
+      <c r="M35" s="1" t="n"/>
+      <c r="N35" s="1" t="n"/>
+      <c r="O35" s="1" t="n"/>
+      <c r="P35" s="1" t="n"/>
+      <c r="Q35" s="1" t="n"/>
+      <c r="R35" s="1" t="n"/>
+      <c r="S35" s="1" t="n"/>
+      <c r="T35" s="1" t="n"/>
+      <c r="U35" s="1" t="n"/>
+      <c r="V35" s="1" t="n"/>
+      <c r="W35" s="1" t="n"/>
+      <c r="X35" s="1" t="n"/>
+      <c r="Y35" s="1" t="n"/>
+      <c r="Z35" s="1" t="n"/>
+      <c r="AA35" s="1" t="n"/>
+      <c r="AB35" s="1" t="n"/>
+      <c r="AC35" s="1" t="n"/>
+      <c r="AD35" s="1" t="n"/>
+      <c r="AE35" s="1" t="n"/>
+      <c r="AF35" s="1" t="n"/>
+      <c r="AG35" s="1" t="n"/>
+      <c r="AH35" s="1" t="n"/>
+      <c r="AI35" s="1" t="n"/>
+      <c r="AJ35" s="1" t="n"/>
+      <c r="AK35" s="1" t="n"/>
+      <c r="AL35" s="1" t="n"/>
+      <c r="AM35" s="1" t="n"/>
+      <c r="AN35" s="1" t="n"/>
+      <c r="AO35" s="1" t="n"/>
+      <c r="AP35" s="1" t="n"/>
+      <c r="AQ35" s="1" t="n"/>
+      <c r="AR35" s="1" t="n"/>
+      <c r="AS35" s="1" t="n"/>
+      <c r="AT35" s="1" t="n"/>
+      <c r="AU35" s="1" t="n"/>
+      <c r="AV35" s="1" t="n"/>
+      <c r="AW35" s="1" t="n"/>
+      <c r="AX35" s="1" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="1" t="n"/>
+      <c r="C36" s="1" t="n"/>
+      <c r="D36" s="1" t="n"/>
+      <c r="E36" s="1" t="n"/>
+      <c r="F36" s="1" t="n"/>
+      <c r="G36" s="1" t="n"/>
+      <c r="H36" s="1" t="n"/>
+      <c r="I36" s="1" t="n"/>
+      <c r="J36" s="1" t="n"/>
+      <c r="K36" s="1" t="n"/>
+      <c r="L36" s="1" t="n"/>
+      <c r="M36" s="1" t="n"/>
+      <c r="N36" s="1" t="n"/>
+      <c r="O36" s="1" t="n"/>
+      <c r="P36" s="1" t="n"/>
+      <c r="Q36" s="1" t="n"/>
+      <c r="R36" s="1" t="n"/>
+      <c r="S36" s="1" t="n"/>
+      <c r="T36" s="1" t="n"/>
+      <c r="U36" s="1" t="n"/>
+      <c r="V36" s="1" t="n"/>
+      <c r="W36" s="1" t="n"/>
+      <c r="X36" s="1" t="n"/>
+      <c r="Y36" s="1" t="n"/>
+      <c r="Z36" s="1" t="n"/>
+      <c r="AA36" s="1" t="n"/>
+      <c r="AB36" s="1" t="n"/>
+      <c r="AC36" s="1" t="n"/>
+      <c r="AD36" s="1" t="n"/>
+      <c r="AE36" s="1" t="n"/>
+      <c r="AF36" s="1" t="n"/>
+      <c r="AG36" s="1" t="n"/>
+      <c r="AH36" s="1" t="n"/>
+      <c r="AI36" s="1" t="n"/>
+      <c r="AJ36" s="1" t="n"/>
+      <c r="AK36" s="1" t="n"/>
+      <c r="AL36" s="1" t="n"/>
+      <c r="AM36" s="1" t="n"/>
+      <c r="AN36" s="1" t="n"/>
+      <c r="AO36" s="1" t="n"/>
+      <c r="AP36" s="1" t="n"/>
+      <c r="AQ36" s="1" t="n"/>
+      <c r="AR36" s="1" t="n"/>
+      <c r="AS36" s="1" t="n"/>
+      <c r="AT36" s="1" t="n"/>
+      <c r="AU36" s="1" t="n"/>
+      <c r="AV36" s="1" t="n"/>
+      <c r="AW36" s="1" t="n"/>
+      <c r="AX36" s="1" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="1" t="n"/>
+      <c r="C37" s="1" t="n"/>
+      <c r="D37" s="1" t="n"/>
+      <c r="E37" s="1" t="n"/>
+      <c r="F37" s="1" t="n"/>
+      <c r="G37" s="1" t="n"/>
+      <c r="H37" s="1" t="n"/>
+      <c r="I37" s="1" t="n"/>
+      <c r="J37" s="1" t="n"/>
+      <c r="K37" s="1" t="n"/>
+      <c r="L37" s="1" t="n"/>
+      <c r="M37" s="1" t="n"/>
+      <c r="N37" s="1" t="n"/>
+      <c r="O37" s="1" t="n"/>
+      <c r="P37" s="1" t="n"/>
+      <c r="Q37" s="1" t="n"/>
+      <c r="R37" s="1" t="n"/>
+      <c r="S37" s="1" t="n"/>
+      <c r="T37" s="1" t="n"/>
+      <c r="U37" s="1" t="n"/>
+      <c r="V37" s="1" t="n"/>
+      <c r="W37" s="1" t="n"/>
+      <c r="X37" s="1" t="n"/>
+      <c r="Y37" s="1" t="n"/>
+      <c r="Z37" s="1" t="n"/>
+      <c r="AA37" s="1" t="n"/>
+      <c r="AB37" s="1" t="n"/>
+      <c r="AC37" s="1" t="n"/>
+      <c r="AD37" s="1" t="n"/>
+      <c r="AE37" s="1" t="n"/>
+      <c r="AF37" s="1" t="n"/>
+      <c r="AG37" s="1" t="n"/>
+      <c r="AH37" s="1" t="n"/>
+      <c r="AI37" s="1" t="n"/>
+      <c r="AJ37" s="1" t="n"/>
+      <c r="AK37" s="1" t="n"/>
+      <c r="AL37" s="1" t="n"/>
+      <c r="AM37" s="1" t="n"/>
+      <c r="AN37" s="1" t="n"/>
+      <c r="AO37" s="1" t="n"/>
+      <c r="AP37" s="1" t="n"/>
+      <c r="AQ37" s="1" t="n"/>
+      <c r="AR37" s="1" t="n"/>
+      <c r="AS37" s="1" t="n"/>
+      <c r="AT37" s="1" t="n"/>
+      <c r="AU37" s="1" t="n"/>
+      <c r="AV37" s="1" t="n"/>
+      <c r="AW37" s="1" t="n"/>
+      <c r="AX37" s="1" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="1" t="n"/>
+      <c r="C38" s="1" t="n"/>
+      <c r="D38" s="1" t="n"/>
+      <c r="E38" s="1" t="n"/>
+      <c r="F38" s="1" t="n"/>
+      <c r="G38" s="1" t="n"/>
+      <c r="H38" s="1" t="n"/>
+      <c r="I38" s="1" t="n"/>
+      <c r="J38" s="1" t="n"/>
+      <c r="K38" s="1" t="n"/>
+      <c r="L38" s="1" t="n"/>
+      <c r="M38" s="1" t="n"/>
+      <c r="N38" s="1" t="n"/>
+      <c r="O38" s="1" t="n"/>
+      <c r="P38" s="1" t="n"/>
+      <c r="Q38" s="1" t="n"/>
+      <c r="R38" s="1" t="n"/>
+      <c r="S38" s="1" t="n"/>
+      <c r="T38" s="1" t="n"/>
+      <c r="U38" s="1" t="n"/>
+      <c r="V38" s="1" t="n"/>
+      <c r="W38" s="1" t="n"/>
+      <c r="X38" s="1" t="n"/>
+      <c r="Y38" s="1" t="n"/>
+      <c r="Z38" s="1" t="n"/>
+      <c r="AA38" s="1" t="n"/>
+      <c r="AB38" s="1" t="n"/>
+      <c r="AC38" s="1" t="n"/>
+      <c r="AD38" s="1" t="n"/>
+      <c r="AE38" s="1" t="n"/>
+      <c r="AF38" s="1" t="n"/>
+      <c r="AG38" s="1" t="n"/>
+      <c r="AH38" s="1" t="n"/>
+      <c r="AI38" s="1" t="n"/>
+      <c r="AJ38" s="1" t="n"/>
+      <c r="AK38" s="1" t="n"/>
+      <c r="AL38" s="1" t="n"/>
+      <c r="AM38" s="1" t="n"/>
+      <c r="AN38" s="1" t="n"/>
+      <c r="AO38" s="1" t="n"/>
+      <c r="AP38" s="1" t="n"/>
+      <c r="AQ38" s="1" t="n"/>
+      <c r="AR38" s="1" t="n"/>
+      <c r="AS38" s="1" t="n"/>
+      <c r="AT38" s="1" t="n"/>
+      <c r="AU38" s="1" t="n"/>
+      <c r="AV38" s="1" t="n"/>
+      <c r="AW38" s="1" t="n"/>
+      <c r="AX38" s="1" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="1" t="n"/>
+      <c r="C39" s="1" t="n"/>
+      <c r="D39" s="1" t="n"/>
+      <c r="E39" s="1" t="n"/>
+      <c r="F39" s="1" t="n"/>
+      <c r="G39" s="1" t="n"/>
+      <c r="H39" s="1" t="n"/>
+      <c r="I39" s="1" t="n"/>
+      <c r="J39" s="1" t="n"/>
+      <c r="K39" s="1" t="n"/>
+      <c r="L39" s="1" t="n"/>
+      <c r="M39" s="1" t="n"/>
+      <c r="N39" s="1" t="n"/>
+      <c r="O39" s="1" t="n"/>
+      <c r="P39" s="1" t="n"/>
+      <c r="Q39" s="1" t="n"/>
+      <c r="R39" s="1" t="n"/>
+      <c r="S39" s="1" t="n"/>
+      <c r="T39" s="1" t="n"/>
+      <c r="U39" s="1" t="n"/>
+      <c r="V39" s="1" t="n"/>
+      <c r="W39" s="1" t="n"/>
+      <c r="X39" s="1" t="n"/>
+      <c r="Y39" s="1" t="n"/>
+      <c r="Z39" s="1" t="n"/>
+      <c r="AA39" s="1" t="n"/>
+      <c r="AB39" s="1" t="n"/>
+      <c r="AC39" s="1" t="n"/>
+      <c r="AD39" s="1" t="n"/>
+      <c r="AE39" s="1" t="n"/>
+      <c r="AF39" s="1" t="n"/>
+      <c r="AG39" s="1" t="n"/>
+      <c r="AH39" s="1" t="n"/>
+      <c r="AI39" s="1" t="n"/>
+      <c r="AJ39" s="1" t="n"/>
+      <c r="AK39" s="1" t="n"/>
+      <c r="AL39" s="1" t="n"/>
+      <c r="AM39" s="1" t="n"/>
+      <c r="AN39" s="1" t="n"/>
+      <c r="AO39" s="1" t="n"/>
+      <c r="AP39" s="1" t="n"/>
+      <c r="AQ39" s="1" t="n"/>
+      <c r="AR39" s="1" t="n"/>
+      <c r="AS39" s="1" t="n"/>
+      <c r="AT39" s="1" t="n"/>
+      <c r="AU39" s="1" t="n"/>
+      <c r="AV39" s="1" t="n"/>
+      <c r="AW39" s="1" t="n"/>
+      <c r="AX39" s="1" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="1" t="n"/>
+      <c r="C40" s="1" t="n"/>
+      <c r="D40" s="1" t="n"/>
+      <c r="E40" s="1" t="n"/>
+      <c r="F40" s="1" t="n"/>
+      <c r="G40" s="1" t="n"/>
+      <c r="H40" s="1" t="n"/>
+      <c r="I40" s="1" t="n"/>
+      <c r="J40" s="1" t="n"/>
+      <c r="K40" s="1" t="n"/>
+      <c r="L40" s="1" t="n"/>
+      <c r="M40" s="1" t="n"/>
+      <c r="N40" s="1" t="n"/>
+      <c r="O40" s="1" t="n"/>
+      <c r="P40" s="1" t="n"/>
+      <c r="Q40" s="1" t="n"/>
+      <c r="R40" s="1" t="n"/>
+      <c r="S40" s="1" t="n"/>
+      <c r="T40" s="1" t="n"/>
+      <c r="U40" s="1" t="n"/>
+      <c r="V40" s="1" t="n"/>
+      <c r="W40" s="1" t="n"/>
+      <c r="X40" s="1" t="n"/>
+      <c r="Y40" s="1" t="n"/>
+      <c r="Z40" s="1" t="n"/>
+      <c r="AA40" s="1" t="n"/>
+      <c r="AB40" s="1" t="n"/>
+      <c r="AC40" s="1" t="n"/>
+      <c r="AD40" s="1" t="n"/>
+      <c r="AE40" s="1" t="n"/>
+      <c r="AF40" s="1" t="n"/>
+      <c r="AG40" s="1" t="n"/>
+      <c r="AH40" s="1" t="n"/>
+      <c r="AI40" s="1" t="n"/>
+      <c r="AJ40" s="1" t="n"/>
+      <c r="AK40" s="1" t="n"/>
+      <c r="AL40" s="1" t="n"/>
+      <c r="AM40" s="1" t="n"/>
+      <c r="AN40" s="1" t="n"/>
+      <c r="AO40" s="1" t="n"/>
+      <c r="AP40" s="1" t="n"/>
+      <c r="AQ40" s="1" t="n"/>
+      <c r="AR40" s="1" t="n"/>
+      <c r="AS40" s="1" t="n"/>
+      <c r="AT40" s="1" t="n"/>
+      <c r="AU40" s="1" t="n"/>
+      <c r="AV40" s="1" t="n"/>
+      <c r="AW40" s="1" t="n"/>
+      <c r="AX40" s="1" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="1" t="n"/>
+      <c r="C41" s="1" t="n"/>
+      <c r="D41" s="1" t="n"/>
+      <c r="E41" s="1" t="n"/>
+      <c r="F41" s="1" t="n"/>
+      <c r="G41" s="1" t="n"/>
+      <c r="H41" s="1" t="n"/>
+      <c r="I41" s="1" t="n"/>
+      <c r="J41" s="1" t="n"/>
+      <c r="K41" s="1" t="n"/>
+      <c r="L41" s="1" t="n"/>
+      <c r="M41" s="1" t="n"/>
+      <c r="N41" s="1" t="n"/>
+      <c r="O41" s="1" t="n"/>
+      <c r="P41" s="1" t="n"/>
+      <c r="Q41" s="1" t="n"/>
+      <c r="R41" s="1" t="n"/>
+      <c r="S41" s="1" t="n"/>
+      <c r="T41" s="1" t="n"/>
+      <c r="U41" s="1" t="n"/>
+      <c r="V41" s="1" t="n"/>
+      <c r="W41" s="1" t="n"/>
+      <c r="X41" s="1" t="n"/>
+      <c r="Y41" s="1" t="n"/>
+      <c r="Z41" s="1" t="n"/>
+      <c r="AA41" s="1" t="n"/>
+      <c r="AB41" s="1" t="n"/>
+      <c r="AC41" s="1" t="n"/>
+      <c r="AD41" s="1" t="n"/>
+      <c r="AE41" s="1" t="n"/>
+      <c r="AF41" s="1" t="n"/>
+      <c r="AG41" s="1" t="n"/>
+      <c r="AH41" s="1" t="n"/>
+      <c r="AI41" s="1" t="n"/>
+      <c r="AJ41" s="1" t="n"/>
+      <c r="AK41" s="1" t="n"/>
+      <c r="AL41" s="1" t="n"/>
+      <c r="AM41" s="1" t="n"/>
+      <c r="AN41" s="1" t="n"/>
+      <c r="AO41" s="1" t="n"/>
+      <c r="AP41" s="1" t="n"/>
+      <c r="AQ41" s="1" t="n"/>
+      <c r="AR41" s="1" t="n"/>
+      <c r="AS41" s="1" t="n"/>
+      <c r="AT41" s="1" t="n"/>
+      <c r="AU41" s="1" t="n"/>
+      <c r="AV41" s="1" t="n"/>
+      <c r="AW41" s="1" t="n"/>
+      <c r="AX41" s="1" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="1" t="n"/>
+      <c r="C42" s="1" t="n"/>
+      <c r="D42" s="1" t="n"/>
+      <c r="E42" s="1" t="n"/>
+      <c r="F42" s="1" t="n"/>
+      <c r="G42" s="1" t="n"/>
+      <c r="H42" s="1" t="n"/>
+      <c r="I42" s="1" t="n"/>
+      <c r="J42" s="1" t="n"/>
+      <c r="K42" s="1" t="n"/>
+      <c r="L42" s="1" t="n"/>
+      <c r="M42" s="1" t="n"/>
+      <c r="N42" s="1" t="n"/>
+      <c r="O42" s="1" t="n"/>
+      <c r="P42" s="1" t="n"/>
+      <c r="Q42" s="1" t="n"/>
+      <c r="R42" s="1" t="n"/>
+      <c r="S42" s="1" t="n"/>
+      <c r="T42" s="1" t="n"/>
+      <c r="U42" s="1" t="n"/>
+      <c r="V42" s="1" t="n"/>
+      <c r="W42" s="1" t="n"/>
+      <c r="X42" s="1" t="n"/>
+      <c r="Y42" s="1" t="n"/>
+      <c r="Z42" s="1" t="n"/>
+      <c r="AA42" s="1" t="n"/>
+      <c r="AB42" s="1" t="n"/>
+      <c r="AC42" s="1" t="n"/>
+      <c r="AD42" s="1" t="n"/>
+      <c r="AE42" s="1" t="n"/>
+      <c r="AF42" s="1" t="n"/>
+      <c r="AG42" s="1" t="n"/>
+      <c r="AH42" s="1" t="n"/>
+      <c r="AI42" s="1" t="n"/>
+      <c r="AJ42" s="1" t="n"/>
+      <c r="AK42" s="1" t="n"/>
+      <c r="AL42" s="1" t="n"/>
+      <c r="AM42" s="1" t="n"/>
+      <c r="AN42" s="1" t="n"/>
+      <c r="AO42" s="1" t="n"/>
+      <c r="AP42" s="1" t="n"/>
+      <c r="AQ42" s="1" t="n"/>
+      <c r="AR42" s="1" t="n"/>
+      <c r="AS42" s="1" t="n"/>
+      <c r="AT42" s="1" t="n"/>
+      <c r="AU42" s="1" t="n"/>
+      <c r="AV42" s="1" t="n"/>
+      <c r="AW42" s="1" t="n"/>
+      <c r="AX42" s="1" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="1" t="n"/>
+      <c r="C43" s="1" t="n"/>
+      <c r="D43" s="1" t="n"/>
+      <c r="E43" s="1" t="n"/>
+      <c r="F43" s="1" t="n"/>
+      <c r="G43" s="1" t="n"/>
+      <c r="H43" s="1" t="n"/>
+      <c r="I43" s="1" t="n"/>
+      <c r="J43" s="1" t="n"/>
+      <c r="K43" s="1" t="n"/>
+      <c r="L43" s="1" t="n"/>
+      <c r="M43" s="1" t="n"/>
+      <c r="N43" s="1" t="n"/>
+      <c r="O43" s="1" t="n"/>
+      <c r="P43" s="1" t="n"/>
+      <c r="Q43" s="1" t="n"/>
+      <c r="R43" s="1" t="n"/>
+      <c r="S43" s="1" t="n"/>
+      <c r="T43" s="1" t="n"/>
+      <c r="U43" s="1" t="n"/>
+      <c r="V43" s="1" t="n"/>
+      <c r="W43" s="1" t="n"/>
+      <c r="X43" s="1" t="n"/>
+      <c r="Y43" s="1" t="n"/>
+      <c r="Z43" s="1" t="n"/>
+      <c r="AA43" s="1" t="n"/>
+      <c r="AB43" s="1" t="n"/>
+      <c r="AC43" s="1" t="n"/>
+      <c r="AD43" s="1" t="n"/>
+      <c r="AE43" s="1" t="n"/>
+      <c r="AF43" s="1" t="n"/>
+      <c r="AG43" s="1" t="n"/>
+      <c r="AH43" s="1" t="n"/>
+      <c r="AI43" s="1" t="n"/>
+      <c r="AJ43" s="1" t="n"/>
+      <c r="AK43" s="1" t="n"/>
+      <c r="AL43" s="1" t="n"/>
+      <c r="AM43" s="1" t="n"/>
+      <c r="AN43" s="1" t="n"/>
+      <c r="AO43" s="1" t="n"/>
+      <c r="AP43" s="1" t="n"/>
+      <c r="AQ43" s="1" t="n"/>
+      <c r="AR43" s="1" t="n"/>
+      <c r="AS43" s="1" t="n"/>
+      <c r="AT43" s="1" t="n"/>
+      <c r="AU43" s="1" t="n"/>
+      <c r="AV43" s="1" t="n"/>
+      <c r="AW43" s="1" t="n"/>
+      <c r="AX43" s="1" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="1" t="n"/>
+      <c r="C44" s="1" t="n"/>
+      <c r="D44" s="1" t="n"/>
+      <c r="E44" s="1" t="n"/>
+      <c r="F44" s="1" t="n"/>
+      <c r="G44" s="1" t="n"/>
+      <c r="H44" s="1" t="n"/>
+      <c r="I44" s="1" t="n"/>
+      <c r="J44" s="1" t="n"/>
+      <c r="K44" s="1" t="n"/>
+      <c r="L44" s="1" t="n"/>
+      <c r="M44" s="1" t="n"/>
+      <c r="N44" s="1" t="n"/>
+      <c r="O44" s="1" t="n"/>
+      <c r="P44" s="1" t="n"/>
+      <c r="Q44" s="1" t="n"/>
+      <c r="R44" s="1" t="n"/>
+      <c r="S44" s="1" t="n"/>
+      <c r="T44" s="1" t="n"/>
+      <c r="U44" s="1" t="n"/>
+      <c r="V44" s="1" t="n"/>
+      <c r="W44" s="1" t="n"/>
+      <c r="X44" s="1" t="n"/>
+      <c r="Y44" s="1" t="n"/>
+      <c r="Z44" s="1" t="n"/>
+      <c r="AA44" s="1" t="n"/>
+      <c r="AB44" s="1" t="n"/>
+      <c r="AC44" s="1" t="n"/>
+      <c r="AD44" s="1" t="n"/>
+      <c r="AE44" s="1" t="n"/>
+      <c r="AF44" s="1" t="n"/>
+      <c r="AG44" s="1" t="n"/>
+      <c r="AH44" s="1" t="n"/>
+      <c r="AI44" s="1" t="n"/>
+      <c r="AJ44" s="1" t="n"/>
+      <c r="AK44" s="1" t="n"/>
+      <c r="AL44" s="1" t="n"/>
+      <c r="AM44" s="1" t="n"/>
+      <c r="AN44" s="1" t="n"/>
+      <c r="AO44" s="1" t="n"/>
+      <c r="AP44" s="1" t="n"/>
+      <c r="AQ44" s="1" t="n"/>
+      <c r="AR44" s="1" t="n"/>
+      <c r="AS44" s="1" t="n"/>
+      <c r="AT44" s="1" t="n"/>
+      <c r="AU44" s="1" t="n"/>
+      <c r="AV44" s="1" t="n"/>
+      <c r="AW44" s="1" t="n"/>
+      <c r="AX44" s="1" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="1" t="n"/>
+      <c r="C45" s="1" t="n"/>
+      <c r="D45" s="1" t="n"/>
+      <c r="E45" s="1" t="n"/>
+      <c r="F45" s="1" t="n"/>
+      <c r="G45" s="1" t="n"/>
+      <c r="H45" s="1" t="n"/>
+      <c r="I45" s="1" t="n"/>
+      <c r="J45" s="1" t="n"/>
+      <c r="K45" s="1" t="n"/>
+      <c r="L45" s="1" t="n"/>
+      <c r="M45" s="1" t="n"/>
+      <c r="N45" s="1" t="n"/>
+      <c r="O45" s="1" t="n"/>
+      <c r="P45" s="1" t="n"/>
+      <c r="Q45" s="1" t="n"/>
+      <c r="R45" s="1" t="n"/>
+      <c r="S45" s="1" t="n"/>
+      <c r="T45" s="1" t="n"/>
+      <c r="U45" s="1" t="n"/>
+      <c r="V45" s="1" t="n"/>
+      <c r="W45" s="1" t="n"/>
+      <c r="X45" s="1" t="n"/>
+      <c r="Y45" s="1" t="n"/>
+      <c r="Z45" s="1" t="n"/>
+      <c r="AA45" s="1" t="n"/>
+      <c r="AB45" s="1" t="n"/>
+      <c r="AC45" s="1" t="n"/>
+      <c r="AD45" s="1" t="n"/>
+      <c r="AE45" s="1" t="n"/>
+      <c r="AF45" s="1" t="n"/>
+      <c r="AG45" s="1" t="n"/>
+      <c r="AH45" s="1" t="n"/>
+      <c r="AI45" s="1" t="n"/>
+      <c r="AJ45" s="1" t="n"/>
+      <c r="AK45" s="1" t="n"/>
+      <c r="AL45" s="1" t="n"/>
+      <c r="AM45" s="1" t="n"/>
+      <c r="AN45" s="1" t="n"/>
+      <c r="AO45" s="1" t="n"/>
+      <c r="AP45" s="1" t="n"/>
+      <c r="AQ45" s="1" t="n"/>
+      <c r="AR45" s="1" t="n"/>
+      <c r="AS45" s="1" t="n"/>
+      <c r="AT45" s="1" t="n"/>
+      <c r="AU45" s="1" t="n"/>
+      <c r="AV45" s="1" t="n"/>
+      <c r="AW45" s="1" t="n"/>
+      <c r="AX45" s="1" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="1" t="n"/>
+      <c r="C46" s="1" t="n"/>
+      <c r="D46" s="1" t="n"/>
+      <c r="E46" s="1" t="n"/>
+      <c r="F46" s="1" t="n"/>
+      <c r="G46" s="1" t="n"/>
+      <c r="H46" s="1" t="n"/>
+      <c r="I46" s="1" t="n"/>
+      <c r="J46" s="1" t="n"/>
+      <c r="K46" s="1" t="n"/>
+      <c r="L46" s="1" t="n"/>
+      <c r="M46" s="1" t="n"/>
+      <c r="N46" s="1" t="n"/>
+      <c r="O46" s="1" t="n"/>
+      <c r="P46" s="1" t="n"/>
+      <c r="Q46" s="1" t="n"/>
+      <c r="R46" s="1" t="n"/>
+      <c r="S46" s="1" t="n"/>
+      <c r="T46" s="1" t="n"/>
+      <c r="U46" s="1" t="n"/>
+      <c r="V46" s="1" t="n"/>
+      <c r="W46" s="1" t="n"/>
+      <c r="X46" s="1" t="n"/>
+      <c r="Y46" s="1" t="n"/>
+      <c r="Z46" s="1" t="n"/>
+      <c r="AA46" s="1" t="n"/>
+      <c r="AB46" s="1" t="n"/>
+      <c r="AC46" s="1" t="n"/>
+      <c r="AD46" s="1" t="n"/>
+      <c r="AE46" s="1" t="n"/>
+      <c r="AF46" s="1" t="n"/>
+      <c r="AG46" s="1" t="n"/>
+      <c r="AH46" s="1" t="n"/>
+      <c r="AI46" s="1" t="n"/>
+      <c r="AJ46" s="1" t="n"/>
+      <c r="AK46" s="1" t="n"/>
+      <c r="AL46" s="1" t="n"/>
+      <c r="AM46" s="1" t="n"/>
+      <c r="AN46" s="1" t="n"/>
+      <c r="AO46" s="1" t="n"/>
+      <c r="AP46" s="1" t="n"/>
+      <c r="AQ46" s="1" t="n"/>
+      <c r="AR46" s="1" t="n"/>
+      <c r="AS46" s="1" t="n"/>
+      <c r="AT46" s="1" t="n"/>
+      <c r="AU46" s="1" t="n"/>
+      <c r="AV46" s="1" t="n"/>
+      <c r="AW46" s="1" t="n"/>
+      <c r="AX46" s="1" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="1" t="n"/>
+      <c r="C47" s="1" t="n"/>
+      <c r="D47" s="1" t="n"/>
+      <c r="E47" s="1" t="n"/>
+      <c r="F47" s="1" t="n"/>
+      <c r="G47" s="1" t="n"/>
+      <c r="H47" s="1" t="n"/>
+      <c r="I47" s="1" t="n"/>
+      <c r="J47" s="1" t="n"/>
+      <c r="K47" s="1" t="n"/>
+      <c r="L47" s="1" t="n"/>
+      <c r="M47" s="1" t="n"/>
+      <c r="N47" s="1" t="n"/>
+      <c r="O47" s="1" t="n"/>
+      <c r="P47" s="1" t="n"/>
+      <c r="Q47" s="1" t="n"/>
+      <c r="R47" s="1" t="n"/>
+      <c r="S47" s="1" t="n"/>
+      <c r="T47" s="1" t="n"/>
+      <c r="U47" s="1" t="n"/>
+      <c r="V47" s="1" t="n"/>
+      <c r="W47" s="1" t="n"/>
+      <c r="X47" s="1" t="n"/>
+      <c r="Y47" s="1" t="n"/>
+      <c r="Z47" s="1" t="n"/>
+      <c r="AA47" s="1" t="n"/>
+      <c r="AB47" s="1" t="n"/>
+      <c r="AC47" s="1" t="n"/>
+      <c r="AD47" s="1" t="n"/>
+      <c r="AE47" s="1" t="n"/>
+      <c r="AF47" s="1" t="n"/>
+      <c r="AG47" s="1" t="n"/>
+      <c r="AH47" s="1" t="n"/>
+      <c r="AI47" s="1" t="n"/>
+      <c r="AJ47" s="1" t="n"/>
+      <c r="AK47" s="1" t="n"/>
+      <c r="AL47" s="1" t="n"/>
+      <c r="AM47" s="1" t="n"/>
+      <c r="AN47" s="1" t="n"/>
+      <c r="AO47" s="1" t="n"/>
+      <c r="AP47" s="1" t="n"/>
+      <c r="AQ47" s="1" t="n"/>
+      <c r="AR47" s="1" t="n"/>
+      <c r="AS47" s="1" t="n"/>
+      <c r="AT47" s="1" t="n"/>
+      <c r="AU47" s="1" t="n"/>
+      <c r="AV47" s="1" t="n"/>
+      <c r="AW47" s="1" t="n"/>
+      <c r="AX47" s="1" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="1" t="n"/>
+      <c r="C48" s="1" t="n"/>
+      <c r="D48" s="1" t="n"/>
+      <c r="E48" s="1" t="n"/>
+      <c r="F48" s="1" t="n"/>
+      <c r="G48" s="1" t="n"/>
+      <c r="H48" s="1" t="n"/>
+      <c r="I48" s="1" t="n"/>
+      <c r="J48" s="1" t="n"/>
+      <c r="K48" s="1" t="n"/>
+      <c r="L48" s="1" t="n"/>
+      <c r="M48" s="1" t="n"/>
+      <c r="N48" s="1" t="n"/>
+      <c r="O48" s="1" t="n"/>
+      <c r="P48" s="1" t="n"/>
+      <c r="Q48" s="1" t="n"/>
+      <c r="R48" s="1" t="n"/>
+      <c r="S48" s="1" t="n"/>
+      <c r="T48" s="1" t="n"/>
+      <c r="U48" s="1" t="n"/>
+      <c r="V48" s="1" t="n"/>
+      <c r="W48" s="1" t="n"/>
+      <c r="X48" s="1" t="n"/>
+      <c r="Y48" s="1" t="n"/>
+      <c r="Z48" s="1" t="n"/>
+      <c r="AA48" s="1" t="n"/>
+      <c r="AB48" s="1" t="n"/>
+      <c r="AC48" s="1" t="n"/>
+      <c r="AD48" s="1" t="n"/>
+      <c r="AE48" s="1" t="n"/>
+      <c r="AF48" s="1" t="n"/>
+      <c r="AG48" s="1" t="n"/>
+      <c r="AH48" s="1" t="n"/>
+      <c r="AI48" s="1" t="n"/>
+      <c r="AJ48" s="1" t="n"/>
+      <c r="AK48" s="1" t="n"/>
+      <c r="AL48" s="1" t="n"/>
+      <c r="AM48" s="1" t="n"/>
+      <c r="AN48" s="1" t="n"/>
+      <c r="AO48" s="1" t="n"/>
+      <c r="AP48" s="1" t="n"/>
+      <c r="AQ48" s="1" t="n"/>
+      <c r="AR48" s="1" t="n"/>
+      <c r="AS48" s="1" t="n"/>
+      <c r="AT48" s="1" t="n"/>
+      <c r="AU48" s="1" t="n"/>
+      <c r="AV48" s="1" t="n"/>
+      <c r="AW48" s="1" t="n"/>
+      <c r="AX48" s="1" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="1" t="n"/>
+      <c r="C49" s="1" t="n"/>
+      <c r="D49" s="1" t="n"/>
+      <c r="E49" s="1" t="n"/>
+      <c r="F49" s="1" t="n"/>
+      <c r="G49" s="1" t="n"/>
+      <c r="H49" s="1" t="n"/>
+      <c r="I49" s="1" t="n"/>
+      <c r="J49" s="1" t="n"/>
+      <c r="K49" s="1" t="n"/>
+      <c r="L49" s="1" t="n"/>
+      <c r="M49" s="1" t="n"/>
+      <c r="N49" s="1" t="n"/>
+      <c r="O49" s="1" t="n"/>
+      <c r="P49" s="1" t="n"/>
+      <c r="Q49" s="1" t="n"/>
+      <c r="R49" s="1" t="n"/>
+      <c r="S49" s="1" t="n"/>
+      <c r="T49" s="1" t="n"/>
+      <c r="U49" s="1" t="n"/>
+      <c r="V49" s="1" t="n"/>
+      <c r="W49" s="1" t="n"/>
+      <c r="X49" s="1" t="n"/>
+      <c r="Y49" s="1" t="n"/>
+      <c r="Z49" s="1" t="n"/>
+      <c r="AA49" s="1" t="n"/>
+      <c r="AB49" s="1" t="n"/>
+      <c r="AC49" s="1" t="n"/>
+      <c r="AD49" s="1" t="n"/>
+      <c r="AE49" s="1" t="n"/>
+      <c r="AF49" s="1" t="n"/>
+      <c r="AG49" s="1" t="n"/>
+      <c r="AH49" s="1" t="n"/>
+      <c r="AI49" s="1" t="n"/>
+      <c r="AJ49" s="1" t="n"/>
+      <c r="AK49" s="1" t="n"/>
+      <c r="AL49" s="1" t="n"/>
+      <c r="AM49" s="1" t="n"/>
+      <c r="AN49" s="1" t="n"/>
+      <c r="AO49" s="1" t="n"/>
+      <c r="AP49" s="1" t="n"/>
+      <c r="AQ49" s="1" t="n"/>
+      <c r="AR49" s="1" t="n"/>
+      <c r="AS49" s="1" t="n"/>
+      <c r="AT49" s="1" t="n"/>
+      <c r="AU49" s="1" t="n"/>
+      <c r="AV49" s="1" t="n"/>
+      <c r="AW49" s="1" t="n"/>
+      <c r="AX49" s="1" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="1" t="n"/>
+      <c r="C50" s="1" t="n"/>
+      <c r="D50" s="1" t="n"/>
+      <c r="E50" s="1" t="n"/>
+      <c r="F50" s="1" t="n"/>
+      <c r="G50" s="1" t="n"/>
+      <c r="H50" s="1" t="n"/>
+      <c r="I50" s="1" t="n"/>
+      <c r="J50" s="1" t="n"/>
+      <c r="K50" s="1" t="n"/>
+      <c r="L50" s="1" t="n"/>
+      <c r="M50" s="1" t="n"/>
+      <c r="N50" s="1" t="n"/>
+      <c r="O50" s="1" t="n"/>
+      <c r="P50" s="1" t="n"/>
+      <c r="Q50" s="1" t="n"/>
+      <c r="R50" s="1" t="n"/>
+      <c r="S50" s="1" t="n"/>
+      <c r="T50" s="1" t="n"/>
+      <c r="U50" s="1" t="n"/>
+      <c r="V50" s="1" t="n"/>
+      <c r="W50" s="1" t="n"/>
+      <c r="X50" s="1" t="n"/>
+      <c r="Y50" s="1" t="n"/>
+      <c r="Z50" s="1" t="n"/>
+      <c r="AA50" s="1" t="n"/>
+      <c r="AB50" s="1" t="n"/>
+      <c r="AC50" s="1" t="n"/>
+      <c r="AD50" s="1" t="n"/>
+      <c r="AE50" s="1" t="n"/>
+      <c r="AF50" s="1" t="n"/>
+      <c r="AG50" s="1" t="n"/>
+      <c r="AH50" s="1" t="n"/>
+      <c r="AI50" s="1" t="n"/>
+      <c r="AJ50" s="1" t="n"/>
+      <c r="AK50" s="1" t="n"/>
+      <c r="AL50" s="1" t="n"/>
+      <c r="AM50" s="1" t="n"/>
+      <c r="AN50" s="1" t="n"/>
+      <c r="AO50" s="1" t="n"/>
+      <c r="AP50" s="1" t="n"/>
+      <c r="AQ50" s="1" t="n"/>
+      <c r="AR50" s="1" t="n"/>
+      <c r="AS50" s="1" t="n"/>
+      <c r="AT50" s="1" t="n"/>
+      <c r="AU50" s="1" t="n"/>
+      <c r="AV50" s="1" t="n"/>
+      <c r="AW50" s="1" t="n"/>
+      <c r="AX50" s="1" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="1" t="n"/>
+      <c r="C51" s="1" t="n"/>
+      <c r="D51" s="1" t="n"/>
+      <c r="E51" s="1" t="n"/>
+      <c r="F51" s="1" t="n"/>
+      <c r="G51" s="1" t="n"/>
+      <c r="H51" s="1" t="n"/>
+      <c r="I51" s="1" t="n"/>
+      <c r="J51" s="1" t="n"/>
+      <c r="K51" s="1" t="n"/>
+      <c r="L51" s="1" t="n"/>
+      <c r="M51" s="1" t="n"/>
+      <c r="N51" s="1" t="n"/>
+      <c r="O51" s="1" t="n"/>
+      <c r="P51" s="1" t="n"/>
+      <c r="Q51" s="1" t="n"/>
+      <c r="R51" s="1" t="n"/>
+      <c r="S51" s="1" t="n"/>
+      <c r="T51" s="1" t="n"/>
+      <c r="U51" s="1" t="n"/>
+      <c r="V51" s="1" t="n"/>
+      <c r="W51" s="1" t="n"/>
+      <c r="X51" s="1" t="n"/>
+      <c r="Y51" s="1" t="n"/>
+      <c r="Z51" s="1" t="n"/>
+      <c r="AA51" s="1" t="n"/>
+      <c r="AB51" s="1" t="n"/>
+      <c r="AC51" s="1" t="n"/>
+      <c r="AD51" s="1" t="n"/>
+      <c r="AE51" s="1" t="n"/>
+      <c r="AF51" s="1" t="n"/>
+      <c r="AG51" s="1" t="n"/>
+      <c r="AH51" s="1" t="n"/>
+      <c r="AI51" s="1" t="n"/>
+      <c r="AJ51" s="1" t="n"/>
+      <c r="AK51" s="1" t="n"/>
+      <c r="AL51" s="1" t="n"/>
+      <c r="AM51" s="1" t="n"/>
+      <c r="AN51" s="1" t="n"/>
+      <c r="AO51" s="1" t="n"/>
+      <c r="AP51" s="1" t="n"/>
+      <c r="AQ51" s="1" t="n"/>
+      <c r="AR51" s="1" t="n"/>
+      <c r="AS51" s="1" t="n"/>
+      <c r="AT51" s="1" t="n"/>
+      <c r="AU51" s="1" t="n"/>
+      <c r="AV51" s="1" t="n"/>
+      <c r="AW51" s="1" t="n"/>
+      <c r="AX51" s="1" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n"/>
+      <c r="B52" s="1" t="n"/>
+      <c r="C52" s="1" t="n"/>
+      <c r="D52" s="1" t="n"/>
+      <c r="E52" s="1" t="n"/>
+      <c r="F52" s="1" t="n"/>
+      <c r="G52" s="1" t="n"/>
+      <c r="H52" s="1" t="n"/>
+      <c r="I52" s="1" t="n"/>
+      <c r="J52" s="1" t="n"/>
+      <c r="K52" s="1" t="n"/>
+      <c r="L52" s="1" t="n"/>
+      <c r="M52" s="1" t="n"/>
+      <c r="N52" s="1" t="n"/>
+      <c r="O52" s="1" t="n"/>
+      <c r="P52" s="1" t="n"/>
+      <c r="Q52" s="1" t="n"/>
+      <c r="R52" s="1" t="n"/>
+      <c r="S52" s="1" t="n"/>
+      <c r="T52" s="1" t="n"/>
+      <c r="U52" s="1" t="n"/>
+      <c r="V52" s="1" t="n"/>
+      <c r="W52" s="1" t="n"/>
+      <c r="X52" s="1" t="n"/>
+      <c r="Y52" s="1" t="n"/>
+      <c r="Z52" s="1" t="n"/>
+      <c r="AA52" s="1" t="n"/>
+      <c r="AB52" s="1" t="n"/>
+      <c r="AC52" s="1" t="n"/>
+      <c r="AD52" s="1" t="n"/>
+      <c r="AE52" s="1" t="n"/>
+      <c r="AF52" s="1" t="n"/>
+      <c r="AG52" s="1" t="n"/>
+      <c r="AH52" s="1" t="n"/>
+      <c r="AI52" s="1" t="n"/>
+      <c r="AJ52" s="1" t="n"/>
+      <c r="AK52" s="1" t="n"/>
+      <c r="AL52" s="1" t="n"/>
+      <c r="AM52" s="1" t="n"/>
+      <c r="AN52" s="1" t="n"/>
+      <c r="AO52" s="1" t="n"/>
+      <c r="AP52" s="1" t="n"/>
+      <c r="AQ52" s="1" t="n"/>
+      <c r="AR52" s="1" t="n"/>
+      <c r="AS52" s="1" t="n"/>
+      <c r="AT52" s="1" t="n"/>
+      <c r="AU52" s="1" t="n"/>
+      <c r="AV52" s="1" t="n"/>
+      <c r="AW52" s="1" t="n"/>
+      <c r="AX52" s="1" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="1" t="n"/>
+      <c r="C53" s="1" t="n"/>
+      <c r="D53" s="1" t="n"/>
+      <c r="E53" s="1" t="n"/>
+      <c r="F53" s="1" t="n"/>
+      <c r="G53" s="1" t="n"/>
+      <c r="H53" s="1" t="n"/>
+      <c r="I53" s="1" t="n"/>
+      <c r="J53" s="1" t="n"/>
+      <c r="K53" s="1" t="n"/>
+      <c r="L53" s="1" t="n"/>
+      <c r="M53" s="1" t="n"/>
+      <c r="N53" s="1" t="n"/>
+      <c r="O53" s="1" t="n"/>
+      <c r="P53" s="1" t="n"/>
+      <c r="Q53" s="1" t="n"/>
+      <c r="R53" s="1" t="n"/>
+      <c r="S53" s="1" t="n"/>
+      <c r="T53" s="1" t="n"/>
+      <c r="U53" s="1" t="n"/>
+      <c r="V53" s="1" t="n"/>
+      <c r="W53" s="1" t="n"/>
+      <c r="X53" s="1" t="n"/>
+      <c r="Y53" s="1" t="n"/>
+      <c r="Z53" s="1" t="n"/>
+      <c r="AA53" s="1" t="n"/>
+      <c r="AB53" s="1" t="n"/>
+      <c r="AC53" s="1" t="n"/>
+      <c r="AD53" s="1" t="n"/>
+      <c r="AE53" s="1" t="n"/>
+      <c r="AF53" s="1" t="n"/>
+      <c r="AG53" s="1" t="n"/>
+      <c r="AH53" s="1" t="n"/>
+      <c r="AI53" s="1" t="n"/>
+      <c r="AJ53" s="1" t="n"/>
+      <c r="AK53" s="1" t="n"/>
+      <c r="AL53" s="1" t="n"/>
+      <c r="AM53" s="1" t="n"/>
+      <c r="AN53" s="1" t="n"/>
+      <c r="AO53" s="1" t="n"/>
+      <c r="AP53" s="1" t="n"/>
+      <c r="AQ53" s="1" t="n"/>
+      <c r="AR53" s="1" t="n"/>
+      <c r="AS53" s="1" t="n"/>
+      <c r="AT53" s="1" t="n"/>
+      <c r="AU53" s="1" t="n"/>
+      <c r="AV53" s="1" t="n"/>
+      <c r="AW53" s="1" t="n"/>
+      <c r="AX53" s="1" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="1" t="n"/>
+      <c r="C54" s="1" t="n"/>
+      <c r="D54" s="1" t="n"/>
+      <c r="E54" s="1" t="n"/>
+      <c r="F54" s="1" t="n"/>
+      <c r="G54" s="1" t="n"/>
+      <c r="H54" s="1" t="n"/>
+      <c r="I54" s="1" t="n"/>
+      <c r="J54" s="1" t="n"/>
+      <c r="K54" s="1" t="n"/>
+      <c r="L54" s="1" t="n"/>
+      <c r="M54" s="1" t="n"/>
+      <c r="N54" s="1" t="n"/>
+      <c r="O54" s="1" t="n"/>
+      <c r="P54" s="1" t="n"/>
+      <c r="Q54" s="1" t="n"/>
+      <c r="R54" s="1" t="n"/>
+      <c r="S54" s="1" t="n"/>
+      <c r="T54" s="1" t="n"/>
+      <c r="U54" s="1" t="n"/>
+      <c r="V54" s="1" t="n"/>
+      <c r="W54" s="1" t="n"/>
+      <c r="X54" s="1" t="n"/>
+      <c r="Y54" s="1" t="n"/>
+      <c r="Z54" s="1" t="n"/>
+      <c r="AA54" s="1" t="n"/>
+      <c r="AB54" s="1" t="n"/>
+      <c r="AC54" s="1" t="n"/>
+      <c r="AD54" s="1" t="n"/>
+      <c r="AE54" s="1" t="n"/>
+      <c r="AF54" s="1" t="n"/>
+      <c r="AG54" s="1" t="n"/>
+      <c r="AH54" s="1" t="n"/>
+      <c r="AI54" s="1" t="n"/>
+      <c r="AJ54" s="1" t="n"/>
+      <c r="AK54" s="1" t="n"/>
+      <c r="AL54" s="1" t="n"/>
+      <c r="AM54" s="1" t="n"/>
+      <c r="AN54" s="1" t="n"/>
+      <c r="AO54" s="1" t="n"/>
+      <c r="AP54" s="1" t="n"/>
+      <c r="AQ54" s="1" t="n"/>
+      <c r="AR54" s="1" t="n"/>
+      <c r="AS54" s="1" t="n"/>
+      <c r="AT54" s="1" t="n"/>
+      <c r="AU54" s="1" t="n"/>
+      <c r="AV54" s="1" t="n"/>
+      <c r="AW54" s="1" t="n"/>
+      <c r="AX54" s="1" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="1" t="n"/>
+      <c r="C55" s="1" t="n"/>
+      <c r="D55" s="1" t="n"/>
+      <c r="E55" s="1" t="n"/>
+      <c r="F55" s="1" t="n"/>
+      <c r="G55" s="1" t="n"/>
+      <c r="H55" s="1" t="n"/>
+      <c r="I55" s="1" t="n"/>
+      <c r="J55" s="1" t="n"/>
+      <c r="K55" s="1" t="n"/>
+      <c r="L55" s="1" t="n"/>
+      <c r="M55" s="1" t="n"/>
+      <c r="N55" s="1" t="n"/>
+      <c r="O55" s="1" t="n"/>
+      <c r="P55" s="1" t="n"/>
+      <c r="Q55" s="1" t="n"/>
+      <c r="R55" s="1" t="n"/>
+      <c r="S55" s="1" t="n"/>
+      <c r="T55" s="1" t="n"/>
+      <c r="U55" s="1" t="n"/>
+      <c r="V55" s="1" t="n"/>
+      <c r="W55" s="1" t="n"/>
+      <c r="X55" s="1" t="n"/>
+      <c r="Y55" s="1" t="n"/>
+      <c r="Z55" s="1" t="n"/>
+      <c r="AA55" s="1" t="n"/>
+      <c r="AB55" s="1" t="n"/>
+      <c r="AC55" s="1" t="n"/>
+      <c r="AD55" s="1" t="n"/>
+      <c r="AE55" s="1" t="n"/>
+      <c r="AF55" s="1" t="n"/>
+      <c r="AG55" s="1" t="n"/>
+      <c r="AH55" s="1" t="n"/>
+      <c r="AI55" s="1" t="n"/>
+      <c r="AJ55" s="1" t="n"/>
+      <c r="AK55" s="1" t="n"/>
+      <c r="AL55" s="1" t="n"/>
+      <c r="AM55" s="1" t="n"/>
+      <c r="AN55" s="1" t="n"/>
+      <c r="AO55" s="1" t="n"/>
+      <c r="AP55" s="1" t="n"/>
+      <c r="AQ55" s="1" t="n"/>
+      <c r="AR55" s="1" t="n"/>
+      <c r="AS55" s="1" t="n"/>
+      <c r="AT55" s="1" t="n"/>
+      <c r="AU55" s="1" t="n"/>
+      <c r="AV55" s="1" t="n"/>
+      <c r="AW55" s="1" t="n"/>
+      <c r="AX55" s="1" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="1" t="n"/>
+      <c r="C56" s="1" t="n"/>
+      <c r="D56" s="1" t="n"/>
+      <c r="E56" s="1" t="n"/>
+      <c r="F56" s="1" t="n"/>
+      <c r="G56" s="1" t="n"/>
+      <c r="H56" s="1" t="n"/>
+      <c r="I56" s="1" t="n"/>
+      <c r="J56" s="1" t="n"/>
+      <c r="K56" s="1" t="n"/>
+      <c r="L56" s="1" t="n"/>
+      <c r="M56" s="1" t="n"/>
+      <c r="N56" s="1" t="n"/>
+      <c r="O56" s="1" t="n"/>
+      <c r="P56" s="1" t="n"/>
+      <c r="Q56" s="1" t="n"/>
+      <c r="R56" s="1" t="n"/>
+      <c r="S56" s="1" t="n"/>
+      <c r="T56" s="1" t="n"/>
+      <c r="U56" s="1" t="n"/>
+      <c r="V56" s="1" t="n"/>
+      <c r="W56" s="1" t="n"/>
+      <c r="X56" s="1" t="n"/>
+      <c r="Y56" s="1" t="n"/>
+      <c r="Z56" s="1" t="n"/>
+      <c r="AA56" s="1" t="n"/>
+      <c r="AB56" s="1" t="n"/>
+      <c r="AC56" s="1" t="n"/>
+      <c r="AD56" s="1" t="n"/>
+      <c r="AE56" s="1" t="n"/>
+      <c r="AF56" s="1" t="n"/>
+      <c r="AG56" s="1" t="n"/>
+      <c r="AH56" s="1" t="n"/>
+      <c r="AI56" s="1" t="n"/>
+      <c r="AJ56" s="1" t="n"/>
+      <c r="AK56" s="1" t="n"/>
+      <c r="AL56" s="1" t="n"/>
+      <c r="AM56" s="1" t="n"/>
+      <c r="AN56" s="1" t="n"/>
+      <c r="AO56" s="1" t="n"/>
+      <c r="AP56" s="1" t="n"/>
+      <c r="AQ56" s="1" t="n"/>
+      <c r="AR56" s="1" t="n"/>
+      <c r="AS56" s="1" t="n"/>
+      <c r="AT56" s="1" t="n"/>
+      <c r="AU56" s="1" t="n"/>
+      <c r="AV56" s="1" t="n"/>
+      <c r="AW56" s="1" t="n"/>
+      <c r="AX56" s="1" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="1" t="n"/>
+      <c r="C57" s="1" t="n"/>
+      <c r="D57" s="1" t="n"/>
+      <c r="E57" s="1" t="n"/>
+      <c r="F57" s="1" t="n"/>
+      <c r="G57" s="1" t="n"/>
+      <c r="H57" s="1" t="n"/>
+      <c r="I57" s="1" t="n"/>
+      <c r="J57" s="1" t="n"/>
+      <c r="K57" s="1" t="n"/>
+      <c r="L57" s="1" t="n"/>
+      <c r="M57" s="1" t="n"/>
+      <c r="N57" s="1" t="n"/>
+      <c r="O57" s="1" t="n"/>
+      <c r="P57" s="1" t="n"/>
+      <c r="Q57" s="1" t="n"/>
+      <c r="R57" s="1" t="n"/>
+      <c r="S57" s="1" t="n"/>
+      <c r="T57" s="1" t="n"/>
+      <c r="U57" s="1" t="n"/>
+      <c r="V57" s="1" t="n"/>
+      <c r="W57" s="1" t="n"/>
+      <c r="X57" s="1" t="n"/>
+      <c r="Y57" s="1" t="n"/>
+      <c r="Z57" s="1" t="n"/>
+      <c r="AA57" s="1" t="n"/>
+      <c r="AB57" s="1" t="n"/>
+      <c r="AC57" s="1" t="n"/>
+      <c r="AD57" s="1" t="n"/>
+      <c r="AE57" s="1" t="n"/>
+      <c r="AF57" s="1" t="n"/>
+      <c r="AG57" s="1" t="n"/>
+      <c r="AH57" s="1" t="n"/>
+      <c r="AI57" s="1" t="n"/>
+      <c r="AJ57" s="1" t="n"/>
+      <c r="AK57" s="1" t="n"/>
+      <c r="AL57" s="1" t="n"/>
+      <c r="AM57" s="1" t="n"/>
+      <c r="AN57" s="1" t="n"/>
+      <c r="AO57" s="1" t="n"/>
+      <c r="AP57" s="1" t="n"/>
+      <c r="AQ57" s="1" t="n"/>
+      <c r="AR57" s="1" t="n"/>
+      <c r="AS57" s="1" t="n"/>
+      <c r="AT57" s="1" t="n"/>
+      <c r="AU57" s="1" t="n"/>
+      <c r="AV57" s="1" t="n"/>
+      <c r="AW57" s="1" t="n"/>
+      <c r="AX57" s="1" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="1" t="n"/>
+      <c r="C58" s="1" t="n"/>
+      <c r="D58" s="1" t="n"/>
+      <c r="E58" s="1" t="n"/>
+      <c r="F58" s="1" t="n"/>
+      <c r="G58" s="1" t="n"/>
+      <c r="H58" s="1" t="n"/>
+      <c r="I58" s="1" t="n"/>
+      <c r="J58" s="1" t="n"/>
+      <c r="K58" s="1" t="n"/>
+      <c r="L58" s="1" t="n"/>
+      <c r="M58" s="1" t="n"/>
+      <c r="N58" s="1" t="n"/>
+      <c r="O58" s="1" t="n"/>
+      <c r="P58" s="1" t="n"/>
+      <c r="Q58" s="1" t="n"/>
+      <c r="R58" s="1" t="n"/>
+      <c r="S58" s="1" t="n"/>
+      <c r="T58" s="1" t="n"/>
+      <c r="U58" s="1" t="n"/>
+      <c r="V58" s="1" t="n"/>
+      <c r="W58" s="1" t="n"/>
+      <c r="X58" s="1" t="n"/>
+      <c r="Y58" s="1" t="n"/>
+      <c r="Z58" s="1" t="n"/>
+      <c r="AA58" s="1" t="n"/>
+      <c r="AB58" s="1" t="n"/>
+      <c r="AC58" s="1" t="n"/>
+      <c r="AD58" s="1" t="n"/>
+      <c r="AE58" s="1" t="n"/>
+      <c r="AF58" s="1" t="n"/>
+      <c r="AG58" s="1" t="n"/>
+      <c r="AH58" s="1" t="n"/>
+      <c r="AI58" s="1" t="n"/>
+      <c r="AJ58" s="1" t="n"/>
+      <c r="AK58" s="1" t="n"/>
+      <c r="AL58" s="1" t="n"/>
+      <c r="AM58" s="1" t="n"/>
+      <c r="AN58" s="1" t="n"/>
+      <c r="AO58" s="1" t="n"/>
+      <c r="AP58" s="1" t="n"/>
+      <c r="AQ58" s="1" t="n"/>
+      <c r="AR58" s="1" t="n"/>
+      <c r="AS58" s="1" t="n"/>
+      <c r="AT58" s="1" t="n"/>
+      <c r="AU58" s="1" t="n"/>
+      <c r="AV58" s="1" t="n"/>
+      <c r="AW58" s="1" t="n"/>
+      <c r="AX58" s="1" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="1" t="n"/>
+      <c r="C59" s="1" t="n"/>
+      <c r="D59" s="1" t="n"/>
+      <c r="E59" s="1" t="n"/>
+      <c r="F59" s="1" t="n"/>
+      <c r="G59" s="1" t="n"/>
+      <c r="H59" s="1" t="n"/>
+      <c r="I59" s="1" t="n"/>
+      <c r="J59" s="1" t="n"/>
+      <c r="K59" s="1" t="n"/>
+      <c r="L59" s="1" t="n"/>
+      <c r="M59" s="1" t="n"/>
+      <c r="N59" s="1" t="n"/>
+      <c r="O59" s="1" t="n"/>
+      <c r="P59" s="1" t="n"/>
+      <c r="Q59" s="1" t="n"/>
+      <c r="R59" s="1" t="n"/>
+      <c r="S59" s="1" t="n"/>
+      <c r="T59" s="1" t="n"/>
+      <c r="U59" s="1" t="n"/>
+      <c r="V59" s="1" t="n"/>
+      <c r="W59" s="1" t="n"/>
+      <c r="X59" s="1" t="n"/>
+      <c r="Y59" s="1" t="n"/>
+      <c r="Z59" s="1" t="n"/>
+      <c r="AA59" s="1" t="n"/>
+      <c r="AB59" s="1" t="n"/>
+      <c r="AC59" s="1" t="n"/>
+      <c r="AD59" s="1" t="n"/>
+      <c r="AE59" s="1" t="n"/>
+      <c r="AF59" s="1" t="n"/>
+      <c r="AG59" s="1" t="n"/>
+      <c r="AH59" s="1" t="n"/>
+      <c r="AI59" s="1" t="n"/>
+      <c r="AJ59" s="1" t="n"/>
+      <c r="AK59" s="1" t="n"/>
+      <c r="AL59" s="1" t="n"/>
+      <c r="AM59" s="1" t="n"/>
+      <c r="AN59" s="1" t="n"/>
+      <c r="AO59" s="1" t="n"/>
+      <c r="AP59" s="1" t="n"/>
+      <c r="AQ59" s="1" t="n"/>
+      <c r="AR59" s="1" t="n"/>
+      <c r="AS59" s="1" t="n"/>
+      <c r="AT59" s="1" t="n"/>
+      <c r="AU59" s="1" t="n"/>
+      <c r="AV59" s="1" t="n"/>
+      <c r="AW59" s="1" t="n"/>
+      <c r="AX59" s="1" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n"/>
+      <c r="B60" s="1" t="n"/>
+      <c r="C60" s="1" t="n"/>
+      <c r="D60" s="1" t="n"/>
+      <c r="E60" s="1" t="n"/>
+      <c r="F60" s="1" t="n"/>
+      <c r="G60" s="1" t="n"/>
+      <c r="H60" s="1" t="n"/>
+      <c r="I60" s="1" t="n"/>
+      <c r="J60" s="1" t="n"/>
+      <c r="K60" s="1" t="n"/>
+      <c r="L60" s="1" t="n"/>
+      <c r="M60" s="1" t="n"/>
+      <c r="N60" s="1" t="n"/>
+      <c r="O60" s="1" t="n"/>
+      <c r="P60" s="1" t="n"/>
+      <c r="Q60" s="1" t="n"/>
+      <c r="R60" s="1" t="n"/>
+      <c r="S60" s="1" t="n"/>
+      <c r="T60" s="1" t="n"/>
+      <c r="U60" s="1" t="n"/>
+      <c r="V60" s="1" t="n"/>
+      <c r="W60" s="1" t="n"/>
+      <c r="X60" s="1" t="n"/>
+      <c r="Y60" s="1" t="n"/>
+      <c r="Z60" s="1" t="n"/>
+      <c r="AA60" s="1" t="n"/>
+      <c r="AB60" s="1" t="n"/>
+      <c r="AC60" s="1" t="n"/>
+      <c r="AD60" s="1" t="n"/>
+      <c r="AE60" s="1" t="n"/>
+      <c r="AF60" s="1" t="n"/>
+      <c r="AG60" s="1" t="n"/>
+      <c r="AH60" s="1" t="n"/>
+      <c r="AI60" s="1" t="n"/>
+      <c r="AJ60" s="1" t="n"/>
+      <c r="AK60" s="1" t="n"/>
+      <c r="AL60" s="1" t="n"/>
+      <c r="AM60" s="1" t="n"/>
+      <c r="AN60" s="1" t="n"/>
+      <c r="AO60" s="1" t="n"/>
+      <c r="AP60" s="1" t="n"/>
+      <c r="AQ60" s="1" t="n"/>
+      <c r="AR60" s="1" t="n"/>
+      <c r="AS60" s="1" t="n"/>
+      <c r="AT60" s="1" t="n"/>
+      <c r="AU60" s="1" t="n"/>
+      <c r="AV60" s="1" t="n"/>
+      <c r="AW60" s="1" t="n"/>
+      <c r="AX60" s="1" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n"/>
+      <c r="B61" s="1" t="n"/>
+      <c r="C61" s="1" t="n"/>
+      <c r="D61" s="1" t="n"/>
+      <c r="E61" s="1" t="n"/>
+      <c r="F61" s="1" t="n"/>
+      <c r="G61" s="1" t="n"/>
+      <c r="H61" s="1" t="n"/>
+      <c r="I61" s="1" t="n"/>
+      <c r="J61" s="1" t="n"/>
+      <c r="K61" s="1" t="n"/>
+      <c r="L61" s="1" t="n"/>
+      <c r="M61" s="1" t="n"/>
+      <c r="N61" s="1" t="n"/>
+      <c r="O61" s="1" t="n"/>
+      <c r="P61" s="1" t="n"/>
+      <c r="Q61" s="1" t="n"/>
+      <c r="R61" s="1" t="n"/>
+      <c r="S61" s="1" t="n"/>
+      <c r="T61" s="1" t="n"/>
+      <c r="U61" s="1" t="n"/>
+      <c r="V61" s="1" t="n"/>
+      <c r="W61" s="1" t="n"/>
+      <c r="X61" s="1" t="n"/>
+      <c r="Y61" s="1" t="n"/>
+      <c r="Z61" s="1" t="n"/>
+      <c r="AA61" s="1" t="n"/>
+      <c r="AB61" s="1" t="n"/>
+      <c r="AC61" s="1" t="n"/>
+      <c r="AD61" s="1" t="n"/>
+      <c r="AE61" s="1" t="n"/>
+      <c r="AF61" s="1" t="n"/>
+      <c r="AG61" s="1" t="n"/>
+      <c r="AH61" s="1" t="n"/>
+      <c r="AI61" s="1" t="n"/>
+      <c r="AJ61" s="1" t="n"/>
+      <c r="AK61" s="1" t="n"/>
+      <c r="AL61" s="1" t="n"/>
+      <c r="AM61" s="1" t="n"/>
+      <c r="AN61" s="1" t="n"/>
+      <c r="AO61" s="1" t="n"/>
+      <c r="AP61" s="1" t="n"/>
+      <c r="AQ61" s="1" t="n"/>
+      <c r="AR61" s="1" t="n"/>
+      <c r="AS61" s="1" t="n"/>
+      <c r="AT61" s="1" t="n"/>
+      <c r="AU61" s="1" t="n"/>
+      <c r="AV61" s="1" t="n"/>
+      <c r="AW61" s="1" t="n"/>
+      <c r="AX61" s="1" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n"/>
+      <c r="B62" s="1" t="n"/>
+      <c r="C62" s="1" t="n"/>
+      <c r="D62" s="1" t="n"/>
+      <c r="E62" s="1" t="n"/>
+      <c r="F62" s="1" t="n"/>
+      <c r="G62" s="1" t="n"/>
+      <c r="H62" s="1" t="n"/>
+      <c r="I62" s="1" t="n"/>
+      <c r="J62" s="1" t="n"/>
+      <c r="K62" s="1" t="n"/>
+      <c r="L62" s="1" t="n"/>
+      <c r="M62" s="1" t="n"/>
+      <c r="N62" s="1" t="n"/>
+      <c r="O62" s="1" t="n"/>
+      <c r="P62" s="1" t="n"/>
+      <c r="Q62" s="1" t="n"/>
+      <c r="R62" s="1" t="n"/>
+      <c r="S62" s="1" t="n"/>
+      <c r="T62" s="1" t="n"/>
+      <c r="U62" s="1" t="n"/>
+      <c r="V62" s="1" t="n"/>
+      <c r="W62" s="1" t="n"/>
+      <c r="X62" s="1" t="n"/>
+      <c r="Y62" s="1" t="n"/>
+      <c r="Z62" s="1" t="n"/>
+      <c r="AA62" s="1" t="n"/>
+      <c r="AB62" s="1" t="n"/>
+      <c r="AC62" s="1" t="n"/>
+      <c r="AD62" s="1" t="n"/>
+      <c r="AE62" s="1" t="n"/>
+      <c r="AF62" s="1" t="n"/>
+      <c r="AG62" s="1" t="n"/>
+      <c r="AH62" s="1" t="n"/>
+      <c r="AI62" s="1" t="n"/>
+      <c r="AJ62" s="1" t="n"/>
+      <c r="AK62" s="1" t="n"/>
+      <c r="AL62" s="1" t="n"/>
+      <c r="AM62" s="1" t="n"/>
+      <c r="AN62" s="1" t="n"/>
+      <c r="AO62" s="1" t="n"/>
+      <c r="AP62" s="1" t="n"/>
+      <c r="AQ62" s="1" t="n"/>
+      <c r="AR62" s="1" t="n"/>
+      <c r="AS62" s="1" t="n"/>
+      <c r="AT62" s="1" t="n"/>
+      <c r="AU62" s="1" t="n"/>
+      <c r="AV62" s="1" t="n"/>
+      <c r="AW62" s="1" t="n"/>
+      <c r="AX62" s="1" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n"/>
+      <c r="B63" s="1" t="n"/>
+      <c r="C63" s="1" t="n"/>
+      <c r="D63" s="1" t="n"/>
+      <c r="E63" s="1" t="n"/>
+      <c r="F63" s="1" t="n"/>
+      <c r="G63" s="1" t="n"/>
+      <c r="H63" s="1" t="n"/>
+      <c r="I63" s="1" t="n"/>
+      <c r="J63" s="1" t="n"/>
+      <c r="K63" s="1" t="n"/>
+      <c r="L63" s="1" t="n"/>
+      <c r="M63" s="1" t="n"/>
+      <c r="N63" s="1" t="n"/>
+      <c r="O63" s="1" t="n"/>
+      <c r="P63" s="1" t="n"/>
+      <c r="Q63" s="1" t="n"/>
+      <c r="R63" s="1" t="n"/>
+      <c r="S63" s="1" t="n"/>
+      <c r="T63" s="1" t="n"/>
+      <c r="U63" s="1" t="n"/>
+      <c r="V63" s="1" t="n"/>
+      <c r="W63" s="1" t="n"/>
+      <c r="X63" s="1" t="n"/>
+      <c r="Y63" s="1" t="n"/>
+      <c r="Z63" s="1" t="n"/>
+      <c r="AA63" s="1" t="n"/>
+      <c r="AB63" s="1" t="n"/>
+      <c r="AC63" s="1" t="n"/>
+      <c r="AD63" s="1" t="n"/>
+      <c r="AE63" s="1" t="n"/>
+      <c r="AF63" s="1" t="n"/>
+      <c r="AG63" s="1" t="n"/>
+      <c r="AH63" s="1" t="n"/>
+      <c r="AI63" s="1" t="n"/>
+      <c r="AJ63" s="1" t="n"/>
+      <c r="AK63" s="1" t="n"/>
+      <c r="AL63" s="1" t="n"/>
+      <c r="AM63" s="1" t="n"/>
+      <c r="AN63" s="1" t="n"/>
+      <c r="AO63" s="1" t="n"/>
+      <c r="AP63" s="1" t="n"/>
+      <c r="AQ63" s="1" t="n"/>
+      <c r="AR63" s="1" t="n"/>
+      <c r="AS63" s="1" t="n"/>
+      <c r="AT63" s="1" t="n"/>
+      <c r="AU63" s="1" t="n"/>
+      <c r="AV63" s="1" t="n"/>
+      <c r="AW63" s="1" t="n"/>
+      <c r="AX63" s="1" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n"/>
+      <c r="B64" s="1" t="n"/>
+      <c r="C64" s="1" t="n"/>
+      <c r="D64" s="1" t="n"/>
+      <c r="E64" s="1" t="n"/>
+      <c r="F64" s="1" t="n"/>
+      <c r="G64" s="1" t="n"/>
+      <c r="H64" s="1" t="n"/>
+      <c r="I64" s="1" t="n"/>
+      <c r="J64" s="1" t="n"/>
+      <c r="K64" s="1" t="n"/>
+      <c r="L64" s="1" t="n"/>
+      <c r="M64" s="1" t="n"/>
+      <c r="N64" s="1" t="n"/>
+      <c r="O64" s="1" t="n"/>
+      <c r="P64" s="1" t="n"/>
+      <c r="Q64" s="1" t="n"/>
+      <c r="R64" s="1" t="n"/>
+      <c r="S64" s="1" t="n"/>
+      <c r="T64" s="1" t="n"/>
+      <c r="U64" s="1" t="n"/>
+      <c r="V64" s="1" t="n"/>
+      <c r="W64" s="1" t="n"/>
+      <c r="X64" s="1" t="n"/>
+      <c r="Y64" s="1" t="n"/>
+      <c r="Z64" s="1" t="n"/>
+      <c r="AA64" s="1" t="n"/>
+      <c r="AB64" s="1" t="n"/>
+      <c r="AC64" s="1" t="n"/>
+      <c r="AD64" s="1" t="n"/>
+      <c r="AE64" s="1" t="n"/>
+      <c r="AF64" s="1" t="n"/>
+      <c r="AG64" s="1" t="n"/>
+      <c r="AH64" s="1" t="n"/>
+      <c r="AI64" s="1" t="n"/>
+      <c r="AJ64" s="1" t="n"/>
+      <c r="AK64" s="1" t="n"/>
+      <c r="AL64" s="1" t="n"/>
+      <c r="AM64" s="1" t="n"/>
+      <c r="AN64" s="1" t="n"/>
+      <c r="AO64" s="1" t="n"/>
+      <c r="AP64" s="1" t="n"/>
+      <c r="AQ64" s="1" t="n"/>
+      <c r="AR64" s="1" t="n"/>
+      <c r="AS64" s="1" t="n"/>
+      <c r="AT64" s="1" t="n"/>
+      <c r="AU64" s="1" t="n"/>
+      <c r="AV64" s="1" t="n"/>
+      <c r="AW64" s="1" t="n"/>
+      <c r="AX64" s="1" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n"/>
+      <c r="B65" s="1" t="n"/>
+      <c r="C65" s="1" t="n"/>
+      <c r="D65" s="1" t="n"/>
+      <c r="E65" s="1" t="n"/>
+      <c r="F65" s="1" t="n"/>
+      <c r="G65" s="1" t="n"/>
+      <c r="H65" s="1" t="n"/>
+      <c r="I65" s="1" t="n"/>
+      <c r="J65" s="1" t="n"/>
+      <c r="K65" s="1" t="n"/>
+      <c r="L65" s="1" t="n"/>
+      <c r="M65" s="1" t="n"/>
+      <c r="N65" s="1" t="n"/>
+      <c r="O65" s="1" t="n"/>
+      <c r="P65" s="1" t="n"/>
+      <c r="Q65" s="1" t="n"/>
+      <c r="R65" s="1" t="n"/>
+      <c r="S65" s="1" t="n"/>
+      <c r="T65" s="1" t="n"/>
+      <c r="U65" s="1" t="n"/>
+      <c r="V65" s="1" t="n"/>
+      <c r="W65" s="1" t="n"/>
+      <c r="X65" s="1" t="n"/>
+      <c r="Y65" s="1" t="n"/>
+      <c r="Z65" s="1" t="n"/>
+      <c r="AA65" s="1" t="n"/>
+      <c r="AB65" s="1" t="n"/>
+      <c r="AC65" s="1" t="n"/>
+      <c r="AD65" s="1" t="n"/>
+      <c r="AE65" s="1" t="n"/>
+      <c r="AF65" s="1" t="n"/>
+      <c r="AG65" s="1" t="n"/>
+      <c r="AH65" s="1" t="n"/>
+      <c r="AI65" s="1" t="n"/>
+      <c r="AJ65" s="1" t="n"/>
+      <c r="AK65" s="1" t="n"/>
+      <c r="AL65" s="1" t="n"/>
+      <c r="AM65" s="1" t="n"/>
+      <c r="AN65" s="1" t="n"/>
+      <c r="AO65" s="1" t="n"/>
+      <c r="AP65" s="1" t="n"/>
+      <c r="AQ65" s="1" t="n"/>
+      <c r="AR65" s="1" t="n"/>
+      <c r="AS65" s="1" t="n"/>
+      <c r="AT65" s="1" t="n"/>
+      <c r="AU65" s="1" t="n"/>
+      <c r="AV65" s="1" t="n"/>
+      <c r="AW65" s="1" t="n"/>
+      <c r="AX65" s="1" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n"/>
+      <c r="B66" s="1" t="n"/>
+      <c r="C66" s="1" t="n"/>
+      <c r="D66" s="1" t="n"/>
+      <c r="E66" s="1" t="n"/>
+      <c r="F66" s="1" t="n"/>
+      <c r="G66" s="1" t="n"/>
+      <c r="H66" s="1" t="n"/>
+      <c r="I66" s="1" t="n"/>
+      <c r="J66" s="1" t="n"/>
+      <c r="K66" s="1" t="n"/>
+      <c r="L66" s="1" t="n"/>
+      <c r="M66" s="1" t="n"/>
+      <c r="N66" s="1" t="n"/>
+      <c r="O66" s="1" t="n"/>
+      <c r="P66" s="1" t="n"/>
+      <c r="Q66" s="1" t="n"/>
+      <c r="R66" s="1" t="n"/>
+      <c r="S66" s="1" t="n"/>
+      <c r="T66" s="1" t="n"/>
+      <c r="U66" s="1" t="n"/>
+      <c r="V66" s="1" t="n"/>
+      <c r="W66" s="1" t="n"/>
+      <c r="X66" s="1" t="n"/>
+      <c r="Y66" s="1" t="n"/>
+      <c r="Z66" s="1" t="n"/>
+      <c r="AA66" s="1" t="n"/>
+      <c r="AB66" s="1" t="n"/>
+      <c r="AC66" s="1" t="n"/>
+      <c r="AD66" s="1" t="n"/>
+      <c r="AE66" s="1" t="n"/>
+      <c r="AF66" s="1" t="n"/>
+      <c r="AG66" s="1" t="n"/>
+      <c r="AH66" s="1" t="n"/>
+      <c r="AI66" s="1" t="n"/>
+      <c r="AJ66" s="1" t="n"/>
+      <c r="AK66" s="1" t="n"/>
+      <c r="AL66" s="1" t="n"/>
+      <c r="AM66" s="1" t="n"/>
+      <c r="AN66" s="1" t="n"/>
+      <c r="AO66" s="1" t="n"/>
+      <c r="AP66" s="1" t="n"/>
+      <c r="AQ66" s="1" t="n"/>
+      <c r="AR66" s="1" t="n"/>
+      <c r="AS66" s="1" t="n"/>
+      <c r="AT66" s="1" t="n"/>
+      <c r="AU66" s="1" t="n"/>
+      <c r="AV66" s="1" t="n"/>
+      <c r="AW66" s="1" t="n"/>
+      <c r="AX66" s="1" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n"/>
+      <c r="B67" s="1" t="n"/>
+      <c r="C67" s="1" t="n"/>
+      <c r="D67" s="1" t="n"/>
+      <c r="E67" s="1" t="n"/>
+      <c r="F67" s="1" t="n"/>
+      <c r="G67" s="1" t="n"/>
+      <c r="H67" s="1" t="n"/>
+      <c r="I67" s="1" t="n"/>
+      <c r="J67" s="1" t="n"/>
+      <c r="K67" s="1" t="n"/>
+      <c r="L67" s="1" t="n"/>
+      <c r="M67" s="1" t="n"/>
+      <c r="N67" s="1" t="n"/>
+      <c r="O67" s="1" t="n"/>
+      <c r="P67" s="1" t="n"/>
+      <c r="Q67" s="1" t="n"/>
+      <c r="R67" s="1" t="n"/>
+      <c r="S67" s="1" t="n"/>
+      <c r="T67" s="1" t="n"/>
+      <c r="U67" s="1" t="n"/>
+      <c r="V67" s="1" t="n"/>
+      <c r="W67" s="1" t="n"/>
+      <c r="X67" s="1" t="n"/>
+      <c r="Y67" s="1" t="n"/>
+      <c r="Z67" s="1" t="n"/>
+      <c r="AA67" s="1" t="n"/>
+      <c r="AB67" s="1" t="n"/>
+      <c r="AC67" s="1" t="n"/>
+      <c r="AD67" s="1" t="n"/>
+      <c r="AE67" s="1" t="n"/>
+      <c r="AF67" s="1" t="n"/>
+      <c r="AG67" s="1" t="n"/>
+      <c r="AH67" s="1" t="n"/>
+      <c r="AI67" s="1" t="n"/>
+      <c r="AJ67" s="1" t="n"/>
+      <c r="AK67" s="1" t="n"/>
+      <c r="AL67" s="1" t="n"/>
+      <c r="AM67" s="1" t="n"/>
+      <c r="AN67" s="1" t="n"/>
+      <c r="AO67" s="1" t="n"/>
+      <c r="AP67" s="1" t="n"/>
+      <c r="AQ67" s="1" t="n"/>
+      <c r="AR67" s="1" t="n"/>
+      <c r="AS67" s="1" t="n"/>
+      <c r="AT67" s="1" t="n"/>
+      <c r="AU67" s="1" t="n"/>
+      <c r="AV67" s="1" t="n"/>
+      <c r="AW67" s="1" t="n"/>
+      <c r="AX67" s="1" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n"/>
+      <c r="B68" s="1" t="n"/>
+      <c r="C68" s="1" t="n"/>
+      <c r="D68" s="1" t="n"/>
+      <c r="E68" s="1" t="n"/>
+      <c r="F68" s="1" t="n"/>
+      <c r="G68" s="1" t="n"/>
+      <c r="H68" s="1" t="n"/>
+      <c r="I68" s="1" t="n"/>
+      <c r="J68" s="1" t="n"/>
+      <c r="K68" s="1" t="n"/>
+      <c r="L68" s="1" t="n"/>
+      <c r="M68" s="1" t="n"/>
+      <c r="N68" s="1" t="n"/>
+      <c r="O68" s="1" t="n"/>
+      <c r="P68" s="1" t="n"/>
+      <c r="Q68" s="1" t="n"/>
+      <c r="R68" s="1" t="n"/>
+      <c r="S68" s="1" t="n"/>
+      <c r="T68" s="1" t="n"/>
+      <c r="U68" s="1" t="n"/>
+      <c r="V68" s="1" t="n"/>
+      <c r="W68" s="1" t="n"/>
+      <c r="X68" s="1" t="n"/>
+      <c r="Y68" s="1" t="n"/>
+      <c r="Z68" s="1" t="n"/>
+      <c r="AA68" s="1" t="n"/>
+      <c r="AB68" s="1" t="n"/>
+      <c r="AC68" s="1" t="n"/>
+      <c r="AD68" s="1" t="n"/>
+      <c r="AE68" s="1" t="n"/>
+      <c r="AF68" s="1" t="n"/>
+      <c r="AG68" s="1" t="n"/>
+      <c r="AH68" s="1" t="n"/>
+      <c r="AI68" s="1" t="n"/>
+      <c r="AJ68" s="1" t="n"/>
+      <c r="AK68" s="1" t="n"/>
+      <c r="AL68" s="1" t="n"/>
+      <c r="AM68" s="1" t="n"/>
+      <c r="AN68" s="1" t="n"/>
+      <c r="AO68" s="1" t="n"/>
+      <c r="AP68" s="1" t="n"/>
+      <c r="AQ68" s="1" t="n"/>
+      <c r="AR68" s="1" t="n"/>
+      <c r="AS68" s="1" t="n"/>
+      <c r="AT68" s="1" t="n"/>
+      <c r="AU68" s="1" t="n"/>
+      <c r="AV68" s="1" t="n"/>
+      <c r="AW68" s="1" t="n"/>
+      <c r="AX68" s="1" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n"/>
+      <c r="B69" s="1" t="n"/>
+      <c r="C69" s="1" t="n"/>
+      <c r="D69" s="1" t="n"/>
+      <c r="E69" s="1" t="n"/>
+      <c r="F69" s="1" t="n"/>
+      <c r="G69" s="1" t="n"/>
+      <c r="H69" s="1" t="n"/>
+      <c r="I69" s="1" t="n"/>
+      <c r="J69" s="1" t="n"/>
+      <c r="K69" s="1" t="n"/>
+      <c r="L69" s="1" t="n"/>
+      <c r="M69" s="1" t="n"/>
+      <c r="N69" s="1" t="n"/>
+      <c r="O69" s="1" t="n"/>
+      <c r="P69" s="1" t="n"/>
+      <c r="Q69" s="1" t="n"/>
+      <c r="R69" s="1" t="n"/>
+      <c r="S69" s="1" t="n"/>
+      <c r="T69" s="1" t="n"/>
+      <c r="U69" s="1" t="n"/>
+      <c r="V69" s="1" t="n"/>
+      <c r="W69" s="1" t="n"/>
+      <c r="X69" s="1" t="n"/>
+      <c r="Y69" s="1" t="n"/>
+      <c r="Z69" s="1" t="n"/>
+      <c r="AA69" s="1" t="n"/>
+      <c r="AB69" s="1" t="n"/>
+      <c r="AC69" s="1" t="n"/>
+      <c r="AD69" s="1" t="n"/>
+      <c r="AE69" s="1" t="n"/>
+      <c r="AF69" s="1" t="n"/>
+      <c r="AG69" s="1" t="n"/>
+      <c r="AH69" s="1" t="n"/>
+      <c r="AI69" s="1" t="n"/>
+      <c r="AJ69" s="1" t="n"/>
+      <c r="AK69" s="1" t="n"/>
+      <c r="AL69" s="1" t="n"/>
+      <c r="AM69" s="1" t="n"/>
+      <c r="AN69" s="1" t="n"/>
+      <c r="AO69" s="1" t="n"/>
+      <c r="AP69" s="1" t="n"/>
+      <c r="AQ69" s="1" t="n"/>
+      <c r="AR69" s="1" t="n"/>
+      <c r="AS69" s="1" t="n"/>
+      <c r="AT69" s="1" t="n"/>
+      <c r="AU69" s="1" t="n"/>
+      <c r="AV69" s="1" t="n"/>
+      <c r="AW69" s="1" t="n"/>
+      <c r="AX69" s="1" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n"/>
+      <c r="B70" s="1" t="n"/>
+      <c r="C70" s="1" t="n"/>
+      <c r="D70" s="1" t="n"/>
+      <c r="E70" s="1" t="n"/>
+      <c r="F70" s="1" t="n"/>
+      <c r="G70" s="1" t="n"/>
+      <c r="H70" s="1" t="n"/>
+      <c r="I70" s="1" t="n"/>
+      <c r="J70" s="1" t="n"/>
+      <c r="K70" s="1" t="n"/>
+      <c r="L70" s="1" t="n"/>
+      <c r="M70" s="1" t="n"/>
+      <c r="N70" s="1" t="n"/>
+      <c r="O70" s="1" t="n"/>
+      <c r="P70" s="1" t="n"/>
+      <c r="Q70" s="1" t="n"/>
+      <c r="R70" s="1" t="n"/>
+      <c r="S70" s="1" t="n"/>
+      <c r="T70" s="1" t="n"/>
+      <c r="U70" s="1" t="n"/>
+      <c r="V70" s="1" t="n"/>
+      <c r="W70" s="1" t="n"/>
+      <c r="X70" s="1" t="n"/>
+      <c r="Y70" s="1" t="n"/>
+      <c r="Z70" s="1" t="n"/>
+      <c r="AA70" s="1" t="n"/>
+      <c r="AB70" s="1" t="n"/>
+      <c r="AC70" s="1" t="n"/>
+      <c r="AD70" s="1" t="n"/>
+      <c r="AE70" s="1" t="n"/>
+      <c r="AF70" s="1" t="n"/>
+      <c r="AG70" s="1" t="n"/>
+      <c r="AH70" s="1" t="n"/>
+      <c r="AI70" s="1" t="n"/>
+      <c r="AJ70" s="1" t="n"/>
+      <c r="AK70" s="1" t="n"/>
+      <c r="AL70" s="1" t="n"/>
+      <c r="AM70" s="1" t="n"/>
+      <c r="AN70" s="1" t="n"/>
+      <c r="AO70" s="1" t="n"/>
+      <c r="AP70" s="1" t="n"/>
+      <c r="AQ70" s="1" t="n"/>
+      <c r="AR70" s="1" t="n"/>
+      <c r="AS70" s="1" t="n"/>
+      <c r="AT70" s="1" t="n"/>
+      <c r="AU70" s="1" t="n"/>
+      <c r="AV70" s="1" t="n"/>
+      <c r="AW70" s="1" t="n"/>
+      <c r="AX70" s="1" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n"/>
+      <c r="B71" s="1" t="n"/>
+      <c r="C71" s="1" t="n"/>
+      <c r="D71" s="1" t="n"/>
+      <c r="E71" s="1" t="n"/>
+      <c r="F71" s="1" t="n"/>
+      <c r="G71" s="1" t="n"/>
+      <c r="H71" s="1" t="n"/>
+      <c r="I71" s="1" t="n"/>
+      <c r="J71" s="1" t="n"/>
+      <c r="K71" s="1" t="n"/>
+      <c r="L71" s="1" t="n"/>
+      <c r="M71" s="1" t="n"/>
+      <c r="N71" s="1" t="n"/>
+      <c r="O71" s="1" t="n"/>
+      <c r="P71" s="1" t="n"/>
+      <c r="Q71" s="1" t="n"/>
+      <c r="R71" s="1" t="n"/>
+      <c r="S71" s="1" t="n"/>
+      <c r="T71" s="1" t="n"/>
+      <c r="U71" s="1" t="n"/>
+      <c r="V71" s="1" t="n"/>
+      <c r="W71" s="1" t="n"/>
+      <c r="X71" s="1" t="n"/>
+      <c r="Y71" s="1" t="n"/>
+      <c r="Z71" s="1" t="n"/>
+      <c r="AA71" s="1" t="n"/>
+      <c r="AB71" s="1" t="n"/>
+      <c r="AC71" s="1" t="n"/>
+      <c r="AD71" s="1" t="n"/>
+      <c r="AE71" s="1" t="n"/>
+      <c r="AF71" s="1" t="n"/>
+      <c r="AG71" s="1" t="n"/>
+      <c r="AH71" s="1" t="n"/>
+      <c r="AI71" s="1" t="n"/>
+      <c r="AJ71" s="1" t="n"/>
+      <c r="AK71" s="1" t="n"/>
+      <c r="AL71" s="1" t="n"/>
+      <c r="AM71" s="1" t="n"/>
+      <c r="AN71" s="1" t="n"/>
+      <c r="AO71" s="1" t="n"/>
+      <c r="AP71" s="1" t="n"/>
+      <c r="AQ71" s="1" t="n"/>
+      <c r="AR71" s="1" t="n"/>
+      <c r="AS71" s="1" t="n"/>
+      <c r="AT71" s="1" t="n"/>
+      <c r="AU71" s="1" t="n"/>
+      <c r="AV71" s="1" t="n"/>
+      <c r="AW71" s="1" t="n"/>
+      <c r="AX71" s="1" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n"/>
+      <c r="B72" s="1" t="n"/>
+      <c r="C72" s="1" t="n"/>
+      <c r="D72" s="1" t="n"/>
+      <c r="E72" s="1" t="n"/>
+      <c r="F72" s="1" t="n"/>
+      <c r="G72" s="1" t="n"/>
+      <c r="H72" s="1" t="n"/>
+      <c r="I72" s="1" t="n"/>
+      <c r="J72" s="1" t="n"/>
+      <c r="K72" s="1" t="n"/>
+      <c r="L72" s="1" t="n"/>
+      <c r="M72" s="1" t="n"/>
+      <c r="N72" s="1" t="n"/>
+      <c r="O72" s="1" t="n"/>
+      <c r="P72" s="1" t="n"/>
+      <c r="Q72" s="1" t="n"/>
+      <c r="R72" s="1" t="n"/>
+      <c r="S72" s="1" t="n"/>
+      <c r="T72" s="1" t="n"/>
+      <c r="U72" s="1" t="n"/>
+      <c r="V72" s="1" t="n"/>
+      <c r="W72" s="1" t="n"/>
+      <c r="X72" s="1" t="n"/>
+      <c r="Y72" s="1" t="n"/>
+      <c r="Z72" s="1" t="n"/>
+      <c r="AA72" s="1" t="n"/>
+      <c r="AB72" s="1" t="n"/>
+      <c r="AC72" s="1" t="n"/>
+      <c r="AD72" s="1" t="n"/>
+      <c r="AE72" s="1" t="n"/>
+      <c r="AF72" s="1" t="n"/>
+      <c r="AG72" s="1" t="n"/>
+      <c r="AH72" s="1" t="n"/>
+      <c r="AI72" s="1" t="n"/>
+      <c r="AJ72" s="1" t="n"/>
+      <c r="AK72" s="1" t="n"/>
+      <c r="AL72" s="1" t="n"/>
+      <c r="AM72" s="1" t="n"/>
+      <c r="AN72" s="1" t="n"/>
+      <c r="AO72" s="1" t="n"/>
+      <c r="AP72" s="1" t="n"/>
+      <c r="AQ72" s="1" t="n"/>
+      <c r="AR72" s="1" t="n"/>
+      <c r="AS72" s="1" t="n"/>
+      <c r="AT72" s="1" t="n"/>
+      <c r="AU72" s="1" t="n"/>
+      <c r="AV72" s="1" t="n"/>
+      <c r="AW72" s="1" t="n"/>
+      <c r="AX72" s="1" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n"/>
+      <c r="B73" s="1" t="n"/>
+      <c r="C73" s="1" t="n"/>
+      <c r="D73" s="1" t="n"/>
+      <c r="E73" s="1" t="n"/>
+      <c r="F73" s="1" t="n"/>
+      <c r="G73" s="1" t="n"/>
+      <c r="H73" s="1" t="n"/>
+      <c r="I73" s="1" t="n"/>
+      <c r="J73" s="1" t="n"/>
+      <c r="K73" s="1" t="n"/>
+      <c r="L73" s="1" t="n"/>
+      <c r="M73" s="1" t="n"/>
+      <c r="N73" s="1" t="n"/>
+      <c r="O73" s="1" t="n"/>
+      <c r="P73" s="1" t="n"/>
+      <c r="Q73" s="1" t="n"/>
+      <c r="R73" s="1" t="n"/>
+      <c r="S73" s="1" t="n"/>
+      <c r="T73" s="1" t="n"/>
+      <c r="U73" s="1" t="n"/>
+      <c r="V73" s="1" t="n"/>
+      <c r="W73" s="1" t="n"/>
+      <c r="X73" s="1" t="n"/>
+      <c r="Y73" s="1" t="n"/>
+      <c r="Z73" s="1" t="n"/>
+      <c r="AA73" s="1" t="n"/>
+      <c r="AB73" s="1" t="n"/>
+      <c r="AC73" s="1" t="n"/>
+      <c r="AD73" s="1" t="n"/>
+      <c r="AE73" s="1" t="n"/>
+      <c r="AF73" s="1" t="n"/>
+      <c r="AG73" s="1" t="n"/>
+      <c r="AH73" s="1" t="n"/>
+      <c r="AI73" s="1" t="n"/>
+      <c r="AJ73" s="1" t="n"/>
+      <c r="AK73" s="1" t="n"/>
+      <c r="AL73" s="1" t="n"/>
+      <c r="AM73" s="1" t="n"/>
+      <c r="AN73" s="1" t="n"/>
+      <c r="AO73" s="1" t="n"/>
+      <c r="AP73" s="1" t="n"/>
+      <c r="AQ73" s="1" t="n"/>
+      <c r="AR73" s="1" t="n"/>
+      <c r="AS73" s="1" t="n"/>
+      <c r="AT73" s="1" t="n"/>
+      <c r="AU73" s="1" t="n"/>
+      <c r="AV73" s="1" t="n"/>
+      <c r="AW73" s="1" t="n"/>
+      <c r="AX73" s="1" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n"/>
+      <c r="B74" s="1" t="n"/>
+      <c r="C74" s="1" t="n"/>
+      <c r="D74" s="1" t="n"/>
+      <c r="E74" s="1" t="n"/>
+      <c r="F74" s="1" t="n"/>
+      <c r="G74" s="1" t="n"/>
+      <c r="H74" s="1" t="n"/>
+      <c r="I74" s="1" t="n"/>
+      <c r="J74" s="1" t="n"/>
+      <c r="K74" s="1" t="n"/>
+      <c r="L74" s="1" t="n"/>
+      <c r="M74" s="1" t="n"/>
+      <c r="N74" s="1" t="n"/>
+      <c r="O74" s="1" t="n"/>
+      <c r="P74" s="1" t="n"/>
+      <c r="Q74" s="1" t="n"/>
+      <c r="R74" s="1" t="n"/>
+      <c r="S74" s="1" t="n"/>
+      <c r="T74" s="1" t="n"/>
+      <c r="U74" s="1" t="n"/>
+      <c r="V74" s="1" t="n"/>
+      <c r="W74" s="1" t="n"/>
+      <c r="X74" s="1" t="n"/>
+      <c r="Y74" s="1" t="n"/>
+      <c r="Z74" s="1" t="n"/>
+      <c r="AA74" s="1" t="n"/>
+      <c r="AB74" s="1" t="n"/>
+      <c r="AC74" s="1" t="n"/>
+      <c r="AD74" s="1" t="n"/>
+      <c r="AE74" s="1" t="n"/>
+      <c r="AF74" s="1" t="n"/>
+      <c r="AG74" s="1" t="n"/>
+      <c r="AH74" s="1" t="n"/>
+      <c r="AI74" s="1" t="n"/>
+      <c r="AJ74" s="1" t="n"/>
+      <c r="AK74" s="1" t="n"/>
+      <c r="AL74" s="1" t="n"/>
+      <c r="AM74" s="1" t="n"/>
+      <c r="AN74" s="1" t="n"/>
+      <c r="AO74" s="1" t="n"/>
+      <c r="AP74" s="1" t="n"/>
+      <c r="AQ74" s="1" t="n"/>
+      <c r="AR74" s="1" t="n"/>
+      <c r="AS74" s="1" t="n"/>
+      <c r="AT74" s="1" t="n"/>
+      <c r="AU74" s="1" t="n"/>
+      <c r="AV74" s="1" t="n"/>
+      <c r="AW74" s="1" t="n"/>
+      <c r="AX74" s="1" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n"/>
+      <c r="B75" s="1" t="n"/>
+      <c r="C75" s="1" t="n"/>
+      <c r="D75" s="1" t="n"/>
+      <c r="E75" s="1" t="n"/>
+      <c r="F75" s="1" t="n"/>
+      <c r="G75" s="1" t="n"/>
+      <c r="H75" s="1" t="n"/>
+      <c r="I75" s="1" t="n"/>
+      <c r="J75" s="1" t="n"/>
+      <c r="K75" s="1" t="n"/>
+      <c r="L75" s="1" t="n"/>
+      <c r="M75" s="1" t="n"/>
+      <c r="N75" s="1" t="n"/>
+      <c r="O75" s="1" t="n"/>
+      <c r="P75" s="1" t="n"/>
+      <c r="Q75" s="1" t="n"/>
+      <c r="R75" s="1" t="n"/>
+      <c r="S75" s="1" t="n"/>
+      <c r="T75" s="1" t="n"/>
+      <c r="U75" s="1" t="n"/>
+      <c r="V75" s="1" t="n"/>
+      <c r="W75" s="1" t="n"/>
+      <c r="X75" s="1" t="n"/>
+      <c r="Y75" s="1" t="n"/>
+      <c r="Z75" s="1" t="n"/>
+      <c r="AA75" s="1" t="n"/>
+      <c r="AB75" s="1" t="n"/>
+      <c r="AC75" s="1" t="n"/>
+      <c r="AD75" s="1" t="n"/>
+      <c r="AE75" s="1" t="n"/>
+      <c r="AF75" s="1" t="n"/>
+      <c r="AG75" s="1" t="n"/>
+      <c r="AH75" s="1" t="n"/>
+      <c r="AI75" s="1" t="n"/>
+      <c r="AJ75" s="1" t="n"/>
+      <c r="AK75" s="1" t="n"/>
+      <c r="AL75" s="1" t="n"/>
+      <c r="AM75" s="1" t="n"/>
+      <c r="AN75" s="1" t="n"/>
+      <c r="AO75" s="1" t="n"/>
+      <c r="AP75" s="1" t="n"/>
+      <c r="AQ75" s="1" t="n"/>
+      <c r="AR75" s="1" t="n"/>
+      <c r="AS75" s="1" t="n"/>
+      <c r="AT75" s="1" t="n"/>
+      <c r="AU75" s="1" t="n"/>
+      <c r="AV75" s="1" t="n"/>
+      <c r="AW75" s="1" t="n"/>
+      <c r="AX75" s="1" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n"/>
+      <c r="B76" s="1" t="n"/>
+      <c r="C76" s="1" t="n"/>
+      <c r="D76" s="1" t="n"/>
+      <c r="E76" s="1" t="n"/>
+      <c r="F76" s="1" t="n"/>
+      <c r="G76" s="1" t="n"/>
+      <c r="H76" s="1" t="n"/>
+      <c r="I76" s="1" t="n"/>
+      <c r="J76" s="1" t="n"/>
+      <c r="K76" s="1" t="n"/>
+      <c r="L76" s="1" t="n"/>
+      <c r="M76" s="1" t="n"/>
+      <c r="N76" s="1" t="n"/>
+      <c r="O76" s="1" t="n"/>
+      <c r="P76" s="1" t="n"/>
+      <c r="Q76" s="1" t="n"/>
+      <c r="R76" s="1" t="n"/>
+      <c r="S76" s="1" t="n"/>
+      <c r="T76" s="1" t="n"/>
+      <c r="U76" s="1" t="n"/>
+      <c r="V76" s="1" t="n"/>
+      <c r="W76" s="1" t="n"/>
+      <c r="X76" s="1" t="n"/>
+      <c r="Y76" s="1" t="n"/>
+      <c r="Z76" s="1" t="n"/>
+      <c r="AA76" s="1" t="n"/>
+      <c r="AB76" s="1" t="n"/>
+      <c r="AC76" s="1" t="n"/>
+      <c r="AD76" s="1" t="n"/>
+      <c r="AE76" s="1" t="n"/>
+      <c r="AF76" s="1" t="n"/>
+      <c r="AG76" s="1" t="n"/>
+      <c r="AH76" s="1" t="n"/>
+      <c r="AI76" s="1" t="n"/>
+      <c r="AJ76" s="1" t="n"/>
+      <c r="AK76" s="1" t="n"/>
+      <c r="AL76" s="1" t="n"/>
+      <c r="AM76" s="1" t="n"/>
+      <c r="AN76" s="1" t="n"/>
+      <c r="AO76" s="1" t="n"/>
+      <c r="AP76" s="1" t="n"/>
+      <c r="AQ76" s="1" t="n"/>
+      <c r="AR76" s="1" t="n"/>
+      <c r="AS76" s="1" t="n"/>
+      <c r="AT76" s="1" t="n"/>
+      <c r="AU76" s="1" t="n"/>
+      <c r="AV76" s="1" t="n"/>
+      <c r="AW76" s="1" t="n"/>
+      <c r="AX76" s="1" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n"/>
+      <c r="B77" s="1" t="n"/>
+      <c r="C77" s="1" t="n"/>
+      <c r="D77" s="1" t="n"/>
+      <c r="E77" s="1" t="n"/>
+      <c r="F77" s="1" t="n"/>
+      <c r="G77" s="1" t="n"/>
+      <c r="H77" s="1" t="n"/>
+      <c r="I77" s="1" t="n"/>
+      <c r="J77" s="1" t="n"/>
+      <c r="K77" s="1" t="n"/>
+      <c r="L77" s="1" t="n"/>
+      <c r="M77" s="1" t="n"/>
+      <c r="N77" s="1" t="n"/>
+      <c r="O77" s="1" t="n"/>
+      <c r="P77" s="1" t="n"/>
+      <c r="Q77" s="1" t="n"/>
+      <c r="R77" s="1" t="n"/>
+      <c r="S77" s="1" t="n"/>
+      <c r="T77" s="1" t="n"/>
+      <c r="U77" s="1" t="n"/>
+      <c r="V77" s="1" t="n"/>
+      <c r="W77" s="1" t="n"/>
+      <c r="X77" s="1" t="n"/>
+      <c r="Y77" s="1" t="n"/>
+      <c r="Z77" s="1" t="n"/>
+      <c r="AA77" s="1" t="n"/>
+      <c r="AB77" s="1" t="n"/>
+      <c r="AC77" s="1" t="n"/>
+      <c r="AD77" s="1" t="n"/>
+      <c r="AE77" s="1" t="n"/>
+      <c r="AF77" s="1" t="n"/>
+      <c r="AG77" s="1" t="n"/>
+      <c r="AH77" s="1" t="n"/>
+      <c r="AI77" s="1" t="n"/>
+      <c r="AJ77" s="1" t="n"/>
+      <c r="AK77" s="1" t="n"/>
+      <c r="AL77" s="1" t="n"/>
+      <c r="AM77" s="1" t="n"/>
+      <c r="AN77" s="1" t="n"/>
+      <c r="AO77" s="1" t="n"/>
+      <c r="AP77" s="1" t="n"/>
+      <c r="AQ77" s="1" t="n"/>
+      <c r="AR77" s="1" t="n"/>
+      <c r="AS77" s="1" t="n"/>
+      <c r="AT77" s="1" t="n"/>
+      <c r="AU77" s="1" t="n"/>
+      <c r="AV77" s="1" t="n"/>
+      <c r="AW77" s="1" t="n"/>
+      <c r="AX77" s="1" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n"/>
+      <c r="B78" s="1" t="n"/>
+      <c r="C78" s="1" t="n"/>
+      <c r="D78" s="1" t="n"/>
+      <c r="E78" s="1" t="n"/>
+      <c r="F78" s="1" t="n"/>
+      <c r="G78" s="1" t="n"/>
+      <c r="H78" s="1" t="n"/>
+      <c r="I78" s="1" t="n"/>
+      <c r="J78" s="1" t="n"/>
+      <c r="K78" s="1" t="n"/>
+      <c r="L78" s="1" t="n"/>
+      <c r="M78" s="1" t="n"/>
+      <c r="N78" s="1" t="n"/>
+      <c r="O78" s="1" t="n"/>
+      <c r="P78" s="1" t="n"/>
+      <c r="Q78" s="1" t="n"/>
+      <c r="R78" s="1" t="n"/>
+      <c r="S78" s="1" t="n"/>
+      <c r="T78" s="1" t="n"/>
+      <c r="U78" s="1" t="n"/>
+      <c r="V78" s="1" t="n"/>
+      <c r="W78" s="1" t="n"/>
+      <c r="X78" s="1" t="n"/>
+      <c r="Y78" s="1" t="n"/>
+      <c r="Z78" s="1" t="n"/>
+      <c r="AA78" s="1" t="n"/>
+      <c r="AB78" s="1" t="n"/>
+      <c r="AC78" s="1" t="n"/>
+      <c r="AD78" s="1" t="n"/>
+      <c r="AE78" s="1" t="n"/>
+      <c r="AF78" s="1" t="n"/>
+      <c r="AG78" s="1" t="n"/>
+      <c r="AH78" s="1" t="n"/>
+      <c r="AI78" s="1" t="n"/>
+      <c r="AJ78" s="1" t="n"/>
+      <c r="AK78" s="1" t="n"/>
+      <c r="AL78" s="1" t="n"/>
+      <c r="AM78" s="1" t="n"/>
+      <c r="AN78" s="1" t="n"/>
+      <c r="AO78" s="1" t="n"/>
+      <c r="AP78" s="1" t="n"/>
+      <c r="AQ78" s="1" t="n"/>
+      <c r="AR78" s="1" t="n"/>
+      <c r="AS78" s="1" t="n"/>
+      <c r="AT78" s="1" t="n"/>
+      <c r="AU78" s="1" t="n"/>
+      <c r="AV78" s="1" t="n"/>
+      <c r="AW78" s="1" t="n"/>
+      <c r="AX78" s="1" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n"/>
+      <c r="B79" s="1" t="n"/>
+      <c r="C79" s="1" t="n"/>
+      <c r="D79" s="1" t="n"/>
+      <c r="E79" s="1" t="n"/>
+      <c r="F79" s="1" t="n"/>
+      <c r="G79" s="1" t="n"/>
+      <c r="H79" s="1" t="n"/>
+      <c r="I79" s="1" t="n"/>
+      <c r="J79" s="1" t="n"/>
+      <c r="K79" s="1" t="n"/>
+      <c r="L79" s="1" t="n"/>
+      <c r="M79" s="1" t="n"/>
+      <c r="N79" s="1" t="n"/>
+      <c r="O79" s="1" t="n"/>
+      <c r="P79" s="1" t="n"/>
+      <c r="Q79" s="1" t="n"/>
+      <c r="R79" s="1" t="n"/>
+      <c r="S79" s="1" t="n"/>
+      <c r="T79" s="1" t="n"/>
+      <c r="U79" s="1" t="n"/>
+      <c r="V79" s="1" t="n"/>
+      <c r="W79" s="1" t="n"/>
+      <c r="X79" s="1" t="n"/>
+      <c r="Y79" s="1" t="n"/>
+      <c r="Z79" s="1" t="n"/>
+      <c r="AA79" s="1" t="n"/>
+      <c r="AB79" s="1" t="n"/>
+      <c r="AC79" s="1" t="n"/>
+      <c r="AD79" s="1" t="n"/>
+      <c r="AE79" s="1" t="n"/>
+      <c r="AF79" s="1" t="n"/>
+      <c r="AG79" s="1" t="n"/>
+      <c r="AH79" s="1" t="n"/>
+      <c r="AI79" s="1" t="n"/>
+      <c r="AJ79" s="1" t="n"/>
+      <c r="AK79" s="1" t="n"/>
+      <c r="AL79" s="1" t="n"/>
+      <c r="AM79" s="1" t="n"/>
+      <c r="AN79" s="1" t="n"/>
+      <c r="AO79" s="1" t="n"/>
+      <c r="AP79" s="1" t="n"/>
+      <c r="AQ79" s="1" t="n"/>
+      <c r="AR79" s="1" t="n"/>
+      <c r="AS79" s="1" t="n"/>
+      <c r="AT79" s="1" t="n"/>
+      <c r="AU79" s="1" t="n"/>
+      <c r="AV79" s="1" t="n"/>
+      <c r="AW79" s="1" t="n"/>
+      <c r="AX79" s="1" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n"/>
+      <c r="B80" s="1" t="n"/>
+      <c r="C80" s="1" t="n"/>
+      <c r="D80" s="1" t="n"/>
+      <c r="E80" s="1" t="n"/>
+      <c r="F80" s="1" t="n"/>
+      <c r="G80" s="1" t="n"/>
+      <c r="H80" s="1" t="n"/>
+      <c r="I80" s="1" t="n"/>
+      <c r="J80" s="1" t="n"/>
+      <c r="K80" s="1" t="n"/>
+      <c r="L80" s="1" t="n"/>
+      <c r="M80" s="1" t="n"/>
+      <c r="N80" s="1" t="n"/>
+      <c r="O80" s="1" t="n"/>
+      <c r="P80" s="1" t="n"/>
+      <c r="Q80" s="1" t="n"/>
+      <c r="R80" s="1" t="n"/>
+      <c r="S80" s="1" t="n"/>
+      <c r="T80" s="1" t="n"/>
+      <c r="U80" s="1" t="n"/>
+      <c r="V80" s="1" t="n"/>
+      <c r="W80" s="1" t="n"/>
+      <c r="X80" s="1" t="n"/>
+      <c r="Y80" s="1" t="n"/>
+      <c r="Z80" s="1" t="n"/>
+      <c r="AA80" s="1" t="n"/>
+      <c r="AB80" s="1" t="n"/>
+      <c r="AC80" s="1" t="n"/>
+      <c r="AD80" s="1" t="n"/>
+      <c r="AE80" s="1" t="n"/>
+      <c r="AF80" s="1" t="n"/>
+      <c r="AG80" s="1" t="n"/>
+      <c r="AH80" s="1" t="n"/>
+      <c r="AI80" s="1" t="n"/>
+      <c r="AJ80" s="1" t="n"/>
+      <c r="AK80" s="1" t="n"/>
+      <c r="AL80" s="1" t="n"/>
+      <c r="AM80" s="1" t="n"/>
+      <c r="AN80" s="1" t="n"/>
+      <c r="AO80" s="1" t="n"/>
+      <c r="AP80" s="1" t="n"/>
+      <c r="AQ80" s="1" t="n"/>
+      <c r="AR80" s="1" t="n"/>
+      <c r="AS80" s="1" t="n"/>
+      <c r="AT80" s="1" t="n"/>
+      <c r="AU80" s="1" t="n"/>
+      <c r="AV80" s="1" t="n"/>
+      <c r="AW80" s="1" t="n"/>
+      <c r="AX80" s="1" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n"/>
+      <c r="B81" s="1" t="n"/>
+      <c r="C81" s="1" t="n"/>
+      <c r="D81" s="1" t="n"/>
+      <c r="E81" s="1" t="n"/>
+      <c r="F81" s="1" t="n"/>
+      <c r="G81" s="1" t="n"/>
+      <c r="H81" s="1" t="n"/>
+      <c r="I81" s="1" t="n"/>
+      <c r="J81" s="1" t="n"/>
+      <c r="K81" s="1" t="n"/>
+      <c r="L81" s="1" t="n"/>
+      <c r="M81" s="1" t="n"/>
+      <c r="N81" s="1" t="n"/>
+      <c r="O81" s="1" t="n"/>
+      <c r="P81" s="1" t="n"/>
+      <c r="Q81" s="1" t="n"/>
+      <c r="R81" s="1" t="n"/>
+      <c r="S81" s="1" t="n"/>
+      <c r="T81" s="1" t="n"/>
+      <c r="U81" s="1" t="n"/>
+      <c r="V81" s="1" t="n"/>
+      <c r="W81" s="1" t="n"/>
+      <c r="X81" s="1" t="n"/>
+      <c r="Y81" s="1" t="n"/>
+      <c r="Z81" s="1" t="n"/>
+      <c r="AA81" s="1" t="n"/>
+      <c r="AB81" s="1" t="n"/>
+      <c r="AC81" s="1" t="n"/>
+      <c r="AD81" s="1" t="n"/>
+      <c r="AE81" s="1" t="n"/>
+      <c r="AF81" s="1" t="n"/>
+      <c r="AG81" s="1" t="n"/>
+      <c r="AH81" s="1" t="n"/>
+      <c r="AI81" s="1" t="n"/>
+      <c r="AJ81" s="1" t="n"/>
+      <c r="AK81" s="1" t="n"/>
+      <c r="AL81" s="1" t="n"/>
+      <c r="AM81" s="1" t="n"/>
+      <c r="AN81" s="1" t="n"/>
+      <c r="AO81" s="1" t="n"/>
+      <c r="AP81" s="1" t="n"/>
+      <c r="AQ81" s="1" t="n"/>
+      <c r="AR81" s="1" t="n"/>
+      <c r="AS81" s="1" t="n"/>
+      <c r="AT81" s="1" t="n"/>
+      <c r="AU81" s="1" t="n"/>
+      <c r="AV81" s="1" t="n"/>
+      <c r="AW81" s="1" t="n"/>
+      <c r="AX81" s="1" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n"/>
+      <c r="B82" s="1" t="n"/>
+      <c r="C82" s="1" t="n"/>
+      <c r="D82" s="1" t="n"/>
+      <c r="E82" s="1" t="n"/>
+      <c r="F82" s="1" t="n"/>
+      <c r="G82" s="1" t="n"/>
+      <c r="H82" s="1" t="n"/>
+      <c r="I82" s="1" t="n"/>
+      <c r="J82" s="1" t="n"/>
+      <c r="K82" s="1" t="n"/>
+      <c r="L82" s="1" t="n"/>
+      <c r="M82" s="1" t="n"/>
+      <c r="N82" s="1" t="n"/>
+      <c r="O82" s="1" t="n"/>
+      <c r="P82" s="1" t="n"/>
+      <c r="Q82" s="1" t="n"/>
+      <c r="R82" s="1" t="n"/>
+      <c r="S82" s="1" t="n"/>
+      <c r="T82" s="1" t="n"/>
+      <c r="U82" s="1" t="n"/>
+      <c r="V82" s="1" t="n"/>
+      <c r="W82" s="1" t="n"/>
+      <c r="X82" s="1" t="n"/>
+      <c r="Y82" s="1" t="n"/>
+      <c r="Z82" s="1" t="n"/>
+      <c r="AA82" s="1" t="n"/>
+      <c r="AB82" s="1" t="n"/>
+      <c r="AC82" s="1" t="n"/>
+      <c r="AD82" s="1" t="n"/>
+      <c r="AE82" s="1" t="n"/>
+      <c r="AF82" s="1" t="n"/>
+      <c r="AG82" s="1" t="n"/>
+      <c r="AH82" s="1" t="n"/>
+      <c r="AI82" s="1" t="n"/>
+      <c r="AJ82" s="1" t="n"/>
+      <c r="AK82" s="1" t="n"/>
+      <c r="AL82" s="1" t="n"/>
+      <c r="AM82" s="1" t="n"/>
+      <c r="AN82" s="1" t="n"/>
+      <c r="AO82" s="1" t="n"/>
+      <c r="AP82" s="1" t="n"/>
+      <c r="AQ82" s="1" t="n"/>
+      <c r="AR82" s="1" t="n"/>
+      <c r="AS82" s="1" t="n"/>
+      <c r="AT82" s="1" t="n"/>
+      <c r="AU82" s="1" t="n"/>
+      <c r="AV82" s="1" t="n"/>
+      <c r="AW82" s="1" t="n"/>
+      <c r="AX82" s="1" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n"/>
+      <c r="B83" s="1" t="n"/>
+      <c r="C83" s="1" t="n"/>
+      <c r="D83" s="1" t="n"/>
+      <c r="E83" s="1" t="n"/>
+      <c r="F83" s="1" t="n"/>
+      <c r="G83" s="1" t="n"/>
+      <c r="H83" s="1" t="n"/>
+      <c r="I83" s="1" t="n"/>
+      <c r="J83" s="1" t="n"/>
+      <c r="K83" s="1" t="n"/>
+      <c r="L83" s="1" t="n"/>
+      <c r="M83" s="1" t="n"/>
+      <c r="N83" s="1" t="n"/>
+      <c r="O83" s="1" t="n"/>
+      <c r="P83" s="1" t="n"/>
+      <c r="Q83" s="1" t="n"/>
+      <c r="R83" s="1" t="n"/>
+      <c r="S83" s="1" t="n"/>
+      <c r="T83" s="1" t="n"/>
+      <c r="U83" s="1" t="n"/>
+      <c r="V83" s="1" t="n"/>
+      <c r="W83" s="1" t="n"/>
+      <c r="X83" s="1" t="n"/>
+      <c r="Y83" s="1" t="n"/>
+      <c r="Z83" s="1" t="n"/>
+      <c r="AA83" s="1" t="n"/>
+      <c r="AB83" s="1" t="n"/>
+      <c r="AC83" s="1" t="n"/>
+      <c r="AD83" s="1" t="n"/>
+      <c r="AE83" s="1" t="n"/>
+      <c r="AF83" s="1" t="n"/>
+      <c r="AG83" s="1" t="n"/>
+      <c r="AH83" s="1" t="n"/>
+      <c r="AI83" s="1" t="n"/>
+      <c r="AJ83" s="1" t="n"/>
+      <c r="AK83" s="1" t="n"/>
+      <c r="AL83" s="1" t="n"/>
+      <c r="AM83" s="1" t="n"/>
+      <c r="AN83" s="1" t="n"/>
+      <c r="AO83" s="1" t="n"/>
+      <c r="AP83" s="1" t="n"/>
+      <c r="AQ83" s="1" t="n"/>
+      <c r="AR83" s="1" t="n"/>
+      <c r="AS83" s="1" t="n"/>
+      <c r="AT83" s="1" t="n"/>
+      <c r="AU83" s="1" t="n"/>
+      <c r="AV83" s="1" t="n"/>
+      <c r="AW83" s="1" t="n"/>
+      <c r="AX83" s="1" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n"/>
+      <c r="B84" s="1" t="n"/>
+      <c r="C84" s="1" t="n"/>
+      <c r="D84" s="1" t="n"/>
+      <c r="E84" s="1" t="n"/>
+      <c r="F84" s="1" t="n"/>
+      <c r="G84" s="1" t="n"/>
+      <c r="H84" s="1" t="n"/>
+      <c r="I84" s="1" t="n"/>
+      <c r="J84" s="1" t="n"/>
+      <c r="K84" s="1" t="n"/>
+      <c r="L84" s="1" t="n"/>
+      <c r="M84" s="1" t="n"/>
+      <c r="N84" s="1" t="n"/>
+      <c r="O84" s="1" t="n"/>
+      <c r="P84" s="1" t="n"/>
+      <c r="Q84" s="1" t="n"/>
+      <c r="R84" s="1" t="n"/>
+      <c r="S84" s="1" t="n"/>
+      <c r="T84" s="1" t="n"/>
+      <c r="U84" s="1" t="n"/>
+      <c r="V84" s="1" t="n"/>
+      <c r="W84" s="1" t="n"/>
+      <c r="X84" s="1" t="n"/>
+      <c r="Y84" s="1" t="n"/>
+      <c r="Z84" s="1" t="n"/>
+      <c r="AA84" s="1" t="n"/>
+      <c r="AB84" s="1" t="n"/>
+      <c r="AC84" s="1" t="n"/>
+      <c r="AD84" s="1" t="n"/>
+      <c r="AE84" s="1" t="n"/>
+      <c r="AF84" s="1" t="n"/>
+      <c r="AG84" s="1" t="n"/>
+      <c r="AH84" s="1" t="n"/>
+      <c r="AI84" s="1" t="n"/>
+      <c r="AJ84" s="1" t="n"/>
+      <c r="AK84" s="1" t="n"/>
+      <c r="AL84" s="1" t="n"/>
+      <c r="AM84" s="1" t="n"/>
+      <c r="AN84" s="1" t="n"/>
+      <c r="AO84" s="1" t="n"/>
+      <c r="AP84" s="1" t="n"/>
+      <c r="AQ84" s="1" t="n"/>
+      <c r="AR84" s="1" t="n"/>
+      <c r="AS84" s="1" t="n"/>
+      <c r="AT84" s="1" t="n"/>
+      <c r="AU84" s="1" t="n"/>
+      <c r="AV84" s="1" t="n"/>
+      <c r="AW84" s="1" t="n"/>
+      <c r="AX84" s="1" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n"/>
+      <c r="B85" s="1" t="n"/>
+      <c r="C85" s="1" t="n"/>
+      <c r="D85" s="1" t="n"/>
+      <c r="E85" s="1" t="n"/>
+      <c r="F85" s="1" t="n"/>
+      <c r="G85" s="1" t="n"/>
+      <c r="H85" s="1" t="n"/>
+      <c r="I85" s="1" t="n"/>
+      <c r="J85" s="1" t="n"/>
+      <c r="K85" s="1" t="n"/>
+      <c r="L85" s="1" t="n"/>
+      <c r="M85" s="1" t="n"/>
+      <c r="N85" s="1" t="n"/>
+      <c r="O85" s="1" t="n"/>
+      <c r="P85" s="1" t="n"/>
+      <c r="Q85" s="1" t="n"/>
+      <c r="R85" s="1" t="n"/>
+      <c r="S85" s="1" t="n"/>
+      <c r="T85" s="1" t="n"/>
+      <c r="U85" s="1" t="n"/>
+      <c r="V85" s="1" t="n"/>
+      <c r="W85" s="1" t="n"/>
+      <c r="X85" s="1" t="n"/>
+      <c r="Y85" s="1" t="n"/>
+      <c r="Z85" s="1" t="n"/>
+      <c r="AA85" s="1" t="n"/>
+      <c r="AB85" s="1" t="n"/>
+      <c r="AC85" s="1" t="n"/>
+      <c r="AD85" s="1" t="n"/>
+      <c r="AE85" s="1" t="n"/>
+      <c r="AF85" s="1" t="n"/>
+      <c r="AG85" s="1" t="n"/>
+      <c r="AH85" s="1" t="n"/>
+      <c r="AI85" s="1" t="n"/>
+      <c r="AJ85" s="1" t="n"/>
+      <c r="AK85" s="1" t="n"/>
+      <c r="AL85" s="1" t="n"/>
+      <c r="AM85" s="1" t="n"/>
+      <c r="AN85" s="1" t="n"/>
+      <c r="AO85" s="1" t="n"/>
+      <c r="AP85" s="1" t="n"/>
+      <c r="AQ85" s="1" t="n"/>
+      <c r="AR85" s="1" t="n"/>
+      <c r="AS85" s="1" t="n"/>
+      <c r="AT85" s="1" t="n"/>
+      <c r="AU85" s="1" t="n"/>
+      <c r="AV85" s="1" t="n"/>
+      <c r="AW85" s="1" t="n"/>
+      <c r="AX85" s="1" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n"/>
+      <c r="B86" s="1" t="n"/>
+      <c r="C86" s="1" t="n"/>
+      <c r="D86" s="1" t="n"/>
+      <c r="E86" s="1" t="n"/>
+      <c r="F86" s="1" t="n"/>
+      <c r="G86" s="1" t="n"/>
+      <c r="H86" s="1" t="n"/>
+      <c r="I86" s="1" t="n"/>
+      <c r="J86" s="1" t="n"/>
+      <c r="K86" s="1" t="n"/>
+      <c r="L86" s="1" t="n"/>
+      <c r="M86" s="1" t="n"/>
+      <c r="N86" s="1" t="n"/>
+      <c r="O86" s="1" t="n"/>
+      <c r="P86" s="1" t="n"/>
+      <c r="Q86" s="1" t="n"/>
+      <c r="R86" s="1" t="n"/>
+      <c r="S86" s="1" t="n"/>
+      <c r="T86" s="1" t="n"/>
+      <c r="U86" s="1" t="n"/>
+      <c r="V86" s="1" t="n"/>
+      <c r="W86" s="1" t="n"/>
+      <c r="X86" s="1" t="n"/>
+      <c r="Y86" s="1" t="n"/>
+      <c r="Z86" s="1" t="n"/>
+      <c r="AA86" s="1" t="n"/>
+      <c r="AB86" s="1" t="n"/>
+      <c r="AC86" s="1" t="n"/>
+      <c r="AD86" s="1" t="n"/>
+      <c r="AE86" s="1" t="n"/>
+      <c r="AF86" s="1" t="n"/>
+      <c r="AG86" s="1" t="n"/>
+      <c r="AH86" s="1" t="n"/>
+      <c r="AI86" s="1" t="n"/>
+      <c r="AJ86" s="1" t="n"/>
+      <c r="AK86" s="1" t="n"/>
+      <c r="AL86" s="1" t="n"/>
+      <c r="AM86" s="1" t="n"/>
+      <c r="AN86" s="1" t="n"/>
+      <c r="AO86" s="1" t="n"/>
+      <c r="AP86" s="1" t="n"/>
+      <c r="AQ86" s="1" t="n"/>
+      <c r="AR86" s="1" t="n"/>
+      <c r="AS86" s="1" t="n"/>
+      <c r="AT86" s="1" t="n"/>
+      <c r="AU86" s="1" t="n"/>
+      <c r="AV86" s="1" t="n"/>
+      <c r="AW86" s="1" t="n"/>
+      <c r="AX86" s="1" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n"/>
+      <c r="B87" s="1" t="n"/>
+      <c r="C87" s="1" t="n"/>
+      <c r="D87" s="1" t="n"/>
+      <c r="E87" s="1" t="n"/>
+      <c r="F87" s="1" t="n"/>
+      <c r="G87" s="1" t="n"/>
+      <c r="H87" s="1" t="n"/>
+      <c r="I87" s="1" t="n"/>
+      <c r="J87" s="1" t="n"/>
+      <c r="K87" s="1" t="n"/>
+      <c r="L87" s="1" t="n"/>
+      <c r="M87" s="1" t="n"/>
+      <c r="N87" s="1" t="n"/>
+      <c r="O87" s="1" t="n"/>
+      <c r="P87" s="1" t="n"/>
+      <c r="Q87" s="1" t="n"/>
+      <c r="R87" s="1" t="n"/>
+      <c r="S87" s="1" t="n"/>
+      <c r="T87" s="1" t="n"/>
+      <c r="U87" s="1" t="n"/>
+      <c r="V87" s="1" t="n"/>
+      <c r="W87" s="1" t="n"/>
+      <c r="X87" s="1" t="n"/>
+      <c r="Y87" s="1" t="n"/>
+      <c r="Z87" s="1" t="n"/>
+      <c r="AA87" s="1" t="n"/>
+      <c r="AB87" s="1" t="n"/>
+      <c r="AC87" s="1" t="n"/>
+      <c r="AD87" s="1" t="n"/>
+      <c r="AE87" s="1" t="n"/>
+      <c r="AF87" s="1" t="n"/>
+      <c r="AG87" s="1" t="n"/>
+      <c r="AH87" s="1" t="n"/>
+      <c r="AI87" s="1" t="n"/>
+      <c r="AJ87" s="1" t="n"/>
+      <c r="AK87" s="1" t="n"/>
+      <c r="AL87" s="1" t="n"/>
+      <c r="AM87" s="1" t="n"/>
+      <c r="AN87" s="1" t="n"/>
+      <c r="AO87" s="1" t="n"/>
+      <c r="AP87" s="1" t="n"/>
+      <c r="AQ87" s="1" t="n"/>
+      <c r="AR87" s="1" t="n"/>
+      <c r="AS87" s="1" t="n"/>
+      <c r="AT87" s="1" t="n"/>
+      <c r="AU87" s="1" t="n"/>
+      <c r="AV87" s="1" t="n"/>
+      <c r="AW87" s="1" t="n"/>
+      <c r="AX87" s="1" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n"/>
+      <c r="B88" s="1" t="n"/>
+      <c r="C88" s="1" t="n"/>
+      <c r="D88" s="1" t="n"/>
+      <c r="E88" s="1" t="n"/>
+      <c r="F88" s="1" t="n"/>
+      <c r="G88" s="1" t="n"/>
+      <c r="H88" s="1" t="n"/>
+      <c r="I88" s="1" t="n"/>
+      <c r="J88" s="1" t="n"/>
+      <c r="K88" s="1" t="n"/>
+      <c r="L88" s="1" t="n"/>
+      <c r="M88" s="1" t="n"/>
+      <c r="N88" s="1" t="n"/>
+      <c r="O88" s="1" t="n"/>
+      <c r="P88" s="1" t="n"/>
+      <c r="Q88" s="1" t="n"/>
+      <c r="R88" s="1" t="n"/>
+      <c r="S88" s="1" t="n"/>
+      <c r="T88" s="1" t="n"/>
+      <c r="U88" s="1" t="n"/>
+      <c r="V88" s="1" t="n"/>
+      <c r="W88" s="1" t="n"/>
+      <c r="X88" s="1" t="n"/>
+      <c r="Y88" s="1" t="n"/>
+      <c r="Z88" s="1" t="n"/>
+      <c r="AA88" s="1" t="n"/>
+      <c r="AB88" s="1" t="n"/>
+      <c r="AC88" s="1" t="n"/>
+      <c r="AD88" s="1" t="n"/>
+      <c r="AE88" s="1" t="n"/>
+      <c r="AF88" s="1" t="n"/>
+      <c r="AG88" s="1" t="n"/>
+      <c r="AH88" s="1" t="n"/>
+      <c r="AI88" s="1" t="n"/>
+      <c r="AJ88" s="1" t="n"/>
+      <c r="AK88" s="1" t="n"/>
+      <c r="AL88" s="1" t="n"/>
+      <c r="AM88" s="1" t="n"/>
+      <c r="AN88" s="1" t="n"/>
+      <c r="AO88" s="1" t="n"/>
+      <c r="AP88" s="1" t="n"/>
+      <c r="AQ88" s="1" t="n"/>
+      <c r="AR88" s="1" t="n"/>
+      <c r="AS88" s="1" t="n"/>
+      <c r="AT88" s="1" t="n"/>
+      <c r="AU88" s="1" t="n"/>
+      <c r="AV88" s="1" t="n"/>
+      <c r="AW88" s="1" t="n"/>
+      <c r="AX88" s="1" t="n"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n"/>
+      <c r="B89" s="1" t="n"/>
+      <c r="C89" s="1" t="n"/>
+      <c r="D89" s="1" t="n"/>
+      <c r="E89" s="1" t="n"/>
+      <c r="F89" s="1" t="n"/>
+      <c r="G89" s="1" t="n"/>
+      <c r="H89" s="1" t="n"/>
+      <c r="I89" s="1" t="n"/>
+      <c r="J89" s="1" t="n"/>
+      <c r="K89" s="1" t="n"/>
+      <c r="L89" s="1" t="n"/>
+      <c r="M89" s="1" t="n"/>
+      <c r="N89" s="1" t="n"/>
+      <c r="O89" s="1" t="n"/>
+      <c r="P89" s="1" t="n"/>
+      <c r="Q89" s="1" t="n"/>
+      <c r="R89" s="1" t="n"/>
+      <c r="S89" s="1" t="n"/>
+      <c r="T89" s="1" t="n"/>
+      <c r="U89" s="1" t="n"/>
+      <c r="V89" s="1" t="n"/>
+      <c r="W89" s="1" t="n"/>
+      <c r="X89" s="1" t="n"/>
+      <c r="Y89" s="1" t="n"/>
+      <c r="Z89" s="1" t="n"/>
+      <c r="AA89" s="1" t="n"/>
+      <c r="AB89" s="1" t="n"/>
+      <c r="AC89" s="1" t="n"/>
+      <c r="AD89" s="1" t="n"/>
+      <c r="AE89" s="1" t="n"/>
+      <c r="AF89" s="1" t="n"/>
+      <c r="AG89" s="1" t="n"/>
+      <c r="AH89" s="1" t="n"/>
+      <c r="AI89" s="1" t="n"/>
+      <c r="AJ89" s="1" t="n"/>
+      <c r="AK89" s="1" t="n"/>
+      <c r="AL89" s="1" t="n"/>
+      <c r="AM89" s="1" t="n"/>
+      <c r="AN89" s="1" t="n"/>
+      <c r="AO89" s="1" t="n"/>
+      <c r="AP89" s="1" t="n"/>
+      <c r="AQ89" s="1" t="n"/>
+      <c r="AR89" s="1" t="n"/>
+      <c r="AS89" s="1" t="n"/>
+      <c r="AT89" s="1" t="n"/>
+      <c r="AU89" s="1" t="n"/>
+      <c r="AV89" s="1" t="n"/>
+      <c r="AW89" s="1" t="n"/>
+      <c r="AX89" s="1" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n"/>
+      <c r="B90" s="1" t="n"/>
+      <c r="C90" s="1" t="n"/>
+      <c r="D90" s="1" t="n"/>
+      <c r="E90" s="1" t="n"/>
+      <c r="F90" s="1" t="n"/>
+      <c r="G90" s="1" t="n"/>
+      <c r="H90" s="1" t="n"/>
+      <c r="I90" s="1" t="n"/>
+      <c r="J90" s="1" t="n"/>
+      <c r="K90" s="1" t="n"/>
+      <c r="L90" s="1" t="n"/>
+      <c r="M90" s="1" t="n"/>
+      <c r="N90" s="1" t="n"/>
+      <c r="O90" s="1" t="n"/>
+      <c r="P90" s="1" t="n"/>
+      <c r="Q90" s="1" t="n"/>
+      <c r="R90" s="1" t="n"/>
+      <c r="S90" s="1" t="n"/>
+      <c r="T90" s="1" t="n"/>
+      <c r="U90" s="1" t="n"/>
+      <c r="V90" s="1" t="n"/>
+      <c r="W90" s="1" t="n"/>
+      <c r="X90" s="1" t="n"/>
+      <c r="Y90" s="1" t="n"/>
+      <c r="Z90" s="1" t="n"/>
+      <c r="AA90" s="1" t="n"/>
+      <c r="AB90" s="1" t="n"/>
+      <c r="AC90" s="1" t="n"/>
+      <c r="AD90" s="1" t="n"/>
+      <c r="AE90" s="1" t="n"/>
+      <c r="AF90" s="1" t="n"/>
+      <c r="AG90" s="1" t="n"/>
+      <c r="AH90" s="1" t="n"/>
+      <c r="AI90" s="1" t="n"/>
+      <c r="AJ90" s="1" t="n"/>
+      <c r="AK90" s="1" t="n"/>
+      <c r="AL90" s="1" t="n"/>
+      <c r="AM90" s="1" t="n"/>
+      <c r="AN90" s="1" t="n"/>
+      <c r="AO90" s="1" t="n"/>
+      <c r="AP90" s="1" t="n"/>
+      <c r="AQ90" s="1" t="n"/>
+      <c r="AR90" s="1" t="n"/>
+      <c r="AS90" s="1" t="n"/>
+      <c r="AT90" s="1" t="n"/>
+      <c r="AU90" s="1" t="n"/>
+      <c r="AV90" s="1" t="n"/>
+      <c r="AW90" s="1" t="n"/>
+      <c r="AX90" s="1" t="n"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n"/>
+      <c r="B91" s="1" t="n"/>
+      <c r="C91" s="1" t="n"/>
+      <c r="D91" s="1" t="n"/>
+      <c r="E91" s="1" t="n"/>
+      <c r="F91" s="1" t="n"/>
+      <c r="G91" s="1" t="n"/>
+      <c r="H91" s="1" t="n"/>
+      <c r="I91" s="1" t="n"/>
+      <c r="J91" s="1" t="n"/>
+      <c r="K91" s="1" t="n"/>
+      <c r="L91" s="1" t="n"/>
+      <c r="M91" s="1" t="n"/>
+      <c r="N91" s="1" t="n"/>
+      <c r="O91" s="1" t="n"/>
+      <c r="P91" s="1" t="n"/>
+      <c r="Q91" s="1" t="n"/>
+      <c r="R91" s="1" t="n"/>
+      <c r="S91" s="1" t="n"/>
+      <c r="T91" s="1" t="n"/>
+      <c r="U91" s="1" t="n"/>
+      <c r="V91" s="1" t="n"/>
+      <c r="W91" s="1" t="n"/>
+      <c r="X91" s="1" t="n"/>
+      <c r="Y91" s="1" t="n"/>
+      <c r="Z91" s="1" t="n"/>
+      <c r="AA91" s="1" t="n"/>
+      <c r="AB91" s="1" t="n"/>
+      <c r="AC91" s="1" t="n"/>
+      <c r="AD91" s="1" t="n"/>
+      <c r="AE91" s="1" t="n"/>
+      <c r="AF91" s="1" t="n"/>
+      <c r="AG91" s="1" t="n"/>
+      <c r="AH91" s="1" t="n"/>
+      <c r="AI91" s="1" t="n"/>
+      <c r="AJ91" s="1" t="n"/>
+      <c r="AK91" s="1" t="n"/>
+      <c r="AL91" s="1" t="n"/>
+      <c r="AM91" s="1" t="n"/>
+      <c r="AN91" s="1" t="n"/>
+      <c r="AO91" s="1" t="n"/>
+      <c r="AP91" s="1" t="n"/>
+      <c r="AQ91" s="1" t="n"/>
+      <c r="AR91" s="1" t="n"/>
+      <c r="AS91" s="1" t="n"/>
+      <c r="AT91" s="1" t="n"/>
+      <c r="AU91" s="1" t="n"/>
+      <c r="AV91" s="1" t="n"/>
+      <c r="AW91" s="1" t="n"/>
+      <c r="AX91" s="1" t="n"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n"/>
+      <c r="B92" s="1" t="n"/>
+      <c r="C92" s="1" t="n"/>
+      <c r="D92" s="1" t="n"/>
+      <c r="E92" s="1" t="n"/>
+      <c r="F92" s="1" t="n"/>
+      <c r="G92" s="1" t="n"/>
+      <c r="H92" s="1" t="n"/>
+      <c r="I92" s="1" t="n"/>
+      <c r="J92" s="1" t="n"/>
+      <c r="K92" s="1" t="n"/>
+      <c r="L92" s="1" t="n"/>
+      <c r="M92" s="1" t="n"/>
+      <c r="N92" s="1" t="n"/>
+      <c r="O92" s="1" t="n"/>
+      <c r="P92" s="1" t="n"/>
+      <c r="Q92" s="1" t="n"/>
+      <c r="R92" s="1" t="n"/>
+      <c r="S92" s="1" t="n"/>
+      <c r="T92" s="1" t="n"/>
+      <c r="U92" s="1" t="n"/>
+      <c r="V92" s="1" t="n"/>
+      <c r="W92" s="1" t="n"/>
+      <c r="X92" s="1" t="n"/>
+      <c r="Y92" s="1" t="n"/>
+      <c r="Z92" s="1" t="n"/>
+      <c r="AA92" s="1" t="n"/>
+      <c r="AB92" s="1" t="n"/>
+      <c r="AC92" s="1" t="n"/>
+      <c r="AD92" s="1" t="n"/>
+      <c r="AE92" s="1" t="n"/>
+      <c r="AF92" s="1" t="n"/>
+      <c r="AG92" s="1" t="n"/>
+      <c r="AH92" s="1" t="n"/>
+      <c r="AI92" s="1" t="n"/>
+      <c r="AJ92" s="1" t="n"/>
+      <c r="AK92" s="1" t="n"/>
+      <c r="AL92" s="1" t="n"/>
+      <c r="AM92" s="1" t="n"/>
+      <c r="AN92" s="1" t="n"/>
+      <c r="AO92" s="1" t="n"/>
+      <c r="AP92" s="1" t="n"/>
+      <c r="AQ92" s="1" t="n"/>
+      <c r="AR92" s="1" t="n"/>
+      <c r="AS92" s="1" t="n"/>
+      <c r="AT92" s="1" t="n"/>
+      <c r="AU92" s="1" t="n"/>
+      <c r="AV92" s="1" t="n"/>
+      <c r="AW92" s="1" t="n"/>
+      <c r="AX92" s="1" t="n"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n"/>
+      <c r="B93" s="1" t="n"/>
+      <c r="C93" s="1" t="n"/>
+      <c r="D93" s="1" t="n"/>
+      <c r="E93" s="1" t="n"/>
+      <c r="F93" s="1" t="n"/>
+      <c r="G93" s="1" t="n"/>
+      <c r="H93" s="1" t="n"/>
+      <c r="I93" s="1" t="n"/>
+      <c r="J93" s="1" t="n"/>
+      <c r="K93" s="1" t="n"/>
+      <c r="L93" s="1" t="n"/>
+      <c r="M93" s="1" t="n"/>
+      <c r="N93" s="1" t="n"/>
+      <c r="O93" s="1" t="n"/>
+      <c r="P93" s="1" t="n"/>
+      <c r="Q93" s="1" t="n"/>
+      <c r="R93" s="1" t="n"/>
+      <c r="S93" s="1" t="n"/>
+      <c r="T93" s="1" t="n"/>
+      <c r="U93" s="1" t="n"/>
+      <c r="V93" s="1" t="n"/>
+      <c r="W93" s="1" t="n"/>
+      <c r="X93" s="1" t="n"/>
+      <c r="Y93" s="1" t="n"/>
+      <c r="Z93" s="1" t="n"/>
+      <c r="AA93" s="1" t="n"/>
+      <c r="AB93" s="1" t="n"/>
+      <c r="AC93" s="1" t="n"/>
+      <c r="AD93" s="1" t="n"/>
+      <c r="AE93" s="1" t="n"/>
+      <c r="AF93" s="1" t="n"/>
+      <c r="AG93" s="1" t="n"/>
+      <c r="AH93" s="1" t="n"/>
+      <c r="AI93" s="1" t="n"/>
+      <c r="AJ93" s="1" t="n"/>
+      <c r="AK93" s="1" t="n"/>
+      <c r="AL93" s="1" t="n"/>
+      <c r="AM93" s="1" t="n"/>
+      <c r="AN93" s="1" t="n"/>
+      <c r="AO93" s="1" t="n"/>
+      <c r="AP93" s="1" t="n"/>
+      <c r="AQ93" s="1" t="n"/>
+      <c r="AR93" s="1" t="n"/>
+      <c r="AS93" s="1" t="n"/>
+      <c r="AT93" s="1" t="n"/>
+      <c r="AU93" s="1" t="n"/>
+      <c r="AV93" s="1" t="n"/>
+      <c r="AW93" s="1" t="n"/>
+      <c r="AX93" s="1" t="n"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n"/>
+      <c r="B94" s="1" t="n"/>
+      <c r="C94" s="1" t="n"/>
+      <c r="D94" s="1" t="n"/>
+      <c r="E94" s="1" t="n"/>
+      <c r="F94" s="1" t="n"/>
+      <c r="G94" s="1" t="n"/>
+      <c r="H94" s="1" t="n"/>
+      <c r="I94" s="1" t="n"/>
+      <c r="J94" s="1" t="n"/>
+      <c r="K94" s="1" t="n"/>
+      <c r="L94" s="1" t="n"/>
+      <c r="M94" s="1" t="n"/>
+      <c r="N94" s="1" t="n"/>
+      <c r="O94" s="1" t="n"/>
+      <c r="P94" s="1" t="n"/>
+      <c r="Q94" s="1" t="n"/>
+      <c r="R94" s="1" t="n"/>
+      <c r="S94" s="1" t="n"/>
+      <c r="T94" s="1" t="n"/>
+      <c r="U94" s="1" t="n"/>
+      <c r="V94" s="1" t="n"/>
+      <c r="W94" s="1" t="n"/>
+      <c r="X94" s="1" t="n"/>
+      <c r="Y94" s="1" t="n"/>
+      <c r="Z94" s="1" t="n"/>
+      <c r="AA94" s="1" t="n"/>
+      <c r="AB94" s="1" t="n"/>
+      <c r="AC94" s="1" t="n"/>
+      <c r="AD94" s="1" t="n"/>
+      <c r="AE94" s="1" t="n"/>
+      <c r="AF94" s="1" t="n"/>
+      <c r="AG94" s="1" t="n"/>
+      <c r="AH94" s="1" t="n"/>
+      <c r="AI94" s="1" t="n"/>
+      <c r="AJ94" s="1" t="n"/>
+      <c r="AK94" s="1" t="n"/>
+      <c r="AL94" s="1" t="n"/>
+      <c r="AM94" s="1" t="n"/>
+      <c r="AN94" s="1" t="n"/>
+      <c r="AO94" s="1" t="n"/>
+      <c r="AP94" s="1" t="n"/>
+      <c r="AQ94" s="1" t="n"/>
+      <c r="AR94" s="1" t="n"/>
+      <c r="AS94" s="1" t="n"/>
+      <c r="AT94" s="1" t="n"/>
+      <c r="AU94" s="1" t="n"/>
+      <c r="AV94" s="1" t="n"/>
+      <c r="AW94" s="1" t="n"/>
+      <c r="AX94" s="1" t="n"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n"/>
+      <c r="B95" s="1" t="n"/>
+      <c r="C95" s="1" t="n"/>
+      <c r="D95" s="1" t="n"/>
+      <c r="E95" s="1" t="n"/>
+      <c r="F95" s="1" t="n"/>
+      <c r="G95" s="1" t="n"/>
+      <c r="H95" s="1" t="n"/>
+      <c r="I95" s="1" t="n"/>
+      <c r="J95" s="1" t="n"/>
+      <c r="K95" s="1" t="n"/>
+      <c r="L95" s="1" t="n"/>
+      <c r="M95" s="1" t="n"/>
+      <c r="N95" s="1" t="n"/>
+      <c r="O95" s="1" t="n"/>
+      <c r="P95" s="1" t="n"/>
+      <c r="Q95" s="1" t="n"/>
+      <c r="R95" s="1" t="n"/>
+      <c r="S95" s="1" t="n"/>
+      <c r="T95" s="1" t="n"/>
+      <c r="U95" s="1" t="n"/>
+      <c r="V95" s="1" t="n"/>
+      <c r="W95" s="1" t="n"/>
+      <c r="X95" s="1" t="n"/>
+      <c r="Y95" s="1" t="n"/>
+      <c r="Z95" s="1" t="n"/>
+      <c r="AA95" s="1" t="n"/>
+      <c r="AB95" s="1" t="n"/>
+      <c r="AC95" s="1" t="n"/>
+      <c r="AD95" s="1" t="n"/>
+      <c r="AE95" s="1" t="n"/>
+      <c r="AF95" s="1" t="n"/>
+      <c r="AG95" s="1" t="n"/>
+      <c r="AH95" s="1" t="n"/>
+      <c r="AI95" s="1" t="n"/>
+      <c r="AJ95" s="1" t="n"/>
+      <c r="AK95" s="1" t="n"/>
+      <c r="AL95" s="1" t="n"/>
+      <c r="AM95" s="1" t="n"/>
+      <c r="AN95" s="1" t="n"/>
+      <c r="AO95" s="1" t="n"/>
+      <c r="AP95" s="1" t="n"/>
+      <c r="AQ95" s="1" t="n"/>
+      <c r="AR95" s="1" t="n"/>
+      <c r="AS95" s="1" t="n"/>
+      <c r="AT95" s="1" t="n"/>
+      <c r="AU95" s="1" t="n"/>
+      <c r="AV95" s="1" t="n"/>
+      <c r="AW95" s="1" t="n"/>
+      <c r="AX95" s="1" t="n"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n"/>
+      <c r="B96" s="1" t="n"/>
+      <c r="C96" s="1" t="n"/>
+      <c r="D96" s="1" t="n"/>
+      <c r="E96" s="1" t="n"/>
+      <c r="F96" s="1" t="n"/>
+      <c r="G96" s="1" t="n"/>
+      <c r="H96" s="1" t="n"/>
+      <c r="I96" s="1" t="n"/>
+      <c r="J96" s="1" t="n"/>
+      <c r="K96" s="1" t="n"/>
+      <c r="L96" s="1" t="n"/>
+      <c r="M96" s="1" t="n"/>
+      <c r="N96" s="1" t="n"/>
+      <c r="O96" s="1" t="n"/>
+      <c r="P96" s="1" t="n"/>
+      <c r="Q96" s="1" t="n"/>
+      <c r="R96" s="1" t="n"/>
+      <c r="S96" s="1" t="n"/>
+      <c r="T96" s="1" t="n"/>
+      <c r="U96" s="1" t="n"/>
+      <c r="V96" s="1" t="n"/>
+      <c r="W96" s="1" t="n"/>
+      <c r="X96" s="1" t="n"/>
+      <c r="Y96" s="1" t="n"/>
+      <c r="Z96" s="1" t="n"/>
+      <c r="AA96" s="1" t="n"/>
+      <c r="AB96" s="1" t="n"/>
+      <c r="AC96" s="1" t="n"/>
+      <c r="AD96" s="1" t="n"/>
+      <c r="AE96" s="1" t="n"/>
+      <c r="AF96" s="1" t="n"/>
+      <c r="AG96" s="1" t="n"/>
+      <c r="AH96" s="1" t="n"/>
+      <c r="AI96" s="1" t="n"/>
+      <c r="AJ96" s="1" t="n"/>
+      <c r="AK96" s="1" t="n"/>
+      <c r="AL96" s="1" t="n"/>
+      <c r="AM96" s="1" t="n"/>
+      <c r="AN96" s="1" t="n"/>
+      <c r="AO96" s="1" t="n"/>
+      <c r="AP96" s="1" t="n"/>
+      <c r="AQ96" s="1" t="n"/>
+      <c r="AR96" s="1" t="n"/>
+      <c r="AS96" s="1" t="n"/>
+      <c r="AT96" s="1" t="n"/>
+      <c r="AU96" s="1" t="n"/>
+      <c r="AV96" s="1" t="n"/>
+      <c r="AW96" s="1" t="n"/>
+      <c r="AX96" s="1" t="n"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n"/>
+      <c r="B97" s="1" t="n"/>
+      <c r="C97" s="1" t="n"/>
+      <c r="D97" s="1" t="n"/>
+      <c r="E97" s="1" t="n"/>
+      <c r="F97" s="1" t="n"/>
+      <c r="G97" s="1" t="n"/>
+      <c r="H97" s="1" t="n"/>
+      <c r="I97" s="1" t="n"/>
+      <c r="J97" s="1" t="n"/>
+      <c r="K97" s="1" t="n"/>
+      <c r="L97" s="1" t="n"/>
+      <c r="M97" s="1" t="n"/>
+      <c r="N97" s="1" t="n"/>
+      <c r="O97" s="1" t="n"/>
+      <c r="P97" s="1" t="n"/>
+      <c r="Q97" s="1" t="n"/>
+      <c r="R97" s="1" t="n"/>
+      <c r="S97" s="1" t="n"/>
+      <c r="T97" s="1" t="n"/>
+      <c r="U97" s="1" t="n"/>
+      <c r="V97" s="1" t="n"/>
+      <c r="W97" s="1" t="n"/>
+      <c r="X97" s="1" t="n"/>
+      <c r="Y97" s="1" t="n"/>
+      <c r="Z97" s="1" t="n"/>
+      <c r="AA97" s="1" t="n"/>
+      <c r="AB97" s="1" t="n"/>
+      <c r="AC97" s="1" t="n"/>
+      <c r="AD97" s="1" t="n"/>
+      <c r="AE97" s="1" t="n"/>
+      <c r="AF97" s="1" t="n"/>
+      <c r="AG97" s="1" t="n"/>
+      <c r="AH97" s="1" t="n"/>
+      <c r="AI97" s="1" t="n"/>
+      <c r="AJ97" s="1" t="n"/>
+      <c r="AK97" s="1" t="n"/>
+      <c r="AL97" s="1" t="n"/>
+      <c r="AM97" s="1" t="n"/>
+      <c r="AN97" s="1" t="n"/>
+      <c r="AO97" s="1" t="n"/>
+      <c r="AP97" s="1" t="n"/>
+      <c r="AQ97" s="1" t="n"/>
+      <c r="AR97" s="1" t="n"/>
+      <c r="AS97" s="1" t="n"/>
+      <c r="AT97" s="1" t="n"/>
+      <c r="AU97" s="1" t="n"/>
+      <c r="AV97" s="1" t="n"/>
+      <c r="AW97" s="1" t="n"/>
+      <c r="AX97" s="1" t="n"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n"/>
+      <c r="B98" s="1" t="n"/>
+      <c r="C98" s="1" t="n"/>
+      <c r="D98" s="1" t="n"/>
+      <c r="E98" s="1" t="n"/>
+      <c r="F98" s="1" t="n"/>
+      <c r="G98" s="1" t="n"/>
+      <c r="H98" s="1" t="n"/>
+      <c r="I98" s="1" t="n"/>
+      <c r="J98" s="1" t="n"/>
+      <c r="K98" s="1" t="n"/>
+      <c r="L98" s="1" t="n"/>
+      <c r="M98" s="1" t="n"/>
+      <c r="N98" s="1" t="n"/>
+      <c r="O98" s="1" t="n"/>
+      <c r="P98" s="1" t="n"/>
+      <c r="Q98" s="1" t="n"/>
+      <c r="R98" s="1" t="n"/>
+      <c r="S98" s="1" t="n"/>
+      <c r="T98" s="1" t="n"/>
+      <c r="U98" s="1" t="n"/>
+      <c r="V98" s="1" t="n"/>
+      <c r="W98" s="1" t="n"/>
+      <c r="X98" s="1" t="n"/>
+      <c r="Y98" s="1" t="n"/>
+      <c r="Z98" s="1" t="n"/>
+      <c r="AA98" s="1" t="n"/>
+      <c r="AB98" s="1" t="n"/>
+      <c r="AC98" s="1" t="n"/>
+      <c r="AD98" s="1" t="n"/>
+      <c r="AE98" s="1" t="n"/>
+      <c r="AF98" s="1" t="n"/>
+      <c r="AG98" s="1" t="n"/>
+      <c r="AH98" s="1" t="n"/>
+      <c r="AI98" s="1" t="n"/>
+      <c r="AJ98" s="1" t="n"/>
+      <c r="AK98" s="1" t="n"/>
+      <c r="AL98" s="1" t="n"/>
+      <c r="AM98" s="1" t="n"/>
+      <c r="AN98" s="1" t="n"/>
+      <c r="AO98" s="1" t="n"/>
+      <c r="AP98" s="1" t="n"/>
+      <c r="AQ98" s="1" t="n"/>
+      <c r="AR98" s="1" t="n"/>
+      <c r="AS98" s="1" t="n"/>
+      <c r="AT98" s="1" t="n"/>
+      <c r="AU98" s="1" t="n"/>
+      <c r="AV98" s="1" t="n"/>
+      <c r="AW98" s="1" t="n"/>
+      <c r="AX98" s="1" t="n"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n"/>
+      <c r="B99" s="1" t="n"/>
+      <c r="C99" s="1" t="n"/>
+      <c r="D99" s="1" t="n"/>
+      <c r="E99" s="1" t="n"/>
+      <c r="F99" s="1" t="n"/>
+      <c r="G99" s="1" t="n"/>
+      <c r="H99" s="1" t="n"/>
+      <c r="I99" s="1" t="n"/>
+      <c r="J99" s="1" t="n"/>
+      <c r="K99" s="1" t="n"/>
+      <c r="L99" s="1" t="n"/>
+      <c r="M99" s="1" t="n"/>
+      <c r="N99" s="1" t="n"/>
+      <c r="O99" s="1" t="n"/>
+      <c r="P99" s="1" t="n"/>
+      <c r="Q99" s="1" t="n"/>
+      <c r="R99" s="1" t="n"/>
+      <c r="S99" s="1" t="n"/>
+      <c r="T99" s="1" t="n"/>
+      <c r="U99" s="1" t="n"/>
+      <c r="V99" s="1" t="n"/>
+      <c r="W99" s="1" t="n"/>
+      <c r="X99" s="1" t="n"/>
+      <c r="Y99" s="1" t="n"/>
+      <c r="Z99" s="1" t="n"/>
+      <c r="AA99" s="1" t="n"/>
+      <c r="AB99" s="1" t="n"/>
+      <c r="AC99" s="1" t="n"/>
+      <c r="AD99" s="1" t="n"/>
+      <c r="AE99" s="1" t="n"/>
+      <c r="AF99" s="1" t="n"/>
+      <c r="AG99" s="1" t="n"/>
+      <c r="AH99" s="1" t="n"/>
+      <c r="AI99" s="1" t="n"/>
+      <c r="AJ99" s="1" t="n"/>
+      <c r="AK99" s="1" t="n"/>
+      <c r="AL99" s="1" t="n"/>
+      <c r="AM99" s="1" t="n"/>
+      <c r="AN99" s="1" t="n"/>
+      <c r="AO99" s="1" t="n"/>
+      <c r="AP99" s="1" t="n"/>
+      <c r="AQ99" s="1" t="n"/>
+      <c r="AR99" s="1" t="n"/>
+      <c r="AS99" s="1" t="n"/>
+      <c r="AT99" s="1" t="n"/>
+      <c r="AU99" s="1" t="n"/>
+      <c r="AV99" s="1" t="n"/>
+      <c r="AW99" s="1" t="n"/>
+      <c r="AX99" s="1" t="n"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n"/>
+      <c r="B100" s="1" t="n"/>
+      <c r="C100" s="1" t="n"/>
+      <c r="D100" s="1" t="n"/>
+      <c r="E100" s="1" t="n"/>
+      <c r="F100" s="1" t="n"/>
+      <c r="G100" s="1" t="n"/>
+      <c r="H100" s="1" t="n"/>
+      <c r="I100" s="1" t="n"/>
+      <c r="J100" s="1" t="n"/>
+      <c r="K100" s="1" t="n"/>
+      <c r="L100" s="1" t="n"/>
+      <c r="M100" s="1" t="n"/>
+      <c r="N100" s="1" t="n"/>
+      <c r="O100" s="1" t="n"/>
+      <c r="P100" s="1" t="n"/>
+      <c r="Q100" s="1" t="n"/>
+      <c r="R100" s="1" t="n"/>
+      <c r="S100" s="1" t="n"/>
+      <c r="T100" s="1" t="n"/>
+      <c r="U100" s="1" t="n"/>
+      <c r="V100" s="1" t="n"/>
+      <c r="W100" s="1" t="n"/>
+      <c r="X100" s="1" t="n"/>
+      <c r="Y100" s="1" t="n"/>
+      <c r="Z100" s="1" t="n"/>
+      <c r="AA100" s="1" t="n"/>
+      <c r="AB100" s="1" t="n"/>
+      <c r="AC100" s="1" t="n"/>
+      <c r="AD100" s="1" t="n"/>
+      <c r="AE100" s="1" t="n"/>
+      <c r="AF100" s="1" t="n"/>
+      <c r="AG100" s="1" t="n"/>
+      <c r="AH100" s="1" t="n"/>
+      <c r="AI100" s="1" t="n"/>
+      <c r="AJ100" s="1" t="n"/>
+      <c r="AK100" s="1" t="n"/>
+      <c r="AL100" s="1" t="n"/>
+      <c r="AM100" s="1" t="n"/>
+      <c r="AN100" s="1" t="n"/>
+      <c r="AO100" s="1" t="n"/>
+      <c r="AP100" s="1" t="n"/>
+      <c r="AQ100" s="1" t="n"/>
+      <c r="AR100" s="1" t="n"/>
+      <c r="AS100" s="1" t="n"/>
+      <c r="AT100" s="1" t="n"/>
+      <c r="AU100" s="1" t="n"/>
+      <c r="AV100" s="1" t="n"/>
+      <c r="AW100" s="1" t="n"/>
+      <c r="AX100" s="1" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/chronogram.xlsx
+++ b/chronogram.xlsx
@@ -97,7 +97,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -110,11 +110,17 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -490,51 +496,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
     <col width="20" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
     <col width="20" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
-    <col width="20" customWidth="1" min="12" max="12"/>
-    <col width="20" customWidth="1" min="13" max="13"/>
-    <col width="20" customWidth="1" min="14" max="14"/>
-    <col width="20" customWidth="1" min="15" max="15"/>
-    <col width="20" customWidth="1" min="16" max="16"/>
-    <col width="20" customWidth="1" min="17" max="17"/>
-    <col width="20" customWidth="1" min="18" max="18"/>
-    <col width="20" customWidth="1" min="19" max="19"/>
-    <col width="20" customWidth="1" min="20" max="20"/>
-    <col width="20" customWidth="1" min="21" max="21"/>
-    <col width="20" customWidth="1" min="22" max="22"/>
-    <col width="20" customWidth="1" min="23" max="23"/>
-    <col width="20" customWidth="1" min="24" max="24"/>
-    <col width="20" customWidth="1" min="25" max="25"/>
-    <col width="20" customWidth="1" min="26" max="26"/>
-    <col width="20" customWidth="1" min="27" max="27"/>
-    <col width="20" customWidth="1" min="28" max="28"/>
-    <col width="20" customWidth="1" min="29" max="29"/>
-    <col width="20" customWidth="1" min="30" max="30"/>
-    <col width="20" customWidth="1" min="31" max="31"/>
-    <col width="20" customWidth="1" min="32" max="32"/>
-    <col width="20" customWidth="1" min="33" max="33"/>
-    <col width="20" customWidth="1" min="34" max="34"/>
-    <col width="20" customWidth="1" min="35" max="35"/>
-    <col width="20" customWidth="1" min="36" max="36"/>
-    <col width="20" customWidth="1" min="37" max="37"/>
-    <col width="20" customWidth="1" min="38" max="38"/>
-    <col width="20" customWidth="1" min="39" max="39"/>
-    <col width="20" customWidth="1" min="40" max="40"/>
-    <col width="20" customWidth="1" min="41" max="41"/>
-    <col width="20" customWidth="1" min="42" max="42"/>
-    <col width="20" customWidth="1" min="43" max="43"/>
-    <col width="20" customWidth="1" min="44" max="44"/>
-    <col width="20" customWidth="1" min="45" max="45"/>
-    <col width="20" customWidth="1" min="46" max="46"/>
-    <col width="20" customWidth="1" min="47" max="47"/>
-    <col width="20" customWidth="1" min="48" max="48"/>
-    <col width="20" customWidth="1" min="49" max="49"/>
-    <col width="20" customWidth="1" min="50" max="50"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -615,6 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n"/>
+      <c r="B2" s="4" t="n"/>
+      <c r="C2" s="4" t="n"/>
+      <c r="D2" s="4" t="n"/>
+      <c r="E2" s="4" t="n"/>
       <c r="F2" s="5" t="inlineStr">
         <is>
           <t>December</t>
@@ -671,6 +644,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="4" t="n"/>
       <c r="F3" s="5" t="inlineStr">
         <is>
           <t>20/Dec - 26/Dec</t>
@@ -735,8 +712,8 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="n"/>
-      <c r="C4" s="1" t="n"/>
+      <c r="B4" s="6" t="n"/>
+      <c r="C4" s="6" t="n"/>
       <c r="D4" s="1" t="n"/>
       <c r="E4" s="1" t="n"/>
       <c r="F4" s="1" t="n"/>
@@ -787,28 +764,28 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
-      <c r="B5" s="6" t="inlineStr">
+      <c r="B5" s="7" t="inlineStr">
         <is>
           <t>Task 1</t>
         </is>
       </c>
-      <c r="C5" s="6" t="inlineStr">
+      <c r="C5" s="7" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="D5" s="7" t="inlineStr">
+      <c r="D5" s="8" t="inlineStr">
         <is>
           <t>20-Dec</t>
         </is>
       </c>
-      <c r="E5" s="7" t="inlineStr">
+      <c r="E5" s="8" t="inlineStr">
         <is>
           <t>02-Jan</t>
         </is>
       </c>
-      <c r="F5" s="8" t="n"/>
-      <c r="G5" s="8" t="n"/>
+      <c r="F5" s="9" t="n"/>
+      <c r="G5" s="9" t="n"/>
       <c r="H5" s="1" t="n"/>
       <c r="I5" s="1" t="n"/>
       <c r="J5" s="1" t="n"/>
@@ -855,27 +832,27 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
-      <c r="B6" s="9" t="inlineStr">
+      <c r="B6" s="10" t="inlineStr">
         <is>
           <t>1.1</t>
         </is>
       </c>
-      <c r="C6" s="9" t="inlineStr">
+      <c r="C6" s="10" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="D6" s="9" t="inlineStr">
+      <c r="D6" s="11" t="inlineStr">
         <is>
           <t>20-Dec</t>
         </is>
       </c>
-      <c r="E6" s="9" t="inlineStr">
+      <c r="E6" s="11" t="inlineStr">
         <is>
           <t>26-Dec</t>
         </is>
       </c>
-      <c r="F6" s="10" t="n"/>
+      <c r="F6" s="12" t="n"/>
       <c r="G6" s="1" t="n"/>
       <c r="H6" s="1" t="n"/>
       <c r="I6" s="1" t="n"/>
@@ -923,28 +900,28 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
-      <c r="B7" s="9" t="inlineStr">
+      <c r="B7" s="10" t="inlineStr">
         <is>
           <t>1.2</t>
         </is>
       </c>
-      <c r="C7" s="9" t="inlineStr">
+      <c r="C7" s="10" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="D7" s="9" t="inlineStr">
+      <c r="D7" s="11" t="inlineStr">
         <is>
           <t>27-Dec</t>
         </is>
       </c>
-      <c r="E7" s="9" t="inlineStr">
+      <c r="E7" s="11" t="inlineStr">
         <is>
           <t>02-Jan</t>
         </is>
       </c>
       <c r="F7" s="1" t="n"/>
-      <c r="G7" s="10" t="n"/>
+      <c r="G7" s="12" t="n"/>
       <c r="H7" s="1" t="n"/>
       <c r="I7" s="1" t="n"/>
       <c r="J7" s="1" t="n"/>
@@ -991,30 +968,30 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
-      <c r="B8" s="6" t="inlineStr">
+      <c r="B8" s="7" t="inlineStr">
         <is>
           <t>Task 2</t>
         </is>
       </c>
-      <c r="C8" s="6" t="inlineStr">
+      <c r="C8" s="7" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="D8" s="7" t="inlineStr">
+      <c r="D8" s="8" t="inlineStr">
         <is>
           <t>03-Jan</t>
         </is>
       </c>
-      <c r="E8" s="7" t="inlineStr">
+      <c r="E8" s="8" t="inlineStr">
         <is>
           <t>16-Jan</t>
         </is>
       </c>
       <c r="F8" s="1" t="n"/>
       <c r="G8" s="1" t="n"/>
-      <c r="H8" s="8" t="n"/>
-      <c r="I8" s="8" t="n"/>
+      <c r="H8" s="9" t="n"/>
+      <c r="I8" s="9" t="n"/>
       <c r="J8" s="1" t="n"/>
       <c r="K8" s="1" t="n"/>
       <c r="L8" s="1" t="n"/>
@@ -1059,29 +1036,29 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
-      <c r="B9" s="9" t="inlineStr">
+      <c r="B9" s="10" t="inlineStr">
         <is>
           <t>2.1</t>
         </is>
       </c>
-      <c r="C9" s="9" t="inlineStr">
+      <c r="C9" s="10" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="D9" s="9" t="inlineStr">
+      <c r="D9" s="11" t="inlineStr">
         <is>
           <t>03-Jan</t>
         </is>
       </c>
-      <c r="E9" s="9" t="inlineStr">
+      <c r="E9" s="11" t="inlineStr">
         <is>
           <t>09-Jan</t>
         </is>
       </c>
       <c r="F9" s="1" t="n"/>
       <c r="G9" s="1" t="n"/>
-      <c r="H9" s="10" t="n"/>
+      <c r="H9" s="12" t="n"/>
       <c r="I9" s="1" t="n"/>
       <c r="J9" s="1" t="n"/>
       <c r="K9" s="1" t="n"/>
@@ -1127,22 +1104,22 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
-      <c r="B10" s="9" t="inlineStr">
+      <c r="B10" s="10" t="inlineStr">
         <is>
           <t>2.2</t>
         </is>
       </c>
-      <c r="C10" s="9" t="inlineStr">
+      <c r="C10" s="10" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="D10" s="9" t="inlineStr">
+      <c r="D10" s="11" t="inlineStr">
         <is>
           <t>10-Jan</t>
         </is>
       </c>
-      <c r="E10" s="9" t="inlineStr">
+      <c r="E10" s="11" t="inlineStr">
         <is>
           <t>16-Jan</t>
         </is>
@@ -1150,7 +1127,7 @@
       <c r="F10" s="1" t="n"/>
       <c r="G10" s="1" t="n"/>
       <c r="H10" s="1" t="n"/>
-      <c r="I10" s="10" t="n"/>
+      <c r="I10" s="12" t="n"/>
       <c r="J10" s="1" t="n"/>
       <c r="K10" s="1" t="n"/>
       <c r="L10" s="1" t="n"/>
@@ -1195,8 +1172,8 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="n"/>
-      <c r="C11" s="1" t="n"/>
+      <c r="B11" s="6" t="n"/>
+      <c r="C11" s="6" t="n"/>
       <c r="D11" s="1" t="n"/>
       <c r="E11" s="1" t="n"/>
       <c r="F11" s="1" t="n"/>
@@ -1247,8 +1224,8 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="n"/>
-      <c r="C12" s="1" t="n"/>
+      <c r="B12" s="6" t="n"/>
+      <c r="C12" s="6" t="n"/>
       <c r="D12" s="1" t="n"/>
       <c r="E12" s="1" t="n"/>
       <c r="F12" s="1" t="n"/>
@@ -1299,8 +1276,8 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
-      <c r="B13" s="1" t="n"/>
-      <c r="C13" s="1" t="n"/>
+      <c r="B13" s="6" t="n"/>
+      <c r="C13" s="6" t="n"/>
       <c r="D13" s="1" t="n"/>
       <c r="E13" s="1" t="n"/>
       <c r="F13" s="1" t="n"/>
@@ -1351,8 +1328,8 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="n"/>
-      <c r="C14" s="1" t="n"/>
+      <c r="B14" s="6" t="n"/>
+      <c r="C14" s="6" t="n"/>
       <c r="D14" s="1" t="n"/>
       <c r="E14" s="1" t="n"/>
       <c r="F14" s="1" t="n"/>
@@ -1403,8 +1380,8 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="n"/>
-      <c r="C15" s="1" t="n"/>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="6" t="n"/>
       <c r="D15" s="1" t="n"/>
       <c r="E15" s="1" t="n"/>
       <c r="F15" s="1" t="n"/>
@@ -1455,8 +1432,8 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
-      <c r="B16" s="1" t="n"/>
-      <c r="C16" s="1" t="n"/>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="6" t="n"/>
       <c r="D16" s="1" t="n"/>
       <c r="E16" s="1" t="n"/>
       <c r="F16" s="1" t="n"/>
@@ -1507,8 +1484,8 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="n"/>
-      <c r="C17" s="1" t="n"/>
+      <c r="B17" s="6" t="n"/>
+      <c r="C17" s="6" t="n"/>
       <c r="D17" s="1" t="n"/>
       <c r="E17" s="1" t="n"/>
       <c r="F17" s="1" t="n"/>
@@ -1559,8 +1536,8 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="n"/>
-      <c r="C18" s="1" t="n"/>
+      <c r="B18" s="6" t="n"/>
+      <c r="C18" s="6" t="n"/>
       <c r="D18" s="1" t="n"/>
       <c r="E18" s="1" t="n"/>
       <c r="F18" s="1" t="n"/>
@@ -1611,8 +1588,8 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="n"/>
-      <c r="C19" s="1" t="n"/>
+      <c r="B19" s="6" t="n"/>
+      <c r="C19" s="6" t="n"/>
       <c r="D19" s="1" t="n"/>
       <c r="E19" s="1" t="n"/>
       <c r="F19" s="1" t="n"/>
@@ -1663,8 +1640,8 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
-      <c r="B20" s="1" t="n"/>
-      <c r="C20" s="1" t="n"/>
+      <c r="B20" s="6" t="n"/>
+      <c r="C20" s="6" t="n"/>
       <c r="D20" s="1" t="n"/>
       <c r="E20" s="1" t="n"/>
       <c r="F20" s="1" t="n"/>
@@ -1715,8 +1692,8 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
-      <c r="B21" s="1" t="n"/>
-      <c r="C21" s="1" t="n"/>
+      <c r="B21" s="6" t="n"/>
+      <c r="C21" s="6" t="n"/>
       <c r="D21" s="1" t="n"/>
       <c r="E21" s="1" t="n"/>
       <c r="F21" s="1" t="n"/>
@@ -1767,8 +1744,8 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
-      <c r="B22" s="1" t="n"/>
-      <c r="C22" s="1" t="n"/>
+      <c r="B22" s="6" t="n"/>
+      <c r="C22" s="6" t="n"/>
       <c r="D22" s="1" t="n"/>
       <c r="E22" s="1" t="n"/>
       <c r="F22" s="1" t="n"/>
@@ -1819,8 +1796,8 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
-      <c r="B23" s="1" t="n"/>
-      <c r="C23" s="1" t="n"/>
+      <c r="B23" s="6" t="n"/>
+      <c r="C23" s="6" t="n"/>
       <c r="D23" s="1" t="n"/>
       <c r="E23" s="1" t="n"/>
       <c r="F23" s="1" t="n"/>
@@ -1871,8 +1848,8 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
-      <c r="B24" s="1" t="n"/>
-      <c r="C24" s="1" t="n"/>
+      <c r="B24" s="6" t="n"/>
+      <c r="C24" s="6" t="n"/>
       <c r="D24" s="1" t="n"/>
       <c r="E24" s="1" t="n"/>
       <c r="F24" s="1" t="n"/>
@@ -1923,8 +1900,8 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
-      <c r="B25" s="1" t="n"/>
-      <c r="C25" s="1" t="n"/>
+      <c r="B25" s="6" t="n"/>
+      <c r="C25" s="6" t="n"/>
       <c r="D25" s="1" t="n"/>
       <c r="E25" s="1" t="n"/>
       <c r="F25" s="1" t="n"/>
@@ -1975,8 +1952,8 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
-      <c r="B26" s="1" t="n"/>
-      <c r="C26" s="1" t="n"/>
+      <c r="B26" s="6" t="n"/>
+      <c r="C26" s="6" t="n"/>
       <c r="D26" s="1" t="n"/>
       <c r="E26" s="1" t="n"/>
       <c r="F26" s="1" t="n"/>
@@ -2027,8 +2004,8 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
-      <c r="B27" s="1" t="n"/>
-      <c r="C27" s="1" t="n"/>
+      <c r="B27" s="6" t="n"/>
+      <c r="C27" s="6" t="n"/>
       <c r="D27" s="1" t="n"/>
       <c r="E27" s="1" t="n"/>
       <c r="F27" s="1" t="n"/>
@@ -2079,8 +2056,8 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n"/>
-      <c r="B28" s="1" t="n"/>
-      <c r="C28" s="1" t="n"/>
+      <c r="B28" s="6" t="n"/>
+      <c r="C28" s="6" t="n"/>
       <c r="D28" s="1" t="n"/>
       <c r="E28" s="1" t="n"/>
       <c r="F28" s="1" t="n"/>
@@ -2131,8 +2108,8 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
-      <c r="B29" s="1" t="n"/>
-      <c r="C29" s="1" t="n"/>
+      <c r="B29" s="6" t="n"/>
+      <c r="C29" s="6" t="n"/>
       <c r="D29" s="1" t="n"/>
       <c r="E29" s="1" t="n"/>
       <c r="F29" s="1" t="n"/>
@@ -2183,8 +2160,8 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
-      <c r="B30" s="1" t="n"/>
-      <c r="C30" s="1" t="n"/>
+      <c r="B30" s="6" t="n"/>
+      <c r="C30" s="6" t="n"/>
       <c r="D30" s="1" t="n"/>
       <c r="E30" s="1" t="n"/>
       <c r="F30" s="1" t="n"/>
@@ -2235,8 +2212,8 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
-      <c r="B31" s="1" t="n"/>
-      <c r="C31" s="1" t="n"/>
+      <c r="B31" s="6" t="n"/>
+      <c r="C31" s="6" t="n"/>
       <c r="D31" s="1" t="n"/>
       <c r="E31" s="1" t="n"/>
       <c r="F31" s="1" t="n"/>
@@ -2287,8 +2264,8 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n"/>
-      <c r="B32" s="1" t="n"/>
-      <c r="C32" s="1" t="n"/>
+      <c r="B32" s="6" t="n"/>
+      <c r="C32" s="6" t="n"/>
       <c r="D32" s="1" t="n"/>
       <c r="E32" s="1" t="n"/>
       <c r="F32" s="1" t="n"/>
@@ -2339,8 +2316,8 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n"/>
-      <c r="B33" s="1" t="n"/>
-      <c r="C33" s="1" t="n"/>
+      <c r="B33" s="6" t="n"/>
+      <c r="C33" s="6" t="n"/>
       <c r="D33" s="1" t="n"/>
       <c r="E33" s="1" t="n"/>
       <c r="F33" s="1" t="n"/>
@@ -2391,8 +2368,8 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n"/>
-      <c r="B34" s="1" t="n"/>
-      <c r="C34" s="1" t="n"/>
+      <c r="B34" s="6" t="n"/>
+      <c r="C34" s="6" t="n"/>
       <c r="D34" s="1" t="n"/>
       <c r="E34" s="1" t="n"/>
       <c r="F34" s="1" t="n"/>
@@ -2443,8 +2420,8 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n"/>
-      <c r="B35" s="1" t="n"/>
-      <c r="C35" s="1" t="n"/>
+      <c r="B35" s="6" t="n"/>
+      <c r="C35" s="6" t="n"/>
       <c r="D35" s="1" t="n"/>
       <c r="E35" s="1" t="n"/>
       <c r="F35" s="1" t="n"/>
@@ -2495,8 +2472,8 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n"/>
-      <c r="B36" s="1" t="n"/>
-      <c r="C36" s="1" t="n"/>
+      <c r="B36" s="6" t="n"/>
+      <c r="C36" s="6" t="n"/>
       <c r="D36" s="1" t="n"/>
       <c r="E36" s="1" t="n"/>
       <c r="F36" s="1" t="n"/>
@@ -2547,8 +2524,8 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n"/>
-      <c r="B37" s="1" t="n"/>
-      <c r="C37" s="1" t="n"/>
+      <c r="B37" s="6" t="n"/>
+      <c r="C37" s="6" t="n"/>
       <c r="D37" s="1" t="n"/>
       <c r="E37" s="1" t="n"/>
       <c r="F37" s="1" t="n"/>
@@ -2599,8 +2576,8 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n"/>
-      <c r="B38" s="1" t="n"/>
-      <c r="C38" s="1" t="n"/>
+      <c r="B38" s="6" t="n"/>
+      <c r="C38" s="6" t="n"/>
       <c r="D38" s="1" t="n"/>
       <c r="E38" s="1" t="n"/>
       <c r="F38" s="1" t="n"/>
@@ -2651,8 +2628,8 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n"/>
-      <c r="B39" s="1" t="n"/>
-      <c r="C39" s="1" t="n"/>
+      <c r="B39" s="6" t="n"/>
+      <c r="C39" s="6" t="n"/>
       <c r="D39" s="1" t="n"/>
       <c r="E39" s="1" t="n"/>
       <c r="F39" s="1" t="n"/>
@@ -2703,8 +2680,8 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n"/>
-      <c r="B40" s="1" t="n"/>
-      <c r="C40" s="1" t="n"/>
+      <c r="B40" s="6" t="n"/>
+      <c r="C40" s="6" t="n"/>
       <c r="D40" s="1" t="n"/>
       <c r="E40" s="1" t="n"/>
       <c r="F40" s="1" t="n"/>
@@ -2755,8 +2732,8 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n"/>
-      <c r="B41" s="1" t="n"/>
-      <c r="C41" s="1" t="n"/>
+      <c r="B41" s="6" t="n"/>
+      <c r="C41" s="6" t="n"/>
       <c r="D41" s="1" t="n"/>
       <c r="E41" s="1" t="n"/>
       <c r="F41" s="1" t="n"/>
@@ -2807,8 +2784,8 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n"/>
-      <c r="B42" s="1" t="n"/>
-      <c r="C42" s="1" t="n"/>
+      <c r="B42" s="6" t="n"/>
+      <c r="C42" s="6" t="n"/>
       <c r="D42" s="1" t="n"/>
       <c r="E42" s="1" t="n"/>
       <c r="F42" s="1" t="n"/>
@@ -2859,8 +2836,8 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n"/>
-      <c r="B43" s="1" t="n"/>
-      <c r="C43" s="1" t="n"/>
+      <c r="B43" s="6" t="n"/>
+      <c r="C43" s="6" t="n"/>
       <c r="D43" s="1" t="n"/>
       <c r="E43" s="1" t="n"/>
       <c r="F43" s="1" t="n"/>
@@ -2911,8 +2888,8 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n"/>
-      <c r="B44" s="1" t="n"/>
-      <c r="C44" s="1" t="n"/>
+      <c r="B44" s="6" t="n"/>
+      <c r="C44" s="6" t="n"/>
       <c r="D44" s="1" t="n"/>
       <c r="E44" s="1" t="n"/>
       <c r="F44" s="1" t="n"/>
@@ -2963,8 +2940,8 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n"/>
-      <c r="B45" s="1" t="n"/>
-      <c r="C45" s="1" t="n"/>
+      <c r="B45" s="6" t="n"/>
+      <c r="C45" s="6" t="n"/>
       <c r="D45" s="1" t="n"/>
       <c r="E45" s="1" t="n"/>
       <c r="F45" s="1" t="n"/>
@@ -3015,8 +2992,8 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n"/>
-      <c r="B46" s="1" t="n"/>
-      <c r="C46" s="1" t="n"/>
+      <c r="B46" s="6" t="n"/>
+      <c r="C46" s="6" t="n"/>
       <c r="D46" s="1" t="n"/>
       <c r="E46" s="1" t="n"/>
       <c r="F46" s="1" t="n"/>
@@ -3067,8 +3044,8 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n"/>
-      <c r="B47" s="1" t="n"/>
-      <c r="C47" s="1" t="n"/>
+      <c r="B47" s="6" t="n"/>
+      <c r="C47" s="6" t="n"/>
       <c r="D47" s="1" t="n"/>
       <c r="E47" s="1" t="n"/>
       <c r="F47" s="1" t="n"/>
@@ -3119,8 +3096,8 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n"/>
-      <c r="B48" s="1" t="n"/>
-      <c r="C48" s="1" t="n"/>
+      <c r="B48" s="6" t="n"/>
+      <c r="C48" s="6" t="n"/>
       <c r="D48" s="1" t="n"/>
       <c r="E48" s="1" t="n"/>
       <c r="F48" s="1" t="n"/>
@@ -3171,8 +3148,8 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n"/>
-      <c r="B49" s="1" t="n"/>
-      <c r="C49" s="1" t="n"/>
+      <c r="B49" s="6" t="n"/>
+      <c r="C49" s="6" t="n"/>
       <c r="D49" s="1" t="n"/>
       <c r="E49" s="1" t="n"/>
       <c r="F49" s="1" t="n"/>
@@ -3223,8 +3200,8 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n"/>
-      <c r="B50" s="1" t="n"/>
-      <c r="C50" s="1" t="n"/>
+      <c r="B50" s="6" t="n"/>
+      <c r="C50" s="6" t="n"/>
       <c r="D50" s="1" t="n"/>
       <c r="E50" s="1" t="n"/>
       <c r="F50" s="1" t="n"/>
@@ -3275,8 +3252,8 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n"/>
-      <c r="B51" s="1" t="n"/>
-      <c r="C51" s="1" t="n"/>
+      <c r="B51" s="6" t="n"/>
+      <c r="C51" s="6" t="n"/>
       <c r="D51" s="1" t="n"/>
       <c r="E51" s="1" t="n"/>
       <c r="F51" s="1" t="n"/>
@@ -3327,8 +3304,8 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n"/>
-      <c r="B52" s="1" t="n"/>
-      <c r="C52" s="1" t="n"/>
+      <c r="B52" s="6" t="n"/>
+      <c r="C52" s="6" t="n"/>
       <c r="D52" s="1" t="n"/>
       <c r="E52" s="1" t="n"/>
       <c r="F52" s="1" t="n"/>
@@ -3379,8 +3356,8 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n"/>
-      <c r="B53" s="1" t="n"/>
-      <c r="C53" s="1" t="n"/>
+      <c r="B53" s="6" t="n"/>
+      <c r="C53" s="6" t="n"/>
       <c r="D53" s="1" t="n"/>
       <c r="E53" s="1" t="n"/>
       <c r="F53" s="1" t="n"/>
@@ -3431,8 +3408,8 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n"/>
-      <c r="B54" s="1" t="n"/>
-      <c r="C54" s="1" t="n"/>
+      <c r="B54" s="6" t="n"/>
+      <c r="C54" s="6" t="n"/>
       <c r="D54" s="1" t="n"/>
       <c r="E54" s="1" t="n"/>
       <c r="F54" s="1" t="n"/>
@@ -3483,8 +3460,8 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n"/>
-      <c r="B55" s="1" t="n"/>
-      <c r="C55" s="1" t="n"/>
+      <c r="B55" s="6" t="n"/>
+      <c r="C55" s="6" t="n"/>
       <c r="D55" s="1" t="n"/>
       <c r="E55" s="1" t="n"/>
       <c r="F55" s="1" t="n"/>
@@ -3535,8 +3512,8 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n"/>
-      <c r="B56" s="1" t="n"/>
-      <c r="C56" s="1" t="n"/>
+      <c r="B56" s="6" t="n"/>
+      <c r="C56" s="6" t="n"/>
       <c r="D56" s="1" t="n"/>
       <c r="E56" s="1" t="n"/>
       <c r="F56" s="1" t="n"/>
@@ -3587,8 +3564,8 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n"/>
-      <c r="B57" s="1" t="n"/>
-      <c r="C57" s="1" t="n"/>
+      <c r="B57" s="6" t="n"/>
+      <c r="C57" s="6" t="n"/>
       <c r="D57" s="1" t="n"/>
       <c r="E57" s="1" t="n"/>
       <c r="F57" s="1" t="n"/>
@@ -3639,8 +3616,8 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n"/>
-      <c r="B58" s="1" t="n"/>
-      <c r="C58" s="1" t="n"/>
+      <c r="B58" s="6" t="n"/>
+      <c r="C58" s="6" t="n"/>
       <c r="D58" s="1" t="n"/>
       <c r="E58" s="1" t="n"/>
       <c r="F58" s="1" t="n"/>
@@ -3691,8 +3668,8 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n"/>
-      <c r="B59" s="1" t="n"/>
-      <c r="C59" s="1" t="n"/>
+      <c r="B59" s="6" t="n"/>
+      <c r="C59" s="6" t="n"/>
       <c r="D59" s="1" t="n"/>
       <c r="E59" s="1" t="n"/>
       <c r="F59" s="1" t="n"/>
@@ -3743,8 +3720,8 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n"/>
-      <c r="B60" s="1" t="n"/>
-      <c r="C60" s="1" t="n"/>
+      <c r="B60" s="6" t="n"/>
+      <c r="C60" s="6" t="n"/>
       <c r="D60" s="1" t="n"/>
       <c r="E60" s="1" t="n"/>
       <c r="F60" s="1" t="n"/>
@@ -3795,8 +3772,8 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n"/>
-      <c r="B61" s="1" t="n"/>
-      <c r="C61" s="1" t="n"/>
+      <c r="B61" s="6" t="n"/>
+      <c r="C61" s="6" t="n"/>
       <c r="D61" s="1" t="n"/>
       <c r="E61" s="1" t="n"/>
       <c r="F61" s="1" t="n"/>
@@ -3847,8 +3824,8 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n"/>
-      <c r="B62" s="1" t="n"/>
-      <c r="C62" s="1" t="n"/>
+      <c r="B62" s="6" t="n"/>
+      <c r="C62" s="6" t="n"/>
       <c r="D62" s="1" t="n"/>
       <c r="E62" s="1" t="n"/>
       <c r="F62" s="1" t="n"/>
@@ -3899,8 +3876,8 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n"/>
-      <c r="B63" s="1" t="n"/>
-      <c r="C63" s="1" t="n"/>
+      <c r="B63" s="6" t="n"/>
+      <c r="C63" s="6" t="n"/>
       <c r="D63" s="1" t="n"/>
       <c r="E63" s="1" t="n"/>
       <c r="F63" s="1" t="n"/>
@@ -3951,8 +3928,8 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n"/>
-      <c r="B64" s="1" t="n"/>
-      <c r="C64" s="1" t="n"/>
+      <c r="B64" s="6" t="n"/>
+      <c r="C64" s="6" t="n"/>
       <c r="D64" s="1" t="n"/>
       <c r="E64" s="1" t="n"/>
       <c r="F64" s="1" t="n"/>
@@ -4003,8 +3980,8 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n"/>
-      <c r="B65" s="1" t="n"/>
-      <c r="C65" s="1" t="n"/>
+      <c r="B65" s="6" t="n"/>
+      <c r="C65" s="6" t="n"/>
       <c r="D65" s="1" t="n"/>
       <c r="E65" s="1" t="n"/>
       <c r="F65" s="1" t="n"/>
@@ -4055,8 +4032,8 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n"/>
-      <c r="B66" s="1" t="n"/>
-      <c r="C66" s="1" t="n"/>
+      <c r="B66" s="6" t="n"/>
+      <c r="C66" s="6" t="n"/>
       <c r="D66" s="1" t="n"/>
       <c r="E66" s="1" t="n"/>
       <c r="F66" s="1" t="n"/>
@@ -4107,8 +4084,8 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n"/>
-      <c r="B67" s="1" t="n"/>
-      <c r="C67" s="1" t="n"/>
+      <c r="B67" s="6" t="n"/>
+      <c r="C67" s="6" t="n"/>
       <c r="D67" s="1" t="n"/>
       <c r="E67" s="1" t="n"/>
       <c r="F67" s="1" t="n"/>
@@ -4159,8 +4136,8 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n"/>
-      <c r="B68" s="1" t="n"/>
-      <c r="C68" s="1" t="n"/>
+      <c r="B68" s="6" t="n"/>
+      <c r="C68" s="6" t="n"/>
       <c r="D68" s="1" t="n"/>
       <c r="E68" s="1" t="n"/>
       <c r="F68" s="1" t="n"/>
@@ -4211,8 +4188,8 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n"/>
-      <c r="B69" s="1" t="n"/>
-      <c r="C69" s="1" t="n"/>
+      <c r="B69" s="6" t="n"/>
+      <c r="C69" s="6" t="n"/>
       <c r="D69" s="1" t="n"/>
       <c r="E69" s="1" t="n"/>
       <c r="F69" s="1" t="n"/>
@@ -4263,8 +4240,8 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n"/>
-      <c r="B70" s="1" t="n"/>
-      <c r="C70" s="1" t="n"/>
+      <c r="B70" s="6" t="n"/>
+      <c r="C70" s="6" t="n"/>
       <c r="D70" s="1" t="n"/>
       <c r="E70" s="1" t="n"/>
       <c r="F70" s="1" t="n"/>
@@ -4315,8 +4292,8 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n"/>
-      <c r="B71" s="1" t="n"/>
-      <c r="C71" s="1" t="n"/>
+      <c r="B71" s="6" t="n"/>
+      <c r="C71" s="6" t="n"/>
       <c r="D71" s="1" t="n"/>
       <c r="E71" s="1" t="n"/>
       <c r="F71" s="1" t="n"/>
@@ -4367,8 +4344,8 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n"/>
-      <c r="B72" s="1" t="n"/>
-      <c r="C72" s="1" t="n"/>
+      <c r="B72" s="6" t="n"/>
+      <c r="C72" s="6" t="n"/>
       <c r="D72" s="1" t="n"/>
       <c r="E72" s="1" t="n"/>
       <c r="F72" s="1" t="n"/>
@@ -4419,8 +4396,8 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n"/>
-      <c r="B73" s="1" t="n"/>
-      <c r="C73" s="1" t="n"/>
+      <c r="B73" s="6" t="n"/>
+      <c r="C73" s="6" t="n"/>
       <c r="D73" s="1" t="n"/>
       <c r="E73" s="1" t="n"/>
       <c r="F73" s="1" t="n"/>
@@ -4471,8 +4448,8 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n"/>
-      <c r="B74" s="1" t="n"/>
-      <c r="C74" s="1" t="n"/>
+      <c r="B74" s="6" t="n"/>
+      <c r="C74" s="6" t="n"/>
       <c r="D74" s="1" t="n"/>
       <c r="E74" s="1" t="n"/>
       <c r="F74" s="1" t="n"/>
@@ -4523,8 +4500,8 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n"/>
-      <c r="B75" s="1" t="n"/>
-      <c r="C75" s="1" t="n"/>
+      <c r="B75" s="6" t="n"/>
+      <c r="C75" s="6" t="n"/>
       <c r="D75" s="1" t="n"/>
       <c r="E75" s="1" t="n"/>
       <c r="F75" s="1" t="n"/>
@@ -4575,8 +4552,8 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n"/>
-      <c r="B76" s="1" t="n"/>
-      <c r="C76" s="1" t="n"/>
+      <c r="B76" s="6" t="n"/>
+      <c r="C76" s="6" t="n"/>
       <c r="D76" s="1" t="n"/>
       <c r="E76" s="1" t="n"/>
       <c r="F76" s="1" t="n"/>
@@ -4627,8 +4604,8 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n"/>
-      <c r="B77" s="1" t="n"/>
-      <c r="C77" s="1" t="n"/>
+      <c r="B77" s="6" t="n"/>
+      <c r="C77" s="6" t="n"/>
       <c r="D77" s="1" t="n"/>
       <c r="E77" s="1" t="n"/>
       <c r="F77" s="1" t="n"/>
@@ -4679,8 +4656,8 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n"/>
-      <c r="B78" s="1" t="n"/>
-      <c r="C78" s="1" t="n"/>
+      <c r="B78" s="6" t="n"/>
+      <c r="C78" s="6" t="n"/>
       <c r="D78" s="1" t="n"/>
       <c r="E78" s="1" t="n"/>
       <c r="F78" s="1" t="n"/>
@@ -4731,8 +4708,8 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n"/>
-      <c r="B79" s="1" t="n"/>
-      <c r="C79" s="1" t="n"/>
+      <c r="B79" s="6" t="n"/>
+      <c r="C79" s="6" t="n"/>
       <c r="D79" s="1" t="n"/>
       <c r="E79" s="1" t="n"/>
       <c r="F79" s="1" t="n"/>
@@ -4783,8 +4760,8 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n"/>
-      <c r="B80" s="1" t="n"/>
-      <c r="C80" s="1" t="n"/>
+      <c r="B80" s="6" t="n"/>
+      <c r="C80" s="6" t="n"/>
       <c r="D80" s="1" t="n"/>
       <c r="E80" s="1" t="n"/>
       <c r="F80" s="1" t="n"/>
@@ -4835,8 +4812,8 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n"/>
-      <c r="B81" s="1" t="n"/>
-      <c r="C81" s="1" t="n"/>
+      <c r="B81" s="6" t="n"/>
+      <c r="C81" s="6" t="n"/>
       <c r="D81" s="1" t="n"/>
       <c r="E81" s="1" t="n"/>
       <c r="F81" s="1" t="n"/>
@@ -4887,8 +4864,8 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n"/>
-      <c r="B82" s="1" t="n"/>
-      <c r="C82" s="1" t="n"/>
+      <c r="B82" s="6" t="n"/>
+      <c r="C82" s="6" t="n"/>
       <c r="D82" s="1" t="n"/>
       <c r="E82" s="1" t="n"/>
       <c r="F82" s="1" t="n"/>
@@ -4939,8 +4916,8 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n"/>
-      <c r="B83" s="1" t="n"/>
-      <c r="C83" s="1" t="n"/>
+      <c r="B83" s="6" t="n"/>
+      <c r="C83" s="6" t="n"/>
       <c r="D83" s="1" t="n"/>
       <c r="E83" s="1" t="n"/>
       <c r="F83" s="1" t="n"/>
@@ -4991,8 +4968,8 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n"/>
-      <c r="B84" s="1" t="n"/>
-      <c r="C84" s="1" t="n"/>
+      <c r="B84" s="6" t="n"/>
+      <c r="C84" s="6" t="n"/>
       <c r="D84" s="1" t="n"/>
       <c r="E84" s="1" t="n"/>
       <c r="F84" s="1" t="n"/>
@@ -5043,8 +5020,8 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n"/>
-      <c r="B85" s="1" t="n"/>
-      <c r="C85" s="1" t="n"/>
+      <c r="B85" s="6" t="n"/>
+      <c r="C85" s="6" t="n"/>
       <c r="D85" s="1" t="n"/>
       <c r="E85" s="1" t="n"/>
       <c r="F85" s="1" t="n"/>
@@ -5095,8 +5072,8 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n"/>
-      <c r="B86" s="1" t="n"/>
-      <c r="C86" s="1" t="n"/>
+      <c r="B86" s="6" t="n"/>
+      <c r="C86" s="6" t="n"/>
       <c r="D86" s="1" t="n"/>
       <c r="E86" s="1" t="n"/>
       <c r="F86" s="1" t="n"/>
@@ -5147,8 +5124,8 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n"/>
-      <c r="B87" s="1" t="n"/>
-      <c r="C87" s="1" t="n"/>
+      <c r="B87" s="6" t="n"/>
+      <c r="C87" s="6" t="n"/>
       <c r="D87" s="1" t="n"/>
       <c r="E87" s="1" t="n"/>
       <c r="F87" s="1" t="n"/>
@@ -5199,8 +5176,8 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n"/>
-      <c r="B88" s="1" t="n"/>
-      <c r="C88" s="1" t="n"/>
+      <c r="B88" s="6" t="n"/>
+      <c r="C88" s="6" t="n"/>
       <c r="D88" s="1" t="n"/>
       <c r="E88" s="1" t="n"/>
       <c r="F88" s="1" t="n"/>
@@ -5251,8 +5228,8 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n"/>
-      <c r="B89" s="1" t="n"/>
-      <c r="C89" s="1" t="n"/>
+      <c r="B89" s="6" t="n"/>
+      <c r="C89" s="6" t="n"/>
       <c r="D89" s="1" t="n"/>
       <c r="E89" s="1" t="n"/>
       <c r="F89" s="1" t="n"/>
@@ -5303,8 +5280,8 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n"/>
-      <c r="B90" s="1" t="n"/>
-      <c r="C90" s="1" t="n"/>
+      <c r="B90" s="6" t="n"/>
+      <c r="C90" s="6" t="n"/>
       <c r="D90" s="1" t="n"/>
       <c r="E90" s="1" t="n"/>
       <c r="F90" s="1" t="n"/>
@@ -5355,8 +5332,8 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n"/>
-      <c r="B91" s="1" t="n"/>
-      <c r="C91" s="1" t="n"/>
+      <c r="B91" s="6" t="n"/>
+      <c r="C91" s="6" t="n"/>
       <c r="D91" s="1" t="n"/>
       <c r="E91" s="1" t="n"/>
       <c r="F91" s="1" t="n"/>
@@ -5407,8 +5384,8 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n"/>
-      <c r="B92" s="1" t="n"/>
-      <c r="C92" s="1" t="n"/>
+      <c r="B92" s="6" t="n"/>
+      <c r="C92" s="6" t="n"/>
       <c r="D92" s="1" t="n"/>
       <c r="E92" s="1" t="n"/>
       <c r="F92" s="1" t="n"/>
@@ -5459,8 +5436,8 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n"/>
-      <c r="B93" s="1" t="n"/>
-      <c r="C93" s="1" t="n"/>
+      <c r="B93" s="6" t="n"/>
+      <c r="C93" s="6" t="n"/>
       <c r="D93" s="1" t="n"/>
       <c r="E93" s="1" t="n"/>
       <c r="F93" s="1" t="n"/>
@@ -5511,8 +5488,8 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n"/>
-      <c r="B94" s="1" t="n"/>
-      <c r="C94" s="1" t="n"/>
+      <c r="B94" s="6" t="n"/>
+      <c r="C94" s="6" t="n"/>
       <c r="D94" s="1" t="n"/>
       <c r="E94" s="1" t="n"/>
       <c r="F94" s="1" t="n"/>
@@ -5563,8 +5540,8 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n"/>
-      <c r="B95" s="1" t="n"/>
-      <c r="C95" s="1" t="n"/>
+      <c r="B95" s="6" t="n"/>
+      <c r="C95" s="6" t="n"/>
       <c r="D95" s="1" t="n"/>
       <c r="E95" s="1" t="n"/>
       <c r="F95" s="1" t="n"/>
@@ -5615,8 +5592,8 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n"/>
-      <c r="B96" s="1" t="n"/>
-      <c r="C96" s="1" t="n"/>
+      <c r="B96" s="6" t="n"/>
+      <c r="C96" s="6" t="n"/>
       <c r="D96" s="1" t="n"/>
       <c r="E96" s="1" t="n"/>
       <c r="F96" s="1" t="n"/>
@@ -5667,8 +5644,8 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n"/>
-      <c r="B97" s="1" t="n"/>
-      <c r="C97" s="1" t="n"/>
+      <c r="B97" s="6" t="n"/>
+      <c r="C97" s="6" t="n"/>
       <c r="D97" s="1" t="n"/>
       <c r="E97" s="1" t="n"/>
       <c r="F97" s="1" t="n"/>
@@ -5719,8 +5696,8 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n"/>
-      <c r="B98" s="1" t="n"/>
-      <c r="C98" s="1" t="n"/>
+      <c r="B98" s="6" t="n"/>
+      <c r="C98" s="6" t="n"/>
       <c r="D98" s="1" t="n"/>
       <c r="E98" s="1" t="n"/>
       <c r="F98" s="1" t="n"/>
@@ -5771,8 +5748,8 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n"/>
-      <c r="B99" s="1" t="n"/>
-      <c r="C99" s="1" t="n"/>
+      <c r="B99" s="6" t="n"/>
+      <c r="C99" s="6" t="n"/>
       <c r="D99" s="1" t="n"/>
       <c r="E99" s="1" t="n"/>
       <c r="F99" s="1" t="n"/>
@@ -5823,8 +5800,8 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n"/>
-      <c r="B100" s="1" t="n"/>
-      <c r="C100" s="1" t="n"/>
+      <c r="B100" s="6" t="n"/>
+      <c r="C100" s="6" t="n"/>
       <c r="D100" s="1" t="n"/>
       <c r="E100" s="1" t="n"/>
       <c r="F100" s="1" t="n"/>
@@ -5905,6 +5882,16 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="n"/>
@@ -5984,6 +5971,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n"/>
+      <c r="B2" s="4" t="n"/>
+      <c r="C2" s="4" t="n"/>
+      <c r="D2" s="4" t="n"/>
+      <c r="E2" s="4" t="n"/>
       <c r="F2" s="5" t="inlineStr">
         <is>
           <t>December</t>
@@ -6040,6 +6031,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="4" t="n"/>
       <c r="F3" s="5" t="inlineStr">
         <is>
           <t>20/Dec - 26/Dec</t>
@@ -6104,8 +6099,8 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="n"/>
-      <c r="C4" s="1" t="n"/>
+      <c r="B4" s="6" t="n"/>
+      <c r="C4" s="6" t="n"/>
       <c r="D4" s="1" t="n"/>
       <c r="E4" s="1" t="n"/>
       <c r="F4" s="1" t="n"/>
@@ -6156,28 +6151,28 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
-      <c r="B5" s="9" t="inlineStr">
+      <c r="B5" s="10" t="inlineStr">
         <is>
           <t>Task 1</t>
         </is>
       </c>
-      <c r="C5" s="9" t="inlineStr">
+      <c r="C5" s="10" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="D5" s="9" t="inlineStr">
+      <c r="D5" s="11" t="inlineStr">
         <is>
           <t>20-Dec</t>
         </is>
       </c>
-      <c r="E5" s="9" t="inlineStr">
+      <c r="E5" s="11" t="inlineStr">
         <is>
           <t>02-Jan</t>
         </is>
       </c>
-      <c r="F5" s="8" t="n"/>
-      <c r="G5" s="8" t="n"/>
+      <c r="F5" s="9" t="n"/>
+      <c r="G5" s="9" t="n"/>
       <c r="H5" s="1" t="n"/>
       <c r="I5" s="1" t="n"/>
       <c r="J5" s="1" t="n"/>
@@ -6224,8 +6219,8 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="n"/>
-      <c r="C6" s="1" t="n"/>
+      <c r="B6" s="6" t="n"/>
+      <c r="C6" s="6" t="n"/>
       <c r="D6" s="1" t="n"/>
       <c r="E6" s="1" t="n"/>
       <c r="F6" s="1" t="n"/>
@@ -6276,8 +6271,8 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="n"/>
-      <c r="C7" s="1" t="n"/>
+      <c r="B7" s="6" t="n"/>
+      <c r="C7" s="6" t="n"/>
       <c r="D7" s="1" t="n"/>
       <c r="E7" s="1" t="n"/>
       <c r="F7" s="1" t="n"/>
@@ -6328,30 +6323,30 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
-      <c r="B8" s="9" t="inlineStr">
+      <c r="B8" s="10" t="inlineStr">
         <is>
           <t>Task 2</t>
         </is>
       </c>
-      <c r="C8" s="9" t="inlineStr">
+      <c r="C8" s="10" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="D8" s="9" t="inlineStr">
+      <c r="D8" s="11" t="inlineStr">
         <is>
           <t>03-Jan</t>
         </is>
       </c>
-      <c r="E8" s="9" t="inlineStr">
+      <c r="E8" s="11" t="inlineStr">
         <is>
           <t>16-Jan</t>
         </is>
       </c>
       <c r="F8" s="1" t="n"/>
       <c r="G8" s="1" t="n"/>
-      <c r="H8" s="8" t="n"/>
-      <c r="I8" s="8" t="n"/>
+      <c r="H8" s="9" t="n"/>
+      <c r="I8" s="9" t="n"/>
       <c r="J8" s="1" t="n"/>
       <c r="K8" s="1" t="n"/>
       <c r="L8" s="1" t="n"/>
@@ -6396,8 +6391,8 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="n"/>
-      <c r="C9" s="1" t="n"/>
+      <c r="B9" s="6" t="n"/>
+      <c r="C9" s="6" t="n"/>
       <c r="D9" s="1" t="n"/>
       <c r="E9" s="1" t="n"/>
       <c r="F9" s="1" t="n"/>
@@ -6448,8 +6443,8 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="n"/>
-      <c r="C10" s="1" t="n"/>
+      <c r="B10" s="6" t="n"/>
+      <c r="C10" s="6" t="n"/>
       <c r="D10" s="1" t="n"/>
       <c r="E10" s="1" t="n"/>
       <c r="F10" s="1" t="n"/>
@@ -6500,8 +6495,8 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="n"/>
-      <c r="C11" s="1" t="n"/>
+      <c r="B11" s="6" t="n"/>
+      <c r="C11" s="6" t="n"/>
       <c r="D11" s="1" t="n"/>
       <c r="E11" s="1" t="n"/>
       <c r="F11" s="1" t="n"/>
@@ -6552,8 +6547,8 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="n"/>
-      <c r="C12" s="1" t="n"/>
+      <c r="B12" s="6" t="n"/>
+      <c r="C12" s="6" t="n"/>
       <c r="D12" s="1" t="n"/>
       <c r="E12" s="1" t="n"/>
       <c r="F12" s="1" t="n"/>
@@ -6604,8 +6599,8 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
-      <c r="B13" s="1" t="n"/>
-      <c r="C13" s="1" t="n"/>
+      <c r="B13" s="6" t="n"/>
+      <c r="C13" s="6" t="n"/>
       <c r="D13" s="1" t="n"/>
       <c r="E13" s="1" t="n"/>
       <c r="F13" s="1" t="n"/>
@@ -6656,8 +6651,8 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="n"/>
-      <c r="C14" s="1" t="n"/>
+      <c r="B14" s="6" t="n"/>
+      <c r="C14" s="6" t="n"/>
       <c r="D14" s="1" t="n"/>
       <c r="E14" s="1" t="n"/>
       <c r="F14" s="1" t="n"/>
@@ -6708,8 +6703,8 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="n"/>
-      <c r="C15" s="1" t="n"/>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="6" t="n"/>
       <c r="D15" s="1" t="n"/>
       <c r="E15" s="1" t="n"/>
       <c r="F15" s="1" t="n"/>
@@ -6760,8 +6755,8 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
-      <c r="B16" s="1" t="n"/>
-      <c r="C16" s="1" t="n"/>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="6" t="n"/>
       <c r="D16" s="1" t="n"/>
       <c r="E16" s="1" t="n"/>
       <c r="F16" s="1" t="n"/>
@@ -6812,8 +6807,8 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="n"/>
-      <c r="C17" s="1" t="n"/>
+      <c r="B17" s="6" t="n"/>
+      <c r="C17" s="6" t="n"/>
       <c r="D17" s="1" t="n"/>
       <c r="E17" s="1" t="n"/>
       <c r="F17" s="1" t="n"/>
@@ -6864,8 +6859,8 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="n"/>
-      <c r="C18" s="1" t="n"/>
+      <c r="B18" s="6" t="n"/>
+      <c r="C18" s="6" t="n"/>
       <c r="D18" s="1" t="n"/>
       <c r="E18" s="1" t="n"/>
       <c r="F18" s="1" t="n"/>
@@ -6916,8 +6911,8 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="n"/>
-      <c r="C19" s="1" t="n"/>
+      <c r="B19" s="6" t="n"/>
+      <c r="C19" s="6" t="n"/>
       <c r="D19" s="1" t="n"/>
       <c r="E19" s="1" t="n"/>
       <c r="F19" s="1" t="n"/>
@@ -6968,8 +6963,8 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
-      <c r="B20" s="1" t="n"/>
-      <c r="C20" s="1" t="n"/>
+      <c r="B20" s="6" t="n"/>
+      <c r="C20" s="6" t="n"/>
       <c r="D20" s="1" t="n"/>
       <c r="E20" s="1" t="n"/>
       <c r="F20" s="1" t="n"/>
@@ -7020,8 +7015,8 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
-      <c r="B21" s="1" t="n"/>
-      <c r="C21" s="1" t="n"/>
+      <c r="B21" s="6" t="n"/>
+      <c r="C21" s="6" t="n"/>
       <c r="D21" s="1" t="n"/>
       <c r="E21" s="1" t="n"/>
       <c r="F21" s="1" t="n"/>
@@ -7072,8 +7067,8 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
-      <c r="B22" s="1" t="n"/>
-      <c r="C22" s="1" t="n"/>
+      <c r="B22" s="6" t="n"/>
+      <c r="C22" s="6" t="n"/>
       <c r="D22" s="1" t="n"/>
       <c r="E22" s="1" t="n"/>
       <c r="F22" s="1" t="n"/>
@@ -7124,8 +7119,8 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
-      <c r="B23" s="1" t="n"/>
-      <c r="C23" s="1" t="n"/>
+      <c r="B23" s="6" t="n"/>
+      <c r="C23" s="6" t="n"/>
       <c r="D23" s="1" t="n"/>
       <c r="E23" s="1" t="n"/>
       <c r="F23" s="1" t="n"/>
@@ -7176,8 +7171,8 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
-      <c r="B24" s="1" t="n"/>
-      <c r="C24" s="1" t="n"/>
+      <c r="B24" s="6" t="n"/>
+      <c r="C24" s="6" t="n"/>
       <c r="D24" s="1" t="n"/>
       <c r="E24" s="1" t="n"/>
       <c r="F24" s="1" t="n"/>
@@ -7228,8 +7223,8 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
-      <c r="B25" s="1" t="n"/>
-      <c r="C25" s="1" t="n"/>
+      <c r="B25" s="6" t="n"/>
+      <c r="C25" s="6" t="n"/>
       <c r="D25" s="1" t="n"/>
       <c r="E25" s="1" t="n"/>
       <c r="F25" s="1" t="n"/>
@@ -7280,8 +7275,8 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
-      <c r="B26" s="1" t="n"/>
-      <c r="C26" s="1" t="n"/>
+      <c r="B26" s="6" t="n"/>
+      <c r="C26" s="6" t="n"/>
       <c r="D26" s="1" t="n"/>
       <c r="E26" s="1" t="n"/>
       <c r="F26" s="1" t="n"/>
@@ -7332,8 +7327,8 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
-      <c r="B27" s="1" t="n"/>
-      <c r="C27" s="1" t="n"/>
+      <c r="B27" s="6" t="n"/>
+      <c r="C27" s="6" t="n"/>
       <c r="D27" s="1" t="n"/>
       <c r="E27" s="1" t="n"/>
       <c r="F27" s="1" t="n"/>
@@ -7384,8 +7379,8 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n"/>
-      <c r="B28" s="1" t="n"/>
-      <c r="C28" s="1" t="n"/>
+      <c r="B28" s="6" t="n"/>
+      <c r="C28" s="6" t="n"/>
       <c r="D28" s="1" t="n"/>
       <c r="E28" s="1" t="n"/>
       <c r="F28" s="1" t="n"/>
@@ -7436,8 +7431,8 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
-      <c r="B29" s="1" t="n"/>
-      <c r="C29" s="1" t="n"/>
+      <c r="B29" s="6" t="n"/>
+      <c r="C29" s="6" t="n"/>
       <c r="D29" s="1" t="n"/>
       <c r="E29" s="1" t="n"/>
       <c r="F29" s="1" t="n"/>
@@ -7488,8 +7483,8 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
-      <c r="B30" s="1" t="n"/>
-      <c r="C30" s="1" t="n"/>
+      <c r="B30" s="6" t="n"/>
+      <c r="C30" s="6" t="n"/>
       <c r="D30" s="1" t="n"/>
       <c r="E30" s="1" t="n"/>
       <c r="F30" s="1" t="n"/>
@@ -7540,8 +7535,8 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
-      <c r="B31" s="1" t="n"/>
-      <c r="C31" s="1" t="n"/>
+      <c r="B31" s="6" t="n"/>
+      <c r="C31" s="6" t="n"/>
       <c r="D31" s="1" t="n"/>
       <c r="E31" s="1" t="n"/>
       <c r="F31" s="1" t="n"/>
@@ -7592,8 +7587,8 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n"/>
-      <c r="B32" s="1" t="n"/>
-      <c r="C32" s="1" t="n"/>
+      <c r="B32" s="6" t="n"/>
+      <c r="C32" s="6" t="n"/>
       <c r="D32" s="1" t="n"/>
       <c r="E32" s="1" t="n"/>
       <c r="F32" s="1" t="n"/>
@@ -7644,8 +7639,8 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n"/>
-      <c r="B33" s="1" t="n"/>
-      <c r="C33" s="1" t="n"/>
+      <c r="B33" s="6" t="n"/>
+      <c r="C33" s="6" t="n"/>
       <c r="D33" s="1" t="n"/>
       <c r="E33" s="1" t="n"/>
       <c r="F33" s="1" t="n"/>
@@ -7696,8 +7691,8 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n"/>
-      <c r="B34" s="1" t="n"/>
-      <c r="C34" s="1" t="n"/>
+      <c r="B34" s="6" t="n"/>
+      <c r="C34" s="6" t="n"/>
       <c r="D34" s="1" t="n"/>
       <c r="E34" s="1" t="n"/>
       <c r="F34" s="1" t="n"/>
@@ -7748,8 +7743,8 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n"/>
-      <c r="B35" s="1" t="n"/>
-      <c r="C35" s="1" t="n"/>
+      <c r="B35" s="6" t="n"/>
+      <c r="C35" s="6" t="n"/>
       <c r="D35" s="1" t="n"/>
       <c r="E35" s="1" t="n"/>
       <c r="F35" s="1" t="n"/>
@@ -7800,8 +7795,8 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n"/>
-      <c r="B36" s="1" t="n"/>
-      <c r="C36" s="1" t="n"/>
+      <c r="B36" s="6" t="n"/>
+      <c r="C36" s="6" t="n"/>
       <c r="D36" s="1" t="n"/>
       <c r="E36" s="1" t="n"/>
       <c r="F36" s="1" t="n"/>
@@ -7852,8 +7847,8 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n"/>
-      <c r="B37" s="1" t="n"/>
-      <c r="C37" s="1" t="n"/>
+      <c r="B37" s="6" t="n"/>
+      <c r="C37" s="6" t="n"/>
       <c r="D37" s="1" t="n"/>
       <c r="E37" s="1" t="n"/>
       <c r="F37" s="1" t="n"/>
@@ -7904,8 +7899,8 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n"/>
-      <c r="B38" s="1" t="n"/>
-      <c r="C38" s="1" t="n"/>
+      <c r="B38" s="6" t="n"/>
+      <c r="C38" s="6" t="n"/>
       <c r="D38" s="1" t="n"/>
       <c r="E38" s="1" t="n"/>
       <c r="F38" s="1" t="n"/>
@@ -7956,8 +7951,8 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n"/>
-      <c r="B39" s="1" t="n"/>
-      <c r="C39" s="1" t="n"/>
+      <c r="B39" s="6" t="n"/>
+      <c r="C39" s="6" t="n"/>
       <c r="D39" s="1" t="n"/>
       <c r="E39" s="1" t="n"/>
       <c r="F39" s="1" t="n"/>
@@ -8008,8 +8003,8 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n"/>
-      <c r="B40" s="1" t="n"/>
-      <c r="C40" s="1" t="n"/>
+      <c r="B40" s="6" t="n"/>
+      <c r="C40" s="6" t="n"/>
       <c r="D40" s="1" t="n"/>
       <c r="E40" s="1" t="n"/>
       <c r="F40" s="1" t="n"/>
@@ -8060,8 +8055,8 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n"/>
-      <c r="B41" s="1" t="n"/>
-      <c r="C41" s="1" t="n"/>
+      <c r="B41" s="6" t="n"/>
+      <c r="C41" s="6" t="n"/>
       <c r="D41" s="1" t="n"/>
       <c r="E41" s="1" t="n"/>
       <c r="F41" s="1" t="n"/>
@@ -8112,8 +8107,8 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n"/>
-      <c r="B42" s="1" t="n"/>
-      <c r="C42" s="1" t="n"/>
+      <c r="B42" s="6" t="n"/>
+      <c r="C42" s="6" t="n"/>
       <c r="D42" s="1" t="n"/>
       <c r="E42" s="1" t="n"/>
       <c r="F42" s="1" t="n"/>
@@ -8164,8 +8159,8 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n"/>
-      <c r="B43" s="1" t="n"/>
-      <c r="C43" s="1" t="n"/>
+      <c r="B43" s="6" t="n"/>
+      <c r="C43" s="6" t="n"/>
       <c r="D43" s="1" t="n"/>
       <c r="E43" s="1" t="n"/>
       <c r="F43" s="1" t="n"/>
@@ -8216,8 +8211,8 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n"/>
-      <c r="B44" s="1" t="n"/>
-      <c r="C44" s="1" t="n"/>
+      <c r="B44" s="6" t="n"/>
+      <c r="C44" s="6" t="n"/>
       <c r="D44" s="1" t="n"/>
       <c r="E44" s="1" t="n"/>
       <c r="F44" s="1" t="n"/>
@@ -8268,8 +8263,8 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n"/>
-      <c r="B45" s="1" t="n"/>
-      <c r="C45" s="1" t="n"/>
+      <c r="B45" s="6" t="n"/>
+      <c r="C45" s="6" t="n"/>
       <c r="D45" s="1" t="n"/>
       <c r="E45" s="1" t="n"/>
       <c r="F45" s="1" t="n"/>
@@ -8320,8 +8315,8 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n"/>
-      <c r="B46" s="1" t="n"/>
-      <c r="C46" s="1" t="n"/>
+      <c r="B46" s="6" t="n"/>
+      <c r="C46" s="6" t="n"/>
       <c r="D46" s="1" t="n"/>
       <c r="E46" s="1" t="n"/>
       <c r="F46" s="1" t="n"/>
@@ -8372,8 +8367,8 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n"/>
-      <c r="B47" s="1" t="n"/>
-      <c r="C47" s="1" t="n"/>
+      <c r="B47" s="6" t="n"/>
+      <c r="C47" s="6" t="n"/>
       <c r="D47" s="1" t="n"/>
       <c r="E47" s="1" t="n"/>
       <c r="F47" s="1" t="n"/>
@@ -8424,8 +8419,8 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n"/>
-      <c r="B48" s="1" t="n"/>
-      <c r="C48" s="1" t="n"/>
+      <c r="B48" s="6" t="n"/>
+      <c r="C48" s="6" t="n"/>
       <c r="D48" s="1" t="n"/>
       <c r="E48" s="1" t="n"/>
       <c r="F48" s="1" t="n"/>
@@ -8476,8 +8471,8 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n"/>
-      <c r="B49" s="1" t="n"/>
-      <c r="C49" s="1" t="n"/>
+      <c r="B49" s="6" t="n"/>
+      <c r="C49" s="6" t="n"/>
       <c r="D49" s="1" t="n"/>
       <c r="E49" s="1" t="n"/>
       <c r="F49" s="1" t="n"/>
@@ -8528,8 +8523,8 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n"/>
-      <c r="B50" s="1" t="n"/>
-      <c r="C50" s="1" t="n"/>
+      <c r="B50" s="6" t="n"/>
+      <c r="C50" s="6" t="n"/>
       <c r="D50" s="1" t="n"/>
       <c r="E50" s="1" t="n"/>
       <c r="F50" s="1" t="n"/>
@@ -8580,8 +8575,8 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n"/>
-      <c r="B51" s="1" t="n"/>
-      <c r="C51" s="1" t="n"/>
+      <c r="B51" s="6" t="n"/>
+      <c r="C51" s="6" t="n"/>
       <c r="D51" s="1" t="n"/>
       <c r="E51" s="1" t="n"/>
       <c r="F51" s="1" t="n"/>
@@ -8632,8 +8627,8 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n"/>
-      <c r="B52" s="1" t="n"/>
-      <c r="C52" s="1" t="n"/>
+      <c r="B52" s="6" t="n"/>
+      <c r="C52" s="6" t="n"/>
       <c r="D52" s="1" t="n"/>
       <c r="E52" s="1" t="n"/>
       <c r="F52" s="1" t="n"/>
@@ -8684,8 +8679,8 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n"/>
-      <c r="B53" s="1" t="n"/>
-      <c r="C53" s="1" t="n"/>
+      <c r="B53" s="6" t="n"/>
+      <c r="C53" s="6" t="n"/>
       <c r="D53" s="1" t="n"/>
       <c r="E53" s="1" t="n"/>
       <c r="F53" s="1" t="n"/>
@@ -8736,8 +8731,8 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n"/>
-      <c r="B54" s="1" t="n"/>
-      <c r="C54" s="1" t="n"/>
+      <c r="B54" s="6" t="n"/>
+      <c r="C54" s="6" t="n"/>
       <c r="D54" s="1" t="n"/>
       <c r="E54" s="1" t="n"/>
       <c r="F54" s="1" t="n"/>
@@ -8788,8 +8783,8 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n"/>
-      <c r="B55" s="1" t="n"/>
-      <c r="C55" s="1" t="n"/>
+      <c r="B55" s="6" t="n"/>
+      <c r="C55" s="6" t="n"/>
       <c r="D55" s="1" t="n"/>
       <c r="E55" s="1" t="n"/>
       <c r="F55" s="1" t="n"/>
@@ -8840,8 +8835,8 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n"/>
-      <c r="B56" s="1" t="n"/>
-      <c r="C56" s="1" t="n"/>
+      <c r="B56" s="6" t="n"/>
+      <c r="C56" s="6" t="n"/>
       <c r="D56" s="1" t="n"/>
       <c r="E56" s="1" t="n"/>
       <c r="F56" s="1" t="n"/>
@@ -8892,8 +8887,8 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n"/>
-      <c r="B57" s="1" t="n"/>
-      <c r="C57" s="1" t="n"/>
+      <c r="B57" s="6" t="n"/>
+      <c r="C57" s="6" t="n"/>
       <c r="D57" s="1" t="n"/>
       <c r="E57" s="1" t="n"/>
       <c r="F57" s="1" t="n"/>
@@ -8944,8 +8939,8 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n"/>
-      <c r="B58" s="1" t="n"/>
-      <c r="C58" s="1" t="n"/>
+      <c r="B58" s="6" t="n"/>
+      <c r="C58" s="6" t="n"/>
       <c r="D58" s="1" t="n"/>
       <c r="E58" s="1" t="n"/>
       <c r="F58" s="1" t="n"/>
@@ -8996,8 +8991,8 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n"/>
-      <c r="B59" s="1" t="n"/>
-      <c r="C59" s="1" t="n"/>
+      <c r="B59" s="6" t="n"/>
+      <c r="C59" s="6" t="n"/>
       <c r="D59" s="1" t="n"/>
       <c r="E59" s="1" t="n"/>
       <c r="F59" s="1" t="n"/>
@@ -9048,8 +9043,8 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n"/>
-      <c r="B60" s="1" t="n"/>
-      <c r="C60" s="1" t="n"/>
+      <c r="B60" s="6" t="n"/>
+      <c r="C60" s="6" t="n"/>
       <c r="D60" s="1" t="n"/>
       <c r="E60" s="1" t="n"/>
       <c r="F60" s="1" t="n"/>
@@ -9100,8 +9095,8 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n"/>
-      <c r="B61" s="1" t="n"/>
-      <c r="C61" s="1" t="n"/>
+      <c r="B61" s="6" t="n"/>
+      <c r="C61" s="6" t="n"/>
       <c r="D61" s="1" t="n"/>
       <c r="E61" s="1" t="n"/>
       <c r="F61" s="1" t="n"/>
@@ -9152,8 +9147,8 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n"/>
-      <c r="B62" s="1" t="n"/>
-      <c r="C62" s="1" t="n"/>
+      <c r="B62" s="6" t="n"/>
+      <c r="C62" s="6" t="n"/>
       <c r="D62" s="1" t="n"/>
       <c r="E62" s="1" t="n"/>
       <c r="F62" s="1" t="n"/>
@@ -9204,8 +9199,8 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n"/>
-      <c r="B63" s="1" t="n"/>
-      <c r="C63" s="1" t="n"/>
+      <c r="B63" s="6" t="n"/>
+      <c r="C63" s="6" t="n"/>
       <c r="D63" s="1" t="n"/>
       <c r="E63" s="1" t="n"/>
       <c r="F63" s="1" t="n"/>
@@ -9256,8 +9251,8 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n"/>
-      <c r="B64" s="1" t="n"/>
-      <c r="C64" s="1" t="n"/>
+      <c r="B64" s="6" t="n"/>
+      <c r="C64" s="6" t="n"/>
       <c r="D64" s="1" t="n"/>
       <c r="E64" s="1" t="n"/>
       <c r="F64" s="1" t="n"/>
@@ -9308,8 +9303,8 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n"/>
-      <c r="B65" s="1" t="n"/>
-      <c r="C65" s="1" t="n"/>
+      <c r="B65" s="6" t="n"/>
+      <c r="C65" s="6" t="n"/>
       <c r="D65" s="1" t="n"/>
       <c r="E65" s="1" t="n"/>
       <c r="F65" s="1" t="n"/>
@@ -9360,8 +9355,8 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n"/>
-      <c r="B66" s="1" t="n"/>
-      <c r="C66" s="1" t="n"/>
+      <c r="B66" s="6" t="n"/>
+      <c r="C66" s="6" t="n"/>
       <c r="D66" s="1" t="n"/>
       <c r="E66" s="1" t="n"/>
       <c r="F66" s="1" t="n"/>
@@ -9412,8 +9407,8 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n"/>
-      <c r="B67" s="1" t="n"/>
-      <c r="C67" s="1" t="n"/>
+      <c r="B67" s="6" t="n"/>
+      <c r="C67" s="6" t="n"/>
       <c r="D67" s="1" t="n"/>
       <c r="E67" s="1" t="n"/>
       <c r="F67" s="1" t="n"/>
@@ -9464,8 +9459,8 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n"/>
-      <c r="B68" s="1" t="n"/>
-      <c r="C68" s="1" t="n"/>
+      <c r="B68" s="6" t="n"/>
+      <c r="C68" s="6" t="n"/>
       <c r="D68" s="1" t="n"/>
       <c r="E68" s="1" t="n"/>
       <c r="F68" s="1" t="n"/>
@@ -9516,8 +9511,8 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n"/>
-      <c r="B69" s="1" t="n"/>
-      <c r="C69" s="1" t="n"/>
+      <c r="B69" s="6" t="n"/>
+      <c r="C69" s="6" t="n"/>
       <c r="D69" s="1" t="n"/>
       <c r="E69" s="1" t="n"/>
       <c r="F69" s="1" t="n"/>
@@ -9568,8 +9563,8 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n"/>
-      <c r="B70" s="1" t="n"/>
-      <c r="C70" s="1" t="n"/>
+      <c r="B70" s="6" t="n"/>
+      <c r="C70" s="6" t="n"/>
       <c r="D70" s="1" t="n"/>
       <c r="E70" s="1" t="n"/>
       <c r="F70" s="1" t="n"/>
@@ -9620,8 +9615,8 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n"/>
-      <c r="B71" s="1" t="n"/>
-      <c r="C71" s="1" t="n"/>
+      <c r="B71" s="6" t="n"/>
+      <c r="C71" s="6" t="n"/>
       <c r="D71" s="1" t="n"/>
       <c r="E71" s="1" t="n"/>
       <c r="F71" s="1" t="n"/>
@@ -9672,8 +9667,8 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n"/>
-      <c r="B72" s="1" t="n"/>
-      <c r="C72" s="1" t="n"/>
+      <c r="B72" s="6" t="n"/>
+      <c r="C72" s="6" t="n"/>
       <c r="D72" s="1" t="n"/>
       <c r="E72" s="1" t="n"/>
       <c r="F72" s="1" t="n"/>
@@ -9724,8 +9719,8 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n"/>
-      <c r="B73" s="1" t="n"/>
-      <c r="C73" s="1" t="n"/>
+      <c r="B73" s="6" t="n"/>
+      <c r="C73" s="6" t="n"/>
       <c r="D73" s="1" t="n"/>
       <c r="E73" s="1" t="n"/>
       <c r="F73" s="1" t="n"/>
@@ -9776,8 +9771,8 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n"/>
-      <c r="B74" s="1" t="n"/>
-      <c r="C74" s="1" t="n"/>
+      <c r="B74" s="6" t="n"/>
+      <c r="C74" s="6" t="n"/>
       <c r="D74" s="1" t="n"/>
       <c r="E74" s="1" t="n"/>
       <c r="F74" s="1" t="n"/>
@@ -9828,8 +9823,8 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n"/>
-      <c r="B75" s="1" t="n"/>
-      <c r="C75" s="1" t="n"/>
+      <c r="B75" s="6" t="n"/>
+      <c r="C75" s="6" t="n"/>
       <c r="D75" s="1" t="n"/>
       <c r="E75" s="1" t="n"/>
       <c r="F75" s="1" t="n"/>
@@ -9880,8 +9875,8 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n"/>
-      <c r="B76" s="1" t="n"/>
-      <c r="C76" s="1" t="n"/>
+      <c r="B76" s="6" t="n"/>
+      <c r="C76" s="6" t="n"/>
       <c r="D76" s="1" t="n"/>
       <c r="E76" s="1" t="n"/>
       <c r="F76" s="1" t="n"/>
@@ -9932,8 +9927,8 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n"/>
-      <c r="B77" s="1" t="n"/>
-      <c r="C77" s="1" t="n"/>
+      <c r="B77" s="6" t="n"/>
+      <c r="C77" s="6" t="n"/>
       <c r="D77" s="1" t="n"/>
       <c r="E77" s="1" t="n"/>
       <c r="F77" s="1" t="n"/>
@@ -9984,8 +9979,8 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n"/>
-      <c r="B78" s="1" t="n"/>
-      <c r="C78" s="1" t="n"/>
+      <c r="B78" s="6" t="n"/>
+      <c r="C78" s="6" t="n"/>
       <c r="D78" s="1" t="n"/>
       <c r="E78" s="1" t="n"/>
       <c r="F78" s="1" t="n"/>
@@ -10036,8 +10031,8 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n"/>
-      <c r="B79" s="1" t="n"/>
-      <c r="C79" s="1" t="n"/>
+      <c r="B79" s="6" t="n"/>
+      <c r="C79" s="6" t="n"/>
       <c r="D79" s="1" t="n"/>
       <c r="E79" s="1" t="n"/>
       <c r="F79" s="1" t="n"/>
@@ -10088,8 +10083,8 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n"/>
-      <c r="B80" s="1" t="n"/>
-      <c r="C80" s="1" t="n"/>
+      <c r="B80" s="6" t="n"/>
+      <c r="C80" s="6" t="n"/>
       <c r="D80" s="1" t="n"/>
       <c r="E80" s="1" t="n"/>
       <c r="F80" s="1" t="n"/>
@@ -10140,8 +10135,8 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n"/>
-      <c r="B81" s="1" t="n"/>
-      <c r="C81" s="1" t="n"/>
+      <c r="B81" s="6" t="n"/>
+      <c r="C81" s="6" t="n"/>
       <c r="D81" s="1" t="n"/>
       <c r="E81" s="1" t="n"/>
       <c r="F81" s="1" t="n"/>
@@ -10192,8 +10187,8 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n"/>
-      <c r="B82" s="1" t="n"/>
-      <c r="C82" s="1" t="n"/>
+      <c r="B82" s="6" t="n"/>
+      <c r="C82" s="6" t="n"/>
       <c r="D82" s="1" t="n"/>
       <c r="E82" s="1" t="n"/>
       <c r="F82" s="1" t="n"/>
@@ -10244,8 +10239,8 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n"/>
-      <c r="B83" s="1" t="n"/>
-      <c r="C83" s="1" t="n"/>
+      <c r="B83" s="6" t="n"/>
+      <c r="C83" s="6" t="n"/>
       <c r="D83" s="1" t="n"/>
       <c r="E83" s="1" t="n"/>
       <c r="F83" s="1" t="n"/>
@@ -10296,8 +10291,8 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n"/>
-      <c r="B84" s="1" t="n"/>
-      <c r="C84" s="1" t="n"/>
+      <c r="B84" s="6" t="n"/>
+      <c r="C84" s="6" t="n"/>
       <c r="D84" s="1" t="n"/>
       <c r="E84" s="1" t="n"/>
       <c r="F84" s="1" t="n"/>
@@ -10348,8 +10343,8 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n"/>
-      <c r="B85" s="1" t="n"/>
-      <c r="C85" s="1" t="n"/>
+      <c r="B85" s="6" t="n"/>
+      <c r="C85" s="6" t="n"/>
       <c r="D85" s="1" t="n"/>
       <c r="E85" s="1" t="n"/>
       <c r="F85" s="1" t="n"/>
@@ -10400,8 +10395,8 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n"/>
-      <c r="B86" s="1" t="n"/>
-      <c r="C86" s="1" t="n"/>
+      <c r="B86" s="6" t="n"/>
+      <c r="C86" s="6" t="n"/>
       <c r="D86" s="1" t="n"/>
       <c r="E86" s="1" t="n"/>
       <c r="F86" s="1" t="n"/>
@@ -10452,8 +10447,8 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n"/>
-      <c r="B87" s="1" t="n"/>
-      <c r="C87" s="1" t="n"/>
+      <c r="B87" s="6" t="n"/>
+      <c r="C87" s="6" t="n"/>
       <c r="D87" s="1" t="n"/>
       <c r="E87" s="1" t="n"/>
       <c r="F87" s="1" t="n"/>
@@ -10504,8 +10499,8 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n"/>
-      <c r="B88" s="1" t="n"/>
-      <c r="C88" s="1" t="n"/>
+      <c r="B88" s="6" t="n"/>
+      <c r="C88" s="6" t="n"/>
       <c r="D88" s="1" t="n"/>
       <c r="E88" s="1" t="n"/>
       <c r="F88" s="1" t="n"/>
@@ -10556,8 +10551,8 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n"/>
-      <c r="B89" s="1" t="n"/>
-      <c r="C89" s="1" t="n"/>
+      <c r="B89" s="6" t="n"/>
+      <c r="C89" s="6" t="n"/>
       <c r="D89" s="1" t="n"/>
       <c r="E89" s="1" t="n"/>
       <c r="F89" s="1" t="n"/>
@@ -10608,8 +10603,8 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n"/>
-      <c r="B90" s="1" t="n"/>
-      <c r="C90" s="1" t="n"/>
+      <c r="B90" s="6" t="n"/>
+      <c r="C90" s="6" t="n"/>
       <c r="D90" s="1" t="n"/>
       <c r="E90" s="1" t="n"/>
       <c r="F90" s="1" t="n"/>
@@ -10660,8 +10655,8 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n"/>
-      <c r="B91" s="1" t="n"/>
-      <c r="C91" s="1" t="n"/>
+      <c r="B91" s="6" t="n"/>
+      <c r="C91" s="6" t="n"/>
       <c r="D91" s="1" t="n"/>
       <c r="E91" s="1" t="n"/>
       <c r="F91" s="1" t="n"/>
@@ -10712,8 +10707,8 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n"/>
-      <c r="B92" s="1" t="n"/>
-      <c r="C92" s="1" t="n"/>
+      <c r="B92" s="6" t="n"/>
+      <c r="C92" s="6" t="n"/>
       <c r="D92" s="1" t="n"/>
       <c r="E92" s="1" t="n"/>
       <c r="F92" s="1" t="n"/>
@@ -10764,8 +10759,8 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n"/>
-      <c r="B93" s="1" t="n"/>
-      <c r="C93" s="1" t="n"/>
+      <c r="B93" s="6" t="n"/>
+      <c r="C93" s="6" t="n"/>
       <c r="D93" s="1" t="n"/>
       <c r="E93" s="1" t="n"/>
       <c r="F93" s="1" t="n"/>
@@ -10816,8 +10811,8 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n"/>
-      <c r="B94" s="1" t="n"/>
-      <c r="C94" s="1" t="n"/>
+      <c r="B94" s="6" t="n"/>
+      <c r="C94" s="6" t="n"/>
       <c r="D94" s="1" t="n"/>
       <c r="E94" s="1" t="n"/>
       <c r="F94" s="1" t="n"/>
@@ -10868,8 +10863,8 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n"/>
-      <c r="B95" s="1" t="n"/>
-      <c r="C95" s="1" t="n"/>
+      <c r="B95" s="6" t="n"/>
+      <c r="C95" s="6" t="n"/>
       <c r="D95" s="1" t="n"/>
       <c r="E95" s="1" t="n"/>
       <c r="F95" s="1" t="n"/>
@@ -10920,8 +10915,8 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n"/>
-      <c r="B96" s="1" t="n"/>
-      <c r="C96" s="1" t="n"/>
+      <c r="B96" s="6" t="n"/>
+      <c r="C96" s="6" t="n"/>
       <c r="D96" s="1" t="n"/>
       <c r="E96" s="1" t="n"/>
       <c r="F96" s="1" t="n"/>
@@ -10972,8 +10967,8 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n"/>
-      <c r="B97" s="1" t="n"/>
-      <c r="C97" s="1" t="n"/>
+      <c r="B97" s="6" t="n"/>
+      <c r="C97" s="6" t="n"/>
       <c r="D97" s="1" t="n"/>
       <c r="E97" s="1" t="n"/>
       <c r="F97" s="1" t="n"/>
@@ -11024,8 +11019,8 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n"/>
-      <c r="B98" s="1" t="n"/>
-      <c r="C98" s="1" t="n"/>
+      <c r="B98" s="6" t="n"/>
+      <c r="C98" s="6" t="n"/>
       <c r="D98" s="1" t="n"/>
       <c r="E98" s="1" t="n"/>
       <c r="F98" s="1" t="n"/>
@@ -11076,8 +11071,8 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n"/>
-      <c r="B99" s="1" t="n"/>
-      <c r="C99" s="1" t="n"/>
+      <c r="B99" s="6" t="n"/>
+      <c r="C99" s="6" t="n"/>
       <c r="D99" s="1" t="n"/>
       <c r="E99" s="1" t="n"/>
       <c r="F99" s="1" t="n"/>
@@ -11128,8 +11123,8 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n"/>
-      <c r="B100" s="1" t="n"/>
-      <c r="C100" s="1" t="n"/>
+      <c r="B100" s="6" t="n"/>
+      <c r="C100" s="6" t="n"/>
       <c r="D100" s="1" t="n"/>
       <c r="E100" s="1" t="n"/>
       <c r="F100" s="1" t="n"/>

--- a/chronogram.xlsx
+++ b/chronogram.xlsx
@@ -97,7 +97,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -123,6 +123,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -6151,22 +6154,22 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
-      <c r="B5" s="10" t="inlineStr">
+      <c r="B5" s="13" t="inlineStr">
         <is>
           <t>Task 1</t>
         </is>
       </c>
-      <c r="C5" s="10" t="inlineStr">
+      <c r="C5" s="13" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="D5" s="11" t="inlineStr">
+      <c r="D5" s="8" t="inlineStr">
         <is>
           <t>20-Dec</t>
         </is>
       </c>
-      <c r="E5" s="11" t="inlineStr">
+      <c r="E5" s="8" t="inlineStr">
         <is>
           <t>02-Jan</t>
         </is>
@@ -6323,22 +6326,22 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
-      <c r="B8" s="10" t="inlineStr">
+      <c r="B8" s="13" t="inlineStr">
         <is>
           <t>Task 2</t>
         </is>
       </c>
-      <c r="C8" s="10" t="inlineStr">
+      <c r="C8" s="13" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="D8" s="11" t="inlineStr">
+      <c r="D8" s="8" t="inlineStr">
         <is>
           <t>03-Jan</t>
         </is>
       </c>
-      <c r="E8" s="11" t="inlineStr">
+      <c r="E8" s="8" t="inlineStr">
         <is>
           <t>16-Jan</t>
         </is>

--- a/chronogram.xlsx
+++ b/chronogram.xlsx
@@ -505,16 +505,6 @@
     <col width="12" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
     <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="20" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
-    <col width="20" customWidth="1" min="12" max="12"/>
-    <col width="20" customWidth="1" min="13" max="13"/>
-    <col width="20" customWidth="1" min="14" max="14"/>
-    <col width="20" customWidth="1" min="15" max="15"/>
-    <col width="20" customWidth="1" min="16" max="16"/>
-    <col width="20" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,16 +535,16 @@
         </is>
       </c>
       <c r="G1" s="4" t="n"/>
-      <c r="H1" s="4" t="n"/>
-      <c r="I1" s="4" t="n"/>
-      <c r="J1" s="4" t="n"/>
-      <c r="K1" s="4" t="n"/>
-      <c r="L1" s="4" t="n"/>
-      <c r="M1" s="4" t="n"/>
-      <c r="N1" s="4" t="n"/>
-      <c r="O1" s="4" t="n"/>
-      <c r="P1" s="4" t="n"/>
-      <c r="Q1" s="4" t="n"/>
+      <c r="H1" s="1" t="n"/>
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="n"/>
+      <c r="K1" s="1" t="n"/>
+      <c r="L1" s="1" t="n"/>
+      <c r="M1" s="1" t="n"/>
+      <c r="N1" s="1" t="n"/>
+      <c r="O1" s="1" t="n"/>
+      <c r="P1" s="1" t="n"/>
+      <c r="Q1" s="1" t="n"/>
       <c r="R1" s="1" t="n"/>
       <c r="S1" s="1" t="n"/>
       <c r="T1" s="1" t="n"/>
@@ -597,32 +587,20 @@
       <c r="E2" s="4" t="n"/>
       <c r="F2" s="5" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>December</t>
         </is>
       </c>
       <c r="G2" s="4" t="n"/>
-      <c r="H2" s="5" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
-      </c>
-      <c r="I2" s="4" t="n"/>
-      <c r="J2" s="4" t="n"/>
-      <c r="K2" s="4" t="n"/>
-      <c r="L2" s="5" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
-      </c>
-      <c r="M2" s="4" t="n"/>
-      <c r="N2" s="4" t="n"/>
-      <c r="O2" s="4" t="n"/>
-      <c r="P2" s="4" t="n"/>
-      <c r="Q2" s="5" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
-      </c>
+      <c r="H2" s="1" t="n"/>
+      <c r="I2" s="1" t="n"/>
+      <c r="J2" s="1" t="n"/>
+      <c r="K2" s="1" t="n"/>
+      <c r="L2" s="1" t="n"/>
+      <c r="M2" s="1" t="n"/>
+      <c r="N2" s="1" t="n"/>
+      <c r="O2" s="1" t="n"/>
+      <c r="P2" s="1" t="n"/>
+      <c r="Q2" s="1" t="n"/>
       <c r="R2" s="1" t="n"/>
       <c r="S2" s="1" t="n"/>
       <c r="T2" s="1" t="n"/>
@@ -665,64 +643,24 @@
       <c r="E3" s="4" t="n"/>
       <c r="F3" s="5" t="inlineStr">
         <is>
-          <t>20/May - 26/May</t>
+          <t>20/Dec - 26/Dec</t>
         </is>
       </c>
       <c r="G3" s="5" t="inlineStr">
         <is>
-          <t>27/May - 02/Jun</t>
+          <t>27/Dec - 02/Jan</t>
         </is>
       </c>
-      <c r="H3" s="5" t="inlineStr">
-        <is>
-          <t>03/Jun - 09/Jun</t>
-        </is>
-      </c>
-      <c r="I3" s="5" t="inlineStr">
-        <is>
-          <t>10/Jun - 16/Jun</t>
-        </is>
-      </c>
-      <c r="J3" s="5" t="inlineStr">
-        <is>
-          <t>17/Jun - 23/Jun</t>
-        </is>
-      </c>
-      <c r="K3" s="5" t="inlineStr">
-        <is>
-          <t>24/Jun - 30/Jun</t>
-        </is>
-      </c>
-      <c r="L3" s="5" t="inlineStr">
-        <is>
-          <t>01/Jul - 07/Jul</t>
-        </is>
-      </c>
-      <c r="M3" s="5" t="inlineStr">
-        <is>
-          <t>08/Jul - 14/Jul</t>
-        </is>
-      </c>
-      <c r="N3" s="5" t="inlineStr">
-        <is>
-          <t>15/Jul - 21/Jul</t>
-        </is>
-      </c>
-      <c r="O3" s="5" t="inlineStr">
-        <is>
-          <t>22/Jul - 28/Jul</t>
-        </is>
-      </c>
-      <c r="P3" s="5" t="inlineStr">
-        <is>
-          <t>29/Jul - 04/Aug</t>
-        </is>
-      </c>
-      <c r="Q3" s="5" t="inlineStr">
-        <is>
-          <t>05/Aug - 11/Aug</t>
-        </is>
-      </c>
+      <c r="H3" s="1" t="n"/>
+      <c r="I3" s="1" t="n"/>
+      <c r="J3" s="1" t="n"/>
+      <c r="K3" s="1" t="n"/>
+      <c r="L3" s="1" t="n"/>
+      <c r="M3" s="1" t="n"/>
+      <c r="N3" s="1" t="n"/>
+      <c r="O3" s="1" t="n"/>
+      <c r="P3" s="1" t="n"/>
+      <c r="Q3" s="1" t="n"/>
       <c r="R3" s="1" t="n"/>
       <c r="S3" s="1" t="n"/>
       <c r="T3" s="1" t="n"/>
@@ -818,17 +756,17 @@
       </c>
       <c r="C5" s="7" t="inlineStr">
         <is>
-          <t>Requirements Gathering</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>20-May</t>
+          <t>20-Dec</t>
         </is>
       </c>
       <c r="E5" s="8" t="inlineStr">
         <is>
-          <t>02-Jun</t>
+          <t>02-Jan</t>
         </is>
       </c>
       <c r="F5" s="9" t="n"/>
@@ -886,17 +824,17 @@
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>Initial Meeting</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D6" s="11" t="inlineStr">
         <is>
-          <t>20-May</t>
+          <t>20-Dec</t>
         </is>
       </c>
       <c r="E6" s="11" t="inlineStr">
         <is>
-          <t>26-May</t>
+          <t>26-Dec</t>
         </is>
       </c>
       <c r="F6" s="12" t="n"/>
@@ -954,21 +892,21 @@
       </c>
       <c r="C7" s="10" t="inlineStr">
         <is>
-          <t>Stakeholder Interviews</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D7" s="11" t="inlineStr">
         <is>
-          <t>20-May</t>
+          <t>27-Dec</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr">
         <is>
-          <t>26-May</t>
+          <t>02-Jan</t>
         </is>
       </c>
-      <c r="F7" s="12" t="n"/>
-      <c r="G7" s="1" t="n"/>
+      <c r="F7" s="1" t="n"/>
+      <c r="G7" s="12" t="n"/>
       <c r="H7" s="1" t="n"/>
       <c r="I7" s="1" t="n"/>
       <c r="J7" s="1" t="n"/>
@@ -1015,28 +953,12 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
-      <c r="B8" s="10" t="inlineStr">
-        <is>
-          <t>1.3</t>
-        </is>
-      </c>
-      <c r="C8" s="10" t="inlineStr">
-        <is>
-          <t>Requirements Documentation</t>
-        </is>
-      </c>
-      <c r="D8" s="11" t="inlineStr">
-        <is>
-          <t>20-May</t>
-        </is>
-      </c>
-      <c r="E8" s="11" t="inlineStr">
-        <is>
-          <t>02-Jun</t>
-        </is>
-      </c>
-      <c r="F8" s="12" t="n"/>
-      <c r="G8" s="12" t="n"/>
+      <c r="B8" s="6" t="n"/>
+      <c r="C8" s="6" t="n"/>
+      <c r="D8" s="1" t="n"/>
+      <c r="E8" s="1" t="n"/>
+      <c r="F8" s="1" t="n"/>
+      <c r="G8" s="1" t="n"/>
       <c r="H8" s="1" t="n"/>
       <c r="I8" s="1" t="n"/>
       <c r="J8" s="1" t="n"/>
@@ -1083,30 +1005,14 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>Task 2</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr">
-        <is>
-          <t>Design</t>
-        </is>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>03-Jun</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>16-Jun</t>
-        </is>
-      </c>
+      <c r="B9" s="6" t="n"/>
+      <c r="C9" s="6" t="n"/>
+      <c r="D9" s="1" t="n"/>
+      <c r="E9" s="1" t="n"/>
       <c r="F9" s="1" t="n"/>
       <c r="G9" s="1" t="n"/>
-      <c r="H9" s="9" t="n"/>
-      <c r="I9" s="9" t="n"/>
+      <c r="H9" s="1" t="n"/>
+      <c r="I9" s="1" t="n"/>
       <c r="J9" s="1" t="n"/>
       <c r="K9" s="1" t="n"/>
       <c r="L9" s="1" t="n"/>
@@ -1151,29 +1057,13 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
-      <c r="B10" s="10" t="inlineStr">
-        <is>
-          <t>2.1</t>
-        </is>
-      </c>
-      <c r="C10" s="10" t="inlineStr">
-        <is>
-          <t>System Architecture Design</t>
-        </is>
-      </c>
-      <c r="D10" s="11" t="inlineStr">
-        <is>
-          <t>03-Jun</t>
-        </is>
-      </c>
-      <c r="E10" s="11" t="inlineStr">
-        <is>
-          <t>09-Jun</t>
-        </is>
-      </c>
+      <c r="B10" s="6" t="n"/>
+      <c r="C10" s="6" t="n"/>
+      <c r="D10" s="1" t="n"/>
+      <c r="E10" s="1" t="n"/>
       <c r="F10" s="1" t="n"/>
       <c r="G10" s="1" t="n"/>
-      <c r="H10" s="12" t="n"/>
+      <c r="H10" s="1" t="n"/>
       <c r="I10" s="1" t="n"/>
       <c r="J10" s="1" t="n"/>
       <c r="K10" s="1" t="n"/>
@@ -1219,30 +1109,14 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
-      <c r="B11" s="10" t="inlineStr">
-        <is>
-          <t>2.2</t>
-        </is>
-      </c>
-      <c r="C11" s="10" t="inlineStr">
-        <is>
-          <t>Database Schema Design</t>
-        </is>
-      </c>
-      <c r="D11" s="11" t="inlineStr">
-        <is>
-          <t>03-Jun</t>
-        </is>
-      </c>
-      <c r="E11" s="11" t="inlineStr">
-        <is>
-          <t>16-Jun</t>
-        </is>
-      </c>
+      <c r="B11" s="6" t="n"/>
+      <c r="C11" s="6" t="n"/>
+      <c r="D11" s="1" t="n"/>
+      <c r="E11" s="1" t="n"/>
       <c r="F11" s="1" t="n"/>
       <c r="G11" s="1" t="n"/>
-      <c r="H11" s="12" t="n"/>
-      <c r="I11" s="12" t="n"/>
+      <c r="H11" s="1" t="n"/>
+      <c r="I11" s="1" t="n"/>
       <c r="J11" s="1" t="n"/>
       <c r="K11" s="1" t="n"/>
       <c r="L11" s="1" t="n"/>
@@ -1287,30 +1161,14 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
-      <c r="B12" s="10" t="inlineStr">
-        <is>
-          <t>2.3</t>
-        </is>
-      </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>UI/UX Design</t>
-        </is>
-      </c>
-      <c r="D12" s="11" t="inlineStr">
-        <is>
-          <t>10-Jun</t>
-        </is>
-      </c>
-      <c r="E12" s="11" t="inlineStr">
-        <is>
-          <t>16-Jun</t>
-        </is>
-      </c>
+      <c r="B12" s="6" t="n"/>
+      <c r="C12" s="6" t="n"/>
+      <c r="D12" s="1" t="n"/>
+      <c r="E12" s="1" t="n"/>
       <c r="F12" s="1" t="n"/>
       <c r="G12" s="1" t="n"/>
       <c r="H12" s="1" t="n"/>
-      <c r="I12" s="12" t="n"/>
+      <c r="I12" s="1" t="n"/>
       <c r="J12" s="1" t="n"/>
       <c r="K12" s="1" t="n"/>
       <c r="L12" s="1" t="n"/>
@@ -1355,33 +1213,17 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>Task 3</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="inlineStr">
-        <is>
-          <t>Development</t>
-        </is>
-      </c>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>17-Jun</t>
-        </is>
-      </c>
-      <c r="E13" s="8" t="inlineStr">
-        <is>
-          <t>07-Jul</t>
-        </is>
-      </c>
+      <c r="B13" s="6" t="n"/>
+      <c r="C13" s="6" t="n"/>
+      <c r="D13" s="1" t="n"/>
+      <c r="E13" s="1" t="n"/>
       <c r="F13" s="1" t="n"/>
       <c r="G13" s="1" t="n"/>
       <c r="H13" s="1" t="n"/>
       <c r="I13" s="1" t="n"/>
-      <c r="J13" s="9" t="n"/>
-      <c r="K13" s="9" t="n"/>
-      <c r="L13" s="9" t="n"/>
+      <c r="J13" s="1" t="n"/>
+      <c r="K13" s="1" t="n"/>
+      <c r="L13" s="1" t="n"/>
       <c r="M13" s="1" t="n"/>
       <c r="N13" s="1" t="n"/>
       <c r="O13" s="1" t="n"/>
@@ -1423,31 +1265,15 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
-      <c r="B14" s="10" t="inlineStr">
-        <is>
-          <t>3.1</t>
-        </is>
-      </c>
-      <c r="C14" s="10" t="inlineStr">
-        <is>
-          <t>Frontend Development</t>
-        </is>
-      </c>
-      <c r="D14" s="11" t="inlineStr">
-        <is>
-          <t>17-Jun</t>
-        </is>
-      </c>
-      <c r="E14" s="11" t="inlineStr">
-        <is>
-          <t>23-Jun</t>
-        </is>
-      </c>
+      <c r="B14" s="6" t="n"/>
+      <c r="C14" s="6" t="n"/>
+      <c r="D14" s="1" t="n"/>
+      <c r="E14" s="1" t="n"/>
       <c r="F14" s="1" t="n"/>
       <c r="G14" s="1" t="n"/>
       <c r="H14" s="1" t="n"/>
       <c r="I14" s="1" t="n"/>
-      <c r="J14" s="12" t="n"/>
+      <c r="J14" s="1" t="n"/>
       <c r="K14" s="1" t="n"/>
       <c r="L14" s="1" t="n"/>
       <c r="M14" s="1" t="n"/>
@@ -1491,33 +1317,17 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
-      <c r="B15" s="10" t="inlineStr">
-        <is>
-          <t>3.2</t>
-        </is>
-      </c>
-      <c r="C15" s="10" t="inlineStr">
-        <is>
-          <t>Backend Development</t>
-        </is>
-      </c>
-      <c r="D15" s="11" t="inlineStr">
-        <is>
-          <t>24-Jun</t>
-        </is>
-      </c>
-      <c r="E15" s="11" t="inlineStr">
-        <is>
-          <t>07-Jul</t>
-        </is>
-      </c>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="6" t="n"/>
+      <c r="D15" s="1" t="n"/>
+      <c r="E15" s="1" t="n"/>
       <c r="F15" s="1" t="n"/>
       <c r="G15" s="1" t="n"/>
       <c r="H15" s="1" t="n"/>
       <c r="I15" s="1" t="n"/>
       <c r="J15" s="1" t="n"/>
-      <c r="K15" s="12" t="n"/>
-      <c r="L15" s="12" t="n"/>
+      <c r="K15" s="1" t="n"/>
+      <c r="L15" s="1" t="n"/>
       <c r="M15" s="1" t="n"/>
       <c r="N15" s="1" t="n"/>
       <c r="O15" s="1" t="n"/>
@@ -1559,33 +1369,17 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
-      <c r="B16" s="10" t="inlineStr">
-        <is>
-          <t>3.3</t>
-        </is>
-      </c>
-      <c r="C16" s="10" t="inlineStr">
-        <is>
-          <t>Integration</t>
-        </is>
-      </c>
-      <c r="D16" s="11" t="inlineStr">
-        <is>
-          <t>01-Jul</t>
-        </is>
-      </c>
-      <c r="E16" s="11" t="inlineStr">
-        <is>
-          <t>07-Jul</t>
-        </is>
-      </c>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="6" t="n"/>
+      <c r="D16" s="1" t="n"/>
+      <c r="E16" s="1" t="n"/>
       <c r="F16" s="1" t="n"/>
       <c r="G16" s="1" t="n"/>
       <c r="H16" s="1" t="n"/>
       <c r="I16" s="1" t="n"/>
       <c r="J16" s="1" t="n"/>
       <c r="K16" s="1" t="n"/>
-      <c r="L16" s="12" t="n"/>
+      <c r="L16" s="1" t="n"/>
       <c r="M16" s="1" t="n"/>
       <c r="N16" s="1" t="n"/>
       <c r="O16" s="1" t="n"/>
@@ -1627,26 +1421,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
-      <c r="B17" s="7" t="inlineStr">
-        <is>
-          <t>Task 4</t>
-        </is>
-      </c>
-      <c r="C17" s="7" t="inlineStr">
-        <is>
-          <t>Testing</t>
-        </is>
-      </c>
-      <c r="D17" s="8" t="inlineStr">
-        <is>
-          <t>08-Jul</t>
-        </is>
-      </c>
-      <c r="E17" s="8" t="inlineStr">
-        <is>
-          <t>21-Jul</t>
-        </is>
-      </c>
+      <c r="B17" s="6" t="n"/>
+      <c r="C17" s="6" t="n"/>
+      <c r="D17" s="1" t="n"/>
+      <c r="E17" s="1" t="n"/>
       <c r="F17" s="1" t="n"/>
       <c r="G17" s="1" t="n"/>
       <c r="H17" s="1" t="n"/>
@@ -1654,8 +1432,8 @@
       <c r="J17" s="1" t="n"/>
       <c r="K17" s="1" t="n"/>
       <c r="L17" s="1" t="n"/>
-      <c r="M17" s="9" t="n"/>
-      <c r="N17" s="9" t="n"/>
+      <c r="M17" s="1" t="n"/>
+      <c r="N17" s="1" t="n"/>
       <c r="O17" s="1" t="n"/>
       <c r="P17" s="1" t="n"/>
       <c r="Q17" s="1" t="n"/>
@@ -1695,26 +1473,10 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
-      <c r="B18" s="10" t="inlineStr">
-        <is>
-          <t>4.1</t>
-        </is>
-      </c>
-      <c r="C18" s="10" t="inlineStr">
-        <is>
-          <t>Unit Testing</t>
-        </is>
-      </c>
-      <c r="D18" s="11" t="inlineStr">
-        <is>
-          <t>08-Jul</t>
-        </is>
-      </c>
-      <c r="E18" s="11" t="inlineStr">
-        <is>
-          <t>14-Jul</t>
-        </is>
-      </c>
+      <c r="B18" s="6" t="n"/>
+      <c r="C18" s="6" t="n"/>
+      <c r="D18" s="1" t="n"/>
+      <c r="E18" s="1" t="n"/>
       <c r="F18" s="1" t="n"/>
       <c r="G18" s="1" t="n"/>
       <c r="H18" s="1" t="n"/>
@@ -1722,7 +1484,7 @@
       <c r="J18" s="1" t="n"/>
       <c r="K18" s="1" t="n"/>
       <c r="L18" s="1" t="n"/>
-      <c r="M18" s="12" t="n"/>
+      <c r="M18" s="1" t="n"/>
       <c r="N18" s="1" t="n"/>
       <c r="O18" s="1" t="n"/>
       <c r="P18" s="1" t="n"/>
@@ -1763,26 +1525,10 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
-      <c r="B19" s="10" t="inlineStr">
-        <is>
-          <t>4.2</t>
-        </is>
-      </c>
-      <c r="C19" s="10" t="inlineStr">
-        <is>
-          <t>Integration Testing</t>
-        </is>
-      </c>
-      <c r="D19" s="11" t="inlineStr">
-        <is>
-          <t>08-Jul</t>
-        </is>
-      </c>
-      <c r="E19" s="11" t="inlineStr">
-        <is>
-          <t>21-Jul</t>
-        </is>
-      </c>
+      <c r="B19" s="6" t="n"/>
+      <c r="C19" s="6" t="n"/>
+      <c r="D19" s="1" t="n"/>
+      <c r="E19" s="1" t="n"/>
       <c r="F19" s="1" t="n"/>
       <c r="G19" s="1" t="n"/>
       <c r="H19" s="1" t="n"/>
@@ -1790,8 +1536,8 @@
       <c r="J19" s="1" t="n"/>
       <c r="K19" s="1" t="n"/>
       <c r="L19" s="1" t="n"/>
-      <c r="M19" s="12" t="n"/>
-      <c r="N19" s="12" t="n"/>
+      <c r="M19" s="1" t="n"/>
+      <c r="N19" s="1" t="n"/>
       <c r="O19" s="1" t="n"/>
       <c r="P19" s="1" t="n"/>
       <c r="Q19" s="1" t="n"/>
@@ -1831,26 +1577,10 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
-      <c r="B20" s="10" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
-      </c>
-      <c r="C20" s="10" t="inlineStr">
-        <is>
-          <t>User Acceptance Testing</t>
-        </is>
-      </c>
-      <c r="D20" s="11" t="inlineStr">
-        <is>
-          <t>15-Jul</t>
-        </is>
-      </c>
-      <c r="E20" s="11" t="inlineStr">
-        <is>
-          <t>21-Jul</t>
-        </is>
-      </c>
+      <c r="B20" s="6" t="n"/>
+      <c r="C20" s="6" t="n"/>
+      <c r="D20" s="1" t="n"/>
+      <c r="E20" s="1" t="n"/>
       <c r="F20" s="1" t="n"/>
       <c r="G20" s="1" t="n"/>
       <c r="H20" s="1" t="n"/>
@@ -1859,7 +1589,7 @@
       <c r="K20" s="1" t="n"/>
       <c r="L20" s="1" t="n"/>
       <c r="M20" s="1" t="n"/>
-      <c r="N20" s="12" t="n"/>
+      <c r="N20" s="1" t="n"/>
       <c r="O20" s="1" t="n"/>
       <c r="P20" s="1" t="n"/>
       <c r="Q20" s="1" t="n"/>
@@ -1899,26 +1629,10 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
-      <c r="B21" s="7" t="inlineStr">
-        <is>
-          <t>Task 5</t>
-        </is>
-      </c>
-      <c r="C21" s="7" t="inlineStr">
-        <is>
-          <t>Deployment</t>
-        </is>
-      </c>
-      <c r="D21" s="8" t="inlineStr">
-        <is>
-          <t>22-Jul</t>
-        </is>
-      </c>
-      <c r="E21" s="8" t="inlineStr">
-        <is>
-          <t>28-Jul</t>
-        </is>
-      </c>
+      <c r="B21" s="6" t="n"/>
+      <c r="C21" s="6" t="n"/>
+      <c r="D21" s="1" t="n"/>
+      <c r="E21" s="1" t="n"/>
       <c r="F21" s="1" t="n"/>
       <c r="G21" s="1" t="n"/>
       <c r="H21" s="1" t="n"/>
@@ -1928,7 +1642,7 @@
       <c r="L21" s="1" t="n"/>
       <c r="M21" s="1" t="n"/>
       <c r="N21" s="1" t="n"/>
-      <c r="O21" s="9" t="n"/>
+      <c r="O21" s="1" t="n"/>
       <c r="P21" s="1" t="n"/>
       <c r="Q21" s="1" t="n"/>
       <c r="R21" s="1" t="n"/>
@@ -1967,26 +1681,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
-      <c r="B22" s="10" t="inlineStr">
-        <is>
-          <t>5.1</t>
-        </is>
-      </c>
-      <c r="C22" s="10" t="inlineStr">
-        <is>
-          <t>Prepare Deployment Environment</t>
-        </is>
-      </c>
-      <c r="D22" s="11" t="inlineStr">
-        <is>
-          <t>22-Jul</t>
-        </is>
-      </c>
-      <c r="E22" s="11" t="inlineStr">
-        <is>
-          <t>28-Jul</t>
-        </is>
-      </c>
+      <c r="B22" s="6" t="n"/>
+      <c r="C22" s="6" t="n"/>
+      <c r="D22" s="1" t="n"/>
+      <c r="E22" s="1" t="n"/>
       <c r="F22" s="1" t="n"/>
       <c r="G22" s="1" t="n"/>
       <c r="H22" s="1" t="n"/>
@@ -1996,7 +1694,7 @@
       <c r="L22" s="1" t="n"/>
       <c r="M22" s="1" t="n"/>
       <c r="N22" s="1" t="n"/>
-      <c r="O22" s="12" t="n"/>
+      <c r="O22" s="1" t="n"/>
       <c r="P22" s="1" t="n"/>
       <c r="Q22" s="1" t="n"/>
       <c r="R22" s="1" t="n"/>
@@ -2035,26 +1733,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
-      <c r="B23" s="10" t="inlineStr">
-        <is>
-          <t>5.2</t>
-        </is>
-      </c>
-      <c r="C23" s="10" t="inlineStr">
-        <is>
-          <t>Deployment</t>
-        </is>
-      </c>
-      <c r="D23" s="11" t="inlineStr">
-        <is>
-          <t>22-Jul</t>
-        </is>
-      </c>
-      <c r="E23" s="11" t="inlineStr">
-        <is>
-          <t>28-Jul</t>
-        </is>
-      </c>
+      <c r="B23" s="6" t="n"/>
+      <c r="C23" s="6" t="n"/>
+      <c r="D23" s="1" t="n"/>
+      <c r="E23" s="1" t="n"/>
       <c r="F23" s="1" t="n"/>
       <c r="G23" s="1" t="n"/>
       <c r="H23" s="1" t="n"/>
@@ -2064,7 +1746,7 @@
       <c r="L23" s="1" t="n"/>
       <c r="M23" s="1" t="n"/>
       <c r="N23" s="1" t="n"/>
-      <c r="O23" s="12" t="n"/>
+      <c r="O23" s="1" t="n"/>
       <c r="P23" s="1" t="n"/>
       <c r="Q23" s="1" t="n"/>
       <c r="R23" s="1" t="n"/>
@@ -2103,26 +1785,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
-      <c r="B24" s="10" t="inlineStr">
-        <is>
-          <t>5.3</t>
-        </is>
-      </c>
-      <c r="C24" s="10" t="inlineStr">
-        <is>
-          <t>Post-Deployment Verification</t>
-        </is>
-      </c>
-      <c r="D24" s="11" t="inlineStr">
-        <is>
-          <t>22-Jul</t>
-        </is>
-      </c>
-      <c r="E24" s="11" t="inlineStr">
-        <is>
-          <t>28-Jul</t>
-        </is>
-      </c>
+      <c r="B24" s="6" t="n"/>
+      <c r="C24" s="6" t="n"/>
+      <c r="D24" s="1" t="n"/>
+      <c r="E24" s="1" t="n"/>
       <c r="F24" s="1" t="n"/>
       <c r="G24" s="1" t="n"/>
       <c r="H24" s="1" t="n"/>
@@ -2132,7 +1798,7 @@
       <c r="L24" s="1" t="n"/>
       <c r="M24" s="1" t="n"/>
       <c r="N24" s="1" t="n"/>
-      <c r="O24" s="12" t="n"/>
+      <c r="O24" s="1" t="n"/>
       <c r="P24" s="1" t="n"/>
       <c r="Q24" s="1" t="n"/>
       <c r="R24" s="1" t="n"/>
@@ -2171,26 +1837,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
-      <c r="B25" s="7" t="inlineStr">
-        <is>
-          <t>Task 6</t>
-        </is>
-      </c>
-      <c r="C25" s="7" t="inlineStr">
-        <is>
-          <t>Maintenance</t>
-        </is>
-      </c>
-      <c r="D25" s="8" t="inlineStr">
-        <is>
-          <t>29-Jul</t>
-        </is>
-      </c>
-      <c r="E25" s="8" t="inlineStr">
-        <is>
-          <t>11-Aug</t>
-        </is>
-      </c>
+      <c r="B25" s="6" t="n"/>
+      <c r="C25" s="6" t="n"/>
+      <c r="D25" s="1" t="n"/>
+      <c r="E25" s="1" t="n"/>
       <c r="F25" s="1" t="n"/>
       <c r="G25" s="1" t="n"/>
       <c r="H25" s="1" t="n"/>
@@ -2201,8 +1851,8 @@
       <c r="M25" s="1" t="n"/>
       <c r="N25" s="1" t="n"/>
       <c r="O25" s="1" t="n"/>
-      <c r="P25" s="9" t="n"/>
-      <c r="Q25" s="9" t="n"/>
+      <c r="P25" s="1" t="n"/>
+      <c r="Q25" s="1" t="n"/>
       <c r="R25" s="1" t="n"/>
       <c r="S25" s="1" t="n"/>
       <c r="T25" s="1" t="n"/>
@@ -2239,26 +1889,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
-      <c r="B26" s="10" t="inlineStr">
-        <is>
-          <t>6.1</t>
-        </is>
-      </c>
-      <c r="C26" s="10" t="inlineStr">
-        <is>
-          <t>Bug Fixing</t>
-        </is>
-      </c>
-      <c r="D26" s="11" t="inlineStr">
-        <is>
-          <t>29-Jul</t>
-        </is>
-      </c>
-      <c r="E26" s="11" t="inlineStr">
-        <is>
-          <t>04-Aug</t>
-        </is>
-      </c>
+      <c r="B26" s="6" t="n"/>
+      <c r="C26" s="6" t="n"/>
+      <c r="D26" s="1" t="n"/>
+      <c r="E26" s="1" t="n"/>
       <c r="F26" s="1" t="n"/>
       <c r="G26" s="1" t="n"/>
       <c r="H26" s="1" t="n"/>
@@ -2269,7 +1903,7 @@
       <c r="M26" s="1" t="n"/>
       <c r="N26" s="1" t="n"/>
       <c r="O26" s="1" t="n"/>
-      <c r="P26" s="12" t="n"/>
+      <c r="P26" s="1" t="n"/>
       <c r="Q26" s="1" t="n"/>
       <c r="R26" s="1" t="n"/>
       <c r="S26" s="1" t="n"/>
@@ -2307,26 +1941,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
-      <c r="B27" s="10" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
-      </c>
-      <c r="C27" s="10" t="inlineStr">
-        <is>
-          <t>Performance Tuning</t>
-        </is>
-      </c>
-      <c r="D27" s="11" t="inlineStr">
-        <is>
-          <t>29-Jul</t>
-        </is>
-      </c>
-      <c r="E27" s="11" t="inlineStr">
-        <is>
-          <t>04-Aug</t>
-        </is>
-      </c>
+      <c r="B27" s="6" t="n"/>
+      <c r="C27" s="6" t="n"/>
+      <c r="D27" s="1" t="n"/>
+      <c r="E27" s="1" t="n"/>
       <c r="F27" s="1" t="n"/>
       <c r="G27" s="1" t="n"/>
       <c r="H27" s="1" t="n"/>
@@ -2337,7 +1955,7 @@
       <c r="M27" s="1" t="n"/>
       <c r="N27" s="1" t="n"/>
       <c r="O27" s="1" t="n"/>
-      <c r="P27" s="12" t="n"/>
+      <c r="P27" s="1" t="n"/>
       <c r="Q27" s="1" t="n"/>
       <c r="R27" s="1" t="n"/>
       <c r="S27" s="1" t="n"/>
@@ -2375,26 +1993,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n"/>
-      <c r="B28" s="10" t="inlineStr">
-        <is>
-          <t>6.3</t>
-        </is>
-      </c>
-      <c r="C28" s="10" t="inlineStr">
-        <is>
-          <t>User Training</t>
-        </is>
-      </c>
-      <c r="D28" s="11" t="inlineStr">
-        <is>
-          <t>29-Jul</t>
-        </is>
-      </c>
-      <c r="E28" s="11" t="inlineStr">
-        <is>
-          <t>11-Aug</t>
-        </is>
-      </c>
+      <c r="B28" s="6" t="n"/>
+      <c r="C28" s="6" t="n"/>
+      <c r="D28" s="1" t="n"/>
+      <c r="E28" s="1" t="n"/>
       <c r="F28" s="1" t="n"/>
       <c r="G28" s="1" t="n"/>
       <c r="H28" s="1" t="n"/>
@@ -2405,8 +2007,8 @@
       <c r="M28" s="1" t="n"/>
       <c r="N28" s="1" t="n"/>
       <c r="O28" s="1" t="n"/>
-      <c r="P28" s="12" t="n"/>
-      <c r="Q28" s="12" t="n"/>
+      <c r="P28" s="1" t="n"/>
+      <c r="Q28" s="1" t="n"/>
       <c r="R28" s="1" t="n"/>
       <c r="S28" s="1" t="n"/>
       <c r="T28" s="1" t="n"/>
@@ -6186,28 +5788,15 @@
       <c r="AX100" s="1" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="B9"/>
-    <mergeCell ref="C17"/>
-    <mergeCell ref="Q2"/>
+  <mergeCells count="8">
     <mergeCell ref="B5"/>
-    <mergeCell ref="C13"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="D1:D3"/>
-    <mergeCell ref="B25"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="C5"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B21"/>
-    <mergeCell ref="C25"/>
-    <mergeCell ref="F1:Q1"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="C9"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="B17"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="B13"/>
-    <mergeCell ref="C21"/>
-    <mergeCell ref="H2:K2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6233,16 +5822,6 @@
     <col width="12" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
     <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="20" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
-    <col width="20" customWidth="1" min="12" max="12"/>
-    <col width="20" customWidth="1" min="13" max="13"/>
-    <col width="20" customWidth="1" min="14" max="14"/>
-    <col width="20" customWidth="1" min="15" max="15"/>
-    <col width="20" customWidth="1" min="16" max="16"/>
-    <col width="20" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6273,16 +5852,16 @@
         </is>
       </c>
       <c r="G1" s="4" t="n"/>
-      <c r="H1" s="4" t="n"/>
-      <c r="I1" s="4" t="n"/>
-      <c r="J1" s="4" t="n"/>
-      <c r="K1" s="4" t="n"/>
-      <c r="L1" s="4" t="n"/>
-      <c r="M1" s="4" t="n"/>
-      <c r="N1" s="4" t="n"/>
-      <c r="O1" s="4" t="n"/>
-      <c r="P1" s="4" t="n"/>
-      <c r="Q1" s="4" t="n"/>
+      <c r="H1" s="1" t="n"/>
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="n"/>
+      <c r="K1" s="1" t="n"/>
+      <c r="L1" s="1" t="n"/>
+      <c r="M1" s="1" t="n"/>
+      <c r="N1" s="1" t="n"/>
+      <c r="O1" s="1" t="n"/>
+      <c r="P1" s="1" t="n"/>
+      <c r="Q1" s="1" t="n"/>
       <c r="R1" s="1" t="n"/>
       <c r="S1" s="1" t="n"/>
       <c r="T1" s="1" t="n"/>
@@ -6325,32 +5904,20 @@
       <c r="E2" s="4" t="n"/>
       <c r="F2" s="5" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>December</t>
         </is>
       </c>
       <c r="G2" s="4" t="n"/>
-      <c r="H2" s="5" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
-      </c>
-      <c r="I2" s="4" t="n"/>
-      <c r="J2" s="4" t="n"/>
-      <c r="K2" s="4" t="n"/>
-      <c r="L2" s="5" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
-      </c>
-      <c r="M2" s="4" t="n"/>
-      <c r="N2" s="4" t="n"/>
-      <c r="O2" s="4" t="n"/>
-      <c r="P2" s="4" t="n"/>
-      <c r="Q2" s="5" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
-      </c>
+      <c r="H2" s="1" t="n"/>
+      <c r="I2" s="1" t="n"/>
+      <c r="J2" s="1" t="n"/>
+      <c r="K2" s="1" t="n"/>
+      <c r="L2" s="1" t="n"/>
+      <c r="M2" s="1" t="n"/>
+      <c r="N2" s="1" t="n"/>
+      <c r="O2" s="1" t="n"/>
+      <c r="P2" s="1" t="n"/>
+      <c r="Q2" s="1" t="n"/>
       <c r="R2" s="1" t="n"/>
       <c r="S2" s="1" t="n"/>
       <c r="T2" s="1" t="n"/>
@@ -6393,64 +5960,24 @@
       <c r="E3" s="4" t="n"/>
       <c r="F3" s="5" t="inlineStr">
         <is>
-          <t>20/May - 26/May</t>
+          <t>20/Dec - 26/Dec</t>
         </is>
       </c>
       <c r="G3" s="5" t="inlineStr">
         <is>
-          <t>27/May - 02/Jun</t>
+          <t>27/Dec - 02/Jan</t>
         </is>
       </c>
-      <c r="H3" s="5" t="inlineStr">
-        <is>
-          <t>03/Jun - 09/Jun</t>
-        </is>
-      </c>
-      <c r="I3" s="5" t="inlineStr">
-        <is>
-          <t>10/Jun - 16/Jun</t>
-        </is>
-      </c>
-      <c r="J3" s="5" t="inlineStr">
-        <is>
-          <t>17/Jun - 23/Jun</t>
-        </is>
-      </c>
-      <c r="K3" s="5" t="inlineStr">
-        <is>
-          <t>24/Jun - 30/Jun</t>
-        </is>
-      </c>
-      <c r="L3" s="5" t="inlineStr">
-        <is>
-          <t>01/Jul - 07/Jul</t>
-        </is>
-      </c>
-      <c r="M3" s="5" t="inlineStr">
-        <is>
-          <t>08/Jul - 14/Jul</t>
-        </is>
-      </c>
-      <c r="N3" s="5" t="inlineStr">
-        <is>
-          <t>15/Jul - 21/Jul</t>
-        </is>
-      </c>
-      <c r="O3" s="5" t="inlineStr">
-        <is>
-          <t>22/Jul - 28/Jul</t>
-        </is>
-      </c>
-      <c r="P3" s="5" t="inlineStr">
-        <is>
-          <t>29/Jul - 04/Aug</t>
-        </is>
-      </c>
-      <c r="Q3" s="5" t="inlineStr">
-        <is>
-          <t>05/Aug - 11/Aug</t>
-        </is>
-      </c>
+      <c r="H3" s="1" t="n"/>
+      <c r="I3" s="1" t="n"/>
+      <c r="J3" s="1" t="n"/>
+      <c r="K3" s="1" t="n"/>
+      <c r="L3" s="1" t="n"/>
+      <c r="M3" s="1" t="n"/>
+      <c r="N3" s="1" t="n"/>
+      <c r="O3" s="1" t="n"/>
+      <c r="P3" s="1" t="n"/>
+      <c r="Q3" s="1" t="n"/>
       <c r="R3" s="1" t="n"/>
       <c r="S3" s="1" t="n"/>
       <c r="T3" s="1" t="n"/>
@@ -6546,17 +6073,17 @@
       </c>
       <c r="C5" s="13" t="inlineStr">
         <is>
-          <t>Requirements Gathering</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>20-May</t>
+          <t>20-Dec</t>
         </is>
       </c>
       <c r="E5" s="8" t="inlineStr">
         <is>
-          <t>02-Jun</t>
+          <t>02-Jan</t>
         </is>
       </c>
       <c r="F5" s="9" t="n"/>
@@ -6763,30 +6290,14 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
-      <c r="B9" s="13" t="inlineStr">
-        <is>
-          <t>Task 2</t>
-        </is>
-      </c>
-      <c r="C9" s="13" t="inlineStr">
-        <is>
-          <t>Design</t>
-        </is>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>03-Jun</t>
-        </is>
-      </c>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>16-Jun</t>
-        </is>
-      </c>
+      <c r="B9" s="6" t="n"/>
+      <c r="C9" s="6" t="n"/>
+      <c r="D9" s="1" t="n"/>
+      <c r="E9" s="1" t="n"/>
       <c r="F9" s="1" t="n"/>
       <c r="G9" s="1" t="n"/>
-      <c r="H9" s="9" t="n"/>
-      <c r="I9" s="9" t="n"/>
+      <c r="H9" s="1" t="n"/>
+      <c r="I9" s="1" t="n"/>
       <c r="J9" s="1" t="n"/>
       <c r="K9" s="1" t="n"/>
       <c r="L9" s="1" t="n"/>
@@ -6987,33 +6498,17 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
-      <c r="B13" s="13" t="inlineStr">
-        <is>
-          <t>Task 3</t>
-        </is>
-      </c>
-      <c r="C13" s="13" t="inlineStr">
-        <is>
-          <t>Development</t>
-        </is>
-      </c>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>17-Jun</t>
-        </is>
-      </c>
-      <c r="E13" s="8" t="inlineStr">
-        <is>
-          <t>07-Jul</t>
-        </is>
-      </c>
+      <c r="B13" s="6" t="n"/>
+      <c r="C13" s="6" t="n"/>
+      <c r="D13" s="1" t="n"/>
+      <c r="E13" s="1" t="n"/>
       <c r="F13" s="1" t="n"/>
       <c r="G13" s="1" t="n"/>
       <c r="H13" s="1" t="n"/>
       <c r="I13" s="1" t="n"/>
-      <c r="J13" s="9" t="n"/>
-      <c r="K13" s="9" t="n"/>
-      <c r="L13" s="9" t="n"/>
+      <c r="J13" s="1" t="n"/>
+      <c r="K13" s="1" t="n"/>
+      <c r="L13" s="1" t="n"/>
       <c r="M13" s="1" t="n"/>
       <c r="N13" s="1" t="n"/>
       <c r="O13" s="1" t="n"/>
@@ -7211,26 +6706,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
-      <c r="B17" s="13" t="inlineStr">
-        <is>
-          <t>Task 4</t>
-        </is>
-      </c>
-      <c r="C17" s="13" t="inlineStr">
-        <is>
-          <t>Testing</t>
-        </is>
-      </c>
-      <c r="D17" s="8" t="inlineStr">
-        <is>
-          <t>08-Jul</t>
-        </is>
-      </c>
-      <c r="E17" s="8" t="inlineStr">
-        <is>
-          <t>21-Jul</t>
-        </is>
-      </c>
+      <c r="B17" s="6" t="n"/>
+      <c r="C17" s="6" t="n"/>
+      <c r="D17" s="1" t="n"/>
+      <c r="E17" s="1" t="n"/>
       <c r="F17" s="1" t="n"/>
       <c r="G17" s="1" t="n"/>
       <c r="H17" s="1" t="n"/>
@@ -7238,8 +6717,8 @@
       <c r="J17" s="1" t="n"/>
       <c r="K17" s="1" t="n"/>
       <c r="L17" s="1" t="n"/>
-      <c r="M17" s="9" t="n"/>
-      <c r="N17" s="9" t="n"/>
+      <c r="M17" s="1" t="n"/>
+      <c r="N17" s="1" t="n"/>
       <c r="O17" s="1" t="n"/>
       <c r="P17" s="1" t="n"/>
       <c r="Q17" s="1" t="n"/>
@@ -7435,26 +6914,10 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
-      <c r="B21" s="13" t="inlineStr">
-        <is>
-          <t>Task 5</t>
-        </is>
-      </c>
-      <c r="C21" s="13" t="inlineStr">
-        <is>
-          <t>Deployment</t>
-        </is>
-      </c>
-      <c r="D21" s="8" t="inlineStr">
-        <is>
-          <t>22-Jul</t>
-        </is>
-      </c>
-      <c r="E21" s="8" t="inlineStr">
-        <is>
-          <t>28-Jul</t>
-        </is>
-      </c>
+      <c r="B21" s="6" t="n"/>
+      <c r="C21" s="6" t="n"/>
+      <c r="D21" s="1" t="n"/>
+      <c r="E21" s="1" t="n"/>
       <c r="F21" s="1" t="n"/>
       <c r="G21" s="1" t="n"/>
       <c r="H21" s="1" t="n"/>
@@ -7464,7 +6927,7 @@
       <c r="L21" s="1" t="n"/>
       <c r="M21" s="1" t="n"/>
       <c r="N21" s="1" t="n"/>
-      <c r="O21" s="9" t="n"/>
+      <c r="O21" s="1" t="n"/>
       <c r="P21" s="1" t="n"/>
       <c r="Q21" s="1" t="n"/>
       <c r="R21" s="1" t="n"/>
@@ -7659,26 +7122,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
-      <c r="B25" s="13" t="inlineStr">
-        <is>
-          <t>Task 6</t>
-        </is>
-      </c>
-      <c r="C25" s="13" t="inlineStr">
-        <is>
-          <t>Maintenance</t>
-        </is>
-      </c>
-      <c r="D25" s="8" t="inlineStr">
-        <is>
-          <t>29-Jul</t>
-        </is>
-      </c>
-      <c r="E25" s="8" t="inlineStr">
-        <is>
-          <t>11-Aug</t>
-        </is>
-      </c>
+      <c r="B25" s="6" t="n"/>
+      <c r="C25" s="6" t="n"/>
+      <c r="D25" s="1" t="n"/>
+      <c r="E25" s="1" t="n"/>
       <c r="F25" s="1" t="n"/>
       <c r="G25" s="1" t="n"/>
       <c r="H25" s="1" t="n"/>
@@ -7689,8 +7136,8 @@
       <c r="M25" s="1" t="n"/>
       <c r="N25" s="1" t="n"/>
       <c r="O25" s="1" t="n"/>
-      <c r="P25" s="9" t="n"/>
-      <c r="Q25" s="9" t="n"/>
+      <c r="P25" s="1" t="n"/>
+      <c r="Q25" s="1" t="n"/>
       <c r="R25" s="1" t="n"/>
       <c r="S25" s="1" t="n"/>
       <c r="T25" s="1" t="n"/>
@@ -11626,16 +11073,13 @@
       <c r="AX100" s="1" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="6">
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="L2:P2"/>
     <mergeCell ref="C1:C3"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="F1:Q1"/>
-    <mergeCell ref="Q2"/>
     <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/chronogram.xlsx
+++ b/chronogram.xlsx
@@ -41,7 +41,7 @@
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -64,12 +64,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FFA500"/>
         <bgColor rgb="00FFA500"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0032a852"/>
-        <bgColor rgb="0032a852"/>
       </patternFill>
     </fill>
   </fills>
@@ -97,7 +91,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -116,16 +110,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -587,7 +579,7 @@
       <c r="E2" s="4" t="n"/>
       <c r="F2" s="5" t="inlineStr">
         <is>
-          <t>December</t>
+          <t>Month 1</t>
         </is>
       </c>
       <c r="G2" s="4" t="n"/>
@@ -643,12 +635,12 @@
       <c r="E3" s="4" t="n"/>
       <c r="F3" s="5" t="inlineStr">
         <is>
-          <t>20/Dec - 26/Dec</t>
+          <t>Week 1</t>
         </is>
       </c>
       <c r="G3" s="5" t="inlineStr">
         <is>
-          <t>27/Dec - 02/Jan</t>
+          <t>Week 2</t>
         </is>
       </c>
       <c r="H3" s="1" t="n"/>
@@ -759,18 +751,10 @@
           <t>M1</t>
         </is>
       </c>
-      <c r="D5" s="8" t="inlineStr">
-        <is>
-          <t>20-Dec</t>
-        </is>
-      </c>
-      <c r="E5" s="8" t="inlineStr">
-        <is>
-          <t>02-Jan</t>
-        </is>
-      </c>
-      <c r="F5" s="9" t="n"/>
-      <c r="G5" s="9" t="n"/>
+      <c r="D5" s="1" t="n"/>
+      <c r="E5" s="1" t="n"/>
+      <c r="F5" s="1" t="n"/>
+      <c r="G5" s="1" t="n"/>
       <c r="H5" s="1" t="n"/>
       <c r="I5" s="1" t="n"/>
       <c r="J5" s="1" t="n"/>
@@ -817,27 +801,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
-      <c r="B6" s="10" t="inlineStr">
+      <c r="B6" s="8" t="inlineStr">
         <is>
           <t>1.1</t>
         </is>
       </c>
-      <c r="C6" s="10" t="inlineStr">
+      <c r="C6" s="8" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="D6" s="11" t="inlineStr">
-        <is>
-          <t>20-Dec</t>
-        </is>
-      </c>
-      <c r="E6" s="11" t="inlineStr">
-        <is>
-          <t>26-Dec</t>
-        </is>
-      </c>
-      <c r="F6" s="12" t="n"/>
+      <c r="D6" s="1" t="n"/>
+      <c r="E6" s="1" t="n"/>
+      <c r="F6" s="9" t="n"/>
       <c r="G6" s="1" t="n"/>
       <c r="H6" s="1" t="n"/>
       <c r="I6" s="1" t="n"/>
@@ -885,28 +861,20 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
-      <c r="B7" s="10" t="inlineStr">
+      <c r="B7" s="8" t="inlineStr">
         <is>
           <t>1.2</t>
         </is>
       </c>
-      <c r="C7" s="10" t="inlineStr">
+      <c r="C7" s="8" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="D7" s="11" t="inlineStr">
-        <is>
-          <t>27-Dec</t>
-        </is>
-      </c>
-      <c r="E7" s="11" t="inlineStr">
-        <is>
-          <t>02-Jan</t>
-        </is>
-      </c>
+      <c r="D7" s="1" t="n"/>
+      <c r="E7" s="1" t="n"/>
       <c r="F7" s="1" t="n"/>
-      <c r="G7" s="12" t="n"/>
+      <c r="G7" s="9" t="n"/>
       <c r="H7" s="1" t="n"/>
       <c r="I7" s="1" t="n"/>
       <c r="J7" s="1" t="n"/>
@@ -5904,7 +5872,7 @@
       <c r="E2" s="4" t="n"/>
       <c r="F2" s="5" t="inlineStr">
         <is>
-          <t>December</t>
+          <t>Month 1</t>
         </is>
       </c>
       <c r="G2" s="4" t="n"/>
@@ -5960,12 +5928,12 @@
       <c r="E3" s="4" t="n"/>
       <c r="F3" s="5" t="inlineStr">
         <is>
-          <t>20/Dec - 26/Dec</t>
+          <t>Week 1</t>
         </is>
       </c>
       <c r="G3" s="5" t="inlineStr">
         <is>
-          <t>27/Dec - 02/Jan</t>
+          <t>Week 2</t>
         </is>
       </c>
       <c r="H3" s="1" t="n"/>
@@ -6066,28 +6034,20 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
-      <c r="B5" s="13" t="inlineStr">
+      <c r="B5" s="10" t="inlineStr">
         <is>
           <t>Task 1</t>
         </is>
       </c>
-      <c r="C5" s="13" t="inlineStr">
+      <c r="C5" s="10" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="D5" s="8" t="inlineStr">
-        <is>
-          <t>20-Dec</t>
-        </is>
-      </c>
-      <c r="E5" s="8" t="inlineStr">
-        <is>
-          <t>02-Jan</t>
-        </is>
-      </c>
-      <c r="F5" s="9" t="n"/>
-      <c r="G5" s="9" t="n"/>
+      <c r="D5" s="11" t="n"/>
+      <c r="E5" s="11" t="n"/>
+      <c r="F5" s="1" t="n"/>
+      <c r="G5" s="1" t="n"/>
       <c r="H5" s="1" t="n"/>
       <c r="I5" s="1" t="n"/>
       <c r="J5" s="1" t="n"/>

--- a/chronogram.xlsx
+++ b/chronogram.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Gantt Chart (weeks)" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Gantt Chart (months)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Project Schedule" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -41,7 +42,7 @@
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -64,6 +65,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FFA500"/>
         <bgColor rgb="00FFA500"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0032a852"/>
+        <bgColor rgb="0032a852"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0032CD32"/>
+        <bgColor rgb="0032CD32"/>
       </patternFill>
     </fill>
   </fills>
@@ -91,7 +104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -110,18 +123,56 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="00000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="0032CD32"/>
+          <bgColor rgb="0032CD32"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="00000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFF00"/>
+          <bgColor rgb="00FFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="00FFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FF0000"/>
+          <bgColor rgb="00FF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -497,6 +548,8 @@
     <col width="12" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
     <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -527,8 +580,12 @@
         </is>
       </c>
       <c r="G1" s="4" t="n"/>
-      <c r="H1" s="1" t="n"/>
-      <c r="I1" s="1" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="I1" s="4" t="n"/>
       <c r="J1" s="1" t="n"/>
       <c r="K1" s="1" t="n"/>
       <c r="L1" s="1" t="n"/>
@@ -579,12 +636,16 @@
       <c r="E2" s="4" t="n"/>
       <c r="F2" s="5" t="inlineStr">
         <is>
-          <t>Month 1</t>
+          <t>December</t>
         </is>
       </c>
       <c r="G2" s="4" t="n"/>
-      <c r="H2" s="1" t="n"/>
-      <c r="I2" s="1" t="n"/>
+      <c r="H2" s="5" t="inlineStr">
+        <is>
+          <t>January</t>
+        </is>
+      </c>
+      <c r="I2" s="4" t="n"/>
       <c r="J2" s="1" t="n"/>
       <c r="K2" s="1" t="n"/>
       <c r="L2" s="1" t="n"/>
@@ -635,16 +696,24 @@
       <c r="E3" s="4" t="n"/>
       <c r="F3" s="5" t="inlineStr">
         <is>
-          <t>Week 1</t>
+          <t>20/Dec - 26/Dec</t>
         </is>
       </c>
       <c r="G3" s="5" t="inlineStr">
         <is>
-          <t>Week 2</t>
+          <t>27/Dec - 02/Jan</t>
         </is>
       </c>
-      <c r="H3" s="1" t="n"/>
-      <c r="I3" s="1" t="n"/>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>03/Jan - 09/Jan</t>
+        </is>
+      </c>
+      <c r="I3" s="5" t="inlineStr">
+        <is>
+          <t>10/Jan - 16/Jan</t>
+        </is>
+      </c>
       <c r="J3" s="1" t="n"/>
       <c r="K3" s="1" t="n"/>
       <c r="L3" s="1" t="n"/>
@@ -751,10 +820,18 @@
           <t>M1</t>
         </is>
       </c>
-      <c r="D5" s="1" t="n"/>
-      <c r="E5" s="1" t="n"/>
-      <c r="F5" s="1" t="n"/>
-      <c r="G5" s="1" t="n"/>
+      <c r="D5" s="8" t="inlineStr">
+        <is>
+          <t>20-Dec</t>
+        </is>
+      </c>
+      <c r="E5" s="8" t="inlineStr">
+        <is>
+          <t>02-Jan</t>
+        </is>
+      </c>
+      <c r="F5" s="9" t="n"/>
+      <c r="G5" s="9" t="n"/>
       <c r="H5" s="1" t="n"/>
       <c r="I5" s="1" t="n"/>
       <c r="J5" s="1" t="n"/>
@@ -801,19 +878,27 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
-      <c r="B6" s="8" t="inlineStr">
+      <c r="B6" s="10" t="inlineStr">
         <is>
           <t>1.1</t>
         </is>
       </c>
-      <c r="C6" s="8" t="inlineStr">
+      <c r="C6" s="10" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="D6" s="1" t="n"/>
-      <c r="E6" s="1" t="n"/>
-      <c r="F6" s="9" t="n"/>
+      <c r="D6" s="11" t="inlineStr">
+        <is>
+          <t>20-Dec</t>
+        </is>
+      </c>
+      <c r="E6" s="11" t="inlineStr">
+        <is>
+          <t>26-Dec</t>
+        </is>
+      </c>
+      <c r="F6" s="12" t="n"/>
       <c r="G6" s="1" t="n"/>
       <c r="H6" s="1" t="n"/>
       <c r="I6" s="1" t="n"/>
@@ -861,20 +946,28 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
-      <c r="B7" s="8" t="inlineStr">
+      <c r="B7" s="10" t="inlineStr">
         <is>
           <t>1.2</t>
         </is>
       </c>
-      <c r="C7" s="8" t="inlineStr">
+      <c r="C7" s="10" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="D7" s="1" t="n"/>
-      <c r="E7" s="1" t="n"/>
+      <c r="D7" s="11" t="inlineStr">
+        <is>
+          <t>27-Dec</t>
+        </is>
+      </c>
+      <c r="E7" s="11" t="inlineStr">
+        <is>
+          <t>02-Jan</t>
+        </is>
+      </c>
       <c r="F7" s="1" t="n"/>
-      <c r="G7" s="9" t="n"/>
+      <c r="G7" s="12" t="n"/>
       <c r="H7" s="1" t="n"/>
       <c r="I7" s="1" t="n"/>
       <c r="J7" s="1" t="n"/>
@@ -921,14 +1014,5385 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
-      <c r="B8" s="6" t="n"/>
-      <c r="C8" s="6" t="n"/>
-      <c r="D8" s="1" t="n"/>
-      <c r="E8" s="1" t="n"/>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>Task 2</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>03-Jan</t>
+        </is>
+      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>16-Jan</t>
+        </is>
+      </c>
       <c r="F8" s="1" t="n"/>
       <c r="G8" s="1" t="n"/>
-      <c r="H8" s="1" t="n"/>
-      <c r="I8" s="1" t="n"/>
+      <c r="H8" s="9" t="n"/>
+      <c r="I8" s="9" t="n"/>
+      <c r="J8" s="1" t="n"/>
+      <c r="K8" s="1" t="n"/>
+      <c r="L8" s="1" t="n"/>
+      <c r="M8" s="1" t="n"/>
+      <c r="N8" s="1" t="n"/>
+      <c r="O8" s="1" t="n"/>
+      <c r="P8" s="1" t="n"/>
+      <c r="Q8" s="1" t="n"/>
+      <c r="R8" s="1" t="n"/>
+      <c r="S8" s="1" t="n"/>
+      <c r="T8" s="1" t="n"/>
+      <c r="U8" s="1" t="n"/>
+      <c r="V8" s="1" t="n"/>
+      <c r="W8" s="1" t="n"/>
+      <c r="X8" s="1" t="n"/>
+      <c r="Y8" s="1" t="n"/>
+      <c r="Z8" s="1" t="n"/>
+      <c r="AA8" s="1" t="n"/>
+      <c r="AB8" s="1" t="n"/>
+      <c r="AC8" s="1" t="n"/>
+      <c r="AD8" s="1" t="n"/>
+      <c r="AE8" s="1" t="n"/>
+      <c r="AF8" s="1" t="n"/>
+      <c r="AG8" s="1" t="n"/>
+      <c r="AH8" s="1" t="n"/>
+      <c r="AI8" s="1" t="n"/>
+      <c r="AJ8" s="1" t="n"/>
+      <c r="AK8" s="1" t="n"/>
+      <c r="AL8" s="1" t="n"/>
+      <c r="AM8" s="1" t="n"/>
+      <c r="AN8" s="1" t="n"/>
+      <c r="AO8" s="1" t="n"/>
+      <c r="AP8" s="1" t="n"/>
+      <c r="AQ8" s="1" t="n"/>
+      <c r="AR8" s="1" t="n"/>
+      <c r="AS8" s="1" t="n"/>
+      <c r="AT8" s="1" t="n"/>
+      <c r="AU8" s="1" t="n"/>
+      <c r="AV8" s="1" t="n"/>
+      <c r="AW8" s="1" t="n"/>
+      <c r="AX8" s="1" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="10" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="C9" s="10" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D9" s="11" t="inlineStr">
+        <is>
+          <t>03-Jan</t>
+        </is>
+      </c>
+      <c r="E9" s="11" t="inlineStr">
+        <is>
+          <t>09-Jan</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="n"/>
+      <c r="G9" s="1" t="n"/>
+      <c r="H9" s="12" t="n"/>
+      <c r="I9" s="1" t="n"/>
+      <c r="J9" s="1" t="n"/>
+      <c r="K9" s="1" t="n"/>
+      <c r="L9" s="1" t="n"/>
+      <c r="M9" s="1" t="n"/>
+      <c r="N9" s="1" t="n"/>
+      <c r="O9" s="1" t="n"/>
+      <c r="P9" s="1" t="n"/>
+      <c r="Q9" s="1" t="n"/>
+      <c r="R9" s="1" t="n"/>
+      <c r="S9" s="1" t="n"/>
+      <c r="T9" s="1" t="n"/>
+      <c r="U9" s="1" t="n"/>
+      <c r="V9" s="1" t="n"/>
+      <c r="W9" s="1" t="n"/>
+      <c r="X9" s="1" t="n"/>
+      <c r="Y9" s="1" t="n"/>
+      <c r="Z9" s="1" t="n"/>
+      <c r="AA9" s="1" t="n"/>
+      <c r="AB9" s="1" t="n"/>
+      <c r="AC9" s="1" t="n"/>
+      <c r="AD9" s="1" t="n"/>
+      <c r="AE9" s="1" t="n"/>
+      <c r="AF9" s="1" t="n"/>
+      <c r="AG9" s="1" t="n"/>
+      <c r="AH9" s="1" t="n"/>
+      <c r="AI9" s="1" t="n"/>
+      <c r="AJ9" s="1" t="n"/>
+      <c r="AK9" s="1" t="n"/>
+      <c r="AL9" s="1" t="n"/>
+      <c r="AM9" s="1" t="n"/>
+      <c r="AN9" s="1" t="n"/>
+      <c r="AO9" s="1" t="n"/>
+      <c r="AP9" s="1" t="n"/>
+      <c r="AQ9" s="1" t="n"/>
+      <c r="AR9" s="1" t="n"/>
+      <c r="AS9" s="1" t="n"/>
+      <c r="AT9" s="1" t="n"/>
+      <c r="AU9" s="1" t="n"/>
+      <c r="AV9" s="1" t="n"/>
+      <c r="AW9" s="1" t="n"/>
+      <c r="AX9" s="1" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="10" t="inlineStr">
+        <is>
+          <t>2.2</t>
+        </is>
+      </c>
+      <c r="C10" s="10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D10" s="11" t="inlineStr">
+        <is>
+          <t>10-Jan</t>
+        </is>
+      </c>
+      <c r="E10" s="11" t="inlineStr">
+        <is>
+          <t>16-Jan</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="n"/>
+      <c r="G10" s="1" t="n"/>
+      <c r="H10" s="1" t="n"/>
+      <c r="I10" s="12" t="n"/>
+      <c r="J10" s="1" t="n"/>
+      <c r="K10" s="1" t="n"/>
+      <c r="L10" s="1" t="n"/>
+      <c r="M10" s="1" t="n"/>
+      <c r="N10" s="1" t="n"/>
+      <c r="O10" s="1" t="n"/>
+      <c r="P10" s="1" t="n"/>
+      <c r="Q10" s="1" t="n"/>
+      <c r="R10" s="1" t="n"/>
+      <c r="S10" s="1" t="n"/>
+      <c r="T10" s="1" t="n"/>
+      <c r="U10" s="1" t="n"/>
+      <c r="V10" s="1" t="n"/>
+      <c r="W10" s="1" t="n"/>
+      <c r="X10" s="1" t="n"/>
+      <c r="Y10" s="1" t="n"/>
+      <c r="Z10" s="1" t="n"/>
+      <c r="AA10" s="1" t="n"/>
+      <c r="AB10" s="1" t="n"/>
+      <c r="AC10" s="1" t="n"/>
+      <c r="AD10" s="1" t="n"/>
+      <c r="AE10" s="1" t="n"/>
+      <c r="AF10" s="1" t="n"/>
+      <c r="AG10" s="1" t="n"/>
+      <c r="AH10" s="1" t="n"/>
+      <c r="AI10" s="1" t="n"/>
+      <c r="AJ10" s="1" t="n"/>
+      <c r="AK10" s="1" t="n"/>
+      <c r="AL10" s="1" t="n"/>
+      <c r="AM10" s="1" t="n"/>
+      <c r="AN10" s="1" t="n"/>
+      <c r="AO10" s="1" t="n"/>
+      <c r="AP10" s="1" t="n"/>
+      <c r="AQ10" s="1" t="n"/>
+      <c r="AR10" s="1" t="n"/>
+      <c r="AS10" s="1" t="n"/>
+      <c r="AT10" s="1" t="n"/>
+      <c r="AU10" s="1" t="n"/>
+      <c r="AV10" s="1" t="n"/>
+      <c r="AW10" s="1" t="n"/>
+      <c r="AX10" s="1" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="6" t="n"/>
+      <c r="C11" s="6" t="n"/>
+      <c r="D11" s="1" t="n"/>
+      <c r="E11" s="1" t="n"/>
+      <c r="F11" s="1" t="n"/>
+      <c r="G11" s="1" t="n"/>
+      <c r="H11" s="1" t="n"/>
+      <c r="I11" s="1" t="n"/>
+      <c r="J11" s="1" t="n"/>
+      <c r="K11" s="1" t="n"/>
+      <c r="L11" s="1" t="n"/>
+      <c r="M11" s="1" t="n"/>
+      <c r="N11" s="1" t="n"/>
+      <c r="O11" s="1" t="n"/>
+      <c r="P11" s="1" t="n"/>
+      <c r="Q11" s="1" t="n"/>
+      <c r="R11" s="1" t="n"/>
+      <c r="S11" s="1" t="n"/>
+      <c r="T11" s="1" t="n"/>
+      <c r="U11" s="1" t="n"/>
+      <c r="V11" s="1" t="n"/>
+      <c r="W11" s="1" t="n"/>
+      <c r="X11" s="1" t="n"/>
+      <c r="Y11" s="1" t="n"/>
+      <c r="Z11" s="1" t="n"/>
+      <c r="AA11" s="1" t="n"/>
+      <c r="AB11" s="1" t="n"/>
+      <c r="AC11" s="1" t="n"/>
+      <c r="AD11" s="1" t="n"/>
+      <c r="AE11" s="1" t="n"/>
+      <c r="AF11" s="1" t="n"/>
+      <c r="AG11" s="1" t="n"/>
+      <c r="AH11" s="1" t="n"/>
+      <c r="AI11" s="1" t="n"/>
+      <c r="AJ11" s="1" t="n"/>
+      <c r="AK11" s="1" t="n"/>
+      <c r="AL11" s="1" t="n"/>
+      <c r="AM11" s="1" t="n"/>
+      <c r="AN11" s="1" t="n"/>
+      <c r="AO11" s="1" t="n"/>
+      <c r="AP11" s="1" t="n"/>
+      <c r="AQ11" s="1" t="n"/>
+      <c r="AR11" s="1" t="n"/>
+      <c r="AS11" s="1" t="n"/>
+      <c r="AT11" s="1" t="n"/>
+      <c r="AU11" s="1" t="n"/>
+      <c r="AV11" s="1" t="n"/>
+      <c r="AW11" s="1" t="n"/>
+      <c r="AX11" s="1" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="6" t="n"/>
+      <c r="C12" s="6" t="n"/>
+      <c r="D12" s="1" t="n"/>
+      <c r="E12" s="1" t="n"/>
+      <c r="F12" s="1" t="n"/>
+      <c r="G12" s="1" t="n"/>
+      <c r="H12" s="1" t="n"/>
+      <c r="I12" s="1" t="n"/>
+      <c r="J12" s="1" t="n"/>
+      <c r="K12" s="1" t="n"/>
+      <c r="L12" s="1" t="n"/>
+      <c r="M12" s="1" t="n"/>
+      <c r="N12" s="1" t="n"/>
+      <c r="O12" s="1" t="n"/>
+      <c r="P12" s="1" t="n"/>
+      <c r="Q12" s="1" t="n"/>
+      <c r="R12" s="1" t="n"/>
+      <c r="S12" s="1" t="n"/>
+      <c r="T12" s="1" t="n"/>
+      <c r="U12" s="1" t="n"/>
+      <c r="V12" s="1" t="n"/>
+      <c r="W12" s="1" t="n"/>
+      <c r="X12" s="1" t="n"/>
+      <c r="Y12" s="1" t="n"/>
+      <c r="Z12" s="1" t="n"/>
+      <c r="AA12" s="1" t="n"/>
+      <c r="AB12" s="1" t="n"/>
+      <c r="AC12" s="1" t="n"/>
+      <c r="AD12" s="1" t="n"/>
+      <c r="AE12" s="1" t="n"/>
+      <c r="AF12" s="1" t="n"/>
+      <c r="AG12" s="1" t="n"/>
+      <c r="AH12" s="1" t="n"/>
+      <c r="AI12" s="1" t="n"/>
+      <c r="AJ12" s="1" t="n"/>
+      <c r="AK12" s="1" t="n"/>
+      <c r="AL12" s="1" t="n"/>
+      <c r="AM12" s="1" t="n"/>
+      <c r="AN12" s="1" t="n"/>
+      <c r="AO12" s="1" t="n"/>
+      <c r="AP12" s="1" t="n"/>
+      <c r="AQ12" s="1" t="n"/>
+      <c r="AR12" s="1" t="n"/>
+      <c r="AS12" s="1" t="n"/>
+      <c r="AT12" s="1" t="n"/>
+      <c r="AU12" s="1" t="n"/>
+      <c r="AV12" s="1" t="n"/>
+      <c r="AW12" s="1" t="n"/>
+      <c r="AX12" s="1" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="6" t="n"/>
+      <c r="C13" s="6" t="n"/>
+      <c r="D13" s="1" t="n"/>
+      <c r="E13" s="1" t="n"/>
+      <c r="F13" s="1" t="n"/>
+      <c r="G13" s="1" t="n"/>
+      <c r="H13" s="1" t="n"/>
+      <c r="I13" s="1" t="n"/>
+      <c r="J13" s="1" t="n"/>
+      <c r="K13" s="1" t="n"/>
+      <c r="L13" s="1" t="n"/>
+      <c r="M13" s="1" t="n"/>
+      <c r="N13" s="1" t="n"/>
+      <c r="O13" s="1" t="n"/>
+      <c r="P13" s="1" t="n"/>
+      <c r="Q13" s="1" t="n"/>
+      <c r="R13" s="1" t="n"/>
+      <c r="S13" s="1" t="n"/>
+      <c r="T13" s="1" t="n"/>
+      <c r="U13" s="1" t="n"/>
+      <c r="V13" s="1" t="n"/>
+      <c r="W13" s="1" t="n"/>
+      <c r="X13" s="1" t="n"/>
+      <c r="Y13" s="1" t="n"/>
+      <c r="Z13" s="1" t="n"/>
+      <c r="AA13" s="1" t="n"/>
+      <c r="AB13" s="1" t="n"/>
+      <c r="AC13" s="1" t="n"/>
+      <c r="AD13" s="1" t="n"/>
+      <c r="AE13" s="1" t="n"/>
+      <c r="AF13" s="1" t="n"/>
+      <c r="AG13" s="1" t="n"/>
+      <c r="AH13" s="1" t="n"/>
+      <c r="AI13" s="1" t="n"/>
+      <c r="AJ13" s="1" t="n"/>
+      <c r="AK13" s="1" t="n"/>
+      <c r="AL13" s="1" t="n"/>
+      <c r="AM13" s="1" t="n"/>
+      <c r="AN13" s="1" t="n"/>
+      <c r="AO13" s="1" t="n"/>
+      <c r="AP13" s="1" t="n"/>
+      <c r="AQ13" s="1" t="n"/>
+      <c r="AR13" s="1" t="n"/>
+      <c r="AS13" s="1" t="n"/>
+      <c r="AT13" s="1" t="n"/>
+      <c r="AU13" s="1" t="n"/>
+      <c r="AV13" s="1" t="n"/>
+      <c r="AW13" s="1" t="n"/>
+      <c r="AX13" s="1" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="6" t="n"/>
+      <c r="C14" s="6" t="n"/>
+      <c r="D14" s="1" t="n"/>
+      <c r="E14" s="1" t="n"/>
+      <c r="F14" s="1" t="n"/>
+      <c r="G14" s="1" t="n"/>
+      <c r="H14" s="1" t="n"/>
+      <c r="I14" s="1" t="n"/>
+      <c r="J14" s="1" t="n"/>
+      <c r="K14" s="1" t="n"/>
+      <c r="L14" s="1" t="n"/>
+      <c r="M14" s="1" t="n"/>
+      <c r="N14" s="1" t="n"/>
+      <c r="O14" s="1" t="n"/>
+      <c r="P14" s="1" t="n"/>
+      <c r="Q14" s="1" t="n"/>
+      <c r="R14" s="1" t="n"/>
+      <c r="S14" s="1" t="n"/>
+      <c r="T14" s="1" t="n"/>
+      <c r="U14" s="1" t="n"/>
+      <c r="V14" s="1" t="n"/>
+      <c r="W14" s="1" t="n"/>
+      <c r="X14" s="1" t="n"/>
+      <c r="Y14" s="1" t="n"/>
+      <c r="Z14" s="1" t="n"/>
+      <c r="AA14" s="1" t="n"/>
+      <c r="AB14" s="1" t="n"/>
+      <c r="AC14" s="1" t="n"/>
+      <c r="AD14" s="1" t="n"/>
+      <c r="AE14" s="1" t="n"/>
+      <c r="AF14" s="1" t="n"/>
+      <c r="AG14" s="1" t="n"/>
+      <c r="AH14" s="1" t="n"/>
+      <c r="AI14" s="1" t="n"/>
+      <c r="AJ14" s="1" t="n"/>
+      <c r="AK14" s="1" t="n"/>
+      <c r="AL14" s="1" t="n"/>
+      <c r="AM14" s="1" t="n"/>
+      <c r="AN14" s="1" t="n"/>
+      <c r="AO14" s="1" t="n"/>
+      <c r="AP14" s="1" t="n"/>
+      <c r="AQ14" s="1" t="n"/>
+      <c r="AR14" s="1" t="n"/>
+      <c r="AS14" s="1" t="n"/>
+      <c r="AT14" s="1" t="n"/>
+      <c r="AU14" s="1" t="n"/>
+      <c r="AV14" s="1" t="n"/>
+      <c r="AW14" s="1" t="n"/>
+      <c r="AX14" s="1" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="6" t="n"/>
+      <c r="D15" s="1" t="n"/>
+      <c r="E15" s="1" t="n"/>
+      <c r="F15" s="1" t="n"/>
+      <c r="G15" s="1" t="n"/>
+      <c r="H15" s="1" t="n"/>
+      <c r="I15" s="1" t="n"/>
+      <c r="J15" s="1" t="n"/>
+      <c r="K15" s="1" t="n"/>
+      <c r="L15" s="1" t="n"/>
+      <c r="M15" s="1" t="n"/>
+      <c r="N15" s="1" t="n"/>
+      <c r="O15" s="1" t="n"/>
+      <c r="P15" s="1" t="n"/>
+      <c r="Q15" s="1" t="n"/>
+      <c r="R15" s="1" t="n"/>
+      <c r="S15" s="1" t="n"/>
+      <c r="T15" s="1" t="n"/>
+      <c r="U15" s="1" t="n"/>
+      <c r="V15" s="1" t="n"/>
+      <c r="W15" s="1" t="n"/>
+      <c r="X15" s="1" t="n"/>
+      <c r="Y15" s="1" t="n"/>
+      <c r="Z15" s="1" t="n"/>
+      <c r="AA15" s="1" t="n"/>
+      <c r="AB15" s="1" t="n"/>
+      <c r="AC15" s="1" t="n"/>
+      <c r="AD15" s="1" t="n"/>
+      <c r="AE15" s="1" t="n"/>
+      <c r="AF15" s="1" t="n"/>
+      <c r="AG15" s="1" t="n"/>
+      <c r="AH15" s="1" t="n"/>
+      <c r="AI15" s="1" t="n"/>
+      <c r="AJ15" s="1" t="n"/>
+      <c r="AK15" s="1" t="n"/>
+      <c r="AL15" s="1" t="n"/>
+      <c r="AM15" s="1" t="n"/>
+      <c r="AN15" s="1" t="n"/>
+      <c r="AO15" s="1" t="n"/>
+      <c r="AP15" s="1" t="n"/>
+      <c r="AQ15" s="1" t="n"/>
+      <c r="AR15" s="1" t="n"/>
+      <c r="AS15" s="1" t="n"/>
+      <c r="AT15" s="1" t="n"/>
+      <c r="AU15" s="1" t="n"/>
+      <c r="AV15" s="1" t="n"/>
+      <c r="AW15" s="1" t="n"/>
+      <c r="AX15" s="1" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="6" t="n"/>
+      <c r="D16" s="1" t="n"/>
+      <c r="E16" s="1" t="n"/>
+      <c r="F16" s="1" t="n"/>
+      <c r="G16" s="1" t="n"/>
+      <c r="H16" s="1" t="n"/>
+      <c r="I16" s="1" t="n"/>
+      <c r="J16" s="1" t="n"/>
+      <c r="K16" s="1" t="n"/>
+      <c r="L16" s="1" t="n"/>
+      <c r="M16" s="1" t="n"/>
+      <c r="N16" s="1" t="n"/>
+      <c r="O16" s="1" t="n"/>
+      <c r="P16" s="1" t="n"/>
+      <c r="Q16" s="1" t="n"/>
+      <c r="R16" s="1" t="n"/>
+      <c r="S16" s="1" t="n"/>
+      <c r="T16" s="1" t="n"/>
+      <c r="U16" s="1" t="n"/>
+      <c r="V16" s="1" t="n"/>
+      <c r="W16" s="1" t="n"/>
+      <c r="X16" s="1" t="n"/>
+      <c r="Y16" s="1" t="n"/>
+      <c r="Z16" s="1" t="n"/>
+      <c r="AA16" s="1" t="n"/>
+      <c r="AB16" s="1" t="n"/>
+      <c r="AC16" s="1" t="n"/>
+      <c r="AD16" s="1" t="n"/>
+      <c r="AE16" s="1" t="n"/>
+      <c r="AF16" s="1" t="n"/>
+      <c r="AG16" s="1" t="n"/>
+      <c r="AH16" s="1" t="n"/>
+      <c r="AI16" s="1" t="n"/>
+      <c r="AJ16" s="1" t="n"/>
+      <c r="AK16" s="1" t="n"/>
+      <c r="AL16" s="1" t="n"/>
+      <c r="AM16" s="1" t="n"/>
+      <c r="AN16" s="1" t="n"/>
+      <c r="AO16" s="1" t="n"/>
+      <c r="AP16" s="1" t="n"/>
+      <c r="AQ16" s="1" t="n"/>
+      <c r="AR16" s="1" t="n"/>
+      <c r="AS16" s="1" t="n"/>
+      <c r="AT16" s="1" t="n"/>
+      <c r="AU16" s="1" t="n"/>
+      <c r="AV16" s="1" t="n"/>
+      <c r="AW16" s="1" t="n"/>
+      <c r="AX16" s="1" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="6" t="n"/>
+      <c r="C17" s="6" t="n"/>
+      <c r="D17" s="1" t="n"/>
+      <c r="E17" s="1" t="n"/>
+      <c r="F17" s="1" t="n"/>
+      <c r="G17" s="1" t="n"/>
+      <c r="H17" s="1" t="n"/>
+      <c r="I17" s="1" t="n"/>
+      <c r="J17" s="1" t="n"/>
+      <c r="K17" s="1" t="n"/>
+      <c r="L17" s="1" t="n"/>
+      <c r="M17" s="1" t="n"/>
+      <c r="N17" s="1" t="n"/>
+      <c r="O17" s="1" t="n"/>
+      <c r="P17" s="1" t="n"/>
+      <c r="Q17" s="1" t="n"/>
+      <c r="R17" s="1" t="n"/>
+      <c r="S17" s="1" t="n"/>
+      <c r="T17" s="1" t="n"/>
+      <c r="U17" s="1" t="n"/>
+      <c r="V17" s="1" t="n"/>
+      <c r="W17" s="1" t="n"/>
+      <c r="X17" s="1" t="n"/>
+      <c r="Y17" s="1" t="n"/>
+      <c r="Z17" s="1" t="n"/>
+      <c r="AA17" s="1" t="n"/>
+      <c r="AB17" s="1" t="n"/>
+      <c r="AC17" s="1" t="n"/>
+      <c r="AD17" s="1" t="n"/>
+      <c r="AE17" s="1" t="n"/>
+      <c r="AF17" s="1" t="n"/>
+      <c r="AG17" s="1" t="n"/>
+      <c r="AH17" s="1" t="n"/>
+      <c r="AI17" s="1" t="n"/>
+      <c r="AJ17" s="1" t="n"/>
+      <c r="AK17" s="1" t="n"/>
+      <c r="AL17" s="1" t="n"/>
+      <c r="AM17" s="1" t="n"/>
+      <c r="AN17" s="1" t="n"/>
+      <c r="AO17" s="1" t="n"/>
+      <c r="AP17" s="1" t="n"/>
+      <c r="AQ17" s="1" t="n"/>
+      <c r="AR17" s="1" t="n"/>
+      <c r="AS17" s="1" t="n"/>
+      <c r="AT17" s="1" t="n"/>
+      <c r="AU17" s="1" t="n"/>
+      <c r="AV17" s="1" t="n"/>
+      <c r="AW17" s="1" t="n"/>
+      <c r="AX17" s="1" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="6" t="n"/>
+      <c r="C18" s="6" t="n"/>
+      <c r="D18" s="1" t="n"/>
+      <c r="E18" s="1" t="n"/>
+      <c r="F18" s="1" t="n"/>
+      <c r="G18" s="1" t="n"/>
+      <c r="H18" s="1" t="n"/>
+      <c r="I18" s="1" t="n"/>
+      <c r="J18" s="1" t="n"/>
+      <c r="K18" s="1" t="n"/>
+      <c r="L18" s="1" t="n"/>
+      <c r="M18" s="1" t="n"/>
+      <c r="N18" s="1" t="n"/>
+      <c r="O18" s="1" t="n"/>
+      <c r="P18" s="1" t="n"/>
+      <c r="Q18" s="1" t="n"/>
+      <c r="R18" s="1" t="n"/>
+      <c r="S18" s="1" t="n"/>
+      <c r="T18" s="1" t="n"/>
+      <c r="U18" s="1" t="n"/>
+      <c r="V18" s="1" t="n"/>
+      <c r="W18" s="1" t="n"/>
+      <c r="X18" s="1" t="n"/>
+      <c r="Y18" s="1" t="n"/>
+      <c r="Z18" s="1" t="n"/>
+      <c r="AA18" s="1" t="n"/>
+      <c r="AB18" s="1" t="n"/>
+      <c r="AC18" s="1" t="n"/>
+      <c r="AD18" s="1" t="n"/>
+      <c r="AE18" s="1" t="n"/>
+      <c r="AF18" s="1" t="n"/>
+      <c r="AG18" s="1" t="n"/>
+      <c r="AH18" s="1" t="n"/>
+      <c r="AI18" s="1" t="n"/>
+      <c r="AJ18" s="1" t="n"/>
+      <c r="AK18" s="1" t="n"/>
+      <c r="AL18" s="1" t="n"/>
+      <c r="AM18" s="1" t="n"/>
+      <c r="AN18" s="1" t="n"/>
+      <c r="AO18" s="1" t="n"/>
+      <c r="AP18" s="1" t="n"/>
+      <c r="AQ18" s="1" t="n"/>
+      <c r="AR18" s="1" t="n"/>
+      <c r="AS18" s="1" t="n"/>
+      <c r="AT18" s="1" t="n"/>
+      <c r="AU18" s="1" t="n"/>
+      <c r="AV18" s="1" t="n"/>
+      <c r="AW18" s="1" t="n"/>
+      <c r="AX18" s="1" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="6" t="n"/>
+      <c r="C19" s="6" t="n"/>
+      <c r="D19" s="1" t="n"/>
+      <c r="E19" s="1" t="n"/>
+      <c r="F19" s="1" t="n"/>
+      <c r="G19" s="1" t="n"/>
+      <c r="H19" s="1" t="n"/>
+      <c r="I19" s="1" t="n"/>
+      <c r="J19" s="1" t="n"/>
+      <c r="K19" s="1" t="n"/>
+      <c r="L19" s="1" t="n"/>
+      <c r="M19" s="1" t="n"/>
+      <c r="N19" s="1" t="n"/>
+      <c r="O19" s="1" t="n"/>
+      <c r="P19" s="1" t="n"/>
+      <c r="Q19" s="1" t="n"/>
+      <c r="R19" s="1" t="n"/>
+      <c r="S19" s="1" t="n"/>
+      <c r="T19" s="1" t="n"/>
+      <c r="U19" s="1" t="n"/>
+      <c r="V19" s="1" t="n"/>
+      <c r="W19" s="1" t="n"/>
+      <c r="X19" s="1" t="n"/>
+      <c r="Y19" s="1" t="n"/>
+      <c r="Z19" s="1" t="n"/>
+      <c r="AA19" s="1" t="n"/>
+      <c r="AB19" s="1" t="n"/>
+      <c r="AC19" s="1" t="n"/>
+      <c r="AD19" s="1" t="n"/>
+      <c r="AE19" s="1" t="n"/>
+      <c r="AF19" s="1" t="n"/>
+      <c r="AG19" s="1" t="n"/>
+      <c r="AH19" s="1" t="n"/>
+      <c r="AI19" s="1" t="n"/>
+      <c r="AJ19" s="1" t="n"/>
+      <c r="AK19" s="1" t="n"/>
+      <c r="AL19" s="1" t="n"/>
+      <c r="AM19" s="1" t="n"/>
+      <c r="AN19" s="1" t="n"/>
+      <c r="AO19" s="1" t="n"/>
+      <c r="AP19" s="1" t="n"/>
+      <c r="AQ19" s="1" t="n"/>
+      <c r="AR19" s="1" t="n"/>
+      <c r="AS19" s="1" t="n"/>
+      <c r="AT19" s="1" t="n"/>
+      <c r="AU19" s="1" t="n"/>
+      <c r="AV19" s="1" t="n"/>
+      <c r="AW19" s="1" t="n"/>
+      <c r="AX19" s="1" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="6" t="n"/>
+      <c r="C20" s="6" t="n"/>
+      <c r="D20" s="1" t="n"/>
+      <c r="E20" s="1" t="n"/>
+      <c r="F20" s="1" t="n"/>
+      <c r="G20" s="1" t="n"/>
+      <c r="H20" s="1" t="n"/>
+      <c r="I20" s="1" t="n"/>
+      <c r="J20" s="1" t="n"/>
+      <c r="K20" s="1" t="n"/>
+      <c r="L20" s="1" t="n"/>
+      <c r="M20" s="1" t="n"/>
+      <c r="N20" s="1" t="n"/>
+      <c r="O20" s="1" t="n"/>
+      <c r="P20" s="1" t="n"/>
+      <c r="Q20" s="1" t="n"/>
+      <c r="R20" s="1" t="n"/>
+      <c r="S20" s="1" t="n"/>
+      <c r="T20" s="1" t="n"/>
+      <c r="U20" s="1" t="n"/>
+      <c r="V20" s="1" t="n"/>
+      <c r="W20" s="1" t="n"/>
+      <c r="X20" s="1" t="n"/>
+      <c r="Y20" s="1" t="n"/>
+      <c r="Z20" s="1" t="n"/>
+      <c r="AA20" s="1" t="n"/>
+      <c r="AB20" s="1" t="n"/>
+      <c r="AC20" s="1" t="n"/>
+      <c r="AD20" s="1" t="n"/>
+      <c r="AE20" s="1" t="n"/>
+      <c r="AF20" s="1" t="n"/>
+      <c r="AG20" s="1" t="n"/>
+      <c r="AH20" s="1" t="n"/>
+      <c r="AI20" s="1" t="n"/>
+      <c r="AJ20" s="1" t="n"/>
+      <c r="AK20" s="1" t="n"/>
+      <c r="AL20" s="1" t="n"/>
+      <c r="AM20" s="1" t="n"/>
+      <c r="AN20" s="1" t="n"/>
+      <c r="AO20" s="1" t="n"/>
+      <c r="AP20" s="1" t="n"/>
+      <c r="AQ20" s="1" t="n"/>
+      <c r="AR20" s="1" t="n"/>
+      <c r="AS20" s="1" t="n"/>
+      <c r="AT20" s="1" t="n"/>
+      <c r="AU20" s="1" t="n"/>
+      <c r="AV20" s="1" t="n"/>
+      <c r="AW20" s="1" t="n"/>
+      <c r="AX20" s="1" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="6" t="n"/>
+      <c r="C21" s="6" t="n"/>
+      <c r="D21" s="1" t="n"/>
+      <c r="E21" s="1" t="n"/>
+      <c r="F21" s="1" t="n"/>
+      <c r="G21" s="1" t="n"/>
+      <c r="H21" s="1" t="n"/>
+      <c r="I21" s="1" t="n"/>
+      <c r="J21" s="1" t="n"/>
+      <c r="K21" s="1" t="n"/>
+      <c r="L21" s="1" t="n"/>
+      <c r="M21" s="1" t="n"/>
+      <c r="N21" s="1" t="n"/>
+      <c r="O21" s="1" t="n"/>
+      <c r="P21" s="1" t="n"/>
+      <c r="Q21" s="1" t="n"/>
+      <c r="R21" s="1" t="n"/>
+      <c r="S21" s="1" t="n"/>
+      <c r="T21" s="1" t="n"/>
+      <c r="U21" s="1" t="n"/>
+      <c r="V21" s="1" t="n"/>
+      <c r="W21" s="1" t="n"/>
+      <c r="X21" s="1" t="n"/>
+      <c r="Y21" s="1" t="n"/>
+      <c r="Z21" s="1" t="n"/>
+      <c r="AA21" s="1" t="n"/>
+      <c r="AB21" s="1" t="n"/>
+      <c r="AC21" s="1" t="n"/>
+      <c r="AD21" s="1" t="n"/>
+      <c r="AE21" s="1" t="n"/>
+      <c r="AF21" s="1" t="n"/>
+      <c r="AG21" s="1" t="n"/>
+      <c r="AH21" s="1" t="n"/>
+      <c r="AI21" s="1" t="n"/>
+      <c r="AJ21" s="1" t="n"/>
+      <c r="AK21" s="1" t="n"/>
+      <c r="AL21" s="1" t="n"/>
+      <c r="AM21" s="1" t="n"/>
+      <c r="AN21" s="1" t="n"/>
+      <c r="AO21" s="1" t="n"/>
+      <c r="AP21" s="1" t="n"/>
+      <c r="AQ21" s="1" t="n"/>
+      <c r="AR21" s="1" t="n"/>
+      <c r="AS21" s="1" t="n"/>
+      <c r="AT21" s="1" t="n"/>
+      <c r="AU21" s="1" t="n"/>
+      <c r="AV21" s="1" t="n"/>
+      <c r="AW21" s="1" t="n"/>
+      <c r="AX21" s="1" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="6" t="n"/>
+      <c r="C22" s="6" t="n"/>
+      <c r="D22" s="1" t="n"/>
+      <c r="E22" s="1" t="n"/>
+      <c r="F22" s="1" t="n"/>
+      <c r="G22" s="1" t="n"/>
+      <c r="H22" s="1" t="n"/>
+      <c r="I22" s="1" t="n"/>
+      <c r="J22" s="1" t="n"/>
+      <c r="K22" s="1" t="n"/>
+      <c r="L22" s="1" t="n"/>
+      <c r="M22" s="1" t="n"/>
+      <c r="N22" s="1" t="n"/>
+      <c r="O22" s="1" t="n"/>
+      <c r="P22" s="1" t="n"/>
+      <c r="Q22" s="1" t="n"/>
+      <c r="R22" s="1" t="n"/>
+      <c r="S22" s="1" t="n"/>
+      <c r="T22" s="1" t="n"/>
+      <c r="U22" s="1" t="n"/>
+      <c r="V22" s="1" t="n"/>
+      <c r="W22" s="1" t="n"/>
+      <c r="X22" s="1" t="n"/>
+      <c r="Y22" s="1" t="n"/>
+      <c r="Z22" s="1" t="n"/>
+      <c r="AA22" s="1" t="n"/>
+      <c r="AB22" s="1" t="n"/>
+      <c r="AC22" s="1" t="n"/>
+      <c r="AD22" s="1" t="n"/>
+      <c r="AE22" s="1" t="n"/>
+      <c r="AF22" s="1" t="n"/>
+      <c r="AG22" s="1" t="n"/>
+      <c r="AH22" s="1" t="n"/>
+      <c r="AI22" s="1" t="n"/>
+      <c r="AJ22" s="1" t="n"/>
+      <c r="AK22" s="1" t="n"/>
+      <c r="AL22" s="1" t="n"/>
+      <c r="AM22" s="1" t="n"/>
+      <c r="AN22" s="1" t="n"/>
+      <c r="AO22" s="1" t="n"/>
+      <c r="AP22" s="1" t="n"/>
+      <c r="AQ22" s="1" t="n"/>
+      <c r="AR22" s="1" t="n"/>
+      <c r="AS22" s="1" t="n"/>
+      <c r="AT22" s="1" t="n"/>
+      <c r="AU22" s="1" t="n"/>
+      <c r="AV22" s="1" t="n"/>
+      <c r="AW22" s="1" t="n"/>
+      <c r="AX22" s="1" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="6" t="n"/>
+      <c r="C23" s="6" t="n"/>
+      <c r="D23" s="1" t="n"/>
+      <c r="E23" s="1" t="n"/>
+      <c r="F23" s="1" t="n"/>
+      <c r="G23" s="1" t="n"/>
+      <c r="H23" s="1" t="n"/>
+      <c r="I23" s="1" t="n"/>
+      <c r="J23" s="1" t="n"/>
+      <c r="K23" s="1" t="n"/>
+      <c r="L23" s="1" t="n"/>
+      <c r="M23" s="1" t="n"/>
+      <c r="N23" s="1" t="n"/>
+      <c r="O23" s="1" t="n"/>
+      <c r="P23" s="1" t="n"/>
+      <c r="Q23" s="1" t="n"/>
+      <c r="R23" s="1" t="n"/>
+      <c r="S23" s="1" t="n"/>
+      <c r="T23" s="1" t="n"/>
+      <c r="U23" s="1" t="n"/>
+      <c r="V23" s="1" t="n"/>
+      <c r="W23" s="1" t="n"/>
+      <c r="X23" s="1" t="n"/>
+      <c r="Y23" s="1" t="n"/>
+      <c r="Z23" s="1" t="n"/>
+      <c r="AA23" s="1" t="n"/>
+      <c r="AB23" s="1" t="n"/>
+      <c r="AC23" s="1" t="n"/>
+      <c r="AD23" s="1" t="n"/>
+      <c r="AE23" s="1" t="n"/>
+      <c r="AF23" s="1" t="n"/>
+      <c r="AG23" s="1" t="n"/>
+      <c r="AH23" s="1" t="n"/>
+      <c r="AI23" s="1" t="n"/>
+      <c r="AJ23" s="1" t="n"/>
+      <c r="AK23" s="1" t="n"/>
+      <c r="AL23" s="1" t="n"/>
+      <c r="AM23" s="1" t="n"/>
+      <c r="AN23" s="1" t="n"/>
+      <c r="AO23" s="1" t="n"/>
+      <c r="AP23" s="1" t="n"/>
+      <c r="AQ23" s="1" t="n"/>
+      <c r="AR23" s="1" t="n"/>
+      <c r="AS23" s="1" t="n"/>
+      <c r="AT23" s="1" t="n"/>
+      <c r="AU23" s="1" t="n"/>
+      <c r="AV23" s="1" t="n"/>
+      <c r="AW23" s="1" t="n"/>
+      <c r="AX23" s="1" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="6" t="n"/>
+      <c r="C24" s="6" t="n"/>
+      <c r="D24" s="1" t="n"/>
+      <c r="E24" s="1" t="n"/>
+      <c r="F24" s="1" t="n"/>
+      <c r="G24" s="1" t="n"/>
+      <c r="H24" s="1" t="n"/>
+      <c r="I24" s="1" t="n"/>
+      <c r="J24" s="1" t="n"/>
+      <c r="K24" s="1" t="n"/>
+      <c r="L24" s="1" t="n"/>
+      <c r="M24" s="1" t="n"/>
+      <c r="N24" s="1" t="n"/>
+      <c r="O24" s="1" t="n"/>
+      <c r="P24" s="1" t="n"/>
+      <c r="Q24" s="1" t="n"/>
+      <c r="R24" s="1" t="n"/>
+      <c r="S24" s="1" t="n"/>
+      <c r="T24" s="1" t="n"/>
+      <c r="U24" s="1" t="n"/>
+      <c r="V24" s="1" t="n"/>
+      <c r="W24" s="1" t="n"/>
+      <c r="X24" s="1" t="n"/>
+      <c r="Y24" s="1" t="n"/>
+      <c r="Z24" s="1" t="n"/>
+      <c r="AA24" s="1" t="n"/>
+      <c r="AB24" s="1" t="n"/>
+      <c r="AC24" s="1" t="n"/>
+      <c r="AD24" s="1" t="n"/>
+      <c r="AE24" s="1" t="n"/>
+      <c r="AF24" s="1" t="n"/>
+      <c r="AG24" s="1" t="n"/>
+      <c r="AH24" s="1" t="n"/>
+      <c r="AI24" s="1" t="n"/>
+      <c r="AJ24" s="1" t="n"/>
+      <c r="AK24" s="1" t="n"/>
+      <c r="AL24" s="1" t="n"/>
+      <c r="AM24" s="1" t="n"/>
+      <c r="AN24" s="1" t="n"/>
+      <c r="AO24" s="1" t="n"/>
+      <c r="AP24" s="1" t="n"/>
+      <c r="AQ24" s="1" t="n"/>
+      <c r="AR24" s="1" t="n"/>
+      <c r="AS24" s="1" t="n"/>
+      <c r="AT24" s="1" t="n"/>
+      <c r="AU24" s="1" t="n"/>
+      <c r="AV24" s="1" t="n"/>
+      <c r="AW24" s="1" t="n"/>
+      <c r="AX24" s="1" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="6" t="n"/>
+      <c r="C25" s="6" t="n"/>
+      <c r="D25" s="1" t="n"/>
+      <c r="E25" s="1" t="n"/>
+      <c r="F25" s="1" t="n"/>
+      <c r="G25" s="1" t="n"/>
+      <c r="H25" s="1" t="n"/>
+      <c r="I25" s="1" t="n"/>
+      <c r="J25" s="1" t="n"/>
+      <c r="K25" s="1" t="n"/>
+      <c r="L25" s="1" t="n"/>
+      <c r="M25" s="1" t="n"/>
+      <c r="N25" s="1" t="n"/>
+      <c r="O25" s="1" t="n"/>
+      <c r="P25" s="1" t="n"/>
+      <c r="Q25" s="1" t="n"/>
+      <c r="R25" s="1" t="n"/>
+      <c r="S25" s="1" t="n"/>
+      <c r="T25" s="1" t="n"/>
+      <c r="U25" s="1" t="n"/>
+      <c r="V25" s="1" t="n"/>
+      <c r="W25" s="1" t="n"/>
+      <c r="X25" s="1" t="n"/>
+      <c r="Y25" s="1" t="n"/>
+      <c r="Z25" s="1" t="n"/>
+      <c r="AA25" s="1" t="n"/>
+      <c r="AB25" s="1" t="n"/>
+      <c r="AC25" s="1" t="n"/>
+      <c r="AD25" s="1" t="n"/>
+      <c r="AE25" s="1" t="n"/>
+      <c r="AF25" s="1" t="n"/>
+      <c r="AG25" s="1" t="n"/>
+      <c r="AH25" s="1" t="n"/>
+      <c r="AI25" s="1" t="n"/>
+      <c r="AJ25" s="1" t="n"/>
+      <c r="AK25" s="1" t="n"/>
+      <c r="AL25" s="1" t="n"/>
+      <c r="AM25" s="1" t="n"/>
+      <c r="AN25" s="1" t="n"/>
+      <c r="AO25" s="1" t="n"/>
+      <c r="AP25" s="1" t="n"/>
+      <c r="AQ25" s="1" t="n"/>
+      <c r="AR25" s="1" t="n"/>
+      <c r="AS25" s="1" t="n"/>
+      <c r="AT25" s="1" t="n"/>
+      <c r="AU25" s="1" t="n"/>
+      <c r="AV25" s="1" t="n"/>
+      <c r="AW25" s="1" t="n"/>
+      <c r="AX25" s="1" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="6" t="n"/>
+      <c r="C26" s="6" t="n"/>
+      <c r="D26" s="1" t="n"/>
+      <c r="E26" s="1" t="n"/>
+      <c r="F26" s="1" t="n"/>
+      <c r="G26" s="1" t="n"/>
+      <c r="H26" s="1" t="n"/>
+      <c r="I26" s="1" t="n"/>
+      <c r="J26" s="1" t="n"/>
+      <c r="K26" s="1" t="n"/>
+      <c r="L26" s="1" t="n"/>
+      <c r="M26" s="1" t="n"/>
+      <c r="N26" s="1" t="n"/>
+      <c r="O26" s="1" t="n"/>
+      <c r="P26" s="1" t="n"/>
+      <c r="Q26" s="1" t="n"/>
+      <c r="R26" s="1" t="n"/>
+      <c r="S26" s="1" t="n"/>
+      <c r="T26" s="1" t="n"/>
+      <c r="U26" s="1" t="n"/>
+      <c r="V26" s="1" t="n"/>
+      <c r="W26" s="1" t="n"/>
+      <c r="X26" s="1" t="n"/>
+      <c r="Y26" s="1" t="n"/>
+      <c r="Z26" s="1" t="n"/>
+      <c r="AA26" s="1" t="n"/>
+      <c r="AB26" s="1" t="n"/>
+      <c r="AC26" s="1" t="n"/>
+      <c r="AD26" s="1" t="n"/>
+      <c r="AE26" s="1" t="n"/>
+      <c r="AF26" s="1" t="n"/>
+      <c r="AG26" s="1" t="n"/>
+      <c r="AH26" s="1" t="n"/>
+      <c r="AI26" s="1" t="n"/>
+      <c r="AJ26" s="1" t="n"/>
+      <c r="AK26" s="1" t="n"/>
+      <c r="AL26" s="1" t="n"/>
+      <c r="AM26" s="1" t="n"/>
+      <c r="AN26" s="1" t="n"/>
+      <c r="AO26" s="1" t="n"/>
+      <c r="AP26" s="1" t="n"/>
+      <c r="AQ26" s="1" t="n"/>
+      <c r="AR26" s="1" t="n"/>
+      <c r="AS26" s="1" t="n"/>
+      <c r="AT26" s="1" t="n"/>
+      <c r="AU26" s="1" t="n"/>
+      <c r="AV26" s="1" t="n"/>
+      <c r="AW26" s="1" t="n"/>
+      <c r="AX26" s="1" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="6" t="n"/>
+      <c r="C27" s="6" t="n"/>
+      <c r="D27" s="1" t="n"/>
+      <c r="E27" s="1" t="n"/>
+      <c r="F27" s="1" t="n"/>
+      <c r="G27" s="1" t="n"/>
+      <c r="H27" s="1" t="n"/>
+      <c r="I27" s="1" t="n"/>
+      <c r="J27" s="1" t="n"/>
+      <c r="K27" s="1" t="n"/>
+      <c r="L27" s="1" t="n"/>
+      <c r="M27" s="1" t="n"/>
+      <c r="N27" s="1" t="n"/>
+      <c r="O27" s="1" t="n"/>
+      <c r="P27" s="1" t="n"/>
+      <c r="Q27" s="1" t="n"/>
+      <c r="R27" s="1" t="n"/>
+      <c r="S27" s="1" t="n"/>
+      <c r="T27" s="1" t="n"/>
+      <c r="U27" s="1" t="n"/>
+      <c r="V27" s="1" t="n"/>
+      <c r="W27" s="1" t="n"/>
+      <c r="X27" s="1" t="n"/>
+      <c r="Y27" s="1" t="n"/>
+      <c r="Z27" s="1" t="n"/>
+      <c r="AA27" s="1" t="n"/>
+      <c r="AB27" s="1" t="n"/>
+      <c r="AC27" s="1" t="n"/>
+      <c r="AD27" s="1" t="n"/>
+      <c r="AE27" s="1" t="n"/>
+      <c r="AF27" s="1" t="n"/>
+      <c r="AG27" s="1" t="n"/>
+      <c r="AH27" s="1" t="n"/>
+      <c r="AI27" s="1" t="n"/>
+      <c r="AJ27" s="1" t="n"/>
+      <c r="AK27" s="1" t="n"/>
+      <c r="AL27" s="1" t="n"/>
+      <c r="AM27" s="1" t="n"/>
+      <c r="AN27" s="1" t="n"/>
+      <c r="AO27" s="1" t="n"/>
+      <c r="AP27" s="1" t="n"/>
+      <c r="AQ27" s="1" t="n"/>
+      <c r="AR27" s="1" t="n"/>
+      <c r="AS27" s="1" t="n"/>
+      <c r="AT27" s="1" t="n"/>
+      <c r="AU27" s="1" t="n"/>
+      <c r="AV27" s="1" t="n"/>
+      <c r="AW27" s="1" t="n"/>
+      <c r="AX27" s="1" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="6" t="n"/>
+      <c r="C28" s="6" t="n"/>
+      <c r="D28" s="1" t="n"/>
+      <c r="E28" s="1" t="n"/>
+      <c r="F28" s="1" t="n"/>
+      <c r="G28" s="1" t="n"/>
+      <c r="H28" s="1" t="n"/>
+      <c r="I28" s="1" t="n"/>
+      <c r="J28" s="1" t="n"/>
+      <c r="K28" s="1" t="n"/>
+      <c r="L28" s="1" t="n"/>
+      <c r="M28" s="1" t="n"/>
+      <c r="N28" s="1" t="n"/>
+      <c r="O28" s="1" t="n"/>
+      <c r="P28" s="1" t="n"/>
+      <c r="Q28" s="1" t="n"/>
+      <c r="R28" s="1" t="n"/>
+      <c r="S28" s="1" t="n"/>
+      <c r="T28" s="1" t="n"/>
+      <c r="U28" s="1" t="n"/>
+      <c r="V28" s="1" t="n"/>
+      <c r="W28" s="1" t="n"/>
+      <c r="X28" s="1" t="n"/>
+      <c r="Y28" s="1" t="n"/>
+      <c r="Z28" s="1" t="n"/>
+      <c r="AA28" s="1" t="n"/>
+      <c r="AB28" s="1" t="n"/>
+      <c r="AC28" s="1" t="n"/>
+      <c r="AD28" s="1" t="n"/>
+      <c r="AE28" s="1" t="n"/>
+      <c r="AF28" s="1" t="n"/>
+      <c r="AG28" s="1" t="n"/>
+      <c r="AH28" s="1" t="n"/>
+      <c r="AI28" s="1" t="n"/>
+      <c r="AJ28" s="1" t="n"/>
+      <c r="AK28" s="1" t="n"/>
+      <c r="AL28" s="1" t="n"/>
+      <c r="AM28" s="1" t="n"/>
+      <c r="AN28" s="1" t="n"/>
+      <c r="AO28" s="1" t="n"/>
+      <c r="AP28" s="1" t="n"/>
+      <c r="AQ28" s="1" t="n"/>
+      <c r="AR28" s="1" t="n"/>
+      <c r="AS28" s="1" t="n"/>
+      <c r="AT28" s="1" t="n"/>
+      <c r="AU28" s="1" t="n"/>
+      <c r="AV28" s="1" t="n"/>
+      <c r="AW28" s="1" t="n"/>
+      <c r="AX28" s="1" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="6" t="n"/>
+      <c r="C29" s="6" t="n"/>
+      <c r="D29" s="1" t="n"/>
+      <c r="E29" s="1" t="n"/>
+      <c r="F29" s="1" t="n"/>
+      <c r="G29" s="1" t="n"/>
+      <c r="H29" s="1" t="n"/>
+      <c r="I29" s="1" t="n"/>
+      <c r="J29" s="1" t="n"/>
+      <c r="K29" s="1" t="n"/>
+      <c r="L29" s="1" t="n"/>
+      <c r="M29" s="1" t="n"/>
+      <c r="N29" s="1" t="n"/>
+      <c r="O29" s="1" t="n"/>
+      <c r="P29" s="1" t="n"/>
+      <c r="Q29" s="1" t="n"/>
+      <c r="R29" s="1" t="n"/>
+      <c r="S29" s="1" t="n"/>
+      <c r="T29" s="1" t="n"/>
+      <c r="U29" s="1" t="n"/>
+      <c r="V29" s="1" t="n"/>
+      <c r="W29" s="1" t="n"/>
+      <c r="X29" s="1" t="n"/>
+      <c r="Y29" s="1" t="n"/>
+      <c r="Z29" s="1" t="n"/>
+      <c r="AA29" s="1" t="n"/>
+      <c r="AB29" s="1" t="n"/>
+      <c r="AC29" s="1" t="n"/>
+      <c r="AD29" s="1" t="n"/>
+      <c r="AE29" s="1" t="n"/>
+      <c r="AF29" s="1" t="n"/>
+      <c r="AG29" s="1" t="n"/>
+      <c r="AH29" s="1" t="n"/>
+      <c r="AI29" s="1" t="n"/>
+      <c r="AJ29" s="1" t="n"/>
+      <c r="AK29" s="1" t="n"/>
+      <c r="AL29" s="1" t="n"/>
+      <c r="AM29" s="1" t="n"/>
+      <c r="AN29" s="1" t="n"/>
+      <c r="AO29" s="1" t="n"/>
+      <c r="AP29" s="1" t="n"/>
+      <c r="AQ29" s="1" t="n"/>
+      <c r="AR29" s="1" t="n"/>
+      <c r="AS29" s="1" t="n"/>
+      <c r="AT29" s="1" t="n"/>
+      <c r="AU29" s="1" t="n"/>
+      <c r="AV29" s="1" t="n"/>
+      <c r="AW29" s="1" t="n"/>
+      <c r="AX29" s="1" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="6" t="n"/>
+      <c r="C30" s="6" t="n"/>
+      <c r="D30" s="1" t="n"/>
+      <c r="E30" s="1" t="n"/>
+      <c r="F30" s="1" t="n"/>
+      <c r="G30" s="1" t="n"/>
+      <c r="H30" s="1" t="n"/>
+      <c r="I30" s="1" t="n"/>
+      <c r="J30" s="1" t="n"/>
+      <c r="K30" s="1" t="n"/>
+      <c r="L30" s="1" t="n"/>
+      <c r="M30" s="1" t="n"/>
+      <c r="N30" s="1" t="n"/>
+      <c r="O30" s="1" t="n"/>
+      <c r="P30" s="1" t="n"/>
+      <c r="Q30" s="1" t="n"/>
+      <c r="R30" s="1" t="n"/>
+      <c r="S30" s="1" t="n"/>
+      <c r="T30" s="1" t="n"/>
+      <c r="U30" s="1" t="n"/>
+      <c r="V30" s="1" t="n"/>
+      <c r="W30" s="1" t="n"/>
+      <c r="X30" s="1" t="n"/>
+      <c r="Y30" s="1" t="n"/>
+      <c r="Z30" s="1" t="n"/>
+      <c r="AA30" s="1" t="n"/>
+      <c r="AB30" s="1" t="n"/>
+      <c r="AC30" s="1" t="n"/>
+      <c r="AD30" s="1" t="n"/>
+      <c r="AE30" s="1" t="n"/>
+      <c r="AF30" s="1" t="n"/>
+      <c r="AG30" s="1" t="n"/>
+      <c r="AH30" s="1" t="n"/>
+      <c r="AI30" s="1" t="n"/>
+      <c r="AJ30" s="1" t="n"/>
+      <c r="AK30" s="1" t="n"/>
+      <c r="AL30" s="1" t="n"/>
+      <c r="AM30" s="1" t="n"/>
+      <c r="AN30" s="1" t="n"/>
+      <c r="AO30" s="1" t="n"/>
+      <c r="AP30" s="1" t="n"/>
+      <c r="AQ30" s="1" t="n"/>
+      <c r="AR30" s="1" t="n"/>
+      <c r="AS30" s="1" t="n"/>
+      <c r="AT30" s="1" t="n"/>
+      <c r="AU30" s="1" t="n"/>
+      <c r="AV30" s="1" t="n"/>
+      <c r="AW30" s="1" t="n"/>
+      <c r="AX30" s="1" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="6" t="n"/>
+      <c r="C31" s="6" t="n"/>
+      <c r="D31" s="1" t="n"/>
+      <c r="E31" s="1" t="n"/>
+      <c r="F31" s="1" t="n"/>
+      <c r="G31" s="1" t="n"/>
+      <c r="H31" s="1" t="n"/>
+      <c r="I31" s="1" t="n"/>
+      <c r="J31" s="1" t="n"/>
+      <c r="K31" s="1" t="n"/>
+      <c r="L31" s="1" t="n"/>
+      <c r="M31" s="1" t="n"/>
+      <c r="N31" s="1" t="n"/>
+      <c r="O31" s="1" t="n"/>
+      <c r="P31" s="1" t="n"/>
+      <c r="Q31" s="1" t="n"/>
+      <c r="R31" s="1" t="n"/>
+      <c r="S31" s="1" t="n"/>
+      <c r="T31" s="1" t="n"/>
+      <c r="U31" s="1" t="n"/>
+      <c r="V31" s="1" t="n"/>
+      <c r="W31" s="1" t="n"/>
+      <c r="X31" s="1" t="n"/>
+      <c r="Y31" s="1" t="n"/>
+      <c r="Z31" s="1" t="n"/>
+      <c r="AA31" s="1" t="n"/>
+      <c r="AB31" s="1" t="n"/>
+      <c r="AC31" s="1" t="n"/>
+      <c r="AD31" s="1" t="n"/>
+      <c r="AE31" s="1" t="n"/>
+      <c r="AF31" s="1" t="n"/>
+      <c r="AG31" s="1" t="n"/>
+      <c r="AH31" s="1" t="n"/>
+      <c r="AI31" s="1" t="n"/>
+      <c r="AJ31" s="1" t="n"/>
+      <c r="AK31" s="1" t="n"/>
+      <c r="AL31" s="1" t="n"/>
+      <c r="AM31" s="1" t="n"/>
+      <c r="AN31" s="1" t="n"/>
+      <c r="AO31" s="1" t="n"/>
+      <c r="AP31" s="1" t="n"/>
+      <c r="AQ31" s="1" t="n"/>
+      <c r="AR31" s="1" t="n"/>
+      <c r="AS31" s="1" t="n"/>
+      <c r="AT31" s="1" t="n"/>
+      <c r="AU31" s="1" t="n"/>
+      <c r="AV31" s="1" t="n"/>
+      <c r="AW31" s="1" t="n"/>
+      <c r="AX31" s="1" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="6" t="n"/>
+      <c r="C32" s="6" t="n"/>
+      <c r="D32" s="1" t="n"/>
+      <c r="E32" s="1" t="n"/>
+      <c r="F32" s="1" t="n"/>
+      <c r="G32" s="1" t="n"/>
+      <c r="H32" s="1" t="n"/>
+      <c r="I32" s="1" t="n"/>
+      <c r="J32" s="1" t="n"/>
+      <c r="K32" s="1" t="n"/>
+      <c r="L32" s="1" t="n"/>
+      <c r="M32" s="1" t="n"/>
+      <c r="N32" s="1" t="n"/>
+      <c r="O32" s="1" t="n"/>
+      <c r="P32" s="1" t="n"/>
+      <c r="Q32" s="1" t="n"/>
+      <c r="R32" s="1" t="n"/>
+      <c r="S32" s="1" t="n"/>
+      <c r="T32" s="1" t="n"/>
+      <c r="U32" s="1" t="n"/>
+      <c r="V32" s="1" t="n"/>
+      <c r="W32" s="1" t="n"/>
+      <c r="X32" s="1" t="n"/>
+      <c r="Y32" s="1" t="n"/>
+      <c r="Z32" s="1" t="n"/>
+      <c r="AA32" s="1" t="n"/>
+      <c r="AB32" s="1" t="n"/>
+      <c r="AC32" s="1" t="n"/>
+      <c r="AD32" s="1" t="n"/>
+      <c r="AE32" s="1" t="n"/>
+      <c r="AF32" s="1" t="n"/>
+      <c r="AG32" s="1" t="n"/>
+      <c r="AH32" s="1" t="n"/>
+      <c r="AI32" s="1" t="n"/>
+      <c r="AJ32" s="1" t="n"/>
+      <c r="AK32" s="1" t="n"/>
+      <c r="AL32" s="1" t="n"/>
+      <c r="AM32" s="1" t="n"/>
+      <c r="AN32" s="1" t="n"/>
+      <c r="AO32" s="1" t="n"/>
+      <c r="AP32" s="1" t="n"/>
+      <c r="AQ32" s="1" t="n"/>
+      <c r="AR32" s="1" t="n"/>
+      <c r="AS32" s="1" t="n"/>
+      <c r="AT32" s="1" t="n"/>
+      <c r="AU32" s="1" t="n"/>
+      <c r="AV32" s="1" t="n"/>
+      <c r="AW32" s="1" t="n"/>
+      <c r="AX32" s="1" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="6" t="n"/>
+      <c r="C33" s="6" t="n"/>
+      <c r="D33" s="1" t="n"/>
+      <c r="E33" s="1" t="n"/>
+      <c r="F33" s="1" t="n"/>
+      <c r="G33" s="1" t="n"/>
+      <c r="H33" s="1" t="n"/>
+      <c r="I33" s="1" t="n"/>
+      <c r="J33" s="1" t="n"/>
+      <c r="K33" s="1" t="n"/>
+      <c r="L33" s="1" t="n"/>
+      <c r="M33" s="1" t="n"/>
+      <c r="N33" s="1" t="n"/>
+      <c r="O33" s="1" t="n"/>
+      <c r="P33" s="1" t="n"/>
+      <c r="Q33" s="1" t="n"/>
+      <c r="R33" s="1" t="n"/>
+      <c r="S33" s="1" t="n"/>
+      <c r="T33" s="1" t="n"/>
+      <c r="U33" s="1" t="n"/>
+      <c r="V33" s="1" t="n"/>
+      <c r="W33" s="1" t="n"/>
+      <c r="X33" s="1" t="n"/>
+      <c r="Y33" s="1" t="n"/>
+      <c r="Z33" s="1" t="n"/>
+      <c r="AA33" s="1" t="n"/>
+      <c r="AB33" s="1" t="n"/>
+      <c r="AC33" s="1" t="n"/>
+      <c r="AD33" s="1" t="n"/>
+      <c r="AE33" s="1" t="n"/>
+      <c r="AF33" s="1" t="n"/>
+      <c r="AG33" s="1" t="n"/>
+      <c r="AH33" s="1" t="n"/>
+      <c r="AI33" s="1" t="n"/>
+      <c r="AJ33" s="1" t="n"/>
+      <c r="AK33" s="1" t="n"/>
+      <c r="AL33" s="1" t="n"/>
+      <c r="AM33" s="1" t="n"/>
+      <c r="AN33" s="1" t="n"/>
+      <c r="AO33" s="1" t="n"/>
+      <c r="AP33" s="1" t="n"/>
+      <c r="AQ33" s="1" t="n"/>
+      <c r="AR33" s="1" t="n"/>
+      <c r="AS33" s="1" t="n"/>
+      <c r="AT33" s="1" t="n"/>
+      <c r="AU33" s="1" t="n"/>
+      <c r="AV33" s="1" t="n"/>
+      <c r="AW33" s="1" t="n"/>
+      <c r="AX33" s="1" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="6" t="n"/>
+      <c r="C34" s="6" t="n"/>
+      <c r="D34" s="1" t="n"/>
+      <c r="E34" s="1" t="n"/>
+      <c r="F34" s="1" t="n"/>
+      <c r="G34" s="1" t="n"/>
+      <c r="H34" s="1" t="n"/>
+      <c r="I34" s="1" t="n"/>
+      <c r="J34" s="1" t="n"/>
+      <c r="K34" s="1" t="n"/>
+      <c r="L34" s="1" t="n"/>
+      <c r="M34" s="1" t="n"/>
+      <c r="N34" s="1" t="n"/>
+      <c r="O34" s="1" t="n"/>
+      <c r="P34" s="1" t="n"/>
+      <c r="Q34" s="1" t="n"/>
+      <c r="R34" s="1" t="n"/>
+      <c r="S34" s="1" t="n"/>
+      <c r="T34" s="1" t="n"/>
+      <c r="U34" s="1" t="n"/>
+      <c r="V34" s="1" t="n"/>
+      <c r="W34" s="1" t="n"/>
+      <c r="X34" s="1" t="n"/>
+      <c r="Y34" s="1" t="n"/>
+      <c r="Z34" s="1" t="n"/>
+      <c r="AA34" s="1" t="n"/>
+      <c r="AB34" s="1" t="n"/>
+      <c r="AC34" s="1" t="n"/>
+      <c r="AD34" s="1" t="n"/>
+      <c r="AE34" s="1" t="n"/>
+      <c r="AF34" s="1" t="n"/>
+      <c r="AG34" s="1" t="n"/>
+      <c r="AH34" s="1" t="n"/>
+      <c r="AI34" s="1" t="n"/>
+      <c r="AJ34" s="1" t="n"/>
+      <c r="AK34" s="1" t="n"/>
+      <c r="AL34" s="1" t="n"/>
+      <c r="AM34" s="1" t="n"/>
+      <c r="AN34" s="1" t="n"/>
+      <c r="AO34" s="1" t="n"/>
+      <c r="AP34" s="1" t="n"/>
+      <c r="AQ34" s="1" t="n"/>
+      <c r="AR34" s="1" t="n"/>
+      <c r="AS34" s="1" t="n"/>
+      <c r="AT34" s="1" t="n"/>
+      <c r="AU34" s="1" t="n"/>
+      <c r="AV34" s="1" t="n"/>
+      <c r="AW34" s="1" t="n"/>
+      <c r="AX34" s="1" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="6" t="n"/>
+      <c r="C35" s="6" t="n"/>
+      <c r="D35" s="1" t="n"/>
+      <c r="E35" s="1" t="n"/>
+      <c r="F35" s="1" t="n"/>
+      <c r="G35" s="1" t="n"/>
+      <c r="H35" s="1" t="n"/>
+      <c r="I35" s="1" t="n"/>
+      <c r="J35" s="1" t="n"/>
+      <c r="K35" s="1" t="n"/>
+      <c r="L35" s="1" t="n"/>
+      <c r="M35" s="1" t="n"/>
+      <c r="N35" s="1" t="n"/>
+      <c r="O35" s="1" t="n"/>
+      <c r="P35" s="1" t="n"/>
+      <c r="Q35" s="1" t="n"/>
+      <c r="R35" s="1" t="n"/>
+      <c r="S35" s="1" t="n"/>
+      <c r="T35" s="1" t="n"/>
+      <c r="U35" s="1" t="n"/>
+      <c r="V35" s="1" t="n"/>
+      <c r="W35" s="1" t="n"/>
+      <c r="X35" s="1" t="n"/>
+      <c r="Y35" s="1" t="n"/>
+      <c r="Z35" s="1" t="n"/>
+      <c r="AA35" s="1" t="n"/>
+      <c r="AB35" s="1" t="n"/>
+      <c r="AC35" s="1" t="n"/>
+      <c r="AD35" s="1" t="n"/>
+      <c r="AE35" s="1" t="n"/>
+      <c r="AF35" s="1" t="n"/>
+      <c r="AG35" s="1" t="n"/>
+      <c r="AH35" s="1" t="n"/>
+      <c r="AI35" s="1" t="n"/>
+      <c r="AJ35" s="1" t="n"/>
+      <c r="AK35" s="1" t="n"/>
+      <c r="AL35" s="1" t="n"/>
+      <c r="AM35" s="1" t="n"/>
+      <c r="AN35" s="1" t="n"/>
+      <c r="AO35" s="1" t="n"/>
+      <c r="AP35" s="1" t="n"/>
+      <c r="AQ35" s="1" t="n"/>
+      <c r="AR35" s="1" t="n"/>
+      <c r="AS35" s="1" t="n"/>
+      <c r="AT35" s="1" t="n"/>
+      <c r="AU35" s="1" t="n"/>
+      <c r="AV35" s="1" t="n"/>
+      <c r="AW35" s="1" t="n"/>
+      <c r="AX35" s="1" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="6" t="n"/>
+      <c r="C36" s="6" t="n"/>
+      <c r="D36" s="1" t="n"/>
+      <c r="E36" s="1" t="n"/>
+      <c r="F36" s="1" t="n"/>
+      <c r="G36" s="1" t="n"/>
+      <c r="H36" s="1" t="n"/>
+      <c r="I36" s="1" t="n"/>
+      <c r="J36" s="1" t="n"/>
+      <c r="K36" s="1" t="n"/>
+      <c r="L36" s="1" t="n"/>
+      <c r="M36" s="1" t="n"/>
+      <c r="N36" s="1" t="n"/>
+      <c r="O36" s="1" t="n"/>
+      <c r="P36" s="1" t="n"/>
+      <c r="Q36" s="1" t="n"/>
+      <c r="R36" s="1" t="n"/>
+      <c r="S36" s="1" t="n"/>
+      <c r="T36" s="1" t="n"/>
+      <c r="U36" s="1" t="n"/>
+      <c r="V36" s="1" t="n"/>
+      <c r="W36" s="1" t="n"/>
+      <c r="X36" s="1" t="n"/>
+      <c r="Y36" s="1" t="n"/>
+      <c r="Z36" s="1" t="n"/>
+      <c r="AA36" s="1" t="n"/>
+      <c r="AB36" s="1" t="n"/>
+      <c r="AC36" s="1" t="n"/>
+      <c r="AD36" s="1" t="n"/>
+      <c r="AE36" s="1" t="n"/>
+      <c r="AF36" s="1" t="n"/>
+      <c r="AG36" s="1" t="n"/>
+      <c r="AH36" s="1" t="n"/>
+      <c r="AI36" s="1" t="n"/>
+      <c r="AJ36" s="1" t="n"/>
+      <c r="AK36" s="1" t="n"/>
+      <c r="AL36" s="1" t="n"/>
+      <c r="AM36" s="1" t="n"/>
+      <c r="AN36" s="1" t="n"/>
+      <c r="AO36" s="1" t="n"/>
+      <c r="AP36" s="1" t="n"/>
+      <c r="AQ36" s="1" t="n"/>
+      <c r="AR36" s="1" t="n"/>
+      <c r="AS36" s="1" t="n"/>
+      <c r="AT36" s="1" t="n"/>
+      <c r="AU36" s="1" t="n"/>
+      <c r="AV36" s="1" t="n"/>
+      <c r="AW36" s="1" t="n"/>
+      <c r="AX36" s="1" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="6" t="n"/>
+      <c r="C37" s="6" t="n"/>
+      <c r="D37" s="1" t="n"/>
+      <c r="E37" s="1" t="n"/>
+      <c r="F37" s="1" t="n"/>
+      <c r="G37" s="1" t="n"/>
+      <c r="H37" s="1" t="n"/>
+      <c r="I37" s="1" t="n"/>
+      <c r="J37" s="1" t="n"/>
+      <c r="K37" s="1" t="n"/>
+      <c r="L37" s="1" t="n"/>
+      <c r="M37" s="1" t="n"/>
+      <c r="N37" s="1" t="n"/>
+      <c r="O37" s="1" t="n"/>
+      <c r="P37" s="1" t="n"/>
+      <c r="Q37" s="1" t="n"/>
+      <c r="R37" s="1" t="n"/>
+      <c r="S37" s="1" t="n"/>
+      <c r="T37" s="1" t="n"/>
+      <c r="U37" s="1" t="n"/>
+      <c r="V37" s="1" t="n"/>
+      <c r="W37" s="1" t="n"/>
+      <c r="X37" s="1" t="n"/>
+      <c r="Y37" s="1" t="n"/>
+      <c r="Z37" s="1" t="n"/>
+      <c r="AA37" s="1" t="n"/>
+      <c r="AB37" s="1" t="n"/>
+      <c r="AC37" s="1" t="n"/>
+      <c r="AD37" s="1" t="n"/>
+      <c r="AE37" s="1" t="n"/>
+      <c r="AF37" s="1" t="n"/>
+      <c r="AG37" s="1" t="n"/>
+      <c r="AH37" s="1" t="n"/>
+      <c r="AI37" s="1" t="n"/>
+      <c r="AJ37" s="1" t="n"/>
+      <c r="AK37" s="1" t="n"/>
+      <c r="AL37" s="1" t="n"/>
+      <c r="AM37" s="1" t="n"/>
+      <c r="AN37" s="1" t="n"/>
+      <c r="AO37" s="1" t="n"/>
+      <c r="AP37" s="1" t="n"/>
+      <c r="AQ37" s="1" t="n"/>
+      <c r="AR37" s="1" t="n"/>
+      <c r="AS37" s="1" t="n"/>
+      <c r="AT37" s="1" t="n"/>
+      <c r="AU37" s="1" t="n"/>
+      <c r="AV37" s="1" t="n"/>
+      <c r="AW37" s="1" t="n"/>
+      <c r="AX37" s="1" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="6" t="n"/>
+      <c r="C38" s="6" t="n"/>
+      <c r="D38" s="1" t="n"/>
+      <c r="E38" s="1" t="n"/>
+      <c r="F38" s="1" t="n"/>
+      <c r="G38" s="1" t="n"/>
+      <c r="H38" s="1" t="n"/>
+      <c r="I38" s="1" t="n"/>
+      <c r="J38" s="1" t="n"/>
+      <c r="K38" s="1" t="n"/>
+      <c r="L38" s="1" t="n"/>
+      <c r="M38" s="1" t="n"/>
+      <c r="N38" s="1" t="n"/>
+      <c r="O38" s="1" t="n"/>
+      <c r="P38" s="1" t="n"/>
+      <c r="Q38" s="1" t="n"/>
+      <c r="R38" s="1" t="n"/>
+      <c r="S38" s="1" t="n"/>
+      <c r="T38" s="1" t="n"/>
+      <c r="U38" s="1" t="n"/>
+      <c r="V38" s="1" t="n"/>
+      <c r="W38" s="1" t="n"/>
+      <c r="X38" s="1" t="n"/>
+      <c r="Y38" s="1" t="n"/>
+      <c r="Z38" s="1" t="n"/>
+      <c r="AA38" s="1" t="n"/>
+      <c r="AB38" s="1" t="n"/>
+      <c r="AC38" s="1" t="n"/>
+      <c r="AD38" s="1" t="n"/>
+      <c r="AE38" s="1" t="n"/>
+      <c r="AF38" s="1" t="n"/>
+      <c r="AG38" s="1" t="n"/>
+      <c r="AH38" s="1" t="n"/>
+      <c r="AI38" s="1" t="n"/>
+      <c r="AJ38" s="1" t="n"/>
+      <c r="AK38" s="1" t="n"/>
+      <c r="AL38" s="1" t="n"/>
+      <c r="AM38" s="1" t="n"/>
+      <c r="AN38" s="1" t="n"/>
+      <c r="AO38" s="1" t="n"/>
+      <c r="AP38" s="1" t="n"/>
+      <c r="AQ38" s="1" t="n"/>
+      <c r="AR38" s="1" t="n"/>
+      <c r="AS38" s="1" t="n"/>
+      <c r="AT38" s="1" t="n"/>
+      <c r="AU38" s="1" t="n"/>
+      <c r="AV38" s="1" t="n"/>
+      <c r="AW38" s="1" t="n"/>
+      <c r="AX38" s="1" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="6" t="n"/>
+      <c r="C39" s="6" t="n"/>
+      <c r="D39" s="1" t="n"/>
+      <c r="E39" s="1" t="n"/>
+      <c r="F39" s="1" t="n"/>
+      <c r="G39" s="1" t="n"/>
+      <c r="H39" s="1" t="n"/>
+      <c r="I39" s="1" t="n"/>
+      <c r="J39" s="1" t="n"/>
+      <c r="K39" s="1" t="n"/>
+      <c r="L39" s="1" t="n"/>
+      <c r="M39" s="1" t="n"/>
+      <c r="N39" s="1" t="n"/>
+      <c r="O39" s="1" t="n"/>
+      <c r="P39" s="1" t="n"/>
+      <c r="Q39" s="1" t="n"/>
+      <c r="R39" s="1" t="n"/>
+      <c r="S39" s="1" t="n"/>
+      <c r="T39" s="1" t="n"/>
+      <c r="U39" s="1" t="n"/>
+      <c r="V39" s="1" t="n"/>
+      <c r="W39" s="1" t="n"/>
+      <c r="X39" s="1" t="n"/>
+      <c r="Y39" s="1" t="n"/>
+      <c r="Z39" s="1" t="n"/>
+      <c r="AA39" s="1" t="n"/>
+      <c r="AB39" s="1" t="n"/>
+      <c r="AC39" s="1" t="n"/>
+      <c r="AD39" s="1" t="n"/>
+      <c r="AE39" s="1" t="n"/>
+      <c r="AF39" s="1" t="n"/>
+      <c r="AG39" s="1" t="n"/>
+      <c r="AH39" s="1" t="n"/>
+      <c r="AI39" s="1" t="n"/>
+      <c r="AJ39" s="1" t="n"/>
+      <c r="AK39" s="1" t="n"/>
+      <c r="AL39" s="1" t="n"/>
+      <c r="AM39" s="1" t="n"/>
+      <c r="AN39" s="1" t="n"/>
+      <c r="AO39" s="1" t="n"/>
+      <c r="AP39" s="1" t="n"/>
+      <c r="AQ39" s="1" t="n"/>
+      <c r="AR39" s="1" t="n"/>
+      <c r="AS39" s="1" t="n"/>
+      <c r="AT39" s="1" t="n"/>
+      <c r="AU39" s="1" t="n"/>
+      <c r="AV39" s="1" t="n"/>
+      <c r="AW39" s="1" t="n"/>
+      <c r="AX39" s="1" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="6" t="n"/>
+      <c r="C40" s="6" t="n"/>
+      <c r="D40" s="1" t="n"/>
+      <c r="E40" s="1" t="n"/>
+      <c r="F40" s="1" t="n"/>
+      <c r="G40" s="1" t="n"/>
+      <c r="H40" s="1" t="n"/>
+      <c r="I40" s="1" t="n"/>
+      <c r="J40" s="1" t="n"/>
+      <c r="K40" s="1" t="n"/>
+      <c r="L40" s="1" t="n"/>
+      <c r="M40" s="1" t="n"/>
+      <c r="N40" s="1" t="n"/>
+      <c r="O40" s="1" t="n"/>
+      <c r="P40" s="1" t="n"/>
+      <c r="Q40" s="1" t="n"/>
+      <c r="R40" s="1" t="n"/>
+      <c r="S40" s="1" t="n"/>
+      <c r="T40" s="1" t="n"/>
+      <c r="U40" s="1" t="n"/>
+      <c r="V40" s="1" t="n"/>
+      <c r="W40" s="1" t="n"/>
+      <c r="X40" s="1" t="n"/>
+      <c r="Y40" s="1" t="n"/>
+      <c r="Z40" s="1" t="n"/>
+      <c r="AA40" s="1" t="n"/>
+      <c r="AB40" s="1" t="n"/>
+      <c r="AC40" s="1" t="n"/>
+      <c r="AD40" s="1" t="n"/>
+      <c r="AE40" s="1" t="n"/>
+      <c r="AF40" s="1" t="n"/>
+      <c r="AG40" s="1" t="n"/>
+      <c r="AH40" s="1" t="n"/>
+      <c r="AI40" s="1" t="n"/>
+      <c r="AJ40" s="1" t="n"/>
+      <c r="AK40" s="1" t="n"/>
+      <c r="AL40" s="1" t="n"/>
+      <c r="AM40" s="1" t="n"/>
+      <c r="AN40" s="1" t="n"/>
+      <c r="AO40" s="1" t="n"/>
+      <c r="AP40" s="1" t="n"/>
+      <c r="AQ40" s="1" t="n"/>
+      <c r="AR40" s="1" t="n"/>
+      <c r="AS40" s="1" t="n"/>
+      <c r="AT40" s="1" t="n"/>
+      <c r="AU40" s="1" t="n"/>
+      <c r="AV40" s="1" t="n"/>
+      <c r="AW40" s="1" t="n"/>
+      <c r="AX40" s="1" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="6" t="n"/>
+      <c r="C41" s="6" t="n"/>
+      <c r="D41" s="1" t="n"/>
+      <c r="E41" s="1" t="n"/>
+      <c r="F41" s="1" t="n"/>
+      <c r="G41" s="1" t="n"/>
+      <c r="H41" s="1" t="n"/>
+      <c r="I41" s="1" t="n"/>
+      <c r="J41" s="1" t="n"/>
+      <c r="K41" s="1" t="n"/>
+      <c r="L41" s="1" t="n"/>
+      <c r="M41" s="1" t="n"/>
+      <c r="N41" s="1" t="n"/>
+      <c r="O41" s="1" t="n"/>
+      <c r="P41" s="1" t="n"/>
+      <c r="Q41" s="1" t="n"/>
+      <c r="R41" s="1" t="n"/>
+      <c r="S41" s="1" t="n"/>
+      <c r="T41" s="1" t="n"/>
+      <c r="U41" s="1" t="n"/>
+      <c r="V41" s="1" t="n"/>
+      <c r="W41" s="1" t="n"/>
+      <c r="X41" s="1" t="n"/>
+      <c r="Y41" s="1" t="n"/>
+      <c r="Z41" s="1" t="n"/>
+      <c r="AA41" s="1" t="n"/>
+      <c r="AB41" s="1" t="n"/>
+      <c r="AC41" s="1" t="n"/>
+      <c r="AD41" s="1" t="n"/>
+      <c r="AE41" s="1" t="n"/>
+      <c r="AF41" s="1" t="n"/>
+      <c r="AG41" s="1" t="n"/>
+      <c r="AH41" s="1" t="n"/>
+      <c r="AI41" s="1" t="n"/>
+      <c r="AJ41" s="1" t="n"/>
+      <c r="AK41" s="1" t="n"/>
+      <c r="AL41" s="1" t="n"/>
+      <c r="AM41" s="1" t="n"/>
+      <c r="AN41" s="1" t="n"/>
+      <c r="AO41" s="1" t="n"/>
+      <c r="AP41" s="1" t="n"/>
+      <c r="AQ41" s="1" t="n"/>
+      <c r="AR41" s="1" t="n"/>
+      <c r="AS41" s="1" t="n"/>
+      <c r="AT41" s="1" t="n"/>
+      <c r="AU41" s="1" t="n"/>
+      <c r="AV41" s="1" t="n"/>
+      <c r="AW41" s="1" t="n"/>
+      <c r="AX41" s="1" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="6" t="n"/>
+      <c r="C42" s="6" t="n"/>
+      <c r="D42" s="1" t="n"/>
+      <c r="E42" s="1" t="n"/>
+      <c r="F42" s="1" t="n"/>
+      <c r="G42" s="1" t="n"/>
+      <c r="H42" s="1" t="n"/>
+      <c r="I42" s="1" t="n"/>
+      <c r="J42" s="1" t="n"/>
+      <c r="K42" s="1" t="n"/>
+      <c r="L42" s="1" t="n"/>
+      <c r="M42" s="1" t="n"/>
+      <c r="N42" s="1" t="n"/>
+      <c r="O42" s="1" t="n"/>
+      <c r="P42" s="1" t="n"/>
+      <c r="Q42" s="1" t="n"/>
+      <c r="R42" s="1" t="n"/>
+      <c r="S42" s="1" t="n"/>
+      <c r="T42" s="1" t="n"/>
+      <c r="U42" s="1" t="n"/>
+      <c r="V42" s="1" t="n"/>
+      <c r="W42" s="1" t="n"/>
+      <c r="X42" s="1" t="n"/>
+      <c r="Y42" s="1" t="n"/>
+      <c r="Z42" s="1" t="n"/>
+      <c r="AA42" s="1" t="n"/>
+      <c r="AB42" s="1" t="n"/>
+      <c r="AC42" s="1" t="n"/>
+      <c r="AD42" s="1" t="n"/>
+      <c r="AE42" s="1" t="n"/>
+      <c r="AF42" s="1" t="n"/>
+      <c r="AG42" s="1" t="n"/>
+      <c r="AH42" s="1" t="n"/>
+      <c r="AI42" s="1" t="n"/>
+      <c r="AJ42" s="1" t="n"/>
+      <c r="AK42" s="1" t="n"/>
+      <c r="AL42" s="1" t="n"/>
+      <c r="AM42" s="1" t="n"/>
+      <c r="AN42" s="1" t="n"/>
+      <c r="AO42" s="1" t="n"/>
+      <c r="AP42" s="1" t="n"/>
+      <c r="AQ42" s="1" t="n"/>
+      <c r="AR42" s="1" t="n"/>
+      <c r="AS42" s="1" t="n"/>
+      <c r="AT42" s="1" t="n"/>
+      <c r="AU42" s="1" t="n"/>
+      <c r="AV42" s="1" t="n"/>
+      <c r="AW42" s="1" t="n"/>
+      <c r="AX42" s="1" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="6" t="n"/>
+      <c r="C43" s="6" t="n"/>
+      <c r="D43" s="1" t="n"/>
+      <c r="E43" s="1" t="n"/>
+      <c r="F43" s="1" t="n"/>
+      <c r="G43" s="1" t="n"/>
+      <c r="H43" s="1" t="n"/>
+      <c r="I43" s="1" t="n"/>
+      <c r="J43" s="1" t="n"/>
+      <c r="K43" s="1" t="n"/>
+      <c r="L43" s="1" t="n"/>
+      <c r="M43" s="1" t="n"/>
+      <c r="N43" s="1" t="n"/>
+      <c r="O43" s="1" t="n"/>
+      <c r="P43" s="1" t="n"/>
+      <c r="Q43" s="1" t="n"/>
+      <c r="R43" s="1" t="n"/>
+      <c r="S43" s="1" t="n"/>
+      <c r="T43" s="1" t="n"/>
+      <c r="U43" s="1" t="n"/>
+      <c r="V43" s="1" t="n"/>
+      <c r="W43" s="1" t="n"/>
+      <c r="X43" s="1" t="n"/>
+      <c r="Y43" s="1" t="n"/>
+      <c r="Z43" s="1" t="n"/>
+      <c r="AA43" s="1" t="n"/>
+      <c r="AB43" s="1" t="n"/>
+      <c r="AC43" s="1" t="n"/>
+      <c r="AD43" s="1" t="n"/>
+      <c r="AE43" s="1" t="n"/>
+      <c r="AF43" s="1" t="n"/>
+      <c r="AG43" s="1" t="n"/>
+      <c r="AH43" s="1" t="n"/>
+      <c r="AI43" s="1" t="n"/>
+      <c r="AJ43" s="1" t="n"/>
+      <c r="AK43" s="1" t="n"/>
+      <c r="AL43" s="1" t="n"/>
+      <c r="AM43" s="1" t="n"/>
+      <c r="AN43" s="1" t="n"/>
+      <c r="AO43" s="1" t="n"/>
+      <c r="AP43" s="1" t="n"/>
+      <c r="AQ43" s="1" t="n"/>
+      <c r="AR43" s="1" t="n"/>
+      <c r="AS43" s="1" t="n"/>
+      <c r="AT43" s="1" t="n"/>
+      <c r="AU43" s="1" t="n"/>
+      <c r="AV43" s="1" t="n"/>
+      <c r="AW43" s="1" t="n"/>
+      <c r="AX43" s="1" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="6" t="n"/>
+      <c r="C44" s="6" t="n"/>
+      <c r="D44" s="1" t="n"/>
+      <c r="E44" s="1" t="n"/>
+      <c r="F44" s="1" t="n"/>
+      <c r="G44" s="1" t="n"/>
+      <c r="H44" s="1" t="n"/>
+      <c r="I44" s="1" t="n"/>
+      <c r="J44" s="1" t="n"/>
+      <c r="K44" s="1" t="n"/>
+      <c r="L44" s="1" t="n"/>
+      <c r="M44" s="1" t="n"/>
+      <c r="N44" s="1" t="n"/>
+      <c r="O44" s="1" t="n"/>
+      <c r="P44" s="1" t="n"/>
+      <c r="Q44" s="1" t="n"/>
+      <c r="R44" s="1" t="n"/>
+      <c r="S44" s="1" t="n"/>
+      <c r="T44" s="1" t="n"/>
+      <c r="U44" s="1" t="n"/>
+      <c r="V44" s="1" t="n"/>
+      <c r="W44" s="1" t="n"/>
+      <c r="X44" s="1" t="n"/>
+      <c r="Y44" s="1" t="n"/>
+      <c r="Z44" s="1" t="n"/>
+      <c r="AA44" s="1" t="n"/>
+      <c r="AB44" s="1" t="n"/>
+      <c r="AC44" s="1" t="n"/>
+      <c r="AD44" s="1" t="n"/>
+      <c r="AE44" s="1" t="n"/>
+      <c r="AF44" s="1" t="n"/>
+      <c r="AG44" s="1" t="n"/>
+      <c r="AH44" s="1" t="n"/>
+      <c r="AI44" s="1" t="n"/>
+      <c r="AJ44" s="1" t="n"/>
+      <c r="AK44" s="1" t="n"/>
+      <c r="AL44" s="1" t="n"/>
+      <c r="AM44" s="1" t="n"/>
+      <c r="AN44" s="1" t="n"/>
+      <c r="AO44" s="1" t="n"/>
+      <c r="AP44" s="1" t="n"/>
+      <c r="AQ44" s="1" t="n"/>
+      <c r="AR44" s="1" t="n"/>
+      <c r="AS44" s="1" t="n"/>
+      <c r="AT44" s="1" t="n"/>
+      <c r="AU44" s="1" t="n"/>
+      <c r="AV44" s="1" t="n"/>
+      <c r="AW44" s="1" t="n"/>
+      <c r="AX44" s="1" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="6" t="n"/>
+      <c r="C45" s="6" t="n"/>
+      <c r="D45" s="1" t="n"/>
+      <c r="E45" s="1" t="n"/>
+      <c r="F45" s="1" t="n"/>
+      <c r="G45" s="1" t="n"/>
+      <c r="H45" s="1" t="n"/>
+      <c r="I45" s="1" t="n"/>
+      <c r="J45" s="1" t="n"/>
+      <c r="K45" s="1" t="n"/>
+      <c r="L45" s="1" t="n"/>
+      <c r="M45" s="1" t="n"/>
+      <c r="N45" s="1" t="n"/>
+      <c r="O45" s="1" t="n"/>
+      <c r="P45" s="1" t="n"/>
+      <c r="Q45" s="1" t="n"/>
+      <c r="R45" s="1" t="n"/>
+      <c r="S45" s="1" t="n"/>
+      <c r="T45" s="1" t="n"/>
+      <c r="U45" s="1" t="n"/>
+      <c r="V45" s="1" t="n"/>
+      <c r="W45" s="1" t="n"/>
+      <c r="X45" s="1" t="n"/>
+      <c r="Y45" s="1" t="n"/>
+      <c r="Z45" s="1" t="n"/>
+      <c r="AA45" s="1" t="n"/>
+      <c r="AB45" s="1" t="n"/>
+      <c r="AC45" s="1" t="n"/>
+      <c r="AD45" s="1" t="n"/>
+      <c r="AE45" s="1" t="n"/>
+      <c r="AF45" s="1" t="n"/>
+      <c r="AG45" s="1" t="n"/>
+      <c r="AH45" s="1" t="n"/>
+      <c r="AI45" s="1" t="n"/>
+      <c r="AJ45" s="1" t="n"/>
+      <c r="AK45" s="1" t="n"/>
+      <c r="AL45" s="1" t="n"/>
+      <c r="AM45" s="1" t="n"/>
+      <c r="AN45" s="1" t="n"/>
+      <c r="AO45" s="1" t="n"/>
+      <c r="AP45" s="1" t="n"/>
+      <c r="AQ45" s="1" t="n"/>
+      <c r="AR45" s="1" t="n"/>
+      <c r="AS45" s="1" t="n"/>
+      <c r="AT45" s="1" t="n"/>
+      <c r="AU45" s="1" t="n"/>
+      <c r="AV45" s="1" t="n"/>
+      <c r="AW45" s="1" t="n"/>
+      <c r="AX45" s="1" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="6" t="n"/>
+      <c r="C46" s="6" t="n"/>
+      <c r="D46" s="1" t="n"/>
+      <c r="E46" s="1" t="n"/>
+      <c r="F46" s="1" t="n"/>
+      <c r="G46" s="1" t="n"/>
+      <c r="H46" s="1" t="n"/>
+      <c r="I46" s="1" t="n"/>
+      <c r="J46" s="1" t="n"/>
+      <c r="K46" s="1" t="n"/>
+      <c r="L46" s="1" t="n"/>
+      <c r="M46" s="1" t="n"/>
+      <c r="N46" s="1" t="n"/>
+      <c r="O46" s="1" t="n"/>
+      <c r="P46" s="1" t="n"/>
+      <c r="Q46" s="1" t="n"/>
+      <c r="R46" s="1" t="n"/>
+      <c r="S46" s="1" t="n"/>
+      <c r="T46" s="1" t="n"/>
+      <c r="U46" s="1" t="n"/>
+      <c r="V46" s="1" t="n"/>
+      <c r="W46" s="1" t="n"/>
+      <c r="X46" s="1" t="n"/>
+      <c r="Y46" s="1" t="n"/>
+      <c r="Z46" s="1" t="n"/>
+      <c r="AA46" s="1" t="n"/>
+      <c r="AB46" s="1" t="n"/>
+      <c r="AC46" s="1" t="n"/>
+      <c r="AD46" s="1" t="n"/>
+      <c r="AE46" s="1" t="n"/>
+      <c r="AF46" s="1" t="n"/>
+      <c r="AG46" s="1" t="n"/>
+      <c r="AH46" s="1" t="n"/>
+      <c r="AI46" s="1" t="n"/>
+      <c r="AJ46" s="1" t="n"/>
+      <c r="AK46" s="1" t="n"/>
+      <c r="AL46" s="1" t="n"/>
+      <c r="AM46" s="1" t="n"/>
+      <c r="AN46" s="1" t="n"/>
+      <c r="AO46" s="1" t="n"/>
+      <c r="AP46" s="1" t="n"/>
+      <c r="AQ46" s="1" t="n"/>
+      <c r="AR46" s="1" t="n"/>
+      <c r="AS46" s="1" t="n"/>
+      <c r="AT46" s="1" t="n"/>
+      <c r="AU46" s="1" t="n"/>
+      <c r="AV46" s="1" t="n"/>
+      <c r="AW46" s="1" t="n"/>
+      <c r="AX46" s="1" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="6" t="n"/>
+      <c r="C47" s="6" t="n"/>
+      <c r="D47" s="1" t="n"/>
+      <c r="E47" s="1" t="n"/>
+      <c r="F47" s="1" t="n"/>
+      <c r="G47" s="1" t="n"/>
+      <c r="H47" s="1" t="n"/>
+      <c r="I47" s="1" t="n"/>
+      <c r="J47" s="1" t="n"/>
+      <c r="K47" s="1" t="n"/>
+      <c r="L47" s="1" t="n"/>
+      <c r="M47" s="1" t="n"/>
+      <c r="N47" s="1" t="n"/>
+      <c r="O47" s="1" t="n"/>
+      <c r="P47" s="1" t="n"/>
+      <c r="Q47" s="1" t="n"/>
+      <c r="R47" s="1" t="n"/>
+      <c r="S47" s="1" t="n"/>
+      <c r="T47" s="1" t="n"/>
+      <c r="U47" s="1" t="n"/>
+      <c r="V47" s="1" t="n"/>
+      <c r="W47" s="1" t="n"/>
+      <c r="X47" s="1" t="n"/>
+      <c r="Y47" s="1" t="n"/>
+      <c r="Z47" s="1" t="n"/>
+      <c r="AA47" s="1" t="n"/>
+      <c r="AB47" s="1" t="n"/>
+      <c r="AC47" s="1" t="n"/>
+      <c r="AD47" s="1" t="n"/>
+      <c r="AE47" s="1" t="n"/>
+      <c r="AF47" s="1" t="n"/>
+      <c r="AG47" s="1" t="n"/>
+      <c r="AH47" s="1" t="n"/>
+      <c r="AI47" s="1" t="n"/>
+      <c r="AJ47" s="1" t="n"/>
+      <c r="AK47" s="1" t="n"/>
+      <c r="AL47" s="1" t="n"/>
+      <c r="AM47" s="1" t="n"/>
+      <c r="AN47" s="1" t="n"/>
+      <c r="AO47" s="1" t="n"/>
+      <c r="AP47" s="1" t="n"/>
+      <c r="AQ47" s="1" t="n"/>
+      <c r="AR47" s="1" t="n"/>
+      <c r="AS47" s="1" t="n"/>
+      <c r="AT47" s="1" t="n"/>
+      <c r="AU47" s="1" t="n"/>
+      <c r="AV47" s="1" t="n"/>
+      <c r="AW47" s="1" t="n"/>
+      <c r="AX47" s="1" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="6" t="n"/>
+      <c r="C48" s="6" t="n"/>
+      <c r="D48" s="1" t="n"/>
+      <c r="E48" s="1" t="n"/>
+      <c r="F48" s="1" t="n"/>
+      <c r="G48" s="1" t="n"/>
+      <c r="H48" s="1" t="n"/>
+      <c r="I48" s="1" t="n"/>
+      <c r="J48" s="1" t="n"/>
+      <c r="K48" s="1" t="n"/>
+      <c r="L48" s="1" t="n"/>
+      <c r="M48" s="1" t="n"/>
+      <c r="N48" s="1" t="n"/>
+      <c r="O48" s="1" t="n"/>
+      <c r="P48" s="1" t="n"/>
+      <c r="Q48" s="1" t="n"/>
+      <c r="R48" s="1" t="n"/>
+      <c r="S48" s="1" t="n"/>
+      <c r="T48" s="1" t="n"/>
+      <c r="U48" s="1" t="n"/>
+      <c r="V48" s="1" t="n"/>
+      <c r="W48" s="1" t="n"/>
+      <c r="X48" s="1" t="n"/>
+      <c r="Y48" s="1" t="n"/>
+      <c r="Z48" s="1" t="n"/>
+      <c r="AA48" s="1" t="n"/>
+      <c r="AB48" s="1" t="n"/>
+      <c r="AC48" s="1" t="n"/>
+      <c r="AD48" s="1" t="n"/>
+      <c r="AE48" s="1" t="n"/>
+      <c r="AF48" s="1" t="n"/>
+      <c r="AG48" s="1" t="n"/>
+      <c r="AH48" s="1" t="n"/>
+      <c r="AI48" s="1" t="n"/>
+      <c r="AJ48" s="1" t="n"/>
+      <c r="AK48" s="1" t="n"/>
+      <c r="AL48" s="1" t="n"/>
+      <c r="AM48" s="1" t="n"/>
+      <c r="AN48" s="1" t="n"/>
+      <c r="AO48" s="1" t="n"/>
+      <c r="AP48" s="1" t="n"/>
+      <c r="AQ48" s="1" t="n"/>
+      <c r="AR48" s="1" t="n"/>
+      <c r="AS48" s="1" t="n"/>
+      <c r="AT48" s="1" t="n"/>
+      <c r="AU48" s="1" t="n"/>
+      <c r="AV48" s="1" t="n"/>
+      <c r="AW48" s="1" t="n"/>
+      <c r="AX48" s="1" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="6" t="n"/>
+      <c r="C49" s="6" t="n"/>
+      <c r="D49" s="1" t="n"/>
+      <c r="E49" s="1" t="n"/>
+      <c r="F49" s="1" t="n"/>
+      <c r="G49" s="1" t="n"/>
+      <c r="H49" s="1" t="n"/>
+      <c r="I49" s="1" t="n"/>
+      <c r="J49" s="1" t="n"/>
+      <c r="K49" s="1" t="n"/>
+      <c r="L49" s="1" t="n"/>
+      <c r="M49" s="1" t="n"/>
+      <c r="N49" s="1" t="n"/>
+      <c r="O49" s="1" t="n"/>
+      <c r="P49" s="1" t="n"/>
+      <c r="Q49" s="1" t="n"/>
+      <c r="R49" s="1" t="n"/>
+      <c r="S49" s="1" t="n"/>
+      <c r="T49" s="1" t="n"/>
+      <c r="U49" s="1" t="n"/>
+      <c r="V49" s="1" t="n"/>
+      <c r="W49" s="1" t="n"/>
+      <c r="X49" s="1" t="n"/>
+      <c r="Y49" s="1" t="n"/>
+      <c r="Z49" s="1" t="n"/>
+      <c r="AA49" s="1" t="n"/>
+      <c r="AB49" s="1" t="n"/>
+      <c r="AC49" s="1" t="n"/>
+      <c r="AD49" s="1" t="n"/>
+      <c r="AE49" s="1" t="n"/>
+      <c r="AF49" s="1" t="n"/>
+      <c r="AG49" s="1" t="n"/>
+      <c r="AH49" s="1" t="n"/>
+      <c r="AI49" s="1" t="n"/>
+      <c r="AJ49" s="1" t="n"/>
+      <c r="AK49" s="1" t="n"/>
+      <c r="AL49" s="1" t="n"/>
+      <c r="AM49" s="1" t="n"/>
+      <c r="AN49" s="1" t="n"/>
+      <c r="AO49" s="1" t="n"/>
+      <c r="AP49" s="1" t="n"/>
+      <c r="AQ49" s="1" t="n"/>
+      <c r="AR49" s="1" t="n"/>
+      <c r="AS49" s="1" t="n"/>
+      <c r="AT49" s="1" t="n"/>
+      <c r="AU49" s="1" t="n"/>
+      <c r="AV49" s="1" t="n"/>
+      <c r="AW49" s="1" t="n"/>
+      <c r="AX49" s="1" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="6" t="n"/>
+      <c r="C50" s="6" t="n"/>
+      <c r="D50" s="1" t="n"/>
+      <c r="E50" s="1" t="n"/>
+      <c r="F50" s="1" t="n"/>
+      <c r="G50" s="1" t="n"/>
+      <c r="H50" s="1" t="n"/>
+      <c r="I50" s="1" t="n"/>
+      <c r="J50" s="1" t="n"/>
+      <c r="K50" s="1" t="n"/>
+      <c r="L50" s="1" t="n"/>
+      <c r="M50" s="1" t="n"/>
+      <c r="N50" s="1" t="n"/>
+      <c r="O50" s="1" t="n"/>
+      <c r="P50" s="1" t="n"/>
+      <c r="Q50" s="1" t="n"/>
+      <c r="R50" s="1" t="n"/>
+      <c r="S50" s="1" t="n"/>
+      <c r="T50" s="1" t="n"/>
+      <c r="U50" s="1" t="n"/>
+      <c r="V50" s="1" t="n"/>
+      <c r="W50" s="1" t="n"/>
+      <c r="X50" s="1" t="n"/>
+      <c r="Y50" s="1" t="n"/>
+      <c r="Z50" s="1" t="n"/>
+      <c r="AA50" s="1" t="n"/>
+      <c r="AB50" s="1" t="n"/>
+      <c r="AC50" s="1" t="n"/>
+      <c r="AD50" s="1" t="n"/>
+      <c r="AE50" s="1" t="n"/>
+      <c r="AF50" s="1" t="n"/>
+      <c r="AG50" s="1" t="n"/>
+      <c r="AH50" s="1" t="n"/>
+      <c r="AI50" s="1" t="n"/>
+      <c r="AJ50" s="1" t="n"/>
+      <c r="AK50" s="1" t="n"/>
+      <c r="AL50" s="1" t="n"/>
+      <c r="AM50" s="1" t="n"/>
+      <c r="AN50" s="1" t="n"/>
+      <c r="AO50" s="1" t="n"/>
+      <c r="AP50" s="1" t="n"/>
+      <c r="AQ50" s="1" t="n"/>
+      <c r="AR50" s="1" t="n"/>
+      <c r="AS50" s="1" t="n"/>
+      <c r="AT50" s="1" t="n"/>
+      <c r="AU50" s="1" t="n"/>
+      <c r="AV50" s="1" t="n"/>
+      <c r="AW50" s="1" t="n"/>
+      <c r="AX50" s="1" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="6" t="n"/>
+      <c r="C51" s="6" t="n"/>
+      <c r="D51" s="1" t="n"/>
+      <c r="E51" s="1" t="n"/>
+      <c r="F51" s="1" t="n"/>
+      <c r="G51" s="1" t="n"/>
+      <c r="H51" s="1" t="n"/>
+      <c r="I51" s="1" t="n"/>
+      <c r="J51" s="1" t="n"/>
+      <c r="K51" s="1" t="n"/>
+      <c r="L51" s="1" t="n"/>
+      <c r="M51" s="1" t="n"/>
+      <c r="N51" s="1" t="n"/>
+      <c r="O51" s="1" t="n"/>
+      <c r="P51" s="1" t="n"/>
+      <c r="Q51" s="1" t="n"/>
+      <c r="R51" s="1" t="n"/>
+      <c r="S51" s="1" t="n"/>
+      <c r="T51" s="1" t="n"/>
+      <c r="U51" s="1" t="n"/>
+      <c r="V51" s="1" t="n"/>
+      <c r="W51" s="1" t="n"/>
+      <c r="X51" s="1" t="n"/>
+      <c r="Y51" s="1" t="n"/>
+      <c r="Z51" s="1" t="n"/>
+      <c r="AA51" s="1" t="n"/>
+      <c r="AB51" s="1" t="n"/>
+      <c r="AC51" s="1" t="n"/>
+      <c r="AD51" s="1" t="n"/>
+      <c r="AE51" s="1" t="n"/>
+      <c r="AF51" s="1" t="n"/>
+      <c r="AG51" s="1" t="n"/>
+      <c r="AH51" s="1" t="n"/>
+      <c r="AI51" s="1" t="n"/>
+      <c r="AJ51" s="1" t="n"/>
+      <c r="AK51" s="1" t="n"/>
+      <c r="AL51" s="1" t="n"/>
+      <c r="AM51" s="1" t="n"/>
+      <c r="AN51" s="1" t="n"/>
+      <c r="AO51" s="1" t="n"/>
+      <c r="AP51" s="1" t="n"/>
+      <c r="AQ51" s="1" t="n"/>
+      <c r="AR51" s="1" t="n"/>
+      <c r="AS51" s="1" t="n"/>
+      <c r="AT51" s="1" t="n"/>
+      <c r="AU51" s="1" t="n"/>
+      <c r="AV51" s="1" t="n"/>
+      <c r="AW51" s="1" t="n"/>
+      <c r="AX51" s="1" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n"/>
+      <c r="B52" s="6" t="n"/>
+      <c r="C52" s="6" t="n"/>
+      <c r="D52" s="1" t="n"/>
+      <c r="E52" s="1" t="n"/>
+      <c r="F52" s="1" t="n"/>
+      <c r="G52" s="1" t="n"/>
+      <c r="H52" s="1" t="n"/>
+      <c r="I52" s="1" t="n"/>
+      <c r="J52" s="1" t="n"/>
+      <c r="K52" s="1" t="n"/>
+      <c r="L52" s="1" t="n"/>
+      <c r="M52" s="1" t="n"/>
+      <c r="N52" s="1" t="n"/>
+      <c r="O52" s="1" t="n"/>
+      <c r="P52" s="1" t="n"/>
+      <c r="Q52" s="1" t="n"/>
+      <c r="R52" s="1" t="n"/>
+      <c r="S52" s="1" t="n"/>
+      <c r="T52" s="1" t="n"/>
+      <c r="U52" s="1" t="n"/>
+      <c r="V52" s="1" t="n"/>
+      <c r="W52" s="1" t="n"/>
+      <c r="X52" s="1" t="n"/>
+      <c r="Y52" s="1" t="n"/>
+      <c r="Z52" s="1" t="n"/>
+      <c r="AA52" s="1" t="n"/>
+      <c r="AB52" s="1" t="n"/>
+      <c r="AC52" s="1" t="n"/>
+      <c r="AD52" s="1" t="n"/>
+      <c r="AE52" s="1" t="n"/>
+      <c r="AF52" s="1" t="n"/>
+      <c r="AG52" s="1" t="n"/>
+      <c r="AH52" s="1" t="n"/>
+      <c r="AI52" s="1" t="n"/>
+      <c r="AJ52" s="1" t="n"/>
+      <c r="AK52" s="1" t="n"/>
+      <c r="AL52" s="1" t="n"/>
+      <c r="AM52" s="1" t="n"/>
+      <c r="AN52" s="1" t="n"/>
+      <c r="AO52" s="1" t="n"/>
+      <c r="AP52" s="1" t="n"/>
+      <c r="AQ52" s="1" t="n"/>
+      <c r="AR52" s="1" t="n"/>
+      <c r="AS52" s="1" t="n"/>
+      <c r="AT52" s="1" t="n"/>
+      <c r="AU52" s="1" t="n"/>
+      <c r="AV52" s="1" t="n"/>
+      <c r="AW52" s="1" t="n"/>
+      <c r="AX52" s="1" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="6" t="n"/>
+      <c r="C53" s="6" t="n"/>
+      <c r="D53" s="1" t="n"/>
+      <c r="E53" s="1" t="n"/>
+      <c r="F53" s="1" t="n"/>
+      <c r="G53" s="1" t="n"/>
+      <c r="H53" s="1" t="n"/>
+      <c r="I53" s="1" t="n"/>
+      <c r="J53" s="1" t="n"/>
+      <c r="K53" s="1" t="n"/>
+      <c r="L53" s="1" t="n"/>
+      <c r="M53" s="1" t="n"/>
+      <c r="N53" s="1" t="n"/>
+      <c r="O53" s="1" t="n"/>
+      <c r="P53" s="1" t="n"/>
+      <c r="Q53" s="1" t="n"/>
+      <c r="R53" s="1" t="n"/>
+      <c r="S53" s="1" t="n"/>
+      <c r="T53" s="1" t="n"/>
+      <c r="U53" s="1" t="n"/>
+      <c r="V53" s="1" t="n"/>
+      <c r="W53" s="1" t="n"/>
+      <c r="X53" s="1" t="n"/>
+      <c r="Y53" s="1" t="n"/>
+      <c r="Z53" s="1" t="n"/>
+      <c r="AA53" s="1" t="n"/>
+      <c r="AB53" s="1" t="n"/>
+      <c r="AC53" s="1" t="n"/>
+      <c r="AD53" s="1" t="n"/>
+      <c r="AE53" s="1" t="n"/>
+      <c r="AF53" s="1" t="n"/>
+      <c r="AG53" s="1" t="n"/>
+      <c r="AH53" s="1" t="n"/>
+      <c r="AI53" s="1" t="n"/>
+      <c r="AJ53" s="1" t="n"/>
+      <c r="AK53" s="1" t="n"/>
+      <c r="AL53" s="1" t="n"/>
+      <c r="AM53" s="1" t="n"/>
+      <c r="AN53" s="1" t="n"/>
+      <c r="AO53" s="1" t="n"/>
+      <c r="AP53" s="1" t="n"/>
+      <c r="AQ53" s="1" t="n"/>
+      <c r="AR53" s="1" t="n"/>
+      <c r="AS53" s="1" t="n"/>
+      <c r="AT53" s="1" t="n"/>
+      <c r="AU53" s="1" t="n"/>
+      <c r="AV53" s="1" t="n"/>
+      <c r="AW53" s="1" t="n"/>
+      <c r="AX53" s="1" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="6" t="n"/>
+      <c r="C54" s="6" t="n"/>
+      <c r="D54" s="1" t="n"/>
+      <c r="E54" s="1" t="n"/>
+      <c r="F54" s="1" t="n"/>
+      <c r="G54" s="1" t="n"/>
+      <c r="H54" s="1" t="n"/>
+      <c r="I54" s="1" t="n"/>
+      <c r="J54" s="1" t="n"/>
+      <c r="K54" s="1" t="n"/>
+      <c r="L54" s="1" t="n"/>
+      <c r="M54" s="1" t="n"/>
+      <c r="N54" s="1" t="n"/>
+      <c r="O54" s="1" t="n"/>
+      <c r="P54" s="1" t="n"/>
+      <c r="Q54" s="1" t="n"/>
+      <c r="R54" s="1" t="n"/>
+      <c r="S54" s="1" t="n"/>
+      <c r="T54" s="1" t="n"/>
+      <c r="U54" s="1" t="n"/>
+      <c r="V54" s="1" t="n"/>
+      <c r="W54" s="1" t="n"/>
+      <c r="X54" s="1" t="n"/>
+      <c r="Y54" s="1" t="n"/>
+      <c r="Z54" s="1" t="n"/>
+      <c r="AA54" s="1" t="n"/>
+      <c r="AB54" s="1" t="n"/>
+      <c r="AC54" s="1" t="n"/>
+      <c r="AD54" s="1" t="n"/>
+      <c r="AE54" s="1" t="n"/>
+      <c r="AF54" s="1" t="n"/>
+      <c r="AG54" s="1" t="n"/>
+      <c r="AH54" s="1" t="n"/>
+      <c r="AI54" s="1" t="n"/>
+      <c r="AJ54" s="1" t="n"/>
+      <c r="AK54" s="1" t="n"/>
+      <c r="AL54" s="1" t="n"/>
+      <c r="AM54" s="1" t="n"/>
+      <c r="AN54" s="1" t="n"/>
+      <c r="AO54" s="1" t="n"/>
+      <c r="AP54" s="1" t="n"/>
+      <c r="AQ54" s="1" t="n"/>
+      <c r="AR54" s="1" t="n"/>
+      <c r="AS54" s="1" t="n"/>
+      <c r="AT54" s="1" t="n"/>
+      <c r="AU54" s="1" t="n"/>
+      <c r="AV54" s="1" t="n"/>
+      <c r="AW54" s="1" t="n"/>
+      <c r="AX54" s="1" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="6" t="n"/>
+      <c r="C55" s="6" t="n"/>
+      <c r="D55" s="1" t="n"/>
+      <c r="E55" s="1" t="n"/>
+      <c r="F55" s="1" t="n"/>
+      <c r="G55" s="1" t="n"/>
+      <c r="H55" s="1" t="n"/>
+      <c r="I55" s="1" t="n"/>
+      <c r="J55" s="1" t="n"/>
+      <c r="K55" s="1" t="n"/>
+      <c r="L55" s="1" t="n"/>
+      <c r="M55" s="1" t="n"/>
+      <c r="N55" s="1" t="n"/>
+      <c r="O55" s="1" t="n"/>
+      <c r="P55" s="1" t="n"/>
+      <c r="Q55" s="1" t="n"/>
+      <c r="R55" s="1" t="n"/>
+      <c r="S55" s="1" t="n"/>
+      <c r="T55" s="1" t="n"/>
+      <c r="U55" s="1" t="n"/>
+      <c r="V55" s="1" t="n"/>
+      <c r="W55" s="1" t="n"/>
+      <c r="X55" s="1" t="n"/>
+      <c r="Y55" s="1" t="n"/>
+      <c r="Z55" s="1" t="n"/>
+      <c r="AA55" s="1" t="n"/>
+      <c r="AB55" s="1" t="n"/>
+      <c r="AC55" s="1" t="n"/>
+      <c r="AD55" s="1" t="n"/>
+      <c r="AE55" s="1" t="n"/>
+      <c r="AF55" s="1" t="n"/>
+      <c r="AG55" s="1" t="n"/>
+      <c r="AH55" s="1" t="n"/>
+      <c r="AI55" s="1" t="n"/>
+      <c r="AJ55" s="1" t="n"/>
+      <c r="AK55" s="1" t="n"/>
+      <c r="AL55" s="1" t="n"/>
+      <c r="AM55" s="1" t="n"/>
+      <c r="AN55" s="1" t="n"/>
+      <c r="AO55" s="1" t="n"/>
+      <c r="AP55" s="1" t="n"/>
+      <c r="AQ55" s="1" t="n"/>
+      <c r="AR55" s="1" t="n"/>
+      <c r="AS55" s="1" t="n"/>
+      <c r="AT55" s="1" t="n"/>
+      <c r="AU55" s="1" t="n"/>
+      <c r="AV55" s="1" t="n"/>
+      <c r="AW55" s="1" t="n"/>
+      <c r="AX55" s="1" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="6" t="n"/>
+      <c r="C56" s="6" t="n"/>
+      <c r="D56" s="1" t="n"/>
+      <c r="E56" s="1" t="n"/>
+      <c r="F56" s="1" t="n"/>
+      <c r="G56" s="1" t="n"/>
+      <c r="H56" s="1" t="n"/>
+      <c r="I56" s="1" t="n"/>
+      <c r="J56" s="1" t="n"/>
+      <c r="K56" s="1" t="n"/>
+      <c r="L56" s="1" t="n"/>
+      <c r="M56" s="1" t="n"/>
+      <c r="N56" s="1" t="n"/>
+      <c r="O56" s="1" t="n"/>
+      <c r="P56" s="1" t="n"/>
+      <c r="Q56" s="1" t="n"/>
+      <c r="R56" s="1" t="n"/>
+      <c r="S56" s="1" t="n"/>
+      <c r="T56" s="1" t="n"/>
+      <c r="U56" s="1" t="n"/>
+      <c r="V56" s="1" t="n"/>
+      <c r="W56" s="1" t="n"/>
+      <c r="X56" s="1" t="n"/>
+      <c r="Y56" s="1" t="n"/>
+      <c r="Z56" s="1" t="n"/>
+      <c r="AA56" s="1" t="n"/>
+      <c r="AB56" s="1" t="n"/>
+      <c r="AC56" s="1" t="n"/>
+      <c r="AD56" s="1" t="n"/>
+      <c r="AE56" s="1" t="n"/>
+      <c r="AF56" s="1" t="n"/>
+      <c r="AG56" s="1" t="n"/>
+      <c r="AH56" s="1" t="n"/>
+      <c r="AI56" s="1" t="n"/>
+      <c r="AJ56" s="1" t="n"/>
+      <c r="AK56" s="1" t="n"/>
+      <c r="AL56" s="1" t="n"/>
+      <c r="AM56" s="1" t="n"/>
+      <c r="AN56" s="1" t="n"/>
+      <c r="AO56" s="1" t="n"/>
+      <c r="AP56" s="1" t="n"/>
+      <c r="AQ56" s="1" t="n"/>
+      <c r="AR56" s="1" t="n"/>
+      <c r="AS56" s="1" t="n"/>
+      <c r="AT56" s="1" t="n"/>
+      <c r="AU56" s="1" t="n"/>
+      <c r="AV56" s="1" t="n"/>
+      <c r="AW56" s="1" t="n"/>
+      <c r="AX56" s="1" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="6" t="n"/>
+      <c r="C57" s="6" t="n"/>
+      <c r="D57" s="1" t="n"/>
+      <c r="E57" s="1" t="n"/>
+      <c r="F57" s="1" t="n"/>
+      <c r="G57" s="1" t="n"/>
+      <c r="H57" s="1" t="n"/>
+      <c r="I57" s="1" t="n"/>
+      <c r="J57" s="1" t="n"/>
+      <c r="K57" s="1" t="n"/>
+      <c r="L57" s="1" t="n"/>
+      <c r="M57" s="1" t="n"/>
+      <c r="N57" s="1" t="n"/>
+      <c r="O57" s="1" t="n"/>
+      <c r="P57" s="1" t="n"/>
+      <c r="Q57" s="1" t="n"/>
+      <c r="R57" s="1" t="n"/>
+      <c r="S57" s="1" t="n"/>
+      <c r="T57" s="1" t="n"/>
+      <c r="U57" s="1" t="n"/>
+      <c r="V57" s="1" t="n"/>
+      <c r="W57" s="1" t="n"/>
+      <c r="X57" s="1" t="n"/>
+      <c r="Y57" s="1" t="n"/>
+      <c r="Z57" s="1" t="n"/>
+      <c r="AA57" s="1" t="n"/>
+      <c r="AB57" s="1" t="n"/>
+      <c r="AC57" s="1" t="n"/>
+      <c r="AD57" s="1" t="n"/>
+      <c r="AE57" s="1" t="n"/>
+      <c r="AF57" s="1" t="n"/>
+      <c r="AG57" s="1" t="n"/>
+      <c r="AH57" s="1" t="n"/>
+      <c r="AI57" s="1" t="n"/>
+      <c r="AJ57" s="1" t="n"/>
+      <c r="AK57" s="1" t="n"/>
+      <c r="AL57" s="1" t="n"/>
+      <c r="AM57" s="1" t="n"/>
+      <c r="AN57" s="1" t="n"/>
+      <c r="AO57" s="1" t="n"/>
+      <c r="AP57" s="1" t="n"/>
+      <c r="AQ57" s="1" t="n"/>
+      <c r="AR57" s="1" t="n"/>
+      <c r="AS57" s="1" t="n"/>
+      <c r="AT57" s="1" t="n"/>
+      <c r="AU57" s="1" t="n"/>
+      <c r="AV57" s="1" t="n"/>
+      <c r="AW57" s="1" t="n"/>
+      <c r="AX57" s="1" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="6" t="n"/>
+      <c r="C58" s="6" t="n"/>
+      <c r="D58" s="1" t="n"/>
+      <c r="E58" s="1" t="n"/>
+      <c r="F58" s="1" t="n"/>
+      <c r="G58" s="1" t="n"/>
+      <c r="H58" s="1" t="n"/>
+      <c r="I58" s="1" t="n"/>
+      <c r="J58" s="1" t="n"/>
+      <c r="K58" s="1" t="n"/>
+      <c r="L58" s="1" t="n"/>
+      <c r="M58" s="1" t="n"/>
+      <c r="N58" s="1" t="n"/>
+      <c r="O58" s="1" t="n"/>
+      <c r="P58" s="1" t="n"/>
+      <c r="Q58" s="1" t="n"/>
+      <c r="R58" s="1" t="n"/>
+      <c r="S58" s="1" t="n"/>
+      <c r="T58" s="1" t="n"/>
+      <c r="U58" s="1" t="n"/>
+      <c r="V58" s="1" t="n"/>
+      <c r="W58" s="1" t="n"/>
+      <c r="X58" s="1" t="n"/>
+      <c r="Y58" s="1" t="n"/>
+      <c r="Z58" s="1" t="n"/>
+      <c r="AA58" s="1" t="n"/>
+      <c r="AB58" s="1" t="n"/>
+      <c r="AC58" s="1" t="n"/>
+      <c r="AD58" s="1" t="n"/>
+      <c r="AE58" s="1" t="n"/>
+      <c r="AF58" s="1" t="n"/>
+      <c r="AG58" s="1" t="n"/>
+      <c r="AH58" s="1" t="n"/>
+      <c r="AI58" s="1" t="n"/>
+      <c r="AJ58" s="1" t="n"/>
+      <c r="AK58" s="1" t="n"/>
+      <c r="AL58" s="1" t="n"/>
+      <c r="AM58" s="1" t="n"/>
+      <c r="AN58" s="1" t="n"/>
+      <c r="AO58" s="1" t="n"/>
+      <c r="AP58" s="1" t="n"/>
+      <c r="AQ58" s="1" t="n"/>
+      <c r="AR58" s="1" t="n"/>
+      <c r="AS58" s="1" t="n"/>
+      <c r="AT58" s="1" t="n"/>
+      <c r="AU58" s="1" t="n"/>
+      <c r="AV58" s="1" t="n"/>
+      <c r="AW58" s="1" t="n"/>
+      <c r="AX58" s="1" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="6" t="n"/>
+      <c r="C59" s="6" t="n"/>
+      <c r="D59" s="1" t="n"/>
+      <c r="E59" s="1" t="n"/>
+      <c r="F59" s="1" t="n"/>
+      <c r="G59" s="1" t="n"/>
+      <c r="H59" s="1" t="n"/>
+      <c r="I59" s="1" t="n"/>
+      <c r="J59" s="1" t="n"/>
+      <c r="K59" s="1" t="n"/>
+      <c r="L59" s="1" t="n"/>
+      <c r="M59" s="1" t="n"/>
+      <c r="N59" s="1" t="n"/>
+      <c r="O59" s="1" t="n"/>
+      <c r="P59" s="1" t="n"/>
+      <c r="Q59" s="1" t="n"/>
+      <c r="R59" s="1" t="n"/>
+      <c r="S59" s="1" t="n"/>
+      <c r="T59" s="1" t="n"/>
+      <c r="U59" s="1" t="n"/>
+      <c r="V59" s="1" t="n"/>
+      <c r="W59" s="1" t="n"/>
+      <c r="X59" s="1" t="n"/>
+      <c r="Y59" s="1" t="n"/>
+      <c r="Z59" s="1" t="n"/>
+      <c r="AA59" s="1" t="n"/>
+      <c r="AB59" s="1" t="n"/>
+      <c r="AC59" s="1" t="n"/>
+      <c r="AD59" s="1" t="n"/>
+      <c r="AE59" s="1" t="n"/>
+      <c r="AF59" s="1" t="n"/>
+      <c r="AG59" s="1" t="n"/>
+      <c r="AH59" s="1" t="n"/>
+      <c r="AI59" s="1" t="n"/>
+      <c r="AJ59" s="1" t="n"/>
+      <c r="AK59" s="1" t="n"/>
+      <c r="AL59" s="1" t="n"/>
+      <c r="AM59" s="1" t="n"/>
+      <c r="AN59" s="1" t="n"/>
+      <c r="AO59" s="1" t="n"/>
+      <c r="AP59" s="1" t="n"/>
+      <c r="AQ59" s="1" t="n"/>
+      <c r="AR59" s="1" t="n"/>
+      <c r="AS59" s="1" t="n"/>
+      <c r="AT59" s="1" t="n"/>
+      <c r="AU59" s="1" t="n"/>
+      <c r="AV59" s="1" t="n"/>
+      <c r="AW59" s="1" t="n"/>
+      <c r="AX59" s="1" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n"/>
+      <c r="B60" s="6" t="n"/>
+      <c r="C60" s="6" t="n"/>
+      <c r="D60" s="1" t="n"/>
+      <c r="E60" s="1" t="n"/>
+      <c r="F60" s="1" t="n"/>
+      <c r="G60" s="1" t="n"/>
+      <c r="H60" s="1" t="n"/>
+      <c r="I60" s="1" t="n"/>
+      <c r="J60" s="1" t="n"/>
+      <c r="K60" s="1" t="n"/>
+      <c r="L60" s="1" t="n"/>
+      <c r="M60" s="1" t="n"/>
+      <c r="N60" s="1" t="n"/>
+      <c r="O60" s="1" t="n"/>
+      <c r="P60" s="1" t="n"/>
+      <c r="Q60" s="1" t="n"/>
+      <c r="R60" s="1" t="n"/>
+      <c r="S60" s="1" t="n"/>
+      <c r="T60" s="1" t="n"/>
+      <c r="U60" s="1" t="n"/>
+      <c r="V60" s="1" t="n"/>
+      <c r="W60" s="1" t="n"/>
+      <c r="X60" s="1" t="n"/>
+      <c r="Y60" s="1" t="n"/>
+      <c r="Z60" s="1" t="n"/>
+      <c r="AA60" s="1" t="n"/>
+      <c r="AB60" s="1" t="n"/>
+      <c r="AC60" s="1" t="n"/>
+      <c r="AD60" s="1" t="n"/>
+      <c r="AE60" s="1" t="n"/>
+      <c r="AF60" s="1" t="n"/>
+      <c r="AG60" s="1" t="n"/>
+      <c r="AH60" s="1" t="n"/>
+      <c r="AI60" s="1" t="n"/>
+      <c r="AJ60" s="1" t="n"/>
+      <c r="AK60" s="1" t="n"/>
+      <c r="AL60" s="1" t="n"/>
+      <c r="AM60" s="1" t="n"/>
+      <c r="AN60" s="1" t="n"/>
+      <c r="AO60" s="1" t="n"/>
+      <c r="AP60" s="1" t="n"/>
+      <c r="AQ60" s="1" t="n"/>
+      <c r="AR60" s="1" t="n"/>
+      <c r="AS60" s="1" t="n"/>
+      <c r="AT60" s="1" t="n"/>
+      <c r="AU60" s="1" t="n"/>
+      <c r="AV60" s="1" t="n"/>
+      <c r="AW60" s="1" t="n"/>
+      <c r="AX60" s="1" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n"/>
+      <c r="B61" s="6" t="n"/>
+      <c r="C61" s="6" t="n"/>
+      <c r="D61" s="1" t="n"/>
+      <c r="E61" s="1" t="n"/>
+      <c r="F61" s="1" t="n"/>
+      <c r="G61" s="1" t="n"/>
+      <c r="H61" s="1" t="n"/>
+      <c r="I61" s="1" t="n"/>
+      <c r="J61" s="1" t="n"/>
+      <c r="K61" s="1" t="n"/>
+      <c r="L61" s="1" t="n"/>
+      <c r="M61" s="1" t="n"/>
+      <c r="N61" s="1" t="n"/>
+      <c r="O61" s="1" t="n"/>
+      <c r="P61" s="1" t="n"/>
+      <c r="Q61" s="1" t="n"/>
+      <c r="R61" s="1" t="n"/>
+      <c r="S61" s="1" t="n"/>
+      <c r="T61" s="1" t="n"/>
+      <c r="U61" s="1" t="n"/>
+      <c r="V61" s="1" t="n"/>
+      <c r="W61" s="1" t="n"/>
+      <c r="X61" s="1" t="n"/>
+      <c r="Y61" s="1" t="n"/>
+      <c r="Z61" s="1" t="n"/>
+      <c r="AA61" s="1" t="n"/>
+      <c r="AB61" s="1" t="n"/>
+      <c r="AC61" s="1" t="n"/>
+      <c r="AD61" s="1" t="n"/>
+      <c r="AE61" s="1" t="n"/>
+      <c r="AF61" s="1" t="n"/>
+      <c r="AG61" s="1" t="n"/>
+      <c r="AH61" s="1" t="n"/>
+      <c r="AI61" s="1" t="n"/>
+      <c r="AJ61" s="1" t="n"/>
+      <c r="AK61" s="1" t="n"/>
+      <c r="AL61" s="1" t="n"/>
+      <c r="AM61" s="1" t="n"/>
+      <c r="AN61" s="1" t="n"/>
+      <c r="AO61" s="1" t="n"/>
+      <c r="AP61" s="1" t="n"/>
+      <c r="AQ61" s="1" t="n"/>
+      <c r="AR61" s="1" t="n"/>
+      <c r="AS61" s="1" t="n"/>
+      <c r="AT61" s="1" t="n"/>
+      <c r="AU61" s="1" t="n"/>
+      <c r="AV61" s="1" t="n"/>
+      <c r="AW61" s="1" t="n"/>
+      <c r="AX61" s="1" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n"/>
+      <c r="B62" s="6" t="n"/>
+      <c r="C62" s="6" t="n"/>
+      <c r="D62" s="1" t="n"/>
+      <c r="E62" s="1" t="n"/>
+      <c r="F62" s="1" t="n"/>
+      <c r="G62" s="1" t="n"/>
+      <c r="H62" s="1" t="n"/>
+      <c r="I62" s="1" t="n"/>
+      <c r="J62" s="1" t="n"/>
+      <c r="K62" s="1" t="n"/>
+      <c r="L62" s="1" t="n"/>
+      <c r="M62" s="1" t="n"/>
+      <c r="N62" s="1" t="n"/>
+      <c r="O62" s="1" t="n"/>
+      <c r="P62" s="1" t="n"/>
+      <c r="Q62" s="1" t="n"/>
+      <c r="R62" s="1" t="n"/>
+      <c r="S62" s="1" t="n"/>
+      <c r="T62" s="1" t="n"/>
+      <c r="U62" s="1" t="n"/>
+      <c r="V62" s="1" t="n"/>
+      <c r="W62" s="1" t="n"/>
+      <c r="X62" s="1" t="n"/>
+      <c r="Y62" s="1" t="n"/>
+      <c r="Z62" s="1" t="n"/>
+      <c r="AA62" s="1" t="n"/>
+      <c r="AB62" s="1" t="n"/>
+      <c r="AC62" s="1" t="n"/>
+      <c r="AD62" s="1" t="n"/>
+      <c r="AE62" s="1" t="n"/>
+      <c r="AF62" s="1" t="n"/>
+      <c r="AG62" s="1" t="n"/>
+      <c r="AH62" s="1" t="n"/>
+      <c r="AI62" s="1" t="n"/>
+      <c r="AJ62" s="1" t="n"/>
+      <c r="AK62" s="1" t="n"/>
+      <c r="AL62" s="1" t="n"/>
+      <c r="AM62" s="1" t="n"/>
+      <c r="AN62" s="1" t="n"/>
+      <c r="AO62" s="1" t="n"/>
+      <c r="AP62" s="1" t="n"/>
+      <c r="AQ62" s="1" t="n"/>
+      <c r="AR62" s="1" t="n"/>
+      <c r="AS62" s="1" t="n"/>
+      <c r="AT62" s="1" t="n"/>
+      <c r="AU62" s="1" t="n"/>
+      <c r="AV62" s="1" t="n"/>
+      <c r="AW62" s="1" t="n"/>
+      <c r="AX62" s="1" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n"/>
+      <c r="B63" s="6" t="n"/>
+      <c r="C63" s="6" t="n"/>
+      <c r="D63" s="1" t="n"/>
+      <c r="E63" s="1" t="n"/>
+      <c r="F63" s="1" t="n"/>
+      <c r="G63" s="1" t="n"/>
+      <c r="H63" s="1" t="n"/>
+      <c r="I63" s="1" t="n"/>
+      <c r="J63" s="1" t="n"/>
+      <c r="K63" s="1" t="n"/>
+      <c r="L63" s="1" t="n"/>
+      <c r="M63" s="1" t="n"/>
+      <c r="N63" s="1" t="n"/>
+      <c r="O63" s="1" t="n"/>
+      <c r="P63" s="1" t="n"/>
+      <c r="Q63" s="1" t="n"/>
+      <c r="R63" s="1" t="n"/>
+      <c r="S63" s="1" t="n"/>
+      <c r="T63" s="1" t="n"/>
+      <c r="U63" s="1" t="n"/>
+      <c r="V63" s="1" t="n"/>
+      <c r="W63" s="1" t="n"/>
+      <c r="X63" s="1" t="n"/>
+      <c r="Y63" s="1" t="n"/>
+      <c r="Z63" s="1" t="n"/>
+      <c r="AA63" s="1" t="n"/>
+      <c r="AB63" s="1" t="n"/>
+      <c r="AC63" s="1" t="n"/>
+      <c r="AD63" s="1" t="n"/>
+      <c r="AE63" s="1" t="n"/>
+      <c r="AF63" s="1" t="n"/>
+      <c r="AG63" s="1" t="n"/>
+      <c r="AH63" s="1" t="n"/>
+      <c r="AI63" s="1" t="n"/>
+      <c r="AJ63" s="1" t="n"/>
+      <c r="AK63" s="1" t="n"/>
+      <c r="AL63" s="1" t="n"/>
+      <c r="AM63" s="1" t="n"/>
+      <c r="AN63" s="1" t="n"/>
+      <c r="AO63" s="1" t="n"/>
+      <c r="AP63" s="1" t="n"/>
+      <c r="AQ63" s="1" t="n"/>
+      <c r="AR63" s="1" t="n"/>
+      <c r="AS63" s="1" t="n"/>
+      <c r="AT63" s="1" t="n"/>
+      <c r="AU63" s="1" t="n"/>
+      <c r="AV63" s="1" t="n"/>
+      <c r="AW63" s="1" t="n"/>
+      <c r="AX63" s="1" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n"/>
+      <c r="B64" s="6" t="n"/>
+      <c r="C64" s="6" t="n"/>
+      <c r="D64" s="1" t="n"/>
+      <c r="E64" s="1" t="n"/>
+      <c r="F64" s="1" t="n"/>
+      <c r="G64" s="1" t="n"/>
+      <c r="H64" s="1" t="n"/>
+      <c r="I64" s="1" t="n"/>
+      <c r="J64" s="1" t="n"/>
+      <c r="K64" s="1" t="n"/>
+      <c r="L64" s="1" t="n"/>
+      <c r="M64" s="1" t="n"/>
+      <c r="N64" s="1" t="n"/>
+      <c r="O64" s="1" t="n"/>
+      <c r="P64" s="1" t="n"/>
+      <c r="Q64" s="1" t="n"/>
+      <c r="R64" s="1" t="n"/>
+      <c r="S64" s="1" t="n"/>
+      <c r="T64" s="1" t="n"/>
+      <c r="U64" s="1" t="n"/>
+      <c r="V64" s="1" t="n"/>
+      <c r="W64" s="1" t="n"/>
+      <c r="X64" s="1" t="n"/>
+      <c r="Y64" s="1" t="n"/>
+      <c r="Z64" s="1" t="n"/>
+      <c r="AA64" s="1" t="n"/>
+      <c r="AB64" s="1" t="n"/>
+      <c r="AC64" s="1" t="n"/>
+      <c r="AD64" s="1" t="n"/>
+      <c r="AE64" s="1" t="n"/>
+      <c r="AF64" s="1" t="n"/>
+      <c r="AG64" s="1" t="n"/>
+      <c r="AH64" s="1" t="n"/>
+      <c r="AI64" s="1" t="n"/>
+      <c r="AJ64" s="1" t="n"/>
+      <c r="AK64" s="1" t="n"/>
+      <c r="AL64" s="1" t="n"/>
+      <c r="AM64" s="1" t="n"/>
+      <c r="AN64" s="1" t="n"/>
+      <c r="AO64" s="1" t="n"/>
+      <c r="AP64" s="1" t="n"/>
+      <c r="AQ64" s="1" t="n"/>
+      <c r="AR64" s="1" t="n"/>
+      <c r="AS64" s="1" t="n"/>
+      <c r="AT64" s="1" t="n"/>
+      <c r="AU64" s="1" t="n"/>
+      <c r="AV64" s="1" t="n"/>
+      <c r="AW64" s="1" t="n"/>
+      <c r="AX64" s="1" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n"/>
+      <c r="B65" s="6" t="n"/>
+      <c r="C65" s="6" t="n"/>
+      <c r="D65" s="1" t="n"/>
+      <c r="E65" s="1" t="n"/>
+      <c r="F65" s="1" t="n"/>
+      <c r="G65" s="1" t="n"/>
+      <c r="H65" s="1" t="n"/>
+      <c r="I65" s="1" t="n"/>
+      <c r="J65" s="1" t="n"/>
+      <c r="K65" s="1" t="n"/>
+      <c r="L65" s="1" t="n"/>
+      <c r="M65" s="1" t="n"/>
+      <c r="N65" s="1" t="n"/>
+      <c r="O65" s="1" t="n"/>
+      <c r="P65" s="1" t="n"/>
+      <c r="Q65" s="1" t="n"/>
+      <c r="R65" s="1" t="n"/>
+      <c r="S65" s="1" t="n"/>
+      <c r="T65" s="1" t="n"/>
+      <c r="U65" s="1" t="n"/>
+      <c r="V65" s="1" t="n"/>
+      <c r="W65" s="1" t="n"/>
+      <c r="X65" s="1" t="n"/>
+      <c r="Y65" s="1" t="n"/>
+      <c r="Z65" s="1" t="n"/>
+      <c r="AA65" s="1" t="n"/>
+      <c r="AB65" s="1" t="n"/>
+      <c r="AC65" s="1" t="n"/>
+      <c r="AD65" s="1" t="n"/>
+      <c r="AE65" s="1" t="n"/>
+      <c r="AF65" s="1" t="n"/>
+      <c r="AG65" s="1" t="n"/>
+      <c r="AH65" s="1" t="n"/>
+      <c r="AI65" s="1" t="n"/>
+      <c r="AJ65" s="1" t="n"/>
+      <c r="AK65" s="1" t="n"/>
+      <c r="AL65" s="1" t="n"/>
+      <c r="AM65" s="1" t="n"/>
+      <c r="AN65" s="1" t="n"/>
+      <c r="AO65" s="1" t="n"/>
+      <c r="AP65" s="1" t="n"/>
+      <c r="AQ65" s="1" t="n"/>
+      <c r="AR65" s="1" t="n"/>
+      <c r="AS65" s="1" t="n"/>
+      <c r="AT65" s="1" t="n"/>
+      <c r="AU65" s="1" t="n"/>
+      <c r="AV65" s="1" t="n"/>
+      <c r="AW65" s="1" t="n"/>
+      <c r="AX65" s="1" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n"/>
+      <c r="B66" s="6" t="n"/>
+      <c r="C66" s="6" t="n"/>
+      <c r="D66" s="1" t="n"/>
+      <c r="E66" s="1" t="n"/>
+      <c r="F66" s="1" t="n"/>
+      <c r="G66" s="1" t="n"/>
+      <c r="H66" s="1" t="n"/>
+      <c r="I66" s="1" t="n"/>
+      <c r="J66" s="1" t="n"/>
+      <c r="K66" s="1" t="n"/>
+      <c r="L66" s="1" t="n"/>
+      <c r="M66" s="1" t="n"/>
+      <c r="N66" s="1" t="n"/>
+      <c r="O66" s="1" t="n"/>
+      <c r="P66" s="1" t="n"/>
+      <c r="Q66" s="1" t="n"/>
+      <c r="R66" s="1" t="n"/>
+      <c r="S66" s="1" t="n"/>
+      <c r="T66" s="1" t="n"/>
+      <c r="U66" s="1" t="n"/>
+      <c r="V66" s="1" t="n"/>
+      <c r="W66" s="1" t="n"/>
+      <c r="X66" s="1" t="n"/>
+      <c r="Y66" s="1" t="n"/>
+      <c r="Z66" s="1" t="n"/>
+      <c r="AA66" s="1" t="n"/>
+      <c r="AB66" s="1" t="n"/>
+      <c r="AC66" s="1" t="n"/>
+      <c r="AD66" s="1" t="n"/>
+      <c r="AE66" s="1" t="n"/>
+      <c r="AF66" s="1" t="n"/>
+      <c r="AG66" s="1" t="n"/>
+      <c r="AH66" s="1" t="n"/>
+      <c r="AI66" s="1" t="n"/>
+      <c r="AJ66" s="1" t="n"/>
+      <c r="AK66" s="1" t="n"/>
+      <c r="AL66" s="1" t="n"/>
+      <c r="AM66" s="1" t="n"/>
+      <c r="AN66" s="1" t="n"/>
+      <c r="AO66" s="1" t="n"/>
+      <c r="AP66" s="1" t="n"/>
+      <c r="AQ66" s="1" t="n"/>
+      <c r="AR66" s="1" t="n"/>
+      <c r="AS66" s="1" t="n"/>
+      <c r="AT66" s="1" t="n"/>
+      <c r="AU66" s="1" t="n"/>
+      <c r="AV66" s="1" t="n"/>
+      <c r="AW66" s="1" t="n"/>
+      <c r="AX66" s="1" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n"/>
+      <c r="B67" s="6" t="n"/>
+      <c r="C67" s="6" t="n"/>
+      <c r="D67" s="1" t="n"/>
+      <c r="E67" s="1" t="n"/>
+      <c r="F67" s="1" t="n"/>
+      <c r="G67" s="1" t="n"/>
+      <c r="H67" s="1" t="n"/>
+      <c r="I67" s="1" t="n"/>
+      <c r="J67" s="1" t="n"/>
+      <c r="K67" s="1" t="n"/>
+      <c r="L67" s="1" t="n"/>
+      <c r="M67" s="1" t="n"/>
+      <c r="N67" s="1" t="n"/>
+      <c r="O67" s="1" t="n"/>
+      <c r="P67" s="1" t="n"/>
+      <c r="Q67" s="1" t="n"/>
+      <c r="R67" s="1" t="n"/>
+      <c r="S67" s="1" t="n"/>
+      <c r="T67" s="1" t="n"/>
+      <c r="U67" s="1" t="n"/>
+      <c r="V67" s="1" t="n"/>
+      <c r="W67" s="1" t="n"/>
+      <c r="X67" s="1" t="n"/>
+      <c r="Y67" s="1" t="n"/>
+      <c r="Z67" s="1" t="n"/>
+      <c r="AA67" s="1" t="n"/>
+      <c r="AB67" s="1" t="n"/>
+      <c r="AC67" s="1" t="n"/>
+      <c r="AD67" s="1" t="n"/>
+      <c r="AE67" s="1" t="n"/>
+      <c r="AF67" s="1" t="n"/>
+      <c r="AG67" s="1" t="n"/>
+      <c r="AH67" s="1" t="n"/>
+      <c r="AI67" s="1" t="n"/>
+      <c r="AJ67" s="1" t="n"/>
+      <c r="AK67" s="1" t="n"/>
+      <c r="AL67" s="1" t="n"/>
+      <c r="AM67" s="1" t="n"/>
+      <c r="AN67" s="1" t="n"/>
+      <c r="AO67" s="1" t="n"/>
+      <c r="AP67" s="1" t="n"/>
+      <c r="AQ67" s="1" t="n"/>
+      <c r="AR67" s="1" t="n"/>
+      <c r="AS67" s="1" t="n"/>
+      <c r="AT67" s="1" t="n"/>
+      <c r="AU67" s="1" t="n"/>
+      <c r="AV67" s="1" t="n"/>
+      <c r="AW67" s="1" t="n"/>
+      <c r="AX67" s="1" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n"/>
+      <c r="B68" s="6" t="n"/>
+      <c r="C68" s="6" t="n"/>
+      <c r="D68" s="1" t="n"/>
+      <c r="E68" s="1" t="n"/>
+      <c r="F68" s="1" t="n"/>
+      <c r="G68" s="1" t="n"/>
+      <c r="H68" s="1" t="n"/>
+      <c r="I68" s="1" t="n"/>
+      <c r="J68" s="1" t="n"/>
+      <c r="K68" s="1" t="n"/>
+      <c r="L68" s="1" t="n"/>
+      <c r="M68" s="1" t="n"/>
+      <c r="N68" s="1" t="n"/>
+      <c r="O68" s="1" t="n"/>
+      <c r="P68" s="1" t="n"/>
+      <c r="Q68" s="1" t="n"/>
+      <c r="R68" s="1" t="n"/>
+      <c r="S68" s="1" t="n"/>
+      <c r="T68" s="1" t="n"/>
+      <c r="U68" s="1" t="n"/>
+      <c r="V68" s="1" t="n"/>
+      <c r="W68" s="1" t="n"/>
+      <c r="X68" s="1" t="n"/>
+      <c r="Y68" s="1" t="n"/>
+      <c r="Z68" s="1" t="n"/>
+      <c r="AA68" s="1" t="n"/>
+      <c r="AB68" s="1" t="n"/>
+      <c r="AC68" s="1" t="n"/>
+      <c r="AD68" s="1" t="n"/>
+      <c r="AE68" s="1" t="n"/>
+      <c r="AF68" s="1" t="n"/>
+      <c r="AG68" s="1" t="n"/>
+      <c r="AH68" s="1" t="n"/>
+      <c r="AI68" s="1" t="n"/>
+      <c r="AJ68" s="1" t="n"/>
+      <c r="AK68" s="1" t="n"/>
+      <c r="AL68" s="1" t="n"/>
+      <c r="AM68" s="1" t="n"/>
+      <c r="AN68" s="1" t="n"/>
+      <c r="AO68" s="1" t="n"/>
+      <c r="AP68" s="1" t="n"/>
+      <c r="AQ68" s="1" t="n"/>
+      <c r="AR68" s="1" t="n"/>
+      <c r="AS68" s="1" t="n"/>
+      <c r="AT68" s="1" t="n"/>
+      <c r="AU68" s="1" t="n"/>
+      <c r="AV68" s="1" t="n"/>
+      <c r="AW68" s="1" t="n"/>
+      <c r="AX68" s="1" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n"/>
+      <c r="B69" s="6" t="n"/>
+      <c r="C69" s="6" t="n"/>
+      <c r="D69" s="1" t="n"/>
+      <c r="E69" s="1" t="n"/>
+      <c r="F69" s="1" t="n"/>
+      <c r="G69" s="1" t="n"/>
+      <c r="H69" s="1" t="n"/>
+      <c r="I69" s="1" t="n"/>
+      <c r="J69" s="1" t="n"/>
+      <c r="K69" s="1" t="n"/>
+      <c r="L69" s="1" t="n"/>
+      <c r="M69" s="1" t="n"/>
+      <c r="N69" s="1" t="n"/>
+      <c r="O69" s="1" t="n"/>
+      <c r="P69" s="1" t="n"/>
+      <c r="Q69" s="1" t="n"/>
+      <c r="R69" s="1" t="n"/>
+      <c r="S69" s="1" t="n"/>
+      <c r="T69" s="1" t="n"/>
+      <c r="U69" s="1" t="n"/>
+      <c r="V69" s="1" t="n"/>
+      <c r="W69" s="1" t="n"/>
+      <c r="X69" s="1" t="n"/>
+      <c r="Y69" s="1" t="n"/>
+      <c r="Z69" s="1" t="n"/>
+      <c r="AA69" s="1" t="n"/>
+      <c r="AB69" s="1" t="n"/>
+      <c r="AC69" s="1" t="n"/>
+      <c r="AD69" s="1" t="n"/>
+      <c r="AE69" s="1" t="n"/>
+      <c r="AF69" s="1" t="n"/>
+      <c r="AG69" s="1" t="n"/>
+      <c r="AH69" s="1" t="n"/>
+      <c r="AI69" s="1" t="n"/>
+      <c r="AJ69" s="1" t="n"/>
+      <c r="AK69" s="1" t="n"/>
+      <c r="AL69" s="1" t="n"/>
+      <c r="AM69" s="1" t="n"/>
+      <c r="AN69" s="1" t="n"/>
+      <c r="AO69" s="1" t="n"/>
+      <c r="AP69" s="1" t="n"/>
+      <c r="AQ69" s="1" t="n"/>
+      <c r="AR69" s="1" t="n"/>
+      <c r="AS69" s="1" t="n"/>
+      <c r="AT69" s="1" t="n"/>
+      <c r="AU69" s="1" t="n"/>
+      <c r="AV69" s="1" t="n"/>
+      <c r="AW69" s="1" t="n"/>
+      <c r="AX69" s="1" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n"/>
+      <c r="B70" s="6" t="n"/>
+      <c r="C70" s="6" t="n"/>
+      <c r="D70" s="1" t="n"/>
+      <c r="E70" s="1" t="n"/>
+      <c r="F70" s="1" t="n"/>
+      <c r="G70" s="1" t="n"/>
+      <c r="H70" s="1" t="n"/>
+      <c r="I70" s="1" t="n"/>
+      <c r="J70" s="1" t="n"/>
+      <c r="K70" s="1" t="n"/>
+      <c r="L70" s="1" t="n"/>
+      <c r="M70" s="1" t="n"/>
+      <c r="N70" s="1" t="n"/>
+      <c r="O70" s="1" t="n"/>
+      <c r="P70" s="1" t="n"/>
+      <c r="Q70" s="1" t="n"/>
+      <c r="R70" s="1" t="n"/>
+      <c r="S70" s="1" t="n"/>
+      <c r="T70" s="1" t="n"/>
+      <c r="U70" s="1" t="n"/>
+      <c r="V70" s="1" t="n"/>
+      <c r="W70" s="1" t="n"/>
+      <c r="X70" s="1" t="n"/>
+      <c r="Y70" s="1" t="n"/>
+      <c r="Z70" s="1" t="n"/>
+      <c r="AA70" s="1" t="n"/>
+      <c r="AB70" s="1" t="n"/>
+      <c r="AC70" s="1" t="n"/>
+      <c r="AD70" s="1" t="n"/>
+      <c r="AE70" s="1" t="n"/>
+      <c r="AF70" s="1" t="n"/>
+      <c r="AG70" s="1" t="n"/>
+      <c r="AH70" s="1" t="n"/>
+      <c r="AI70" s="1" t="n"/>
+      <c r="AJ70" s="1" t="n"/>
+      <c r="AK70" s="1" t="n"/>
+      <c r="AL70" s="1" t="n"/>
+      <c r="AM70" s="1" t="n"/>
+      <c r="AN70" s="1" t="n"/>
+      <c r="AO70" s="1" t="n"/>
+      <c r="AP70" s="1" t="n"/>
+      <c r="AQ70" s="1" t="n"/>
+      <c r="AR70" s="1" t="n"/>
+      <c r="AS70" s="1" t="n"/>
+      <c r="AT70" s="1" t="n"/>
+      <c r="AU70" s="1" t="n"/>
+      <c r="AV70" s="1" t="n"/>
+      <c r="AW70" s="1" t="n"/>
+      <c r="AX70" s="1" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n"/>
+      <c r="B71" s="6" t="n"/>
+      <c r="C71" s="6" t="n"/>
+      <c r="D71" s="1" t="n"/>
+      <c r="E71" s="1" t="n"/>
+      <c r="F71" s="1" t="n"/>
+      <c r="G71" s="1" t="n"/>
+      <c r="H71" s="1" t="n"/>
+      <c r="I71" s="1" t="n"/>
+      <c r="J71" s="1" t="n"/>
+      <c r="K71" s="1" t="n"/>
+      <c r="L71" s="1" t="n"/>
+      <c r="M71" s="1" t="n"/>
+      <c r="N71" s="1" t="n"/>
+      <c r="O71" s="1" t="n"/>
+      <c r="P71" s="1" t="n"/>
+      <c r="Q71" s="1" t="n"/>
+      <c r="R71" s="1" t="n"/>
+      <c r="S71" s="1" t="n"/>
+      <c r="T71" s="1" t="n"/>
+      <c r="U71" s="1" t="n"/>
+      <c r="V71" s="1" t="n"/>
+      <c r="W71" s="1" t="n"/>
+      <c r="X71" s="1" t="n"/>
+      <c r="Y71" s="1" t="n"/>
+      <c r="Z71" s="1" t="n"/>
+      <c r="AA71" s="1" t="n"/>
+      <c r="AB71" s="1" t="n"/>
+      <c r="AC71" s="1" t="n"/>
+      <c r="AD71" s="1" t="n"/>
+      <c r="AE71" s="1" t="n"/>
+      <c r="AF71" s="1" t="n"/>
+      <c r="AG71" s="1" t="n"/>
+      <c r="AH71" s="1" t="n"/>
+      <c r="AI71" s="1" t="n"/>
+      <c r="AJ71" s="1" t="n"/>
+      <c r="AK71" s="1" t="n"/>
+      <c r="AL71" s="1" t="n"/>
+      <c r="AM71" s="1" t="n"/>
+      <c r="AN71" s="1" t="n"/>
+      <c r="AO71" s="1" t="n"/>
+      <c r="AP71" s="1" t="n"/>
+      <c r="AQ71" s="1" t="n"/>
+      <c r="AR71" s="1" t="n"/>
+      <c r="AS71" s="1" t="n"/>
+      <c r="AT71" s="1" t="n"/>
+      <c r="AU71" s="1" t="n"/>
+      <c r="AV71" s="1" t="n"/>
+      <c r="AW71" s="1" t="n"/>
+      <c r="AX71" s="1" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n"/>
+      <c r="B72" s="6" t="n"/>
+      <c r="C72" s="6" t="n"/>
+      <c r="D72" s="1" t="n"/>
+      <c r="E72" s="1" t="n"/>
+      <c r="F72" s="1" t="n"/>
+      <c r="G72" s="1" t="n"/>
+      <c r="H72" s="1" t="n"/>
+      <c r="I72" s="1" t="n"/>
+      <c r="J72" s="1" t="n"/>
+      <c r="K72" s="1" t="n"/>
+      <c r="L72" s="1" t="n"/>
+      <c r="M72" s="1" t="n"/>
+      <c r="N72" s="1" t="n"/>
+      <c r="O72" s="1" t="n"/>
+      <c r="P72" s="1" t="n"/>
+      <c r="Q72" s="1" t="n"/>
+      <c r="R72" s="1" t="n"/>
+      <c r="S72" s="1" t="n"/>
+      <c r="T72" s="1" t="n"/>
+      <c r="U72" s="1" t="n"/>
+      <c r="V72" s="1" t="n"/>
+      <c r="W72" s="1" t="n"/>
+      <c r="X72" s="1" t="n"/>
+      <c r="Y72" s="1" t="n"/>
+      <c r="Z72" s="1" t="n"/>
+      <c r="AA72" s="1" t="n"/>
+      <c r="AB72" s="1" t="n"/>
+      <c r="AC72" s="1" t="n"/>
+      <c r="AD72" s="1" t="n"/>
+      <c r="AE72" s="1" t="n"/>
+      <c r="AF72" s="1" t="n"/>
+      <c r="AG72" s="1" t="n"/>
+      <c r="AH72" s="1" t="n"/>
+      <c r="AI72" s="1" t="n"/>
+      <c r="AJ72" s="1" t="n"/>
+      <c r="AK72" s="1" t="n"/>
+      <c r="AL72" s="1" t="n"/>
+      <c r="AM72" s="1" t="n"/>
+      <c r="AN72" s="1" t="n"/>
+      <c r="AO72" s="1" t="n"/>
+      <c r="AP72" s="1" t="n"/>
+      <c r="AQ72" s="1" t="n"/>
+      <c r="AR72" s="1" t="n"/>
+      <c r="AS72" s="1" t="n"/>
+      <c r="AT72" s="1" t="n"/>
+      <c r="AU72" s="1" t="n"/>
+      <c r="AV72" s="1" t="n"/>
+      <c r="AW72" s="1" t="n"/>
+      <c r="AX72" s="1" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n"/>
+      <c r="B73" s="6" t="n"/>
+      <c r="C73" s="6" t="n"/>
+      <c r="D73" s="1" t="n"/>
+      <c r="E73" s="1" t="n"/>
+      <c r="F73" s="1" t="n"/>
+      <c r="G73" s="1" t="n"/>
+      <c r="H73" s="1" t="n"/>
+      <c r="I73" s="1" t="n"/>
+      <c r="J73" s="1" t="n"/>
+      <c r="K73" s="1" t="n"/>
+      <c r="L73" s="1" t="n"/>
+      <c r="M73" s="1" t="n"/>
+      <c r="N73" s="1" t="n"/>
+      <c r="O73" s="1" t="n"/>
+      <c r="P73" s="1" t="n"/>
+      <c r="Q73" s="1" t="n"/>
+      <c r="R73" s="1" t="n"/>
+      <c r="S73" s="1" t="n"/>
+      <c r="T73" s="1" t="n"/>
+      <c r="U73" s="1" t="n"/>
+      <c r="V73" s="1" t="n"/>
+      <c r="W73" s="1" t="n"/>
+      <c r="X73" s="1" t="n"/>
+      <c r="Y73" s="1" t="n"/>
+      <c r="Z73" s="1" t="n"/>
+      <c r="AA73" s="1" t="n"/>
+      <c r="AB73" s="1" t="n"/>
+      <c r="AC73" s="1" t="n"/>
+      <c r="AD73" s="1" t="n"/>
+      <c r="AE73" s="1" t="n"/>
+      <c r="AF73" s="1" t="n"/>
+      <c r="AG73" s="1" t="n"/>
+      <c r="AH73" s="1" t="n"/>
+      <c r="AI73" s="1" t="n"/>
+      <c r="AJ73" s="1" t="n"/>
+      <c r="AK73" s="1" t="n"/>
+      <c r="AL73" s="1" t="n"/>
+      <c r="AM73" s="1" t="n"/>
+      <c r="AN73" s="1" t="n"/>
+      <c r="AO73" s="1" t="n"/>
+      <c r="AP73" s="1" t="n"/>
+      <c r="AQ73" s="1" t="n"/>
+      <c r="AR73" s="1" t="n"/>
+      <c r="AS73" s="1" t="n"/>
+      <c r="AT73" s="1" t="n"/>
+      <c r="AU73" s="1" t="n"/>
+      <c r="AV73" s="1" t="n"/>
+      <c r="AW73" s="1" t="n"/>
+      <c r="AX73" s="1" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n"/>
+      <c r="B74" s="6" t="n"/>
+      <c r="C74" s="6" t="n"/>
+      <c r="D74" s="1" t="n"/>
+      <c r="E74" s="1" t="n"/>
+      <c r="F74" s="1" t="n"/>
+      <c r="G74" s="1" t="n"/>
+      <c r="H74" s="1" t="n"/>
+      <c r="I74" s="1" t="n"/>
+      <c r="J74" s="1" t="n"/>
+      <c r="K74" s="1" t="n"/>
+      <c r="L74" s="1" t="n"/>
+      <c r="M74" s="1" t="n"/>
+      <c r="N74" s="1" t="n"/>
+      <c r="O74" s="1" t="n"/>
+      <c r="P74" s="1" t="n"/>
+      <c r="Q74" s="1" t="n"/>
+      <c r="R74" s="1" t="n"/>
+      <c r="S74" s="1" t="n"/>
+      <c r="T74" s="1" t="n"/>
+      <c r="U74" s="1" t="n"/>
+      <c r="V74" s="1" t="n"/>
+      <c r="W74" s="1" t="n"/>
+      <c r="X74" s="1" t="n"/>
+      <c r="Y74" s="1" t="n"/>
+      <c r="Z74" s="1" t="n"/>
+      <c r="AA74" s="1" t="n"/>
+      <c r="AB74" s="1" t="n"/>
+      <c r="AC74" s="1" t="n"/>
+      <c r="AD74" s="1" t="n"/>
+      <c r="AE74" s="1" t="n"/>
+      <c r="AF74" s="1" t="n"/>
+      <c r="AG74" s="1" t="n"/>
+      <c r="AH74" s="1" t="n"/>
+      <c r="AI74" s="1" t="n"/>
+      <c r="AJ74" s="1" t="n"/>
+      <c r="AK74" s="1" t="n"/>
+      <c r="AL74" s="1" t="n"/>
+      <c r="AM74" s="1" t="n"/>
+      <c r="AN74" s="1" t="n"/>
+      <c r="AO74" s="1" t="n"/>
+      <c r="AP74" s="1" t="n"/>
+      <c r="AQ74" s="1" t="n"/>
+      <c r="AR74" s="1" t="n"/>
+      <c r="AS74" s="1" t="n"/>
+      <c r="AT74" s="1" t="n"/>
+      <c r="AU74" s="1" t="n"/>
+      <c r="AV74" s="1" t="n"/>
+      <c r="AW74" s="1" t="n"/>
+      <c r="AX74" s="1" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n"/>
+      <c r="B75" s="6" t="n"/>
+      <c r="C75" s="6" t="n"/>
+      <c r="D75" s="1" t="n"/>
+      <c r="E75" s="1" t="n"/>
+      <c r="F75" s="1" t="n"/>
+      <c r="G75" s="1" t="n"/>
+      <c r="H75" s="1" t="n"/>
+      <c r="I75" s="1" t="n"/>
+      <c r="J75" s="1" t="n"/>
+      <c r="K75" s="1" t="n"/>
+      <c r="L75" s="1" t="n"/>
+      <c r="M75" s="1" t="n"/>
+      <c r="N75" s="1" t="n"/>
+      <c r="O75" s="1" t="n"/>
+      <c r="P75" s="1" t="n"/>
+      <c r="Q75" s="1" t="n"/>
+      <c r="R75" s="1" t="n"/>
+      <c r="S75" s="1" t="n"/>
+      <c r="T75" s="1" t="n"/>
+      <c r="U75" s="1" t="n"/>
+      <c r="V75" s="1" t="n"/>
+      <c r="W75" s="1" t="n"/>
+      <c r="X75" s="1" t="n"/>
+      <c r="Y75" s="1" t="n"/>
+      <c r="Z75" s="1" t="n"/>
+      <c r="AA75" s="1" t="n"/>
+      <c r="AB75" s="1" t="n"/>
+      <c r="AC75" s="1" t="n"/>
+      <c r="AD75" s="1" t="n"/>
+      <c r="AE75" s="1" t="n"/>
+      <c r="AF75" s="1" t="n"/>
+      <c r="AG75" s="1" t="n"/>
+      <c r="AH75" s="1" t="n"/>
+      <c r="AI75" s="1" t="n"/>
+      <c r="AJ75" s="1" t="n"/>
+      <c r="AK75" s="1" t="n"/>
+      <c r="AL75" s="1" t="n"/>
+      <c r="AM75" s="1" t="n"/>
+      <c r="AN75" s="1" t="n"/>
+      <c r="AO75" s="1" t="n"/>
+      <c r="AP75" s="1" t="n"/>
+      <c r="AQ75" s="1" t="n"/>
+      <c r="AR75" s="1" t="n"/>
+      <c r="AS75" s="1" t="n"/>
+      <c r="AT75" s="1" t="n"/>
+      <c r="AU75" s="1" t="n"/>
+      <c r="AV75" s="1" t="n"/>
+      <c r="AW75" s="1" t="n"/>
+      <c r="AX75" s="1" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n"/>
+      <c r="B76" s="6" t="n"/>
+      <c r="C76" s="6" t="n"/>
+      <c r="D76" s="1" t="n"/>
+      <c r="E76" s="1" t="n"/>
+      <c r="F76" s="1" t="n"/>
+      <c r="G76" s="1" t="n"/>
+      <c r="H76" s="1" t="n"/>
+      <c r="I76" s="1" t="n"/>
+      <c r="J76" s="1" t="n"/>
+      <c r="K76" s="1" t="n"/>
+      <c r="L76" s="1" t="n"/>
+      <c r="M76" s="1" t="n"/>
+      <c r="N76" s="1" t="n"/>
+      <c r="O76" s="1" t="n"/>
+      <c r="P76" s="1" t="n"/>
+      <c r="Q76" s="1" t="n"/>
+      <c r="R76" s="1" t="n"/>
+      <c r="S76" s="1" t="n"/>
+      <c r="T76" s="1" t="n"/>
+      <c r="U76" s="1" t="n"/>
+      <c r="V76" s="1" t="n"/>
+      <c r="W76" s="1" t="n"/>
+      <c r="X76" s="1" t="n"/>
+      <c r="Y76" s="1" t="n"/>
+      <c r="Z76" s="1" t="n"/>
+      <c r="AA76" s="1" t="n"/>
+      <c r="AB76" s="1" t="n"/>
+      <c r="AC76" s="1" t="n"/>
+      <c r="AD76" s="1" t="n"/>
+      <c r="AE76" s="1" t="n"/>
+      <c r="AF76" s="1" t="n"/>
+      <c r="AG76" s="1" t="n"/>
+      <c r="AH76" s="1" t="n"/>
+      <c r="AI76" s="1" t="n"/>
+      <c r="AJ76" s="1" t="n"/>
+      <c r="AK76" s="1" t="n"/>
+      <c r="AL76" s="1" t="n"/>
+      <c r="AM76" s="1" t="n"/>
+      <c r="AN76" s="1" t="n"/>
+      <c r="AO76" s="1" t="n"/>
+      <c r="AP76" s="1" t="n"/>
+      <c r="AQ76" s="1" t="n"/>
+      <c r="AR76" s="1" t="n"/>
+      <c r="AS76" s="1" t="n"/>
+      <c r="AT76" s="1" t="n"/>
+      <c r="AU76" s="1" t="n"/>
+      <c r="AV76" s="1" t="n"/>
+      <c r="AW76" s="1" t="n"/>
+      <c r="AX76" s="1" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n"/>
+      <c r="B77" s="6" t="n"/>
+      <c r="C77" s="6" t="n"/>
+      <c r="D77" s="1" t="n"/>
+      <c r="E77" s="1" t="n"/>
+      <c r="F77" s="1" t="n"/>
+      <c r="G77" s="1" t="n"/>
+      <c r="H77" s="1" t="n"/>
+      <c r="I77" s="1" t="n"/>
+      <c r="J77" s="1" t="n"/>
+      <c r="K77" s="1" t="n"/>
+      <c r="L77" s="1" t="n"/>
+      <c r="M77" s="1" t="n"/>
+      <c r="N77" s="1" t="n"/>
+      <c r="O77" s="1" t="n"/>
+      <c r="P77" s="1" t="n"/>
+      <c r="Q77" s="1" t="n"/>
+      <c r="R77" s="1" t="n"/>
+      <c r="S77" s="1" t="n"/>
+      <c r="T77" s="1" t="n"/>
+      <c r="U77" s="1" t="n"/>
+      <c r="V77" s="1" t="n"/>
+      <c r="W77" s="1" t="n"/>
+      <c r="X77" s="1" t="n"/>
+      <c r="Y77" s="1" t="n"/>
+      <c r="Z77" s="1" t="n"/>
+      <c r="AA77" s="1" t="n"/>
+      <c r="AB77" s="1" t="n"/>
+      <c r="AC77" s="1" t="n"/>
+      <c r="AD77" s="1" t="n"/>
+      <c r="AE77" s="1" t="n"/>
+      <c r="AF77" s="1" t="n"/>
+      <c r="AG77" s="1" t="n"/>
+      <c r="AH77" s="1" t="n"/>
+      <c r="AI77" s="1" t="n"/>
+      <c r="AJ77" s="1" t="n"/>
+      <c r="AK77" s="1" t="n"/>
+      <c r="AL77" s="1" t="n"/>
+      <c r="AM77" s="1" t="n"/>
+      <c r="AN77" s="1" t="n"/>
+      <c r="AO77" s="1" t="n"/>
+      <c r="AP77" s="1" t="n"/>
+      <c r="AQ77" s="1" t="n"/>
+      <c r="AR77" s="1" t="n"/>
+      <c r="AS77" s="1" t="n"/>
+      <c r="AT77" s="1" t="n"/>
+      <c r="AU77" s="1" t="n"/>
+      <c r="AV77" s="1" t="n"/>
+      <c r="AW77" s="1" t="n"/>
+      <c r="AX77" s="1" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n"/>
+      <c r="B78" s="6" t="n"/>
+      <c r="C78" s="6" t="n"/>
+      <c r="D78" s="1" t="n"/>
+      <c r="E78" s="1" t="n"/>
+      <c r="F78" s="1" t="n"/>
+      <c r="G78" s="1" t="n"/>
+      <c r="H78" s="1" t="n"/>
+      <c r="I78" s="1" t="n"/>
+      <c r="J78" s="1" t="n"/>
+      <c r="K78" s="1" t="n"/>
+      <c r="L78" s="1" t="n"/>
+      <c r="M78" s="1" t="n"/>
+      <c r="N78" s="1" t="n"/>
+      <c r="O78" s="1" t="n"/>
+      <c r="P78" s="1" t="n"/>
+      <c r="Q78" s="1" t="n"/>
+      <c r="R78" s="1" t="n"/>
+      <c r="S78" s="1" t="n"/>
+      <c r="T78" s="1" t="n"/>
+      <c r="U78" s="1" t="n"/>
+      <c r="V78" s="1" t="n"/>
+      <c r="W78" s="1" t="n"/>
+      <c r="X78" s="1" t="n"/>
+      <c r="Y78" s="1" t="n"/>
+      <c r="Z78" s="1" t="n"/>
+      <c r="AA78" s="1" t="n"/>
+      <c r="AB78" s="1" t="n"/>
+      <c r="AC78" s="1" t="n"/>
+      <c r="AD78" s="1" t="n"/>
+      <c r="AE78" s="1" t="n"/>
+      <c r="AF78" s="1" t="n"/>
+      <c r="AG78" s="1" t="n"/>
+      <c r="AH78" s="1" t="n"/>
+      <c r="AI78" s="1" t="n"/>
+      <c r="AJ78" s="1" t="n"/>
+      <c r="AK78" s="1" t="n"/>
+      <c r="AL78" s="1" t="n"/>
+      <c r="AM78" s="1" t="n"/>
+      <c r="AN78" s="1" t="n"/>
+      <c r="AO78" s="1" t="n"/>
+      <c r="AP78" s="1" t="n"/>
+      <c r="AQ78" s="1" t="n"/>
+      <c r="AR78" s="1" t="n"/>
+      <c r="AS78" s="1" t="n"/>
+      <c r="AT78" s="1" t="n"/>
+      <c r="AU78" s="1" t="n"/>
+      <c r="AV78" s="1" t="n"/>
+      <c r="AW78" s="1" t="n"/>
+      <c r="AX78" s="1" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n"/>
+      <c r="B79" s="6" t="n"/>
+      <c r="C79" s="6" t="n"/>
+      <c r="D79" s="1" t="n"/>
+      <c r="E79" s="1" t="n"/>
+      <c r="F79" s="1" t="n"/>
+      <c r="G79" s="1" t="n"/>
+      <c r="H79" s="1" t="n"/>
+      <c r="I79" s="1" t="n"/>
+      <c r="J79" s="1" t="n"/>
+      <c r="K79" s="1" t="n"/>
+      <c r="L79" s="1" t="n"/>
+      <c r="M79" s="1" t="n"/>
+      <c r="N79" s="1" t="n"/>
+      <c r="O79" s="1" t="n"/>
+      <c r="P79" s="1" t="n"/>
+      <c r="Q79" s="1" t="n"/>
+      <c r="R79" s="1" t="n"/>
+      <c r="S79" s="1" t="n"/>
+      <c r="T79" s="1" t="n"/>
+      <c r="U79" s="1" t="n"/>
+      <c r="V79" s="1" t="n"/>
+      <c r="W79" s="1" t="n"/>
+      <c r="X79" s="1" t="n"/>
+      <c r="Y79" s="1" t="n"/>
+      <c r="Z79" s="1" t="n"/>
+      <c r="AA79" s="1" t="n"/>
+      <c r="AB79" s="1" t="n"/>
+      <c r="AC79" s="1" t="n"/>
+      <c r="AD79" s="1" t="n"/>
+      <c r="AE79" s="1" t="n"/>
+      <c r="AF79" s="1" t="n"/>
+      <c r="AG79" s="1" t="n"/>
+      <c r="AH79" s="1" t="n"/>
+      <c r="AI79" s="1" t="n"/>
+      <c r="AJ79" s="1" t="n"/>
+      <c r="AK79" s="1" t="n"/>
+      <c r="AL79" s="1" t="n"/>
+      <c r="AM79" s="1" t="n"/>
+      <c r="AN79" s="1" t="n"/>
+      <c r="AO79" s="1" t="n"/>
+      <c r="AP79" s="1" t="n"/>
+      <c r="AQ79" s="1" t="n"/>
+      <c r="AR79" s="1" t="n"/>
+      <c r="AS79" s="1" t="n"/>
+      <c r="AT79" s="1" t="n"/>
+      <c r="AU79" s="1" t="n"/>
+      <c r="AV79" s="1" t="n"/>
+      <c r="AW79" s="1" t="n"/>
+      <c r="AX79" s="1" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n"/>
+      <c r="B80" s="6" t="n"/>
+      <c r="C80" s="6" t="n"/>
+      <c r="D80" s="1" t="n"/>
+      <c r="E80" s="1" t="n"/>
+      <c r="F80" s="1" t="n"/>
+      <c r="G80" s="1" t="n"/>
+      <c r="H80" s="1" t="n"/>
+      <c r="I80" s="1" t="n"/>
+      <c r="J80" s="1" t="n"/>
+      <c r="K80" s="1" t="n"/>
+      <c r="L80" s="1" t="n"/>
+      <c r="M80" s="1" t="n"/>
+      <c r="N80" s="1" t="n"/>
+      <c r="O80" s="1" t="n"/>
+      <c r="P80" s="1" t="n"/>
+      <c r="Q80" s="1" t="n"/>
+      <c r="R80" s="1" t="n"/>
+      <c r="S80" s="1" t="n"/>
+      <c r="T80" s="1" t="n"/>
+      <c r="U80" s="1" t="n"/>
+      <c r="V80" s="1" t="n"/>
+      <c r="W80" s="1" t="n"/>
+      <c r="X80" s="1" t="n"/>
+      <c r="Y80" s="1" t="n"/>
+      <c r="Z80" s="1" t="n"/>
+      <c r="AA80" s="1" t="n"/>
+      <c r="AB80" s="1" t="n"/>
+      <c r="AC80" s="1" t="n"/>
+      <c r="AD80" s="1" t="n"/>
+      <c r="AE80" s="1" t="n"/>
+      <c r="AF80" s="1" t="n"/>
+      <c r="AG80" s="1" t="n"/>
+      <c r="AH80" s="1" t="n"/>
+      <c r="AI80" s="1" t="n"/>
+      <c r="AJ80" s="1" t="n"/>
+      <c r="AK80" s="1" t="n"/>
+      <c r="AL80" s="1" t="n"/>
+      <c r="AM80" s="1" t="n"/>
+      <c r="AN80" s="1" t="n"/>
+      <c r="AO80" s="1" t="n"/>
+      <c r="AP80" s="1" t="n"/>
+      <c r="AQ80" s="1" t="n"/>
+      <c r="AR80" s="1" t="n"/>
+      <c r="AS80" s="1" t="n"/>
+      <c r="AT80" s="1" t="n"/>
+      <c r="AU80" s="1" t="n"/>
+      <c r="AV80" s="1" t="n"/>
+      <c r="AW80" s="1" t="n"/>
+      <c r="AX80" s="1" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n"/>
+      <c r="B81" s="6" t="n"/>
+      <c r="C81" s="6" t="n"/>
+      <c r="D81" s="1" t="n"/>
+      <c r="E81" s="1" t="n"/>
+      <c r="F81" s="1" t="n"/>
+      <c r="G81" s="1" t="n"/>
+      <c r="H81" s="1" t="n"/>
+      <c r="I81" s="1" t="n"/>
+      <c r="J81" s="1" t="n"/>
+      <c r="K81" s="1" t="n"/>
+      <c r="L81" s="1" t="n"/>
+      <c r="M81" s="1" t="n"/>
+      <c r="N81" s="1" t="n"/>
+      <c r="O81" s="1" t="n"/>
+      <c r="P81" s="1" t="n"/>
+      <c r="Q81" s="1" t="n"/>
+      <c r="R81" s="1" t="n"/>
+      <c r="S81" s="1" t="n"/>
+      <c r="T81" s="1" t="n"/>
+      <c r="U81" s="1" t="n"/>
+      <c r="V81" s="1" t="n"/>
+      <c r="W81" s="1" t="n"/>
+      <c r="X81" s="1" t="n"/>
+      <c r="Y81" s="1" t="n"/>
+      <c r="Z81" s="1" t="n"/>
+      <c r="AA81" s="1" t="n"/>
+      <c r="AB81" s="1" t="n"/>
+      <c r="AC81" s="1" t="n"/>
+      <c r="AD81" s="1" t="n"/>
+      <c r="AE81" s="1" t="n"/>
+      <c r="AF81" s="1" t="n"/>
+      <c r="AG81" s="1" t="n"/>
+      <c r="AH81" s="1" t="n"/>
+      <c r="AI81" s="1" t="n"/>
+      <c r="AJ81" s="1" t="n"/>
+      <c r="AK81" s="1" t="n"/>
+      <c r="AL81" s="1" t="n"/>
+      <c r="AM81" s="1" t="n"/>
+      <c r="AN81" s="1" t="n"/>
+      <c r="AO81" s="1" t="n"/>
+      <c r="AP81" s="1" t="n"/>
+      <c r="AQ81" s="1" t="n"/>
+      <c r="AR81" s="1" t="n"/>
+      <c r="AS81" s="1" t="n"/>
+      <c r="AT81" s="1" t="n"/>
+      <c r="AU81" s="1" t="n"/>
+      <c r="AV81" s="1" t="n"/>
+      <c r="AW81" s="1" t="n"/>
+      <c r="AX81" s="1" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n"/>
+      <c r="B82" s="6" t="n"/>
+      <c r="C82" s="6" t="n"/>
+      <c r="D82" s="1" t="n"/>
+      <c r="E82" s="1" t="n"/>
+      <c r="F82" s="1" t="n"/>
+      <c r="G82" s="1" t="n"/>
+      <c r="H82" s="1" t="n"/>
+      <c r="I82" s="1" t="n"/>
+      <c r="J82" s="1" t="n"/>
+      <c r="K82" s="1" t="n"/>
+      <c r="L82" s="1" t="n"/>
+      <c r="M82" s="1" t="n"/>
+      <c r="N82" s="1" t="n"/>
+      <c r="O82" s="1" t="n"/>
+      <c r="P82" s="1" t="n"/>
+      <c r="Q82" s="1" t="n"/>
+      <c r="R82" s="1" t="n"/>
+      <c r="S82" s="1" t="n"/>
+      <c r="T82" s="1" t="n"/>
+      <c r="U82" s="1" t="n"/>
+      <c r="V82" s="1" t="n"/>
+      <c r="W82" s="1" t="n"/>
+      <c r="X82" s="1" t="n"/>
+      <c r="Y82" s="1" t="n"/>
+      <c r="Z82" s="1" t="n"/>
+      <c r="AA82" s="1" t="n"/>
+      <c r="AB82" s="1" t="n"/>
+      <c r="AC82" s="1" t="n"/>
+      <c r="AD82" s="1" t="n"/>
+      <c r="AE82" s="1" t="n"/>
+      <c r="AF82" s="1" t="n"/>
+      <c r="AG82" s="1" t="n"/>
+      <c r="AH82" s="1" t="n"/>
+      <c r="AI82" s="1" t="n"/>
+      <c r="AJ82" s="1" t="n"/>
+      <c r="AK82" s="1" t="n"/>
+      <c r="AL82" s="1" t="n"/>
+      <c r="AM82" s="1" t="n"/>
+      <c r="AN82" s="1" t="n"/>
+      <c r="AO82" s="1" t="n"/>
+      <c r="AP82" s="1" t="n"/>
+      <c r="AQ82" s="1" t="n"/>
+      <c r="AR82" s="1" t="n"/>
+      <c r="AS82" s="1" t="n"/>
+      <c r="AT82" s="1" t="n"/>
+      <c r="AU82" s="1" t="n"/>
+      <c r="AV82" s="1" t="n"/>
+      <c r="AW82" s="1" t="n"/>
+      <c r="AX82" s="1" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n"/>
+      <c r="B83" s="6" t="n"/>
+      <c r="C83" s="6" t="n"/>
+      <c r="D83" s="1" t="n"/>
+      <c r="E83" s="1" t="n"/>
+      <c r="F83" s="1" t="n"/>
+      <c r="G83" s="1" t="n"/>
+      <c r="H83" s="1" t="n"/>
+      <c r="I83" s="1" t="n"/>
+      <c r="J83" s="1" t="n"/>
+      <c r="K83" s="1" t="n"/>
+      <c r="L83" s="1" t="n"/>
+      <c r="M83" s="1" t="n"/>
+      <c r="N83" s="1" t="n"/>
+      <c r="O83" s="1" t="n"/>
+      <c r="P83" s="1" t="n"/>
+      <c r="Q83" s="1" t="n"/>
+      <c r="R83" s="1" t="n"/>
+      <c r="S83" s="1" t="n"/>
+      <c r="T83" s="1" t="n"/>
+      <c r="U83" s="1" t="n"/>
+      <c r="V83" s="1" t="n"/>
+      <c r="W83" s="1" t="n"/>
+      <c r="X83" s="1" t="n"/>
+      <c r="Y83" s="1" t="n"/>
+      <c r="Z83" s="1" t="n"/>
+      <c r="AA83" s="1" t="n"/>
+      <c r="AB83" s="1" t="n"/>
+      <c r="AC83" s="1" t="n"/>
+      <c r="AD83" s="1" t="n"/>
+      <c r="AE83" s="1" t="n"/>
+      <c r="AF83" s="1" t="n"/>
+      <c r="AG83" s="1" t="n"/>
+      <c r="AH83" s="1" t="n"/>
+      <c r="AI83" s="1" t="n"/>
+      <c r="AJ83" s="1" t="n"/>
+      <c r="AK83" s="1" t="n"/>
+      <c r="AL83" s="1" t="n"/>
+      <c r="AM83" s="1" t="n"/>
+      <c r="AN83" s="1" t="n"/>
+      <c r="AO83" s="1" t="n"/>
+      <c r="AP83" s="1" t="n"/>
+      <c r="AQ83" s="1" t="n"/>
+      <c r="AR83" s="1" t="n"/>
+      <c r="AS83" s="1" t="n"/>
+      <c r="AT83" s="1" t="n"/>
+      <c r="AU83" s="1" t="n"/>
+      <c r="AV83" s="1" t="n"/>
+      <c r="AW83" s="1" t="n"/>
+      <c r="AX83" s="1" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n"/>
+      <c r="B84" s="6" t="n"/>
+      <c r="C84" s="6" t="n"/>
+      <c r="D84" s="1" t="n"/>
+      <c r="E84" s="1" t="n"/>
+      <c r="F84" s="1" t="n"/>
+      <c r="G84" s="1" t="n"/>
+      <c r="H84" s="1" t="n"/>
+      <c r="I84" s="1" t="n"/>
+      <c r="J84" s="1" t="n"/>
+      <c r="K84" s="1" t="n"/>
+      <c r="L84" s="1" t="n"/>
+      <c r="M84" s="1" t="n"/>
+      <c r="N84" s="1" t="n"/>
+      <c r="O84" s="1" t="n"/>
+      <c r="P84" s="1" t="n"/>
+      <c r="Q84" s="1" t="n"/>
+      <c r="R84" s="1" t="n"/>
+      <c r="S84" s="1" t="n"/>
+      <c r="T84" s="1" t="n"/>
+      <c r="U84" s="1" t="n"/>
+      <c r="V84" s="1" t="n"/>
+      <c r="W84" s="1" t="n"/>
+      <c r="X84" s="1" t="n"/>
+      <c r="Y84" s="1" t="n"/>
+      <c r="Z84" s="1" t="n"/>
+      <c r="AA84" s="1" t="n"/>
+      <c r="AB84" s="1" t="n"/>
+      <c r="AC84" s="1" t="n"/>
+      <c r="AD84" s="1" t="n"/>
+      <c r="AE84" s="1" t="n"/>
+      <c r="AF84" s="1" t="n"/>
+      <c r="AG84" s="1" t="n"/>
+      <c r="AH84" s="1" t="n"/>
+      <c r="AI84" s="1" t="n"/>
+      <c r="AJ84" s="1" t="n"/>
+      <c r="AK84" s="1" t="n"/>
+      <c r="AL84" s="1" t="n"/>
+      <c r="AM84" s="1" t="n"/>
+      <c r="AN84" s="1" t="n"/>
+      <c r="AO84" s="1" t="n"/>
+      <c r="AP84" s="1" t="n"/>
+      <c r="AQ84" s="1" t="n"/>
+      <c r="AR84" s="1" t="n"/>
+      <c r="AS84" s="1" t="n"/>
+      <c r="AT84" s="1" t="n"/>
+      <c r="AU84" s="1" t="n"/>
+      <c r="AV84" s="1" t="n"/>
+      <c r="AW84" s="1" t="n"/>
+      <c r="AX84" s="1" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n"/>
+      <c r="B85" s="6" t="n"/>
+      <c r="C85" s="6" t="n"/>
+      <c r="D85" s="1" t="n"/>
+      <c r="E85" s="1" t="n"/>
+      <c r="F85" s="1" t="n"/>
+      <c r="G85" s="1" t="n"/>
+      <c r="H85" s="1" t="n"/>
+      <c r="I85" s="1" t="n"/>
+      <c r="J85" s="1" t="n"/>
+      <c r="K85" s="1" t="n"/>
+      <c r="L85" s="1" t="n"/>
+      <c r="M85" s="1" t="n"/>
+      <c r="N85" s="1" t="n"/>
+      <c r="O85" s="1" t="n"/>
+      <c r="P85" s="1" t="n"/>
+      <c r="Q85" s="1" t="n"/>
+      <c r="R85" s="1" t="n"/>
+      <c r="S85" s="1" t="n"/>
+      <c r="T85" s="1" t="n"/>
+      <c r="U85" s="1" t="n"/>
+      <c r="V85" s="1" t="n"/>
+      <c r="W85" s="1" t="n"/>
+      <c r="X85" s="1" t="n"/>
+      <c r="Y85" s="1" t="n"/>
+      <c r="Z85" s="1" t="n"/>
+      <c r="AA85" s="1" t="n"/>
+      <c r="AB85" s="1" t="n"/>
+      <c r="AC85" s="1" t="n"/>
+      <c r="AD85" s="1" t="n"/>
+      <c r="AE85" s="1" t="n"/>
+      <c r="AF85" s="1" t="n"/>
+      <c r="AG85" s="1" t="n"/>
+      <c r="AH85" s="1" t="n"/>
+      <c r="AI85" s="1" t="n"/>
+      <c r="AJ85" s="1" t="n"/>
+      <c r="AK85" s="1" t="n"/>
+      <c r="AL85" s="1" t="n"/>
+      <c r="AM85" s="1" t="n"/>
+      <c r="AN85" s="1" t="n"/>
+      <c r="AO85" s="1" t="n"/>
+      <c r="AP85" s="1" t="n"/>
+      <c r="AQ85" s="1" t="n"/>
+      <c r="AR85" s="1" t="n"/>
+      <c r="AS85" s="1" t="n"/>
+      <c r="AT85" s="1" t="n"/>
+      <c r="AU85" s="1" t="n"/>
+      <c r="AV85" s="1" t="n"/>
+      <c r="AW85" s="1" t="n"/>
+      <c r="AX85" s="1" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n"/>
+      <c r="B86" s="6" t="n"/>
+      <c r="C86" s="6" t="n"/>
+      <c r="D86" s="1" t="n"/>
+      <c r="E86" s="1" t="n"/>
+      <c r="F86" s="1" t="n"/>
+      <c r="G86" s="1" t="n"/>
+      <c r="H86" s="1" t="n"/>
+      <c r="I86" s="1" t="n"/>
+      <c r="J86" s="1" t="n"/>
+      <c r="K86" s="1" t="n"/>
+      <c r="L86" s="1" t="n"/>
+      <c r="M86" s="1" t="n"/>
+      <c r="N86" s="1" t="n"/>
+      <c r="O86" s="1" t="n"/>
+      <c r="P86" s="1" t="n"/>
+      <c r="Q86" s="1" t="n"/>
+      <c r="R86" s="1" t="n"/>
+      <c r="S86" s="1" t="n"/>
+      <c r="T86" s="1" t="n"/>
+      <c r="U86" s="1" t="n"/>
+      <c r="V86" s="1" t="n"/>
+      <c r="W86" s="1" t="n"/>
+      <c r="X86" s="1" t="n"/>
+      <c r="Y86" s="1" t="n"/>
+      <c r="Z86" s="1" t="n"/>
+      <c r="AA86" s="1" t="n"/>
+      <c r="AB86" s="1" t="n"/>
+      <c r="AC86" s="1" t="n"/>
+      <c r="AD86" s="1" t="n"/>
+      <c r="AE86" s="1" t="n"/>
+      <c r="AF86" s="1" t="n"/>
+      <c r="AG86" s="1" t="n"/>
+      <c r="AH86" s="1" t="n"/>
+      <c r="AI86" s="1" t="n"/>
+      <c r="AJ86" s="1" t="n"/>
+      <c r="AK86" s="1" t="n"/>
+      <c r="AL86" s="1" t="n"/>
+      <c r="AM86" s="1" t="n"/>
+      <c r="AN86" s="1" t="n"/>
+      <c r="AO86" s="1" t="n"/>
+      <c r="AP86" s="1" t="n"/>
+      <c r="AQ86" s="1" t="n"/>
+      <c r="AR86" s="1" t="n"/>
+      <c r="AS86" s="1" t="n"/>
+      <c r="AT86" s="1" t="n"/>
+      <c r="AU86" s="1" t="n"/>
+      <c r="AV86" s="1" t="n"/>
+      <c r="AW86" s="1" t="n"/>
+      <c r="AX86" s="1" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n"/>
+      <c r="B87" s="6" t="n"/>
+      <c r="C87" s="6" t="n"/>
+      <c r="D87" s="1" t="n"/>
+      <c r="E87" s="1" t="n"/>
+      <c r="F87" s="1" t="n"/>
+      <c r="G87" s="1" t="n"/>
+      <c r="H87" s="1" t="n"/>
+      <c r="I87" s="1" t="n"/>
+      <c r="J87" s="1" t="n"/>
+      <c r="K87" s="1" t="n"/>
+      <c r="L87" s="1" t="n"/>
+      <c r="M87" s="1" t="n"/>
+      <c r="N87" s="1" t="n"/>
+      <c r="O87" s="1" t="n"/>
+      <c r="P87" s="1" t="n"/>
+      <c r="Q87" s="1" t="n"/>
+      <c r="R87" s="1" t="n"/>
+      <c r="S87" s="1" t="n"/>
+      <c r="T87" s="1" t="n"/>
+      <c r="U87" s="1" t="n"/>
+      <c r="V87" s="1" t="n"/>
+      <c r="W87" s="1" t="n"/>
+      <c r="X87" s="1" t="n"/>
+      <c r="Y87" s="1" t="n"/>
+      <c r="Z87" s="1" t="n"/>
+      <c r="AA87" s="1" t="n"/>
+      <c r="AB87" s="1" t="n"/>
+      <c r="AC87" s="1" t="n"/>
+      <c r="AD87" s="1" t="n"/>
+      <c r="AE87" s="1" t="n"/>
+      <c r="AF87" s="1" t="n"/>
+      <c r="AG87" s="1" t="n"/>
+      <c r="AH87" s="1" t="n"/>
+      <c r="AI87" s="1" t="n"/>
+      <c r="AJ87" s="1" t="n"/>
+      <c r="AK87" s="1" t="n"/>
+      <c r="AL87" s="1" t="n"/>
+      <c r="AM87" s="1" t="n"/>
+      <c r="AN87" s="1" t="n"/>
+      <c r="AO87" s="1" t="n"/>
+      <c r="AP87" s="1" t="n"/>
+      <c r="AQ87" s="1" t="n"/>
+      <c r="AR87" s="1" t="n"/>
+      <c r="AS87" s="1" t="n"/>
+      <c r="AT87" s="1" t="n"/>
+      <c r="AU87" s="1" t="n"/>
+      <c r="AV87" s="1" t="n"/>
+      <c r="AW87" s="1" t="n"/>
+      <c r="AX87" s="1" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n"/>
+      <c r="B88" s="6" t="n"/>
+      <c r="C88" s="6" t="n"/>
+      <c r="D88" s="1" t="n"/>
+      <c r="E88" s="1" t="n"/>
+      <c r="F88" s="1" t="n"/>
+      <c r="G88" s="1" t="n"/>
+      <c r="H88" s="1" t="n"/>
+      <c r="I88" s="1" t="n"/>
+      <c r="J88" s="1" t="n"/>
+      <c r="K88" s="1" t="n"/>
+      <c r="L88" s="1" t="n"/>
+      <c r="M88" s="1" t="n"/>
+      <c r="N88" s="1" t="n"/>
+      <c r="O88" s="1" t="n"/>
+      <c r="P88" s="1" t="n"/>
+      <c r="Q88" s="1" t="n"/>
+      <c r="R88" s="1" t="n"/>
+      <c r="S88" s="1" t="n"/>
+      <c r="T88" s="1" t="n"/>
+      <c r="U88" s="1" t="n"/>
+      <c r="V88" s="1" t="n"/>
+      <c r="W88" s="1" t="n"/>
+      <c r="X88" s="1" t="n"/>
+      <c r="Y88" s="1" t="n"/>
+      <c r="Z88" s="1" t="n"/>
+      <c r="AA88" s="1" t="n"/>
+      <c r="AB88" s="1" t="n"/>
+      <c r="AC88" s="1" t="n"/>
+      <c r="AD88" s="1" t="n"/>
+      <c r="AE88" s="1" t="n"/>
+      <c r="AF88" s="1" t="n"/>
+      <c r="AG88" s="1" t="n"/>
+      <c r="AH88" s="1" t="n"/>
+      <c r="AI88" s="1" t="n"/>
+      <c r="AJ88" s="1" t="n"/>
+      <c r="AK88" s="1" t="n"/>
+      <c r="AL88" s="1" t="n"/>
+      <c r="AM88" s="1" t="n"/>
+      <c r="AN88" s="1" t="n"/>
+      <c r="AO88" s="1" t="n"/>
+      <c r="AP88" s="1" t="n"/>
+      <c r="AQ88" s="1" t="n"/>
+      <c r="AR88" s="1" t="n"/>
+      <c r="AS88" s="1" t="n"/>
+      <c r="AT88" s="1" t="n"/>
+      <c r="AU88" s="1" t="n"/>
+      <c r="AV88" s="1" t="n"/>
+      <c r="AW88" s="1" t="n"/>
+      <c r="AX88" s="1" t="n"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n"/>
+      <c r="B89" s="6" t="n"/>
+      <c r="C89" s="6" t="n"/>
+      <c r="D89" s="1" t="n"/>
+      <c r="E89" s="1" t="n"/>
+      <c r="F89" s="1" t="n"/>
+      <c r="G89" s="1" t="n"/>
+      <c r="H89" s="1" t="n"/>
+      <c r="I89" s="1" t="n"/>
+      <c r="J89" s="1" t="n"/>
+      <c r="K89" s="1" t="n"/>
+      <c r="L89" s="1" t="n"/>
+      <c r="M89" s="1" t="n"/>
+      <c r="N89" s="1" t="n"/>
+      <c r="O89" s="1" t="n"/>
+      <c r="P89" s="1" t="n"/>
+      <c r="Q89" s="1" t="n"/>
+      <c r="R89" s="1" t="n"/>
+      <c r="S89" s="1" t="n"/>
+      <c r="T89" s="1" t="n"/>
+      <c r="U89" s="1" t="n"/>
+      <c r="V89" s="1" t="n"/>
+      <c r="W89" s="1" t="n"/>
+      <c r="X89" s="1" t="n"/>
+      <c r="Y89" s="1" t="n"/>
+      <c r="Z89" s="1" t="n"/>
+      <c r="AA89" s="1" t="n"/>
+      <c r="AB89" s="1" t="n"/>
+      <c r="AC89" s="1" t="n"/>
+      <c r="AD89" s="1" t="n"/>
+      <c r="AE89" s="1" t="n"/>
+      <c r="AF89" s="1" t="n"/>
+      <c r="AG89" s="1" t="n"/>
+      <c r="AH89" s="1" t="n"/>
+      <c r="AI89" s="1" t="n"/>
+      <c r="AJ89" s="1" t="n"/>
+      <c r="AK89" s="1" t="n"/>
+      <c r="AL89" s="1" t="n"/>
+      <c r="AM89" s="1" t="n"/>
+      <c r="AN89" s="1" t="n"/>
+      <c r="AO89" s="1" t="n"/>
+      <c r="AP89" s="1" t="n"/>
+      <c r="AQ89" s="1" t="n"/>
+      <c r="AR89" s="1" t="n"/>
+      <c r="AS89" s="1" t="n"/>
+      <c r="AT89" s="1" t="n"/>
+      <c r="AU89" s="1" t="n"/>
+      <c r="AV89" s="1" t="n"/>
+      <c r="AW89" s="1" t="n"/>
+      <c r="AX89" s="1" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n"/>
+      <c r="B90" s="6" t="n"/>
+      <c r="C90" s="6" t="n"/>
+      <c r="D90" s="1" t="n"/>
+      <c r="E90" s="1" t="n"/>
+      <c r="F90" s="1" t="n"/>
+      <c r="G90" s="1" t="n"/>
+      <c r="H90" s="1" t="n"/>
+      <c r="I90" s="1" t="n"/>
+      <c r="J90" s="1" t="n"/>
+      <c r="K90" s="1" t="n"/>
+      <c r="L90" s="1" t="n"/>
+      <c r="M90" s="1" t="n"/>
+      <c r="N90" s="1" t="n"/>
+      <c r="O90" s="1" t="n"/>
+      <c r="P90" s="1" t="n"/>
+      <c r="Q90" s="1" t="n"/>
+      <c r="R90" s="1" t="n"/>
+      <c r="S90" s="1" t="n"/>
+      <c r="T90" s="1" t="n"/>
+      <c r="U90" s="1" t="n"/>
+      <c r="V90" s="1" t="n"/>
+      <c r="W90" s="1" t="n"/>
+      <c r="X90" s="1" t="n"/>
+      <c r="Y90" s="1" t="n"/>
+      <c r="Z90" s="1" t="n"/>
+      <c r="AA90" s="1" t="n"/>
+      <c r="AB90" s="1" t="n"/>
+      <c r="AC90" s="1" t="n"/>
+      <c r="AD90" s="1" t="n"/>
+      <c r="AE90" s="1" t="n"/>
+      <c r="AF90" s="1" t="n"/>
+      <c r="AG90" s="1" t="n"/>
+      <c r="AH90" s="1" t="n"/>
+      <c r="AI90" s="1" t="n"/>
+      <c r="AJ90" s="1" t="n"/>
+      <c r="AK90" s="1" t="n"/>
+      <c r="AL90" s="1" t="n"/>
+      <c r="AM90" s="1" t="n"/>
+      <c r="AN90" s="1" t="n"/>
+      <c r="AO90" s="1" t="n"/>
+      <c r="AP90" s="1" t="n"/>
+      <c r="AQ90" s="1" t="n"/>
+      <c r="AR90" s="1" t="n"/>
+      <c r="AS90" s="1" t="n"/>
+      <c r="AT90" s="1" t="n"/>
+      <c r="AU90" s="1" t="n"/>
+      <c r="AV90" s="1" t="n"/>
+      <c r="AW90" s="1" t="n"/>
+      <c r="AX90" s="1" t="n"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n"/>
+      <c r="B91" s="6" t="n"/>
+      <c r="C91" s="6" t="n"/>
+      <c r="D91" s="1" t="n"/>
+      <c r="E91" s="1" t="n"/>
+      <c r="F91" s="1" t="n"/>
+      <c r="G91" s="1" t="n"/>
+      <c r="H91" s="1" t="n"/>
+      <c r="I91" s="1" t="n"/>
+      <c r="J91" s="1" t="n"/>
+      <c r="K91" s="1" t="n"/>
+      <c r="L91" s="1" t="n"/>
+      <c r="M91" s="1" t="n"/>
+      <c r="N91" s="1" t="n"/>
+      <c r="O91" s="1" t="n"/>
+      <c r="P91" s="1" t="n"/>
+      <c r="Q91" s="1" t="n"/>
+      <c r="R91" s="1" t="n"/>
+      <c r="S91" s="1" t="n"/>
+      <c r="T91" s="1" t="n"/>
+      <c r="U91" s="1" t="n"/>
+      <c r="V91" s="1" t="n"/>
+      <c r="W91" s="1" t="n"/>
+      <c r="X91" s="1" t="n"/>
+      <c r="Y91" s="1" t="n"/>
+      <c r="Z91" s="1" t="n"/>
+      <c r="AA91" s="1" t="n"/>
+      <c r="AB91" s="1" t="n"/>
+      <c r="AC91" s="1" t="n"/>
+      <c r="AD91" s="1" t="n"/>
+      <c r="AE91" s="1" t="n"/>
+      <c r="AF91" s="1" t="n"/>
+      <c r="AG91" s="1" t="n"/>
+      <c r="AH91" s="1" t="n"/>
+      <c r="AI91" s="1" t="n"/>
+      <c r="AJ91" s="1" t="n"/>
+      <c r="AK91" s="1" t="n"/>
+      <c r="AL91" s="1" t="n"/>
+      <c r="AM91" s="1" t="n"/>
+      <c r="AN91" s="1" t="n"/>
+      <c r="AO91" s="1" t="n"/>
+      <c r="AP91" s="1" t="n"/>
+      <c r="AQ91" s="1" t="n"/>
+      <c r="AR91" s="1" t="n"/>
+      <c r="AS91" s="1" t="n"/>
+      <c r="AT91" s="1" t="n"/>
+      <c r="AU91" s="1" t="n"/>
+      <c r="AV91" s="1" t="n"/>
+      <c r="AW91" s="1" t="n"/>
+      <c r="AX91" s="1" t="n"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n"/>
+      <c r="B92" s="6" t="n"/>
+      <c r="C92" s="6" t="n"/>
+      <c r="D92" s="1" t="n"/>
+      <c r="E92" s="1" t="n"/>
+      <c r="F92" s="1" t="n"/>
+      <c r="G92" s="1" t="n"/>
+      <c r="H92" s="1" t="n"/>
+      <c r="I92" s="1" t="n"/>
+      <c r="J92" s="1" t="n"/>
+      <c r="K92" s="1" t="n"/>
+      <c r="L92" s="1" t="n"/>
+      <c r="M92" s="1" t="n"/>
+      <c r="N92" s="1" t="n"/>
+      <c r="O92" s="1" t="n"/>
+      <c r="P92" s="1" t="n"/>
+      <c r="Q92" s="1" t="n"/>
+      <c r="R92" s="1" t="n"/>
+      <c r="S92" s="1" t="n"/>
+      <c r="T92" s="1" t="n"/>
+      <c r="U92" s="1" t="n"/>
+      <c r="V92" s="1" t="n"/>
+      <c r="W92" s="1" t="n"/>
+      <c r="X92" s="1" t="n"/>
+      <c r="Y92" s="1" t="n"/>
+      <c r="Z92" s="1" t="n"/>
+      <c r="AA92" s="1" t="n"/>
+      <c r="AB92" s="1" t="n"/>
+      <c r="AC92" s="1" t="n"/>
+      <c r="AD92" s="1" t="n"/>
+      <c r="AE92" s="1" t="n"/>
+      <c r="AF92" s="1" t="n"/>
+      <c r="AG92" s="1" t="n"/>
+      <c r="AH92" s="1" t="n"/>
+      <c r="AI92" s="1" t="n"/>
+      <c r="AJ92" s="1" t="n"/>
+      <c r="AK92" s="1" t="n"/>
+      <c r="AL92" s="1" t="n"/>
+      <c r="AM92" s="1" t="n"/>
+      <c r="AN92" s="1" t="n"/>
+      <c r="AO92" s="1" t="n"/>
+      <c r="AP92" s="1" t="n"/>
+      <c r="AQ92" s="1" t="n"/>
+      <c r="AR92" s="1" t="n"/>
+      <c r="AS92" s="1" t="n"/>
+      <c r="AT92" s="1" t="n"/>
+      <c r="AU92" s="1" t="n"/>
+      <c r="AV92" s="1" t="n"/>
+      <c r="AW92" s="1" t="n"/>
+      <c r="AX92" s="1" t="n"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n"/>
+      <c r="B93" s="6" t="n"/>
+      <c r="C93" s="6" t="n"/>
+      <c r="D93" s="1" t="n"/>
+      <c r="E93" s="1" t="n"/>
+      <c r="F93" s="1" t="n"/>
+      <c r="G93" s="1" t="n"/>
+      <c r="H93" s="1" t="n"/>
+      <c r="I93" s="1" t="n"/>
+      <c r="J93" s="1" t="n"/>
+      <c r="K93" s="1" t="n"/>
+      <c r="L93" s="1" t="n"/>
+      <c r="M93" s="1" t="n"/>
+      <c r="N93" s="1" t="n"/>
+      <c r="O93" s="1" t="n"/>
+      <c r="P93" s="1" t="n"/>
+      <c r="Q93" s="1" t="n"/>
+      <c r="R93" s="1" t="n"/>
+      <c r="S93" s="1" t="n"/>
+      <c r="T93" s="1" t="n"/>
+      <c r="U93" s="1" t="n"/>
+      <c r="V93" s="1" t="n"/>
+      <c r="W93" s="1" t="n"/>
+      <c r="X93" s="1" t="n"/>
+      <c r="Y93" s="1" t="n"/>
+      <c r="Z93" s="1" t="n"/>
+      <c r="AA93" s="1" t="n"/>
+      <c r="AB93" s="1" t="n"/>
+      <c r="AC93" s="1" t="n"/>
+      <c r="AD93" s="1" t="n"/>
+      <c r="AE93" s="1" t="n"/>
+      <c r="AF93" s="1" t="n"/>
+      <c r="AG93" s="1" t="n"/>
+      <c r="AH93" s="1" t="n"/>
+      <c r="AI93" s="1" t="n"/>
+      <c r="AJ93" s="1" t="n"/>
+      <c r="AK93" s="1" t="n"/>
+      <c r="AL93" s="1" t="n"/>
+      <c r="AM93" s="1" t="n"/>
+      <c r="AN93" s="1" t="n"/>
+      <c r="AO93" s="1" t="n"/>
+      <c r="AP93" s="1" t="n"/>
+      <c r="AQ93" s="1" t="n"/>
+      <c r="AR93" s="1" t="n"/>
+      <c r="AS93" s="1" t="n"/>
+      <c r="AT93" s="1" t="n"/>
+      <c r="AU93" s="1" t="n"/>
+      <c r="AV93" s="1" t="n"/>
+      <c r="AW93" s="1" t="n"/>
+      <c r="AX93" s="1" t="n"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n"/>
+      <c r="B94" s="6" t="n"/>
+      <c r="C94" s="6" t="n"/>
+      <c r="D94" s="1" t="n"/>
+      <c r="E94" s="1" t="n"/>
+      <c r="F94" s="1" t="n"/>
+      <c r="G94" s="1" t="n"/>
+      <c r="H94" s="1" t="n"/>
+      <c r="I94" s="1" t="n"/>
+      <c r="J94" s="1" t="n"/>
+      <c r="K94" s="1" t="n"/>
+      <c r="L94" s="1" t="n"/>
+      <c r="M94" s="1" t="n"/>
+      <c r="N94" s="1" t="n"/>
+      <c r="O94" s="1" t="n"/>
+      <c r="P94" s="1" t="n"/>
+      <c r="Q94" s="1" t="n"/>
+      <c r="R94" s="1" t="n"/>
+      <c r="S94" s="1" t="n"/>
+      <c r="T94" s="1" t="n"/>
+      <c r="U94" s="1" t="n"/>
+      <c r="V94" s="1" t="n"/>
+      <c r="W94" s="1" t="n"/>
+      <c r="X94" s="1" t="n"/>
+      <c r="Y94" s="1" t="n"/>
+      <c r="Z94" s="1" t="n"/>
+      <c r="AA94" s="1" t="n"/>
+      <c r="AB94" s="1" t="n"/>
+      <c r="AC94" s="1" t="n"/>
+      <c r="AD94" s="1" t="n"/>
+      <c r="AE94" s="1" t="n"/>
+      <c r="AF94" s="1" t="n"/>
+      <c r="AG94" s="1" t="n"/>
+      <c r="AH94" s="1" t="n"/>
+      <c r="AI94" s="1" t="n"/>
+      <c r="AJ94" s="1" t="n"/>
+      <c r="AK94" s="1" t="n"/>
+      <c r="AL94" s="1" t="n"/>
+      <c r="AM94" s="1" t="n"/>
+      <c r="AN94" s="1" t="n"/>
+      <c r="AO94" s="1" t="n"/>
+      <c r="AP94" s="1" t="n"/>
+      <c r="AQ94" s="1" t="n"/>
+      <c r="AR94" s="1" t="n"/>
+      <c r="AS94" s="1" t="n"/>
+      <c r="AT94" s="1" t="n"/>
+      <c r="AU94" s="1" t="n"/>
+      <c r="AV94" s="1" t="n"/>
+      <c r="AW94" s="1" t="n"/>
+      <c r="AX94" s="1" t="n"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n"/>
+      <c r="B95" s="6" t="n"/>
+      <c r="C95" s="6" t="n"/>
+      <c r="D95" s="1" t="n"/>
+      <c r="E95" s="1" t="n"/>
+      <c r="F95" s="1" t="n"/>
+      <c r="G95" s="1" t="n"/>
+      <c r="H95" s="1" t="n"/>
+      <c r="I95" s="1" t="n"/>
+      <c r="J95" s="1" t="n"/>
+      <c r="K95" s="1" t="n"/>
+      <c r="L95" s="1" t="n"/>
+      <c r="M95" s="1" t="n"/>
+      <c r="N95" s="1" t="n"/>
+      <c r="O95" s="1" t="n"/>
+      <c r="P95" s="1" t="n"/>
+      <c r="Q95" s="1" t="n"/>
+      <c r="R95" s="1" t="n"/>
+      <c r="S95" s="1" t="n"/>
+      <c r="T95" s="1" t="n"/>
+      <c r="U95" s="1" t="n"/>
+      <c r="V95" s="1" t="n"/>
+      <c r="W95" s="1" t="n"/>
+      <c r="X95" s="1" t="n"/>
+      <c r="Y95" s="1" t="n"/>
+      <c r="Z95" s="1" t="n"/>
+      <c r="AA95" s="1" t="n"/>
+      <c r="AB95" s="1" t="n"/>
+      <c r="AC95" s="1" t="n"/>
+      <c r="AD95" s="1" t="n"/>
+      <c r="AE95" s="1" t="n"/>
+      <c r="AF95" s="1" t="n"/>
+      <c r="AG95" s="1" t="n"/>
+      <c r="AH95" s="1" t="n"/>
+      <c r="AI95" s="1" t="n"/>
+      <c r="AJ95" s="1" t="n"/>
+      <c r="AK95" s="1" t="n"/>
+      <c r="AL95" s="1" t="n"/>
+      <c r="AM95" s="1" t="n"/>
+      <c r="AN95" s="1" t="n"/>
+      <c r="AO95" s="1" t="n"/>
+      <c r="AP95" s="1" t="n"/>
+      <c r="AQ95" s="1" t="n"/>
+      <c r="AR95" s="1" t="n"/>
+      <c r="AS95" s="1" t="n"/>
+      <c r="AT95" s="1" t="n"/>
+      <c r="AU95" s="1" t="n"/>
+      <c r="AV95" s="1" t="n"/>
+      <c r="AW95" s="1" t="n"/>
+      <c r="AX95" s="1" t="n"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n"/>
+      <c r="B96" s="6" t="n"/>
+      <c r="C96" s="6" t="n"/>
+      <c r="D96" s="1" t="n"/>
+      <c r="E96" s="1" t="n"/>
+      <c r="F96" s="1" t="n"/>
+      <c r="G96" s="1" t="n"/>
+      <c r="H96" s="1" t="n"/>
+      <c r="I96" s="1" t="n"/>
+      <c r="J96" s="1" t="n"/>
+      <c r="K96" s="1" t="n"/>
+      <c r="L96" s="1" t="n"/>
+      <c r="M96" s="1" t="n"/>
+      <c r="N96" s="1" t="n"/>
+      <c r="O96" s="1" t="n"/>
+      <c r="P96" s="1" t="n"/>
+      <c r="Q96" s="1" t="n"/>
+      <c r="R96" s="1" t="n"/>
+      <c r="S96" s="1" t="n"/>
+      <c r="T96" s="1" t="n"/>
+      <c r="U96" s="1" t="n"/>
+      <c r="V96" s="1" t="n"/>
+      <c r="W96" s="1" t="n"/>
+      <c r="X96" s="1" t="n"/>
+      <c r="Y96" s="1" t="n"/>
+      <c r="Z96" s="1" t="n"/>
+      <c r="AA96" s="1" t="n"/>
+      <c r="AB96" s="1" t="n"/>
+      <c r="AC96" s="1" t="n"/>
+      <c r="AD96" s="1" t="n"/>
+      <c r="AE96" s="1" t="n"/>
+      <c r="AF96" s="1" t="n"/>
+      <c r="AG96" s="1" t="n"/>
+      <c r="AH96" s="1" t="n"/>
+      <c r="AI96" s="1" t="n"/>
+      <c r="AJ96" s="1" t="n"/>
+      <c r="AK96" s="1" t="n"/>
+      <c r="AL96" s="1" t="n"/>
+      <c r="AM96" s="1" t="n"/>
+      <c r="AN96" s="1" t="n"/>
+      <c r="AO96" s="1" t="n"/>
+      <c r="AP96" s="1" t="n"/>
+      <c r="AQ96" s="1" t="n"/>
+      <c r="AR96" s="1" t="n"/>
+      <c r="AS96" s="1" t="n"/>
+      <c r="AT96" s="1" t="n"/>
+      <c r="AU96" s="1" t="n"/>
+      <c r="AV96" s="1" t="n"/>
+      <c r="AW96" s="1" t="n"/>
+      <c r="AX96" s="1" t="n"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n"/>
+      <c r="B97" s="6" t="n"/>
+      <c r="C97" s="6" t="n"/>
+      <c r="D97" s="1" t="n"/>
+      <c r="E97" s="1" t="n"/>
+      <c r="F97" s="1" t="n"/>
+      <c r="G97" s="1" t="n"/>
+      <c r="H97" s="1" t="n"/>
+      <c r="I97" s="1" t="n"/>
+      <c r="J97" s="1" t="n"/>
+      <c r="K97" s="1" t="n"/>
+      <c r="L97" s="1" t="n"/>
+      <c r="M97" s="1" t="n"/>
+      <c r="N97" s="1" t="n"/>
+      <c r="O97" s="1" t="n"/>
+      <c r="P97" s="1" t="n"/>
+      <c r="Q97" s="1" t="n"/>
+      <c r="R97" s="1" t="n"/>
+      <c r="S97" s="1" t="n"/>
+      <c r="T97" s="1" t="n"/>
+      <c r="U97" s="1" t="n"/>
+      <c r="V97" s="1" t="n"/>
+      <c r="W97" s="1" t="n"/>
+      <c r="X97" s="1" t="n"/>
+      <c r="Y97" s="1" t="n"/>
+      <c r="Z97" s="1" t="n"/>
+      <c r="AA97" s="1" t="n"/>
+      <c r="AB97" s="1" t="n"/>
+      <c r="AC97" s="1" t="n"/>
+      <c r="AD97" s="1" t="n"/>
+      <c r="AE97" s="1" t="n"/>
+      <c r="AF97" s="1" t="n"/>
+      <c r="AG97" s="1" t="n"/>
+      <c r="AH97" s="1" t="n"/>
+      <c r="AI97" s="1" t="n"/>
+      <c r="AJ97" s="1" t="n"/>
+      <c r="AK97" s="1" t="n"/>
+      <c r="AL97" s="1" t="n"/>
+      <c r="AM97" s="1" t="n"/>
+      <c r="AN97" s="1" t="n"/>
+      <c r="AO97" s="1" t="n"/>
+      <c r="AP97" s="1" t="n"/>
+      <c r="AQ97" s="1" t="n"/>
+      <c r="AR97" s="1" t="n"/>
+      <c r="AS97" s="1" t="n"/>
+      <c r="AT97" s="1" t="n"/>
+      <c r="AU97" s="1" t="n"/>
+      <c r="AV97" s="1" t="n"/>
+      <c r="AW97" s="1" t="n"/>
+      <c r="AX97" s="1" t="n"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n"/>
+      <c r="B98" s="6" t="n"/>
+      <c r="C98" s="6" t="n"/>
+      <c r="D98" s="1" t="n"/>
+      <c r="E98" s="1" t="n"/>
+      <c r="F98" s="1" t="n"/>
+      <c r="G98" s="1" t="n"/>
+      <c r="H98" s="1" t="n"/>
+      <c r="I98" s="1" t="n"/>
+      <c r="J98" s="1" t="n"/>
+      <c r="K98" s="1" t="n"/>
+      <c r="L98" s="1" t="n"/>
+      <c r="M98" s="1" t="n"/>
+      <c r="N98" s="1" t="n"/>
+      <c r="O98" s="1" t="n"/>
+      <c r="P98" s="1" t="n"/>
+      <c r="Q98" s="1" t="n"/>
+      <c r="R98" s="1" t="n"/>
+      <c r="S98" s="1" t="n"/>
+      <c r="T98" s="1" t="n"/>
+      <c r="U98" s="1" t="n"/>
+      <c r="V98" s="1" t="n"/>
+      <c r="W98" s="1" t="n"/>
+      <c r="X98" s="1" t="n"/>
+      <c r="Y98" s="1" t="n"/>
+      <c r="Z98" s="1" t="n"/>
+      <c r="AA98" s="1" t="n"/>
+      <c r="AB98" s="1" t="n"/>
+      <c r="AC98" s="1" t="n"/>
+      <c r="AD98" s="1" t="n"/>
+      <c r="AE98" s="1" t="n"/>
+      <c r="AF98" s="1" t="n"/>
+      <c r="AG98" s="1" t="n"/>
+      <c r="AH98" s="1" t="n"/>
+      <c r="AI98" s="1" t="n"/>
+      <c r="AJ98" s="1" t="n"/>
+      <c r="AK98" s="1" t="n"/>
+      <c r="AL98" s="1" t="n"/>
+      <c r="AM98" s="1" t="n"/>
+      <c r="AN98" s="1" t="n"/>
+      <c r="AO98" s="1" t="n"/>
+      <c r="AP98" s="1" t="n"/>
+      <c r="AQ98" s="1" t="n"/>
+      <c r="AR98" s="1" t="n"/>
+      <c r="AS98" s="1" t="n"/>
+      <c r="AT98" s="1" t="n"/>
+      <c r="AU98" s="1" t="n"/>
+      <c r="AV98" s="1" t="n"/>
+      <c r="AW98" s="1" t="n"/>
+      <c r="AX98" s="1" t="n"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n"/>
+      <c r="B99" s="6" t="n"/>
+      <c r="C99" s="6" t="n"/>
+      <c r="D99" s="1" t="n"/>
+      <c r="E99" s="1" t="n"/>
+      <c r="F99" s="1" t="n"/>
+      <c r="G99" s="1" t="n"/>
+      <c r="H99" s="1" t="n"/>
+      <c r="I99" s="1" t="n"/>
+      <c r="J99" s="1" t="n"/>
+      <c r="K99" s="1" t="n"/>
+      <c r="L99" s="1" t="n"/>
+      <c r="M99" s="1" t="n"/>
+      <c r="N99" s="1" t="n"/>
+      <c r="O99" s="1" t="n"/>
+      <c r="P99" s="1" t="n"/>
+      <c r="Q99" s="1" t="n"/>
+      <c r="R99" s="1" t="n"/>
+      <c r="S99" s="1" t="n"/>
+      <c r="T99" s="1" t="n"/>
+      <c r="U99" s="1" t="n"/>
+      <c r="V99" s="1" t="n"/>
+      <c r="W99" s="1" t="n"/>
+      <c r="X99" s="1" t="n"/>
+      <c r="Y99" s="1" t="n"/>
+      <c r="Z99" s="1" t="n"/>
+      <c r="AA99" s="1" t="n"/>
+      <c r="AB99" s="1" t="n"/>
+      <c r="AC99" s="1" t="n"/>
+      <c r="AD99" s="1" t="n"/>
+      <c r="AE99" s="1" t="n"/>
+      <c r="AF99" s="1" t="n"/>
+      <c r="AG99" s="1" t="n"/>
+      <c r="AH99" s="1" t="n"/>
+      <c r="AI99" s="1" t="n"/>
+      <c r="AJ99" s="1" t="n"/>
+      <c r="AK99" s="1" t="n"/>
+      <c r="AL99" s="1" t="n"/>
+      <c r="AM99" s="1" t="n"/>
+      <c r="AN99" s="1" t="n"/>
+      <c r="AO99" s="1" t="n"/>
+      <c r="AP99" s="1" t="n"/>
+      <c r="AQ99" s="1" t="n"/>
+      <c r="AR99" s="1" t="n"/>
+      <c r="AS99" s="1" t="n"/>
+      <c r="AT99" s="1" t="n"/>
+      <c r="AU99" s="1" t="n"/>
+      <c r="AV99" s="1" t="n"/>
+      <c r="AW99" s="1" t="n"/>
+      <c r="AX99" s="1" t="n"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n"/>
+      <c r="B100" s="6" t="n"/>
+      <c r="C100" s="6" t="n"/>
+      <c r="D100" s="1" t="n"/>
+      <c r="E100" s="1" t="n"/>
+      <c r="F100" s="1" t="n"/>
+      <c r="G100" s="1" t="n"/>
+      <c r="H100" s="1" t="n"/>
+      <c r="I100" s="1" t="n"/>
+      <c r="J100" s="1" t="n"/>
+      <c r="K100" s="1" t="n"/>
+      <c r="L100" s="1" t="n"/>
+      <c r="M100" s="1" t="n"/>
+      <c r="N100" s="1" t="n"/>
+      <c r="O100" s="1" t="n"/>
+      <c r="P100" s="1" t="n"/>
+      <c r="Q100" s="1" t="n"/>
+      <c r="R100" s="1" t="n"/>
+      <c r="S100" s="1" t="n"/>
+      <c r="T100" s="1" t="n"/>
+      <c r="U100" s="1" t="n"/>
+      <c r="V100" s="1" t="n"/>
+      <c r="W100" s="1" t="n"/>
+      <c r="X100" s="1" t="n"/>
+      <c r="Y100" s="1" t="n"/>
+      <c r="Z100" s="1" t="n"/>
+      <c r="AA100" s="1" t="n"/>
+      <c r="AB100" s="1" t="n"/>
+      <c r="AC100" s="1" t="n"/>
+      <c r="AD100" s="1" t="n"/>
+      <c r="AE100" s="1" t="n"/>
+      <c r="AF100" s="1" t="n"/>
+      <c r="AG100" s="1" t="n"/>
+      <c r="AH100" s="1" t="n"/>
+      <c r="AI100" s="1" t="n"/>
+      <c r="AJ100" s="1" t="n"/>
+      <c r="AK100" s="1" t="n"/>
+      <c r="AL100" s="1" t="n"/>
+      <c r="AM100" s="1" t="n"/>
+      <c r="AN100" s="1" t="n"/>
+      <c r="AO100" s="1" t="n"/>
+      <c r="AP100" s="1" t="n"/>
+      <c r="AQ100" s="1" t="n"/>
+      <c r="AR100" s="1" t="n"/>
+      <c r="AS100" s="1" t="n"/>
+      <c r="AT100" s="1" t="n"/>
+      <c r="AU100" s="1" t="n"/>
+      <c r="AV100" s="1" t="n"/>
+      <c r="AW100" s="1" t="n"/>
+      <c r="AX100" s="1" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B8"/>
+    <mergeCell ref="B5"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C8"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="C5"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AX100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="n"/>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Tasks</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Start Date</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>End Date</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="G1" s="4" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="I1" s="4" t="n"/>
+      <c r="J1" s="1" t="n"/>
+      <c r="K1" s="1" t="n"/>
+      <c r="L1" s="1" t="n"/>
+      <c r="M1" s="1" t="n"/>
+      <c r="N1" s="1" t="n"/>
+      <c r="O1" s="1" t="n"/>
+      <c r="P1" s="1" t="n"/>
+      <c r="Q1" s="1" t="n"/>
+      <c r="R1" s="1" t="n"/>
+      <c r="S1" s="1" t="n"/>
+      <c r="T1" s="1" t="n"/>
+      <c r="U1" s="1" t="n"/>
+      <c r="V1" s="1" t="n"/>
+      <c r="W1" s="1" t="n"/>
+      <c r="X1" s="1" t="n"/>
+      <c r="Y1" s="1" t="n"/>
+      <c r="Z1" s="1" t="n"/>
+      <c r="AA1" s="1" t="n"/>
+      <c r="AB1" s="1" t="n"/>
+      <c r="AC1" s="1" t="n"/>
+      <c r="AD1" s="1" t="n"/>
+      <c r="AE1" s="1" t="n"/>
+      <c r="AF1" s="1" t="n"/>
+      <c r="AG1" s="1" t="n"/>
+      <c r="AH1" s="1" t="n"/>
+      <c r="AI1" s="1" t="n"/>
+      <c r="AJ1" s="1" t="n"/>
+      <c r="AK1" s="1" t="n"/>
+      <c r="AL1" s="1" t="n"/>
+      <c r="AM1" s="1" t="n"/>
+      <c r="AN1" s="1" t="n"/>
+      <c r="AO1" s="1" t="n"/>
+      <c r="AP1" s="1" t="n"/>
+      <c r="AQ1" s="1" t="n"/>
+      <c r="AR1" s="1" t="n"/>
+      <c r="AS1" s="1" t="n"/>
+      <c r="AT1" s="1" t="n"/>
+      <c r="AU1" s="1" t="n"/>
+      <c r="AV1" s="1" t="n"/>
+      <c r="AW1" s="1" t="n"/>
+      <c r="AX1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="4" t="n"/>
+      <c r="C2" s="4" t="n"/>
+      <c r="D2" s="4" t="n"/>
+      <c r="E2" s="4" t="n"/>
+      <c r="F2" s="5" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="G2" s="4" t="n"/>
+      <c r="H2" s="5" t="inlineStr">
+        <is>
+          <t>January</t>
+        </is>
+      </c>
+      <c r="I2" s="4" t="n"/>
+      <c r="J2" s="1" t="n"/>
+      <c r="K2" s="1" t="n"/>
+      <c r="L2" s="1" t="n"/>
+      <c r="M2" s="1" t="n"/>
+      <c r="N2" s="1" t="n"/>
+      <c r="O2" s="1" t="n"/>
+      <c r="P2" s="1" t="n"/>
+      <c r="Q2" s="1" t="n"/>
+      <c r="R2" s="1" t="n"/>
+      <c r="S2" s="1" t="n"/>
+      <c r="T2" s="1" t="n"/>
+      <c r="U2" s="1" t="n"/>
+      <c r="V2" s="1" t="n"/>
+      <c r="W2" s="1" t="n"/>
+      <c r="X2" s="1" t="n"/>
+      <c r="Y2" s="1" t="n"/>
+      <c r="Z2" s="1" t="n"/>
+      <c r="AA2" s="1" t="n"/>
+      <c r="AB2" s="1" t="n"/>
+      <c r="AC2" s="1" t="n"/>
+      <c r="AD2" s="1" t="n"/>
+      <c r="AE2" s="1" t="n"/>
+      <c r="AF2" s="1" t="n"/>
+      <c r="AG2" s="1" t="n"/>
+      <c r="AH2" s="1" t="n"/>
+      <c r="AI2" s="1" t="n"/>
+      <c r="AJ2" s="1" t="n"/>
+      <c r="AK2" s="1" t="n"/>
+      <c r="AL2" s="1" t="n"/>
+      <c r="AM2" s="1" t="n"/>
+      <c r="AN2" s="1" t="n"/>
+      <c r="AO2" s="1" t="n"/>
+      <c r="AP2" s="1" t="n"/>
+      <c r="AQ2" s="1" t="n"/>
+      <c r="AR2" s="1" t="n"/>
+      <c r="AS2" s="1" t="n"/>
+      <c r="AT2" s="1" t="n"/>
+      <c r="AU2" s="1" t="n"/>
+      <c r="AV2" s="1" t="n"/>
+      <c r="AW2" s="1" t="n"/>
+      <c r="AX2" s="1" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="4" t="n"/>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>20/Dec - 26/Dec</t>
+        </is>
+      </c>
+      <c r="G3" s="5" t="inlineStr">
+        <is>
+          <t>27/Dec - 02/Jan</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>03/Jan - 09/Jan</t>
+        </is>
+      </c>
+      <c r="I3" s="5" t="inlineStr">
+        <is>
+          <t>10/Jan - 16/Jan</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="n"/>
+      <c r="K3" s="1" t="n"/>
+      <c r="L3" s="1" t="n"/>
+      <c r="M3" s="1" t="n"/>
+      <c r="N3" s="1" t="n"/>
+      <c r="O3" s="1" t="n"/>
+      <c r="P3" s="1" t="n"/>
+      <c r="Q3" s="1" t="n"/>
+      <c r="R3" s="1" t="n"/>
+      <c r="S3" s="1" t="n"/>
+      <c r="T3" s="1" t="n"/>
+      <c r="U3" s="1" t="n"/>
+      <c r="V3" s="1" t="n"/>
+      <c r="W3" s="1" t="n"/>
+      <c r="X3" s="1" t="n"/>
+      <c r="Y3" s="1" t="n"/>
+      <c r="Z3" s="1" t="n"/>
+      <c r="AA3" s="1" t="n"/>
+      <c r="AB3" s="1" t="n"/>
+      <c r="AC3" s="1" t="n"/>
+      <c r="AD3" s="1" t="n"/>
+      <c r="AE3" s="1" t="n"/>
+      <c r="AF3" s="1" t="n"/>
+      <c r="AG3" s="1" t="n"/>
+      <c r="AH3" s="1" t="n"/>
+      <c r="AI3" s="1" t="n"/>
+      <c r="AJ3" s="1" t="n"/>
+      <c r="AK3" s="1" t="n"/>
+      <c r="AL3" s="1" t="n"/>
+      <c r="AM3" s="1" t="n"/>
+      <c r="AN3" s="1" t="n"/>
+      <c r="AO3" s="1" t="n"/>
+      <c r="AP3" s="1" t="n"/>
+      <c r="AQ3" s="1" t="n"/>
+      <c r="AR3" s="1" t="n"/>
+      <c r="AS3" s="1" t="n"/>
+      <c r="AT3" s="1" t="n"/>
+      <c r="AU3" s="1" t="n"/>
+      <c r="AV3" s="1" t="n"/>
+      <c r="AW3" s="1" t="n"/>
+      <c r="AX3" s="1" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="6" t="n"/>
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="1" t="n"/>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="1" t="n"/>
+      <c r="G4" s="1" t="n"/>
+      <c r="H4" s="1" t="n"/>
+      <c r="I4" s="1" t="n"/>
+      <c r="J4" s="1" t="n"/>
+      <c r="K4" s="1" t="n"/>
+      <c r="L4" s="1" t="n"/>
+      <c r="M4" s="1" t="n"/>
+      <c r="N4" s="1" t="n"/>
+      <c r="O4" s="1" t="n"/>
+      <c r="P4" s="1" t="n"/>
+      <c r="Q4" s="1" t="n"/>
+      <c r="R4" s="1" t="n"/>
+      <c r="S4" s="1" t="n"/>
+      <c r="T4" s="1" t="n"/>
+      <c r="U4" s="1" t="n"/>
+      <c r="V4" s="1" t="n"/>
+      <c r="W4" s="1" t="n"/>
+      <c r="X4" s="1" t="n"/>
+      <c r="Y4" s="1" t="n"/>
+      <c r="Z4" s="1" t="n"/>
+      <c r="AA4" s="1" t="n"/>
+      <c r="AB4" s="1" t="n"/>
+      <c r="AC4" s="1" t="n"/>
+      <c r="AD4" s="1" t="n"/>
+      <c r="AE4" s="1" t="n"/>
+      <c r="AF4" s="1" t="n"/>
+      <c r="AG4" s="1" t="n"/>
+      <c r="AH4" s="1" t="n"/>
+      <c r="AI4" s="1" t="n"/>
+      <c r="AJ4" s="1" t="n"/>
+      <c r="AK4" s="1" t="n"/>
+      <c r="AL4" s="1" t="n"/>
+      <c r="AM4" s="1" t="n"/>
+      <c r="AN4" s="1" t="n"/>
+      <c r="AO4" s="1" t="n"/>
+      <c r="AP4" s="1" t="n"/>
+      <c r="AQ4" s="1" t="n"/>
+      <c r="AR4" s="1" t="n"/>
+      <c r="AS4" s="1" t="n"/>
+      <c r="AT4" s="1" t="n"/>
+      <c r="AU4" s="1" t="n"/>
+      <c r="AV4" s="1" t="n"/>
+      <c r="AW4" s="1" t="n"/>
+      <c r="AX4" s="1" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="7" t="inlineStr">
+        <is>
+          <t>Task 1</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D5" s="8" t="inlineStr">
+        <is>
+          <t>20-Dec</t>
+        </is>
+      </c>
+      <c r="E5" s="8" t="inlineStr">
+        <is>
+          <t>02-Jan</t>
+        </is>
+      </c>
+      <c r="F5" s="9" t="n"/>
+      <c r="G5" s="9" t="n"/>
+      <c r="H5" s="1" t="n"/>
+      <c r="I5" s="1" t="n"/>
+      <c r="J5" s="1" t="n"/>
+      <c r="K5" s="1" t="n"/>
+      <c r="L5" s="1" t="n"/>
+      <c r="M5" s="1" t="n"/>
+      <c r="N5" s="1" t="n"/>
+      <c r="O5" s="1" t="n"/>
+      <c r="P5" s="1" t="n"/>
+      <c r="Q5" s="1" t="n"/>
+      <c r="R5" s="1" t="n"/>
+      <c r="S5" s="1" t="n"/>
+      <c r="T5" s="1" t="n"/>
+      <c r="U5" s="1" t="n"/>
+      <c r="V5" s="1" t="n"/>
+      <c r="W5" s="1" t="n"/>
+      <c r="X5" s="1" t="n"/>
+      <c r="Y5" s="1" t="n"/>
+      <c r="Z5" s="1" t="n"/>
+      <c r="AA5" s="1" t="n"/>
+      <c r="AB5" s="1" t="n"/>
+      <c r="AC5" s="1" t="n"/>
+      <c r="AD5" s="1" t="n"/>
+      <c r="AE5" s="1" t="n"/>
+      <c r="AF5" s="1" t="n"/>
+      <c r="AG5" s="1" t="n"/>
+      <c r="AH5" s="1" t="n"/>
+      <c r="AI5" s="1" t="n"/>
+      <c r="AJ5" s="1" t="n"/>
+      <c r="AK5" s="1" t="n"/>
+      <c r="AL5" s="1" t="n"/>
+      <c r="AM5" s="1" t="n"/>
+      <c r="AN5" s="1" t="n"/>
+      <c r="AO5" s="1" t="n"/>
+      <c r="AP5" s="1" t="n"/>
+      <c r="AQ5" s="1" t="n"/>
+      <c r="AR5" s="1" t="n"/>
+      <c r="AS5" s="1" t="n"/>
+      <c r="AT5" s="1" t="n"/>
+      <c r="AU5" s="1" t="n"/>
+      <c r="AV5" s="1" t="n"/>
+      <c r="AW5" s="1" t="n"/>
+      <c r="AX5" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="6" t="n"/>
+      <c r="C6" s="6" t="n"/>
+      <c r="D6" s="1" t="n"/>
+      <c r="E6" s="1" t="n"/>
+      <c r="F6" s="1" t="n"/>
+      <c r="G6" s="1" t="n"/>
+      <c r="H6" s="1" t="n"/>
+      <c r="I6" s="1" t="n"/>
+      <c r="J6" s="1" t="n"/>
+      <c r="K6" s="1" t="n"/>
+      <c r="L6" s="1" t="n"/>
+      <c r="M6" s="1" t="n"/>
+      <c r="N6" s="1" t="n"/>
+      <c r="O6" s="1" t="n"/>
+      <c r="P6" s="1" t="n"/>
+      <c r="Q6" s="1" t="n"/>
+      <c r="R6" s="1" t="n"/>
+      <c r="S6" s="1" t="n"/>
+      <c r="T6" s="1" t="n"/>
+      <c r="U6" s="1" t="n"/>
+      <c r="V6" s="1" t="n"/>
+      <c r="W6" s="1" t="n"/>
+      <c r="X6" s="1" t="n"/>
+      <c r="Y6" s="1" t="n"/>
+      <c r="Z6" s="1" t="n"/>
+      <c r="AA6" s="1" t="n"/>
+      <c r="AB6" s="1" t="n"/>
+      <c r="AC6" s="1" t="n"/>
+      <c r="AD6" s="1" t="n"/>
+      <c r="AE6" s="1" t="n"/>
+      <c r="AF6" s="1" t="n"/>
+      <c r="AG6" s="1" t="n"/>
+      <c r="AH6" s="1" t="n"/>
+      <c r="AI6" s="1" t="n"/>
+      <c r="AJ6" s="1" t="n"/>
+      <c r="AK6" s="1" t="n"/>
+      <c r="AL6" s="1" t="n"/>
+      <c r="AM6" s="1" t="n"/>
+      <c r="AN6" s="1" t="n"/>
+      <c r="AO6" s="1" t="n"/>
+      <c r="AP6" s="1" t="n"/>
+      <c r="AQ6" s="1" t="n"/>
+      <c r="AR6" s="1" t="n"/>
+      <c r="AS6" s="1" t="n"/>
+      <c r="AT6" s="1" t="n"/>
+      <c r="AU6" s="1" t="n"/>
+      <c r="AV6" s="1" t="n"/>
+      <c r="AW6" s="1" t="n"/>
+      <c r="AX6" s="1" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="6" t="n"/>
+      <c r="C7" s="6" t="n"/>
+      <c r="D7" s="1" t="n"/>
+      <c r="E7" s="1" t="n"/>
+      <c r="F7" s="1" t="n"/>
+      <c r="G7" s="1" t="n"/>
+      <c r="H7" s="1" t="n"/>
+      <c r="I7" s="1" t="n"/>
+      <c r="J7" s="1" t="n"/>
+      <c r="K7" s="1" t="n"/>
+      <c r="L7" s="1" t="n"/>
+      <c r="M7" s="1" t="n"/>
+      <c r="N7" s="1" t="n"/>
+      <c r="O7" s="1" t="n"/>
+      <c r="P7" s="1" t="n"/>
+      <c r="Q7" s="1" t="n"/>
+      <c r="R7" s="1" t="n"/>
+      <c r="S7" s="1" t="n"/>
+      <c r="T7" s="1" t="n"/>
+      <c r="U7" s="1" t="n"/>
+      <c r="V7" s="1" t="n"/>
+      <c r="W7" s="1" t="n"/>
+      <c r="X7" s="1" t="n"/>
+      <c r="Y7" s="1" t="n"/>
+      <c r="Z7" s="1" t="n"/>
+      <c r="AA7" s="1" t="n"/>
+      <c r="AB7" s="1" t="n"/>
+      <c r="AC7" s="1" t="n"/>
+      <c r="AD7" s="1" t="n"/>
+      <c r="AE7" s="1" t="n"/>
+      <c r="AF7" s="1" t="n"/>
+      <c r="AG7" s="1" t="n"/>
+      <c r="AH7" s="1" t="n"/>
+      <c r="AI7" s="1" t="n"/>
+      <c r="AJ7" s="1" t="n"/>
+      <c r="AK7" s="1" t="n"/>
+      <c r="AL7" s="1" t="n"/>
+      <c r="AM7" s="1" t="n"/>
+      <c r="AN7" s="1" t="n"/>
+      <c r="AO7" s="1" t="n"/>
+      <c r="AP7" s="1" t="n"/>
+      <c r="AQ7" s="1" t="n"/>
+      <c r="AR7" s="1" t="n"/>
+      <c r="AS7" s="1" t="n"/>
+      <c r="AT7" s="1" t="n"/>
+      <c r="AU7" s="1" t="n"/>
+      <c r="AV7" s="1" t="n"/>
+      <c r="AW7" s="1" t="n"/>
+      <c r="AX7" s="1" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>Task 2</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>03-Jan</t>
+        </is>
+      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>16-Jan</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="n"/>
+      <c r="G8" s="1" t="n"/>
+      <c r="H8" s="9" t="n"/>
+      <c r="I8" s="9" t="n"/>
       <c r="J8" s="1" t="n"/>
       <c r="K8" s="1" t="n"/>
       <c r="L8" s="1" t="n"/>
@@ -5756,12 +11220,16 @@
       <c r="AX100" s="1" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="B8"/>
     <mergeCell ref="B5"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C8"/>
     <mergeCell ref="C1:C3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H1:I1"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="C5"/>
@@ -5770,7 +11238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5790,6 +11258,8 @@
     <col width="12" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
     <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5814,12 +11284,12 @@
           <t>End Date</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>Status</t>
         </is>
       </c>
-      <c r="G1" s="4" t="n"/>
+      <c r="G1" s="1" t="n"/>
       <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="n"/>
@@ -5870,12 +11340,8 @@
       <c r="C2" s="4" t="n"/>
       <c r="D2" s="4" t="n"/>
       <c r="E2" s="4" t="n"/>
-      <c r="F2" s="5" t="inlineStr">
-        <is>
-          <t>Month 1</t>
-        </is>
-      </c>
-      <c r="G2" s="4" t="n"/>
+      <c r="F2" s="4" t="n"/>
+      <c r="G2" s="1" t="n"/>
       <c r="H2" s="1" t="n"/>
       <c r="I2" s="1" t="n"/>
       <c r="J2" s="1" t="n"/>
@@ -5926,16 +11392,8 @@
       <c r="C3" s="4" t="n"/>
       <c r="D3" s="4" t="n"/>
       <c r="E3" s="4" t="n"/>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>Week 1</t>
-        </is>
-      </c>
-      <c r="G3" s="5" t="inlineStr">
-        <is>
-          <t>Week 2</t>
-        </is>
-      </c>
+      <c r="F3" s="4" t="n"/>
+      <c r="G3" s="1" t="n"/>
       <c r="H3" s="1" t="n"/>
       <c r="I3" s="1" t="n"/>
       <c r="J3" s="1" t="n"/>
@@ -6034,19 +11492,31 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
-      <c r="B5" s="10" t="inlineStr">
+      <c r="B5" s="7" t="inlineStr">
         <is>
           <t>Task 1</t>
         </is>
       </c>
-      <c r="C5" s="10" t="inlineStr">
+      <c r="C5" s="7" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="D5" s="11" t="n"/>
-      <c r="E5" s="11" t="n"/>
-      <c r="F5" s="1" t="n"/>
+      <c r="D5" s="8" t="inlineStr">
+        <is>
+          <t>20-Dec</t>
+        </is>
+      </c>
+      <c r="E5" s="8" t="inlineStr">
+        <is>
+          <t>02-Jan</t>
+        </is>
+      </c>
+      <c r="F5" s="13" t="inlineStr">
+        <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
       <c r="G5" s="1" t="n"/>
       <c r="H5" s="1" t="n"/>
       <c r="I5" s="1" t="n"/>
@@ -6094,11 +11564,31 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
-      <c r="B6" s="6" t="n"/>
-      <c r="C6" s="6" t="n"/>
-      <c r="D6" s="1" t="n"/>
-      <c r="E6" s="1" t="n"/>
-      <c r="F6" s="1" t="n"/>
+      <c r="B6" s="10" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="C6" s="10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" s="11" t="inlineStr">
+        <is>
+          <t>20-Dec</t>
+        </is>
+      </c>
+      <c r="E6" s="11" t="inlineStr">
+        <is>
+          <t>26-Dec</t>
+        </is>
+      </c>
+      <c r="F6" s="13" t="inlineStr">
+        <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
       <c r="G6" s="1" t="n"/>
       <c r="H6" s="1" t="n"/>
       <c r="I6" s="1" t="n"/>
@@ -6146,11 +11636,31 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
-      <c r="B7" s="6" t="n"/>
-      <c r="C7" s="6" t="n"/>
-      <c r="D7" s="1" t="n"/>
-      <c r="E7" s="1" t="n"/>
-      <c r="F7" s="1" t="n"/>
+      <c r="B7" s="10" t="inlineStr">
+        <is>
+          <t>1.2</t>
+        </is>
+      </c>
+      <c r="C7" s="10" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D7" s="11" t="inlineStr">
+        <is>
+          <t>27-Dec</t>
+        </is>
+      </c>
+      <c r="E7" s="11" t="inlineStr">
+        <is>
+          <t>02-Jan</t>
+        </is>
+      </c>
+      <c r="F7" s="13" t="inlineStr">
+        <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
       <c r="G7" s="1" t="n"/>
       <c r="H7" s="1" t="n"/>
       <c r="I7" s="1" t="n"/>
@@ -6198,11 +11708,31 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
-      <c r="B8" s="6" t="n"/>
-      <c r="C8" s="6" t="n"/>
-      <c r="D8" s="1" t="n"/>
-      <c r="E8" s="1" t="n"/>
-      <c r="F8" s="1" t="n"/>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>Task 2</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>03-Jan</t>
+        </is>
+      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>16-Jan</t>
+        </is>
+      </c>
+      <c r="F8" s="13" t="inlineStr">
+        <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
       <c r="G8" s="1" t="n"/>
       <c r="H8" s="1" t="n"/>
       <c r="I8" s="1" t="n"/>
@@ -6250,11 +11780,31 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
-      <c r="B9" s="6" t="n"/>
-      <c r="C9" s="6" t="n"/>
-      <c r="D9" s="1" t="n"/>
-      <c r="E9" s="1" t="n"/>
-      <c r="F9" s="1" t="n"/>
+      <c r="B9" s="10" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="C9" s="10" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D9" s="11" t="inlineStr">
+        <is>
+          <t>03-Jan</t>
+        </is>
+      </c>
+      <c r="E9" s="11" t="inlineStr">
+        <is>
+          <t>09-Jan</t>
+        </is>
+      </c>
+      <c r="F9" s="13" t="inlineStr">
+        <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
       <c r="G9" s="1" t="n"/>
       <c r="H9" s="1" t="n"/>
       <c r="I9" s="1" t="n"/>
@@ -6302,11 +11852,31 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
-      <c r="B10" s="6" t="n"/>
-      <c r="C10" s="6" t="n"/>
-      <c r="D10" s="1" t="n"/>
-      <c r="E10" s="1" t="n"/>
-      <c r="F10" s="1" t="n"/>
+      <c r="B10" s="10" t="inlineStr">
+        <is>
+          <t>2.2</t>
+        </is>
+      </c>
+      <c r="C10" s="10" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D10" s="11" t="inlineStr">
+        <is>
+          <t>10-Jan</t>
+        </is>
+      </c>
+      <c r="E10" s="11" t="inlineStr">
+        <is>
+          <t>16-Jan</t>
+        </is>
+      </c>
+      <c r="F10" s="13" t="inlineStr">
+        <is>
+          <t>Ongoing</t>
+        </is>
+      </c>
       <c r="G10" s="1" t="n"/>
       <c r="H10" s="1" t="n"/>
       <c r="I10" s="1" t="n"/>
@@ -11033,14 +16603,33 @@
       <c r="AX100" s="1" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="F2:G2"/>
+  <mergeCells count="9">
+    <mergeCell ref="B8"/>
+    <mergeCell ref="B5"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C8"/>
+    <mergeCell ref="F1:F3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="C5"/>
   </mergeCells>
+  <conditionalFormatting sqref="F5:F10">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
+      <formula>"Ongoing"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2" operator="equal" dxfId="1">
+      <formula>"At Risk"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="2">
+      <formula>"Delayed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation sqref="F5 F6 F7 F8 F9 F10" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Invalid entry, please select from the list" type="list">
+      <formula1>"Ongoing,At Risk,Delayed"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/chronogram.xlsx
+++ b/chronogram.xlsx
@@ -42,7 +42,7 @@
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -73,6 +73,18 @@
         <bgColor rgb="0032a852"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0032CD32"/>
+        <bgColor rgb="0032CD32"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -98,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -124,6 +136,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -633,12 +647,12 @@
       <c r="G2" s="4" t="n"/>
       <c r="H2" s="4" t="n"/>
       <c r="I2" s="4" t="n"/>
-      <c r="J2" s="4" t="n"/>
-      <c r="K2" s="5" t="inlineStr">
+      <c r="J2" s="5" t="inlineStr">
         <is>
           <t>June</t>
         </is>
       </c>
+      <c r="K2" s="4" t="n"/>
       <c r="L2" s="1" t="n"/>
       <c r="M2" s="1" t="n"/>
       <c r="N2" s="1" t="n"/>
@@ -687,32 +701,32 @@
       <c r="E3" s="4" t="n"/>
       <c r="F3" s="5" t="inlineStr">
         <is>
-          <t>01/May - 07/May</t>
+          <t>10/May - 16/May</t>
         </is>
       </c>
       <c r="G3" s="5" t="inlineStr">
         <is>
-          <t>08/May - 14/May</t>
+          <t>17/May - 23/May</t>
         </is>
       </c>
       <c r="H3" s="5" t="inlineStr">
         <is>
-          <t>15/May - 21/May</t>
+          <t>24/May - 30/May</t>
         </is>
       </c>
       <c r="I3" s="5" t="inlineStr">
         <is>
-          <t>22/May - 28/May</t>
+          <t>31/May - 06/Jun</t>
         </is>
       </c>
       <c r="J3" s="5" t="inlineStr">
         <is>
-          <t>29/May - 04/Jun</t>
+          <t>07/Jun - 13/Jun</t>
         </is>
       </c>
       <c r="K3" s="5" t="inlineStr">
         <is>
-          <t>05/Jun - 11/Jun</t>
+          <t>14/Jun - 20/Jun</t>
         </is>
       </c>
       <c r="L3" s="1" t="n"/>
@@ -821,12 +835,12 @@
       </c>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>01-May-2024</t>
+          <t>10-May-2024</t>
         </is>
       </c>
       <c r="E5" s="8" t="inlineStr">
         <is>
-          <t>21-May-2024</t>
+          <t>30-May-2024</t>
         </is>
       </c>
       <c r="F5" s="9" t="n"/>
@@ -889,12 +903,12 @@
       </c>
       <c r="D6" s="11" t="inlineStr">
         <is>
-          <t>01-May-2024</t>
+          <t>10-May-2024</t>
         </is>
       </c>
       <c r="E6" s="11" t="inlineStr">
         <is>
-          <t>07-May-2024</t>
+          <t>16-May-2024</t>
         </is>
       </c>
       <c r="F6" s="12" t="n"/>
@@ -957,12 +971,12 @@
       </c>
       <c r="D7" s="11" t="inlineStr">
         <is>
-          <t>08-May-2024</t>
+          <t>17-May-2024</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr">
         <is>
-          <t>14-May-2024</t>
+          <t>23-May-2024</t>
         </is>
       </c>
       <c r="F7" s="1" t="n"/>
@@ -1025,12 +1039,12 @@
       </c>
       <c r="D8" s="11" t="inlineStr">
         <is>
-          <t>15-May-2024</t>
+          <t>24-May-2024</t>
         </is>
       </c>
       <c r="E8" s="11" t="inlineStr">
         <is>
-          <t>21-May-2024</t>
+          <t>30-May-2024</t>
         </is>
       </c>
       <c r="F8" s="1" t="n"/>
@@ -1093,12 +1107,12 @@
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>22-May-2024</t>
+          <t>31-May-2024</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
         <is>
-          <t>11-Jun-2024</t>
+          <t>20-Jun-2024</t>
         </is>
       </c>
       <c r="F9" s="1" t="n"/>
@@ -1161,12 +1175,12 @@
       </c>
       <c r="D10" s="11" t="inlineStr">
         <is>
-          <t>22-May-2024</t>
+          <t>31-May-2024</t>
         </is>
       </c>
       <c r="E10" s="11" t="inlineStr">
         <is>
-          <t>28-May-2024</t>
+          <t>06-Jun-2024</t>
         </is>
       </c>
       <c r="F10" s="1" t="n"/>
@@ -1229,12 +1243,12 @@
       </c>
       <c r="D11" s="11" t="inlineStr">
         <is>
-          <t>29-May-2024</t>
+          <t>07-Jun-2024</t>
         </is>
       </c>
       <c r="E11" s="11" t="inlineStr">
         <is>
-          <t>04-Jun-2024</t>
+          <t>13-Jun-2024</t>
         </is>
       </c>
       <c r="F11" s="1" t="n"/>
@@ -1297,12 +1311,12 @@
       </c>
       <c r="D12" s="11" t="inlineStr">
         <is>
-          <t>05-Jun-2024</t>
+          <t>14-Jun-2024</t>
         </is>
       </c>
       <c r="E12" s="11" t="inlineStr">
         <is>
-          <t>11-Jun-2024</t>
+          <t>20-Jun-2024</t>
         </is>
       </c>
       <c r="F12" s="1" t="n"/>
@@ -5934,12 +5948,12 @@
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="B9"/>
     <mergeCell ref="C1:C3"/>
-    <mergeCell ref="K2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="F1:K1"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="C5"/>
     <mergeCell ref="C9"/>
-    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6057,12 +6071,12 @@
       <c r="G2" s="4" t="n"/>
       <c r="H2" s="4" t="n"/>
       <c r="I2" s="4" t="n"/>
-      <c r="J2" s="4" t="n"/>
-      <c r="K2" s="5" t="inlineStr">
+      <c r="J2" s="5" t="inlineStr">
         <is>
           <t>June</t>
         </is>
       </c>
+      <c r="K2" s="4" t="n"/>
       <c r="L2" s="1" t="n"/>
       <c r="M2" s="1" t="n"/>
       <c r="N2" s="1" t="n"/>
@@ -6111,32 +6125,32 @@
       <c r="E3" s="4" t="n"/>
       <c r="F3" s="5" t="inlineStr">
         <is>
-          <t>01/May - 07/May</t>
+          <t>10/May - 16/May</t>
         </is>
       </c>
       <c r="G3" s="5" t="inlineStr">
         <is>
-          <t>08/May - 14/May</t>
+          <t>17/May - 23/May</t>
         </is>
       </c>
       <c r="H3" s="5" t="inlineStr">
         <is>
-          <t>15/May - 21/May</t>
+          <t>24/May - 30/May</t>
         </is>
       </c>
       <c r="I3" s="5" t="inlineStr">
         <is>
-          <t>22/May - 28/May</t>
+          <t>31/May - 06/Jun</t>
         </is>
       </c>
       <c r="J3" s="5" t="inlineStr">
         <is>
-          <t>29/May - 04/Jun</t>
+          <t>07/Jun - 13/Jun</t>
         </is>
       </c>
       <c r="K3" s="5" t="inlineStr">
         <is>
-          <t>05/Jun - 11/Jun</t>
+          <t>14/Jun - 20/Jun</t>
         </is>
       </c>
       <c r="L3" s="1" t="n"/>
@@ -6245,12 +6259,12 @@
       </c>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>01-May-2024</t>
+          <t>10-May-2024</t>
         </is>
       </c>
       <c r="E5" s="8" t="inlineStr">
         <is>
-          <t>21-May-2024</t>
+          <t>30-May-2024</t>
         </is>
       </c>
       <c r="F5" s="9" t="n"/>
@@ -6469,12 +6483,12 @@
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>22-May-2024</t>
+          <t>31-May-2024</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
         <is>
-          <t>11-Jun-2024</t>
+          <t>20-Jun-2024</t>
         </is>
       </c>
       <c r="F9" s="1" t="n"/>
@@ -11262,12 +11276,12 @@
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="B9"/>
     <mergeCell ref="C1:C3"/>
-    <mergeCell ref="K2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="F1:K1"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="C5"/>
     <mergeCell ref="C9"/>
-    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -11541,17 +11555,17 @@
       </c>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>01-May-2024</t>
+          <t>10-May-2024</t>
         </is>
       </c>
       <c r="E5" s="8" t="inlineStr">
         <is>
-          <t>21-May-2024</t>
+          <t>30-May-2024</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" s="13" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="G5" s="1" t="n"/>
@@ -11613,15 +11627,15 @@
       </c>
       <c r="D6" s="11" t="inlineStr">
         <is>
-          <t>01-May-2024</t>
+          <t>10-May-2024</t>
         </is>
       </c>
       <c r="E6" s="11" t="inlineStr">
         <is>
-          <t>07-May-2024</t>
+          <t>16-May-2024</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" s="11" t="inlineStr">
         <is>
           <t>Delayed</t>
         </is>
@@ -11685,17 +11699,17 @@
       </c>
       <c r="D7" s="11" t="inlineStr">
         <is>
-          <t>08-May-2024</t>
+          <t>17-May-2024</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr">
         <is>
-          <t>14-May-2024</t>
+          <t>23-May-2024</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" s="11" t="inlineStr">
         <is>
-          <t>Delayed</t>
+          <t>Ongoing</t>
         </is>
       </c>
       <c r="G7" s="1" t="n"/>
@@ -11757,15 +11771,15 @@
       </c>
       <c r="D8" s="11" t="inlineStr">
         <is>
-          <t>15-May-2024</t>
+          <t>24-May-2024</t>
         </is>
       </c>
       <c r="E8" s="11" t="inlineStr">
         <is>
-          <t>21-May-2024</t>
+          <t>30-May-2024</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F8" s="11" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
@@ -11829,15 +11843,15 @@
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>22-May-2024</t>
+          <t>31-May-2024</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
         <is>
-          <t>11-Jun-2024</t>
+          <t>20-Jun-2024</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F9" s="14" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
@@ -11901,15 +11915,15 @@
       </c>
       <c r="D10" s="11" t="inlineStr">
         <is>
-          <t>22-May-2024</t>
+          <t>31-May-2024</t>
         </is>
       </c>
       <c r="E10" s="11" t="inlineStr">
         <is>
-          <t>28-May-2024</t>
+          <t>06-Jun-2024</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F10" s="11" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
@@ -11973,15 +11987,15 @@
       </c>
       <c r="D11" s="11" t="inlineStr">
         <is>
-          <t>29-May-2024</t>
+          <t>07-Jun-2024</t>
         </is>
       </c>
       <c r="E11" s="11" t="inlineStr">
         <is>
-          <t>04-Jun-2024</t>
+          <t>13-Jun-2024</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F11" s="11" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
@@ -12045,15 +12059,15 @@
       </c>
       <c r="D12" s="11" t="inlineStr">
         <is>
-          <t>05-Jun-2024</t>
+          <t>14-Jun-2024</t>
         </is>
       </c>
       <c r="E12" s="11" t="inlineStr">
         <is>
-          <t>11-Jun-2024</t>
+          <t>20-Jun-2024</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F12" s="11" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>

--- a/chronogram.xlsx
+++ b/chronogram.xlsx
@@ -647,26 +647,26 @@
       <c r="E2" s="4" t="n"/>
       <c r="F2" s="5" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>April</t>
         </is>
       </c>
       <c r="G2" s="4" t="n"/>
       <c r="H2" s="4" t="n"/>
-      <c r="I2" s="4" t="n"/>
+      <c r="I2" s="5" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
       <c r="J2" s="4" t="n"/>
-      <c r="K2" s="5" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
-      </c>
+      <c r="K2" s="4" t="n"/>
       <c r="L2" s="4" t="n"/>
       <c r="M2" s="4" t="n"/>
-      <c r="N2" s="4" t="n"/>
-      <c r="O2" s="5" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
-      </c>
+      <c r="N2" s="5" t="inlineStr">
+        <is>
+          <t>June</t>
+        </is>
+      </c>
+      <c r="O2" s="4" t="n"/>
       <c r="P2" s="4" t="n"/>
       <c r="Q2" s="4" t="n"/>
       <c r="R2" s="1" t="n"/>
@@ -711,62 +711,62 @@
       <c r="E3" s="4" t="n"/>
       <c r="F3" s="5" t="inlineStr">
         <is>
+          <t>10/Apr - 16/Apr</t>
+        </is>
+      </c>
+      <c r="G3" s="5" t="inlineStr">
+        <is>
+          <t>17/Apr - 23/Apr</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>24/Apr - 30/Apr</t>
+        </is>
+      </c>
+      <c r="I3" s="5" t="inlineStr">
+        <is>
           <t>01/May - 07/May</t>
         </is>
       </c>
-      <c r="G3" s="5" t="inlineStr">
+      <c r="J3" s="5" t="inlineStr">
         <is>
           <t>08/May - 14/May</t>
         </is>
       </c>
-      <c r="H3" s="5" t="inlineStr">
+      <c r="K3" s="5" t="inlineStr">
         <is>
           <t>15/May - 21/May</t>
         </is>
       </c>
-      <c r="I3" s="5" t="inlineStr">
+      <c r="L3" s="5" t="inlineStr">
         <is>
           <t>22/May - 28/May</t>
         </is>
       </c>
-      <c r="J3" s="5" t="inlineStr">
+      <c r="M3" s="5" t="inlineStr">
         <is>
           <t>29/May - 04/Jun</t>
         </is>
       </c>
-      <c r="K3" s="5" t="inlineStr">
+      <c r="N3" s="5" t="inlineStr">
         <is>
           <t>05/Jun - 11/Jun</t>
         </is>
       </c>
-      <c r="L3" s="5" t="inlineStr">
+      <c r="O3" s="5" t="inlineStr">
         <is>
           <t>12/Jun - 18/Jun</t>
         </is>
       </c>
-      <c r="M3" s="5" t="inlineStr">
+      <c r="P3" s="5" t="inlineStr">
         <is>
           <t>19/Jun - 25/Jun</t>
         </is>
       </c>
-      <c r="N3" s="5" t="inlineStr">
+      <c r="Q3" s="5" t="inlineStr">
         <is>
           <t>26/Jun - 02/Jul</t>
-        </is>
-      </c>
-      <c r="O3" s="5" t="inlineStr">
-        <is>
-          <t>03/Jul - 09/Jul</t>
-        </is>
-      </c>
-      <c r="P3" s="5" t="inlineStr">
-        <is>
-          <t>10/Jul - 16/Jul</t>
-        </is>
-      </c>
-      <c r="Q3" s="5" t="inlineStr">
-        <is>
-          <t>17/Jul - 23/Jul</t>
         </is>
       </c>
       <c r="R3" s="1" t="n"/>
@@ -869,12 +869,12 @@
       </c>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>01-May-2024</t>
+          <t>10-Apr-2024</t>
         </is>
       </c>
       <c r="E5" s="8" t="inlineStr">
         <is>
-          <t>14-May-2024</t>
+          <t>23-Apr-2024</t>
         </is>
       </c>
       <c r="F5" s="9" t="n"/>
@@ -937,12 +937,12 @@
       </c>
       <c r="D6" s="11" t="inlineStr">
         <is>
-          <t>01-May-2024</t>
+          <t>10-Apr-2024</t>
         </is>
       </c>
       <c r="E6" s="11" t="inlineStr">
         <is>
-          <t>07-May-2024</t>
+          <t>16-Apr-2024</t>
         </is>
       </c>
       <c r="F6" s="12" t="n"/>
@@ -1005,12 +1005,12 @@
       </c>
       <c r="D7" s="11" t="inlineStr">
         <is>
-          <t>01-May-2024</t>
+          <t>10-Apr-2024</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr">
         <is>
-          <t>07-May-2024</t>
+          <t>16-Apr-2024</t>
         </is>
       </c>
       <c r="F7" s="12" t="n"/>
@@ -1073,12 +1073,12 @@
       </c>
       <c r="D8" s="11" t="inlineStr">
         <is>
-          <t>01-May-2024</t>
+          <t>10-Apr-2024</t>
         </is>
       </c>
       <c r="E8" s="11" t="inlineStr">
         <is>
-          <t>14-May-2024</t>
+          <t>23-Apr-2024</t>
         </is>
       </c>
       <c r="F8" s="12" t="n"/>
@@ -1141,12 +1141,12 @@
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>15-May-2024</t>
+          <t>24-Apr-2024</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
         <is>
-          <t>28-May-2024</t>
+          <t>07-May-2024</t>
         </is>
       </c>
       <c r="F9" s="1" t="n"/>
@@ -1204,17 +1204,17 @@
       </c>
       <c r="C10" s="10" t="inlineStr">
         <is>
-          <t>Design</t>
+          <t>System Architecture Design</t>
         </is>
       </c>
       <c r="D10" s="11" t="inlineStr">
         <is>
-          <t>15-May-2024</t>
+          <t>24-Apr-2024</t>
         </is>
       </c>
       <c r="E10" s="11" t="inlineStr">
         <is>
-          <t>21-May-2024</t>
+          <t>30-Apr-2024</t>
         </is>
       </c>
       <c r="F10" s="1" t="n"/>
@@ -1277,12 +1277,12 @@
       </c>
       <c r="D11" s="11" t="inlineStr">
         <is>
-          <t>15-May-2024</t>
+          <t>24-Apr-2024</t>
         </is>
       </c>
       <c r="E11" s="11" t="inlineStr">
         <is>
-          <t>28-May-2024</t>
+          <t>07-May-2024</t>
         </is>
       </c>
       <c r="F11" s="1" t="n"/>
@@ -1345,12 +1345,12 @@
       </c>
       <c r="D12" s="11" t="inlineStr">
         <is>
-          <t>22-May-2024</t>
+          <t>01-May-2024</t>
         </is>
       </c>
       <c r="E12" s="11" t="inlineStr">
         <is>
-          <t>28-May-2024</t>
+          <t>07-May-2024</t>
         </is>
       </c>
       <c r="F12" s="1" t="n"/>
@@ -1413,12 +1413,12 @@
       </c>
       <c r="D13" s="8" t="inlineStr">
         <is>
-          <t>29-May-2024</t>
+          <t>08-May-2024</t>
         </is>
       </c>
       <c r="E13" s="8" t="inlineStr">
         <is>
-          <t>18-Jun-2024</t>
+          <t>28-May-2024</t>
         </is>
       </c>
       <c r="F13" s="1" t="n"/>
@@ -1481,12 +1481,12 @@
       </c>
       <c r="D14" s="11" t="inlineStr">
         <is>
-          <t>29-May-2024</t>
+          <t>08-May-2024</t>
         </is>
       </c>
       <c r="E14" s="11" t="inlineStr">
         <is>
-          <t>04-Jun-2024</t>
+          <t>14-May-2024</t>
         </is>
       </c>
       <c r="F14" s="1" t="n"/>
@@ -1549,12 +1549,12 @@
       </c>
       <c r="D15" s="11" t="inlineStr">
         <is>
-          <t>05-Jun-2024</t>
+          <t>15-May-2024</t>
         </is>
       </c>
       <c r="E15" s="11" t="inlineStr">
         <is>
-          <t>18-Jun-2024</t>
+          <t>28-May-2024</t>
         </is>
       </c>
       <c r="F15" s="1" t="n"/>
@@ -1617,12 +1617,12 @@
       </c>
       <c r="D16" s="11" t="inlineStr">
         <is>
-          <t>12-Jun-2024</t>
+          <t>22-May-2024</t>
         </is>
       </c>
       <c r="E16" s="11" t="inlineStr">
         <is>
-          <t>18-Jun-2024</t>
+          <t>28-May-2024</t>
         </is>
       </c>
       <c r="F16" s="1" t="n"/>
@@ -1685,12 +1685,12 @@
       </c>
       <c r="D17" s="8" t="inlineStr">
         <is>
-          <t>19-Jun-2024</t>
+          <t>29-May-2024</t>
         </is>
       </c>
       <c r="E17" s="8" t="inlineStr">
         <is>
-          <t>02-Jul-2024</t>
+          <t>11-Jun-2024</t>
         </is>
       </c>
       <c r="F17" s="1" t="n"/>
@@ -1753,12 +1753,12 @@
       </c>
       <c r="D18" s="11" t="inlineStr">
         <is>
-          <t>19-Jun-2024</t>
+          <t>29-May-2024</t>
         </is>
       </c>
       <c r="E18" s="11" t="inlineStr">
         <is>
-          <t>25-Jun-2024</t>
+          <t>04-Jun-2024</t>
         </is>
       </c>
       <c r="F18" s="1" t="n"/>
@@ -1821,12 +1821,12 @@
       </c>
       <c r="D19" s="11" t="inlineStr">
         <is>
-          <t>19-Jun-2024</t>
+          <t>29-May-2024</t>
         </is>
       </c>
       <c r="E19" s="11" t="inlineStr">
         <is>
-          <t>02-Jul-2024</t>
+          <t>11-Jun-2024</t>
         </is>
       </c>
       <c r="F19" s="1" t="n"/>
@@ -1889,12 +1889,12 @@
       </c>
       <c r="D20" s="11" t="inlineStr">
         <is>
-          <t>26-Jun-2024</t>
+          <t>05-Jun-2024</t>
         </is>
       </c>
       <c r="E20" s="11" t="inlineStr">
         <is>
-          <t>02-Jul-2024</t>
+          <t>11-Jun-2024</t>
         </is>
       </c>
       <c r="F20" s="1" t="n"/>
@@ -1957,12 +1957,12 @@
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>03-Jul-2024</t>
+          <t>12-Jun-2024</t>
         </is>
       </c>
       <c r="E21" s="8" t="inlineStr">
         <is>
-          <t>09-Jul-2024</t>
+          <t>18-Jun-2024</t>
         </is>
       </c>
       <c r="F21" s="1" t="n"/>
@@ -2025,12 +2025,12 @@
       </c>
       <c r="D22" s="11" t="inlineStr">
         <is>
-          <t>03-Jul-2024</t>
+          <t>12-Jun-2024</t>
         </is>
       </c>
       <c r="E22" s="11" t="inlineStr">
         <is>
-          <t>09-Jul-2024</t>
+          <t>18-Jun-2024</t>
         </is>
       </c>
       <c r="F22" s="1" t="n"/>
@@ -2093,12 +2093,12 @@
       </c>
       <c r="D23" s="11" t="inlineStr">
         <is>
-          <t>03-Jul-2024</t>
+          <t>12-Jun-2024</t>
         </is>
       </c>
       <c r="E23" s="11" t="inlineStr">
         <is>
-          <t>09-Jul-2024</t>
+          <t>18-Jun-2024</t>
         </is>
       </c>
       <c r="F23" s="1" t="n"/>
@@ -2161,12 +2161,12 @@
       </c>
       <c r="D24" s="11" t="inlineStr">
         <is>
-          <t>03-Jul-2024</t>
+          <t>12-Jun-2024</t>
         </is>
       </c>
       <c r="E24" s="11" t="inlineStr">
         <is>
-          <t>09-Jul-2024</t>
+          <t>18-Jun-2024</t>
         </is>
       </c>
       <c r="F24" s="1" t="n"/>
@@ -2229,12 +2229,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>10-Jul-2024</t>
+          <t>19-Jun-2024</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>23-Jul-2024</t>
+          <t>02-Jul-2024</t>
         </is>
       </c>
       <c r="F25" s="1" t="n"/>
@@ -2297,12 +2297,12 @@
       </c>
       <c r="D26" s="11" t="inlineStr">
         <is>
-          <t>10-Jul-2024</t>
+          <t>19-Jun-2024</t>
         </is>
       </c>
       <c r="E26" s="11" t="inlineStr">
         <is>
-          <t>16-Jul-2024</t>
+          <t>25-Jun-2024</t>
         </is>
       </c>
       <c r="F26" s="1" t="n"/>
@@ -2365,12 +2365,12 @@
       </c>
       <c r="D27" s="11" t="inlineStr">
         <is>
-          <t>10-Jul-2024</t>
+          <t>19-Jun-2024</t>
         </is>
       </c>
       <c r="E27" s="11" t="inlineStr">
         <is>
-          <t>16-Jul-2024</t>
+          <t>25-Jun-2024</t>
         </is>
       </c>
       <c r="F27" s="1" t="n"/>
@@ -2433,12 +2433,12 @@
       </c>
       <c r="D28" s="11" t="inlineStr">
         <is>
-          <t>10-Jul-2024</t>
+          <t>19-Jun-2024</t>
         </is>
       </c>
       <c r="E28" s="11" t="inlineStr">
         <is>
-          <t>23-Jul-2024</t>
+          <t>02-Jul-2024</t>
         </is>
       </c>
       <c r="F28" s="1" t="n"/>
@@ -6235,16 +6235,17 @@
   <mergeCells count="20">
     <mergeCell ref="B9"/>
     <mergeCell ref="C17"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="F2:H2"/>
     <mergeCell ref="B5"/>
     <mergeCell ref="C13"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="B25"/>
-    <mergeCell ref="O2:Q2"/>
     <mergeCell ref="C5"/>
-    <mergeCell ref="F2:J2"/>
     <mergeCell ref="B21"/>
     <mergeCell ref="C25"/>
     <mergeCell ref="F1:Q1"/>
+    <mergeCell ref="N2:Q2"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="C9"/>
     <mergeCell ref="B1:B3"/>
@@ -6252,7 +6253,6 @@
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="B13"/>
     <mergeCell ref="C21"/>
-    <mergeCell ref="K2:N2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6370,26 +6370,26 @@
       <c r="E2" s="4" t="n"/>
       <c r="F2" s="5" t="inlineStr">
         <is>
-          <t>May</t>
+          <t>April</t>
         </is>
       </c>
       <c r="G2" s="4" t="n"/>
       <c r="H2" s="4" t="n"/>
-      <c r="I2" s="4" t="n"/>
+      <c r="I2" s="5" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
       <c r="J2" s="4" t="n"/>
-      <c r="K2" s="5" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
-      </c>
+      <c r="K2" s="4" t="n"/>
       <c r="L2" s="4" t="n"/>
       <c r="M2" s="4" t="n"/>
-      <c r="N2" s="4" t="n"/>
-      <c r="O2" s="5" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
-      </c>
+      <c r="N2" s="5" t="inlineStr">
+        <is>
+          <t>June</t>
+        </is>
+      </c>
+      <c r="O2" s="4" t="n"/>
       <c r="P2" s="4" t="n"/>
       <c r="Q2" s="4" t="n"/>
       <c r="R2" s="1" t="n"/>
@@ -6434,62 +6434,62 @@
       <c r="E3" s="4" t="n"/>
       <c r="F3" s="5" t="inlineStr">
         <is>
+          <t>10/Apr - 16/Apr</t>
+        </is>
+      </c>
+      <c r="G3" s="5" t="inlineStr">
+        <is>
+          <t>17/Apr - 23/Apr</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>24/Apr - 30/Apr</t>
+        </is>
+      </c>
+      <c r="I3" s="5" t="inlineStr">
+        <is>
           <t>01/May - 07/May</t>
         </is>
       </c>
-      <c r="G3" s="5" t="inlineStr">
+      <c r="J3" s="5" t="inlineStr">
         <is>
           <t>08/May - 14/May</t>
         </is>
       </c>
-      <c r="H3" s="5" t="inlineStr">
+      <c r="K3" s="5" t="inlineStr">
         <is>
           <t>15/May - 21/May</t>
         </is>
       </c>
-      <c r="I3" s="5" t="inlineStr">
+      <c r="L3" s="5" t="inlineStr">
         <is>
           <t>22/May - 28/May</t>
         </is>
       </c>
-      <c r="J3" s="5" t="inlineStr">
+      <c r="M3" s="5" t="inlineStr">
         <is>
           <t>29/May - 04/Jun</t>
         </is>
       </c>
-      <c r="K3" s="5" t="inlineStr">
+      <c r="N3" s="5" t="inlineStr">
         <is>
           <t>05/Jun - 11/Jun</t>
         </is>
       </c>
-      <c r="L3" s="5" t="inlineStr">
+      <c r="O3" s="5" t="inlineStr">
         <is>
           <t>12/Jun - 18/Jun</t>
         </is>
       </c>
-      <c r="M3" s="5" t="inlineStr">
+      <c r="P3" s="5" t="inlineStr">
         <is>
           <t>19/Jun - 25/Jun</t>
         </is>
       </c>
-      <c r="N3" s="5" t="inlineStr">
+      <c r="Q3" s="5" t="inlineStr">
         <is>
           <t>26/Jun - 02/Jul</t>
-        </is>
-      </c>
-      <c r="O3" s="5" t="inlineStr">
-        <is>
-          <t>03/Jul - 09/Jul</t>
-        </is>
-      </c>
-      <c r="P3" s="5" t="inlineStr">
-        <is>
-          <t>10/Jul - 16/Jul</t>
-        </is>
-      </c>
-      <c r="Q3" s="5" t="inlineStr">
-        <is>
-          <t>17/Jul - 23/Jul</t>
         </is>
       </c>
       <c r="R3" s="1" t="n"/>
@@ -6592,12 +6592,12 @@
       </c>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>01-May-2024</t>
+          <t>10-Apr-2024</t>
         </is>
       </c>
       <c r="E5" s="8" t="inlineStr">
         <is>
-          <t>14-May-2024</t>
+          <t>23-Apr-2024</t>
         </is>
       </c>
       <c r="F5" s="9" t="n"/>
@@ -6816,12 +6816,12 @@
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>15-May-2024</t>
+          <t>24-Apr-2024</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
         <is>
-          <t>28-May-2024</t>
+          <t>07-May-2024</t>
         </is>
       </c>
       <c r="F9" s="1" t="n"/>
@@ -7040,12 +7040,12 @@
       </c>
       <c r="D13" s="8" t="inlineStr">
         <is>
-          <t>29-May-2024</t>
+          <t>08-May-2024</t>
         </is>
       </c>
       <c r="E13" s="8" t="inlineStr">
         <is>
-          <t>18-Jun-2024</t>
+          <t>28-May-2024</t>
         </is>
       </c>
       <c r="F13" s="1" t="n"/>
@@ -7264,12 +7264,12 @@
       </c>
       <c r="D17" s="8" t="inlineStr">
         <is>
-          <t>19-Jun-2024</t>
+          <t>29-May-2024</t>
         </is>
       </c>
       <c r="E17" s="8" t="inlineStr">
         <is>
-          <t>02-Jul-2024</t>
+          <t>11-Jun-2024</t>
         </is>
       </c>
       <c r="F17" s="1" t="n"/>
@@ -7488,12 +7488,12 @@
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>03-Jul-2024</t>
+          <t>12-Jun-2024</t>
         </is>
       </c>
       <c r="E21" s="8" t="inlineStr">
         <is>
-          <t>09-Jul-2024</t>
+          <t>18-Jun-2024</t>
         </is>
       </c>
       <c r="F21" s="1" t="n"/>
@@ -7712,12 +7712,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>10-Jul-2024</t>
+          <t>19-Jun-2024</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>23-Jul-2024</t>
+          <t>02-Jul-2024</t>
         </is>
       </c>
       <c r="F25" s="1" t="n"/>
@@ -11670,16 +11670,17 @@
   <mergeCells count="20">
     <mergeCell ref="B9"/>
     <mergeCell ref="C17"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="F2:H2"/>
     <mergeCell ref="B5"/>
     <mergeCell ref="C13"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="B25"/>
-    <mergeCell ref="O2:Q2"/>
     <mergeCell ref="C5"/>
-    <mergeCell ref="F2:J2"/>
     <mergeCell ref="B21"/>
     <mergeCell ref="C25"/>
     <mergeCell ref="F1:Q1"/>
+    <mergeCell ref="N2:Q2"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="C9"/>
     <mergeCell ref="B1:B3"/>
@@ -11687,7 +11688,6 @@
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="B13"/>
     <mergeCell ref="C21"/>
-    <mergeCell ref="K2:N2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -11967,12 +11967,12 @@
       </c>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>01-May-2024</t>
+          <t>10-Apr-2024</t>
         </is>
       </c>
       <c r="E5" s="8" t="inlineStr">
         <is>
-          <t>14-May-2024</t>
+          <t>23-Apr-2024</t>
         </is>
       </c>
       <c r="F5" s="13" t="inlineStr">
@@ -12039,12 +12039,12 @@
       </c>
       <c r="D6" s="11" t="inlineStr">
         <is>
-          <t>01-May-2024</t>
+          <t>10-Apr-2024</t>
         </is>
       </c>
       <c r="E6" s="11" t="inlineStr">
         <is>
-          <t>07-May-2024</t>
+          <t>16-Apr-2024</t>
         </is>
       </c>
       <c r="F6" s="11" t="inlineStr">
@@ -12111,12 +12111,12 @@
       </c>
       <c r="D7" s="11" t="inlineStr">
         <is>
-          <t>01-May-2024</t>
+          <t>10-Apr-2024</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr">
         <is>
-          <t>07-May-2024</t>
+          <t>16-Apr-2024</t>
         </is>
       </c>
       <c r="F7" s="11" t="inlineStr">
@@ -12183,12 +12183,12 @@
       </c>
       <c r="D8" s="11" t="inlineStr">
         <is>
-          <t>01-May-2024</t>
+          <t>10-Apr-2024</t>
         </is>
       </c>
       <c r="E8" s="11" t="inlineStr">
         <is>
-          <t>14-May-2024</t>
+          <t>23-Apr-2024</t>
         </is>
       </c>
       <c r="F8" s="11" t="inlineStr">
@@ -12255,17 +12255,17 @@
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>15-May-2024</t>
+          <t>24-Apr-2024</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
         <is>
-          <t>28-May-2024</t>
-        </is>
-      </c>
-      <c r="F9" s="14" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
+          <t>07-May-2024</t>
+        </is>
+      </c>
+      <c r="F9" s="13" t="inlineStr">
+        <is>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="G9" s="1" t="n"/>
@@ -12322,22 +12322,22 @@
       </c>
       <c r="C10" s="10" t="inlineStr">
         <is>
-          <t>Design</t>
+          <t>System Architecture Design</t>
         </is>
       </c>
       <c r="D10" s="11" t="inlineStr">
         <is>
-          <t>15-May-2024</t>
+          <t>24-Apr-2024</t>
         </is>
       </c>
       <c r="E10" s="11" t="inlineStr">
         <is>
-          <t>21-May-2024</t>
+          <t>30-Apr-2024</t>
         </is>
       </c>
       <c r="F10" s="11" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Delayed</t>
         </is>
       </c>
       <c r="G10" s="1" t="n"/>
@@ -12399,17 +12399,17 @@
       </c>
       <c r="D11" s="11" t="inlineStr">
         <is>
-          <t>15-May-2024</t>
+          <t>24-Apr-2024</t>
         </is>
       </c>
       <c r="E11" s="11" t="inlineStr">
         <is>
-          <t>28-May-2024</t>
+          <t>07-May-2024</t>
         </is>
       </c>
       <c r="F11" s="11" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Delayed</t>
         </is>
       </c>
       <c r="G11" s="1" t="n"/>
@@ -12471,17 +12471,17 @@
       </c>
       <c r="D12" s="11" t="inlineStr">
         <is>
-          <t>22-May-2024</t>
+          <t>01-May-2024</t>
         </is>
       </c>
       <c r="E12" s="11" t="inlineStr">
         <is>
-          <t>28-May-2024</t>
+          <t>07-May-2024</t>
         </is>
       </c>
       <c r="F12" s="11" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Delayed</t>
         </is>
       </c>
       <c r="G12" s="1" t="n"/>
@@ -12543,17 +12543,17 @@
       </c>
       <c r="D13" s="8" t="inlineStr">
         <is>
-          <t>29-May-2024</t>
+          <t>08-May-2024</t>
         </is>
       </c>
       <c r="E13" s="8" t="inlineStr">
         <is>
-          <t>18-Jun-2024</t>
-        </is>
-      </c>
-      <c r="F13" s="14" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
+          <t>28-May-2024</t>
+        </is>
+      </c>
+      <c r="F13" s="13" t="inlineStr">
+        <is>
+          <t>At Risk</t>
         </is>
       </c>
       <c r="G13" s="1" t="n"/>
@@ -12615,17 +12615,17 @@
       </c>
       <c r="D14" s="11" t="inlineStr">
         <is>
-          <t>29-May-2024</t>
+          <t>08-May-2024</t>
         </is>
       </c>
       <c r="E14" s="11" t="inlineStr">
         <is>
-          <t>04-Jun-2024</t>
+          <t>14-May-2024</t>
         </is>
       </c>
       <c r="F14" s="11" t="inlineStr">
         <is>
-          <t>Ongoing</t>
+          <t>Delayed</t>
         </is>
       </c>
       <c r="G14" s="1" t="n"/>
@@ -12687,12 +12687,12 @@
       </c>
       <c r="D15" s="11" t="inlineStr">
         <is>
-          <t>05-Jun-2024</t>
+          <t>15-May-2024</t>
         </is>
       </c>
       <c r="E15" s="11" t="inlineStr">
         <is>
-          <t>18-Jun-2024</t>
+          <t>28-May-2024</t>
         </is>
       </c>
       <c r="F15" s="11" t="inlineStr">
@@ -12759,12 +12759,12 @@
       </c>
       <c r="D16" s="11" t="inlineStr">
         <is>
-          <t>12-Jun-2024</t>
+          <t>22-May-2024</t>
         </is>
       </c>
       <c r="E16" s="11" t="inlineStr">
         <is>
-          <t>18-Jun-2024</t>
+          <t>28-May-2024</t>
         </is>
       </c>
       <c r="F16" s="11" t="inlineStr">
@@ -12831,12 +12831,12 @@
       </c>
       <c r="D17" s="8" t="inlineStr">
         <is>
-          <t>19-Jun-2024</t>
+          <t>29-May-2024</t>
         </is>
       </c>
       <c r="E17" s="8" t="inlineStr">
         <is>
-          <t>02-Jul-2024</t>
+          <t>11-Jun-2024</t>
         </is>
       </c>
       <c r="F17" s="14" t="inlineStr">
@@ -12903,12 +12903,12 @@
       </c>
       <c r="D18" s="11" t="inlineStr">
         <is>
-          <t>19-Jun-2024</t>
+          <t>29-May-2024</t>
         </is>
       </c>
       <c r="E18" s="11" t="inlineStr">
         <is>
-          <t>25-Jun-2024</t>
+          <t>04-Jun-2024</t>
         </is>
       </c>
       <c r="F18" s="11" t="inlineStr">
@@ -12975,12 +12975,12 @@
       </c>
       <c r="D19" s="11" t="inlineStr">
         <is>
-          <t>19-Jun-2024</t>
+          <t>29-May-2024</t>
         </is>
       </c>
       <c r="E19" s="11" t="inlineStr">
         <is>
-          <t>02-Jul-2024</t>
+          <t>11-Jun-2024</t>
         </is>
       </c>
       <c r="F19" s="11" t="inlineStr">
@@ -13047,12 +13047,12 @@
       </c>
       <c r="D20" s="11" t="inlineStr">
         <is>
-          <t>26-Jun-2024</t>
+          <t>05-Jun-2024</t>
         </is>
       </c>
       <c r="E20" s="11" t="inlineStr">
         <is>
-          <t>02-Jul-2024</t>
+          <t>11-Jun-2024</t>
         </is>
       </c>
       <c r="F20" s="11" t="inlineStr">
@@ -13119,12 +13119,12 @@
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>03-Jul-2024</t>
+          <t>12-Jun-2024</t>
         </is>
       </c>
       <c r="E21" s="8" t="inlineStr">
         <is>
-          <t>09-Jul-2024</t>
+          <t>18-Jun-2024</t>
         </is>
       </c>
       <c r="F21" s="14" t="inlineStr">
@@ -13191,12 +13191,12 @@
       </c>
       <c r="D22" s="11" t="inlineStr">
         <is>
-          <t>03-Jul-2024</t>
+          <t>12-Jun-2024</t>
         </is>
       </c>
       <c r="E22" s="11" t="inlineStr">
         <is>
-          <t>09-Jul-2024</t>
+          <t>18-Jun-2024</t>
         </is>
       </c>
       <c r="F22" s="11" t="inlineStr">
@@ -13263,12 +13263,12 @@
       </c>
       <c r="D23" s="11" t="inlineStr">
         <is>
-          <t>03-Jul-2024</t>
+          <t>12-Jun-2024</t>
         </is>
       </c>
       <c r="E23" s="11" t="inlineStr">
         <is>
-          <t>09-Jul-2024</t>
+          <t>18-Jun-2024</t>
         </is>
       </c>
       <c r="F23" s="11" t="inlineStr">
@@ -13335,12 +13335,12 @@
       </c>
       <c r="D24" s="11" t="inlineStr">
         <is>
-          <t>03-Jul-2024</t>
+          <t>12-Jun-2024</t>
         </is>
       </c>
       <c r="E24" s="11" t="inlineStr">
         <is>
-          <t>09-Jul-2024</t>
+          <t>18-Jun-2024</t>
         </is>
       </c>
       <c r="F24" s="11" t="inlineStr">
@@ -13407,12 +13407,12 @@
       </c>
       <c r="D25" s="8" t="inlineStr">
         <is>
-          <t>10-Jul-2024</t>
+          <t>19-Jun-2024</t>
         </is>
       </c>
       <c r="E25" s="8" t="inlineStr">
         <is>
-          <t>23-Jul-2024</t>
+          <t>02-Jul-2024</t>
         </is>
       </c>
       <c r="F25" s="14" t="inlineStr">
@@ -13479,12 +13479,12 @@
       </c>
       <c r="D26" s="11" t="inlineStr">
         <is>
-          <t>10-Jul-2024</t>
+          <t>19-Jun-2024</t>
         </is>
       </c>
       <c r="E26" s="11" t="inlineStr">
         <is>
-          <t>16-Jul-2024</t>
+          <t>25-Jun-2024</t>
         </is>
       </c>
       <c r="F26" s="11" t="inlineStr">
@@ -13551,12 +13551,12 @@
       </c>
       <c r="D27" s="11" t="inlineStr">
         <is>
-          <t>10-Jul-2024</t>
+          <t>19-Jun-2024</t>
         </is>
       </c>
       <c r="E27" s="11" t="inlineStr">
         <is>
-          <t>16-Jul-2024</t>
+          <t>25-Jun-2024</t>
         </is>
       </c>
       <c r="F27" s="11" t="inlineStr">
@@ -13623,12 +13623,12 @@
       </c>
       <c r="D28" s="11" t="inlineStr">
         <is>
-          <t>10-Jul-2024</t>
+          <t>19-Jun-2024</t>
         </is>
       </c>
       <c r="E28" s="11" t="inlineStr">
         <is>
-          <t>23-Jul-2024</t>
+          <t>02-Jul-2024</t>
         </is>
       </c>
       <c r="F28" s="11" t="inlineStr">

--- a/chronogram.xlsx
+++ b/chronogram.xlsx
@@ -42,7 +42,7 @@
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
@@ -71,6 +71,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="0032a852"/>
         <bgColor rgb="0032a852"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -110,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -136,8 +142,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -562,9 +569,6 @@
     <col width="20" customWidth="1" min="12" max="12"/>
     <col width="20" customWidth="1" min="13" max="13"/>
     <col width="20" customWidth="1" min="14" max="14"/>
-    <col width="20" customWidth="1" min="15" max="15"/>
-    <col width="20" customWidth="1" min="16" max="16"/>
-    <col width="20" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -602,9 +606,9 @@
       <c r="L1" s="4" t="n"/>
       <c r="M1" s="4" t="n"/>
       <c r="N1" s="4" t="n"/>
-      <c r="O1" s="4" t="n"/>
-      <c r="P1" s="4" t="n"/>
-      <c r="Q1" s="4" t="n"/>
+      <c r="O1" s="1" t="n"/>
+      <c r="P1" s="1" t="n"/>
+      <c r="Q1" s="1" t="n"/>
       <c r="R1" s="1" t="n"/>
       <c r="S1" s="1" t="n"/>
       <c r="T1" s="1" t="n"/>
@@ -651,24 +655,24 @@
         </is>
       </c>
       <c r="G2" s="4" t="n"/>
-      <c r="H2" s="4" t="n"/>
-      <c r="I2" s="5" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>May</t>
         </is>
       </c>
+      <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="4" t="n"/>
-      <c r="M2" s="4" t="n"/>
-      <c r="N2" s="5" t="inlineStr">
+      <c r="L2" s="5" t="inlineStr">
         <is>
           <t>June</t>
         </is>
       </c>
-      <c r="O2" s="4" t="n"/>
-      <c r="P2" s="4" t="n"/>
-      <c r="Q2" s="4" t="n"/>
+      <c r="M2" s="4" t="n"/>
+      <c r="N2" s="4" t="n"/>
+      <c r="O2" s="1" t="n"/>
+      <c r="P2" s="1" t="n"/>
+      <c r="Q2" s="1" t="n"/>
       <c r="R2" s="1" t="n"/>
       <c r="S2" s="1" t="n"/>
       <c r="T2" s="1" t="n"/>
@@ -711,64 +715,52 @@
       <c r="E3" s="4" t="n"/>
       <c r="F3" s="5" t="inlineStr">
         <is>
-          <t>10/Apr - 16/Apr</t>
+          <t>20/Apr - 26/Apr</t>
         </is>
       </c>
       <c r="G3" s="5" t="inlineStr">
         <is>
-          <t>17/Apr - 23/Apr</t>
+          <t>27/Apr - 03/May</t>
         </is>
       </c>
       <c r="H3" s="5" t="inlineStr">
         <is>
-          <t>24/Apr - 30/Apr</t>
+          <t>04/May - 10/May</t>
         </is>
       </c>
       <c r="I3" s="5" t="inlineStr">
         <is>
-          <t>01/May - 07/May</t>
+          <t>11/May - 17/May</t>
         </is>
       </c>
       <c r="J3" s="5" t="inlineStr">
         <is>
-          <t>08/May - 14/May</t>
+          <t>18/May - 24/May</t>
         </is>
       </c>
       <c r="K3" s="5" t="inlineStr">
         <is>
-          <t>15/May - 21/May</t>
+          <t>25/May - 31/May</t>
         </is>
       </c>
       <c r="L3" s="5" t="inlineStr">
         <is>
-          <t>22/May - 28/May</t>
+          <t>01/Jun - 07/Jun</t>
         </is>
       </c>
       <c r="M3" s="5" t="inlineStr">
         <is>
-          <t>29/May - 04/Jun</t>
+          <t>08/Jun - 14/Jun</t>
         </is>
       </c>
       <c r="N3" s="5" t="inlineStr">
         <is>
-          <t>05/Jun - 11/Jun</t>
+          <t>15/Jun - 21/Jun</t>
         </is>
       </c>
-      <c r="O3" s="5" t="inlineStr">
-        <is>
-          <t>12/Jun - 18/Jun</t>
-        </is>
-      </c>
-      <c r="P3" s="5" t="inlineStr">
-        <is>
-          <t>19/Jun - 25/Jun</t>
-        </is>
-      </c>
-      <c r="Q3" s="5" t="inlineStr">
-        <is>
-          <t>26/Jun - 02/Jul</t>
-        </is>
-      </c>
+      <c r="O3" s="1" t="n"/>
+      <c r="P3" s="1" t="n"/>
+      <c r="Q3" s="1" t="n"/>
       <c r="R3" s="1" t="n"/>
       <c r="S3" s="1" t="n"/>
       <c r="T3" s="1" t="n"/>
@@ -864,22 +856,22 @@
       </c>
       <c r="C5" s="7" t="inlineStr">
         <is>
-          <t>Requirements Gathering</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>10-Apr-2024</t>
+          <t>20-Apr-2024</t>
         </is>
       </c>
       <c r="E5" s="8" t="inlineStr">
         <is>
-          <t>23-Apr-2024</t>
+          <t>10-May-2024</t>
         </is>
       </c>
       <c r="F5" s="9" t="n"/>
       <c r="G5" s="9" t="n"/>
-      <c r="H5" s="1" t="n"/>
+      <c r="H5" s="9" t="n"/>
       <c r="I5" s="1" t="n"/>
       <c r="J5" s="1" t="n"/>
       <c r="K5" s="1" t="n"/>
@@ -932,17 +924,17 @@
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>Initial Meeting</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D6" s="11" t="inlineStr">
         <is>
-          <t>10-Apr-2024</t>
+          <t>20-Apr-2024</t>
         </is>
       </c>
       <c r="E6" s="11" t="inlineStr">
         <is>
-          <t>16-Apr-2024</t>
+          <t>26-Apr-2024</t>
         </is>
       </c>
       <c r="F6" s="12" t="n"/>
@@ -1000,21 +992,21 @@
       </c>
       <c r="C7" s="10" t="inlineStr">
         <is>
-          <t>Stakeholder Interviews</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D7" s="11" t="inlineStr">
         <is>
-          <t>10-Apr-2024</t>
+          <t>27-Apr-2024</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr">
         <is>
-          <t>16-Apr-2024</t>
+          <t>03-May-2024</t>
         </is>
       </c>
-      <c r="F7" s="12" t="n"/>
-      <c r="G7" s="1" t="n"/>
+      <c r="F7" s="1" t="n"/>
+      <c r="G7" s="12" t="n"/>
       <c r="H7" s="1" t="n"/>
       <c r="I7" s="1" t="n"/>
       <c r="J7" s="1" t="n"/>
@@ -1068,22 +1060,22 @@
       </c>
       <c r="C8" s="10" t="inlineStr">
         <is>
-          <t>Requirements Documentation</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D8" s="11" t="inlineStr">
         <is>
-          <t>10-Apr-2024</t>
+          <t>04-May-2024</t>
         </is>
       </c>
       <c r="E8" s="11" t="inlineStr">
         <is>
-          <t>23-Apr-2024</t>
+          <t>10-May-2024</t>
         </is>
       </c>
-      <c r="F8" s="12" t="n"/>
-      <c r="G8" s="12" t="n"/>
-      <c r="H8" s="1" t="n"/>
+      <c r="F8" s="1" t="n"/>
+      <c r="G8" s="1" t="n"/>
+      <c r="H8" s="12" t="n"/>
       <c r="I8" s="1" t="n"/>
       <c r="J8" s="1" t="n"/>
       <c r="K8" s="1" t="n"/>
@@ -1136,25 +1128,25 @@
       </c>
       <c r="C9" s="7" t="inlineStr">
         <is>
-          <t>Design</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>24-Apr-2024</t>
+          <t>11-May-2024</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
         <is>
-          <t>07-May-2024</t>
+          <t>31-May-2024</t>
         </is>
       </c>
       <c r="F9" s="1" t="n"/>
       <c r="G9" s="1" t="n"/>
-      <c r="H9" s="9" t="n"/>
+      <c r="H9" s="1" t="n"/>
       <c r="I9" s="9" t="n"/>
-      <c r="J9" s="1" t="n"/>
-      <c r="K9" s="1" t="n"/>
+      <c r="J9" s="9" t="n"/>
+      <c r="K9" s="9" t="n"/>
       <c r="L9" s="1" t="n"/>
       <c r="M9" s="1" t="n"/>
       <c r="N9" s="1" t="n"/>
@@ -1204,23 +1196,23 @@
       </c>
       <c r="C10" s="10" t="inlineStr">
         <is>
-          <t>System Architecture Design</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D10" s="11" t="inlineStr">
         <is>
-          <t>24-Apr-2024</t>
+          <t>11-May-2024</t>
         </is>
       </c>
       <c r="E10" s="11" t="inlineStr">
         <is>
-          <t>30-Apr-2024</t>
+          <t>17-May-2024</t>
         </is>
       </c>
       <c r="F10" s="1" t="n"/>
       <c r="G10" s="1" t="n"/>
-      <c r="H10" s="12" t="n"/>
-      <c r="I10" s="1" t="n"/>
+      <c r="H10" s="1" t="n"/>
+      <c r="I10" s="12" t="n"/>
       <c r="J10" s="1" t="n"/>
       <c r="K10" s="1" t="n"/>
       <c r="L10" s="1" t="n"/>
@@ -1272,24 +1264,24 @@
       </c>
       <c r="C11" s="10" t="inlineStr">
         <is>
-          <t>Database Schema Design</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D11" s="11" t="inlineStr">
         <is>
-          <t>24-Apr-2024</t>
+          <t>18-May-2024</t>
         </is>
       </c>
       <c r="E11" s="11" t="inlineStr">
         <is>
-          <t>07-May-2024</t>
+          <t>24-May-2024</t>
         </is>
       </c>
       <c r="F11" s="1" t="n"/>
       <c r="G11" s="1" t="n"/>
-      <c r="H11" s="12" t="n"/>
-      <c r="I11" s="12" t="n"/>
-      <c r="J11" s="1" t="n"/>
+      <c r="H11" s="1" t="n"/>
+      <c r="I11" s="1" t="n"/>
+      <c r="J11" s="12" t="n"/>
       <c r="K11" s="1" t="n"/>
       <c r="L11" s="1" t="n"/>
       <c r="M11" s="1" t="n"/>
@@ -1340,25 +1332,25 @@
       </c>
       <c r="C12" s="10" t="inlineStr">
         <is>
-          <t>UI/UX Design</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D12" s="11" t="inlineStr">
         <is>
-          <t>01-May-2024</t>
+          <t>25-May-2024</t>
         </is>
       </c>
       <c r="E12" s="11" t="inlineStr">
         <is>
-          <t>07-May-2024</t>
+          <t>31-May-2024</t>
         </is>
       </c>
       <c r="F12" s="1" t="n"/>
       <c r="G12" s="1" t="n"/>
       <c r="H12" s="1" t="n"/>
-      <c r="I12" s="12" t="n"/>
+      <c r="I12" s="1" t="n"/>
       <c r="J12" s="1" t="n"/>
-      <c r="K12" s="1" t="n"/>
+      <c r="K12" s="12" t="n"/>
       <c r="L12" s="1" t="n"/>
       <c r="M12" s="1" t="n"/>
       <c r="N12" s="1" t="n"/>
@@ -1408,28 +1400,28 @@
       </c>
       <c r="C13" s="7" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="D13" s="8" t="inlineStr">
         <is>
-          <t>08-May-2024</t>
+          <t>01-Jun-2024</t>
         </is>
       </c>
       <c r="E13" s="8" t="inlineStr">
         <is>
-          <t>28-May-2024</t>
+          <t>21-Jun-2024</t>
         </is>
       </c>
       <c r="F13" s="1" t="n"/>
       <c r="G13" s="1" t="n"/>
       <c r="H13" s="1" t="n"/>
       <c r="I13" s="1" t="n"/>
-      <c r="J13" s="9" t="n"/>
-      <c r="K13" s="9" t="n"/>
+      <c r="J13" s="1" t="n"/>
+      <c r="K13" s="1" t="n"/>
       <c r="L13" s="9" t="n"/>
-      <c r="M13" s="1" t="n"/>
-      <c r="N13" s="1" t="n"/>
+      <c r="M13" s="9" t="n"/>
+      <c r="N13" s="9" t="n"/>
       <c r="O13" s="1" t="n"/>
       <c r="P13" s="1" t="n"/>
       <c r="Q13" s="1" t="n"/>
@@ -1476,26 +1468,26 @@
       </c>
       <c r="C14" s="10" t="inlineStr">
         <is>
-          <t>Frontend Development</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D14" s="11" t="inlineStr">
         <is>
-          <t>08-May-2024</t>
+          <t>01-Jun-2024</t>
         </is>
       </c>
       <c r="E14" s="11" t="inlineStr">
         <is>
-          <t>14-May-2024</t>
+          <t>07-Jun-2024</t>
         </is>
       </c>
       <c r="F14" s="1" t="n"/>
       <c r="G14" s="1" t="n"/>
       <c r="H14" s="1" t="n"/>
       <c r="I14" s="1" t="n"/>
-      <c r="J14" s="12" t="n"/>
+      <c r="J14" s="1" t="n"/>
       <c r="K14" s="1" t="n"/>
-      <c r="L14" s="1" t="n"/>
+      <c r="L14" s="12" t="n"/>
       <c r="M14" s="1" t="n"/>
       <c r="N14" s="1" t="n"/>
       <c r="O14" s="1" t="n"/>
@@ -1544,17 +1536,17 @@
       </c>
       <c r="C15" s="10" t="inlineStr">
         <is>
-          <t>Backend Development</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D15" s="11" t="inlineStr">
         <is>
-          <t>15-May-2024</t>
+          <t>08-Jun-2024</t>
         </is>
       </c>
       <c r="E15" s="11" t="inlineStr">
         <is>
-          <t>28-May-2024</t>
+          <t>14-Jun-2024</t>
         </is>
       </c>
       <c r="F15" s="1" t="n"/>
@@ -1562,9 +1554,9 @@
       <c r="H15" s="1" t="n"/>
       <c r="I15" s="1" t="n"/>
       <c r="J15" s="1" t="n"/>
-      <c r="K15" s="12" t="n"/>
-      <c r="L15" s="12" t="n"/>
-      <c r="M15" s="1" t="n"/>
+      <c r="K15" s="1" t="n"/>
+      <c r="L15" s="1" t="n"/>
+      <c r="M15" s="12" t="n"/>
       <c r="N15" s="1" t="n"/>
       <c r="O15" s="1" t="n"/>
       <c r="P15" s="1" t="n"/>
@@ -1612,17 +1604,17 @@
       </c>
       <c r="C16" s="10" t="inlineStr">
         <is>
-          <t>Integration</t>
+          <t>I</t>
         </is>
       </c>
       <c r="D16" s="11" t="inlineStr">
         <is>
-          <t>22-May-2024</t>
+          <t>15-Jun-2024</t>
         </is>
       </c>
       <c r="E16" s="11" t="inlineStr">
         <is>
-          <t>28-May-2024</t>
+          <t>21-Jun-2024</t>
         </is>
       </c>
       <c r="F16" s="1" t="n"/>
@@ -1631,9 +1623,9 @@
       <c r="I16" s="1" t="n"/>
       <c r="J16" s="1" t="n"/>
       <c r="K16" s="1" t="n"/>
-      <c r="L16" s="12" t="n"/>
+      <c r="L16" s="1" t="n"/>
       <c r="M16" s="1" t="n"/>
-      <c r="N16" s="1" t="n"/>
+      <c r="N16" s="12" t="n"/>
       <c r="O16" s="1" t="n"/>
       <c r="P16" s="1" t="n"/>
       <c r="Q16" s="1" t="n"/>
@@ -1673,26 +1665,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
-      <c r="B17" s="7" t="inlineStr">
-        <is>
-          <t>Task 4</t>
-        </is>
-      </c>
-      <c r="C17" s="7" t="inlineStr">
-        <is>
-          <t>Testing</t>
-        </is>
-      </c>
-      <c r="D17" s="8" t="inlineStr">
-        <is>
-          <t>29-May-2024</t>
-        </is>
-      </c>
-      <c r="E17" s="8" t="inlineStr">
-        <is>
-          <t>11-Jun-2024</t>
-        </is>
-      </c>
+      <c r="B17" s="6" t="n"/>
+      <c r="C17" s="6" t="n"/>
+      <c r="D17" s="1" t="n"/>
+      <c r="E17" s="1" t="n"/>
       <c r="F17" s="1" t="n"/>
       <c r="G17" s="1" t="n"/>
       <c r="H17" s="1" t="n"/>
@@ -1700,8 +1676,8 @@
       <c r="J17" s="1" t="n"/>
       <c r="K17" s="1" t="n"/>
       <c r="L17" s="1" t="n"/>
-      <c r="M17" s="9" t="n"/>
-      <c r="N17" s="9" t="n"/>
+      <c r="M17" s="1" t="n"/>
+      <c r="N17" s="1" t="n"/>
       <c r="O17" s="1" t="n"/>
       <c r="P17" s="1" t="n"/>
       <c r="Q17" s="1" t="n"/>
@@ -1741,26 +1717,10 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
-      <c r="B18" s="10" t="inlineStr">
-        <is>
-          <t>4.1</t>
-        </is>
-      </c>
-      <c r="C18" s="10" t="inlineStr">
-        <is>
-          <t>Unit Testing</t>
-        </is>
-      </c>
-      <c r="D18" s="11" t="inlineStr">
-        <is>
-          <t>29-May-2024</t>
-        </is>
-      </c>
-      <c r="E18" s="11" t="inlineStr">
-        <is>
-          <t>04-Jun-2024</t>
-        </is>
-      </c>
+      <c r="B18" s="6" t="n"/>
+      <c r="C18" s="6" t="n"/>
+      <c r="D18" s="1" t="n"/>
+      <c r="E18" s="1" t="n"/>
       <c r="F18" s="1" t="n"/>
       <c r="G18" s="1" t="n"/>
       <c r="H18" s="1" t="n"/>
@@ -1768,7 +1728,7 @@
       <c r="J18" s="1" t="n"/>
       <c r="K18" s="1" t="n"/>
       <c r="L18" s="1" t="n"/>
-      <c r="M18" s="12" t="n"/>
+      <c r="M18" s="1" t="n"/>
       <c r="N18" s="1" t="n"/>
       <c r="O18" s="1" t="n"/>
       <c r="P18" s="1" t="n"/>
@@ -1809,26 +1769,10 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
-      <c r="B19" s="10" t="inlineStr">
-        <is>
-          <t>4.2</t>
-        </is>
-      </c>
-      <c r="C19" s="10" t="inlineStr">
-        <is>
-          <t>Integration Testing</t>
-        </is>
-      </c>
-      <c r="D19" s="11" t="inlineStr">
-        <is>
-          <t>29-May-2024</t>
-        </is>
-      </c>
-      <c r="E19" s="11" t="inlineStr">
-        <is>
-          <t>11-Jun-2024</t>
-        </is>
-      </c>
+      <c r="B19" s="6" t="n"/>
+      <c r="C19" s="6" t="n"/>
+      <c r="D19" s="1" t="n"/>
+      <c r="E19" s="1" t="n"/>
       <c r="F19" s="1" t="n"/>
       <c r="G19" s="1" t="n"/>
       <c r="H19" s="1" t="n"/>
@@ -1836,8 +1780,8 @@
       <c r="J19" s="1" t="n"/>
       <c r="K19" s="1" t="n"/>
       <c r="L19" s="1" t="n"/>
-      <c r="M19" s="12" t="n"/>
-      <c r="N19" s="12" t="n"/>
+      <c r="M19" s="1" t="n"/>
+      <c r="N19" s="1" t="n"/>
       <c r="O19" s="1" t="n"/>
       <c r="P19" s="1" t="n"/>
       <c r="Q19" s="1" t="n"/>
@@ -1877,26 +1821,10 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
-      <c r="B20" s="10" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
-      </c>
-      <c r="C20" s="10" t="inlineStr">
-        <is>
-          <t>User Acceptance Testing</t>
-        </is>
-      </c>
-      <c r="D20" s="11" t="inlineStr">
-        <is>
-          <t>05-Jun-2024</t>
-        </is>
-      </c>
-      <c r="E20" s="11" t="inlineStr">
-        <is>
-          <t>11-Jun-2024</t>
-        </is>
-      </c>
+      <c r="B20" s="6" t="n"/>
+      <c r="C20" s="6" t="n"/>
+      <c r="D20" s="1" t="n"/>
+      <c r="E20" s="1" t="n"/>
       <c r="F20" s="1" t="n"/>
       <c r="G20" s="1" t="n"/>
       <c r="H20" s="1" t="n"/>
@@ -1905,7 +1833,7 @@
       <c r="K20" s="1" t="n"/>
       <c r="L20" s="1" t="n"/>
       <c r="M20" s="1" t="n"/>
-      <c r="N20" s="12" t="n"/>
+      <c r="N20" s="1" t="n"/>
       <c r="O20" s="1" t="n"/>
       <c r="P20" s="1" t="n"/>
       <c r="Q20" s="1" t="n"/>
@@ -1945,26 +1873,10 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
-      <c r="B21" s="7" t="inlineStr">
-        <is>
-          <t>Task 5</t>
-        </is>
-      </c>
-      <c r="C21" s="7" t="inlineStr">
-        <is>
-          <t>Deployment</t>
-        </is>
-      </c>
-      <c r="D21" s="8" t="inlineStr">
-        <is>
-          <t>12-Jun-2024</t>
-        </is>
-      </c>
-      <c r="E21" s="8" t="inlineStr">
-        <is>
-          <t>18-Jun-2024</t>
-        </is>
-      </c>
+      <c r="B21" s="6" t="n"/>
+      <c r="C21" s="6" t="n"/>
+      <c r="D21" s="1" t="n"/>
+      <c r="E21" s="1" t="n"/>
       <c r="F21" s="1" t="n"/>
       <c r="G21" s="1" t="n"/>
       <c r="H21" s="1" t="n"/>
@@ -1974,7 +1886,7 @@
       <c r="L21" s="1" t="n"/>
       <c r="M21" s="1" t="n"/>
       <c r="N21" s="1" t="n"/>
-      <c r="O21" s="9" t="n"/>
+      <c r="O21" s="1" t="n"/>
       <c r="P21" s="1" t="n"/>
       <c r="Q21" s="1" t="n"/>
       <c r="R21" s="1" t="n"/>
@@ -2013,26 +1925,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
-      <c r="B22" s="10" t="inlineStr">
-        <is>
-          <t>5.1</t>
-        </is>
-      </c>
-      <c r="C22" s="10" t="inlineStr">
-        <is>
-          <t>Prepare Deployment Environment</t>
-        </is>
-      </c>
-      <c r="D22" s="11" t="inlineStr">
-        <is>
-          <t>12-Jun-2024</t>
-        </is>
-      </c>
-      <c r="E22" s="11" t="inlineStr">
-        <is>
-          <t>18-Jun-2024</t>
-        </is>
-      </c>
+      <c r="B22" s="6" t="n"/>
+      <c r="C22" s="6" t="n"/>
+      <c r="D22" s="1" t="n"/>
+      <c r="E22" s="1" t="n"/>
       <c r="F22" s="1" t="n"/>
       <c r="G22" s="1" t="n"/>
       <c r="H22" s="1" t="n"/>
@@ -2042,7 +1938,7 @@
       <c r="L22" s="1" t="n"/>
       <c r="M22" s="1" t="n"/>
       <c r="N22" s="1" t="n"/>
-      <c r="O22" s="12" t="n"/>
+      <c r="O22" s="1" t="n"/>
       <c r="P22" s="1" t="n"/>
       <c r="Q22" s="1" t="n"/>
       <c r="R22" s="1" t="n"/>
@@ -2081,26 +1977,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
-      <c r="B23" s="10" t="inlineStr">
-        <is>
-          <t>5.2</t>
-        </is>
-      </c>
-      <c r="C23" s="10" t="inlineStr">
-        <is>
-          <t>Deployment</t>
-        </is>
-      </c>
-      <c r="D23" s="11" t="inlineStr">
-        <is>
-          <t>12-Jun-2024</t>
-        </is>
-      </c>
-      <c r="E23" s="11" t="inlineStr">
-        <is>
-          <t>18-Jun-2024</t>
-        </is>
-      </c>
+      <c r="B23" s="6" t="n"/>
+      <c r="C23" s="6" t="n"/>
+      <c r="D23" s="1" t="n"/>
+      <c r="E23" s="1" t="n"/>
       <c r="F23" s="1" t="n"/>
       <c r="G23" s="1" t="n"/>
       <c r="H23" s="1" t="n"/>
@@ -2110,7 +1990,7 @@
       <c r="L23" s="1" t="n"/>
       <c r="M23" s="1" t="n"/>
       <c r="N23" s="1" t="n"/>
-      <c r="O23" s="12" t="n"/>
+      <c r="O23" s="1" t="n"/>
       <c r="P23" s="1" t="n"/>
       <c r="Q23" s="1" t="n"/>
       <c r="R23" s="1" t="n"/>
@@ -2149,26 +2029,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
-      <c r="B24" s="10" t="inlineStr">
-        <is>
-          <t>5.3</t>
-        </is>
-      </c>
-      <c r="C24" s="10" t="inlineStr">
-        <is>
-          <t>Post-Deployment Verification</t>
-        </is>
-      </c>
-      <c r="D24" s="11" t="inlineStr">
-        <is>
-          <t>12-Jun-2024</t>
-        </is>
-      </c>
-      <c r="E24" s="11" t="inlineStr">
-        <is>
-          <t>18-Jun-2024</t>
-        </is>
-      </c>
+      <c r="B24" s="6" t="n"/>
+      <c r="C24" s="6" t="n"/>
+      <c r="D24" s="1" t="n"/>
+      <c r="E24" s="1" t="n"/>
       <c r="F24" s="1" t="n"/>
       <c r="G24" s="1" t="n"/>
       <c r="H24" s="1" t="n"/>
@@ -2178,7 +2042,7 @@
       <c r="L24" s="1" t="n"/>
       <c r="M24" s="1" t="n"/>
       <c r="N24" s="1" t="n"/>
-      <c r="O24" s="12" t="n"/>
+      <c r="O24" s="1" t="n"/>
       <c r="P24" s="1" t="n"/>
       <c r="Q24" s="1" t="n"/>
       <c r="R24" s="1" t="n"/>
@@ -2217,26 +2081,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
-      <c r="B25" s="7" t="inlineStr">
-        <is>
-          <t>Task 6</t>
-        </is>
-      </c>
-      <c r="C25" s="7" t="inlineStr">
-        <is>
-          <t>Maintenance</t>
-        </is>
-      </c>
-      <c r="D25" s="8" t="inlineStr">
-        <is>
-          <t>19-Jun-2024</t>
-        </is>
-      </c>
-      <c r="E25" s="8" t="inlineStr">
-        <is>
-          <t>02-Jul-2024</t>
-        </is>
-      </c>
+      <c r="B25" s="6" t="n"/>
+      <c r="C25" s="6" t="n"/>
+      <c r="D25" s="1" t="n"/>
+      <c r="E25" s="1" t="n"/>
       <c r="F25" s="1" t="n"/>
       <c r="G25" s="1" t="n"/>
       <c r="H25" s="1" t="n"/>
@@ -2247,8 +2095,8 @@
       <c r="M25" s="1" t="n"/>
       <c r="N25" s="1" t="n"/>
       <c r="O25" s="1" t="n"/>
-      <c r="P25" s="9" t="n"/>
-      <c r="Q25" s="9" t="n"/>
+      <c r="P25" s="1" t="n"/>
+      <c r="Q25" s="1" t="n"/>
       <c r="R25" s="1" t="n"/>
       <c r="S25" s="1" t="n"/>
       <c r="T25" s="1" t="n"/>
@@ -2285,26 +2133,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
-      <c r="B26" s="10" t="inlineStr">
-        <is>
-          <t>6.1</t>
-        </is>
-      </c>
-      <c r="C26" s="10" t="inlineStr">
-        <is>
-          <t>Bug Fixing</t>
-        </is>
-      </c>
-      <c r="D26" s="11" t="inlineStr">
-        <is>
-          <t>19-Jun-2024</t>
-        </is>
-      </c>
-      <c r="E26" s="11" t="inlineStr">
-        <is>
-          <t>25-Jun-2024</t>
-        </is>
-      </c>
+      <c r="B26" s="6" t="n"/>
+      <c r="C26" s="6" t="n"/>
+      <c r="D26" s="1" t="n"/>
+      <c r="E26" s="1" t="n"/>
       <c r="F26" s="1" t="n"/>
       <c r="G26" s="1" t="n"/>
       <c r="H26" s="1" t="n"/>
@@ -2315,7 +2147,7 @@
       <c r="M26" s="1" t="n"/>
       <c r="N26" s="1" t="n"/>
       <c r="O26" s="1" t="n"/>
-      <c r="P26" s="12" t="n"/>
+      <c r="P26" s="1" t="n"/>
       <c r="Q26" s="1" t="n"/>
       <c r="R26" s="1" t="n"/>
       <c r="S26" s="1" t="n"/>
@@ -2353,26 +2185,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
-      <c r="B27" s="10" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
-      </c>
-      <c r="C27" s="10" t="inlineStr">
-        <is>
-          <t>Performance Tuning</t>
-        </is>
-      </c>
-      <c r="D27" s="11" t="inlineStr">
-        <is>
-          <t>19-Jun-2024</t>
-        </is>
-      </c>
-      <c r="E27" s="11" t="inlineStr">
-        <is>
-          <t>25-Jun-2024</t>
-        </is>
-      </c>
+      <c r="B27" s="6" t="n"/>
+      <c r="C27" s="6" t="n"/>
+      <c r="D27" s="1" t="n"/>
+      <c r="E27" s="1" t="n"/>
       <c r="F27" s="1" t="n"/>
       <c r="G27" s="1" t="n"/>
       <c r="H27" s="1" t="n"/>
@@ -2383,7 +2199,7 @@
       <c r="M27" s="1" t="n"/>
       <c r="N27" s="1" t="n"/>
       <c r="O27" s="1" t="n"/>
-      <c r="P27" s="12" t="n"/>
+      <c r="P27" s="1" t="n"/>
       <c r="Q27" s="1" t="n"/>
       <c r="R27" s="1" t="n"/>
       <c r="S27" s="1" t="n"/>
@@ -2421,26 +2237,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n"/>
-      <c r="B28" s="10" t="inlineStr">
-        <is>
-          <t>6.3</t>
-        </is>
-      </c>
-      <c r="C28" s="10" t="inlineStr">
-        <is>
-          <t>User Training</t>
-        </is>
-      </c>
-      <c r="D28" s="11" t="inlineStr">
-        <is>
-          <t>19-Jun-2024</t>
-        </is>
-      </c>
-      <c r="E28" s="11" t="inlineStr">
-        <is>
-          <t>02-Jul-2024</t>
-        </is>
-      </c>
+      <c r="B28" s="6" t="n"/>
+      <c r="C28" s="6" t="n"/>
+      <c r="D28" s="1" t="n"/>
+      <c r="E28" s="1" t="n"/>
       <c r="F28" s="1" t="n"/>
       <c r="G28" s="1" t="n"/>
       <c r="H28" s="1" t="n"/>
@@ -2451,8 +2251,8 @@
       <c r="M28" s="1" t="n"/>
       <c r="N28" s="1" t="n"/>
       <c r="O28" s="1" t="n"/>
-      <c r="P28" s="12" t="n"/>
-      <c r="Q28" s="12" t="n"/>
+      <c r="P28" s="1" t="n"/>
+      <c r="Q28" s="1" t="n"/>
       <c r="R28" s="1" t="n"/>
       <c r="S28" s="1" t="n"/>
       <c r="T28" s="1" t="n"/>
@@ -6232,27 +6032,21 @@
       <c r="AX100" s="1" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="14">
+    <mergeCell ref="B5"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="B1:B3"/>
     <mergeCell ref="B9"/>
-    <mergeCell ref="C17"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B5"/>
-    <mergeCell ref="C13"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="B25"/>
-    <mergeCell ref="C5"/>
-    <mergeCell ref="B21"/>
-    <mergeCell ref="C25"/>
-    <mergeCell ref="F1:Q1"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="C9"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="B17"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="B13"/>
-    <mergeCell ref="C21"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="C13"/>
+    <mergeCell ref="F1:N1"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="C5"/>
+    <mergeCell ref="C9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6285,9 +6079,6 @@
     <col width="20" customWidth="1" min="12" max="12"/>
     <col width="20" customWidth="1" min="13" max="13"/>
     <col width="20" customWidth="1" min="14" max="14"/>
-    <col width="20" customWidth="1" min="15" max="15"/>
-    <col width="20" customWidth="1" min="16" max="16"/>
-    <col width="20" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6325,9 +6116,9 @@
       <c r="L1" s="4" t="n"/>
       <c r="M1" s="4" t="n"/>
       <c r="N1" s="4" t="n"/>
-      <c r="O1" s="4" t="n"/>
-      <c r="P1" s="4" t="n"/>
-      <c r="Q1" s="4" t="n"/>
+      <c r="O1" s="1" t="n"/>
+      <c r="P1" s="1" t="n"/>
+      <c r="Q1" s="1" t="n"/>
       <c r="R1" s="1" t="n"/>
       <c r="S1" s="1" t="n"/>
       <c r="T1" s="1" t="n"/>
@@ -6374,24 +6165,24 @@
         </is>
       </c>
       <c r="G2" s="4" t="n"/>
-      <c r="H2" s="4" t="n"/>
-      <c r="I2" s="5" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>May</t>
         </is>
       </c>
+      <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="4" t="n"/>
-      <c r="M2" s="4" t="n"/>
-      <c r="N2" s="5" t="inlineStr">
+      <c r="L2" s="5" t="inlineStr">
         <is>
           <t>June</t>
         </is>
       </c>
-      <c r="O2" s="4" t="n"/>
-      <c r="P2" s="4" t="n"/>
-      <c r="Q2" s="4" t="n"/>
+      <c r="M2" s="4" t="n"/>
+      <c r="N2" s="4" t="n"/>
+      <c r="O2" s="1" t="n"/>
+      <c r="P2" s="1" t="n"/>
+      <c r="Q2" s="1" t="n"/>
       <c r="R2" s="1" t="n"/>
       <c r="S2" s="1" t="n"/>
       <c r="T2" s="1" t="n"/>
@@ -6434,64 +6225,52 @@
       <c r="E3" s="4" t="n"/>
       <c r="F3" s="5" t="inlineStr">
         <is>
-          <t>10/Apr - 16/Apr</t>
+          <t>20/Apr - 26/Apr</t>
         </is>
       </c>
       <c r="G3" s="5" t="inlineStr">
         <is>
-          <t>17/Apr - 23/Apr</t>
+          <t>27/Apr - 03/May</t>
         </is>
       </c>
       <c r="H3" s="5" t="inlineStr">
         <is>
-          <t>24/Apr - 30/Apr</t>
+          <t>04/May - 10/May</t>
         </is>
       </c>
       <c r="I3" s="5" t="inlineStr">
         <is>
-          <t>01/May - 07/May</t>
+          <t>11/May - 17/May</t>
         </is>
       </c>
       <c r="J3" s="5" t="inlineStr">
         <is>
-          <t>08/May - 14/May</t>
+          <t>18/May - 24/May</t>
         </is>
       </c>
       <c r="K3" s="5" t="inlineStr">
         <is>
-          <t>15/May - 21/May</t>
+          <t>25/May - 31/May</t>
         </is>
       </c>
       <c r="L3" s="5" t="inlineStr">
         <is>
-          <t>22/May - 28/May</t>
+          <t>01/Jun - 07/Jun</t>
         </is>
       </c>
       <c r="M3" s="5" t="inlineStr">
         <is>
-          <t>29/May - 04/Jun</t>
+          <t>08/Jun - 14/Jun</t>
         </is>
       </c>
       <c r="N3" s="5" t="inlineStr">
         <is>
-          <t>05/Jun - 11/Jun</t>
+          <t>15/Jun - 21/Jun</t>
         </is>
       </c>
-      <c r="O3" s="5" t="inlineStr">
-        <is>
-          <t>12/Jun - 18/Jun</t>
-        </is>
-      </c>
-      <c r="P3" s="5" t="inlineStr">
-        <is>
-          <t>19/Jun - 25/Jun</t>
-        </is>
-      </c>
-      <c r="Q3" s="5" t="inlineStr">
-        <is>
-          <t>26/Jun - 02/Jul</t>
-        </is>
-      </c>
+      <c r="O3" s="1" t="n"/>
+      <c r="P3" s="1" t="n"/>
+      <c r="Q3" s="1" t="n"/>
       <c r="R3" s="1" t="n"/>
       <c r="S3" s="1" t="n"/>
       <c r="T3" s="1" t="n"/>
@@ -6587,22 +6366,22 @@
       </c>
       <c r="C5" s="7" t="inlineStr">
         <is>
-          <t>Requirements Gathering</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>10-Apr-2024</t>
+          <t>20-Apr-2024</t>
         </is>
       </c>
       <c r="E5" s="8" t="inlineStr">
         <is>
-          <t>23-Apr-2024</t>
+          <t>10-May-2024</t>
         </is>
       </c>
       <c r="F5" s="9" t="n"/>
       <c r="G5" s="9" t="n"/>
-      <c r="H5" s="1" t="n"/>
+      <c r="H5" s="9" t="n"/>
       <c r="I5" s="1" t="n"/>
       <c r="J5" s="1" t="n"/>
       <c r="K5" s="1" t="n"/>
@@ -6811,25 +6590,25 @@
       </c>
       <c r="C9" s="7" t="inlineStr">
         <is>
-          <t>Design</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>24-Apr-2024</t>
+          <t>11-May-2024</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
         <is>
-          <t>07-May-2024</t>
+          <t>31-May-2024</t>
         </is>
       </c>
       <c r="F9" s="1" t="n"/>
       <c r="G9" s="1" t="n"/>
-      <c r="H9" s="9" t="n"/>
+      <c r="H9" s="1" t="n"/>
       <c r="I9" s="9" t="n"/>
-      <c r="J9" s="1" t="n"/>
-      <c r="K9" s="1" t="n"/>
+      <c r="J9" s="9" t="n"/>
+      <c r="K9" s="9" t="n"/>
       <c r="L9" s="1" t="n"/>
       <c r="M9" s="1" t="n"/>
       <c r="N9" s="1" t="n"/>
@@ -7035,28 +6814,28 @@
       </c>
       <c r="C13" s="7" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="D13" s="8" t="inlineStr">
         <is>
-          <t>08-May-2024</t>
+          <t>01-Jun-2024</t>
         </is>
       </c>
       <c r="E13" s="8" t="inlineStr">
         <is>
-          <t>28-May-2024</t>
+          <t>21-Jun-2024</t>
         </is>
       </c>
       <c r="F13" s="1" t="n"/>
       <c r="G13" s="1" t="n"/>
       <c r="H13" s="1" t="n"/>
       <c r="I13" s="1" t="n"/>
-      <c r="J13" s="9" t="n"/>
-      <c r="K13" s="9" t="n"/>
+      <c r="J13" s="1" t="n"/>
+      <c r="K13" s="1" t="n"/>
       <c r="L13" s="9" t="n"/>
-      <c r="M13" s="1" t="n"/>
-      <c r="N13" s="1" t="n"/>
+      <c r="M13" s="9" t="n"/>
+      <c r="N13" s="9" t="n"/>
       <c r="O13" s="1" t="n"/>
       <c r="P13" s="1" t="n"/>
       <c r="Q13" s="1" t="n"/>
@@ -7252,26 +7031,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
-      <c r="B17" s="7" t="inlineStr">
-        <is>
-          <t>Task 4</t>
-        </is>
-      </c>
-      <c r="C17" s="7" t="inlineStr">
-        <is>
-          <t>Testing</t>
-        </is>
-      </c>
-      <c r="D17" s="8" t="inlineStr">
-        <is>
-          <t>29-May-2024</t>
-        </is>
-      </c>
-      <c r="E17" s="8" t="inlineStr">
-        <is>
-          <t>11-Jun-2024</t>
-        </is>
-      </c>
+      <c r="B17" s="6" t="n"/>
+      <c r="C17" s="6" t="n"/>
+      <c r="D17" s="1" t="n"/>
+      <c r="E17" s="1" t="n"/>
       <c r="F17" s="1" t="n"/>
       <c r="G17" s="1" t="n"/>
       <c r="H17" s="1" t="n"/>
@@ -7279,8 +7042,8 @@
       <c r="J17" s="1" t="n"/>
       <c r="K17" s="1" t="n"/>
       <c r="L17" s="1" t="n"/>
-      <c r="M17" s="9" t="n"/>
-      <c r="N17" s="9" t="n"/>
+      <c r="M17" s="1" t="n"/>
+      <c r="N17" s="1" t="n"/>
       <c r="O17" s="1" t="n"/>
       <c r="P17" s="1" t="n"/>
       <c r="Q17" s="1" t="n"/>
@@ -7476,26 +7239,10 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
-      <c r="B21" s="7" t="inlineStr">
-        <is>
-          <t>Task 5</t>
-        </is>
-      </c>
-      <c r="C21" s="7" t="inlineStr">
-        <is>
-          <t>Deployment</t>
-        </is>
-      </c>
-      <c r="D21" s="8" t="inlineStr">
-        <is>
-          <t>12-Jun-2024</t>
-        </is>
-      </c>
-      <c r="E21" s="8" t="inlineStr">
-        <is>
-          <t>18-Jun-2024</t>
-        </is>
-      </c>
+      <c r="B21" s="6" t="n"/>
+      <c r="C21" s="6" t="n"/>
+      <c r="D21" s="1" t="n"/>
+      <c r="E21" s="1" t="n"/>
       <c r="F21" s="1" t="n"/>
       <c r="G21" s="1" t="n"/>
       <c r="H21" s="1" t="n"/>
@@ -7505,7 +7252,7 @@
       <c r="L21" s="1" t="n"/>
       <c r="M21" s="1" t="n"/>
       <c r="N21" s="1" t="n"/>
-      <c r="O21" s="9" t="n"/>
+      <c r="O21" s="1" t="n"/>
       <c r="P21" s="1" t="n"/>
       <c r="Q21" s="1" t="n"/>
       <c r="R21" s="1" t="n"/>
@@ -7700,26 +7447,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
-      <c r="B25" s="7" t="inlineStr">
-        <is>
-          <t>Task 6</t>
-        </is>
-      </c>
-      <c r="C25" s="7" t="inlineStr">
-        <is>
-          <t>Maintenance</t>
-        </is>
-      </c>
-      <c r="D25" s="8" t="inlineStr">
-        <is>
-          <t>19-Jun-2024</t>
-        </is>
-      </c>
-      <c r="E25" s="8" t="inlineStr">
-        <is>
-          <t>02-Jul-2024</t>
-        </is>
-      </c>
+      <c r="B25" s="6" t="n"/>
+      <c r="C25" s="6" t="n"/>
+      <c r="D25" s="1" t="n"/>
+      <c r="E25" s="1" t="n"/>
       <c r="F25" s="1" t="n"/>
       <c r="G25" s="1" t="n"/>
       <c r="H25" s="1" t="n"/>
@@ -7730,8 +7461,8 @@
       <c r="M25" s="1" t="n"/>
       <c r="N25" s="1" t="n"/>
       <c r="O25" s="1" t="n"/>
-      <c r="P25" s="9" t="n"/>
-      <c r="Q25" s="9" t="n"/>
+      <c r="P25" s="1" t="n"/>
+      <c r="Q25" s="1" t="n"/>
       <c r="R25" s="1" t="n"/>
       <c r="S25" s="1" t="n"/>
       <c r="T25" s="1" t="n"/>
@@ -11667,27 +11398,21 @@
       <c r="AX100" s="1" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="14">
+    <mergeCell ref="B5"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="B1:B3"/>
     <mergeCell ref="B9"/>
-    <mergeCell ref="C17"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B5"/>
-    <mergeCell ref="C13"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="B25"/>
-    <mergeCell ref="C5"/>
-    <mergeCell ref="B21"/>
-    <mergeCell ref="C25"/>
-    <mergeCell ref="F1:Q1"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="C9"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="B17"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="B13"/>
-    <mergeCell ref="C21"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="C13"/>
+    <mergeCell ref="F1:N1"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="C5"/>
+    <mergeCell ref="C9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -11720,9 +11445,6 @@
     <col width="20" customWidth="1" min="12" max="12"/>
     <col width="20" customWidth="1" min="13" max="13"/>
     <col width="20" customWidth="1" min="14" max="14"/>
-    <col width="20" customWidth="1" min="15" max="15"/>
-    <col width="20" customWidth="1" min="16" max="16"/>
-    <col width="20" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11962,22 +11684,22 @@
       </c>
       <c r="C5" s="7" t="inlineStr">
         <is>
-          <t>Requirements Gathering</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>10-Apr-2024</t>
+          <t>20-Apr-2024</t>
         </is>
       </c>
       <c r="E5" s="8" t="inlineStr">
         <is>
-          <t>23-Apr-2024</t>
+          <t>10-May-2024</t>
         </is>
       </c>
       <c r="F5" s="13" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Delayed</t>
         </is>
       </c>
       <c r="G5" s="1" t="n"/>
@@ -12034,17 +11756,17 @@
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>Initial Meeting</t>
+          <t>A</t>
         </is>
       </c>
       <c r="D6" s="11" t="inlineStr">
         <is>
-          <t>10-Apr-2024</t>
+          <t>20-Apr-2024</t>
         </is>
       </c>
       <c r="E6" s="11" t="inlineStr">
         <is>
-          <t>16-Apr-2024</t>
+          <t>26-Apr-2024</t>
         </is>
       </c>
       <c r="F6" s="11" t="inlineStr">
@@ -12106,17 +11828,17 @@
       </c>
       <c r="C7" s="10" t="inlineStr">
         <is>
-          <t>Stakeholder Interviews</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D7" s="11" t="inlineStr">
         <is>
-          <t>10-Apr-2024</t>
+          <t>27-Apr-2024</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr">
         <is>
-          <t>16-Apr-2024</t>
+          <t>03-May-2024</t>
         </is>
       </c>
       <c r="F7" s="11" t="inlineStr">
@@ -12178,17 +11900,17 @@
       </c>
       <c r="C8" s="10" t="inlineStr">
         <is>
-          <t>Requirements Documentation</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D8" s="11" t="inlineStr">
         <is>
-          <t>10-Apr-2024</t>
+          <t>04-May-2024</t>
         </is>
       </c>
       <c r="E8" s="11" t="inlineStr">
         <is>
-          <t>23-Apr-2024</t>
+          <t>10-May-2024</t>
         </is>
       </c>
       <c r="F8" s="11" t="inlineStr">
@@ -12250,20 +11972,20 @@
       </c>
       <c r="C9" s="7" t="inlineStr">
         <is>
-          <t>Design</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>24-Apr-2024</t>
+          <t>11-May-2024</t>
         </is>
       </c>
       <c r="E9" s="8" t="inlineStr">
         <is>
-          <t>07-May-2024</t>
+          <t>31-May-2024</t>
         </is>
       </c>
-      <c r="F9" s="13" t="inlineStr">
+      <c r="F9" s="14" t="inlineStr">
         <is>
           <t>At Risk</t>
         </is>
@@ -12322,17 +12044,17 @@
       </c>
       <c r="C10" s="10" t="inlineStr">
         <is>
-          <t>System Architecture Design</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D10" s="11" t="inlineStr">
         <is>
-          <t>24-Apr-2024</t>
+          <t>11-May-2024</t>
         </is>
       </c>
       <c r="E10" s="11" t="inlineStr">
         <is>
-          <t>30-Apr-2024</t>
+          <t>17-May-2024</t>
         </is>
       </c>
       <c r="F10" s="11" t="inlineStr">
@@ -12394,22 +12116,22 @@
       </c>
       <c r="C11" s="10" t="inlineStr">
         <is>
-          <t>Database Schema Design</t>
+          <t>E</t>
         </is>
       </c>
       <c r="D11" s="11" t="inlineStr">
         <is>
-          <t>24-Apr-2024</t>
+          <t>18-May-2024</t>
         </is>
       </c>
       <c r="E11" s="11" t="inlineStr">
         <is>
-          <t>07-May-2024</t>
+          <t>24-May-2024</t>
         </is>
       </c>
       <c r="F11" s="11" t="inlineStr">
         <is>
-          <t>Delayed</t>
+          <t>Ongoing</t>
         </is>
       </c>
       <c r="G11" s="1" t="n"/>
@@ -12466,22 +12188,22 @@
       </c>
       <c r="C12" s="10" t="inlineStr">
         <is>
-          <t>UI/UX Design</t>
+          <t>F</t>
         </is>
       </c>
       <c r="D12" s="11" t="inlineStr">
         <is>
-          <t>01-May-2024</t>
+          <t>25-May-2024</t>
         </is>
       </c>
       <c r="E12" s="11" t="inlineStr">
         <is>
-          <t>07-May-2024</t>
+          <t>31-May-2024</t>
         </is>
       </c>
       <c r="F12" s="11" t="inlineStr">
         <is>
-          <t>Delayed</t>
+          <t>Ongoing</t>
         </is>
       </c>
       <c r="G12" s="1" t="n"/>
@@ -12538,22 +12260,22 @@
       </c>
       <c r="C13" s="7" t="inlineStr">
         <is>
-          <t>Development</t>
+          <t>M3</t>
         </is>
       </c>
       <c r="D13" s="8" t="inlineStr">
         <is>
-          <t>08-May-2024</t>
+          <t>01-Jun-2024</t>
         </is>
       </c>
       <c r="E13" s="8" t="inlineStr">
         <is>
-          <t>28-May-2024</t>
+          <t>21-Jun-2024</t>
         </is>
       </c>
-      <c r="F13" s="13" t="inlineStr">
+      <c r="F13" s="15" t="inlineStr">
         <is>
-          <t>At Risk</t>
+          <t>Ongoing</t>
         </is>
       </c>
       <c r="G13" s="1" t="n"/>
@@ -12610,22 +12332,22 @@
       </c>
       <c r="C14" s="10" t="inlineStr">
         <is>
-          <t>Frontend Development</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D14" s="11" t="inlineStr">
         <is>
-          <t>08-May-2024</t>
+          <t>01-Jun-2024</t>
         </is>
       </c>
       <c r="E14" s="11" t="inlineStr">
         <is>
-          <t>14-May-2024</t>
+          <t>07-Jun-2024</t>
         </is>
       </c>
       <c r="F14" s="11" t="inlineStr">
         <is>
-          <t>Delayed</t>
+          <t>Ongoing</t>
         </is>
       </c>
       <c r="G14" s="1" t="n"/>
@@ -12682,17 +12404,17 @@
       </c>
       <c r="C15" s="10" t="inlineStr">
         <is>
-          <t>Backend Development</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D15" s="11" t="inlineStr">
         <is>
-          <t>15-May-2024</t>
+          <t>08-Jun-2024</t>
         </is>
       </c>
       <c r="E15" s="11" t="inlineStr">
         <is>
-          <t>28-May-2024</t>
+          <t>14-Jun-2024</t>
         </is>
       </c>
       <c r="F15" s="11" t="inlineStr">
@@ -12754,17 +12476,17 @@
       </c>
       <c r="C16" s="10" t="inlineStr">
         <is>
-          <t>Integration</t>
+          <t>I</t>
         </is>
       </c>
       <c r="D16" s="11" t="inlineStr">
         <is>
-          <t>22-May-2024</t>
+          <t>15-Jun-2024</t>
         </is>
       </c>
       <c r="E16" s="11" t="inlineStr">
         <is>
-          <t>28-May-2024</t>
+          <t>21-Jun-2024</t>
         </is>
       </c>
       <c r="F16" s="11" t="inlineStr">
@@ -12819,31 +12541,11 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
-      <c r="B17" s="7" t="inlineStr">
-        <is>
-          <t>Task 4</t>
-        </is>
-      </c>
-      <c r="C17" s="7" t="inlineStr">
-        <is>
-          <t>Testing</t>
-        </is>
-      </c>
-      <c r="D17" s="8" t="inlineStr">
-        <is>
-          <t>29-May-2024</t>
-        </is>
-      </c>
-      <c r="E17" s="8" t="inlineStr">
-        <is>
-          <t>11-Jun-2024</t>
-        </is>
-      </c>
-      <c r="F17" s="14" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
+      <c r="B17" s="6" t="n"/>
+      <c r="C17" s="6" t="n"/>
+      <c r="D17" s="1" t="n"/>
+      <c r="E17" s="1" t="n"/>
+      <c r="F17" s="1" t="n"/>
       <c r="G17" s="1" t="n"/>
       <c r="H17" s="1" t="n"/>
       <c r="I17" s="1" t="n"/>
@@ -12891,31 +12593,11 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
-      <c r="B18" s="10" t="inlineStr">
-        <is>
-          <t>4.1</t>
-        </is>
-      </c>
-      <c r="C18" s="10" t="inlineStr">
-        <is>
-          <t>Unit Testing</t>
-        </is>
-      </c>
-      <c r="D18" s="11" t="inlineStr">
-        <is>
-          <t>29-May-2024</t>
-        </is>
-      </c>
-      <c r="E18" s="11" t="inlineStr">
-        <is>
-          <t>04-Jun-2024</t>
-        </is>
-      </c>
-      <c r="F18" s="11" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
+      <c r="B18" s="6" t="n"/>
+      <c r="C18" s="6" t="n"/>
+      <c r="D18" s="1" t="n"/>
+      <c r="E18" s="1" t="n"/>
+      <c r="F18" s="1" t="n"/>
       <c r="G18" s="1" t="n"/>
       <c r="H18" s="1" t="n"/>
       <c r="I18" s="1" t="n"/>
@@ -12963,31 +12645,11 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
-      <c r="B19" s="10" t="inlineStr">
-        <is>
-          <t>4.2</t>
-        </is>
-      </c>
-      <c r="C19" s="10" t="inlineStr">
-        <is>
-          <t>Integration Testing</t>
-        </is>
-      </c>
-      <c r="D19" s="11" t="inlineStr">
-        <is>
-          <t>29-May-2024</t>
-        </is>
-      </c>
-      <c r="E19" s="11" t="inlineStr">
-        <is>
-          <t>11-Jun-2024</t>
-        </is>
-      </c>
-      <c r="F19" s="11" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
+      <c r="B19" s="6" t="n"/>
+      <c r="C19" s="6" t="n"/>
+      <c r="D19" s="1" t="n"/>
+      <c r="E19" s="1" t="n"/>
+      <c r="F19" s="1" t="n"/>
       <c r="G19" s="1" t="n"/>
       <c r="H19" s="1" t="n"/>
       <c r="I19" s="1" t="n"/>
@@ -13035,31 +12697,11 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
-      <c r="B20" s="10" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
-      </c>
-      <c r="C20" s="10" t="inlineStr">
-        <is>
-          <t>User Acceptance Testing</t>
-        </is>
-      </c>
-      <c r="D20" s="11" t="inlineStr">
-        <is>
-          <t>05-Jun-2024</t>
-        </is>
-      </c>
-      <c r="E20" s="11" t="inlineStr">
-        <is>
-          <t>11-Jun-2024</t>
-        </is>
-      </c>
-      <c r="F20" s="11" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
+      <c r="B20" s="6" t="n"/>
+      <c r="C20" s="6" t="n"/>
+      <c r="D20" s="1" t="n"/>
+      <c r="E20" s="1" t="n"/>
+      <c r="F20" s="1" t="n"/>
       <c r="G20" s="1" t="n"/>
       <c r="H20" s="1" t="n"/>
       <c r="I20" s="1" t="n"/>
@@ -13107,31 +12749,11 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
-      <c r="B21" s="7" t="inlineStr">
-        <is>
-          <t>Task 5</t>
-        </is>
-      </c>
-      <c r="C21" s="7" t="inlineStr">
-        <is>
-          <t>Deployment</t>
-        </is>
-      </c>
-      <c r="D21" s="8" t="inlineStr">
-        <is>
-          <t>12-Jun-2024</t>
-        </is>
-      </c>
-      <c r="E21" s="8" t="inlineStr">
-        <is>
-          <t>18-Jun-2024</t>
-        </is>
-      </c>
-      <c r="F21" s="14" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
+      <c r="B21" s="6" t="n"/>
+      <c r="C21" s="6" t="n"/>
+      <c r="D21" s="1" t="n"/>
+      <c r="E21" s="1" t="n"/>
+      <c r="F21" s="1" t="n"/>
       <c r="G21" s="1" t="n"/>
       <c r="H21" s="1" t="n"/>
       <c r="I21" s="1" t="n"/>
@@ -13179,31 +12801,11 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
-      <c r="B22" s="10" t="inlineStr">
-        <is>
-          <t>5.1</t>
-        </is>
-      </c>
-      <c r="C22" s="10" t="inlineStr">
-        <is>
-          <t>Prepare Deployment Environment</t>
-        </is>
-      </c>
-      <c r="D22" s="11" t="inlineStr">
-        <is>
-          <t>12-Jun-2024</t>
-        </is>
-      </c>
-      <c r="E22" s="11" t="inlineStr">
-        <is>
-          <t>18-Jun-2024</t>
-        </is>
-      </c>
-      <c r="F22" s="11" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
+      <c r="B22" s="6" t="n"/>
+      <c r="C22" s="6" t="n"/>
+      <c r="D22" s="1" t="n"/>
+      <c r="E22" s="1" t="n"/>
+      <c r="F22" s="1" t="n"/>
       <c r="G22" s="1" t="n"/>
       <c r="H22" s="1" t="n"/>
       <c r="I22" s="1" t="n"/>
@@ -13251,31 +12853,11 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
-      <c r="B23" s="10" t="inlineStr">
-        <is>
-          <t>5.2</t>
-        </is>
-      </c>
-      <c r="C23" s="10" t="inlineStr">
-        <is>
-          <t>Deployment</t>
-        </is>
-      </c>
-      <c r="D23" s="11" t="inlineStr">
-        <is>
-          <t>12-Jun-2024</t>
-        </is>
-      </c>
-      <c r="E23" s="11" t="inlineStr">
-        <is>
-          <t>18-Jun-2024</t>
-        </is>
-      </c>
-      <c r="F23" s="11" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
+      <c r="B23" s="6" t="n"/>
+      <c r="C23" s="6" t="n"/>
+      <c r="D23" s="1" t="n"/>
+      <c r="E23" s="1" t="n"/>
+      <c r="F23" s="1" t="n"/>
       <c r="G23" s="1" t="n"/>
       <c r="H23" s="1" t="n"/>
       <c r="I23" s="1" t="n"/>
@@ -13323,31 +12905,11 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
-      <c r="B24" s="10" t="inlineStr">
-        <is>
-          <t>5.3</t>
-        </is>
-      </c>
-      <c r="C24" s="10" t="inlineStr">
-        <is>
-          <t>Post-Deployment Verification</t>
-        </is>
-      </c>
-      <c r="D24" s="11" t="inlineStr">
-        <is>
-          <t>12-Jun-2024</t>
-        </is>
-      </c>
-      <c r="E24" s="11" t="inlineStr">
-        <is>
-          <t>18-Jun-2024</t>
-        </is>
-      </c>
-      <c r="F24" s="11" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
+      <c r="B24" s="6" t="n"/>
+      <c r="C24" s="6" t="n"/>
+      <c r="D24" s="1" t="n"/>
+      <c r="E24" s="1" t="n"/>
+      <c r="F24" s="1" t="n"/>
       <c r="G24" s="1" t="n"/>
       <c r="H24" s="1" t="n"/>
       <c r="I24" s="1" t="n"/>
@@ -13395,31 +12957,11 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
-      <c r="B25" s="7" t="inlineStr">
-        <is>
-          <t>Task 6</t>
-        </is>
-      </c>
-      <c r="C25" s="7" t="inlineStr">
-        <is>
-          <t>Maintenance</t>
-        </is>
-      </c>
-      <c r="D25" s="8" t="inlineStr">
-        <is>
-          <t>19-Jun-2024</t>
-        </is>
-      </c>
-      <c r="E25" s="8" t="inlineStr">
-        <is>
-          <t>02-Jul-2024</t>
-        </is>
-      </c>
-      <c r="F25" s="14" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
+      <c r="B25" s="6" t="n"/>
+      <c r="C25" s="6" t="n"/>
+      <c r="D25" s="1" t="n"/>
+      <c r="E25" s="1" t="n"/>
+      <c r="F25" s="1" t="n"/>
       <c r="G25" s="1" t="n"/>
       <c r="H25" s="1" t="n"/>
       <c r="I25" s="1" t="n"/>
@@ -13467,31 +13009,11 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
-      <c r="B26" s="10" t="inlineStr">
-        <is>
-          <t>6.1</t>
-        </is>
-      </c>
-      <c r="C26" s="10" t="inlineStr">
-        <is>
-          <t>Bug Fixing</t>
-        </is>
-      </c>
-      <c r="D26" s="11" t="inlineStr">
-        <is>
-          <t>19-Jun-2024</t>
-        </is>
-      </c>
-      <c r="E26" s="11" t="inlineStr">
-        <is>
-          <t>25-Jun-2024</t>
-        </is>
-      </c>
-      <c r="F26" s="11" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
+      <c r="B26" s="6" t="n"/>
+      <c r="C26" s="6" t="n"/>
+      <c r="D26" s="1" t="n"/>
+      <c r="E26" s="1" t="n"/>
+      <c r="F26" s="1" t="n"/>
       <c r="G26" s="1" t="n"/>
       <c r="H26" s="1" t="n"/>
       <c r="I26" s="1" t="n"/>
@@ -13539,31 +13061,11 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
-      <c r="B27" s="10" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
-      </c>
-      <c r="C27" s="10" t="inlineStr">
-        <is>
-          <t>Performance Tuning</t>
-        </is>
-      </c>
-      <c r="D27" s="11" t="inlineStr">
-        <is>
-          <t>19-Jun-2024</t>
-        </is>
-      </c>
-      <c r="E27" s="11" t="inlineStr">
-        <is>
-          <t>25-Jun-2024</t>
-        </is>
-      </c>
-      <c r="F27" s="11" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
+      <c r="B27" s="6" t="n"/>
+      <c r="C27" s="6" t="n"/>
+      <c r="D27" s="1" t="n"/>
+      <c r="E27" s="1" t="n"/>
+      <c r="F27" s="1" t="n"/>
       <c r="G27" s="1" t="n"/>
       <c r="H27" s="1" t="n"/>
       <c r="I27" s="1" t="n"/>
@@ -13611,31 +13113,11 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n"/>
-      <c r="B28" s="10" t="inlineStr">
-        <is>
-          <t>6.3</t>
-        </is>
-      </c>
-      <c r="C28" s="10" t="inlineStr">
-        <is>
-          <t>User Training</t>
-        </is>
-      </c>
-      <c r="D28" s="11" t="inlineStr">
-        <is>
-          <t>19-Jun-2024</t>
-        </is>
-      </c>
-      <c r="E28" s="11" t="inlineStr">
-        <is>
-          <t>02-Jul-2024</t>
-        </is>
-      </c>
-      <c r="F28" s="11" t="inlineStr">
-        <is>
-          <t>Ongoing</t>
-        </is>
-      </c>
+      <c r="B28" s="6" t="n"/>
+      <c r="C28" s="6" t="n"/>
+      <c r="D28" s="1" t="n"/>
+      <c r="E28" s="1" t="n"/>
+      <c r="F28" s="1" t="n"/>
       <c r="G28" s="1" t="n"/>
       <c r="H28" s="1" t="n"/>
       <c r="I28" s="1" t="n"/>
@@ -17426,7 +16908,7 @@
       <c r="AX100" s="1" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="11">
     <mergeCell ref="B5"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="B1:B3"/>
@@ -17434,18 +16916,12 @@
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="B13"/>
-    <mergeCell ref="B17"/>
-    <mergeCell ref="C17"/>
-    <mergeCell ref="B21"/>
-    <mergeCell ref="C21"/>
-    <mergeCell ref="B25"/>
     <mergeCell ref="C13"/>
-    <mergeCell ref="C25"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="C5"/>
     <mergeCell ref="C9"/>
   </mergeCells>
-  <conditionalFormatting sqref="F5:F28">
+  <conditionalFormatting sqref="F5:F16">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>"Ongoing"</formula>
     </cfRule>
@@ -17457,7 +16933,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F5 F6 F7 F8 F9 F10 F11 F12 F13 F14 F15 F16 F17 F18 F19 F20 F21 F22 F23 F24 F25 F26 F27 F28" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Invalid entry, please select from the list" type="list">
+    <dataValidation sqref="F5 F6 F7 F8 F9 F10 F11 F12 F13 F14 F15 F16" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Invalid entry, please select from the list" type="list">
       <formula1>"Ongoing,At Risk,Delayed"</formula1>
     </dataValidation>
   </dataValidations>

--- a/chronogram.xlsx
+++ b/chronogram.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Gantt Chart (weeks)" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Gantt Chart (months)" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Project Schedule" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="RACI Table" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -149,7 +150,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
     <dxf>
       <font>
         <b val="1"/>
@@ -183,6 +184,30 @@
         <patternFill patternType="solid">
           <fgColor rgb="00FF0000"/>
           <bgColor rgb="00FF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="00FFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00800080"/>
+          <bgColor rgb="00800080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="00FFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00008000"/>
+          <bgColor rgb="00008000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -17470,4 +17495,6699 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AX100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="13" max="13"/>
+    <col width="20" customWidth="1" min="14" max="14"/>
+    <col width="20" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="n"/>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Tasks</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Start Date</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>End Date</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Product Owner</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Business Analyst</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Financial Lead</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Design Director</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>CRM Lead</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>Head of CRM</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Senior Stakeholders* </t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Senior Stakeholders** </t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AGENCY </t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="n"/>
+      <c r="P1" s="1" t="n"/>
+      <c r="Q1" s="1" t="n"/>
+      <c r="R1" s="1" t="n"/>
+      <c r="S1" s="1" t="n"/>
+      <c r="T1" s="1" t="n"/>
+      <c r="U1" s="1" t="n"/>
+      <c r="V1" s="1" t="n"/>
+      <c r="W1" s="1" t="n"/>
+      <c r="X1" s="1" t="n"/>
+      <c r="Y1" s="1" t="n"/>
+      <c r="Z1" s="1" t="n"/>
+      <c r="AA1" s="1" t="n"/>
+      <c r="AB1" s="1" t="n"/>
+      <c r="AC1" s="1" t="n"/>
+      <c r="AD1" s="1" t="n"/>
+      <c r="AE1" s="1" t="n"/>
+      <c r="AF1" s="1" t="n"/>
+      <c r="AG1" s="1" t="n"/>
+      <c r="AH1" s="1" t="n"/>
+      <c r="AI1" s="1" t="n"/>
+      <c r="AJ1" s="1" t="n"/>
+      <c r="AK1" s="1" t="n"/>
+      <c r="AL1" s="1" t="n"/>
+      <c r="AM1" s="1" t="n"/>
+      <c r="AN1" s="1" t="n"/>
+      <c r="AO1" s="1" t="n"/>
+      <c r="AP1" s="1" t="n"/>
+      <c r="AQ1" s="1" t="n"/>
+      <c r="AR1" s="1" t="n"/>
+      <c r="AS1" s="1" t="n"/>
+      <c r="AT1" s="1" t="n"/>
+      <c r="AU1" s="1" t="n"/>
+      <c r="AV1" s="1" t="n"/>
+      <c r="AW1" s="1" t="n"/>
+      <c r="AX1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="4" t="n"/>
+      <c r="C2" s="4" t="n"/>
+      <c r="D2" s="4" t="n"/>
+      <c r="E2" s="4" t="n"/>
+      <c r="F2" s="4" t="n"/>
+      <c r="G2" s="4" t="n"/>
+      <c r="H2" s="4" t="n"/>
+      <c r="I2" s="4" t="n"/>
+      <c r="J2" s="4" t="n"/>
+      <c r="K2" s="4" t="n"/>
+      <c r="L2" s="4" t="n"/>
+      <c r="M2" s="4" t="n"/>
+      <c r="N2" s="4" t="n"/>
+      <c r="O2" s="1" t="n"/>
+      <c r="P2" s="1" t="n"/>
+      <c r="Q2" s="1" t="n"/>
+      <c r="R2" s="1" t="n"/>
+      <c r="S2" s="1" t="n"/>
+      <c r="T2" s="1" t="n"/>
+      <c r="U2" s="1" t="n"/>
+      <c r="V2" s="1" t="n"/>
+      <c r="W2" s="1" t="n"/>
+      <c r="X2" s="1" t="n"/>
+      <c r="Y2" s="1" t="n"/>
+      <c r="Z2" s="1" t="n"/>
+      <c r="AA2" s="1" t="n"/>
+      <c r="AB2" s="1" t="n"/>
+      <c r="AC2" s="1" t="n"/>
+      <c r="AD2" s="1" t="n"/>
+      <c r="AE2" s="1" t="n"/>
+      <c r="AF2" s="1" t="n"/>
+      <c r="AG2" s="1" t="n"/>
+      <c r="AH2" s="1" t="n"/>
+      <c r="AI2" s="1" t="n"/>
+      <c r="AJ2" s="1" t="n"/>
+      <c r="AK2" s="1" t="n"/>
+      <c r="AL2" s="1" t="n"/>
+      <c r="AM2" s="1" t="n"/>
+      <c r="AN2" s="1" t="n"/>
+      <c r="AO2" s="1" t="n"/>
+      <c r="AP2" s="1" t="n"/>
+      <c r="AQ2" s="1" t="n"/>
+      <c r="AR2" s="1" t="n"/>
+      <c r="AS2" s="1" t="n"/>
+      <c r="AT2" s="1" t="n"/>
+      <c r="AU2" s="1" t="n"/>
+      <c r="AV2" s="1" t="n"/>
+      <c r="AW2" s="1" t="n"/>
+      <c r="AX2" s="1" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="4" t="n"/>
+      <c r="F3" s="4" t="n"/>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="4" t="n"/>
+      <c r="I3" s="4" t="n"/>
+      <c r="J3" s="4" t="n"/>
+      <c r="K3" s="4" t="n"/>
+      <c r="L3" s="4" t="n"/>
+      <c r="M3" s="4" t="n"/>
+      <c r="N3" s="4" t="n"/>
+      <c r="O3" s="1" t="n"/>
+      <c r="P3" s="1" t="n"/>
+      <c r="Q3" s="1" t="n"/>
+      <c r="R3" s="1" t="n"/>
+      <c r="S3" s="1" t="n"/>
+      <c r="T3" s="1" t="n"/>
+      <c r="U3" s="1" t="n"/>
+      <c r="V3" s="1" t="n"/>
+      <c r="W3" s="1" t="n"/>
+      <c r="X3" s="1" t="n"/>
+      <c r="Y3" s="1" t="n"/>
+      <c r="Z3" s="1" t="n"/>
+      <c r="AA3" s="1" t="n"/>
+      <c r="AB3" s="1" t="n"/>
+      <c r="AC3" s="1" t="n"/>
+      <c r="AD3" s="1" t="n"/>
+      <c r="AE3" s="1" t="n"/>
+      <c r="AF3" s="1" t="n"/>
+      <c r="AG3" s="1" t="n"/>
+      <c r="AH3" s="1" t="n"/>
+      <c r="AI3" s="1" t="n"/>
+      <c r="AJ3" s="1" t="n"/>
+      <c r="AK3" s="1" t="n"/>
+      <c r="AL3" s="1" t="n"/>
+      <c r="AM3" s="1" t="n"/>
+      <c r="AN3" s="1" t="n"/>
+      <c r="AO3" s="1" t="n"/>
+      <c r="AP3" s="1" t="n"/>
+      <c r="AQ3" s="1" t="n"/>
+      <c r="AR3" s="1" t="n"/>
+      <c r="AS3" s="1" t="n"/>
+      <c r="AT3" s="1" t="n"/>
+      <c r="AU3" s="1" t="n"/>
+      <c r="AV3" s="1" t="n"/>
+      <c r="AW3" s="1" t="n"/>
+      <c r="AX3" s="1" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="6" t="n"/>
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="1" t="n"/>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="1" t="n"/>
+      <c r="G4" s="1" t="n"/>
+      <c r="H4" s="1" t="n"/>
+      <c r="I4" s="1" t="n"/>
+      <c r="J4" s="1" t="n"/>
+      <c r="K4" s="1" t="n"/>
+      <c r="L4" s="1" t="n"/>
+      <c r="M4" s="1" t="n"/>
+      <c r="N4" s="1" t="n"/>
+      <c r="O4" s="1" t="n"/>
+      <c r="P4" s="1" t="n"/>
+      <c r="Q4" s="1" t="n"/>
+      <c r="R4" s="1" t="n"/>
+      <c r="S4" s="1" t="n"/>
+      <c r="T4" s="1" t="n"/>
+      <c r="U4" s="1" t="n"/>
+      <c r="V4" s="1" t="n"/>
+      <c r="W4" s="1" t="n"/>
+      <c r="X4" s="1" t="n"/>
+      <c r="Y4" s="1" t="n"/>
+      <c r="Z4" s="1" t="n"/>
+      <c r="AA4" s="1" t="n"/>
+      <c r="AB4" s="1" t="n"/>
+      <c r="AC4" s="1" t="n"/>
+      <c r="AD4" s="1" t="n"/>
+      <c r="AE4" s="1" t="n"/>
+      <c r="AF4" s="1" t="n"/>
+      <c r="AG4" s="1" t="n"/>
+      <c r="AH4" s="1" t="n"/>
+      <c r="AI4" s="1" t="n"/>
+      <c r="AJ4" s="1" t="n"/>
+      <c r="AK4" s="1" t="n"/>
+      <c r="AL4" s="1" t="n"/>
+      <c r="AM4" s="1" t="n"/>
+      <c r="AN4" s="1" t="n"/>
+      <c r="AO4" s="1" t="n"/>
+      <c r="AP4" s="1" t="n"/>
+      <c r="AQ4" s="1" t="n"/>
+      <c r="AR4" s="1" t="n"/>
+      <c r="AS4" s="1" t="n"/>
+      <c r="AT4" s="1" t="n"/>
+      <c r="AU4" s="1" t="n"/>
+      <c r="AV4" s="1" t="n"/>
+      <c r="AW4" s="1" t="n"/>
+      <c r="AX4" s="1" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="7" t="inlineStr">
+        <is>
+          <t>Task 1</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="inlineStr">
+        <is>
+          <t>Requirements Gathering</t>
+        </is>
+      </c>
+      <c r="D5" s="8" t="inlineStr">
+        <is>
+          <t>10-Apr-2024</t>
+        </is>
+      </c>
+      <c r="E5" s="8" t="inlineStr">
+        <is>
+          <t>23-Apr-2024</t>
+        </is>
+      </c>
+      <c r="F5" s="11" t="inlineStr">
+        <is>
+          <t>Accountable</t>
+        </is>
+      </c>
+      <c r="G5" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="H5" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="I5" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="J5" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="K5" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="L5" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="M5" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="N5" s="11" t="inlineStr">
+        <is>
+          <t>Responsible</t>
+        </is>
+      </c>
+      <c r="O5" s="1" t="n"/>
+      <c r="P5" s="1" t="n"/>
+      <c r="Q5" s="1" t="n"/>
+      <c r="R5" s="1" t="n"/>
+      <c r="S5" s="1" t="n"/>
+      <c r="T5" s="1" t="n"/>
+      <c r="U5" s="1" t="n"/>
+      <c r="V5" s="1" t="n"/>
+      <c r="W5" s="1" t="n"/>
+      <c r="X5" s="1" t="n"/>
+      <c r="Y5" s="1" t="n"/>
+      <c r="Z5" s="1" t="n"/>
+      <c r="AA5" s="1" t="n"/>
+      <c r="AB5" s="1" t="n"/>
+      <c r="AC5" s="1" t="n"/>
+      <c r="AD5" s="1" t="n"/>
+      <c r="AE5" s="1" t="n"/>
+      <c r="AF5" s="1" t="n"/>
+      <c r="AG5" s="1" t="n"/>
+      <c r="AH5" s="1" t="n"/>
+      <c r="AI5" s="1" t="n"/>
+      <c r="AJ5" s="1" t="n"/>
+      <c r="AK5" s="1" t="n"/>
+      <c r="AL5" s="1" t="n"/>
+      <c r="AM5" s="1" t="n"/>
+      <c r="AN5" s="1" t="n"/>
+      <c r="AO5" s="1" t="n"/>
+      <c r="AP5" s="1" t="n"/>
+      <c r="AQ5" s="1" t="n"/>
+      <c r="AR5" s="1" t="n"/>
+      <c r="AS5" s="1" t="n"/>
+      <c r="AT5" s="1" t="n"/>
+      <c r="AU5" s="1" t="n"/>
+      <c r="AV5" s="1" t="n"/>
+      <c r="AW5" s="1" t="n"/>
+      <c r="AX5" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="10" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="C6" s="10" t="inlineStr">
+        <is>
+          <t>Initial Meeting</t>
+        </is>
+      </c>
+      <c r="D6" s="11" t="inlineStr">
+        <is>
+          <t>10-Apr-2024</t>
+        </is>
+      </c>
+      <c r="E6" s="11" t="inlineStr">
+        <is>
+          <t>16-Apr-2024</t>
+        </is>
+      </c>
+      <c r="F6" s="11" t="inlineStr">
+        <is>
+          <t>Accountable</t>
+        </is>
+      </c>
+      <c r="G6" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="H6" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="I6" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="J6" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="K6" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="L6" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="M6" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="N6" s="11" t="inlineStr">
+        <is>
+          <t>Responsible</t>
+        </is>
+      </c>
+      <c r="O6" s="1" t="n"/>
+      <c r="P6" s="1" t="n"/>
+      <c r="Q6" s="1" t="n"/>
+      <c r="R6" s="1" t="n"/>
+      <c r="S6" s="1" t="n"/>
+      <c r="T6" s="1" t="n"/>
+      <c r="U6" s="1" t="n"/>
+      <c r="V6" s="1" t="n"/>
+      <c r="W6" s="1" t="n"/>
+      <c r="X6" s="1" t="n"/>
+      <c r="Y6" s="1" t="n"/>
+      <c r="Z6" s="1" t="n"/>
+      <c r="AA6" s="1" t="n"/>
+      <c r="AB6" s="1" t="n"/>
+      <c r="AC6" s="1" t="n"/>
+      <c r="AD6" s="1" t="n"/>
+      <c r="AE6" s="1" t="n"/>
+      <c r="AF6" s="1" t="n"/>
+      <c r="AG6" s="1" t="n"/>
+      <c r="AH6" s="1" t="n"/>
+      <c r="AI6" s="1" t="n"/>
+      <c r="AJ6" s="1" t="n"/>
+      <c r="AK6" s="1" t="n"/>
+      <c r="AL6" s="1" t="n"/>
+      <c r="AM6" s="1" t="n"/>
+      <c r="AN6" s="1" t="n"/>
+      <c r="AO6" s="1" t="n"/>
+      <c r="AP6" s="1" t="n"/>
+      <c r="AQ6" s="1" t="n"/>
+      <c r="AR6" s="1" t="n"/>
+      <c r="AS6" s="1" t="n"/>
+      <c r="AT6" s="1" t="n"/>
+      <c r="AU6" s="1" t="n"/>
+      <c r="AV6" s="1" t="n"/>
+      <c r="AW6" s="1" t="n"/>
+      <c r="AX6" s="1" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="10" t="inlineStr">
+        <is>
+          <t>1.2</t>
+        </is>
+      </c>
+      <c r="C7" s="10" t="inlineStr">
+        <is>
+          <t>Stakeholder Interviews</t>
+        </is>
+      </c>
+      <c r="D7" s="11" t="inlineStr">
+        <is>
+          <t>10-Apr-2024</t>
+        </is>
+      </c>
+      <c r="E7" s="11" t="inlineStr">
+        <is>
+          <t>16-Apr-2024</t>
+        </is>
+      </c>
+      <c r="F7" s="11" t="inlineStr">
+        <is>
+          <t>Accountable</t>
+        </is>
+      </c>
+      <c r="G7" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="H7" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="I7" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="J7" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="K7" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="L7" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="M7" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="N7" s="11" t="inlineStr">
+        <is>
+          <t>Responsible</t>
+        </is>
+      </c>
+      <c r="O7" s="1" t="n"/>
+      <c r="P7" s="1" t="n"/>
+      <c r="Q7" s="1" t="n"/>
+      <c r="R7" s="1" t="n"/>
+      <c r="S7" s="1" t="n"/>
+      <c r="T7" s="1" t="n"/>
+      <c r="U7" s="1" t="n"/>
+      <c r="V7" s="1" t="n"/>
+      <c r="W7" s="1" t="n"/>
+      <c r="X7" s="1" t="n"/>
+      <c r="Y7" s="1" t="n"/>
+      <c r="Z7" s="1" t="n"/>
+      <c r="AA7" s="1" t="n"/>
+      <c r="AB7" s="1" t="n"/>
+      <c r="AC7" s="1" t="n"/>
+      <c r="AD7" s="1" t="n"/>
+      <c r="AE7" s="1" t="n"/>
+      <c r="AF7" s="1" t="n"/>
+      <c r="AG7" s="1" t="n"/>
+      <c r="AH7" s="1" t="n"/>
+      <c r="AI7" s="1" t="n"/>
+      <c r="AJ7" s="1" t="n"/>
+      <c r="AK7" s="1" t="n"/>
+      <c r="AL7" s="1" t="n"/>
+      <c r="AM7" s="1" t="n"/>
+      <c r="AN7" s="1" t="n"/>
+      <c r="AO7" s="1" t="n"/>
+      <c r="AP7" s="1" t="n"/>
+      <c r="AQ7" s="1" t="n"/>
+      <c r="AR7" s="1" t="n"/>
+      <c r="AS7" s="1" t="n"/>
+      <c r="AT7" s="1" t="n"/>
+      <c r="AU7" s="1" t="n"/>
+      <c r="AV7" s="1" t="n"/>
+      <c r="AW7" s="1" t="n"/>
+      <c r="AX7" s="1" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="10" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="C8" s="10" t="inlineStr">
+        <is>
+          <t>Requirements Documentation</t>
+        </is>
+      </c>
+      <c r="D8" s="11" t="inlineStr">
+        <is>
+          <t>10-Apr-2024</t>
+        </is>
+      </c>
+      <c r="E8" s="11" t="inlineStr">
+        <is>
+          <t>23-Apr-2024</t>
+        </is>
+      </c>
+      <c r="F8" s="11" t="inlineStr">
+        <is>
+          <t>Accountable</t>
+        </is>
+      </c>
+      <c r="G8" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="H8" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="I8" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="J8" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="K8" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="L8" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="M8" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="N8" s="11" t="inlineStr">
+        <is>
+          <t>Responsible</t>
+        </is>
+      </c>
+      <c r="O8" s="1" t="n"/>
+      <c r="P8" s="1" t="n"/>
+      <c r="Q8" s="1" t="n"/>
+      <c r="R8" s="1" t="n"/>
+      <c r="S8" s="1" t="n"/>
+      <c r="T8" s="1" t="n"/>
+      <c r="U8" s="1" t="n"/>
+      <c r="V8" s="1" t="n"/>
+      <c r="W8" s="1" t="n"/>
+      <c r="X8" s="1" t="n"/>
+      <c r="Y8" s="1" t="n"/>
+      <c r="Z8" s="1" t="n"/>
+      <c r="AA8" s="1" t="n"/>
+      <c r="AB8" s="1" t="n"/>
+      <c r="AC8" s="1" t="n"/>
+      <c r="AD8" s="1" t="n"/>
+      <c r="AE8" s="1" t="n"/>
+      <c r="AF8" s="1" t="n"/>
+      <c r="AG8" s="1" t="n"/>
+      <c r="AH8" s="1" t="n"/>
+      <c r="AI8" s="1" t="n"/>
+      <c r="AJ8" s="1" t="n"/>
+      <c r="AK8" s="1" t="n"/>
+      <c r="AL8" s="1" t="n"/>
+      <c r="AM8" s="1" t="n"/>
+      <c r="AN8" s="1" t="n"/>
+      <c r="AO8" s="1" t="n"/>
+      <c r="AP8" s="1" t="n"/>
+      <c r="AQ8" s="1" t="n"/>
+      <c r="AR8" s="1" t="n"/>
+      <c r="AS8" s="1" t="n"/>
+      <c r="AT8" s="1" t="n"/>
+      <c r="AU8" s="1" t="n"/>
+      <c r="AV8" s="1" t="n"/>
+      <c r="AW8" s="1" t="n"/>
+      <c r="AX8" s="1" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>Task 2</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr">
+        <is>
+          <t>Design</t>
+        </is>
+      </c>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>24-Apr-2024</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>07-May-2024</t>
+        </is>
+      </c>
+      <c r="F9" s="11" t="inlineStr">
+        <is>
+          <t>Accountable</t>
+        </is>
+      </c>
+      <c r="G9" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="H9" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="I9" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="J9" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="K9" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="L9" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="M9" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="N9" s="11" t="inlineStr">
+        <is>
+          <t>Responsible</t>
+        </is>
+      </c>
+      <c r="O9" s="1" t="n"/>
+      <c r="P9" s="1" t="n"/>
+      <c r="Q9" s="1" t="n"/>
+      <c r="R9" s="1" t="n"/>
+      <c r="S9" s="1" t="n"/>
+      <c r="T9" s="1" t="n"/>
+      <c r="U9" s="1" t="n"/>
+      <c r="V9" s="1" t="n"/>
+      <c r="W9" s="1" t="n"/>
+      <c r="X9" s="1" t="n"/>
+      <c r="Y9" s="1" t="n"/>
+      <c r="Z9" s="1" t="n"/>
+      <c r="AA9" s="1" t="n"/>
+      <c r="AB9" s="1" t="n"/>
+      <c r="AC9" s="1" t="n"/>
+      <c r="AD9" s="1" t="n"/>
+      <c r="AE9" s="1" t="n"/>
+      <c r="AF9" s="1" t="n"/>
+      <c r="AG9" s="1" t="n"/>
+      <c r="AH9" s="1" t="n"/>
+      <c r="AI9" s="1" t="n"/>
+      <c r="AJ9" s="1" t="n"/>
+      <c r="AK9" s="1" t="n"/>
+      <c r="AL9" s="1" t="n"/>
+      <c r="AM9" s="1" t="n"/>
+      <c r="AN9" s="1" t="n"/>
+      <c r="AO9" s="1" t="n"/>
+      <c r="AP9" s="1" t="n"/>
+      <c r="AQ9" s="1" t="n"/>
+      <c r="AR9" s="1" t="n"/>
+      <c r="AS9" s="1" t="n"/>
+      <c r="AT9" s="1" t="n"/>
+      <c r="AU9" s="1" t="n"/>
+      <c r="AV9" s="1" t="n"/>
+      <c r="AW9" s="1" t="n"/>
+      <c r="AX9" s="1" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="10" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="C10" s="10" t="inlineStr">
+        <is>
+          <t>System Architecture Design</t>
+        </is>
+      </c>
+      <c r="D10" s="11" t="inlineStr">
+        <is>
+          <t>24-Apr-2024</t>
+        </is>
+      </c>
+      <c r="E10" s="11" t="inlineStr">
+        <is>
+          <t>30-Apr-2024</t>
+        </is>
+      </c>
+      <c r="F10" s="11" t="inlineStr">
+        <is>
+          <t>Accountable</t>
+        </is>
+      </c>
+      <c r="G10" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="H10" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="I10" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="J10" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="K10" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="L10" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="M10" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="N10" s="11" t="inlineStr">
+        <is>
+          <t>Responsible</t>
+        </is>
+      </c>
+      <c r="O10" s="1" t="n"/>
+      <c r="P10" s="1" t="n"/>
+      <c r="Q10" s="1" t="n"/>
+      <c r="R10" s="1" t="n"/>
+      <c r="S10" s="1" t="n"/>
+      <c r="T10" s="1" t="n"/>
+      <c r="U10" s="1" t="n"/>
+      <c r="V10" s="1" t="n"/>
+      <c r="W10" s="1" t="n"/>
+      <c r="X10" s="1" t="n"/>
+      <c r="Y10" s="1" t="n"/>
+      <c r="Z10" s="1" t="n"/>
+      <c r="AA10" s="1" t="n"/>
+      <c r="AB10" s="1" t="n"/>
+      <c r="AC10" s="1" t="n"/>
+      <c r="AD10" s="1" t="n"/>
+      <c r="AE10" s="1" t="n"/>
+      <c r="AF10" s="1" t="n"/>
+      <c r="AG10" s="1" t="n"/>
+      <c r="AH10" s="1" t="n"/>
+      <c r="AI10" s="1" t="n"/>
+      <c r="AJ10" s="1" t="n"/>
+      <c r="AK10" s="1" t="n"/>
+      <c r="AL10" s="1" t="n"/>
+      <c r="AM10" s="1" t="n"/>
+      <c r="AN10" s="1" t="n"/>
+      <c r="AO10" s="1" t="n"/>
+      <c r="AP10" s="1" t="n"/>
+      <c r="AQ10" s="1" t="n"/>
+      <c r="AR10" s="1" t="n"/>
+      <c r="AS10" s="1" t="n"/>
+      <c r="AT10" s="1" t="n"/>
+      <c r="AU10" s="1" t="n"/>
+      <c r="AV10" s="1" t="n"/>
+      <c r="AW10" s="1" t="n"/>
+      <c r="AX10" s="1" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="10" t="inlineStr">
+        <is>
+          <t>2.2</t>
+        </is>
+      </c>
+      <c r="C11" s="10" t="inlineStr">
+        <is>
+          <t>Database Schema Design</t>
+        </is>
+      </c>
+      <c r="D11" s="11" t="inlineStr">
+        <is>
+          <t>24-Apr-2024</t>
+        </is>
+      </c>
+      <c r="E11" s="11" t="inlineStr">
+        <is>
+          <t>07-May-2024</t>
+        </is>
+      </c>
+      <c r="F11" s="11" t="inlineStr">
+        <is>
+          <t>Accountable</t>
+        </is>
+      </c>
+      <c r="G11" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="H11" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="I11" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="J11" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="K11" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="L11" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="M11" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="N11" s="11" t="inlineStr">
+        <is>
+          <t>Responsible</t>
+        </is>
+      </c>
+      <c r="O11" s="1" t="n"/>
+      <c r="P11" s="1" t="n"/>
+      <c r="Q11" s="1" t="n"/>
+      <c r="R11" s="1" t="n"/>
+      <c r="S11" s="1" t="n"/>
+      <c r="T11" s="1" t="n"/>
+      <c r="U11" s="1" t="n"/>
+      <c r="V11" s="1" t="n"/>
+      <c r="W11" s="1" t="n"/>
+      <c r="X11" s="1" t="n"/>
+      <c r="Y11" s="1" t="n"/>
+      <c r="Z11" s="1" t="n"/>
+      <c r="AA11" s="1" t="n"/>
+      <c r="AB11" s="1" t="n"/>
+      <c r="AC11" s="1" t="n"/>
+      <c r="AD11" s="1" t="n"/>
+      <c r="AE11" s="1" t="n"/>
+      <c r="AF11" s="1" t="n"/>
+      <c r="AG11" s="1" t="n"/>
+      <c r="AH11" s="1" t="n"/>
+      <c r="AI11" s="1" t="n"/>
+      <c r="AJ11" s="1" t="n"/>
+      <c r="AK11" s="1" t="n"/>
+      <c r="AL11" s="1" t="n"/>
+      <c r="AM11" s="1" t="n"/>
+      <c r="AN11" s="1" t="n"/>
+      <c r="AO11" s="1" t="n"/>
+      <c r="AP11" s="1" t="n"/>
+      <c r="AQ11" s="1" t="n"/>
+      <c r="AR11" s="1" t="n"/>
+      <c r="AS11" s="1" t="n"/>
+      <c r="AT11" s="1" t="n"/>
+      <c r="AU11" s="1" t="n"/>
+      <c r="AV11" s="1" t="n"/>
+      <c r="AW11" s="1" t="n"/>
+      <c r="AX11" s="1" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="10" t="inlineStr">
+        <is>
+          <t>2.3</t>
+        </is>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <t>UI/UX Design</t>
+        </is>
+      </c>
+      <c r="D12" s="11" t="inlineStr">
+        <is>
+          <t>01-May-2024</t>
+        </is>
+      </c>
+      <c r="E12" s="11" t="inlineStr">
+        <is>
+          <t>07-May-2024</t>
+        </is>
+      </c>
+      <c r="F12" s="11" t="inlineStr">
+        <is>
+          <t>Accountable</t>
+        </is>
+      </c>
+      <c r="G12" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="H12" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="I12" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="J12" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="K12" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="L12" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="M12" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="N12" s="11" t="inlineStr">
+        <is>
+          <t>Responsible</t>
+        </is>
+      </c>
+      <c r="O12" s="1" t="n"/>
+      <c r="P12" s="1" t="n"/>
+      <c r="Q12" s="1" t="n"/>
+      <c r="R12" s="1" t="n"/>
+      <c r="S12" s="1" t="n"/>
+      <c r="T12" s="1" t="n"/>
+      <c r="U12" s="1" t="n"/>
+      <c r="V12" s="1" t="n"/>
+      <c r="W12" s="1" t="n"/>
+      <c r="X12" s="1" t="n"/>
+      <c r="Y12" s="1" t="n"/>
+      <c r="Z12" s="1" t="n"/>
+      <c r="AA12" s="1" t="n"/>
+      <c r="AB12" s="1" t="n"/>
+      <c r="AC12" s="1" t="n"/>
+      <c r="AD12" s="1" t="n"/>
+      <c r="AE12" s="1" t="n"/>
+      <c r="AF12" s="1" t="n"/>
+      <c r="AG12" s="1" t="n"/>
+      <c r="AH12" s="1" t="n"/>
+      <c r="AI12" s="1" t="n"/>
+      <c r="AJ12" s="1" t="n"/>
+      <c r="AK12" s="1" t="n"/>
+      <c r="AL12" s="1" t="n"/>
+      <c r="AM12" s="1" t="n"/>
+      <c r="AN12" s="1" t="n"/>
+      <c r="AO12" s="1" t="n"/>
+      <c r="AP12" s="1" t="n"/>
+      <c r="AQ12" s="1" t="n"/>
+      <c r="AR12" s="1" t="n"/>
+      <c r="AS12" s="1" t="n"/>
+      <c r="AT12" s="1" t="n"/>
+      <c r="AU12" s="1" t="n"/>
+      <c r="AV12" s="1" t="n"/>
+      <c r="AW12" s="1" t="n"/>
+      <c r="AX12" s="1" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>Task 3</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="inlineStr">
+        <is>
+          <t>Development</t>
+        </is>
+      </c>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>08-May-2024</t>
+        </is>
+      </c>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>28-May-2024</t>
+        </is>
+      </c>
+      <c r="F13" s="11" t="inlineStr">
+        <is>
+          <t>Accountable</t>
+        </is>
+      </c>
+      <c r="G13" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="H13" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="I13" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="J13" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="K13" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="L13" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="M13" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="N13" s="11" t="inlineStr">
+        <is>
+          <t>Responsible</t>
+        </is>
+      </c>
+      <c r="O13" s="1" t="n"/>
+      <c r="P13" s="1" t="n"/>
+      <c r="Q13" s="1" t="n"/>
+      <c r="R13" s="1" t="n"/>
+      <c r="S13" s="1" t="n"/>
+      <c r="T13" s="1" t="n"/>
+      <c r="U13" s="1" t="n"/>
+      <c r="V13" s="1" t="n"/>
+      <c r="W13" s="1" t="n"/>
+      <c r="X13" s="1" t="n"/>
+      <c r="Y13" s="1" t="n"/>
+      <c r="Z13" s="1" t="n"/>
+      <c r="AA13" s="1" t="n"/>
+      <c r="AB13" s="1" t="n"/>
+      <c r="AC13" s="1" t="n"/>
+      <c r="AD13" s="1" t="n"/>
+      <c r="AE13" s="1" t="n"/>
+      <c r="AF13" s="1" t="n"/>
+      <c r="AG13" s="1" t="n"/>
+      <c r="AH13" s="1" t="n"/>
+      <c r="AI13" s="1" t="n"/>
+      <c r="AJ13" s="1" t="n"/>
+      <c r="AK13" s="1" t="n"/>
+      <c r="AL13" s="1" t="n"/>
+      <c r="AM13" s="1" t="n"/>
+      <c r="AN13" s="1" t="n"/>
+      <c r="AO13" s="1" t="n"/>
+      <c r="AP13" s="1" t="n"/>
+      <c r="AQ13" s="1" t="n"/>
+      <c r="AR13" s="1" t="n"/>
+      <c r="AS13" s="1" t="n"/>
+      <c r="AT13" s="1" t="n"/>
+      <c r="AU13" s="1" t="n"/>
+      <c r="AV13" s="1" t="n"/>
+      <c r="AW13" s="1" t="n"/>
+      <c r="AX13" s="1" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="10" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>Frontend Development</t>
+        </is>
+      </c>
+      <c r="D14" s="11" t="inlineStr">
+        <is>
+          <t>08-May-2024</t>
+        </is>
+      </c>
+      <c r="E14" s="11" t="inlineStr">
+        <is>
+          <t>14-May-2024</t>
+        </is>
+      </c>
+      <c r="F14" s="11" t="inlineStr">
+        <is>
+          <t>Accountable</t>
+        </is>
+      </c>
+      <c r="G14" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="H14" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="I14" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="J14" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="K14" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="L14" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="M14" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="N14" s="11" t="inlineStr">
+        <is>
+          <t>Responsible</t>
+        </is>
+      </c>
+      <c r="O14" s="1" t="n"/>
+      <c r="P14" s="1" t="n"/>
+      <c r="Q14" s="1" t="n"/>
+      <c r="R14" s="1" t="n"/>
+      <c r="S14" s="1" t="n"/>
+      <c r="T14" s="1" t="n"/>
+      <c r="U14" s="1" t="n"/>
+      <c r="V14" s="1" t="n"/>
+      <c r="W14" s="1" t="n"/>
+      <c r="X14" s="1" t="n"/>
+      <c r="Y14" s="1" t="n"/>
+      <c r="Z14" s="1" t="n"/>
+      <c r="AA14" s="1" t="n"/>
+      <c r="AB14" s="1" t="n"/>
+      <c r="AC14" s="1" t="n"/>
+      <c r="AD14" s="1" t="n"/>
+      <c r="AE14" s="1" t="n"/>
+      <c r="AF14" s="1" t="n"/>
+      <c r="AG14" s="1" t="n"/>
+      <c r="AH14" s="1" t="n"/>
+      <c r="AI14" s="1" t="n"/>
+      <c r="AJ14" s="1" t="n"/>
+      <c r="AK14" s="1" t="n"/>
+      <c r="AL14" s="1" t="n"/>
+      <c r="AM14" s="1" t="n"/>
+      <c r="AN14" s="1" t="n"/>
+      <c r="AO14" s="1" t="n"/>
+      <c r="AP14" s="1" t="n"/>
+      <c r="AQ14" s="1" t="n"/>
+      <c r="AR14" s="1" t="n"/>
+      <c r="AS14" s="1" t="n"/>
+      <c r="AT14" s="1" t="n"/>
+      <c r="AU14" s="1" t="n"/>
+      <c r="AV14" s="1" t="n"/>
+      <c r="AW14" s="1" t="n"/>
+      <c r="AX14" s="1" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="10" t="inlineStr">
+        <is>
+          <t>3.2</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="inlineStr">
+        <is>
+          <t>Backend Development</t>
+        </is>
+      </c>
+      <c r="D15" s="11" t="inlineStr">
+        <is>
+          <t>15-May-2024</t>
+        </is>
+      </c>
+      <c r="E15" s="11" t="inlineStr">
+        <is>
+          <t>28-May-2024</t>
+        </is>
+      </c>
+      <c r="F15" s="11" t="inlineStr">
+        <is>
+          <t>Accountable</t>
+        </is>
+      </c>
+      <c r="G15" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="H15" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="I15" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="J15" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="K15" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="L15" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="M15" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="N15" s="11" t="inlineStr">
+        <is>
+          <t>Responsible</t>
+        </is>
+      </c>
+      <c r="O15" s="1" t="n"/>
+      <c r="P15" s="1" t="n"/>
+      <c r="Q15" s="1" t="n"/>
+      <c r="R15" s="1" t="n"/>
+      <c r="S15" s="1" t="n"/>
+      <c r="T15" s="1" t="n"/>
+      <c r="U15" s="1" t="n"/>
+      <c r="V15" s="1" t="n"/>
+      <c r="W15" s="1" t="n"/>
+      <c r="X15" s="1" t="n"/>
+      <c r="Y15" s="1" t="n"/>
+      <c r="Z15" s="1" t="n"/>
+      <c r="AA15" s="1" t="n"/>
+      <c r="AB15" s="1" t="n"/>
+      <c r="AC15" s="1" t="n"/>
+      <c r="AD15" s="1" t="n"/>
+      <c r="AE15" s="1" t="n"/>
+      <c r="AF15" s="1" t="n"/>
+      <c r="AG15" s="1" t="n"/>
+      <c r="AH15" s="1" t="n"/>
+      <c r="AI15" s="1" t="n"/>
+      <c r="AJ15" s="1" t="n"/>
+      <c r="AK15" s="1" t="n"/>
+      <c r="AL15" s="1" t="n"/>
+      <c r="AM15" s="1" t="n"/>
+      <c r="AN15" s="1" t="n"/>
+      <c r="AO15" s="1" t="n"/>
+      <c r="AP15" s="1" t="n"/>
+      <c r="AQ15" s="1" t="n"/>
+      <c r="AR15" s="1" t="n"/>
+      <c r="AS15" s="1" t="n"/>
+      <c r="AT15" s="1" t="n"/>
+      <c r="AU15" s="1" t="n"/>
+      <c r="AV15" s="1" t="n"/>
+      <c r="AW15" s="1" t="n"/>
+      <c r="AX15" s="1" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="10" t="inlineStr">
+        <is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="C16" s="10" t="inlineStr">
+        <is>
+          <t>Integration</t>
+        </is>
+      </c>
+      <c r="D16" s="11" t="inlineStr">
+        <is>
+          <t>22-May-2024</t>
+        </is>
+      </c>
+      <c r="E16" s="11" t="inlineStr">
+        <is>
+          <t>28-May-2024</t>
+        </is>
+      </c>
+      <c r="F16" s="11" t="inlineStr">
+        <is>
+          <t>Accountable</t>
+        </is>
+      </c>
+      <c r="G16" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="H16" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="I16" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="J16" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="K16" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="L16" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="M16" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="N16" s="11" t="inlineStr">
+        <is>
+          <t>Responsible</t>
+        </is>
+      </c>
+      <c r="O16" s="1" t="n"/>
+      <c r="P16" s="1" t="n"/>
+      <c r="Q16" s="1" t="n"/>
+      <c r="R16" s="1" t="n"/>
+      <c r="S16" s="1" t="n"/>
+      <c r="T16" s="1" t="n"/>
+      <c r="U16" s="1" t="n"/>
+      <c r="V16" s="1" t="n"/>
+      <c r="W16" s="1" t="n"/>
+      <c r="X16" s="1" t="n"/>
+      <c r="Y16" s="1" t="n"/>
+      <c r="Z16" s="1" t="n"/>
+      <c r="AA16" s="1" t="n"/>
+      <c r="AB16" s="1" t="n"/>
+      <c r="AC16" s="1" t="n"/>
+      <c r="AD16" s="1" t="n"/>
+      <c r="AE16" s="1" t="n"/>
+      <c r="AF16" s="1" t="n"/>
+      <c r="AG16" s="1" t="n"/>
+      <c r="AH16" s="1" t="n"/>
+      <c r="AI16" s="1" t="n"/>
+      <c r="AJ16" s="1" t="n"/>
+      <c r="AK16" s="1" t="n"/>
+      <c r="AL16" s="1" t="n"/>
+      <c r="AM16" s="1" t="n"/>
+      <c r="AN16" s="1" t="n"/>
+      <c r="AO16" s="1" t="n"/>
+      <c r="AP16" s="1" t="n"/>
+      <c r="AQ16" s="1" t="n"/>
+      <c r="AR16" s="1" t="n"/>
+      <c r="AS16" s="1" t="n"/>
+      <c r="AT16" s="1" t="n"/>
+      <c r="AU16" s="1" t="n"/>
+      <c r="AV16" s="1" t="n"/>
+      <c r="AW16" s="1" t="n"/>
+      <c r="AX16" s="1" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>Task 4</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr">
+        <is>
+          <t>Testing</t>
+        </is>
+      </c>
+      <c r="D17" s="8" t="inlineStr">
+        <is>
+          <t>29-May-2024</t>
+        </is>
+      </c>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>11-Jun-2024</t>
+        </is>
+      </c>
+      <c r="F17" s="11" t="inlineStr">
+        <is>
+          <t>Accountable</t>
+        </is>
+      </c>
+      <c r="G17" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="H17" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="I17" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="J17" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="K17" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="L17" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="M17" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="N17" s="11" t="inlineStr">
+        <is>
+          <t>Responsible</t>
+        </is>
+      </c>
+      <c r="O17" s="1" t="n"/>
+      <c r="P17" s="1" t="n"/>
+      <c r="Q17" s="1" t="n"/>
+      <c r="R17" s="1" t="n"/>
+      <c r="S17" s="1" t="n"/>
+      <c r="T17" s="1" t="n"/>
+      <c r="U17" s="1" t="n"/>
+      <c r="V17" s="1" t="n"/>
+      <c r="W17" s="1" t="n"/>
+      <c r="X17" s="1" t="n"/>
+      <c r="Y17" s="1" t="n"/>
+      <c r="Z17" s="1" t="n"/>
+      <c r="AA17" s="1" t="n"/>
+      <c r="AB17" s="1" t="n"/>
+      <c r="AC17" s="1" t="n"/>
+      <c r="AD17" s="1" t="n"/>
+      <c r="AE17" s="1" t="n"/>
+      <c r="AF17" s="1" t="n"/>
+      <c r="AG17" s="1" t="n"/>
+      <c r="AH17" s="1" t="n"/>
+      <c r="AI17" s="1" t="n"/>
+      <c r="AJ17" s="1" t="n"/>
+      <c r="AK17" s="1" t="n"/>
+      <c r="AL17" s="1" t="n"/>
+      <c r="AM17" s="1" t="n"/>
+      <c r="AN17" s="1" t="n"/>
+      <c r="AO17" s="1" t="n"/>
+      <c r="AP17" s="1" t="n"/>
+      <c r="AQ17" s="1" t="n"/>
+      <c r="AR17" s="1" t="n"/>
+      <c r="AS17" s="1" t="n"/>
+      <c r="AT17" s="1" t="n"/>
+      <c r="AU17" s="1" t="n"/>
+      <c r="AV17" s="1" t="n"/>
+      <c r="AW17" s="1" t="n"/>
+      <c r="AX17" s="1" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="10" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="C18" s="10" t="inlineStr">
+        <is>
+          <t>Unit Testing</t>
+        </is>
+      </c>
+      <c r="D18" s="11" t="inlineStr">
+        <is>
+          <t>29-May-2024</t>
+        </is>
+      </c>
+      <c r="E18" s="11" t="inlineStr">
+        <is>
+          <t>04-Jun-2024</t>
+        </is>
+      </c>
+      <c r="F18" s="11" t="inlineStr">
+        <is>
+          <t>Accountable</t>
+        </is>
+      </c>
+      <c r="G18" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="H18" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="I18" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="J18" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="K18" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="L18" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="M18" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="N18" s="11" t="inlineStr">
+        <is>
+          <t>Responsible</t>
+        </is>
+      </c>
+      <c r="O18" s="1" t="n"/>
+      <c r="P18" s="1" t="n"/>
+      <c r="Q18" s="1" t="n"/>
+      <c r="R18" s="1" t="n"/>
+      <c r="S18" s="1" t="n"/>
+      <c r="T18" s="1" t="n"/>
+      <c r="U18" s="1" t="n"/>
+      <c r="V18" s="1" t="n"/>
+      <c r="W18" s="1" t="n"/>
+      <c r="X18" s="1" t="n"/>
+      <c r="Y18" s="1" t="n"/>
+      <c r="Z18" s="1" t="n"/>
+      <c r="AA18" s="1" t="n"/>
+      <c r="AB18" s="1" t="n"/>
+      <c r="AC18" s="1" t="n"/>
+      <c r="AD18" s="1" t="n"/>
+      <c r="AE18" s="1" t="n"/>
+      <c r="AF18" s="1" t="n"/>
+      <c r="AG18" s="1" t="n"/>
+      <c r="AH18" s="1" t="n"/>
+      <c r="AI18" s="1" t="n"/>
+      <c r="AJ18" s="1" t="n"/>
+      <c r="AK18" s="1" t="n"/>
+      <c r="AL18" s="1" t="n"/>
+      <c r="AM18" s="1" t="n"/>
+      <c r="AN18" s="1" t="n"/>
+      <c r="AO18" s="1" t="n"/>
+      <c r="AP18" s="1" t="n"/>
+      <c r="AQ18" s="1" t="n"/>
+      <c r="AR18" s="1" t="n"/>
+      <c r="AS18" s="1" t="n"/>
+      <c r="AT18" s="1" t="n"/>
+      <c r="AU18" s="1" t="n"/>
+      <c r="AV18" s="1" t="n"/>
+      <c r="AW18" s="1" t="n"/>
+      <c r="AX18" s="1" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="10" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="C19" s="10" t="inlineStr">
+        <is>
+          <t>Integration Testing</t>
+        </is>
+      </c>
+      <c r="D19" s="11" t="inlineStr">
+        <is>
+          <t>29-May-2024</t>
+        </is>
+      </c>
+      <c r="E19" s="11" t="inlineStr">
+        <is>
+          <t>11-Jun-2024</t>
+        </is>
+      </c>
+      <c r="F19" s="11" t="inlineStr">
+        <is>
+          <t>Accountable</t>
+        </is>
+      </c>
+      <c r="G19" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="H19" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="I19" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="J19" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="K19" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="L19" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="M19" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="N19" s="11" t="inlineStr">
+        <is>
+          <t>Responsible</t>
+        </is>
+      </c>
+      <c r="O19" s="1" t="n"/>
+      <c r="P19" s="1" t="n"/>
+      <c r="Q19" s="1" t="n"/>
+      <c r="R19" s="1" t="n"/>
+      <c r="S19" s="1" t="n"/>
+      <c r="T19" s="1" t="n"/>
+      <c r="U19" s="1" t="n"/>
+      <c r="V19" s="1" t="n"/>
+      <c r="W19" s="1" t="n"/>
+      <c r="X19" s="1" t="n"/>
+      <c r="Y19" s="1" t="n"/>
+      <c r="Z19" s="1" t="n"/>
+      <c r="AA19" s="1" t="n"/>
+      <c r="AB19" s="1" t="n"/>
+      <c r="AC19" s="1" t="n"/>
+      <c r="AD19" s="1" t="n"/>
+      <c r="AE19" s="1" t="n"/>
+      <c r="AF19" s="1" t="n"/>
+      <c r="AG19" s="1" t="n"/>
+      <c r="AH19" s="1" t="n"/>
+      <c r="AI19" s="1" t="n"/>
+      <c r="AJ19" s="1" t="n"/>
+      <c r="AK19" s="1" t="n"/>
+      <c r="AL19" s="1" t="n"/>
+      <c r="AM19" s="1" t="n"/>
+      <c r="AN19" s="1" t="n"/>
+      <c r="AO19" s="1" t="n"/>
+      <c r="AP19" s="1" t="n"/>
+      <c r="AQ19" s="1" t="n"/>
+      <c r="AR19" s="1" t="n"/>
+      <c r="AS19" s="1" t="n"/>
+      <c r="AT19" s="1" t="n"/>
+      <c r="AU19" s="1" t="n"/>
+      <c r="AV19" s="1" t="n"/>
+      <c r="AW19" s="1" t="n"/>
+      <c r="AX19" s="1" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="10" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="C20" s="10" t="inlineStr">
+        <is>
+          <t>User Acceptance Testing</t>
+        </is>
+      </c>
+      <c r="D20" s="11" t="inlineStr">
+        <is>
+          <t>05-Jun-2024</t>
+        </is>
+      </c>
+      <c r="E20" s="11" t="inlineStr">
+        <is>
+          <t>11-Jun-2024</t>
+        </is>
+      </c>
+      <c r="F20" s="11" t="inlineStr">
+        <is>
+          <t>Accountable</t>
+        </is>
+      </c>
+      <c r="G20" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="H20" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="I20" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="J20" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="K20" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="L20" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="M20" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="N20" s="11" t="inlineStr">
+        <is>
+          <t>Responsible</t>
+        </is>
+      </c>
+      <c r="O20" s="1" t="n"/>
+      <c r="P20" s="1" t="n"/>
+      <c r="Q20" s="1" t="n"/>
+      <c r="R20" s="1" t="n"/>
+      <c r="S20" s="1" t="n"/>
+      <c r="T20" s="1" t="n"/>
+      <c r="U20" s="1" t="n"/>
+      <c r="V20" s="1" t="n"/>
+      <c r="W20" s="1" t="n"/>
+      <c r="X20" s="1" t="n"/>
+      <c r="Y20" s="1" t="n"/>
+      <c r="Z20" s="1" t="n"/>
+      <c r="AA20" s="1" t="n"/>
+      <c r="AB20" s="1" t="n"/>
+      <c r="AC20" s="1" t="n"/>
+      <c r="AD20" s="1" t="n"/>
+      <c r="AE20" s="1" t="n"/>
+      <c r="AF20" s="1" t="n"/>
+      <c r="AG20" s="1" t="n"/>
+      <c r="AH20" s="1" t="n"/>
+      <c r="AI20" s="1" t="n"/>
+      <c r="AJ20" s="1" t="n"/>
+      <c r="AK20" s="1" t="n"/>
+      <c r="AL20" s="1" t="n"/>
+      <c r="AM20" s="1" t="n"/>
+      <c r="AN20" s="1" t="n"/>
+      <c r="AO20" s="1" t="n"/>
+      <c r="AP20" s="1" t="n"/>
+      <c r="AQ20" s="1" t="n"/>
+      <c r="AR20" s="1" t="n"/>
+      <c r="AS20" s="1" t="n"/>
+      <c r="AT20" s="1" t="n"/>
+      <c r="AU20" s="1" t="n"/>
+      <c r="AV20" s="1" t="n"/>
+      <c r="AW20" s="1" t="n"/>
+      <c r="AX20" s="1" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>Task 5</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="inlineStr">
+        <is>
+          <t>Deployment</t>
+        </is>
+      </c>
+      <c r="D21" s="8" t="inlineStr">
+        <is>
+          <t>12-Jun-2024</t>
+        </is>
+      </c>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>18-Jun-2024</t>
+        </is>
+      </c>
+      <c r="F21" s="11" t="inlineStr">
+        <is>
+          <t>Accountable</t>
+        </is>
+      </c>
+      <c r="G21" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="H21" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="I21" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="J21" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="K21" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="L21" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="M21" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="N21" s="11" t="inlineStr">
+        <is>
+          <t>Responsible</t>
+        </is>
+      </c>
+      <c r="O21" s="1" t="n"/>
+      <c r="P21" s="1" t="n"/>
+      <c r="Q21" s="1" t="n"/>
+      <c r="R21" s="1" t="n"/>
+      <c r="S21" s="1" t="n"/>
+      <c r="T21" s="1" t="n"/>
+      <c r="U21" s="1" t="n"/>
+      <c r="V21" s="1" t="n"/>
+      <c r="W21" s="1" t="n"/>
+      <c r="X21" s="1" t="n"/>
+      <c r="Y21" s="1" t="n"/>
+      <c r="Z21" s="1" t="n"/>
+      <c r="AA21" s="1" t="n"/>
+      <c r="AB21" s="1" t="n"/>
+      <c r="AC21" s="1" t="n"/>
+      <c r="AD21" s="1" t="n"/>
+      <c r="AE21" s="1" t="n"/>
+      <c r="AF21" s="1" t="n"/>
+      <c r="AG21" s="1" t="n"/>
+      <c r="AH21" s="1" t="n"/>
+      <c r="AI21" s="1" t="n"/>
+      <c r="AJ21" s="1" t="n"/>
+      <c r="AK21" s="1" t="n"/>
+      <c r="AL21" s="1" t="n"/>
+      <c r="AM21" s="1" t="n"/>
+      <c r="AN21" s="1" t="n"/>
+      <c r="AO21" s="1" t="n"/>
+      <c r="AP21" s="1" t="n"/>
+      <c r="AQ21" s="1" t="n"/>
+      <c r="AR21" s="1" t="n"/>
+      <c r="AS21" s="1" t="n"/>
+      <c r="AT21" s="1" t="n"/>
+      <c r="AU21" s="1" t="n"/>
+      <c r="AV21" s="1" t="n"/>
+      <c r="AW21" s="1" t="n"/>
+      <c r="AX21" s="1" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="10" t="inlineStr">
+        <is>
+          <t>5.1</t>
+        </is>
+      </c>
+      <c r="C22" s="10" t="inlineStr">
+        <is>
+          <t>Prepare Deployment Environment</t>
+        </is>
+      </c>
+      <c r="D22" s="11" t="inlineStr">
+        <is>
+          <t>12-Jun-2024</t>
+        </is>
+      </c>
+      <c r="E22" s="11" t="inlineStr">
+        <is>
+          <t>18-Jun-2024</t>
+        </is>
+      </c>
+      <c r="F22" s="11" t="inlineStr">
+        <is>
+          <t>Accountable</t>
+        </is>
+      </c>
+      <c r="G22" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="H22" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="I22" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="J22" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="K22" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="L22" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="M22" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="N22" s="11" t="inlineStr">
+        <is>
+          <t>Responsible</t>
+        </is>
+      </c>
+      <c r="O22" s="1" t="n"/>
+      <c r="P22" s="1" t="n"/>
+      <c r="Q22" s="1" t="n"/>
+      <c r="R22" s="1" t="n"/>
+      <c r="S22" s="1" t="n"/>
+      <c r="T22" s="1" t="n"/>
+      <c r="U22" s="1" t="n"/>
+      <c r="V22" s="1" t="n"/>
+      <c r="W22" s="1" t="n"/>
+      <c r="X22" s="1" t="n"/>
+      <c r="Y22" s="1" t="n"/>
+      <c r="Z22" s="1" t="n"/>
+      <c r="AA22" s="1" t="n"/>
+      <c r="AB22" s="1" t="n"/>
+      <c r="AC22" s="1" t="n"/>
+      <c r="AD22" s="1" t="n"/>
+      <c r="AE22" s="1" t="n"/>
+      <c r="AF22" s="1" t="n"/>
+      <c r="AG22" s="1" t="n"/>
+      <c r="AH22" s="1" t="n"/>
+      <c r="AI22" s="1" t="n"/>
+      <c r="AJ22" s="1" t="n"/>
+      <c r="AK22" s="1" t="n"/>
+      <c r="AL22" s="1" t="n"/>
+      <c r="AM22" s="1" t="n"/>
+      <c r="AN22" s="1" t="n"/>
+      <c r="AO22" s="1" t="n"/>
+      <c r="AP22" s="1" t="n"/>
+      <c r="AQ22" s="1" t="n"/>
+      <c r="AR22" s="1" t="n"/>
+      <c r="AS22" s="1" t="n"/>
+      <c r="AT22" s="1" t="n"/>
+      <c r="AU22" s="1" t="n"/>
+      <c r="AV22" s="1" t="n"/>
+      <c r="AW22" s="1" t="n"/>
+      <c r="AX22" s="1" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="10" t="inlineStr">
+        <is>
+          <t>5.2</t>
+        </is>
+      </c>
+      <c r="C23" s="10" t="inlineStr">
+        <is>
+          <t>Deployment</t>
+        </is>
+      </c>
+      <c r="D23" s="11" t="inlineStr">
+        <is>
+          <t>12-Jun-2024</t>
+        </is>
+      </c>
+      <c r="E23" s="11" t="inlineStr">
+        <is>
+          <t>18-Jun-2024</t>
+        </is>
+      </c>
+      <c r="F23" s="11" t="inlineStr">
+        <is>
+          <t>Accountable</t>
+        </is>
+      </c>
+      <c r="G23" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="H23" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="I23" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="J23" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="K23" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="L23" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="M23" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="N23" s="11" t="inlineStr">
+        <is>
+          <t>Responsible</t>
+        </is>
+      </c>
+      <c r="O23" s="1" t="n"/>
+      <c r="P23" s="1" t="n"/>
+      <c r="Q23" s="1" t="n"/>
+      <c r="R23" s="1" t="n"/>
+      <c r="S23" s="1" t="n"/>
+      <c r="T23" s="1" t="n"/>
+      <c r="U23" s="1" t="n"/>
+      <c r="V23" s="1" t="n"/>
+      <c r="W23" s="1" t="n"/>
+      <c r="X23" s="1" t="n"/>
+      <c r="Y23" s="1" t="n"/>
+      <c r="Z23" s="1" t="n"/>
+      <c r="AA23" s="1" t="n"/>
+      <c r="AB23" s="1" t="n"/>
+      <c r="AC23" s="1" t="n"/>
+      <c r="AD23" s="1" t="n"/>
+      <c r="AE23" s="1" t="n"/>
+      <c r="AF23" s="1" t="n"/>
+      <c r="AG23" s="1" t="n"/>
+      <c r="AH23" s="1" t="n"/>
+      <c r="AI23" s="1" t="n"/>
+      <c r="AJ23" s="1" t="n"/>
+      <c r="AK23" s="1" t="n"/>
+      <c r="AL23" s="1" t="n"/>
+      <c r="AM23" s="1" t="n"/>
+      <c r="AN23" s="1" t="n"/>
+      <c r="AO23" s="1" t="n"/>
+      <c r="AP23" s="1" t="n"/>
+      <c r="AQ23" s="1" t="n"/>
+      <c r="AR23" s="1" t="n"/>
+      <c r="AS23" s="1" t="n"/>
+      <c r="AT23" s="1" t="n"/>
+      <c r="AU23" s="1" t="n"/>
+      <c r="AV23" s="1" t="n"/>
+      <c r="AW23" s="1" t="n"/>
+      <c r="AX23" s="1" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="10" t="inlineStr">
+        <is>
+          <t>5.3</t>
+        </is>
+      </c>
+      <c r="C24" s="10" t="inlineStr">
+        <is>
+          <t>Post-Deployment Verification</t>
+        </is>
+      </c>
+      <c r="D24" s="11" t="inlineStr">
+        <is>
+          <t>12-Jun-2024</t>
+        </is>
+      </c>
+      <c r="E24" s="11" t="inlineStr">
+        <is>
+          <t>18-Jun-2024</t>
+        </is>
+      </c>
+      <c r="F24" s="11" t="inlineStr">
+        <is>
+          <t>Accountable</t>
+        </is>
+      </c>
+      <c r="G24" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="H24" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="I24" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="J24" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="K24" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="L24" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="M24" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="N24" s="11" t="inlineStr">
+        <is>
+          <t>Responsible</t>
+        </is>
+      </c>
+      <c r="O24" s="1" t="n"/>
+      <c r="P24" s="1" t="n"/>
+      <c r="Q24" s="1" t="n"/>
+      <c r="R24" s="1" t="n"/>
+      <c r="S24" s="1" t="n"/>
+      <c r="T24" s="1" t="n"/>
+      <c r="U24" s="1" t="n"/>
+      <c r="V24" s="1" t="n"/>
+      <c r="W24" s="1" t="n"/>
+      <c r="X24" s="1" t="n"/>
+      <c r="Y24" s="1" t="n"/>
+      <c r="Z24" s="1" t="n"/>
+      <c r="AA24" s="1" t="n"/>
+      <c r="AB24" s="1" t="n"/>
+      <c r="AC24" s="1" t="n"/>
+      <c r="AD24" s="1" t="n"/>
+      <c r="AE24" s="1" t="n"/>
+      <c r="AF24" s="1" t="n"/>
+      <c r="AG24" s="1" t="n"/>
+      <c r="AH24" s="1" t="n"/>
+      <c r="AI24" s="1" t="n"/>
+      <c r="AJ24" s="1" t="n"/>
+      <c r="AK24" s="1" t="n"/>
+      <c r="AL24" s="1" t="n"/>
+      <c r="AM24" s="1" t="n"/>
+      <c r="AN24" s="1" t="n"/>
+      <c r="AO24" s="1" t="n"/>
+      <c r="AP24" s="1" t="n"/>
+      <c r="AQ24" s="1" t="n"/>
+      <c r="AR24" s="1" t="n"/>
+      <c r="AS24" s="1" t="n"/>
+      <c r="AT24" s="1" t="n"/>
+      <c r="AU24" s="1" t="n"/>
+      <c r="AV24" s="1" t="n"/>
+      <c r="AW24" s="1" t="n"/>
+      <c r="AX24" s="1" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="7" t="inlineStr">
+        <is>
+          <t>Task 6</t>
+        </is>
+      </c>
+      <c r="C25" s="7" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+      <c r="D25" s="8" t="inlineStr">
+        <is>
+          <t>19-Jun-2024</t>
+        </is>
+      </c>
+      <c r="E25" s="8" t="inlineStr">
+        <is>
+          <t>02-Jul-2024</t>
+        </is>
+      </c>
+      <c r="F25" s="11" t="inlineStr">
+        <is>
+          <t>Accountable</t>
+        </is>
+      </c>
+      <c r="G25" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="H25" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="I25" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="J25" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="K25" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="L25" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="M25" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="N25" s="11" t="inlineStr">
+        <is>
+          <t>Responsible</t>
+        </is>
+      </c>
+      <c r="O25" s="1" t="n"/>
+      <c r="P25" s="1" t="n"/>
+      <c r="Q25" s="1" t="n"/>
+      <c r="R25" s="1" t="n"/>
+      <c r="S25" s="1" t="n"/>
+      <c r="T25" s="1" t="n"/>
+      <c r="U25" s="1" t="n"/>
+      <c r="V25" s="1" t="n"/>
+      <c r="W25" s="1" t="n"/>
+      <c r="X25" s="1" t="n"/>
+      <c r="Y25" s="1" t="n"/>
+      <c r="Z25" s="1" t="n"/>
+      <c r="AA25" s="1" t="n"/>
+      <c r="AB25" s="1" t="n"/>
+      <c r="AC25" s="1" t="n"/>
+      <c r="AD25" s="1" t="n"/>
+      <c r="AE25" s="1" t="n"/>
+      <c r="AF25" s="1" t="n"/>
+      <c r="AG25" s="1" t="n"/>
+      <c r="AH25" s="1" t="n"/>
+      <c r="AI25" s="1" t="n"/>
+      <c r="AJ25" s="1" t="n"/>
+      <c r="AK25" s="1" t="n"/>
+      <c r="AL25" s="1" t="n"/>
+      <c r="AM25" s="1" t="n"/>
+      <c r="AN25" s="1" t="n"/>
+      <c r="AO25" s="1" t="n"/>
+      <c r="AP25" s="1" t="n"/>
+      <c r="AQ25" s="1" t="n"/>
+      <c r="AR25" s="1" t="n"/>
+      <c r="AS25" s="1" t="n"/>
+      <c r="AT25" s="1" t="n"/>
+      <c r="AU25" s="1" t="n"/>
+      <c r="AV25" s="1" t="n"/>
+      <c r="AW25" s="1" t="n"/>
+      <c r="AX25" s="1" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="10" t="inlineStr">
+        <is>
+          <t>6.1</t>
+        </is>
+      </c>
+      <c r="C26" s="10" t="inlineStr">
+        <is>
+          <t>Bug Fixing</t>
+        </is>
+      </c>
+      <c r="D26" s="11" t="inlineStr">
+        <is>
+          <t>19-Jun-2024</t>
+        </is>
+      </c>
+      <c r="E26" s="11" t="inlineStr">
+        <is>
+          <t>25-Jun-2024</t>
+        </is>
+      </c>
+      <c r="F26" s="11" t="inlineStr">
+        <is>
+          <t>Accountable</t>
+        </is>
+      </c>
+      <c r="G26" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="H26" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="I26" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="J26" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="K26" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="L26" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="M26" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="N26" s="11" t="inlineStr">
+        <is>
+          <t>Responsible</t>
+        </is>
+      </c>
+      <c r="O26" s="1" t="n"/>
+      <c r="P26" s="1" t="n"/>
+      <c r="Q26" s="1" t="n"/>
+      <c r="R26" s="1" t="n"/>
+      <c r="S26" s="1" t="n"/>
+      <c r="T26" s="1" t="n"/>
+      <c r="U26" s="1" t="n"/>
+      <c r="V26" s="1" t="n"/>
+      <c r="W26" s="1" t="n"/>
+      <c r="X26" s="1" t="n"/>
+      <c r="Y26" s="1" t="n"/>
+      <c r="Z26" s="1" t="n"/>
+      <c r="AA26" s="1" t="n"/>
+      <c r="AB26" s="1" t="n"/>
+      <c r="AC26" s="1" t="n"/>
+      <c r="AD26" s="1" t="n"/>
+      <c r="AE26" s="1" t="n"/>
+      <c r="AF26" s="1" t="n"/>
+      <c r="AG26" s="1" t="n"/>
+      <c r="AH26" s="1" t="n"/>
+      <c r="AI26" s="1" t="n"/>
+      <c r="AJ26" s="1" t="n"/>
+      <c r="AK26" s="1" t="n"/>
+      <c r="AL26" s="1" t="n"/>
+      <c r="AM26" s="1" t="n"/>
+      <c r="AN26" s="1" t="n"/>
+      <c r="AO26" s="1" t="n"/>
+      <c r="AP26" s="1" t="n"/>
+      <c r="AQ26" s="1" t="n"/>
+      <c r="AR26" s="1" t="n"/>
+      <c r="AS26" s="1" t="n"/>
+      <c r="AT26" s="1" t="n"/>
+      <c r="AU26" s="1" t="n"/>
+      <c r="AV26" s="1" t="n"/>
+      <c r="AW26" s="1" t="n"/>
+      <c r="AX26" s="1" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="10" t="inlineStr">
+        <is>
+          <t>6.2</t>
+        </is>
+      </c>
+      <c r="C27" s="10" t="inlineStr">
+        <is>
+          <t>Performance Tuning</t>
+        </is>
+      </c>
+      <c r="D27" s="11" t="inlineStr">
+        <is>
+          <t>19-Jun-2024</t>
+        </is>
+      </c>
+      <c r="E27" s="11" t="inlineStr">
+        <is>
+          <t>25-Jun-2024</t>
+        </is>
+      </c>
+      <c r="F27" s="11" t="inlineStr">
+        <is>
+          <t>Accountable</t>
+        </is>
+      </c>
+      <c r="G27" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="H27" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="I27" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="J27" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="K27" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="L27" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="M27" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="N27" s="11" t="inlineStr">
+        <is>
+          <t>Responsible</t>
+        </is>
+      </c>
+      <c r="O27" s="1" t="n"/>
+      <c r="P27" s="1" t="n"/>
+      <c r="Q27" s="1" t="n"/>
+      <c r="R27" s="1" t="n"/>
+      <c r="S27" s="1" t="n"/>
+      <c r="T27" s="1" t="n"/>
+      <c r="U27" s="1" t="n"/>
+      <c r="V27" s="1" t="n"/>
+      <c r="W27" s="1" t="n"/>
+      <c r="X27" s="1" t="n"/>
+      <c r="Y27" s="1" t="n"/>
+      <c r="Z27" s="1" t="n"/>
+      <c r="AA27" s="1" t="n"/>
+      <c r="AB27" s="1" t="n"/>
+      <c r="AC27" s="1" t="n"/>
+      <c r="AD27" s="1" t="n"/>
+      <c r="AE27" s="1" t="n"/>
+      <c r="AF27" s="1" t="n"/>
+      <c r="AG27" s="1" t="n"/>
+      <c r="AH27" s="1" t="n"/>
+      <c r="AI27" s="1" t="n"/>
+      <c r="AJ27" s="1" t="n"/>
+      <c r="AK27" s="1" t="n"/>
+      <c r="AL27" s="1" t="n"/>
+      <c r="AM27" s="1" t="n"/>
+      <c r="AN27" s="1" t="n"/>
+      <c r="AO27" s="1" t="n"/>
+      <c r="AP27" s="1" t="n"/>
+      <c r="AQ27" s="1" t="n"/>
+      <c r="AR27" s="1" t="n"/>
+      <c r="AS27" s="1" t="n"/>
+      <c r="AT27" s="1" t="n"/>
+      <c r="AU27" s="1" t="n"/>
+      <c r="AV27" s="1" t="n"/>
+      <c r="AW27" s="1" t="n"/>
+      <c r="AX27" s="1" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="10" t="inlineStr">
+        <is>
+          <t>6.3</t>
+        </is>
+      </c>
+      <c r="C28" s="10" t="inlineStr">
+        <is>
+          <t>User Training</t>
+        </is>
+      </c>
+      <c r="D28" s="11" t="inlineStr">
+        <is>
+          <t>19-Jun-2024</t>
+        </is>
+      </c>
+      <c r="E28" s="11" t="inlineStr">
+        <is>
+          <t>02-Jul-2024</t>
+        </is>
+      </c>
+      <c r="F28" s="11" t="inlineStr">
+        <is>
+          <t>Accountable</t>
+        </is>
+      </c>
+      <c r="G28" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="H28" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="I28" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="J28" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="K28" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="L28" s="11" t="inlineStr">
+        <is>
+          <t>Consulted</t>
+        </is>
+      </c>
+      <c r="M28" s="11" t="inlineStr">
+        <is>
+          <t>Informed</t>
+        </is>
+      </c>
+      <c r="N28" s="11" t="inlineStr">
+        <is>
+          <t>Responsible</t>
+        </is>
+      </c>
+      <c r="O28" s="1" t="n"/>
+      <c r="P28" s="1" t="n"/>
+      <c r="Q28" s="1" t="n"/>
+      <c r="R28" s="1" t="n"/>
+      <c r="S28" s="1" t="n"/>
+      <c r="T28" s="1" t="n"/>
+      <c r="U28" s="1" t="n"/>
+      <c r="V28" s="1" t="n"/>
+      <c r="W28" s="1" t="n"/>
+      <c r="X28" s="1" t="n"/>
+      <c r="Y28" s="1" t="n"/>
+      <c r="Z28" s="1" t="n"/>
+      <c r="AA28" s="1" t="n"/>
+      <c r="AB28" s="1" t="n"/>
+      <c r="AC28" s="1" t="n"/>
+      <c r="AD28" s="1" t="n"/>
+      <c r="AE28" s="1" t="n"/>
+      <c r="AF28" s="1" t="n"/>
+      <c r="AG28" s="1" t="n"/>
+      <c r="AH28" s="1" t="n"/>
+      <c r="AI28" s="1" t="n"/>
+      <c r="AJ28" s="1" t="n"/>
+      <c r="AK28" s="1" t="n"/>
+      <c r="AL28" s="1" t="n"/>
+      <c r="AM28" s="1" t="n"/>
+      <c r="AN28" s="1" t="n"/>
+      <c r="AO28" s="1" t="n"/>
+      <c r="AP28" s="1" t="n"/>
+      <c r="AQ28" s="1" t="n"/>
+      <c r="AR28" s="1" t="n"/>
+      <c r="AS28" s="1" t="n"/>
+      <c r="AT28" s="1" t="n"/>
+      <c r="AU28" s="1" t="n"/>
+      <c r="AV28" s="1" t="n"/>
+      <c r="AW28" s="1" t="n"/>
+      <c r="AX28" s="1" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="6" t="n"/>
+      <c r="C29" s="6" t="n"/>
+      <c r="D29" s="1" t="n"/>
+      <c r="E29" s="1" t="n"/>
+      <c r="F29" s="1" t="n"/>
+      <c r="G29" s="1" t="n"/>
+      <c r="H29" s="1" t="n"/>
+      <c r="I29" s="1" t="n"/>
+      <c r="J29" s="1" t="n"/>
+      <c r="K29" s="1" t="n"/>
+      <c r="L29" s="1" t="n"/>
+      <c r="M29" s="1" t="n"/>
+      <c r="N29" s="1" t="n"/>
+      <c r="O29" s="1" t="n"/>
+      <c r="P29" s="1" t="n"/>
+      <c r="Q29" s="1" t="n"/>
+      <c r="R29" s="1" t="n"/>
+      <c r="S29" s="1" t="n"/>
+      <c r="T29" s="1" t="n"/>
+      <c r="U29" s="1" t="n"/>
+      <c r="V29" s="1" t="n"/>
+      <c r="W29" s="1" t="n"/>
+      <c r="X29" s="1" t="n"/>
+      <c r="Y29" s="1" t="n"/>
+      <c r="Z29" s="1" t="n"/>
+      <c r="AA29" s="1" t="n"/>
+      <c r="AB29" s="1" t="n"/>
+      <c r="AC29" s="1" t="n"/>
+      <c r="AD29" s="1" t="n"/>
+      <c r="AE29" s="1" t="n"/>
+      <c r="AF29" s="1" t="n"/>
+      <c r="AG29" s="1" t="n"/>
+      <c r="AH29" s="1" t="n"/>
+      <c r="AI29" s="1" t="n"/>
+      <c r="AJ29" s="1" t="n"/>
+      <c r="AK29" s="1" t="n"/>
+      <c r="AL29" s="1" t="n"/>
+      <c r="AM29" s="1" t="n"/>
+      <c r="AN29" s="1" t="n"/>
+      <c r="AO29" s="1" t="n"/>
+      <c r="AP29" s="1" t="n"/>
+      <c r="AQ29" s="1" t="n"/>
+      <c r="AR29" s="1" t="n"/>
+      <c r="AS29" s="1" t="n"/>
+      <c r="AT29" s="1" t="n"/>
+      <c r="AU29" s="1" t="n"/>
+      <c r="AV29" s="1" t="n"/>
+      <c r="AW29" s="1" t="n"/>
+      <c r="AX29" s="1" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="6" t="n"/>
+      <c r="C30" s="6" t="n"/>
+      <c r="D30" s="1" t="n"/>
+      <c r="E30" s="1" t="n"/>
+      <c r="F30" s="1" t="n"/>
+      <c r="G30" s="1" t="n"/>
+      <c r="H30" s="1" t="n"/>
+      <c r="I30" s="1" t="n"/>
+      <c r="J30" s="1" t="n"/>
+      <c r="K30" s="1" t="n"/>
+      <c r="L30" s="1" t="n"/>
+      <c r="M30" s="1" t="n"/>
+      <c r="N30" s="1" t="n"/>
+      <c r="O30" s="1" t="n"/>
+      <c r="P30" s="1" t="n"/>
+      <c r="Q30" s="1" t="n"/>
+      <c r="R30" s="1" t="n"/>
+      <c r="S30" s="1" t="n"/>
+      <c r="T30" s="1" t="n"/>
+      <c r="U30" s="1" t="n"/>
+      <c r="V30" s="1" t="n"/>
+      <c r="W30" s="1" t="n"/>
+      <c r="X30" s="1" t="n"/>
+      <c r="Y30" s="1" t="n"/>
+      <c r="Z30" s="1" t="n"/>
+      <c r="AA30" s="1" t="n"/>
+      <c r="AB30" s="1" t="n"/>
+      <c r="AC30" s="1" t="n"/>
+      <c r="AD30" s="1" t="n"/>
+      <c r="AE30" s="1" t="n"/>
+      <c r="AF30" s="1" t="n"/>
+      <c r="AG30" s="1" t="n"/>
+      <c r="AH30" s="1" t="n"/>
+      <c r="AI30" s="1" t="n"/>
+      <c r="AJ30" s="1" t="n"/>
+      <c r="AK30" s="1" t="n"/>
+      <c r="AL30" s="1" t="n"/>
+      <c r="AM30" s="1" t="n"/>
+      <c r="AN30" s="1" t="n"/>
+      <c r="AO30" s="1" t="n"/>
+      <c r="AP30" s="1" t="n"/>
+      <c r="AQ30" s="1" t="n"/>
+      <c r="AR30" s="1" t="n"/>
+      <c r="AS30" s="1" t="n"/>
+      <c r="AT30" s="1" t="n"/>
+      <c r="AU30" s="1" t="n"/>
+      <c r="AV30" s="1" t="n"/>
+      <c r="AW30" s="1" t="n"/>
+      <c r="AX30" s="1" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="6" t="n"/>
+      <c r="C31" s="6" t="n"/>
+      <c r="D31" s="1" t="n"/>
+      <c r="E31" s="1" t="n"/>
+      <c r="F31" s="1" t="n"/>
+      <c r="G31" s="1" t="n"/>
+      <c r="H31" s="1" t="n"/>
+      <c r="I31" s="1" t="n"/>
+      <c r="J31" s="1" t="n"/>
+      <c r="K31" s="1" t="n"/>
+      <c r="L31" s="1" t="n"/>
+      <c r="M31" s="1" t="n"/>
+      <c r="N31" s="1" t="n"/>
+      <c r="O31" s="1" t="n"/>
+      <c r="P31" s="1" t="n"/>
+      <c r="Q31" s="1" t="n"/>
+      <c r="R31" s="1" t="n"/>
+      <c r="S31" s="1" t="n"/>
+      <c r="T31" s="1" t="n"/>
+      <c r="U31" s="1" t="n"/>
+      <c r="V31" s="1" t="n"/>
+      <c r="W31" s="1" t="n"/>
+      <c r="X31" s="1" t="n"/>
+      <c r="Y31" s="1" t="n"/>
+      <c r="Z31" s="1" t="n"/>
+      <c r="AA31" s="1" t="n"/>
+      <c r="AB31" s="1" t="n"/>
+      <c r="AC31" s="1" t="n"/>
+      <c r="AD31" s="1" t="n"/>
+      <c r="AE31" s="1" t="n"/>
+      <c r="AF31" s="1" t="n"/>
+      <c r="AG31" s="1" t="n"/>
+      <c r="AH31" s="1" t="n"/>
+      <c r="AI31" s="1" t="n"/>
+      <c r="AJ31" s="1" t="n"/>
+      <c r="AK31" s="1" t="n"/>
+      <c r="AL31" s="1" t="n"/>
+      <c r="AM31" s="1" t="n"/>
+      <c r="AN31" s="1" t="n"/>
+      <c r="AO31" s="1" t="n"/>
+      <c r="AP31" s="1" t="n"/>
+      <c r="AQ31" s="1" t="n"/>
+      <c r="AR31" s="1" t="n"/>
+      <c r="AS31" s="1" t="n"/>
+      <c r="AT31" s="1" t="n"/>
+      <c r="AU31" s="1" t="n"/>
+      <c r="AV31" s="1" t="n"/>
+      <c r="AW31" s="1" t="n"/>
+      <c r="AX31" s="1" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="6" t="n"/>
+      <c r="C32" s="6" t="n"/>
+      <c r="D32" s="1" t="n"/>
+      <c r="E32" s="1" t="n"/>
+      <c r="F32" s="1" t="n"/>
+      <c r="G32" s="1" t="n"/>
+      <c r="H32" s="1" t="n"/>
+      <c r="I32" s="1" t="n"/>
+      <c r="J32" s="1" t="n"/>
+      <c r="K32" s="1" t="n"/>
+      <c r="L32" s="1" t="n"/>
+      <c r="M32" s="1" t="n"/>
+      <c r="N32" s="1" t="n"/>
+      <c r="O32" s="1" t="n"/>
+      <c r="P32" s="1" t="n"/>
+      <c r="Q32" s="1" t="n"/>
+      <c r="R32" s="1" t="n"/>
+      <c r="S32" s="1" t="n"/>
+      <c r="T32" s="1" t="n"/>
+      <c r="U32" s="1" t="n"/>
+      <c r="V32" s="1" t="n"/>
+      <c r="W32" s="1" t="n"/>
+      <c r="X32" s="1" t="n"/>
+      <c r="Y32" s="1" t="n"/>
+      <c r="Z32" s="1" t="n"/>
+      <c r="AA32" s="1" t="n"/>
+      <c r="AB32" s="1" t="n"/>
+      <c r="AC32" s="1" t="n"/>
+      <c r="AD32" s="1" t="n"/>
+      <c r="AE32" s="1" t="n"/>
+      <c r="AF32" s="1" t="n"/>
+      <c r="AG32" s="1" t="n"/>
+      <c r="AH32" s="1" t="n"/>
+      <c r="AI32" s="1" t="n"/>
+      <c r="AJ32" s="1" t="n"/>
+      <c r="AK32" s="1" t="n"/>
+      <c r="AL32" s="1" t="n"/>
+      <c r="AM32" s="1" t="n"/>
+      <c r="AN32" s="1" t="n"/>
+      <c r="AO32" s="1" t="n"/>
+      <c r="AP32" s="1" t="n"/>
+      <c r="AQ32" s="1" t="n"/>
+      <c r="AR32" s="1" t="n"/>
+      <c r="AS32" s="1" t="n"/>
+      <c r="AT32" s="1" t="n"/>
+      <c r="AU32" s="1" t="n"/>
+      <c r="AV32" s="1" t="n"/>
+      <c r="AW32" s="1" t="n"/>
+      <c r="AX32" s="1" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="6" t="n"/>
+      <c r="C33" s="6" t="n"/>
+      <c r="D33" s="1" t="n"/>
+      <c r="E33" s="1" t="n"/>
+      <c r="F33" s="1" t="n"/>
+      <c r="G33" s="1" t="n"/>
+      <c r="H33" s="1" t="n"/>
+      <c r="I33" s="1" t="n"/>
+      <c r="J33" s="1" t="n"/>
+      <c r="K33" s="1" t="n"/>
+      <c r="L33" s="1" t="n"/>
+      <c r="M33" s="1" t="n"/>
+      <c r="N33" s="1" t="n"/>
+      <c r="O33" s="1" t="n"/>
+      <c r="P33" s="1" t="n"/>
+      <c r="Q33" s="1" t="n"/>
+      <c r="R33" s="1" t="n"/>
+      <c r="S33" s="1" t="n"/>
+      <c r="T33" s="1" t="n"/>
+      <c r="U33" s="1" t="n"/>
+      <c r="V33" s="1" t="n"/>
+      <c r="W33" s="1" t="n"/>
+      <c r="X33" s="1" t="n"/>
+      <c r="Y33" s="1" t="n"/>
+      <c r="Z33" s="1" t="n"/>
+      <c r="AA33" s="1" t="n"/>
+      <c r="AB33" s="1" t="n"/>
+      <c r="AC33" s="1" t="n"/>
+      <c r="AD33" s="1" t="n"/>
+      <c r="AE33" s="1" t="n"/>
+      <c r="AF33" s="1" t="n"/>
+      <c r="AG33" s="1" t="n"/>
+      <c r="AH33" s="1" t="n"/>
+      <c r="AI33" s="1" t="n"/>
+      <c r="AJ33" s="1" t="n"/>
+      <c r="AK33" s="1" t="n"/>
+      <c r="AL33" s="1" t="n"/>
+      <c r="AM33" s="1" t="n"/>
+      <c r="AN33" s="1" t="n"/>
+      <c r="AO33" s="1" t="n"/>
+      <c r="AP33" s="1" t="n"/>
+      <c r="AQ33" s="1" t="n"/>
+      <c r="AR33" s="1" t="n"/>
+      <c r="AS33" s="1" t="n"/>
+      <c r="AT33" s="1" t="n"/>
+      <c r="AU33" s="1" t="n"/>
+      <c r="AV33" s="1" t="n"/>
+      <c r="AW33" s="1" t="n"/>
+      <c r="AX33" s="1" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="6" t="n"/>
+      <c r="C34" s="6" t="n"/>
+      <c r="D34" s="1" t="n"/>
+      <c r="E34" s="1" t="n"/>
+      <c r="F34" s="1" t="n"/>
+      <c r="G34" s="1" t="n"/>
+      <c r="H34" s="1" t="n"/>
+      <c r="I34" s="1" t="n"/>
+      <c r="J34" s="1" t="n"/>
+      <c r="K34" s="1" t="n"/>
+      <c r="L34" s="1" t="n"/>
+      <c r="M34" s="1" t="n"/>
+      <c r="N34" s="1" t="n"/>
+      <c r="O34" s="1" t="n"/>
+      <c r="P34" s="1" t="n"/>
+      <c r="Q34" s="1" t="n"/>
+      <c r="R34" s="1" t="n"/>
+      <c r="S34" s="1" t="n"/>
+      <c r="T34" s="1" t="n"/>
+      <c r="U34" s="1" t="n"/>
+      <c r="V34" s="1" t="n"/>
+      <c r="W34" s="1" t="n"/>
+      <c r="X34" s="1" t="n"/>
+      <c r="Y34" s="1" t="n"/>
+      <c r="Z34" s="1" t="n"/>
+      <c r="AA34" s="1" t="n"/>
+      <c r="AB34" s="1" t="n"/>
+      <c r="AC34" s="1" t="n"/>
+      <c r="AD34" s="1" t="n"/>
+      <c r="AE34" s="1" t="n"/>
+      <c r="AF34" s="1" t="n"/>
+      <c r="AG34" s="1" t="n"/>
+      <c r="AH34" s="1" t="n"/>
+      <c r="AI34" s="1" t="n"/>
+      <c r="AJ34" s="1" t="n"/>
+      <c r="AK34" s="1" t="n"/>
+      <c r="AL34" s="1" t="n"/>
+      <c r="AM34" s="1" t="n"/>
+      <c r="AN34" s="1" t="n"/>
+      <c r="AO34" s="1" t="n"/>
+      <c r="AP34" s="1" t="n"/>
+      <c r="AQ34" s="1" t="n"/>
+      <c r="AR34" s="1" t="n"/>
+      <c r="AS34" s="1" t="n"/>
+      <c r="AT34" s="1" t="n"/>
+      <c r="AU34" s="1" t="n"/>
+      <c r="AV34" s="1" t="n"/>
+      <c r="AW34" s="1" t="n"/>
+      <c r="AX34" s="1" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="6" t="n"/>
+      <c r="C35" s="6" t="n"/>
+      <c r="D35" s="1" t="n"/>
+      <c r="E35" s="1" t="n"/>
+      <c r="F35" s="1" t="n"/>
+      <c r="G35" s="1" t="n"/>
+      <c r="H35" s="1" t="n"/>
+      <c r="I35" s="1" t="n"/>
+      <c r="J35" s="1" t="n"/>
+      <c r="K35" s="1" t="n"/>
+      <c r="L35" s="1" t="n"/>
+      <c r="M35" s="1" t="n"/>
+      <c r="N35" s="1" t="n"/>
+      <c r="O35" s="1" t="n"/>
+      <c r="P35" s="1" t="n"/>
+      <c r="Q35" s="1" t="n"/>
+      <c r="R35" s="1" t="n"/>
+      <c r="S35" s="1" t="n"/>
+      <c r="T35" s="1" t="n"/>
+      <c r="U35" s="1" t="n"/>
+      <c r="V35" s="1" t="n"/>
+      <c r="W35" s="1" t="n"/>
+      <c r="X35" s="1" t="n"/>
+      <c r="Y35" s="1" t="n"/>
+      <c r="Z35" s="1" t="n"/>
+      <c r="AA35" s="1" t="n"/>
+      <c r="AB35" s="1" t="n"/>
+      <c r="AC35" s="1" t="n"/>
+      <c r="AD35" s="1" t="n"/>
+      <c r="AE35" s="1" t="n"/>
+      <c r="AF35" s="1" t="n"/>
+      <c r="AG35" s="1" t="n"/>
+      <c r="AH35" s="1" t="n"/>
+      <c r="AI35" s="1" t="n"/>
+      <c r="AJ35" s="1" t="n"/>
+      <c r="AK35" s="1" t="n"/>
+      <c r="AL35" s="1" t="n"/>
+      <c r="AM35" s="1" t="n"/>
+      <c r="AN35" s="1" t="n"/>
+      <c r="AO35" s="1" t="n"/>
+      <c r="AP35" s="1" t="n"/>
+      <c r="AQ35" s="1" t="n"/>
+      <c r="AR35" s="1" t="n"/>
+      <c r="AS35" s="1" t="n"/>
+      <c r="AT35" s="1" t="n"/>
+      <c r="AU35" s="1" t="n"/>
+      <c r="AV35" s="1" t="n"/>
+      <c r="AW35" s="1" t="n"/>
+      <c r="AX35" s="1" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="6" t="n"/>
+      <c r="C36" s="6" t="n"/>
+      <c r="D36" s="1" t="n"/>
+      <c r="E36" s="1" t="n"/>
+      <c r="F36" s="1" t="n"/>
+      <c r="G36" s="1" t="n"/>
+      <c r="H36" s="1" t="n"/>
+      <c r="I36" s="1" t="n"/>
+      <c r="J36" s="1" t="n"/>
+      <c r="K36" s="1" t="n"/>
+      <c r="L36" s="1" t="n"/>
+      <c r="M36" s="1" t="n"/>
+      <c r="N36" s="1" t="n"/>
+      <c r="O36" s="1" t="n"/>
+      <c r="P36" s="1" t="n"/>
+      <c r="Q36" s="1" t="n"/>
+      <c r="R36" s="1" t="n"/>
+      <c r="S36" s="1" t="n"/>
+      <c r="T36" s="1" t="n"/>
+      <c r="U36" s="1" t="n"/>
+      <c r="V36" s="1" t="n"/>
+      <c r="W36" s="1" t="n"/>
+      <c r="X36" s="1" t="n"/>
+      <c r="Y36" s="1" t="n"/>
+      <c r="Z36" s="1" t="n"/>
+      <c r="AA36" s="1" t="n"/>
+      <c r="AB36" s="1" t="n"/>
+      <c r="AC36" s="1" t="n"/>
+      <c r="AD36" s="1" t="n"/>
+      <c r="AE36" s="1" t="n"/>
+      <c r="AF36" s="1" t="n"/>
+      <c r="AG36" s="1" t="n"/>
+      <c r="AH36" s="1" t="n"/>
+      <c r="AI36" s="1" t="n"/>
+      <c r="AJ36" s="1" t="n"/>
+      <c r="AK36" s="1" t="n"/>
+      <c r="AL36" s="1" t="n"/>
+      <c r="AM36" s="1" t="n"/>
+      <c r="AN36" s="1" t="n"/>
+      <c r="AO36" s="1" t="n"/>
+      <c r="AP36" s="1" t="n"/>
+      <c r="AQ36" s="1" t="n"/>
+      <c r="AR36" s="1" t="n"/>
+      <c r="AS36" s="1" t="n"/>
+      <c r="AT36" s="1" t="n"/>
+      <c r="AU36" s="1" t="n"/>
+      <c r="AV36" s="1" t="n"/>
+      <c r="AW36" s="1" t="n"/>
+      <c r="AX36" s="1" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="6" t="n"/>
+      <c r="C37" s="6" t="n"/>
+      <c r="D37" s="1" t="n"/>
+      <c r="E37" s="1" t="n"/>
+      <c r="F37" s="1" t="n"/>
+      <c r="G37" s="1" t="n"/>
+      <c r="H37" s="1" t="n"/>
+      <c r="I37" s="1" t="n"/>
+      <c r="J37" s="1" t="n"/>
+      <c r="K37" s="1" t="n"/>
+      <c r="L37" s="1" t="n"/>
+      <c r="M37" s="1" t="n"/>
+      <c r="N37" s="1" t="n"/>
+      <c r="O37" s="1" t="n"/>
+      <c r="P37" s="1" t="n"/>
+      <c r="Q37" s="1" t="n"/>
+      <c r="R37" s="1" t="n"/>
+      <c r="S37" s="1" t="n"/>
+      <c r="T37" s="1" t="n"/>
+      <c r="U37" s="1" t="n"/>
+      <c r="V37" s="1" t="n"/>
+      <c r="W37" s="1" t="n"/>
+      <c r="X37" s="1" t="n"/>
+      <c r="Y37" s="1" t="n"/>
+      <c r="Z37" s="1" t="n"/>
+      <c r="AA37" s="1" t="n"/>
+      <c r="AB37" s="1" t="n"/>
+      <c r="AC37" s="1" t="n"/>
+      <c r="AD37" s="1" t="n"/>
+      <c r="AE37" s="1" t="n"/>
+      <c r="AF37" s="1" t="n"/>
+      <c r="AG37" s="1" t="n"/>
+      <c r="AH37" s="1" t="n"/>
+      <c r="AI37" s="1" t="n"/>
+      <c r="AJ37" s="1" t="n"/>
+      <c r="AK37" s="1" t="n"/>
+      <c r="AL37" s="1" t="n"/>
+      <c r="AM37" s="1" t="n"/>
+      <c r="AN37" s="1" t="n"/>
+      <c r="AO37" s="1" t="n"/>
+      <c r="AP37" s="1" t="n"/>
+      <c r="AQ37" s="1" t="n"/>
+      <c r="AR37" s="1" t="n"/>
+      <c r="AS37" s="1" t="n"/>
+      <c r="AT37" s="1" t="n"/>
+      <c r="AU37" s="1" t="n"/>
+      <c r="AV37" s="1" t="n"/>
+      <c r="AW37" s="1" t="n"/>
+      <c r="AX37" s="1" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="6" t="n"/>
+      <c r="C38" s="6" t="n"/>
+      <c r="D38" s="1" t="n"/>
+      <c r="E38" s="1" t="n"/>
+      <c r="F38" s="1" t="n"/>
+      <c r="G38" s="1" t="n"/>
+      <c r="H38" s="1" t="n"/>
+      <c r="I38" s="1" t="n"/>
+      <c r="J38" s="1" t="n"/>
+      <c r="K38" s="1" t="n"/>
+      <c r="L38" s="1" t="n"/>
+      <c r="M38" s="1" t="n"/>
+      <c r="N38" s="1" t="n"/>
+      <c r="O38" s="1" t="n"/>
+      <c r="P38" s="1" t="n"/>
+      <c r="Q38" s="1" t="n"/>
+      <c r="R38" s="1" t="n"/>
+      <c r="S38" s="1" t="n"/>
+      <c r="T38" s="1" t="n"/>
+      <c r="U38" s="1" t="n"/>
+      <c r="V38" s="1" t="n"/>
+      <c r="W38" s="1" t="n"/>
+      <c r="X38" s="1" t="n"/>
+      <c r="Y38" s="1" t="n"/>
+      <c r="Z38" s="1" t="n"/>
+      <c r="AA38" s="1" t="n"/>
+      <c r="AB38" s="1" t="n"/>
+      <c r="AC38" s="1" t="n"/>
+      <c r="AD38" s="1" t="n"/>
+      <c r="AE38" s="1" t="n"/>
+      <c r="AF38" s="1" t="n"/>
+      <c r="AG38" s="1" t="n"/>
+      <c r="AH38" s="1" t="n"/>
+      <c r="AI38" s="1" t="n"/>
+      <c r="AJ38" s="1" t="n"/>
+      <c r="AK38" s="1" t="n"/>
+      <c r="AL38" s="1" t="n"/>
+      <c r="AM38" s="1" t="n"/>
+      <c r="AN38" s="1" t="n"/>
+      <c r="AO38" s="1" t="n"/>
+      <c r="AP38" s="1" t="n"/>
+      <c r="AQ38" s="1" t="n"/>
+      <c r="AR38" s="1" t="n"/>
+      <c r="AS38" s="1" t="n"/>
+      <c r="AT38" s="1" t="n"/>
+      <c r="AU38" s="1" t="n"/>
+      <c r="AV38" s="1" t="n"/>
+      <c r="AW38" s="1" t="n"/>
+      <c r="AX38" s="1" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="6" t="n"/>
+      <c r="C39" s="6" t="n"/>
+      <c r="D39" s="1" t="n"/>
+      <c r="E39" s="1" t="n"/>
+      <c r="F39" s="1" t="n"/>
+      <c r="G39" s="1" t="n"/>
+      <c r="H39" s="1" t="n"/>
+      <c r="I39" s="1" t="n"/>
+      <c r="J39" s="1" t="n"/>
+      <c r="K39" s="1" t="n"/>
+      <c r="L39" s="1" t="n"/>
+      <c r="M39" s="1" t="n"/>
+      <c r="N39" s="1" t="n"/>
+      <c r="O39" s="1" t="n"/>
+      <c r="P39" s="1" t="n"/>
+      <c r="Q39" s="1" t="n"/>
+      <c r="R39" s="1" t="n"/>
+      <c r="S39" s="1" t="n"/>
+      <c r="T39" s="1" t="n"/>
+      <c r="U39" s="1" t="n"/>
+      <c r="V39" s="1" t="n"/>
+      <c r="W39" s="1" t="n"/>
+      <c r="X39" s="1" t="n"/>
+      <c r="Y39" s="1" t="n"/>
+      <c r="Z39" s="1" t="n"/>
+      <c r="AA39" s="1" t="n"/>
+      <c r="AB39" s="1" t="n"/>
+      <c r="AC39" s="1" t="n"/>
+      <c r="AD39" s="1" t="n"/>
+      <c r="AE39" s="1" t="n"/>
+      <c r="AF39" s="1" t="n"/>
+      <c r="AG39" s="1" t="n"/>
+      <c r="AH39" s="1" t="n"/>
+      <c r="AI39" s="1" t="n"/>
+      <c r="AJ39" s="1" t="n"/>
+      <c r="AK39" s="1" t="n"/>
+      <c r="AL39" s="1" t="n"/>
+      <c r="AM39" s="1" t="n"/>
+      <c r="AN39" s="1" t="n"/>
+      <c r="AO39" s="1" t="n"/>
+      <c r="AP39" s="1" t="n"/>
+      <c r="AQ39" s="1" t="n"/>
+      <c r="AR39" s="1" t="n"/>
+      <c r="AS39" s="1" t="n"/>
+      <c r="AT39" s="1" t="n"/>
+      <c r="AU39" s="1" t="n"/>
+      <c r="AV39" s="1" t="n"/>
+      <c r="AW39" s="1" t="n"/>
+      <c r="AX39" s="1" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="6" t="n"/>
+      <c r="C40" s="6" t="n"/>
+      <c r="D40" s="1" t="n"/>
+      <c r="E40" s="1" t="n"/>
+      <c r="F40" s="1" t="n"/>
+      <c r="G40" s="1" t="n"/>
+      <c r="H40" s="1" t="n"/>
+      <c r="I40" s="1" t="n"/>
+      <c r="J40" s="1" t="n"/>
+      <c r="K40" s="1" t="n"/>
+      <c r="L40" s="1" t="n"/>
+      <c r="M40" s="1" t="n"/>
+      <c r="N40" s="1" t="n"/>
+      <c r="O40" s="1" t="n"/>
+      <c r="P40" s="1" t="n"/>
+      <c r="Q40" s="1" t="n"/>
+      <c r="R40" s="1" t="n"/>
+      <c r="S40" s="1" t="n"/>
+      <c r="T40" s="1" t="n"/>
+      <c r="U40" s="1" t="n"/>
+      <c r="V40" s="1" t="n"/>
+      <c r="W40" s="1" t="n"/>
+      <c r="X40" s="1" t="n"/>
+      <c r="Y40" s="1" t="n"/>
+      <c r="Z40" s="1" t="n"/>
+      <c r="AA40" s="1" t="n"/>
+      <c r="AB40" s="1" t="n"/>
+      <c r="AC40" s="1" t="n"/>
+      <c r="AD40" s="1" t="n"/>
+      <c r="AE40" s="1" t="n"/>
+      <c r="AF40" s="1" t="n"/>
+      <c r="AG40" s="1" t="n"/>
+      <c r="AH40" s="1" t="n"/>
+      <c r="AI40" s="1" t="n"/>
+      <c r="AJ40" s="1" t="n"/>
+      <c r="AK40" s="1" t="n"/>
+      <c r="AL40" s="1" t="n"/>
+      <c r="AM40" s="1" t="n"/>
+      <c r="AN40" s="1" t="n"/>
+      <c r="AO40" s="1" t="n"/>
+      <c r="AP40" s="1" t="n"/>
+      <c r="AQ40" s="1" t="n"/>
+      <c r="AR40" s="1" t="n"/>
+      <c r="AS40" s="1" t="n"/>
+      <c r="AT40" s="1" t="n"/>
+      <c r="AU40" s="1" t="n"/>
+      <c r="AV40" s="1" t="n"/>
+      <c r="AW40" s="1" t="n"/>
+      <c r="AX40" s="1" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="6" t="n"/>
+      <c r="C41" s="6" t="n"/>
+      <c r="D41" s="1" t="n"/>
+      <c r="E41" s="1" t="n"/>
+      <c r="F41" s="1" t="n"/>
+      <c r="G41" s="1" t="n"/>
+      <c r="H41" s="1" t="n"/>
+      <c r="I41" s="1" t="n"/>
+      <c r="J41" s="1" t="n"/>
+      <c r="K41" s="1" t="n"/>
+      <c r="L41" s="1" t="n"/>
+      <c r="M41" s="1" t="n"/>
+      <c r="N41" s="1" t="n"/>
+      <c r="O41" s="1" t="n"/>
+      <c r="P41" s="1" t="n"/>
+      <c r="Q41" s="1" t="n"/>
+      <c r="R41" s="1" t="n"/>
+      <c r="S41" s="1" t="n"/>
+      <c r="T41" s="1" t="n"/>
+      <c r="U41" s="1" t="n"/>
+      <c r="V41" s="1" t="n"/>
+      <c r="W41" s="1" t="n"/>
+      <c r="X41" s="1" t="n"/>
+      <c r="Y41" s="1" t="n"/>
+      <c r="Z41" s="1" t="n"/>
+      <c r="AA41" s="1" t="n"/>
+      <c r="AB41" s="1" t="n"/>
+      <c r="AC41" s="1" t="n"/>
+      <c r="AD41" s="1" t="n"/>
+      <c r="AE41" s="1" t="n"/>
+      <c r="AF41" s="1" t="n"/>
+      <c r="AG41" s="1" t="n"/>
+      <c r="AH41" s="1" t="n"/>
+      <c r="AI41" s="1" t="n"/>
+      <c r="AJ41" s="1" t="n"/>
+      <c r="AK41" s="1" t="n"/>
+      <c r="AL41" s="1" t="n"/>
+      <c r="AM41" s="1" t="n"/>
+      <c r="AN41" s="1" t="n"/>
+      <c r="AO41" s="1" t="n"/>
+      <c r="AP41" s="1" t="n"/>
+      <c r="AQ41" s="1" t="n"/>
+      <c r="AR41" s="1" t="n"/>
+      <c r="AS41" s="1" t="n"/>
+      <c r="AT41" s="1" t="n"/>
+      <c r="AU41" s="1" t="n"/>
+      <c r="AV41" s="1" t="n"/>
+      <c r="AW41" s="1" t="n"/>
+      <c r="AX41" s="1" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="6" t="n"/>
+      <c r="C42" s="6" t="n"/>
+      <c r="D42" s="1" t="n"/>
+      <c r="E42" s="1" t="n"/>
+      <c r="F42" s="1" t="n"/>
+      <c r="G42" s="1" t="n"/>
+      <c r="H42" s="1" t="n"/>
+      <c r="I42" s="1" t="n"/>
+      <c r="J42" s="1" t="n"/>
+      <c r="K42" s="1" t="n"/>
+      <c r="L42" s="1" t="n"/>
+      <c r="M42" s="1" t="n"/>
+      <c r="N42" s="1" t="n"/>
+      <c r="O42" s="1" t="n"/>
+      <c r="P42" s="1" t="n"/>
+      <c r="Q42" s="1" t="n"/>
+      <c r="R42" s="1" t="n"/>
+      <c r="S42" s="1" t="n"/>
+      <c r="T42" s="1" t="n"/>
+      <c r="U42" s="1" t="n"/>
+      <c r="V42" s="1" t="n"/>
+      <c r="W42" s="1" t="n"/>
+      <c r="X42" s="1" t="n"/>
+      <c r="Y42" s="1" t="n"/>
+      <c r="Z42" s="1" t="n"/>
+      <c r="AA42" s="1" t="n"/>
+      <c r="AB42" s="1" t="n"/>
+      <c r="AC42" s="1" t="n"/>
+      <c r="AD42" s="1" t="n"/>
+      <c r="AE42" s="1" t="n"/>
+      <c r="AF42" s="1" t="n"/>
+      <c r="AG42" s="1" t="n"/>
+      <c r="AH42" s="1" t="n"/>
+      <c r="AI42" s="1" t="n"/>
+      <c r="AJ42" s="1" t="n"/>
+      <c r="AK42" s="1" t="n"/>
+      <c r="AL42" s="1" t="n"/>
+      <c r="AM42" s="1" t="n"/>
+      <c r="AN42" s="1" t="n"/>
+      <c r="AO42" s="1" t="n"/>
+      <c r="AP42" s="1" t="n"/>
+      <c r="AQ42" s="1" t="n"/>
+      <c r="AR42" s="1" t="n"/>
+      <c r="AS42" s="1" t="n"/>
+      <c r="AT42" s="1" t="n"/>
+      <c r="AU42" s="1" t="n"/>
+      <c r="AV42" s="1" t="n"/>
+      <c r="AW42" s="1" t="n"/>
+      <c r="AX42" s="1" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="6" t="n"/>
+      <c r="C43" s="6" t="n"/>
+      <c r="D43" s="1" t="n"/>
+      <c r="E43" s="1" t="n"/>
+      <c r="F43" s="1" t="n"/>
+      <c r="G43" s="1" t="n"/>
+      <c r="H43" s="1" t="n"/>
+      <c r="I43" s="1" t="n"/>
+      <c r="J43" s="1" t="n"/>
+      <c r="K43" s="1" t="n"/>
+      <c r="L43" s="1" t="n"/>
+      <c r="M43" s="1" t="n"/>
+      <c r="N43" s="1" t="n"/>
+      <c r="O43" s="1" t="n"/>
+      <c r="P43" s="1" t="n"/>
+      <c r="Q43" s="1" t="n"/>
+      <c r="R43" s="1" t="n"/>
+      <c r="S43" s="1" t="n"/>
+      <c r="T43" s="1" t="n"/>
+      <c r="U43" s="1" t="n"/>
+      <c r="V43" s="1" t="n"/>
+      <c r="W43" s="1" t="n"/>
+      <c r="X43" s="1" t="n"/>
+      <c r="Y43" s="1" t="n"/>
+      <c r="Z43" s="1" t="n"/>
+      <c r="AA43" s="1" t="n"/>
+      <c r="AB43" s="1" t="n"/>
+      <c r="AC43" s="1" t="n"/>
+      <c r="AD43" s="1" t="n"/>
+      <c r="AE43" s="1" t="n"/>
+      <c r="AF43" s="1" t="n"/>
+      <c r="AG43" s="1" t="n"/>
+      <c r="AH43" s="1" t="n"/>
+      <c r="AI43" s="1" t="n"/>
+      <c r="AJ43" s="1" t="n"/>
+      <c r="AK43" s="1" t="n"/>
+      <c r="AL43" s="1" t="n"/>
+      <c r="AM43" s="1" t="n"/>
+      <c r="AN43" s="1" t="n"/>
+      <c r="AO43" s="1" t="n"/>
+      <c r="AP43" s="1" t="n"/>
+      <c r="AQ43" s="1" t="n"/>
+      <c r="AR43" s="1" t="n"/>
+      <c r="AS43" s="1" t="n"/>
+      <c r="AT43" s="1" t="n"/>
+      <c r="AU43" s="1" t="n"/>
+      <c r="AV43" s="1" t="n"/>
+      <c r="AW43" s="1" t="n"/>
+      <c r="AX43" s="1" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="6" t="n"/>
+      <c r="C44" s="6" t="n"/>
+      <c r="D44" s="1" t="n"/>
+      <c r="E44" s="1" t="n"/>
+      <c r="F44" s="1" t="n"/>
+      <c r="G44" s="1" t="n"/>
+      <c r="H44" s="1" t="n"/>
+      <c r="I44" s="1" t="n"/>
+      <c r="J44" s="1" t="n"/>
+      <c r="K44" s="1" t="n"/>
+      <c r="L44" s="1" t="n"/>
+      <c r="M44" s="1" t="n"/>
+      <c r="N44" s="1" t="n"/>
+      <c r="O44" s="1" t="n"/>
+      <c r="P44" s="1" t="n"/>
+      <c r="Q44" s="1" t="n"/>
+      <c r="R44" s="1" t="n"/>
+      <c r="S44" s="1" t="n"/>
+      <c r="T44" s="1" t="n"/>
+      <c r="U44" s="1" t="n"/>
+      <c r="V44" s="1" t="n"/>
+      <c r="W44" s="1" t="n"/>
+      <c r="X44" s="1" t="n"/>
+      <c r="Y44" s="1" t="n"/>
+      <c r="Z44" s="1" t="n"/>
+      <c r="AA44" s="1" t="n"/>
+      <c r="AB44" s="1" t="n"/>
+      <c r="AC44" s="1" t="n"/>
+      <c r="AD44" s="1" t="n"/>
+      <c r="AE44" s="1" t="n"/>
+      <c r="AF44" s="1" t="n"/>
+      <c r="AG44" s="1" t="n"/>
+      <c r="AH44" s="1" t="n"/>
+      <c r="AI44" s="1" t="n"/>
+      <c r="AJ44" s="1" t="n"/>
+      <c r="AK44" s="1" t="n"/>
+      <c r="AL44" s="1" t="n"/>
+      <c r="AM44" s="1" t="n"/>
+      <c r="AN44" s="1" t="n"/>
+      <c r="AO44" s="1" t="n"/>
+      <c r="AP44" s="1" t="n"/>
+      <c r="AQ44" s="1" t="n"/>
+      <c r="AR44" s="1" t="n"/>
+      <c r="AS44" s="1" t="n"/>
+      <c r="AT44" s="1" t="n"/>
+      <c r="AU44" s="1" t="n"/>
+      <c r="AV44" s="1" t="n"/>
+      <c r="AW44" s="1" t="n"/>
+      <c r="AX44" s="1" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="6" t="n"/>
+      <c r="C45" s="6" t="n"/>
+      <c r="D45" s="1" t="n"/>
+      <c r="E45" s="1" t="n"/>
+      <c r="F45" s="1" t="n"/>
+      <c r="G45" s="1" t="n"/>
+      <c r="H45" s="1" t="n"/>
+      <c r="I45" s="1" t="n"/>
+      <c r="J45" s="1" t="n"/>
+      <c r="K45" s="1" t="n"/>
+      <c r="L45" s="1" t="n"/>
+      <c r="M45" s="1" t="n"/>
+      <c r="N45" s="1" t="n"/>
+      <c r="O45" s="1" t="n"/>
+      <c r="P45" s="1" t="n"/>
+      <c r="Q45" s="1" t="n"/>
+      <c r="R45" s="1" t="n"/>
+      <c r="S45" s="1" t="n"/>
+      <c r="T45" s="1" t="n"/>
+      <c r="U45" s="1" t="n"/>
+      <c r="V45" s="1" t="n"/>
+      <c r="W45" s="1" t="n"/>
+      <c r="X45" s="1" t="n"/>
+      <c r="Y45" s="1" t="n"/>
+      <c r="Z45" s="1" t="n"/>
+      <c r="AA45" s="1" t="n"/>
+      <c r="AB45" s="1" t="n"/>
+      <c r="AC45" s="1" t="n"/>
+      <c r="AD45" s="1" t="n"/>
+      <c r="AE45" s="1" t="n"/>
+      <c r="AF45" s="1" t="n"/>
+      <c r="AG45" s="1" t="n"/>
+      <c r="AH45" s="1" t="n"/>
+      <c r="AI45" s="1" t="n"/>
+      <c r="AJ45" s="1" t="n"/>
+      <c r="AK45" s="1" t="n"/>
+      <c r="AL45" s="1" t="n"/>
+      <c r="AM45" s="1" t="n"/>
+      <c r="AN45" s="1" t="n"/>
+      <c r="AO45" s="1" t="n"/>
+      <c r="AP45" s="1" t="n"/>
+      <c r="AQ45" s="1" t="n"/>
+      <c r="AR45" s="1" t="n"/>
+      <c r="AS45" s="1" t="n"/>
+      <c r="AT45" s="1" t="n"/>
+      <c r="AU45" s="1" t="n"/>
+      <c r="AV45" s="1" t="n"/>
+      <c r="AW45" s="1" t="n"/>
+      <c r="AX45" s="1" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="6" t="n"/>
+      <c r="C46" s="6" t="n"/>
+      <c r="D46" s="1" t="n"/>
+      <c r="E46" s="1" t="n"/>
+      <c r="F46" s="1" t="n"/>
+      <c r="G46" s="1" t="n"/>
+      <c r="H46" s="1" t="n"/>
+      <c r="I46" s="1" t="n"/>
+      <c r="J46" s="1" t="n"/>
+      <c r="K46" s="1" t="n"/>
+      <c r="L46" s="1" t="n"/>
+      <c r="M46" s="1" t="n"/>
+      <c r="N46" s="1" t="n"/>
+      <c r="O46" s="1" t="n"/>
+      <c r="P46" s="1" t="n"/>
+      <c r="Q46" s="1" t="n"/>
+      <c r="R46" s="1" t="n"/>
+      <c r="S46" s="1" t="n"/>
+      <c r="T46" s="1" t="n"/>
+      <c r="U46" s="1" t="n"/>
+      <c r="V46" s="1" t="n"/>
+      <c r="W46" s="1" t="n"/>
+      <c r="X46" s="1" t="n"/>
+      <c r="Y46" s="1" t="n"/>
+      <c r="Z46" s="1" t="n"/>
+      <c r="AA46" s="1" t="n"/>
+      <c r="AB46" s="1" t="n"/>
+      <c r="AC46" s="1" t="n"/>
+      <c r="AD46" s="1" t="n"/>
+      <c r="AE46" s="1" t="n"/>
+      <c r="AF46" s="1" t="n"/>
+      <c r="AG46" s="1" t="n"/>
+      <c r="AH46" s="1" t="n"/>
+      <c r="AI46" s="1" t="n"/>
+      <c r="AJ46" s="1" t="n"/>
+      <c r="AK46" s="1" t="n"/>
+      <c r="AL46" s="1" t="n"/>
+      <c r="AM46" s="1" t="n"/>
+      <c r="AN46" s="1" t="n"/>
+      <c r="AO46" s="1" t="n"/>
+      <c r="AP46" s="1" t="n"/>
+      <c r="AQ46" s="1" t="n"/>
+      <c r="AR46" s="1" t="n"/>
+      <c r="AS46" s="1" t="n"/>
+      <c r="AT46" s="1" t="n"/>
+      <c r="AU46" s="1" t="n"/>
+      <c r="AV46" s="1" t="n"/>
+      <c r="AW46" s="1" t="n"/>
+      <c r="AX46" s="1" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="6" t="n"/>
+      <c r="C47" s="6" t="n"/>
+      <c r="D47" s="1" t="n"/>
+      <c r="E47" s="1" t="n"/>
+      <c r="F47" s="1" t="n"/>
+      <c r="G47" s="1" t="n"/>
+      <c r="H47" s="1" t="n"/>
+      <c r="I47" s="1" t="n"/>
+      <c r="J47" s="1" t="n"/>
+      <c r="K47" s="1" t="n"/>
+      <c r="L47" s="1" t="n"/>
+      <c r="M47" s="1" t="n"/>
+      <c r="N47" s="1" t="n"/>
+      <c r="O47" s="1" t="n"/>
+      <c r="P47" s="1" t="n"/>
+      <c r="Q47" s="1" t="n"/>
+      <c r="R47" s="1" t="n"/>
+      <c r="S47" s="1" t="n"/>
+      <c r="T47" s="1" t="n"/>
+      <c r="U47" s="1" t="n"/>
+      <c r="V47" s="1" t="n"/>
+      <c r="W47" s="1" t="n"/>
+      <c r="X47" s="1" t="n"/>
+      <c r="Y47" s="1" t="n"/>
+      <c r="Z47" s="1" t="n"/>
+      <c r="AA47" s="1" t="n"/>
+      <c r="AB47" s="1" t="n"/>
+      <c r="AC47" s="1" t="n"/>
+      <c r="AD47" s="1" t="n"/>
+      <c r="AE47" s="1" t="n"/>
+      <c r="AF47" s="1" t="n"/>
+      <c r="AG47" s="1" t="n"/>
+      <c r="AH47" s="1" t="n"/>
+      <c r="AI47" s="1" t="n"/>
+      <c r="AJ47" s="1" t="n"/>
+      <c r="AK47" s="1" t="n"/>
+      <c r="AL47" s="1" t="n"/>
+      <c r="AM47" s="1" t="n"/>
+      <c r="AN47" s="1" t="n"/>
+      <c r="AO47" s="1" t="n"/>
+      <c r="AP47" s="1" t="n"/>
+      <c r="AQ47" s="1" t="n"/>
+      <c r="AR47" s="1" t="n"/>
+      <c r="AS47" s="1" t="n"/>
+      <c r="AT47" s="1" t="n"/>
+      <c r="AU47" s="1" t="n"/>
+      <c r="AV47" s="1" t="n"/>
+      <c r="AW47" s="1" t="n"/>
+      <c r="AX47" s="1" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="6" t="n"/>
+      <c r="C48" s="6" t="n"/>
+      <c r="D48" s="1" t="n"/>
+      <c r="E48" s="1" t="n"/>
+      <c r="F48" s="1" t="n"/>
+      <c r="G48" s="1" t="n"/>
+      <c r="H48" s="1" t="n"/>
+      <c r="I48" s="1" t="n"/>
+      <c r="J48" s="1" t="n"/>
+      <c r="K48" s="1" t="n"/>
+      <c r="L48" s="1" t="n"/>
+      <c r="M48" s="1" t="n"/>
+      <c r="N48" s="1" t="n"/>
+      <c r="O48" s="1" t="n"/>
+      <c r="P48" s="1" t="n"/>
+      <c r="Q48" s="1" t="n"/>
+      <c r="R48" s="1" t="n"/>
+      <c r="S48" s="1" t="n"/>
+      <c r="T48" s="1" t="n"/>
+      <c r="U48" s="1" t="n"/>
+      <c r="V48" s="1" t="n"/>
+      <c r="W48" s="1" t="n"/>
+      <c r="X48" s="1" t="n"/>
+      <c r="Y48" s="1" t="n"/>
+      <c r="Z48" s="1" t="n"/>
+      <c r="AA48" s="1" t="n"/>
+      <c r="AB48" s="1" t="n"/>
+      <c r="AC48" s="1" t="n"/>
+      <c r="AD48" s="1" t="n"/>
+      <c r="AE48" s="1" t="n"/>
+      <c r="AF48" s="1" t="n"/>
+      <c r="AG48" s="1" t="n"/>
+      <c r="AH48" s="1" t="n"/>
+      <c r="AI48" s="1" t="n"/>
+      <c r="AJ48" s="1" t="n"/>
+      <c r="AK48" s="1" t="n"/>
+      <c r="AL48" s="1" t="n"/>
+      <c r="AM48" s="1" t="n"/>
+      <c r="AN48" s="1" t="n"/>
+      <c r="AO48" s="1" t="n"/>
+      <c r="AP48" s="1" t="n"/>
+      <c r="AQ48" s="1" t="n"/>
+      <c r="AR48" s="1" t="n"/>
+      <c r="AS48" s="1" t="n"/>
+      <c r="AT48" s="1" t="n"/>
+      <c r="AU48" s="1" t="n"/>
+      <c r="AV48" s="1" t="n"/>
+      <c r="AW48" s="1" t="n"/>
+      <c r="AX48" s="1" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="6" t="n"/>
+      <c r="C49" s="6" t="n"/>
+      <c r="D49" s="1" t="n"/>
+      <c r="E49" s="1" t="n"/>
+      <c r="F49" s="1" t="n"/>
+      <c r="G49" s="1" t="n"/>
+      <c r="H49" s="1" t="n"/>
+      <c r="I49" s="1" t="n"/>
+      <c r="J49" s="1" t="n"/>
+      <c r="K49" s="1" t="n"/>
+      <c r="L49" s="1" t="n"/>
+      <c r="M49" s="1" t="n"/>
+      <c r="N49" s="1" t="n"/>
+      <c r="O49" s="1" t="n"/>
+      <c r="P49" s="1" t="n"/>
+      <c r="Q49" s="1" t="n"/>
+      <c r="R49" s="1" t="n"/>
+      <c r="S49" s="1" t="n"/>
+      <c r="T49" s="1" t="n"/>
+      <c r="U49" s="1" t="n"/>
+      <c r="V49" s="1" t="n"/>
+      <c r="W49" s="1" t="n"/>
+      <c r="X49" s="1" t="n"/>
+      <c r="Y49" s="1" t="n"/>
+      <c r="Z49" s="1" t="n"/>
+      <c r="AA49" s="1" t="n"/>
+      <c r="AB49" s="1" t="n"/>
+      <c r="AC49" s="1" t="n"/>
+      <c r="AD49" s="1" t="n"/>
+      <c r="AE49" s="1" t="n"/>
+      <c r="AF49" s="1" t="n"/>
+      <c r="AG49" s="1" t="n"/>
+      <c r="AH49" s="1" t="n"/>
+      <c r="AI49" s="1" t="n"/>
+      <c r="AJ49" s="1" t="n"/>
+      <c r="AK49" s="1" t="n"/>
+      <c r="AL49" s="1" t="n"/>
+      <c r="AM49" s="1" t="n"/>
+      <c r="AN49" s="1" t="n"/>
+      <c r="AO49" s="1" t="n"/>
+      <c r="AP49" s="1" t="n"/>
+      <c r="AQ49" s="1" t="n"/>
+      <c r="AR49" s="1" t="n"/>
+      <c r="AS49" s="1" t="n"/>
+      <c r="AT49" s="1" t="n"/>
+      <c r="AU49" s="1" t="n"/>
+      <c r="AV49" s="1" t="n"/>
+      <c r="AW49" s="1" t="n"/>
+      <c r="AX49" s="1" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="6" t="n"/>
+      <c r="C50" s="6" t="n"/>
+      <c r="D50" s="1" t="n"/>
+      <c r="E50" s="1" t="n"/>
+      <c r="F50" s="1" t="n"/>
+      <c r="G50" s="1" t="n"/>
+      <c r="H50" s="1" t="n"/>
+      <c r="I50" s="1" t="n"/>
+      <c r="J50" s="1" t="n"/>
+      <c r="K50" s="1" t="n"/>
+      <c r="L50" s="1" t="n"/>
+      <c r="M50" s="1" t="n"/>
+      <c r="N50" s="1" t="n"/>
+      <c r="O50" s="1" t="n"/>
+      <c r="P50" s="1" t="n"/>
+      <c r="Q50" s="1" t="n"/>
+      <c r="R50" s="1" t="n"/>
+      <c r="S50" s="1" t="n"/>
+      <c r="T50" s="1" t="n"/>
+      <c r="U50" s="1" t="n"/>
+      <c r="V50" s="1" t="n"/>
+      <c r="W50" s="1" t="n"/>
+      <c r="X50" s="1" t="n"/>
+      <c r="Y50" s="1" t="n"/>
+      <c r="Z50" s="1" t="n"/>
+      <c r="AA50" s="1" t="n"/>
+      <c r="AB50" s="1" t="n"/>
+      <c r="AC50" s="1" t="n"/>
+      <c r="AD50" s="1" t="n"/>
+      <c r="AE50" s="1" t="n"/>
+      <c r="AF50" s="1" t="n"/>
+      <c r="AG50" s="1" t="n"/>
+      <c r="AH50" s="1" t="n"/>
+      <c r="AI50" s="1" t="n"/>
+      <c r="AJ50" s="1" t="n"/>
+      <c r="AK50" s="1" t="n"/>
+      <c r="AL50" s="1" t="n"/>
+      <c r="AM50" s="1" t="n"/>
+      <c r="AN50" s="1" t="n"/>
+      <c r="AO50" s="1" t="n"/>
+      <c r="AP50" s="1" t="n"/>
+      <c r="AQ50" s="1" t="n"/>
+      <c r="AR50" s="1" t="n"/>
+      <c r="AS50" s="1" t="n"/>
+      <c r="AT50" s="1" t="n"/>
+      <c r="AU50" s="1" t="n"/>
+      <c r="AV50" s="1" t="n"/>
+      <c r="AW50" s="1" t="n"/>
+      <c r="AX50" s="1" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="6" t="n"/>
+      <c r="C51" s="6" t="n"/>
+      <c r="D51" s="1" t="n"/>
+      <c r="E51" s="1" t="n"/>
+      <c r="F51" s="1" t="n"/>
+      <c r="G51" s="1" t="n"/>
+      <c r="H51" s="1" t="n"/>
+      <c r="I51" s="1" t="n"/>
+      <c r="J51" s="1" t="n"/>
+      <c r="K51" s="1" t="n"/>
+      <c r="L51" s="1" t="n"/>
+      <c r="M51" s="1" t="n"/>
+      <c r="N51" s="1" t="n"/>
+      <c r="O51" s="1" t="n"/>
+      <c r="P51" s="1" t="n"/>
+      <c r="Q51" s="1" t="n"/>
+      <c r="R51" s="1" t="n"/>
+      <c r="S51" s="1" t="n"/>
+      <c r="T51" s="1" t="n"/>
+      <c r="U51" s="1" t="n"/>
+      <c r="V51" s="1" t="n"/>
+      <c r="W51" s="1" t="n"/>
+      <c r="X51" s="1" t="n"/>
+      <c r="Y51" s="1" t="n"/>
+      <c r="Z51" s="1" t="n"/>
+      <c r="AA51" s="1" t="n"/>
+      <c r="AB51" s="1" t="n"/>
+      <c r="AC51" s="1" t="n"/>
+      <c r="AD51" s="1" t="n"/>
+      <c r="AE51" s="1" t="n"/>
+      <c r="AF51" s="1" t="n"/>
+      <c r="AG51" s="1" t="n"/>
+      <c r="AH51" s="1" t="n"/>
+      <c r="AI51" s="1" t="n"/>
+      <c r="AJ51" s="1" t="n"/>
+      <c r="AK51" s="1" t="n"/>
+      <c r="AL51" s="1" t="n"/>
+      <c r="AM51" s="1" t="n"/>
+      <c r="AN51" s="1" t="n"/>
+      <c r="AO51" s="1" t="n"/>
+      <c r="AP51" s="1" t="n"/>
+      <c r="AQ51" s="1" t="n"/>
+      <c r="AR51" s="1" t="n"/>
+      <c r="AS51" s="1" t="n"/>
+      <c r="AT51" s="1" t="n"/>
+      <c r="AU51" s="1" t="n"/>
+      <c r="AV51" s="1" t="n"/>
+      <c r="AW51" s="1" t="n"/>
+      <c r="AX51" s="1" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n"/>
+      <c r="B52" s="6" t="n"/>
+      <c r="C52" s="6" t="n"/>
+      <c r="D52" s="1" t="n"/>
+      <c r="E52" s="1" t="n"/>
+      <c r="F52" s="1" t="n"/>
+      <c r="G52" s="1" t="n"/>
+      <c r="H52" s="1" t="n"/>
+      <c r="I52" s="1" t="n"/>
+      <c r="J52" s="1" t="n"/>
+      <c r="K52" s="1" t="n"/>
+      <c r="L52" s="1" t="n"/>
+      <c r="M52" s="1" t="n"/>
+      <c r="N52" s="1" t="n"/>
+      <c r="O52" s="1" t="n"/>
+      <c r="P52" s="1" t="n"/>
+      <c r="Q52" s="1" t="n"/>
+      <c r="R52" s="1" t="n"/>
+      <c r="S52" s="1" t="n"/>
+      <c r="T52" s="1" t="n"/>
+      <c r="U52" s="1" t="n"/>
+      <c r="V52" s="1" t="n"/>
+      <c r="W52" s="1" t="n"/>
+      <c r="X52" s="1" t="n"/>
+      <c r="Y52" s="1" t="n"/>
+      <c r="Z52" s="1" t="n"/>
+      <c r="AA52" s="1" t="n"/>
+      <c r="AB52" s="1" t="n"/>
+      <c r="AC52" s="1" t="n"/>
+      <c r="AD52" s="1" t="n"/>
+      <c r="AE52" s="1" t="n"/>
+      <c r="AF52" s="1" t="n"/>
+      <c r="AG52" s="1" t="n"/>
+      <c r="AH52" s="1" t="n"/>
+      <c r="AI52" s="1" t="n"/>
+      <c r="AJ52" s="1" t="n"/>
+      <c r="AK52" s="1" t="n"/>
+      <c r="AL52" s="1" t="n"/>
+      <c r="AM52" s="1" t="n"/>
+      <c r="AN52" s="1" t="n"/>
+      <c r="AO52" s="1" t="n"/>
+      <c r="AP52" s="1" t="n"/>
+      <c r="AQ52" s="1" t="n"/>
+      <c r="AR52" s="1" t="n"/>
+      <c r="AS52" s="1" t="n"/>
+      <c r="AT52" s="1" t="n"/>
+      <c r="AU52" s="1" t="n"/>
+      <c r="AV52" s="1" t="n"/>
+      <c r="AW52" s="1" t="n"/>
+      <c r="AX52" s="1" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="6" t="n"/>
+      <c r="C53" s="6" t="n"/>
+      <c r="D53" s="1" t="n"/>
+      <c r="E53" s="1" t="n"/>
+      <c r="F53" s="1" t="n"/>
+      <c r="G53" s="1" t="n"/>
+      <c r="H53" s="1" t="n"/>
+      <c r="I53" s="1" t="n"/>
+      <c r="J53" s="1" t="n"/>
+      <c r="K53" s="1" t="n"/>
+      <c r="L53" s="1" t="n"/>
+      <c r="M53" s="1" t="n"/>
+      <c r="N53" s="1" t="n"/>
+      <c r="O53" s="1" t="n"/>
+      <c r="P53" s="1" t="n"/>
+      <c r="Q53" s="1" t="n"/>
+      <c r="R53" s="1" t="n"/>
+      <c r="S53" s="1" t="n"/>
+      <c r="T53" s="1" t="n"/>
+      <c r="U53" s="1" t="n"/>
+      <c r="V53" s="1" t="n"/>
+      <c r="W53" s="1" t="n"/>
+      <c r="X53" s="1" t="n"/>
+      <c r="Y53" s="1" t="n"/>
+      <c r="Z53" s="1" t="n"/>
+      <c r="AA53" s="1" t="n"/>
+      <c r="AB53" s="1" t="n"/>
+      <c r="AC53" s="1" t="n"/>
+      <c r="AD53" s="1" t="n"/>
+      <c r="AE53" s="1" t="n"/>
+      <c r="AF53" s="1" t="n"/>
+      <c r="AG53" s="1" t="n"/>
+      <c r="AH53" s="1" t="n"/>
+      <c r="AI53" s="1" t="n"/>
+      <c r="AJ53" s="1" t="n"/>
+      <c r="AK53" s="1" t="n"/>
+      <c r="AL53" s="1" t="n"/>
+      <c r="AM53" s="1" t="n"/>
+      <c r="AN53" s="1" t="n"/>
+      <c r="AO53" s="1" t="n"/>
+      <c r="AP53" s="1" t="n"/>
+      <c r="AQ53" s="1" t="n"/>
+      <c r="AR53" s="1" t="n"/>
+      <c r="AS53" s="1" t="n"/>
+      <c r="AT53" s="1" t="n"/>
+      <c r="AU53" s="1" t="n"/>
+      <c r="AV53" s="1" t="n"/>
+      <c r="AW53" s="1" t="n"/>
+      <c r="AX53" s="1" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="6" t="n"/>
+      <c r="C54" s="6" t="n"/>
+      <c r="D54" s="1" t="n"/>
+      <c r="E54" s="1" t="n"/>
+      <c r="F54" s="1" t="n"/>
+      <c r="G54" s="1" t="n"/>
+      <c r="H54" s="1" t="n"/>
+      <c r="I54" s="1" t="n"/>
+      <c r="J54" s="1" t="n"/>
+      <c r="K54" s="1" t="n"/>
+      <c r="L54" s="1" t="n"/>
+      <c r="M54" s="1" t="n"/>
+      <c r="N54" s="1" t="n"/>
+      <c r="O54" s="1" t="n"/>
+      <c r="P54" s="1" t="n"/>
+      <c r="Q54" s="1" t="n"/>
+      <c r="R54" s="1" t="n"/>
+      <c r="S54" s="1" t="n"/>
+      <c r="T54" s="1" t="n"/>
+      <c r="U54" s="1" t="n"/>
+      <c r="V54" s="1" t="n"/>
+      <c r="W54" s="1" t="n"/>
+      <c r="X54" s="1" t="n"/>
+      <c r="Y54" s="1" t="n"/>
+      <c r="Z54" s="1" t="n"/>
+      <c r="AA54" s="1" t="n"/>
+      <c r="AB54" s="1" t="n"/>
+      <c r="AC54" s="1" t="n"/>
+      <c r="AD54" s="1" t="n"/>
+      <c r="AE54" s="1" t="n"/>
+      <c r="AF54" s="1" t="n"/>
+      <c r="AG54" s="1" t="n"/>
+      <c r="AH54" s="1" t="n"/>
+      <c r="AI54" s="1" t="n"/>
+      <c r="AJ54" s="1" t="n"/>
+      <c r="AK54" s="1" t="n"/>
+      <c r="AL54" s="1" t="n"/>
+      <c r="AM54" s="1" t="n"/>
+      <c r="AN54" s="1" t="n"/>
+      <c r="AO54" s="1" t="n"/>
+      <c r="AP54" s="1" t="n"/>
+      <c r="AQ54" s="1" t="n"/>
+      <c r="AR54" s="1" t="n"/>
+      <c r="AS54" s="1" t="n"/>
+      <c r="AT54" s="1" t="n"/>
+      <c r="AU54" s="1" t="n"/>
+      <c r="AV54" s="1" t="n"/>
+      <c r="AW54" s="1" t="n"/>
+      <c r="AX54" s="1" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="6" t="n"/>
+      <c r="C55" s="6" t="n"/>
+      <c r="D55" s="1" t="n"/>
+      <c r="E55" s="1" t="n"/>
+      <c r="F55" s="1" t="n"/>
+      <c r="G55" s="1" t="n"/>
+      <c r="H55" s="1" t="n"/>
+      <c r="I55" s="1" t="n"/>
+      <c r="J55" s="1" t="n"/>
+      <c r="K55" s="1" t="n"/>
+      <c r="L55" s="1" t="n"/>
+      <c r="M55" s="1" t="n"/>
+      <c r="N55" s="1" t="n"/>
+      <c r="O55" s="1" t="n"/>
+      <c r="P55" s="1" t="n"/>
+      <c r="Q55" s="1" t="n"/>
+      <c r="R55" s="1" t="n"/>
+      <c r="S55" s="1" t="n"/>
+      <c r="T55" s="1" t="n"/>
+      <c r="U55" s="1" t="n"/>
+      <c r="V55" s="1" t="n"/>
+      <c r="W55" s="1" t="n"/>
+      <c r="X55" s="1" t="n"/>
+      <c r="Y55" s="1" t="n"/>
+      <c r="Z55" s="1" t="n"/>
+      <c r="AA55" s="1" t="n"/>
+      <c r="AB55" s="1" t="n"/>
+      <c r="AC55" s="1" t="n"/>
+      <c r="AD55" s="1" t="n"/>
+      <c r="AE55" s="1" t="n"/>
+      <c r="AF55" s="1" t="n"/>
+      <c r="AG55" s="1" t="n"/>
+      <c r="AH55" s="1" t="n"/>
+      <c r="AI55" s="1" t="n"/>
+      <c r="AJ55" s="1" t="n"/>
+      <c r="AK55" s="1" t="n"/>
+      <c r="AL55" s="1" t="n"/>
+      <c r="AM55" s="1" t="n"/>
+      <c r="AN55" s="1" t="n"/>
+      <c r="AO55" s="1" t="n"/>
+      <c r="AP55" s="1" t="n"/>
+      <c r="AQ55" s="1" t="n"/>
+      <c r="AR55" s="1" t="n"/>
+      <c r="AS55" s="1" t="n"/>
+      <c r="AT55" s="1" t="n"/>
+      <c r="AU55" s="1" t="n"/>
+      <c r="AV55" s="1" t="n"/>
+      <c r="AW55" s="1" t="n"/>
+      <c r="AX55" s="1" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="6" t="n"/>
+      <c r="C56" s="6" t="n"/>
+      <c r="D56" s="1" t="n"/>
+      <c r="E56" s="1" t="n"/>
+      <c r="F56" s="1" t="n"/>
+      <c r="G56" s="1" t="n"/>
+      <c r="H56" s="1" t="n"/>
+      <c r="I56" s="1" t="n"/>
+      <c r="J56" s="1" t="n"/>
+      <c r="K56" s="1" t="n"/>
+      <c r="L56" s="1" t="n"/>
+      <c r="M56" s="1" t="n"/>
+      <c r="N56" s="1" t="n"/>
+      <c r="O56" s="1" t="n"/>
+      <c r="P56" s="1" t="n"/>
+      <c r="Q56" s="1" t="n"/>
+      <c r="R56" s="1" t="n"/>
+      <c r="S56" s="1" t="n"/>
+      <c r="T56" s="1" t="n"/>
+      <c r="U56" s="1" t="n"/>
+      <c r="V56" s="1" t="n"/>
+      <c r="W56" s="1" t="n"/>
+      <c r="X56" s="1" t="n"/>
+      <c r="Y56" s="1" t="n"/>
+      <c r="Z56" s="1" t="n"/>
+      <c r="AA56" s="1" t="n"/>
+      <c r="AB56" s="1" t="n"/>
+      <c r="AC56" s="1" t="n"/>
+      <c r="AD56" s="1" t="n"/>
+      <c r="AE56" s="1" t="n"/>
+      <c r="AF56" s="1" t="n"/>
+      <c r="AG56" s="1" t="n"/>
+      <c r="AH56" s="1" t="n"/>
+      <c r="AI56" s="1" t="n"/>
+      <c r="AJ56" s="1" t="n"/>
+      <c r="AK56" s="1" t="n"/>
+      <c r="AL56" s="1" t="n"/>
+      <c r="AM56" s="1" t="n"/>
+      <c r="AN56" s="1" t="n"/>
+      <c r="AO56" s="1" t="n"/>
+      <c r="AP56" s="1" t="n"/>
+      <c r="AQ56" s="1" t="n"/>
+      <c r="AR56" s="1" t="n"/>
+      <c r="AS56" s="1" t="n"/>
+      <c r="AT56" s="1" t="n"/>
+      <c r="AU56" s="1" t="n"/>
+      <c r="AV56" s="1" t="n"/>
+      <c r="AW56" s="1" t="n"/>
+      <c r="AX56" s="1" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="6" t="n"/>
+      <c r="C57" s="6" t="n"/>
+      <c r="D57" s="1" t="n"/>
+      <c r="E57" s="1" t="n"/>
+      <c r="F57" s="1" t="n"/>
+      <c r="G57" s="1" t="n"/>
+      <c r="H57" s="1" t="n"/>
+      <c r="I57" s="1" t="n"/>
+      <c r="J57" s="1" t="n"/>
+      <c r="K57" s="1" t="n"/>
+      <c r="L57" s="1" t="n"/>
+      <c r="M57" s="1" t="n"/>
+      <c r="N57" s="1" t="n"/>
+      <c r="O57" s="1" t="n"/>
+      <c r="P57" s="1" t="n"/>
+      <c r="Q57" s="1" t="n"/>
+      <c r="R57" s="1" t="n"/>
+      <c r="S57" s="1" t="n"/>
+      <c r="T57" s="1" t="n"/>
+      <c r="U57" s="1" t="n"/>
+      <c r="V57" s="1" t="n"/>
+      <c r="W57" s="1" t="n"/>
+      <c r="X57" s="1" t="n"/>
+      <c r="Y57" s="1" t="n"/>
+      <c r="Z57" s="1" t="n"/>
+      <c r="AA57" s="1" t="n"/>
+      <c r="AB57" s="1" t="n"/>
+      <c r="AC57" s="1" t="n"/>
+      <c r="AD57" s="1" t="n"/>
+      <c r="AE57" s="1" t="n"/>
+      <c r="AF57" s="1" t="n"/>
+      <c r="AG57" s="1" t="n"/>
+      <c r="AH57" s="1" t="n"/>
+      <c r="AI57" s="1" t="n"/>
+      <c r="AJ57" s="1" t="n"/>
+      <c r="AK57" s="1" t="n"/>
+      <c r="AL57" s="1" t="n"/>
+      <c r="AM57" s="1" t="n"/>
+      <c r="AN57" s="1" t="n"/>
+      <c r="AO57" s="1" t="n"/>
+      <c r="AP57" s="1" t="n"/>
+      <c r="AQ57" s="1" t="n"/>
+      <c r="AR57" s="1" t="n"/>
+      <c r="AS57" s="1" t="n"/>
+      <c r="AT57" s="1" t="n"/>
+      <c r="AU57" s="1" t="n"/>
+      <c r="AV57" s="1" t="n"/>
+      <c r="AW57" s="1" t="n"/>
+      <c r="AX57" s="1" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="6" t="n"/>
+      <c r="C58" s="6" t="n"/>
+      <c r="D58" s="1" t="n"/>
+      <c r="E58" s="1" t="n"/>
+      <c r="F58" s="1" t="n"/>
+      <c r="G58" s="1" t="n"/>
+      <c r="H58" s="1" t="n"/>
+      <c r="I58" s="1" t="n"/>
+      <c r="J58" s="1" t="n"/>
+      <c r="K58" s="1" t="n"/>
+      <c r="L58" s="1" t="n"/>
+      <c r="M58" s="1" t="n"/>
+      <c r="N58" s="1" t="n"/>
+      <c r="O58" s="1" t="n"/>
+      <c r="P58" s="1" t="n"/>
+      <c r="Q58" s="1" t="n"/>
+      <c r="R58" s="1" t="n"/>
+      <c r="S58" s="1" t="n"/>
+      <c r="T58" s="1" t="n"/>
+      <c r="U58" s="1" t="n"/>
+      <c r="V58" s="1" t="n"/>
+      <c r="W58" s="1" t="n"/>
+      <c r="X58" s="1" t="n"/>
+      <c r="Y58" s="1" t="n"/>
+      <c r="Z58" s="1" t="n"/>
+      <c r="AA58" s="1" t="n"/>
+      <c r="AB58" s="1" t="n"/>
+      <c r="AC58" s="1" t="n"/>
+      <c r="AD58" s="1" t="n"/>
+      <c r="AE58" s="1" t="n"/>
+      <c r="AF58" s="1" t="n"/>
+      <c r="AG58" s="1" t="n"/>
+      <c r="AH58" s="1" t="n"/>
+      <c r="AI58" s="1" t="n"/>
+      <c r="AJ58" s="1" t="n"/>
+      <c r="AK58" s="1" t="n"/>
+      <c r="AL58" s="1" t="n"/>
+      <c r="AM58" s="1" t="n"/>
+      <c r="AN58" s="1" t="n"/>
+      <c r="AO58" s="1" t="n"/>
+      <c r="AP58" s="1" t="n"/>
+      <c r="AQ58" s="1" t="n"/>
+      <c r="AR58" s="1" t="n"/>
+      <c r="AS58" s="1" t="n"/>
+      <c r="AT58" s="1" t="n"/>
+      <c r="AU58" s="1" t="n"/>
+      <c r="AV58" s="1" t="n"/>
+      <c r="AW58" s="1" t="n"/>
+      <c r="AX58" s="1" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="6" t="n"/>
+      <c r="C59" s="6" t="n"/>
+      <c r="D59" s="1" t="n"/>
+      <c r="E59" s="1" t="n"/>
+      <c r="F59" s="1" t="n"/>
+      <c r="G59" s="1" t="n"/>
+      <c r="H59" s="1" t="n"/>
+      <c r="I59" s="1" t="n"/>
+      <c r="J59" s="1" t="n"/>
+      <c r="K59" s="1" t="n"/>
+      <c r="L59" s="1" t="n"/>
+      <c r="M59" s="1" t="n"/>
+      <c r="N59" s="1" t="n"/>
+      <c r="O59" s="1" t="n"/>
+      <c r="P59" s="1" t="n"/>
+      <c r="Q59" s="1" t="n"/>
+      <c r="R59" s="1" t="n"/>
+      <c r="S59" s="1" t="n"/>
+      <c r="T59" s="1" t="n"/>
+      <c r="U59" s="1" t="n"/>
+      <c r="V59" s="1" t="n"/>
+      <c r="W59" s="1" t="n"/>
+      <c r="X59" s="1" t="n"/>
+      <c r="Y59" s="1" t="n"/>
+      <c r="Z59" s="1" t="n"/>
+      <c r="AA59" s="1" t="n"/>
+      <c r="AB59" s="1" t="n"/>
+      <c r="AC59" s="1" t="n"/>
+      <c r="AD59" s="1" t="n"/>
+      <c r="AE59" s="1" t="n"/>
+      <c r="AF59" s="1" t="n"/>
+      <c r="AG59" s="1" t="n"/>
+      <c r="AH59" s="1" t="n"/>
+      <c r="AI59" s="1" t="n"/>
+      <c r="AJ59" s="1" t="n"/>
+      <c r="AK59" s="1" t="n"/>
+      <c r="AL59" s="1" t="n"/>
+      <c r="AM59" s="1" t="n"/>
+      <c r="AN59" s="1" t="n"/>
+      <c r="AO59" s="1" t="n"/>
+      <c r="AP59" s="1" t="n"/>
+      <c r="AQ59" s="1" t="n"/>
+      <c r="AR59" s="1" t="n"/>
+      <c r="AS59" s="1" t="n"/>
+      <c r="AT59" s="1" t="n"/>
+      <c r="AU59" s="1" t="n"/>
+      <c r="AV59" s="1" t="n"/>
+      <c r="AW59" s="1" t="n"/>
+      <c r="AX59" s="1" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n"/>
+      <c r="B60" s="6" t="n"/>
+      <c r="C60" s="6" t="n"/>
+      <c r="D60" s="1" t="n"/>
+      <c r="E60" s="1" t="n"/>
+      <c r="F60" s="1" t="n"/>
+      <c r="G60" s="1" t="n"/>
+      <c r="H60" s="1" t="n"/>
+      <c r="I60" s="1" t="n"/>
+      <c r="J60" s="1" t="n"/>
+      <c r="K60" s="1" t="n"/>
+      <c r="L60" s="1" t="n"/>
+      <c r="M60" s="1" t="n"/>
+      <c r="N60" s="1" t="n"/>
+      <c r="O60" s="1" t="n"/>
+      <c r="P60" s="1" t="n"/>
+      <c r="Q60" s="1" t="n"/>
+      <c r="R60" s="1" t="n"/>
+      <c r="S60" s="1" t="n"/>
+      <c r="T60" s="1" t="n"/>
+      <c r="U60" s="1" t="n"/>
+      <c r="V60" s="1" t="n"/>
+      <c r="W60" s="1" t="n"/>
+      <c r="X60" s="1" t="n"/>
+      <c r="Y60" s="1" t="n"/>
+      <c r="Z60" s="1" t="n"/>
+      <c r="AA60" s="1" t="n"/>
+      <c r="AB60" s="1" t="n"/>
+      <c r="AC60" s="1" t="n"/>
+      <c r="AD60" s="1" t="n"/>
+      <c r="AE60" s="1" t="n"/>
+      <c r="AF60" s="1" t="n"/>
+      <c r="AG60" s="1" t="n"/>
+      <c r="AH60" s="1" t="n"/>
+      <c r="AI60" s="1" t="n"/>
+      <c r="AJ60" s="1" t="n"/>
+      <c r="AK60" s="1" t="n"/>
+      <c r="AL60" s="1" t="n"/>
+      <c r="AM60" s="1" t="n"/>
+      <c r="AN60" s="1" t="n"/>
+      <c r="AO60" s="1" t="n"/>
+      <c r="AP60" s="1" t="n"/>
+      <c r="AQ60" s="1" t="n"/>
+      <c r="AR60" s="1" t="n"/>
+      <c r="AS60" s="1" t="n"/>
+      <c r="AT60" s="1" t="n"/>
+      <c r="AU60" s="1" t="n"/>
+      <c r="AV60" s="1" t="n"/>
+      <c r="AW60" s="1" t="n"/>
+      <c r="AX60" s="1" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n"/>
+      <c r="B61" s="6" t="n"/>
+      <c r="C61" s="6" t="n"/>
+      <c r="D61" s="1" t="n"/>
+      <c r="E61" s="1" t="n"/>
+      <c r="F61" s="1" t="n"/>
+      <c r="G61" s="1" t="n"/>
+      <c r="H61" s="1" t="n"/>
+      <c r="I61" s="1" t="n"/>
+      <c r="J61" s="1" t="n"/>
+      <c r="K61" s="1" t="n"/>
+      <c r="L61" s="1" t="n"/>
+      <c r="M61" s="1" t="n"/>
+      <c r="N61" s="1" t="n"/>
+      <c r="O61" s="1" t="n"/>
+      <c r="P61" s="1" t="n"/>
+      <c r="Q61" s="1" t="n"/>
+      <c r="R61" s="1" t="n"/>
+      <c r="S61" s="1" t="n"/>
+      <c r="T61" s="1" t="n"/>
+      <c r="U61" s="1" t="n"/>
+      <c r="V61" s="1" t="n"/>
+      <c r="W61" s="1" t="n"/>
+      <c r="X61" s="1" t="n"/>
+      <c r="Y61" s="1" t="n"/>
+      <c r="Z61" s="1" t="n"/>
+      <c r="AA61" s="1" t="n"/>
+      <c r="AB61" s="1" t="n"/>
+      <c r="AC61" s="1" t="n"/>
+      <c r="AD61" s="1" t="n"/>
+      <c r="AE61" s="1" t="n"/>
+      <c r="AF61" s="1" t="n"/>
+      <c r="AG61" s="1" t="n"/>
+      <c r="AH61" s="1" t="n"/>
+      <c r="AI61" s="1" t="n"/>
+      <c r="AJ61" s="1" t="n"/>
+      <c r="AK61" s="1" t="n"/>
+      <c r="AL61" s="1" t="n"/>
+      <c r="AM61" s="1" t="n"/>
+      <c r="AN61" s="1" t="n"/>
+      <c r="AO61" s="1" t="n"/>
+      <c r="AP61" s="1" t="n"/>
+      <c r="AQ61" s="1" t="n"/>
+      <c r="AR61" s="1" t="n"/>
+      <c r="AS61" s="1" t="n"/>
+      <c r="AT61" s="1" t="n"/>
+      <c r="AU61" s="1" t="n"/>
+      <c r="AV61" s="1" t="n"/>
+      <c r="AW61" s="1" t="n"/>
+      <c r="AX61" s="1" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n"/>
+      <c r="B62" s="6" t="n"/>
+      <c r="C62" s="6" t="n"/>
+      <c r="D62" s="1" t="n"/>
+      <c r="E62" s="1" t="n"/>
+      <c r="F62" s="1" t="n"/>
+      <c r="G62" s="1" t="n"/>
+      <c r="H62" s="1" t="n"/>
+      <c r="I62" s="1" t="n"/>
+      <c r="J62" s="1" t="n"/>
+      <c r="K62" s="1" t="n"/>
+      <c r="L62" s="1" t="n"/>
+      <c r="M62" s="1" t="n"/>
+      <c r="N62" s="1" t="n"/>
+      <c r="O62" s="1" t="n"/>
+      <c r="P62" s="1" t="n"/>
+      <c r="Q62" s="1" t="n"/>
+      <c r="R62" s="1" t="n"/>
+      <c r="S62" s="1" t="n"/>
+      <c r="T62" s="1" t="n"/>
+      <c r="U62" s="1" t="n"/>
+      <c r="V62" s="1" t="n"/>
+      <c r="W62" s="1" t="n"/>
+      <c r="X62" s="1" t="n"/>
+      <c r="Y62" s="1" t="n"/>
+      <c r="Z62" s="1" t="n"/>
+      <c r="AA62" s="1" t="n"/>
+      <c r="AB62" s="1" t="n"/>
+      <c r="AC62" s="1" t="n"/>
+      <c r="AD62" s="1" t="n"/>
+      <c r="AE62" s="1" t="n"/>
+      <c r="AF62" s="1" t="n"/>
+      <c r="AG62" s="1" t="n"/>
+      <c r="AH62" s="1" t="n"/>
+      <c r="AI62" s="1" t="n"/>
+      <c r="AJ62" s="1" t="n"/>
+      <c r="AK62" s="1" t="n"/>
+      <c r="AL62" s="1" t="n"/>
+      <c r="AM62" s="1" t="n"/>
+      <c r="AN62" s="1" t="n"/>
+      <c r="AO62" s="1" t="n"/>
+      <c r="AP62" s="1" t="n"/>
+      <c r="AQ62" s="1" t="n"/>
+      <c r="AR62" s="1" t="n"/>
+      <c r="AS62" s="1" t="n"/>
+      <c r="AT62" s="1" t="n"/>
+      <c r="AU62" s="1" t="n"/>
+      <c r="AV62" s="1" t="n"/>
+      <c r="AW62" s="1" t="n"/>
+      <c r="AX62" s="1" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n"/>
+      <c r="B63" s="6" t="n"/>
+      <c r="C63" s="6" t="n"/>
+      <c r="D63" s="1" t="n"/>
+      <c r="E63" s="1" t="n"/>
+      <c r="F63" s="1" t="n"/>
+      <c r="G63" s="1" t="n"/>
+      <c r="H63" s="1" t="n"/>
+      <c r="I63" s="1" t="n"/>
+      <c r="J63" s="1" t="n"/>
+      <c r="K63" s="1" t="n"/>
+      <c r="L63" s="1" t="n"/>
+      <c r="M63" s="1" t="n"/>
+      <c r="N63" s="1" t="n"/>
+      <c r="O63" s="1" t="n"/>
+      <c r="P63" s="1" t="n"/>
+      <c r="Q63" s="1" t="n"/>
+      <c r="R63" s="1" t="n"/>
+      <c r="S63" s="1" t="n"/>
+      <c r="T63" s="1" t="n"/>
+      <c r="U63" s="1" t="n"/>
+      <c r="V63" s="1" t="n"/>
+      <c r="W63" s="1" t="n"/>
+      <c r="X63" s="1" t="n"/>
+      <c r="Y63" s="1" t="n"/>
+      <c r="Z63" s="1" t="n"/>
+      <c r="AA63" s="1" t="n"/>
+      <c r="AB63" s="1" t="n"/>
+      <c r="AC63" s="1" t="n"/>
+      <c r="AD63" s="1" t="n"/>
+      <c r="AE63" s="1" t="n"/>
+      <c r="AF63" s="1" t="n"/>
+      <c r="AG63" s="1" t="n"/>
+      <c r="AH63" s="1" t="n"/>
+      <c r="AI63" s="1" t="n"/>
+      <c r="AJ63" s="1" t="n"/>
+      <c r="AK63" s="1" t="n"/>
+      <c r="AL63" s="1" t="n"/>
+      <c r="AM63" s="1" t="n"/>
+      <c r="AN63" s="1" t="n"/>
+      <c r="AO63" s="1" t="n"/>
+      <c r="AP63" s="1" t="n"/>
+      <c r="AQ63" s="1" t="n"/>
+      <c r="AR63" s="1" t="n"/>
+      <c r="AS63" s="1" t="n"/>
+      <c r="AT63" s="1" t="n"/>
+      <c r="AU63" s="1" t="n"/>
+      <c r="AV63" s="1" t="n"/>
+      <c r="AW63" s="1" t="n"/>
+      <c r="AX63" s="1" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n"/>
+      <c r="B64" s="6" t="n"/>
+      <c r="C64" s="6" t="n"/>
+      <c r="D64" s="1" t="n"/>
+      <c r="E64" s="1" t="n"/>
+      <c r="F64" s="1" t="n"/>
+      <c r="G64" s="1" t="n"/>
+      <c r="H64" s="1" t="n"/>
+      <c r="I64" s="1" t="n"/>
+      <c r="J64" s="1" t="n"/>
+      <c r="K64" s="1" t="n"/>
+      <c r="L64" s="1" t="n"/>
+      <c r="M64" s="1" t="n"/>
+      <c r="N64" s="1" t="n"/>
+      <c r="O64" s="1" t="n"/>
+      <c r="P64" s="1" t="n"/>
+      <c r="Q64" s="1" t="n"/>
+      <c r="R64" s="1" t="n"/>
+      <c r="S64" s="1" t="n"/>
+      <c r="T64" s="1" t="n"/>
+      <c r="U64" s="1" t="n"/>
+      <c r="V64" s="1" t="n"/>
+      <c r="W64" s="1" t="n"/>
+      <c r="X64" s="1" t="n"/>
+      <c r="Y64" s="1" t="n"/>
+      <c r="Z64" s="1" t="n"/>
+      <c r="AA64" s="1" t="n"/>
+      <c r="AB64" s="1" t="n"/>
+      <c r="AC64" s="1" t="n"/>
+      <c r="AD64" s="1" t="n"/>
+      <c r="AE64" s="1" t="n"/>
+      <c r="AF64" s="1" t="n"/>
+      <c r="AG64" s="1" t="n"/>
+      <c r="AH64" s="1" t="n"/>
+      <c r="AI64" s="1" t="n"/>
+      <c r="AJ64" s="1" t="n"/>
+      <c r="AK64" s="1" t="n"/>
+      <c r="AL64" s="1" t="n"/>
+      <c r="AM64" s="1" t="n"/>
+      <c r="AN64" s="1" t="n"/>
+      <c r="AO64" s="1" t="n"/>
+      <c r="AP64" s="1" t="n"/>
+      <c r="AQ64" s="1" t="n"/>
+      <c r="AR64" s="1" t="n"/>
+      <c r="AS64" s="1" t="n"/>
+      <c r="AT64" s="1" t="n"/>
+      <c r="AU64" s="1" t="n"/>
+      <c r="AV64" s="1" t="n"/>
+      <c r="AW64" s="1" t="n"/>
+      <c r="AX64" s="1" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n"/>
+      <c r="B65" s="6" t="n"/>
+      <c r="C65" s="6" t="n"/>
+      <c r="D65" s="1" t="n"/>
+      <c r="E65" s="1" t="n"/>
+      <c r="F65" s="1" t="n"/>
+      <c r="G65" s="1" t="n"/>
+      <c r="H65" s="1" t="n"/>
+      <c r="I65" s="1" t="n"/>
+      <c r="J65" s="1" t="n"/>
+      <c r="K65" s="1" t="n"/>
+      <c r="L65" s="1" t="n"/>
+      <c r="M65" s="1" t="n"/>
+      <c r="N65" s="1" t="n"/>
+      <c r="O65" s="1" t="n"/>
+      <c r="P65" s="1" t="n"/>
+      <c r="Q65" s="1" t="n"/>
+      <c r="R65" s="1" t="n"/>
+      <c r="S65" s="1" t="n"/>
+      <c r="T65" s="1" t="n"/>
+      <c r="U65" s="1" t="n"/>
+      <c r="V65" s="1" t="n"/>
+      <c r="W65" s="1" t="n"/>
+      <c r="X65" s="1" t="n"/>
+      <c r="Y65" s="1" t="n"/>
+      <c r="Z65" s="1" t="n"/>
+      <c r="AA65" s="1" t="n"/>
+      <c r="AB65" s="1" t="n"/>
+      <c r="AC65" s="1" t="n"/>
+      <c r="AD65" s="1" t="n"/>
+      <c r="AE65" s="1" t="n"/>
+      <c r="AF65" s="1" t="n"/>
+      <c r="AG65" s="1" t="n"/>
+      <c r="AH65" s="1" t="n"/>
+      <c r="AI65" s="1" t="n"/>
+      <c r="AJ65" s="1" t="n"/>
+      <c r="AK65" s="1" t="n"/>
+      <c r="AL65" s="1" t="n"/>
+      <c r="AM65" s="1" t="n"/>
+      <c r="AN65" s="1" t="n"/>
+      <c r="AO65" s="1" t="n"/>
+      <c r="AP65" s="1" t="n"/>
+      <c r="AQ65" s="1" t="n"/>
+      <c r="AR65" s="1" t="n"/>
+      <c r="AS65" s="1" t="n"/>
+      <c r="AT65" s="1" t="n"/>
+      <c r="AU65" s="1" t="n"/>
+      <c r="AV65" s="1" t="n"/>
+      <c r="AW65" s="1" t="n"/>
+      <c r="AX65" s="1" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n"/>
+      <c r="B66" s="6" t="n"/>
+      <c r="C66" s="6" t="n"/>
+      <c r="D66" s="1" t="n"/>
+      <c r="E66" s="1" t="n"/>
+      <c r="F66" s="1" t="n"/>
+      <c r="G66" s="1" t="n"/>
+      <c r="H66" s="1" t="n"/>
+      <c r="I66" s="1" t="n"/>
+      <c r="J66" s="1" t="n"/>
+      <c r="K66" s="1" t="n"/>
+      <c r="L66" s="1" t="n"/>
+      <c r="M66" s="1" t="n"/>
+      <c r="N66" s="1" t="n"/>
+      <c r="O66" s="1" t="n"/>
+      <c r="P66" s="1" t="n"/>
+      <c r="Q66" s="1" t="n"/>
+      <c r="R66" s="1" t="n"/>
+      <c r="S66" s="1" t="n"/>
+      <c r="T66" s="1" t="n"/>
+      <c r="U66" s="1" t="n"/>
+      <c r="V66" s="1" t="n"/>
+      <c r="W66" s="1" t="n"/>
+      <c r="X66" s="1" t="n"/>
+      <c r="Y66" s="1" t="n"/>
+      <c r="Z66" s="1" t="n"/>
+      <c r="AA66" s="1" t="n"/>
+      <c r="AB66" s="1" t="n"/>
+      <c r="AC66" s="1" t="n"/>
+      <c r="AD66" s="1" t="n"/>
+      <c r="AE66" s="1" t="n"/>
+      <c r="AF66" s="1" t="n"/>
+      <c r="AG66" s="1" t="n"/>
+      <c r="AH66" s="1" t="n"/>
+      <c r="AI66" s="1" t="n"/>
+      <c r="AJ66" s="1" t="n"/>
+      <c r="AK66" s="1" t="n"/>
+      <c r="AL66" s="1" t="n"/>
+      <c r="AM66" s="1" t="n"/>
+      <c r="AN66" s="1" t="n"/>
+      <c r="AO66" s="1" t="n"/>
+      <c r="AP66" s="1" t="n"/>
+      <c r="AQ66" s="1" t="n"/>
+      <c r="AR66" s="1" t="n"/>
+      <c r="AS66" s="1" t="n"/>
+      <c r="AT66" s="1" t="n"/>
+      <c r="AU66" s="1" t="n"/>
+      <c r="AV66" s="1" t="n"/>
+      <c r="AW66" s="1" t="n"/>
+      <c r="AX66" s="1" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n"/>
+      <c r="B67" s="6" t="n"/>
+      <c r="C67" s="6" t="n"/>
+      <c r="D67" s="1" t="n"/>
+      <c r="E67" s="1" t="n"/>
+      <c r="F67" s="1" t="n"/>
+      <c r="G67" s="1" t="n"/>
+      <c r="H67" s="1" t="n"/>
+      <c r="I67" s="1" t="n"/>
+      <c r="J67" s="1" t="n"/>
+      <c r="K67" s="1" t="n"/>
+      <c r="L67" s="1" t="n"/>
+      <c r="M67" s="1" t="n"/>
+      <c r="N67" s="1" t="n"/>
+      <c r="O67" s="1" t="n"/>
+      <c r="P67" s="1" t="n"/>
+      <c r="Q67" s="1" t="n"/>
+      <c r="R67" s="1" t="n"/>
+      <c r="S67" s="1" t="n"/>
+      <c r="T67" s="1" t="n"/>
+      <c r="U67" s="1" t="n"/>
+      <c r="V67" s="1" t="n"/>
+      <c r="W67" s="1" t="n"/>
+      <c r="X67" s="1" t="n"/>
+      <c r="Y67" s="1" t="n"/>
+      <c r="Z67" s="1" t="n"/>
+      <c r="AA67" s="1" t="n"/>
+      <c r="AB67" s="1" t="n"/>
+      <c r="AC67" s="1" t="n"/>
+      <c r="AD67" s="1" t="n"/>
+      <c r="AE67" s="1" t="n"/>
+      <c r="AF67" s="1" t="n"/>
+      <c r="AG67" s="1" t="n"/>
+      <c r="AH67" s="1" t="n"/>
+      <c r="AI67" s="1" t="n"/>
+      <c r="AJ67" s="1" t="n"/>
+      <c r="AK67" s="1" t="n"/>
+      <c r="AL67" s="1" t="n"/>
+      <c r="AM67" s="1" t="n"/>
+      <c r="AN67" s="1" t="n"/>
+      <c r="AO67" s="1" t="n"/>
+      <c r="AP67" s="1" t="n"/>
+      <c r="AQ67" s="1" t="n"/>
+      <c r="AR67" s="1" t="n"/>
+      <c r="AS67" s="1" t="n"/>
+      <c r="AT67" s="1" t="n"/>
+      <c r="AU67" s="1" t="n"/>
+      <c r="AV67" s="1" t="n"/>
+      <c r="AW67" s="1" t="n"/>
+      <c r="AX67" s="1" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n"/>
+      <c r="B68" s="6" t="n"/>
+      <c r="C68" s="6" t="n"/>
+      <c r="D68" s="1" t="n"/>
+      <c r="E68" s="1" t="n"/>
+      <c r="F68" s="1" t="n"/>
+      <c r="G68" s="1" t="n"/>
+      <c r="H68" s="1" t="n"/>
+      <c r="I68" s="1" t="n"/>
+      <c r="J68" s="1" t="n"/>
+      <c r="K68" s="1" t="n"/>
+      <c r="L68" s="1" t="n"/>
+      <c r="M68" s="1" t="n"/>
+      <c r="N68" s="1" t="n"/>
+      <c r="O68" s="1" t="n"/>
+      <c r="P68" s="1" t="n"/>
+      <c r="Q68" s="1" t="n"/>
+      <c r="R68" s="1" t="n"/>
+      <c r="S68" s="1" t="n"/>
+      <c r="T68" s="1" t="n"/>
+      <c r="U68" s="1" t="n"/>
+      <c r="V68" s="1" t="n"/>
+      <c r="W68" s="1" t="n"/>
+      <c r="X68" s="1" t="n"/>
+      <c r="Y68" s="1" t="n"/>
+      <c r="Z68" s="1" t="n"/>
+      <c r="AA68" s="1" t="n"/>
+      <c r="AB68" s="1" t="n"/>
+      <c r="AC68" s="1" t="n"/>
+      <c r="AD68" s="1" t="n"/>
+      <c r="AE68" s="1" t="n"/>
+      <c r="AF68" s="1" t="n"/>
+      <c r="AG68" s="1" t="n"/>
+      <c r="AH68" s="1" t="n"/>
+      <c r="AI68" s="1" t="n"/>
+      <c r="AJ68" s="1" t="n"/>
+      <c r="AK68" s="1" t="n"/>
+      <c r="AL68" s="1" t="n"/>
+      <c r="AM68" s="1" t="n"/>
+      <c r="AN68" s="1" t="n"/>
+      <c r="AO68" s="1" t="n"/>
+      <c r="AP68" s="1" t="n"/>
+      <c r="AQ68" s="1" t="n"/>
+      <c r="AR68" s="1" t="n"/>
+      <c r="AS68" s="1" t="n"/>
+      <c r="AT68" s="1" t="n"/>
+      <c r="AU68" s="1" t="n"/>
+      <c r="AV68" s="1" t="n"/>
+      <c r="AW68" s="1" t="n"/>
+      <c r="AX68" s="1" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n"/>
+      <c r="B69" s="6" t="n"/>
+      <c r="C69" s="6" t="n"/>
+      <c r="D69" s="1" t="n"/>
+      <c r="E69" s="1" t="n"/>
+      <c r="F69" s="1" t="n"/>
+      <c r="G69" s="1" t="n"/>
+      <c r="H69" s="1" t="n"/>
+      <c r="I69" s="1" t="n"/>
+      <c r="J69" s="1" t="n"/>
+      <c r="K69" s="1" t="n"/>
+      <c r="L69" s="1" t="n"/>
+      <c r="M69" s="1" t="n"/>
+      <c r="N69" s="1" t="n"/>
+      <c r="O69" s="1" t="n"/>
+      <c r="P69" s="1" t="n"/>
+      <c r="Q69" s="1" t="n"/>
+      <c r="R69" s="1" t="n"/>
+      <c r="S69" s="1" t="n"/>
+      <c r="T69" s="1" t="n"/>
+      <c r="U69" s="1" t="n"/>
+      <c r="V69" s="1" t="n"/>
+      <c r="W69" s="1" t="n"/>
+      <c r="X69" s="1" t="n"/>
+      <c r="Y69" s="1" t="n"/>
+      <c r="Z69" s="1" t="n"/>
+      <c r="AA69" s="1" t="n"/>
+      <c r="AB69" s="1" t="n"/>
+      <c r="AC69" s="1" t="n"/>
+      <c r="AD69" s="1" t="n"/>
+      <c r="AE69" s="1" t="n"/>
+      <c r="AF69" s="1" t="n"/>
+      <c r="AG69" s="1" t="n"/>
+      <c r="AH69" s="1" t="n"/>
+      <c r="AI69" s="1" t="n"/>
+      <c r="AJ69" s="1" t="n"/>
+      <c r="AK69" s="1" t="n"/>
+      <c r="AL69" s="1" t="n"/>
+      <c r="AM69" s="1" t="n"/>
+      <c r="AN69" s="1" t="n"/>
+      <c r="AO69" s="1" t="n"/>
+      <c r="AP69" s="1" t="n"/>
+      <c r="AQ69" s="1" t="n"/>
+      <c r="AR69" s="1" t="n"/>
+      <c r="AS69" s="1" t="n"/>
+      <c r="AT69" s="1" t="n"/>
+      <c r="AU69" s="1" t="n"/>
+      <c r="AV69" s="1" t="n"/>
+      <c r="AW69" s="1" t="n"/>
+      <c r="AX69" s="1" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n"/>
+      <c r="B70" s="6" t="n"/>
+      <c r="C70" s="6" t="n"/>
+      <c r="D70" s="1" t="n"/>
+      <c r="E70" s="1" t="n"/>
+      <c r="F70" s="1" t="n"/>
+      <c r="G70" s="1" t="n"/>
+      <c r="H70" s="1" t="n"/>
+      <c r="I70" s="1" t="n"/>
+      <c r="J70" s="1" t="n"/>
+      <c r="K70" s="1" t="n"/>
+      <c r="L70" s="1" t="n"/>
+      <c r="M70" s="1" t="n"/>
+      <c r="N70" s="1" t="n"/>
+      <c r="O70" s="1" t="n"/>
+      <c r="P70" s="1" t="n"/>
+      <c r="Q70" s="1" t="n"/>
+      <c r="R70" s="1" t="n"/>
+      <c r="S70" s="1" t="n"/>
+      <c r="T70" s="1" t="n"/>
+      <c r="U70" s="1" t="n"/>
+      <c r="V70" s="1" t="n"/>
+      <c r="W70" s="1" t="n"/>
+      <c r="X70" s="1" t="n"/>
+      <c r="Y70" s="1" t="n"/>
+      <c r="Z70" s="1" t="n"/>
+      <c r="AA70" s="1" t="n"/>
+      <c r="AB70" s="1" t="n"/>
+      <c r="AC70" s="1" t="n"/>
+      <c r="AD70" s="1" t="n"/>
+      <c r="AE70" s="1" t="n"/>
+      <c r="AF70" s="1" t="n"/>
+      <c r="AG70" s="1" t="n"/>
+      <c r="AH70" s="1" t="n"/>
+      <c r="AI70" s="1" t="n"/>
+      <c r="AJ70" s="1" t="n"/>
+      <c r="AK70" s="1" t="n"/>
+      <c r="AL70" s="1" t="n"/>
+      <c r="AM70" s="1" t="n"/>
+      <c r="AN70" s="1" t="n"/>
+      <c r="AO70" s="1" t="n"/>
+      <c r="AP70" s="1" t="n"/>
+      <c r="AQ70" s="1" t="n"/>
+      <c r="AR70" s="1" t="n"/>
+      <c r="AS70" s="1" t="n"/>
+      <c r="AT70" s="1" t="n"/>
+      <c r="AU70" s="1" t="n"/>
+      <c r="AV70" s="1" t="n"/>
+      <c r="AW70" s="1" t="n"/>
+      <c r="AX70" s="1" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n"/>
+      <c r="B71" s="6" t="n"/>
+      <c r="C71" s="6" t="n"/>
+      <c r="D71" s="1" t="n"/>
+      <c r="E71" s="1" t="n"/>
+      <c r="F71" s="1" t="n"/>
+      <c r="G71" s="1" t="n"/>
+      <c r="H71" s="1" t="n"/>
+      <c r="I71" s="1" t="n"/>
+      <c r="J71" s="1" t="n"/>
+      <c r="K71" s="1" t="n"/>
+      <c r="L71" s="1" t="n"/>
+      <c r="M71" s="1" t="n"/>
+      <c r="N71" s="1" t="n"/>
+      <c r="O71" s="1" t="n"/>
+      <c r="P71" s="1" t="n"/>
+      <c r="Q71" s="1" t="n"/>
+      <c r="R71" s="1" t="n"/>
+      <c r="S71" s="1" t="n"/>
+      <c r="T71" s="1" t="n"/>
+      <c r="U71" s="1" t="n"/>
+      <c r="V71" s="1" t="n"/>
+      <c r="W71" s="1" t="n"/>
+      <c r="X71" s="1" t="n"/>
+      <c r="Y71" s="1" t="n"/>
+      <c r="Z71" s="1" t="n"/>
+      <c r="AA71" s="1" t="n"/>
+      <c r="AB71" s="1" t="n"/>
+      <c r="AC71" s="1" t="n"/>
+      <c r="AD71" s="1" t="n"/>
+      <c r="AE71" s="1" t="n"/>
+      <c r="AF71" s="1" t="n"/>
+      <c r="AG71" s="1" t="n"/>
+      <c r="AH71" s="1" t="n"/>
+      <c r="AI71" s="1" t="n"/>
+      <c r="AJ71" s="1" t="n"/>
+      <c r="AK71" s="1" t="n"/>
+      <c r="AL71" s="1" t="n"/>
+      <c r="AM71" s="1" t="n"/>
+      <c r="AN71" s="1" t="n"/>
+      <c r="AO71" s="1" t="n"/>
+      <c r="AP71" s="1" t="n"/>
+      <c r="AQ71" s="1" t="n"/>
+      <c r="AR71" s="1" t="n"/>
+      <c r="AS71" s="1" t="n"/>
+      <c r="AT71" s="1" t="n"/>
+      <c r="AU71" s="1" t="n"/>
+      <c r="AV71" s="1" t="n"/>
+      <c r="AW71" s="1" t="n"/>
+      <c r="AX71" s="1" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n"/>
+      <c r="B72" s="6" t="n"/>
+      <c r="C72" s="6" t="n"/>
+      <c r="D72" s="1" t="n"/>
+      <c r="E72" s="1" t="n"/>
+      <c r="F72" s="1" t="n"/>
+      <c r="G72" s="1" t="n"/>
+      <c r="H72" s="1" t="n"/>
+      <c r="I72" s="1" t="n"/>
+      <c r="J72" s="1" t="n"/>
+      <c r="K72" s="1" t="n"/>
+      <c r="L72" s="1" t="n"/>
+      <c r="M72" s="1" t="n"/>
+      <c r="N72" s="1" t="n"/>
+      <c r="O72" s="1" t="n"/>
+      <c r="P72" s="1" t="n"/>
+      <c r="Q72" s="1" t="n"/>
+      <c r="R72" s="1" t="n"/>
+      <c r="S72" s="1" t="n"/>
+      <c r="T72" s="1" t="n"/>
+      <c r="U72" s="1" t="n"/>
+      <c r="V72" s="1" t="n"/>
+      <c r="W72" s="1" t="n"/>
+      <c r="X72" s="1" t="n"/>
+      <c r="Y72" s="1" t="n"/>
+      <c r="Z72" s="1" t="n"/>
+      <c r="AA72" s="1" t="n"/>
+      <c r="AB72" s="1" t="n"/>
+      <c r="AC72" s="1" t="n"/>
+      <c r="AD72" s="1" t="n"/>
+      <c r="AE72" s="1" t="n"/>
+      <c r="AF72" s="1" t="n"/>
+      <c r="AG72" s="1" t="n"/>
+      <c r="AH72" s="1" t="n"/>
+      <c r="AI72" s="1" t="n"/>
+      <c r="AJ72" s="1" t="n"/>
+      <c r="AK72" s="1" t="n"/>
+      <c r="AL72" s="1" t="n"/>
+      <c r="AM72" s="1" t="n"/>
+      <c r="AN72" s="1" t="n"/>
+      <c r="AO72" s="1" t="n"/>
+      <c r="AP72" s="1" t="n"/>
+      <c r="AQ72" s="1" t="n"/>
+      <c r="AR72" s="1" t="n"/>
+      <c r="AS72" s="1" t="n"/>
+      <c r="AT72" s="1" t="n"/>
+      <c r="AU72" s="1" t="n"/>
+      <c r="AV72" s="1" t="n"/>
+      <c r="AW72" s="1" t="n"/>
+      <c r="AX72" s="1" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n"/>
+      <c r="B73" s="6" t="n"/>
+      <c r="C73" s="6" t="n"/>
+      <c r="D73" s="1" t="n"/>
+      <c r="E73" s="1" t="n"/>
+      <c r="F73" s="1" t="n"/>
+      <c r="G73" s="1" t="n"/>
+      <c r="H73" s="1" t="n"/>
+      <c r="I73" s="1" t="n"/>
+      <c r="J73" s="1" t="n"/>
+      <c r="K73" s="1" t="n"/>
+      <c r="L73" s="1" t="n"/>
+      <c r="M73" s="1" t="n"/>
+      <c r="N73" s="1" t="n"/>
+      <c r="O73" s="1" t="n"/>
+      <c r="P73" s="1" t="n"/>
+      <c r="Q73" s="1" t="n"/>
+      <c r="R73" s="1" t="n"/>
+      <c r="S73" s="1" t="n"/>
+      <c r="T73" s="1" t="n"/>
+      <c r="U73" s="1" t="n"/>
+      <c r="V73" s="1" t="n"/>
+      <c r="W73" s="1" t="n"/>
+      <c r="X73" s="1" t="n"/>
+      <c r="Y73" s="1" t="n"/>
+      <c r="Z73" s="1" t="n"/>
+      <c r="AA73" s="1" t="n"/>
+      <c r="AB73" s="1" t="n"/>
+      <c r="AC73" s="1" t="n"/>
+      <c r="AD73" s="1" t="n"/>
+      <c r="AE73" s="1" t="n"/>
+      <c r="AF73" s="1" t="n"/>
+      <c r="AG73" s="1" t="n"/>
+      <c r="AH73" s="1" t="n"/>
+      <c r="AI73" s="1" t="n"/>
+      <c r="AJ73" s="1" t="n"/>
+      <c r="AK73" s="1" t="n"/>
+      <c r="AL73" s="1" t="n"/>
+      <c r="AM73" s="1" t="n"/>
+      <c r="AN73" s="1" t="n"/>
+      <c r="AO73" s="1" t="n"/>
+      <c r="AP73" s="1" t="n"/>
+      <c r="AQ73" s="1" t="n"/>
+      <c r="AR73" s="1" t="n"/>
+      <c r="AS73" s="1" t="n"/>
+      <c r="AT73" s="1" t="n"/>
+      <c r="AU73" s="1" t="n"/>
+      <c r="AV73" s="1" t="n"/>
+      <c r="AW73" s="1" t="n"/>
+      <c r="AX73" s="1" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n"/>
+      <c r="B74" s="6" t="n"/>
+      <c r="C74" s="6" t="n"/>
+      <c r="D74" s="1" t="n"/>
+      <c r="E74" s="1" t="n"/>
+      <c r="F74" s="1" t="n"/>
+      <c r="G74" s="1" t="n"/>
+      <c r="H74" s="1" t="n"/>
+      <c r="I74" s="1" t="n"/>
+      <c r="J74" s="1" t="n"/>
+      <c r="K74" s="1" t="n"/>
+      <c r="L74" s="1" t="n"/>
+      <c r="M74" s="1" t="n"/>
+      <c r="N74" s="1" t="n"/>
+      <c r="O74" s="1" t="n"/>
+      <c r="P74" s="1" t="n"/>
+      <c r="Q74" s="1" t="n"/>
+      <c r="R74" s="1" t="n"/>
+      <c r="S74" s="1" t="n"/>
+      <c r="T74" s="1" t="n"/>
+      <c r="U74" s="1" t="n"/>
+      <c r="V74" s="1" t="n"/>
+      <c r="W74" s="1" t="n"/>
+      <c r="X74" s="1" t="n"/>
+      <c r="Y74" s="1" t="n"/>
+      <c r="Z74" s="1" t="n"/>
+      <c r="AA74" s="1" t="n"/>
+      <c r="AB74" s="1" t="n"/>
+      <c r="AC74" s="1" t="n"/>
+      <c r="AD74" s="1" t="n"/>
+      <c r="AE74" s="1" t="n"/>
+      <c r="AF74" s="1" t="n"/>
+      <c r="AG74" s="1" t="n"/>
+      <c r="AH74" s="1" t="n"/>
+      <c r="AI74" s="1" t="n"/>
+      <c r="AJ74" s="1" t="n"/>
+      <c r="AK74" s="1" t="n"/>
+      <c r="AL74" s="1" t="n"/>
+      <c r="AM74" s="1" t="n"/>
+      <c r="AN74" s="1" t="n"/>
+      <c r="AO74" s="1" t="n"/>
+      <c r="AP74" s="1" t="n"/>
+      <c r="AQ74" s="1" t="n"/>
+      <c r="AR74" s="1" t="n"/>
+      <c r="AS74" s="1" t="n"/>
+      <c r="AT74" s="1" t="n"/>
+      <c r="AU74" s="1" t="n"/>
+      <c r="AV74" s="1" t="n"/>
+      <c r="AW74" s="1" t="n"/>
+      <c r="AX74" s="1" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n"/>
+      <c r="B75" s="6" t="n"/>
+      <c r="C75" s="6" t="n"/>
+      <c r="D75" s="1" t="n"/>
+      <c r="E75" s="1" t="n"/>
+      <c r="F75" s="1" t="n"/>
+      <c r="G75" s="1" t="n"/>
+      <c r="H75" s="1" t="n"/>
+      <c r="I75" s="1" t="n"/>
+      <c r="J75" s="1" t="n"/>
+      <c r="K75" s="1" t="n"/>
+      <c r="L75" s="1" t="n"/>
+      <c r="M75" s="1" t="n"/>
+      <c r="N75" s="1" t="n"/>
+      <c r="O75" s="1" t="n"/>
+      <c r="P75" s="1" t="n"/>
+      <c r="Q75" s="1" t="n"/>
+      <c r="R75" s="1" t="n"/>
+      <c r="S75" s="1" t="n"/>
+      <c r="T75" s="1" t="n"/>
+      <c r="U75" s="1" t="n"/>
+      <c r="V75" s="1" t="n"/>
+      <c r="W75" s="1" t="n"/>
+      <c r="X75" s="1" t="n"/>
+      <c r="Y75" s="1" t="n"/>
+      <c r="Z75" s="1" t="n"/>
+      <c r="AA75" s="1" t="n"/>
+      <c r="AB75" s="1" t="n"/>
+      <c r="AC75" s="1" t="n"/>
+      <c r="AD75" s="1" t="n"/>
+      <c r="AE75" s="1" t="n"/>
+      <c r="AF75" s="1" t="n"/>
+      <c r="AG75" s="1" t="n"/>
+      <c r="AH75" s="1" t="n"/>
+      <c r="AI75" s="1" t="n"/>
+      <c r="AJ75" s="1" t="n"/>
+      <c r="AK75" s="1" t="n"/>
+      <c r="AL75" s="1" t="n"/>
+      <c r="AM75" s="1" t="n"/>
+      <c r="AN75" s="1" t="n"/>
+      <c r="AO75" s="1" t="n"/>
+      <c r="AP75" s="1" t="n"/>
+      <c r="AQ75" s="1" t="n"/>
+      <c r="AR75" s="1" t="n"/>
+      <c r="AS75" s="1" t="n"/>
+      <c r="AT75" s="1" t="n"/>
+      <c r="AU75" s="1" t="n"/>
+      <c r="AV75" s="1" t="n"/>
+      <c r="AW75" s="1" t="n"/>
+      <c r="AX75" s="1" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n"/>
+      <c r="B76" s="6" t="n"/>
+      <c r="C76" s="6" t="n"/>
+      <c r="D76" s="1" t="n"/>
+      <c r="E76" s="1" t="n"/>
+      <c r="F76" s="1" t="n"/>
+      <c r="G76" s="1" t="n"/>
+      <c r="H76" s="1" t="n"/>
+      <c r="I76" s="1" t="n"/>
+      <c r="J76" s="1" t="n"/>
+      <c r="K76" s="1" t="n"/>
+      <c r="L76" s="1" t="n"/>
+      <c r="M76" s="1" t="n"/>
+      <c r="N76" s="1" t="n"/>
+      <c r="O76" s="1" t="n"/>
+      <c r="P76" s="1" t="n"/>
+      <c r="Q76" s="1" t="n"/>
+      <c r="R76" s="1" t="n"/>
+      <c r="S76" s="1" t="n"/>
+      <c r="T76" s="1" t="n"/>
+      <c r="U76" s="1" t="n"/>
+      <c r="V76" s="1" t="n"/>
+      <c r="W76" s="1" t="n"/>
+      <c r="X76" s="1" t="n"/>
+      <c r="Y76" s="1" t="n"/>
+      <c r="Z76" s="1" t="n"/>
+      <c r="AA76" s="1" t="n"/>
+      <c r="AB76" s="1" t="n"/>
+      <c r="AC76" s="1" t="n"/>
+      <c r="AD76" s="1" t="n"/>
+      <c r="AE76" s="1" t="n"/>
+      <c r="AF76" s="1" t="n"/>
+      <c r="AG76" s="1" t="n"/>
+      <c r="AH76" s="1" t="n"/>
+      <c r="AI76" s="1" t="n"/>
+      <c r="AJ76" s="1" t="n"/>
+      <c r="AK76" s="1" t="n"/>
+      <c r="AL76" s="1" t="n"/>
+      <c r="AM76" s="1" t="n"/>
+      <c r="AN76" s="1" t="n"/>
+      <c r="AO76" s="1" t="n"/>
+      <c r="AP76" s="1" t="n"/>
+      <c r="AQ76" s="1" t="n"/>
+      <c r="AR76" s="1" t="n"/>
+      <c r="AS76" s="1" t="n"/>
+      <c r="AT76" s="1" t="n"/>
+      <c r="AU76" s="1" t="n"/>
+      <c r="AV76" s="1" t="n"/>
+      <c r="AW76" s="1" t="n"/>
+      <c r="AX76" s="1" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n"/>
+      <c r="B77" s="6" t="n"/>
+      <c r="C77" s="6" t="n"/>
+      <c r="D77" s="1" t="n"/>
+      <c r="E77" s="1" t="n"/>
+      <c r="F77" s="1" t="n"/>
+      <c r="G77" s="1" t="n"/>
+      <c r="H77" s="1" t="n"/>
+      <c r="I77" s="1" t="n"/>
+      <c r="J77" s="1" t="n"/>
+      <c r="K77" s="1" t="n"/>
+      <c r="L77" s="1" t="n"/>
+      <c r="M77" s="1" t="n"/>
+      <c r="N77" s="1" t="n"/>
+      <c r="O77" s="1" t="n"/>
+      <c r="P77" s="1" t="n"/>
+      <c r="Q77" s="1" t="n"/>
+      <c r="R77" s="1" t="n"/>
+      <c r="S77" s="1" t="n"/>
+      <c r="T77" s="1" t="n"/>
+      <c r="U77" s="1" t="n"/>
+      <c r="V77" s="1" t="n"/>
+      <c r="W77" s="1" t="n"/>
+      <c r="X77" s="1" t="n"/>
+      <c r="Y77" s="1" t="n"/>
+      <c r="Z77" s="1" t="n"/>
+      <c r="AA77" s="1" t="n"/>
+      <c r="AB77" s="1" t="n"/>
+      <c r="AC77" s="1" t="n"/>
+      <c r="AD77" s="1" t="n"/>
+      <c r="AE77" s="1" t="n"/>
+      <c r="AF77" s="1" t="n"/>
+      <c r="AG77" s="1" t="n"/>
+      <c r="AH77" s="1" t="n"/>
+      <c r="AI77" s="1" t="n"/>
+      <c r="AJ77" s="1" t="n"/>
+      <c r="AK77" s="1" t="n"/>
+      <c r="AL77" s="1" t="n"/>
+      <c r="AM77" s="1" t="n"/>
+      <c r="AN77" s="1" t="n"/>
+      <c r="AO77" s="1" t="n"/>
+      <c r="AP77" s="1" t="n"/>
+      <c r="AQ77" s="1" t="n"/>
+      <c r="AR77" s="1" t="n"/>
+      <c r="AS77" s="1" t="n"/>
+      <c r="AT77" s="1" t="n"/>
+      <c r="AU77" s="1" t="n"/>
+      <c r="AV77" s="1" t="n"/>
+      <c r="AW77" s="1" t="n"/>
+      <c r="AX77" s="1" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n"/>
+      <c r="B78" s="6" t="n"/>
+      <c r="C78" s="6" t="n"/>
+      <c r="D78" s="1" t="n"/>
+      <c r="E78" s="1" t="n"/>
+      <c r="F78" s="1" t="n"/>
+      <c r="G78" s="1" t="n"/>
+      <c r="H78" s="1" t="n"/>
+      <c r="I78" s="1" t="n"/>
+      <c r="J78" s="1" t="n"/>
+      <c r="K78" s="1" t="n"/>
+      <c r="L78" s="1" t="n"/>
+      <c r="M78" s="1" t="n"/>
+      <c r="N78" s="1" t="n"/>
+      <c r="O78" s="1" t="n"/>
+      <c r="P78" s="1" t="n"/>
+      <c r="Q78" s="1" t="n"/>
+      <c r="R78" s="1" t="n"/>
+      <c r="S78" s="1" t="n"/>
+      <c r="T78" s="1" t="n"/>
+      <c r="U78" s="1" t="n"/>
+      <c r="V78" s="1" t="n"/>
+      <c r="W78" s="1" t="n"/>
+      <c r="X78" s="1" t="n"/>
+      <c r="Y78" s="1" t="n"/>
+      <c r="Z78" s="1" t="n"/>
+      <c r="AA78" s="1" t="n"/>
+      <c r="AB78" s="1" t="n"/>
+      <c r="AC78" s="1" t="n"/>
+      <c r="AD78" s="1" t="n"/>
+      <c r="AE78" s="1" t="n"/>
+      <c r="AF78" s="1" t="n"/>
+      <c r="AG78" s="1" t="n"/>
+      <c r="AH78" s="1" t="n"/>
+      <c r="AI78" s="1" t="n"/>
+      <c r="AJ78" s="1" t="n"/>
+      <c r="AK78" s="1" t="n"/>
+      <c r="AL78" s="1" t="n"/>
+      <c r="AM78" s="1" t="n"/>
+      <c r="AN78" s="1" t="n"/>
+      <c r="AO78" s="1" t="n"/>
+      <c r="AP78" s="1" t="n"/>
+      <c r="AQ78" s="1" t="n"/>
+      <c r="AR78" s="1" t="n"/>
+      <c r="AS78" s="1" t="n"/>
+      <c r="AT78" s="1" t="n"/>
+      <c r="AU78" s="1" t="n"/>
+      <c r="AV78" s="1" t="n"/>
+      <c r="AW78" s="1" t="n"/>
+      <c r="AX78" s="1" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n"/>
+      <c r="B79" s="6" t="n"/>
+      <c r="C79" s="6" t="n"/>
+      <c r="D79" s="1" t="n"/>
+      <c r="E79" s="1" t="n"/>
+      <c r="F79" s="1" t="n"/>
+      <c r="G79" s="1" t="n"/>
+      <c r="H79" s="1" t="n"/>
+      <c r="I79" s="1" t="n"/>
+      <c r="J79" s="1" t="n"/>
+      <c r="K79" s="1" t="n"/>
+      <c r="L79" s="1" t="n"/>
+      <c r="M79" s="1" t="n"/>
+      <c r="N79" s="1" t="n"/>
+      <c r="O79" s="1" t="n"/>
+      <c r="P79" s="1" t="n"/>
+      <c r="Q79" s="1" t="n"/>
+      <c r="R79" s="1" t="n"/>
+      <c r="S79" s="1" t="n"/>
+      <c r="T79" s="1" t="n"/>
+      <c r="U79" s="1" t="n"/>
+      <c r="V79" s="1" t="n"/>
+      <c r="W79" s="1" t="n"/>
+      <c r="X79" s="1" t="n"/>
+      <c r="Y79" s="1" t="n"/>
+      <c r="Z79" s="1" t="n"/>
+      <c r="AA79" s="1" t="n"/>
+      <c r="AB79" s="1" t="n"/>
+      <c r="AC79" s="1" t="n"/>
+      <c r="AD79" s="1" t="n"/>
+      <c r="AE79" s="1" t="n"/>
+      <c r="AF79" s="1" t="n"/>
+      <c r="AG79" s="1" t="n"/>
+      <c r="AH79" s="1" t="n"/>
+      <c r="AI79" s="1" t="n"/>
+      <c r="AJ79" s="1" t="n"/>
+      <c r="AK79" s="1" t="n"/>
+      <c r="AL79" s="1" t="n"/>
+      <c r="AM79" s="1" t="n"/>
+      <c r="AN79" s="1" t="n"/>
+      <c r="AO79" s="1" t="n"/>
+      <c r="AP79" s="1" t="n"/>
+      <c r="AQ79" s="1" t="n"/>
+      <c r="AR79" s="1" t="n"/>
+      <c r="AS79" s="1" t="n"/>
+      <c r="AT79" s="1" t="n"/>
+      <c r="AU79" s="1" t="n"/>
+      <c r="AV79" s="1" t="n"/>
+      <c r="AW79" s="1" t="n"/>
+      <c r="AX79" s="1" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n"/>
+      <c r="B80" s="6" t="n"/>
+      <c r="C80" s="6" t="n"/>
+      <c r="D80" s="1" t="n"/>
+      <c r="E80" s="1" t="n"/>
+      <c r="F80" s="1" t="n"/>
+      <c r="G80" s="1" t="n"/>
+      <c r="H80" s="1" t="n"/>
+      <c r="I80" s="1" t="n"/>
+      <c r="J80" s="1" t="n"/>
+      <c r="K80" s="1" t="n"/>
+      <c r="L80" s="1" t="n"/>
+      <c r="M80" s="1" t="n"/>
+      <c r="N80" s="1" t="n"/>
+      <c r="O80" s="1" t="n"/>
+      <c r="P80" s="1" t="n"/>
+      <c r="Q80" s="1" t="n"/>
+      <c r="R80" s="1" t="n"/>
+      <c r="S80" s="1" t="n"/>
+      <c r="T80" s="1" t="n"/>
+      <c r="U80" s="1" t="n"/>
+      <c r="V80" s="1" t="n"/>
+      <c r="W80" s="1" t="n"/>
+      <c r="X80" s="1" t="n"/>
+      <c r="Y80" s="1" t="n"/>
+      <c r="Z80" s="1" t="n"/>
+      <c r="AA80" s="1" t="n"/>
+      <c r="AB80" s="1" t="n"/>
+      <c r="AC80" s="1" t="n"/>
+      <c r="AD80" s="1" t="n"/>
+      <c r="AE80" s="1" t="n"/>
+      <c r="AF80" s="1" t="n"/>
+      <c r="AG80" s="1" t="n"/>
+      <c r="AH80" s="1" t="n"/>
+      <c r="AI80" s="1" t="n"/>
+      <c r="AJ80" s="1" t="n"/>
+      <c r="AK80" s="1" t="n"/>
+      <c r="AL80" s="1" t="n"/>
+      <c r="AM80" s="1" t="n"/>
+      <c r="AN80" s="1" t="n"/>
+      <c r="AO80" s="1" t="n"/>
+      <c r="AP80" s="1" t="n"/>
+      <c r="AQ80" s="1" t="n"/>
+      <c r="AR80" s="1" t="n"/>
+      <c r="AS80" s="1" t="n"/>
+      <c r="AT80" s="1" t="n"/>
+      <c r="AU80" s="1" t="n"/>
+      <c r="AV80" s="1" t="n"/>
+      <c r="AW80" s="1" t="n"/>
+      <c r="AX80" s="1" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n"/>
+      <c r="B81" s="6" t="n"/>
+      <c r="C81" s="6" t="n"/>
+      <c r="D81" s="1" t="n"/>
+      <c r="E81" s="1" t="n"/>
+      <c r="F81" s="1" t="n"/>
+      <c r="G81" s="1" t="n"/>
+      <c r="H81" s="1" t="n"/>
+      <c r="I81" s="1" t="n"/>
+      <c r="J81" s="1" t="n"/>
+      <c r="K81" s="1" t="n"/>
+      <c r="L81" s="1" t="n"/>
+      <c r="M81" s="1" t="n"/>
+      <c r="N81" s="1" t="n"/>
+      <c r="O81" s="1" t="n"/>
+      <c r="P81" s="1" t="n"/>
+      <c r="Q81" s="1" t="n"/>
+      <c r="R81" s="1" t="n"/>
+      <c r="S81" s="1" t="n"/>
+      <c r="T81" s="1" t="n"/>
+      <c r="U81" s="1" t="n"/>
+      <c r="V81" s="1" t="n"/>
+      <c r="W81" s="1" t="n"/>
+      <c r="X81" s="1" t="n"/>
+      <c r="Y81" s="1" t="n"/>
+      <c r="Z81" s="1" t="n"/>
+      <c r="AA81" s="1" t="n"/>
+      <c r="AB81" s="1" t="n"/>
+      <c r="AC81" s="1" t="n"/>
+      <c r="AD81" s="1" t="n"/>
+      <c r="AE81" s="1" t="n"/>
+      <c r="AF81" s="1" t="n"/>
+      <c r="AG81" s="1" t="n"/>
+      <c r="AH81" s="1" t="n"/>
+      <c r="AI81" s="1" t="n"/>
+      <c r="AJ81" s="1" t="n"/>
+      <c r="AK81" s="1" t="n"/>
+      <c r="AL81" s="1" t="n"/>
+      <c r="AM81" s="1" t="n"/>
+      <c r="AN81" s="1" t="n"/>
+      <c r="AO81" s="1" t="n"/>
+      <c r="AP81" s="1" t="n"/>
+      <c r="AQ81" s="1" t="n"/>
+      <c r="AR81" s="1" t="n"/>
+      <c r="AS81" s="1" t="n"/>
+      <c r="AT81" s="1" t="n"/>
+      <c r="AU81" s="1" t="n"/>
+      <c r="AV81" s="1" t="n"/>
+      <c r="AW81" s="1" t="n"/>
+      <c r="AX81" s="1" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n"/>
+      <c r="B82" s="6" t="n"/>
+      <c r="C82" s="6" t="n"/>
+      <c r="D82" s="1" t="n"/>
+      <c r="E82" s="1" t="n"/>
+      <c r="F82" s="1" t="n"/>
+      <c r="G82" s="1" t="n"/>
+      <c r="H82" s="1" t="n"/>
+      <c r="I82" s="1" t="n"/>
+      <c r="J82" s="1" t="n"/>
+      <c r="K82" s="1" t="n"/>
+      <c r="L82" s="1" t="n"/>
+      <c r="M82" s="1" t="n"/>
+      <c r="N82" s="1" t="n"/>
+      <c r="O82" s="1" t="n"/>
+      <c r="P82" s="1" t="n"/>
+      <c r="Q82" s="1" t="n"/>
+      <c r="R82" s="1" t="n"/>
+      <c r="S82" s="1" t="n"/>
+      <c r="T82" s="1" t="n"/>
+      <c r="U82" s="1" t="n"/>
+      <c r="V82" s="1" t="n"/>
+      <c r="W82" s="1" t="n"/>
+      <c r="X82" s="1" t="n"/>
+      <c r="Y82" s="1" t="n"/>
+      <c r="Z82" s="1" t="n"/>
+      <c r="AA82" s="1" t="n"/>
+      <c r="AB82" s="1" t="n"/>
+      <c r="AC82" s="1" t="n"/>
+      <c r="AD82" s="1" t="n"/>
+      <c r="AE82" s="1" t="n"/>
+      <c r="AF82" s="1" t="n"/>
+      <c r="AG82" s="1" t="n"/>
+      <c r="AH82" s="1" t="n"/>
+      <c r="AI82" s="1" t="n"/>
+      <c r="AJ82" s="1" t="n"/>
+      <c r="AK82" s="1" t="n"/>
+      <c r="AL82" s="1" t="n"/>
+      <c r="AM82" s="1" t="n"/>
+      <c r="AN82" s="1" t="n"/>
+      <c r="AO82" s="1" t="n"/>
+      <c r="AP82" s="1" t="n"/>
+      <c r="AQ82" s="1" t="n"/>
+      <c r="AR82" s="1" t="n"/>
+      <c r="AS82" s="1" t="n"/>
+      <c r="AT82" s="1" t="n"/>
+      <c r="AU82" s="1" t="n"/>
+      <c r="AV82" s="1" t="n"/>
+      <c r="AW82" s="1" t="n"/>
+      <c r="AX82" s="1" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n"/>
+      <c r="B83" s="6" t="n"/>
+      <c r="C83" s="6" t="n"/>
+      <c r="D83" s="1" t="n"/>
+      <c r="E83" s="1" t="n"/>
+      <c r="F83" s="1" t="n"/>
+      <c r="G83" s="1" t="n"/>
+      <c r="H83" s="1" t="n"/>
+      <c r="I83" s="1" t="n"/>
+      <c r="J83" s="1" t="n"/>
+      <c r="K83" s="1" t="n"/>
+      <c r="L83" s="1" t="n"/>
+      <c r="M83" s="1" t="n"/>
+      <c r="N83" s="1" t="n"/>
+      <c r="O83" s="1" t="n"/>
+      <c r="P83" s="1" t="n"/>
+      <c r="Q83" s="1" t="n"/>
+      <c r="R83" s="1" t="n"/>
+      <c r="S83" s="1" t="n"/>
+      <c r="T83" s="1" t="n"/>
+      <c r="U83" s="1" t="n"/>
+      <c r="V83" s="1" t="n"/>
+      <c r="W83" s="1" t="n"/>
+      <c r="X83" s="1" t="n"/>
+      <c r="Y83" s="1" t="n"/>
+      <c r="Z83" s="1" t="n"/>
+      <c r="AA83" s="1" t="n"/>
+      <c r="AB83" s="1" t="n"/>
+      <c r="AC83" s="1" t="n"/>
+      <c r="AD83" s="1" t="n"/>
+      <c r="AE83" s="1" t="n"/>
+      <c r="AF83" s="1" t="n"/>
+      <c r="AG83" s="1" t="n"/>
+      <c r="AH83" s="1" t="n"/>
+      <c r="AI83" s="1" t="n"/>
+      <c r="AJ83" s="1" t="n"/>
+      <c r="AK83" s="1" t="n"/>
+      <c r="AL83" s="1" t="n"/>
+      <c r="AM83" s="1" t="n"/>
+      <c r="AN83" s="1" t="n"/>
+      <c r="AO83" s="1" t="n"/>
+      <c r="AP83" s="1" t="n"/>
+      <c r="AQ83" s="1" t="n"/>
+      <c r="AR83" s="1" t="n"/>
+      <c r="AS83" s="1" t="n"/>
+      <c r="AT83" s="1" t="n"/>
+      <c r="AU83" s="1" t="n"/>
+      <c r="AV83" s="1" t="n"/>
+      <c r="AW83" s="1" t="n"/>
+      <c r="AX83" s="1" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n"/>
+      <c r="B84" s="6" t="n"/>
+      <c r="C84" s="6" t="n"/>
+      <c r="D84" s="1" t="n"/>
+      <c r="E84" s="1" t="n"/>
+      <c r="F84" s="1" t="n"/>
+      <c r="G84" s="1" t="n"/>
+      <c r="H84" s="1" t="n"/>
+      <c r="I84" s="1" t="n"/>
+      <c r="J84" s="1" t="n"/>
+      <c r="K84" s="1" t="n"/>
+      <c r="L84" s="1" t="n"/>
+      <c r="M84" s="1" t="n"/>
+      <c r="N84" s="1" t="n"/>
+      <c r="O84" s="1" t="n"/>
+      <c r="P84" s="1" t="n"/>
+      <c r="Q84" s="1" t="n"/>
+      <c r="R84" s="1" t="n"/>
+      <c r="S84" s="1" t="n"/>
+      <c r="T84" s="1" t="n"/>
+      <c r="U84" s="1" t="n"/>
+      <c r="V84" s="1" t="n"/>
+      <c r="W84" s="1" t="n"/>
+      <c r="X84" s="1" t="n"/>
+      <c r="Y84" s="1" t="n"/>
+      <c r="Z84" s="1" t="n"/>
+      <c r="AA84" s="1" t="n"/>
+      <c r="AB84" s="1" t="n"/>
+      <c r="AC84" s="1" t="n"/>
+      <c r="AD84" s="1" t="n"/>
+      <c r="AE84" s="1" t="n"/>
+      <c r="AF84" s="1" t="n"/>
+      <c r="AG84" s="1" t="n"/>
+      <c r="AH84" s="1" t="n"/>
+      <c r="AI84" s="1" t="n"/>
+      <c r="AJ84" s="1" t="n"/>
+      <c r="AK84" s="1" t="n"/>
+      <c r="AL84" s="1" t="n"/>
+      <c r="AM84" s="1" t="n"/>
+      <c r="AN84" s="1" t="n"/>
+      <c r="AO84" s="1" t="n"/>
+      <c r="AP84" s="1" t="n"/>
+      <c r="AQ84" s="1" t="n"/>
+      <c r="AR84" s="1" t="n"/>
+      <c r="AS84" s="1" t="n"/>
+      <c r="AT84" s="1" t="n"/>
+      <c r="AU84" s="1" t="n"/>
+      <c r="AV84" s="1" t="n"/>
+      <c r="AW84" s="1" t="n"/>
+      <c r="AX84" s="1" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n"/>
+      <c r="B85" s="6" t="n"/>
+      <c r="C85" s="6" t="n"/>
+      <c r="D85" s="1" t="n"/>
+      <c r="E85" s="1" t="n"/>
+      <c r="F85" s="1" t="n"/>
+      <c r="G85" s="1" t="n"/>
+      <c r="H85" s="1" t="n"/>
+      <c r="I85" s="1" t="n"/>
+      <c r="J85" s="1" t="n"/>
+      <c r="K85" s="1" t="n"/>
+      <c r="L85" s="1" t="n"/>
+      <c r="M85" s="1" t="n"/>
+      <c r="N85" s="1" t="n"/>
+      <c r="O85" s="1" t="n"/>
+      <c r="P85" s="1" t="n"/>
+      <c r="Q85" s="1" t="n"/>
+      <c r="R85" s="1" t="n"/>
+      <c r="S85" s="1" t="n"/>
+      <c r="T85" s="1" t="n"/>
+      <c r="U85" s="1" t="n"/>
+      <c r="V85" s="1" t="n"/>
+      <c r="W85" s="1" t="n"/>
+      <c r="X85" s="1" t="n"/>
+      <c r="Y85" s="1" t="n"/>
+      <c r="Z85" s="1" t="n"/>
+      <c r="AA85" s="1" t="n"/>
+      <c r="AB85" s="1" t="n"/>
+      <c r="AC85" s="1" t="n"/>
+      <c r="AD85" s="1" t="n"/>
+      <c r="AE85" s="1" t="n"/>
+      <c r="AF85" s="1" t="n"/>
+      <c r="AG85" s="1" t="n"/>
+      <c r="AH85" s="1" t="n"/>
+      <c r="AI85" s="1" t="n"/>
+      <c r="AJ85" s="1" t="n"/>
+      <c r="AK85" s="1" t="n"/>
+      <c r="AL85" s="1" t="n"/>
+      <c r="AM85" s="1" t="n"/>
+      <c r="AN85" s="1" t="n"/>
+      <c r="AO85" s="1" t="n"/>
+      <c r="AP85" s="1" t="n"/>
+      <c r="AQ85" s="1" t="n"/>
+      <c r="AR85" s="1" t="n"/>
+      <c r="AS85" s="1" t="n"/>
+      <c r="AT85" s="1" t="n"/>
+      <c r="AU85" s="1" t="n"/>
+      <c r="AV85" s="1" t="n"/>
+      <c r="AW85" s="1" t="n"/>
+      <c r="AX85" s="1" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n"/>
+      <c r="B86" s="6" t="n"/>
+      <c r="C86" s="6" t="n"/>
+      <c r="D86" s="1" t="n"/>
+      <c r="E86" s="1" t="n"/>
+      <c r="F86" s="1" t="n"/>
+      <c r="G86" s="1" t="n"/>
+      <c r="H86" s="1" t="n"/>
+      <c r="I86" s="1" t="n"/>
+      <c r="J86" s="1" t="n"/>
+      <c r="K86" s="1" t="n"/>
+      <c r="L86" s="1" t="n"/>
+      <c r="M86" s="1" t="n"/>
+      <c r="N86" s="1" t="n"/>
+      <c r="O86" s="1" t="n"/>
+      <c r="P86" s="1" t="n"/>
+      <c r="Q86" s="1" t="n"/>
+      <c r="R86" s="1" t="n"/>
+      <c r="S86" s="1" t="n"/>
+      <c r="T86" s="1" t="n"/>
+      <c r="U86" s="1" t="n"/>
+      <c r="V86" s="1" t="n"/>
+      <c r="W86" s="1" t="n"/>
+      <c r="X86" s="1" t="n"/>
+      <c r="Y86" s="1" t="n"/>
+      <c r="Z86" s="1" t="n"/>
+      <c r="AA86" s="1" t="n"/>
+      <c r="AB86" s="1" t="n"/>
+      <c r="AC86" s="1" t="n"/>
+      <c r="AD86" s="1" t="n"/>
+      <c r="AE86" s="1" t="n"/>
+      <c r="AF86" s="1" t="n"/>
+      <c r="AG86" s="1" t="n"/>
+      <c r="AH86" s="1" t="n"/>
+      <c r="AI86" s="1" t="n"/>
+      <c r="AJ86" s="1" t="n"/>
+      <c r="AK86" s="1" t="n"/>
+      <c r="AL86" s="1" t="n"/>
+      <c r="AM86" s="1" t="n"/>
+      <c r="AN86" s="1" t="n"/>
+      <c r="AO86" s="1" t="n"/>
+      <c r="AP86" s="1" t="n"/>
+      <c r="AQ86" s="1" t="n"/>
+      <c r="AR86" s="1" t="n"/>
+      <c r="AS86" s="1" t="n"/>
+      <c r="AT86" s="1" t="n"/>
+      <c r="AU86" s="1" t="n"/>
+      <c r="AV86" s="1" t="n"/>
+      <c r="AW86" s="1" t="n"/>
+      <c r="AX86" s="1" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n"/>
+      <c r="B87" s="6" t="n"/>
+      <c r="C87" s="6" t="n"/>
+      <c r="D87" s="1" t="n"/>
+      <c r="E87" s="1" t="n"/>
+      <c r="F87" s="1" t="n"/>
+      <c r="G87" s="1" t="n"/>
+      <c r="H87" s="1" t="n"/>
+      <c r="I87" s="1" t="n"/>
+      <c r="J87" s="1" t="n"/>
+      <c r="K87" s="1" t="n"/>
+      <c r="L87" s="1" t="n"/>
+      <c r="M87" s="1" t="n"/>
+      <c r="N87" s="1" t="n"/>
+      <c r="O87" s="1" t="n"/>
+      <c r="P87" s="1" t="n"/>
+      <c r="Q87" s="1" t="n"/>
+      <c r="R87" s="1" t="n"/>
+      <c r="S87" s="1" t="n"/>
+      <c r="T87" s="1" t="n"/>
+      <c r="U87" s="1" t="n"/>
+      <c r="V87" s="1" t="n"/>
+      <c r="W87" s="1" t="n"/>
+      <c r="X87" s="1" t="n"/>
+      <c r="Y87" s="1" t="n"/>
+      <c r="Z87" s="1" t="n"/>
+      <c r="AA87" s="1" t="n"/>
+      <c r="AB87" s="1" t="n"/>
+      <c r="AC87" s="1" t="n"/>
+      <c r="AD87" s="1" t="n"/>
+      <c r="AE87" s="1" t="n"/>
+      <c r="AF87" s="1" t="n"/>
+      <c r="AG87" s="1" t="n"/>
+      <c r="AH87" s="1" t="n"/>
+      <c r="AI87" s="1" t="n"/>
+      <c r="AJ87" s="1" t="n"/>
+      <c r="AK87" s="1" t="n"/>
+      <c r="AL87" s="1" t="n"/>
+      <c r="AM87" s="1" t="n"/>
+      <c r="AN87" s="1" t="n"/>
+      <c r="AO87" s="1" t="n"/>
+      <c r="AP87" s="1" t="n"/>
+      <c r="AQ87" s="1" t="n"/>
+      <c r="AR87" s="1" t="n"/>
+      <c r="AS87" s="1" t="n"/>
+      <c r="AT87" s="1" t="n"/>
+      <c r="AU87" s="1" t="n"/>
+      <c r="AV87" s="1" t="n"/>
+      <c r="AW87" s="1" t="n"/>
+      <c r="AX87" s="1" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n"/>
+      <c r="B88" s="6" t="n"/>
+      <c r="C88" s="6" t="n"/>
+      <c r="D88" s="1" t="n"/>
+      <c r="E88" s="1" t="n"/>
+      <c r="F88" s="1" t="n"/>
+      <c r="G88" s="1" t="n"/>
+      <c r="H88" s="1" t="n"/>
+      <c r="I88" s="1" t="n"/>
+      <c r="J88" s="1" t="n"/>
+      <c r="K88" s="1" t="n"/>
+      <c r="L88" s="1" t="n"/>
+      <c r="M88" s="1" t="n"/>
+      <c r="N88" s="1" t="n"/>
+      <c r="O88" s="1" t="n"/>
+      <c r="P88" s="1" t="n"/>
+      <c r="Q88" s="1" t="n"/>
+      <c r="R88" s="1" t="n"/>
+      <c r="S88" s="1" t="n"/>
+      <c r="T88" s="1" t="n"/>
+      <c r="U88" s="1" t="n"/>
+      <c r="V88" s="1" t="n"/>
+      <c r="W88" s="1" t="n"/>
+      <c r="X88" s="1" t="n"/>
+      <c r="Y88" s="1" t="n"/>
+      <c r="Z88" s="1" t="n"/>
+      <c r="AA88" s="1" t="n"/>
+      <c r="AB88" s="1" t="n"/>
+      <c r="AC88" s="1" t="n"/>
+      <c r="AD88" s="1" t="n"/>
+      <c r="AE88" s="1" t="n"/>
+      <c r="AF88" s="1" t="n"/>
+      <c r="AG88" s="1" t="n"/>
+      <c r="AH88" s="1" t="n"/>
+      <c r="AI88" s="1" t="n"/>
+      <c r="AJ88" s="1" t="n"/>
+      <c r="AK88" s="1" t="n"/>
+      <c r="AL88" s="1" t="n"/>
+      <c r="AM88" s="1" t="n"/>
+      <c r="AN88" s="1" t="n"/>
+      <c r="AO88" s="1" t="n"/>
+      <c r="AP88" s="1" t="n"/>
+      <c r="AQ88" s="1" t="n"/>
+      <c r="AR88" s="1" t="n"/>
+      <c r="AS88" s="1" t="n"/>
+      <c r="AT88" s="1" t="n"/>
+      <c r="AU88" s="1" t="n"/>
+      <c r="AV88" s="1" t="n"/>
+      <c r="AW88" s="1" t="n"/>
+      <c r="AX88" s="1" t="n"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n"/>
+      <c r="B89" s="6" t="n"/>
+      <c r="C89" s="6" t="n"/>
+      <c r="D89" s="1" t="n"/>
+      <c r="E89" s="1" t="n"/>
+      <c r="F89" s="1" t="n"/>
+      <c r="G89" s="1" t="n"/>
+      <c r="H89" s="1" t="n"/>
+      <c r="I89" s="1" t="n"/>
+      <c r="J89" s="1" t="n"/>
+      <c r="K89" s="1" t="n"/>
+      <c r="L89" s="1" t="n"/>
+      <c r="M89" s="1" t="n"/>
+      <c r="N89" s="1" t="n"/>
+      <c r="O89" s="1" t="n"/>
+      <c r="P89" s="1" t="n"/>
+      <c r="Q89" s="1" t="n"/>
+      <c r="R89" s="1" t="n"/>
+      <c r="S89" s="1" t="n"/>
+      <c r="T89" s="1" t="n"/>
+      <c r="U89" s="1" t="n"/>
+      <c r="V89" s="1" t="n"/>
+      <c r="W89" s="1" t="n"/>
+      <c r="X89" s="1" t="n"/>
+      <c r="Y89" s="1" t="n"/>
+      <c r="Z89" s="1" t="n"/>
+      <c r="AA89" s="1" t="n"/>
+      <c r="AB89" s="1" t="n"/>
+      <c r="AC89" s="1" t="n"/>
+      <c r="AD89" s="1" t="n"/>
+      <c r="AE89" s="1" t="n"/>
+      <c r="AF89" s="1" t="n"/>
+      <c r="AG89" s="1" t="n"/>
+      <c r="AH89" s="1" t="n"/>
+      <c r="AI89" s="1" t="n"/>
+      <c r="AJ89" s="1" t="n"/>
+      <c r="AK89" s="1" t="n"/>
+      <c r="AL89" s="1" t="n"/>
+      <c r="AM89" s="1" t="n"/>
+      <c r="AN89" s="1" t="n"/>
+      <c r="AO89" s="1" t="n"/>
+      <c r="AP89" s="1" t="n"/>
+      <c r="AQ89" s="1" t="n"/>
+      <c r="AR89" s="1" t="n"/>
+      <c r="AS89" s="1" t="n"/>
+      <c r="AT89" s="1" t="n"/>
+      <c r="AU89" s="1" t="n"/>
+      <c r="AV89" s="1" t="n"/>
+      <c r="AW89" s="1" t="n"/>
+      <c r="AX89" s="1" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n"/>
+      <c r="B90" s="6" t="n"/>
+      <c r="C90" s="6" t="n"/>
+      <c r="D90" s="1" t="n"/>
+      <c r="E90" s="1" t="n"/>
+      <c r="F90" s="1" t="n"/>
+      <c r="G90" s="1" t="n"/>
+      <c r="H90" s="1" t="n"/>
+      <c r="I90" s="1" t="n"/>
+      <c r="J90" s="1" t="n"/>
+      <c r="K90" s="1" t="n"/>
+      <c r="L90" s="1" t="n"/>
+      <c r="M90" s="1" t="n"/>
+      <c r="N90" s="1" t="n"/>
+      <c r="O90" s="1" t="n"/>
+      <c r="P90" s="1" t="n"/>
+      <c r="Q90" s="1" t="n"/>
+      <c r="R90" s="1" t="n"/>
+      <c r="S90" s="1" t="n"/>
+      <c r="T90" s="1" t="n"/>
+      <c r="U90" s="1" t="n"/>
+      <c r="V90" s="1" t="n"/>
+      <c r="W90" s="1" t="n"/>
+      <c r="X90" s="1" t="n"/>
+      <c r="Y90" s="1" t="n"/>
+      <c r="Z90" s="1" t="n"/>
+      <c r="AA90" s="1" t="n"/>
+      <c r="AB90" s="1" t="n"/>
+      <c r="AC90" s="1" t="n"/>
+      <c r="AD90" s="1" t="n"/>
+      <c r="AE90" s="1" t="n"/>
+      <c r="AF90" s="1" t="n"/>
+      <c r="AG90" s="1" t="n"/>
+      <c r="AH90" s="1" t="n"/>
+      <c r="AI90" s="1" t="n"/>
+      <c r="AJ90" s="1" t="n"/>
+      <c r="AK90" s="1" t="n"/>
+      <c r="AL90" s="1" t="n"/>
+      <c r="AM90" s="1" t="n"/>
+      <c r="AN90" s="1" t="n"/>
+      <c r="AO90" s="1" t="n"/>
+      <c r="AP90" s="1" t="n"/>
+      <c r="AQ90" s="1" t="n"/>
+      <c r="AR90" s="1" t="n"/>
+      <c r="AS90" s="1" t="n"/>
+      <c r="AT90" s="1" t="n"/>
+      <c r="AU90" s="1" t="n"/>
+      <c r="AV90" s="1" t="n"/>
+      <c r="AW90" s="1" t="n"/>
+      <c r="AX90" s="1" t="n"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n"/>
+      <c r="B91" s="6" t="n"/>
+      <c r="C91" s="6" t="n"/>
+      <c r="D91" s="1" t="n"/>
+      <c r="E91" s="1" t="n"/>
+      <c r="F91" s="1" t="n"/>
+      <c r="G91" s="1" t="n"/>
+      <c r="H91" s="1" t="n"/>
+      <c r="I91" s="1" t="n"/>
+      <c r="J91" s="1" t="n"/>
+      <c r="K91" s="1" t="n"/>
+      <c r="L91" s="1" t="n"/>
+      <c r="M91" s="1" t="n"/>
+      <c r="N91" s="1" t="n"/>
+      <c r="O91" s="1" t="n"/>
+      <c r="P91" s="1" t="n"/>
+      <c r="Q91" s="1" t="n"/>
+      <c r="R91" s="1" t="n"/>
+      <c r="S91" s="1" t="n"/>
+      <c r="T91" s="1" t="n"/>
+      <c r="U91" s="1" t="n"/>
+      <c r="V91" s="1" t="n"/>
+      <c r="W91" s="1" t="n"/>
+      <c r="X91" s="1" t="n"/>
+      <c r="Y91" s="1" t="n"/>
+      <c r="Z91" s="1" t="n"/>
+      <c r="AA91" s="1" t="n"/>
+      <c r="AB91" s="1" t="n"/>
+      <c r="AC91" s="1" t="n"/>
+      <c r="AD91" s="1" t="n"/>
+      <c r="AE91" s="1" t="n"/>
+      <c r="AF91" s="1" t="n"/>
+      <c r="AG91" s="1" t="n"/>
+      <c r="AH91" s="1" t="n"/>
+      <c r="AI91" s="1" t="n"/>
+      <c r="AJ91" s="1" t="n"/>
+      <c r="AK91" s="1" t="n"/>
+      <c r="AL91" s="1" t="n"/>
+      <c r="AM91" s="1" t="n"/>
+      <c r="AN91" s="1" t="n"/>
+      <c r="AO91" s="1" t="n"/>
+      <c r="AP91" s="1" t="n"/>
+      <c r="AQ91" s="1" t="n"/>
+      <c r="AR91" s="1" t="n"/>
+      <c r="AS91" s="1" t="n"/>
+      <c r="AT91" s="1" t="n"/>
+      <c r="AU91" s="1" t="n"/>
+      <c r="AV91" s="1" t="n"/>
+      <c r="AW91" s="1" t="n"/>
+      <c r="AX91" s="1" t="n"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n"/>
+      <c r="B92" s="6" t="n"/>
+      <c r="C92" s="6" t="n"/>
+      <c r="D92" s="1" t="n"/>
+      <c r="E92" s="1" t="n"/>
+      <c r="F92" s="1" t="n"/>
+      <c r="G92" s="1" t="n"/>
+      <c r="H92" s="1" t="n"/>
+      <c r="I92" s="1" t="n"/>
+      <c r="J92" s="1" t="n"/>
+      <c r="K92" s="1" t="n"/>
+      <c r="L92" s="1" t="n"/>
+      <c r="M92" s="1" t="n"/>
+      <c r="N92" s="1" t="n"/>
+      <c r="O92" s="1" t="n"/>
+      <c r="P92" s="1" t="n"/>
+      <c r="Q92" s="1" t="n"/>
+      <c r="R92" s="1" t="n"/>
+      <c r="S92" s="1" t="n"/>
+      <c r="T92" s="1" t="n"/>
+      <c r="U92" s="1" t="n"/>
+      <c r="V92" s="1" t="n"/>
+      <c r="W92" s="1" t="n"/>
+      <c r="X92" s="1" t="n"/>
+      <c r="Y92" s="1" t="n"/>
+      <c r="Z92" s="1" t="n"/>
+      <c r="AA92" s="1" t="n"/>
+      <c r="AB92" s="1" t="n"/>
+      <c r="AC92" s="1" t="n"/>
+      <c r="AD92" s="1" t="n"/>
+      <c r="AE92" s="1" t="n"/>
+      <c r="AF92" s="1" t="n"/>
+      <c r="AG92" s="1" t="n"/>
+      <c r="AH92" s="1" t="n"/>
+      <c r="AI92" s="1" t="n"/>
+      <c r="AJ92" s="1" t="n"/>
+      <c r="AK92" s="1" t="n"/>
+      <c r="AL92" s="1" t="n"/>
+      <c r="AM92" s="1" t="n"/>
+      <c r="AN92" s="1" t="n"/>
+      <c r="AO92" s="1" t="n"/>
+      <c r="AP92" s="1" t="n"/>
+      <c r="AQ92" s="1" t="n"/>
+      <c r="AR92" s="1" t="n"/>
+      <c r="AS92" s="1" t="n"/>
+      <c r="AT92" s="1" t="n"/>
+      <c r="AU92" s="1" t="n"/>
+      <c r="AV92" s="1" t="n"/>
+      <c r="AW92" s="1" t="n"/>
+      <c r="AX92" s="1" t="n"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n"/>
+      <c r="B93" s="6" t="n"/>
+      <c r="C93" s="6" t="n"/>
+      <c r="D93" s="1" t="n"/>
+      <c r="E93" s="1" t="n"/>
+      <c r="F93" s="1" t="n"/>
+      <c r="G93" s="1" t="n"/>
+      <c r="H93" s="1" t="n"/>
+      <c r="I93" s="1" t="n"/>
+      <c r="J93" s="1" t="n"/>
+      <c r="K93" s="1" t="n"/>
+      <c r="L93" s="1" t="n"/>
+      <c r="M93" s="1" t="n"/>
+      <c r="N93" s="1" t="n"/>
+      <c r="O93" s="1" t="n"/>
+      <c r="P93" s="1" t="n"/>
+      <c r="Q93" s="1" t="n"/>
+      <c r="R93" s="1" t="n"/>
+      <c r="S93" s="1" t="n"/>
+      <c r="T93" s="1" t="n"/>
+      <c r="U93" s="1" t="n"/>
+      <c r="V93" s="1" t="n"/>
+      <c r="W93" s="1" t="n"/>
+      <c r="X93" s="1" t="n"/>
+      <c r="Y93" s="1" t="n"/>
+      <c r="Z93" s="1" t="n"/>
+      <c r="AA93" s="1" t="n"/>
+      <c r="AB93" s="1" t="n"/>
+      <c r="AC93" s="1" t="n"/>
+      <c r="AD93" s="1" t="n"/>
+      <c r="AE93" s="1" t="n"/>
+      <c r="AF93" s="1" t="n"/>
+      <c r="AG93" s="1" t="n"/>
+      <c r="AH93" s="1" t="n"/>
+      <c r="AI93" s="1" t="n"/>
+      <c r="AJ93" s="1" t="n"/>
+      <c r="AK93" s="1" t="n"/>
+      <c r="AL93" s="1" t="n"/>
+      <c r="AM93" s="1" t="n"/>
+      <c r="AN93" s="1" t="n"/>
+      <c r="AO93" s="1" t="n"/>
+      <c r="AP93" s="1" t="n"/>
+      <c r="AQ93" s="1" t="n"/>
+      <c r="AR93" s="1" t="n"/>
+      <c r="AS93" s="1" t="n"/>
+      <c r="AT93" s="1" t="n"/>
+      <c r="AU93" s="1" t="n"/>
+      <c r="AV93" s="1" t="n"/>
+      <c r="AW93" s="1" t="n"/>
+      <c r="AX93" s="1" t="n"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n"/>
+      <c r="B94" s="6" t="n"/>
+      <c r="C94" s="6" t="n"/>
+      <c r="D94" s="1" t="n"/>
+      <c r="E94" s="1" t="n"/>
+      <c r="F94" s="1" t="n"/>
+      <c r="G94" s="1" t="n"/>
+      <c r="H94" s="1" t="n"/>
+      <c r="I94" s="1" t="n"/>
+      <c r="J94" s="1" t="n"/>
+      <c r="K94" s="1" t="n"/>
+      <c r="L94" s="1" t="n"/>
+      <c r="M94" s="1" t="n"/>
+      <c r="N94" s="1" t="n"/>
+      <c r="O94" s="1" t="n"/>
+      <c r="P94" s="1" t="n"/>
+      <c r="Q94" s="1" t="n"/>
+      <c r="R94" s="1" t="n"/>
+      <c r="S94" s="1" t="n"/>
+      <c r="T94" s="1" t="n"/>
+      <c r="U94" s="1" t="n"/>
+      <c r="V94" s="1" t="n"/>
+      <c r="W94" s="1" t="n"/>
+      <c r="X94" s="1" t="n"/>
+      <c r="Y94" s="1" t="n"/>
+      <c r="Z94" s="1" t="n"/>
+      <c r="AA94" s="1" t="n"/>
+      <c r="AB94" s="1" t="n"/>
+      <c r="AC94" s="1" t="n"/>
+      <c r="AD94" s="1" t="n"/>
+      <c r="AE94" s="1" t="n"/>
+      <c r="AF94" s="1" t="n"/>
+      <c r="AG94" s="1" t="n"/>
+      <c r="AH94" s="1" t="n"/>
+      <c r="AI94" s="1" t="n"/>
+      <c r="AJ94" s="1" t="n"/>
+      <c r="AK94" s="1" t="n"/>
+      <c r="AL94" s="1" t="n"/>
+      <c r="AM94" s="1" t="n"/>
+      <c r="AN94" s="1" t="n"/>
+      <c r="AO94" s="1" t="n"/>
+      <c r="AP94" s="1" t="n"/>
+      <c r="AQ94" s="1" t="n"/>
+      <c r="AR94" s="1" t="n"/>
+      <c r="AS94" s="1" t="n"/>
+      <c r="AT94" s="1" t="n"/>
+      <c r="AU94" s="1" t="n"/>
+      <c r="AV94" s="1" t="n"/>
+      <c r="AW94" s="1" t="n"/>
+      <c r="AX94" s="1" t="n"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n"/>
+      <c r="B95" s="6" t="n"/>
+      <c r="C95" s="6" t="n"/>
+      <c r="D95" s="1" t="n"/>
+      <c r="E95" s="1" t="n"/>
+      <c r="F95" s="1" t="n"/>
+      <c r="G95" s="1" t="n"/>
+      <c r="H95" s="1" t="n"/>
+      <c r="I95" s="1" t="n"/>
+      <c r="J95" s="1" t="n"/>
+      <c r="K95" s="1" t="n"/>
+      <c r="L95" s="1" t="n"/>
+      <c r="M95" s="1" t="n"/>
+      <c r="N95" s="1" t="n"/>
+      <c r="O95" s="1" t="n"/>
+      <c r="P95" s="1" t="n"/>
+      <c r="Q95" s="1" t="n"/>
+      <c r="R95" s="1" t="n"/>
+      <c r="S95" s="1" t="n"/>
+      <c r="T95" s="1" t="n"/>
+      <c r="U95" s="1" t="n"/>
+      <c r="V95" s="1" t="n"/>
+      <c r="W95" s="1" t="n"/>
+      <c r="X95" s="1" t="n"/>
+      <c r="Y95" s="1" t="n"/>
+      <c r="Z95" s="1" t="n"/>
+      <c r="AA95" s="1" t="n"/>
+      <c r="AB95" s="1" t="n"/>
+      <c r="AC95" s="1" t="n"/>
+      <c r="AD95" s="1" t="n"/>
+      <c r="AE95" s="1" t="n"/>
+      <c r="AF95" s="1" t="n"/>
+      <c r="AG95" s="1" t="n"/>
+      <c r="AH95" s="1" t="n"/>
+      <c r="AI95" s="1" t="n"/>
+      <c r="AJ95" s="1" t="n"/>
+      <c r="AK95" s="1" t="n"/>
+      <c r="AL95" s="1" t="n"/>
+      <c r="AM95" s="1" t="n"/>
+      <c r="AN95" s="1" t="n"/>
+      <c r="AO95" s="1" t="n"/>
+      <c r="AP95" s="1" t="n"/>
+      <c r="AQ95" s="1" t="n"/>
+      <c r="AR95" s="1" t="n"/>
+      <c r="AS95" s="1" t="n"/>
+      <c r="AT95" s="1" t="n"/>
+      <c r="AU95" s="1" t="n"/>
+      <c r="AV95" s="1" t="n"/>
+      <c r="AW95" s="1" t="n"/>
+      <c r="AX95" s="1" t="n"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n"/>
+      <c r="B96" s="6" t="n"/>
+      <c r="C96" s="6" t="n"/>
+      <c r="D96" s="1" t="n"/>
+      <c r="E96" s="1" t="n"/>
+      <c r="F96" s="1" t="n"/>
+      <c r="G96" s="1" t="n"/>
+      <c r="H96" s="1" t="n"/>
+      <c r="I96" s="1" t="n"/>
+      <c r="J96" s="1" t="n"/>
+      <c r="K96" s="1" t="n"/>
+      <c r="L96" s="1" t="n"/>
+      <c r="M96" s="1" t="n"/>
+      <c r="N96" s="1" t="n"/>
+      <c r="O96" s="1" t="n"/>
+      <c r="P96" s="1" t="n"/>
+      <c r="Q96" s="1" t="n"/>
+      <c r="R96" s="1" t="n"/>
+      <c r="S96" s="1" t="n"/>
+      <c r="T96" s="1" t="n"/>
+      <c r="U96" s="1" t="n"/>
+      <c r="V96" s="1" t="n"/>
+      <c r="W96" s="1" t="n"/>
+      <c r="X96" s="1" t="n"/>
+      <c r="Y96" s="1" t="n"/>
+      <c r="Z96" s="1" t="n"/>
+      <c r="AA96" s="1" t="n"/>
+      <c r="AB96" s="1" t="n"/>
+      <c r="AC96" s="1" t="n"/>
+      <c r="AD96" s="1" t="n"/>
+      <c r="AE96" s="1" t="n"/>
+      <c r="AF96" s="1" t="n"/>
+      <c r="AG96" s="1" t="n"/>
+      <c r="AH96" s="1" t="n"/>
+      <c r="AI96" s="1" t="n"/>
+      <c r="AJ96" s="1" t="n"/>
+      <c r="AK96" s="1" t="n"/>
+      <c r="AL96" s="1" t="n"/>
+      <c r="AM96" s="1" t="n"/>
+      <c r="AN96" s="1" t="n"/>
+      <c r="AO96" s="1" t="n"/>
+      <c r="AP96" s="1" t="n"/>
+      <c r="AQ96" s="1" t="n"/>
+      <c r="AR96" s="1" t="n"/>
+      <c r="AS96" s="1" t="n"/>
+      <c r="AT96" s="1" t="n"/>
+      <c r="AU96" s="1" t="n"/>
+      <c r="AV96" s="1" t="n"/>
+      <c r="AW96" s="1" t="n"/>
+      <c r="AX96" s="1" t="n"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n"/>
+      <c r="B97" s="6" t="n"/>
+      <c r="C97" s="6" t="n"/>
+      <c r="D97" s="1" t="n"/>
+      <c r="E97" s="1" t="n"/>
+      <c r="F97" s="1" t="n"/>
+      <c r="G97" s="1" t="n"/>
+      <c r="H97" s="1" t="n"/>
+      <c r="I97" s="1" t="n"/>
+      <c r="J97" s="1" t="n"/>
+      <c r="K97" s="1" t="n"/>
+      <c r="L97" s="1" t="n"/>
+      <c r="M97" s="1" t="n"/>
+      <c r="N97" s="1" t="n"/>
+      <c r="O97" s="1" t="n"/>
+      <c r="P97" s="1" t="n"/>
+      <c r="Q97" s="1" t="n"/>
+      <c r="R97" s="1" t="n"/>
+      <c r="S97" s="1" t="n"/>
+      <c r="T97" s="1" t="n"/>
+      <c r="U97" s="1" t="n"/>
+      <c r="V97" s="1" t="n"/>
+      <c r="W97" s="1" t="n"/>
+      <c r="X97" s="1" t="n"/>
+      <c r="Y97" s="1" t="n"/>
+      <c r="Z97" s="1" t="n"/>
+      <c r="AA97" s="1" t="n"/>
+      <c r="AB97" s="1" t="n"/>
+      <c r="AC97" s="1" t="n"/>
+      <c r="AD97" s="1" t="n"/>
+      <c r="AE97" s="1" t="n"/>
+      <c r="AF97" s="1" t="n"/>
+      <c r="AG97" s="1" t="n"/>
+      <c r="AH97" s="1" t="n"/>
+      <c r="AI97" s="1" t="n"/>
+      <c r="AJ97" s="1" t="n"/>
+      <c r="AK97" s="1" t="n"/>
+      <c r="AL97" s="1" t="n"/>
+      <c r="AM97" s="1" t="n"/>
+      <c r="AN97" s="1" t="n"/>
+      <c r="AO97" s="1" t="n"/>
+      <c r="AP97" s="1" t="n"/>
+      <c r="AQ97" s="1" t="n"/>
+      <c r="AR97" s="1" t="n"/>
+      <c r="AS97" s="1" t="n"/>
+      <c r="AT97" s="1" t="n"/>
+      <c r="AU97" s="1" t="n"/>
+      <c r="AV97" s="1" t="n"/>
+      <c r="AW97" s="1" t="n"/>
+      <c r="AX97" s="1" t="n"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n"/>
+      <c r="B98" s="6" t="n"/>
+      <c r="C98" s="6" t="n"/>
+      <c r="D98" s="1" t="n"/>
+      <c r="E98" s="1" t="n"/>
+      <c r="F98" s="1" t="n"/>
+      <c r="G98" s="1" t="n"/>
+      <c r="H98" s="1" t="n"/>
+      <c r="I98" s="1" t="n"/>
+      <c r="J98" s="1" t="n"/>
+      <c r="K98" s="1" t="n"/>
+      <c r="L98" s="1" t="n"/>
+      <c r="M98" s="1" t="n"/>
+      <c r="N98" s="1" t="n"/>
+      <c r="O98" s="1" t="n"/>
+      <c r="P98" s="1" t="n"/>
+      <c r="Q98" s="1" t="n"/>
+      <c r="R98" s="1" t="n"/>
+      <c r="S98" s="1" t="n"/>
+      <c r="T98" s="1" t="n"/>
+      <c r="U98" s="1" t="n"/>
+      <c r="V98" s="1" t="n"/>
+      <c r="W98" s="1" t="n"/>
+      <c r="X98" s="1" t="n"/>
+      <c r="Y98" s="1" t="n"/>
+      <c r="Z98" s="1" t="n"/>
+      <c r="AA98" s="1" t="n"/>
+      <c r="AB98" s="1" t="n"/>
+      <c r="AC98" s="1" t="n"/>
+      <c r="AD98" s="1" t="n"/>
+      <c r="AE98" s="1" t="n"/>
+      <c r="AF98" s="1" t="n"/>
+      <c r="AG98" s="1" t="n"/>
+      <c r="AH98" s="1" t="n"/>
+      <c r="AI98" s="1" t="n"/>
+      <c r="AJ98" s="1" t="n"/>
+      <c r="AK98" s="1" t="n"/>
+      <c r="AL98" s="1" t="n"/>
+      <c r="AM98" s="1" t="n"/>
+      <c r="AN98" s="1" t="n"/>
+      <c r="AO98" s="1" t="n"/>
+      <c r="AP98" s="1" t="n"/>
+      <c r="AQ98" s="1" t="n"/>
+      <c r="AR98" s="1" t="n"/>
+      <c r="AS98" s="1" t="n"/>
+      <c r="AT98" s="1" t="n"/>
+      <c r="AU98" s="1" t="n"/>
+      <c r="AV98" s="1" t="n"/>
+      <c r="AW98" s="1" t="n"/>
+      <c r="AX98" s="1" t="n"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n"/>
+      <c r="B99" s="6" t="n"/>
+      <c r="C99" s="6" t="n"/>
+      <c r="D99" s="1" t="n"/>
+      <c r="E99" s="1" t="n"/>
+      <c r="F99" s="1" t="n"/>
+      <c r="G99" s="1" t="n"/>
+      <c r="H99" s="1" t="n"/>
+      <c r="I99" s="1" t="n"/>
+      <c r="J99" s="1" t="n"/>
+      <c r="K99" s="1" t="n"/>
+      <c r="L99" s="1" t="n"/>
+      <c r="M99" s="1" t="n"/>
+      <c r="N99" s="1" t="n"/>
+      <c r="O99" s="1" t="n"/>
+      <c r="P99" s="1" t="n"/>
+      <c r="Q99" s="1" t="n"/>
+      <c r="R99" s="1" t="n"/>
+      <c r="S99" s="1" t="n"/>
+      <c r="T99" s="1" t="n"/>
+      <c r="U99" s="1" t="n"/>
+      <c r="V99" s="1" t="n"/>
+      <c r="W99" s="1" t="n"/>
+      <c r="X99" s="1" t="n"/>
+      <c r="Y99" s="1" t="n"/>
+      <c r="Z99" s="1" t="n"/>
+      <c r="AA99" s="1" t="n"/>
+      <c r="AB99" s="1" t="n"/>
+      <c r="AC99" s="1" t="n"/>
+      <c r="AD99" s="1" t="n"/>
+      <c r="AE99" s="1" t="n"/>
+      <c r="AF99" s="1" t="n"/>
+      <c r="AG99" s="1" t="n"/>
+      <c r="AH99" s="1" t="n"/>
+      <c r="AI99" s="1" t="n"/>
+      <c r="AJ99" s="1" t="n"/>
+      <c r="AK99" s="1" t="n"/>
+      <c r="AL99" s="1" t="n"/>
+      <c r="AM99" s="1" t="n"/>
+      <c r="AN99" s="1" t="n"/>
+      <c r="AO99" s="1" t="n"/>
+      <c r="AP99" s="1" t="n"/>
+      <c r="AQ99" s="1" t="n"/>
+      <c r="AR99" s="1" t="n"/>
+      <c r="AS99" s="1" t="n"/>
+      <c r="AT99" s="1" t="n"/>
+      <c r="AU99" s="1" t="n"/>
+      <c r="AV99" s="1" t="n"/>
+      <c r="AW99" s="1" t="n"/>
+      <c r="AX99" s="1" t="n"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n"/>
+      <c r="B100" s="6" t="n"/>
+      <c r="C100" s="6" t="n"/>
+      <c r="D100" s="1" t="n"/>
+      <c r="E100" s="1" t="n"/>
+      <c r="F100" s="1" t="n"/>
+      <c r="G100" s="1" t="n"/>
+      <c r="H100" s="1" t="n"/>
+      <c r="I100" s="1" t="n"/>
+      <c r="J100" s="1" t="n"/>
+      <c r="K100" s="1" t="n"/>
+      <c r="L100" s="1" t="n"/>
+      <c r="M100" s="1" t="n"/>
+      <c r="N100" s="1" t="n"/>
+      <c r="O100" s="1" t="n"/>
+      <c r="P100" s="1" t="n"/>
+      <c r="Q100" s="1" t="n"/>
+      <c r="R100" s="1" t="n"/>
+      <c r="S100" s="1" t="n"/>
+      <c r="T100" s="1" t="n"/>
+      <c r="U100" s="1" t="n"/>
+      <c r="V100" s="1" t="n"/>
+      <c r="W100" s="1" t="n"/>
+      <c r="X100" s="1" t="n"/>
+      <c r="Y100" s="1" t="n"/>
+      <c r="Z100" s="1" t="n"/>
+      <c r="AA100" s="1" t="n"/>
+      <c r="AB100" s="1" t="n"/>
+      <c r="AC100" s="1" t="n"/>
+      <c r="AD100" s="1" t="n"/>
+      <c r="AE100" s="1" t="n"/>
+      <c r="AF100" s="1" t="n"/>
+      <c r="AG100" s="1" t="n"/>
+      <c r="AH100" s="1" t="n"/>
+      <c r="AI100" s="1" t="n"/>
+      <c r="AJ100" s="1" t="n"/>
+      <c r="AK100" s="1" t="n"/>
+      <c r="AL100" s="1" t="n"/>
+      <c r="AM100" s="1" t="n"/>
+      <c r="AN100" s="1" t="n"/>
+      <c r="AO100" s="1" t="n"/>
+      <c r="AP100" s="1" t="n"/>
+      <c r="AQ100" s="1" t="n"/>
+      <c r="AR100" s="1" t="n"/>
+      <c r="AS100" s="1" t="n"/>
+      <c r="AT100" s="1" t="n"/>
+      <c r="AU100" s="1" t="n"/>
+      <c r="AV100" s="1" t="n"/>
+      <c r="AW100" s="1" t="n"/>
+      <c r="AX100" s="1" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="B9"/>
+    <mergeCell ref="C17"/>
+    <mergeCell ref="B5"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="C13"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="B25"/>
+    <mergeCell ref="C5"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="B21"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="C25"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="C9"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="B17"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="B13"/>
+    <mergeCell ref="C21"/>
+    <mergeCell ref="L1:L3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F5:F28">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="2">
+      <formula>"Responsible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2" operator="equal" dxfId="1">
+      <formula>"Accountable"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="3">
+      <formula>"Consulted"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="4" operator="equal" dxfId="4">
+      <formula>"Informed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G28">
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2">
+      <formula>"Responsible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6" operator="equal" dxfId="1">
+      <formula>"Accountable"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7" operator="equal" dxfId="3">
+      <formula>"Consulted"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="8" operator="equal" dxfId="4">
+      <formula>"Informed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H28">
+    <cfRule type="cellIs" priority="9" operator="equal" dxfId="2">
+      <formula>"Responsible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="10" operator="equal" dxfId="1">
+      <formula>"Accountable"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="3">
+      <formula>"Consulted"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="12" operator="equal" dxfId="4">
+      <formula>"Informed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I28">
+    <cfRule type="cellIs" priority="13" operator="equal" dxfId="2">
+      <formula>"Responsible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="14" operator="equal" dxfId="1">
+      <formula>"Accountable"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="15" operator="equal" dxfId="3">
+      <formula>"Consulted"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="16" operator="equal" dxfId="4">
+      <formula>"Informed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J28">
+    <cfRule type="cellIs" priority="17" operator="equal" dxfId="2">
+      <formula>"Responsible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="18" operator="equal" dxfId="1">
+      <formula>"Accountable"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="19" operator="equal" dxfId="3">
+      <formula>"Consulted"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="20" operator="equal" dxfId="4">
+      <formula>"Informed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:K28">
+    <cfRule type="cellIs" priority="21" operator="equal" dxfId="2">
+      <formula>"Responsible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="22" operator="equal" dxfId="1">
+      <formula>"Accountable"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="23" operator="equal" dxfId="3">
+      <formula>"Consulted"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="24" operator="equal" dxfId="4">
+      <formula>"Informed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5:L28">
+    <cfRule type="cellIs" priority="25" operator="equal" dxfId="2">
+      <formula>"Responsible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="26" operator="equal" dxfId="1">
+      <formula>"Accountable"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="27" operator="equal" dxfId="3">
+      <formula>"Consulted"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="28" operator="equal" dxfId="4">
+      <formula>"Informed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:M28">
+    <cfRule type="cellIs" priority="29" operator="equal" dxfId="2">
+      <formula>"Responsible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="30" operator="equal" dxfId="1">
+      <formula>"Accountable"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="31" operator="equal" dxfId="3">
+      <formula>"Consulted"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="32" operator="equal" dxfId="4">
+      <formula>"Informed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5:N28">
+    <cfRule type="cellIs" priority="33" operator="equal" dxfId="2">
+      <formula>"Responsible"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="34" operator="equal" dxfId="1">
+      <formula>"Accountable"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="35" operator="equal" dxfId="3">
+      <formula>"Consulted"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="36" operator="equal" dxfId="4">
+      <formula>"Informed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation sqref="F5 F6 F7 F8 F9 F10 F11 F12 F13 F14 F15 F16 F17 F18 F19 F20 F21 F22 F23 F24 F25 F26 F27 F28 G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28 H5 H6 H7 H8 H9 H10 H11 H12 H13 H14 H15 H16 H17 H18 H19 H20 H21 H22 H23 H24 H25 H26 H27 H28 I5 I6 I7 I8 I9 I10 I11 I12 I13 I14 I15 I16 I17 I18 I19 I20 I21 I22 I23 I24 I25 I26 I27 I28 J5 J6 J7 J8 J9 J10 J11 J12 J13 J14 J15 J16 J17 J18 J19 J20 J21 J22 J23 J24 J25 J26 J27 J28 K5 K6 K7 K8 K9 K10 K11 K12 K13 K14 K15 K16 K17 K18 K19 K20 K21 K22 K23 K24 K25 K26 K27 K28 L5 L6 L7 L8 L9 L10 L11 L12 L13 L14 L15 L16 L17 L18 L19 L20 L21 L22 L23 L24 L25 L26 L27 L28 M5 M6 M7 M8 M9 M10 M11 M12 M13 M14 M15 M16 M17 M18 M19 M20 M21 M22 M23 M24 M25 M26 M27 M28 N5 N6 N7 N8 N9 N10 N11 N12 N13 N14 N15 N16 N17 N18 N19 N20 N21 N22 N23 N24 N25 N26 N27 N28" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Invalid entry, please select from the list" type="list">
+      <formula1>"Responsible,Accountable,Consulted,Informed"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/chronogram.xlsx
+++ b/chronogram.xlsx
@@ -43,7 +43,7 @@
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill/>
     </fill>
@@ -70,8 +70,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0032a852"/>
-        <bgColor rgb="0032a852"/>
+        <fgColor rgb="001FD5C4"/>
+        <bgColor rgb="001FD5C4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D2DDDC"/>
+        <bgColor rgb="00D2DDDC"/>
       </patternFill>
     </fill>
     <fill>
@@ -117,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -137,15 +143,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -154,7 +166,7 @@
     <dxf>
       <font>
         <b val="1"/>
-        <color rgb="00000000"/>
+        <color rgb="00FFFFFF"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -585,7 +597,7 @@
     <col width="30" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
     <col width="20" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
     <col width="20" customWidth="1" min="9" max="9"/>
@@ -597,6 +609,7 @@
     <col width="20" customWidth="1" min="15" max="15"/>
     <col width="20" customWidth="1" min="16" max="16"/>
     <col width="20" customWidth="1" min="17" max="17"/>
+    <col width="20" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -621,12 +634,16 @@
           <t>End Date</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Priority</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G1" s="4" t="n"/>
       <c r="H1" s="4" t="n"/>
       <c r="I1" s="4" t="n"/>
       <c r="J1" s="4" t="n"/>
@@ -637,7 +654,7 @@
       <c r="O1" s="4" t="n"/>
       <c r="P1" s="4" t="n"/>
       <c r="Q1" s="4" t="n"/>
-      <c r="R1" s="1" t="n"/>
+      <c r="R1" s="4" t="n"/>
       <c r="S1" s="1" t="n"/>
       <c r="T1" s="1" t="n"/>
       <c r="U1" s="1" t="n"/>
@@ -677,31 +694,31 @@
       <c r="C2" s="4" t="n"/>
       <c r="D2" s="4" t="n"/>
       <c r="E2" s="4" t="n"/>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="F2" s="4" t="n"/>
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>April</t>
         </is>
       </c>
-      <c r="G2" s="4" t="n"/>
       <c r="H2" s="4" t="n"/>
-      <c r="I2" s="5" t="inlineStr">
+      <c r="I2" s="4" t="n"/>
+      <c r="J2" s="5" t="inlineStr">
         <is>
           <t>May</t>
         </is>
       </c>
-      <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
       <c r="L2" s="4" t="n"/>
       <c r="M2" s="4" t="n"/>
-      <c r="N2" s="5" t="inlineStr">
+      <c r="N2" s="4" t="n"/>
+      <c r="O2" s="5" t="inlineStr">
         <is>
           <t>June</t>
         </is>
       </c>
-      <c r="O2" s="4" t="n"/>
       <c r="P2" s="4" t="n"/>
       <c r="Q2" s="4" t="n"/>
-      <c r="R2" s="1" t="n"/>
+      <c r="R2" s="4" t="n"/>
       <c r="S2" s="1" t="n"/>
       <c r="T2" s="1" t="n"/>
       <c r="U2" s="1" t="n"/>
@@ -741,67 +758,67 @@
       <c r="C3" s="4" t="n"/>
       <c r="D3" s="4" t="n"/>
       <c r="E3" s="4" t="n"/>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="F3" s="4" t="n"/>
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>10/Apr - 16/Apr</t>
         </is>
       </c>
-      <c r="G3" s="5" t="inlineStr">
+      <c r="H3" s="5" t="inlineStr">
         <is>
           <t>17/Apr - 23/Apr</t>
         </is>
       </c>
-      <c r="H3" s="5" t="inlineStr">
+      <c r="I3" s="5" t="inlineStr">
         <is>
           <t>24/Apr - 30/Apr</t>
         </is>
       </c>
-      <c r="I3" s="5" t="inlineStr">
+      <c r="J3" s="5" t="inlineStr">
         <is>
           <t>01/May - 07/May</t>
         </is>
       </c>
-      <c r="J3" s="5" t="inlineStr">
+      <c r="K3" s="5" t="inlineStr">
         <is>
           <t>08/May - 14/May</t>
         </is>
       </c>
-      <c r="K3" s="5" t="inlineStr">
+      <c r="L3" s="5" t="inlineStr">
         <is>
           <t>15/May - 21/May</t>
         </is>
       </c>
-      <c r="L3" s="5" t="inlineStr">
+      <c r="M3" s="5" t="inlineStr">
         <is>
           <t>22/May - 28/May</t>
         </is>
       </c>
-      <c r="M3" s="5" t="inlineStr">
+      <c r="N3" s="5" t="inlineStr">
         <is>
           <t>29/May - 04/Jun</t>
         </is>
       </c>
-      <c r="N3" s="5" t="inlineStr">
+      <c r="O3" s="5" t="inlineStr">
         <is>
           <t>05/Jun - 11/Jun</t>
         </is>
       </c>
-      <c r="O3" s="5" t="inlineStr">
+      <c r="P3" s="5" t="inlineStr">
         <is>
           <t>12/Jun - 18/Jun</t>
         </is>
       </c>
-      <c r="P3" s="5" t="inlineStr">
+      <c r="Q3" s="5" t="inlineStr">
         <is>
           <t>19/Jun - 25/Jun</t>
         </is>
       </c>
-      <c r="Q3" s="5" t="inlineStr">
+      <c r="R3" s="5" t="inlineStr">
         <is>
           <t>26/Jun - 02/Jul</t>
         </is>
       </c>
-      <c r="R3" s="1" t="n"/>
       <c r="S3" s="1" t="n"/>
       <c r="T3" s="1" t="n"/>
       <c r="U3" s="1" t="n"/>
@@ -909,9 +926,13 @@
           <t>23-Apr-2024</t>
         </is>
       </c>
-      <c r="F5" s="9" t="n"/>
-      <c r="G5" s="9" t="n"/>
-      <c r="H5" s="1" t="n"/>
+      <c r="F5" s="9" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G5" s="10" t="n"/>
+      <c r="H5" s="10" t="n"/>
       <c r="I5" s="1" t="n"/>
       <c r="J5" s="1" t="n"/>
       <c r="K5" s="1" t="n"/>
@@ -957,28 +978,32 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
-      <c r="B6" s="10" t="inlineStr">
+      <c r="B6" s="11" t="inlineStr">
         <is>
           <t>1.1</t>
         </is>
       </c>
-      <c r="C6" s="10" t="inlineStr">
+      <c r="C6" s="11" t="inlineStr">
         <is>
           <t>Initial Meeting</t>
         </is>
       </c>
-      <c r="D6" s="11" t="inlineStr">
+      <c r="D6" s="12" t="inlineStr">
         <is>
           <t>10-Apr-2024</t>
         </is>
       </c>
-      <c r="E6" s="11" t="inlineStr">
+      <c r="E6" s="12" t="inlineStr">
         <is>
           <t>16-Apr-2024</t>
         </is>
       </c>
-      <c r="F6" s="12" t="n"/>
-      <c r="G6" s="1" t="n"/>
+      <c r="F6" s="9" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G6" s="13" t="n"/>
       <c r="H6" s="1" t="n"/>
       <c r="I6" s="1" t="n"/>
       <c r="J6" s="1" t="n"/>
@@ -1025,28 +1050,32 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
-      <c r="B7" s="10" t="inlineStr">
+      <c r="B7" s="11" t="inlineStr">
         <is>
           <t>1.2</t>
         </is>
       </c>
-      <c r="C7" s="10" t="inlineStr">
+      <c r="C7" s="11" t="inlineStr">
         <is>
           <t>Stakeholder Interviews</t>
         </is>
       </c>
-      <c r="D7" s="11" t="inlineStr">
+      <c r="D7" s="12" t="inlineStr">
         <is>
           <t>10-Apr-2024</t>
         </is>
       </c>
-      <c r="E7" s="11" t="inlineStr">
+      <c r="E7" s="12" t="inlineStr">
         <is>
           <t>16-Apr-2024</t>
         </is>
       </c>
-      <c r="F7" s="12" t="n"/>
-      <c r="G7" s="1" t="n"/>
+      <c r="F7" s="9" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G7" s="13" t="n"/>
       <c r="H7" s="1" t="n"/>
       <c r="I7" s="1" t="n"/>
       <c r="J7" s="1" t="n"/>
@@ -1093,29 +1122,33 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
-      <c r="B8" s="10" t="inlineStr">
+      <c r="B8" s="11" t="inlineStr">
         <is>
           <t>1.3</t>
         </is>
       </c>
-      <c r="C8" s="10" t="inlineStr">
+      <c r="C8" s="11" t="inlineStr">
         <is>
           <t>Requirements Documentation</t>
         </is>
       </c>
-      <c r="D8" s="11" t="inlineStr">
+      <c r="D8" s="12" t="inlineStr">
         <is>
           <t>10-Apr-2024</t>
         </is>
       </c>
-      <c r="E8" s="11" t="inlineStr">
+      <c r="E8" s="12" t="inlineStr">
         <is>
           <t>23-Apr-2024</t>
         </is>
       </c>
-      <c r="F8" s="12" t="n"/>
-      <c r="G8" s="12" t="n"/>
-      <c r="H8" s="1" t="n"/>
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G8" s="13" t="n"/>
+      <c r="H8" s="13" t="n"/>
       <c r="I8" s="1" t="n"/>
       <c r="J8" s="1" t="n"/>
       <c r="K8" s="1" t="n"/>
@@ -1181,11 +1214,15 @@
           <t>07-May-2024</t>
         </is>
       </c>
-      <c r="F9" s="1" t="n"/>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
       <c r="G9" s="1" t="n"/>
-      <c r="H9" s="9" t="n"/>
-      <c r="I9" s="9" t="n"/>
-      <c r="J9" s="1" t="n"/>
+      <c r="H9" s="1" t="n"/>
+      <c r="I9" s="10" t="n"/>
+      <c r="J9" s="10" t="n"/>
       <c r="K9" s="1" t="n"/>
       <c r="L9" s="1" t="n"/>
       <c r="M9" s="1" t="n"/>
@@ -1229,30 +1266,34 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
-      <c r="B10" s="10" t="inlineStr">
+      <c r="B10" s="11" t="inlineStr">
         <is>
           <t>2.1</t>
         </is>
       </c>
-      <c r="C10" s="10" t="inlineStr">
+      <c r="C10" s="11" t="inlineStr">
         <is>
           <t>System Architecture Design</t>
         </is>
       </c>
-      <c r="D10" s="11" t="inlineStr">
+      <c r="D10" s="12" t="inlineStr">
         <is>
           <t>24-Apr-2024</t>
         </is>
       </c>
-      <c r="E10" s="11" t="inlineStr">
+      <c r="E10" s="12" t="inlineStr">
         <is>
           <t>30-Apr-2024</t>
         </is>
       </c>
-      <c r="F10" s="1" t="n"/>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
       <c r="G10" s="1" t="n"/>
-      <c r="H10" s="12" t="n"/>
-      <c r="I10" s="1" t="n"/>
+      <c r="H10" s="1" t="n"/>
+      <c r="I10" s="13" t="n"/>
       <c r="J10" s="1" t="n"/>
       <c r="K10" s="1" t="n"/>
       <c r="L10" s="1" t="n"/>
@@ -1297,31 +1338,35 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
-      <c r="B11" s="10" t="inlineStr">
+      <c r="B11" s="11" t="inlineStr">
         <is>
           <t>2.2</t>
         </is>
       </c>
-      <c r="C11" s="10" t="inlineStr">
+      <c r="C11" s="11" t="inlineStr">
         <is>
           <t>Database Schema Design</t>
         </is>
       </c>
-      <c r="D11" s="11" t="inlineStr">
+      <c r="D11" s="12" t="inlineStr">
         <is>
           <t>24-Apr-2024</t>
         </is>
       </c>
-      <c r="E11" s="11" t="inlineStr">
+      <c r="E11" s="12" t="inlineStr">
         <is>
           <t>07-May-2024</t>
         </is>
       </c>
-      <c r="F11" s="1" t="n"/>
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
       <c r="G11" s="1" t="n"/>
-      <c r="H11" s="12" t="n"/>
-      <c r="I11" s="12" t="n"/>
-      <c r="J11" s="1" t="n"/>
+      <c r="H11" s="1" t="n"/>
+      <c r="I11" s="13" t="n"/>
+      <c r="J11" s="13" t="n"/>
       <c r="K11" s="1" t="n"/>
       <c r="L11" s="1" t="n"/>
       <c r="M11" s="1" t="n"/>
@@ -1365,31 +1410,35 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
-      <c r="B12" s="10" t="inlineStr">
+      <c r="B12" s="11" t="inlineStr">
         <is>
           <t>2.3</t>
         </is>
       </c>
-      <c r="C12" s="10" t="inlineStr">
+      <c r="C12" s="11" t="inlineStr">
         <is>
           <t>UI/UX Design</t>
         </is>
       </c>
-      <c r="D12" s="11" t="inlineStr">
+      <c r="D12" s="12" t="inlineStr">
         <is>
           <t>01-May-2024</t>
         </is>
       </c>
-      <c r="E12" s="11" t="inlineStr">
+      <c r="E12" s="12" t="inlineStr">
         <is>
           <t>07-May-2024</t>
         </is>
       </c>
-      <c r="F12" s="1" t="n"/>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
       <c r="G12" s="1" t="n"/>
       <c r="H12" s="1" t="n"/>
-      <c r="I12" s="12" t="n"/>
-      <c r="J12" s="1" t="n"/>
+      <c r="I12" s="1" t="n"/>
+      <c r="J12" s="13" t="n"/>
       <c r="K12" s="1" t="n"/>
       <c r="L12" s="1" t="n"/>
       <c r="M12" s="1" t="n"/>
@@ -1453,14 +1502,18 @@
           <t>28-May-2024</t>
         </is>
       </c>
-      <c r="F13" s="1" t="n"/>
+      <c r="F13" s="9" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
       <c r="G13" s="1" t="n"/>
       <c r="H13" s="1" t="n"/>
       <c r="I13" s="1" t="n"/>
-      <c r="J13" s="9" t="n"/>
-      <c r="K13" s="9" t="n"/>
-      <c r="L13" s="9" t="n"/>
-      <c r="M13" s="1" t="n"/>
+      <c r="J13" s="1" t="n"/>
+      <c r="K13" s="10" t="n"/>
+      <c r="L13" s="10" t="n"/>
+      <c r="M13" s="10" t="n"/>
       <c r="N13" s="1" t="n"/>
       <c r="O13" s="1" t="n"/>
       <c r="P13" s="1" t="n"/>
@@ -1501,32 +1554,36 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
-      <c r="B14" s="10" t="inlineStr">
+      <c r="B14" s="11" t="inlineStr">
         <is>
           <t>3.1</t>
         </is>
       </c>
-      <c r="C14" s="10" t="inlineStr">
+      <c r="C14" s="11" t="inlineStr">
         <is>
           <t>Frontend Development</t>
         </is>
       </c>
-      <c r="D14" s="11" t="inlineStr">
+      <c r="D14" s="12" t="inlineStr">
         <is>
           <t>08-May-2024</t>
         </is>
       </c>
-      <c r="E14" s="11" t="inlineStr">
+      <c r="E14" s="12" t="inlineStr">
         <is>
           <t>14-May-2024</t>
         </is>
       </c>
-      <c r="F14" s="1" t="n"/>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
       <c r="G14" s="1" t="n"/>
       <c r="H14" s="1" t="n"/>
       <c r="I14" s="1" t="n"/>
-      <c r="J14" s="12" t="n"/>
-      <c r="K14" s="1" t="n"/>
+      <c r="J14" s="1" t="n"/>
+      <c r="K14" s="13" t="n"/>
       <c r="L14" s="1" t="n"/>
       <c r="M14" s="1" t="n"/>
       <c r="N14" s="1" t="n"/>
@@ -1569,34 +1626,38 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
-      <c r="B15" s="10" t="inlineStr">
+      <c r="B15" s="11" t="inlineStr">
         <is>
           <t>3.2</t>
         </is>
       </c>
-      <c r="C15" s="10" t="inlineStr">
+      <c r="C15" s="11" t="inlineStr">
         <is>
           <t>Backend Development</t>
         </is>
       </c>
-      <c r="D15" s="11" t="inlineStr">
+      <c r="D15" s="12" t="inlineStr">
         <is>
           <t>15-May-2024</t>
         </is>
       </c>
-      <c r="E15" s="11" t="inlineStr">
+      <c r="E15" s="12" t="inlineStr">
         <is>
           <t>28-May-2024</t>
         </is>
       </c>
-      <c r="F15" s="1" t="n"/>
+      <c r="F15" s="9" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
       <c r="G15" s="1" t="n"/>
       <c r="H15" s="1" t="n"/>
       <c r="I15" s="1" t="n"/>
       <c r="J15" s="1" t="n"/>
-      <c r="K15" s="12" t="n"/>
-      <c r="L15" s="12" t="n"/>
-      <c r="M15" s="1" t="n"/>
+      <c r="K15" s="1" t="n"/>
+      <c r="L15" s="13" t="n"/>
+      <c r="M15" s="13" t="n"/>
       <c r="N15" s="1" t="n"/>
       <c r="O15" s="1" t="n"/>
       <c r="P15" s="1" t="n"/>
@@ -1637,34 +1698,38 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
-      <c r="B16" s="10" t="inlineStr">
+      <c r="B16" s="11" t="inlineStr">
         <is>
           <t>3.3</t>
         </is>
       </c>
-      <c r="C16" s="10" t="inlineStr">
+      <c r="C16" s="11" t="inlineStr">
         <is>
           <t>Integration</t>
         </is>
       </c>
-      <c r="D16" s="11" t="inlineStr">
+      <c r="D16" s="12" t="inlineStr">
         <is>
           <t>22-May-2024</t>
         </is>
       </c>
-      <c r="E16" s="11" t="inlineStr">
+      <c r="E16" s="12" t="inlineStr">
         <is>
           <t>28-May-2024</t>
         </is>
       </c>
-      <c r="F16" s="1" t="n"/>
+      <c r="F16" s="9" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
       <c r="G16" s="1" t="n"/>
       <c r="H16" s="1" t="n"/>
       <c r="I16" s="1" t="n"/>
       <c r="J16" s="1" t="n"/>
       <c r="K16" s="1" t="n"/>
-      <c r="L16" s="12" t="n"/>
-      <c r="M16" s="1" t="n"/>
+      <c r="L16" s="1" t="n"/>
+      <c r="M16" s="13" t="n"/>
       <c r="N16" s="1" t="n"/>
       <c r="O16" s="1" t="n"/>
       <c r="P16" s="1" t="n"/>
@@ -1725,16 +1790,20 @@
           <t>11-Jun-2024</t>
         </is>
       </c>
-      <c r="F17" s="1" t="n"/>
+      <c r="F17" s="9" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
       <c r="G17" s="1" t="n"/>
       <c r="H17" s="1" t="n"/>
       <c r="I17" s="1" t="n"/>
       <c r="J17" s="1" t="n"/>
       <c r="K17" s="1" t="n"/>
       <c r="L17" s="1" t="n"/>
-      <c r="M17" s="9" t="n"/>
-      <c r="N17" s="9" t="n"/>
-      <c r="O17" s="1" t="n"/>
+      <c r="M17" s="1" t="n"/>
+      <c r="N17" s="10" t="n"/>
+      <c r="O17" s="10" t="n"/>
       <c r="P17" s="1" t="n"/>
       <c r="Q17" s="1" t="n"/>
       <c r="R17" s="1" t="n"/>
@@ -1773,35 +1842,39 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
-      <c r="B18" s="10" t="inlineStr">
+      <c r="B18" s="11" t="inlineStr">
         <is>
           <t>4.1</t>
         </is>
       </c>
-      <c r="C18" s="10" t="inlineStr">
+      <c r="C18" s="11" t="inlineStr">
         <is>
           <t>Unit Testing</t>
         </is>
       </c>
-      <c r="D18" s="11" t="inlineStr">
+      <c r="D18" s="12" t="inlineStr">
         <is>
           <t>29-May-2024</t>
         </is>
       </c>
-      <c r="E18" s="11" t="inlineStr">
+      <c r="E18" s="12" t="inlineStr">
         <is>
           <t>04-Jun-2024</t>
         </is>
       </c>
-      <c r="F18" s="1" t="n"/>
+      <c r="F18" s="9" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
       <c r="G18" s="1" t="n"/>
       <c r="H18" s="1" t="n"/>
       <c r="I18" s="1" t="n"/>
       <c r="J18" s="1" t="n"/>
       <c r="K18" s="1" t="n"/>
       <c r="L18" s="1" t="n"/>
-      <c r="M18" s="12" t="n"/>
-      <c r="N18" s="1" t="n"/>
+      <c r="M18" s="1" t="n"/>
+      <c r="N18" s="13" t="n"/>
       <c r="O18" s="1" t="n"/>
       <c r="P18" s="1" t="n"/>
       <c r="Q18" s="1" t="n"/>
@@ -1841,36 +1914,40 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
-      <c r="B19" s="10" t="inlineStr">
+      <c r="B19" s="11" t="inlineStr">
         <is>
           <t>4.2</t>
         </is>
       </c>
-      <c r="C19" s="10" t="inlineStr">
+      <c r="C19" s="11" t="inlineStr">
         <is>
           <t>Integration Testing</t>
         </is>
       </c>
-      <c r="D19" s="11" t="inlineStr">
+      <c r="D19" s="12" t="inlineStr">
         <is>
           <t>29-May-2024</t>
         </is>
       </c>
-      <c r="E19" s="11" t="inlineStr">
+      <c r="E19" s="12" t="inlineStr">
         <is>
           <t>11-Jun-2024</t>
         </is>
       </c>
-      <c r="F19" s="1" t="n"/>
+      <c r="F19" s="9" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
       <c r="G19" s="1" t="n"/>
       <c r="H19" s="1" t="n"/>
       <c r="I19" s="1" t="n"/>
       <c r="J19" s="1" t="n"/>
       <c r="K19" s="1" t="n"/>
       <c r="L19" s="1" t="n"/>
-      <c r="M19" s="12" t="n"/>
-      <c r="N19" s="12" t="n"/>
-      <c r="O19" s="1" t="n"/>
+      <c r="M19" s="1" t="n"/>
+      <c r="N19" s="13" t="n"/>
+      <c r="O19" s="13" t="n"/>
       <c r="P19" s="1" t="n"/>
       <c r="Q19" s="1" t="n"/>
       <c r="R19" s="1" t="n"/>
@@ -1909,27 +1986,31 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
-      <c r="B20" s="10" t="inlineStr">
+      <c r="B20" s="11" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
-      <c r="C20" s="10" t="inlineStr">
+      <c r="C20" s="11" t="inlineStr">
         <is>
           <t>User Acceptance Testing</t>
         </is>
       </c>
-      <c r="D20" s="11" t="inlineStr">
+      <c r="D20" s="12" t="inlineStr">
         <is>
           <t>05-Jun-2024</t>
         </is>
       </c>
-      <c r="E20" s="11" t="inlineStr">
+      <c r="E20" s="12" t="inlineStr">
         <is>
           <t>11-Jun-2024</t>
         </is>
       </c>
-      <c r="F20" s="1" t="n"/>
+      <c r="F20" s="9" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
       <c r="G20" s="1" t="n"/>
       <c r="H20" s="1" t="n"/>
       <c r="I20" s="1" t="n"/>
@@ -1937,8 +2018,8 @@
       <c r="K20" s="1" t="n"/>
       <c r="L20" s="1" t="n"/>
       <c r="M20" s="1" t="n"/>
-      <c r="N20" s="12" t="n"/>
-      <c r="O20" s="1" t="n"/>
+      <c r="N20" s="1" t="n"/>
+      <c r="O20" s="13" t="n"/>
       <c r="P20" s="1" t="n"/>
       <c r="Q20" s="1" t="n"/>
       <c r="R20" s="1" t="n"/>
@@ -1997,7 +2078,11 @@
           <t>18-Jun-2024</t>
         </is>
       </c>
-      <c r="F21" s="1" t="n"/>
+      <c r="F21" s="9" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
       <c r="G21" s="1" t="n"/>
       <c r="H21" s="1" t="n"/>
       <c r="I21" s="1" t="n"/>
@@ -2006,8 +2091,8 @@
       <c r="L21" s="1" t="n"/>
       <c r="M21" s="1" t="n"/>
       <c r="N21" s="1" t="n"/>
-      <c r="O21" s="9" t="n"/>
-      <c r="P21" s="1" t="n"/>
+      <c r="O21" s="1" t="n"/>
+      <c r="P21" s="10" t="n"/>
       <c r="Q21" s="1" t="n"/>
       <c r="R21" s="1" t="n"/>
       <c r="S21" s="1" t="n"/>
@@ -2045,27 +2130,31 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
-      <c r="B22" s="10" t="inlineStr">
+      <c r="B22" s="11" t="inlineStr">
         <is>
           <t>5.1</t>
         </is>
       </c>
-      <c r="C22" s="10" t="inlineStr">
+      <c r="C22" s="11" t="inlineStr">
         <is>
           <t>Prepare Deployment Environment</t>
         </is>
       </c>
-      <c r="D22" s="11" t="inlineStr">
+      <c r="D22" s="12" t="inlineStr">
         <is>
           <t>12-Jun-2024</t>
         </is>
       </c>
-      <c r="E22" s="11" t="inlineStr">
+      <c r="E22" s="12" t="inlineStr">
         <is>
           <t>18-Jun-2024</t>
         </is>
       </c>
-      <c r="F22" s="1" t="n"/>
+      <c r="F22" s="9" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
       <c r="G22" s="1" t="n"/>
       <c r="H22" s="1" t="n"/>
       <c r="I22" s="1" t="n"/>
@@ -2074,8 +2163,8 @@
       <c r="L22" s="1" t="n"/>
       <c r="M22" s="1" t="n"/>
       <c r="N22" s="1" t="n"/>
-      <c r="O22" s="12" t="n"/>
-      <c r="P22" s="1" t="n"/>
+      <c r="O22" s="1" t="n"/>
+      <c r="P22" s="13" t="n"/>
       <c r="Q22" s="1" t="n"/>
       <c r="R22" s="1" t="n"/>
       <c r="S22" s="1" t="n"/>
@@ -2113,27 +2202,31 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
-      <c r="B23" s="10" t="inlineStr">
+      <c r="B23" s="11" t="inlineStr">
         <is>
           <t>5.2</t>
         </is>
       </c>
-      <c r="C23" s="10" t="inlineStr">
+      <c r="C23" s="11" t="inlineStr">
         <is>
           <t>Deployment</t>
         </is>
       </c>
-      <c r="D23" s="11" t="inlineStr">
+      <c r="D23" s="12" t="inlineStr">
         <is>
           <t>12-Jun-2024</t>
         </is>
       </c>
-      <c r="E23" s="11" t="inlineStr">
+      <c r="E23" s="12" t="inlineStr">
         <is>
           <t>18-Jun-2024</t>
         </is>
       </c>
-      <c r="F23" s="1" t="n"/>
+      <c r="F23" s="9" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
       <c r="G23" s="1" t="n"/>
       <c r="H23" s="1" t="n"/>
       <c r="I23" s="1" t="n"/>
@@ -2142,8 +2235,8 @@
       <c r="L23" s="1" t="n"/>
       <c r="M23" s="1" t="n"/>
       <c r="N23" s="1" t="n"/>
-      <c r="O23" s="12" t="n"/>
-      <c r="P23" s="1" t="n"/>
+      <c r="O23" s="1" t="n"/>
+      <c r="P23" s="13" t="n"/>
       <c r="Q23" s="1" t="n"/>
       <c r="R23" s="1" t="n"/>
       <c r="S23" s="1" t="n"/>
@@ -2181,27 +2274,31 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
-      <c r="B24" s="10" t="inlineStr">
+      <c r="B24" s="11" t="inlineStr">
         <is>
           <t>5.3</t>
         </is>
       </c>
-      <c r="C24" s="10" t="inlineStr">
+      <c r="C24" s="11" t="inlineStr">
         <is>
           <t>Post-Deployment Verification</t>
         </is>
       </c>
-      <c r="D24" s="11" t="inlineStr">
+      <c r="D24" s="12" t="inlineStr">
         <is>
           <t>12-Jun-2024</t>
         </is>
       </c>
-      <c r="E24" s="11" t="inlineStr">
+      <c r="E24" s="12" t="inlineStr">
         <is>
           <t>18-Jun-2024</t>
         </is>
       </c>
-      <c r="F24" s="1" t="n"/>
+      <c r="F24" s="9" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
       <c r="G24" s="1" t="n"/>
       <c r="H24" s="1" t="n"/>
       <c r="I24" s="1" t="n"/>
@@ -2210,8 +2307,8 @@
       <c r="L24" s="1" t="n"/>
       <c r="M24" s="1" t="n"/>
       <c r="N24" s="1" t="n"/>
-      <c r="O24" s="12" t="n"/>
-      <c r="P24" s="1" t="n"/>
+      <c r="O24" s="1" t="n"/>
+      <c r="P24" s="13" t="n"/>
       <c r="Q24" s="1" t="n"/>
       <c r="R24" s="1" t="n"/>
       <c r="S24" s="1" t="n"/>
@@ -2269,7 +2366,11 @@
           <t>02-Jul-2024</t>
         </is>
       </c>
-      <c r="F25" s="1" t="n"/>
+      <c r="F25" s="9" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
       <c r="G25" s="1" t="n"/>
       <c r="H25" s="1" t="n"/>
       <c r="I25" s="1" t="n"/>
@@ -2279,9 +2380,9 @@
       <c r="M25" s="1" t="n"/>
       <c r="N25" s="1" t="n"/>
       <c r="O25" s="1" t="n"/>
-      <c r="P25" s="9" t="n"/>
-      <c r="Q25" s="9" t="n"/>
-      <c r="R25" s="1" t="n"/>
+      <c r="P25" s="1" t="n"/>
+      <c r="Q25" s="10" t="n"/>
+      <c r="R25" s="10" t="n"/>
       <c r="S25" s="1" t="n"/>
       <c r="T25" s="1" t="n"/>
       <c r="U25" s="1" t="n"/>
@@ -2317,27 +2418,31 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
-      <c r="B26" s="10" t="inlineStr">
+      <c r="B26" s="11" t="inlineStr">
         <is>
           <t>6.1</t>
         </is>
       </c>
-      <c r="C26" s="10" t="inlineStr">
+      <c r="C26" s="11" t="inlineStr">
         <is>
           <t>Bug Fixing</t>
         </is>
       </c>
-      <c r="D26" s="11" t="inlineStr">
+      <c r="D26" s="12" t="inlineStr">
         <is>
           <t>19-Jun-2024</t>
         </is>
       </c>
-      <c r="E26" s="11" t="inlineStr">
+      <c r="E26" s="12" t="inlineStr">
         <is>
           <t>25-Jun-2024</t>
         </is>
       </c>
-      <c r="F26" s="1" t="n"/>
+      <c r="F26" s="9" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
       <c r="G26" s="1" t="n"/>
       <c r="H26" s="1" t="n"/>
       <c r="I26" s="1" t="n"/>
@@ -2347,8 +2452,8 @@
       <c r="M26" s="1" t="n"/>
       <c r="N26" s="1" t="n"/>
       <c r="O26" s="1" t="n"/>
-      <c r="P26" s="12" t="n"/>
-      <c r="Q26" s="1" t="n"/>
+      <c r="P26" s="1" t="n"/>
+      <c r="Q26" s="13" t="n"/>
       <c r="R26" s="1" t="n"/>
       <c r="S26" s="1" t="n"/>
       <c r="T26" s="1" t="n"/>
@@ -2385,27 +2490,31 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
-      <c r="B27" s="10" t="inlineStr">
+      <c r="B27" s="11" t="inlineStr">
         <is>
           <t>6.2</t>
         </is>
       </c>
-      <c r="C27" s="10" t="inlineStr">
+      <c r="C27" s="11" t="inlineStr">
         <is>
           <t>Performance Tuning</t>
         </is>
       </c>
-      <c r="D27" s="11" t="inlineStr">
+      <c r="D27" s="12" t="inlineStr">
         <is>
           <t>19-Jun-2024</t>
         </is>
       </c>
-      <c r="E27" s="11" t="inlineStr">
+      <c r="E27" s="12" t="inlineStr">
         <is>
           <t>25-Jun-2024</t>
         </is>
       </c>
-      <c r="F27" s="1" t="n"/>
+      <c r="F27" s="9" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
       <c r="G27" s="1" t="n"/>
       <c r="H27" s="1" t="n"/>
       <c r="I27" s="1" t="n"/>
@@ -2415,8 +2524,8 @@
       <c r="M27" s="1" t="n"/>
       <c r="N27" s="1" t="n"/>
       <c r="O27" s="1" t="n"/>
-      <c r="P27" s="12" t="n"/>
-      <c r="Q27" s="1" t="n"/>
+      <c r="P27" s="1" t="n"/>
+      <c r="Q27" s="13" t="n"/>
       <c r="R27" s="1" t="n"/>
       <c r="S27" s="1" t="n"/>
       <c r="T27" s="1" t="n"/>
@@ -2453,27 +2562,31 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n"/>
-      <c r="B28" s="10" t="inlineStr">
+      <c r="B28" s="11" t="inlineStr">
         <is>
           <t>6.3</t>
         </is>
       </c>
-      <c r="C28" s="10" t="inlineStr">
+      <c r="C28" s="11" t="inlineStr">
         <is>
           <t>User Training</t>
         </is>
       </c>
-      <c r="D28" s="11" t="inlineStr">
+      <c r="D28" s="12" t="inlineStr">
         <is>
           <t>19-Jun-2024</t>
         </is>
       </c>
-      <c r="E28" s="11" t="inlineStr">
+      <c r="E28" s="12" t="inlineStr">
         <is>
           <t>02-Jul-2024</t>
         </is>
       </c>
-      <c r="F28" s="1" t="n"/>
+      <c r="F28" s="9" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
       <c r="G28" s="1" t="n"/>
       <c r="H28" s="1" t="n"/>
       <c r="I28" s="1" t="n"/>
@@ -2483,9 +2596,9 @@
       <c r="M28" s="1" t="n"/>
       <c r="N28" s="1" t="n"/>
       <c r="O28" s="1" t="n"/>
-      <c r="P28" s="12" t="n"/>
-      <c r="Q28" s="12" t="n"/>
-      <c r="R28" s="1" t="n"/>
+      <c r="P28" s="1" t="n"/>
+      <c r="Q28" s="13" t="n"/>
+      <c r="R28" s="13" t="n"/>
       <c r="S28" s="1" t="n"/>
       <c r="T28" s="1" t="n"/>
       <c r="U28" s="1" t="n"/>
@@ -6264,28 +6377,45 @@
       <c r="AX100" s="1" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
     <mergeCell ref="B9"/>
     <mergeCell ref="C17"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="O2:R2"/>
     <mergeCell ref="B5"/>
     <mergeCell ref="C13"/>
     <mergeCell ref="D1:D3"/>
+    <mergeCell ref="F1:F3"/>
     <mergeCell ref="B25"/>
     <mergeCell ref="C5"/>
+    <mergeCell ref="G1:R1"/>
     <mergeCell ref="B21"/>
     <mergeCell ref="C25"/>
-    <mergeCell ref="F1:Q1"/>
-    <mergeCell ref="N2:Q2"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="C9"/>
+    <mergeCell ref="G2:I2"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="B17"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="B13"/>
     <mergeCell ref="C21"/>
+    <mergeCell ref="J2:N2"/>
   </mergeCells>
+  <conditionalFormatting sqref="F5:F28">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
+      <formula>"Low"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2" operator="equal" dxfId="1">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="2">
+      <formula>"High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation sqref="F5 F6 F7 F8 F9 F10 F11 F12 F13 F14 F15 F16 F17 F18 F19 F20 F21 F22 F23 F24 F25 F26 F27 F28" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Invalid entry, please select from the list" type="list">
+      <formula1>"Low,Medium,High"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -6308,7 +6438,7 @@
     <col width="30" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
     <col width="20" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
     <col width="20" customWidth="1" min="9" max="9"/>
@@ -6320,6 +6450,7 @@
     <col width="20" customWidth="1" min="15" max="15"/>
     <col width="20" customWidth="1" min="16" max="16"/>
     <col width="20" customWidth="1" min="17" max="17"/>
+    <col width="20" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6344,12 +6475,16 @@
           <t>End Date</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Priority</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G1" s="4" t="n"/>
       <c r="H1" s="4" t="n"/>
       <c r="I1" s="4" t="n"/>
       <c r="J1" s="4" t="n"/>
@@ -6360,7 +6495,7 @@
       <c r="O1" s="4" t="n"/>
       <c r="P1" s="4" t="n"/>
       <c r="Q1" s="4" t="n"/>
-      <c r="R1" s="1" t="n"/>
+      <c r="R1" s="4" t="n"/>
       <c r="S1" s="1" t="n"/>
       <c r="T1" s="1" t="n"/>
       <c r="U1" s="1" t="n"/>
@@ -6400,31 +6535,31 @@
       <c r="C2" s="4" t="n"/>
       <c r="D2" s="4" t="n"/>
       <c r="E2" s="4" t="n"/>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="F2" s="4" t="n"/>
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>April</t>
         </is>
       </c>
-      <c r="G2" s="4" t="n"/>
       <c r="H2" s="4" t="n"/>
-      <c r="I2" s="5" t="inlineStr">
+      <c r="I2" s="4" t="n"/>
+      <c r="J2" s="5" t="inlineStr">
         <is>
           <t>May</t>
         </is>
       </c>
-      <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
       <c r="L2" s="4" t="n"/>
       <c r="M2" s="4" t="n"/>
-      <c r="N2" s="5" t="inlineStr">
+      <c r="N2" s="4" t="n"/>
+      <c r="O2" s="5" t="inlineStr">
         <is>
           <t>June</t>
         </is>
       </c>
-      <c r="O2" s="4" t="n"/>
       <c r="P2" s="4" t="n"/>
       <c r="Q2" s="4" t="n"/>
-      <c r="R2" s="1" t="n"/>
+      <c r="R2" s="4" t="n"/>
       <c r="S2" s="1" t="n"/>
       <c r="T2" s="1" t="n"/>
       <c r="U2" s="1" t="n"/>
@@ -6464,67 +6599,67 @@
       <c r="C3" s="4" t="n"/>
       <c r="D3" s="4" t="n"/>
       <c r="E3" s="4" t="n"/>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="F3" s="4" t="n"/>
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>10/Apr - 16/Apr</t>
         </is>
       </c>
-      <c r="G3" s="5" t="inlineStr">
+      <c r="H3" s="5" t="inlineStr">
         <is>
           <t>17/Apr - 23/Apr</t>
         </is>
       </c>
-      <c r="H3" s="5" t="inlineStr">
+      <c r="I3" s="5" t="inlineStr">
         <is>
           <t>24/Apr - 30/Apr</t>
         </is>
       </c>
-      <c r="I3" s="5" t="inlineStr">
+      <c r="J3" s="5" t="inlineStr">
         <is>
           <t>01/May - 07/May</t>
         </is>
       </c>
-      <c r="J3" s="5" t="inlineStr">
+      <c r="K3" s="5" t="inlineStr">
         <is>
           <t>08/May - 14/May</t>
         </is>
       </c>
-      <c r="K3" s="5" t="inlineStr">
+      <c r="L3" s="5" t="inlineStr">
         <is>
           <t>15/May - 21/May</t>
         </is>
       </c>
-      <c r="L3" s="5" t="inlineStr">
+      <c r="M3" s="5" t="inlineStr">
         <is>
           <t>22/May - 28/May</t>
         </is>
       </c>
-      <c r="M3" s="5" t="inlineStr">
+      <c r="N3" s="5" t="inlineStr">
         <is>
           <t>29/May - 04/Jun</t>
         </is>
       </c>
-      <c r="N3" s="5" t="inlineStr">
+      <c r="O3" s="5" t="inlineStr">
         <is>
           <t>05/Jun - 11/Jun</t>
         </is>
       </c>
-      <c r="O3" s="5" t="inlineStr">
+      <c r="P3" s="5" t="inlineStr">
         <is>
           <t>12/Jun - 18/Jun</t>
         </is>
       </c>
-      <c r="P3" s="5" t="inlineStr">
+      <c r="Q3" s="5" t="inlineStr">
         <is>
           <t>19/Jun - 25/Jun</t>
         </is>
       </c>
-      <c r="Q3" s="5" t="inlineStr">
+      <c r="R3" s="5" t="inlineStr">
         <is>
           <t>26/Jun - 02/Jul</t>
         </is>
       </c>
-      <c r="R3" s="1" t="n"/>
       <c r="S3" s="1" t="n"/>
       <c r="T3" s="1" t="n"/>
       <c r="U3" s="1" t="n"/>
@@ -6632,9 +6767,13 @@
           <t>23-Apr-2024</t>
         </is>
       </c>
-      <c r="F5" s="9" t="n"/>
-      <c r="G5" s="9" t="n"/>
-      <c r="H5" s="1" t="n"/>
+      <c r="F5" s="9" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="G5" s="10" t="n"/>
+      <c r="H5" s="10" t="n"/>
       <c r="I5" s="1" t="n"/>
       <c r="J5" s="1" t="n"/>
       <c r="K5" s="1" t="n"/>
@@ -6856,11 +6995,15 @@
           <t>07-May-2024</t>
         </is>
       </c>
-      <c r="F9" s="1" t="n"/>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
       <c r="G9" s="1" t="n"/>
-      <c r="H9" s="9" t="n"/>
-      <c r="I9" s="9" t="n"/>
-      <c r="J9" s="1" t="n"/>
+      <c r="H9" s="1" t="n"/>
+      <c r="I9" s="10" t="n"/>
+      <c r="J9" s="10" t="n"/>
       <c r="K9" s="1" t="n"/>
       <c r="L9" s="1" t="n"/>
       <c r="M9" s="1" t="n"/>
@@ -7080,14 +7223,18 @@
           <t>28-May-2024</t>
         </is>
       </c>
-      <c r="F13" s="1" t="n"/>
+      <c r="F13" s="9" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
       <c r="G13" s="1" t="n"/>
       <c r="H13" s="1" t="n"/>
       <c r="I13" s="1" t="n"/>
-      <c r="J13" s="9" t="n"/>
-      <c r="K13" s="9" t="n"/>
-      <c r="L13" s="9" t="n"/>
-      <c r="M13" s="1" t="n"/>
+      <c r="J13" s="1" t="n"/>
+      <c r="K13" s="10" t="n"/>
+      <c r="L13" s="10" t="n"/>
+      <c r="M13" s="10" t="n"/>
       <c r="N13" s="1" t="n"/>
       <c r="O13" s="1" t="n"/>
       <c r="P13" s="1" t="n"/>
@@ -7304,16 +7451,20 @@
           <t>11-Jun-2024</t>
         </is>
       </c>
-      <c r="F17" s="1" t="n"/>
+      <c r="F17" s="9" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
       <c r="G17" s="1" t="n"/>
       <c r="H17" s="1" t="n"/>
       <c r="I17" s="1" t="n"/>
       <c r="J17" s="1" t="n"/>
       <c r="K17" s="1" t="n"/>
       <c r="L17" s="1" t="n"/>
-      <c r="M17" s="9" t="n"/>
-      <c r="N17" s="9" t="n"/>
-      <c r="O17" s="1" t="n"/>
+      <c r="M17" s="1" t="n"/>
+      <c r="N17" s="10" t="n"/>
+      <c r="O17" s="10" t="n"/>
       <c r="P17" s="1" t="n"/>
       <c r="Q17" s="1" t="n"/>
       <c r="R17" s="1" t="n"/>
@@ -7528,7 +7679,11 @@
           <t>18-Jun-2024</t>
         </is>
       </c>
-      <c r="F21" s="1" t="n"/>
+      <c r="F21" s="9" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
       <c r="G21" s="1" t="n"/>
       <c r="H21" s="1" t="n"/>
       <c r="I21" s="1" t="n"/>
@@ -7537,8 +7692,8 @@
       <c r="L21" s="1" t="n"/>
       <c r="M21" s="1" t="n"/>
       <c r="N21" s="1" t="n"/>
-      <c r="O21" s="9" t="n"/>
-      <c r="P21" s="1" t="n"/>
+      <c r="O21" s="1" t="n"/>
+      <c r="P21" s="10" t="n"/>
       <c r="Q21" s="1" t="n"/>
       <c r="R21" s="1" t="n"/>
       <c r="S21" s="1" t="n"/>
@@ -7752,7 +7907,11 @@
           <t>02-Jul-2024</t>
         </is>
       </c>
-      <c r="F25" s="1" t="n"/>
+      <c r="F25" s="9" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
       <c r="G25" s="1" t="n"/>
       <c r="H25" s="1" t="n"/>
       <c r="I25" s="1" t="n"/>
@@ -7762,9 +7921,9 @@
       <c r="M25" s="1" t="n"/>
       <c r="N25" s="1" t="n"/>
       <c r="O25" s="1" t="n"/>
-      <c r="P25" s="9" t="n"/>
-      <c r="Q25" s="9" t="n"/>
-      <c r="R25" s="1" t="n"/>
+      <c r="P25" s="1" t="n"/>
+      <c r="Q25" s="10" t="n"/>
+      <c r="R25" s="10" t="n"/>
       <c r="S25" s="1" t="n"/>
       <c r="T25" s="1" t="n"/>
       <c r="U25" s="1" t="n"/>
@@ -11699,28 +11858,45 @@
       <c r="AX100" s="1" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
     <mergeCell ref="B9"/>
     <mergeCell ref="C17"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="O2:R2"/>
     <mergeCell ref="B5"/>
     <mergeCell ref="C13"/>
     <mergeCell ref="D1:D3"/>
+    <mergeCell ref="F1:F3"/>
     <mergeCell ref="B25"/>
     <mergeCell ref="C5"/>
+    <mergeCell ref="G1:R1"/>
     <mergeCell ref="B21"/>
     <mergeCell ref="C25"/>
-    <mergeCell ref="F1:Q1"/>
-    <mergeCell ref="N2:Q2"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="C9"/>
+    <mergeCell ref="G2:I2"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="B17"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="B13"/>
     <mergeCell ref="C21"/>
+    <mergeCell ref="J2:N2"/>
   </mergeCells>
+  <conditionalFormatting sqref="F5:F28">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
+      <formula>"Low"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2" operator="equal" dxfId="1">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="2">
+      <formula>"High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation sqref="F5 F6 F7 F8 F9 F10 F11 F12 F13 F14 F15 F16 F17 F18 F19 F20 F21 F22 F23 F24 F25 F26 F27 F28" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Invalid entry, please select from the list" type="list">
+      <formula1>"Low,Medium,High"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -11743,7 +11919,7 @@
     <col width="30" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
     <col width="20" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
     <col width="20" customWidth="1" min="9" max="9"/>
@@ -11755,6 +11931,7 @@
     <col width="20" customWidth="1" min="15" max="15"/>
     <col width="20" customWidth="1" min="16" max="16"/>
     <col width="20" customWidth="1" min="17" max="17"/>
+    <col width="20" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11784,7 +11961,11 @@
           <t>Status</t>
         </is>
       </c>
-      <c r="G1" s="1" t="n"/>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Complete</t>
+        </is>
+      </c>
       <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="n"/>
@@ -11836,7 +12017,7 @@
       <c r="D2" s="4" t="n"/>
       <c r="E2" s="4" t="n"/>
       <c r="F2" s="4" t="n"/>
-      <c r="G2" s="1" t="n"/>
+      <c r="G2" s="4" t="n"/>
       <c r="H2" s="1" t="n"/>
       <c r="I2" s="1" t="n"/>
       <c r="J2" s="1" t="n"/>
@@ -11888,7 +12069,7 @@
       <c r="D3" s="4" t="n"/>
       <c r="E3" s="4" t="n"/>
       <c r="F3" s="4" t="n"/>
-      <c r="G3" s="1" t="n"/>
+      <c r="G3" s="4" t="n"/>
       <c r="H3" s="1" t="n"/>
       <c r="I3" s="1" t="n"/>
       <c r="J3" s="1" t="n"/>
@@ -12007,12 +12188,16 @@
           <t>23-Apr-2024</t>
         </is>
       </c>
-      <c r="F5" s="13" t="inlineStr">
+      <c r="F5" s="14" t="inlineStr">
         <is>
           <t>Delayed</t>
         </is>
       </c>
-      <c r="G5" s="1" t="n"/>
+      <c r="G5" s="15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="H5" s="1" t="n"/>
       <c r="I5" s="1" t="n"/>
       <c r="J5" s="1" t="n"/>
@@ -12059,32 +12244,36 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
-      <c r="B6" s="10" t="inlineStr">
+      <c r="B6" s="11" t="inlineStr">
         <is>
           <t>1.1</t>
         </is>
       </c>
-      <c r="C6" s="10" t="inlineStr">
+      <c r="C6" s="11" t="inlineStr">
         <is>
           <t>Initial Meeting</t>
         </is>
       </c>
-      <c r="D6" s="11" t="inlineStr">
+      <c r="D6" s="12" t="inlineStr">
         <is>
           <t>10-Apr-2024</t>
         </is>
       </c>
-      <c r="E6" s="11" t="inlineStr">
+      <c r="E6" s="12" t="inlineStr">
         <is>
           <t>16-Apr-2024</t>
         </is>
       </c>
-      <c r="F6" s="11" t="inlineStr">
+      <c r="F6" s="12" t="inlineStr">
         <is>
           <t>Delayed</t>
         </is>
       </c>
-      <c r="G6" s="1" t="n"/>
+      <c r="G6" s="15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="H6" s="1" t="n"/>
       <c r="I6" s="1" t="n"/>
       <c r="J6" s="1" t="n"/>
@@ -12131,32 +12320,36 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
-      <c r="B7" s="10" t="inlineStr">
+      <c r="B7" s="11" t="inlineStr">
         <is>
           <t>1.2</t>
         </is>
       </c>
-      <c r="C7" s="10" t="inlineStr">
+      <c r="C7" s="11" t="inlineStr">
         <is>
           <t>Stakeholder Interviews</t>
         </is>
       </c>
-      <c r="D7" s="11" t="inlineStr">
+      <c r="D7" s="12" t="inlineStr">
         <is>
           <t>10-Apr-2024</t>
         </is>
       </c>
-      <c r="E7" s="11" t="inlineStr">
+      <c r="E7" s="12" t="inlineStr">
         <is>
           <t>16-Apr-2024</t>
         </is>
       </c>
-      <c r="F7" s="11" t="inlineStr">
+      <c r="F7" s="12" t="inlineStr">
         <is>
           <t>Delayed</t>
         </is>
       </c>
-      <c r="G7" s="1" t="n"/>
+      <c r="G7" s="15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="H7" s="1" t="n"/>
       <c r="I7" s="1" t="n"/>
       <c r="J7" s="1" t="n"/>
@@ -12203,32 +12396,36 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
-      <c r="B8" s="10" t="inlineStr">
+      <c r="B8" s="11" t="inlineStr">
         <is>
           <t>1.3</t>
         </is>
       </c>
-      <c r="C8" s="10" t="inlineStr">
+      <c r="C8" s="11" t="inlineStr">
         <is>
           <t>Requirements Documentation</t>
         </is>
       </c>
-      <c r="D8" s="11" t="inlineStr">
+      <c r="D8" s="12" t="inlineStr">
         <is>
           <t>10-Apr-2024</t>
         </is>
       </c>
-      <c r="E8" s="11" t="inlineStr">
+      <c r="E8" s="12" t="inlineStr">
         <is>
           <t>23-Apr-2024</t>
         </is>
       </c>
-      <c r="F8" s="11" t="inlineStr">
+      <c r="F8" s="12" t="inlineStr">
         <is>
           <t>Delayed</t>
         </is>
       </c>
-      <c r="G8" s="1" t="n"/>
+      <c r="G8" s="15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="H8" s="1" t="n"/>
       <c r="I8" s="1" t="n"/>
       <c r="J8" s="1" t="n"/>
@@ -12295,12 +12492,16 @@
           <t>07-May-2024</t>
         </is>
       </c>
-      <c r="F9" s="13" t="inlineStr">
+      <c r="F9" s="14" t="inlineStr">
         <is>
           <t>Delayed</t>
         </is>
       </c>
-      <c r="G9" s="1" t="n"/>
+      <c r="G9" s="15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="H9" s="1" t="n"/>
       <c r="I9" s="1" t="n"/>
       <c r="J9" s="1" t="n"/>
@@ -12347,32 +12548,36 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
-      <c r="B10" s="10" t="inlineStr">
+      <c r="B10" s="11" t="inlineStr">
         <is>
           <t>2.1</t>
         </is>
       </c>
-      <c r="C10" s="10" t="inlineStr">
+      <c r="C10" s="11" t="inlineStr">
         <is>
           <t>System Architecture Design</t>
         </is>
       </c>
-      <c r="D10" s="11" t="inlineStr">
+      <c r="D10" s="12" t="inlineStr">
         <is>
           <t>24-Apr-2024</t>
         </is>
       </c>
-      <c r="E10" s="11" t="inlineStr">
+      <c r="E10" s="12" t="inlineStr">
         <is>
           <t>30-Apr-2024</t>
         </is>
       </c>
-      <c r="F10" s="11" t="inlineStr">
+      <c r="F10" s="12" t="inlineStr">
         <is>
           <t>Delayed</t>
         </is>
       </c>
-      <c r="G10" s="1" t="n"/>
+      <c r="G10" s="15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="H10" s="1" t="n"/>
       <c r="I10" s="1" t="n"/>
       <c r="J10" s="1" t="n"/>
@@ -12419,32 +12624,36 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
-      <c r="B11" s="10" t="inlineStr">
+      <c r="B11" s="11" t="inlineStr">
         <is>
           <t>2.2</t>
         </is>
       </c>
-      <c r="C11" s="10" t="inlineStr">
+      <c r="C11" s="11" t="inlineStr">
         <is>
           <t>Database Schema Design</t>
         </is>
       </c>
-      <c r="D11" s="11" t="inlineStr">
+      <c r="D11" s="12" t="inlineStr">
         <is>
           <t>24-Apr-2024</t>
         </is>
       </c>
-      <c r="E11" s="11" t="inlineStr">
+      <c r="E11" s="12" t="inlineStr">
         <is>
           <t>07-May-2024</t>
         </is>
       </c>
-      <c r="F11" s="11" t="inlineStr">
+      <c r="F11" s="12" t="inlineStr">
         <is>
           <t>Delayed</t>
         </is>
       </c>
-      <c r="G11" s="1" t="n"/>
+      <c r="G11" s="15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="H11" s="1" t="n"/>
       <c r="I11" s="1" t="n"/>
       <c r="J11" s="1" t="n"/>
@@ -12491,32 +12700,36 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
-      <c r="B12" s="10" t="inlineStr">
+      <c r="B12" s="11" t="inlineStr">
         <is>
           <t>2.3</t>
         </is>
       </c>
-      <c r="C12" s="10" t="inlineStr">
+      <c r="C12" s="11" t="inlineStr">
         <is>
           <t>UI/UX Design</t>
         </is>
       </c>
-      <c r="D12" s="11" t="inlineStr">
+      <c r="D12" s="12" t="inlineStr">
         <is>
           <t>01-May-2024</t>
         </is>
       </c>
-      <c r="E12" s="11" t="inlineStr">
+      <c r="E12" s="12" t="inlineStr">
         <is>
           <t>07-May-2024</t>
         </is>
       </c>
-      <c r="F12" s="11" t="inlineStr">
+      <c r="F12" s="12" t="inlineStr">
         <is>
           <t>Delayed</t>
         </is>
       </c>
-      <c r="G12" s="1" t="n"/>
+      <c r="G12" s="15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="H12" s="1" t="n"/>
       <c r="I12" s="1" t="n"/>
       <c r="J12" s="1" t="n"/>
@@ -12583,12 +12796,16 @@
           <t>28-May-2024</t>
         </is>
       </c>
-      <c r="F13" s="14" t="inlineStr">
+      <c r="F13" s="16" t="inlineStr">
         <is>
           <t>At Risk</t>
         </is>
       </c>
-      <c r="G13" s="1" t="n"/>
+      <c r="G13" s="15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="H13" s="1" t="n"/>
       <c r="I13" s="1" t="n"/>
       <c r="J13" s="1" t="n"/>
@@ -12635,32 +12852,36 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
-      <c r="B14" s="10" t="inlineStr">
+      <c r="B14" s="11" t="inlineStr">
         <is>
           <t>3.1</t>
         </is>
       </c>
-      <c r="C14" s="10" t="inlineStr">
+      <c r="C14" s="11" t="inlineStr">
         <is>
           <t>Frontend Development</t>
         </is>
       </c>
-      <c r="D14" s="11" t="inlineStr">
+      <c r="D14" s="12" t="inlineStr">
         <is>
           <t>08-May-2024</t>
         </is>
       </c>
-      <c r="E14" s="11" t="inlineStr">
+      <c r="E14" s="12" t="inlineStr">
         <is>
           <t>14-May-2024</t>
         </is>
       </c>
-      <c r="F14" s="11" t="inlineStr">
+      <c r="F14" s="12" t="inlineStr">
         <is>
           <t>Delayed</t>
         </is>
       </c>
-      <c r="G14" s="1" t="n"/>
+      <c r="G14" s="15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="H14" s="1" t="n"/>
       <c r="I14" s="1" t="n"/>
       <c r="J14" s="1" t="n"/>
@@ -12707,32 +12928,36 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
-      <c r="B15" s="10" t="inlineStr">
+      <c r="B15" s="11" t="inlineStr">
         <is>
           <t>3.2</t>
         </is>
       </c>
-      <c r="C15" s="10" t="inlineStr">
+      <c r="C15" s="11" t="inlineStr">
         <is>
           <t>Backend Development</t>
         </is>
       </c>
-      <c r="D15" s="11" t="inlineStr">
+      <c r="D15" s="12" t="inlineStr">
         <is>
           <t>15-May-2024</t>
         </is>
       </c>
-      <c r="E15" s="11" t="inlineStr">
+      <c r="E15" s="12" t="inlineStr">
         <is>
           <t>28-May-2024</t>
         </is>
       </c>
-      <c r="F15" s="11" t="inlineStr">
+      <c r="F15" s="12" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="G15" s="1" t="n"/>
+      <c r="G15" s="15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="H15" s="1" t="n"/>
       <c r="I15" s="1" t="n"/>
       <c r="J15" s="1" t="n"/>
@@ -12779,32 +13004,36 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
-      <c r="B16" s="10" t="inlineStr">
+      <c r="B16" s="11" t="inlineStr">
         <is>
           <t>3.3</t>
         </is>
       </c>
-      <c r="C16" s="10" t="inlineStr">
+      <c r="C16" s="11" t="inlineStr">
         <is>
           <t>Integration</t>
         </is>
       </c>
-      <c r="D16" s="11" t="inlineStr">
+      <c r="D16" s="12" t="inlineStr">
         <is>
           <t>22-May-2024</t>
         </is>
       </c>
-      <c r="E16" s="11" t="inlineStr">
+      <c r="E16" s="12" t="inlineStr">
         <is>
           <t>28-May-2024</t>
         </is>
       </c>
-      <c r="F16" s="11" t="inlineStr">
+      <c r="F16" s="12" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="G16" s="1" t="n"/>
+      <c r="G16" s="15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="H16" s="1" t="n"/>
       <c r="I16" s="1" t="n"/>
       <c r="J16" s="1" t="n"/>
@@ -12871,12 +13100,16 @@
           <t>11-Jun-2024</t>
         </is>
       </c>
-      <c r="F17" s="15" t="inlineStr">
+      <c r="F17" s="17" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="G17" s="1" t="n"/>
+      <c r="G17" s="15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="H17" s="1" t="n"/>
       <c r="I17" s="1" t="n"/>
       <c r="J17" s="1" t="n"/>
@@ -12923,32 +13156,36 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
-      <c r="B18" s="10" t="inlineStr">
+      <c r="B18" s="11" t="inlineStr">
         <is>
           <t>4.1</t>
         </is>
       </c>
-      <c r="C18" s="10" t="inlineStr">
+      <c r="C18" s="11" t="inlineStr">
         <is>
           <t>Unit Testing</t>
         </is>
       </c>
-      <c r="D18" s="11" t="inlineStr">
+      <c r="D18" s="12" t="inlineStr">
         <is>
           <t>29-May-2024</t>
         </is>
       </c>
-      <c r="E18" s="11" t="inlineStr">
+      <c r="E18" s="12" t="inlineStr">
         <is>
           <t>04-Jun-2024</t>
         </is>
       </c>
-      <c r="F18" s="11" t="inlineStr">
+      <c r="F18" s="12" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="G18" s="1" t="n"/>
+      <c r="G18" s="15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="H18" s="1" t="n"/>
       <c r="I18" s="1" t="n"/>
       <c r="J18" s="1" t="n"/>
@@ -12995,32 +13232,36 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
-      <c r="B19" s="10" t="inlineStr">
+      <c r="B19" s="11" t="inlineStr">
         <is>
           <t>4.2</t>
         </is>
       </c>
-      <c r="C19" s="10" t="inlineStr">
+      <c r="C19" s="11" t="inlineStr">
         <is>
           <t>Integration Testing</t>
         </is>
       </c>
-      <c r="D19" s="11" t="inlineStr">
+      <c r="D19" s="12" t="inlineStr">
         <is>
           <t>29-May-2024</t>
         </is>
       </c>
-      <c r="E19" s="11" t="inlineStr">
+      <c r="E19" s="12" t="inlineStr">
         <is>
           <t>11-Jun-2024</t>
         </is>
       </c>
-      <c r="F19" s="11" t="inlineStr">
+      <c r="F19" s="12" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="G19" s="1" t="n"/>
+      <c r="G19" s="15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="H19" s="1" t="n"/>
       <c r="I19" s="1" t="n"/>
       <c r="J19" s="1" t="n"/>
@@ -13067,32 +13308,36 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
-      <c r="B20" s="10" t="inlineStr">
+      <c r="B20" s="11" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
-      <c r="C20" s="10" t="inlineStr">
+      <c r="C20" s="11" t="inlineStr">
         <is>
           <t>User Acceptance Testing</t>
         </is>
       </c>
-      <c r="D20" s="11" t="inlineStr">
+      <c r="D20" s="12" t="inlineStr">
         <is>
           <t>05-Jun-2024</t>
         </is>
       </c>
-      <c r="E20" s="11" t="inlineStr">
+      <c r="E20" s="12" t="inlineStr">
         <is>
           <t>11-Jun-2024</t>
         </is>
       </c>
-      <c r="F20" s="11" t="inlineStr">
+      <c r="F20" s="12" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="G20" s="1" t="n"/>
+      <c r="G20" s="15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="H20" s="1" t="n"/>
       <c r="I20" s="1" t="n"/>
       <c r="J20" s="1" t="n"/>
@@ -13159,12 +13404,16 @@
           <t>18-Jun-2024</t>
         </is>
       </c>
-      <c r="F21" s="15" t="inlineStr">
+      <c r="F21" s="17" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="G21" s="1" t="n"/>
+      <c r="G21" s="15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="H21" s="1" t="n"/>
       <c r="I21" s="1" t="n"/>
       <c r="J21" s="1" t="n"/>
@@ -13211,32 +13460,36 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
-      <c r="B22" s="10" t="inlineStr">
+      <c r="B22" s="11" t="inlineStr">
         <is>
           <t>5.1</t>
         </is>
       </c>
-      <c r="C22" s="10" t="inlineStr">
+      <c r="C22" s="11" t="inlineStr">
         <is>
           <t>Prepare Deployment Environment</t>
         </is>
       </c>
-      <c r="D22" s="11" t="inlineStr">
+      <c r="D22" s="12" t="inlineStr">
         <is>
           <t>12-Jun-2024</t>
         </is>
       </c>
-      <c r="E22" s="11" t="inlineStr">
+      <c r="E22" s="12" t="inlineStr">
         <is>
           <t>18-Jun-2024</t>
         </is>
       </c>
-      <c r="F22" s="11" t="inlineStr">
+      <c r="F22" s="12" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="G22" s="1" t="n"/>
+      <c r="G22" s="15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="H22" s="1" t="n"/>
       <c r="I22" s="1" t="n"/>
       <c r="J22" s="1" t="n"/>
@@ -13283,32 +13536,36 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
-      <c r="B23" s="10" t="inlineStr">
+      <c r="B23" s="11" t="inlineStr">
         <is>
           <t>5.2</t>
         </is>
       </c>
-      <c r="C23" s="10" t="inlineStr">
+      <c r="C23" s="11" t="inlineStr">
         <is>
           <t>Deployment</t>
         </is>
       </c>
-      <c r="D23" s="11" t="inlineStr">
+      <c r="D23" s="12" t="inlineStr">
         <is>
           <t>12-Jun-2024</t>
         </is>
       </c>
-      <c r="E23" s="11" t="inlineStr">
+      <c r="E23" s="12" t="inlineStr">
         <is>
           <t>18-Jun-2024</t>
         </is>
       </c>
-      <c r="F23" s="11" t="inlineStr">
+      <c r="F23" s="12" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="G23" s="1" t="n"/>
+      <c r="G23" s="15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="H23" s="1" t="n"/>
       <c r="I23" s="1" t="n"/>
       <c r="J23" s="1" t="n"/>
@@ -13355,32 +13612,36 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
-      <c r="B24" s="10" t="inlineStr">
+      <c r="B24" s="11" t="inlineStr">
         <is>
           <t>5.3</t>
         </is>
       </c>
-      <c r="C24" s="10" t="inlineStr">
+      <c r="C24" s="11" t="inlineStr">
         <is>
           <t>Post-Deployment Verification</t>
         </is>
       </c>
-      <c r="D24" s="11" t="inlineStr">
+      <c r="D24" s="12" t="inlineStr">
         <is>
           <t>12-Jun-2024</t>
         </is>
       </c>
-      <c r="E24" s="11" t="inlineStr">
+      <c r="E24" s="12" t="inlineStr">
         <is>
           <t>18-Jun-2024</t>
         </is>
       </c>
-      <c r="F24" s="11" t="inlineStr">
+      <c r="F24" s="12" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="G24" s="1" t="n"/>
+      <c r="G24" s="15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="H24" s="1" t="n"/>
       <c r="I24" s="1" t="n"/>
       <c r="J24" s="1" t="n"/>
@@ -13447,12 +13708,16 @@
           <t>02-Jul-2024</t>
         </is>
       </c>
-      <c r="F25" s="15" t="inlineStr">
+      <c r="F25" s="17" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="G25" s="1" t="n"/>
+      <c r="G25" s="15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="H25" s="1" t="n"/>
       <c r="I25" s="1" t="n"/>
       <c r="J25" s="1" t="n"/>
@@ -13499,32 +13764,36 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
-      <c r="B26" s="10" t="inlineStr">
+      <c r="B26" s="11" t="inlineStr">
         <is>
           <t>6.1</t>
         </is>
       </c>
-      <c r="C26" s="10" t="inlineStr">
+      <c r="C26" s="11" t="inlineStr">
         <is>
           <t>Bug Fixing</t>
         </is>
       </c>
-      <c r="D26" s="11" t="inlineStr">
+      <c r="D26" s="12" t="inlineStr">
         <is>
           <t>19-Jun-2024</t>
         </is>
       </c>
-      <c r="E26" s="11" t="inlineStr">
+      <c r="E26" s="12" t="inlineStr">
         <is>
           <t>25-Jun-2024</t>
         </is>
       </c>
-      <c r="F26" s="11" t="inlineStr">
+      <c r="F26" s="12" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="G26" s="1" t="n"/>
+      <c r="G26" s="15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="H26" s="1" t="n"/>
       <c r="I26" s="1" t="n"/>
       <c r="J26" s="1" t="n"/>
@@ -13571,32 +13840,36 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
-      <c r="B27" s="10" t="inlineStr">
+      <c r="B27" s="11" t="inlineStr">
         <is>
           <t>6.2</t>
         </is>
       </c>
-      <c r="C27" s="10" t="inlineStr">
+      <c r="C27" s="11" t="inlineStr">
         <is>
           <t>Performance Tuning</t>
         </is>
       </c>
-      <c r="D27" s="11" t="inlineStr">
+      <c r="D27" s="12" t="inlineStr">
         <is>
           <t>19-Jun-2024</t>
         </is>
       </c>
-      <c r="E27" s="11" t="inlineStr">
+      <c r="E27" s="12" t="inlineStr">
         <is>
           <t>25-Jun-2024</t>
         </is>
       </c>
-      <c r="F27" s="11" t="inlineStr">
+      <c r="F27" s="12" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="G27" s="1" t="n"/>
+      <c r="G27" s="15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="H27" s="1" t="n"/>
       <c r="I27" s="1" t="n"/>
       <c r="J27" s="1" t="n"/>
@@ -13643,32 +13916,36 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n"/>
-      <c r="B28" s="10" t="inlineStr">
+      <c r="B28" s="11" t="inlineStr">
         <is>
           <t>6.3</t>
         </is>
       </c>
-      <c r="C28" s="10" t="inlineStr">
+      <c r="C28" s="11" t="inlineStr">
         <is>
           <t>User Training</t>
         </is>
       </c>
-      <c r="D28" s="11" t="inlineStr">
+      <c r="D28" s="12" t="inlineStr">
         <is>
           <t>19-Jun-2024</t>
         </is>
       </c>
-      <c r="E28" s="11" t="inlineStr">
+      <c r="E28" s="12" t="inlineStr">
         <is>
           <t>02-Jul-2024</t>
         </is>
       </c>
-      <c r="F28" s="11" t="inlineStr">
+      <c r="F28" s="12" t="inlineStr">
         <is>
           <t>Ongoing</t>
         </is>
       </c>
-      <c r="G28" s="1" t="n"/>
+      <c r="G28" s="15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="H28" s="1" t="n"/>
       <c r="I28" s="1" t="n"/>
       <c r="J28" s="1" t="n"/>
@@ -17458,13 +17735,14 @@
       <c r="AX100" s="1" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
     <mergeCell ref="B5"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="B9"/>
+    <mergeCell ref="G1:G3"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="C1:C3"/>
+    <mergeCell ref="B9"/>
     <mergeCell ref="B13"/>
     <mergeCell ref="B17"/>
     <mergeCell ref="C17"/>
@@ -17477,18 +17755,33 @@
     <mergeCell ref="C5"/>
     <mergeCell ref="C9"/>
   </mergeCells>
+  <conditionalFormatting sqref="G5:G28">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="percentile" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="percentile" val="100"/>
+        <color rgb="00D2DDDC"/>
+        <color rgb="0065DBCE"/>
+        <color rgb="0002FCE0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F5:F28">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
+    <cfRule type="cellIs" priority="2" operator="equal" dxfId="0">
       <formula>"Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="2" operator="equal" dxfId="1">
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="1">
       <formula>"At Risk"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="2">
+    <cfRule type="cellIs" priority="4" operator="equal" dxfId="2">
       <formula>"Delayed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations count="2">
+    <dataValidation sqref="G5 G6 G7 G8 G9 G10 G11 G12 G13 G14 G15 G16 G17 G18 G19 G20 G21 G22 G23 G24 G25 G26 G27 G28" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Invalid entry, please select from the list" type="list">
+      <formula1>"0%,10%,20%,25%,30%,40%,50%,60%,70%,75%,80%,90%,100%"</formula1>
+    </dataValidation>
     <dataValidation sqref="F5 F6 F7 F8 F9 F10 F11 F12 F13 F14 F15 F16 F17 F18 F19 F20 F21 F22 F23 F24 F25 F26 F27 F28" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Invalid entry, please select from the list" type="list">
       <formula1>"Ongoing,At Risk,Delayed"</formula1>
     </dataValidation>
@@ -17515,7 +17808,7 @@
     <col width="30" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
     <col width="20" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
     <col width="20" customWidth="1" min="9" max="9"/>
@@ -17527,6 +17820,7 @@
     <col width="20" customWidth="1" min="15" max="15"/>
     <col width="20" customWidth="1" min="16" max="16"/>
     <col width="20" customWidth="1" min="17" max="17"/>
+    <col width="20" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -17811,47 +18105,47 @@
           <t>23-Apr-2024</t>
         </is>
       </c>
-      <c r="F5" s="11" t="inlineStr">
+      <c r="F5" s="12" t="inlineStr">
         <is>
           <t>Accountable</t>
         </is>
       </c>
-      <c r="G5" s="11" t="inlineStr">
+      <c r="G5" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="H5" s="11" t="inlineStr">
+      <c r="H5" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="I5" s="11" t="inlineStr">
+      <c r="I5" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="J5" s="11" t="inlineStr">
+      <c r="J5" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="K5" s="11" t="inlineStr">
+      <c r="K5" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="L5" s="11" t="inlineStr">
+      <c r="L5" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="M5" s="11" t="inlineStr">
+      <c r="M5" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="N5" s="11" t="inlineStr">
+      <c r="N5" s="12" t="inlineStr">
         <is>
           <t>Responsible</t>
         </is>
@@ -17895,67 +18189,67 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
-      <c r="B6" s="10" t="inlineStr">
+      <c r="B6" s="11" t="inlineStr">
         <is>
           <t>1.1</t>
         </is>
       </c>
-      <c r="C6" s="10" t="inlineStr">
+      <c r="C6" s="11" t="inlineStr">
         <is>
           <t>Initial Meeting</t>
         </is>
       </c>
-      <c r="D6" s="11" t="inlineStr">
+      <c r="D6" s="12" t="inlineStr">
         <is>
           <t>10-Apr-2024</t>
         </is>
       </c>
-      <c r="E6" s="11" t="inlineStr">
+      <c r="E6" s="12" t="inlineStr">
         <is>
           <t>16-Apr-2024</t>
         </is>
       </c>
-      <c r="F6" s="11" t="inlineStr">
+      <c r="F6" s="12" t="inlineStr">
         <is>
           <t>Accountable</t>
         </is>
       </c>
-      <c r="G6" s="11" t="inlineStr">
+      <c r="G6" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="H6" s="11" t="inlineStr">
+      <c r="H6" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="I6" s="11" t="inlineStr">
+      <c r="I6" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="J6" s="11" t="inlineStr">
+      <c r="J6" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="K6" s="11" t="inlineStr">
+      <c r="K6" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="L6" s="11" t="inlineStr">
+      <c r="L6" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="M6" s="11" t="inlineStr">
+      <c r="M6" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="N6" s="11" t="inlineStr">
+      <c r="N6" s="12" t="inlineStr">
         <is>
           <t>Responsible</t>
         </is>
@@ -17999,67 +18293,67 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
-      <c r="B7" s="10" t="inlineStr">
+      <c r="B7" s="11" t="inlineStr">
         <is>
           <t>1.2</t>
         </is>
       </c>
-      <c r="C7" s="10" t="inlineStr">
+      <c r="C7" s="11" t="inlineStr">
         <is>
           <t>Stakeholder Interviews</t>
         </is>
       </c>
-      <c r="D7" s="11" t="inlineStr">
+      <c r="D7" s="12" t="inlineStr">
         <is>
           <t>10-Apr-2024</t>
         </is>
       </c>
-      <c r="E7" s="11" t="inlineStr">
+      <c r="E7" s="12" t="inlineStr">
         <is>
           <t>16-Apr-2024</t>
         </is>
       </c>
-      <c r="F7" s="11" t="inlineStr">
+      <c r="F7" s="12" t="inlineStr">
         <is>
           <t>Accountable</t>
         </is>
       </c>
-      <c r="G7" s="11" t="inlineStr">
+      <c r="G7" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="H7" s="11" t="inlineStr">
+      <c r="H7" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="I7" s="11" t="inlineStr">
+      <c r="I7" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="J7" s="11" t="inlineStr">
+      <c r="J7" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="K7" s="11" t="inlineStr">
+      <c r="K7" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="L7" s="11" t="inlineStr">
+      <c r="L7" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="M7" s="11" t="inlineStr">
+      <c r="M7" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="N7" s="11" t="inlineStr">
+      <c r="N7" s="12" t="inlineStr">
         <is>
           <t>Responsible</t>
         </is>
@@ -18103,67 +18397,67 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
-      <c r="B8" s="10" t="inlineStr">
+      <c r="B8" s="11" t="inlineStr">
         <is>
           <t>1.3</t>
         </is>
       </c>
-      <c r="C8" s="10" t="inlineStr">
+      <c r="C8" s="11" t="inlineStr">
         <is>
           <t>Requirements Documentation</t>
         </is>
       </c>
-      <c r="D8" s="11" t="inlineStr">
+      <c r="D8" s="12" t="inlineStr">
         <is>
           <t>10-Apr-2024</t>
         </is>
       </c>
-      <c r="E8" s="11" t="inlineStr">
+      <c r="E8" s="12" t="inlineStr">
         <is>
           <t>23-Apr-2024</t>
         </is>
       </c>
-      <c r="F8" s="11" t="inlineStr">
+      <c r="F8" s="12" t="inlineStr">
         <is>
           <t>Accountable</t>
         </is>
       </c>
-      <c r="G8" s="11" t="inlineStr">
+      <c r="G8" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="H8" s="11" t="inlineStr">
+      <c r="H8" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="I8" s="11" t="inlineStr">
+      <c r="I8" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="J8" s="11" t="inlineStr">
+      <c r="J8" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="K8" s="11" t="inlineStr">
+      <c r="K8" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="L8" s="11" t="inlineStr">
+      <c r="L8" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="M8" s="11" t="inlineStr">
+      <c r="M8" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="N8" s="11" t="inlineStr">
+      <c r="N8" s="12" t="inlineStr">
         <is>
           <t>Responsible</t>
         </is>
@@ -18227,47 +18521,47 @@
           <t>07-May-2024</t>
         </is>
       </c>
-      <c r="F9" s="11" t="inlineStr">
+      <c r="F9" s="12" t="inlineStr">
         <is>
           <t>Accountable</t>
         </is>
       </c>
-      <c r="G9" s="11" t="inlineStr">
+      <c r="G9" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="H9" s="11" t="inlineStr">
+      <c r="H9" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="I9" s="11" t="inlineStr">
+      <c r="I9" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="J9" s="11" t="inlineStr">
+      <c r="J9" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="K9" s="11" t="inlineStr">
+      <c r="K9" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="L9" s="11" t="inlineStr">
+      <c r="L9" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="M9" s="11" t="inlineStr">
+      <c r="M9" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="N9" s="11" t="inlineStr">
+      <c r="N9" s="12" t="inlineStr">
         <is>
           <t>Responsible</t>
         </is>
@@ -18311,67 +18605,67 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
-      <c r="B10" s="10" t="inlineStr">
+      <c r="B10" s="11" t="inlineStr">
         <is>
           <t>2.1</t>
         </is>
       </c>
-      <c r="C10" s="10" t="inlineStr">
+      <c r="C10" s="11" t="inlineStr">
         <is>
           <t>System Architecture Design</t>
         </is>
       </c>
-      <c r="D10" s="11" t="inlineStr">
+      <c r="D10" s="12" t="inlineStr">
         <is>
           <t>24-Apr-2024</t>
         </is>
       </c>
-      <c r="E10" s="11" t="inlineStr">
+      <c r="E10" s="12" t="inlineStr">
         <is>
           <t>30-Apr-2024</t>
         </is>
       </c>
-      <c r="F10" s="11" t="inlineStr">
+      <c r="F10" s="12" t="inlineStr">
         <is>
           <t>Accountable</t>
         </is>
       </c>
-      <c r="G10" s="11" t="inlineStr">
+      <c r="G10" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="H10" s="11" t="inlineStr">
+      <c r="H10" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="I10" s="11" t="inlineStr">
+      <c r="I10" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="J10" s="11" t="inlineStr">
+      <c r="J10" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="K10" s="11" t="inlineStr">
+      <c r="K10" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="L10" s="11" t="inlineStr">
+      <c r="L10" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="M10" s="11" t="inlineStr">
+      <c r="M10" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="N10" s="11" t="inlineStr">
+      <c r="N10" s="12" t="inlineStr">
         <is>
           <t>Responsible</t>
         </is>
@@ -18415,67 +18709,67 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
-      <c r="B11" s="10" t="inlineStr">
+      <c r="B11" s="11" t="inlineStr">
         <is>
           <t>2.2</t>
         </is>
       </c>
-      <c r="C11" s="10" t="inlineStr">
+      <c r="C11" s="11" t="inlineStr">
         <is>
           <t>Database Schema Design</t>
         </is>
       </c>
-      <c r="D11" s="11" t="inlineStr">
+      <c r="D11" s="12" t="inlineStr">
         <is>
           <t>24-Apr-2024</t>
         </is>
       </c>
-      <c r="E11" s="11" t="inlineStr">
+      <c r="E11" s="12" t="inlineStr">
         <is>
           <t>07-May-2024</t>
         </is>
       </c>
-      <c r="F11" s="11" t="inlineStr">
+      <c r="F11" s="12" t="inlineStr">
         <is>
           <t>Accountable</t>
         </is>
       </c>
-      <c r="G11" s="11" t="inlineStr">
+      <c r="G11" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="H11" s="11" t="inlineStr">
+      <c r="H11" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="I11" s="11" t="inlineStr">
+      <c r="I11" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="J11" s="11" t="inlineStr">
+      <c r="J11" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="K11" s="11" t="inlineStr">
+      <c r="K11" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="L11" s="11" t="inlineStr">
+      <c r="L11" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="M11" s="11" t="inlineStr">
+      <c r="M11" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="N11" s="11" t="inlineStr">
+      <c r="N11" s="12" t="inlineStr">
         <is>
           <t>Responsible</t>
         </is>
@@ -18519,67 +18813,67 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
-      <c r="B12" s="10" t="inlineStr">
+      <c r="B12" s="11" t="inlineStr">
         <is>
           <t>2.3</t>
         </is>
       </c>
-      <c r="C12" s="10" t="inlineStr">
+      <c r="C12" s="11" t="inlineStr">
         <is>
           <t>UI/UX Design</t>
         </is>
       </c>
-      <c r="D12" s="11" t="inlineStr">
+      <c r="D12" s="12" t="inlineStr">
         <is>
           <t>01-May-2024</t>
         </is>
       </c>
-      <c r="E12" s="11" t="inlineStr">
+      <c r="E12" s="12" t="inlineStr">
         <is>
           <t>07-May-2024</t>
         </is>
       </c>
-      <c r="F12" s="11" t="inlineStr">
+      <c r="F12" s="12" t="inlineStr">
         <is>
           <t>Accountable</t>
         </is>
       </c>
-      <c r="G12" s="11" t="inlineStr">
+      <c r="G12" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="H12" s="11" t="inlineStr">
+      <c r="H12" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="I12" s="11" t="inlineStr">
+      <c r="I12" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="J12" s="11" t="inlineStr">
+      <c r="J12" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="K12" s="11" t="inlineStr">
+      <c r="K12" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="L12" s="11" t="inlineStr">
+      <c r="L12" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="M12" s="11" t="inlineStr">
+      <c r="M12" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="N12" s="11" t="inlineStr">
+      <c r="N12" s="12" t="inlineStr">
         <is>
           <t>Responsible</t>
         </is>
@@ -18643,47 +18937,47 @@
           <t>28-May-2024</t>
         </is>
       </c>
-      <c r="F13" s="11" t="inlineStr">
+      <c r="F13" s="12" t="inlineStr">
         <is>
           <t>Accountable</t>
         </is>
       </c>
-      <c r="G13" s="11" t="inlineStr">
+      <c r="G13" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="H13" s="11" t="inlineStr">
+      <c r="H13" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="I13" s="11" t="inlineStr">
+      <c r="I13" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="J13" s="11" t="inlineStr">
+      <c r="J13" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="K13" s="11" t="inlineStr">
+      <c r="K13" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="L13" s="11" t="inlineStr">
+      <c r="L13" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="M13" s="11" t="inlineStr">
+      <c r="M13" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="N13" s="11" t="inlineStr">
+      <c r="N13" s="12" t="inlineStr">
         <is>
           <t>Responsible</t>
         </is>
@@ -18727,67 +19021,67 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
-      <c r="B14" s="10" t="inlineStr">
+      <c r="B14" s="11" t="inlineStr">
         <is>
           <t>3.1</t>
         </is>
       </c>
-      <c r="C14" s="10" t="inlineStr">
+      <c r="C14" s="11" t="inlineStr">
         <is>
           <t>Frontend Development</t>
         </is>
       </c>
-      <c r="D14" s="11" t="inlineStr">
+      <c r="D14" s="12" t="inlineStr">
         <is>
           <t>08-May-2024</t>
         </is>
       </c>
-      <c r="E14" s="11" t="inlineStr">
+      <c r="E14" s="12" t="inlineStr">
         <is>
           <t>14-May-2024</t>
         </is>
       </c>
-      <c r="F14" s="11" t="inlineStr">
+      <c r="F14" s="12" t="inlineStr">
         <is>
           <t>Accountable</t>
         </is>
       </c>
-      <c r="G14" s="11" t="inlineStr">
+      <c r="G14" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="H14" s="11" t="inlineStr">
+      <c r="H14" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="I14" s="11" t="inlineStr">
+      <c r="I14" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="J14" s="11" t="inlineStr">
+      <c r="J14" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="K14" s="11" t="inlineStr">
+      <c r="K14" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="L14" s="11" t="inlineStr">
+      <c r="L14" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="M14" s="11" t="inlineStr">
+      <c r="M14" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="N14" s="11" t="inlineStr">
+      <c r="N14" s="12" t="inlineStr">
         <is>
           <t>Responsible</t>
         </is>
@@ -18831,67 +19125,67 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
-      <c r="B15" s="10" t="inlineStr">
+      <c r="B15" s="11" t="inlineStr">
         <is>
           <t>3.2</t>
         </is>
       </c>
-      <c r="C15" s="10" t="inlineStr">
+      <c r="C15" s="11" t="inlineStr">
         <is>
           <t>Backend Development</t>
         </is>
       </c>
-      <c r="D15" s="11" t="inlineStr">
+      <c r="D15" s="12" t="inlineStr">
         <is>
           <t>15-May-2024</t>
         </is>
       </c>
-      <c r="E15" s="11" t="inlineStr">
+      <c r="E15" s="12" t="inlineStr">
         <is>
           <t>28-May-2024</t>
         </is>
       </c>
-      <c r="F15" s="11" t="inlineStr">
+      <c r="F15" s="12" t="inlineStr">
         <is>
           <t>Accountable</t>
         </is>
       </c>
-      <c r="G15" s="11" t="inlineStr">
+      <c r="G15" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="H15" s="11" t="inlineStr">
+      <c r="H15" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="I15" s="11" t="inlineStr">
+      <c r="I15" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="J15" s="11" t="inlineStr">
+      <c r="J15" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="K15" s="11" t="inlineStr">
+      <c r="K15" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="L15" s="11" t="inlineStr">
+      <c r="L15" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="M15" s="11" t="inlineStr">
+      <c r="M15" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="N15" s="11" t="inlineStr">
+      <c r="N15" s="12" t="inlineStr">
         <is>
           <t>Responsible</t>
         </is>
@@ -18935,67 +19229,67 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
-      <c r="B16" s="10" t="inlineStr">
+      <c r="B16" s="11" t="inlineStr">
         <is>
           <t>3.3</t>
         </is>
       </c>
-      <c r="C16" s="10" t="inlineStr">
+      <c r="C16" s="11" t="inlineStr">
         <is>
           <t>Integration</t>
         </is>
       </c>
-      <c r="D16" s="11" t="inlineStr">
+      <c r="D16" s="12" t="inlineStr">
         <is>
           <t>22-May-2024</t>
         </is>
       </c>
-      <c r="E16" s="11" t="inlineStr">
+      <c r="E16" s="12" t="inlineStr">
         <is>
           <t>28-May-2024</t>
         </is>
       </c>
-      <c r="F16" s="11" t="inlineStr">
+      <c r="F16" s="12" t="inlineStr">
         <is>
           <t>Accountable</t>
         </is>
       </c>
-      <c r="G16" s="11" t="inlineStr">
+      <c r="G16" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="H16" s="11" t="inlineStr">
+      <c r="H16" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="I16" s="11" t="inlineStr">
+      <c r="I16" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="J16" s="11" t="inlineStr">
+      <c r="J16" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="K16" s="11" t="inlineStr">
+      <c r="K16" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="L16" s="11" t="inlineStr">
+      <c r="L16" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="M16" s="11" t="inlineStr">
+      <c r="M16" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="N16" s="11" t="inlineStr">
+      <c r="N16" s="12" t="inlineStr">
         <is>
           <t>Responsible</t>
         </is>
@@ -19059,47 +19353,47 @@
           <t>11-Jun-2024</t>
         </is>
       </c>
-      <c r="F17" s="11" t="inlineStr">
+      <c r="F17" s="12" t="inlineStr">
         <is>
           <t>Accountable</t>
         </is>
       </c>
-      <c r="G17" s="11" t="inlineStr">
+      <c r="G17" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="H17" s="11" t="inlineStr">
+      <c r="H17" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="I17" s="11" t="inlineStr">
+      <c r="I17" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="J17" s="11" t="inlineStr">
+      <c r="J17" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="K17" s="11" t="inlineStr">
+      <c r="K17" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="L17" s="11" t="inlineStr">
+      <c r="L17" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="M17" s="11" t="inlineStr">
+      <c r="M17" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="N17" s="11" t="inlineStr">
+      <c r="N17" s="12" t="inlineStr">
         <is>
           <t>Responsible</t>
         </is>
@@ -19143,67 +19437,67 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
-      <c r="B18" s="10" t="inlineStr">
+      <c r="B18" s="11" t="inlineStr">
         <is>
           <t>4.1</t>
         </is>
       </c>
-      <c r="C18" s="10" t="inlineStr">
+      <c r="C18" s="11" t="inlineStr">
         <is>
           <t>Unit Testing</t>
         </is>
       </c>
-      <c r="D18" s="11" t="inlineStr">
+      <c r="D18" s="12" t="inlineStr">
         <is>
           <t>29-May-2024</t>
         </is>
       </c>
-      <c r="E18" s="11" t="inlineStr">
+      <c r="E18" s="12" t="inlineStr">
         <is>
           <t>04-Jun-2024</t>
         </is>
       </c>
-      <c r="F18" s="11" t="inlineStr">
+      <c r="F18" s="12" t="inlineStr">
         <is>
           <t>Accountable</t>
         </is>
       </c>
-      <c r="G18" s="11" t="inlineStr">
+      <c r="G18" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="H18" s="11" t="inlineStr">
+      <c r="H18" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="I18" s="11" t="inlineStr">
+      <c r="I18" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="J18" s="11" t="inlineStr">
+      <c r="J18" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="K18" s="11" t="inlineStr">
+      <c r="K18" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="L18" s="11" t="inlineStr">
+      <c r="L18" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="M18" s="11" t="inlineStr">
+      <c r="M18" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="N18" s="11" t="inlineStr">
+      <c r="N18" s="12" t="inlineStr">
         <is>
           <t>Responsible</t>
         </is>
@@ -19247,67 +19541,67 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
-      <c r="B19" s="10" t="inlineStr">
+      <c r="B19" s="11" t="inlineStr">
         <is>
           <t>4.2</t>
         </is>
       </c>
-      <c r="C19" s="10" t="inlineStr">
+      <c r="C19" s="11" t="inlineStr">
         <is>
           <t>Integration Testing</t>
         </is>
       </c>
-      <c r="D19" s="11" t="inlineStr">
+      <c r="D19" s="12" t="inlineStr">
         <is>
           <t>29-May-2024</t>
         </is>
       </c>
-      <c r="E19" s="11" t="inlineStr">
+      <c r="E19" s="12" t="inlineStr">
         <is>
           <t>11-Jun-2024</t>
         </is>
       </c>
-      <c r="F19" s="11" t="inlineStr">
+      <c r="F19" s="12" t="inlineStr">
         <is>
           <t>Accountable</t>
         </is>
       </c>
-      <c r="G19" s="11" t="inlineStr">
+      <c r="G19" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="H19" s="11" t="inlineStr">
+      <c r="H19" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="I19" s="11" t="inlineStr">
+      <c r="I19" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="J19" s="11" t="inlineStr">
+      <c r="J19" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="K19" s="11" t="inlineStr">
+      <c r="K19" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="L19" s="11" t="inlineStr">
+      <c r="L19" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="M19" s="11" t="inlineStr">
+      <c r="M19" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="N19" s="11" t="inlineStr">
+      <c r="N19" s="12" t="inlineStr">
         <is>
           <t>Responsible</t>
         </is>
@@ -19351,67 +19645,67 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
-      <c r="B20" s="10" t="inlineStr">
+      <c r="B20" s="11" t="inlineStr">
         <is>
           <t>4.3</t>
         </is>
       </c>
-      <c r="C20" s="10" t="inlineStr">
+      <c r="C20" s="11" t="inlineStr">
         <is>
           <t>User Acceptance Testing</t>
         </is>
       </c>
-      <c r="D20" s="11" t="inlineStr">
+      <c r="D20" s="12" t="inlineStr">
         <is>
           <t>05-Jun-2024</t>
         </is>
       </c>
-      <c r="E20" s="11" t="inlineStr">
+      <c r="E20" s="12" t="inlineStr">
         <is>
           <t>11-Jun-2024</t>
         </is>
       </c>
-      <c r="F20" s="11" t="inlineStr">
+      <c r="F20" s="12" t="inlineStr">
         <is>
           <t>Accountable</t>
         </is>
       </c>
-      <c r="G20" s="11" t="inlineStr">
+      <c r="G20" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="H20" s="11" t="inlineStr">
+      <c r="H20" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="I20" s="11" t="inlineStr">
+      <c r="I20" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="J20" s="11" t="inlineStr">
+      <c r="J20" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="K20" s="11" t="inlineStr">
+      <c r="K20" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="L20" s="11" t="inlineStr">
+      <c r="L20" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="M20" s="11" t="inlineStr">
+      <c r="M20" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="N20" s="11" t="inlineStr">
+      <c r="N20" s="12" t="inlineStr">
         <is>
           <t>Responsible</t>
         </is>
@@ -19475,47 +19769,47 @@
           <t>18-Jun-2024</t>
         </is>
       </c>
-      <c r="F21" s="11" t="inlineStr">
+      <c r="F21" s="12" t="inlineStr">
         <is>
           <t>Accountable</t>
         </is>
       </c>
-      <c r="G21" s="11" t="inlineStr">
+      <c r="G21" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="H21" s="11" t="inlineStr">
+      <c r="H21" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="I21" s="11" t="inlineStr">
+      <c r="I21" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="J21" s="11" t="inlineStr">
+      <c r="J21" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="K21" s="11" t="inlineStr">
+      <c r="K21" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="L21" s="11" t="inlineStr">
+      <c r="L21" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="M21" s="11" t="inlineStr">
+      <c r="M21" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="N21" s="11" t="inlineStr">
+      <c r="N21" s="12" t="inlineStr">
         <is>
           <t>Responsible</t>
         </is>
@@ -19559,67 +19853,67 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
-      <c r="B22" s="10" t="inlineStr">
+      <c r="B22" s="11" t="inlineStr">
         <is>
           <t>5.1</t>
         </is>
       </c>
-      <c r="C22" s="10" t="inlineStr">
+      <c r="C22" s="11" t="inlineStr">
         <is>
           <t>Prepare Deployment Environment</t>
         </is>
       </c>
-      <c r="D22" s="11" t="inlineStr">
+      <c r="D22" s="12" t="inlineStr">
         <is>
           <t>12-Jun-2024</t>
         </is>
       </c>
-      <c r="E22" s="11" t="inlineStr">
+      <c r="E22" s="12" t="inlineStr">
         <is>
           <t>18-Jun-2024</t>
         </is>
       </c>
-      <c r="F22" s="11" t="inlineStr">
+      <c r="F22" s="12" t="inlineStr">
         <is>
           <t>Accountable</t>
         </is>
       </c>
-      <c r="G22" s="11" t="inlineStr">
+      <c r="G22" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="H22" s="11" t="inlineStr">
+      <c r="H22" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="I22" s="11" t="inlineStr">
+      <c r="I22" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="J22" s="11" t="inlineStr">
+      <c r="J22" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="K22" s="11" t="inlineStr">
+      <c r="K22" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="L22" s="11" t="inlineStr">
+      <c r="L22" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="M22" s="11" t="inlineStr">
+      <c r="M22" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="N22" s="11" t="inlineStr">
+      <c r="N22" s="12" t="inlineStr">
         <is>
           <t>Responsible</t>
         </is>
@@ -19663,67 +19957,67 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
-      <c r="B23" s="10" t="inlineStr">
+      <c r="B23" s="11" t="inlineStr">
         <is>
           <t>5.2</t>
         </is>
       </c>
-      <c r="C23" s="10" t="inlineStr">
+      <c r="C23" s="11" t="inlineStr">
         <is>
           <t>Deployment</t>
         </is>
       </c>
-      <c r="D23" s="11" t="inlineStr">
+      <c r="D23" s="12" t="inlineStr">
         <is>
           <t>12-Jun-2024</t>
         </is>
       </c>
-      <c r="E23" s="11" t="inlineStr">
+      <c r="E23" s="12" t="inlineStr">
         <is>
           <t>18-Jun-2024</t>
         </is>
       </c>
-      <c r="F23" s="11" t="inlineStr">
+      <c r="F23" s="12" t="inlineStr">
         <is>
           <t>Accountable</t>
         </is>
       </c>
-      <c r="G23" s="11" t="inlineStr">
+      <c r="G23" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="H23" s="11" t="inlineStr">
+      <c r="H23" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="I23" s="11" t="inlineStr">
+      <c r="I23" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="J23" s="11" t="inlineStr">
+      <c r="J23" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="K23" s="11" t="inlineStr">
+      <c r="K23" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="L23" s="11" t="inlineStr">
+      <c r="L23" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="M23" s="11" t="inlineStr">
+      <c r="M23" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="N23" s="11" t="inlineStr">
+      <c r="N23" s="12" t="inlineStr">
         <is>
           <t>Responsible</t>
         </is>
@@ -19767,67 +20061,67 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
-      <c r="B24" s="10" t="inlineStr">
+      <c r="B24" s="11" t="inlineStr">
         <is>
           <t>5.3</t>
         </is>
       </c>
-      <c r="C24" s="10" t="inlineStr">
+      <c r="C24" s="11" t="inlineStr">
         <is>
           <t>Post-Deployment Verification</t>
         </is>
       </c>
-      <c r="D24" s="11" t="inlineStr">
+      <c r="D24" s="12" t="inlineStr">
         <is>
           <t>12-Jun-2024</t>
         </is>
       </c>
-      <c r="E24" s="11" t="inlineStr">
+      <c r="E24" s="12" t="inlineStr">
         <is>
           <t>18-Jun-2024</t>
         </is>
       </c>
-      <c r="F24" s="11" t="inlineStr">
+      <c r="F24" s="12" t="inlineStr">
         <is>
           <t>Accountable</t>
         </is>
       </c>
-      <c r="G24" s="11" t="inlineStr">
+      <c r="G24" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="H24" s="11" t="inlineStr">
+      <c r="H24" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="I24" s="11" t="inlineStr">
+      <c r="I24" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="J24" s="11" t="inlineStr">
+      <c r="J24" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="K24" s="11" t="inlineStr">
+      <c r="K24" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="L24" s="11" t="inlineStr">
+      <c r="L24" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="M24" s="11" t="inlineStr">
+      <c r="M24" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="N24" s="11" t="inlineStr">
+      <c r="N24" s="12" t="inlineStr">
         <is>
           <t>Responsible</t>
         </is>
@@ -19891,47 +20185,47 @@
           <t>02-Jul-2024</t>
         </is>
       </c>
-      <c r="F25" s="11" t="inlineStr">
+      <c r="F25" s="12" t="inlineStr">
         <is>
           <t>Accountable</t>
         </is>
       </c>
-      <c r="G25" s="11" t="inlineStr">
+      <c r="G25" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="H25" s="11" t="inlineStr">
+      <c r="H25" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="I25" s="11" t="inlineStr">
+      <c r="I25" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="J25" s="11" t="inlineStr">
+      <c r="J25" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="K25" s="11" t="inlineStr">
+      <c r="K25" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="L25" s="11" t="inlineStr">
+      <c r="L25" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="M25" s="11" t="inlineStr">
+      <c r="M25" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="N25" s="11" t="inlineStr">
+      <c r="N25" s="12" t="inlineStr">
         <is>
           <t>Responsible</t>
         </is>
@@ -19975,67 +20269,67 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
-      <c r="B26" s="10" t="inlineStr">
+      <c r="B26" s="11" t="inlineStr">
         <is>
           <t>6.1</t>
         </is>
       </c>
-      <c r="C26" s="10" t="inlineStr">
+      <c r="C26" s="11" t="inlineStr">
         <is>
           <t>Bug Fixing</t>
         </is>
       </c>
-      <c r="D26" s="11" t="inlineStr">
+      <c r="D26" s="12" t="inlineStr">
         <is>
           <t>19-Jun-2024</t>
         </is>
       </c>
-      <c r="E26" s="11" t="inlineStr">
+      <c r="E26" s="12" t="inlineStr">
         <is>
           <t>25-Jun-2024</t>
         </is>
       </c>
-      <c r="F26" s="11" t="inlineStr">
+      <c r="F26" s="12" t="inlineStr">
         <is>
           <t>Accountable</t>
         </is>
       </c>
-      <c r="G26" s="11" t="inlineStr">
+      <c r="G26" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="H26" s="11" t="inlineStr">
+      <c r="H26" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="I26" s="11" t="inlineStr">
+      <c r="I26" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="J26" s="11" t="inlineStr">
+      <c r="J26" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="K26" s="11" t="inlineStr">
+      <c r="K26" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="L26" s="11" t="inlineStr">
+      <c r="L26" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="M26" s="11" t="inlineStr">
+      <c r="M26" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="N26" s="11" t="inlineStr">
+      <c r="N26" s="12" t="inlineStr">
         <is>
           <t>Responsible</t>
         </is>
@@ -20079,67 +20373,67 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
-      <c r="B27" s="10" t="inlineStr">
+      <c r="B27" s="11" t="inlineStr">
         <is>
           <t>6.2</t>
         </is>
       </c>
-      <c r="C27" s="10" t="inlineStr">
+      <c r="C27" s="11" t="inlineStr">
         <is>
           <t>Performance Tuning</t>
         </is>
       </c>
-      <c r="D27" s="11" t="inlineStr">
+      <c r="D27" s="12" t="inlineStr">
         <is>
           <t>19-Jun-2024</t>
         </is>
       </c>
-      <c r="E27" s="11" t="inlineStr">
+      <c r="E27" s="12" t="inlineStr">
         <is>
           <t>25-Jun-2024</t>
         </is>
       </c>
-      <c r="F27" s="11" t="inlineStr">
+      <c r="F27" s="12" t="inlineStr">
         <is>
           <t>Accountable</t>
         </is>
       </c>
-      <c r="G27" s="11" t="inlineStr">
+      <c r="G27" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="H27" s="11" t="inlineStr">
+      <c r="H27" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="I27" s="11" t="inlineStr">
+      <c r="I27" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="J27" s="11" t="inlineStr">
+      <c r="J27" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="K27" s="11" t="inlineStr">
+      <c r="K27" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="L27" s="11" t="inlineStr">
+      <c r="L27" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="M27" s="11" t="inlineStr">
+      <c r="M27" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="N27" s="11" t="inlineStr">
+      <c r="N27" s="12" t="inlineStr">
         <is>
           <t>Responsible</t>
         </is>
@@ -20183,67 +20477,67 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n"/>
-      <c r="B28" s="10" t="inlineStr">
+      <c r="B28" s="11" t="inlineStr">
         <is>
           <t>6.3</t>
         </is>
       </c>
-      <c r="C28" s="10" t="inlineStr">
+      <c r="C28" s="11" t="inlineStr">
         <is>
           <t>User Training</t>
         </is>
       </c>
-      <c r="D28" s="11" t="inlineStr">
+      <c r="D28" s="12" t="inlineStr">
         <is>
           <t>19-Jun-2024</t>
         </is>
       </c>
-      <c r="E28" s="11" t="inlineStr">
+      <c r="E28" s="12" t="inlineStr">
         <is>
           <t>02-Jul-2024</t>
         </is>
       </c>
-      <c r="F28" s="11" t="inlineStr">
+      <c r="F28" s="12" t="inlineStr">
         <is>
           <t>Accountable</t>
         </is>
       </c>
-      <c r="G28" s="11" t="inlineStr">
+      <c r="G28" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="H28" s="11" t="inlineStr">
+      <c r="H28" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="I28" s="11" t="inlineStr">
+      <c r="I28" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="J28" s="11" t="inlineStr">
+      <c r="J28" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="K28" s="11" t="inlineStr">
+      <c r="K28" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="L28" s="11" t="inlineStr">
+      <c r="L28" s="12" t="inlineStr">
         <is>
           <t>Consulted</t>
         </is>
       </c>
-      <c r="M28" s="11" t="inlineStr">
+      <c r="M28" s="12" t="inlineStr">
         <is>
           <t>Informed</t>
         </is>
       </c>
-      <c r="N28" s="11" t="inlineStr">
+      <c r="N28" s="12" t="inlineStr">
         <is>
           <t>Responsible</t>
         </is>

--- a/chronogram.xlsx
+++ b/chronogram.xlsx
@@ -874,7 +874,7 @@
       </c>
       <c r="F5" s="9" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G5" s="10" t="n"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="F7" s="9" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="G7" s="1" t="n"/>
@@ -6258,7 +6258,7 @@
       </c>
       <c r="F5" s="9" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>High</t>
         </is>
       </c>
       <c r="G5" s="10" t="n"/>

--- a/chronogram.xlsx
+++ b/chronogram.xlsx
@@ -17856,47 +17856,47 @@
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>John Smith</t>
+          <t>Product Owner</t>
         </is>
       </c>
       <c r="G1" s="2" t="inlineStr">
         <is>
-          <t>Jane Doe</t>
+          <t>Business Analyst</t>
         </is>
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>Emily Davis</t>
+          <t>Financial Lead</t>
         </is>
       </c>
       <c r="I1" s="2" t="inlineStr">
         <is>
-          <t>Michael Brown</t>
+          <t>Design Director</t>
         </is>
       </c>
       <c r="J1" s="2" t="inlineStr">
         <is>
-          <t>Olivia Johnson</t>
+          <t>CRM Lead</t>
         </is>
       </c>
       <c r="K1" s="2" t="inlineStr">
         <is>
-          <t>Liam Williams</t>
+          <t>Head of CRM</t>
         </is>
       </c>
       <c r="L1" s="2" t="inlineStr">
         <is>
-          <t>Sophia Martinez</t>
+          <t>Senior Stakeholder*</t>
         </is>
       </c>
       <c r="M1" s="2" t="inlineStr">
         <is>
-          <t>William Garcia</t>
+          <t>Senior Stakeholder**</t>
         </is>
       </c>
       <c r="N1" s="2" t="inlineStr">
         <is>
-          <t>Ava Lee</t>
+          <t>AGENCY</t>
         </is>
       </c>
       <c r="O1" s="17" t="n"/>

--- a/chronogram.xlsx
+++ b/chronogram.xlsx
@@ -17856,47 +17856,47 @@
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>Product Owner</t>
+          <t>John Smith</t>
         </is>
       </c>
       <c r="G1" s="2" t="inlineStr">
         <is>
-          <t>Business Analyst</t>
+          <t>Jane Doe</t>
         </is>
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>Financial Lead</t>
+          <t>Emily Davis</t>
         </is>
       </c>
       <c r="I1" s="2" t="inlineStr">
         <is>
-          <t>Design Director</t>
+          <t>Michael Brown</t>
         </is>
       </c>
       <c r="J1" s="2" t="inlineStr">
         <is>
-          <t>CRM Lead</t>
+          <t>Olivia Johnson</t>
         </is>
       </c>
       <c r="K1" s="2" t="inlineStr">
         <is>
-          <t>Head of CRM</t>
+          <t>Liam Williams</t>
         </is>
       </c>
       <c r="L1" s="2" t="inlineStr">
         <is>
-          <t>Senior Stakeholder*</t>
+          <t>Sophia Martinez</t>
         </is>
       </c>
       <c r="M1" s="2" t="inlineStr">
         <is>
-          <t>Senior Stakeholder**</t>
+          <t>William Garcia</t>
         </is>
       </c>
       <c r="N1" s="2" t="inlineStr">
         <is>
-          <t>AGENCY</t>
+          <t>Creative Solutions Inc.</t>
         </is>
       </c>
       <c r="O1" s="17" t="n"/>
